--- a/Results/Clive_Agnew 2017-11-04.xlsx
+++ b/Results/Clive_Agnew 2017-11-04.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="547">
   <si>
     <t>department</t>
   </si>
@@ -56,109 +56,235 @@
     <t>Geography</t>
   </si>
   <si>
+    <t xml:space="preserve">Prof Clive Agnew research profile - personal details   </t>
+  </si>
+  <si>
+    <t>Professor Nigel Titchener-Hooker</t>
+  </si>
+  <si>
+    <t>Professor Alan Thompson</t>
+  </si>
+  <si>
+    <t>Peter Wood</t>
+  </si>
+  <si>
+    <t>Vivienne Jones</t>
+  </si>
+  <si>
+    <t>Professor Graham Hart</t>
+  </si>
+  <si>
+    <t>Professor Mary Fulbrook</t>
+  </si>
+  <si>
+    <t>Prof Jamie Woodward</t>
+  </si>
+  <si>
+    <t>Professor Alan Penn</t>
+  </si>
+  <si>
+    <t>Ann Varley</t>
+  </si>
+  <si>
+    <t>Hugh Clout</t>
+  </si>
+  <si>
+    <t>Philip Lewis</t>
+  </si>
+  <si>
+    <t>Mat Disney</t>
+  </si>
+  <si>
+    <t>Professor Ivan Parkin</t>
+  </si>
+  <si>
+    <t>James Kneale</t>
+  </si>
+  <si>
+    <t>Alan Gilbert</t>
+  </si>
+  <si>
+    <t>Rick Battarbee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Prof                      Kevin Ward           </t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Muki Haklay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof Erik Swyngedouw research profile - personal details   </t>
+  </si>
+  <si>
+    <t>Anson Mackay</t>
+  </si>
+  <si>
+    <t>Jon French</t>
+  </si>
+  <si>
+    <t>Andrew Harris</t>
+  </si>
+  <si>
+    <t>Professor Geraint Rees</t>
+  </si>
+  <si>
+    <t>Professor David Lomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Prof                      Maria Kaika           </t>
+  </si>
+  <si>
+    <t>Richard Taylor</t>
+  </si>
+  <si>
+    <t>David Horne</t>
+  </si>
+  <si>
+    <t>Mark Maslin</t>
+  </si>
+  <si>
+    <t>Prof James Evans</t>
+  </si>
+  <si>
+    <t>Kate Spencer</t>
+  </si>
+  <si>
+    <t>Helen Bennion</t>
+  </si>
+  <si>
+    <t>Jon May</t>
+  </si>
+  <si>
+    <t>Jason Dittmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Prof                      Noel Castree           </t>
+  </si>
+  <si>
+    <t>Adrian Smith</t>
+  </si>
+  <si>
+    <t>Kavita Datta</t>
+  </si>
+  <si>
+    <t>Isabel Dyck</t>
+  </si>
+  <si>
+    <t>Neil Rose</t>
+  </si>
+  <si>
+    <t>Kate Heppell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Prof                      Stefan Bouzarovski           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Prof                      Brian Robson           </t>
+  </si>
+  <si>
+    <t>Lisa Belyea</t>
+  </si>
+  <si>
+    <t>Angela Gurnell</t>
+  </si>
+  <si>
+    <t>Emrys Phillips</t>
+  </si>
+  <si>
+    <t>Philip Ogden</t>
+  </si>
+  <si>
+    <t>Roger Flower</t>
+  </si>
+  <si>
+    <t>Peter Congdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof Peter Dicken research profile - personal details   </t>
+  </si>
+  <si>
+    <t>Professor Mark Emberton</t>
+  </si>
+  <si>
+    <t>Geraldene Wharton</t>
+  </si>
+  <si>
+    <t>Professor Ingrid Schoon</t>
+  </si>
+  <si>
+    <t>Prof Martin Evans</t>
+  </si>
+  <si>
+    <t>Regan Koch</t>
+  </si>
+  <si>
+    <t>Alastair Owens</t>
+  </si>
+  <si>
+    <t>Simon Lewis</t>
+  </si>
+  <si>
+    <t>David Smith</t>
+  </si>
+  <si>
+    <t>Roger Lee</t>
+  </si>
+  <si>
+    <t>Bruce Atkinson</t>
+  </si>
+  <si>
+    <t>Jennifer Robinson</t>
+  </si>
+  <si>
+    <t>Andrew Barry</t>
+  </si>
+  <si>
+    <t>Jonathan Holmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof Ian Douglas research profile - personal details   </t>
+  </si>
+  <si>
+    <t>Dr Sarah Lindley</t>
+  </si>
+  <si>
+    <t>Richard Dennis</t>
+  </si>
+  <si>
+    <t>Professor Becky Francis</t>
+  </si>
+  <si>
+    <t>Mark Serreze</t>
+  </si>
+  <si>
+    <t>John Salt</t>
+  </si>
+  <si>
+    <t>Catherine Nash</t>
+  </si>
+  <si>
+    <t>Prof Michael Bradford</t>
+  </si>
+  <si>
+    <t>Miles Ogborn</t>
+  </si>
+  <si>
+    <t>Professor Nick Fox</t>
+  </si>
+  <si>
     <t>John Adams</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof Clive Agnew research profile - personal details   </t>
-  </si>
-  <si>
-    <t>Professor Graham Hart</t>
-  </si>
-  <si>
-    <t>Professor Mary Fulbrook</t>
-  </si>
-  <si>
-    <t>Prof Jamie Woodward</t>
-  </si>
-  <si>
-    <t>Professor Ivan Parkin</t>
-  </si>
-  <si>
-    <t>Ann Varley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof Erik Swyngedouw research profile - personal details   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Prof                      Noel Castree           </t>
-  </si>
-  <si>
-    <t>Professor Geraint Rees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Prof                      Kevin Ward           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof Peter Dicken research profile - personal details   </t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Dr Sarah Lindley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof Ian Douglas research profile - personal details   </t>
-  </si>
-  <si>
     <t>Professor David Voas</t>
   </si>
   <si>
-    <t>David Horne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Prof                      Stefan Bouzarovski           </t>
-  </si>
-  <si>
-    <t>Professor Mark Emberton</t>
-  </si>
-  <si>
-    <t>Kate Heppell</t>
-  </si>
-  <si>
-    <t>David Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Prof                      Maria Kaika           </t>
-  </si>
-  <si>
-    <t>Neil Rose</t>
-  </si>
-  <si>
-    <t>Philip Ogden</t>
-  </si>
-  <si>
-    <t>Prof Martin Evans</t>
-  </si>
-  <si>
-    <t>Miles Ogborn</t>
-  </si>
-  <si>
-    <t>Jon May</t>
-  </si>
-  <si>
-    <t>Catherine Nash</t>
-  </si>
-  <si>
-    <t>Prof Michael Bradford</t>
-  </si>
-  <si>
-    <t>Bruce Atkinson</t>
-  </si>
-  <si>
-    <t>Prof James Evans</t>
-  </si>
-  <si>
-    <t>Simon Lewis</t>
-  </si>
-  <si>
-    <t>Professor Ingrid Schoon</t>
-  </si>
-  <si>
-    <t>Professor Becky Francis</t>
-  </si>
-  <si>
-    <t>Jennifer Robinson</t>
+    <t>T. E. H Allott</t>
+  </si>
+  <si>
+    <t>Alison Blunt</t>
   </si>
   <si>
     <t>Dr Christopher Davies</t>
@@ -167,133 +293,274 @@
     <t>Nigel Spence</t>
   </si>
   <si>
-    <t>Richard Taylor</t>
-  </si>
-  <si>
-    <t>Roger Lee</t>
-  </si>
-  <si>
-    <t>Regan Koch</t>
+    <t>Galen Murton</t>
   </si>
   <si>
     <t>The British Museum</t>
   </si>
   <si>
+    <t>London School of Economics and Political Science (LSE)</t>
+  </si>
+  <si>
+    <t>the Forest of Bowland</t>
+  </si>
+  <si>
+    <t>Trinity College</t>
+  </si>
+  <si>
+    <t>Linacre College</t>
+  </si>
+  <si>
+    <t>International Atomic Energy Agency</t>
+  </si>
+  <si>
+    <t>St. Catharine’s College</t>
+  </si>
+  <si>
     <t>the International Council for Ecopolis Development</t>
   </si>
   <si>
-    <t>Linacre College</t>
-  </si>
-  <si>
-    <t>International Atomic Energy Agency</t>
+    <t>The Geffrye Museum of the Home</t>
   </si>
   <si>
     <t>Professor</t>
   </si>
   <si>
+    <t>http://www.manchester.ac.uk/research/Clive.agnew/</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=NJTIT16</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=ATHOM52</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/emeritus/peter-wood</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/vivienne-jones</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=GJHAR40</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=MJAFU83</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/jamie-woodward(824b6850-1724-40a5-8978-4d7ab4c37994).html</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=APENN20</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/ann-varley</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/emeritus/hugh-clout</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/philip-lewis</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/mat-disney</t>
+  </si>
+  <si>
+    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=IPPAR53</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/james-kneale</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/emeritus/alan-gilbert</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/emeritus/rick-battarbee</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/kevin-ward(3c582ba6-98c6-4827-a09c-b3526da31c07).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/chronis-tzedakis</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/muki-haklay</t>
+  </si>
+  <si>
+    <t>http://www.manchester.ac.uk/research/Erik.swyngedouw/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/anson-mackay</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/jon-french</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/andrew-harris</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=GEREE91</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=DALOM96</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/maria-kaika(97541eb5-361c-46ca-9a1b-5c4d0f8d7278).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/richard-taylor</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/horned.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/mark-maslin</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/james-evans(4faa0491-1051-4f17-8352-0ed692c27feb).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/spencerk.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/helen-bennion</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/mayj.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/jason-dittmer</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/noel-castree(3da94e49-41aa-41fa-b282-fe720bfda833).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/smitha.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/dattak.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/dycki.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/neil-rose</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/heppellk.html</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/stefan-bouzarovski(8d90df20-26e3-4fe4-bca4-2499d02954f2).html</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/brian-robson(f778560f-757f-4ac3-997c-c94d42a72573).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/belyeal.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/gurnella.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/phillipse.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/ogdenp.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/emeritus/roger-flower</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/congdonp.html</t>
+  </si>
+  <si>
+    <t>http://www.manchester.ac.uk/research/Peter.dicken/</t>
+  </si>
+  <si>
+    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=MEMBE52</t>
+  </si>
+  <si>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=MEMBE52</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/whartong.html</t>
+  </si>
+  <si>
+    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=ISCHO87</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/martin-evans(0400751b-57f4-406b-ae5d-db224d3f8309).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/kochr.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/owensa.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/simon-lewis</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/smithdavid.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/leer.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/atkinsonb.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/jennifer-robinson</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/andrew-barry</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/academic-staff/jonathan-holmes</t>
+  </si>
+  <si>
+    <t>http://www.manchester.ac.uk/research/Ian.douglas/</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/lewiss.html</t>
+  </si>
+  <si>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/sarah-lindley(776b25e7-0fea-4c46-9f53-eb86c150705e).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/emeritus/richard-dennis</t>
+  </si>
+  <si>
+    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=BFRAN64</t>
+  </si>
+  <si>
+    <t>https://www.colorado.edu/geography/mark-serreze-0</t>
+  </si>
+  <si>
+    <t>http://www.geog.ucl.ac.uk/people/emeritus/john-salt</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/nashc.html</t>
+  </si>
+  <si>
+    <t>http://www.manchester.ac.uk/research/Michael.bradford/</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/ogbornm.html</t>
+  </si>
+  <si>
+    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=NCIFO25</t>
+  </si>
+  <si>
     <t>http://www.geog.ucl.ac.uk/people/emeritus/john-adams</t>
   </si>
   <si>
-    <t>http://www.manchester.ac.uk/research/Clive.agnew/</t>
-  </si>
-  <si>
-    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=GJHAR40</t>
-  </si>
-  <si>
-    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=MJAFU83</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/jamie-woodward(824b6850-1724-40a5-8978-4d7ab4c37994).html</t>
-  </si>
-  <si>
-    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=IPPAR53</t>
-  </si>
-  <si>
-    <t>http://www.geog.ucl.ac.uk/people/academic-staff/ann-varley</t>
-  </si>
-  <si>
-    <t>http://www.manchester.ac.uk/research/Erik.swyngedouw/</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/noel-castree(3da94e49-41aa-41fa-b282-fe720bfda833).html</t>
-  </si>
-  <si>
-    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=GEREE91</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/kevin-ward(3c582ba6-98c6-4827-a09c-b3526da31c07).html</t>
-  </si>
-  <si>
-    <t>http://www.manchester.ac.uk/research/Peter.dicken/</t>
-  </si>
-  <si>
-    <t>http://www.geog.ucl.ac.uk/people/academic-staff/chronis-tzedakis</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/sarah-lindley(776b25e7-0fea-4c46-9f53-eb86c150705e).html</t>
-  </si>
-  <si>
-    <t>http://www.manchester.ac.uk/research/Ian.douglas/</t>
-  </si>
-  <si>
     <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=DVOAS54</t>
   </si>
   <si>
-    <t>http://www.geog.qmul.ac.uk/staff/horned.html</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/stefan-bouzarovski(8d90df20-26e3-4fe4-bca4-2499d02954f2).html</t>
-  </si>
-  <si>
-    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=MEMBE52</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/heppellk.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/smithdavid.html</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/maria-kaika(97541eb5-361c-46ca-9a1b-5c4d0f8d7278).html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ucl.ac.uk/people/academic-staff/neil-rose</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/ogdenp.html</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/martin-evans(0400751b-57f4-406b-ae5d-db224d3f8309).html</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/ogbornm.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/mayj.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/nashc.html</t>
-  </si>
-  <si>
-    <t>http://www.manchester.ac.uk/research/Michael.bradford/</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/atkinsonb.html</t>
-  </si>
-  <si>
-    <t>https://www.research.manchester.ac.uk/portal/en/researchers/james-evans(4faa0491-1051-4f17-8352-0ed692c27feb).html</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/lewiss.html</t>
-  </si>
-  <si>
-    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=ISCHO87</t>
-  </si>
-  <si>
-    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=BFRAN64</t>
-  </si>
-  <si>
-    <t>http://www.geog.ucl.ac.uk/people/academic-staff/jennifer-robinson</t>
+    <t>https://www.research.manchester.ac.uk/portal/en/researchers/timothy-allott(a3a2cc31-ab9b-4c1d-b633-0b11caeaeae3).html</t>
+  </si>
+  <si>
+    <t>http://www.geog.qmul.ac.uk/staff/blunta.html</t>
   </si>
   <si>
     <t>http://www.manchester.ac.uk/research/Chris.davies/</t>
@@ -302,541 +569,1093 @@
     <t>http://www.geog.qmul.ac.uk/staff/spencen.html</t>
   </si>
   <si>
-    <t>http://www.geog.ucl.ac.uk/people/academic-staff/richard-taylor</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/leer.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.qmul.ac.uk/staff/kochr.html</t>
+    <t>http://iris.ucl.ac.uk/iris/browse/profile?upi=SJROG20</t>
+  </si>
+  <si>
+    <t>https://www.colorado.edu/geography/galen-murton-0</t>
   </si>
   <si>
     <t>peer</t>
   </si>
   <si>
+    <t>1980 PhD University of East Anglia, School of Development Studies. 'The water balance approach to the development of rainfed agriculture in South West Niger.' (NERC funded).</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Nigel Titchener-Hooker leads the EPSRC Centre for Innovative Manufacture in Emergent Macromolecular Therapies and was the past lead of the UCL Innovative Manufacturing Research Centre (IMRC) in Bioprocessing programme. This involves a multidisciplinary group from over a dozen departments to research new methods to speed the development of efficient and robust processes for the manufacture of the next generations of macromolecular drugs. The work brings together researchers from Structural and Molecular Biology (Professor John Ward), and within the Faculty of Engineering Science significant collaborations exist with Computer Science (Professor Tony Hunter), Chemical Engineering (Dr. Eva Sorenson and Dr. Lazaros Papageorgiou). Internally Dr. Dan Bracewell, Dr. Nicolas Szita, Dr. Yuhong Zhou, Dr. Eli Keshavarz-Moore and Professor Mike Hoare help Nigel in the management of the IMRC consortium that comprises 15 leading national and international companies. A major focus of Nigel’s work is the creation of whole bioprocess models and the use of these to gain process insights and understanding. Here he works with Dr. Yuhong Zhou in the creation of graphical user interfaces to visualise better process trade offs. With Dr. Suzanne Farid, Nigel has pioneered studies of decisional tools addressing the interface between bioprocessing and business issues. In line with the theme of whole bioprocess modelling, Nigel has collaborated with colleagues at Newcastle University (Professor Gary Montague, Professor Elaine Martin and Dr. Jarka Glassey) to create new ways of improving the performance of manufacturing processes by combining IMRC tools with agent-based methods. Nigel chairs the Engineering Doctorate (EngD) in Bioprocess Leadership activity now directed by Prof Gary Lye. Since its inception the EngD programme has attracted over 60 sponsor companies to date and nearly 100 projects have been funded under this mechanism which complements the research within the Department. Funding for the above research has come from the UK EPSRC, the TSB Technology Programme and a range of company collaborators. Nigel has held consultancies with a broad range of international companies and serves on the editorial board of key peer-reviewed journals. He was elected a Fellow of the Royal Academy of Engineering in 2008 in recognition of his pioneering work on biopharmaceuticals manufacturing. He is a Fellow of the Institution of Chemical Engineers and was awarded the Donal Medal for hsi contributions to Biochemical Engineering in 2013. He is Chair of the Board of the prestigious ACS-supported Recovery of Biological Products conference series. Nigel’s current teaching portfolio extends across all of the department’s programmes and include a major emphasis on Integrated Downstream Processing, Fluid Flow Fundamentals and Materials of Construction. He teaches on aspects of primary recovery and chromatographic purification.</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Alan Thompson is Dean of the UCL Faculty of Brain Sciences, and Chair of the Neuroscience Programme for UCLP Academic Health Science Centre. He is an NIHR Senior Investigator Emeritus, and an honorary consultant neurologist at the National Hospital for Neurology and Neurosurgery, Queen Square. Alan Thompson has an H-index of 100 (Research ID C-2654-2008), and is ranked 76th out of 5444 in the Essential Science Indicators section for Neuroscience and Behavior. He received his undergraduate degrees in 1979 and MD in 1985 from Trinity College Dublin, was elected Fellow of the Academy of Medical Sciences in 2015, FRCP in 1994, FRCPI in 1995, FAAN in 2009, FANA in 2013, and received an honorary doctorate from Hasselt University, Belgium, in 2008. He was awarded the 'Pioneer of the Nation' award at Buckingham Palace in 2003. His MD thesis on immunological and biochemical markers of disease activity in multiple sclerosis (MS) demonstrated for the first time active demyelination shown by the detection of breakdown products of myelin basic protein in the CSF in the absence of clinical symptoms. His post-doctorate research has been at the UCL Institute of Neurology and the National Hospital, Queen Square, where he carried out the first serial MRI studies of the natural history of individual disease groups in MS, demonstrating the value of MRI in monitoring the disease process, and developed protocols used internationally for the use of MRI in assessing the effectiveness of new treatments. He has developed MR techniques which improve pathological specificity, and developed techniques for measuring spinal cord atrophy and cerebral atrophy (indicating axonal loss). He has identified the unique characteristics of the primary progressive MS group, and is a member of a group of international experts who defined diagnostic criteria for MS in 2001, 2005 and 2010. In 2013 he was part of an expert group which looked at phenotypes in multiple sclerosis and redefined the course of the disease. In 1998 Alan Thompson was appointed to the first chair of Clinical Neurology and Neurorehabilitation in the UK, and in 2007 established and led the Department of Brain Repair and Rehabilitation at the UCL Institute of Neurology. He chaired MSIF's International Medical and Scientific Board until 2015, Chairs the Scientific Advisory Committee for the International Progressive MS Alliance (PMSA), is a member of the National MS Society (USA)'s Research Programs Advisory Committee, a Guarantor of Brain, and editor-in-chief of Multiple Sclerosis Journal. Uses magnetic resonance imaging (MRI) to evaluate the underlying pathology of multiple sclerosis (MS), measure brain atrophy, and establish reliable markers for disease progression and extent of disability. Methods are being developed to measure grey matter atrophy and abnormalities accurately, which, when incorporated into clinical trials as an outcome measure, will allow effective treatments to be identified, and show the likely relationship between grey matter atrophy and physical disability and cognitive impairment. With Professor Olga Ciccarelli studies mechanisms of damage in acute lesions affecting the motor tracts and, in particular, the effect they have on the axons that traverse them. New research hopes to establish the role of mitochondrial dysfunction in MS and whether the reversibility of mitochondrial dysfunction causes clinical improvement in MS patients. With Dr Ahmed Toosy studies structural/functional recovery mechanisms following optic neuritis to develop new strategies to enhance recovery and identify effective treatments. Collaborates with Dr Patrick Freund and team using imaging to identify morphometric changes which may predict clinical recovery after spinal cord injury. Within the Faculty of Brain Sciences, led UCL's successful bid to host the UK Dementia Research Institute Hub (£250 million granted in December 2016), enabling the therapeutic agenda and delivery of a transformative research initiative. Leads comprehensive programmes of research in dementia and mental health. As Chair of the Neuroscience Programme for the UCLP Academic Health Science Centre, bringing together researchers and patients groups to enhance information flow, transparency, and clinical effectiveness. Research into neurodegenerative disease is developing to create a dedicated national resource for testing novel therapies. Using a combination of novel biomarkers, at-risk cohorts, and sensitive and precise measures of progression, early proof of concept studies are planned to identify potential disease-modifying therapies. As UCLP Programme Director for Neurological Disorders held overview of improvements in stroke outcome in the London area and establishment of a quality metric across the area. Jointly led on a unified brain cancer service in North Central London culminating in a unified, single-site neurosurgical service and a dedicated Brain Tumour Centre for North Central London, and a collaborative research programme with the Cancer Institute. Established an Academic Medical Centre in Neuroscience, and a Dementia Strategy Board. Work on Neurological Outcome Measures focused on the development, evaluation, and application of rating scales to measure health outcomes, predominantly from the patient's perspective. Amongst the achievements are the MS Walking Scale, which contributed to the recent approval of a symptomatic treatment for MS (Fampridine), validation of a generic walking scale, and the MS Impact Scale (MSIS-29 with Professor Jeremy Hobart). The MS Impact Scale and the MS Walking Scale are used in clinical trials and epidemiological studies world-wide. In neurological disability management, Alan Thompson has worked on Quality Standards (2005); the MS World Atlas (with WHO/MSIF, 2008, 2011), and the Global Economic Study (with MSIF, 2010). He was a member of the WHO International Committee for Diagnostic Criteria, leading on MS, and is a member of the WHO International Advisory Group for the revision of ICD-10/ICD-11, Diseases of the Nervous System, leading the development of a new section for multiple sclerosis. Involved in multidisciplinary teaching to researchers, medical students, post-graduate students, nurses and therapists, focusing on MRI, neurorehabilitation, and the management of disability, with special focus on multiple sclerosis. As Director of Institute of Neurology fostered growth of the Education Unit to establish a four-year PhD programme in Clinical Neuroscience, a new MSc course in Advanced Neuroimaging, an online MSc for neurology trainees, and developing a distance learning postgraduate diploma in neuroscience (e-Brain) with the Joint Neurosciences Council and the EFNS. Within the CBRC launched an MSc in Translational Medicine. Involved in production of educational materials for patients relating to diagnosis, treatment and management of MS for the MS Society, MSIF, and the MS Trust. International teaching role: Teaches regularly in courses and workshops on neurorehabilitation, outcome measurement, MRI, and diagnosis and management of multiple sclerosis aimed at researchers, physicians, specialist nurses, therapists, and patient groups. Named lectures include the ECTRIMS Lecture (2015), the Don Paty Memorial Lecture (2015), the Charcot Lecture (2014), the Pringle Lecture (2011), Gowers Memorial Lecture (2009), BS Singhal Oration (2007).</t>
+  </si>
+  <si>
+    <t>. My research was then on industrial location and regional development in Britain. From the 1980s, however, it focused on the implications of the growth of producer and business services for modern regional restructuring. I formally retired in 2005, but remain active in research, conference attendance and writing, in collaboration with economic geographers and others at UCL and elsewhere. Head of the UCL Geography Department from 1997 until 2002. Other past roles include UCL Schools Liaison Officer, membership of many College and university Past member of the UCL Council, Academic Board, Social and Historical Sciences Faculty Board and many other committees. Head of UCL Geography Department from 1997-2002 and in 2002-3 convenor of UCL Geography's Centenary celebration events. Consultant, ‘Realising the full potential of London and the Core Cities’. Project on prospects for major English cities, funded by Manchester City Council/Greater London Authority on behalf of English ‘Core Cities Group’ Lead Consultant, 2005, ‘Enterprise development in deprived areas: Towards an inclusive knowledge economy’, Report to London Borough of Camden?LDA, October. (with Chapman, D, Brown, D, Harris, A and Boddy, C) Consultant, 'University-related companies in science, engineering and the creative arts among 13 Higher Education Institutions in London' (with Lawton Smith, H, Chapman, D, Reid, P, Barnes, T and Romerio, S) Report to London Higher, March 2007. Consultant, ‘Satisfying Labour Demand through Migration’, Report to the Home Office (SRG/10/013) for the European Migration Network. (with Salt, J, Mateos, P, Dobson, J, Latham, A, and others)., March 2011. I am interested in the role of business services in providing technical and managerial expertise, especially in relation to the capabilities of client organisations. The rapid growth of consultancies reflects wider restructuring processes in globalizing economic conditions, affecting the accessibility of places to technological and other commercially significant skills. ouncil and the European Commission. These included investigations into the development of small business service companies in SE and NW England (with D Keeble and J Bryson); the regional impacts of the use of consultancies by large clients; the regional conditions influencing foreign markets entry and development by business service companies (with P. O'Farrell); and the impacts of growing consultancies use for innovation in Europe (with teams from 8 other EU countries). More recent work has included studies of the innovative basis of UK and other European cities, especially the role of the 'knowledge intensive business services'; the prospects for inner city enterprise in London (for the London Borough of Camden); the range of entrepreneurial 'spin-off' from universities in London (with H. Lawton-Smith); international movement of expert staff by multinational companies, including consultancies (with J. Salt). KC Liang, 1972: Kowloon : a factorial study of urban land use and retail structure. R Auty, 1973: Scale economies and plant location in Caribbean Sugar industry. DJ North, 1974: Location change in the development of the firm: a study of the UK plastics industry since 1960.</t>
+  </si>
+  <si>
+    <t>which are microscopic unicellular algae which grow in a wide range of habitats in damp soils, lakes, rivers and seas. Extremely common in almost all freshwater and marine environments they are an excellent ecological indicator species sensitive to acidity, nutrients and salinity. Since they have a short life cycle they respond quickly to changes in conditions. Modern communities are used by environmental scientists for monitoring water quality especially in relation to the problems of acidification and eutrophication. Diatoms also preserve well in many lake and marine sediments and thus can be used reconstruct past conditions on a range of timescales from decades to tens of thousands of years. However she is also an environmental scientist interested in the application of multi-proxy palaeoecological techniques to the understanding of present day environmental problems. Current research interests are wide ranging and cover the following: I am interested how we can use palaeolimnology to create a better understanding of how lake ecosystems may respond to future changes whether these are due to climate change or pollution. The key to this is a deep knowledge of how lakes have responded to climate change and pollution over a range of timescales, obtained in many cases by using a multi-proxy approach. Much of my recent work has been concerned with changes in The Arctic, a region which is already responding to anthropogenic warming and which is predicted to be impacted by enhanced warming this century. The Carbo-North project ( ) and the SPICE project provided scenarios of Arctic change under various warming projections which were presented to stakeholders in Town Meetings in Usinsk, Pechora and Naryan Mar, in the Komi Republic region. I am one of the few active palaeo researchers in Russia and was recently invited to a Department of Energy and Climate Change meeting in Moscow to discuss better collaborative links with Russia. I have been involved with several major palaeolimnological research programmes in the Arctic, I am currently a co-investigator on a NERC Arctic programme project (NERC-LAC) leading the Russian aspect of the research. Another key aspect has been the development of the use of palaeolimnology in conservation. Working with the RSPB at Loch Ruthwen in Scotland we established a link between past productivity of the lake and the population of the rare Slavonian Grebe; this has directly led to ongoing research in the Flow Country in Caithness, funded by the Wildfowl and Wetlands Trust, examining whether a palaeolimnological approach can help to understand why populations of the Common Scoter have declined in the last 3 decades I remain a committed member of the International Diatom Society, having served as Secretary and now a committee member. I have taught diatoms to undergraduates, masters students, PhD students, including many overseas students, and professionals, running courses for the Environment Agency for example. Recently I have talked to sixth formers and the local Civic Society in Hertfordshire about climate change, hosted widening participation events for sixth formers at UCL and been involved with the Science Lates series at the Science Museum. The relationship between diatoms and climate in a European mountain lake training set: implications for detecting the Little Ice Age in lake sediments from Central Norway.</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at He was appointed Lecturer in Medical Sociology at the Middlesex Hospital Medical School (1986) and Associate Director of the MRC Social &amp; Public Health Sciences Unit at the University of Glasgow (1994). Graham was inaugural Chair of the Department of Health Policy Research Commissiong Panel (2011-2013) and is currently: NIHR Sub-Panel Chair for Programme Grants in Applied Health Research; Chair of the MRC/DfID African Research Leader Scheme. He is an NIHR Senior Investigator, and Fellow of the Academy of Medical Sciences. research interests include sexual risk behaviour and the prevention of HIV and STIs, combining structural, behavioural and biomedical approaches to prevention and the opportunities afforded by new prevention technologies.He has worked with a wide range of populations at risk of HIV and STIs, nationally and internationally. This includes men who have sex with men, young people, sex workers, and vulnerable groups in developed and developing countries. His major contributions are to health policy and promotion, particularly in HIV and sexual health. Two significant examples are: needle exchange for injecting drug users (IDU); HIV prevention in men who have sex with men (MSM). After needs assessment which found high levels of sharing of drug injecting equipment amongst IDU he was instrumental in setting up, and then evaluating, the first dedicated needle-exchange in the UK and the roll-out of this harm reduction strategy in England and Wales using combined behavioural and biomarker data. This work has been cited internationally, helped with the adoption of harm minimisation globally, and contributed to reduced parenteral transmission of HIV throughout the world. His research on men who have sex with men is widely cited, and has informed HIV prevention strategies in the UK and internationally. He undertook the first community based survey of prevalent HIV using oral fluid antibody tests and the first UK evaluation of peer-education for risk reduction in MSM. He led work which first described in Scotland increased risk-behaviour after the introduction of HIV therapy in the mid-1990s, and subsequently specified the undiagnosed fraction of HIV in community-recruited MSM across the UK. This work also demonstrated high levels of sexual risk taking in HIV positive men. These studies have informed the development of HIV prevention in MSM in the UK and internationally, and been vital for government and NGO prevention efforts.</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at is Professor of German History, Director of the UCL European Institute and Dean of the Faculty of Social and History Sciences. She studied at Newnham College, Cambridge, as an undergraduate, and at Harvard University, where she did her MA and PhD; she has also held a Harvard Center for European Studies Krupp Fellowship at the LSE, and a Lady Margaret Research Fellowship at New Hall, Cambridge. Among other professional commitments, Mary Fulbrook is currently a member of the Council of the British Academy, and has also served as Chair of the Modern History Section of the British Academy. She is a member of the Academic Advisory Board ( ) of the Memorial Foundation for the former concentration camps of Buchenwald and Mittelbau-Dora; and a member of the International Advisory Board of the Bundeskanzler-Willy-Brandt-Stiftung. She currently serves on the Editorial Boards of Mary Fulbrook's contributions to UCL have included nearly a dozen years as Head of the German Department (January 1995 to September 2006) as well as a stint serving on UCL Council. She was Vice-Dean (Interdisciplinarity), Faculty of Arts and Humanities, for three years before becoming Executive Dean of the Faculty of Social and History Sciences in 2013. is currently directing an AHRC-funded collaborative research project on ‘Reverberations of War in Germany and Europe since 1945’ and writing a book provisionally entitled (2000), she has also explored wider interests in social and historical theory and the legacies of the past for a later present, as in her work on Mary Fulbrook currently supervises a number of PhD students on topics on modern German and European history. Her teaching has ranged from introductory courses on German history from medieval times to the present, through to more specialised source-led teaching on the German Democratic Republic (GDR) and MA courses on 'Theoretical Issues in History and Literature', and 'The Making of Modern Europe'.</t>
+  </si>
+  <si>
+    <t>. Australian Research Council, Discovery Award (2008-2012) $251,800. Collaborators: The University of Adelaide; Aberystwyth University; The University of Manchester; University of Bergen . The Leverhulme Trust (2009-2013) £213,233. Collaborators: The British Museum; The University of Manchester; The University of Durham; Aberystwyth University Jamie is a geomorphologist with particular interests in the nature and impacts of Quaternary environmental change in the Mediterranean region and the Nile basin. A good deal of his work takes place in close collaboration with archaeologists and he is interested in the theoretical and practical interface between geography, geoscience and archaeology. Jamie is currently working on two projects in the Nile Valley of Northern Sudan with archaeologists from the exploring the relationship between human activity and environmental change over the last 10,000 years or so. This work is funded by the Australian Research Council and the Leverhulme Trust. You will find a report on some of this work from the 2011 field season since 2007. In 2008 he was awarded a personal chair – the first in Physical Geography at The University of Manchester. With other colleagues in Geography he set up the in late 2004. This cluster forms a key part of Physical Geography research and teaching at Manchester. Jamie has just completed October 2008 to summer 2011: Physical Geography external examiner for the Part II Examination in the Geographical Tripos at the University of Cambridge I have examined PhDs at the following institutions: University of Cambridge, University of East Anglia, University of Exeter (x3), Aberystwyth University, University of Leeds (x5), The University of Manchester (x2), Newcastle University, University of Sheffield, University of Liverpool, Massey University, New Zealand. Woodward et al. (2012) New records of Holocene Flooding in Northern Sudan. The Sudan Archaeological Research Society, The British Museum, London, May 14th. Woodward, J.C. et al. (2008) Glacial Activity and Catchment Dynamics in Northwest Greece: Long-term River Behaviour and the Slackwater Sediment Record for the Last Glacial to Interglacial Transition. Metal contamination of bed sediments in the Irwell and Upper Mersey catchments, northwest England: exploring the legacy of industry and urban growth</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Alan is the Dean of the Bartlett faculty of the Built Environment, a HEFCE Business Fellow and a founding director of a UCL knowledge transfer spin out with a portfolio of over 100 applied projects per year, including whole city masterplans, neighbourhood development plans and individual buildings. He is a member of the Space Group, an EPSRC Platform funded research group. He was the Chair of the Architecture, Built Environment and Planning sub-panel 16 and a member of Main-panel C for the Research Excellence Framework 2014. He is Principal Investigator on the £5m five year EPSRC funded Digital Economy Hub: UK Regions Digital Research Facility. He is a trustee of the His research focuses on understanding the way that the design of the built environment affects the patterns of social and economic behaviour of organisations and communities. How is it that architecture and urban design matter for those that inhabit them? How is it that the spatial design of cities and neighbourhoods leads to the generation of cultural and community identity? Under what conditions do vital and thriving creative communities occur, and under what conditions does crime and urban malaise develop? In order to investigate these questions he has developed both research methodologies and software tools. These are known as ‘space syntax’ methods. Current research includes the development of agent based simulations of human behaviour, the development of spatio-temporal representations of built environments, investigations of urban spatial networks and the application of these techniques in studies of urban sustainability in the broadest sense, covering social, economic, environmental and institutional dimensions.</t>
+  </si>
+  <si>
+    <t>Ann Varley holds a double first class honours degree in Geography from the University of Oxford. She first came to UCL as a research student; her doctoral thesis on illegal housing development in Mexico City won the British-Mexican Society Postgraduate Prize. She worked on an Overseas Development Administration-funded research project on rental and shared housing in Mexico before being appointed as lecturer in the Department of Geography. Ann has a broad range of research and publication interests – from disasters to property titles and from ageing to family law – but her work has focused consistently on urban Mexico and Latin America and revolves around the central theme of housing and the home. She has co-authored or edited four books, the latest of which, (edited with Helga Baitenmann and Victoria Chenaut) was published by Rutgers University Press in 2007; a revised and translated version was published in 2010 by the Universidad Nacional Autónoma de México with the support of the United Nations Development Fund for Women, UNIFEM. Ann was Christensen Fellow at St Catherine’s College, Oxford, and was awarded an individual residency at the Rockefeller Foundation Study Center in Bellagio, Italy, in 2003. She was one of the first recipients of the new University of London Research Fellowship, enabling her to spend several months at the Institute for the Study of the Americas in 2007. She is a member of the ESRC's Peer Review College and the advisory panel of the Commonwealth Scholarship Commission in the UK, and has reviewed research proposals for the Research Council of Norway. In 2010 Ann was awarded the Busk Medal, one of the senior awards of the Royal Geographical Society, for her field work in Mexico. She received the Medal from the Society's President, Michael Palin (photo). In Denmark, Ann has been visiting lecturer in the Department of Geography, University of Copenhagen, and the Department of International Development Studies, University of Roskilde. She has worked with the Department of Geography at the Norwegian University of Science and Technology, Trondheim and has also been a visiting lecturer in the Graduate School and Lyndon B Johnson School of Public Affairs, University of Texas at Austin and the Department of Architecture and Design, American University of Beirut, Lebanon. Invitations to speak at events overseas have taken her to Mexico (CIESAS-Occidente, El Colegio de México, El Colegio de Puebla, Instituto Mora, UAM-Azcapotzalco, UAM-Xochimilco, Universidad Nacional Autónoma de México, Universidad de Guadalajara and at the 5th National Congress of Urban Land, Tijuana), Brazil, the USA (Lincoln Institute of Land Policy, MIT, Northwestern University, University of California San Diego, University of Florida, University of Texas at Austin, and Yale University), Canada (York University), Denmark, France, Spain (the International Institute for the Sociology of Law, Oñati), Lesotho, Lebanon and Egypt. (co-edited with Edésio Fernandes) was translated and published in Bolivia by the Programa de Capacitación para el Mejoramiento Socio-Habitacional as , Programa Universitario de Estudios de Género, Universidad Nacional Autónoma de México and United Nations Development Fund for Women, UNIFEM. , Programa Universitario de Estudios de Género, Universidad Nacional Autónoma de México and United Nations Development Fund for Women, UNIFEM. (Revised edition translated by Lucrecia Orensanz. Edited with Helga Baitenmann and Victoria Chenaut). 1996 'Delivering the goods: Solidarity, land regularisation and urban services', in R. Aitken, N. Craske, G.A. Jones and D. Stansfield (eds) 1994 'The exceptional and the everyday: vulnerability analysis in the International Decade for Natural Disaster Risk Reduction', in A. Varley (ed.) Ann has over 30 years’ experience of social research in urban Mexico, with particular emphasis on housing and land tenure, using household surveys, interviews, discussion groups and life histories. She produced a report on the impact of agrarian law reform on urban housing for the Organisation of Economic Co-operation and Development to mark Mexico's accession in 1994. She wrote an assessment of women’s role in self-help housing for UNIFEM and the Mexican government’s Social Development Secretariat, and contributed to a joint report by the Mexican agency Desarrollo Integral de la Familia and the University of Texas on socio-economic vulnerability among families in the Mexico-US border region. Her work on older people’s living arrangements in Mexico led to the award of an ESRC-funded CASE studentship with HelpAge International and that on land tenure formalisation has led to the award of a UCL Impact Award to support postgraduate research, co-sponsored by the Cambodian Development Resource Institute, CDRI. The translation of was carried out by Promesha, a programme on housing issues in Latin America funded by the Swedish International Development Cooperation Agency, and that of The meeting of three experts with interests in Latin America at a conference on disasters Ann organised for the Royal Geographical Society led to the formation of La Red de Estudios Sociales en Prevención de Desastres en América Latina. Ann contributed an essay on 'Feminism's pale shadows' to a report published by the International Longenvity Centre-UK to mark International Women's Day 2013, asking Ann also uses her language skills in outreach activities. She translated a report on ‘Strategies for sustainable socio-economic development of the Doñana Region’ by the Comisión Internacional de Expertos sobre el Desarrollo del Entorno de Doñana (Spain), and is a volunteer translator for an international housing rights NGO. She is a member of the ESRC Peer Review College and a research proposal assessor for the Norwegian Research Council, as well as other UK and overseas research funders. The United Nations Global Campaign for Secure Tenure recognises that “securing tenure for the household does not necessarily secure tenure for women and children”. How should this insight be translated into practice? As the first social scientist to convene UCL Gender Studies, Ann proposed that it should be renamed to Gender &amp; Sexuality Studies, with a view to working towards the creation of an MA in Sexualities to share part of the sylllabus with the MA in Gender, Society and Representation, and towards attracting more postgraduate researchers to work on sexualities themes. She will be working on these plans with the Director of UCL's LGBTQ+ research network over the next few years. Fatema is a lecturer in the Department of Women and Gender Studies in the University of Dhaka. She holds a Commonwealth Scholarship Ina holds a scholarship from the INLAKS foundation in India. She is a UCL Gender &amp; Sexuality Studies research student, jointly supervised by Richard Mole (SSEES) and Ann. Funded by CONACYT, Lourdes did her first degree at the Tec de Monterrey, Mexico, followed by an MA in Anthropology at the University of Sussex. She has recently worked as an intern for the Enterprises Department at the International Labour Office. Before coming to UCL to undertake research funded by CONACYT, Tania was a researcher at the Centro Mario Molina Sustainable Research Centre in Mexico City. She is an architect with a Masters from Delft University of Technology. Marco is a Gender Studies PhD student, supervised by James Agar, with Ann as his second supervisor. His research looks at the role of Soho in processes of identity- and community-making for gay men. A senior technical advisor with UN-HABITAT Haiti, Maggie is studying with Tiziana Rossetto of the Earthquake and People Interaction Centre. Ann is her second supervisor. Rasa’s studied Social Anthropology at Goldsmiths after a first degree in Psychology and Education in Lithuania. She is supervised by Richard Mole at SSEES, with Ann as her second supervisor The holder of an ESRC CASE award with HelpAge International, Emmy now works in the Policy and Research Division, Department for International Development. Donor-funded titling and urban transition: a case study of the Land Management and Administration Project (LMAP) in Phnom Penh, Cambodia Ben had been working for NGOs in Phnom Penh for two years when he was awarded a UCL Impact Award studentship to work with the Cambodia Development Resource Institute</t>
+  </si>
+  <si>
+    <t>After nine years as Dean of The Faculty of Social &amp; Historical Sciences, I am now free of all those University Committees. Popular geographies and scholarly geographies in provincial France: the Société Normande de Géographie, Journal of Historical Geography, 33, 2007 (in press). (editor) Contemporary Rural Geographies : land, property and resources in Britain, 208pp., Routledge, London, 2007, ISBN 0 415 43183 2. Richard Munton: geographer and rural geographer, in ed. H. Clout, Contemporary Rural Geographies : land, property and resources in Britain, pp. 189-199, Routledge, London, 2007 Les influences françaises sur la géographie britannique. Les enseignements et les écrits de H.C. Darby, pp. 77-88, in eds. P. Boulanger &amp; J-R. Trochet, Où en est la géographie historique ? L’Harmattan, Paris, 2005, ISBN 2 7475 8144 6. Jules Sion, Alan Grant Ogilvie and the College des Ecossais in Montpellier : a network of geographers ; Scottish Geographical Journal, no. 120, pp. 181-198, 2004 Lessons from experience: French geographers and the transcontinental excursion of 1912, Progress in Human Geography , 28, pp.597 - 618, 2004 Place description, regional geography and area studies: the chorographic inheritance, in eds. R.J. Johnston &amp; M. Williams, A Century of British Geography, pp. 247- 274, Oxford University Press, Oxford, 2003. La grande reconstruction: un itineraire personnel, in eds. A. Dumenil &amp; P. Nivet, Les Reconstructions en Picardie, pp. 160-176, Encrage, Amiens, 2003. In the shadow of Vidal de La Blache: letters to Albert Demangeon and the social dynamics of French geography in the early twentieth century, Journal of Historical Geography, 29, pp. 336-355, 2003. Streets broad and narrow; reflections on the urban history of Ireland and England, Journal of Urban History, 29, pp. 504-512, 2003. Reconstruction of the town and countryside of northern France is being further researched and refined to contribute toward a monograph on reconstruction in France during the 20th century, plus associated articles. Reconstruction of town and country in France during the 1940s and 1950s will form the main focus of that monograph, with archival case studies being worked up for Paris and Lower Normandy, as well as less intensive archive and library work on Northern France, Upper Normandy, Alsace, Brittany and other regions (main archival resource being the national archive holdings at Fontainebleau). Letters received by Albert Demangeon between 1904 and 1917 have triggered an on-going suite of papers on Demangeon; the Vidalians and the historiography of French academic geography in the 20th century.</t>
+  </si>
+  <si>
+    <t>Hancock, S., Lewis, P., Foster, M., Disney, M. I., and Muller, J. -P. (2012) Measuring forests with dual wavelength lidar: a simulation study over topography, Agricultural and Forest Meteorology, 161, 123-133. Calders, K., Lewis, P., Disney, M. I., Verbesselt, J. and Herold, M. (2012, submitted) Modelling LiDAR waveforms to solve for canopy properties, Rem. Sens. Environ. Guanter, L., Frankenberg, C., Dudhia, A., Lewis, P.E., Gomez--Dans, J., Kuze, A. , Suto , H., Grainger, R.G. (2012) Retrieval and global assessment of terrestrial chlorophyll fluorescence from GOSAT space measurements, Remote Sensing of Environment, 121, 236-251 Lewis, P., Gomez--Dans, J., Kaminski, T., Settle, J., Quaife, T., Gobron, N., Styles, J., Berger, M. (2012) An Earth Observation Land Data Assimilation System (EO-LDAS). Remote Sensing of Environment, 120, 219-235. Wang, Z., C. B. Schaaf, P. Lewis,Y. Knyazikhin, M. A. Schull, A. H. Strahler, T. Yao, R. B. Myneni, M. J. Chopping and J. B. Blair, , M. Lomas, and F. I. Woodward (2008), Impact of land cover uncertainties on estimates of biospheric carbon fluxes, Global Biogeochem. Cycles, 22, GB4016, J-L. Widlowski, M. Taberner, B. Pinty, V. Bruniquel-Pinel, M. Disney, R. Fernandes, J-P. Gastellu-Etchegorry, N. Gobron, A. Kuusk, T. Lavergne, S. Leblanc, , E. Martin, M. Mottus, P. R. J. North, W. Qin, M. Robustelli, N. Rochdi, R. Ruiloba, C. Soler, R. Thompson, W. Verhoef, M. M. Verstraete, D. Xie, (2007), The Global impact of cloud on the production of MODIS n-day and daily rolling n-day bi-directional reflectance model based composites for terrestrial monitoring Comparison of MODIS broadband albedo with values derived from other EO data at a range of scales and ground measurements, over an agricultural site Pinty, B.; Widlowski, J.-L.; Taberner, M.; Gobron, N.; Verstraete, M. M.; Disney, M.; Gascon, F.; Gastellu, J.-P.; Jiang, L.; Kuusk, A.; Lewis, P.; Li, X.; Ni-Meister, W.; Nilson, T.; North, P.; Qin, W.; Su, L.; Tang, S.; Thompson, R.; Verhoef, W.; Wang, H.; Wang, J.; Yan, G.; Zang, H. (2004) Schaaf, C. B., A. H. Strahler, F. Gao, W. Lucht, X. Li, X. Zhang, Y. Jin, E. Tsvetsinskaya, J.-P. Muller, C. Justice, E. Vermote, J. Townshend, R. Defries, D. Roy, D. Hall, V. Salomonson, J. Privette, G. Riggs, A. Strahler , W. Lucht, R. Myneni, Y. knyazi, S. Running, R. Nemani, Z. Wan, A. Huete, W. van Leeuwen, R. Wolfe, L. Giglio, JJ-P. Muller , S. Quegan, P. Lewis, T. Quaife, G. Roberts, M. Wooster, M. Disney, (2008) Using Satellite Observations in Regional Scale Calculations of Carbon Exchange, In , Series: Ecological Studies , Vol. 203 Dolman, A. Johannes; Valentini, Riccardo; Freibauer, Annette (Eds.) 2008, XIII, 390 p. 69 illus., 27 in color., Hardcover ISBN: 978-0-387-76568-6, Springer-Verlag, New York. , In: Vos, J., Marcelis, L.F.M., de Visser, P.H.B., Struik, P.C. and Evers, J.B. eds. Functional Structural Plant Modelling in Crop Production. Springer, Dordrecht, pp.219-229. M. Barnsley , P. Lewis , J-P. Muller , and M. Sutherland (1997), Estimating Land Surface Albedo in the HAPEX-Sahel Southern Super-Site: Inversion of Two BRDF Models against Multiple Angle ASAS Images. in Goutorbe et al. (eds.), 1997, HAPEX-Sahel, Elsevier, 1079p. ISBN 0-444-82735-8. (reprints from Journal of Hydrology Special Issues on HAPEX-Sahel). P. Saich, P. Lewis, M. Disney, P. van Oevelen, I. Woodhouse, B. Andrieu, C. Fournier &amp; S. Ljutovac (2003), Development of Architectural Vegetation Growth Models for Remote Sensing Applications", ESA Report contract 14940. A. Strahler , W. Wanner , C. Schaaf , X. Li , B. Hu, J-P. Muller , P. Lewis , M. Barnsley , (1995), MODIS BRDF/Albedo Product: Algorithm Theoretical Basis Document Version 4.0 MODIS Product ID: MOD09, Version 4.0, November 1996, 252pp. 2008, June 6, RSPSoc Lecture and Conversazione (in memory of Prof. Mike Barnsley) , BRDF - Varying perspectives on land surface monitoring Jose Gomez-Dans, Martin Wooster, Philip Lewis, Allan Spessa, (2009), Probabilistic calibration of a coupled ecosystem and fire model using optical and thermal satellite data, IEEE Geosci Rem. Sens. Symp., Cape Town, S. Africa, July 2009. Ana Prieto-Blanco, Mathias Disney, Phillip Lewis, JosÃ© GÃ³mez-Da, (2009) Satellite monitoring of disturbances in acrtic ecosystems, IEEE Geosci Rem. Sens. Symp., Cape Town, S. Africa, July 2009. Crystal Schaaf, Alan Strahler, Zhuosen Wang, Miguel RomÃ¡n, Ziti Jiao, Yanmin Shuai, Qingling Zhang, Feng Gao, Jicheng Liu, Xiaoyang Zhang, Wolfgang Lucht, Shunlin Liang, Philip Lewis, Jan-Peter Muller, Michael Barnsley, Xiaowen Li, (2009), MODIS albedo and reflectance anisotropy products for climate and vegetation studies, IEEE Geosci Rem. Sens. Symp., Cape Town, S. Africa, July 2009. Philip Lewis, Jose Gomez-Dans, Mathias Disney, Martin Wooster, David Roy, Mathias Disney, (2009) Modelling the impact of wildfire on spectral reflectance, IEEE Geosci Rem. Sens. Symp., Cape Town, S. Africa, July 2009. &lt;\li&gt; P. Lewis, (2009) Vegetation Structure Measurement and Modelling for EO, ESA workshop: Remote Sensing of 3D-vegetation structures, Juelich, Germany, 2nd July, 2009. P. Lewis, T. Quaife, C.B. Schaaf, M. Roman, Z. Wang, Y. Shuai, (2009) BRF/albedo inversion constrained by temporal smoothness, The International Conference on Land Surface Radiation and Energy Budgets, Observations, Modeling and Analysis, Beijing, China, March 18-20 2009. Disney, M. I., Lewis, P. and Bouvet, M. (2008) Quantifying surface reflectivity for spaceborne lidar missions, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. M. De Kauwe, T. Quaife, P. Lewis, Disney, M. I. and M. Williams (2008) Estimating the spatial exchange of carbon through the assimilation of Earth Observation (EO) derived products using an Ensemble Kalman Filter, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. S. Hancock, Disney, M. I., P. Lewis, J.-P. Muller (2008) Exploring the measurement of forests with full waveform lidar through Monte-Carlo ray tracing, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. N. Macbean, Disney, M. I., Lewis, P. and P. Ineson (2008) Using remote sensing data to quantify changes in vegetation over peatland areas, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. Hancock, S., Lewis, P., Disney, M. I., Foster, M. and Muller, J. -P. (2008) Assessing the accuracy of forest height estimation with long pulse waveform lidar through Monte-Carlo ray tracing, in proc. SilviLaser 8th International Conference on LIDAR applications, 17-19 September, Edinburgh. , J-P Muller, M Foster, I H Woodhouse, J Jack, D Weidmann, K Smith, (2008) "Instrument Developments in the UK Centre for EO Instrumentation," Proceedings of the 59th International Astronautical Congress, Glasgow, Scotland, 29 Sep - 3 Oct 2008, IAC-08-B1.3.1 Quaife, T,. Lewis, P., Disney, M. I., DeKauwe, M., Williams, M. and Law, B. (2007) Assimilating reflectance data into an ecosystem model to improve estimates of terrestrial carbon fluxes, in pro. IGARSS07, Barcelona, Spain, 23-27 July 2007. Disney, M. I. and Lewis, P. (2007) Spectral invariant behaviour of a complex 3D forest canopy, in proc. 10th ISPMSRS meeting, Davos, Switzerland, 12-14 March 2007. Pfeifer, M., Disney, M. I. and Lewis, P. (2007) Simulating gap fraction of complex forest scenes, in proc. 10th ISPMSRS meeting, Davos, Switzerland, 12-14 March 2007. Lewis, P. and Disney, M. I. (2007) Modelling Canopy reflectance with spectral invariants, in proc. 10th ISPMSRS meeting, Davos, Switzerland, 12-14 March 2007. Hancock, S., Lewis, P., Muller, J. P and Disney, M. I. (2007) Using Monte Carlo ray tracing to investigate the measurement of forest parameters with the Echidna laser scanner, in proc. 10th ISPMSRS meeting, Davos, Switzerland, 12-14 March 2007. Moreno, J.F., G.P. Asner, H. Bach, T. Belenguer, A. Bell, C. Buschmann, A. Calera, J. Calpe, P. Campbell, G. Cecchi, R. Colombo, L.A. Corp, A. Court, M.A. Cutter, M. Disney, A. Dudelzak, G. D'Urso, R. Fernandes, J. Flexas, P. Gege, B. Gielen, A. Gitelson, E.U. Gloor, J. Gower, R.O. Green, J. Hill, S. Jacquemoud, L. Jia, M. Kneubhler, T. Laurila, , D. Lobb, F. Magnani, S.W. Maier, M.V. Marek, A. Martinez, P. Martinez-Cobo, P. Mazzinghi, M. Menenti, R. Merton, E. Middleton, E. De Miguel, J. Miller, G. Mohammed, E.J. Milton, F. Morales, I. Moya, L. Nedbal, W. Knorr, C. Ottle, A. Olioso, S. Pace, A. Palucci, R. Pedros, J. Peltoniemi, J. Penuelas, A. Plaza, J. Polcher, U. Rascher, R. Reuter, A. Rosema, J.L. Roujean, Y. Saito, B. Saugier, M.E. Schaepman, J.B. Serrano, J.J. Settle, M. Sierra, J. Sobrino, M.P. Stoll, Z. Bob Su, C. Tobehn, N. Tremblay, R. Valcke, W. Verhoef, F. Veroustraete, M. Verstraete, and P. Zarco-Tejada. Hancock, S., Disney, M. I., Lewis, P. and Muller, J.-P. (2006) Using lidar to characterise tree canopies, in proc. of IWMMM-4, 20-24th March 2006, Sydney, Australia. P. Lewis and M. Disney (2006), Prospects shoots and leaves: scaling relationships from within-leaf scattering to the canopy level, Proc. RSPSOC Conference, Sept. 2006, Cambridge (CDROM). D. Huang, S. Smolander, M. Rautianen, M. Schull, R. Myneni, P. Stenberg, Y. Knyazikhin, P. Lewis and M. Disney.The recollision probability and its potential use in ecological models, NASA MISR Team meeting Dec. 2005, NASA. P. Lewis, J. Hillier, J. Watt, B. Andrieu, C. Fournier, P. Saich, M. Disney, (2005) 3D dynamic vegetation modelling of wheat for remote sensing simulation and inversion, Proc. 9th Intl. Symp. on Physical Measurements and Signatures in Remote Sensing, Beijing, China, 17-19 Oct 2005 144-146 T. Quaife, P. Lewis, M. Williams, M. Disney and M. de Kauwe (2005) Assimilating Earth Observation Data into a Vegetation Model using an Ensemble Kalman Filter, Proc. 9th Intl. Symp. on Physical Measurements and Signatures in Remote Sensing, Beijing, China, 17-19 Oct 2005 399-401 M. Disney, P. Lewis, T. Quaife, C. Nichol, (2005) A spectral invariant approach to modelling canopy and leaf scattering, Proc. 9th Intl. Symp. on Physical Measurements and Signatures in Remote Sensing, Beijing, China, 17-19 Oct 2005 318-320 L. Rebelo, P. Lewis and D. Roy (2005) A comparison of two temporal BRDF models with application to the identification of fire-affected areas, Proc. 9th Intl. Symp. on Physical Measurements and Signatures in Remote Sensing, Beijing, China, 17-19 Oct 2005 147-149 T. Quaife, M. Lomas, P. Lewis, F.I. Woodward and M. Disney (2005). Testing carbon flux predictions from Dynamic Vegetation Models using data from Earth Observation satellites. In proceedings: RSPSoc 2005. Portsmouth, T. Quaife, P. Lewis, M. Williams, M. Disney and M. De Kauwe (2005). Assimilating Earth Observation Data into a Vegetation Model using an Ensemble Kalman Filter. NERC Earth Observation Conference. Portsmouth, England. Lewis et al. 3D plant modelling for remote sensing simulation, Workshop on 3D modelling in EO, Avignon, France, March 2004 Quaife T., Lomas M., Picard G., Disney M., Lewis P., Woodward F.I. "Forward Modeling Earth Observation Signals from the Sheffield Dynamic Global Vegetation Model", NERC EO meeting, Plymouth, June 2004. M. Disney, M. Williams and P. Lewis (2004) The potential for assimilation of EO-measured radiance in terrestrial carbon studies: simulation of the canopy radiation regime, NERC EO conference, Plymouth, June 30 - July 1, 2004. M. Disney, P. Lewis and P. Saich (2004) 3D modelling of forest canopy structure for remote sensing simulation and parameter estimation, in proc. 4th International Workshop on Functional-Structural Plant Models, CIRAD, Montpellier, June 7-11, 2004, p 282. P.Lewis, P.Saich, M. Disney, B. Andrieu, C. Fournier, T. Macklin and J. Bodley (2004) Calibration of an L-system model of winter wheat for remote sensing modelling and inversion, in proc. 4th International Workshop on Functional-Structural Plant Models, CIRAD, Montpellier, June 7-11, 2004, pp 257-261. P. Lewis, P. Saich, J. Hillier, M. Disney. B. Andrieu, C. Fournier, (2004),Estimation of Wheat Biophysical Parameters by Inverting Remote Sensing Data using 3D Models of Plant Dynamics at Optical and Microwave Wavelengths, plant modelling workshop, Halle, germany, Feb. 2004 P. Lewis, Barnsley, M., Quaife, T., Thackrah, G., Disney, M. and Saich, P. (2003) Biophysical parameters from CHRIS/PROBA, in proc. SPECTRA Workshop, ESA/ESTEC Noordwijk, Netherlands, Oct. 28-30. Roy, D.P., Yufang, J., Justice, C.O., Giglio, L., Lewis P., (2003), Multi-year southern Africa MODIS burned area product generation and validation, Fall AGU Meeting, San Francisco, December 8-12, 2003. Session "Validation and Application of Land Surface Products From the MODIS Sensor". Biophysical parameter retrieval from forest and crop canopies in the optical and microwave domains using 3D models of canopy structure An initial analysis of CHRIS-on-board-PROBA data for the purposes of biophysical parameter mapping over a variety of land cover types Intercomparison of phenological measures derived from medium and coarse resolution earth observation and implications for assimilation into vegetation growth models. Schaaf, C.; Strahler, A.; Feng Gao; Lucht, W.; Yufang Jin; Xiaowen Li; Xiaoyang Zhang; Tsvetsinskaya, E.; Muller, J.-P.; Lewis, P.; Barnsley, M.; Roberts, G.; Doll, C.; Shunlin Liang; Roy, D.; Privette, J.; (2002) , Geoscience and Remote Sensing Symposium, 2002. IGARSS '02. 2002 IEEE International Volume 2, 24-28 June 2002 Page(s):1188 - 1190 vol.2 P. Saich, P. Lewis, M. Disney and G. Thackrah, 2001. Comparison of Hymap/E-SAR data with models for optical reflectance and microwave scattering from vegetation canopies, in proc. Third International Workshop on Retrieval of Bio-and Geo-Physical Parameters from SAR data for Land Applications, Sheffield, September 2001. P. Lewis, M. Barnsley, and M. Cutter, CHRIS-PROBA: Mission status and prospects for mapping biophysical parameters, Proc. Int. Geosci. Remote Sens. Symp. (IGARSS'01), Sydney, Australia, 9-13 July, 2001. Schaaf, C. B., A. H. Strahler, F. Gao, W. Lucht, X. Li, X. Zhang, Y. Jin, E. Tsvetsinskaya, J.-P. Muller, P. Lewis, M. Barnsley, G. Roberts, C. Doll, S. Liang, and J. L. Privette, (2001) , Proc. Int. Geosci. Remote Sens. Symp. (IGARSS'01), Sydney, Australia, 9-13 July, 2001. Volume 5, 9-13 July 2001 Page(s):2227 - 2229 vol.5 Schaaf, C. B., A. H. Strahler, F. Gao, W. Lucht, X. Li, X. Zhang, Y. Jin, E. Tsvetsinskaya, J.-P. Muller, P. Lewis, M. Barnsley, G. Roberts, C. Doll, S. Liang, and J. L. Privette, Operational Bidirectional Reflectance and Albedo Products from the MODerate Resolution Imaging Spectroradiometer (MODIS), Abstract, IGBP Global Change Open Science Conference in Amsterdam, Netherlands, 9-13 July, 2001. Schaaf, C. , A. H. Strahler, F. Gao, W. Lucht, X. Li, J.-P. Muller, P. Lewis, M. Barnsley, P. Hobson, M. Disney, G. Roberts, M. Dunderdale, C. Doll, Land Surface Spectral Bidirectional Reflectance and Albedo from the MODerate Resolution Imaging Spectroradiometer (MODIS), Abstract, American Geophysical Union Spring Meeting, Boston, MA, 29 May - 2 June, 2001. Schaaf, C. B., F. Gao, A. Straler, W. Lucht, T. Tsang, N. Strugnell, X. Li, X. Zhang, J-P. Muller, P. Lewis, M. Barnsley, P. Hobson, M. Disney, M. Dunderdale, G, Roberts, C. Doll and S. Liang. Temporal Characteristics of the MODIS BRDF/Albedo Product. Proceedings of the 8th International Symposium on Physical Measurements and Signatures in Remote Sensing, Aussois, France, 8-12 January, 233-238, 2001. Schaaf, C.B.; Feng Gao; Strahler, A.H.; Tsang, T.; Lucht, W.; Strugnell, N.; Xiaowen Li; Muller, J.-P.; Lewis, P.; Barnsley, M.; Hobson, P.; Disney, M.; Dunderdale, M.; Roberts, G., (2000) The Moderate Resolution Imaging Spectroradiometer (MODIS) BRDF and albedo product, AGU Fall 2000 Meeting, San Francisco, Dec 2000. Schaaf, C. B., A. H. Strahler, F. Gao, W. Lucht, X. Li, J-P. Muller, P. Lewis, M. Barnsley, P. Hobson, M. Disney, M. Dunderdale, G. Roberts and C. Doll, (2000). The MODerate Resolution Imaging Spectroradiometer (MODIS) BRDF and Albedo Product, Abstract,American Geophysical Union Spring Meeting, San Francisco, CA, 15-19 Dec, 2000. Schaaf, C.B.; Feng Gao; Strahler, A.H.; Tsang, T.; Lucht, W.; Strugnell, N.; Xiaowen Li; Muller, J.-P.; Lewis, P.; Barnsley, M.; Hobson, P.; Disney, M.; Dunderdale, M.; Roberts, G., (2000) Initial Results From the Moderate Resolution Imaging Spectroradiometer (MODIS) BRDF and Albedo Product, AGU Spring 2000 Meeting, Washington DC, May 30-June 3 D. Roy and P. Lewis (2000) Burned area mapping from multitemporal surface bidirectional reflectance, AGU Spring 2000 Meeting, Washington DC, May 30-June 3 Schaaf, C.B.; Feng Gao; Strahler, A.H.; Tsang, T.; Lucht, W.; Strugnell, N.; Xiaowen Li; Muller, J.-P.; Lewis, P.; Barnsley, M.; Hobson, P.;Disney, M.; Dunderdale, M.; Roberts, G., (2000) : preliminary results, IEEE International Geoscience and Remote Sensing Symposiun, 2000. Proceedings. IGARSS 2000. Volume: 7, 2000 Page(s): 3048 -3050 vol.7 P. Hobson,, Barnsley, M., P. Lewis, M. Disney, and J-P. Muller (1999) Inversion of semi-empirical, kernel-driven models using POLDER on ADEOS data. ALPS '99, Meribel, France. P. Lewis(1999) The Botanical Plant Modelling System: a model for remote sensing simulation studies. XVI International Botanical Congress, 1-7 August 1999. Saint Louis, Missouri, USA. M. Disney and P. Lewis , (1999) Towards a spectral kernel-driven BRDF model in proceedings of 25th Annual Remote Sensing Society Conference , 7-10th September 1999, Cardiff, UK. 377-384. P. Lewis and M. Disney (1999) Application of the Botanical Plant Modelling System (BPMS) to the analysis of spatial information in remotely sensed imagery , in proceedings of 25th Annual Remote Sensing Society Conference , 7-10th September 1999, Cardiff, UK. 507-514. Roberts, G., and P. Lewis, (1999) Monitoring temporal dynamics of kernel-driven BRDF model paramters. in proceedings of 25th Annual Remote Sensing Society Conference , 7-10th September 1999, Cardiff, UK. 281-288. P.D. Hobson, M.J. Barnsley, P. Lewis and M. Disney (1999) Inversion of Kernel-Driven BRDF Models using POLDER-on-ADEOS Data. in proceedings of 25th Annual Remote Sensing Society Conference , 7-10th September 1999, Cardiff, UK. 371-376. P. Lewis, Izzawati, and J. McMorrow (1999) Sensitivity of 3D radar backscatter model to changing biophysical parameters of an oil palm plantation. in proceedings of 25th Annual Remote Sensing Society Conference , 7-10th September 1999, Cardiff, UK. 37-44. P. Lewis and M. Disney (1999) The development of spectral kernels to improve the linear kernel-driven approach to BRDF modelling. Abstract/poster presented at Second International Workshop on Multiangular Measurements and Models (IWMMM-2) Ispra, Italy September 15 - 17, 1999 P. Lewis and P. Atkinson, (1998), A geostatistical Classifier for remotely sensed imagery. Kingston 1998 RGS-IGB Annual Conference. 5-8 Jan. 1998. Kingston UK. p. 89 (presented paper - abstract only) W. Lucht, C. Schaaf, A. Strahler, J-P. Muller, B. Hu, P. Lewis Y. Liu, A. Hyman, M.J. Barnsley, and N. Strugnell. (1998). N. Akkal, P. Boissard, C. Chabanet, M.H. Jeuffroy, P. Lewis , and J.M. Meynard(1997), Nitrogen fertilization management in winter wheat based on early estimate of the cover fraction. 1st European Conf. on Precision Agriculture, Warwick University (U.K.), 7-10 Sept. 97, Vol 1. 405-412, BIOS Scientific Publishers P. Lewis and P. Boissard, (1997), The use of 3D plant modelling and measurement in remote sensing, 7th International Symposium Physical Measurements and Signatures in Remote Sensing, Courchevel, France, April 7-11, 1997. Vol. 1. pp 319-326. (ISBN 90 5410 9173) M. Disney , J-P. Muller , P. Lewis , M. Barnsley (1997), Production and validation of BRDF and albedo extracted from airborne and spaceborne data, 7th International Symposium Physical Measurements and Signatures in Remote Sensing, Courchevel, France, April 7-11, 1997. Vol. 2. pp 471-478. (ISBN 90 5410 9173) E. Vives de Lope and P. Lewis , (1996), The Application of Kernel-Driven BRDF Models and AVHRR data to monitoring land surface dynamics in the Sahel, 7th International Symposium Physical Measurements and Signatures in Remote Sensing, Courchevel, France, April 7-11, 1997. Vol. 2. pp. 599-606. (ISBN 90 5410 9173) P. Boissard, P. Valery, N. Akkal, J. Helbert, and P. Lewis (1997), Paremetrisation d'un modele architectural de ble au cours du tallage. Estimation des parametres de structure par photogrammetrie. Actes du Seminaire sur la Modelisation ArchitecturaleINRA Paris, 10-12 Mars 1997, 213-222 P. Lewis (1997), The Botanical Plant Modelling System (B.P.M.S.). Actes du Seminaire sur la Modelisation ArchitecturaleINRA Paris, 10-12 Mars 1997, 45-54 P. Lewis and M. Disney, (1997), Examining BRDF model operation with the botanical plant modelling system, Proc. Remote Sensing Society Conference, Reading, 1997. pp. 298-303. P. Lewis and M. Disney, (1997), Validation of kernel-driven BRDF models for monitoring albedo in the Sahel, Proc. Remote Sensing Society Conference, Reading, 1997. pp 304-309. Z. Hesley, P. Lewis , M. Barnsley , (1997), Dealing with BRDF heterogeneity thro' estimation of sub-pixel directional refl. assuming a linear mixture model, Proc. Remote Sensing Society Conference, Reading, 1997. pp. 434-439. Z. Hesley, M. Barnsley , and P. Lewis , (1996), The significance of angular sampling errors of the MODIS and MISR sensors on the retrieval of surface biophysical parameters from BRDF models. Proc. RSS 96, Durham, UK. 537-542 M. Barnsley , M. Disney , P. Lewis ,Z. Hesley, and P. Muller (1996), On the intrinsic dimensionality of the BRDF: Implications for the retrieval of land surface biophysical properties. Proc. RSS 96, Durham, UK. 69-70 P. Boissard, N. Akkal, P. Lewis , (1996), 3D Plant Modelling in Agronomy. Association of Applied Biologists: Modelling in Applied Biology: Spatial Aspects, 24/27 June 1996, Brunel, U.K. P. Lewis , (1995), On the Implementation of Linear Kernel-Driven BRDF Models. Proc. RSS 95, "Remote Sensing in Action", Southampton, UK, 11-14 Sept, 333-340. M. Barnsley , D. Allison , and P. Lewis , (1995), On the Statistical Information Content of Multiple View Angle (MVA) Images. Proc. RSS 95, "Remote Sensing in Action", Southampton, UK, 11-14 Sept, 1298-1305. M. Sutherland , M. Barnsley , P. Lewis , and J-P. Muller , (1995), Derivation of Surface Biophysical Parameters through Inversion of a BRDF Model for HAPEX-Sahel. Proc. RSS 95, "Remote Sensing in Action", Southampton, UK, 11-14 Sept, 325-332. Z. Hesley, M. Barnsley , and P. Lewis , (1995), Effect of Angular Sampling Regimes on the Retrieval of Biophysical Parameters from BRDF Models.Proc. RSS 95, "Remote Sensing in Action", Southampton, UK, 11-14 Sept, 342-349. P. Boissard, N. Akkal, P. Lewis , P. Valery, and J-M Meynard, (1995), Linking a 3D Plant Model Database of Crop Structure to Models of Canopy Development. Int. Colloq. Photosynthesis and Remote Sensing, 28-31 Aug. 1995, Montpellier, Fr. W. Wanner , A. Strahler , J-P. Muller , M. Barnsley , P. Lewis , X. Li , C. Schaaf , (1995), P. Lewis and P. Boissard, (1995), A Botanical Plant Modelling System: a Model for Deriving and Describing Plant Form and Simulating the Canopy Shortwave Radiation Regime. Invited Paper (abstract only in proc.) RSS Meeting: "The Interaction of Vegetation Canopies with Radiation", Sheffield CEOS, May 24, 1995. D.W. Burgess and P. Lewis , (1994), The Topographic Effect on NDVI Measurements Derived from AVHRR Data, 7th Australaisian Remote Sensing Conference, 1-4 March 1994, Melbourne, Australia, 189-196. P. Lewis and M. Barnsley , (1994), Influence of the Sky Radiance Distribution on Various Formulations of the Earth Surface Albedo, Proc. Mesures Physiques et Signatures en Teledetection, Val d'Isere, France, 17-21 January, 1994, 707-716 [ P. Lewis and J-P. Muller , (1992), The Advanced RAdiometric RAy Tracer: ARARAT for Plant Canopy Reflectance Simulation, International Arch. Photogrammetry and Remote Sensing, XXIX, Comm. VII(B7), 26-34. The main focus of my research is monitoring vegetation using Earth Observation methods. I have built a focus, in my own work and that of my research group, around developing and applying new methods in this area, with a key emphasis on moving the field from loose empirical correlations to making use of physically-based models. I have always sought to develop a strong, rigorous, capability in modelling within my own work and that of my group (research as well as training elements such as the MSc remote sensing). This has led to a wide range of fruitful collaborations over the years. The approach has provided practical solutions to operational monitoring (e.g. my work over the last 10+ years leading to the development of the NASA MODIS BRDF/albedo product with colleagues at BU , and UCL) as well as providing for greater accuracy in spinoff applications such as model-based burn scar detection in Africa/change detection with colleagues at UMD /NASA. Gaining a NERC EOSI Lectureship in the last few years (Dr Paul Saich, a microwave EO modeller) has allowed for rapid progress in the area of examining common links between information in the optical and microwave domains. Exploring and exploiting this synergy forms previous joint work for ESA and BNSC (in collaboration with BAE systems), as well as a focus for future developments in the NERC Centre of Excellence and other areas. The basic approach of (robust) physically-based modelling developed has, and will continue to form a large component of my research focus. This has mainly been associated with developing models for 3D radiative transfer, of which our current model, is an expression. This model has been applied to a wide range of canopy types, initially with the aim of developing a testbed simulation system, from which can be developed an understanding of the main factors affecting shortwave radiation scattering and absorption. We have participated with this model in model intercomparison exercises within the international framework of The main directions of this work in the near future are (i) developing an understanding of the temporal dynamics of the radiation signal and synergy between optical and microwave scattered radiation through with ESA/BNSC/NERC funding; (ii) developing 'lumped parameter' models which encapsulate our understqanding of 3D scattering but which are able to accurately describe the radiation scattered with a small number of compound terms (see below); (iii) developing rapid methods for the inversion of physically-based models through sparse, compressed look-up tables (LUTs); (iv) developing system simulation tools to explore the possibilites of new sensor types and configurations. All of the streams of research in fundamental modelling are leading to the conclusion that whilst, in many ways, the remote sensing signal is a complex function of the details of canopy spatial arrangement and spectral properties, a decoupling of the structural and spectral aspects of scattering can provide significant insights into how a robust but simple model of radiation scattering and absorption can be constructed. Early evidence along these lines led to the development of so-called semi-empirical linear kernel-driven BRDF models which we helped developed and test and which form the basis of the NASA MODIS BRDF/albedo algorithm, a 16-day global 1 km product ( Schaaf et al., 2001). A spin-off application from these models has resulted in a set of 'signal tracking' models, one of which now forms the core of the NASA MODIS burned area detection algorithm. This product, which is soon to become operational, developed in collaboration with David Roy at UMD/NASA GSFC, allows the most accurate and robust mapping of burned areas so far developed (Roy , 2001, 2005). It has great potential for increasing our understanding of the impact of fire on Carbon budgets as well as in other areas (see fire below). Rebelo et al. (2005) show that semi-empirical signal tracking methods further developed from these models with an empirical temporal model allow for a more robust consideration of sudden changes in the reflectance signal, as well as more robust parameter mapping. Whilst these semi-empirical models have allowed for a range of practical applications, the model parameters associated with them have no direct physical meaning. The 3D modelling work undertaken within my group (developing from Lewis &amp; Disney, 1998 in Lewis et al., 2005; Disney et al., 2005) is pointing to the conclusion that if we separate the 'structural' aspects of scattering from the 'spectral' we can build much more meaningful 'lumped parameter' models, from which we can provide mappings of biophysical parameters, as well as more directly linking radiation scattering and absorption. This latter point is of particular importance if we are to use such models to drive vegetation/ecosystem growth models. A core stream of research within the CTCD is to develop improved modelling and monitoring of photosynthesis from space. We are doing this in several ways, using both simple models of Gross Primary Production (GPP) such as the Production Efficiency Approach (which more easily links to satellite observations) and more complex mechanistic models. This is currently developing in two main areas: (i) allowing for satellite observation-based estimates of GPP to be compared with mechanistic model predictions (Quaife et al., 2005); and (ii) allowing for the assimilation of satellite observations into mechanistic models to improve predictive capabilities and show model inadequacies. We are currently attempting this latter approach by assimilating satellite-derived products such as MODIS LAI, but we are also developing towards more directly linking the mechanistic model predictions to the observations through an 'EO operator', essentially a canopy scattering and absorption model driven by the mechanistic model state variables. This will use what we have learnt about simple parameterisatiuons of canopy scattering models and will allow for a clearer tracking of the uncertainties involved (thence uncertainties in Carbon flux prediction). In addition, we are investigating new methods for measuring photosynthetic activity from space with methods ranging from simple band ratios (Photochemical Reflectance Index - PRI, which is linked to light-use efficiency through Xanthrophyll cycling), and more recently, passive detection of fluorescence. Fire plays a major role in many ecosystem dynamics and is a large, dynamic and uncertain element of global Carbon bugets. One way in which Carbon release is estimated is by monitoring the area burned each year and multiplying this by factors associated with fuel load and fire intensity to arrive at estimates of Carbon released. We have therefore been working for several years to provide improved estimates of burned area from satellite data, building on our modelling expertise. As noted above, this has led to the development of the MODIS burned area product. An alternative and independent method for estimating Carbon release from biomass burning has been developed by Wooster (KCL). We have recently set up collaborative links with Wooster to combine these efforts with our improved burned area estimates and fire modelling activities within CTCD. We will be seeking NERC QUEST funding to follow this up. I have supervised around 20 MSc dissertations at UCL, and am currently responsible for four PhD students, three of whom are funded by NERC. I currently have three post-doctoral Research Fellows working for me on various NERC projects. I am involved in reviewing NERC and NASA grant applications, the former as a member of the NERC peer-review college, as well as reviewing papers for various journals including: RSE, RSR, IEEE GRS, IJRS, and New Phytologist. Computing on UNIX workstations: UNIX, X-windows etc. Shell programming. HTML; This is a ten week course offered to MSc students in Remote Sensing and Photogrammetry. Incorporates This is an intensive five week course which deals with models and methods for monitoring vegetation state from remote sensing data, mainly using physically-based models. This is a 15 unit (1 term) MSc course designed to enable students to understand the physics and applications of monitoring renewable natural resources using remote sensing. This course was taught with Prof. Tony Allan of SOAS, and dealt with the use of remote sensing and GIS in monitoring renewable and natural resources (local, regional, global scales). Wales, Swansea, and J-P Muller, Dept. Photogrammetry and Surveying, UCL) - Extension of £ 35K to original £101K. GRADE - good. 1999+: ESA/EUMETSAT MSG data grant. Evaluation of MSG land surface products With Marc Leroy (CESBIO), Fred Baret (INRA), J-L Roujean (METEOFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, using detailed 3D models to explore the information content of moderate resolution satellite data, to test simpler models and validate new (at the time!) satellite albedo products based on these simpler approaches. This led to work with NASA colleagues on , Suarez, L., Jones, S. D., Hill, M. J., Wilkes, P., Soto-Berelov, M. (2017) Validating indirect canopy clumping retrieval methods using a detailed 3D virtual forest model and simulated hemispherical photography, Agric. For. Meterol. (accepted). Gonzalez de Tanago, J., Lau, A., Bartholomeus, H., Herold, M., Avitabile, V., Raumonen, P., Martius, C., Goodman, R. C., Manuri, S., Burt, A., Pettorelli, N., Nagendra, H., Rocchini, D., Rowcliffe, M., Williams, R., Ahumada, J., De Angelo, C., Atzberger, C., Boyd, D., Buchanan, G., Chauvenet, A., , Duncan, C., Fatoyinbo, T., Fernandez, N., Haklay, M., He, K., Horning, N., Kelly, N., de Klerk, H., Liu, X., Merchant, N., Paruelo, J., Roy, H., Roy, S., Ryan, S., Sollmann, R., Swenson, J. and Wegmann, M. (2017) Remote Sensing in Ecology and Conservation: three years on, , Calders, K., Burt, A., Gonzalez de Tanago Menaca, J., Bartholomeus, H., Brede, B. and Herold, M. (2017) Data Acquisition Considerations for Terrestrial Laser Scanning of Forest Plots, Armston, J., Burt, A., Brede, B., Origo, N., Muir, J. and Nightingale, J. (2017) Evaluation of the Range Accuracy and the Radiometric Calibration of Multiple Terrestrial Laser Scanning Instruments for Data Interoperability, and Gaston, K. (2016) Measurement of fine-spatial-resolution 3D vegetation structure with airborne waveform lidar: Calibration and validation with voxelised terrestrial lidar, , Suarez, L., Jones, S. D., Hill, J., Wilkes, P. and Soto-Berelov, M. (2016) Quantifying the impact of woody material on leaf area index estimation from hemispherical photography using 3D canopy simulations, Agric. Forest Meteorol., 226-227, 1-12, , Schaaf, C., and Paynter, I. (2015) Terrestrial LIDAR for forest monitoring, Chapter 2.10 in GOFC-GOLD (2015) A sourcebook of methods and procedures for monitoring and reporting anthropogenic greenhouse gas emissions and removals associated with deforestation, gains and losses of carbon stocks in forests remaining forests, and forestation. and Raumonen, P. (2015) SimpleTree – An efficient open source tool to build tree models from terrestrial laser scanner (TLS) clouds, Forests, and Gaston, K. (2015) Is waveform worth it? A comparison of LiDAR approaches for vegetation and landscape characterisation, Remote Sensing in Ecology and Conservation, , Lovell, J. L., Schaaf, C. B., Strahler, A. H. and Danson, F. M. (2015) Terrestrial Laser Scanning for Plot Scale Forest Measurement, Current Forestry Reports, DOI: , Armston, J., Jones, S. D., Suarez, L., Hill, M. J., Wilkes, P., Soto-Berelov, M., Haywood, A. and Mellor, A. (2015) An improved theoretical model of canopy gap probability for Leaf Area Index estimation in woody ecosystems, Forest Ecology and Management, 358, 303-320 ( Widlowski, J. L., Mio, C., Disney, M., Adams, J., Andredakis, I., Atzberger, C., Brennan, J., Busetto, L., Chelle, M., Ceccherini, G. and Colombo, R. (2015) The fourth phase of the radiative transfer model intercomparison (RAMI) exercise: Actual canopy scenarios and conformity testing. B. Huntley, M. Williams, N. J. K. Howden, P. A. Wookey, R. Baxter (2015) Quantifying landscape-level methane fluxes in subarctic Finland using a multi-scale approach, Global Change Biology, DOI: , Danson, F.M., Strahler, A., Schaaf, C., Anderson, K. and Gaston, K. J. (2015) Waveform lidar over vegetation: An evaluation of inversion methods for estimating return energy, , Gunawan, O., Lewis, P. E., Pearson, G. and Ramirez, A. F. (2014) Developing a dual-wavelength full-waveform terrestrial laser scanner to characterise forest canopy structure, , Forests (OPEN ACCESS), Special Issue: LiDAR and Other Remote Sensing Applications in Mapping and Monitoring of Forests Structure and Biomass), 5, 1069-1105; doi:10.3390/f5051069. , Lewis, P. and Armston, J. (2014) Sensitivity of direct canopy gap fraction retrieval from airborne waveform lidar to topography and survey characteristics, , JP Gastellu-Etchegorry, M Gerboles, N Gobron, E Grau, H Huang, A Kallel, H Kobayashi, P Lewis, M Schlerf, J Stuckens, W Qin, D Xie (2013, in press) The 4th Radiation Transfer Model Intercomparison (RAMI-IV): Using ISO standards to evaluate model proficiency, JGR Atmospheres, , Mõttus, M, Rautiainen, M, Stenberg, P, Kaufmann, R, Marshak, A, Schull, MA, Carmona, PL, Vanderbilt, V, Davis, AB, Baret, F, Jacquemoud, S, Lyapustin, A, Yang, Y and Myneni, RB (2013) Reply to Ollinger et al. (2013): Remote sensing of leaf nitrogen and emergent ecosystem properties, Proceedings of the National Academy of Science, , Stenberg, P, Mõttus, M, Rautiainen, M, Kaufmann, R, Marshak, A, Schull, MA, Carmona, PL, Vanderbilt, V, Davis, AB, Baret, F, Jacquemoud, S, Lyapustin, A, Yang, Y and Myneni, RB (2013) Reply to Townsend et al.: Decoupling contributions from canopy structure and leaf optics is critical for remote sensing leaf biochemistry. Proceedings of the National Academy of Science, www.pnas.org/cgi/doi/10.1073/pnas.1301247110, ( , Verbesselt, J. and Herold, M. (2013) Modelling LiDAR waveforms to solve for canopy properties, Rem. Sens. Environ., 134, 39-49, doi: , Lewis, P., Scarth, P., Phinn, S., Lucas, R., Bunting, P., Goodwin, N. (2013) Direct retrieval of canopy gap probability using airborne waveform lidar, , Vanderbilt, V, Davis, AB, Baret, F, Jacquemoud, S, Lyapustin, A and Myneni, RB (2012) Hyperspectral remote sensing of foliar nitrogen content. Proceedings of the National Academy of Science, 110(3), E185-E192, doi:10.1073/pnas.1210196109 ( , and Muller, J. -P. (2012) Measuring tree height over topography and understory vegetation with dual wavelength lidar: a simulation study, , and Marchant, R. (2012) Leaf area index changes along precipitation gradients in tropical biomes of the Eastern Arc Mountains and their catchment areas , Muller, J. -P., Lewis, P. and Foster, M., (2011) A threshold insensitive method for locating tree tops with waveform lidar, , Lewis, P., Gomez-Dans, J., Roy, D., Wooster, M. and Lajas, D. (2011) 3D radiative transfer modelling of fire impacts on a two-layer savanna system, , Quaife, T., Lewis, P. and Williams, M. (2011) An assessment of the MODIS collection 5 Leaf Area Index product for a region of mixed coniferous forest, , Kalogirou, V., Lewis, P. E., Prieto-Blanco, A., Hancock, S. and Pfeifer, M. (2010) Simulating the impact of discrete-return lidar system and survey characteristics over 2 young conifer and broadleaf forests , Lewis, P., Bouvet, M, Prieto-Blanco, A. and Hancock, S. (2009) Quantifying surface reflectivity for spaceborne lidar via two independent methods, IEEE Trans. Geosci. Rem. Sens., 47(10), 3262-3271, doi: 10.1109/TGRS.2009.2019268 ( , Prieto-Blanco, A., Huntley, B., Baxter, B. and Lewis, P. (2009) Upscaling as ecological information transfer: A simple framework with application to Arctic ecosystem carbon exchange, Landscape Ecology, 24, 971-986, doi: 10.1007/s10980-009-9367-3 ( and Bowyer, P., (2008) Assimilating Canopy Reflectance data into an Ecosystem Model with an Ensemble Kalman Filter, Rem. Sens. Environ., 112(4),1347-1364, doi:10.1016/j.rse.2007.05.020 ( , Lewis, P., Lomas, L and Woodward, F. I. (2008) The impact of land cover uncertainties on estimates of biospheric carbon fluxes, Global Biogeochemical Cycles 22, GB4016, doi:10.1029/2007GB003097 ( , J.-P. Gastellu-Etchegorry, T. Lavergne, P. Lewis, P. R. J. North, B. Pinty, R. Thompson and M. M. Verstraete (2008) The RAMI Online Model Checker (ROMC): A web-based benchmarking facility for canopy reflectance models, accepted Rem. Sens. Environ., 112(3), 1144-1150, doi:10.1016/j.rse.2007.07.016. ( , R. Fernandes,4 J.-P. Gastellu-Etchegorry,5 N. Gobron,1 A. Kuusk,6 T. Lavergne,1 S. Leblanc,4 P. E. Lewis,3 E. Martin,5 M. M ottus,6 P. R. J. North,7 W. Qin,8 M. Robustelli,1 N. Rochdi,4 R. Ruiloba,2 R. Thompson,9 W. Verhoef,10 M. M. Verstraete,1 D. Xie,11 (2007) The third RAdiation transfer Model Intercomparison (RAMI) exercise: Documenting progress in canopy reflectance models, Journal of Geophys. Research (Atmospheres), , Lewis, P., Cescatti, A., Tian, Y., Verhoef, W., Martonchik, J. and Myneni, R. B. (2007) Canopy spectral invariants for remote sensing and model applications, Rem. Sens. Environ., , Lewis, P., Saich, P. (2006) 3D modelling of forest canopy structure for remote sensing simulations in the optical and microwave domains, , Lewis, P., Thackrah, G., Quaife, T., Barnsley, M. J. (2004) Comparison of MODIS broadband albedo with values derived from other EO data at a range of scales and ground measurements, over an agricultural site, Int. Journ. Rem. Sens., 25(23), 5297-5317 ( , Gascon, F., Gastellu, J.-P., Jiang, L., Kuusk, A., Lewis, P., Li, X., Ni-Meister, W., Nilson, T., North, P., Qin, W., Su, L., Tang, S., Thompson, R., Verhoef, W., Wang, H., Wang, J., Yan, G., Zang, H. (2004) Radiation Transfer Model Intercomparison (RAMI) exercise: Results from the second phase, J. Geophys. Res., Schaaf, C. B., Gao, F., Strahler, A. H., Lucht, W., Li, X., Tsang, T., Strugnell, N., Xiaoyang, Z., Jin, Y., Muller, J.-P., Lewis,P., Barnsley, M. J., Hobson, P. H., , Roberts, G., Dunderdale, M., Doll., C., D'Entremont, R. P., Hu, B. and Liang, S., Privette, J. L. and Roy, D. (2002) First operational BBRDF, albedo nadir reflectance products from MODIS, Rem. Sens. Environ., , Hobson, P., Cutter, M. and Lobb, D. (2000) The potential of the CHRIS-PROBA instrument for measurement of vegetation properties from space, , M. I., Barnsley, M. J. and Muller, J.-P. (1999) Deriving albedo maps for HAPEX-Sahel from ASAS data using kernel-driven BRDF models, (2016) Remote sensing of vegetation: potentials, limitations, developments and applications. In: K. Hikosaka, K., Niinemets, U. and Anten, N. P. R. (eds) Canopy Photosynthesis: From Basics to Applications.Springer Series: Advances In Photosynthesis and Respiration, Springer, Berlin, pp289-331. ISBN: 978-94-017-7290-7. DOI: 10.1007/978-94-017-7291-4. (2017) Weighing trees with lasers: TLS for biomass from tropical forests to city churchyards, Keynote address to Silvilaser, Blacksburg, Virginia Oct 10-12 2017. , Elsharif, A., Gaulton, R., Gough, C., Jovanovic, T., Schaaf, C. and Stovall, A. (2017) Early scanner data and structure retrievals from TLS calibrated by destructive sampling at Harvard Forest, Silvilaser, Blacksburg, Virginia Oct 10-12 2017. , Nightingale, J., Raumonen, P., Åkerblom, M. and Lewis, P. (2017) Virtual forests: realistic forest stand reconstruction from terrestrial lidar, Silvilaser, Blacksburg, Virginia Oct 10-12 2017. , Burt, A., Calders, K. and Boni Vicari, M. (2017) New methods to scale estimates of urban tree biomass, Silvilaser, Blacksburg, Virginia Oct 10-12 2017. , Marselis, S., Kellner, J. R., Fatoyinbo, L. and Dubayah, R. (2017) Bridging the gap between spaceborne, airborne and terrestrial lidar: The GEDI simulator, Silvilaser, Blacksburg, Virginia Oct 10-12 2017. and Calders, K. (2017) Towards traceable validation of fraction of absorbed photosynthetically active radiation (fAPAR) products derived from Earth Observation, RSPSoc Annual Conference, Imperial College London, Sep. 5-8 2017. Calders, K., Burt, A. and Boni Vicari, M. (2017) How can we improve estimates of tropical forest biomass? NCEO Annual Conference, 28-30 June 2017, Bath. , Calders, K., Boni Vicari, M. and Burt, A. (2017) Estimating the Urban Carbon Sink: a case study in Camden, NCEO Annual Conference, 28-30 June 2017, Bath. , Nightingale, J., Raumonen, P. and Lewis, P. (2016) Large area virtual forests from terrestrial laser scanning data, IGARSS2016, Beijing, China, 10-15 July 2016. , Chernetskiy, M. Waldner, F. Demarez, V., Battude, M. and Kussul, N. (2016) Data Assimilation Techniques to Monitor Agricultural Areas, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. , Erb, K., Frank, David, Frank, Dorothea, Herold, M., Jung, M., Kattge, J., Laurin, G., Papale, D., Perez, R., Reiche, J., Rodner, E., Sandel, B., Schmullius, C. and Urban, M. (2016) Detecting Changes in Essential Ecosystem and Biodiversity Properties: The H2020 project BACI, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. and Lewis, P. (2016) New Land Surface Products from the JRC-TIP applied to Surface Albedo Products, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. (2016) Using a Wireless Sensor Network and a Virtual Forest Stand to Validate Satellite-derived fAPAR, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. , Nightingale, J., Raumonen, P., Lewis, P. and Brennan, J. (2016) Constructing a large area virtual validation forest stand from terrestrial LiDAR, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. , Burt, A., Calders, K., Raumonen, P., Herold, M., Lewis, P., Lewis, S., Boni Vicari, M., Rowland, L., Meir, P. and Mitchard, E. (2016) 3D measurements of tropical forest structure for biomass, morphology and calibration and validation of satellite observations, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. , Lewis, P., Gomez-Dans, J., Chernetskiy, M., Urban, M., Schmullius, C. and Mahecha, M. (2016) Merging EO data across domains for terrestrial biodiversity change indicators, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. , van Leeuwen, M., Lewis, P., Gomez-Dans, J., Smallman, L., Williams, M., Quaife, T. and López-Saldaña, G. (2016) Combining Earth Observation, field data and models to upscale biogenic greenhouse gas emissions over agricultural landscapes, ESA Living Planet, Prague, Czech Republic, 10-12 May 2016. raceable quality assurance for independent reference data used in the validation of satellite ECV estimates, EGU, 17-22 April 2016, Vienna, Austria. , F. Chevallier (2015) Constraining GPP with Fluorescence: A Model-Data Fusion Approach for Constraining Modeled GPP at Global Scales Using GOME-2 Solar-Induced Fluorescence data, AGU San Francisco, Dec 2015. , Nightingale, J., Origo, N., Barker, A., Raumonen, P., Lewis, P., and Fox, N. (2015) Traceability of essential climate variables through forest stand reconstruction with terrestrial laser scanning, Silvilaser 2015, Sept 28-Oct 2 2015, La Grande Motte, France. , Murphy, S., Raumonen, P., Herold, M., Culvenor, D., Armston, J., Avitabile, V., Kaasalainen, M. (2015) Reducing uncertainties in above-ground biomass estimates using terrestrial laser scanning, Silvilaser 2015, Sept 28-Oct 2 2015, La Grande Motte, France. , Gaston, K. J. (2015) Using full-waveform lidar to characterise urban habitat structure and function, Silvilaser 2015, Sept 28-Oct 2 2015, La Grande Motte, France. , Burt, A. , Calders, K., Raumonen, P., Lewis, P., Rowland, L. , Mitchard, E. and Meir, P. (2015) New approaches to assessing tropical forest biomass and structure using terrestrial laser scanning, RSPSoc, NCEO and CEOI-ST Joint Annual Conference, Southampton, UK, September 9-11 2015. (2015) Emulation, Emulation, Emulation! Efficient radiative transfer models for biophysical parameter retrieval, RSPSoc, NCEO and CEOI-ST Joint Annual Conference, Southampton, UK, September 9-11 2015. , P. Lewis (2015) A Generic Retrieval Package for Land Parameters applied to Surface Albedo Products, ESA Sentinel for Science workshop, Venice, Italy, 2-5 June 2015. , P. Lewis (2015) A Generic Retrieval Package for Land Parameters applied to Surface Albedo Products, 6th EUMETSAT LSA Satellite Applications Facility (SAF) User Training Workshop, Univ. of Reading, Reading, UK 8-10 June 2015. (2014) Data Assimilation for land surface studies in the Sentinel era: how can we deliver? NCEO-CEOI Joint Science Conference, University of Sheffield, 24-27 June, Sheffield. , Burt, A., Calders, K., Raumonen, P., Gonzalez de Tanago, J., Cuni Sanchez, A., Herold, M., Armston, J., Lewis, S., Lines, S. and Lewis, P. (2014) New applications of 3D measurements and modelling to quantifying forest structure and biomass, Global Vegetation Modelling and Measurement (GV2M) meeting, Avignon, France, 3-7 Feb 2014. (2014) Non-destructive Estimations of above-ground biomass using terrestrial lidar, Global Vegetation Modelling and Measurement (GV2M) meeting, Avignon, France, 3-7 Feb 2014. (2013) Estimating above-ground biomass from terrestrial laser scanning in Australian Eucalypt open forest, Silvilaser 2013, Beijing, China, 9-11 Oct 2013. (2013) Earth observation WAter Cycle Multi-mission Observation Strategy – EvapoTranspiration (WACMOS-ET): advancing in the production of evapotranspiration from satellite observations, EUMETSAT Meteorological Satellite Conference, 16-20 Sept. 2013. (2013) Earth observation WAter Cycle Multi-mission Observation Strategy – EvapoTranspiration (WACMOS-ET): advancing in the production of evapotranspiration from satellite observations, ESA Living Planet Symposium, Edinburgh 9-13 Sept. 2013. (2013) Edge-Preserving Data Assimilation for Fire Monitoring using Moderate Resolution Optical Data, ESA Living Planet Symposium, Edinburgh 9-13 Sept. 2013. , Jones, S., Suarez, L.,Hill, M., Wilkes, P., Soto-Berelov, M., Haywood, A. and Mellor, A. (2013) The impact of sensor characteristics for obtaining accurate ground- , Burt, A., Raumonen, P., Armston, J., Calders, K. and Lewis, P. (2013) Rapid characterisation of forest structure using TLS and 3D modelling, in proc. IGARSS2013, Melbourne, Australia, Jul 21-26 2013. , Åkerblom, M. and Kaasalainen, M. (2013) Fast automatic method for constructing topologically and geometrically precise tree models from TLS Data, FSPM2013, Saariselkä, Finland, 9-14 June, 2013. , McKay, H. (2013) tLiDAR methodologies can overcome limitations in estimating forest canopy LAI from conventional hemispherical photograph analyses, FSPM2013, Saariselkä, Finland, 9-14 June, 2013. et al. (2013) Monitoring canopy structure and leaf biochemistry using multiangle and hyperspectral data, NASA Terrestrial Ecology Science Team meeting, Scripps Seaside Forum, La Jolla, California, USA, April 30-May 2 2013.. , Roy, D. and Wooster, M. (2013) Edge-preserving data assimilation and a spectral change interpretation model for fire monitoring using optical DA, EGU Vienna, 7-12 April 2013. , Lewis, P., Gastellu-Etchegorry, J.-P., Brazile, J. and Koetz, B. (2012) Novel reference site approach to prototyping, calibrating, and validating Earth observation data and products, AGU San Francisco, USA, 3-7 Dec 2012. , Lewis, P. and Raumonen, P. (2012) Testing a new vegetation structure retrieval algorithm from terrestrial lidar scanner data using 3D models, Silvilaser 2012, 16-19 September, Vancouver, BC, Canada. , Scarth, P., Lucas, R., Phinn, S., Lewis, P. and Goodwin, N. (2012, submitted) Simulating the impact of changing airborne lidar sensor and survey properties on estimation of vegetation structure parameters, Silvilaser 2012, 16-19 September, Vancouver, BC, Canada. , Gastellu-Etchegorry, J.-P., Brazile, J. and Koetz, B. (2012) 3D-Vegetation Laboratory: A scientific support tool for accuracy assessment and prototyping of EO data and products, ForestSAT 2012, 11-14 September, Oregon State University, Corvallis, Oregon, US. , J. Verbesselt, M. Herold (2012) Effects of clumping on waveform lidar in modelled forest canopies, IEEE IGARSS 2012, 22-27 July 2012, Munich, Germany. , M. Danson, H. McKay (2012) Estimating forest canopy structure from tLIDAR measurements: a case study with a 670nm laser, Lidarnet workshop, Univ. of Leicester, 2-3 April 2012. ,Lewis, P., Scarth, P., Bunting, P., Lucas, R., Phinn, S., Goodwin, N. (2011) Comparison of Discrete Return and Waveform Airborne Lidar Derived Estimates of Fractional Cover in an Australian Savanna, SilviLaser 2011, Oct 16-20 2011, Hobart, Tasmania. , in proc. 34th International Symposium on Remote Sensing of Environment - The GEOSS Era: Towards Operational Environmental Monitoring, 10-15 April 2011, Sydney, Australia. , HUNTLY, B., WOOKEY, P. A., BAXTER, R. (2011) Landscape-level methane fluxes in arctic Finland: sources, sinks and environmental control, BES Annual Meeting 2011, 12 - 14 September, University of Sheffield, UK. , Watt, J. (2010) A probabilistic framework for inverting reflectance data using the PROSPECT model, Forestsat’2010, Lugo, Spain, 7-10 September, 2010. , Wooster, M., Roy, D. (2010) A novel approach to fire detection and characterisation using optical remote sensing, Forestsat’2010, Lugo, Spain, 7-10 September, 2010. et al (2010) Carbon Mapping in the Eastern Arc Mountains Biodiversity Hotspot - from Ground to Space", in proc. ESA Living Planet Symposium, 27 June - 2 July, Bergen, Norway. (2010) On canopy spectral invariants and hyperspectral ray tracing, 2nd Workshop on Hyperspectral Image Processing: Evolution in Remote Sensing (WHISPERS), 14-16 June, Reykjavik, Iceland. ( , P. Lewis, and P. Ineson (2010) Using satellite observations to improve model estimates of CO2 and CH4 from peatlands, ESA Living Planet Symposium, Bergen, Norway, 28 June - 2nd July 2010. , P. Lewis, and P. Ineson (2010) Using satellite observations to improve model estimates of CO2 and CH4 flux: a Metropolis Hastings Markov Chain Monte Carlo approach, EGU meeting, Vienna, Austria, 3-7 May 2010. , A. Prieto-Blanco, P. Lewis, M. Williams, P. Stoy, T. Hill, R. Poyatos, R. Baxter, B. Huntley, T. Wade, J. Moncrieff (2010) Deriving above-ground biomass of mountain birch across Fennoscandian regions from remotely sensed data, IPY Oslo Science Conference 8-12 June, Oslo, Norway. , Fletcher, B., Poyatos, R., Wade, T., Street, L. and Moncrieff, J., (2010) Multi-scale functional convergence of tundra vegetation simplifies carbon flux modeling, IPY Oslo Science Conference 8-12 June, Oslo, Norway. (2010) The Salford Advanced Laser Canopy Analyser (SALCA): A multispectral full waveform LiDAR for improved vegetation characterisation, in Proc. Rem. Sens. and Photog. Soc. Conference, Burlington House, London, 5th May 2010. Williams, M., Stoy, P. C., Baxter, R., Phoenix, G, Hill, T., Moncrieff, J., Sloan, V., Evans, J., Harding, R., Fletcher, B., Poyatos, R., Hartley, I., Street, L., Wade, T., Subke, J., , Prieto-Blanco, A. and Wookey, P. (2010) The carbon cycle of Arctic Fennoscandia: Assimilating multi-scale observations into ecological models, Ecol. Soc. America, Aug 1-6 2010, Pittsburgh, PA, USA. , Prieto-Blanco, A., Clement, R. and Nichol, C. (2009) Airborne remote sensing of photosynthetic light use efficiency and carbon uptake along an arctic transect in Finland, AGU Fall meeting, 14-18 December 2009, San Francisco, California, USA. ; Evans, J.; Fletcher, B.; Gornall, J.; Harding, R.; Hartley, I. P.; Ineson, P.; Moncrieff, J.; Phoenix, G.; Sloan, V.; Poyatos, R.; Prieto-Blanco, A.; Subke, J.; Street, L.; Wade, T. J.; Wayolle, A.; Wookey, P.; Williams, M. D. (2009) The Sub-Arctic Carbon Cycle: Assimilating Multi-Scale Chamber, Tower and Aircraft Flux Observations into Ecological Models, AGU Fall meeting, 14-18 December 2009, San Francisco, California, USA. , Evans, J., Fletcher, B., Gornall, J., Harding, R., Hartley, I., Hill, T., Ineson, P., Moncrieff, J., Phoenix, G., Pope, V., Poyatos, R., Prieto-Blanxo, A., Subke, J., Street, L., Wade, T., Wayolle, A. and Wookey, P. (2009) The carbon cycle of Fennoscandia: assimilating multi-scale observations into ecosystem models, in proc. ICDC8 International Carbon Dioxide Conference, Jena, 13-19 Sept, 2009. , Lewis, P., Gómez-Dans, J and Ganguly, S. (2009) Satellite Monitoring of Disturbances in Arctic Ecosystems, in proc. IGARSS09, Cape Town, SA, 12-17 July 2009. , Wooster, M., Roy, D. and Pinty, B. (2009) Modelling the impact of wildfire on spectral reflectance, in proc. IGARSS09, Cape Town, SA, 12-17 July 2009. and Lewis, P. (2008) Satellite Monitoring of Disturbances in Arctic Ecosystems, EOS Trans. AGU, 89(53), Fall Meet. Suppl., Abstract U13B-0051. , M. Foster, J.-P. Muller (2008) Assessing the accuracy of forest height estimation with long pulse waveform lidar through Monte-Carlo ray tracing, in proc. Silvilaser08, 17-19 September, Edinburgh, 2008 , Lewis, P. and Bouvet, M. (2008) Quantifying surface reflectivity for spaceborne lidar missions, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. and M. Williams(2008) Estimating the spatial exchange of carbon through the assimilation of Earth Observation (EO) derived products using an Ensemble Kalman Filter, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. , P. Lewis, J.-P. Muller (2008) Exploring the measurement of forests with full waveform lidar through Monte-Carlo ray tracing, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. , Lewis, P. and P. Ineson (2008) Using remote sensing data to quantify changes in vegetation over peatland areas, in proc. IGARSS'08, 5-11 July, Boston, USA, 2008. , DeKauwe, M., Williams, M. and Law, B. (2007) Assimilating reflectance data into an ecosystem model to improve estimates of terrestrial carbon fluxes, in pro. IGARSS07, Barcelona, Spain, 23-27 July 2007. and Lewis, P. (2007) Spectral invariant behaviour of a complex 3D forest canopy, in proc. 10th ISPMSRS meeting, Davos, Switzerland, 12-14 March 2007. and Lewis, P. (2007) Simulating gap fraction of complex forest scenes, in proc. 10th ISPMSRS meeting, Davos, Switzerland, 12-14 March 2007. (2007) Using Monte Carlo ray tracing to investigate the measurement of forest parameters with the Echidna laser scanner, in proc. 10th ISPMSRS meeting, Davos, Switzerland, 12-14 March 2007. , Lewis, P. and Muller, J.-P. (2006) Using lidar to characterise tree canopies, in proc. of IWMMM-4, 20-24th March 2006, Sydney, Australia. , Woodward, F. I., Quegan, S. and Lewis, P. (2005) Using SPOT-VEGETATION data for dynamic vegetation modelling within the Centre for Terresrial Carbon Dynamics (CTCD), in proc. Int. VEGETATION User Conference, XXX, XXXX, Vol 5., pp247-254. , Lewis, P., Quaife, T. and Nichol, C. (2005) A spectral invariant approach to modelling canopy and leaf scattering, in proc. of ISPMSRS05, Beijing, China, October 17-19 2005, ISSN 1682-1750, 318-320. (2005) 3D dynamic vegetation modelling of wheat for remote sensing simulations and inversion, in proc. of ISPMSRS05, Beijing, China, October 17-19 2005, ISSN 1682-1750, 144-146. and DeKauwe, M. (2005) Assimilating Earth Observation data into a vegetation model using an Ensmble Kalman Filter, in proc. of ISPMSRS05, Beijing, China, October 17-19 2005, ISSN 1682-1750, 386-389. , Quaife, T., Nichol, C. and Rebelo, L. (2005) CTCD CHRIS-PROBA activities: biophysical parameter retrieval from CHRIS-PROBAD data over Harwood Forest, Northumberland, UK. In , M. Williams and P. Lewis (2004) The potential for assimilation of EO-measured radiance in terrestrial carbon studies: simulation of the canopy radiation regime, NERC EO conference, Plymouth, June 30 - July 1, 2004. , P. Lewis and P. Saich (2004) 3D modelling of forest canopy structure for remote sensing simulation and parameter estimation, in proc. 4th International Workshop on Functional-Structural Plant Models, CIRAD, Montpellier, June 7-11, 2004, p 282. , B. Andrieu, C. Fournier, T. Macklin and J. Bodley (2004) Calibration of an L-system model of winter wheat for remote sensing modelling and inversion, in proc. 4th International Workshop on Functional-Structural Plant Models, CIRAD, Montpellier, June 7-11, 2004, pp 257-261. (2004) Evaluation of the MODIS continuous tree cover map over the UK, NERC EO conference, Plymouth, June 30 - July 1, 2004. , P. Saich and M. Barnsley, (1993) The development of robust algorthms for retrieving biophysical parameters from multiangle hyperspectral image data, Spaceborne Hyperspectral Imaging Workshop, Cannes, December 8-9 2003. , P. Saich, and P. Lewis Modelling the radiometric response of a dynamic, 3D structural model of Scots Pine in the optical and microwave domains, IGARSS'03 Toulouse, July 21-25, 2003. , B. Andrieu, C. Fournier, S. Ljutovac, Modelling the radiometric response of a dynamic, 3D structural model of wheat in the optical and microwave domains", IGARSS'03 Toulouse, July 21-25, 2003. Biophysical parameter retrieval from forest and crop canopies in the optical and microwave domains using 3D models of canopy structure, IGARSS'03 Toulouse, July 21-25, 2003. , M. Lomas, Intercomparison of phenological measures derived from medium and coarse resolution earth observation and implications for assimilation into vegetation growth models, IGARSS'03 Toulouse, July 21-25, 2003. , P. Lewis, G. Thackrah, L. Rebelo, G. Roberts, M. Barnsley, T. Quaife, J. Shaw and P. Hobson (2002) MODIS MOD43 Validation: core sites: Barton Bendish (BB), Norfolk, UK. MODIS validation workshop, Dept. Geography Boston University, October 2002. , G. Thackrah, M. Barnsley, T. Quaife, J.-P. Muller (2002) MODIS MOD43 Validation: core sites: Mongu/Skukuza, Zambia. MODIS validation workshop, Dept. Geography Boston University, October 2002. Schaaf, C. B., F. Gao, A. H. Strahler, W. Lucht, X. Li, X. Zhang, Y. Jin, E. Tsvetsinskaya, J.-P. Muller, P. Lewis, M. Barnsley, G. Roberts, , C. Doll, S. Liang, D. Roy, and Jeff Privette, Land Surface Albedo, Nadir BRDF-Adjusted Reflectance, and BRDF Product from the MODerate Resolution Imaging Spectroradiometer (MODIS), Proceedings, 11th Conference on Satellite Meteorology and Oceanography, AMS, Madison, WI, 15-18 October, 2001. and G. Thackrah, 2001. Comparison of Hymap/E-SAR data with models for optical reflectance and microwave scattering from vegetation canopies, in proc. Third International Workshop on Retrieval of Bio- and Geo-Physical Parameters from SAR data for Land Applications, Sheffield, September 2001. Schaaf, C. B., A. H. Strahler, F. Gao, W. Lucht, X. Li, X. Zhang, Y. Jin, E. Tsvetsinskaya, J.-P. Muller, P. Lewis, M. Barnsley, G. Roberts, , C. Doll, S. Liang, and J. L. Privette, Operational Bidirectional Reflectance and Albedo Products from the MODerate Resolution Imaging Spectroradiometer (MODIS), Abstract, IGBP Global Change Open Science Conference in Amsterdam, Netherlands, 9-13 July, 2001. Schaaf, C. , A. H. Strahler, F. Gao, W. Lucht, X. Li, J.-P. Muller, P. Lewis, M. Barnsley, P. Hobson, , G. Roberts, M. Dunderdale, C. Doll, Land Surface Spectral Bidirectional Reflectance and Albedo from the MODerate Resolution Imaging Spectroradiometer (MODIS), Abstract, American Geophysical Union Spring Meeting, Boston, MA, 29 May - 2 June, 2001. Schaaf, C. B., F. Gao, A. Straler, W. Lucht, T. Tsang, N. Strugnell, X. Li, X. Zhang, J-P. Muller, P. Lewis, M. Barnsley, P. Hobson, , M. Dunderdale, G, Roberts, C. Doll and S. Liang. Temporal Characteristics of the MODIS BRDF/Albedo Product. Proceedings of the 8th International Symposium on Physical Measurements and Signatures in Remote Sensing, Aussois, France, 8-12 January, 233-238, 2001. M.J. Barnsley, T. Quaife, P.D. Hobson, J. Shaw, P. Lewis, M. Disney, J-P. Muller, A.H. Strahler, C. Barker-Schaaf and W. Lucht, (2000). Estimation of Land-Surface Albedo and Biophysical Properties using SPOT-4 VGT and Semi-Empirical BRDF Models. In proc: Vegetation 2000. Lago Maggiore, Italy. Schaaf, C.B.; Feng Gao; Strahler, A.H.; Tsang, T.; Lucht, W.; Strugnell, N.; Xiaowen Li; Muller, J.-P.; Lewis, P.; Barnsley, M.; Hobson, P.; ; Dunderdale, M.;Roberts, G., (2000) The Moderate Resolution Imaging Spectroradiometer (MODIS) BRDF and albedo product, AGU Fall 2000 Meeting, San Francisco, Dec 2000. Schaaf, C.B.; Feng Gao; Strahler, A.H.; Tsang, T.; Lucht, W.; Strugnell, N.; Xiaowen Li; Muller, J.-P.; Lewis, P.; Barnsley, M.; Hobson, P.; ; Dunderdale, M.;Roberts, G., (2000) Initial Results From the Moderate Resolution Imaging Spectroradiometer (MODIS) BRDF and Albedo Product, AGU Spring 2000 Meeting, Washington DC, May 30-June 3. Schaaf, C.B.; Feng Gao; Strahler, A.H.; Tsang, T.; Lucht, W.; Strugnell, N.; Xiaowen Li; Muller, J.-P.; Lewis, P.; Barnsley, M.; Hobson, P.; ; Dunderdale, M.; Roberts, G., (2000) The Moderate Resolution Imaging Spectroradiometer (MODIS) BRDF and albedo product: preliminary results, IEEE International Geoscience and Remote Sensing Symposiun, 2000. Proceedings. IGARSS 2000. Volume: 7, 2000 Page(s): 3048 -3050 vol.7 Schaaf, C., Strahler, A., Lucht, W., Tsang, T., Gao, F., Li, X., Strugnell, N., Chen, L., Liu, Y., McIver, D., Muller, J.-P., Lewis, P., Barnsley, M. J., , M. I. (1999) The development of spectral kernels to improve the linear kernel-driven approach to BRDF modelling, IWMMM-2 JRC Ispra, Italy September 15-17, 1999. , M. I. (1999) Application of the Botanical Plant Modelling System (BPMS) to the analysis of spatial information in remotely sensed imagery , , M. I. and Riedmann, M. (1999) Application of the Botanical Plant Modelling System (BPMS) to the </t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Our work is focussed on the development of thin films of materials by chemical vapour deposition and sol-gel. We are also interested in the formation of functionalised nanoparticles, especially of gold and metal oxides. Our work is driven by functional properties and we regularly measure photocatalysis, wetting, antimicrobial properties and conductivity. We have made the worlds stickiest hydrophobic surface.</t>
+  </si>
+  <si>
+    <t>I graduated from the Department of Geography, University College London in 1990. I then worked as a Research Assistant in the Department for a year before beginning my PhD, supervised by Jacquie Burgess. In 1994 I moved to Bristol to work as a Temporary Lecturer in the Department of Geography while writing up my PhD, which was awarded in 1995. In the autumn of that year I moved to Exeter to work as a Tutor, becoming a Lecturer there until September 2000, when I returned to UCL. Since then I've been Chair of Undergraduate Exam Board, Anthropology and Geography Joint Degree Tutor, Teaching and Learning Co-ordinator, and Third Year Tutor (Deputy Undergraduate Tutor), Kneale, J. and French, S. (2015), ‘Moderate drinking before the unit: Medicine and life assurance in Britain and the US c.1860–1930’, Kneale, J. (2015) ‘Anstie, Francis’; ‘Carnival’; ‘Mathew, Father Theobald’; ‘Pub Crawls’; ‘Rechabite Friendly Society’; ‘Victorian England and Alcohol’ in Martin, Scott C. (ed.) Boniface, S., Kneale, J. and Shelton, N. (2014) 'Drinking pattern is more strongly associated with under-reporting of alcoholconsumption than socio-demographic factors: evidence from a mixed-methods study,' Kneale, J. and French, S. (2013) ‘“The Relations of Inebriety to Insurance”: geographies of medicine, insurance and alcohol in Britain, 1840-1911’, in Herring, Regan, Weinberg, and Withington (eds.), Kneale, J. (2013) ‘I have never been to Nasqueron: A geographer reads Iain M. Banks’, in Colebrook, M. and Cox, K. (eds.) Boniface, S., Kneale, J. and Shelton, N. (2013), ‘Actual and Perceived Units of Alcohol in a Self-Defined “Usual Glass” of Alcoholic Drinks in England’. Kneale, J. (2011) ‘Pubs and Wine Bars’, in Southerton, D., Crane, D., Ekstrom, K., Jackson, P., Trentmann, F., Warde, A., Wilk, R. (ed.) Holloway, J. and Kneale, J. (2009) ‘Philosophy: Dialogism (After Bakhtin)’, in Kitchin, R. and Thrift, N. (eds.) The International Encyclopedia of Human Geography (Elsevier). Kneale, J (1999) ‘The virtual realities of technology and fiction: reading William Gibson’s cyberspace’, in Crang, Crang, and May (eds.), The first concerns historical and contemporary geographies of drink, drunkenness, and temperance. I have published on nineteenth- and twentieth-century constructions of drink as a spatial problem, and on the parallels between historical and contemporary policy, popular and medical discussions of binge-drinking. Recently my interests have turned to temperance insurance, working with Dr Shaun French at the University of Nottingham. I was one of the organizers of ' I am a co-investigator on the ‘Insuring healthcare in a digital world’ project funded by a Wellcome Trust Seed Award within the Society And Ethics programme (£34,068, 2015-16), with Liz McFall (OU, PI), and CIs Shaun French (Nottingham) and Zsuzsanna Vargha (Leicester). on the relationships between insurance and the histories and geographies of nineteenth and early twentieth-century climatology and meteorology. We've already given papers on this at the International Congress of History of Science Technology and Medicine (2013) and the British Association of Victorian Studies conference (2013 &amp; 2014). The second area concerns literary geographies and representations of space, particularly in non-realist genres (science fiction, horror, ghost stories, utopias, etc). As well as editing with Rob Kitchin. I have written about William Gibson, H. P. Lovecraft, Iain M. Banks and Kim Stanley Robinson, and (briefly) Arthur Machen and Algernon Blackwood. I'm also interested in Maureen Duffy, M. John Harrison, and other writers. I developed some of this work through visits to the University of Tokyo in 2005 and 2007 as a visiting researcher. The first trip was funded by a ¥12 million (~£61,000) grant from the Japanese Ministry of Education for a four-year project on ‘Utopia', working with Professors Tanji, Tanji, Yaguchi, Miyamoto Alvey, Tsuchida, and Hones at the Universities of Tokyo, Yokohama Kokuritsu and Hokkaido. . Intended as an interdisciplinary research resource, it has had nearly 14,000 views from 97 countries since the end of February 2012. I contributed written and verbal evidence on histories and geographies of drinking to the Parliamentary Health Select Committee in 2009. The Committee used a good deal of this material in its In terms of press interest, I've contributed to stories on drinking on TV (BBC Breakfast News) and radio programmes (‘Night Waves’, Radio 3; ‘The Long View’, Radio 4; BBC local radio), and in print (the Various publics have encountered my work in other ways: a UCL Lunchtime Lecture, ‘Those that don't drink, don't die so fast’ (27 Nov 2012), on temperance and insurance, which can be seen . I have also participated in a Café Culture discussion with author Toby Litt and others from UCL SELCS (2015), a panel quiz at the Grant Museum of Zoology (2014) and a public talk at the Petrie Museum (2014). - includes the following resources and many more: The Proceedings of the Old Bailey, 1674-1913, British History Online, House of Commons Parliamentary Papers, London Lives (1690-1800), C19th Newspaper. Go to C19th Newspapers and then click on ‘Change Database’ at the top of the page; then click ‘Newsvault’, the fourth option down, to search C18th-C19th Newspapers and Periodicals, Illustrated London News Historical Archive, Times Digital Archive, Times Literary Supplement Historical Archive and more. Joe Thorogood, 'Geopolitics, Assemblage and the War on Drugs: Changing Dynamics of Opioid Consumption', (f/t, ESRC 1+3 award), second supervisor with Dr Jason Dittmer, 2015-present. Charlotte Jones, ‘A Social History of Turkish Baths in Victorian London’ (f/t, ESRC 1+3 award). Supervised jointly with Professor Richard Dennis, 2008-2017. Adefemi Adekunle, ‘“You have to represent your ends.” Youth territoriality in Inner City London’ (f/t, ESRC CASE funded), started 2008, second supervisor 2010-2014. Linda Ng, ‘Understanding and promoting sensible drinking in young people: a mixed method approach’ (Impact studentship &amp; Alcohol Education and Research Council-funded), second supervisor with Dr Nicola Shelton (Epidemiology and Public Health), 2010-14. Beck Collins, ‘Investigating UK Teens' Consumption Through The Lens of Divestment’ (f/t, ESRC 1+3 funded). Started 2009, second supervisor with Dr Russell Hitchings, 2010-2013. Andrew Barnfield, ‘Sport, Movement and the Event: understanding the expressivity of Football’ (f/t, privately funded). Second supervisor with Dr. Alan Latham, 2008-2012. Darya Malyutina, 'Migrant sociality in a 'global city': friendship, transnational networks, racism and cosmopolitanism. A study of Russian-speaking migrants in London.’ (f/t, ORS-funded). Second supervisor with Dr. Alan Latham, 2009-2012.</t>
+  </si>
+  <si>
+    <t>Alan was born in London. He was educated at Birmingham University, where he obtained a first class honours degree in Economics, Geography and Politics, and at the London School of Economics where he obtained his doctorate. After brief interludes in advertising and economic consultancy he obtained a research post at the Institute of Latin American Studies and then took up a lectureship jointly at UCL and the Institute. Subsequently he was promoted to a Readership and then a Chair at UCL. His research is concerned with urbanisation and poverty in developing countries and particularly in Latin America and South Africa. Over the last ten years he has undertaken projects on housing subsidies in Chile, Colombia and South Africa; on the influence of Washington on the diffusion of knowledge about development policy; on information flows among asylum seekers in the UK; on secondary housing markets in Colombia and South Africa; on the impact of globalisation on urban life in Latin America; on rental housing in informal settlements in Africa, Asia and Latin America, and improving urban governance: an evaluation of the ‘success’ story of Bogotá, Colombia. He has published extensively and has authored or co-authored nine books, edited four others and written well over one hundred academic articles on these topics. On the basis of this research, the University of London awarded him a Doctorate in Literature and he was elected to the Academy of Learned Societies for the Social Sciences. In recent years, he has served on the editorial boards of several journals and acted as external examiner in many universities. He has also been Head of the Geography Department at UCL. He has also worked as an adviser to several international institutions over the last ten years including the Inter-American Development Bank, UN-HABITAT, United Nations University, United Nations Population Fund, the Woodrow Wilson Center and the World Bank. Economic and Social Research Council, Member of the Environment and Planning, and the International Affairs Committees, 1982-87; Advanced course recognition exercise, 1992-date; Advanced course and research scholarships, 1991-93. Editorial boards: Bulletin for Latin American Research, 1981-1989, Geographical Magazine, 1991-95, International Development Planning Review, 2002-date, International Planning Studies, 1994-date, Singapore Journal of Tropical Research, 1993-date, Planning Perspectives, 1986-2000, Center for US-Mexican Studies, University of California publication series, 1988-91, International Development Planning Review (formerly Third World Planning Review, 1991-2002, Revista de Estudios Urbano-Regionales, 1992-2004, Latin American Research Review, 2003-5, Habitat International, 2005-date, Cuadernos de Vivienda y Urbanismo, 2008-date. Alan has worked on projects concerned with employment, housing, urbanisation and regional development in developing countries for the Inter-American Development Bank, United Nations Centre for Human Settlements, UNESCO, United Nations Fund for Population Activities, the United Nations University and the World Bank. Director of major research project financed by Ministry of Overseas Development 'Public Intervention, Housing and Land Use in Latin American Cities' (budget £105,000). Coordinator of research project financed by the International Development Research Centre of Canada on rental housing in Latin America (total approved budget CAD$453,000). Director of research project financed by Department of International Development on 'Secondary housing markets in third world cities' (total approved budget £36,790) Co-Director of research project financed by Home Office on 'The dissemination to potential asylum seekers of information about UK immigration and asylum policy and practice' (£96,088). Director of research project financed by the Leverhulme Trust on ‘Improving urban governance: an evaluation of the ‘success’ story of Bogotá, Colombia’ (Budget £81,313).</t>
+  </si>
+  <si>
+    <t>Kevin is Professor of Human Geography and is the School of Environment's Director of External Relations and the Faculty's Director of at the University of Manchester. He is a geographical political economist with interests in urban politics and policy on the one hand, and work and employment on the other. His current work explores urban policies to see where they come from, how they travel, where they end up and what these journeys mean for the cities the policies pass through. Theoretically, this involves rethinking what is meant by ‘the urban’ in urban politics, as elements of different places are assembled and reassembled to constitute particular ‘urban’ political realms. Methodologically, this involves doing fieldwork in a range of sites inside and outside of the cities that are the objects of study, literally seeking to reveal the circuits, networks and webs in and through which policies are moved. His co-edited book (with Eugene McCann) Mobile Urbanism: Cities and Policymaking in the Global Age (Minnesota University Press) was published in 2011. He is currently exploring the constitution of financial 'models' that have emerged in different areas of the world and that have been circulating as a means of funding infrastructure in the current economic condition. Amy Barron (2016 - ) Interrogating the 'Age-Friendly City': A Comparative Study of Lived Experience’ (with C Perkins and H F Wilson) ( Graeme Moore (2016 - ) ‘Changing perceptions and representations of the UK Evening and Night Time Economy: Last orders at the bar?’ (with S Warren) ( Alistair Sheldrick (2016 - ) ‘Negotiating difference in the austere city: Forced migrant and non-migrant responses to austerity in Liverpool and Rochdale’ (with J Darling and K Burrell, University of Liverpool) Kathleen Stokes (2016 - ) ‘‘Turning livelihoods to rubbish? Responsibility and labour in South African waste management’ (with E Swyngedouw) Mathew Lane (2012- ) ‘Assembling Lusaka: A Case Study exploring the actors and approaches to urban planning in post-colonial Africa’(with J Faulconbridge, Lancaster University ( Katharine Jones (2007-2012) The role of temporary staffing agencies in facilitating accession eight migration into the UK (ESRC funded, with N Coe) Ross Jones (2005-2010) Ethically certified coffee in Vietnam: uneven landscapes of governance in the coffee production network (University of Manchester funded, with N Coe) 2011: 'Assembling urbanism: Following policies and 'studying through' the sites and situations of policy-making' Association of American Geographers annual conference, Seattle, April 2009: Delivering the sanitised downtown: the case of Milwaukee, Construction and consumption of placeless space conference, School of Social Policy, Sociology and Social Work Studies, University of Liverpool, April 2009: Comparing cities under neo-liberal conditions, Plenary at Redefinition of public space with the privatization of cities: 5th international conference of the research network of private urban governance and gated communities, University of Santiago, March 2009: Making the new urban politics possible? Topological geographies of urban expertise and knowledge, Association of American Geographers annual conference, Las Vegas, March 2008: Variegated temporary staffing markets, Globalisation and service workplaces, Peter Wall Institute of Advanced Studies, University of British Columbia, Vancouver, October 2008: Varieties of temporary staffing: evidence from five countries, Transforming work: a multi-disciplinary conference on new forms of employment and their regulation, University of Oxford, September 2008: 'Flexibility in action: the temporary staffing industry and labour market restructuring in the Czech Republic and Poland, Rotterdam School of Management, Erasmus University, Rotterdam, June 2008: Post-socialist varieties of temporary staffing: evidence from the Czech Republic and Poland, Alfred P Sloan Foundation Industry Studies Annual Conference, Boston, May 2008: Towards a conceptualization of cities in the world, Policy transfer session, Association of American Geographers annual conference, Boston, March (with E McCann) The Business of Migration: The role of agencies in facilitating migration into the UK from Australia, the Philippines and Poland</t>
+  </si>
+  <si>
+    <t>Tzedakis, P.C., Crucifix, M., Mitsui, T. &amp; E.W. Wolff (2017) A simple rule to determine which insolation cycles lead to interglacials. Tzedakis, P.C., Channell, J. E. T., Hodell, D. A., Kleiven, H. F. &amp; Skinner, L. C. (2012) Determining the natural length of the current interglacial. Margari, V., Skinner, L.C., Tzedakis, P.C., Ganopolski, A., Vautravers, M. &amp; Shackleton, N.J. (2010) The nature of millennial-scale climate variability during the past two glacial periods. Tzedakis, P. C., Roucoux, K. H., de Abreu, L. &amp; Shackleton, N. J. (2004) The duration of forest stages in southern Europe and interglacial climate variability. Tzedakis, P.C., Lawson, I.T., Frogley, M.R., Hewitt, G.M. &amp; Preece, R.C. (2002) Buffered Tree Population Changes in a Quaternary Refugium: Evolutionary Implications. Tzedakis, P.C., Crucifix, M., Mitsui, T. &amp; E.W. Wolff (2017) A simple rule to determine which insolation cycles lead to interglacials. Milner, A.M., Roucoux, K.H., Collier, R.E.L., Müller, U.C., Pross, J. &amp; Tzedakis, P.C. (2016) Vegetation responses to abrupt climatic changes during the Last Interglacial Complex (Marine Isotope Stage 5) at Tenaghi Philippon, NE Greece. Ruddiman, W.F., Fuller, D.Q., Kutzbach, J.E., Tzedakis, P.C., Kaplan, J.O., Ellis, E.C., Vavrus, S.J., Roberts, C.N., Fyfe, R., He, F., Lemmen, C. &amp; Woodbridge, J. (2016) Late Holocene climate: Natural or anthropogenic?, Birner, B., Hodell, D.A., Tzedakis, P.C. &amp; Skinner, L.C. (2016) Similar millennial climate variability on the Iberian margin during two early Pleistocene glacials and MIS 3. Hoogakker, B.A.A., Smith, R.S., Singarayer, J.S., Marchant, R., Prentice, I.C., Allen, J., Anderson, R.S., Bhagwat, S.A., Behling, H., Borisova, O., Bush, M., Correa-Metrio, A., de Vernal, A., Finch, J.M., Frechette, B., Garcia, S.L., Gosling, W.D., Granoszewski, W., Grimm, E.C., Gruger, E., Hanselman, J., Harrison, S.P., Hill, T.R., Huntley, B., Jimenez-Moreno, G., Kershaw, P., Ledru, M.-P., Magri, D., McKenzie, M., Muller, U., Nakagawa, T., Novenko, E., Penny, D., Sadori, L., Scott, L., Stevenson, J., Valdes, P.J., Vandergoes, M., Velichko, A., Whitlock, C. &amp; Tzedakis, P.C. (2016) Terrestrial biosphere changes over the last 120,000 years and their impact on ocean d Hodell, D., Lourens, L., Crowhurst, S, Konijnendijk, T., Tjallingii, R., Jiménez-Espejo, F., Skinner, L., Tzedakis, P.C. &amp; Shackleton Site Project Members (2015) A reference time scale for Site U1385 (Shackleton Site) on the SW Iberian Margin Govin, A., Capron, E., Tzedakis, P.C., Verheyden, S., Ghaleb, B., Hillaire-Marcel, C., St-Onge, G., Stoner, J., Bassinot, F., Bazin, L., Blunier, T., El Ouahabi, A, Genty, D., Gersonde, R., Jimenez-Amat, P., Landais, A., Martrat, B., Masson-Delmotte, V., Seidenkrantz, M.-S., Veres, D., Waelbroeck, C. &amp; Zahn R. (2015) Sequence of events from the onset to the demise of the Last Interglacial: evaluating strengths and limitations of chronologies used in climatic archives. Wilson, G.P., Reed, J.M., Frogley, M.R., Hughes, P.D. &amp; Tzedakis, P.C. (2015) Reconciling diverse lacustrine and terrestrial system response to penultimate deglacial warming in Southern Europe. Pross, J., Koutsodendris, A., Christanis, K., Fischer, T., Fletcher, W.J., Hardiman, M., Kalaitzidis, S., Knipping, M., Kotthoff, U., Milner, A.M., Müller, U.C., Schmiedl, G., Siavalas, G., Tzedakis, P.C., Wulf, S. The 1.3-Ma-long terrestrial climate archive of Tenaghi Philippon, northeastern Greece: Evolution, exploration and perspectives for future research. Giaccio, B., Regattieri, E., Zanchetta, G., Nomade, S., Renne, P.R., Sprain, C.J., Drysdale, R.N., Tzedakis, P.C., Messina, P., Scardia, G., Sposato, A., Bassinot, F. (2015) Duration and dynamics of the best orbital analogue to the present interglacial. Litt, T., Pickarski, N., Heumann, G., Stockhecke, M. &amp; Tzedakis, P.C. (2014) A 600,000 year long continental pollen record from Lake Van, eastern Anatolia (Turkey). Margari, V., Skinner, L.C., Hodell, D.A., Martrat, B., Toucanne, S., Grimalt, J.O., Gibbard, P.L., Lunkka, J.P. &amp; Tzedakis, P.C. (2014) Land-ocean changes on orbital and millennial timescales and the penultimate glaciation. Lawson, I.T., Tzedakis, P.C., Roucoux, K.H. &amp; Galanidou, N. (2013) The anthropogenic influence on wildfire regimes: charcoal records from the Holocene and Last Interglacial at Ioannina, Greece. Hodell, D.A., Lourens, L., Stow, D.A.V., Hernández-Molina, J., Alvarez Zarikian, C.A. &amp; the Shackleton Site Project Members (2013) The “Shackleton Site” (IODP Site U1385) on the Iberian Margin. Channell, J.E.T., Hodell, D.A, Margari, V., Skinner, L.C., Tzedakis, P.C., &amp; Kesler, M.S. (2013) Biogenic magnetite, detrital hematite, and relative paleointensity in Quaternary sediments from the Southwest Iberian Margin. Hodell, D., Crowhurst, S., Skinner, L., Tzedakis, P.C., Margari, V., Maclaghlan, S. &amp; Rothwell, G. (2013) Response of Iberian Margin sediments to orbital and suborbital forcing over the past 420 kyr. Torres, V., Hooghiemstra, H., Lourens, L. &amp; Tzedakis, P.C. (2013) Astronomical tuning of long pollen records reveals the dynamic history of montane biomes and lake levels in the tropical high Andes during the Quaternary. Milner, A.M., Müller, U.C., Roucoux, K.H., Collier, R.E.L., Pross, J., Kalaitzidis, S., Christanis, K., and Tzedakis, P.C. (2013) Environmental variability during the Last Interglacial: a new high-resolution pollen record from Tenaghi Philippon, Greece. Jones, T.D., Lawson, I.T., Reed, J.M., Wilson, G.P., Leng, M.J., Gierga, M., Bernasconi, S.M., Tzedakis, P.C. (2013) Diatom-inferred late Pleistocene and Holocene palaeolimnological changes in the Ioannina basin, northwest Greece. Birks, HH., Giesecke, T., Hewitt, G.M., Tzedakis, P.C., Bakke, J., &amp; Birks, H.J.B. (2012) Comment on ''Glacial Survival of Boreal Trees in Northern Scandinavia'' Tzedakis, P.C., Wolff, E.W., Skinner, L.C., Brovkin, V., Hodell, D.A., McManus, J.F. &amp; Raynaud, D. (2012) Can we predict the duration of an interglacial? Milner, A.M., Collier, R.E.L., Roucoux, K.H., Müller, U.C., Pross, J., Kalaitzidis, S., Christanis, K. &amp; Tzedakis, P.C. (2012) Enhanced seasonality of precipitation in the Mediterranean during the early part of the Last Interglacial. Lowe, J., Barton, N., Blockley, S., Ramsey, C.B., Cullen, V.L., Davies, W., Gamble, C., Grant, K., Hardiman, M., Housley, R., Lane, C.S., Lee, S., Lewis, M., MacLeod, A., Menzies, M., Müller, W., Pollard, M., Price, C., Roberts, A.P., Rohling, E.J., Satow, C., Smith, V.C., Stringer, C.B., Tomlinson, E.L., White, D., Albert, P., Arienzo, I., Barker, G., Borić, D., Carandente, A., Civetta, L., Ferrier, C., Guadelli, J.-L., Karkanas, P., Koumouzelis, M., Müller, U.C., Orsi, G., Pross, J., Rosi, M., Shalamanov-Korobar, L., Sirakov, N. &amp; Tzedakis, P.C. (2012) Volcanic ash layers illuminate the resilience of Neanderthals and early modern humans to natural hazards. Tzedakis, P.C., Channell, J. E. T., Hodell, D. A., Kleiven, H. F. &amp; Skinner, L. C. (2012) Determining the natural length of the current interglacial. Roucoux, K.H., Tzedakis, P.C., Lawson, I.T. &amp; Margari, V. (2011) Vegetation history of the penultimate glacial period (Marine Isotope Stage 6) at Ioannina, north-west Greece. Müller, U.C., Pross, J., Tzedakis, P.C., Gamble, C., Kotthoff, U., Schmiedl, G., Wulf, S., Christanis, K. (2011) The role of climate in the spread of modern humans into Europe. Manzi, G., Magri, D., Milli, S., Palombo, M.R., Margari, V., Celiberti, V., Barbieri, M., Barbieri, M., Melis, R.T., Rubini, M., Ruffo, M., Saracino, B., Tzedakis, P.C., Zarattini, A., Biddittu, I. (2010) The new chronology of the Ceprano calvarium (Italy). Fletcher, W.J., Sánchez Goñi, M.F., Allen, J.R.M., Cheddadi, R., Combourieu-Nebout, N., Huntley, B., Lawson, I., Londeix, L., Magri, D., Margari, V., Müller, U.C., Naughton, F., Novenko, E., Roucoux, K., Tzedakis, P.C. (2010) Millennial-scale variability during the last glacial in vegetation records from Europe. Tzedakis, P.C. (2010) The MIS 11 – MIS 1 analogy, southern European vegetation, atmospheric methane and the “early anthropogenic hypothesis”. Margari, V., Skinner, L.C., Tzedakis, P.C., Ganopolski, A., Vautravers, M. &amp; Shackleton, N.J. (2010) The nature of millennial-scale climate variability during the past two glacial periods. Margari, V., Gibbard, P.L., Bryant, C.L. &amp; Tzedakis, P.C. (2009) Character of vegetational and environmental changes in southern Europe during the last glacial period; evidence from Lesvos Island, Greece. Tzedakis, P.C., Pälike, H., Roucoux, K.H. &amp; de Abreu, L. (2009) Atmospheric methane, southern European vegetation and low-mid latitude links on orbital and millennial timescales. Wilson, G.P., Reed, J.M., Lawson, I.T., Frogley, M.R., Preece, R.C. &amp; Tzedakis, P.C. (2008) Diatom response to the last glacial-interglacial transition in the Ioannina basin, northwest Greece: implications for Mediterranean palaeoclimate reconstruction Pross, J., Tzedakis, P., Schmiedl, G., Christanis, K., Hooghiemstra, H., Müller, U.C. (2007) Tenaghi Philippon (Greece) Revisited: Drilling a Continuous Lower-Latitude Terrestrial Climate Archive of the Last 250,000 Years. Tzedakis, P.C., Hooghiemstra, H. &amp; Pälike, H. (2006) The last 1.35 million years at Tenaghi Philippon: revised chronostratigraphy and long-term vegetation trends. Roucoux, K.H., Tzedakis, P.C., de Abreu, L. &amp; Shackleton, N.J. (2006) Climate and vegetation changes 180,000 to 345,000 years ago recorded in a deep-sea core off Portugal. de Abreu, L., Abrantes, F. F., Shackleton, N. J, Tzedakis, P. C., McManus, J.F., Oppo, D. W. &amp; Hall, M. A. (2005) Ocean climate variability in the eastern North Atlantic during interglacial marine isotope stage 11: A partial analogue to the Holocene? Roucoux, K. H., de Abreu, L., Shackleton, N. J &amp; Tzedakis, P. C. (2005) The response of NW Iberian vegetation to North Atlantic climate oscillations during the last 65 kyr. Tzedakis, P. C., Roucoux, K. H., de Abreu, L. &amp; Shackleton, N. J. (2004) The duration of forest stages in southern Europe and interglacial climate variability. Tzedakis, P.C., Frogley, M.R., Lawson, I.T., Preece, R.C., Cacho, I. &amp; de Abreu, L. (2004) Ecological thresholds and patterns of millennial-scale climate variability: The response of vegetation in Greece during the last glacial period. Tzedakis, P.C., McManus, P.C., Hooghiemstra, H., Oppo, D. W. &amp; Wijmstra, T.A. (2003) Comparison of changes in vegetation in northeast Greece with records of climate variability on orbital and suborbital frequencies over the last 450,000 years. Huntley, B., Alfano, M.J., Allen, J., Pollard, D. Tzedakis, P.C., de Beaulieu, J.-L., Grüger, E. &amp; Watts, W.A. (2003) European vegetation during Marine Oxygen Isotope Stage 3, Tzedakis, P.C., Lawson, I.T., Frogley, M.R., Hewitt, G.M. &amp; Preece, R.C. (2003) Reply to comment on "Buffered vegetation changes in a Quaternary refugium: evolutionary implications". Tzedakis, P.C., Lawson, I.T., Frogley, M.R., Hewitt, G.M. &amp; Preece, R.C. (2002) Buffered Tree Population Changes in a Quaternary Refugium: Evolutionary Implications. Kukla, G.J., Bender, M.L., de Beaulieu, J.L., Bond, G., Broecker, W.S., Cleveringa, P., Gavin, J.E., Herbert, T.D., Imbrie, J., Jouzel, J., Keigwin, L.D., Knudsen, K-L., McManus, J.F., Merkt, J., Muhs, D.R., Müller, H., Poore, R.Z., Porter, S.C., Seret, G., Shackleton, N.J., Turner, C., Tzedakis, P.C. &amp; Winograd, I.J. (2002) Last Interglacial climates. Griffiths, S.J., Giffiths, H.I., Altinsacli, S. &amp; Tzedakis, P.C. (2002) Interpreting the Tyrrhenocythere (Ostracoda) signal from palaeolake Kopais, central Greece, Griffiths, S.J., Street-Perrot, A., Holmes, J.A., Leng, M.J. &amp; Tzedakis, P.C. (2002) Chemical and isotopic composition of modern water bodies in the Lake Kopais Basin, central Greece. Papazisimou, S., Bouzinos, A., Christanis, K., Tzedakis, P.C. &amp; Kalaitzidis, S. (2002) The upland Holocene transitional mires of Elatia forest. Northern Greece, Roucoux, K.H., Shackleton, N.J., de Abreu, L., Schönfeld, J. &amp; Tzedakis, P.C. (2001) Combined marine proxy and pollen analyses reveal rapid vegetation response to North Atlantic millennial-scale climate oscillations. de Beaulieu, J.-L., Andrieu, V., Grüger, E., Reille, M. &amp; Tzedakis, P.C. (2001) Correlation between the Velay pollen sequence and the Middle Pleistocene stratigraphy from Central Europe. Tzedakis, P.C., Andrieu, V., de Beaulieu, J.-L., Birks, H.J.B., Crowhurst, S., Follieri, M., Hooghiemstra, H., Magri, D., Reille, M., Sadori, L., Shackleton, N.J. &amp; Wijmstra, T.A. (2001) Establishing a terrestrial chronological framework as a basis for biostratigraphical comparisons. Bouzinos, A., Papazisimou, S., Christanis, K. &amp; Tzedakis, P.C. (2000) High peat accumulation rate in the tectonic depression of Katouna, western Greece. Galanidou, P., Tzedakis, P.C., Lawson, I.T. &amp; Frogley, M.R. (2000) A revised chronological and palaeoenvironmental framework for the Kastritsa rockshelter, northwest Greece. Tzedakis, P.C., Andrieu, V., de Beaulieu, J.-L., Crowhurst, S., Follieri, M., Hooghiemstra, H., Magri, D., Reille, M., Sadori, L., Shackleton, N.J. &amp; Wijmstra, T.A. (1997) Comparison of terrestrial and marine records of changing climate of the last 500,000 years. Luterbacher, J., R. García-Herrera, S. Akcer-On, R. Allan, M. C. Alvarez-Castro, G. Benito, J. Booth, U. Büntgen, N. Cagatay, D. Colombaroli, B. Davis, J. Esper, T. Felis, D. Fleitmann, D. Frank, D. Gallego, E. Garcia-Bustamante, R. Glaser, J. F. González-Rouco, H. Goosse, T. Kiefer, M. G. Macklin, S. Manning, P. Montagna, L. Newman, M. J. Power, V. Rath, P. Ribera, D. Riemann, N. Roberts, M. Sicre, S. Silenzi, W. Tinner, B. Valero-Garces, G. van der Schrier, C. Tzedakis, B. Vannière, S. Vogt, H. Wanner, J. P. Werner, G. Willett, M.H. Williams, E. Xoplaki, C. S. Zerefos, and E. Zorita (2012) A review of 2000 years of paleoclimatic evidence in the Mediterranean. In: Lionello, P. (Ed.), The Climate of the Mediterranean region: from the past to the future. Elsevier, Amsterdam, The Netherlands, 87-185. Roucoux, K. H., Tzedakis, P. C., de Abreu, L., and Shackleton, N. J. (2007). Fine tuning land–ocean correlations for the Middle Pleistocene of southern Europe. In: Sirocko, F., Claussen, M., Sanchez Goni, M. F. &amp; Litt, T. (Eds) Tzedakis, P.C. (2004) The Balkans as prime glacial refugial territory of European temperate trees In: Griffiths, H.I., Krystufek, B &amp; Reed, JM (eds). Bouzinos, A., Papazisimou, S., Christanis, K. &amp; Tzedakis, P.C. (2001) The floating mire of Voulkaria Lake (Prefecture of Aitoloakarnania). Proceedings of the 9 van Andel, T.H. &amp; Tzedakis, P.C. (1998) Priority and opportunity: reconstructing the European Middle Palaeolithic climate and Landscape. In: J. Bailey (ed.) Maslin, M., Sarnthein, M., Knaack, J.-J, Grootes, P. &amp; Tzedakis, P.C. (1998) Intra-interglacial cold events: an Eemian-Holocene comparison. In: A. Cramp, C. J. MacLeod, S. V. Lee &amp; E. J. W. Jones (eds) van Andel, T.H. &amp; Tzedakis, P.C. (1996) European Palaeolithic landscapes 140,000-30,000 years ago - a summary. In: O. Bar-Yosef, L.Cavalli-Sforza, R.J. March, M. Piperno (eds) Martrat, B., Tzedakis, P.C., Margari, V., Skinner, L.C., Hodell, D.A. and Grimalt, J.O. (2015) Multi-decadal temperature changes off Iberia over the last two deglaciations and interglacials and their connection with the polar climate. Tzedakis, P.C., McManus, J.F., Raynaud, D., Hodell, D.A., Skinner, L.C. &amp; Wolff, E.W. (2012) The 4th PAGES Past Interglacials Workshop. Department of Earth Sciences, University of Cambridge, Cambridge, Uk, 2-5 July 2012. Tzedakis, P.C., Andrieu, V., de Beaulieu, J.-L., Crowhurst, S., Follieri, M., Hooghiemstra, H., Magri, D., Reille, M., Sadori, L., Shackleton, N.J. &amp; Wijmstra, T.A. (1999) 0.5 million-year pollen records from southern Europe. My research centres on understanding the response of vegetation to variations in climatic forcing on orbital and millennial timescales. I have generated some of the longest reference pollen records from terrestrial and marine sequences. An underlying theme is the linking of terrestrial, marine and ice-core records to assess how land events relate to atmospheric and ocean changes. Recent research focuses on past interglacials, which are providing a basis for comparison with the present interglacial and its future evolution. This work has provided insights into the: (i) response characteristic of European vegetation to orbital and millennial climate changes; (ii) nature and distribution of glacial tree refugia; (iii) climatic signature of critical intervals in human evolution; (iv) occurrence and duration of interglacials and implications for the natural length of our current interglacial. NERC: “Terrestrial responses to millennial and sub-millennial climate variability in the Early Glacial and implications for the hydrological cycle” £64,747 (PI) NERC: “Response of vegetation to climate variability on orbital and millennial frequencies during the penultimate climate cycle in W. Greece” I am involved in setting the research agenda on the study of interglacials by leading international scientific initiatives (INQUA Stage 11 Project [2004-2007]; PAGES Working Groups on Past Interglacials [2008-2015] and Quaternary Interglacials [2015-2021]). ) is informing the debate on conservation strategies in Europe. My papers on the duration of interglacials (Tzedakis et al., 2004 A long-standing commitment is to bring the result of my research to large and diverse audiences. I have written in popular outlets, presented my work in major public lectures (e.g. CosmoCaixa Science Museum, Barcelona; Goulandris Museum, Athens), given numerous interviews and was scientific advisor for a 13-part series on</t>
+  </si>
+  <si>
+    <t>. I am also the co-director of the UCL Extreme Citizen Science group, which is dedicated to allowing any community, regardless of their literacy, to use scientific methods and tools to collect, analyse, interpret and use information about their area and activities. In the late 1980s, I worked in a company that developed computer mapping systems on early personal computers (IBM PC with 80286 and 386 processors). I became interested in Geographic Information Systems (GIS) and understood that I need to have proper academic foundations in this area. This has led me to pursue a BSc in Computer Science and Geography at the Hebrew University of Jerusalem (1994). Through these studies, I became interested in the role of GIS in the context of environment and society. I heard first-hand reports on , and got an award for a report on spatial aspects of environmental impact assessment. I continued with an MA in Geography (1997, Hebrew University of Jerusalem) with elements of computer science. I came to UCL to do my PhD in Geography (2002, UCL). In 2001 he joined UCL as a lecturer and promoted to a professor in 2011. In 2017. Between 2001 and 2017 I was a member of the department of Civil, Environmental and Geomatic Engineering. . This is an aspect of environment and society relationships – we construct our understanding of environmental issues through scientific research and information, and environmental decision making is relying on scientific and professional information. This creates a major obstacle for public participation in environmental decision making – because participants are expected to have the ability to access, use, and understand the information in order to argue for a specific course of action. There are many side effects that are caused by the interface between environmental information and the public. In the process of trying to make sense of the public and environmental information, I’ve explored many related areas. This include: – most environmental information have a spatial component, and therefore it is stored and managed in GIS. To understand how it is being produced and how to make it easier to use, I ventured into the area of HCI. My interest here is in using theories, approaches, and tools from HCI/UE in the service of building participatory mapping systems, or in sharing environmental information with the public. These techniques are also helpful in understanding and researching how environmental information is used. – I have an ongoing interest in considering the wider implications of geographical technologies: from GIS to GPS, to mobile phones and the way geographical information is evolving and used. I have been exploring the literature on philosophy of technology, science and technology studies, and public engagement in science and technology. These frameworks are helpful in considering the societal aspects of these technologies, as well as considering how interventions and new technologies should be developed. – participatory mapping is an important method that allows the public to create their own environmental information and use it. I have been working in this area on a range of scales – from small scale mapping with local residents who live near UCL in central London, to the analysis of OpenStreetMap contributions from across the world during the Haiti earthquake in 2010. The technologies that are developed within the ExCiteS groups are especially geared towards this area – for example the Sapelli application that is aimed at allowing illiterate participants to participate in environmental information production. Fundamental to this area is the integration of technology and social practices to ensure that participation in inclusionary and meaningful. – Citizen science opened up the possibilities for participants from all walks of life to participate in creating environmental information that is actionable and usable. I am interested in participatory forms of citizen science that include extended peer communities (as suggested by Funtowicz and Ravetz 1993), the citizen-led concept of scientific knowledge production (as suggested by Irwin 1995), and bottom-up activities that are inclusive and participatory. In particular, in ExCiteS we’re developing a form of citizen science that is situated, bottom-up practice that takes into account local needs, practices and culture and works with broad networks of people to design and build new devices and knowledge creation processes that can transform the world. – the access and use of environmental information and its role in environmental decision making is linked to regulations, conventions, and policies. A common aspect of my reserach is the analysis of the policy landscape and understanding how the technical and societal aspects of producing and using information fit within wider organisational and governance systems. Since 2001, I have secured over £13.5 million in research funding, from research councils, and the public, private and third sectors. Some of these projects include: ‘ – Collaborative project with Natural History Museum of Brussels, Université Paris Descartes, Waag Society, European Citizen Science Association, Medialab Prado, Kapelica Galery, Meritum Poland, Tekiu, Eutema, and Université de Genève. It is aimed at increasing the awareness and participation in citizen science across Europe. , funded by EPSRC. Funding to develop an understanding engineering and participatory methods to reduce fire and earthquake impact on communities ’ – Collaborative project with Université Paris Descartes, France; European Organization for Nuclear Research (CERN), United Nations Institute For Training And Research (UNITAR) and Université de Genève, Switzerland; Imperial College and Gold Mobile Innovation Ltd, UK. Research and evaluation of on-line collaborative environments and software tools that stimulates creative learning in the context of Citizen Cyberscience and citizen science. The project ran from 2012-2015. ’. Collaborative project with the Fondazione ISI – Institute for Scientific Interchange, Italy; Sapienza Università di Roma, Italy; Gottfried Wilhelm Leibniz Universität Hannover, Germany; and the Flemish Institute of Technological Research, Belgium to explore participatory sensing of urban environment and behaviour change. The project ran from 2011 to 2014. , funded by EPSRC and ESRC and focusing on a detailed study of four suburban town centres in London. The project ran from 2010 to 2013. , funded by EPSRC to encourage multi-disciplinary research at UCL, especially in the areas of engineering and the built environment. The project ran from 2008 to 2011. , funded by EPSRC and focusing on London’s suburban town centres. The project is already influencing policy by being part of a policy review, carried out by URBED on behalf of the North West London strategic alliance. The project ran from 2006 to 2009. . The project focused on the development of longitudinal evaluation of their activities and was part of their strategic evaluation programme. The project ran from 2006 to 2008. aimed at mapping environmental change and development in London. The project combined both community development and participatory mapping, using a public mapping system to monitor local sustainability and local development plans. The project was carried out in collaboration with More details about my experience and various projects on which I have worked on in the past 20 years can be found on Over the past 20 years, I have contributed to wider societal and economic activities through consultancy, promoting social enterprise activities at UCL (and setting the first UCL owned social enterprise), and through contribution to policy. I have been involved in over 20 consultancy projects in the past 15 years, working on usability aspects of public GIS (with Wandsworth Council, Camden Police), geographic information management (with the MoD, Ordnance Survey, Argent King’s Cross), and participatory mapping (London Sustainability Exchange, URBED). The most recent projects were with the World Bank-GFDRR on managing a study and report writing about VGI use in government; Woodrow Wilson International Centre for Scholars writing a report about Citizen Science and policy; and with Client Earth adaptation of the Saepelli app to handle HTML files so it can be used to navigate legal documents about logging. a social enterprise that will support sustainable communities through online mapping, Geographical Information Systems (GIS), and citizen science. Details of Mapping for Change activities are “, and the work of ExCiteS have received coverage in Nature, Science, Le Monde, BBC Click and many other outlets. I was the course tutor of the University of London M.Sc. in GIScience from 2002 to 2006, again in 2010 and continue to teach on this and other programmes at UCL. Course material is published on the I have supervised 32 PhD students as a first and secondary superviser since 2003. These students were at UCL, the Univeristy of Malta, Ben Gurion University, Tel Aviv University, and the University of Illinois at Urbana-Champaign. (funded by the EPSRC and Laser Scan Ltd). Topic: 3D Topological Queries in Spatial Databases. Peter Woodsford [visiting professor, Geomatic Engineering] second supervisor. Subsequently Lecturer in GIS, UCL. (funded by the government of Greece). Topic: Spatial Data Mining for Property Valuation. Paul Cross [Geomatic Engineering] second supervisor. Subsequently Risk Modeller at RMS. (funded by the government of Portugal). Topic: Spatial Decision Support for Wind Farm Siting. Paul Densham [Geography] second supervisor. Subsequently Lecturer in GIS, University of Coimbra, Coimbra, Portugal (funded by the ESRC through a 1+3 arrangement). Topic: Mobile Alerting Service for Community Activities. Paul Longley [Geography] second supervisor. Subsequently post-doctoral researcher, McGill University, Montreal (funded by the Greek Government). Topic: Mapping in the era of Web 2.0. Jeremy Morley [Nottingham CGS] second supervisor. Subsequently officer in the Greek Military Survey. (funded by EPSRC and Dr Foster Intelligence). Topic: Usability of Maps and GIS in Health Informatics. Angela Sasse [CS] second supervisor. Subsequently a researcher at the University of Nottingham. Seong K. Choi (self funded). Topic: A geospatial ontology for intelligent transport systems. Pragya Agarwal [Lancaster] second supervisor. Completed his studies in 2015. Thomas Koukoletsos (funded by the Greek Government). Topic: Spatial Data Quality of Volunteer Geographical Information. First supervisor and Claire Ellul [CEGE] second. Subsequently officer in the Greek Military Survey. (funded by EU FP7). Topic: Community participation in environmental monitoring. Jennifer Gabrys [Goldsmiths] second supervisor. Subsequently a postdoctoral researcher at UCL. (funded by EPSRC and the Zoological Society of London). Topic: Developing citizen science mobile application using gaming concepts. Nathalie Pettorelli [Institute of Zoology] second supervisor. (funded by EPSRC). Topic: scientific visualisations for non-literate users. Claire Ellul [CEGE] second supervisor. Subsequently a postdoctoral researcher at UCL. (funded by the ESRC and Camden Primary Care Trust through a KTP arrangement). Topic: Modelling Health Behaviour s Using Geodemographics. Paul Longley [Geography] first supervisor. Subsequently post-doctoral researcher, UCL and then Lecturer in Human Geography, University of Portsmouth. Christian Castle (funded by the ESRC and Camden Primary Care Trust through a CASE arrangement). Topic: Evacuation Modelling for Kings Cross Underground Station. Paul Longley [Geography] first supervisor. Subsequently consultant in Mott-MacDonald. (funded by the EPSRC and the Ordnance Survey through a CASE for New Academics arrangement). Topic: The Enrichment of Spatial Databases using an Ontological Approach. Rod Béra [Geomatic Engineering] first supervisor. Subsequently analyst, Risk Management Solutions. Catherine Lowe (funded by the ESRC through a 1+3 arrangement). Topic: Evaluation Vulnerability of Volcanic Island Communities. Jointly supervised by myself, Paul Longley [Geography] and Bill McGuire [Benfield Hazard Research Centre]. Subsequently analyst, Aon Benfield Analytics. Karin Talmor, Tel Aviv University (self-funded). Topic: the Effect of ICT on Urban and Regional Planning. Juval Portugali [TAU Geography] first supervisor. Appointment approved by TAU. (funded by EPSRC and Arup). Topic: Trust in Web-GIS for Nuclear Waste Siting. Tao Cheng [CEGE] first supervisor. Subsequently researcher, UCL. , the University of Illinois, Urbana-Champaign. Topic: Motivations of contributors to Volunteer Geographical Information project. I was requested to join the Thesis Committee. Subsequently post-doctoral researcher, McGill University, Montreal. (funded by EPICENTRE and ImageCat Ltd). Topic: Multi-disciplinary Indicators to measure and monitor Earthquake Resilience by using Remote sensing and GIS. Tiziana Rossetto [CEGE] first supervisor. , Ben Gurion University, Israel (self-funded). Topic: participatory mapping and DIY science in contested cities. Haim Yacobi [BGU] and Michal Givoni [BGU] first supervisors. , the University of Malta (self-funded). Topic: modelling walkability in Malta with volunteered geographic information. Maria Attard [UoM] first supervisor. (funded by the EU H2020). Topic: Human Computer Interaction and Spatial Data Quality for Online Civic Engagement. Artemis Skarlatidou [UCL] first supervisor. Rickles, P., Haklay, M., Ellul, C., and Skarlatidou, A. 2017. Citizen Science with GIS&amp;T. The Geographic Information Science &amp; Technology Body of Knowledge (3rd Quarter 2017 Edition), John P. Wilson (ed.). doi: Haklay, M. Mazumdar, S., and Wardlaw, J., forthcoming 2017. Citizen Science for observing and understanding the Earth in Mathieu, P.P. and Aubrech, C. Open Science for Earth Observations Haklay, M., and Francis, L., forthcoming 2017. Participatory GIS and community-based citizen science for environmental justice action, in Chakraborty, J., Walker, G. and Holifield, R.(eds.), Handbook of Environmental Justice, Routledge Haklay, M., 2017. Volunteered Geographic Information and Citizen Science, in Lauriault, T.P., Kitchin, R., and Wilson, M. (eds.), Understanding Spatial Media, Sage . in D. Richardson, N. Castree, M. Goodchild, W. Liu, A. Kobayashi, &amp; R. Marston (eds.) The International Encyclopedia of Geography: People, the Earth, Environment, and Technology. Hoboken, NJ: Wiley/AAG In Loreto, V., Haklay, M. , Hotho, A., Servedio, V.D.P, Stumme, G., Theunis, J., Tria, F.. (eds.) Participatory Sensing, Opinions and Collective Awareness. Springer. pp. 201-212. , In Loreto, V., Haklay, M., Hotho, A., Servedio, V.D.P, Stumme, G., Theunis, J., Tria, F. (eds.) Participatory Sensing, Opinions and Collective Awareness. Springer. , UCL Press, pp. 11-31Haklay, M., 2015. Preface – OpenStreetMap studies and Volunteered Geographical Information, in Jokar, J.A., Zipf, A., Mooney, P., and Helbich, M. (eds.) OpenStreetMap in GIScience: Experiences, Research, and Applications Springer. Haklay, M., 2015. Preface – OpenStreetMap studies and Volunteered Geographical Information, in Jokar, J.A., Zipf, A., Mooney, P., and Helbich, M. (eds.) OpenStreetMap in GIScience: Experiences, Research, and Applications Springer. , in Ruas, A. (Ed.) Advances in Cartography and GIScience, Volume 1 Selection from ICC 2011, Paris Springer, Berlin. pp. 219-238 Ellul C, Rahemtulla H and Haklay M, 2009, Beyond the Internet – Increasing Participation in Community Events by Text Messaging, in: Krek, A, Rumor, M, Zlatanova, S and Fendel E.M (eds) , Brail, R. K., Klosterman, R. E. (Eds.), ESRI Press / Center for Urban Policy Research Press, Redland. pp. 405-443. Eitzel, M.V., Cappadonna, J.L., Santos-Lang, C., Duerr, R.E., Virapongse, A., West, S.E.., Kyba, C.C.M., Bowser, A., Cooper, C.B., Sforzi, A., Metcalfe, A.N., Harris, E.W., Thiel, M., Haklay, H., Ponciano, L., Roche, J., Ceccaroni, L., Shilling, F.M., Dörler, D., Heigl, F., Kiessling, T., Davis, B.Y., Jiang Q., 2017. Mindell, J.S., Jones, P., Haklay, M., Vaughan, L., Scholes, S., Groce, N., Anciaes, P., Stockton, J. and Dhanani, A., 2017. Mindell, J.S., Anciaes, P.R., Dhanani, A., Stockton, J., Jones, P., Haklay, M., Groce, N., Scholes, S. and Vaughan, L., 2017. Storksdieck, M., Shirk, J., Cappadonna, J., Domroese, M., Goebel, C., Haklay, M., Miller-Rushing, A., Roetman, P., Sbrocchi, C., Vohland, K., 2016, Newman, G., Clyde M., McGreavy, B., Chandler, M. Haklay, M., Ballard, H., Gray, S., Mellor, D., and Gallo, J., 2017. Verrucci, E., Perez-Fuentes Ruiz, G., Rossetto, T., Bisby, L., Haklay, M., Rush, D. Rickles, P., Fagg, G., Joffe, H., 2016, Comandulli, C., Vitos, M., Conquest, G., Altenbuchner, J., Stevens, M., Lewis, J. and Haklay, M., 2016. Ciência Cidadã Extrema: Uma Nova Abordagem. Biodiversidade Brasileira, (1):34-47. Treves, R., Viterbo, P. and Haklay, M., 2015. Footprints in the sky: using student track logs from a “bird’s eye view” virtual field trip to enhance learning. Journal of Geography in Higher Education, 39(1):97-110. Stevens, M., Vitos, M., Altenbuchner, M., Conquest, G., Lewis, J. and Haklay, M., 2014, Taking Participatory Citizen Science to Extremes, IEEE Pervasive Computing, 13(2):20-29 Haklay, M. 2013, Beyond Quantification: We Need a Meaningful Smart City, Urban Pamphleteer #1, UCL Urban Lab, April 2013. pp. 1-3 Becker, M., Caminiti, S., Fiorella, D., Francis, L., Gravino, P., Haklay, M., Hotho, A., Loreto, V., Mueller, J., Ricchiuti, F., Servedio, V. DP., Sîrbu, A., and Tria F., Awareness and learning in Participatory Noise Sensing. Brown, M., Sharples, S., Harding, J., Parker, C.J. ,Bearman, N., Maguire, M., Forrest, D, Haklay, M. and Jackson, M., 2013, Usability of Geographic Information: Current challenges and future directions. Buckingham Shum, S., Aberer, K., Schmidt, A., Bishop, S., Lukowicz, P., Anderson, S., Charalabidis, Y., Domingue, J., de Freitas, S., Dunwell, I., Edmonds, B., Grey, F., Haklay, M., Jelasity, M., Karpištšenko, A., Kohlhammer, J., Lewis, J., Pitt, J., Sumner, R., and Helbing, D., 2012, Towards a global participatory platform, Skarlatidou, A., Cheng, T. and Haklay, M., 2012, What Do Lay People Want to Know About the Disposal of Nuclear Waste? A Mental Model Approach to the Design and Development of an Online Risk Communication. Koukoletsos, T., Haklay, M., and Ellul, C., 2012, Assessing Data Completeness of VGI through an Automated Matching Procedure for Linear Data, Skarlatidou, A., Haklay, M., and Cheng, T., 2011, Trust in Web GIS: the role of the trustee attributes in the design of trustworthy Web GIS applications, Haklay, M., Basiouka, S., Antoniou, V., Ather, A, 2010, How Many Volunteers Does It Take To Map An Area Well? Griffiths, S., Jones, C. E., Vaughan, L. and Haklay, M. (2010) ‘The persistence of suburban centres in Greater London: combining Conzenian and space syntax approaches’, How good is OpenStreetMap information? A comparative study of OpenStreetMap and Ordnance Survey datasets for London and the rest of England</t>
+  </si>
+  <si>
+    <t>Summer 2004 Invited Visiting Professor, International Political Economy and Ecology Summer School 2004, The Graduate Programme in Political Science and The Faculty of Environmental Studies, York University, Toronto Jan-Apr 2002 Monet-Marshall Visiting Professor of European Studies, Jackson School of International Relations and Department of Geography, University of Washington, Seattle July-Oct 1998 Visiting Professor and Marie Curie Fellow, Spatial Development Research Unit, Department of Urban and Regional Planning, Faculty of Architecture, Aristotle University of Thessaloniki, Greece</t>
+  </si>
+  <si>
+    <t>Freshwater ecosystems are some of the most threatened environments on our planet. Globally, water quality has deteriorated rapidly since the 19th century, while water quantity is especially vulnerable in semi-arid regions. This has led to almost 80% of the world’s population being exposed to substantial water security threats. For over 20 years I have worked on assessing human and climatic impacts on some of the world’s most important freshwater ecosystems, including Lake Baikal and the Aral Sea in central Asia, and the Okavango Delta in southern Africa. Key to much of this work is the use biological organisms and stable isotopes to reconstruct past environments. , one of the world’s leading universities. I teach at all levels of the curriculum, including undergraduates, MSc and PhD students. I have authored and co-authored over 100 peer-reviewed articles and have been PI on over 30 projects. O composition of diatom silica. The second forms part of Poppy Harding's PhD, and aims to reconstruct palaeoproductivity in southern Siberia during periods of abrupt climate change, using δ13C composition of diatom silica. , Grab, S.W., Bamford, M.K., (in press) Holocene climatic variability indicated by a multi-proxy record from southern Africa’s highest wetland. Hampton, S.E, Galloway, A.W.E., Powers, S.M., Ozersky, T., Woo, K.H., Batt, R.D., Labou, S.G., O’Reilly, C.M., Sharma, S., Lottig, N.R., Stanley, E.H., North, R.L., Stockwell, J.D., Adrian, R., Weyhenmeyer, G.A., Arvola, L., Baulch, H.M., Bertani, I., Bowman, L.L. Jr., Carey, C.C., Catalan, J., Colom-Montero, W., Domine, L.M., Felip, M., Granados, I., Gries, C., Grossart, H.-P., Haberman, J., Haldna, M., Hayden, B., Higgins, S.N., Jolley, J.C., Kahilainen, K.K., Kaup, E., Kehoe, M.J., MacIntyre, S., , Mariash, H.L., McKay, R.M., Nixdorf, B,. Nõges, P., Nõges, T., Palmer, M., Pierson, D.C., Post, D.M., Pruett, M.J., Rautio, M., Read, J.S., Roberts, S.L., Rücker, J., Sadro, S., Silow, E.A., Smith, D.E., Sterner, R.W., Swann, G.E.A., Timofeyev, M.A., Toro, M., Twiss, M.R., Vogt, R.J., Watson, S.B., Whiteford, E.J., Xenopoulos, M.A. (2017) , Vologina, E., Sturm, M., Pashley, V., Horstwood, M.S.A. (2016) Insights into the transfer of silicon isotopes into the sediment record. , Ryves, D.B., Sloane, H., Chenery, S.R.N., Hems, M. (2016) An experiment to assess the effects of diatom dissolution on oxygen isotope ratios. , McGowan, S., McGlynn, G., Baldia, S., Donne Papa, R., Taylor, D. (2015) Establishing the impacts of freshwater aquaculture in tropical Asia: the potential role of palaeolimnology. , Grab, S.W., Bamford, M.K., (in press) Holocene climatic variability indicated by a multi-proxy record from southern Africa’s highest wetland. Hampton, S.E, Galloway, A.W.E., Powers, S.M., Ozersky, T., Woo, K.H., Batt, R.D., Labou, S.G., O’Reilly, C.M., Sharma, S., Lottig, N.R., Stanley, E.H., North, R.L., Stockwell, J.D., Adrian, R., Weyhenmeyer, G.A., Arvola, L., Baulch, H.M., Bertani, I., Bowman, L.L. Jr., Carey, C.C., Catalan, J., Colom-Montero, W., Domine, L.M., Felip, M., Granados, I., Gries, C., Grossart, H.-P., Haberman, J., Haldna, M., Hayden, B., Higgins, S.N., Jolley, J.C., Kahilainen, K.K., Kaup, E., Kehoe, M.J., MacIntyre, S., , Mariash, H.L., McKay, R.M., Nixdorf, B,. Nõges, P., Nõges, T., Palmer, M., Pierson, D.C., Post, D.M., Pruett, M.J., Rautio, M., Read, J.S., Roberts, S.L., Rücker, J., Sadro, S., Silow, E.A., Smith, D.E., Sterner, R.W., Swann, G.E.A., Timofeyev, M.A., Toro, M., Twiss, M.R., Vogt, R.J., Watson, S.B., Whiteford, E.J., Xenopoulos, M.A. (2017) , Vologina, E., Sturm, M., Pashley, V., Horstwood, M.S.A. (2016) Insights into the transfer of silicon isotopes into the sediment record. , Ryves, D.B., Sloane, H., Chenery, S.R.N., Hems, M. (2016) An experiment to assess the effects of diatom dissolution on oxygen isotope ratios. , McGowan, S., McGlynn, G., Baldia, S., Donne Papa, R., Taylor, D. (2015) Establishing the impacts of freshwater aquaculture in tropical Asia: the potential role of palaeolimnology. Dearing, J.A., Dyke, J.G., Haberl, H., Hossain, S.M., Langdon, P.G., Lenton, T.M., Raworth, K., Wang, R., Zhang, K., Brown, S., Carstensen, J., Cole, M.J., Cornell, S.E., Dawson, T.P., Doncaster, C.P., Eigenbrod, F., Flörke, M., Jeffers, E., Mackay, A.W., Nykvist, B., Poppy, G.M. (2014) Seddon, A.W.R., Mackay, A.W., Baker, A.G. et al. (2014) Looking forward through the past: Identification of 50 priority research questions in palaeoecology. Journal of Ecology 102, 256-267. Ringrose, S., Cassidy, L., Diskins, S., Coetzee, S., Matheson, W., Mackay, A.W., Harris, C. (2014) Diagenetic transformations in Boteti palaeo-estuary sediments, north central Botswana, with implications for silcrete-calcrete intergrade duricrust formation. Mackay, A.W. (2013) Large Lakes. In: Elias S.A. (ed.) The Encyclopedia of Quaternary Science, vol. 1, pp. 546-553. Amsterdam: Elsevier , Swann, G.E.A., Fagel, N., Fietz, S., Leng, M.J., Morley, D.W., Rioual, P. Tarasov, P. (2013) Hydrological instability during the last interglacial in central Asia: a new diatom oxygen isotope record from Lake Baikal. Quaternary Science Reviews 66, 45-54 , Bezrukova, E., Boyle, J.F., Holmes, J.A., Panizzo, V.N., Piotrowska, N., Shchetnikov, A., Shilland, E.M., Tarasov, P., White, D. (2013) Multiproxy evidence for abrupt climate change impacts on terrestrial and freshwater ecosystems in the Ol'khon region of Lake Baikal, central Asia. Quaternary International 290-291, 46-56 doi: , Rose, N., Rioual, P., Leng, M. (2013) Recent palaeolimnological change from Lake Xiaolongwan, north-east China: climatic versus anthropogenic forcing. Quaternary International 290-291, 322-334. doi: , Zhang, Y., Li, J. (2012) A 1000-year record of vegetation change and wildfire from maar Lake Erlongwan in northeast China. Quaternary International. , Leng, M.J., Rioual, P., Panizzo, V.N., Lu, H., Gu, Z., Chu, G., Han, J., Kendrick, C.P. (2013) Influence of the ratio of planktonic to benthic diatoms on lacustrine organic matter δ , Davidson, T.A., Wolski, P., Woodward, S. Mazebedi, R., Masamba, W.R.L. &amp; Todd, M.C. (2012) Diatom sensitivity to hydrological and nutrient variability in a subtropical, flood pulse-wetland. Ecohydrology 5, 491-502. doi: 10.1002/eco.242 Wang, L., Rioual, P., Panizzo, V.N., Leng, M., Lu, H., Gu, Z., Chu, G., Yang, D., Han, J., Liu, J. (2012) A 1000-yr record of environmental change in NE China indicated by diatom assemblages from Erlongwan maar lake. Quaternary Research 78, 24-34. doi: http://dx.doi.org/10.1016/j.yqres.2012.03.006 , Mazebedi, R., Murray-Hudson, M., Todd, M. &amp; Wolski, P. (2012) Seasonal and spatial hydrological variability drives aquatic biodiversity in flood-pulsed, subtropical wetlands. Freshwater Biology 57, 1253-1265. doi: 10.1111/j.1365-2427.2012.02795.x pdf , Bezrukova, E.V., Leng, M.J., Meaney, M., Nunes, A., Piotrowska, N., Self, A., Shchetnikov, A., Shilland, E., Tarasov, P., Wang, L. &amp; White, D. (2012) Aquatic ecosystem responses to Holocene climate change and biome development in boreal central Asia. Quaternary Science Reviews 41, 119-131. doi: 10.1016/j.quascirev.2012.03.004 pdf , Jiang, W., Cai, B., Xu, B., Han, J., Chu, G., (2012) The East Asian winter monsoon over the last 15,500 years: its links to high-latitudes and tropical climate systems and complex correlation to the summer monsoon. Quaternary Science Reviews 32, 131-142. doi:10.1016/j.quascirev.2011.11.003 pdf , Swann, G.E.A. (2011) A diatom oxygen isotope record from Lake Baikal during MIS5e/5d: an application of XRF and FTIR to accurately account for persistent contaminants. Small grant report to the QRA. Quaternary Newsletter 25, 40-42 , Simpson, G.J., Mischke, S. &amp; Herzschuh, U. (2011) Terrestrial and aquatic responses to climate change and human impact on the southeastern Tibetan Plateau during the past two centuries. Global Change Biology 17, 3376-3391 DOI: 10.1111/j.1365-2486.2011.02474.x , Davidson, T., Wolski, P., Mazebedi, R., Masamba, W.R.L., Huntsman-Mapila, P. &amp; Todd, M.C. (2011) Spatial and seasonal variability in surface water chemistry in the Okavango Delta, Botswana: a multivariate approach. Wetlands 31, 815-829 DOI: 10.1007/s13157-011-0196-1 , Appleby, P.G., Mischke, S. &amp; Herzschuh, U. (2011) Modest diatom responses to regional warming on the southeast Tibetan Plateau during the last two centuries. Journal of Paleolimnology 46, 215-227 , Swann, G.E.A., Brewer, T., Leng, M.J., Morley, D.W., Piotrowska, N., Rioual, P. &amp; White, D. (2011) A reassessment of late glacial–Holocene diatom oxygen isotope records from Lake Baikal using a mass balance approach. Journal of Quaternary Science 26, 627-634 (2010) Modelling the impact of prescribed global warming on runoff from headwater catchments of the Irrawaddy River and their implications for the water level regime of Loktak Lake, northeast India. Hydrol. Earth Syst. Sci., 14, 1745-1765. doi:10.5194/hess-14-1745-2010 , Rose, N.L., Taylor, R.G., Leng, M.J. &amp; Engstrom, D.R. (2010) Palaeolimnological evidence of environmental change over the last 400 years in the Rwenzori Mountains of Uganda. (2009) An introduction to Late Glacial - Holocene environments [Chapter 1]. In: “Holocene Extinctions” Ed. Samuel T. Turvey. OUP, Oxford. 1-15. , Bradley, R.S., Finney, B. (2009) Diatom and stable isotope records of late-Holocene lake ontogeny at Indrepollen, Lofoten, NW Norway: a response to glacio-isostacy and neoglacial cooling. , Austin, P., Sorrel, P., Reinhardt, C., Keyser, D., Guichard, F., Fontugne, M. (2009) Advances in understanding the late Holocene history of the Aral Sea region. , Ssemmanda, I., Taylor, R., Rose, N., Leng, M.J. (2008) Recent changes in aquatic productivity in a remote, tropical alpine lake in the Rwenzori Mountain National Park, Uganda, associated with glacier recession since the 1860s. , Karabanov, E. Khursevich, G., Leng, M., Morley, D.W., Panizzo, G., Sloane, H.J. &amp; Williams, D (2008) Reconstructing hydrological variability in Lake Baikal during MIS 11: an application of oxygen isotope analysis of diatom silica. , Lamb, A., Tyler, J., Marsh, N. (2008) Unravelling contamination signals in biogenic silica oxygen isotope composition: the role of major and trace element geochemistry. , Fallon, D.M.J., Pateman, G., Tavio, L.C.,, Leng, M.J. &amp; Rose, N.L. (2008). The rise and fall of metal industry in Bergslagen, south central Sweden, as reflected by geochemistry and pollen content of a lake sediment record. &amp; Birks, H.J.B. (2008) Recent ecological change in a remote Scottish mountain loch: an evaluation of a Cladocera-based temperature transfer-function. , Mazebedi, R., Wolski, P., Davidson, T.A., Huntsman-Mapila, P. &amp; Todd, M. (2008) Monitoring and simulating threats to aquatic biodiversity in the Okavango Delta: field and laboratory methods. Methods report to Darwin Initiative 162/14/029. Climate Change 2007: Impacts, Adaptation and Vulnerability. Contribution of Working Group II to the Fourth Assessment Report of the Intergovernmental Panel on Climate Change . M.L. Parry, O.F. Canziani, J.P. Palutikof, P.J. van der Linden and C.E. Hanson, Eds. Cambridge University Press, Cambridge, UK. &amp; Oberhänsli, H. (2007) Editors. Special Issue: Reconstructing past environments from remnants of Human occupation and sedimentary archives in western Eurasia. , Palushkina, O. &amp; Leng, M. (2007) A high-resolution diatom-inferred palaeoconductivity and sea-level record of the Aral Sea for the last ca. 1600 years. &amp; Birks, H.J.B. (2007) Are Cladoceran fossils in lake sediment samples a biased reflection of the communities from which they are derived? , Panizzo, V., Mileham, L., Ssemmanda, I., Tindimugaya, C., Nakileza, B., Muwanga, A. &amp; Hau, J. 2007. Climate change and the aquatic ecosystems of the Rwenzori Mountains, Uganda. &amp; Battarbee, R.W. (2006). Variation in patterns of composition and abundance of cladocerans in littoral and open water habitats of Loch Coire Fionnaraich, Scotland. , Modisi, M., Downey, W.S., Coetzee, S., Tiercelin, J.-J., Kampunzu, A.B., Vink, B. &amp; Vanderpost, C. (2006) Use of the geochemical sedimentary record in establishing palaeo-environments and climate change in the Lake Ngami basin, NW Botswana. &amp; Birks, H.J.B. (2006) Recent ecological change in northwest Scotland: evidence from the sub-fossil assemblages of Cladocera in Loch Coire Fionnaraich. In , Jewson, D., Ryves, D.B. &amp; Sturm, M. (2005) Differential dissolution of Lake Baikal diatoms: correction factors and implications for palaeoclimatic reconstruction. &amp; Sloane, H.J. (2005) Late Glacial and Holocene atmospheric circulation change in the Lake Baikal region documented by oxygen isotopes from diatom biogenic silica. , Leng, M. &amp; Demoray, F. (2005) Climatic change in Central Asia during MIS 3: a case study using biological responses from Lake Baikal sediments. , Ryves, D.B., Battarbee, R.W., Flower, R.J., Jewson, D., Rioual, P. &amp; Sturm, M. (2005) 1000 years of climate variability in central Asia: assessing the evidence using Lake Baikal diatom assemblages and the application of a diatom-inferred model of snow thickness. (2004) Palaeolimnological evidence for recent environmental change in tropical alpine Africa: assessing the palaeolimnological evidence from Lake Bujuku, Rwenzori Mountains National Park, Uganda. Small grant report to the QRA. Quantitative and qualitative relationships between planktonic diatom communities and diatom assemblages in sedimenting material and surface sediments in Lake Baikal, Siberia &amp; Burgess, J. (2003) Detecting environmental change: science and society - perspectives on long-term research and monitoring in the 21 st Century. The deposition and accumulation of endemic planktonic diatoms in the sediments of Lake Baikal and an evaluation of their potential role in climate reconstruction during the Holocene , Long, X. &amp; Hutton, B. (1999) Morphological and chemical source apportionment of atmospheric particulates and their temporal and spatial distributions in central London. (1999) Characterisation and temporal trends of primary particulate matter in the urban aerosol: functional relationships with traffic-related pollutants and meteorological variables. , Battarbee, R.W., Flower, R.J., Jewson, D., Lees, J.A., Ryves, D.B. &amp; Sturm, M. (1999) The deposition and accumulation of endemic planktonic diatoms in the sediments of Lake Baikal and an evaluation of their potential role in climate reconstruction during the Holocene. Final Report to NERC contract No. GR3/10529. Recent trends in diatom succession in surface sediments from Lake Baikal and their relation to atmospheric pollution and to climate change Ryves, D.B., Sturm, M. &amp; Vologina, E.G. (1998) Diatom deposition and sediment accumulation in Lake Baikal, Siberia: on-going inter-related NERC-GEOPASS studies. , Flower, R.J. &amp; Battarbee, R.W. (1996) Stratigraphical evidence of environmental change in Lake Baikal, associated with recent changes in climate. , Rose, N., Boyle, J., Dearing, J.D., Appleby, P.G., Kuzmina, A.E. And Granina, L.Z. (1995) Sedimentary records of recent environmental change in Lake Baikal, Siberia. , Flower, R.J., Appleby, P.G., Boyle, J., Dearing, J.A., Kuzmina, A., Monteith, D., Rose, N. &amp; Battarbee, R.W. (1993) Recent environmental change in Lake Baikal, Eastern Siberia, with special reference to the sedimentary diatom record. , one of the world’s major flood-pulse ecosystems, and one of the last remaining pristine wetlands in Africa. This was a complex project that sought to build research capacity in Botswana, whilst undertaking geographically challenging fieldwork. Our biological, chemical and hydrological data fed directly into the Okavango Delta Information System database, used by all planning and implementation agencies involved in the . Capacity building was central to our project. We provided extensive training in environmental modelling and quantitative data analysis to colleagues both employed on the project and those employed by the Botswana government and Okavango Delta stakeholders. A particularly successful outcome of the project has been subsequent employment of three technical staff gaining permanent full-time employment with the University of Botswana, and the employment of the MPhil student ( ) on the project securing a teaching job at the newly created Botswana International University of Science and Technology (BIUST). (16th+17th April 2013) related to pollution and climate change threats to Lake Baikal. You can listen to the 30 minute programme . Whilst on fieldwork we were also filmed by national Russian news channel Rossiya 24, which was aired on 9th March 2013 - What can the Quaternary record tell us about the stability, resilience and sensitivity of landscape systems and the services they provide , an agenda-setting workshop which brought together leading academics, stakeholders, funding bodies and graduate students to focus on identifying some of the most pressing questions facing the discipline of palaeoecology today and into the near future. Ideas in Geography is an introduction to the history and philosophy of the discipline. Why does this matter? Because ideas develop in particular times and places; because they change, are forgotten and sometimes rediscovered; and because ideas have consequences – not just for academics but for the rest of the world as well. • to introduce students to some of the key themes, debates and developments which have shaped the modern discipline of geography; • to explore some of the main tensions in the discipline between, for example, physical and human geography and between traditional approaches and more recent developments; • to show how changes in the discipline of geography are related to wider social, cultural, economic, scientific and historical developments; • to enable students to develop their own ideas about geography as a discipline and to understand the diversity of different approaches used in geographical research. The course aims to provide students with an introduction to the concepts and techniques useful for studying the nature of past environmental change since the last glacial period to the Holocene. The following topics are covered: (i) a range of natural archives of environmental change (e.g. lake and marine sediments, ice cores); (ii) chronological techniques used to date these archives; (iii) biological indicators used to reconstruct past environmental change; (iv) palaeoclimatic and human-impact case studies. The course has also been designed to give practical experience in the identification of biological indicators. The range of discipline-specific skills developed through a geographical education should normally include statistical analyses. This ensures that students and researchers gain the necessary knowledge to develop a deeper understanding of scientific papers read, and research projects carried out. This course ensures students: The primary aim is to investigate topical environmental themes (important to the well-being of our planet) within the context of a long-term perspective (using palaeoscience approaches). A secondary aim is to encourage students to publicly participate in the themes developed on the course by the creation and maintenance of a weblog (‘blog’) site which counts towards 50% of the assessment. The MSc Conservation at UCL is widely recognised as the leading course for aspiring nature conservation professionals. This highly successful degree programme saw its first students graduate in 1960, and nearly 80% of its graduates have gone on to secure posts related to conservation. The MSc Conservation is strongly interdisciplinary and engages with environmental, social and policy dimensions. It has a vocational orientation, with residential field-classes providing first-hand experience of practical conservation challenges. The programme is unique not only on account of its long history and the resulting extent of its alumni network, but also due to the active involvement of nature conservation professionals in the delivery of course material. There is a pressing national and international need to understand the nature and consequences of climatic change and to develop adaptation strategies. The UCL Climate Change MSc provides rigorous scientific and vocational training for the next generation of climate change professionals. Students will acquire knowledge and understanding of the Earth System (atmosphere, hydrosphere, biosphere, lithosphere) and the nature and causes of climate variability and change. POPPY HARDING: Ecosystem resilience to abrupt climatic and environmental change in southern Siberia since the Last Glacial Maximum (NERC London DTP Scholarship). 10.14 - JENNIFER ADAMS: Climate change and pollution impacts on productivity and biodiversity in the Selenga River Delta: a Siberian, Ramsar wetland of international importance 09.13 - (co-supervision with Prof N.L. Rose and Dr G.E.A. Swann) 09.13 - SARAH ROBERTS: Algal community response to recent anthropogenic pollution and environmental change at Lake Baikal, Russia, over the last 1,000 years LUCA MARAZZI: Biodiversity and biomass of algae in the Okavango Delta (Botswana), a subtropical flood-pulsed wetland. 09.08 - 11.14 (co-supervision with Dr V. Jones). (Examiners Marian Yallop &amp; Carl Sayer). KATY WILSON: Pliocene climate variability recorded in a series of diatomite beds in the Tugen Hills region of the East African Rift Valley. Funding body: Palaeoconductivity, lake level fluctuations and trace element history of the Aral Sea since 400 AD: assessing the impact of natural climatic variation and anthropogenic activity . Funding body: UCL Hollis Scholarship 24.09.01 – 30.09.04 (co-supervision with Dr J. Thompson) (Examiners: Dr Douglas Taylor &amp; Prof. Edward Maltby). . Funding body: ORS / Grad School / ECRC Trust Fund 01.10.00 – 30.09.03 (co-supervision with Prof R.W. Battarbee). (Examiners: Glen George &amp; Sarah Metcalfe). A study of possible environmental factors in the spread of invasive species of lowland heath and possible management and restoration techniques Bulk organic geochemical and stable isotope environmental change since the Late Glacial from Shara Nur lake sediments, Olkhon Island, Lake Baikal The distribution, composition and diversity of diatom assemblages in relation to environmental factors in the Okavango Delta: special reference to diatom use in conservation and monitoring A sub-centennial diatom record of Late Holocene lake ontogeny at Indrepollen, Lofoten, NW Norway: a response to isostacy and neoglacial cooling Peatland restoration in Northern Ireland: a hydrological and botanical study of dammed and undammed areas in Ballynahone Bog, Maghera and Peatlands Park, Dungannon A study of temporal and spatial variation in ground flora within various plantation stands of different species at Orlestone Forest, Kent 2009-2010 A diatom oxygen isotope record from Lake Baikal during MIS5e/5d: an application of XRF and FTIR to accurately account for persistent contaminants. Funding body: (UMR 6116 CDNRS, FST-U3). Principal Investigators: - Dr V. Andrieu-Ponel, CNRS; Dr Anson W Mackay, UCL; Dr P. Rioual, Department of Geology of the University of Beijing (China). Post-doctoral scientist: Dr DW Morley. . Funding body: Chinese Academy of Sciences &amp; UCL Simon Li Research Fund. Principal Investigators: Dr Luo Wang &amp; Dr Anson W. Mackay. The deposition and accumulation of endemic planktonic diatoms in the sediments of Lake Baikal and an evaluation of their potential role in climate reconstruction during the Holocene Late Holocene changes in alpine vegetation of the Rwenzori Mountains: Short Term Visit grant to the UK for Visiting Scientist: Dr Immaculate Ssemmanda, Uganda £360; Grad school &amp; Dean's Fund: c. £2,500 . PI &amp; Expedition leader: Richard Taylor. With Neil Rose, Ginnie Pannizo, Lucinda Mileham and Adinah Shackleton. 2000 - 2005 Biological, chemical and physical monitoring of Lake Baikal water column. Funding bodies: Royal Society and Siberian Branch Russian Academy of Sciences. Amount awarded: c. £10k per year. With Nick Granin (Limnological Institute) and David Jewson. 1996 -1999 The deposition and accumulation of endemic planktonic diatoms in the sediments of Lake Baikal and an evaluation of their potential role in climate reconstruction during the Holocene. Funding body:</t>
+  </si>
+  <si>
+    <t>French JR, Mawdsley R, Fujiyama T, Achuthan K (2017) Combining machine learning with computational hydrodynamics for prediction of tidal surge inundation at estuarine ports. Morales-Marin L, French JR, Burningham H &amp; Battarbee RW (2017) A 3D hydrodynamic and sediment transport model to test the sediment focusing hypothesis in upland lakes. French JR, Burningham H, Thornhill G, Nicholls RJ (2016) Integrating estuarine, coastal and inner shelf sediment systems in a common conceptual framework as a basis for participatory shoreline management. In: Meadows M, Lin J-C (eds.) Woolway I, Jones ID, Maberly SC, French JR, Livingtone DM, Monteith DT, Simpson GL, Thackeray SJ, Andersen MR, Battarbee RW, DeGasperi CL, Evans CD, de Eyto E, Feuchtmayr H, Hamilton DP, Kernan M, Krokowski J, Rimmer A, Rose KC, Rusak, JA, Ryves DB, Thomas R, Waldron S, Weyhenmeyer GA (2016) Diel surface temperature range scales with lake size. Van Maanen B, Nicholls RJ, French JR, Barkwith A, Bonaldo D, Burningham H, Murray AB, Payo A, Sutherland J, Thornhill G, Townend IH, van der Wegen M, Walkden MJA (2015). Simulating mesoscale coastal evolution for decadal coastal management: A new framework integrating multiple, complementary modelling approaches. Payo A, Hall, JW, French JR, Sutherland J, van Maanen B, Nichols RJ, Reeve DE (2015) Causal loop analysis of coastal geomorphological systems. French JR, Payo A, Murray AB, Orford J, Eliot M, Cowell P (2015) Appropriate complexity for the prediction of coastal and estuarine geomorphic behaviour at decadal to centennial scales. French JR, Burningham H, Thornhill G, Whitehouse R &amp; Nicholls R.J (2015) Conceptualizing and mapping coupled estuary, coast and inner shelf sediment systems. Hanson SE, French JR, Spencer T, Brown I, Nicholls RJ, Sutherland WJ &amp; Balson P (2015) Evaluating broadscale morphological change in the coastal zone using a logic-based behavioural systems approach. In: RJ Nicholls, RJ Dawson &amp; SA Day (eds.) Nicholls RJ, French JR, Burnhinham H, Van Maanen B, Payo A, Sutherland J, Walkden M, Thornhill G, Brown J, Luxford F, Simm J, Reeve DE, Hall JW, Souza A, Stansby PK, Amoudry LO, Rogers BD, Ellis M, Whitehouse R, Horrillo-Caraballo JM, Karunarathna H, Pan S, Plater A, Dix J, Barnes J &amp; Heron E (2015) Improving decadal coastal geomorphic predictions: an overview of the iCOASST project. Thornhill, G, French JR &amp; Burningham H (2015) ESTEEM – a new ‘hybrid complexity’ model for simulating estuary morphological change at decadal to centennial scales. Mohajeri N, French JR &amp; Gudmundsson A (2013) Entropy measures of street-network dispersion: analysis of coastal cities in Brazil and Britain. Burningham H &amp; French JR (2013) Is the NAO winter index a reliable proxy for wind climate and storminess in northwest Europe? Nicholls RJ, Burningham H, Dix J, French JR, Hall JW, Reeve D, Souza A, Stansby PK, Sutherland J, Walkden M &amp; Whitehouse R (2012) iCOASST – Integrating Coastal Sediment Systems. Proceedings International Conference on Coastal Engineering, Santander, 12pp. Singh CR, Thompson JR, French JR, Kingston D &amp; Mackay AW (2011) Modelling alternative water level options for ecosystem service prioritisation and assessment of climate change impacts, Loktak Lake, northeast India. Spencer T, Friess DA, Möller I, Garbutt RA &amp; French JR (2011) Surface elevation change in natural and re-created intertidal habitats, eastern England, UK, with particular reference to Freiston Shore. Burningham H &amp; French JR (2011) Seabed morphodynamics in a large coastal embayment: 180 years of change in the Greater Thames estuary. Hanson SE, Nicholls RJ, Balson P, Brown I, French JR, Spencer T &amp; Sutherland WJ (2010) Capturing coastal geomorphological change within regional integrated assessment: an outcome-driven fuzzy logic approach. Singh CR, Thompson JR, Mackay AW &amp; French JR (2010) Implication of climate change for the restoration of an ecologically driven hydrological regime for Loktak Lake, northeast India. French JR (2010) Critical perspectives on the evaluation and optimisation of complex numerical models of estuary hydrodynamics and sediment dynamics. French JR &amp; Burningham H (2009) Mapping the connectivity of large scale coastal geomorphological systems: Coastal system mapping with CmapTools tutorial. Science Report – SC060074/PR2. Bristol, Environment Agency, 25pp. Whitehouse R, Balson P, Blott S, Burningham H, Cooper N, French JR, Guthrie G, Hanson S, Houghton A, Leggett D, Nicholls R, Pye K &amp; Walkden M (2009). Characterisation and prediction of large scale, long-term change of coastal geomorphological behaviours: Final Science Report – SC060074/SR2. Bristol, Environment Agency, 271pp. Whitehouse R, Balson P, Blott S, Burningham H, Cooper N, French JR, Guthrie G, Hanson S, Houghton A, Leggett D, Nicholls R, Pye K &amp; Walkden M (2009). Characterisation and prediction of large scale, long-term change of coastal geomorphological behaviours: Inception Report – SC060074/SR1. Bristol, Environment Agency, 145pp. French JR, Burningham H &amp; Benson T (2008) Tidal and meteorological forcing of suspended sediment flux in a muddy mesotidal estuary. Burningham H &amp; French JR (2008) Historical changes in the seabed of the greater Thames estuary. Caird-Crown Estate Research Project. London, Crown Estate, 53pp. ISBN 978-1-906410-04-9. Williams A, Townend I, French JR, Reeve DR, Whitehouse R, Wang Z, Morris K, &amp; Surendran S (2008) Development and demonstration of systems-based estuary simulator: EstSim. Benson T &amp; French JR (2007) InSiPID: A new low cost instrument for in situ particle size measurements in estuaries. Hanson S, Nicholls R, Balson P, Brown I, French J, Spencer T and Sutherland W (2007) Capturing coastal morphological change within regional integrated assessment: an outcome-driven fuzzy logic approach. Tyndall Centre Working Paper 113, 39pp. French JR (with Burningham H, Karunarathna H, Morris K, Reeve DE, Townend I &amp; Williams A) (2007) Development and demonstration of systems-based estuary simulators. London, DEFRA, Project Report FD2117/TR, 247pp. French JR (2006) Tidal marsh sediment trapping efficiency and resilience to environmental change: exploratory modelling of tidal, sea-level and sediment supply forcing in predominantly allochthonous systems. Cea L, French JR &amp; Váquez-Cendón ME (2006) Numerical modeling of the tidal flow in complex estuaries including turbulence: an unstructured finite volume solver and experimental validation. French JR &amp; Burningham H (2006) Methods and software tools for estuary behavioural system simulation. London, DEFRA, FD2117 Project Report 4, 105pp. French JR, Benson T &amp; Burningham H (2005) Morphodynamics and sediment flux in the Blyth estuary, Suffolk, UK: conceptual modelling and high resolution monitoring. In: J Knight &amp; D Fitzgerald (eds.) High resolution morphodynamics and sedimentary evolution of estuaries. New York, Springer, 143-71. Nicholls RJ, Hansen S, Balson P, Brown I, French JR &amp; Spencer T (2005) Capturing geomorphological change in the coastal simulator. Final Report from Tyndall Research Project T3.42.Tyndall Centre Technical Report 46, 70pp. French JR &amp; Burningham H (2003) Tidal marsh sedimentation versus sea-level rise: a southeast England estuarine perspective. In: NC Kraus &amp; WG McDougal (eds.) Coastal Sediments 03. New York, American Society of Civil Engineers, 1-14. Möller I, Spencer T, &amp; French JR (2003) Wave attenuation over saltmarshes: implications for flood defence management. Saltmarsh Management Handbook, Environment Agency, Anglian Region. Reed J, Chappell AJ, French JR &amp; Oliver MA (2002) Risk assessment of PCB-contaminated dock sediments using geostatistical techniques. In: A Porta, RE Hinchee &amp; M Pellei (eds.) French JR, Reeve DE &amp; Owen M (2002) DEFRA/EA Estuaries Research Programme – Phase 2 Research Plan. London, DEFRA, 64pp. Möller I, Spencer T, &amp; French JR (2002) Wave attenuation over saltmarshes. R&amp;D Technical Report W5B-022, Environment Agency, Anglian Region, 95pp. Möller I, Spencer T, French JR, Leggett DJ, &amp; Dixon M (2001) The sea defence value of saltmarshes - a review in the light of field evidence from North Norfolk. Warren A &amp; French JR (2001) Relations between nature conservation and the physical environment. In: A Warren A &amp; JR French (eds.) Reed J, Chappell A, French JR, &amp; Oliver MA (2001) Geostatistical analysis of contaminated dredged sediment from a UK dockyard. In: P Monestiez, D Allard, &amp; R Froideraux (eds.) French JR &amp; Clifford NJ (2000) Hydrodynamic modelling as a basis for explaining estuarine environmental dynamics: some computational and methodological issues. French JR, Watson CJ, Moller I, Spencer T, Dixon M &amp; Allen R (2000) Beneficial use of cohesive dredgings for foreshore recharge. Möller I, Spencer T, French JR, Leggett D &amp; Dixon M (2000) A new perspective on the sea defence value of saltmarshes. Cahoon DR, French JR, Spencer T, Reed DJ &amp; Möller I (2000) Vertical accretion versus elevational adjustment in UK saltmarshes: an evaluation of alternative methodologies. In: K Pye &amp; JRL Allen (eds.) French CE, French JR, Clifford NJ &amp; Watson CJ (1999) Abandoned reclamations as analogues for sea defence realignment: implications for engineering design. In: NC Kraus &amp; WG McDougal (eds.) French JR, Watson CJ &amp; French CE (1999) Stability of dredged silt placed on an eroding estuarine foreshore. In: NC Kraus &amp; WG McDougal (eds.) Möller I, Spencer T, French JR, Leggett DJ &amp; Dixon M (1999) Wave transformation over salt marshes: a field and numerical modelling study from North Norfolk, England. Reed DJ, Spencer T, Murray AL, French JR &amp; Leonard L (1999) Marsh surface sediment deposition and the role of tidal creeks: implications for created and managed coastal marshes. Smith GM, Spencer T, Murray AL &amp; French JR (1998) Assessing seasonal vegetation change in coastal wetlands with airborne remote sensing. Clifford NJ &amp; French JR (1998) Restoration of channel physical environment in smaller, moderate gradient rivers: geomorphological bases for design criteria. In: B Sherwood (ed.) Spencer T, Tudhope AW &amp; French JR (1997) Reconstructing sea-level change from coral micro-atolls, Tongareva (Penrhyn) Atoll, Northern Cook Islands. Spencer T, Moeller I &amp; French JR (1996) Wind wave attenuation over salt marsh surfaces. In: Sir William Halcrow &amp; Partners (ed.) Management of saltmarshes for flood defence. Bristol, National Rivers Authority, 46-54. French JR (1996) Function and optimal design of saltmarsh channel networks. In: Sir William Halcrow &amp; Partners (ed.) Management of saltmarshes for flood defence. Bristol, National Rivers Authority, 85-95. Clifford NJ &amp; French JR (1996) Criteria for suspended sediment monitoring in river environments: field evaluation of contrasting turbidity sensor types using simulated transport events. Proceedings River 96 Conference, Chicago, Vol. 2, 754-61. French JR, Spencer T, Murray AL &amp; Arnold NA (1995) Geostatistical analysis of sediment deposition in two small tidal wetlands, Norfolk, UK. French JR (1994) Wetland response to accelerated sea-level rise: a European perspective. In: CW Finkl (ed.) Coastal hazards: perception, mitigation and susceptibility. Hands MR, French JR &amp; O’Neill A (1993) Recent reef stress at Cahuita Point, Costa Rica: anthropogenically-enhanced sediment influx or natural geomorphic change?. Clifford N, Hardisty J, French JR &amp; Hart S (1993) Downstream variation in bed material characteristics: a turbulence-controlled form-process feedback mechanism. In: J Best (ed.) Clifford NJ &amp; French JR (1993) Monitoring and modelling turbulent flows: historical and contemporary perspectives. In: NJ Clifford, JR French &amp; J Hardisty (eds.) (1993) Clifford NJ &amp; French JR (1993) Monitoring and analysis of turbulence in geophysical boundaries: some analytical and conceptual issues. In: NJ Clifford, JR French &amp; J Hardisty (eds.) (1993) French JR, Clifford NJ &amp; Spencer T (1993) High frequency flow and suspended sediment measurements in a tidal wetland channel. In: NJ Clifford, JR French &amp; J Hardisty (eds.) (1993) French JR &amp; Clifford NJ (1992) Estimation of turbulence parameters in highly unsteady tidal flows. In: RA Falconer, K Shiono &amp; RGS Matthew (eds.) Spencer T &amp; French JR (1992) Geomorphologically-informed conservation of coastal depositional landforms and associated habitats. In: C Stevens, JE Gordon, CP Green &amp; MG Macklin (eds.) French JR (1991) Eustatic and neotectonic controls on salt marsh sedimentation. In: Kraus NC, Gingerich KJ &amp; Kriebel DL (eds.) Clifford NJ, McClatchey J &amp; French JR (1990) Discussion: Measurements of turbulence in the benthic boundary layer over a gravel bed and comparison between acoustic measurements and predictions of the bedload transport of marine gravels. Environmental system modelling, with particular reference to numerical simulation of hydrodynamics and fine sediment transport, complex system models, and data-driven modelling. History and philosophy of the earth and environmental sciences, with particular reference to coastal geomorphology and the role of models for prediction and explanation. ). This evolved into an interest in geophysical fluid dynamics, and research projects on turbulence characteristics in unsteady tidal flows (French and Clifford 1992. Estuarine and Coastal Shelf Science; Clifford NJ, French JR and Hardisty J (Eds.) 1993. , Chichester, John Wiley, 360pp) and in gravel bedded-rivers. More recent work has been concerned with tidal and meteorological forcing of estuarine fine sediment dynamics and potential sensitivity to climate change (French et al. 2008. Work on environmental system modelling encompasses a broad range of methodologies. Numerical modelling ranges from aspatial mass balance modelling of tidal saltmarsh morphodynamics (French JR 2006. ) to high spatial resolution hydrodynamic models that are used to critically investigate estuarine flood defence and sediment dynamics problems (e.g. French JR 2008. ). A recent collaboration is with the School of Civil Engineering in La Coruna, Spain, which has led to work on the evaluation of a new finite volume model and its application to the hydrodynamics of the Crouch estuary, Essex, UK (Cea L, French JR, Váquez-Cendón M 2006. ). We have also developed a new approach to incorporating bathymetric data uncertainty into shallow water models (Cea L and French JR 2012. ). At the same time, more qualitative mathematical approaches are used for the study of geomorphological system behaviour at larger temporal and spatial scales (e.g. Tyndall Centre-funded Coastal Simulator project; Defra-funded Estuary behavioural system simulator project; ESTSIM project; EA-funded Large-scale geomorphogical system behaviour project). In addition to several large hydrodynamic monitoring campaigns within UK estuaries (Suffolk, Essex), the Coastal and Estuarine Research Unit has also been involved in the development of new instrumentation for in situ measurement of complex suspended the size distribution of suspended particulates in coastal and estuarine waters (Benson T and French JR 2007. ). We were also early adopters of airborne LiDAR to provide high spatial resolution data on coastal change and bathymetry (French JR 2003. ). Recent projects include hydrodynamic assessments of the Crouch and Roach estuaries, Essex, UK (for EA); evaluation of the beneficial use of cohesive dredge material for foreshore recharge in the Orwell estuary, (for Harwich Haven Authority); investigation of the effectiveness of coastal saltmarshes in dissipating wave energy in front of sea defences (for EA, in collaboration with CCRU); and lead authorship of the DEFRA/EA UK Estuaries Research Programme – Phase 2 Science Plan. ) and the development of more sophisticated criteria for the evaluation of complex numerical models against observational data (French JR 2009. My work over the last decade or so has been strongly translational in nature and has influenced thinking within both national agencies and a wider engineering community regarding the challenges posed by climate change at the coast. I have helped shape UK flood and coastal defence policy through my membership of the Defra/EA Flood and Coastal Defence Technical Advisors Group from 2000 through to 2005 and involvement with other national committees, such as the UK Estuaries Advisory Group. I was lead author of the Defra/EA Estuaries Research Programme Phase 2 Science Plan, completed in 2002. This led to a five-year £3.5M research programme that focused on new approaches to understanding and modelling of broad-scale estuary behavior and response to environmental change. I recently led UCL’s contribution to the £2.9M NERC-funded Integrated Coastal Sediment Systems (iCOASST) project. In addition to developing new numerical models to predict the morphological evolution of our estuaries and coasts over the coming decades to centuries, UCL has developed a new conceptual model (Coastal and Estuarine System Mapping) and with associated software tools that represent the interactions between estuaries, open coasts and the offshore zone more effectively than the coastal cell framework that has informed UK shoreline management since the early 1990s. This iCOASST work has the potential to feed directly into future generations of Shoreline Management Plans (SMPs) and, more generally should lead to a step-change in our ability to predict and visualize how the coast is likely to evolve as sea-level and wave climate changes. I m currently working with colleagues in UCL Civil, Environmental and Geomatic Engineering on a NERC Environmental Risks to Infrastructure Innovation Project, which is developing new methods for refining forecasts of extreme storm surge water levels at estuarine ports. I have undertaken extensive consultancy work, much of it in collaboration with Helene Burningham in the Coastal and Estuarine Research Unit. This has included evaluation of the appropriateness of flood defence setbacks or realignments as an adaptive strategy for mitigating the effects of sea-level in estuaries (clients: Environment Agency; Black &amp; Veatch Ltd; KPAL); the dynamics of offshore tidal bank systems in the southern North Sea, including the implications for wind farm development (clients: Crown Estate, HR Wallingford/Fluor plc); and the beneficial use of cohesive dredging material to restore eroding estuarine shorelines (client: Harwich haven Authority/Environment Agency). I was an expert external reviewer for the IPCC 5th Assessment (Coasts and climate change section), and I was also an invited international expert participant in the Future of the US Gulf Coast Summit, held in New Orleans in 2006, in the wake of the Hurricane Katrina disaster. One-off changes to office hours: w/c Monday 23 October - No Monday office hours - moved to Friday 10.30 to 12.30 instead for this week only</t>
+  </si>
+  <si>
+    <t>Andrew Harris grew up in Hanwell in West London. He graduated in Geography from the University of Cambridge in 1999, completed a MSc in 'Modernity, Space and Place' at UCL in 2001, and undertook an ESRC-funded PhD in UCL Geography between 2001 and 2005 entitled ‘Branding urban space: the creation of art districts in contemporary London and Mumbai’. entitled ‘Liquid City: water, landscape and social formation in twenty-first century Mumbai’. This project explored the material and metaphorical dimensions to water and landscape in Mumbai, and included the making of a . Between July 2007 and June 2008, Andrew was an ESRC Postdoctoral Fellow working on a project entitled ‘Rethinking the creative city: twenty-first century urbanism in London and Mumbai’. In September 2008, Andrew was appointed as a Lecturer in Urban Studies and Geography at UCL to support an innovative new MSc programme in Urban Studies, which he now convenes, part of an interdisciplinary initiative at UCL called the . He was the primary investigator on an ESRC funded research project between 2009-2010 entitled 'Vertical urbanism: geographies of the Mumbai flyover' and ran an AHRC funded international on 'Creative city limits: urban cultural economy in a new era of austerity' between 2011-2012. He is a member of the ESRC Peer Review College, was Events Coordinator for the Royal Geographical Society-Institute of British Geographers Bjorkman, L and Harris, A. Engineering cities: mediating materialities, infrastructural imaginaries and shifting regimes of urban expertise. International Journal of Urban and Regional Research (forthcoming) Harris, A. and Moore, S. 2013 'Planning histories and practices of circulating knowledge.’ International Journal of Urban and Regional Research 37 (5), 2005: ‘Opening up the symbolic economy of contemporary Mumbai’. In Hall, T. and Miles, M. (eds.) Advances in Art and Urban Futures. Intellect Books: Bristol, UK and Portland, USA, pp. 29-41. investigates how symbols, practices and networks associated with the visual arts have become increasingly important in negotiating power in the postindustrial metropolis. This research combines a concern for cultural landscapes and aesthetics with an exploration of the economic and political dynamics of contemporary urban restructuring. I use this focus to consider how spatial articulations and exclusions associated with the creative city have been implicated in asserting discourses and practices of ‘neoliberal’ urbanism, and instigating new waves of inner-city gentrification. Yet I also use this perspective to chart new and possibilities for cultural interventions in the contemporary city. I have undertaken work on these themes across several case-studies in London, Mumbai and Buenos Aires. I am also expanding my geographical focus from the inner-city to consider creative practices and visions associated with the The second strand focuses on the three-dimensional geographies of contemporary cities. In particular I am interested in the construction of flyovers and considers how the visions, materials and practices associated with these elevated infrastructural projects play a constitutive role in new political performances and relations of . I am also developing work on tall buildings in London, and have been awarded a Beacon Bursary for a web-based project entitled Throughout my work I use inter-urban and intra-urban comparative frameworks. This enables me to highlight important particularities both between and within cities, contest Eurocentric assumptions in urban and social theory, and open up new channels of urban policy formation. ‘Tall Tales’ web project. Working with Dr Andy Hudson-Smith from UCL’s Centre for Advanced Spatial Analysis. (CASA). Funded by the UCL Public Engagement Unit, this project develops a growing public interest in London’s buildings and urban histories. Return of the Urban Development Corporation: Exploring Real Estate and Housing Governance within the London Legacy Development Corporation Planning Area UCL Overseas Research Scholarship and Social Sciences and Humanities Research Council of Canada. Primary supervisor (Secondary supervisor, Dr Caroline Bressey, Department of Geography). (FT, 2015-) Strategising for real utopias in the city: thinking with Shenzhen and London. UCL Graduate Research Scholarship/Overseas Research Scholarship. Primary supervisor (Secondary supervisor, Professor Jennifer Robinson, Department of Geography).</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at I am Dean of the UCL Faculty of Life Sciences. From 2009-2014 I was Director of the UCL Institute of Cognitive Neuroscience and from 2011-2014 Deputy Head of the Faculty of Brain Sciences at UCL. I lead a research group investigating the neural basis of human consciousness based at the ICN and the internationally renowned Wellcome Trust Centre for Neuroimaging. Passionate about academic and clinical academic training, I set up and currently direct the UCL School of Life and Medical Sciences Academic Careers Office. The ACO provides strategic leadership for the biomedical training portfolio at UCL and talent management to investigators and students across the School of Life and Medical Sciences. I have a number of externally facing roles for UCL. I am a member of the Francis Crick Institute Executive Team and the Board of Directors of Imanova. My work has been recognised by award of the Royal Society Francis Crick medal and election to the Academy of Medical Sciences. Work in my research group focuses on the neural mechanisms underlying human consciousness in health and disease. At present we focus primarily on the neural correlates of particular types of conscious content, aiming to distinguish between conscious and unconscious representations in the human brain. As a considerable amount is already known about the anatomy and physiology of the visual system, much of the research in the laboratory focuses on visual awareness. However, we are interested in all the major modalities and work in the laboratory also studies the auditory and somatosensory systems. We mainly use functional MRI at high field, in combination with behavioral studies, transcranial magnetic stimulation and EEG/MEG My major educational interest is in strategy and policy development for postgraduate clinical academic training, both locally and nationally. At UCL I set up and direct the UCL SLMS Academic Careers Office. This is part of the Office of the Vice Provost for Health and jointly operated with the UCL/H NIHR Biomedical Research Centre. The ACO actively manages UCL's large portfolio of MRC &amp; NIHR clinical and scientific trainees, manages our large MRC Doctoral Training Centre award, and also coordinates talent management and leadership training such as our Future Leaders programme. I co-direct (with David Lomas) the Wellcome Trust Clinical PhD Programme at UCL and co-direct (with Sebastian Ourselin &amp; David Hawkes) the EPSRC Centre for Doctoral Training in Medical Imaging. As well as this strategic activity I also teach on a number of Masters courses across UCL and provide lectures to several undergraduate programmes and pre-sessional courses.</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Previous appointments: Professor of Medicine and Dean of the Faculty of Medical Sciences, UCL 2013-2015; Professor of Respiratory Biology/Honorary Consultant Physician, University of Cambridge, 1998-2012. Deputy Director, Cambridge Institute for Medical Research, 2002-2012. Fellow, St. John's College 2008-2012. I undertook my PhD with Professor Robin Carrell FRS in the Department of Haematology at the University of Cambridge. My work demonstrated that the Z mutation of α1-antitrypsin caused the protein to undergo a novel conformational transition and form chains of polymers that are retained within hepatocytes. It is these polymers that underlie the PAS positive inclusions that characterise the condition. I showed that this same process was important in the retention of the Siiyama, Mmalton, S and I variants of α1-antitrypsin that also cause hepatic inclusions and plasma deficiency. My research team expressed, purified, characterised and crystallised wildtype and mutants of α1-antitrypsin and developed monoclonal antibodies and cell based assays to elucidate the pathway by which polymers form in vitro and in vivo. We also assessed a variety of strategies to block polymerisation that included the use of chaperones, competition with blocking peptides, in silico screens for small molecules that bind to novel allosteric pockets that we identified in our crystal structures, and more recently stem cell technology. The process of polymerisation is not unique to α1-antitrypsin but occurs in other members of the serine protease inhibitor (serpin) superfamily. Mutants of α1-antichymotrypsin, antithrombin, C1-inhibitor and heparin co-factor II were described by my team, and by others, that form polymers in vitro and in vivo. This is associated with emphysema, thrombosis and angiodema respectively. Perhaps most striking was our description of this process in neuroserpin to form inclusions within neurones and an autosomal dominant dementia that we named familial encephalopathy with neuroserpin inclusion bodies or FENIB. In view of the common mechanism linking all these diseases we have grouped them together as a new class of disorder that we have termed the serpinopathies. We have used our understanding of the serpinopathies to provide insights into other conformational diseases such as Alzheimer's, Huntington's and Parkinson's disease and the prion encephalopathies. The recognition that point mutations in neuroserpin underlie the dementia FENIB led us to assess the role of this protein in the more common dementia associated with Alzheimer's disease. We were able to demonstrate that neuroserpin is present in the plaques of individuals with Alzheimer's disease, that it forms a one-to-one interaction with the Aβ peptide and that it reduces the toxicity of this peptide in vitro and in a Drosophila model of disease. Our Drosophila model of Alzheimer's disease showed striking neurodegeneration and we therefore used it for a genetic screen to identify modifiers of the toxicity mediated by the Aβ peptide. Our data show a clear role for oxidative stress in neurodegeneration. Moreover we have collaborated with Chris Dobson's group (Chemistry, Cambridge) to use this model to develop algorithms of peptide toxicity in vitro and in vivo. Alpha-1-antitrypsin deficiency is the only genetic factor that is widely accepted to predispose to COPD. The identification of novel genetic factors will provide new insights into the pathobiology of this disease. I have therefore worked with Ed Silverman (Harvard) to establish the International COPD Genetics Network that was funded by GSK. This network was used to demonstrate independent familial aggregation of the airway and emphysema components of COPD and to assess candidate genes in association studies. It has recently been used in GWAS to identify SNPs in the nicotinic acetylcholine receptor, the hedgehog interacting protein (HHIP) and FAM13A as being associated with COPD. I am Head of UCL Medical School (2014-) and was Co-Director of the UCL Wellcome Trust PhD programme for Clinicians (2013-15). I provide bed-side teaching for medical students on the Respiratory Unit at UCLH. Government: Deputy CEO, Medical Research Council 1.1.17-31.3.18. Scientific Advisory Committee Genomics England 2013-. Member, Expert Advisory Group, Innovative Medicines and MedTech Review 2015-16. Charities: Steering committee COPD Biomarkers Qualification Consortium 2010-. Patron, Alpha-1 Awareness UK 2011-. Grants Advisory Committee Alpha-1 Foundation (US) 2016-. Medical Trustee, Board of Trustees, British Heart Foundation 2016-2019. Industry boards and significant associations: Steering committee, Evaluation of COPD Longitudinally to Identify Predictive Surrogate Endpoints, GSK 2006-2016. Chair, GSK Respiratory Therapy Area Board 2012-2015. Stakeholder representative Imanova Board 2015-. Other: Non-executive director UCLH 2015-18. Director of GMEC 2015- and MedCity Ltd. 2016-. Board of Directors Francis Crick Institute 2015-. Board of Directors KwaZulu Natal Research Institute for TB-HIV (K-RITH) 2016-.</t>
+  </si>
+  <si>
+    <t>Maria Kaika holds a D.Phil. in Geography from the University of Oxford, and an MA in Architecture from the National Technical University of Athens as well as professional qualifications as an architect. Her previous posts include: Fellow, St. Edmund Hall, Oxford; Director of Studies in Human Geography at St Hugh's College, Oxford; University Lecturer, Oxford University School of Geography; Junior Research Fellow, Linacre College, Oxford; Lecturer in Human Geography at St Peter's College Oxford. . Other appointments include: Executive Board Member, Remaking Cities Institute, Carnegie Mellon University; Appointed member on International Evaluation Panel of the Academy of Finland (Research Programme on the Future of Living and Housing – 2010). Trustee for the Foundation for Urban and Regional Studies (2005-2010); Distinguished Visiting Fellow at Queen Mary Graduate School of Social Sciences (Sept-Dec 2007); Visiting Professor at the University of Leuven (2008). Visiting Professor at the European University (EUREX) in Urbino (2006). Treasurer of the Royal Geographical Society &amp; Institute of British Geographers’ Urban Research Group (2003-06); and Teaching Liaison Officer for the Royal Geographical Society (2001-2006). Public lectures and keynotes include addresses at London’s Royal Academy of Arts, London’s History Society, the Annual Meeting of the institute of Finnish Geographers. Maria Kaika is regular research funding assessor for the ESRC, and for the Social Sciences and Humanities Research Council of Canada (SSHRC), and appointed peer reviewer of the European Science Foundation Standing Committee for the Social Sciences (SCSS), the European Union, the Georgian Science Foundation, and the Latsis Foundation. She has given seminars and public lectures for international academic institutions, policy organizations (UN Habitat, Royal Academy of Arts, Amnesty International, European Science Foundation, Architecture Foundation, European Environmental Bureau, Greek Environment Ministry) and the private sector (Seville Water company, Thames Water), and has acted as external examiner for the London School of Economics, UCL, Goldsmiths, the Universities of Otago, New Zealand, the National Technical University of Athens (Architecture), and the Harokopeio University of Athens (Geography) 2010 - Coordinator (for Manchester University) International PhD Workshop and Summer School on Cities and Environmental Conflict. Funded through the ERASMUS European PhD student exchange programme. Participants: Autonoma University of Barcelona, University of Manchester, University of Lund, and European University Institute at Budapest. 2009 - Organiser and Coordinator: 1st Graduate Student International Forum for Human Geography: Institute of British Geographers Conference, Manchester, August 2009 - Organiser and Coordinator (with P Devine-Wright and G Baeten) 'Urban Imaginaries: Utopian and Dystopian Thought and Praxis on Nature and the City', RGS-IBG Conference, Manchester, August 2009 - Organiser and Coordinator (with K Furlong) 'Technology, Materiality and the City: Urban Techno-natures and STS', RGS-IBG Conference, Manchester, August RC 21: The Research Committee for the 21st Century, on Sociology of Urban and Regional Development of the International Sociological Association</t>
+  </si>
+  <si>
+    <t>Office hours: Richard is on leave for the 2017-2018 academic year, conducting research under a Royal Society / Leverhulme Trust Senior Fellowship. Bonsor, H.C., MacDonald, A.M., Ahmed, K.H., Burgess, W.G., Basharat, M., Calow, R.C., Dixit, A., Foster, S.S.D., Gopal, K., Lapworth, D.J., Moench, M., Mukherjee, A., Rao, M.S., Shamsudduha, M., Smith, L., MacDonald, A.M, Bonsor, H.C., Ahmed, K.M., Burgess, W.G., Basharat, M., Calow, R.C., Dixit, A., Foster, S.S.D., Gopal, K., Lapworth, D.J., Lark, R.M., Moench, M., Mukherjee, A., Rao, M.S., Shamsudduha, M., Smith, L., , Scanlon, B.R., Doell, P., Rodell, M., van Beek, L., Wada, Y., Longuevergne, L., LeBlanc, M., Famiglietti, J.S., Edmunds, M., Konikow, L., Green, T., Chen, J., Taniguchi, M., Bierkens, M.F.P., MacDonald, A., Fan Y., Maxwell, R., Yechieli, Y., Gurdak, J., Allen, D., Shamsudduha, M., Hiscock, K., Yeh, P., Holman, I. and Treidel, H., 2013. and Bonsor, H.C., 2012. Groundwater in Africa – is there sufficient water to support the intensification of agriculture from Land Grabs? In: J.A. Allan, M. Keulertz, S. Sojamo and J. Warner (Eds.), and Tindimugaya, C., 2012. The impacts of climate change and rapid development on weathered crystalline rock aquifer systems in the humid tropics: evidence from southwestern Uganda. In: Quantifying the impact of climate change on water resources at the basin scale on five continents – a unified approach Quantifying uncertainty in the impacts of climate change on river discharge in sub-catchments of the River Yangtze and Yellow Basins, China , Longuevergne, L., Harding, R., Todd, M., Hewitson, B., Lall, U., Hiscock, K., Treidel, H., Dev Sharma, K., Kukuric, N., Struckmeier, W. and Shamsudduha, M., 2010. Groundwater and global hydrological change – current challenges and new insight. In: Projected impacts of climate change on groundwater and stormflow in a humid, tropical catchment in the Ugandan Upper Nile Basin Hydrological modeling of the River Xiangxi (China) using SWAT2005: a comparison of model parameterizations using station and gridded meteorological observations , M. Miret-Gaspa, J. Tumwine, L. Mileham, R. Flynn, G. Howard, and R. Kulabako, 2009. Increased risk of diarrhoeal diseases from climate change: evidence from communities supplied by groundwater in Uganda. In: , Thompson, J., Mukwaya, C. and Tindimugaya, C., 2009. Monitoring groundwater - surface water interactions in the Upper Nile Basin of Uganda. In: A 140-year record of recent changes in aquatic productivity in a remote, tropical alpine lake in the Rwenzori Mountain National Park, Uganda Reply to Comment by Mölg et al. on Recent deglaciation in the Rwenzori Mountains of East Africa due to rising air temperatures Hydrochemical evidence of the depth of penetration of anthropogenic recharge in sandstone aquifers underlying two mature cities in the UK. . World Health Organisation (Geneva), Edited by O. Schmoll, G. Howard, J. Chilton and I. Chorus. IWA (London), pp. 339-362 (Chapter 12). . World Health Organisation (Geneva), Edited by O. Schmoll, G. Howard, J. Chilton and I. Chorus. IWA (London), pp. 631-652 (Chapter 24). . World Health Organisation (Geneva), Edited by O. Schmoll, G. Howard, J. Chilton and I. Chorus. IWA (London), pp. 587-611 (Chapter 22). , Elliot, T., Downey, A., Kalin, R. M. 2002. Use of 13CTDIC as a tracer of groundwater evolution in Permo-Triassic aquifers. , Baines, O. P., Barrett, M. H., Trowsdale, S., Lerner, D. N. L., Thornton, S. F., 2000. Depth variations in aquifer hydrochemistry; use of a low-cost multilevel piezometer. In: , and Nalubega, M. 2000. A comparison of the extent and impacts of sewage contamination on urban groundwater in developed and developing countries. Groundwater recharge in the Victoria Nile basin of East Africa: support for the soil-moisture balance method using stable isotope and flow modelling studies 1) the impact of climate change and rapid development on freshwater resources with a specific focus on groundwater and other natural stores of freshwater; and climate variability and change on freshwater resources and water scarcity at basin scales. Improving the analysis of climate-related impacts on natural freshwater stores including principally groundwater but also soil moisture and ice, is a key component of on-going research. Although the use of models (analytical, statistical, numerical) plays a critical role in this research, a central aspect of this research is the use of observations, both g and GRACE satellite measurements, as observations enable the development and testing of our conceptual understanding of the relationship between climate variability and change and terrestrial freshwater stores. This research contributes directly to international scientific programmes including groundwater in enabling communities in low-income communities to adapt to the pressures of rapid development and climate variability. To date, research has focused primarily on the hydrogeology of weathered crystalline rock (saprolite-saprock) aquifer systems that underlie much of the tropics including 40% of sub-Saharan Africa and the entire Great Lakes Region of Africa (GLRA). More recently, research has been extended to include shallow alluvial aquifers in the Bengal Basin, the largest of the Asian Mega-Deltas. Research is both - seeking to resolve the capacity of both aquifer systems to sustain groundwater abstraction for irrigation and urban water supplies - and (evolutionary hydrogeology) - seeking to understand how the long-term geomorphological evolution of aquifers in both environments determines their characteristics and interactions between groundwater and surface water: My research addresses practical problems of securing and sustaining water supplies for domestic and agricultural needs in Sub-Saharan Africa and South Asia. Through direct engagement with stakeholders and decision makers together with long-term collaborations with research institutions, our research is designed to have an immediate and direct impact. Two areas where the impact of this research have been most pronounced are: Throughout Sub-Saharan Africa, groundwater now features centrally in national water development strategies, national irrigation plans, and regional initiatives to improve access to drinking water and food production through irrigation and thereby contribute to the ) funded by the UK government to resolve the scientific basis for groundwater-based adaptations to climate variability and change as well as increased freshwater demand. The rationale for these plans and initiatives is rooted, in part, in collaborative research ( , this research has set a widely adopted benchmark for the quantification of groundwater resources in Africa. Recent collaborative research with the Ministry of Water in Tanzania ( ) directly informs the management of the Makutapora Wellfield which supplies freshwater to the national capital city, Dodoma. A summary of research outcomes related specifically to this collaborative research is available in both The relationship between global warming and the retreat of alpine glaciers in the Rwenzori Mountains of East Africa, first established by collaborative research that I led with the Ministry of Water and Environment (Uganda) and Makerere University ( ), is now a commonly cited illustration of the impact of climate change in East Africa. This research together with studies of the impact of glacial recession on alpine river flow ( (NAPA) to combat climate change but also the management of both the Rwenzori Mountains National Park and local hydro-electric power generation stations. A summary of key research outcomes for stakeholders, policy makers, and decision makers is available in both * Dr. Aisha Bello-Dambatta will teach in my place during the 2017-2018 academic year as I undertake research under a Royal Society / Leverhulme Fellowship * Climate change impacts over the Okavango Delta region of southern Africa using Regional Climate Models - quantifying errors and uncertainties. Groundwater flow and storage in weathered crystalline rock aquifer systems of Uganda: evidence from environmental tracers and aquifer responses to hydraulic stress. : Prof. R.G. Taylor, Dr. John Thompson (IDS), Dr. J. Kashaigili (SUA), Prof. T. Ayenew (AAU), Dr. G. Favreau (IRD), Dr. K. Villholth (IWMI), Prof. A. MacDonald (BGS), Prof. M. Todd (Sussex) : Dr. M. Shamsudduha (UCL IRDR), Dr. E. Fottrell (UCL Global Health), Prof. K.M. Ahmed (Dhaka), and Prof. R.G. Taylor : Dr. R. Taylor, Dr. M. Todd, J. Thompson (UCL) (consortium led by Professor N. Arnell, Walker Institute, University of Reading) Assessing the impacts of climate change and variability on water resources in Uganda: developing an integrated approach at the sub-regional scale (International Geosphere-Biosphere Programme, World Climate Research Programme, International Human Dimensions Programme on global environmental change, project ref. 202 457 5859) : Dr. R. Taylor, Dr. M.H. Barrett (Surrey University), Dr. D. Macdonald (British Geological Survey), Dr. M. Nalubega (Makerere University</t>
+  </si>
+  <si>
+    <t>I specialise in the study living and fossil ostracod crustaceans, both marine and freshwater, and their applications in palaeoclimatology, palaeoceanography, biogeography, crustacean phylogeny and the evolution of sex and parthenogenesis. My recent research, as an associate member of the (Ancient Human Occupation of Britain), has focused on developing my Mutual Ostracod Temperature Range method and applying it to the quantitative palaeoclimatic reconstruction of Quaternary archaeological sites. I also work on pre-Quaternary ostracods, including Cretaceous marine and nonmarine faunas. I collaborate in multidisciplinary research with scientists in the UK as well as mainland Europe, Japan, Canada and the USA. , Curry, B.B. &amp; Mesquita-Joanes, F. 2012. Mutual climatic range methods for Quaternary ostracods. In: Horne, D.J., Holmes, J.A., Rodriguez-Lazaro, J. &amp; Viehberg, F. (eds) Brandão, S. N. &amp; Slipper, I. J. 2011. The Platycopid Signal deciphered: responses of ostracod taxa to environmental change during the Cenomanian-Turonian Boundary Event (Late Cretaceous) in SE England. Joordens, J., Roberts, M. B., Sinka, K. J. &amp; Whittaker, J. E. 2010. Middle Pleistocene climate and hydrological environment at the Boxgrove hominin site (West Sussex, UK) from ostracod records. Since joining QMUL in 2003 I have taught a wide range of undergraduate topics including environmental hazards, palaeoecology and Geographical Information Systems. I like to integrate lectures with workshops, seminars and practical work in the classroom or laboratory and in the field, and I am active in developing and using e-learning resources. Aspects of my research are incorporated into my teaching. For example, over the past five years, lectures and practical exercises based on my Mutual Ostracod Temperature Range method featured in the second year Global Environmental Change and Digital Worlds modules. Consequently, several students became sufficiently interested and enthused to undertake successful major projects aimed at developing, testing and applying aspects of the method, leading in turn to postgraduate work on the same topic in two cases and in a third case to co-authorship of a research publication. Thus both research and teaching have benefited from the integration of an innovative palaeoclimate application with undergraduate coursework. Research links have also enabled me to arrange for guest speakers on undergraduate modules, as well as specialist-hosted group visits to the Natural History Museum. module. In 2013 I received the QMUL Students' Union Assessment &amp; Feedback award. I gained a Higher Education Academy Teaching Fellowship in 2016. Ostracods are common microfossils in Quaternary (Pleistocene and Holocene) deposits. Their ecological diversity makes them useful as palaeoenvironmental proxies in oceanic, coastal and continental settings; they are also particularly valuable for reconstructing past climatic conditions (e.g. with the ) and can be helpful for correlating and establishing the relative ages of the deposits in which they are found. My research involves all of these applications, often as a member of a multidisciplinary team, as well as studies of Recent (living) ostracod taxonomy, ecology and distribution which are essential to understand better their significance as fossil proxies. The value of ostracods value as Quaternary palaeoclimate proxies, through indicator species, transfer function, mutual climatic range and geochemical approaches, is the focus of a major book project to which 39 international authors contributed, of which I was the lead editor and which was published at the end of 2012. I use ostracods as palaeoclimate proxies in various ways. My Mutual Ostracod Temperature Range (MOTR) method combines nonmarine ostracod distributional data (e.g. from the ) with modern climate data to establish species’ mean air temperature ranges (e.g. for January and July); thus calibrated, overlapping ranges of fossil ostracods in Quaternary assemblages are used to determine the mutual temperature range within which they could have lived. This has facilitated quantitative palaeoclimate reconstructions for British Pleistocene archaeological sites including Boxgrove and Purfleet and is currently being used in multiproxy studies of Quaternary sites in Italy, Germany, Estonia and Canada. The primary "training set" source for the MOTR method is the NODE database, initiated by members of an EU-funded project ( : 2004–2008). It currently contains approximately 10,000 records of living species and 2,000 fossil (Quaternary) records; as database steward I welcome approaches from anyone interested in contributing to or using it. NODE is linked to other regional databases via the OMEGA will be a global dataset, with applications in palaeoclimate, biodiversity and biogeography research, combining regional datasets and harmonising their taxonomy. OMEGA will be realised through international collaboration and sharing of regional ostracod databases such as The widely accepted “Platycopid Signal” Hypothesis claims that fossil ostracod assemblages dominated by the Order Platycopida signal dysaerobic conditions on the sea floor, based on the premise that filter-feeding platycopids, able to pass more water over their respiratory surface, were better-equipped than other ostracods to survive in poorly oxygenated waters. I and co-authors have challenged claims of modern biological and ecological support for the Platycopid Signal and have advanced an alternative interpretation, suggesting that platycopid dominance may signify oligotrophy rather than dysaerobia, because living platycopids appear adapted to filter-feed on nano- and picoplankton which are predominant in oligotrophic conditions. The mid-Mesozoic was a time of explosive global diversification of nonmarine ostracod faunas, establishing lineages that persist to this day. My research on ostracod assemblages of Jurassic–Cretaceous continental deposits (the "Purbeck-Wealden" in Britain) includes revisions of their taxonomy, biostratigraphical zonation schemes and palaeoenvironmental interpretations that have implications for Mesozoic nonmarine basins worldwide. The application of a palaeobiological approach to the interpretation of Purbeck-Wealden ostracod assemblages has been particularly rewarding; for example, a combination of pollen and ostracod fossils provided evidence for temporary freshwater pond conditions associated with a dinosaur skeleton in a Cretaceous Weald Clay pit in Surrey. Ostracod shells provide the best fossil record of any arthropods, extending back 500 million years, but the rarity of preservation of their appendages and other "soft parts" impedes efforts to understand their phylogenetic relationships. Ostracods are well-known for providing examples of geographical parthenogenesis and unusual longevity of asexual reproduction. As a micropalaeontologist I collaborate with zoologists, ecologists and molecular biologists in studying ostracods and crustacean phylogeny as well as the evolutionary ecology of sex and parthenogenesis, e.g. as a participant in the EU-funded project: (Jones, 1850) in its type area and stratigraphical context: potential for mapping the freshwater/estuarine boundaries of the Thames–Medway river system in the MIS9 and MIS11 interglacials. 2014. The Hoxnian interglacial, MIS 11 and the lacustrine sequence at Marks Tey, Essex. In: Bridgland, D.R., Allen, P. &amp; White, T.S. (Eds). , Bal, D., Benardout, G., Huckstepp, T., Lewis, S.G. &amp; March, A. 2014. Ostracods from Marks Tey: palaeoenvironmental and palaeoclimate implications. In: Bridgland, D.R., Allen, P. &amp; White, T.S. (Eds). (Crustacea, Ostracoda) from temporary rock pools in Utah, USA, with notes on the taxonomic harmonisation of North American and European ostracod faunas. , Whittaker, J. E. &amp; Abu-Zied, R. H. 2010. Ostracods and the Holocene palaeolimnology of Lake Qarun, with special reference to past human–environment interactions in the Faiyum (Egypt). , Smith, R. J., Whittaker, J. E. &amp; Murray, J. W. 2004. The first British record and a new species of the superfamily Terrestricytheroidea (Crustacea, Ostracoda): morphology, ontogeny, lifestyle and phylogeny. &amp; Slipper, I. J. 2003. The use of ostracods in palaeoenvironmental studies, or what can you do with an ostracod shell? , Franke, J., Daniel, T., Burghardt, A., Funai, B., Lippold, K., Daut, G. &amp; Wennrich, V. 2015. Ostracoda from inland waterbodies with saline influence in Central Germany: Implications for palaeoenvironmental reconstruction. 2014. Interglacial palaeotemperature reconstructions for MIS11 and MIS9 in SE England. In: Bridgland, D.R., Allen, P. &amp; White, T.S. (Eds). , Schreve, D.C., Whittaker, J.E. &amp; Whitehouse, N.J. 2014. Middle to Late Pleistocene palaeoecological reconstructions and palaeotemperature estimates for cold/cool stage deposits at Whittlesey, eastern England, , Keen, D.H., Mighall T., Penkman, K.E.H., Schreve, D.C. &amp; Whittaker, J.E. 2014. Palaeoecology of a late MIS 7 interglacial deposit from eastern England. , Keene, D.H., Penkman, K. E. H., Preece, R.C., Rhodes, E., Scaife, R., Schreve, D.C., Schwenninger, J.L., Slipper, I., Ward, G., White, M.J., White, T.S. &amp; Whittaker, J.E. 2013. An enhanced record of MIS 9 environments, geochronology and geoarchaeology: data from construction of the High Speed 1 (London–Channel Tunnel) rail-link and other recent investigations at Purfleet, Essex, UK. ., Curry, B.B. &amp; Mesquita-Joanes, F. 2012b. Mutual climatic range methods for Quaternary ostracods. In: Horne, D.J., Holmes, J.A., Rodriguez-Lazaro, J. &amp; Viehberg , F. (eds) , Joordens, J., Roberts, M. B., Sinka, K. J. &amp; Whittaker, J. E. 2010. Middle Pleistocene climate and hydrological environment at the Boxgrove hominin site (West Sussex, UK) from ostracod records. Williams, M., Siveter, D.J., Ashworth, A.C., Wilby, P.R., Horne, D.J., Lewis, A.R. &amp; Marchant, D.R. 2008. Exceptionally preserved lacustrine ostracods from the Middle Miocene of Antarctica: implications for high-latitude palaeoenvironment at 77 . &amp; Lord, A. R. 2000. Recent shallow marine ostracods from high latitudes: implications for late Pliocene and Quaternary palaeoclimatology Brandão, S. N. &amp; Slipper, I. J. 2011. The Platycopid Signal deciphered: responses of ostracod taxa to environmental change during the Cenomanian-Turonian Boundary Event (Late Cretaceous) in SE England. 2009. The Platycopid Signal of oxygen depletion in the ocean: a critical evaluation of the evidence from modern ostracod biology, ecology and depth distribution. 2006. Appendage homologies and the first record of eyes in platycopid ostracods, with the description of a new species of skeleton from the Upper Weald Clay (Barremian, Early Cretaceous) at Smokejacks Brickworks (Ockley, Surrey, UK), based on palynomorphs and ostracods. Schmit, O., Bode, S.N.S., Camacho, A., Horne, D.J., Lamatsch, D.K., Martens, K., Martins, M.J., Namiotko, T., Rossetti, G., Rueda-Sevilla, J., Schön, I., Vandekerkhove, J. &amp; Mesquita-Joanes, F. (accepted in press). Linking present environment and the segregation of reproductive modes (Geographic Parthenogenesis) in Schön, I., Smith, R.J &amp; Martens, K. 2005. What are Ostracoda? A cladistic analysis of the extant superfamilies of the subclasses Myodocopa and Podocopa (Ostracoda: Crustacea). My outreach activities include talks in schools and for local societies, contributions to school taster days at QMUL and a schools masterclass (on tsunami hazards) at the Royal Geographical Society. I am seeking to engage members of the public in a project in connection with my palaeoclimate research and the</t>
+  </si>
+  <si>
+    <t>, Executive Director of Rezatec Ltd and Director of The London NERC Doctoral Training Partnership. He is science advisor to the Global Cool Foundation and the Sopria-Steria Group and a member of Cheltenham Science Festival Advisory Committee. Maslin is a leading scientist with particular expertise in past global and regional climatic change and has publish over 155 papers in journals such as . He has been PI or Co-I on grants worth over £45 million (including 27 NERC, 2 EPSRC, 2 DIFD, 2 Carbon Trust, 2 ESA, 3 Technology Strategy Board, Royal Society and DECC). His areas of scientific expertise include causes of past and future global climate change and its effects on the global carbon cycle, biodiversity, rainforests and human evolution. He also works on monitoring land carbon sinks using remote sensing and ecological models and international and national climate change policies. Professor Maslin has presented over 45 public talks over the last three years including UK Space conference, Oxford, Cambridge, RGS, Tate Modern, Royal Society of Medicine, Fink Club, Frontline Club, British Museum, Natural History Museum, Goldman Sachs, the Norwegian Government, UNFCCC COP and the WTO. He has supervised 10 Research fellows, 14 PhD students and over 20 MSc students. He has also have written 8 popular books, over 30 popular articles (e.g., for The Today Programme, Material World, BBC News, Channel 5 News, and Sky News. His popular book “Climate Change: A Very Short Introduction” by Oxford University Press is now in its third edition and has sold over 40,000 copies. He has subsequently published another title “Climate: A Very Short Introduction” in the same series. Maslin was also a co-author of the seminal Lancet report ‘Managing the health effects of climate change’ and the Lancet review paper on the health links between Population, Development and Climate Change. He was included in Who’s Who for the first time in 2009 and was granted a Royal Society Wolfson Research Merit Award for the study of early human evolution in East Africa in 2011. Humans are rather weak when compared with many other animals. We are not particular fast and have no natural weapons. Yet Homo sapiens currently number nearly 7.5 billion and are set to rise to nearly 10 billion by the middle of this century. We have influenced almost every part of the Earth system and as a consequence are changing the global environmental and evolutionary trajectory of the Earth. So how did we become the worlds apex predator and take over the planet? Fundamental to our success is our intelligence, not only individually but more importantly collectively. But why did evolution favour the brainy ape? Given the calorific cost of running our large brains, not to mention the difficulties posed for childbirth, this bizarre adaptation must have given our ancestors a considerable advantage. In this book Mark Maslin brings together the latest insights from hominin fossils and combines them with evidence of the changing landscape of the East African Rift Valley to show how all these factors led to selection pressures that favoured our ultrasocial brains. Astronomy, geology, climate, and landscape all had a part to play in making East Africa the cradle of humanity and allowing us to dominate the planet. this book offers far more than a palaeoanthropological cocktail with a twist ... In synthesising the most recent research in palaeoanthropology and giving the ecology of our ancestors a climatological twist, Maslin has produced a book that is fascinating, humbling and informative. Understanding the emergence of our species from the unique landscapes of East Africa is one of the great scientific challenges. Mark Maslin takes us on an exhilarating intellectual journey, encompassing geology, astronomy, climate science and evolutionary biology, to argue that the unique landscape and ever-changing climate of the East African Rift Valley were instrumental in catalysing the emergence of a civilisation on our planet. I'm left with a dizzying feeling of our good fortune to be here at all, and a powerful sense of our responsibility, as Maslin notes, to earn our species name: "Wise". There is an amazing amount of information packed into this surprisingly slim book ... Maslin is able to quickly fill us in with the basic information on highly complex global processes we need to know, before continually returning us to the core theme of how this led to who we are today. Snazzy graphics – diagrams and graphs – helps break up the flow of information being directed our way, and aide smooth digestion. Maslin applies his own mind to existing theories and creates a hybridised narrative, one based on the mix of local, regional, continental and planetary changes which have affected East Africa over millions of years. He powerfully illustrates why nexus thinking of geography’s broad disciplines is so key to fully understanding such an immense subject as the evolution of humanity – the story of us. In this tale of mountains, monsoons and meteorites, climate and ocean currents, Maslin masterfully puts human evolution into context, and shows how the earth and its environments have shaped us. A powerful, gripping account of how the dynamic earth shaped human evolution… with impressive ease, Maslin packs a tremendous amount of knowledge into a flowing narrative, making the point that special ontinent eventually turned out to be our luck...A tour de force through Earth’s history and a timely reminder of just how lucky we are to be here at all. Palaeoclimatologist Mark Maslin delves into deep time to trace humanity’s rise to geological hegemony. Examining early hominin finds in East Africa, he spotlights three stages (bipedalism in Australophithecus, a jump in brain size in Homo erectus and Homo sapiens’ arrival some 195,000 years ago) and the roles of climate change, celestial mechanics and plate tectonics in their emergence. Ultimately, he theorizes that ‘climate pulses’ in the Rift Valley, in which hyper-arid conditions alternated with the formation of vast lakes, helped to drive the evolution of the big hominin brain. Owen, M. J, M. A Maslin; S. J Day; D. Long “Testing the reliability of paper seismic record to SEGY conversion on the surface and shallow sub-surface geology of the Barra Fan (NE Atlantic Ocean), ., M.J. Leng, J.D., Kingston, A.L. Deino, R.K. Edgar and A.W. Mackay “East African lake evidence for Pliocene millennial-scale climate variability” , H. Balzter, M. Sweeting, “Choose satellites to monitor deforestation: Governments must work together to build an early warning system,” , “Chapter 31: The Prehistoric Human Time Scale” (Ed. F. Gradstein et al.) In The Geological Time Scale, 1011-1032 (2012). ., R. Pancost, K. Wilson, J. Lewis, M.H. Trauth “Three and half million year history of moisture availability of South West Africa: Evidence from ODP site 1085 biomarker records” Wilson, K.E., Guilderson, T.P., Burns, S.J., Leng, M.J., Dynamic boundary-monsoon intensity hypothesis: evidence from the deglacial Amazon River discharge record. , H. Montgomery, A. Johnson and P. Ekins, Global health and climate change: moving from denial and catastrophic fatalism to positive action, , A.G.N. Bergner, A. Deino, A. Junginger, E. Odada, D.O. Olago, L. Olaka, M.R. Strecker “Human Evolution and Migration in a Variable Environment: The Amplifier Lakes of East Africa“ ., Gas hydrates: a hazard for the 21st Century? Report of an open discussion session at the Johnstone – Levis Colloquium. , Investigations on the Peach 4 debrite, a late Pleistocene mass movement on the Northwest British continental margin. In Submarine Mass Movement and their consequences (editors Mosher et al.) Springer, p 301-311 (2010). J. Green, J. A. Bendle, E. L. McClymont, R. D. Pancost. Atlantic overturning circulation and Agulhas Leakage influences on South East Atlantic upper ocean hydrography during Marine Isotope Stage 11 Rohl U., Oceanic, atmospheric and ice-sheet forcing of South East Atlantic Ocean productivity and South African monsoon intensity during MIS-12 to 10, ., Sinninghe Damste, J. S., Schoutan, S., Hopmans, E. C., Boot, C. S., and Pancost, R. D., Major Changes In Glacial And Holocene Terrestrial Temperatures And Sources Of Organic Carbon Recorded In The Amazon Fan By Tetraethers. , Letter to the Editor: Geochronology and Palaeoenvironments of Southern African Hominin-Bearing Localities—A Reply to Wrangham et al., 2009. ‘‘Shallow-Water Habitats as Sources of Fallback Foods for Hominins’’ AM J PHYS ANTHROPOL Review of the timing and causes of the Amazon Fan Mass Transport and Avulsion Deposits during the latest Pleistocene, In External Controls on Deep-Water Depositional Systems (B. Kneller, O. J. Martinsen, and B. McCaffrey, Editors) SEPM (Society for Sedimentary Geology) Special Publication No. 92, 133-144 (2009) and M.H. Trauth, Chapter 13: Plio-Pleistocene East African Pulsed Climate Variability and its influence on early human evolution "The First Humans - Origins of the Genus Comments on "Diatomaceous sediments and environmental change in the Pleistocene Olorgesailie Formation, southern Kenya Rift" by R. Bernhart Owen, Richard Potts, Anna K. Behrensmeyer and Peter Ditchfield, Palaeogeography, Palaeoclimatology, Palaeoecology, 282, 145-146 (2009). , Claire Bickers, Virginia Ettwein, Nicole Bale and Luke Handley “Organic geochemical changes in Pliocene sediments of ODP Site 1083 (Benguela Upwelling System)” , and M. Kucera, Centennial-scale evolution of Dansgaard-Oeschger events in the northeast Atlantic Ocean between 39.5 and 56.5 ka B.P., Peros, M., and Spall, S., Simulated glacial and interglacial vegetation across Africa: implications for species phylogenies and trans-African migration of plants and animals. and Onodera, J., Diatom oxygen isotopes: evidence of a species effect in the sediment record. Geochemistry Geophysics Geosystems, (Q06012):1-10 (2007). , A. Deino, A., Bergner, M. Strecker “High and low latitude controls and East African climate and early human evolution" , P.C. Knutz, and T. Ramsay, “Millennial-Scale Sea Level Control on Avulsion Events on the Amazon Fan” Critical Quaternary Strtigraphy Special Issue, ., Leng, M.J., Sloane, H.J. and Haug, G.H. (2006) Diatom d18O evidence for the development of the modern halocline system in the subarctic northwest Pacific at the onset of major Northern Hemisphere glaciation. , Y. Mahli, O. Phillips and S. Cowling “New views on an old forest: assessing the longevity, resilience and future of the Amazon Rainforest.” C. Vilela, N. Mikkelsen and P. Grootes, “Causation of the Quaternary catastrophic failures of the Amazon Fan deduced from stratigraphy and benthic foraminiferal assemblages.” “Linking large impacts, gas hydrates and carbon isotope excursions through widespread sediment liquifaction and continental slope failure: The example of the K-T boundary: event.” In Kenkmann, T., Horz, F., and Deutsch, A., (editors) Large Impacts III, , C. Boot, R. Pancost, V. Ettwein, “Precession-forced changes in South West African vegetation during marine oxygen isotope stages 100 and 101. , H. Schulz, J. Swallow, S. van Kreveld, M. Vautravers, E.Vogelsang, M.Weinelt, The Glacial North Atlantic: Sea-surface conditions reconstructed by GLAMAP-2000, , R.W. Murray, "Deep water connections between the hemispheres during the intensification of Northern Hemisphere Glaciation: Evidence from ODP Leg 175 Site 1085" , D. Seidov, and J. Lowe "Synthesis of the nature and causes of sudden climate transitions during the Quaternary" In: The Oceans and Rapid Climate Change: Past, Present and Future (editors Seidov, Haupt, and Maslin) , “Ocean Bi-Polar Seesaw and Climate: Southern Versus Northern Meltwater Impacts” In: The Oceans and rapid climate change: Past, Present and Future (editors Seidov, Haupt, and Maslin) , E. Platzman, A. Rosell-Mele, J.R. Marlow, M. Leng, D. Lowry, S.J. Burns, and the ODP Leg 175 Shipboard Scientific Party. "Chapter 23. Reconstructing the Climatic History of the Western Coast of Africa over the Past 1.5 m.y.: A Comparison of Proxy Records from the Congo Basin and the Walvis Ridge and the Search for Evidence of the Mid-Pleistocene Revolution" Laurie, L. Vidal, and M. Brownless "Chapter 19. Fluctuations in productivity and upwelling intensity at Site 1083 during the intensification of Northern Hemisphere Glaciation (2.4-2.7 Ma)" , C. Stickley, and V. Ettwein (2001) “Paleo-oceanography: Holocene Climate variability” In Encyclopedia of Ocean Sciences (Ed: John Steele, Stephen Thorpe and Karl Turekian) Academic Press, p1210-1217. , S J Burns, E Durham, S Greig, P Grootes, M-J Nadeau, E. Platzman, M Schleicker, B. Lomax, N. Rimington "High resolution marine palaeoclimate records of the Amazon river discharge over the last 12,000 years" "Late Quaternary Vegetation and climate changes in the Amazon basin based on a 50,000 year pollen record from the Amazon Fan ODP Site 932" "Low latitude forcing of meridional temperature and salinity gradients in the North Atlantic and the growth of glacial ice sheets" "Composition and circulation of bottom water in the western Atlantic Ocean during the last glacial, based on pore-water analyses from the Amazon Fan" , X-S. Li, M-F. Loutre and A. Berger "The contribution of orbital forcing to the progressive intensification of Northern Hemisphere Glaciation" , M. Sarnthein, J-J. Knaak, P. Grootes, and C. Tzedakis "Intra-Interglacial cold events: An Eemian-Holocene comparison" In: Cramp, A., MacLeod, C.J., Lee, S. and Jones, E.J.W. (eds) . "Equatorial Wastern Atlantic Ocean circulation changes linked to the Heinrich events: deep-sea sediment evidence from the Amazon Fan." In: Cramp, A., MacLeod, C.J., Lee, S. and Jones, E.J.W. (eds) and N. Mikkelsen, "Reconstruction of the sedimentary history of the late Quaternary Amazon Fan complex" In: Cramp, A., MacLeod, C.J., Lee, S. and Jones, E.J.W. (eds) E. Thomas, N.J. Shackleton, M.A. Hall and D. Seidov "Glacial North East Atlantic surface water pCO2: productivity and deep-water formation" , G. Haug, M. Sarnthein and R. Tiedemann. "The progressive intensification of Northern Hemisphere Glaciation as seem from the North Pacific" , N.J. Shackleton and U. Pflaumann. "Temperature, salinity and density changes in the Northeast Atlantic during the last 45,000 years: Heinrich events, deep water formation and climatic rebounds" and I.N. McCave. "Magnetic susceptibility as a reliable indicator of ice rafting intensity: a reconstruction of the palaeocirculation of the last glacial maximum and the Heinrich events" , J. Adams, E. Thomas, H. Faure and R. Haines-Young. "Estimating the carbon transfer between the oceans, atmosphere and the terrestrial biosphere since the last glacial maximum." J. Andrews and I.N. McCave. "Estimation of the timing of the Heinrich events using realistic calculations of the maximum outflow of icebergs from the Laurentide ice sheet." Sarnthein, M., E. Jansen, M. Weinelt, and M. Arnold, J-C. Duplessy, H. Erlenkeuser, A. Flatoy, G. Johannessen, T. Johannessen, S. Jung, N. Koc, L. Labeyrie, , U. Pflaumann, H. Schulz. "Variations in Atlantic surface ocean paleoceanography, 50-60 N: A time-slice record of the last 30,000 years." , G. Haug, M. Sarnthein, R. Tiedemann, H. Erlenkeuser and R. Stax. "Northwest Pacific Site 882: The initiation of major Northern Hemisphere Glaciation" ., M. Owen, S. Day, T. Dunkley Jones, A. Ridgwell, Assessing the past and future stability of global gas hydrate reservoirs, Climate Forcing of Geological Hazards, Wiley-Blackwell, 250-277 (2013) ., Schmidt, D.N., P.J. Valdes, Paleocene-Eocene Thermal Maximum perspective on climate sensitivity and methane hydrate instability. Climate Forcing of Geological Hazards, Wiley-Blackwell, 278-304 (2013) “The longevity and resilience of the Amazon Rainforest.” In Y. Mahli and O. Phillips (editors (editors) 'Tropical forests and global atmospheric change' Oxford University Press, Oxford, 167-182 (2005). , C. Stickley, and V. Ettwein “Paleo-oceanography: Holocene Climate variability” In Encyclopedia of Ocean Sciences (Ed: John Steele, Stephen Thorpe and Karl Turekian) Academic Press, p1210-1217 (2001). ., Backlund, P., Killeen, T. amd Schellnhuber, H.J., (editors) Climate change and urban areas, Philosophical Transactions of the Royal Society A, volume 365, no. 1860, p.2613-2776 (Nov 2007) Maslin's research has been underpinned by his participation in international funded research expeditions (e.g., IMAGES, Ocean Drilling Program), fieldwork in Africa (2003; 2007; 2010) and invited study visits (e.g., Yale, Potsdam, Berne, Penn State, Stony Brook, Rio de Janeiro, Smithsonian Institute and Turkana Basin Institute). He has published over 165 papers in journals such as (with &gt;1025 citation in 2016), H=51* and i10 index=128* (Google) with 28 papers that have been cited over 100 times. He has also published 11 books, 16 book chapters, 6 edited volumes and over 45 popular articles/blogs. Maslin has been an Associate Editor of Maslin currently holds a Royal Society Wolfson Research Merit award for his work on early Human Evolution in East Africa. Maslin’s major research areas are as follows: Earthquakes (a volume for 8-12 year olds), p49, Weyland, Hove, UK., Hardback (ISBN 0 7502 2472 X) 1999, Paperback (ISBN 0 7502 2738 9) 2000. Storms (a volume for 8-12 year olds), p49, Weyland, Hove, UK. Hardback (ISBN 0 7502 2474 6) 1999, Paperback (ISBN 0 7502 2740 0) 2000. January commented on World Meteorological Organization, announcement that 2016 was the hottest year on record included in BBC web site, The Times, FT, Mail Online with Reuters and El País. March - Press Coverage of Nature Climate Change paper ‘Adaptation responses to climate change differ between global megacities’ including Wall Street Journal, LA Times, Mashable, The Atlantic’s City Lab, El País, Grist, Mother Jones, Carbon Brief, Reuters, Climate Home, Take Part, Quartz, Phys.org, EcoWatch, EFE News Wire (featured on El Comercio, El Periodico de Mexico and 12 others), El Periodico de Mexico, La Vanguardia, Estonian Public Broadcasting, Swiss Public Radio (interviewed for radio feature), Business Green, GreenBiz, EcoBusiness, Climate Change News, Sci Tech Today, Yahoo! News, EconoTimes, SciBlogs.co.nz, Xinhua Net, Il Sole 24 Ore, O Eco, Observátorio do Clima, Internazionale, Philanthropy News Digest, EurActiv.fr, EurActiv.com, AllNews24.eu, El Mundo (Costa Rica), Apple Daily (Taiwan), ZME Science and Front Page of Reddit. November - BBC World Service Newshour answers questions from the public on climate change ahead of the UNFCCC COP21, meeting in Paris. http://www.bbc.co.uk/programmes/p0391cc7 July - Press conference for UCL-JLT International Airport tsunami risk research report – articles online for New Scientist, Nature, Timeout Tokyo Feb - Channel 4 News and BBC Radio 4 Material World – interviewed concerning two recent Nature papers that show new results regarding attribution of climate change to recent mega floods – quoted in response to the data released by the Met Office and WMO on the hottest decade ever recorded. June -BBC News 24, BBC News and BBC Newsround – commented on the launch of the latest UKCIP web site and report on future of UK climate. May - Launch of the UCL-Lancet Report on Managing the Health effects of climate change covered by Sky News, Channel 4 News, Press Association, BBC Radio 4, BBC World Service, Guardian, -Daily Mail, The Mirror, The Scotsman, The Daily Telegraph, BBC News Online, New Scientist, -Guardian, Times, City Talk. July - BBC World Service, News Hour – comments on Al Gore’s vision of US getting all its electricity from renewable or clean sources in 10 years time. June - BBC Radio 4, The Today Programme – comments on the new idea by Prof. Wally Broecker of artificial trees to remove carbon dioxide from the atmosphere. May - BBC Wales – reviewed and commented on the environmental policies of the four main political parties in the Welsh Assembly election. , provided the detailed audit of Government policies to cut carbon emissions by 2020 and was interviewed to present the findings. Green Britain week including SGR Colchester, Rutland Radio, Fosseway Radio, Q103 FM, Kismat Radio, BBC Radio Jersey (Channel Islands), Orchard FM, BBC Orkney, Downtown Radio Belfast, Manx Radio, River FM, 107.4 The Quay, and Heart 106 East Midlands "Mudding the waters" (Is the largest body of freshwater in the world [Lake Baikal] dying from man made pollution? Mark Maslin challenges the environmentalists) "Weight and Sea" (Millions of lives in Bangladesh have been devastated after repeated attempts to contain flooding. But subsidence means even worse is to come is effective action is not taken) "Wave after wave" (Hurricane Georges and El Niño are not flukes of nature, argues Mark Maslin. They are symptoms of rapid climate - and there are more storms to come) in Harwell, Oxfordshire. Rezatec aims to solve global business problems concerning the environment through scientific analysis of satellite and ground data. Rezatec Earth Information Products and Analytics support complex business decision-making for organisations across many different markets from financial services to energy, from agribusiness to forest management and the REDD+ agenda. Rezatec uses cutting edge science which has been independently verified as the bases of all its data products and services reducing of error and uncertainty. Rezatec’s unique strength lies in its ability to aggregate large amounts of diverse data from satellite, airborne and ground instruments as the basis for advanced predictive analysis. This analysis uses different ecosystem models and statistical techniques to create each data product. Rezatec Ltd is currently funded by ISIC, European Space Agency, Technology Strategy Board, Royal Society and Climate KIC and has a large diverse portfolio of clients. 1005 Environmental Change - introductory course which covers Earth History (Big Bang - Plate Tectonics - Evolution - Glaciation - Human impact- Acid rain - pollution - Global warming). 1002 Environment Systems and Processes - introductory course which covers the fundamental processes controlling the Earth's environment (climate - oceanography - hydrology - ecology - geomorphology - tectonics)</t>
+  </si>
+  <si>
+    <t>James Evans is a Professor in Geography whose research explores how cities learn to become smarter and more sustainable. He has published widely on urban environmental governance, with over 30 peer-reviewed papers and two authored books in the field and has held fellowships at UCLA and the Volkwagen Institute. His current research explores the role living labs are playing in achieving smart and sustainable urban development, and he is leading the University's involvement in Triangulum, a five-year Horizon 2020 project to establish smart districts across Europe. He is committed to developing innovative and interdisciplinary action research styles, establishing and directing the University Living Lab and the Manchester Cycling Lab, and has worked with a range of external organisations, including the United Nations, Arup and a range of national and local governments. Since 2014 he has been a Formas Guest Researcher at Lund University leading research on urban labs.</t>
+  </si>
+  <si>
+    <t>I am an environmental geochemist who works closely with geomorphologists, hydrologists and ecologists to provide fundamental science to underpin effective management of fine sediment in estuaries and lowland rivers. My principal research interest is in understanding the source, distribution and behaviour of sediment-bound contaminants and to quantify how this is impacted by natural disturbance, anthropogenic management and restoration activities. Key research highlights include improved understanding of: (i) the influence of environmental parameters on contaminant behaviour; (ii) flocculation and cohesive sediment transport; (iii) the development of innovative geochemical tracers; and iv) the interactions between physical and biogeochemical processes in saltmarsh environments. , Droppo, I.G, He, C, Grapentine, L and Exall, K (2011) A novel tracer technique for the assessment of fine sediment dynamics in urban water management systems. , Manning, A., Droppo, I., Leppard, G.G. and Benson, T. (2010) Dynamic interactions of cohesive sediment tracers and natural mud. , Cundy, AB., Hearn-Davies, S., MacLeod, CL., Turner, S. and Hughes, R. (2008). Physicochemical changes to sediments at Orplands Farm, Essex, UK following 8 years of Managed Realignment. Invited talks/keynotes: Sediments and Biodiversity, 7th International SedNet conference on 6–9 April 2011, Venice, Italy; Impacts of physical disturbance on biogeochemical cycling in restored saltmarshes, Open Landscapes, Society for Ecological Restoration, 29 September – 3 October 2013, Hildesheim, Germany. Provide expert advice on sediment contamination and management to; the Environment Agency, Environment Canada, Medway Ports Authority, Dredging Liaison Group, Port of London Authority, Groupe d’Etude Observations Dragage sur l’Environment and the Port of Nantes. I am actively involved in teaching at all levels of our undergraduate and postgraduate taught programmes. I employ a range of teaching and assessment methods including laboratory work, field-based learning, large lecture classes, small seminars and workshops. I am particularly interested in the development of student-led approaches to learning. For example, I convene ‘Environmental Management Applications’ which includes a residential fieldtrip to south Florida. In preparation for this trip, students carry out a critical literature review on a relevant topic. The students each produce a 2-page fact sheet and they then become the ‘expert’ on their topic holding a question and answer session at an appropriate location – it could be on a beach, in a boat or on the middle of a mangrove swamp! Much of my teaching, particularly at third year and masters level, has a strong emphasis on developing the skills that students need to progress into environmental careers. This teaching is informed strongly by my research. For example, in Environmental Management Applications students learn how to carry out ecosystem service assessments, and at 2 and masters level students collect environmental data (e.g. contaminants in soils, sediment and water) and write up their findings as technical consultancy style reports. (funded by Defra, in collaboration with Queen Mary, School of Biological and Chemical Sciences, the Natural History Museum and Adas) Pollution from non-coal abandoned metal mines is a serious impediment to rivers and estuaries in England Wales meeting their water quality targets as set out by the EU Water Framework Directive. Recent work has identified the mines that are most likely to be causing a significant environmental impact and hence where efforts to prevent pollution will be focussed. However, what is not clear is to what extent rivers, and the animal and plant life they support, are impacted by the legacy of past pollution still bound up in river sediments and to what extent the problem is linked to metal-contaminated water currently entering rivers from mines and mine waste heaps. Work will be undertaken to clean up mine waters (removing or reducing toxic metals) before they enter the river but if sediments in the river and estuary beds are already contaminated and affecting life in rivers then the planned clean-up work of mine water sources may not result in the expected recovery of ecological condition. This project aims to improve our knowledge of the impact of metal-rich sediments upon river life and the potential they hold for inhibiting ecological recovery following remediation of mine water discharges. We will use new approaches to more directly measure the levels of toxic metals to which life in the water is actually exposed, and we will relate these values to the integrity of the whole community of animals in the river. This work will be supported by chemical analysis of the river and estuary sediments and laboratory experiments where we will manipulate environmental conditions and measure the response of the metals bound to the sediments and the contamination of animals living in the sediments. Historically we have disposed of our domestic waste in landfill sites in the coastal/estuarine zone that are now at, or near, to mean high water. With climate change and associated predictions of sea level rise, increasing frequency of storm surges and changes to precipitation and river discharge there is now a risk that this contaminated material may re-worked and released to river, estuarine and coastal environments. We are currently working to assess the extent of such contamination in southeast England, to predict the potential consequences of sea level rise on contaminant release, and to develop a risk assessment model and sustainable management plan for the Environment Agency. Hydrodynamic dredging, including techniques such as water injection dredging (WID), involves the injection of large volumes of water under low pressure into bottom sediment , breaking the cohesive forces that bind fine sediment and allowing sediment to move under the influence of gravity and/or tidal and river flows. This is an effective and economically attractive dredging technique, which has been widely used across Europe and the USA. However, since 2011 it has become a licensable activity under the Marine and Coastal Access Act 2009 and there is now an urgent need to improve our understanding of the potential environmental impacts of this technique including understanding the release of contaminants to the water column and changes to contaminant behaviour in remobilized sediments and then to develop appropriate monitoring protocols. Managed realignment (MR), a widespread coastal restoration technique, is increasingly being across Europe and the USA to re-create coastal salt marsh habitats and to deliver sustainable coastal defence. However, MR also has the potential to deliver many additional ecosystem services including carbon sequestration and water purification (through e.g. contaminant storage or denitrification). Our research has shown how understanding past land use and changes to soil structure can influence hydrology and solute transport in restored salt marsh sediments with potential consequences for the ecosystem services that these restoration schemes can deliver (European Commission 2012; Spencer et al. 2008; Spencer and Harvey 2012). Current work includes the examining the potential of MR sites as mercury methylation ‘hotspots’. Brand, J.H. and Spencer, K.L. 2017. Assessing the risk of pollution from historic coastal landfills. Executive Summary for the Environment Agency [PDF 1,185KB] Spencer KL and Harvey GL. 2012. Understanding system disturbance and ecosystem services in restored saltmarshes: Integrating physical and biogeochemical processes. Kadiri, M., Spencer, KL., Heppell, CM. 2012. Potential contaminant release from agricultural soil and dredged sediment following managed realignment. Journal of Soils and Sediments. DOI 10.1007/s11368-012-0568-z. Spencer, K.L, Suzuki, K and Hillier, S. 2011. The potential of Rare Earth Element labelled potassium depleted clays as cohesive sediment tracers in aquatic environments. Kadiri, M., Spencer, KL., Heppell, CM. and Fletcher, P. 2011. Sediment characteristics of a restored saltmarsh and mudflat in a managed realignment scheme in Southeast England. Reid MK, Spencer KL, Shotbolt L (2011). An appraisal of microwave-assisted Tessier and BCR sequential extraction methods, for the analysis of metals in sediments and soils. Spencer, K.L, Droppo, I.G, He, C, Grapentine, L and Exall, K (2011) A novel tracer technique for the assessment of fine sediment dynamics in urban water management systems. Jingchun, L., Chongling, Y., Spencer KL., Ruifeng Z. and Haoliang L. 2010. The distribution of acid-volatile sulfide and simultaneously extracted metals in sediments from a mangrove forest and adjacent mudflat in Zhangjiang Estuary, China. Spencer, K.L., Manning, A., Droppo, I., Leppard, G.G. and Benson (2010) Dynamic interactions of cohesive sediment tracers and natural mud. Reid, M. and Spencer, K.L. 2009. Use of principal components analysis on estuarine sediment data sets: The effect of data pre-treatment. Spencer, K.L., Cundy, AB., Hearn-Davies, S., MacLeod, CL., Turner, S. and Hughes, R. 2008. Physicochemical changes to sediments at Orplands Farm, Essex, UK following 8 years of Managed Realignment. Spencer, K.L., Suzuki, K., Benson, T., Taylor, J.A., Manning, A. and Dearnaley, M. (2007). The potential use of geochemically labelled minerals as tracers for cohesive sediments. In: Westrich, B. and Förstner, U. (Eds) Sediment Dynamics and Pollutant Mobility in Rivers—Interdisciplinary Approach. Springer-Verlag Berlin, Heidelberg, New York. onto clay minerals: A potential tracer for fine sediment transport in the coastal marine environment? In: Balson, P.S. and Collins, M.B (Eds) Coastal and Shelf Sediment Transport. Special Publication of the BGS, vol SP274, British Geological Society, London. Spencer, K.L., MacLeod, C.L., Tuckett, A. and Johnson, S.M. 2006. Source and distribution of heavy metals in the Medway and Swale Estuaries, Kent, UK. Cundy, A.B., Lafite, R., Taylor, J.A., Hopkinson, L., Deloffre, J., Charman, R., Gilpin, M.B, Spencer, K.L, Carey, P.J., Heppell, C.M., Ouddane, B. and De Wever, S. 2006. Sediment transfer and accumulation in two contrasting saltmarsh/mudflat systems: the Seine estuary (France) and the Medway estuary (UK). Spencer, K.L., Dewhurst, R.E. and Penna, P. 2006. Potential impacts of water injection dredging on water quality and ecotoxicity in Limehouse Basin, River Thames, SE England, UK. Cundy, A.B., Hopkinson, L., Lafite, R., Taylor, J.A., Ouddane, B., Spencer, K.L, Heppell, C.M., Carey, P.J., Charman, R., Shell, D. and Ullyott, S. 2005. Heavy metal distribution and accumulation in two Spartina sp.-dominated macrotidal salt marshes from the Seine estuary (France) and the Medway estuary (U.K.). Spencer, K.L., Cundy, A.B., Croudace, I.W. 2003. Heavy metal distribution and early-diagenesis in salt marsh sediments from the Medway Estuary, Kent, UK. Spencer, K.L. and MacLeod, C.L. 2002. Partitioning of heavy metals in estuarine sediment cores and implications for use of sediment quality standards. I have successfully supervised 6 PhD students to their completion and am actively recruiting new doctoral candidates. I am particularly interested in supervising projects that examine: hydrology, sediment structure and biogeochemistry in natural and restored salt marshes (including contaminants and carbon storage); the behaviour and structure of flocs and associated contaminants in aquatic environments; and the environmental impacts of flooding and coastal landfills.</t>
+  </si>
+  <si>
+    <t>Helen Bennion first came to UCL in 1985 to study Geography where she obtained a first class honours degree and some years later a PhD, which examined sediment records of eutrophic ponds in south-east England. She was awarded a post-doctoral Royal Society Research Fellowship and spent a year at the Institute of Limnology, Mondsee in Austria. She returned to the Department of Geography at UCL in 1995 to take up a post as Research Fellow with the Environmental Change Research Centre (ECRC) and was promoted to Senior Research Fellow in 2001, then to Principal Research Associate in 2009, and most recently to Reader in Environmental Change since 2011. Her research interests are in aquatic ecology and palaeoecology with a focus on freshwater diatoms. Over the last twenty years she has undertaken numerous national and international research projects examining the impacts of eutrophication on standing fresh waters over a range of time scales and employing lake sediment records to assess environmental change, reference conditions and restoration targets. Since 1996, she has been involved in EU collaborative research on five large multi-partner projects (BIOMASS, EDDI, Euro-LIMPACS, WISER and REFRESH), the most recent of which is examining climate-nutrient interactions in aquatic ecosystems. She is interested in the application of science to lake management and conservation, particularly the EU Water Framework Directive. She was an invited member of the UK Lakes Task Team and UK Eutrophication Forum which advised on strategic research and development, and fed into environmental policy. Much of Helen’s applied research is carried out via ENSIS Ltd, the consultancy affiliated to the ECRC, of which she was appointed Director in 2006. See Her publications include around 70 academic articles and over 80 research reports and she is a peer reviewer for numerous international scientific journals and funding bodies. She has supervised more than ten Masters and PhD students and teaches on undergraduate and masters courses including topics of lake eutrophication, palaeoecological methods, water policy, lake management and conservation. 2001- Postdoctoral Senior Research Fellow / Environmental Consultant (joint post), Environmental Change Research Centre / ENSIS Ltd, Department of Geography, University College London. 1995-2001 Postdoctoral Research Fellow / Environmental Consultant (joint post), Environmental Change Research Centre / ENSIS Ltd, Department of Geography, University College London. Joint Project Leader of Royal Society/Chinese Academy of Sciences collaborative project on the Eutrophication of lakes in Hubei Province, Central China (1991-1994) and participant in the follow up projects on Environmental change and atmospheric contamination (1998-2001) and Palaeolimnology and shallow lake ecosystem restoration (2004-2006). Joint principal investigator of NERC project to Develop a transfer function between lake anoxic factor and sedimentary chironomid sub-fossil species abundance (1999-2000). Joint-scientific co-ordinator and steering group chair of the EU Fourth Framework Environment and Climate Programme European Diatom Database (EDDI) (1998-2001). Key partner in Achieving Sustainable Catchment Management: Developing integrated approaches and tools to inform future policies as part of the Rural Economy and Land Use (RELU) Scoping Study, Funded by ESRC, BBSRC &amp; NERC (2004-2005). Task leader of the EU Sixth Framework Programme Integrated Project to evaluate the impacts of global change on European freshwater ecosystems (Euro-limpacs) (2004-2009). Principal investigator of NERC CASE Studentship project Understanding the ecological response of marl lakes to enrichment: a combined limnological and palaeolimnological approach (2008-2012) Key partner in Linking historical land use changes with palaeolimnological records of nutrient changes in Loweswater funded by ESRC in association with Department of Sociology, Lancaster University (2009-2010) Principal investigator for UCL of the EU Seventh Framework Programme Water bodies in Europe: Integrative Systems to assess Ecological status and Recovery (WISER) (2009-2012). UCL deputy co-ordinator, steering group member and work package leader of the EU Seventh Framework Programme Adaptive strategies to mitigate the impacts of climate change on European freshwater ecosystems (REFRESH) (2010-2014). Co-Investigator of the NERC funded project 'Lake Biodiversity, Ecosystem Services and Sustainability (Lake BESS)' (2014-2016) which explores dispersal and biodiversity impacts on community assembly and ecosystem services in shallow lake landscapes. Project manager of over 70 projects funded by bodies such as the Environment Agency, English Nature, Scottish Natural Heritage, Countryside Council for Wales, Scotland and Northern Ireland Forum for Environmental Research, and the Irish Environment Protection Agency (1995-present). These cover research topics such as nutrient reconstructions of standing waters, lake classification and monitoring, water quality and sediment assessment, lake database and risk protocol development, and restoration feasibility studies (see ‘Impact’ section for details). Helen is interested in the application of limnology and palaeolimnology to lake management and conservation, particularly the EU Water Framework Directive. The desire to contribute to the management of the aquatic environment underpins all of her research. Helen has worked closely with government and conservation agencies to define ecological and chemical reference conditions for lakes in Europe and in China. For example, she has been centrally involved in advising the Environment Agency, Scottish Environment Protection Agency, Natural England, Countryside Council for Wales (now Natural Resources Wales) and Scottish Natural Heritage on reference conditions for UK lakes including development of an ecological classification tool using diatoms (DARLEQ). This was facilitated by her invited membership of the UK Lakes Task Team (2005-2009) and provided the evidence base to inform UK Government response to the EU Water Framework Directive. She recently co-edited a special issue of Journal of Paleolimnology (vol 45, 2011) on "Reference states and lake restoration". Her applied diatom work has helped to inform restoration strategies of &gt;50 lakes suffering from nutrient enrichment. She was an invited guest on BBC Radio 4s Material World programme in Sept 2005 to speak about diatoms as indicators of environmental change. She has given talks to local interest groups (e.g. Morvern Historical Society) and regularly presents her research outputs at meetings attended by a range of stakeholders (e.g. Llangorse Lake and Llyn Tegid symposia and the Loweswater Care Project). She is a member of the Environment Agency (EA) expert panel on diatom quality assurance and hosts regular training workshops for EA staff. Since 2005 Helen has been a director of ENSIS Ltd, an environmental consultancy within the Geography Department which is dedicated to supporting the research of the Environmental Change Research Centre. On behalf of ENSIS Ltd, she co-ordinates applied work on lowland and shallow lake systems. See In the last fifteen years she has been the project manager of over 70 projects which have helped to inform lake conservation and management. Recent projects include:· Identification of reference lakes and evaluation of palaeoecological approaches to define reference conditions for UK (England, Wales, Scotland &amp; Northern Ireland) ecotypes (2002-2004), Scotland and Northern Ireland Forum for Environmental Research. A review of Broads restoration and management: history, current condition and future recommendations and restoration feasibility studies for three broads (2013-2014), The Broads Authority. Nicola Hughes (1998-2001), Benthic diatoms in lowland lakes. PhD awarded. Nicola now works in quality assurance and is currently QA manager with responsibility for audit, communication and enhancement in the Faculty of Health and Social Care at Anglia Ruskin University (Cambridge). Tom Davidson (2001-2005), Ecological assessment of shallow lakes using contemporary and palaeoecological methods. PhD awarded. Tom is currently a post-doctoral Research Fellow with the Environmental Change Research Centre at UCL and specialises in shallow lake ecosystems. Isabel Bishop (2011-), Assessing the changing status of slender naiad (Najas flexilis) in Scottish mesotrophic lochs using the sediment record: implications for conservation</t>
+  </si>
+  <si>
+    <t>I am a social geographer with a particular interest in issues of inequality and social justice and neoliberal welfare reform. My work uses an ethnographic approach to explore questions of inequality and social justice on the ground, through the experiences of food banking, homelessness, and low wage work. I am particularly interested in exploring sites of potential challenge to neoliberal political and ethical values and practices. Beyond Queen Mary I am the external examiner for BA/MA Human Geography at the University of Edinburgh, and the MA Social Research at the University of Sheffield, on the editorial board of ; and a member of the ESRC's Peer Review College. I am a Trustee of Bow Foodbank, and of the Independent Food Aid Network (IFAN). Williams, A., Cloke, P., May, J., and Goodwin, M. (2016) ‘Contested space: the contradictory political dynamics of food banking in the UK’, Devertueil, G., May, J., and Von Mahs, J. (2009) ‘Complexity not collapse: recasting geographies of homelessness in a ‘punitive age’’, May, J., Wills, J., Datta, K., Evans, Y., Herbert, J. and McIlwaine, C. (2007) ‘Keeping London working: global cities, the British state, and London’s new migrant division of labour’, is taken in the 2nd year, introducing students to the key concerns of social geography. It centers upon an understanding of societies as products of uneven and always negotiated relationships of power. Drawing mainly but not exclusively on examples from the UK, it shows that social experience and identities are differentiated according to the social constructions of race and ethnicity, class, gender and sexuality and that, rather than simply varying across space, geography itself is central to the construction of social difference. The module aims to develop skills of critical social interpretation on the part of the students. Topics include: The geographies of race and ethnicity; Race, class and inequality in the global city; The purification of public space and the collapse of homeless space; The gendering of urban space; The geographies of sexuality; Rural homelessness and poverty. The module is assessed by 100% coursework, consisting of a 2000 word mock Wikipedia entry based upon a self-guided field walk in East London (50%), and 3000 word course work essay (50%). In feedback, students have praised the "engaging and encouraging lecturer", the interesting topics and the way in which "seminars really helped me to engage with the key points", and the "different form of assessment, that allowed me to develop wider skills" and to "really engage with the literature and see its relevance to the real world". to explore recent changes to north American and western European cities. The module can be taken in the second or third year. Using Los Angeles and Las Vegas as examples, and the notion of the 'post-metropolis' as an organising framework, students explore the key processes driving recent changes to our cities (globalisation and economic restructuring), the nature of those changes (rising inequality, and the emergence of new urban forms - from gentrification, to 'edge cities'), and responses to those changes (both the increased concern with urban security, and the increased 'theming' of urban environments). The module is organised around an innovative program of seminars (combining outline lectures, videos, and student presentations), and a 10 day residential field class in Los Angeles and Las Vegas that includes visits to a ‘master planned community’ in Orange County, California; community organisations in South-Central Los Angeles; group work in Korea Town, Venice Beach, Skid Row and Downtown Los Angeles; and ethnographic work on the Strip and in the themed casinos and hotels of Las Vegas. The module is assessed by 100% course work, with students completing a detailed Learning Log (reporting on their learning during the seminar course), a course work essay, and Field Diary (outlining their experiences in Los Angeles and Las Vegas). In feedback students found the module helped them to "think about cities in new ways", found the field trip "brilliant", "eye opening", and the course itself "the best I have taken at university". Framed by a concern with social justice, and alternatives to neoliberal welfare reform, over the past decade or so my research has focused on three key areas: 1) the politics of food banking, 2) the geographies of street homelessness, and 2) the role of migrants in London's low-wage economy (British Academy £8,516) with Paul Cloke (University of Exeter), Andrew Williams (University of Cardiff) and Liev Cherry (Queen Mary University of London). The recent and rapid rise in the number of food banks in Britain has generated significant public and political debate. Framing their work in neo-liberal political economy and welfare, academic accounts of food banking have tended to be highly critical. Working with food bank providers and users, and examining both more familiar and a range of alternative approaches to food banking, this project explores food banks as a response to food insecurity and as potential sites of challenge to neoliberal political and ethical values and practices. , and related work with Paul Cloke (University of Exeter) (ESRC, £124,000) has sought to extend overly narrow and dystopic accounts of neoliberalism and urban revanchism by examining instead the various and complex experiences of and responses to street homelessness in contemporary Britain. Focusing on the potential and limits of post-secularism as a form of resistance and alternative to the neoliberalisation of the city and of welfare, our work has traced the changing geographies of homeless service provision, and homeless people’s own understandings of voluntary service spaces and of the streets. The Global Cities at Work project, with QMUL colleagues Kavita Datta, Cathy McIlwaine and Jane Wills (ESRC £240,000) explored the role of labour market policy, subcontracting, and migration in shaping London's low-wage labour market and a distinctive Migrant Division of Labour in contemporary London, the diverse experiences of low-paid migrant workers themselves, and the politics attendant to such divisions. (£8,516) Emergency Food Provision in the UK (with Paul Cloke, University of Exeter, Andrew Williams, University of Cardiff, and Liev Cherry, Queen Mary University of London). On-going (£240, 670) Global Cities at Work: migrant labour and employment in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills [Principal Applicant] Department of Geography, Queen Mary). Final report graded: Outstanding (infrastructural support) (Total funding £19,700) London Citizen’s Summer Academy: Survey of Low Paid Workers in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills, Department of Geography, Queen Mary) June-August 2005 (£124, 994): Homeless Places: the uneven geographies of provision for single homeless people (Principal applicant: Professor Paul Cloke, University of Exeter). Final report graded: Outstanding (£3000): Education and Citizenship - mapping the land in the 1996 Land Use UK Project. (Co-applicant with Dr. A. Binns and Dr. S. Rycroft, University of Sussex). (£240, 670) Global Cities at Work: migrant labour and employment in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills [Principal Applicant] Department of Geography, Queen Mary). Final report graded: Outstanding (infrastructural support) (Total funding £19,700) London Citizen’s Summer Academy: Survey of Low Paid Workers in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills, Department of Geography, Queen Mary) June-August 2005 (£124, 994): Homeless Places: the uneven geographies of provision for single homeless people (Principal applicant: Professor Paul Cloke, University of Exeter). Final report graded: Outstanding (£3000): Education and Citizenship - mapping the land in the 1996 Land Use UK Project. (Co-applicant with Dr. A. Binns and Dr. S. Rycroft, University of Sussex). Williams, A., Cloke, P., May, J., and Goodwin, M. (2016) ‘Contested space: the contradictory political dynamics of food banking in the UK’, Cloke, P., Johnsen, S. and May, J. (2012) ‘Ethical Citizenship? Faith-based volunteers and the ethics of providing services for homeless people’, in Beaumont, J., Cloke, P. and Vranken, J. (eds) Deverteuil, G., May, J. and Von Mahs, J. (2009) ‘Complexity not collapse: Re-casting the geographies of homelessness in a ‘punitive age’’, May, J. (2008) ‘Of Nomads and Vagrants: Single Homelessness and Narratives of Home as Place’, in Oakes, T. S. and Price, P.L. (eds) Cloke, P., Johnsen, S. and May, J. (2007) ‘The periphery of care: emergency services for homeless people in rural areas’, May, J., Johnsen, S. and Cloke, P. (2007) ‘Alternative cartographies of homelessness: rendering visible British women’s experiences of ‘visible’ homelessness’, May, J., Cloke, P., and Johnsen, S. (2006) ‘Shelter at the margins: New Labour and the changing state of emergency accommodation for single homeless people in Britain’, Cloke, P., Johnsen., S. and May, J. (2005) ‘Exploring ethos? Discourses of charity in the provision of emergency services for homeless people’, Datta, D., McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2010) ‘A migrant ethic of care’ Negotiating care and caring among migrant workers in London’s low pay economy?, Datta, D., McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2009) ‘Men on the move? Embodied narratives of migration and work among low paid men in London’, Wills, K., Datta, K., Evans, Y., Herbert, J., May, J. and McIlwaine, C. (2009) ‘Religion at work: The role of faith-based organizations in the London living wage campaign’, May, J., Datta, K., Evans, Y., Herbert, J., McIlwaine, C. and Wills, J. (2008) ‘Travelling neoliberalism: Polish and Ghanaian migrant workers in London’, in Smith, A., Stenning, A. and Willis, K. (eds) Herbert, J., May, J., Datta, K., Evans, Y., McIlwaine, C. and Wills, J. (2008) ‘Multicultural living? Experiences of everyday racism amongst Ghanaian migrants in London’, May, J., Wills, J., Datta, K., Evans, Y., Herbert, J. and McIlwaine, C. (2007) ‘Keeping London working: global cities, the British state, and London’s new migrant division of labour’, Datta, K., McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2007) ‘From coping strategies to tactics: London’s low-pay economy and migrant labour’ Datta, K., McIlwaine, C., Wills, J., Evans, Y., Herbert, J., and May, J. (2007) ‘The new development finance or exploiting migrant labour? Remittance sending among low-paid migrant workers in London’, Evans, Y. Wills, J., Datta, K., Herbert, J., McIlwaine, C. and May, J. (2007) ‘‘Subcontracting by stealth’ in London’s hotels: impacts and implementation for labour organising’, I would be happy to discuss your ideas with you prior to application, and would welcome students wishing to work on any of the following broad areas: What are the implications of recent changes to the welfare state on the citizen-status of low-income 16-24 year-olds in the UK?</t>
+  </si>
+  <si>
+    <t>Please contact me if you are interested in conducting PhD study in any of the following topics, or if you have an innovative and different idea in which you think I might be interested: My current research can be understood as an attempt to weave together geopolitics and assemblage theory. I am currently exploring this in two realms. First, I maintain a research programme looking at the material connections between different states. My initial project on this is forthcoming in (Duke University Press). I am now trying to push this forward both by investigating the interoperability of national militaries and -- with my colleague Fiona McConnell -- by studying the diplomatic relations of the British Overseas Territories. Second, with my colleague Emma Waterton, I focus on the materiality of popular geopolitics through an examination of embodied encounters with heritage sites associated with militarism or colonialism. My current research on diplomacy may be of interest to various government ministries, especially the FCO, MoD, and DfID, as well as the governments of the Overseas Territories. Other research projects that I am working on may be of interest to entities such as UNESCO, Heritage England, and ICOMOS.</t>
+  </si>
+  <si>
+    <t>I came to Manchester University in 2000, when appointed as a Reader in Human Geography. Prior to that I spent 5 years as a Lecturer in Human Geography at Liverpool University, my first academic position. I was promoted to the rank of Professor in 2004. I spent almost 3 years at the University of Wollongong, in Australia, returning to Manchester in late 2017. Though ostensibly a human geographer, I am committed to the idea that geographic research and teaching should utilise the insights and tools of social science, the humanities and the physical sciences. External examiner for BA in Human Geography, Queen Mary College, University of London, 2011-14; and for the MA in Globalisation &amp; Development, Liverpool University 2010-14. 2017: ‘Transforming expertise: global change science and the politics of knowledge’. Keynote lecture at the ‘Ecological challenges’ conference, Oslo February. Geography and global change science:new directions for the social sciences and humanities’ sessionand invited panellist in the ‘Critical physical geography’ session, AAG conference, Chicago. 2014: ‘Unfree radicals? Geoscientists, critique and the politics of knowledge’. Presentation given at the ‘Constructing and confront environmental crisis’ conference, Dept. of Geography, University of Melbourne. Seminar given to the School of Environment and New Zealand Geographical Society as part of a 4 day visit to the University of Auckland as a Visiting Professor of</t>
+  </si>
+  <si>
+    <t>My main interests are in economic geography and labour, global production networks, economic (in)security, and the restructuring of industries in post-socialist East-Central Europe and North Africa. I was trained in human geography and development studies, and my interests continue to focus on the relations between uneven development and political economy. I am a member of the , was elected to the Academy of Social Sciences in 2007, and received the Royal Geographical Society’s Gill Memorial Award in 2003. Between 2007 and 2011 I served a four year term as Head of the School of geography at Queen Mary University of London, I co-ordinated the university’s 2014 Research Excellence Framework preparations and submission, and since January 2014 have been Dean for Research in the Faculty of Humanities and Social Sciences. Smith, A. (2015) ‘Economic (in)security and global value chains: the dynamics of industrial and trade integration in the Euro-Mediterranean macro-region’, Smith, A., Pickles, J., Bucek, M., Pastor, R. and Begg, B. (2014) ‘The political economy of global production networks: regional industrial change and differential upgrading in the East European clothing industry’, I see the relationship between teaching and research as fundamentally inter-connected. My teaching is informed centrally by my research interests and I am fortunate in being able to teach modules which are close to my core interests. As a consequence, students are provided with up-to-date and informed modules, reflecting some of the critical issues of political-economy and economic geography in the contemporary world. My approach to teaching is to always try to embed an understanding of theoretical and conceptual issues in the context of empirical cases, and as a result, much of my teaching focuses on globalisation and uneven development in the geographical contexts in which I research (West and East Europe, and North Africa). "His knowledge and public speaking skills are the best things about the module. The handouts and enthusiasm are extremely helpful and inspiring" For the past fifteen years or so I have been working on a variety of projects looking at the economic and social geographies of post-socialist transformation in Central Europe. This work has engaged with debates over political-economic transformation and development theory and tries to understand the contemporary geographies of economic (in)security. I also direct the at Queen Mary, which uses global production networks frameworks to understand the internationalisation of economic activity in the clothing sector and its implications for places and peoples around the world, with a specific focus on Central and Eastern Europe, and more recently North Africa and the former Soviet Union. This ESRC-funded research examines the effects of the European Union’s approach to trade and sustainable development in ‘third countries’ and the extent to which this approach provides for meaningful improvement in working conditions in the global economy. It involves collaboration with colleagues in the Schools of Business and Management (Liam Campling) and of Geography (Mirela Barbu) at QMUL, and at the University of Warwick (James Harrison (Law) and Ben Richardson (Politics and International Studies)). The 2011 popular revolts in North Africa challenged long-standing authoritarianism and occurred in part due to the unequal outcomes (high unemployment and social/regional inequality) arising from the combination of state-led development strategies and nearly 20 years of economic liberalisation and integration with the European and international economies. This British Academy-funded research investigates the developmental implications of the uneven integration of North African economies into the European Union’s (EU) economic sphere of influence. The research focuses on the extent to which enhanced integration into the European and world economies is able to resolve the economic insecurities which have dominated the experience of uneven development in Tunisia. It investigates the forms of integration through global production networks in the clothing and electrical equipment engineering sectors, which are the dominant export-oriented industries in the country. I have been involved in research which examines the uneven integration and development of economic interactions between the ‘new’ Europe (meaning the enlarged European Union) and its neighbours. This research focused on the forms of integration through global production networks of economies in the former Soviet Union and North Africa with the market and trade relations and associated governance frameworks of the European Union. It did so, in part, by looking at production networks involving clothing exports, which built upon my long-standing interest in the East European garment industry and the growth of outward processing, global contracting and new trade regimes. Recent research has been funded by the U.S. National Science Foundation and involved collaborative work research with colleagues in the USA including John Pickles (University of North Carolina, Chapel Hill), Bob Begg (Indiana University of Pennsylvania), Gary Gereffi (Duke University), Meenu Tewari (University of North Carolina, Chapel Hill), and in Central and Eastern Europe including Milan Buček and Rudolf Pástor (University of Economics, Bratislava) and Poli Roukova (Bulgarian Academy of Sciences). We have been examining the dramatic growth of the garment industry in Eastern Europe, its restructuring under increasing competitive pressure as a result of trade liberalisation, and have been trying to understand these dynamics in relation to both the new geographies of trade liberalisation as well as the social and cultural embeddedness of industrial economies. This area of research built upon earlier ESRC-funded research examining territorial uneven development and economic transformations across Europe. This project involved research with Mick Dunford (University of Sussex), Jane Hardy (University of Hertfordshire), Ray Hudson (University of Durham), Al Rainnie (Curtin Business School) and David Sadler (Queen Mary University of London). The aim of this project was to link an understanding of territorial uneven development with the reconfiguration of economic sectors and divisions of labour in a Europe undergoing rapid integration after the collapse of state socialism. I also conduct research on household economic practices and social reproduction in Central European cities. Funded initially by the Nuffield Foundation, and more recently by the ESRC, this research has examined forms of domestic food production and networks of reciprocity and social cohesion amongst households in cities in Slovakia and Poland and has involved collaborative work with Alison Stenning (Newcastle University). A book arising from this research has recently been published: A related area of interest has involved collaborative work on the cultures of commodity economies. Most recently this has resulted in a special issue of The research on household economic practices and social reproduction has also linked to conceptual interests related to understanding neo-liberalism. This has resulted in the publication recently of an edited collection , funded by the British Academy, involved an examination of the globalisation and restructuring of metropolitan manufacturing in London’s garment sector. Investigating the scope and scale of restructuring, the kinds of restructuring strategies established and the role of institutional structures and practices this project built upon my other interests in the global garment industry. Campling, L., Harrison, J., Richardson, B. and Smith, A. (2016) “Can labour provisions work beyond the border? Evaluating the effects of EU trade agreements”, Smith, A. (2015) ‘Economic (in)security and global value chains: the dynamics of industrial and trade integration in the Euro-Mediterranean macro-region’, Cambridge Smith, A., Pickles, J., Buček, M., Pástor, R. and Begg, R. (2014) ‘The political economy of global production networks: regional industrial change in the East European clothing industry’, Smith, A. and Pickles, J. (2011) ‘De-localization and Persistence in the European Clothing Industry: the Reconfiguration of Trade and Production Networks’, Smith, A. and Timár, J. (2010) ‘Uneven transformations: space, economy and society 20 years after the collapse of state socialism’, Smith, A., Stenning, A., Rochovksá, A. and Świątek, D. (2010) ‘Credit, debt, and everyday financial practices: low income households in two post-socialist cities’, Smith, A. and Swain, A. (2010) ‘The global economic crisis, Eastern Europe and the former Soviet Union: models of development and the contradictions of internationalization’, Pickles, J. and Smith, A. (2010) ‘Clothing workers after worker states: the consequences for work and labour of outsourcing, nearshoring and delocalization in postsocialist Europe’, in McGrath-Champ, S., Herod, A. and Rainnie, A. (eds) Smith, A., Pickles, J., Buček, M., Begg, B. and Roukova, P. (2008) ‘Reconfiguring “post-socialist” regions: trans-border networks and regional competition in the Slovak and Ukrainian clothing industry’, Smith, A., Stenning, A., Rochovská, A. and Świątek, D. (2008) ‘The emergence of a working poor: labour markets, neoliberalisation and diverse economies in post-socialist cities’, Smith, A. (2007) ‘Articulating neo-liberalism: diverse economies and urban restructuring in post-socialism’, in Sheppard, E., Leitner, H. and Peck, J. (eds.) Pickles, J. and Smith, A. (2007) ‘Post-socialism and the politics of knowledge production’, in Tickell, A., Sheppard, E., Peck, J., and (eds.) Smith, A. and Evans, Y. (2006) ‘Surviving at the margins? Deindustrialisation, the creative industries, and upgrading in London's garment sector’, Pickles, J., Smith, A., Buček, M., Begg, R. and Roukova, P. (2006) ‘Upgrading, changing competitive pressures and diverse practices in the East and Central European apparel industry’, Smith, A., Pickles, J., Begg, R., Roukova, P. and Buček, M. (2005) ‘Outward processing, EU enlargement and regional relocation in the European textiles and clothing industry: reflections on the European Commission’s Communication on “The Future of the Textiles and Clothing Sector in the Enlarged European Union”, Begg, R., Roukova, P. Pickles, J. and Smith, A. (2005) ‘Industrial districts and commodity chains: the garage firms of Emilia-Romagna (Italy) and Haskovo (Bulgaria)’, Smith, A., Pickles, J. and Begg, R. (2004) ‘Cutting it: European integration, trade regimes and the reconfiguration of East-Central European apparel production’, Smith, A. (2003) ‘Power relations, industrial clusters and regional transformations: pan-European integration and outward processing in the Slovak clothing industry’, Smith, A., Rainnie, A., Dunford, M., Hardy, J., Hudson, R. and Sadler, D. (2002) ‘Networks of value, commodities and regions: reworking divisions of labour in macro-regional economies’, Dunford, M. and Smith, A. (2000) ‘Catching up or falling behind? Economic performance and regional trajectories in the “new” Europe’, I am interested in supervising PhD research relating to my areas of interest in political-economy, economic geography, uneven development and global production networks. Andy Cook: “The Gilt on the Golden City: Expatriates, Social Exclusion and the Production of Space in Post-Socialist Prague” (now Lecturer, University of Nottingham) Tim Heinemann: “Constructing Turkey: Emergent Economic Geographies of an Emerging Market” (now Secretary for Economic Affairs, Transport, Energy and Regional Development, Green Party, Germany) Aidan Wong: “Waste, ‘Value’ and Informal Labour: The Regional E-Waste Recycling Production Network in Malaysia and Singapore” (now Post-Doctoral Researcher, National University of Singapore)</t>
+  </si>
+  <si>
+    <t>I am a development geographer, and my recent research has focused upon transnational migration from the global South to the North. This interest has been developed in a series of independent or collaborative projects investigating the changing nature, politics and sensibility of work and transnational migration to global cities like London and exploring how and why ‘new’ migrants have come to dominate low-paid work here ( ); the everyday financial practices of new migrant communities which are partly shaped by exclusion from the financial fabric of London but also a preference for alternative ways of ‘doing finance’ ( ). Some of the key debates and findings of these bodies of work have been developed in the following recent publications: .; McIlwaine, C.J., May, J.; Herbert, J.; Evans, Y. and Wills, J. (2009) Men on the move: narratives of migration and work among low paid migrant workers in London, , McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2010) A migrant ethic of care? Negotiating care and caring among migrant workers in London’s low pay economy, I teach development geography across the undergraduate and postgraduate programmes as part of a distinctive, innovative and collaborative ‘hybrid geography’ agenda which encourages students to challenge the positioning of the global South as a collection of places in need of external development interventions; to recognise the immense diversity of the global South and the links between the global South and North. This agenda is particularly developed in the two undergraduate modules which I co-teach: The latter is the first development geography overseas field class to be offered at the School of Geography at QMUL. “Obviously the trip was fantastic, seeing the elements of the city come to life was really good and helpful. But also the teaching and content throughout was really good.” ( This collaborative research aims to document Muslim migrants’ philanthropic networks in London in a post-recessionary context. Rejecting the presumption that ‘the economy’ can and should be theorised solely from the perspective of the formal spaces of western economies, this research seeks to learn from ‘alternative’ models of Islamic philanthropy in order to ‘theorise back’ from different economic spaces, institutions and practices, and to explore their geographical (re)configuration in the UK context. It investigates the sources, motivations and everyday practices of migrant charitable giving which underpin larger-scale Islamic charitable financial flows through London via a case study of the Somali community living in London’s East End. Pilot research has been funded by The Centre for the Study of Migration &amp; School of Geography at QMUL and CURDS, University of Newcastle (£4149). This project examined the diverse everyday financial practices adopted by new migrant communities in London within the context of financial exclusion. It investigated the extent and levels of financial exclusion among migrant communities from core financial services; the legal and illegal strategies which migrants devised to access these services as well as the informal and alternative financial practices that they engaged in, particularly in relation to accessing credit. The research identified the key barriers that new migrant communities face in integrating into the financial fabric of the city which inter-relate with immigration status, labour market position and transnational financial practices; and the mechanisms by which financial exclusion among migrant men and women can be addressed. This research formed the basis of a book, (Policy Press, Bristol and University of Chicago Press, Chicago, 2012), and contributed to public policy debates in the UK through as series of events organised by HM Treasury’s Financial Inclusion Taskforce including invited talks to the Taskforce, a Treasury-DFID Conference and a presentation at a Parliamentary launch at Westminster on Irregular Migrants. The research was funded by the Friends Provident Foundation, ESRC-CASE, London Citizens and the School of Geography, QMUL (£118 794). My interest in transnational migration was particularly developed through this collaborative project which examined the changing nature of the labour market and transnational migration to the global city of London. It examined a range of processes behind the formation of a distinct ‘migrant division of labour’ which led to the dominance of migrant labour in low paid work while also focusing upon the lives of migrants in London as well as their transnational connections. It highlighted the essential contribution that low-paid migrant workers make to the functioning of the city and how this role is often overlooked. This research was extensively disseminated to academic and public policy audiences and formed the basis for an important collaborative book entitled (Pluto Press, London). This research was funded by the ESRC, (£249 669) and Oxfam, UNISON, GLA and QMUL (£19 500). , McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2010) A migrant ethic of care? Negotiating care and caring among migrant workers in London’s low pay economy, McIlwaine, C., Herbert, J., Evans, Y., May, J. and Wills, J. (2009) Men on the move: narratives of migration and work among low-paid migrant men in London. , McIlwaine, C.J., Wills, J.; Evans, Y., Herbert and J., May (2007) The new development finance or exploiting migrant labour? Remittance sending among low-paid migrant workers in London. ., Evans, Y., Herbert, J. and McIlwaine, C.J. (2007) Keeping London working: Global cities, the British state and London’s migrant division of labour. McIlwaine, C.; Herbert, J.; Evans, Y.; May, J. and Wills, J. (2012) ‘Global workers for global cities: low paid migrant labour in London,’ in B. Derudder, M. Hoyler, Peter J. Taylor and F. Witlox (Eds) May, J., Herbert, J. and Evans, Y. (2010) New Migrant Divisions of Labour in N. Coe and A. Jones (eds) May, J., McIlwaine, C., Evans, Y. and Herbert, J. (2010) (Im)migration, local regional and uneven development, in A. Pike, A Rodriguez-Pose and J. Tomaney (eds) Evans, Y., Herbert, J. May, J. and McIlwaine, C. (2009) Religion at work: The role of faith-based organisations in living wage campaigns for immigrant workers in London. Special issue entitled Transforming Work, Evans, Y., Herbert, J. and McIlwaine C. (2009) London’s Migrant Division of Labour. European Urban and Regional Studies special issue on Regions and migration, 2009, 3: 257–271. Evans, Y., Herbert, J., McIlwaine, C. and Wills, J. (2008) Travelling neoliberalism: Polish and Ghanaian migrant workers in London, in Smith, A., Stenning, A. and Willis, K. (eds) , Herbert, J., McIlwaine, C. and May, J. (2007) “Subcontracting by Stealth” in London’s hotels: impacts and implications for labour organising. (2007) In search of justice? Gender and generation in a globalizing world in Mapetla, M.; Schlyter, A. and Bless, B. (eds) , McIlwaine, C.J., Evans, Y., Herbert, J., May, J. and Wills, J. (2007) From coping strategies to tactics: London’s low-pay economy and migrant labour. (1999) From self-help to self-finance: the changing focus of urban research and policy in K. Datta and G.A. Jones (Eds) I welcome applications from postgraduate students wishing to work on issues related to transnational migration with a specific emphasis on the migration-development nexus; transnational migrants financial practices including philanthropy, remittances and diaspora investment.</t>
+  </si>
+  <si>
+    <t>Professor Isabel Dyck, BA (Econ) Social Anthropology, University of Manchester, UK, MA (Econ) Social Anthroplogy, University of Manchester, UK, PhD Social Geography, Simon Fraser University, Canada I am a social and health geographer. Migration, home and health are central themes in my research with recent studies focusing on (1) the gendered experiences of migration and re-settlement, including the re-constitution of home and health and (2) the home as a site of long-term health care. I am interested also in developing innovative qualitative research methodologies, including the use of visual methodologies. I have served on the editorial board of several scholarly journals and am currently an International Editorial Board Member of . &amp; McLaren, A. (2012) The problem of ‘human capital’: gender, place, and immigrant strategies of re-skilling in Vancouver. In: A. Kraler,, E. Kofman, M. Kohli and C.Schmoll (eds) This is a final year health geography module, covering a variety of contemporary topics relating to different ways of understanding the interconnections between health, illness and everyday life. In the module I draw widely on my own research and use a combination of lectures, class exercises and videos to provide a forum for student learning that recognises both visual and aural learning styles. Interaction in the classroom is encouraged and students are given opportunity to relate the module content to contemporary life. The module scores highly in student feedback. Recent comments include: “enjoyed the module, very good lecturer”, “very relevant and current”, “engaging”, “interesting and excellently taught”, “the topics are up-to-date and all well debated”, “the instructor is extremely knowledgeable and always there to help”. The Leverhulme Trust. Research Project Grant £124,980. Place, Culture and Film: An Investigation of Migrants’ Health Making Practices. Co-PI Marta Rabikowska, University of East London This interdisciplinary study concerns the cultural production and transformation of health knowledge and practices in the context of international migration. Visual methodology (film and photo-elicitation) and participant observation were used to enhance understanding of how the negotiation and articulation of health knowledge and practices are mediated by and constitutive of place and to stimulate dialogue among academics, community organisations, policy makers and health care professionals around migrants’ health needs. Participants were recruited from groups self-identifying as Polish, Nigerian and from the Indian diaspora. The primary output of the study was a film, as both a cultural product and educational tool (see public engagement section). : Promoting breast awareness and early presentation among Black women 25–50: a pilot survey and intervention study in City and Hackney : Promoting breast awareness and early presentation among Black women 25–50: a survey and intervention study in City and Hackney Researchers at Homerton Hospital noticed that while black women are less likely to develop breast cancer than their white counterparts, when they are diagnosed with breast cancer it tends to be at a younger age, typically before the age of entry into the NHS Breast Screening Programme. Black women also tend to be diagnosed with the more severe and aggressive types of breast cancer. Evidence suggests for various social and cultural reasons Black British women are less breast aware and less likely to seek help from medical professionals. In response to these issues Homerton Hospital commissioned a six-minute This study will trial the film, sending it out as a DVD to Black British female patients aged 25–50 in ten GP practices in the area of City and Hackney. We will compare the numbers of people consulting their doctors about breast symptoms and being referred for further investigation for suspected breast cancer before and after the DVD is distributed. We will also compare practices with the DVD with those yet to receive the DVD. In addition, we will conduct group interviews with women at the practices to gain their opinions of the DVD and to see if it has changed their awareness of breast cancer. A final one-day workshop will bring patients and medical professionals together to discuss the study’s findings and decide how best to make use of the DVD. Dyck, I., Kontos, P, Angus, J., and McKeever, P, “The home as a site for long term care: Meanings and management of bodies and spaces,” Dyck, I. “Feminist geography, the ‘everyday’, and local-global relations: hidden spaces of place-making.” The 2004 Suzanne Mackenzie Memorial Lecture, Canadian Association of Geographers. Creese, G., Dyck, I. &amp; McLaren, A.T. (2008) The ‘flexible’ immigrant? Human capital discourse, the family and labour market strategies, Sothern, M. and Dyck, I.” “…a penis is not needed in order to pee”: sex and gender in health geography.” In: T. Brown, S. McLafferty and G. Moon (eds) Dyck, I. &amp; England, K. Homes for care: Reconfiguring care relations and practices. In: Christine Ceci, Kristin Bjornsdottir and Mary Ellen Purkis (eds) Creese, G., Dyck, I. &amp; McLaren, A. “The problem of ‘human capital’: gender, place, and immigrant strategies of re-skilling in Vancouver.” In: A. Kraler,, E. Kofman, M. Kohli and C.Schmoll (eds) A number of my research projects have involved public engagement. From recent research funded by the Leverhulme Trust a DVD has been produced; . This is being used in university teaching modules on migration and health, by two mental health counselling groups in the Borough of Greenwich, London and by community organisations (AJODA and the Indian Cultural Centre) in promoting health among their members.</t>
+  </si>
+  <si>
+    <t>which is housed within the Department of Geography. This facility uses low-background hyper-pure germanium gamma spectrometers capable of measuring low-level environmental radioactivity. Its main work involves producing chronologies for lake sediment cores. Neil Rose's research has focussed on the use of lake sediments as natural archives of atmospherically deposited pollutants, particularly in remote areas and the use of fly-ash particles (especially spheroidal carbonaceous particles: SCPs) as a direct measure of pollutant deposition, as a dating tool for lake sediments and as a surrogate for other deposited pollutants. More recently, Neil's research has also included the scale and causes of temporal changes in sediment accumulation rates and public participation in aquatic science through the Lottery funded OPAL project where he led the OPAL Water Centre. His research has been undertaken in many areas of the world including Greenland, Svalbard, China, Tibet, Alaska, Uganda and many areas of Europe. Impacts of atmospheric pollutants such as heavy metals, persistent organics and especially particulates from the combustion of fossil-fuels on the environment (freshwater, terrestrial and marine systems) on a UK, European and global scale. Spatial and temporal distributions of fly-ash particles using natural archives and the use of the fly-ash particle record as a chronological tool. Relationships of fly-ash particle records with those of other deposited pollutants (e.g. trace metals, persistent organic pollutants) and their use as surrogates. is a 4-year NERC funded project which aims to determine how stressors and connectivity interact to influence biodiversity and freshwater ecosystems across Britain. A series of multi-disciplinary studies at landscape-national scales will provide the first general understanding of how UK freshwaters are connected across the landscape and how stressors including eutrophication; acidification; trace metals; invasive organisms and disease interact with connectivity to influence ecosystem structure and function. Analysis and simulation of the long term / large-scale interactions of C, N and P in UK land, freshwater and atmosphere. 2012 – 2015. This NERC funded project aims to account for observable terrestrial and aquatic pools, concentrations and fluxes of C,N and P on the basis of past inputs, biotic and abiotic interactions and transport processes to assess responses to catchment nutrient enrichment over the last 200 years; determine the effects on transfer from land to atmosphere, freshwaters and estuaries and assess the effects of these on biodiversity. Pb-dated sediment cores to assess temporal trends and rates of change in trace element input tom a series of lakes in the Oil Sands region and compares these with equivalent sediment records of two reference lakes in the Caribou Mountains. 2007 - 2013. Funding from the National Lottery via the Big Lottery Fund. OPAL aims to (i) Change lifestyles to get people to spend more time outdoors; (ii) develop innovative educational programmes that can be accessed by all ages and abilities; (iii) enthuse a new generation of 'environmentalists'; (iv) develop a greater understanding of the state of the natural environment especially in more impoverished areas; (v) develop partnerships between the community, voluntary and statutory sectors. 31 projects comprise the OPAL 'portfolio' to attain these aims. Our role is to run the OPAL Water Centre. This involves not only coordinating the projects related to the national OPAL Water Survey (development and distribution of 40,000 survey packs and associated educational materials) but also undertaking original research including establishing a biomonitoring programme and assessing the impact of toxic pollutants on freshwaters. 2006 – 2009. Funding by The Leverhulme Trust. Project to assess the historical records of atmospherically deposited pollutants using the sediments of lakes taken along a transect across the Tibetan Plateau. The project collaborates closely with the Institute of Tibetan Plateau Research (ITP) and additionally provides background data for ITP monitoring activities and a base-line for monitoring the role of future impacts. 2004 – 2007. Funded by the Department for Environment, Food and Rural Affairs. Continuation of the trace metal monitoring programme transferred from the Freshwater Umbrella Contract (2001 – 2004) to the UK Acid Waters Monitoring Network, including the measurements of Hg, Cd, Pb, Ni, Cu and Zn in deposition, lake waters, sediment traps and a range of aquatic and terrestrial biota. . 2004 - 2005. Funded by the Department of the Environment, Food and Rural Affairs. To assess the post-Industrial trends in Hg, Cd, Pb, Cu, Ni and Zn in 10 lakes across southern and eastern England. 2003 - 2006. Project designed and implemented by the United States National Park Service (Air Resource Division) in cooperation with US Geological Survey and USDA Forest Service. Project involves sampling (lake sediments; vegetation; snow; fish; water) along latitudinal and coastal/interior gradients in seven National Parks for the impacts of atmospherically deposited pollutants. . 2002 - 2003. Funded by the Department for Environment, Food and Rural Affairs. Investigation into the role of pollutants in the toxicity of sediments to two freshwater invertebrates 2000. Funded by Department of Environment, Transport and the Regions. Investigation into the long-term history of metal deposition via the sediment record at five sites across the UK. 1998 - 2001. A joint project with the Institute of Geodesy and Geophysics, Wuhan, East China Normal University, Shanghai and University of Liverpool funded by the Royal Society of London and the Chinese Academy of Sciences. 1994 - 1996. Funded under the EU COPERNICUS programme for Cooperation in Science and Technology with Central and Eastern European countries. FLAME developed a characterisation for the particulate emissions from the major fossil-fuels used industrially throughout Europe and applied this to particulates extracted from 200 contemporary lake sediments across the four countries to determine the distribution and sources of these and associated pollutants. The project also determined heavy metal concentrations in the lakes and their catchment mosses. (2007 - 2013) is a consortium of projects funded by the Big Lottery Fund and aims to bring scientists and the public closer together in a community-led study of local environments by organising activities which anyone of any age, background or ability can get involved with. As PI of the OPAL Water Centre, Neil led the development and management of an innovative educational national water survey programme accessible to people of all ages and abilities, promoted especially within disadvantaged communities. The Survey encouraged greater understanding of the aquatic environment through public participation in water quality and aquatic biodiversity assessment and used high quality research to link the community, voluntary and statutory sectors. Over the 6 years of the project, the OPAL Water team based at the Dept of Geography, UCL worked with many local and national organisations, community groups and individuals across the country to assess the health of the nation's lakes and ponds.Find out more about the OPAL Water Survey The OPAL Water survey involved the distribution of 40,000 free water packs, 20,000 of which were sent as class packs to schools. The OPAL Water Centre has particularly encouraged young people to participate in water science and develop an interest in the natural world via school visits, demonstrations and events delivered by UCL staff over the course of the project. These activities have led, in some cases, to the development of sustainable long-term initiatives supporting children’s ongoing engagement with freshwater monitoring and conservation. Furthermore, the Cub Scouts adopted a version of the OPAL Water Survey as part of their newly revised ‘Naturalist’ badge in May 2012.Water Survey pack contents remain available for free download by any interested member of the public from the : One of the OPAL Water Centre’s primary objectives was to facilitate participation in water science among demographics which might not otherwise have the opportunity. These included deprived communities, people with special educational needs, victims of domestic abuse and black and minority ethnic groups. : OPAL Water centre research enabled local groups to develop conservation policies and also provided key data for the UK contribution to a 2010 consultation on the Stockholm Convention on Persistent Organic Pollutants. This arose from the OPAL Water team’s detailed monitoring and research at 9 lakes across England providing new data on pollutants listed as Priority Hazardous Substances under the European Union's Environmental Quality Standards Directive (2008/105/EC), such as mercury, PCBs (polychlorinated biphenyls) and brominated flame retardants. A report to Defra produced by AEA Technology used OPAL water and fish data to provide evidence for bioaccumulation of HBCD (hexabromocyclododecane) in UK freshwaters to demonstrate that “values are well above the bioaccumulation criterion...for listing under the Stockholm Convention”. It noted that no other UK data were available and made specific reference to OPAL research outputs, concluding these data provided “ample evidence of bio-accumulation…of HBCD in biota”. HBCD has since been included in the Stockholm Convention for proposed elimination. At a local level, the OPAL Water Centre provided data on Fleet Pond in Hampshire to Hart District Council to help their restoration strategy (first phase 2012–15). Hart District Council’s Fleet Pond Management Plan 2010-2015 drew on OPAL Water Centre bathymetric, sediment and aquatic biota monitoring survey data. Dredging of Fleet Pond began in March 2012 and OPAL data will additionally be used to help assess the success of current restoration activities. As part of a UCL Geography team, presented the joys of lake sediment analysis to the public during the Natural History Museum's Afterhours 'Science Uncovered' event (Sept 2013). Trace metal storage in lake systems and its relationship with atmospheric deposition with particular reference to Lochnagar, Scotland. Handong is now works in ECRC and runs the UCL Environmental Radiometric Facility. Particulate air pollution in central London: characterisation, temporal patterns and source apportionment. Xuezhu is currently working for ERM in Shanghai and Beijing. since 1994. ENSIS is a company dedicated to supporting the research of the Environmental Change Research Centre and is thus integral to its research activities. Neil's work via ENSIS includes trace metal and toxicology studies undertaken for DEFRA and involvement in the UK Acid Waters Monitoring Network (now the Upland Water Monitoring Network) since 1988. In addition, the use of spheroidal carbonaceous particles (SCPs) as a means to date sediment cores is widely used in projects undertaken by ENSIS. Lochnagar is a mountain loch located to the south-west of the Cairngorms in Scotland. It has been part of the UK Acid Waters Monitoring Network since 1988 and a key site for European mountain lake research projects. In August 2002, an automatic camera was deployed in the catchment. The camera took a photograph of the loch and the western part of the catchment everyday at midday. Amongst other things, this allowed us to follow the extent and duration of snow and ice cover and to observe how the ice moved during melting. In 2008, after 6 years of enduring some of the harshest weather in the UK, the camera failed and was removed. The following videos show these daily pictures as short time-lapse sequences. Each covers the photographs of Lochnagar over a calendar year. The sequences are largely unedited. Only a few images have been removed when the camera lens was obscured by snow or rain drops.</t>
+  </si>
+  <si>
+    <t>My research is focused on the transport and transformation of contaminants and pollutants as they move through lowland river catchments and undergo exchanges at the interface of land, water and atmosphere. My research poses globally significant questions such as: ., 2012); establishing the extent to which macrophytes control the magnitude and timing of sediment storage in a chalk river (Heppell , Trimmer M, Binley A, Heathwaite AL, Byrne P, Zhang H (2015) The interplay between transport and reaction rates as controls on nitrate attenuation in permeable, streambed sediments. , Dossena M, Ullah S, Heathwaite AL, Binley A, Zhang H &amp; Trimmer M 2014. Fine-scale in situ measurement of river bed nitrate production and consumption in an armored permeable river bed. , Heathwaite AL, Binley A, Byrne P, Ullah S, Lansdown K, Keenan P, Trimmer M &amp; Zhang H 2013. Interpreting spatial patterns in redox and coupled water-nitrogen fluxes in the streambed of a gaining river reach. , Wharton, G, Cotton, JAC, Bass, JAB &amp; Roberts, SE 2009. Sediment storage in the shallow hyporheic of lowland vegetated reaches. , Trimmer M, and Wharton G 2011. Denitrification and dissimilatory nitrate reduction to ammonium (DNRA) in a temperate re-connected floodplain. , Sgouridis F, Ullah S , Heathwaite AL , Binley A and Zhang H 2012. Characterisation of the key pathways of dissimilatory nitrate reduction and their response to complex organic substrates in hyporheic sediments. , Cotton JA, Wharton G, Hildrew A, Flowers EJ &amp; Trimmer M 2007. Emission of methane from chalk streams has potential implications for agricultural practices. , Hildrew AG, Lansdown K, Stahl H, Yvon-Durocher G 2012. River bed carbon and nitrogen cycling: state of play and some new directions. Lectures are taught in an informal style with emphasis on encouraging student contribution and discussion. I also specialise in hands-on laboratory and fieldwork teaching that encourages active student learning through experience. An example of this would be at Level 7 where students explore a current research question ‘What controls the production of carbon dioxide in different sediment patches in a chalk river?’ through a field visit combined with intensive 4-day laboratory experiments. They write up the report as a ‘short communication’ research article. ‘Kate Heppell teaches the module really well. It is stimulating because we are actually learning something completely new which we haven’t done before’ This consortium project is aimed at quantifying both the flux and dynamics of the lateral exchange of organic carbon between landscape and rivers, and how this in turn modulates the transport of nitrogen and phosphorus towards the coast. Our research aims to understand the movement of these macronutrients through the different tributaries of the River Avon in Wiltshire, and how the movement of these different macronutrients varies across the different geological settings (clay, chalk and sandstone) through which the river flows. A summary document of preliminary findings can be This research is being funded by the UK Natural Environment Research Council as part of the Macronutrient Cycles thematic programme. Further information about the programme can be found at the following website: Lowland peat soils occupy a relatively small proportion of the overall peatland area in England and Wales, but store large amounts of carbon (C) and are subject to disproportionately high levels of land-use pressure. To date, most measurements of C and greenhouse gas (GHG) fluxes from UK peatlands have been made within upland blanket bogs, and it is doubtful whether the data obtained from these studies can be extrapolated to lowland systems. This study will provide a new comprehensive assessment of the GHG fluxes and C balance of the lowland peatland systems in England and Wales. The interaction of groundwater-surface water in the hyporheic zones of rivers during baseflow conditions, and its influence on nitrogen transport and transformations are poorly understood at a river reach scale. The predicted changes in precipitation and temperature linked to climate change may have further repercussions on the nature and extent of hydrologic exchanges in the hyporheic zones and biogeochemical processes. This project sought to elucidate both physical and chemical controls on nitrogen transport and transformations in the hyporheic zone of a groundwater fed river in Cumbria, UK. The project used a multidisciplinary approach to explore the physical hydrology, hydrogeophysics and biogeochemistry controls on N transport in the hyporheic zone of River Leith at a reach scale. The project had the following objectives: To establish if spatial heterogeneity in the hyporheic zone leads to redox-sensitive biogeochemical “hotspots” and “hot events” that determine the rate of N transport and transformations linked to variations in the riverbed connectivity. , Byrne P,Lansdown K, Trimmer M, Zhang H (in press). Revealing the spatial variability of water fluxes at the groundwater-surface water interface. , Trimmer M 2012. In situ measurement of redox sensitive solutes at high spatial resolution in a riverbed using Diffusive Equilibrium in Thin Films (DET). , Binley A, Olde L &amp; Trimmer M (in press) Riverine anaerobic ammonium oxidation across contrasting geologies. Accepted for publication in , Sayer CD &amp; Axmacher JC (in press) Coupled hydrological/hydraulic modelling of river restoration impacts and floodplain hydrodynamics. Accepted for publication in , Lansdown K, Purdie DA, Trimmer M. (2016) Modelling flow and inorganic nitrogen dynamics on the Hampshire Avon: Linking upstream processes to downstream water quality. , Sheahan D, Liu C-F, Grey J (2016) No such thing as a free meal: organotin transfer across the freshwater-terrestrial interface. , Lambert SJ, Appleby PG, Rose NL, Davy AJ (2016) Toxic metal enrichment and boating intensity: sediment records of antifoulant copper in shallow lakes of eastern England. Journal of , Trimmer M, Binley A, Heathwaite AL, Byrne P, Zhang H (2015) The interplay between transport and reaction rates as controls on nitrate attenuation in permeable, streambed sediments. , Lansdown K, Trimmer M (2015) Diffusive equilibrium in thin films provides evidence of suppression of hyporheic exchange and large-scale nitrate transformation in a groundwater-fed river. , Lansdown K, Mao X (2014) Impact of microforms on nitrate transport at the groundwater-surface water interface in gaining streams. , Spencer KL (2014) The role of vegetation in the retention of fine sediment and associated metal contaminants in London’s rivers. , Dossena M, Ullah S, Heathwaite AL, Binley A, Zhang H &amp; Trimmer M 2014. Fine-scale in situ measurement of river bed nitrate production and consumption in an armored permeable river bed. , Lansdown A, Binley A &amp; Trimmer M 2014. Influence of emergent vegetation on nitrogen cycling in sediments of a groundwater-fed river. , Heathwaite AL, Binley A, Byrne P, Ullah S, Lansdown K, Keenan P, Trimmer M &amp; Zhang H 2013. Interpreting spatial patterns in redox and coupled water-nitrogen fluxes in the streambed of a gaining river reach. , Sayer CD, Axmacher JC 2013. River-floodplain hydrology of an embanked lowland Chalk river and initial response to embankment removal. , Lansdown K, Zhang H, Trimmer M &amp; Keenan P 2013. Control of river stage on the reactive transport of the hyporheic zone. , Byrne P, Lansdown L, Trimmer M &amp; Zhang H 2013. Revealing the spatial variability of water fluxes at the groundwater-surface water interface. , Trimmer M 2012. In situ measurement of redox sensitive solutes at high spatial resolution in a riverbed using Diffusive Equilibrium in Thin Films (DET). , Hildrew AG, Lansdown K, Stahl H, Yvon-Durocher G 2012. River bed carbon and nitrogen cycling: state of play and some new directions. , Sgouridis F, Ullah S , Heathwaite AL , Binley A and Zhang H 2012. Characterisation of the key pathways of dissimilatory nitrate reduction and their response to complex organic substrates in hyporheic sediments. , Trimmer M, and Wharton G 2011. Denitrification and dissimilatory nitrate reduction to ammonium (DNRA) in a temperate re-connected floodplain. , D Kaeser, R Pickup, G Pinay, AL Robertson and PJ Wood 2011. Inter-disciplinary perspectives on processes in the hyporheic zone. , Wharton, G, Cotton, JAC, Bass, JAB &amp; Roberts, SE 2009. Sediment storage in the shallow hyporheic of lowland vegetated reaches. , Cotton JA, Wharton G, Hildrew A, Flowers EJ &amp; Trimmer M 2007. Emission of methane from chalk streams has potential implications for agricultural practices. , Ouddane B, De Wever S, Tuckett A. Source: Sediment transfer and accumulation in two contrasting salt marsh/mudflat systems: the Seine estuary (France) and the Medway estuary (UK) 2007. &amp; Wotton RS 2006. Plant-water-sediment interactions in lowland permeable streams: investigating the effect of seasonal changes in vegetation cover on flow patterns and sediment accumulation. , Trimmer M, Sanders IA and Warren L 2006. Engineering of flows and fine sediments by macrophytes and suspension-feeding invertebrates in the Frome and Piddle Catchments, Dorset (UK). , Carey PJ, Charman R, Shell D and Ullyott S 2005. Heavy metal distribution and accumulation in two Spartina sp.-dominated macrotidal salt marshes from the Seine estuary (France) and the Medway estuary (U.K.) , Chapman AS, Bidwell VJ, Forrester G &amp; Kilfeather AA 2004. A lysimeter experiment to investigate the effect of surface sealing on hydrology and pesticide loss from the reconstructed profile of a clay soil. Part 1. Hydrological Processes. , Chapman AS, Bidwell VJ &amp; Kilfeather AA 2004. A lysimeter experiment to investigate the effect of surface sealing on hydrology and pesticide loss from the reconstructed profile of a clay soil. Part 2. Pesticide Loss. , Burt TP, Walden J and Foster IDL 2002. Investigating contemporary and historical sediment inputs to Slapton Higher Ley: an analysis of the robustness of source ascription methods when applied to lake sediment data. , Burt TP, Williams RJ and Johnson AC 2000. A laboratory investigation of the release of a conservative tracer and herbicide from topsoil aggregates under varying rainfall intensities. , Burt TP, Williams RJ and Haria AH 1999. The influence of hydrological pathways on the transport of the herbicide, isoproturon, through an underdrained clay soil. ‘How will ecosystem shifts due to sea-level rise affect carbon storage and greenhouse gas fluxes in floodplain fens?’ NERC Open Case Studentship. Supervisors: Dr L Belyea (QMUL), Dr CM Heppell (QMUL). Case Partner: Dr A Kelly (Norfolk Broads Authority) ‘Which sources of carbon sustain benthic respiration across changing hydrological regimes?’ NERC Tied Studentship Award. Supervisors: Dr C Heppell (QMUL), Dr M Trimmer (QMUL). . ‘The impact of flooding regime and floodwater chemistry on greenhouse gas emissions from floodplain fens.’ NERC / College Studentship. Supervisors: Dr CM Heppell (QMUL), Prof AJ Baird (University of Leeds) &amp; Dr L Belyea (QMUL) Awarded 2015. . ‘Nutrient dynamics and hydrological connectivity in agricultural floodplains’ Supervisors: Prof A Bellin (Trento), Dr CM Heppell (QMUL). Associate Partner: Dr Tonina (Idaho) Awarded 2015. . 'Detection of soil moisture under vegetation cover with Synthetic Aperture Radar satellite imagery' Supervisors: Dr G Wharton (QMUL) &amp; Dr CM Heppell (QMUL). [Took over supervision in January 2002 when Dr Tim Davie left the Department of Geography]. Awarded: 2004 . 'Toxicity-induced loss of aquatic vegetation in the Norfolk Broads?' Supervisors: Dr C Sayer (UCL) &amp; Dr CM Heppell (QMUL). Funded by ENSIS (UCL) and CASE from Norfolk Broads Authority. Awarded: 2007. . 'The transport of sediment-associated contaminants through lowland permeable catchments' Supervisors: Dr CM Heppell (QMUL) &amp; Prof D Walling (Exeter University) NERC funded by LOCAR programme. Awarded: 2007. ’An investigation of trace metal partitioning in the Greater Thames Estuary.’ College studentship. Supervisors: Dr K Spencer (QMUL) &amp; Dr CM Heppell (QMUL). Awarded: 2008 . ‘Impacts of floodplain restoration on nitrogen fluxes’ Joint Supervisors: Dr G Wharton (Geog, QMUL), Dr M Trimmer (SBS, QMUL) &amp; Dr CM Heppell (QMUL). CATE College Studentship. Awarded: 2010. . ‘Pollutant release arising from the beneficial re-use of dredged sediment.’ College studentship. Co-supervised by Dr Kate Spencer (QMUL) and Dr CM Heppell (QMUL). Awarded: 2010 . ‘Conduits of contamination from an organotin legacy’ Supervisors: Dr J Gray (SBS, QMUL), Dr CM Heppell (Geography, QMUL). CASE Partner: Centre for Environment, Fisheries &amp; Aquaculture Science. NERC CASE Studentship. Awarded: 2011 . ‘Methane emissions variability from a Welsh patterned raised bog’ Supervisors: Prof AJ Baird (Geog, QMUL) &amp; Dr CM Heppell (QMUL). College Studentship. Awarded: 2011 . ‘Urban river restoration: some potential problems associated with sediment accumulation.’ College Studentship. Supervisors: Prof A Gurnell (Geography, QMUL), Dr CM Heppell (Geography, QMUL), Dr K Spencer (Geography, QMUL). Significant knowledge transfer activities are enabled through grant awards (RSPB, Wessex Water, Norfolk Broads Authority, ADAS, CEFAS), consultancy projects (Defra) and in-kind support (Stody Estate, River Chess Association). For example, I am working with the RSPB, Defra and Norfolk Broads Authority to help understand the balance of greenhouse gas (carbon dioxide, methane and nitrous oxide) exchanges within lowland floodplain environments under conservation management (Defra Consortium Award 2011; NERC CASE Award 2012). I am working with the Chiltern Chalk Streams Project and River Chess Assocation to help these stakeholders understand the impacts of human activities and river restoration projects on in-stream and floodplain biogeochemistry. A critical component of the NERC Macronutrients project (NE/J012106/1) will entail working with Defra, Environment Agency, Wessex Water and CEFAS, as well as local agricultural and land management sectors in the Hampshire Avon catchment, to help these organisations (i) understand how catchment land use changes influence nutrient transport to the coast, and greenhouse gas emissions to the atmosphere; and (ii) to develop and explore nutrient mitigation strategies.</t>
+  </si>
+  <si>
+    <t>at the University of Manchester. His professional activities are situated at the intersection of two broad thematic areas: energy and cities. Within these domains, he is best known for his path-breaking research on the driving forces and spatial patterns of domestic energy deprivation, focusing on European countries in particular. Some of this work is summarized in the monograph project which he currently leads. He has also been exploring the relationship between household everyday practices and residential change in inner-city areas - the subject of his monograph on (IB Tauris, 2016). Underpinning much of his work is a desire to develop of innovative methods for conceptualizing and representing space and territory - a topic explored in a co-edited volume on Stefan Bouzarovski was awarded the prestigious Dulverton and Scatcherd European scholarships at the University of Oxford between 1999 and 2003. He was the Larkinson Scholar at St Hugh's College between 2000 and 2002, and a Junior Research Fellow at Christ Church College between 2004 and 2007. Since 2004, he has held visiting university appointments in Prague, Bruges, Berlin, Stockholm, Brisbane, Turin and Erkner, in addition to an ongoing Visiting Professorship in Economic Geography at the University of Gdansk. Stefan Bouzarovski has co-ordinated a total of 38 research projects with funding from the European Union, three UK research councils, and a number of international charities and agencies. His publication record includes more than 70 peer-reviewed books, articles, and chapters. His work has informed the policies of the European Union, World Bank and International Energy Agency, as well as a number of advocacy groups and governmental bodies across the world.</t>
+  </si>
+  <si>
+    <t>I am fascinated by how biological and physical processes interact at the Earth surface. My cross-disciplinary interests stem from a somewhat roving educational background: BSc in Biology and Geography (Carleton University, Canada), MSc in Earth Science (Waterloo University, Canada) and PhD in Ecology (University of London, UK). My research interests focus on biogeochemical cycling and spatiotemporal dynamics, in both cases with empirical work concentrated mainly (but not exclusively) on peatlands. My research seeks to answer some key questions: How do internal processes and external drivers such as climate change interact to control ecosystem dynamics at multiple spatial and temporal scales? , Nilsson, M.B., De Ruiter, P.C., and Wassen, M.J. 2010. Resource contrast in patterned peatlands increases along a climatic gradient. Over the past few years, I have taught on several undergraduate and postgraduate modules. Currently, I teach on the following: Peatlands have potential for strong feedback on the global climate system, but their response to future climate change is highly uncertain. Rather than gradual change, peatlands show long periods of little change, punctuated by abrupt transitions of state even under weak or steady environmental forcing. In ongoing research, my aim is to understand the ecohydrological feedbacks that control the non-linear behaviour of these systems. Field-based and modelling studies focus on the interactions among hydrological processes, organic matter dynamics, and energy exchanges. A key theme focusses on the role of spatial heterogeneity and surface patterning in mediating these interactions. One of the biggest challenges facing conservation organisations is to adapt to climate change in a way that balances habitat conservation and provision of ecosystem services. Low-lying areas of the Broads are subject to increasing flooding and saline influence owing to sea-level rise. These environmental changes are likely to alter greenhouse gas emissions and carbon sequestration, as well as habitats. The overarching aim of this project is to deliver the new knowledge and decision-support tools required by conservation land managers in the Broads to adapt effectively to sea-level rise, i.e., to maintain or increase the amount of carbon sequestered and minimize the emission of greenhouse gases, without compromising the central conservation value of managed lands. Funding: NERC Open CASE studentship, with the Broads Authority. Lowland peatlands that have been subject to human disturbance and inappropriate land management can release large quantities of greenhouse gases to the atmosphere, but direct measurements of greenhouse gas emissions from these systems are sparse. This project, led by the University of Leeds, will provide the first full carbon and greenhouse gas budgets for lowland peats across England and Wales. Results will be used to develop 'emission factors' for each peat type under a range of management activities. The results should improve the evidence base on which national policymakers and local land-managers make decisions on the management of lowland peats, allowing them to balance the role of peatlands in regulating greenhouse gas emissions against the many other ecosystem services they provide. Funding: Defra. and Morris, P. 2009. Upscaling of peatland-atmosphere fluxes of methane: small-scale heterogeneity in process rates and the pitfalls of “bucket-and-slab” models. In: , Nilsson, M.B., De Ruiter, P.C., and Wassen, M.J. 2010. Resource contrast in patterned peatlands increases along a climatic gradient. , Mathur, S.P., and Dinel, H. 1993. Carbon isotopic composition of deep carbon gases in an ombrogenous peatland, northwestern Ontario, Canada. If you are interested in doing a PhD or MSc in my research area, please email me a CV and a brief summary of your idea. Hydrological and biogeochemical controls on mercury cycling in managed realignment sites. NERC algorithm studentship/College studentship, with additional research support from the University of Western Ontario.</t>
+  </si>
+  <si>
+    <t>My research interests are at the interface between hydrology, geomorphology and plant ecology, with particular emphasis on the morphodynamics and sustainable management of rivers and their margins. My current research is pursuing three main research themes: (i) interactions between vegetation and fluvial processes; (ii) the hydroecological characteristics of urban rivers; (iii) improving the science underpinning river restoration Corenblit, D., Baas, A., Balke, T., Bouma, T., Fromard, F., Garófano-Gómez, V., González, E., Gurnell, A.M., Hortobágyi, B., Julien, F., Kim, D., Lambs, L., Stallins, A.J., Steiger, J., Tabacchi, E., Walcker, R. Engineer pioneer plants respond to and affect geomorphic constraints similarly along water-terrestrial interfaces worldwide. Gurnell, A.M., Corenblit, D., Corenblit, D., García De Jalón, M. González Del Tánago, R.C. Grabowski, O’Hare, M.T., M. Szewczyk. (2015) A conceptual model of vegetation-hydromorphology interactions within river corridors. Garcia Lugo, A.G., Bertoldi, W., Henshaw, A.J., Gurnell, A.M. (2015) The effect of lateral confinement on gravel bed river morphology. Bertoldi, W., Welber, M., Gurnell, A.M., Mao, L., Comiti, F., Tal, M. (2015) Physical modelling of the combined effect of vegetation and wood on river morphology, Gibbs H.M., Gurnell A.M., Heppell CM, Spencer K.L. 2014. The role of vegetation in the retention of fine sediment and associated metal contaminants in London's rivers. Mardhiah U, Rillig M.C., Gurnell A.M. 2014. Reconstructing the development of sampled sites on fluvial island surfaces of the Tagliamento River, Italy, from historical sources. Corenblit, D., Steiger, J., Charrier, G., Darrozes, J., Dousseau, J., González, E., Gurnell, A.M., Julien, F., Lambs, L., Larrue, S., Roussel, E., Vautier F., Voldoire, O. (2014) The biogeomorphological life cycle of poplars during the fluvial biogeomorphological succession: a special focus on Henshaw, A.J., Gurnell, A.M., Bertoldi, W. and Drake, N.A. (2013) Riparian vegetation dynamics along the Fiume Tagliamento, Italy: a Landsat TM-based analysis. Liffen, T., Gurnell, A.M., O’Hare, M.T. (2013) Profiling the below ground biomass of an emergent macrophyte using an adapted ingrowth core method. Gurnell, A.M., O’Hare, M.T., O’Hare, J.M., Scarlett, P., Liffen, T.M.R. (2013) The geomorphological context and impact of the linear emergent macrophyte, 2003 recognised as a ‘Pioneer in the life of the Nation’ by Queen Elizabeth II for contributions to river system management While flows of water and sediment are the primary drivers of river morphodynamics, vegetation is also very important. I have been conducting research on this topic since the mid-1970s, and have contributed a wide range of new knowledge on the influence of aquatic and riparian plants at plant, landform and reach scales. This research has demonstrated: How changes in the vigour and growth rates of riparian trees are associated with changes in river channel style and morphology, even in rivers up to 1km wide (Bertoldi et al., 2011). How aquatic plants can be the main control on bed morphology and lateral channel migration in low gradient lowland rivers. (Gurnell, 2013) How plants induce the development of characteristic ‘pioneer’ landforms in rivers of different size and planform, creating an important interface between the river channel and its margins (Gurnell et al., 2012) How plant propagules are dispersed in a similar way to sediment in fluvial systems, being deposited and retaining their viability in intermediate stores on the river bed and banks, and showing broad differences in their deposition sites according to species. (Gurnell et al., 2007, 2008) Engineering works constrain the morphological characteristics of urban rivers, whereas their flow, water quality and sediment transport regimes are constrained by their river network setting. Over the last decade, I have worked with several research students and assistants to develop a set of tools to characterise and assess the biophysical properties of urban river reaches and to place such assessments into their river basin context. This research has: Analysed the data generated by the surveys to identify interpretable gradients in the biophysical structure of urban rivers (Gurnell et al., 2012). The urban river survey (URS) methodology, the data collected using the technique, and maps of quality scores derived from the surveys can be viewed at the following website: Research on themes (1) and (2) is directly relevant to river restoration. I have conducted projects that have (a) evaluated interactions between naturally-colonising vegetation and the morphodynamics of a newly-cut river channel and (b) have monitored the response of rivers to interventions by implementing pre- and post- project assessments, particularly on urban water courses. These have all provided insights into the degree to which rivers are able to self-restore and, when active restoration is necessary, interventions can be small, aiming to activate self-restoration. Where such approaches are possible, they are extremely cost effective and can quickly generate morphologically diverse outcomes. O’Hare, J.M., O’Hare, M.T., Gurnell, A.M., Dunbar, M.J., Scarlett, P.M., Laize, C. (2011) Physical constraints on the distribution of macrophytes linked with flow and sediment dynamics in British Rivers. Bertoldi, W., Drake, N.A., Gurnell, A.M. (2011) Interactions between river flows and colonising vegetation on a braided river: exploring spatial and temporal dynamics in vegetation cover using satellite data. Bertoldi, W., Gurnell, A.M. and Drake, N.A. (2011) The topographic signature of vegetation development along a braided river: results of a combined analysis of airborne lidar, colour air photographs and ground measurements. Pollen-Bankhead, N., Thomas, R.E., Gurnell, A.M., Liffen, T., Simon, A., O’Hare, M.T. (2011) Quantifying the potential for flow to remove the emergent aquatic macrophyte Sparganium erectum from the margins of low energy rivers. Corenbilt, D., Baas, A., Bornette, G., Darrozes, J., Delmotte, S., Francis, R.A., Gurnell, A.M., Julien, F., Naiman, R.J., Steiger, J. (2011) Feedbacks between geomorpholohgy and biota controlling Earth surface processes and landforms: A review of foundation concepts and current understandings. Shuker, L., Gurnell, A., Raco, M (2011) Some simple tools for communicating the biophysical condition of urban rivers to support high-level discussions regarding river restoration. Cockel, C.P. and Gurnell, A.M., 2011. An investigation of the composition of the urban riparian soil propagule bank along the River Brent, Greater London, UK, in comparison with previous propagule bank studies in rural areas. O’Hare, J., O’Hare, M.T., Gurnell, A.M., Scarlett, P.M., Liffen, T., McDonald, C. (2011) Influence of an ecosystem engineer, the emergent macrophyte Gurnell, A.M., Bertoldi, W., Corenblit, D. (2012) Changing river channels: the roles of hydrological processes, plants and pioneer fluvial landforms. Perona, P., Molnar, P., Crouzy, B., Perucca, E., Jiang,Z., McLelland, S., Wüthrich, D., Francis, R., Camporeale, C., Gurnell, A. (2012). Biomass selection by ﬂoods and related timescales: Part 1. Experimental observations. Gurnell, A.M., Shuker, L., Lee, M., Boitsidis, A. (2012) Gradients in the biophysical structure of urban rivers and their association with river channel engineering. Garófano-Gómez, V., F. Martínez-Capel, Bertoldi, W., Gurnell, A., Estornell, J., Segura-Beltrán, F. (2013). Six decades of changes in the riparian corridor of a Mediterranean river: a synthetic analysis based on historical data sources. Bertoldi, W., Gurnell, A.M., Welber, M. (2013) Wood recruitment and retention: The fate of eroded trees on a braided river explored using a combination of ﬁeld and remotely-sensed data sources, Cockel, C., Gurnell, A.M., Gurnell, J. (2014) Management of an invasive plant species: physical manipulation experiments on Impatiens glandulifera along urban river banks. Henshaw, A.J., Gurnell, A.M., Bertoldi, W. and Drake, N.A. (2013) Riparian vegetation dynamics along the Fiume Tagliamento, Italy: a Landsat TM-based analysis. Liffen, T., Gurnell, A.M., O’Hare, M.T. (2013) Profiling the below ground biomass of an emergent macrophyte using an adapted ingrowth core method. Gurnell, A.M., O’Hare, M.T., O’Hare, J.M., Scarlett, P., Liffen, T.M.R. (2013) The geomorphological context and impact of the linear emergent macrophyte, Corenblit, D., Steiger, J., Charrier, G., Darrozes, J., Dousseau, J., González, E., Gurnell, A.M., Julien, F., Lambs, L., Larrue, S., Roussel, E., VautierF., Voldoire, O. (2014) The biogeomorphological life cycle of poplars during the fluvial biogeomorphological succession: a special focus on Bombino, G., Boix-Fayos, C., Gurnell A.M., Tamburino, V., Zema, D.A., Zimbone, S.M. (2013) Check dam influence on vegetation species diversity in mountain torrents of the Mediterranean environment. Mardhiah U, Caruso T, Gurnell A, Rillig M.C. 2014. Just a matter of time: fungi and roots significantly and rapidly aggregate soil over four decades along the Tagliamento River, NE Italy. Mardhiah U, Rillig M.C., Gurnell A.M. 2014. Reconstructing the development of sampled sites on fluvial island surfaces of the Tagliamento River, Italy, from historical sources. Gibbs HM, Gurnell AM, Heppell C.M., Spencer K.L. 2014. The role of vegetation in the retention of fine sediment and associated metal contaminants in London's rivers. Osei, N.A., Gurnell, A.M., Harvey, G.L. 2015. The role of large wood in retaining fine sediment, organic matter and plant propagules in a small, single-thread forest river. Shuker, L., Moggridge, H., Gurnell, A.M. (2015) Assessment of hydromorphology following restoration measures in heavily modified rivers: illustrating the potential contribution of the Urban River Survey to Water Framework Directive investigations. Gurnell, A.M., Corenblit, D., Corenblit, D., García De Jalón, M. González Del Tánago, R.C. Grabowski, O’Hare, M.T., M. Szewczyk. A conceptual model of vegetation-hydromorphology interactions within river corridors. Garcia Lugo, A.G., Bertoldi, W., Henshaw, A.J., Gurnell, A.M. (2015) The effect of lateral confinement on gravel bed river morphology. Bertoldi, W., Welber, M., Gurnell, A.M., Mao, L., Comiti, F., Tal, M. (2015) Physical modelling of the combined effect of vegetation and wood on river morphology, Corenblit, D., Baas, A., Balke, T., Bouma, T., Fromard, F., Garófano-Gómez, V., González, E., Gurnell, A.M., Hortobágyi, B., Julien, F., Kim, D., Lambs, L., Stallins, A.J., Steiger, J., Tabacchi, E., Walcker, R. Engineer pioneer plants respond to and affect geomorphic constraints similarly along water-terrestrial interfaces worldwide. Grabowski, R.C., Gurnell, A.M. Diagnosing problems of fine sediment delivery and transfer in lowland, Northwest European catchments: The Frome catchment, southern England Gurnell, A.M., M. Rinaldi, M. González Del Tánago, B. Belletti, S. Bizzi, B. Blamauer, G. Braca, T. Buijse, M. Bussettini, B. Camenen, F. Comiti, L. Demarchi, D. García De Jalón, R.C. Grabowski, I.D.M. Gunn, H. Habersack, D. Hendriks, A. Henshaw, M. Klösch , B. Lastoria, A. Latapie, P. Marcinkowski, V. Martínez Fernández, E . Mosselman, J.O. Mountford, L. Nardi, T. Okruszko, M.T. O’Hare, M. Palma, C. Percopo, N. Surian, C. Weissteiner, L. Ziliani. A hierarchical framework for developing understanding of river behaviour, González Del Tánago, M., Belletti, B., Gurnell, A.M. Indicators of river system character and dynamics, past and present: understanding the causes and solutions to river management problems,</t>
+  </si>
+  <si>
+    <t>I joined the British Geological Survey (BGS) in August 1990 as a member of the Mineralogy and Petrology Group. My primary role at this time was to provide detailed specialist scientific input into BGS’ multidisciplinary research and commercial programmes. Consequently, I have gained extensive experience in the petrological, mineralogical and structural (macro- and microstructures) analysis of deformed and metamorphosed bedrock terranes, working on a variety of projects throughout the UK landmass, Iceland, Europe (e.g. Poland, Germany) , North America (e.g. Canada), Africa (e.g. Botswana, Egypt) and the Middle East (e.g. United Arab Emirates, Oman, Saudi Arabia). I currently hold an Individual Merit Promotion (Band 3) Research Scientist post at the BGS office in Edinburgh with an expertise in the macro- and microstructural analysis of deformed glacial sediments, and the control of subglacial deformation on ice sheet dynamics and glacier motion. In 2015 I was awarded an Honorary Professor position in the Department of Geography at Queen Mary University of London. Phillips, E., Finlayson, A., Bradwell, T., Everest, J., Jones, J. 2014. Structural evolution triggers a dynamic reduction in active glacier length during rapid retreat: evidence from Falljökull, SE Iceland. Journal of Geophysical Research: Earth Surface 119, doi:10.1002/2014JF003165. Phillips, E.R., Lipka, E., van der Meer, J.J.M. 2013. Micromorphological evidence of liquefaction and sediment deposition during basal sliding of glaciers. Quaternary Science Reviews 81, 114-137. Phillips, E.R., Finlayson, A., Jones, L. 2013. Fracturing, block-faulting and moulin development associated with progressive collapse and retreat of a polar maritime glacier: Virkisjökull-Falljökull, SE Iceland. Journal of Geophysical Research: Earth Surface. 118, 1-17. Phillips, E., Everest, J., Reeves, H. 2012. Micromorphological evidence for subglacial multiphase sedimentation and deformation during overpressurized fluid flow associated with hydrofracturing. Boreas, 42, 395–427. Waller, R., Phillips, E.R, Murton, J., Lee, J.R., Whiteman, C. 2011. Sand intraclasts as evidence of subglacial deformation of Middle Pleistocene permafrost, north Norfolk, UK. Quaternary Science Reviews, 30, 3481-3500. Phillips, E.R., van der Meer, J.J.M., Ferguson, A. 2010. A new ‘microstructural mapping’ methodology for the identification and analysis of microfabrics within glacial sediments. Quaternary Science Reviews. 30, 2570-2596. Burke, H.F., Phillips, E.R., Lee, J.R. 2009. Imbricate thrust stack model for the formation of glaciotectonic rafts: an example from the Middle Pleistocene of north Norfolk, UK. Boreas. 38, 620-637. Phillips, E.R., Lee, J.R., Burke, H. F. 2008. Progressive proglacial to subglacial deformation and syntectonic sedimentation at the margins of the Mid-Pleistocene British ice sheet: evidence from north Norfolk, UK. Quaternary Science Reviews. 27, 1848–1871 Phillips, E.R., Merritt, J. 2008. Evidence for multiphase water-escape during rafting of shelly marine sediments at Clava, Inverness-shire, NE Scotland. Quaternary Science Reviews. Vol. 27. p 988–1011. Phillips, E.R., Merritt, J.W., Auton, C.A., Golledge, N.R. 2007. Microstructures developed in subglacially and proglacially deformed sediments: faults, folds and fabrics, and the influence of water on the style of deformation. Quaternary Science Reviews. Vol. 26(11-12). p 1499-1528. Evans, D.J., Phillips, E.R., Hiemstra, J.F., Auton, C.A. 2006. Subglacial till: formation, sedimentary characteristics and classification. Earth-Science Reviews. Vol. 78. p 115-176. Phillips, E.R. 2006. Micromorphology of a debris flow deposit: evidence of basal shearing, hydrofracturing, liquefaction and rotational deformation during emplacement. Quaternary Science Reviews. Vol. 25(7-8). p 720-738. Phillips, E.R., Evans, D.J.A., Auton, C.A. 2002. Polyphase deformation at an oscillating ice margin following the Loch Lomond readvance, central Scotland, UK. Sedimentary Geology. Vol. 149(1-3). p 157-182. My research focuses upon the structural analysis of polydeformed glacigenic sedimentary sequences and the influence of subglacial processes on ice sheet dynamics and glacier motion. The primary aim of this research to aid our understanding of the processes involved during proglacial and subglacial deformation, and the role of meltwater in this high dynamic system. I am one of a few scientists worldwide who are employing micromorphology as a tool in evaluating the often complex array of structures developed in response glacier induced deformation, becoming one of a few experts worldwide in this branch of Quaternary geology/glaciology. Research topics covered have included: the role of melt water in the transportation of ice-rafted sediments; understanding the complex signatures imparted on glacial sediments in response to polyphase proglacial, ice marginal and subglacial deformation; subglacial processes and glacier bed deformation, and its control on the forward motion of glaciers and ice sheets; bedrock controls on subglacial landform distribution; and the role of glacitectonism in subglacial landform development. Recently I have expanded my scientific research into the field of structural glaciology, examining the internal 3D structural architecture of glaciers and how this relates to subglacial and ice-marginal processes (e.g. subglacial landform development), and the forward motion of these ice masses. Vaughan-Hirsch, D., Phillips, E. 2016. Mid-Pleistocene thin-skinned glaciotectonic thrusting of the Aberdeen Ground Formation, Central Graben region, central North Sea. Journal of Quaternary Science. DOI: 10.1002/jqs.2836. Lee, J.R., Wakefield, O.J.W., Phillips, E., Hughes, L. 2015. Sedimentary and structural evolution of a relict subglacial to subaerial drainage system and its hydrogeological implications: an example from Anglesey, north Wales, UK. Quaternary Science Reviews, 109, 88-110. Phillips, E., Finlayson, A., Bradwell, T., Everest, J., Jones, J. 2014. Structural evolution triggers a dynamic reduction in active glacier length during rapid retreat: evidence from Falljökull, SE Iceland. Journal of Geophysical Research: Earth Surface 119, doi:10.1002/2014JF003165. Phillips, E., Hughes, L. 2014. Hydrofracturing in response to the development of an overpressurised subglacial meltwater system during drumlin formation: an example from Anglesey, NW Wales. Proceedings of the Geologists’ Association 125, 296–311. Merritt, J.W., Akhurst, M.C., Wilkinson, I.P., Riding, J.B., Phillips, E.R., Smith, R.A., Finlayson, A., Dean, M.T. 2014. The Late Pleistocene Afton Lodge Clay Formation, Ayrshire, Scotland: evidence for Early to Middle Devensian climatic changes and Late Devensian onshore ice flow and rafting from the Firth of Clyde. Proceedings of the Geologists’ Association. Proceedings of the Geologists Association, 125. 195-214. Phillips, E.R., Lipka, E., van der Meer, J.J.M. 2013. Micromorphological evidence of liquefaction and sediment deposition during basal sliding of glaciers. Quaternary Science Reviews 81, 114-137. Phillips, E.R., Finlayson, A., Jones, L. 2013. Fracturing, block-faulting and moulin development associated with progressive collapse and retreat of a polar maritime glacier: Virkisjökull-Falljökull, SE Iceland. Journal of Geophysical Research: Earth Surface. 118, 1-17. Lee, J.R., Phillips, E., Booth, S.J., Rose, J., Jordan, H.M., Pawley, S.M., Warren, M., Lawley, R.S. 2013. A polyphase glacitectonic model for ice-marginal retreat and terminal moraine development: the Middle Pleistocene British Ice Sheet, northern Norfolk, UK. Proceedings of the Geologists Association, 124. 753-777 Lee, J.R., Phillips, E. 2013. Glacitectonics - a key to examining ice dynamics, substrate rheology and ice-bed coupling. Proceedings of the Geologists Association, 124. 731-737. Phillips, E., Lee, J.R., Riding, J.B., Kendall, R., Hughes, L. 2013. Periglacial disruption and subsequent glacitectonic deformation of bedrock: an example from Anglesey, North Wales, UK. Proceedings of the Geologists’ Association. Proceedings of the Geologists Association, 124. 802-817. Phillips, E., Lee, J.R. 2013. Development of a subglacial drainage system and its effect on glacitectonism within the Middle Pleistocene (Anglian) of North Norfolk. Proceedings of the Geologists’ Association, 124. 855-875. (contribution 80%). Phillips, E.R., Waters, C.N., Ellison, R.A. 2013. The Jurassic-Cretaceous depositional and tectonic evolution of the south-western margin of the Neotethys Ocean, Northern Oman and United Arab Emirates. In Al Hosani, K., Roure, F., Ellison, R.A., Lokier, S (Eds.). Lithosphere Dynamics and Sedimentary Basins: The Arabian Plate and Analogues, Frontiers in Earth Sciences. Springer-Verlag Berlin Heidelberg pp 61-100. Phillips, E., Everest, J., Reeves, H. 2012. Micromorphological evidence for subglacial multiphase sedimentation and deformation during overpressurized fluid flow associated with hydrofracturing. Boreas, 42, 395–427. Waller, R., Phillips, E.R, Murton, J., Lee, J.R., Whiteman, C. 2011. Sand intraclasts as evidence of subglacial deformation of Middle Pleistocene permafrost, north Norfolk, UK. Quaternary Science Reviews, 30, 3481-3500. Lee, J.R., Rose, J., Hamblin, R.J.O., Moorlock, B.S.P., Riding, J.B., Phillips, E., Barendregt, R.W., Candy, I. 2011. The Glacial History of the British Isles during the Early and Middle Pleistocene: Implications for the long-term development of the British Ice Sheet. In Ehlers, J., Gibbard, P.L. &amp; Hughes, P.D. (editors) Developments in Quaternary Science, 15, Amsterdam, The Netherlands, Elsevier. Phillips, E.R., van der Meer, J.J.M., Ferguson, A. 2010. A new ‘microstructural mapping’ methodology for the identification and analysis of microfabrics within glacial sediments. Quaternary Science Reviews. 30, 2570-2596. Phillips, E.R., Everest, J., Diego Diaz-Doce, D. 2010. Bedrock controls on subglacial landform distribution and geomorphological processes: Evidence from the Late Devensian Irish Sea Ice Stream. Sedimentary Geology. Phillips, E.R., Smith, R.A., Stone, P., Pashley, V., Horstwood, M. 2009. Zircon age constraints on the provenance of Llandovery to Wenlock sandstones from the Midland Valley terrane of the Scottish Caledonides. Scottish Journal of Geology. Burke, H.F., Phillips, E.R., Lee, J.R. 2009. Imbricate thrust stack model for the formation of glaciotectonic rafts: an example from the Middle Pleistocene of north Norfolk, UK. Boreas. 38, 620-637. Davis, B.J., Roberts, D.H., Ó Cofaigh, C., Bridgland, D.R., Riding, J.B., Phillips, E.R., Teasdale, D.A. 2009. Interlobate ice sheet dynamics during the Last Glacial Maximum at Whitburn Bay, County Durham, England. Boreas. Stoker, M.S., Golledge, N.R., Phillips, E.R., Wilkinson, I.P., Akhurst, M.C. 2009. Latest Glacial–Holocene shoreface progradation offshore Eastern Scotland: a response to climatic and coastal hydrographic change in the western North Sea. Boreas. 38, 292–314. Phillips, E.R., Lee, J.R., Burke, H. F. 2008. Progressive proglacial to subglacial deformation and syntectonic sedimentation at the margins of the Mid-Pleistocene British ice sheet: evidence from north Norfolk, UK. Quaternary Science Reviews. 27, 1848–1871. Phillips, E.R., Merritt, J. 2008. Evidence for multiphase water-escape during rafting of shelly marine sediments at Clava, Inverness-shire, NE Scotland. Quaternary Science Reviews. Vol. 27. p 988–1011. Lee, J.R., Phillips, E.R. 2008. Progressive soft sediment deformation within a subglacial shear zone – a hybrid mosaic-pervasive deformation model for Middle Pleistocene glaciotectonised sediments from eastern England. Quaternary Science Reviews. Vol. 27. p 1350-1362. Golledge, N.R., Phillips, E.R. 2008. Sedimentology and architecture of De Geer moraines in the western Scottish Highlands, and implications for grounding-line glacier dynamics. Sedimentary Geology. Vol. 208. p 1-14. Phillips, E.R., Auton, C.A. 2008. Microtextual analysis of a glacially 'deformed' bedrock: implications for inheritance of preferred clast orientations in diamictons. Journal of Quaternary Science. Vol. 23(3). p 229-240. Phillips, E.R., Merritt, J.W., Auton, C.A., Golledge, N.R. 2007. Microstructures developed in subglacially and proglacially deformed sediments: faults, folds and fabrics, and the influence of water on the style of deformation. Quaternary Science Reviews. Vol. 26(11-12). p 1499-1528. Thorbjörg Sigfúsdóttir (2014-2018) Bølling-Allerød glacier dynamics in lower Borgarfjörður, western Iceland: multiple-scale and multi-proxy analysis of glaciotectonics, RANNIS, The Icelandic Research Fund 2014, University of Lund, Sweden. Astrid Ruiter (2012-2016) 3D Architecture and structure of a tectonised glacigenic sedimentary sequence in the Dogger Bank area of the southern North Sea, BGS British Universities Funding Initiative (BUFI S228)/Queen Mary, University of London. Amanda Ferguson (2008-2012) Polyphase deformation in subglacial and proglacial deposits of the UK, BGS British Universities Funding Initiative (BUFI S109)/Queen Mary, University of London. David Vaughan-Hirsch (2008-2012) Glacitectonic Rafting: Methods of Detachment, Transport and Emplacement, BGS British Universities Funding Initiative (BUFI S155)/ University of Southampton. Furthermore, in the past 5 years I have supervised/mentored 12 research students/early career scientists who have travelled to BGS Edinburgh from Germany, Poland, Sweden, Iceland, France and UK. This has involved one-to-one instruction on the use of micromorphology in the analysis of glacial sediments.</t>
+  </si>
+  <si>
+    <t>Philip Ogden is Professor of Human Geography. He served as Senior Vice Principal of Queen Mary from 2005 to 2011, with particular responsibility for estate development. He was previously Vice Principal for the Humanities and Social Sciences (1998-2006) and Head of Geography (1992-6). His research interests include demographic change and migration. He is currently working on contemporary household changes in European cities, both in suburbs and central cities; and on French rural society 1900-1950. He also has an interest in higher education policy, particularly with respect to university building development for teaching and research. He was recently part of a research team on 'Learning Landscapes in Higher Education' funded by HEFCE and is currently overseeing the development of a new £39 million Graduate Centre at Queen Mary. In 2015, he was elected Chair of the UK Higher Education Design Quality Forum, which brings together universities, architects and other professionals. He chaired the St Paul's Way School Foundation Trust from 2010-15 and is now a Patron of the school. He served as a Trustee of the St Bartholomew's Hospital Medical College Trust from 2003-13 and of the Central Foundation Schools of London 2010-13. He is currently an Adviser to the London Chamber Orchestra and was elected to the Academy of Social Sciences in 2009. He was made a Freeman of the City of London in 2009 and admitted to the Livery of the Drapers' Company in 2012. He joined the Governing Body of Bancroft's School in Woodford Green in 2011 and has been Chairman since 2013. S. Buzar, A. Haase, R. Hall, A. Steinfuhrer, S. Kabisch and P. E. Ogden (2010) Household structure, migration trends and residential preferences in inner-city Leon, Spain: unpacking the demographies of reurbanisation, A. Haase, S. Kabisch, A. Steinfuhrer, S. Bouzarovski, R. Hall, and P. E. Ogden (2010) Emergent spaces of reurbanisation: exploring the demographic dimension of inner-city residential change in a European setting, S. Buzar, P. E. Ogden, R. Hall, A. Haase, S. Kabisch and A. Steinfuhrer (2007) Splintering urban populations: emergent landscapes of reurbanisation in four European cities, Ogden, P. E. and R. Hall (2004) The second demographic traansition, new household forms and the urban population of France during the 1990s Ray Hall and Philip Ogden are currently working collaboratively on a project that researches population change in European Cities. They are particularly interested in investigating household change and the growth of living alone and non-traditional household forms. They have just received a small grant from the Volkswagen Foundation as part of a programme entitled 'socio-spatial consequences of demographic change for East Central European cities'. For this project they are working with colleagues from Leipzig, Poland and the Czech Republic. They will be adding a comparative dimension using examples from British and French cities. Changes in the numbers and types of household have been quite remarkable over the last two or three decades. This project (with Dr Ray Hall at QM and funded by the ESRC, EU and British Academy) is concerned with the UK, France and other European countries, particularly with the rise of one-person households. It is also interested in associated patterns of migration at both national and regional (especially urban) scales. Principal sources include censuses, as well as longitudinal data from the Longitudinal Study (England and Wales) and the Echantillon Démographique Permanent (France). The research also embraces qualitative methodology. A Nuffield Foundation grant to Philip Ogden concentrates upon recent household changes in leading British and French cities. A further phase of the project (with Ray Hall and Stefan Buzhar at QM and European partners in Germany, Slovenia, Italy, Spain and Slovakia) is looking particularly at household changes and reurbanisation. The department at Queen Mary has long had an interest in population and migration trends in France and other parts of Europe. Recent years have seen a number of publications, reports and PhD theses produced in this field, and there is much scope for further work in a broadly European context in the department. Work in France has been concerned with general immigration trends in the l980s and 1990s and their political consequences; also with the evolution of French government policy throughout the twentieth century. A research network was established in 1998, funded by the British Council and the Ministère des Affaires Etrangères (Paris), bringing together researchers from the Population Dynamics and Health Research Group at QM (Ogden, Hall, Curtis) and from the Universities of Paris, Lille, Lyons and Toulouse. The principal theme of collaborative research is household and population change in British and French cities, subsequently expanded to other European countries (see above). This project formed part of the department's broad and long-standing interests in migration trends in nineteenth- and twentieth-century Europe. The present project is set within the context of immigration to France since the Second World War, which has become an issue of major social, economic and political importance. By the 1980s the population of foreign nationality numbered some four millions and was strongly concentrated geographically and in particular sectors of the economy. Although much research, comment and controversy have focused on the population of North African origin, immigrants in fact come from a wide variety of sources both within and outside Europe. This project looked at a highly distinctive group - migrants from the French Caribbean islands of Martinique and Guadeloupe - who, because of their French nationality (the islands are départements d'outre-mer) and the organized nature of their migration, share only in part the socio-economic characteristics of the foreign immigrant population. Quantitatively, they are by no means negligible: the 1999 census indicated that over 400,000 people originated from the départements et territoires d'outre-mer (of whom two-thirds were from the Caribbean) and they have been one of the fastest-growing migrant groups, escaping the immigration controls on foreign nationals imposed during the 1970s and 1980s. This project focused on the process of migration and the role of governmental and private agencies in shaping and implementing migration policy; and on patterns of residence and employment amongst Afro-Caribbean migrants, with particular reference to Paris and to the health service. The latter phase of the project investigated return migration to the Caribbean in the context of changing French government policy in the 1980s and 1990s. During the 1980s and 1990s, the London Docklands experienced change of revolutionary proportions. The previous two decades had seen the gradual erosion of both port activities and the associated manufacturing and service industries. The population was in decline, unemployment high and social conditions - in an area that has rarely known prosperity - rapidly deteriorating. A number of schemes for urban regeneration had been mooted but it is particularly with the activity of the London Docklands Development Corporation (LDDC) from 1981 to 1998 that the dramatic change in the pace and nature of development is associated. Though the landscape of Docklands has evolved rapidly, with massive office and housing schemes being completed at breakneck speed, the process of change - and the evaluation of 'success' or 'failure' - is highly contentious. Certainly, there is an urgent need for academic research on the area, as it has assumed both national and international prominence. Research at QM during the 1990saimed to elucidate one aspect of the development process: the arrival and nature of new residents. Funding was obtained in cooperation with colleagues in Paris and Brussels, since there is much to be learnt about the London experience in the light of wider changes in other European cities. The project is thus placed within the context of changes in the financial and economic structure of the city, and their consequences for 'gentrification'. The aim was to investigate the residential and other demographic and socio-economic characteristics of the new population. Among questions of particular interest to us were the geographical origins of the population, their recent mobility history, their family status, number of children, occupation, income, place of work and pattern both of travel to work and of international travel as part of work. Three sorts of source materials were used: an extensive questionnaire survey in the westernmost part of the LDDC area - Wapping and Limehouse - among residents in properties converted or built since 1981; a variety of material about the character of new residential building in the area, obtained through developers, architects and estate agents; and, as a base against which to compare our results, the small-area data from the censuses of population. Results confirmed some and rejected other aspects of the stereotypical view of the new residential population. Qualitative research has been carried out in the area as part of the ESRC-funded project on household change noted above. Philip Ogden and Andrew Hussey 2011 'International university partnerships and the role of the French connection: the experience of a London College' in M Fraser and P Lane (eds) P E Ogden 2011 'Living in the European city: demographic change and residential patterns' in A Haase et al. (eds) S. Buzar, A. Haase, R. Hall, A. Steinfuhrer, S. Kabisch and P. E. Ogden (2010) Household structure, migration trends and residential preferences in inner-city Leon, Spain: unpacking the demographies of reurbanisation, A. Haase, S. Kabisch, A. Steinfuhrer, S. Bouzarovski, R. Hall, and P. E. Ogden (2010) Emergent spaces of reurbanisation: exploring the demographic dimension of inner-city residential change in a European setting, S. Buzar, P. E. Ogden, R. Hall, A. Haase, S. Kabisch and A. Steinfuhrer (2007) Splintering urban populations: emergent landscapes of reurbanisation in four European cities, P. E. Ogden and F. Schnoebelen (2005) 'The rise of the small household: demographic change and household structure in Paris', Ogden, P. E. and R. Hall (2004) The second demographic traansition, new household forms and the urban population of France during the 1990s Hall, R. and P. E. Ogden (2003) The rise of livingalone in Inner London: trends among the population of working age Ogden, P. E. and R. Hall (2000) Households, reurbanisation and the rise of living close in the principal French cities, 1975-1990 Hall, R., P. E. Ogden and C. Hill (1999) 'New ways of iving: one-person households in England &amp; Wales and France' in S. McRae (ed) Ogden, P. E. and R. Hall (1998) 'Personnes seules et migrations en France et en Grande Bretagne: analyse comparative des recensements et des études longitudinales' Condon, S. A. and P. E. Ogden (1997) 'Housing and the state in the French Caribbean' in D. Conway and R. Potter (eds), Hall, R., P. E. Ogden and C. Hill (1997) The pattern and structure of one-person households in England and Wales and France Condon, S. A. and P. E. Ogden (1996) Questions of emigration, circulation and return: mobility between the French Caribbean and France, Butcher, I. and P. E. Ogden (1984) West Indians in France: migration and demographic change. In P. E. Ogden (ed.) Migrants in modern France: four studies.</t>
+  </si>
+  <si>
+    <t>Qualifications: B.Sc. Zoology &amp; Botany (Joint Honours) University of London (1971), M.Sc. (Oceanography) University of Southampton (1973), D. Phil. University of Ulster (1980). Appointed to UCL Geography in 1981. Currently Professorial Research Fellow (since 2009) Aquatic Ecology; Biological Conservation; Diatom Research; ; Earth Surface Processes and Landforms; Egyptian Journal Remote Sensing; Environmental Science &amp; Technology; Hydrobiologia; Hydrological Processes; J. Paleolimnology; J. Ecology; Freshwater Biology. Flower, R.J, Keatings, K., Hamdan, M., Hassan, F., Boyle, J.F., Yamada, K &amp; Yasuda, Y. 2012. The structure and significance of early Holocene laminated lake sediments in the Faiyum Depression (Egypt). Hassan, F., Hamdan, M. and Flower, R.J. 2011. The oxygen and carbon isotopic records in Holocene freshwater mollusk shells from the Faiyum paleolakes, Egypt. Oczkowski, A.J., Flower, R.J., Thompson, J.R., Ayache, F., Ahmed, M.H., Ramdani, M., Turner, S. 2011. Evidence of North Africa's green revolution preserved in sedimentary organic matter deposited in three coastal lagoons. Abu-Zied, R.H., Keatings, K., Flower, R.J. &amp; Leng, M.J. 2011. Benthic foraminifera and their stable isotope composition in sediment cores from Lake Qarun, Egypt: changes in water salinity during the past ~500 years. Keatings, K., Holmes, J., Flower, R., Horne, D., Whittaker, J.E., and Abu-Zeid, R. 2010. Ostracods and the Holocene palaeolimnology of Lake Qarun, with special reference to past human–environment interactions in the Faiyum (Egypt). Curtis, C.J., Flower, R., Rose, N., Shilland, J., Simpson, G., Turner, S., Yang, H. &amp; Pla, S. 2010. Palaeolimnological assessment of lake acidification and environmental change in the Athabasca Oil Sands Region, Alberta. Journal of Limnology, 69, 92-104. My principal research interests concern environmental change in aquatic ecosystems specializing in limnology and palaeolimnology. My main specialist group of organisms is freshwater diatoms: their ecology and taxonomy. Research Projects include: Sediment records of environmental change in Lake Baikal (Siberia) Leverhulme, NERC and Darwin Initiative Projects 1991-1999. Diatom taxonomy and ecology of the Falkland Islands (FCO OTs project 2001-2003), Coordinator of the CASSARINA Project (EU 4th Framework INCO Programme 1996-1999. Coordinator of the MELMARINA Project (EU 6th Framework INCO Programme 2002-2006. People and climate: sediment records in Lake Qarun, Egypt (Leverhulme Grant 2003-2006), Sediment records and environmental change in the Faiyum and Saqqara, Egypt (British Academy Grant 2007-2009) Project manager on various small grants including those from Scottish Natural Heritage, Countryside Council for Wales, DEFRA, Foreign and Commonwealth Office, The Royal Society. My research is inter-disciplinary and not only has influenced environmental change management in the UK and overseas but has also contributed significantly to the international scientific literature. In the UK I have contributed to the recognition of the widespread problem of freshwater acidification that arose in the 1980s. Research is on-going but the main body of research led to the recognition that atmospheric deposition of acid pollution from fossil fuel energy generation as the principal cause. In North Africa my research undertaken as part of the CASSARINA and MELMARINA projects led to the Tunisian Government’s site descriptions of Ghar El Melh and Megene Chitane being listing as internationally important sites under the Ramsar Convention. During the course of my overseas research I have provided training for environmental scientists and management practitioners in partner organizations that has enhanced their capacity to manage inland waters. This has included hydro-ecological monitoring programme design and operation for environmental scientists in Egypt, Morocco and Tunisia. In Canada, my research (with C. Curtis) in the tar sands region lead to the realization that the tar sands oil extract methods were not causing widespread water acidification. IN Lake Baikal my studies of diatoms and recent environmental change indicated that water quality of this immense lake was not severely impaired by pollution in the 1990s.</t>
+  </si>
+  <si>
+    <t>I am a quantitative geographer with particular interests in geographic epidemiology, application of spatial statistical methods to area health and health survey data, and spatial demography. Since 2001 I have been a Research Professor in the School of Geography, and am also affiliated to the QMUL Life Sciences Institute. I have authored a range of articles and books, including ‘Applied Bayesian Hierarchical Methods’ (CRC, 2010) and ‘Bayesian Statistical Modelling’ (Wiley, 2006). My major projects recently have been development of health indicators (e.g. diabetes, obesity) for US micro areas (Zip Code Tracts), developing Scotland datazone population estimates using administrative datasets, and geographic interpolation to estimate area disease prevalence in North East London. Congdon, P (2012) A Latent Variable Model for Suicide Risk in relation to Social Capital and Socio-economic Status. Soc Psychiatry Refereeing grant applications/project reviewing on behalf of ESRC, NHS Service Delivery and Organisation R&amp;D Programme, Alberta Heritage Foundation for Medical Research, Arts and Humanities Research Board; Research Grants Council (Hong Kong); Health Research Council of New Zealand; ESRC-NWO Bilateral Research Scheme, Chief Scientist Office (Edinburgh) HSR Training Scheme. This strand of research considers application of statistical methods to analyse spatial variations in population mortality and chronic disease outcomes. This includes work to explain geographic variations in self-harm and suicide, to assess spatial clustering of disease, and to disease prevalence estimation for small areas. A particular aspect of this work is the use of Bayesian techniques. Congdon P (2014) Modelling Changes in Small Area Disability Free Life Expectancy: Trends in London Wards between 2001 and 2011, This work focuses on strategic analysis and health care profiles for small areas and GP practices in NE London, in collaboration with local public health departments. This work involves use of a variety of health indicators (mortality rates, hospital admission rates, population prevalence, etc.) to inform public health needs assessment. Research outputs include small area analysis of premature mortality using years of life lost indicators, and geographic interpolation methods to develop small area estimates of health indicators (such as the psychosis prevalence rate in outer North East London LSOAs) from the Quality Outcomes Framework dataset for GP practices. Congdon P (2013) Interpolation between spatial frameworks: an application of process convolution to estimating neighbourhood disease prevalence. Stat Methods Med Res. 2012 May 2. [Epub ahead of print] Congdon P (2013) Modelling small-area inequality in premature mortality using years of life lost rates. Journal of Geographical Systems, 15 (2): 149–167 This group of projects includes development of small area life table methods (in collaboration with Department of Public Health, Erasmus MC) and investigating Bayesian techniques to produce small area population estimates using administrative datasets (funded by GRO Scotland). The former work illustrates the principle of borrowing strength (via Bayesian methods) to make life expectancy estimates for small areas, when conventional estimates may be subject to instability. The latter study, funded by GRO Scotland, investigated possible alternatives to Census based population estimates (known as the SAPE estimates) for 6505 Scotland datazones, using administrative datasets with comprehensive population coverage such as the NHSCR and DWP customer populations. Health care profiles for US micro areas (Census 2000 and 2010 Zip Code Tracts) have been developed in collaboration with the National Minority Quality Forum ( ). This has involved a variety of modelling techniques (multilevel, spatial) in the development of chronic health indicators, especially indicators of population prevalence (e.g. diabetes, obesity, cancer prevalence) or risk exposure (lead risk). The estimates are disaggregated by age group and ethnicity. Congdon, P, Lloyd P (2010) Estimating small area diabetes prevalence in the US using the Behavioral Risk Factor Surveillance System, I welcome expressions of interest and enquiries from potential PhD students who would like to work on research projects related to my areas of interest, including quantitative and GIS applications to area health and spatial demography. Editorial Board Member, Journal of Biometrics &amp; Biostatistics; Editorial Board of the International Journal of Environmental Research and Public Health; Refereeing grant applications/project reviewing on behalf of ESRC, NHS Service Delivery and Organisation R&amp;D Programme, Alberta Heritage Foundation for Medical Research, Arts and Humanities Research Board; Research Grants Council (Hong Kong); Health Research Council of New Zealand; ESRC-NWO Bilateral Research Scheme, Chief Scientist Office (Edinburgh) HSR Training Scheme.</t>
+  </si>
+  <si>
+    <t>I have held distinguished visiting professorships at leading universities in North America, Europe, Australia and East Asia, acted as consultant to UNCTAD and directed a major scientific programme in the European Science Foundation. I was awarded the Victoria Medal of the Royal Geographical Society (with the Institute of British Geographers) in 2001 for 'advancing research on globalization and economic geography' and the Centenary Medal of the Royal Scottish Geographical Society in 2007 for 'distinguished contribution to the study of the geographies of the global economy'. In 2002, I was awarded an Honorary PhD by the University of Uppsala, Sweden and was a Fellow of the Swedish Collegium for Advanced Study in the Social Sciences.</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Professor of Interventional Oncology at UCL. He is an Honorary Consultant Urologist at University College Hospitals NHS Foundation Trust and Founding Pioneer of The Charity Prostate Cancer UK. He Professor Emberton’s clinical research is aimed at improving the diagnostic and risk stratification tools and treatment strategies for prostate cancer (PCa); he specialises in the implementation of new imaging techniques, nanotechnologies, bio-engineering materials and non-invasive treatment approaches, such as high intensity focused ultrasound and photo-dynamic therapy. also contributed to the development of guidelines for the management of PCa and lower‑urinary tract symptoms, published by the International Society of Geriatric Oncology and the European Association of Urology. Professor Emberton is also involved in teaching within UCL and the London and South East Urological Training scheme. In addition to being a member of various urological and medical organisations (American Association of GenitoUrinary Surgeons, British Association of Urological Surgeons, European Association of Urology).</t>
+  </si>
+  <si>
+    <t>I am a Professor of Physical Geography and a Chartered Geographer (Geomorphology) with over 20 years’ research experience in hydrogeomorphology and hydroecology. My research on rivers focuses on: After completing a BSc Honours degree in Geography at the University of Sheffield and a PhD at Southampton University, I held a Natural Environment Research Council (NERC) Post-Doctoral Research Fellowship before joining the School of Geography at Queen Mary, University of London. , and a Director of the International Association for Water Sediment Science. Past appointments have included: Chair of the Board of Directors of the UK River Restoration Centre; Honorary Secretary of the Royal Geographical Society with Institute of British Geographers; and Secretary of the Geography Section of the British Association for the Advancement of Science. Grabowski, R. C., Wharton, G., Davies, G. R., &amp; Droppo, I. G. (2012). Spatial and temporal variations in the erosion threshold of fine riverbed sediments. Grabowski, R. C., Droppo, I. G., &amp; Wharton, G. (2010). Estimation of critical shear stress from cohesive strength meter-derived erosion thresholds. Heppell, C. M., Wharton, G., Cotton, J. A. C., Bass, J. A. B., &amp; Roberts, S. E. (2009). Sediment storage in the shallow hyporheic of lowland vegetated river reaches. In My teaching draws on my empirically-based research on rivers and, through my work in river restoration, students are introduced to current policy and practice in river restoration. Classes are interactive with frequent opportunities for discussion and debate, and site visits to restoration schemes allow students to gain first-hand knowledge of restoration design and develop an appreciation of the challenges and benefits of restoring rivers. Michael Brierley (2012–3): Assessing the impact of stormwater outfalls on the sediment quality of the River Wandle. In collaboration with, and partly-funded by, the Wandle Trust. Claire Hulbert (2005–6): Integrated post-project appraisal of an urban river restoration scheme: the River Quaggy, Sutcliffe Park, South East London. Funded by the Environment Agency. Many rivers contain aquatic plants growing in the centre of the channel (submerged) and at the margins (emergent) and they act as important ecosystem engineers, modifying flow patterns and the processes of sediment deposition, entrainment and transport (Cotton ., 2006). Invertebrates (such as blackfly larvae) that live on these plants modify sediment properties, resulting in organic-rich and highly-aggregated fine sediments (Wharton (NER/T/S/2001/00932: Fine sediment and nutrient dynamics of lowland permeable streams: establishing the significance of biotic processes for sediment modification). Because contaminants such as fertilisers and pesticides adsorb to fine sediments and the nutrient-rich sediments within the aquatic plants release methane (Sanders The Environment Agency is using these findings, including a knowledge of the sediment habitats associated with different plants (Wharton et al., 2006; Clarke and Wharton, 2001) to develop and refine a software tool called LEAFPACS. The tool helps in the assessment of a river’s ecological status by predicting what plants should be present and comparing this to actual observations. Another important issue in lowland vegetated rivers is weed cutting, routinely carried out for flood risk management. Current research is being conducted on the River Lambourn (Adam Sutcliffe, CEH NERC Studentship) to measure and model the detailed flow hydraulics following different weed cutting strategies to inform management decisions about the optimum levels of aquatic plant cover. In recent decades increased inputs of fine sediments to lowland rivers have resulted in the ingress of silts, clays and sands into gravels, excessive surficial deposits, and elevated levels of sediment-bound contaminants. Recent research in the Frome-Piddle Catchment, Dorset, (Robert Grabowksi QMUL PhD Studentship) in collaboration with Ian Droppo (Environment Canada) examined the spatial and temporal variations in the erodibility of fine sediment deposits, using a Cohesive Strength Meter (Grabowski ., 2012). And associated experimental flume work developed a calibration to allow CSM measurements taken in the field to be expressed as critical shear stress values to help further knowledge of entrainment thresholds for fine cohesive sediments (Grabowski ., 2011). Parallel research (Luke Warren NERC PhD Studentship; Grieg Davies NERC PhD Studentship) focused on quantifying how much fine sediment is transported in vegetated river reaches (Warren ., 2009) under seasonally changing vegetation cover and how much fine sediment is stored (Heppell et al., 2009). This work is being developed to consider the residence times of fine sediments and sediment-bound contaminants in vegetated rivers. Measuring the erodibility of surficial fine cohesive sediments in the field using a Cohesive Strength Meter (photos: R. C. Grabowski). Wharton, G., Kronvang, B., Ogrinc, N., &amp; Blake, W. H. (2012). Interactions between sediments and water: perspectives on the 12th International Association for Sediment Water Science Symposium. Grabowski, R. C., Wharton, G., Davies, G. R., &amp; Droppo, I. G. (2012). Spatial and temporal variations in the erosion threshold of fine riverbed sediments. Sgouridis, F., Heppell, C. M., Wharton, G., Lansdown, K., &amp; Trimmer, M. (2011). Denitrification and dissimilatory nitrate reduction to ammonium (DNRA) in a temperate re-connected floodplain.. Grabowski, R. C., Droppo, I. G., &amp; Wharton, G. (2010). Estimation of critical shear stress from cohesive strength meter-derived erosion thresholds. Warren, L. L., Wotton, R. S., Wharton, G., Bass, J. A. B., &amp; Cotton, J. A. (2009). The transport of fine particulate organic matter in vegetated chalk streams. Heppell, C. M., Wharton, G., Cotton, J. A. C., Bass, J. A. B., &amp; Roberts, S. E. (2009). Sediment storage in the shallow hyporheic of lowland vegetated river reaches. In Sanders, I. A., Heppell, C. M., Cotton, J. A., Wharton, G., Hildrew, A. G., Flowers, E. J., Trimmer, M. (2007). Emission of methane from chalk streams has potential implications for agricultural practices. Wharton, G., Cotton, J. A., Wotton, R. S., Bass, J. A. B., Heppell, C. M., Trimmer, M., Warren, L. L. (2006). Macrophytes and suspension-feeding invertebrates modify flows and fine sediments in the Frome and Piddle catchments, Dorset (UK). Cotton, J. A., Wharton, G., Bass, J. A. B., Heppell, C. M., &amp; Wotton, R. S. (2006). The effects of seasonal changes to in-stream vegetation cover on patterns of flow and accumulation of sediment. Wharton, G., &amp; Gilvear, D. J. (2006). River restoration: meeting the needs of both the EU Water Framework Directive and flood defence?. Clarke, S. J., Bruce-Burgess, L., &amp; Wharton, G. (2003). Linking form and function: towards an eco-hydromorphic approach to sustainable river restoration. Adam Sutcliffe (NERC CEH Studentship) Effects of seasonal plant growth and weed cutting regimes on river flow hydraulics. Supervisors: Dr P Rameshwaran (CEH, Wallingford), Dr P Naden (CEH, Wallingford), Dr G Wharton (QMUL). Matthew Cashman (Erasmus Mundus PhD Studentship) Hydromorphological and ecological responses to habitat heterogeneity and large wood. Supervisors: Dr G Harvey (QMUL), Dr G Wharton (QMUL), Dr M Pusch (IGB). Francesca Pilotto (Erasmus Mundus PhD Studentship) River channel response to changes in wood and sediment load: woody debris as a trigger for invertebrate habitat diversity in lowland rivers. Supervisors: Dr Martin Pusch (IBG), Dr G Harvey (QMUL), Dr G Wharton (QMUL). Seyed Hossein Mohajeri (Erasmus Mundus PhD Studentship) Experimental study of the effects of colmation in a gravel bed in a free surface flow. Supervisors: Dr M Righetti (UniTN), Dr G Wharton (QMUL), Professor V Nikora (University of Aberdeen). Tesfaye Haimonot Tarekegn (Erasmus Mundus PhD Studentship) Environmental impacts of river impoundments: reservoir and watershed sediment management. Supervisors: Dr.M Toffolon (UniTN), Dr M Righetti (UniTN), Dr G Wharton (QMUL) . Sepideh Ramezani (Erasmus Mundus PhD Studentship) Nutrient dynamics and hydrological connectivity in agricultural floodplains. Professor A Bellin (UniTN), Dr C M Heppell (QMUL), Dr D Tonina (University of Idaho), Dr G Wharton (QMUL). Mahdi Khademishamami (Erasmus Mundus PhD Studentship) Effects of colmation on fine sediment dynamics in gravel-bed rivers. Supervisors: Professor A Armanini (UniTN), Dr M Righetti (UniTN), Dr G Wharton (QMUL), Professor J Brasington (QMUL). Stuart Smith (part-time, self-funding). Defining environmental flows in modified rivers. Supervisors: Dr G Harvey (QMUL) and Dr G Wharton (QMUL). 2013-16: co-supervisor of two PhD students as part of the Marie Curie International Training Network with the University of Lyon and gIR Engineering, Germany. Helen Dangerfield (2000; College studentship) A study of channel geometry-discharge relationships in semi-natural British rivers as a basis for river restoration. Fotis Sgouridis (2010; College studentship awarded to Geography and SBCS) Nitrate dynamics in a re-connected river floodplain system: the River Cole, Wiltshire, UK). Former students have been successful in gaining employment in research (QMUL, Open University, Keele University), the water industry (Southern Water), and environmental consultancies and agencies (Environment Agency, Natural England, Babtie, Royal Haskoning, National Trust, APEM). ) for information on the application process. You may also wish to consider the EU Erasmus Mundus Joint Doctoral programme, SMART (Science for Management of Rivers and their Tidal Systems). Details on this programme can be found at: Sutcliffe Park, River Quaggy, South East London. Post-project appraisals have documented changes in river morphology, macrophyte cover, sediment and water quality (photo: G.Wharton). I have a keen interest in the restoration of urban rivers and have conducted several appraisals of river restoration projects in the Thames catchment, funded by the Environment Agency, and resulting in R&amp;D reports (see below). Over the past 13 years, I have also been closely involved in river restoration in an advisory capacity through my work as a Director and Chair of the Mayes Brook, Barking, East London. Pre and post project appraisals have focused on the water and sediment quality of this urban river (photo: L. Shuker). Mayesbrook Park River Restoration Baseline Monitoring: a summary report of the water and sediment quality of Mayes Brook and Mayesbrook Lakes, and the usage of Mayesbrook Park</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at I am Professor of Human Development and Social Policy at the Institute of Education, University College London, Research Professor at the Social Science Centre (Wissenschaftszentrum) Berlin, and Visiting Professor at the ), and am involved in an ESRC funded project on mental health trajectories of children (with Leslie Gutman, Heather Joshi and Michael Parsonage). I have served as advisor to government departments, and am member of several national and international review boards, such as the publications include over 100 scholarly articles, as well as a monograph on ‘Risk and Resilience’ and two edited volumes on ‘Transitions from school-to-work' (with Rainer K. Silbereisen) and 'Gender differences in aspirations and attainment' (with Jacquelynne Eccles), all published by Cambridge University Press. I am a developmental psychologist by training, with research interests in the study of capacity building and social inequalities in attainment. In particular my research focuses on the study of risk and resilience, especially during the transition from dependent childhood to independent adulthood, and regarding social and gender equalities in attainment, health and well-being. research is guided by an ecological-developmental approach, mapping human development over time and in context using longitudinal data, such as the nationally representative British cohort studies. I have examined and contributed to new insights regarding social inequalities in aspiration, health and attainment, and the conditions for change and resilience in the face of adversity.</t>
+  </si>
+  <si>
+    <t>Martin is Professor of Geomorphology at the University of Manchester. He has 20 years experience working on upland peatlands resarching the impact of erosion and restoration on water carbon and pollutant flux. Peatland carbon balance has been a particular focus. Much of this work has been undertaken in partnership with practitioners and policy makers. He has published extensively in these fields including books on peatland geomorphology and the impact of peatland restoration on ecosystem services. Recent research projects include work on the impact of peatland restoration in the uplands on downstream flood risk, analysis of carbon cycling in upland reservoir systems, and work on the transformation of particulate and organic carbon in river systems. Martin has a wider interest in the role of geomorphological processes in the terrestrial carbon cycle. He has promoted this area of study through his work with British Society for Geomorphology and the European Geophysical Union. Currently he is a Leverhulme fellow working on a project on integrating geomorphological understanding into conceptualisations of the terrestrial carbon cycle. Martin also has significant interests in schools geography. he is an editor of Geography Review, the magazine for A-Level Geographers and chaired the ALCAB geography panel which advised government on the content of new Geography A levels. he has been very active speaking to groups of teachers and stakeholders to support the introduction of the new A Level content. Martin also works to promote geography as a discipline more widely through his role ad Chair of the Conference of Heads of Geography in Higher Education.</t>
+  </si>
+  <si>
+    <t>I am an urban and cultural geographer fascinated by public life in cities. My particular interest is collective culture and the capacity of urban space to generate new forms of sociality and solidarity. Focused on contemporary London and cities across the U.S., my research to date has centred on three themes: . A longstanding concern in critical urban scholarship, my work has sought re-animate this field of study. This includes advocating for careful attention to how different spaces of public life are put together and to the affects that different kinds of materiality, infrastructure and modes of inhabitation have in making spaces what they are. I am also interested on-going, everyday forms of negotiation about what is fair and appropriate for living together in a pluralistic society. . Focusing on food-related trends, I have examined emergent forms of popular practice and the efforts of people actively seeking to foster more convivial forms of urban life. By closely studying social interactions in novel kinds of spaces and the more extra-ordinary activities of social entrepreneurs, my interest is to explore possibilities for living together in more mutually beneficial ways. . Parallel to my interest in urban public life is a concern with popular and academic discourse about cities and neighbourhoods themselves. This includes examining how we understand and portray processes of urban change, new developments and trends, and the lifestyles and culture of different kinds of urban dwellers. In particular, I am concerned with understanding the work that different kinds of representation do and the geographical imaginations they enable. My work has been supported by grants from the Economic and Social Research Council, University College London’s Graduate School, University College London’s Public Engagement Unit, and the American Association of Geography’s Urban Geography Research Group. Since 2011 I have been an organising committee member and communication director for the Royal Geographical Society’s Urban Geography Research Group. I was also a founding member of the Stadkolloquium Urban PhD Research Network. Currently, I am putting together a 40-entry volume entitled Key Thinkers on Cities (co-edited with Dr. Alan Latham of UCL Geography) to be published with SAGE in 2016. I am foremost an enthusiastic teacher and student. My first degree was in Education and the Social Sciences, followed by an MSc in Teaching and Learning. My first job was teaching middle school in Kansas City, Kansas and then secondary school in London, where I also managed a successful secondary Geography department for five years. After completing my PhD at UCL, I became a teaching fellow in the department of Geography where I helped to convene the MSc Urban Studies programme and was shortlisted for the Student Choice Excellence in Teaching Award in 2015. Over the past four years, I have taught field-intensive courses on London’s Urban Geographies and Encountering Global London for St. Lawrence University of New York. A longer-term goal is to publish a volume on teaching methods for helping students actively engage in learning by exploring the cities in which they live and visit. My ESRC-funded doctoral research at University College London was an ethnographic study of food-related trends across the U.S. My interest was to examine some of the novel ways in which the spaces of public life are being re imagined and to invigorate the study of public space in social science research. The project builds upon a critique of predominant approaches to urban public space, arguing that recent work on the topic has reached something of an empirical and theoretical impasse. In pressing for a more expansive imaginary, the project has worked to develop a broader conceptualisation of public-ness along with a series of analytic principles, theoretical resources and attentive registers for opening up new lines of inquiry. Organised around the theme of ‘eating in public’, empirical case studies include: the tremendous growth and popular enthusiasm for street food vending, and a comparative look at how municipal licensing laws have variously nurtured or restricted the practice underground restaurants and secret supper clubs in which public audiences are invited into private homes for meals, and the changing forms of public/private relations transformed by the so-called sharing economy pay-what-you-can-restaurants and community cafes in which customers determine the price of their meal, and the material-practical configurations that help to sustain relations of conviviality and accountability within these spaces As the starting point for future work in this vein, my goal is to help facilitate discussion, research and innovation in how more convivial, inclusive and democratic forms of collective life might be nurtured. This project examined a small-scale urban redevelopment that sought to transform a traffic junction best known for crime and anti-social behaviour into a public space that would be an asset for the local community. Research involved an ethnographic study in which I worked on-site as a fruit and vegetable vendor over a period of three months. The aim was to attend to the fine-grained details of how public life was being reconfigured by the changes, and to extend the conceptual registers through which transformations to urban public spaces might be apprehended. Koch, R. and Latham, A. (2014) ‘Inhabiting cities, domesticating public spaces: Observing changes in the public life of contemporary London’ in A. Madanipour and S. Knierbein (eds) Koch, R. and Latham, A. (2012) ‘Animating Public Space: A Case Study in ‘Soft Regeneration’ Royal Geographical Society, Geography in the News, A-Level teaching resources for the RGS. Pdf available through the RGS (or author). Koch, R. (2012) ‘Interview the Expert: Regan Koch on Public Space’ Royal Geographical Society, Geography in the News, available at: My research interests include (1) Matters of urban public space; (2) urban sociality and collective culture; and (3) the representation and imagination of cities and urban life. I welcome inquires from anyone considering doing a PhD and would be happy to discuss whether our interests make for a good match. ‘Sex(uality) &amp; the City: understanding the impact of locative media on urban queer geographies. Funding: ESRC +4 Interdisciplinary Award (with Dr. Yasmine Ibrahim in QMUL Business &amp; Management). I have engaged in an academic, volunteer and consultancy capacities with a number of groups related to my case study research, including the London Parks and Green Spaces Forum, Seattle’s Street Vendor Task Force, New York’s Street Vendor Project, A Better World Foundation, and the Harrow Road Neighbourhood Partnership. , a five-day series of talks, workshops, performances and events bringing together over 300 members from 30 academic departments at UCL and 20 outside organisations.</t>
+  </si>
+  <si>
+    <t>I am an historical geographer and social and economic historian working on nineteenth and twentieth-century Britain. I have a particular interest in Victorian London, which is also a core focus of my teaching interests and expertise. Key research themes: families and wealth: inheritance and the intergenerational transmission of resources, gender and investment practices, household economic strategies and colonial wealth Much of my work is interdisciplinary and collaborative and has been supported by a range of grants, including from the Economic and Social Research Council, the Arts and Humanities Research Council, the British Academy, the Philomathia Foundation and Isaac Newton Trust. I have undertaken research projects with Historians, Economists, Finance experts and Archaeologists (as well as with Geographers) and have collaborated on several projects with colleagues in London-based museums. , working with a panel of fellow geographers to determine the content of the new Geography A-level to be taught from 2016. Finally, I am also an independent member of the corporation (a governor) at and Green, D. R. (2016) ‘Historical geographies of wealth: opportunities, institutions and accumulation, c.1800–1930’ in J. Beaverstock and I. Hay (eds) Jeffries, N., Wehner, K. and Featherby, R. (2010) ‘Fragments of the modern city: material culture and the rhythms of everyday life in Victorian London’, I have always found teaching to be one of the most rewarding aspects of being an academic and I enjoy the challenges of finding different ways of engaging students with my own research and scholarship, as well as that of others. My belief is that people learn best in a supportive environment which offers a variety of opportunities to develop skills and understanding. Consequently my teaching frequently extends well-beyond the classroom and the traditional format of the lecture. Teaching modules on London provides the opportunity to explore the city on foot or to visit and work with my friends and colleagues in various London museums. Fieldwork is central to my teaching and for many years I have enjoyed taking first year undergraduate students to the North East of England to explore local landscapes and engage with a range of people to better understand how that region has experienced profound economic and social change. A new initiative is an undergraduate module, developed in conjunction with colleagues, examining the historical geography of the fascinating North American city of Boston, which culminates in a week-long visit to that city. I am also an enthusiast of new learning technologies, developing a range of on-line resources to help support students’ learning and incorporating social media into my teaching. I have been nominated for teaching prizes on several occasions and won the College’s Drapers’ Award for Excellence in Teaching in 2003. I have also led three small teaching and learning projects on developing students’ quantitative research skills, enhancing their employability through building relationships with alumni, and designing a new overseas field work module. For over a decade, I have also taught a course on nineteenth and twentieth Century London for the University of California London Fall Programme and currently co-teach this with the brilliant London historian and writer . I also lead occasional walks or give lectures on London’s history and geography for a range of other North American universities. I am an external examiner for undergraduate human geography programmes at the University of Brighton and a Chief Examiner for the University of London International Programmes. I was previously intercollegiate external examiner for the MA in Historical Research at the Institute for Historical Research. ‘The most valuable aspect of the course was Alastair’s wonderful attitude and teaching style. The well-organised lectures, the field walks and the way that Alastair makes everything so interesting and exciting’ Funded by the Philomathia Foundation and the Isaac Newton Trust, £109,284, August 2012–December 2014. With Martin Daunton (University of Cambridge) and David Green (King’s College London) and Postdoctoral Research Assistants Sam Shave and Lesley Hoskins (University of Cambridge). This project explores the social, economic and political significance of inheritance for middle-class families in late nineteenth and early twentieth-century Britain. It builds earlier work on this theme (also, in part, with David Green). Through a series of detailed empirical studies, our research has explored themes such as the intergenerational transmission of resources and the role of women in generating and passing on wealth. At a conceptual level, we have characterised such transfers as a form of middle-class ‘wealth-fare’ provision thereby seeking to widen the historiography of welfare beyond narrow concerns with emergent social policy and the origins of the welfare state – largely directed at support for the poor – to the wider regimes of assistance and provision that sustained people’s everyday lives. The current project will develop some of these arguments and will eventually lead to a book exploring the importance of inheritance and family property transmission for understanding social inequality and intergenerational well-being and justice. See our Funded by the Creativeworks London, Creativeworks Voucher , the Arts and Humanities Research Council, £15,000. May 2014–November 2014. With Eleanor John from the Geffrye Museum and Research Assistant Ananda Rutherford (Queen Mary) The aim is to research and develop visualisation models for presenting the Geffrye Museum's archive across digital platforms which will allow users to select, interrogate, organise and interpret data in new and innovative ways. It will help make the Geffrye's collections accessible to a wider range of audiences interested in domestic life in both the past and the present. The project involves working with colleagues in the digital humanities and media arts technology at Queen Mary and beyond as well as building links with creative firms in Tech City. The project sits within our Centre for Studies of Home. See Ananda’s project Empire, Consumption and Domestic Material Culture in London, c. 1600-1800: Tracing the East India Company in the Metropolitan Archaeological Record Funded as part of Queen Mary’s QResearchers scheme, £4,461.60. April 2015–September 2015. With Rupert Featherby (Museum of London Archaeology) and three undergraduate and one postgraduate student at Queen Mary. This project, in conjunction with colleagues at Museum of London Archaeology, aims to investigate the value of archaeological collections in revealing the spread and influence of Asian goods within the early modern metropolis. The East India Company supplied the British with a variety of new and exotic products from South Asia and beyond, shaping tastes and consumption habits in distinct and lasting ways. While we know a good deal about how such goods were consumed by elite households, we know less about their popularity and diffusion among the less wealthy, something that archaeological evidence promises to yield insights into. The project will employ 3 student researchers, and a postgraduate supervisor on a short term basic basis to work on the Museum of London’s collections and on the India Office records at the British Library. Funded by Queen Mary’s Centre for the Study of Migration, £2975, April 2013-October 2013. With Tim Brown and Postdoctoral Research Assistant Lesley Hoskins (both at Queen Mary, University of London). in Stepney. For the last three centuries the East End of London has been regarded as a place of settlement for people who are newly arrived to Britain. This project reverses this usual perspective by considering the East End as a place where individuals and institutions contemplated and prepared for leaving Britain for a life overseas. Specifically, it focuses on the work of Thomas Barnardo’s Ragged Schools and Children’s Homes in Stepney, where in the late nineteenth and early twentieth-century children departed Britain for the colonies, particularly Canada. The project will explore the charity’s migration policies within its own institutional goals and Barnardo’s evangelical and ideological visions and will examine how children were prepared both emotionally and physically for this social upheaval and made aware of their imperial lives ahead. Funded by the Arts and Humanities Research Council, AH/I022090/1, December 2011–December 2013, £291,336. With Catherine Nash (PI), Alison Blunt and Postdoctoral Research Assistant Caron Lipman (all at Queen Mary, University of London) This project focuses on the meanings, knowledges, practices and material dimensions of living with the past at home. It considers the significance of people's awareness of previous inhabitants of their home, or that which is deemed to be inherited from them, in framing domestic belonging, ownership, and aesthetic expression in the home, and the forms of historical knowledge and historical practice that are prompted, informed by and result from this awareness. The project involves collaboration with the Funded by Queen Mary’s Centre for Public Engagement, October 2012– June 2013, £9820. With Cathy McIlwaine (PI), Alison Blunt, Jane Wills and Postdoctoral Research Assistant Johanna Wadsley (all at Queen Mary, University of London). Inspired by the long history of strong communities and innovative civic engagement in London’s East End, the aim of this pilot research project is to examine the ways that companies are engaging with communities in the contemporary East End. The study focuses on companies based at Canary Wharf, examining the nature of contemporary corporate philanthropy, community engagement and CSR activities. As well as mapping the range of activities taking place, the project seeks to understand how company strategies are shaped by understandings of East London as a place of need and as a site for benevolence , as well as how they seeking to respond to current political-economic imperatives. Funded by the British Academy and Association of Commonwealth Universities, July 2011, £5000. With Martin Shanahan (University of South Australia). The project examines the ownership and transmission of wealth in Britain and several of its settler colonies between c.1850 and 1914. Working with colleagues in Australia (Martin Shanahan, University of South Australia), New Zealand (Jim McAloon, Victoria University of Wellington) Canada (Livio di Matteo, Lakehead University) and Britain (David Green, King’s College London), the research explores the significance of the financial opportunities, political structures and institutional mechanisms provided by the British empire in shaping the accumulation of wealth in different territories. Funded by the Economic and Social Research Council, Res-000-23-1435, December 2005–April 2008, £250,219. With David Green (PI, King’s College London), Josephine Maltby (University of York), Janette Rutterford (Open University) and Research Assistants Steven Ainscough, Carry, van Lieshout, Carien van Mourik and Claire Swan. This major project explored how individuals responded to the expansion of financial markets and new opportunities for investment in Britain and its empire in the late nineteenth and early twentieth centuries. There were two main strands to the study: the first involved the use of death duty records to analyse the composition of personal wealth portfolios; the second entailed a large scale study of shareholdings to examine the range and nature of personal investment practices. As the title of the project suggests, a key concern was with gender and the research adds important new evidence of women’s growing economic agency in an era of wider social and political change. I am also involved in several other collaborative research programmes which have been successful in securing research council funding to underpin PhD project research. Funded by the Economic and Social Research Council, Multidisciplinary Studentship Pilot Scheme, October 2013–October 2017, 3x4 year studentships. David Pinder (Lead, Queen Mary, University of London), (Queen Mary, University of London), Yasmin Ibrahim (Business Management, Queen Mary, University of London), Pat Healey, (Electronic Engineering and Computer Science, Queen Mary, University of London). Funded by the Arts and Humanities Research Council, Extended Collaborative Doctoral Award Programme, October 2012–October 2015, £250,464. Alison Blunt (Lead, Queen Mary, University of London), Colin Jones (History, Queen Mary, University of London), Al James (Queen Mary, University of London) Parvati Nair (Hispanic Studies, Queen Mary, University of London) Miles Ogborn (Queen Mary, University of London), Funded by Arts and Humanities Research Council, Collaborative Doctoral Award, October 2012–October 2015, £62,616. Tim Brown (Lead, Queen Mary, University of London) and Funded by the Arts and Humanities Research Council , Extended Collaborative Doctoral Award Programme, October 2010–October 2015, £181,000. Alison Blunt (Lead, Queen Mary, University of London), Miles Ogborn (Queen Mary, University of London), . Extended Collaborative Doctoral Award Programme. Alison Blunt (Lead, Queen Mary, University of London), Colin Jones (History Queen Mary, University of London, Al James (Queen Mary, University of London) Parvati Nair (Hispanic Studies, Queen Mary, University of London) Miles Ogborn (Queen Mary, University of London), Mapping philanthrocapitalism and corporate community engagement in East London. Cathy McIlwaine (Principal Investigator, Queen Mary, University of London), Alison Blunt (Co-investigator), Alastair Owens (Co-investigator) and Jane Wills (Co-investigator). . Extended Collaborative Doctoral Award Programme. Alison Blunt (Lead, Queen Mary, University of London), Miles Ogborn (Queen Mary, University of London), (Queen Mary, University of London), Kiera Vaclavik (French, Queen Mary, University of London) with the V&amp;A Museum of Childhood. October 2010–October 2015 (Co-investigator, Queen Mary, University of London) and Jospehine Maltby (University of York). Award no: Res-000-23-1435, December 2005–April 2008. Rated ‘Outstanding’ by all end of grant project Yvonne Carter (Principal Investigator, University of Warwick), Roland Petchey (Principal Investigator, City University), Jacky Williams (Senior Research Fellow, University of Warwick) , John, E. and Blunt, A. (2016) ‘At home with collaboration: building and sustaining a successful university-museum partnership’, in M. Shiach and T. Virani (eds) and Green, D. R. (2016) ‘Historical geographies of wealth: opportunities, institutions and accumulation, c.1800–1930’ in J. Beaverstock and I. Hay (eds) (2013) Centre for Studies of Home: a partnership between Queen Mary, University of London and the Geffrye Museum of the Home’ in R. Craggs, H. Geoghegan and I. M. Keighren (eds). and Green D. R. (2012) 'The final reckoning: using death duty records to research wealth holding in nineteenth-century England and Wales' , Swan, C. and Van Lieshout, C. (2011) ‘Assets of the dead: wealth, investment and modernity in nineteenth-century England and Wales’, in Green D. R., Owens, A., Maltby, J. and Rutterford, J. (eds) , Maltby, J. and Rutterford, J. (2011) ‘Introduction’, in Green D. R., Owens, A., Maltby, J. and Rutterford, J. (eds) Jeffries, N., Wehner, K. and Featherby, R. (2010) ‘Fragments of the modern city: material culture and the rhythms of everyday life in Victorian London’, , Rutterford, J. and Maltby, J. (2009) ‘Lives in the balance: age, gender and assets in late nineteenth-century England and Wales’. , Hicks, D., Featherby, R. and Wehner, K. (2009) ‘Rematerialising metropolitan histories? People, places and things in modern London’ in M. Palmer and A. Horning (eds) , Asadi-Lari, M., Petchey, R., Williams, J., and Carter, Y. H. (2008) ‘Knowledge and information needs of informal caregivers in palliative care: a qualitative systematic review’, , Green, D. R., Bailey, C. and Kay, A. (2006) ‘A measure of worth: probate valuations, personal wealth and in indebtedness in England, 1810–40,’ (2006) ‘“Making some provision for the contingencies to which their sex is particularly liable”: women and investment in early nineteenth-century England’ in Beachy, R., Craig, B. and Owens, A. (eds) and Randhawa, G. (2004) ‘“It’s different from my culture; they’re very different”: providing community-based ‘culturally competent’ palliative care for South Asians in the UK’, , Fitches, R. and Khan, Z. (2003) ‘Communication in the development of culturally competent palliative care services in the UK: a case study’, , Fitches, R., and Khan, Z. (2002) ‘“They tend to look after their own”: providing culturally competent palliative care for South Asian patients with terminal cancer in Luton’, in McGee, P. (ed.) (1997) ‘Thoughts on property, class and materiality: inheritance law, property transfer and middle class formation in nineteenth-century England’, in P. Shurmer-Smith, ed., I supervise students working on a variety of topics linked to my wider research interests. I welcome enquiries from prospective students interested in working with me on a broad range of themes including: the historical geographies of wealth and investment in the nineteenth and twentieth centuries; historical geographies of home, material culture and everyday life; and aspects of the social, economic and environmental history of nineteenth and twentieth-century Britain, especially Victorian London. I have a good track record of obtaining funds for, and working with, museums and other external organisations to supervise postgraduate research projects and am always interested in exploring new opportunities for collaboration. The Economy of Sacrifice? War Bond Holders and the Financing of the First World War, 1914–25 (AHRC Collaborative Doctoral Award with the Interfaith Connections at Home: Domestic Space, Practice and Dialogue in Contemporary London (AHRC Collaborative Doctoral Award, part of extended programme ‘Home and religion: space, practice and community in London from the seventeenth century to the present’ with the Men Juggling Work, Home and Family in Contemporary London (AHRC Collaborative Doctoral Award, part of extended programme ‘Home-Work: Connections and Transitions in London from the Seventeenth Century to the Present’ with the Adventures in the City: The Politics and Practice of Children’s Adventure Play in Britain, c. 1955-1997 (ESRC 1+3 CASE-style studentship with The Non-European World in the Lives of British Children, 1870–1930 (PhD awarded 2015, AHRC Collaborative Doctoral Award, part of extended programme ‘The Child and the World: Empire, Diaspora and Global Citizenship’ with V&amp;A Museum of Childhood) Now Curator at Jane Austen House Museum. Domestic Labour, Metropolitan Middle-Class households and the Wider World, 1850–1914 (AHRC Collaborative Doctoral Award, part of extended programme ‘Home-Work: Connections and Transitions in London from the Seventeenth Century to the Present’ with the Geffrye Museum) Now Researcher (Decorative Arts and Material Culture) at the National Maritime Museum. Reading the Inventory: Household Goods, Domestic Cultures and Difference in England and Wales, 1841–1881 (PhD awarded 2011, ESRC 1+3 CASE Studentship with Geffrye Museum) Currently Research Associate in the Department of History at Royal Holloway University of London. Reaching beyond the academic world to engage with a wide range of other organisations and individuals who share similar interests and passions has been a key feature of my work. Through a range of funded research projects and collaborative PhD programmes I have been working with several London-based museums and heritage organisations. I currently supervise PhD students funded via the Art and Humanities Research Council’s Collaborative Doctoral Award Scheme with colleagues at the . Their work is contributing to a variety of activities, including the creation of new learning programmes for school children, exhibitions and new gallery displays, and events and conferences for the wider public. Supported by QMUL’s Collaboration Fund, I led a project with colleagues resulting in a new permanent exhibition at the Ragged School Museum ‘ With Alison Blunt, Eithne Nightingale and Mile End films (and with a grant of £1000 from Queen Mary’s Centre for Public Engagement) we recently made the following film about the School of Geography’s Collaborative work with museums: – a jointly run research centre between Queen Mary and the Geffrye (underpinned by a grant of £9800 from Queen Mary’s Prospect fund to undertake out scoping and feasibility study). I currently sit on the steering group and am involved with several research and public engagement initiatives connected with the work of the Centre. A discussion of the recent work of the centre can be found in: , John, E. and Blunt, A. (2016) ‘At home with collaboration: building and sustaining a successful university-museum partnership’, in M. Shiach and T. Virani (eds) I also sit on the steering group of the newly formed Centre for Childhood Cultures, a joint venture between QMUL and the V&amp;A Museum of Childhood. With Professor Kiera Vaclavik (Comparative Literature) I will supervise a new four year, ESRC-funded doctoral project commencing in October 2016 involving significant public engagement activity: Adventures in the City: The Politics and Practice of Children’s Adventure Play in Britain, c. 1955-1997. I was part of the original team that bid for the funds to establish the Queen Mary-led, Arts and Humanities Research Council Knowledge Exchange Hub, (2012-16). I was a member of Creativeworks’ ‘Engaging London’s Audiences’ research cluster, drawing upon my insights and experiences of working with various of the city’s museums. I have also co-directed a Creativeworks Voucher Project ‘Making the invisible visible: enabling audiences to ‘see’ archive collections’ with Eleanor John at the Geffrye Museum for which Ananda Rutherford has undertaken the research. The aim is to research and develop visualisation models for presenting the Geffrye Museum's archive across digital platforms which will allow users to select, interrogate, organise and interpret data in new and innovative ways. The project has included work with scholars across the digital humanities and collaborations with contacts in Tech City. I have worked with various production companies to make contributions for Radio (e.g. BBC Radio 4 Making History) and Television programmes (e.g. BBC1 Inside Out, Who Do You Think You Are?), especially on themes relating to the history Victorian London. I welcome enquiries on topics relating to my research and teaching interests. for the National Archives and two of the walks that I use as part of my teaching have been adapted to become historical walking tours for the general public. Queen Mary’s A new project ‘Learning from our Past: The Sephardic Jewish Cemetery at Queen Mary’ undertaken with Caron Lipman in Geography and Nadia Valman in the School of English and Drama at Queen Mary (supported by a £5000 grant from Queen Mary Annual Fund) aims to develop a range of learning resources to enable Queen Mary students and staff to engage with the remarkable Novo Sephardic Jewish Cemetery that lies at the heart of the College’s Mile End campus. The cemetery has recently been the focus of a major landscaping and restoration project and in April 2014 it received a Grade II listing from English Heritage and was shortlisted for a RIBA prize. The cemetery is a unique and significant historical site that speaks to the long history of the East London as a place of migration and religious diversity. Its history is also interwoven with that of the College. Our project (running from January to May 2015) will include development of tailored resources to embed in the curriculum within different disciplines as well as on-line materials and student-led tours for use during Welcome Week and with external visitors. With my former colleague David Pinder I recently got to interview the writer and ‘psychogeographer’ Iain Sinclair about his work and its connections to London’s East End as part of the</t>
+  </si>
+  <si>
+    <t>Simon Lewis is Professor of Global Change Science at University College London, as a half time position. He holds an equivalent position at the University of Leeds. Simon was a Royal Society University Research Fellow (2004-2013), and in 2011 received a Philip Leverhulme Prize recognising the international impact of his research. In 2014 he was listed as one of the world’s most highly cited scientists in the Environment/Ecology field (see highlycited.com). He gained a PhD from the University of Cambridge studying in the Department of Plant Sciences. Simon is a plant ecologist by training with a central focus on the tropics and global environmental change including climate change. His primary interest is in how humans are changing the Earth as a system. This is because one of the key issues facing humanity in the 21 century will be to address how a population of at least 8 billion can lead fulfilled lives without breaching environmental thresholds that may cause serious social, economic and environmental disruption, or even more severe outcomes. The more specific focus of his research is to gain a synthetic understanding of the recent, current, and likely future compositional and functional trajectory of the tropical forest biome. That is, to understand how and why tropical forests are composed of the tree species that form these forests, understand their important functions, such as how much carbon they store and cycle, and understand how these systems are changing due to local, regional and global environmental changes, and ultimately how they may change in the future. Dr Lewis’ research on tropical forests and climate change has been covered by newspapers, TV and radio worldwide, including the BBC, CNN and the Professor Lewis’ research intersects several policy relevant areas, including tropical forests and their deforestation and degradation, climate change, biodiversity conservation, the prospects for indigenous peoples, rural poverty, and the global trade systems for products from tropical lands. Therefore, he is involved in both public understanding of science activities, such as writing newspaper commentary and giving public talks, and engages with policy makers. For example, Simon hit the headlines following a successful campaign to have a misleading article in the Sunday Times removed at the height of the poor reporting of climate change-related science following the collapse of the 2009 Copenhagen international negotiations and the release of some climate scientists emails (aka ‘climategate’). On the policy side, Simon assisted drafting of Inter-Academies Panel (IAP) statement on tropical forests and climate change released to coincide with the Copenhagen UN conference on climate change. IAP is a group of 103 national academies of science, including all the G20 countries. Simon has been interviewed on the BBC’s Today program several times, and occasionally contributes science-policy commentary pieces to the Simon has supervised or co-supervised nine successful PhD students, and currently supervises a further six students (three in Leeds). He has 31 successful grant applications from his PhD onwards that funded his PhD, post-doc and fellowship positions, obtained from ten funders including the National Environment Research Council, Royal Society, Leverhulme Trust, Government of Gabon, Gordon and Betty Moore Foundation, David and Lucile Packard Foundation. He has published 12 book chapters, 3 major databases and 90 peer-reviewed papers in leading journals, including in Professor Lewis founded and co-ordinates the only African network of on-the-ground tropical forests monitoring plots where individual trees are tagged and monitored over time, called AfriTRON (African Tropical Rainforest Observation Network). This requires extensive fieldwork in very remote locations. AfriTRON currently spans 10 countries across tropical Africa, and with its sister network in South America (RAINFOR) consists of &gt;500 locations and &gt;300,000 trees being monitored. They are housed in a data repository, co-founded by Professor Lewis, at , Sonké, B., Sunderland, T., Begne, S.K., Lopez-Gonzalez, G., van der Heijden, G.M., ...Zemagho, L. (2013). Above-ground biomass and structure of 260 African tropical forests. , Brando, P. M., Phillips, O. L., van der Heijden, G. M. F. &amp; Nepstad, D. (2011) The 2010 Amazon Drought. , Canadell J.G., Ciais P., Jackson R.B., Pacala S.W., McGuire A.D., Piao S.L., Rautiainen A., Sitch S. &amp; Hayes D. (2011). A Large and Persistent Carbon Sink in the World's Forests. , Hagen S., Petrova S., White L., Silman M. &amp; Morel A. (2011). Benchmark map of forest carbon stocks in tropical regions across three continents. , Lopez-Gonzalez G., Sonke B., Affum-Baffoe K., Baker T.R., Ojo L.O., Phillips O.L., Reitsma J.M., White L., Comiskey J.A., Djuikouo M.N., Ewango C.E.N., Feldpausch T.R., Hamilton A.C., Gloor M., Hart T., Hladik A., Lloyd J., Lovett J.C., Makana J.R., Malhi Y., Mbago F.M., Ndangalasi H.J., Peacock J., Peh K.S.H., Sheil D., Sunderland T., Swaine M.D., Taplin J., Taylor D., Thomas S.C., Votere R. &amp; Woll H. (2009b). Increasing carbon storage in intact African tropical forests. , Fisher J.B., Lloyd J., Lopez-Gonzalez G., Malhi Y., Monteagudo A., Peacock J., Quesada C.A., van der Heijden G., Almeida S., Amaral I., Arroyo L., Aymard G., Baker T.R., Banki O., Blanc L., Bonal D., Brando P., Chave J., de Oliveira A.C.A., Cardozo N.D., Czimczik C.I., Feldpausch T.R., Freitas M.A., Gloor E., Higuchi N., Jimenez E., Lloyd G., Meir P., Mendoza C., Morel A., Neill D.A., Nepstad D., Patino S., Penuela M.C., Prieto A., Ramirez F., Schwarz M., Silva J., Silveira M., Thomas A.S., ter Steege H., Stropp J., Vasquez R., Zelazowski P., Davila E.A., Andelman S., Andrade A., Chao K.J., Erwin T., Di Fiore A., Honorio E., Keeling H., Killeen T.J., Laurance W.F., Cruz A.P., Pitman N.C.A., Vargas P.N., Ramirez-Angulo H., Rudas A., Salamao R., Silva N., Terborgh J. &amp; Torres-Lezama A. (2009). Drought Sensitivity of the Amazon Rainforest. Baker T.R., Phillips O.L., Malhi Y., Almeida S., Arroyo L., Di Fiore A., Erwin T., Higuchi N., Killeen T.J., Laurance S.G., Laurance W.F., , Monteagudo A., Neill D.A., Vargas P.N., Pitman N.C.A., Silva J.N.M. &amp; Martinez R.V. (2004a). Increasing biomass in Amazonian forest plots. , Phillips O.L., Baker T.R., Lloyd J., Malhi Y., Almeida S., Higuchi N., Laurance W.F., Neill D.A., Silva J.N.M., Terborgh J., Lezama A.T., Martinez R.V., Brown S., Chave J., Kuebler C., Vargas P.N. &amp; Vinceti B. (2004b). Concerted changes in tropical forest structure and dynamics: evidence from 50 South American long-term plots. ., Lloyd J., Malhi Y., Monteagudo A., Neill D.A., Vargas P.N., Silva J.N.M., Terborgh J., Martinez R.V., Alexiades M., Almeida S., Brown S., Chave J., Comiskey J.A., Czimczik C.I., Di Fiore A., Erwin T., Kuebler C., Laurance S.G., Nascimento H.E.M., Olivier J., Palacios W., Patino S., Pitman N.C.A., Quesada C.A., Salidas M., Lezama A.T. &amp; Vinceti B. (2004). Pattern and process in Amazon tree turnover, 1976-2001. , Malhi, Y., Mendoza, A. M., Neill, D., Vargas, P. N., Alexiades, M., Ceron, C., Di Fiore, A., Erwin, T., Jardim, A., Palacios, W., Saldias, M. &amp; Vinceti, B. (2002) Increasing dominance of large lianas in Amazonian forests. Baker, et al. (2016) Consistent, small effects of treefall disturbances on the composition and diversity of four Amazonian forests. Journal of Ecology, Carlucci, et al. (2016) Phylogenetic composition and structure of tree communities shed light on historical processes influencing tropical rainforest diversity. Ecography Baker, T.R., Pennington, R. T., Magallon, S., Gloor, E., Laurance W. F., Alexiades, M., …Phillips, O.L. (2014). Fast demographic traits promote high diversification rates of Amazonian trees. , Lopez-Gonzalez, G., Brienen, R.J.W., Monteagudo, A., Baker, T.R., ...Phillips, O.L. (2014). Methods to estimate aboveground wood productivity from long-term forest inventory plots. , Marchant, R. (2013). Land use change and carbon fluxes in East Africa quantified using earth observation data and field measurements. Huntingford, C., Zelazowski, P., Galbraith, Mercado, L.M., Sitch, S., Fisher, R. A., ...Cox, P.M. (2013). Simulated resilience of tropical rainforests to CO2-induced climate change. Peh, K.S.-.H., Balmford, A., Bradbury, R.B., Brown, C., Butchart, S.H.M, ...Birch, J.C.. (2013). TESSA: A toolkit for rapid assessment of ecosystem services at sites of biodiversity conservation importance. Banin, L., Feldpausch, T. R., Phillips, O. L., Baker, T. R., Lloyd, J., Affum-Baffoe, K., Arets, E. J. M. M., Berry, N. J., Bradford, M., Brienen, R. J. W., Davies, S., Drescher, M., Higuchi, N., Hilbert, D. W., Hladik, A., Iida, Y., Salim, K. A., Kassim, A. R., King, D. A., Lopez-Gonzalez, G., Metcalfe, D., Nilus, R., Peh, K. S.-H., Reitsma, J. M., Sonké, B., Taedoumg, H., Tan, S., White, L., Wöll, H. &amp; , Feldpausch, T.R., Affum-Baffoe, K., Foli, E.G., ...Swaine, M.D. (2012). Drought-induced shifts in the floristic and functional composition of tropical forests in Ghana. , Collins M., Lefsky M.A., Leal M.E., Woodhouse I.H. &amp; Meir P. (2012). Mapping tropical forest biomass with radar and spaceborne LiDAR in Lope National Park, Gabon: overcoming problems of high biomass and persistent cloud. , Quesada C.A., Affum-Baffoe K., Arets E., Berry N.J., Bird M., Brondizio E.S., de Camargo P., Chave J., Djagbletey G., Domingues T.F., Drescher M., Fearnside P.M., Franca M.B., Fyllas N.M., Lopez-Gonzalez G., Hladik A., Higuchi N., Hunter M.O., Iida Y., Salim K.A., Kassim A.R., Keller M., Kemp J., King D.A., Lovett J.C., Marimon B.S., Marimon B.H., Lenza E., Marshall A.R., Metcalfe D.J., Mitchard E.T.A., Moran E.F., Nelson B.W., Nilus R., Nogueira E.M., Palace M., Patino S., Peh K.S.H., Raventos M.T., Reitsma J.M., Saiz G., Schrodt F., Sonke B., Taedoumg H.E., Tan S., White L., Woll H. &amp; Lloyd J. (2011). Height-diameter allometry of tropical forest trees. , Burgess N.D., Malimbwi R.E., Munishi P.K., Swetnam R.D., Turner R.K., Willcock S. &amp; Balmford A. (2011a). Implementation and opportunity costs of reducing deforestation and forest degradation in Tanzania. , Burgess N.D., Malimbwi R.E., Munishi P.K., Swetnam R.D., Turner R.K., Willcock S. &amp; Balmford A. (2011b). Implementation and opportunity costs of reducing deforestation and forest degradation in Tanzania (vol 1, pg 161, 2011). Kattge J., Diaz S., Lavorel S., Prentice C., Leadley P., Bonisch G., Garnier E., Westoby M., Reich P.B., Wright I.J., Cornelissen J.H.C., Violle C., Harrison S.P., van Bodegom P.M., Reichstein M., Enquist B.J., Soudzilovskaia N.A., Ackerly D.D., Anand M., Atkin O., Bahn M., Baker T.R., Baldocchi D., Bekker R., Blanco C.C., Blonder B., Bond W.J., Bradstock R., Bunker D.E., Casanoves F., Cavender-Bares J., Chambers J.Q., Chapin F.S., Chave J., Coomes D., Cornwell W.K., Craine J.M., Dobrin B.H., Duarte L., Durka W., Elser J., Esser G., Estiarte M., Fagan W.F., Fang J., Fernandez-Mendez F., Fidelis A., Finegan B., Flores O., Ford H., Frank D., Freschet G.T., Fyllas N.M., Gallagher R.V., Green W.A., Gutierrez A.G., Hickler T., Higgins S.I., Hodgson J.G., Jalili A., Jansen S., Joly C.A., Kerkhoff A.J., Kirkup D., Kitajima K., Kleyer M., Klotz S., Knops J.M.H., Kramer K., Kuhn I., Kurokawa H., Laughlin D., Lee T.D., Leishman M., Lens F., Lenz T., , Lloyd J., Llusia J., Louault F., Ma S., Mahecha M.D., Manning P., Massad T., Medlyn B.E., Messier J., Moles A.T., Muller S.C., Nadrowski K., Naeem S., Niinemets U., Nollert S., Nuske A., Ogaya R., Oleksyn J., Onipchenko V.G., Onoda Y., Ordonez J., Overbeck G., Ozinga W.A., Patino S., Paula S., Pausas J.G., Penuelas J., Phillips O.L., Pillar V., Poorter H., Poorter L., Poschlod P., Prinzing A., Proulx R., Rammig A., Reinsch S., Reu B., Sack L., Salgado-Negre B., Sardans J., Shiodera S., Shipley B., Siefert A., Sosinski E., Soussana J.F., Swaine E., Swenson N., Thompson K., Thornton P., Waldram M., Weiher E., White M., White S., Wright S.J., Yguel B., Zaehle S., Zanne A.E. &amp; Wirth C. (2011). TRY - a global database of plant traits. , Burkitt M. &amp; Phillips O.L. (2011). ForestPlots.net: a web application and research tool to manage and analyse tropical forest plot data. , Feldpausch T.R., Gerard F.F., Woodhouse I.H. &amp; Meir P. (2011a). Comment on 'A first map of tropical Africa's above-ground biomass derived from satellite imagery'. , Feldpausch T.R., Woodhouse I.H., Sonke B., Rowland C. &amp; Meir P. (2011b). Measuring biomass changes due to woody encroachment and deforestation/degradation in a forest-savanna boundary region of central Africa using multi-temporal L-band radar backscatter. , Nusbaumer L., Sheil D., Sosef M.S.M., Affum-Baffoe K., Bakayoko A., Chuyong G.B., Chatelain C., Comiskey J.A., Dauby G., Doucet J.L., Fauset S., Gautier L., Gillet J.F., Kenfack D., Kouame F.N., Kouassi E.K., Kouka L.A., Parren M.P.E., Peh K.S.H., Reitsma J.M., Senterre B., Sonke B., Sunderland T.C.H., Swaine M.D., Tchouto M.G.P., Thomas D., Van Valkenburg J. &amp; Hardy O.J. (2011). Predicting alpha diversity of African rain forests: models based on climate and satellite-derived data do not perform better than a purely spatial model. Peh K.S.H., Sonke B., Lloyd J., Quesada C.A. &amp; Lewis S.L. (2011b). Soil Does Not Explain Monodominance in a Central African Tropical Forest. , Burgess N.D., Marshall A.R., Balmford A., Swetnam R.D. &amp; Zahabu E.M. (2011). Carbon storage, structure and composition of miombo woodlands in Tanzania's Eastern Arc Mountains. Swetnam R.D., Fisher B., Mbilinyi B.P., Munishi P.K.T., Willcock S., Ricketts T., Mwakalila S., Balmford A., Burgess N.D., Marshall A.R. &amp; , Hill J.K., Edwards D.P., Tawatao N.B., Ahmad N., Magintan D., Khen C.V., Maryati M., Ong R.C. &amp; Hamer K.C. (2010). The high value of logged tropical forests: lessons from northern Borneo. Burgess N.D., Bahane B., Clairs T., Danielsen F., Dalsgaard S., Funder M., Hagelberg N., Harrison P., Haule C., Kabalimu K., Kilahama F., Kilawe E., , Lovett J.C., Lyatuu G., Marshall A.R., Meshack C., Miles L., Milledge S.A.H., Munishi P.K.T., Nashanda E., Shirima D., Swetnam R.D., Willcock S., Williams A. &amp; Zahabu E. (2010). Getting ready for REDD plus in Tanzania: a case study of progress and challenges. &amp; Thornton P.K. (2010). Implications of future climate and atmospheric CO2 content for regional biogeochemistry, biogeography and ecosystem services across East Africa. Baker T.R., Phillips O.L., Laurance W.F., Pitman N.C.A., Almeida S., Arroyo L., DiFiore A., Erwin T., Higuchi N., Killeen T.J., Laurance S.G., Nascimento H., Monteagudo A., Neill D.A., Silva J.N.M., Malhi Y., Gonzalez G.L., Peacock J., Quesada C.A., , Malhi Y., Baker T.R., Lopez-Gonzalez G., Peacock J., Almeida S., de Oliveira A.C.A., Alvarez E., Amaral I., Arroyo L., Aymard G., Banki O., Blanc L., Bonal D., Brando P., Chao K.J., Chave J., Davila N., Erwin T., Silva J., Di Fiore A., Feldpausch T.R., Freitas A., Herrera R., Higuchi N., Honorio E., Jimenez E., Killeen T., Laurance W., Mendoza C., Monteagudo A., Andrade A., Neill D., Nepstad D., Vargas P.N., Penuela M.C., Cruz A.P., Prieto A., Pitman N., Quesada C., Salomao R., Silveira M., Schwarz M., Stropp J., Ramirez F., Ramirez H., Rudas A., ter Steege H., Silva N., Torres A., Terborgh J., Vasquez R. &amp; van der Heijden G. (2009). Does the disturbance hypothesis explain the biomass increase in basin-wide Amazon forest plot data? , Lloyd J., Sitch S., Mitchard E.T.A. &amp; Laurance W.F. (2009a). Changing Ecology of Tropical Forests: Evidence and Drivers. In: Malhi Y., Wood D., Baker T.R., Wright J., Phillips O.L., Cochrane T., Meir P., Chave J., Almeida S., Arroyo L., Higuchi N., Killeen T.J., Laurance S.G., Laurance W.F., , Monteagudo A., Neill D.A., Vargas P.N., Pitman N.C.A., Quesada C.A., Salomao R., Silva J.N.M., Lezama A.T., Terborgh J., Martinez R.V. &amp; Vinceti B. (2006). The regional variation of aboveground live biomass in old-growth Amazonian forests. , Lopez-Gonzalez G., Aragao L., Lloyd J., Malhi Y., Monteagudo A., Almeida S., Davila E.A., Amaral I., Andelman S., Andrade A., Arroyo L., Aymard G., Baker T.R., Blanc L., Bonal D., de Oliveira A.C.A., Chao K.J., Cardozo N.D., da Costa L., Feldpausch T.R., Fisher J.B., Fyllas N.M., Freitas M.A., Galbraith D., Gloor E., Higuchi N., Honorio E., Jimenez E., Keeling H., Killeen T.J., Lovett J.C., Meir P., Mendoza C., Morel A., Vargas P.N., Patino S., Peh K.S.H., Cruz A.P., Prieto A., Quesada C.A., Ramirez F., Ramirez H., Rudas A., Salamao R., Schwarz M., Silva J., Silveira M., Slik J.W.F., Sonke B., Thomas A.S., Stropp J., Taplin J.R.D., Vasquez R. &amp; Vilanova E. (2010). Drought-mortality relationships for tropical forests. Parmentier I., Malhi Y., Senterre B., Whittaker R.J., Alonso A., Balinga M.P.B., Bakayoko A., Bongers F., Chatelain C., Comiskey J.A., Cortay R., Kamdem M.N.D., Doucet J.L., Gautier L., Hawthorne W.D., Issembe Y.A., Kouame F.N., Kouka L.A., Leal M.E., Lejoly J., , Nusbaumer L., Parren M.P.E., Peh K.S.H., Phillips O.L., Sheil D., Sonke B., Sosef M.S.M., Sunderland T.C.H., Stropp J., Ter Steege H., Swaine M.D., Tchouto M.G.P., van Gemerden B.S., van Valkenburg J. &amp; Woll H. (2007). The odd man out? Might climate explain the lower tree alpha-diversity of African rain forests relative to Amazonian rain forests? Baker T.R., Phillips O.L., Malhi Y., Almeida S., Arroyo L., Di Fiore A., Erwin T., Killeen T.J., Laurance S.G., Laurance W.F., , Lloyd J., Monteagudo A., Neill D.A., Patino S., Pitman N.C.A., Silva J.N.M. &amp; Martinez R.V. (2004b). Variation in wood density determines spatial patterns in Amazonian forest biomass. , Phillips O.L., Sheil D., Vinceti B., Baker T.R., Brown S., Graham A.W., Higuchi N., Hilbert D.W., Laurance W.F., Lejoly J., Malhi Y., Monteagudo A., Vargas P.N., Sonke B., Supardi N., Terborgh J.W. &amp; Martinez R.V. (2004c). Tropical forest tree mortality, recruitment and turnover rates: calculation, interpretation and comparison when census intervals vary. Malhi Y., Baker T.R., Phillips O.L., Almeida S., Alvarez E., Arroyo L., Chave J., Czimczik C.I., Di Fiore A., Higuchi N., Killeen T.J., Laurance S.G., Laurance W.F., , Montoya L.M.M., Monteagudo A., Neill D.A., Vargas P.N., Patino S., Pitman N.C.A., Quesada C.A., Salomao R., Silva J.N.M., Lezama A.T., Martinez R.V., Terborgh J., Vinceti B. &amp; Lloyd J. (2004). The above-ground coarse wood productivity of 104 Neotropical forest plots. Malhi Y., Phillips O.L., Lloyd J., Baker T., Wright J., Almeida S., Arroyo L., Frederiksen T., Grace J., Higuchi N., Killeen T., Laurance W.F., Leano C., , Meir P., Monteagudo A., Neill D., Vargas P.N., Panfil S.N., Patino S., Pitman N., Quesada C.A., Rudas-Ll A., Salomao R., Saleska S., Silva N., Silveira M., Sombroek W.G., Valencia R., Martinez R.V., Vieira I.C.G. &amp; Vinceti B. (2002). An international network to monitor the structure, composition and dynamics of Amazonian forests (RAINFOR). , Higuchi N., Laurance W.F., Vargas P.N., Martinez R.V., Laurance S., Ferreira L.V., Stern M., Brown S. &amp; Grace J. (2002a). Changes in growth of tropical forests: Evaluating potential biases. , Malhi Y., Mendoza A.M., Neill D., Vargas P.N., Alexiades M., Ceron C., Di Fiore A., Erwin T., Jardim A., Palacios W., Saldias M. &amp; Vinceti B. (2002b). Increasing dominance of large lianas in Amazonian forests. (2013) Recent changes in Amazon forest biomass, dynamics, and composition. In Amazonia and Global Change. Editors: Keller M, Gash J, Dias PS. , Phillips, O.L. &amp; Baker, T.R. (2007) Impacts of Global Change on the Structure, Dynamics and Function of South American Tropical Forests. Pages 15-31. In , Baker T.R., Malhi Y. (2007) The response of South American tropical forests to contemporary atmospheric change. In Tropical Rain Forest Responses to Climate Change . Editors: Bush M, Flenley J. 317-332. Springer. , Baker, T.R., and Malhi, Y. (2006). The response of South American tropical forests to contemporary atmospheric change. Pages 317-332. In , Malhi, Y. &amp; Phillips, O.L. (2005) Predicting the impacts of global environmental changes on tropical forests. Pages 41-56. In , Phillips, O.L., Baker, T. R., Lloyd, J., Malhi, Y., Almeida, S., Higuchi, N., Laurance, W. F., Neill, D., Silva, N., Terborgh, J., Torres-Lezama, A., Brown, S., Chave, J., Kuebler, C., Nunez, P., Vasquez, M.R. &amp; Vinceti, B. (2005) Late twentieth century trends in the structure and dynamics of South American forests. Pp 143-154. In , Lloyd, J.J., Malhi, Y., Monteagudo, A., Neill, D., Nunez Vargas, P., Silva, N., Terborgh J., Vasquez, M., Alexiades, M., Almeida, S., Brown, S., Chave J., Comiskey, J., Czimczik, C., Di Fiore, A., Erwin, T., Kuebler C., Laurance, S.G., Nascimento, H.E.M., Olivier, J., Palacios, W., Patino, S., Pitman, N., Quesada C.A., Saldias, M., Torres Lezama, A. (2005) Late twentieth-century patterns and trends in Amazon tree turnover. Pages 107-128. In: Baker, T.R., Phillips, O.L., Malhi, Y., Almeida, S., Arroyo, L., Di Fiore, A., Erwin, T., Higuchi, N., Killeen, T.J., Laurance, S.G., Laurance, W.F., , Monteagudo, A., Neill, D.A., Vargas, P.N., Pitman, N., Silva, N.M., Martinez, R.V. (2005) Late twentieth-century trends in the biomass of Amazonian forest plots. Pages 129-142. In This long-term project collects and collates long-term phytodemographic data to better understand large-scale changes within tropical forests to global environmental change. Currently funded by the EU GEOCARBON program, Phillip Leverhulme Prize and ERC Advanced Grant called T-FORCES, tropical forests and the changing earth system. Pan, Y., Birdsey, R.A., Fang, J., Houghton, R., Kauppi, P.E., Kurz, W.A., Phillips, O.L., Shvidenko, A., Lewis, S.L., Canadel, J.G., Cias, P. Jackson, R.B., Pacala, S.W., McGuire, D.A., Piao, S., Shilong, R., Sitch, S., Hayes, D. (2011). A large and persistent carbon sink in the world's forests. This long-term project collects and collates collates long-term phytodemographic data to better understand African tropical forests, as part of the African Tropical Rainforest Observatory Network ( ). Currently funded by the EU GEOCARBON program, Phillip Leverhulme Prize and ERC Advanced Grant called T-FORCES, tropical forests and the changing earth system. Lewis, S.L., Lopez-Gonzalez, G., Sonke, B., Affum-Baffoe, K., Baker, T.R., Ojo, L.O., ...Wöll, H. (2009). Increasing carbon storage in intact African tropical forests. The long-term project collects and collates collates long-term phytodemographic data to better understand the commonalities and differences amongst the three major tropical continents, Latin America, Africa and SE Asia, with a major focus on Amazonia, the Congo Basin and Borneo. Currently funded by the EU FP7 GEOCARBON program, A project to quantify the impacts of differing management techniques to restore degraded lands to increase carbon storage and biodiversity. We ask: the such interventions worth the investment, or is merely waiting for nature restore itself enough? Includes fieldwork in Uganda and Malaysia, led by PhD student Charlotte Wheeler, and funded by NERC and Permian Global. This project was designed to discover and quantify the extent of peat underlying the swamp forest of the cuvette centrale of the Congo Basin, understand how the system functions and how much carbon the system stores. Consisted of several field campaigns to central Congo, led by Leeds PhD student Greta Dargie. Forthcoming papers likely soon. Funded by NERC, Wildlife Conservation Society and a Phillip Leverhulme Prize. See: I am assisting the government of Gabon in designing and implementing a national forest and carbon monitoring program, in collaboration with Duke University and University of California-Los Angeles. See: There is some controversy about both remotely sensed data for monitoring tropical forest and the carbon they store (as satellite data is an indirect estimate of forest biomass and carbon), and ground-based inventory plot measurements (as they are generally at a very low sampling density, if we are concerned about making inferences over large spatial scales, and are also an indirect estimate of forest biomass and carbon). My view is that combining both techniques is essential to providing the most accurate measurements of tropical forest biomass and carbon storage. Funded by the EU GEOCARBON program, Mitchard, E.T.A., Feldpausch, T.R., Brienen, R.J.W., Lopez-Gonzalez, G., Monteagudo, A., Baker, T.R., Lewis, S.L., ...Phillips, O. (2014). Markedly divergent estimates of Amazon forest carbon density from ground plots and satellites. Saatchi, S., Harris, N.L., Brown, S., Lefsky, M., Mitchard, E.T.A., Salas, W., Zutta, B.R., Buermass, W., Lewis S.L., Hagen, S., Petrova, S., While, L., Silman, M., Morel, A. (2011). Benchmark map of forest carbon stocks in tropical regions across three continents. I have been collecting and analysing, for physical and chemical characteristic, soil from as many of the long-term forest inventory plots as possible, to begin improving our understanding of soil physical and chemical factors on forest growth, dynamics and carbon balance. An early paper utilising this data showed that after accounting for soil fertility Asian forests were considerably more productive (in terms of aboveground wood production) than Amazonian forests (Banin et al. 2014). I have been developing a new research program on the Anthropocene, the idea that human activity has altered the Earth System so dramatically they we are now the major driver of in the Earth System today, and so we have entered a new geological epoch, termed the time of humans, the Anthropocene. First papers on this should be published in 2015, and new PhD student beginning research on this topic shortly. My research includes major contributions to networks of long-term tropical forest inventory plots, which now constitute a pan-tropical on-the-ground observatory of tropical forests. This is an international networks of scientists (from &gt;50 institutions, &gt;250 participants and &gt;30 nations) using standardised methods developed, honed and propagated across the tropics. This enables, for the first time, the use of on-the-ground observations to make a direct evaluation of the role of tropical forests in the global carbon cycle and to assess their sensitivity to climate change (Lewis et al. 2009; ). As well as having a major impact on international debates on the future trajectory of climate change and appropriate policy responses, this work is influencing national-scale efforts across the tropics to monitor forests in the face of climate change and to reduce carbon emissions from deforestation and degradation. Various research impacts are summarised below. Dr Lewis founded and co-manages a network of long-term inventory plots across 12 countries in tropical Africa (Lewis et al. 2013, ). This network has contributed to forest management in Gabon, for which Dr Lewis was a technical advisor to the government of Gabon, at the UN climate change talks in 2009 (Copenhagen), 2010 (Cancun), and contributed data to [The National Climate Plan] of Gabon. Additionally, Lewis acted as a technical advisor to the government of Gabon at the Central African Forest Commission (COMIFAC) to discuss how carbon storage and carbon fluxes in the Congo Basin should be monitored. Currently, Lewis alongside John Poulsen (Duke University) and Sassan Saatchi (NASA Jet Propulsion Lab, UCLA) are assisting the government of Gabon in a national forest monitoring program. Dr Lewis was also an external consultant for Centre for International Forestry planning phase of the pan-tropical USD100 million ‘Sentinal Landscapes’ program. : This is a global repository for long-term forest inventory data, co-founded with Prof Oliver Phillips, Dr Tim Baker and Dr Gabriela Lopez-Gonzalez (all University of Leeds). Extracted data has been used in &gt;50 publications, resulting in &gt;1000 articles across print, TV and radio worldwide. Contained within the foresplots.net database is the global wood density database, co-created by Lewis (led by Amy Zanne, George Washington University), itself the most downloaded dataset on the datadryad repository. (ground monitoring) measurements, with atmospheric measurements and models to monitor the emissions of carbon from human activity, with the stores and fluxes of carbon in the atmosphere and across the world’s land surface and oceans to give a comprehensive understanding of the global carbon cycle and how humans have perturbed it. The AfriTRON plot network contributes to GEOCARBON. This EU funded Euro8.8million project is a precursor to an operational global monitoring system. While it is the job of society generally to determine policy positions, politicians to formally define agreed rules, and citizens and the judiciary to hold politicians to account, scientists can contribute to societal debates via timely information to assist the public in their decisions. Dr Lewis has contributed to this, for example, back in 2005 the UK government distributed a paper of his on tropical forests and avoiding dangerous climate change to other countries at the UN climate talks in Montreal (published as Lewis et al. 2006, in , Edited by Schellnhuber et al.). In 2009, Dr Lewis contributed to drafting the InterAcademies Panel (the global network of science academies) on tropical forests and climate change ( ). More recently he published a short piece in response to the UN Rio+20 conference on some of the difficulties of deciding on and implementing planetary boundaries (Lewis 2012 ). Dr Lewis also spend a week in the European Parliament shadowing an MEP (Linda McAvan) to learn about how policy-makers do their work. Dr Lewis serves on the Conservation Committee of the Association for Tropical Biodiversity and Conservation, the world’s largest scientific society focusing on tropical biodiversity. The committee releases timely reports to assist choices when specific policies, projects or activities may negatively impact biodiversity and the people who directly rely on it. : Dr Lewis is regularly asked for comment on climate change, tropical forests, and scientific research more generally. Has his research and opinions have been reported by The Australian, BBC Radio 4 Today program, BBC 1- O’Clock News, BBC World Service, BBC Radio 1 Newsbeat, BBC 5 Live, Canadian Broadcasting Corporation, CNN, The Ecologist, Financial Times, Guardian, New Scientist, New York Times, Folha de São Paulo (Brazil), Red Pepper, The Telegraph, The Times and other newspapers worldwide. For example see, : Dr Lewis has given lectures at as diverse locations as the Natural History Museum, as part of the Sebastião Salgado ‘Genesis’ exhibition (2013 on Science and exploration), the British Film Institute (2010, on Gaia theory), the ‘Reclaim the Power’ anti-fracking protest camp at Balcombe (2013, basics of climate change science), and in front of hundreds of riot police at the Camp for Climate Action protest outside the European Carbon Exchange (2009, basics of climate change science). Telegraph (2011) 'World's forests absorb almost 40 per cent of man-made CO2.' Report Pan et al. Science paper), 18 August 2011 Independent (2011) China’s power stations generate ‘future spike’ in global warming. SL comment on relative roles or aerosols &amp; CO2, 5 July. Radio 4 Today (2010), SL commenting about an alleged Intergovernmental Panel on Climate Change mistake relating to the vulnerability of the Amazon rainforest to climate change-induced drought. 30 Jan. Sunday Times (2010), report the opposite of my views on the IPCC and Amazon rainforest vulnerability to climate change induced droughts, 31 January. Guardian (2009) Firth of world carbon emissions soaked up by extra forest growth, 18 February. Report on Lewis et al. 2009 African tropical forest carbon sink paper in Nature. Andy Burt. Funded by a NERC CASE studentship. Quantifying forest state and degradation: exploiting new measurements and models. 2nd supervisor. There are a large number of researchers at UCL working on biodiversity-related topics, across Geography, the Centre for Biodiversity and Environment Research (CBER), the Environment Institute, Earth Sciences, Anthropology, the Energy Institute, Archaeology, Genetics, Evolution and Environment (GEE) and others. The Biodiversity Forum and Seminar Series is a chance to talk across departments and faculty, to foster greater collaboration (particularly now the NERC DTP is funded which can facilitate cross-departmental PhD projects). November, and meets on the third Tuesday of every Month, at 4pm, room 432, No. 16 Taviston Road (fourth floor, UCL School of Slavonic Studies building), or occasionally other nearby rooms within the same building. The Forum is intended for post-docs and staff as well as ma</t>
+  </si>
+  <si>
+    <t>Current research explores the interface between the disciplines of geography and ethics (or moral philosophy). The purpose is to develop a more rigorous understanding of normative issues in geography, and in particular those associated with inequality and social injustice. The first phase involved a thorough exploration of literature in moral philosophy, in general and as it bears on (human) geographical inquiry. This has provided the foundation for papers discussing moral issues in development, the spatial scope of beneficence, and moral aspects of community, as well as reviews of work at the interface of geography and ethics which attempts to identify common ground. The work also explores other issues, such as the notion of 'moral geographies', the moral significance of boundaries and movement, entitlement to land and natural resources, and aspects of social justice. As well as being concerned with moral theory, the research involves case studies. These provide contextual understanding, or the 'thickening' of such 'thin' general concepts as rights and social justice. The cases explore moral issues in South Africa after apartheid, the changing 'moral landscape' of the east European city, and conflict over land and settlement in Israel/Palestine. The research was supported by a Leverhulme Fellowship from July 1997 to December 1998, and culminated in a book Moral Geographies: Ethics in a World of Difference. Smith, D. M. (1995) Redistribution and social justice after apartheid. A Lemon (editor), The Geography of Change in South Africa (London, Belhaven), 45–64. Smith, D. M. (1996) The socialist city. G Andrusz, M Harloe and I Szelenyi (editors), Cities after Socialism: Urban and Regional Change and Conflict in Post-Socialist Societies (Oxford, Blackwell), 70–99. Smith, D. M. (1998) How far should we care? On the spatial scope of beneficence. Progress in Human Geography, 22, 15–38. Smith, D. M. (1999) Social justice and the ethics of development in post-apartheid South Africa, Ethics, Place and Environment, 2, 157–77 Smith, D. M. (2000) Moral progress in human geography: transcending the place of good fortune, Progress in Human Geography, 24, 1–18.</t>
+  </si>
+  <si>
+    <t>Roger Lee's research interests focus around the social/cultural construction of economic geographies. Of particular interest are the ways in which the norms and values of capitalism are insinuated into, and at the same time resisted in the social construction of, economic geographies at a variety of scales. Lee R 2014 (managing editor) (with Castree N Kitchen R Lawson V Paasi A Philo C Roberts S Withers C W J) Lee R 2013 The Possibilities of Economic Difference? Social Relations of Value, Space and Economic Geographies in Zademach H-M and Hillebrand S eds Lee R 2011 Acts of theory and violence: can the worlds of economic geographies be left intact? ch 3 in Pollard J McEwan C and Hughes A eds Lee R 2011 Spaces of hegemony? Circuits of value, finance capital and places of economic knowledge. ch 14 in Agnew J A and Livingstone D N eds Lee R 2011 Withn and outwith/material and political? Local economic development and the spatialities of economic geographies. ch 17 in Pike A Rodríguez-Pose and Tomaney eds Lee R 2011 Ordinary economic geographies : Can economic geographies be non-economic? ch 24 in Leyshon A Lee R McDowell L and Sunley P eds Lee R 2010 Spiders, bees or architects? Imagination and the radical immanence of alternatives/diversity for political economic geographies. Part V ch 17 in Fuller D Jonas AEG and Lee R eds Lee R 2010 Economic society/Social geography ch 8 in Smith S J Pain R Marston S A and Jones J P eds</t>
+  </si>
+  <si>
+    <t>The realms of meso-scale meteorology cover atmospheric circulations with characteristic horizontal dimensions of 10-100 km. Within this field the research concentrates on numerical modelling of flows at the small end of the meso-scale range. These flows are thermally generated due to the inhomogeneity of the surface and have significance in the contexts of both pure and applied science. The most obvious applications of increased understanding of the flows are in weather forecasting and air pollution studies. The research programme uses two numerical models developed in the Meteorological Office: one is a meso-scale model; the other is at a much smaller scale (virtually a Large Eddy Simulation model), appropriate for analysis of flows on the scale of 100 m. They are currently being used to analyse: both daytime and night-time flows over slopes and in valleys, concentrating upon the effects of orography, stability, entrainment, radiation and internal turbulence structure upon the creation, development and demise of the near-surface flows; the effects of polynyas on the Antarctic boundary layer; the propagation environment in coastal areas; and the urban boundary layer. Currently, two post-doctoral research assistants work on these topics. Collaboration with the Meteorological Office is particularly good. We also have links with the Joint Centre for Meso-scale Meteorology at the University of Reading and the European Research Community on Flow, Turbulence and Combustion (ERCOFTAC). The latter is a Europe-wide organization linking research groups with interests in fluid flows over a wide range of scales. The research has been funded by NERC, ODA, the British Council, the Foreign and Commonwealth Office, Ministry of Defence and the Meteorological Office. Dare, R. A. and Atkinson, B. W. 1999 Numerical modelling of atmospheric response to polynyas in the Southern Ocean sea ice zone. Dare, R. A. and Atkinson, B. W. 2000 Atmospheric response to spatial variations in concentration and size of polynyas in the Southern Ocean sea ice zone. Atkinson, B. W., Li, J.-G. and Plant, R. S. 2001 Numerical modelling of the propagation environment in the atmospheric boundary layer over the Persian Gulf. Zhu, M. and Atkinson, B. W. 2004 Observed and modelled climatology of the land-sea breeze circulation over the Persian Gulf.</t>
+  </si>
+  <si>
+    <t>I did my undergraduate, Hons and MA studies in Geography at the University of KwaZulu-Natal, Durban, followed by a PhD in Geography at the University of Cambridge. I worked for some years in the first of half of the 1990s at University of KwaZulu-Natal, before some time at the LSE and then a good long stint at The Open University, with a super group of colleagues working collectively on what it might mean to think spatially. I have been at UCL since October 2009. Here I am active in the 2015. with Ananya Roy (co-edited and joint introduction) “Global Urbanisms and the Nature of Urban Theory”, International Journal of Urban and Regional Research Debates and Developments Symposium. 2014. ‘Competitive cities or competing agendas?’ in Le Blanc, A., Piermay, J-L. Gervais-Lambony, P, Giroud, M., Pierdet, C.and Rufat, S. (eds) 2014. New Geographies of Theorising the Urban: Putting Comparison to Work for Global Urban Studies, in S. Parnell and S. Oldfield (eds) 2014. Comparative Urbanism Virtual Issue, editorial on Comparative Urbanism, “In the archives of comparative urbanism”, International Journal of Urban and Regional Research, 2011. 'Cities in a World of Cities: The comparative gesture' International Journal of Urban and Regional Research, 35, 1: 1-23. 2011. (with Sue Parnell). Travelling Theory: Embracing post-neoliberalism through Southern Cities, in G. Bridge and S. Watson (eds) New Companion to Urban Studies. Oxford: Blackwells. 2011. The Spaces of Circulating Knowledge: City Strategies and Global Urban Governmentality in E. McCann and K. Ward (eds) Mobile Urbanism. Minnesota: University of Minnesota Press. 2010. 'Living in Dystopia: Past, present and future in Noir Urbanisms, (ed) Gyan Prakash. Princeton: Princeton University Press, pgs 218-240. 2008. Continuities and Discontinuities in South African Local Government. In M. van Donk, Swilling, M, Pieterse, E. and Parnell, S. (eds) Consolidating Developmental Local Government: Lessons from the South African Experience. Cape Town: Isandla and UCT Press. Pgs 27-50. 2008. Geographies of Globalisation: A Demanding World. (Edited with Gillian Rose and Clive Barnett) London: Sage and The Open University. 2007. Development and new forms of democracy in Durban. Urban Forum. 18, 265-287. [Reversioned and translated for publication in French in Revue Tiers-Monde, edited special issue by Claire Bénit, 2008]. (with Richard Ballard, Debby Bonnin and Thokozani Xaba) 2006. Inventions and Interventions: Transforming Cities (Special Issue edited with Edgar Pieterse) – An Introduction, Urban Studies, 43, 2: 251-258. Robinson, J. (2003) Cities as spaces of interaction: African Participation in Johannesburg's 1936 Empire Exhibition. Journal of Southern African Studies. vol. 29, no. 3, pp. 761-791. Robinson, J. (2002) Global and World Cities: A view from off the map, International Journal of Urban and Regional Research, vol. 26, no. 3, pp. 531-554. Robinson, J. (2000) Feminism and the spaces of transformation, Transactions of the Institute of British Geographers, vol. 25, no. 3, pp. 285-301. Robinson, J. (2000) 'Power as friendship: spatiality, femininity and "noisy surveillance"' in Philo, C., Routledge, P. and Sharp, J. (eds) Entanglements of Power, London, Routledge, pp. 67-93. Robinson, J. (1998) 'Spaces of democracy: re-mapping the apartheid city', Environment and Planning D: Society and Space, vol. 16, no. 5, pp. 533-48. Robinson, J. (1998) '(Im)mobilising space - dreaming (of) change' in Judin, H. and Vadislavic, I. (eds) Blank_____ : Architecture, Apartheid and After, Rotterdam, NAi publishers (D7). Robinson, J. (1997) 'The geopolitics of South African cities: states, citizens, territory', Political Geography, vol. 16, no. 5, pp. 365-86. (2006) looks at how the interplay between urban modernity and development frames a conceptual and practical divide between "Western" and "Third World" cities. The book develops the claim that urban theory needs to be more cosmopolitan in the resources it draws on; and argues that urban development policies need to move beyond developmentalism and draw on the wider cultural and economic resources of urbanism in poorer cities. More recent writing extends this argument to develop appropriate methods and tactics for international theorisation of 21 century cities, organised around the conceptualisation of comparative urbanism, and a book on this topic is under preparation. Grant applications and research in progress explore questions of the geopolitics of policy mobility; international theorisation of global city-regions; and activist research on London’s city strategies. These all take forward methodological experiments for an international urban theory. Previous research has centred on the relationship between power and space, specifically in cities and mostly in relation to South African politics. For example, I have written on the 1936 Empire Exhibition in Johannesburg to explore spaces of racial interaction in South African cities. I have also written on issues in feminist politics, including questions of difference and methodology, and more recently on the implications of Julia Kristeva's psychoanalytic writing for feminist theorizations of space. More broadly, I have explored ways of postcolonializing the theoretical and empirical practices of Geography. A seminal critique of the dominant global and world cities analysis with respect to its implications for wider urban studies and for the politics of development in poorer cities has been drawn on in background and published policy documents which have informed the conceptualisation of urban development in South African cities, e.g. the background review document for the 2006-2011 Growth and Development Strategy which scoped international experience in city strategies and established an approach to Johannesburg’s strategic policy. Robinson was invited to speak to city councillors and officials in Johannesburg on various occasions (2004; 2011) and on their study tour to London (2006) informing ongoing strategic policy development in this period. The research is planned to be taken forward in a collaboration with the Gauteng City-Region Observatory (GCRO) on conceptualising global city-regions. : Studies of the politics of Johannesburg’s City Strategy led to Robinson being invited to review and comment on the draft revised GDS2040 at the Johannesburg City Council’s international conference as part of the consultation process in October 2011, including speaking to a mass public gathering and on the main morning news television. These contributions encouraged the strategy’s commitment to a broadly balanced and locally resonant range of policy commitments. 1) Desktop review of international experiences with city strategies to which Robinson inputs were noted as helpful – document available from Robinson. 2) SACN State of South African Cities Report (2006) – setting guidance 2006-2011 for city strategy development across 9 metros – available at . Robinson (2006) is cited and also in the formulation of the Good Practice Guide to State of Cities Reporting (2010) 5) Robinson’s comparative and global urbanism is influencing practitioner training in a developmental partnership between South African, African and Brazilian planning netowrks: 6) Participation in African Centre for Cities (ACC), Central City Urban Laboratory (a joint initiative in knowledge co-production between the ACC, provincial and local governments, NGOs and community groups) which Robinson co-ordinated January to July 2009 ; 7) Participation in the generation of a programme of state of the city reports across African countries, funded by the World Bank and the Cities Alliance. Robinson wrote a preparatory background document for the conceptualisation of this project 8) Building links with community groups involved in the London Plan processes, as co-organiser of a joint Urban Salon and Just Space network conference, June 2011 ( ); ongoing collaborations through community-based teaching (URBNG007) and collaborative research activities, including comparative work on the London Plan and the Johannesburg GDS with links to supporting community participation through Planact explored in collaborative work with Barbara Lipietz at the DPU( I have been at UCL since October 2009, teaching on MSc courses (Thinking Space, Globalisation, Methods, City space and power, Comparative Urbanism, Community Participation in City Strategies) and 1 We meet regularly as a group to discuss recent developments in urban theory and comparative urbanism. I welcome applications from students eager to take forward international and comparative approaches in urban studies.</t>
+  </si>
+  <si>
+    <t>Andrew Barry studied Natural Sciences and the History and Philosophy of Science at Cambridge University. He subsequently held a joint SERC/ESRC studentship at the Science Policy Research Unit, University of Sussex, where he completed his DPhil in Science and Technology Studies in 1988. This was followed by Lectureships in the Department of Human Sciences at Brunel University (1987-91) and the Department of Sociology at Goldsmiths’ College (1991-2006). Andrew moved to Oxford University in 2006, where he was Reader in Geography and subsequently Professor of Political Geography in the School of Geography and the Environment, and a Fellow at St Catherine’s College. While at Oxford, he was Academic Director of the Masters’ programme in While a graduate student, Andrew was awarded a scholarship by the European Parliament and was involved in the formation of the Parliamentary office for Science and Technology Options Assessment. Drawing on this experience, and additional funding from the ESRC, Andrew’s subsequent publications and his first book, He has continued to be involved in a series of innovative initiatives in social and geographical theory, which have led to the publication of edited collections of papers relating to the work of Michel Foucault ( . He has held visiting positions at New York University, Istanbul Technical University, Halle University, and University of California, Santa Cruz. Weszkalnys, G. and Barry, A., ‘Multiple Environments: accountability, integration, and ontology’, in Barry, A. and Born, G. (eds.), 178-208, 2013. Born, G. and Barry, A., ‘Art-Science: from public engagement to public experiment’, in A. Barry and G. Born (eds.), 247-269 [republication of 2010]. At the heart of my research has been a concern with the importance of materials and technologies in political and economic life. My book, (2001) focused on the vital role of technical devices in the constitution and politics of a transnational political space: the European Union. My recent book, (2013), interrogates the way in which the production of information about materials enables the activity of materials to be managed and monitored, while also generating the conditions within which controversies can proliferate over the quality and sources of the information produced. I have an on-going interest in the importance and political significance of those natural sciences, including construction engineering, chemistry, and the geo- and environmental sciences, which are less concerned with the derivation of general physical principles than with the problem of how to analyse and govern the unruly or lively behaviour of materials in the field. In earlier work I interrogated the political importance of research on, for example, air quality (1998), steel (2002), pipeline coating materials (2010), and landslides (2013). In an ethnographic study of a pharmaceutical laboratory, I highlighted the complex impact of computer chemistry on the conduct of pharmaceutical research and examined the invention of what I have termed ‘informed materials’ (2005). I am currently interested in the transformation of the geo and environmental sciences, and supervising a DPhil research project on ‘Space and Practice in the Geosciences’ (Rachel Tily). A second concern focuses on the concept and politics of energy. In part, my interest in energy draws on my recent work on the oil industry ( ). But it also emerges from my long-standing interest in materiality. Recently I have been writing on the manner in which energy has been theorised in human geography, developing from Isabelle Stengers’ analysis of cosmopolitics. I am also currently interested in the politics of the idea of the Anthropocene and, more broadly, the geopolitics of the carbon economy. I supervise two doctoral students working on energy-related topics: the politics of hydraulic fracturing (Irem Kok) and the history of the idea of energy efficiency and ‘the rebound effect’ (Thomas Turnbull). Two former students have recently been awarded doctorates for theses on oil shale futures (Kärg Kama, Geographers have long been concerned with the question of how to understand the relations between the physical and the political. I have been particularly interested in the role of technologies and materials in the transformation of political and economic spaces (‘technological zones’) and the invention of what I have termed ‘informed materials’. At the same time, I have sought to develop an account of the relation between government, politics and the political in a way that addresses the critical importance of materials in political life (2002). This has led to the development of the idea of the ‘political situation’, central to my book My approach to the relation between materiality and politics has involved a series of engagements with the work of social theorists and philosophers including Michel Foucault, Bruno Latour, Michel Callon, Gabriel Tarde, AN Whitehead and Isabelle Stengers. This has led to the publication of a number of edited collections including (2007). Much of this work has been in collaboration with others, including Thomas Osborne, Nikolas Rose, Don Slater, Mariam Fraser, Celia Lury, Nigel Thrift, Michael Halewood and Andy Goffey. Working together with a team of anthropologists including Georgina Born, Marilyn Strathern and Gisa Weszkalnys, I carried out an ESRC funded study of interdisciplinarity (2006-8). This study involved fieldwork on a range of ‘interdisciplines’ including environmental research, ‘art-science’, and ethnographic research in the IT industry. This has led to a broader analysis of diverse ‘logics’ and ‘modes’ of interdisciplinary research that cut across the boundaries of the social and natural sciences (2008). This project has resulted in the publication of a collection of essays, (Barry and Born, ), that further develops our analysis of interdisciplinary, and includes chapters by leading scholars in Science and Technology Studies, Anthropology and Social Theory. More recently, drawing on my own teaching in the history and philosophy of geography, I have sought to broaden the scope of the geographical canon and engage with the question of the relation between geographical research and other ecologies of practice. I have contributed to wider debates about science and technology policy over a long period. As a graduate student, I was a research assistant to Dr Jeremy Bray MP, opposition spokesperson on science and technology policy, and also worked at the office of Science and Technology Options Assessment at the European Parliament. More recently, I have contributed policy papers on interdisciplinary research to the ESRC (with Georgina Born) and a discussion paper on politics and expertise to the Institute of Public Policy Research ) sought to make everyday political acts visible, making use of badges with accounts of specific acts (e.g. ‘I raised an issue’). The project was based, in part, on a series of brief research events at a number of sites in London including Speaker’s Corner, the Elephant and Castle shopping centre, and Tate Modern. project (2008-9), which has made available a large archive of film, television and video material for use by British universities and schools</t>
+  </si>
+  <si>
+    <t>Jonathan was educated at Honley High School, West Yorkshire, and Hertford College, Oxford. From 1988 to 2000 he was Lecturer/Senior Lecturer and then Reader in Geography at Kingston University. He came to UCL as research director of the Environmental Change Research Centre (ECRC) and Reader in Environmental Change in 2000. He is currently Professor of Physical Geography and director of ECRC. Barker, P. A., Leng, M. J. (editors) (2016) Special Issue: Quaternary palaeoenvironmental proxies and processes – papers in honour of Professor Alayne Street-Perrott. Holmes, J.A., Barker, P. A., Leng, M. J. (2016) Editorial: Quaternary palaeoenvironmental proxies and processes – papers in honour of Professor Alayne Street-Perrott. Journal of Quaternary Science 31, 281–285. Burn, M. J., Holmes, J. A., Kennedy, L. M., Bain, A., Marshall, J. D., Perdikaris, S. (2016) A sediment-based reconstruction of Caribbean effective precipitation during the ‘Little Ice Age’ from Freshwater Pond, Barbuda. The Holocene 26, 1237-1247. Holmes, J.A., Metcalfe, S., Jones, H.L., Marshall, J.D. (2016). Climatic variability over the last 30,000 years recorded in La Piscina de Yuriria, a Central Mexican Crater lake. Journal of Quaternary Science, 31, 310-324. Zhang J, Ma X, Qiang M, Huang X, Li S, Guo X, Henderson ACG, Holmes JA, Chen F (2016). Developing inorganic carbon-based radiocarbon chronologies for Holocene lake sediments in arid NW China. Quaternary Science Reviews, 144, 66-82. Cheshire, K., Morgan, R.M., Holmes, J. (2016). The potential for geochemical discrimination of single- and mixed-source soil samples from close proximity urban parkland locations. Australian Journal of Forensic Sciences, 1-14. Holmes, J. A., Tindall, J., Roberts, N., Marshall, W., Marshall, J. D. Bingham, A., Feeser, I., O'Connell, M., Atkinson, T., Jourdan, A-L., March, A., Fisher, E. H. (2016) Lake isotope records of the 8200-year cooling event in western Ireland: Comparison with model simulations. Quaternary Science Reviews, 131, 341-349. Jones, M. D., Djamali, M., Holmes, J., Weeks, J. L., Leng, M. J., Lashkari, A., Alamdari, K., Noorollahi, D., Thomas, L., Metcalfe, S. E. (2015) Human impact on the hydroenvironment of Lake Parishan, SW Iran, through the late-Holocene. The Holocene, 25, 1651-1661. Street-Perrott, F. A. Ficken, K. (2014) Holocene dust records from the West African Sahel and their implications for changes in climate and land-surface conditions. , Mesquita-Joanes, F., Miracle, M. R. (2013) The influence of climate and sea-level change on the Holocene evolution of a Mediterranean coastal lagoon: Evidence from ostracod palaeoecology and geochemistry. Zhu, B., Yang, X. (2013) Diatom–environment relationships and a transfer function for conductivity in lakes of the Badain Jaran Desert, Inner Mongolia, China. Swindles, G.T., Lawson, I.T., Matthews, I.P., Blaauw, M., Daley, T.J., Charman, D.J., Roland, T.P., Plunkett, G., Schettler, G., Gearey, B.R., Turner, T.E., Rea, H.A., Roe, H.M., Amesbury, M.J., Chambers, F.M., , Mitchell, F.J.G., Blackford, J., Blundell, A., Branch, N., Holmes, J., Langdon, P., McCarroll, J., McDermott, F., Oksanen, P.O., Pritchard, O., Stastney, O., Stefanini, B., Young, D., Wheeler, J., Becker, K., Armit, I. (2013) Centennial-scale climate change in Ireland during the Holocene. , Bennett, C., Mandal, N., Khosla, A. (2013) Palaeoenvironment of Peninsular India during the late Cretaceous Deccan volcanic episode from trace-element and stable-isotope geochemistry of Intertrappean ostracod shells Jones, V. J. Mackay, A. W., Rose, N. L. (editors) (2013) Special Issue: A celebration of Prof Rick Battarbee’s contributions to paleolimnology. Panizzo, V. N., Piotrowska, N., Shchetnikov, A., Shilland, E., Tarasov, P., White, D., Watson, H. (2013) Vegetation and aquatic ecosystem change in a remote, saline lake in the arid Olkhon Pri’olkhon region of Lake Baikal: a palaeolimnological approach. is concerned with the reconstruction and understanding of late Pleistocene and Holocene environments, human–climate interactions and data–model comparisons. It falls into three major themes; NERC standard grant (NE/K00610X/1) Climate variability over the circum-Caribbean region during the past 1200 years from oxygen-isotope analyses of lake sediments organizer of a Southwark Schools ‘Gifted and Talented’ event on environmental microscopy (2008) and organizer of, and participant in, OPAL (OPen Air Laboratories)-based aquatic ecology fieldwork with 90 Year 6 children (2010, 2012). I have given lectures on climate change to various local 6 forms (2001, 2012 and Geographical Association, Kingston upon Thames Branch 2007). I have worked with the wider public in the London Science Museum’s ‘Antenna Live’ gallery public engagement event on was an exciting project at a junior school in Surrey in which I was the university partner. The project, which ran from 2012 to 2014, was funded by a artnership grant from the Royal Society and designed to give school children the opportunity to take part in a genuine scientific research project. The grant has provided money for lab and field equipment in the school. programme in connection with the drying of the Sahara (May 2008). This work, which was a ‘Perspective’ piece that I wrote for and BBC Lunchtime news (2007) in connection with the finding that 2006 was the hottest year for Britain on record. I acted as consultant for BBC Science and History Programme ‘Superstorm’ and shot video footage in Western China’s drylands in 2006. a bilingual (English – Mandarin) information brochure for water managers and local government officials in Gansu Province, P. R. China, published in 2002 and was invited participant in UK-Nigeria Bilateral Forum on environmental change, hosted in London in 2000 by the UK Foreign and Commonwealth Office and attended by a small group of British and Nigerian government ministers, NGO representatives and academics. registered at Queen Mary University of London: principal supervisor Prof Dave Horne) (NERC London DTP studentship, CASE award with the Broads Authority) The Evaluation of Geochemical Analysis Techniques for Forensic Provenance and Interpretation (UCL Department of Crime Science (principal supervisor Dr Ruth Morgan) (PhD thesis submitted, August 2016) (Funded by EPSRC SECRET programme) - Climate variability during MIS 11 in Britain (registered at Queen Mary University of London: principal supervisor Prof Dave Horne) (QMUL studentship)</t>
+  </si>
+  <si>
+    <t>Ian Douglas has had over 45 years of research experience relating to changes to the hydrologic and geomorphic systems in tropical rain forests and to the biophysical changes in the urban environment, especially in relation to materials flows, urban hydrology and flooding, and urban geomorphology. He is Past-President of the Society for Human Ecology, President of the International Council for Ecopolis Development; Chairman of the UK UNESCO MAB (Man and the Biosphere) Urban Forum; and Chairman of the UNESCO SCOPE Expert Group on Urban Futures.</t>
+  </si>
+  <si>
+    <t>My research focus is in Quaternary science, in particular geoarchaeology and the Palaeolithic record in Britain. I have been involved in a number of major UK Palaeolithic archaeological research projects including the Ancient Human Occupation of Britain (AHOB) Project (2001-12), the Pathways to Ancient Britain Project and the Happisburgh Palaeolithic Project. I am Principal Investigator on the Breckland Palaeolithic Project (2016-19), funded by the Leverhulme Trust and a Co-director of the Barnham Palaeolithic Excavation. I was a Co-Investigator on the Mapping Palaeolithic Britain Project (2013-16), also funded by the Leverhulme Trust. The recent discovery of ancient human footprints at Happisburgh received the 2015 “Rescue Dig of the Year” award. I was awarded the Henry Stopes Medal by the Geologists’ Association in 2015. Davis, R.J., Hatch, M., Ashton, N., Hosfield, R., Lewis, S.G. 2016. The Palaeolithic record of Warsash, Hampshire, UK: implications for late Lower and early Middle Palaeolithic occupation history of Southern Britain. Voinchet, P., Moreno, D., Bahain, J.-J. Tissoux, H., Tombret, O., Falgueres, C., Moncel, M-H., Schreve, D., Candy, I., Pierre Antoine, Ashton, N., Beamish, M., Cliquet, D., Despriée, J., Lewis, S.G., Limondin-Lozouet, N., Locht, J.-L., Parfitt, S., Pope, M. 2015. New chronological data (ESR and ESR/U-series) for the earliest Acheulian sites of north-western Europe. Ashton, N., Lewis, S.G., De Groote, I., Duffy, S., Bates, M.B. Bates, C.R., Hoare, P.G., Lewis, M., Parfitt, S.A., Peglar, S., Williams, C., Stringer, C.B. 2014. Hominin footprints from Early Pleistocene deposits at Happisburgh, UK. Bailiff, I.K., Lewis, S.G., Drinkall, H., White, M.J. 2013. Luminescence dating of sediments from a Palaeolithic site associated with a solution feature on the North Downs of Kent, UK. , Abel, R.L., Coope, G.R., Field, M.H., Gale, R., Hoare, P.G., Larkin, N.R., Lewis, M.D., Karloukovski, V., Maher, B.A., Peglar, S.M., Preece, R.C., Whittaker, J.E., Stringer, C.B. 2010. Early Pleistocene human occupation at the edge of the boreal zone in northwest Europe. I am involved in a wide variety of teaching activities, ranging from lecture-based courses, to practical and field based teaching. I have led field classes to a variety of UK locations, mainly in upland environments and I have run the 1 year field class to the Cairngorms, Scotland for a number of years. These field courses have two main aims: to develop students’ understanding of processes in the natural environment and to provide skills training through project work in preparation for independent projects. I currently teach on the following modules: My research focuses on geoarchaeology and the Palaeolithic record in Britain, with contributions to a number of research projects concerning the Palaeolithic archaeological record, particularly in Eastern England. is a 3 year, Leverhulme Trust funded project exploring the Palaeolithic record of the Breckland region of East Anglia. It will focus on the evidence for the earliest human presence in the area, the environment and lithic record of MIS 11 and the Lower/Middle Palaeolithic transition. The project involves collaboration with the British Museum, Natural History Museum and the Muséum National d’Histoire Naturelle in Paris. project is continuing some of the work of the AHOB project, including on-going research at Happisburgh, where recently-discovered hominin footprints are the oldest examples outside Africa. The project also involves new work at Barnham, Suffolk. This research is building on previous work at the site by the research team (1989-1994) to investigate a number of key questions about the relationship between different artefact assemblages and the environmental signal at the site. I am also a member of a consortium led by British Museum on an English Heritage funded project which is seeking to establish the extent on-shore and off-shore of the archaeologically important deposits at Happisburgh. My role concerns the onshore geological investigations, results of which will be integrated with onshore and offshore geophysical surveys. I am also a co-investigator on the project, which is exploring the route-ways, dispersals and landscape use of different colonising populations over the last 800,000 years (800 ky) using datasets comprising 80,000 artefact records from over 600 sites held at the British Museum and in other collections. Project funded by the Leverhulme Trust. This multi-institution project has examined the record of human presence in Britain from the oldest Lower Palaeolithic evidence at Happisburgh through to the end of the last ice age and the close of the Upper Palaeolithic. This project has made a significant contribution to understanding the nature and timing of human occupation of Britain and the environmental constraints on human presence. My involvement has mainly been on the older part of the record, including sites such as Happisburgh, High Lodge and Hoxne, but I was also involved in the excavations at the Neanderthal site at Lynford. , in conjunction with British Museum and Reading University focused on the stratigraphy and Palaeolithic archaeology of the Solent River in southern England. Two graduate students have completed PhD theses based on the work of this project. , Ashton, N., Parfitt, S.A., Hatch, M. and Hoare, P.G. 2017. The early Palaeolithic archaeology of the Breckland: current understanding and directions for future research. , Ashton, N., Briant, R. and Lukas, S. 2017. The stratigraphy and chronology of the Pleistocene fluvial sediments at Warsash, Hampshire, UK: implications for terrace stratigraphy and Palaeolithic archaeology of the River Test. , Parfitt, S.A., Davis, R.J. and Stringer, C.B. 2016. Handaxe and non-handaxe assemblages during MIS 11 in northern Europe: Recent investigations at Barnham, Suffolk, UK. J 2016. The Palaeolithic record of Warsash, Hampshire, UK: implications for late Lower and early Middle Palaeolithic occupation history of Southern Britain. Voinchet, P., Moreno, D., Bahain, J.-J. Tissoux, H., Tombret, O., Falgueres, C., Moncel, M-H., Schreve, D., Candy, I., Pierre Antoine, Ashton, N., Beamish, M., Cliquet, D., Despriée, J., , Limondin-Lozouet, N., Locht, J.-L., Parfitt, S., Pope, M. 2015. New chronological data (ESR and ESR/U-series) for the earliest Acheulian sites of north-western Europe. , De Groote, I., Duffy, S., Bates, M.B. Bates, C.R., Hoare, P.G., Lewis, M., Parfitt, S.A., Peglar, S., Williams, C., Stringer, C.B. 2014. Hominin footprints from Early Pleistocene deposits at Happisburgh, UK. , Drinkall, H., White, M.J. 2013. Luminescence dating of sediments from a Palaeolithic site associated with a solution feature on the North Downs of Kent, UK. , Ashton, N.M., Jacobi, R.M. 2011. Testing human presence during the Last Interglacial (MIS 5e): a review of the British evidence. In: Ashton, N., Lewis, S.G., Stringer, C.B. (Eds). , Abel, R.L., Coope, G.R., Field, M.H., Gale, R., Hoare, P.G., Larkin, N.R., Lewis, M.D., Karloukovski, V., Maher, B.A., Peglar, S.M., Preece, R.C., Whittaker, J.E., Stringer, C.B. 2010. Early Pleistocene human occupation at the edge of the boreal zone in northwest Europe. , Parfitt, S., Penkman, K.E.H., Coope, G.R. 2008. New evidence for complex climate change in MIS 11 from Hoxne, Suffolk, UK.</t>
+  </si>
+  <si>
+    <t>2017 - to date; Professor of Geography, Department of Geography, School of Environment, Education and Development (Geography), University of Manchester 1999 – 2001: Research Associate, Centre for Urban and Regional Ecology (CURE), School of Planning and Landscape, University of Manchester 1993 – 1998: Atmospheric Research and Information Centre (ARIC) Manchester Metropolitan University PhD ‘Development of a spatially resolved emissions inventory for local air quality management applications’ (University scholarship)</t>
+  </si>
+  <si>
+    <t>. His PhD thesis, 'Community and social interaction in a Victorian city: Huddersfield, 1850-1880', prepared the way for a book on English Industrial Cities of the Nineteenth Century: A Social Geography ( in 1974, and promoted to Reader in 1991 and Professor in 2009. He has also spent periods as a Leverhulme Research Fellow and Research Associate at the My research focuses on the 'modernity' of cities in the late nineteenth and early twentieth centuries. I am interested in the modernization of the built environment, in ‘new spaces’ in cities, and also in new ways of seeing the city. I am also keen to promote a degree of methodological eclecticism, combining a variety of quantitative and qualitative, archival and literary approaches. Thematically, my archival research has been principally concerned with the development, ownership, management, occupancy and experience of new residential forms, including middle-class apartment buildings and working-class model dwellings in London and Toronto in the period 1880-1939. , which will combine analysis of quantifiable records – building permits, directories, assessment records, property deeds, probate returns – which reveal who owned and who lived in apartments, and how the market in apartment property operated, with case studies of planning controversies reported in newspaper articles, council minutes and correspondence, and also with study of the representation of apartment life in contemporary novels, guide books and advertising. Research on London uses similar methods, but focuses as much on the construction and representation of ‘model dwellings’ as on luxury apartments. My chapters in Black and Butlin (eds) (2006) illustrate my methodological approach in the context of blocks of mansion flats and model dwellings which featured prominently both in architectural discourse about living in flats and in George Gissing’s novels of London life such as Most recently, my historical housing interests have concentrated on each extreme in the social hierarchy of nineteenth-century London – in London’s first high-rise luxury flats that foreshadow more recent enthusiasm for penthouses and loft-living, and in the common lodging-houses associated with Jack the Ripper’s victims in 1880s Whitechapel. As well as continuing to work on Gissing’s representations of London, I have also explored the moral geography of the city in the writing of ‘Canada's first urban novelist’, Morley Callaghan, and the representation of Toronto in film.. (Cambridge University Press, June 2008) examines new ways of seeing Anglo-American cities – in literature, art, mapping and social survey – and new forms of public and private, residential, financial, commercial and leisure spaces, drawing extensively on different strands of my own research (e.g. on bridges, forms of housing, streets, railways) as well as making a critical interpretation of research on other – commercial and leisure – spaces, primarily in London, New York and Toronto. Other ongoing research focuses on the historical geography of the London Underground in the decades prior to World War I: on its environmental and planning history, and on the experience of underground travel. Organizer of academic conferences and conference sessions, including five sessions (20 papers) on ‘Cultural and Historical Geographies of Intra-Urban Mass Transit’ at the New York meeting of the Association of American Geographers in February 2012; a major session on ‘Historicising the Politics of Transport and Cities’ at the European Association of Urban History meeting in Prague in August 2012; and a 2-day conference on ‘Canadian Cities: Past into Present’ at the Institute of the Americas, UCL, in March 2014. Annual Lecture’, Centre for Urban History, University of Leicester, on ‘The Architecture of Hurry’ (May 2011) (video available online at ‘Mobile Urbanisms’, Annual Conference of Urban Geography Research Group: plenary paper on ‘More Haste, Less Speed: On the Nature of Mobility in Nineteenth- and Early Twentieth-Century London (November 2012) Going Underground: Travel Beneath the Metropolis, 1863-2013, IHR, London: keynote paper on ‘Letting off steam: the perils and possibilities of underground travel in Victorian and Edwardian London’ (January 2013) (audio podcast available online at I have given public lectures at the Museum of London, Museum of London Docklands, Tate Britain, London Transport Museum (forthcoming, October 2014), City of Westminster Archives, and Camden Local Studies I have exhibited at ‘Cities Methodologies’ Exhibitions, Slade Research Centre, UCL, 2010, 2013, where I also chaired a round-table discussion on ‘Memory, Archive and Heritage Underground’ (video podcast online at I am the convener of this major first-year course, and teach sections of the module on ‘The Historical Geography of London’ and ‘London’s Housing Problems’. I contribute seminars to ‘Thinking Space’ and ‘Urban Imaginations’, and I run a specialist module on ‘Modern Cities: Representing Modernity’ -century cities. He has extensive experience as external examiner for more than two-dozen doctoral theses in Britain, North America, Australia and South Africa. Since 2000, his own research students have included: (privately funded): ‘“This is the place for toil”: Neighbourhoods at Work in the Later Victorian Black Country’ (PhD awarded, 2001) funded): ‘The Home and the World: Bengali Political Mobilisation in London’s East End, and a Comparison with the Jewish Past’ (supervised jointly with Corporation of London (gateway site for Guildhall Art Gallery/Collage/London Metropolitan Archives - click on 'Leisure and Heritage', then on 'Libraries ...'):</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at is Director of the UCL-Institute of Education (IOE). Before this, she was Professor of Education and Social Justice at King’s College London. She has followed a research career focusing on education and social justice, incorporating education policy work, for example in her previous roles as Director of Education at the RSA, and as Standing Advisor to the Parliamentary Education Select Committee. Becky is best known for her work on gender and achievement. Her policy research and analysis has focused particularly on school quality, and academies policy, in relation to social equality. Her academic expertise and extensive publications centre on social identities (gender, ‘race’ and social class) in educational contexts, social in/equality, and social identity and educational achievement, and gender theory. Becky was a member of the REF 2014 sub-panel for Education, and has acted as a judge for various practitioner awards panels, including the National Pupil Premium Awards and the TES Teacher of the Year awards. She is currently directing the Education Endowment Foundation-funded project ‘Best Practice in Grouping Students’, a mixed methods study involving 140 English secondary schools, investigating attainment and non-attainment grouping in relation to social inequality.</t>
+  </si>
+  <si>
+    <t>Research Professor of Geography • Arctic climate; global implications; and climate warming in the Arctic • Director of NSIDC • Fellow of CIRES • Ph.D. University of Colorado at Boulder, 1989 Mark C. Serreze is the Director of the National Snow and Ice Data Center (NSIDC), part of the Cooperative Institute for Research in Environmental Sciences (CIRES). While his research has encompassed all aspects of our planet's cryosphere - ie snow and ice cover - he has a long standing love of the Arctic. Interests include atmosphere-sea ice interactions, synoptic climatology, boundary layer problems, and climate change. He has conducted field work in the Canadian Arctic on sea ice and icecaps, and on the Alaskan tundra. Efforts over the past ten years have increasingly focused on trying to make sense of the rapid environmental changes being observed in the Arctic. Arctic sea ice reflects sunlight, keeping the Arctic cool and moderating global climate. Arctic sea ice has declined dramatically over at least the past thirty years, most strongly in late summer. The extreme seasonal ice extent minima of September 2007 and 2008 serve as exclamation points on the downward trend, fueling concern that rapid transition to a seasonally ice-free Arctic Ocean may be underway. The National Snow and Ice Data Center (NSIDC) ( ) provides year-round analysis of Arctic sea ice conditions. Rapid processing of satellite data yields near real-time (one day lag) updates of Arctic sea ice extent. During the first week of each month, and more frequently during the summer melt season, NSIDC scientists provide scientific analysis of evolving sea ice conditions and comparisons with previous years. I can trace my interest in snow, ice and very cold water to growing up in Maine, where in most winters there is plenty of all three. Many a childhood afternoon was spent daredevil sledding, skating, or foolishly riding ice floes down the Kennebunk River on the outgoing tide. I come from a science family. Grandpa was involved in the early development of radar. Both of my parents became research chemists. My brother is involved in immunology research and my uncle works with lasers and solar cells. Perhaps there is some genetic aberration at work. When not teaching, studying the Earth's cryosphere, or herding the 70 or so programmers, data specialists and scientists at the National Snow and Ice Data Center, I enjoy golf, gardening, playing the piano and fly fishing. Serreze, M.C., A.P. Barrett, A.G. Slater, R.A. Woodgate, K. Aagaard, R.B. Lammers, M. Steele, R. Moritz, M. Meredith and C.M. Lee. (2006).</t>
+  </si>
+  <si>
+    <t>Professor, UCL, University of London, 1996 - (Emeritus 2008-); Director, Migration Research Unit, UCL (1989-); Co-Director. Leverhulme Programme on Migration and Citizenship (2003-). Consultant to OECD (1985-), EU (1995-97; 2000-2002), Council of Europe (1991-2006), Australian government (2003, 2005-2006), UK Home Office (1999-), National Audit Office (2004), Office for National Statistics (2002-). Salt, J. and Okolski, M. 2014 'Polish emigration to the UK after 2004: Why did so many come?'. 1-27 in Salt, J., 2011, Trends in Europe’s international migration, 17-36 in Rechel, B., Mladovsky, P., Deville, W., Rijks, B., Petrova-Benedict, R. and McKee, M. (eds), Salt, J and Wood, P.A., 2011, Acquisition and mobility of expertise in global corporate labour markets. 84-107 in Modood, T. and Salt, J., Desiderio, M.V. and Salt, J., 2010, Main findings of the conference on entrepreneurship and employment creation of immigrants in OECD countries, 9-10 June 2010. 13-19 in Salt, J., 2009, ‘Business travel and portfolios of mobility within global companies’, in Deruder, B, Witlox, F., Beaverstock, J and Faulconbridge, J (efds.) Salt, J., 2009, New forms of mobility in Europe: global corporate labour markets and the international movement of expertise. 15-25 in Duszczyka, M. and Lesinskiez, M. (eds.), Salt, J., 2008, Managing new migrations in Europe: Concept and reality in the ICT sector. 19-35 in Bonifazi, C., Okolski, M., Schoorl, J., Simon, P. (eds.), Millar, J. and Salt, J., 2008, Portfolios of mobility: the movement of expertise in transnational corporations in two sectors – aerospace and extractive industries. den Adel, M., Blauw, W., Dobson, J., Hoesch, K., and Salt, J., 2004, Recruitment and the migration of foreign workers in health and social care, Coleman, D., Compton, P and Salt, J., 2002, Demography of migrant populations: the case of the United Kingdom, 497-552 in Haug, W., Compton, P. and Courbage, Y. (Eds.), Salt, J., 2002, External migration and ethnic group, 93-103 in Haskey, J. (Ed.), Population Projections by Ethnic Group: a Feasibility Study, National Statistics, SMPS No. 67, HMSO, London. Schmidt, S. and Salt, J., The development of free movement in the European Union, in Papademetriou, D. and Meyers, D.W. (eds.), : Migration and Ethnicity, 2003-2011. A joint programme with the University of Bristol involving eight research projects over 5 years. The Political Economy of Migration in an Integrating Europe, 2001-04. A collaborative project involving the Universities of Coimbra, Osnabruck, Amsterdam, Milan, Berne and UCL. Funded through the EU 5th Framework research programme. International migration in Europe and the UK, especially labour migration; global movements by the highly skilled; migrant trafficking and human smuggling; international migration statistics;</t>
+  </si>
+  <si>
+    <t>I am a feminist cultural geographer with research interests in geographies of identity, relatedness and belonging. I am particularly interested in bringing together a cultural geographical perspective and a focus on kinship which includes attention to genealogical knowledges and imaginations and practices of making relations. I am currently extending this work by addressing interspecies kinship, entangled family histories of animals and people, and the symbolic, practiced, affective, embodied and spatial dimensions of human-non-human relatedness. My recent research, initially funded by an ESRC Research Fellowship (2004-7), has focused on ideas of ancestry and origins in popular genealogy and human population genetics. This work addresses what I describe as in contemporary accounts of shared and differentiated descent and includes an distinctive focus on the making of ideas of sexual difference through accounts of the geography of human genetic variation. This work has been published as two books: This work has also has been paralleled by recent collaborative research funded by the AHRC on the home as a site of historical knowledge, imagination, meaning and practice. My collaborative research on the cultural geography of the Irish border, also funded by the AHRC (published as (Ashgate, 2013) reflects my long term in research interests in Ireland and Northern Ireland as well as the rest of the UK. My aim in teaching is to create a stimulating and supportive context for learning. This means fostering active student engagement with concepts, approaches and issues in a wide range of teaching contexts and advising students in module teaching and as a tutor and supervisor of undergraduate, masters and PhD students. Engaging with ideas and issues in concrete ways through well-prepared and in-depth fieldwork is an especially important dimension of my teaching and is the basis for the lecture, seminar and field work module ‘Geography, Identity, Belonging’ focused on these themes in Ireland and Northern Ireland. I reflect on this module in my contribution to a set of papers on teaching political geography in the journal Alison J. Williams, Alex Jeffrey, Fiona McConnell, Nick Megoran, Kye Askins, Nick Gill, Catherine Nash and Raksha Pande (2013) ‘Interventions in teaching political geography: Reflections on practice’, This project extends recent work on the cultural geographies of everyday domestic spaces and forms of public history by addressing how the past is imaginatively reconstructed and experienced in the home. It takes up an archaeological focus on ‘pre-habitation’ – which concerns the investigation of once-inhabited places where traces of habitation remain – to explore the experiences, meanings, knowledges, attitudes, practices and material dimensions associated with senses of domestic pre-habitation and inheritance in Britain. The research will feature in an exhibition to open at the Geffrye Museum of the Home, London in September 2013. The research is featured in our project exhibition, entitled This project explored the nature and effects of the border between Ireland and Northern Ireland from the perspectives of those who have lived on or near this border since it was established at the beginning of the 1920s, focusing in particular on the period from 1950 to the present day. Though archival sources and interviews the project examined the changing nature of the border over time, its effects on everyday life, the distinctive regional impacts of these effects, the symbolic, material and practised dimensions of the border, and the senses of local, regional, national and cross-border collective identities and differences, interconnections and divisions, through the accounts of those most directly affected by the border. The research has been published as journal papers and in: The programme of research carried out during this Research Fellowship set out to examine the understandings of human relatedness being expressed through and shaped by contemporary popular and scientific explorations of personal and collective origins and ancestry. More specifically, it sought to address the ways in which ideas of human connection and difference and categories of ethnicity, gender, race, and national identity feature within and are reconfigured through the practices, technologies and cultures of popular genealogy, human population genetics and their intersection in genetic genealogy. My research explored the political implications of the geographies of human relatedness being shaped by ideas of shared and distinctive collective ancestry and ancestral origins. The research has been published as journal papers and is the basis of two books: Nash, C. (2013) ‘Genome geographies: mapping national ancestry and diversity in human population genetics’, Transactions of the Institute of British Geographers, 38(2): 193–206. Nash, C. (2012) ‘Irish DNA: Making Connections and Making Distinctions in Y-Chromosome Surname Studies’ in Katharina Schramm, David Skinner and Richard Rottenburg eds. Nash, C., L. Dennis, and B, Graham, 2010, ‘Putting the border in place: customs regulation in the making of the Irish border, 1921–1945’, Nash, C. (2007) ‘Mapping origins: race and relatedness in population genetics and genetic genealogy’ in Paul Atkinson and Peter Glasner eds. Nash, C. (2003) ‘‘They’re family!’: cultural geographies of relatedness in popular genealogy’ in Sara Armed, Anne-Marie Fortier and Mimi Sheller eds. ‘Securitising Britishness - the impacts of the promotion of fundamental British values and the Prevent strategy on schools, teachers and Muslim communities in London I welcome enquiries from those who would like to undertake PhD research in cultural geography on topics related but not restricted to my particular research interests. I have a longstanding interest in imaginative ways of engaging with the public and in exploring the intersections between academic and creative modes of producing knowledge and exploring ideas. This stemmed initially from a PhD in geography and art history at the University of Nottingham, which included a focus on visual art in Ireland in the early and late twentieth century, and whose research formed the basis of the exhibition That research led to a longstanding interest in the work of artist Kathy Prendergast and a collaborative relationship which later resulted in our successful application for her award of an AHRC Fellowship in the Creative and Performing Arts in the Department of Geography, Royal Holloway. The project we developed there to explore the relationship between geography and visual art entitled I have written about her work in geography and art history publications, and more recently, in an exhibition catalogue essay: More widely I have tried to foster creative ways of doing cultural geography by establishing the section ‘Cultural Geographies in Practice’ in the journal</t>
+  </si>
+  <si>
+    <t>2008: Taylor and Francis Award for excellence in teaching and learning in geography in higher education, Royal Geographical Society (with the Institute of British Geographers) After an undergraduate degree at St Catharines College Cambridge, I did postgraduate work at the University of Wisconsin, Madison and completed a PhD at Cambridge. My first post was as a Lecturer at the University of Manchester (1971) where eventually I became Professor of Geography. My research interests have been on the geographies of education, the geographies of children and urban policy evaluation. The underlying themes that tie the work together are inequalities, social exclusion and social polarisation. Similar themes featured in my teaching. I have also completed some pedagogic research and published papers on learning and teaching, and earlier in my career written texts for school geography.</t>
+  </si>
+  <si>
+    <t>I am an historical geographer concerned with understanding the relationships between power, space and knowledge (or communication) in a range of mainly eighteenth-century contexts. My work has dealt with the new geographies of eighteenth-century London, and trying to understand them as (1998). It has also investigated the ways in which the English East India Company used a variety of forms of writing ( , 2007) to construct a global trading network and territorial empire in India from 1600 to 1800. This was the same broad timespan for my attempt to write an introduction to global history through biography in (2008). I am currently undertaking a Leverhulme Trust Major Research Fellowship (2015-2017) on the relationship between speech and slavery in the Caribbean. This work investigates how different forms of talk – such as evidence giving in court, discussions of the plants that grew on the islands, and communications with the world of gods and spirits – demonstrate the complexities of the power relations of slavery and empire. One element of this work was presented in the session on Historical and Cultural Geographies of Story and Storytelling at the RGS-IBG conference in Exeter in September 2015. It is a paper called ‘We cannot but speak the thing, which we have seen and heard: believing stories in Caribbean slave societies’. Hear it here: I teach modules in human geography at both undergraduate and postgraduate level. In all of my teaching I aim to introduce students to key concepts through using a wide range of examples (often from my own research), and getting students to analyse and understand original materials for themselves. I have also written the textbooks for my own courses, so that students have clear guidance on what I am looking for and a range of resources to bring to the classroom. I teach parts of human geography that are often new to students arriving at university, so it is important to make them accessible. In the second year I teach the cultural geography part of GEG5110 . Here students learn about the meanings of spaces, places and landscapes and, for their coursework, are asked to choose a picture of a landscape to interpret for themselves. In the third year I teach a module (GEG6105 –and also on visits to London museums. Here students are taught how to use historical sources, and how to write their own historical accounts of subjects such as slavery, piracy and oceanic voyaging. I am currently part of the team that has devised a new fieldcourse to Boston, USA for second and third years – GEG5125/GEG6125 – which will involve students learning on the ground how we can understand the city’s past and present through a combination of historical documents, surviving objects and examining the landscape of the city itself. , which examines how public spaces in a range of cities, past and present, have emerged, changed and come under threat. This on-going research project considers the relationships between talk, text and (un)freedom in the slave societies of the Caribbean. Focusing on law, natural history, religion and politics, as well as the movements for abolition and emancipation, this project attends not to what was said in the past but to the cultural practices of talk themselves. These are particular, more or less rule-bound, ways of speaking such as the sermon, the botanical conversation, the giving of evidence, gossip or debating. In each case I examine the social and spatial relationships that were involved in and produced through these practices from the small scale geographies of the spaces where talk went on (in courtrooms, plantations gardens and streets) to the trans-Atlantic networks that these modes of speech were part of. Studying speech provides an empirical and theoretical basis for moving away from the dominant textual model of representation of people and places towards one based on the idea of an on-going, situated, power-laden and agonistic ‘conversation’ with many participants using text and talk in different ways. This five-year collaboration between Queen Mary and the V&amp;A Museum of Childhood (2010-15) focuses on researching the lived experiences of London children between 1870 and the present day. The research is being undertaken by three PhD students working on distinct Collaborative Doctoral Awards (CDAs) on children, home and empire (Mary Guyatt); children, migration and diaspora (Eithne Nightingale); and children and global citizenship (Lamees al Mubarak). The supervisory team consists of Alison Blunt, Alastair Owens and myself in the School of Geography, Kiera Vaclavik in the School of Languages, Linguistics and Film, and by colleagues at the V&amp;A Museum of Childhood. The research will inform the redisplay of the museum and produce a range of learning resources. Sir Hans Sloane (1660–1753), doctor, traveller, natural philosopher and man of letters, was responsible for gathering together one of the greatest collections of the seventeenth and eighteenth centuries, which went on to form the basis of the British Museum. This project of three interlinked PhD studentships investigates his collection of thousands of manuscripts and printed books, multiple albums full of pictures and numerous objects (including a vast range of botanical and zoological specimens) to understand how it was part of the great transformation of knowledge about the world and about nature in the early Enlightenment. In collaboration with the Natural History Museum, my part in the project is to supervise Victoria Pickering’s research on Sloane’s “Vegetable Substances”, a collection of over 8000 catalogued specimens in individual hand-made boxes. You can hear something about this in this short talk I gave at the Natural History Museum. (Prentice Hall, Hemel Hempstead) xxii + pp. 467. Also published by University of Georgia Press, Athens, 2000; Chapter 4 ‘Topographies of Culture’ (by M. Ogborn) reprinted in a Custom Book by University of Southern Australia; Chinese language edition, 2004, Higher Education Press, Beijing, xxii + pp. 500); Polish language edition 2007, Zysk i S-ka Wydawnictwo, Poznan; Korean language edition, forthcoming, Hanul Publishing, Seoul. M. Ogborn (2013) “It’s not what you know…” : encounters, go-betweens and the geography of knowledge,’ [5300 word review essay] M. Ogborn (2010) ‘The amusements of posterity: print against empire in late eighteenth-century Bengal,’ in M. Ogborn and C.W.J. Withers (eds) M. Ogborn (2009) Contribution [2,500 words] to a book review symposium along with David Arnold on James S. Duncan (2007) D. Lambert, L. Martins and M. Ogborn (2006) ‘Currents, visions and voyages: historical geographies of the sea,’ for special issue on ‘Historical Geographies of the Sea’, M. Ogborn and C. W. J. Withers (2004) ‘Knowing other places: travel, trade and empire, 1660-1800,’ in C. Wall (ed.) M. Ogborn and C. W. J. Withers (2004) ‘Introduction: Georgian geographies?’ in M. Ogborn and C. W. J. Withers (eds) C. Nash and M. Ogborn (2003) ‘Historical geography: making the modern world,’ in A. Rogers and H. A. Viles (eds) M. Ogborn (2003) ‘Knowledge is power: using archival research to interpret state formation,’ in A. Blunt, P. Gruffudd, J. May, M. Ogborn and D. Pinder (eds) M. Ogborn (1999) ‘This most lawless space: the geography of the Fleet and the making of Lord Hardwicke's Marriage Act of 1753,’ M. Ogborn (1996) ‘History, memory and the politics of landscape and space: work in historical geography from autumn 1994 to autumn 1995,’ I welcome applicants for PhD research on any aspect of the historical geography of the long eighteenth century, particularly in relation to questions of knowledge and questions of global trade, maritime history and empire. I also welcome applicants interested in questions of space, power, knowledge and communication in other periods and places, or those who are interested in collaborative research projects with museums. My research (and some teaching) increasingly involves working with museums. As well as being a past and present member of advisory committees for the National Maritime Museum and the Museum of London. I am the supervisor of AHRC Collaborative Doctoral Awards with the National Maritime Museum (on masculinity and material culture in the eighteenth-century Royal Navy, and on representations of the Thames as the river of empire in the eighteenth century), the Natural History Museum (Reconnecting Sloane) and the Museum of Childhood (The Child in the World). Each of these projects will lead to changes in the way that these museums and their many visitors experience and engage with their collections. As a small example, I am proud to say that the interactive pleasure gardens exhibit in the Capital City galleries of the Museum of London was inspired by my work in</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at My research interests are focussed on the early detection, differential diagnosis and monitoring of progression in cognitive disorders and neurodegenerative dementias in particular. My particular interest within this broad grouping has been in the use of MRI to improve diagnosis and to measure progression in Alzheimer's disease and related disorders. I have been involved in the use of automated measures of cerebral atrophy derived from serial MRI to assess treatment efficacy and disease-modifying potential of novel therapies. I also have a particular interest in the familial dementias and the use of biomarkers and clinical and cognitive measures to assess the earliest manifestations of autosomal dominant dementias, both Alzheimer's disease and frontotemporal lobar degenerations.</t>
+  </si>
+  <si>
     <t>I was a member of the original Board of Directors of Friends of the Earth in the early 1970s and have been involved in public debates about environmental issues ever since. I have presented evidence to numerous public inquiries and parliamentary committees on forecasting, traffic modelling, cost-benefit analysis and risk assessment, and am a regular contributor to radio and television programmes and broadsheet newspapers on transport and risk themes. I am intrigued by the persistence of attitudes to environmental risks. Ever since my involvement with Friends of the Earth almost 30 years ago, the same arguments, slogans and insults have been shouted past each other by the participants (or their descendants) in debates about the environment. My current work on both risk and transport issues seeks to understand these attitudes and the reasons for their persistence, in the hope of transforming shouting matches into more constructive dialogues.</t>
   </si>
   <si>
-    <t>1980 PhD University of East Anglia, School of Development Studies. 'The water balance approach to the development of rainfed agriculture in South West Niger.' (NERC funded).</t>
-  </si>
-  <si>
-    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at He was appointed Lecturer in Medical Sociology at the Middlesex Hospital Medical School (1986) and Associate Director of the MRC Social &amp; Public Health Sciences Unit at the University of Glasgow (1994). Graham was inaugural Chair of the Department of Health Policy Research Commissiong Panel (2011-2013) and is currently: NIHR Sub-Panel Chair for Programme Grants in Applied Health Research; Chair of the MRC/DfID African Research Leader Scheme. He is an NIHR Senior Investigator, and Fellow of the Academy of Medical Sciences. research interests include sexual risk behaviour and the prevention of HIV and STIs, combining structural, behavioural and biomedical approaches to prevention and the opportunities afforded by new prevention technologies.He has worked with a wide range of populations at risk of HIV and STIs, nationally and internationally. This includes men who have sex with men, young people, sex workers, and vulnerable groups in developed and developing countries. His major contributions are to health policy and promotion, particularly in HIV and sexual health. Two significant examples are: needle exchange for injecting drug users (IDU); HIV prevention in men who have sex with men (MSM). After needs assessment which found high levels of sharing of drug injecting equipment amongst IDU he was instrumental in setting up, and then evaluating, the first dedicated needle-exchange in the UK and the roll-out of this harm reduction strategy in England and Wales using combined behavioural and biomarker data. This work has been cited internationally, helped with the adoption of harm minimisation globally, and contributed to reduced parenteral transmission of HIV throughout the world. His research on men who have sex with men is widely cited, and has informed HIV prevention strategies in the UK and internationally. He undertook the first community based survey of prevalent HIV using oral fluid antibody tests and the first UK evaluation of peer-education for risk reduction in MSM. He led work which first described in Scotland increased risk-behaviour after the introduction of HIV therapy in the mid-1990s, and subsequently specified the undiagnosed fraction of HIV in community-recruited MSM across the UK. This work also demonstrated high levels of sexual risk taking in HIV positive men. These studies have informed the development of HIV prevention in MSM in the UK and internationally, and been vital for government and NGO prevention efforts.</t>
-  </si>
-  <si>
-    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at is Professor of German History, Director of the UCL European Institute and Dean of the Faculty of Social and History Sciences. She studied at Newnham College, Cambridge, as an undergraduate, and at Harvard University, where she did her MA and PhD; she has also held a Harvard Center for European Studies Krupp Fellowship at the LSE, and a Lady Margaret Research Fellowship at New Hall, Cambridge. Among other professional commitments, Mary Fulbrook is currently a member of the Council of the British Academy, and has also served as Chair of the Modern History Section of the British Academy. She is a member of the Academic Advisory Board ( ) of the Memorial Foundation for the former concentration camps of Buchenwald and Mittelbau-Dora; and a member of the International Advisory Board of the Bundeskanzler-Willy-Brandt-Stiftung. She currently serves on the Editorial Boards of Mary Fulbrook's contributions to UCL have included nearly a dozen years as Head of the German Department (January 1995 to September 2006) as well as a stint serving on UCL Council. She was Vice-Dean (Interdisciplinarity), Faculty of Arts and Humanities, for three years before becoming Executive Dean of the Faculty of Social and History Sciences in 2013. is currently directing an AHRC-funded collaborative research project on ‘Reverberations of War in Germany and Europe since 1945’ and writing a book provisionally entitled (2000), she has also explored wider interests in social and historical theory and the legacies of the past for a later present, as in her work on Mary Fulbrook currently supervises a number of PhD students on topics on modern German and European history. Her teaching has ranged from introductory courses on German history from medieval times to the present, through to more specialised source-led teaching on the German Democratic Republic (GDR) and MA courses on 'Theoretical Issues in History and Literature', and 'The Making of Modern Europe'.</t>
-  </si>
-  <si>
-    <t>. Australian Research Council, Discovery Award (2008-2012) $251,800. Collaborators: The University of Adelaide; Aberystwyth University; The University of Manchester; University of Bergen . The Leverhulme Trust (2009-2013) £213,233. Collaborators: The British Museum; The University of Manchester; The University of Durham; Aberystwyth University Jamie is a geomorphologist with particular interests in the nature and impacts of Quaternary environmental change in the Mediterranean region and the Nile basin. A good deal of his work takes place in close collaboration with archaeologists and he is interested in the theoretical and practical interface between geography, geoscience and archaeology. Jamie is currently working on two projects in the Nile Valley of Northern Sudan with archaeologists from the exploring the relationship between human activity and environmental change over the last 10,000 years or so. This work is funded by the Australian Research Council and the Leverhulme Trust. You will find a report on some of this work from the 2011 field season since 2007. In 2008 he was awarded a personal chair – the first in Physical Geography at The University of Manchester. With other colleagues in Geography he set up the in late 2004. This cluster forms a key part of Physical Geography research and teaching at Manchester. Jamie has just completed October 2008 to summer 2011: Physical Geography external examiner for the Part II Examination in the Geographical Tripos at the University of Cambridge I have examined PhDs at the following institutions: University of Cambridge, University of East Anglia, University of Exeter (x3), Aberystwyth University, University of Leeds (x5), The University of Manchester (x2), Newcastle University, University of Sheffield, University of Liverpool, Massey University, New Zealand. Woodward et al. (2012) New records of Holocene Flooding in Northern Sudan. The Sudan Archaeological Research Society, The British Museum, London, May 14th. Woodward, J.C. et al. (2008) Glacial Activity and Catchment Dynamics in Northwest Greece: Long-term River Behaviour and the Slackwater Sediment Record for the Last Glacial to Interglacial Transition. Metal contamination of bed sediments in the Irwell and Upper Mersey catchments, northwest England: exploring the legacy of industry and urban growth</t>
-  </si>
-  <si>
-    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Our work is focussed on the development of thin films of materials by chemical vapour deposition and sol-gel. We are also interested in the formation of functionalised nanoparticles, especially of gold and metal oxides. Our work is driven by functional properties and we regularly measure photocatalysis, wetting, antimicrobial properties and conductivity. We have made the worlds stickiest hydrophobic surface.</t>
-  </si>
-  <si>
-    <t>Ann Varley holds a double first class honours degree in Geography from the University of Oxford. She first came to UCL as a research student; her doctoral thesis on illegal housing development in Mexico City won the British-Mexican Society Postgraduate Prize. She worked on an Overseas Development Administration-funded research project on rental and shared housing in Mexico before being appointed as lecturer in the Department of Geography. Ann has a broad range of research and publication interests – from disasters to property titles and from ageing to family law – but her work has focused consistently on urban Mexico and Latin America and revolves around the central theme of housing and the home. She has co-authored or edited four books, the latest of which, (edited with Helga Baitenmann and Victoria Chenaut) was published by Rutgers University Press in 2007; a revised and translated version was published in 2010 by the Universidad Nacional Autónoma de México with the support of the United Nations Development Fund for Women, UNIFEM. Ann was Christensen Fellow at St Catherine’s College, Oxford, and was awarded an individual residency at the Rockefeller Foundation Study Center in Bellagio, Italy, in 2003. She was one of the first recipients of the new University of London Research Fellowship, enabling her to spend several months at the Institute for the Study of the Americas in 2007. She is a member of the ESRC's Peer Review College and the advisory panel of the Commonwealth Scholarship Commission in the UK, and has reviewed research proposals for the Research Council of Norway. In 2010 Ann was awarded the Busk Medal, one of the senior awards of the Royal Geographical Society, for her field work in Mexico. She received the Medal from the Society's President, Michael Palin (photo). In Denmark, Ann has been visiting lecturer in the Department of Geography, University of Copenhagen, and the Department of International Development Studies, University of Roskilde. She has worked with the Department of Geography at the Norwegian University of Science and Technology, Trondheim and has also been a visiting lecturer in the Graduate School and Lyndon B Johnson School of Public Affairs, University of Texas at Austin and the Department of Architecture and Design, American University of Beirut, Lebanon. Invitations to speak at events overseas have taken her to Mexico (CIESAS-Occidente, El Colegio de México, El Colegio de Puebla, Instituto Mora, UAM-Azcapotzalco, UAM-Xochimilco, Universidad Nacional Autónoma de México, Universidad de Guadalajara and at the 5th National Congress of Urban Land, Tijuana), Brazil, the USA (Lincoln Institute of Land Policy, MIT, Northwestern University, University of California San Diego, University of Florida, University of Texas at Austin, and Yale University), Canada (York University), Denmark, France, Spain (the International Institute for the Sociology of Law, Oñati), Lesotho, Lebanon and Egypt. (co-edited with Edésio Fernandes) was translated and published in Bolivia by the Programa de Capacitación para el Mejoramiento Socio-Habitacional as , Programa Universitario de Estudios de Género, Universidad Nacional Autónoma de México and United Nations Development Fund for Women, UNIFEM. , Programa Universitario de Estudios de Género, Universidad Nacional Autónoma de México and United Nations Development Fund for Women, UNIFEM. (Revised edition translated by Lucrecia Orensanz. Edited with Helga Baitenmann and Victoria Chenaut). 1996 'Delivering the goods: Solidarity, land regularisation and urban services', in R. Aitken, N. Craske, G.A. Jones and D. Stansfield (eds) 1994 'The exceptional and the everyday: vulnerability analysis in the International Decade for Natural Disaster Risk Reduction', in A. Varley (ed.) Ann has over 30 years’ experience of social research in urban Mexico, with particular emphasis on housing and land tenure, using household surveys, interviews, discussion groups and life histories. She produced a report on the impact of agrarian law reform on urban housing for the Organisation of Economic Co-operation and Development to mark Mexico's accession in 1994. She wrote an assessment of women’s role in self-help housing for UNIFEM and the Mexican government’s Social Development Secretariat, and contributed to a joint report by the Mexican agency Desarrollo Integral de la Familia and the University of Texas on socio-economic vulnerability among families in the Mexico-US border region. Her work on older people’s living arrangements in Mexico led to the award of an ESRC-funded CASE studentship with HelpAge International and that on land tenure formalisation has led to the award of a UCL Impact Award to support postgraduate research, co-sponsored by the Cambodian Development Resource Institute, CDRI. The translation of was carried out by Promesha, a programme on housing issues in Latin America funded by the Swedish International Development Cooperation Agency, and that of The meeting of three experts with interests in Latin America at a conference on disasters Ann organised for the Royal Geographical Society led to the formation of La Red de Estudios Sociales en Prevención de Desastres en América Latina. Ann contributed an essay on 'Feminism's pale shadows' to a report published by the International Longenvity Centre-UK to mark International Women's Day 2013, asking Ann also uses her language skills in outreach activities. She translated a report on ‘Strategies for sustainable socio-economic development of the Doñana Region’ by the Comisión Internacional de Expertos sobre el Desarrollo del Entorno de Doñana (Spain), and is a volunteer translator for an international housing rights NGO. She is a member of the ESRC Peer Review College and a research proposal assessor for the Norwegian Research Council, as well as other UK and overseas research funders. The United Nations Global Campaign for Secure Tenure recognises that “securing tenure for the household does not necessarily secure tenure for women and children”. How should this insight be translated into practice? As the first social scientist to convene UCL Gender Studies, Ann proposed that it should be renamed to Gender &amp; Sexuality Studies, with a view to working towards the creation of an MA in Sexualities to share part of the sylllabus with the MA in Gender, Society and Representation, and towards attracting more postgraduate researchers to work on sexualities themes. She will be working on these plans with the Director of UCL's LGBTQ+ research network over the next few years. Fatema is a lecturer in the Department of Women and Gender Studies in the University of Dhaka. She holds a Commonwealth Scholarship Ina holds a scholarship from the INLAKS foundation in India. She is a UCL Gender &amp; Sexuality Studies research student, jointly supervised by Richard Mole (SSEES) and Ann. Funded by CONACYT, Lourdes did her first degree at the Tec de Monterrey, Mexico, followed by an MA in Anthropology at the University of Sussex. She has recently worked as an intern for the Enterprises Department at the International Labour Office. Before coming to UCL to undertake research funded by CONACYT, Tania was a researcher at the Centro Mario Molina Sustainable Research Centre in Mexico City. She is an architect with a Masters from Delft University of Technology. Marco is a Gender Studies PhD student, supervised by James Agar, with Ann as his second supervisor. His research looks at the role of Soho in processes of identity- and community-making for gay men. A senior technical advisor with UN-HABITAT Haiti, Maggie is studying with Tiziana Rossetto of the Earthquake and People Interaction Centre. Ann is her second supervisor. Rasa’s studied Social Anthropology at Goldsmiths after a first degree in Psychology and Education in Lithuania. She is supervised by Richard Mole at SSEES, with Ann as her second supervisor The holder of an ESRC CASE award with HelpAge International, Emmy now works in the Policy and Research Division, Department for International Development. Donor-funded titling and urban transition: a case study of the Land Management and Administration Project (LMAP) in Phnom Penh, Cambodia Ben had been working for NGOs in Phnom Penh for two years when he was awarded a UCL Impact Award studentship to work with the Cambodia Development Resource Institute</t>
-  </si>
-  <si>
-    <t>Summer 2004 Invited Visiting Professor, International Political Economy and Ecology Summer School 2004, The Graduate Programme in Political Science and The Faculty of Environmental Studies, York University, Toronto Jan-Apr 2002 Monet-Marshall Visiting Professor of European Studies, Jackson School of International Relations and Department of Geography, University of Washington, Seattle July-Oct 1998 Visiting Professor and Marie Curie Fellow, Spatial Development Research Unit, Department of Urban and Regional Planning, Faculty of Architecture, Aristotle University of Thessaloniki, Greece</t>
-  </si>
-  <si>
-    <t>I came to Manchester University in 2000, when appointed as a Reader in Human Geography. Prior to that I spent 5 years as a Lecturer in Human Geography at Liverpool University, my first academic position. I was promoted to the rank of Professor in 2004. I spent almost 3 years at the University of Wollongong, in Australia, returning to Manchester in late 2017. Though ostensibly a human geographer, I am committed to the idea that geographic research and teaching should utilise the insights and tools of social science, the humanities and the physical sciences. External examiner for BA in Human Geography, Queen Mary College, University of London, 2011-14; and for the MA in Globalisation &amp; Development, Liverpool University 2010-14. 2017: ‘Transforming expertise: global change science and the politics of knowledge’. Keynote lecture at the ‘Ecological challenges’ conference, Oslo February. Geography and global change science:new directions for the social sciences and humanities’ sessionand invited panellist in the ‘Critical physical geography’ session, AAG conference, Chicago. 2014: ‘Unfree radicals? Geoscientists, critique and the politics of knowledge’. Presentation given at the ‘Constructing and confront environmental crisis’ conference, Dept. of Geography, University of Melbourne. Seminar given to the School of Environment and New Zealand Geographical Society as part of a 4 day visit to the University of Auckland as a Visiting Professor of</t>
-  </si>
-  <si>
-    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at I am Dean of the UCL Faculty of Life Sciences. From 2009-2014 I was Director of the UCL Institute of Cognitive Neuroscience and from 2011-2014 Deputy Head of the Faculty of Brain Sciences at UCL. I lead a research group investigating the neural basis of human consciousness based at the ICN and the internationally renowned Wellcome Trust Centre for Neuroimaging. Passionate about academic and clinical academic training, I set up and currently direct the UCL School of Life and Medical Sciences Academic Careers Office. The ACO provides strategic leadership for the biomedical training portfolio at UCL and talent management to investigators and students across the School of Life and Medical Sciences. I have a number of externally facing roles for UCL. I am a member of the Francis Crick Institute Executive Team and the Board of Directors of Imanova. My work has been recognised by award of the Royal Society Francis Crick medal and election to the Academy of Medical Sciences. Work in my research group focuses on the neural mechanisms underlying human consciousness in health and disease. At present we focus primarily on the neural correlates of particular types of conscious content, aiming to distinguish between conscious and unconscious representations in the human brain. As a considerable amount is already known about the anatomy and physiology of the visual system, much of the research in the laboratory focuses on visual awareness. However, we are interested in all the major modalities and work in the laboratory also studies the auditory and somatosensory systems. We mainly use functional MRI at high field, in combination with behavioral studies, transcranial magnetic stimulation and EEG/MEG My major educational interest is in strategy and policy development for postgraduate clinical academic training, both locally and nationally. At UCL I set up and direct the UCL SLMS Academic Careers Office. This is part of the Office of the Vice Provost for Health and jointly operated with the UCL/H NIHR Biomedical Research Centre. The ACO actively manages UCL's large portfolio of MRC &amp; NIHR clinical and scientific trainees, manages our large MRC Doctoral Training Centre award, and also coordinates talent management and leadership training such as our Future Leaders programme. I co-direct (with David Lomas) the Wellcome Trust Clinical PhD Programme at UCL and co-direct (with Sebastian Ourselin &amp; David Hawkes) the EPSRC Centre for Doctoral Training in Medical Imaging. As well as this strategic activity I also teach on a number of Masters courses across UCL and provide lectures to several undergraduate programmes and pre-sessional courses.</t>
-  </si>
-  <si>
-    <t>Kevin is Professor of Human Geography and is the School of Environment's Director of External Relations and the Faculty's Director of at the University of Manchester. He is a geographical political economist with interests in urban politics and policy on the one hand, and work and employment on the other. His current work explores urban policies to see where they come from, how they travel, where they end up and what these journeys mean for the cities the policies pass through. Theoretically, this involves rethinking what is meant by ‘the urban’ in urban politics, as elements of different places are assembled and reassembled to constitute particular ‘urban’ political realms. Methodologically, this involves doing fieldwork in a range of sites inside and outside of the cities that are the objects of study, literally seeking to reveal the circuits, networks and webs in and through which policies are moved. His co-edited book (with Eugene McCann) Mobile Urbanism: Cities and Policymaking in the Global Age (Minnesota University Press) was published in 2011. He is currently exploring the constitution of financial 'models' that have emerged in different areas of the world and that have been circulating as a means of funding infrastructure in the current economic condition. Amy Barron (2016 - ) Interrogating the 'Age-Friendly City': A Comparative Study of Lived Experience’ (with C Perkins and H F Wilson) ( Graeme Moore (2016 - ) ‘Changing perceptions and representations of the UK Evening and Night Time Economy: Last orders at the bar?’ (with S Warren) ( Alistair Sheldrick (2016 - ) ‘Negotiating difference in the austere city: Forced migrant and non-migrant responses to austerity in Liverpool and Rochdale’ (with J Darling and K Burrell, University of Liverpool) Kathleen Stokes (2016 - ) ‘‘Turning livelihoods to rubbish? Responsibility and labour in South African waste management’ (with E Swyngedouw) Mathew Lane (2012- ) ‘Assembling Lusaka: A Case Study exploring the actors and approaches to urban planning in post-colonial Africa’(with J Faulconbridge, Lancaster University ( Katharine Jones (2007-2012) The role of temporary staffing agencies in facilitating accession eight migration into the UK (ESRC funded, with N Coe) Ross Jones (2005-2010) Ethically certified coffee in Vietnam: uneven landscapes of governance in the coffee production network (University of Manchester funded, with N Coe) 2011: 'Assembling urbanism: Following policies and 'studying through' the sites and situations of policy-making' Association of American Geographers annual conference, Seattle, April 2009: Delivering the sanitised downtown: the case of Milwaukee, Construction and consumption of placeless space conference, School of Social Policy, Sociology and Social Work Studies, University of Liverpool, April 2009: Comparing cities under neo-liberal conditions, Plenary at Redefinition of public space with the privatization of cities: 5th international conference of the research network of private urban governance and gated communities, University of Santiago, March 2009: Making the new urban politics possible? Topological geographies of urban expertise and knowledge, Association of American Geographers annual conference, Las Vegas, March 2008: Variegated temporary staffing markets, Globalisation and service workplaces, Peter Wall Institute of Advanced Studies, University of British Columbia, Vancouver, October 2008: Varieties of temporary staffing: evidence from five countries, Transforming work: a multi-disciplinary conference on new forms of employment and their regulation, University of Oxford, September 2008: 'Flexibility in action: the temporary staffing industry and labour market restructuring in the Czech Republic and Poland, Rotterdam School of Management, Erasmus University, Rotterdam, June 2008: Post-socialist varieties of temporary staffing: evidence from the Czech Republic and Poland, Alfred P Sloan Foundation Industry Studies Annual Conference, Boston, May 2008: Towards a conceptualization of cities in the world, Policy transfer session, Association of American Geographers annual conference, Boston, March (with E McCann) The Business of Migration: The role of agencies in facilitating migration into the UK from Australia, the Philippines and Poland</t>
-  </si>
-  <si>
-    <t>I have held distinguished visiting professorships at leading universities in North America, Europe, Australia and East Asia, acted as consultant to UNCTAD and directed a major scientific programme in the European Science Foundation. I was awarded the Victoria Medal of the Royal Geographical Society (with the Institute of British Geographers) in 2001 for 'advancing research on globalization and economic geography' and the Centenary Medal of the Royal Scottish Geographical Society in 2007 for 'distinguished contribution to the study of the geographies of the global economy'. In 2002, I was awarded an Honorary PhD by the University of Uppsala, Sweden and was a Fellow of the Swedish Collegium for Advanced Study in the Social Sciences.</t>
-  </si>
-  <si>
-    <t>Tzedakis, P.C., Crucifix, M., Mitsui, T. &amp; E.W. Wolff (2017) A simple rule to determine which insolation cycles lead to interglacials. Tzedakis, P.C., Channell, J. E. T., Hodell, D. A., Kleiven, H. F. &amp; Skinner, L. C. (2012) Determining the natural length of the current interglacial. Margari, V., Skinner, L.C., Tzedakis, P.C., Ganopolski, A., Vautravers, M. &amp; Shackleton, N.J. (2010) The nature of millennial-scale climate variability during the past two glacial periods. Tzedakis, P. C., Roucoux, K. H., de Abreu, L. &amp; Shackleton, N. J. (2004) The duration of forest stages in southern Europe and interglacial climate variability. Tzedakis, P.C., Lawson, I.T., Frogley, M.R., Hewitt, G.M. &amp; Preece, R.C. (2002) Buffered Tree Population Changes in a Quaternary Refugium: Evolutionary Implications. Tzedakis, P.C., Crucifix, M., Mitsui, T. &amp; E.W. Wolff (2017) A simple rule to determine which insolation cycles lead to interglacials. Milner, A.M., Roucoux, K.H., Collier, R.E.L., Müller, U.C., Pross, J. &amp; Tzedakis, P.C. (2016) Vegetation responses to abrupt climatic changes during the Last Interglacial Complex (Marine Isotope Stage 5) at Tenaghi Philippon, NE Greece. Ruddiman, W.F., Fuller, D.Q., Kutzbach, J.E., Tzedakis, P.C., Kaplan, J.O., Ellis, E.C., Vavrus, S.J., Roberts, C.N., Fyfe, R., He, F., Lemmen, C. &amp; Woodbridge, J. (2016) Late Holocene climate: Natural or anthropogenic?, Birner, B., Hodell, D.A., Tzedakis, P.C. &amp; Skinner, L.C. (2016) Similar millennial climate variability on the Iberian margin during two early Pleistocene glacials and MIS 3. Hoogakker, B.A.A., Smith, R.S., Singarayer, J.S., Marchant, R., Prentice, I.C., Allen, J., Anderson, R.S., Bhagwat, S.A., Behling, H., Borisova, O., Bush, M., Correa-Metrio, A., de Vernal, A., Finch, J.M., Frechette, B., Garcia, S.L., Gosling, W.D., Granoszewski, W., Grimm, E.C., Gruger, E., Hanselman, J., Harrison, S.P., Hill, T.R., Huntley, B., Jimenez-Moreno, G., Kershaw, P., Ledru, M.-P., Magri, D., McKenzie, M., Muller, U., Nakagawa, T., Novenko, E., Penny, D., Sadori, L., Scott, L., Stevenson, J., Valdes, P.J., Vandergoes, M., Velichko, A., Whitlock, C. &amp; Tzedakis, P.C. (2016) Terrestrial biosphere changes over the last 120,000 years and their impact on ocean d Hodell, D., Lourens, L., Crowhurst, S, Konijnendijk, T., Tjallingii, R., Jiménez-Espejo, F., Skinner, L., Tzedakis, P.C. &amp; Shackleton Site Project Members (2015) A reference time scale for Site U1385 (Shackleton Site) on the SW Iberian Margin Govin, A., Capron, E., Tzedakis, P.C., Verheyden, S., Ghaleb, B., Hillaire-Marcel, C., St-Onge, G., Stoner, J., Bassinot, F., Bazin, L., Blunier, T., El Ouahabi, A, Genty, D., Gersonde, R., Jimenez-Amat, P., Landais, A., Martrat, B., Masson-Delmotte, V., Seidenkrantz, M.-S., Veres, D., Waelbroeck, C. &amp; Zahn R. (2015) Sequence of events from the onset to the demise of the Last Interglacial: evaluating strengths and limitations of chronologies used in climatic archives. Wilson, G.P., Reed, J.M., Frogley, M.R., Hughes, P.D. &amp; Tzedakis, P.C. (2015) Reconciling diverse lacustrine and terrestrial system response to penultimate deglacial warming in Southern Europe. Pross, J., Koutsodendris, A., Christanis, K., Fischer, T., Fletcher, W.J., Hardiman, M., Kalaitzidis, S., Knipping, M., Kotthoff, U., Milner, A.M., Müller, U.C., Schmiedl, G., Siavalas, G., Tzedakis, P.C., Wulf, S. The 1.3-Ma-long terrestrial climate archive of Tenaghi Philippon, northeastern Greece: Evolution, exploration and perspectives for future research. Giaccio, B., Regattieri, E., Zanchetta, G., Nomade, S., Renne, P.R., Sprain, C.J., Drysdale, R.N., Tzedakis, P.C., Messina, P., Scardia, G., Sposato, A., Bassinot, F. (2015) Duration and dynamics of the best orbital analogue to the present interglacial. Litt, T., Pickarski, N., Heumann, G., Stockhecke, M. &amp; Tzedakis, P.C. (2014) A 600,000 year long continental pollen record from Lake Van, eastern Anatolia (Turkey). Margari, V., Skinner, L.C., Hodell, D.A., Martrat, B., Toucanne, S., Grimalt, J.O., Gibbard, P.L., Lunkka, J.P. &amp; Tzedakis, P.C. (2014) Land-ocean changes on orbital and millennial timescales and the penultimate glaciation. Lawson, I.T., Tzedakis, P.C., Roucoux, K.H. &amp; Galanidou, N. (2013) The anthropogenic influence on wildfire regimes: charcoal records from the Holocene and Last Interglacial at Ioannina, Greece. Hodell, D.A., Lourens, L., Stow, D.A.V., Hernández-Molina, J., Alvarez Zarikian, C.A. &amp; the Shackleton Site Project Members (2013) The “Shackleton Site” (IODP Site U1385) on the Iberian Margin. Channell, J.E.T., Hodell, D.A, Margari, V., Skinner, L.C., Tzedakis, P.C., &amp; Kesler, M.S. (2013) Biogenic magnetite, detrital hematite, and relative paleointensity in Quaternary sediments from the Southwest Iberian Margin. Hodell, D., Crowhurst, S., Skinner, L., Tzedakis, P.C., Margari, V., Maclaghlan, S. &amp; Rothwell, G. (2013) Response of Iberian Margin sediments to orbital and suborbital forcing over the past 420 kyr. Torres, V., Hooghiemstra, H., Lourens, L. &amp; Tzedakis, P.C. (2013) Astronomical tuning of long pollen records reveals the dynamic history of montane biomes and lake levels in the tropical high Andes during the Quaternary. Milner, A.M., Müller, U.C., Roucoux, K.H., Collier, R.E.L., Pross, J., Kalaitzidis, S., Christanis, K., and Tzedakis, P.C. (2013) Environmental variability during the Last Interglacial: a new high-resolution pollen record from Tenaghi Philippon, Greece. Jones, T.D., Lawson, I.T., Reed, J.M., Wilson, G.P., Leng, M.J., Gierga, M., Bernasconi, S.M., Tzedakis, P.C. (2013) Diatom-inferred late Pleistocene and Holocene palaeolimnological changes in the Ioannina basin, northwest Greece. Birks, HH., Giesecke, T., Hewitt, G.M., Tzedakis, P.C., Bakke, J., &amp; Birks, H.J.B. (2012) Comment on ''Glacial Survival of Boreal Trees in Northern Scandinavia'' Tzedakis, P.C., Wolff, E.W., Skinner, L.C., Brovkin, V., Hodell, D.A., McManus, J.F. &amp; Raynaud, D. (2012) Can we predict the duration of an interglacial? Milner, A.M., Collier, R.E.L., Roucoux, K.H., Müller, U.C., Pross, J., Kalaitzidis, S., Christanis, K. &amp; Tzedakis, P.C. (2012) Enhanced seasonality of precipitation in the Mediterranean during the early part of the Last Interglacial. Lowe, J., Barton, N., Blockley, S., Ramsey, C.B., Cullen, V.L., Davies, W., Gamble, C., Grant, K., Hardiman, M., Housley, R., Lane, C.S., Lee, S., Lewis, M., MacLeod, A., Menzies, M., Müller, W., Pollard, M., Price, C., Roberts, A.P., Rohling, E.J., Satow, C., Smith, V.C., Stringer, C.B., Tomlinson, E.L., White, D., Albert, P., Arienzo, I., Barker, G., Borić, D., Carandente, A., Civetta, L., Ferrier, C., Guadelli, J.-L., Karkanas, P., Koumouzelis, M., Müller, U.C., Orsi, G., Pross, J., Rosi, M., Shalamanov-Korobar, L., Sirakov, N. &amp; Tzedakis, P.C. (2012) Volcanic ash layers illuminate the resilience of Neanderthals and early modern humans to natural hazards. Tzedakis, P.C., Channell, J. E. T., Hodell, D. A., Kleiven, H. F. &amp; Skinner, L. C. (2012) Determining the natural length of the current interglacial. Roucoux, K.H., Tzedakis, P.C., Lawson, I.T. &amp; Margari, V. (2011) Vegetation history of the penultimate glacial period (Marine Isotope Stage 6) at Ioannina, north-west Greece. Müller, U.C., Pross, J., Tzedakis, P.C., Gamble, C., Kotthoff, U., Schmiedl, G., Wulf, S., Christanis, K. (2011) The role of climate in the spread of modern humans into Europe. Manzi, G., Magri, D., Milli, S., Palombo, M.R., Margari, V., Celiberti, V., Barbieri, M., Barbieri, M., Melis, R.T., Rubini, M., Ruffo, M., Saracino, B., Tzedakis, P.C., Zarattini, A., Biddittu, I. (2010) The new chronology of the Ceprano calvarium (Italy). Fletcher, W.J., Sánchez Goñi, M.F., Allen, J.R.M., Cheddadi, R., Combourieu-Nebout, N., Huntley, B., Lawson, I., Londeix, L., Magri, D., Margari, V., Müller, U.C., Naughton, F., Novenko, E., Roucoux, K., Tzedakis, P.C. (2010) Millennial-scale variability during the last glacial in vegetation records from Europe. Tzedakis, P.C. (2010) The MIS 11 – MIS 1 analogy, southern European vegetation, atmospheric methane and the “early anthropogenic hypothesis”. Margari, V., Skinner, L.C., Tzedakis, P.C., Ganopolski, A., Vautravers, M. &amp; Shackleton, N.J. (2010) The nature of millennial-scale climate variability during the past two glacial periods. Margari, V., Gibbard, P.L., Bryant, C.L. &amp; Tzedakis, P.C. (2009) Character of vegetational and environmental changes in southern Europe during the last glacial period; evidence from Lesvos Island, Greece. Tzedakis, P.C., Pälike, H., Roucoux, K.H. &amp; de Abreu, L. (2009) Atmospheric methane, southern European vegetation and low-mid latitude links on orbital and millennial timescales. Wilson, G.P., Reed, J.M., Lawson, I.T., Frogley, M.R., Preece, R.C. &amp; Tzedakis, P.C. (2008) Diatom response to the last glacial-interglacial transition in the Ioannina basin, northwest Greece: implications for Mediterranean palaeoclimate reconstruction Pross, J., Tzedakis, P., Schmiedl, G., Christanis, K., Hooghiemstra, H., Müller, U.C. (2007) Tenaghi Philippon (Greece) Revisited: Drilling a Continuous Lower-Latitude Terrestrial Climate Archive of the Last 250,000 Years. Tzedakis, P.C., Hooghiemstra, H. &amp; Pälike, H. (2006) The last 1.35 million years at Tenaghi Philippon: revised chronostratigraphy and long-term vegetation trends. Roucoux, K.H., Tzedakis, P.C., de Abreu, L. &amp; Shackleton, N.J. (2006) Climate and vegetation changes 180,000 to 345,000 years ago recorded in a deep-sea core off Portugal. de Abreu, L., Abrantes, F. F., Shackleton, N. J, Tzedakis, P. C., McManus, J.F., Oppo, D. W. &amp; Hall, M. A. (2005) Ocean climate variability in the eastern North Atlantic during interglacial marine isotope stage 11: A partial analogue to the Holocene? Roucoux, K. H., de Abreu, L., Shackleton, N. J &amp; Tzedakis, P. C. (2005) The response of NW Iberian vegetation to North Atlantic climate oscillations during the last 65 kyr. Tzedakis, P. C., Roucoux, K. H., de Abreu, L. &amp; Shackleton, N. J. (2004) The duration of forest stages in southern Europe and interglacial climate variability. Tzedakis, P.C., Frogley, M.R., Lawson, I.T., Preece, R.C., Cacho, I. &amp; de Abreu, L. (2004) Ecological thresholds and patterns of millennial-scale climate variability: The response of vegetation in Greece during the last glacial period. Tzedakis, P.C., McManus, P.C., Hooghiemstra, H., Oppo, D. W. &amp; Wijmstra, T.A. (2003) Comparison of changes in vegetation in northeast Greece with records of climate variability on orbital and suborbital frequencies over the last 450,000 years. Huntley, B., Alfano, M.J., Allen, J., Pollard, D. Tzedakis, P.C., de Beaulieu, J.-L., Grüger, E. &amp; Watts, W.A. (2003) European vegetation during Marine Oxygen Isotope Stage 3, Tzedakis, P.C., Lawson, I.T., Frogley, M.R., Hewitt, G.M. &amp; Preece, R.C. (2003) Reply to comment on "Buffered vegetation changes in a Quaternary refugium: evolutionary implications". Tzedakis, P.C., Lawson, I.T., Frogley, M.R., Hewitt, G.M. &amp; Preece, R.C. (2002) Buffered Tree Population Changes in a Quaternary Refugium: Evolutionary Implications. Kukla, G.J., Bender, M.L., de Beaulieu, J.L., Bond, G., Broecker, W.S., Cleveringa, P., Gavin, J.E., Herbert, T.D., Imbrie, J., Jouzel, J., Keigwin, L.D., Knudsen, K-L., McManus, J.F., Merkt, J., Muhs, D.R., Müller, H., Poore, R.Z., Porter, S.C., Seret, G., Shackleton, N.J., Turner, C., Tzedakis, P.C. &amp; Winograd, I.J. (2002) Last Interglacial climates. Griffiths, S.J., Giffiths, H.I., Altinsacli, S. &amp; Tzedakis, P.C. (2002) Interpreting the Tyrrhenocythere (Ostracoda) signal from palaeolake Kopais, central Greece, Griffiths, S.J., Street-Perrot, A., Holmes, J.A., Leng, M.J. &amp; Tzedakis, P.C. (2002) Chemical and isotopic composition of modern water bodies in the Lake Kopais Basin, central Greece. Papazisimou, S., Bouzinos, A., Christanis, K., Tzedakis, P.C. &amp; Kalaitzidis, S. (2002) The upland Holocene transitional mires of Elatia forest. Northern Greece, Roucoux, K.H., Shackleton, N.J., de Abreu, L., Schönfeld, J. &amp; Tzedakis, P.C. (2001) Combined marine proxy and pollen analyses reveal rapid vegetation response to North Atlantic millennial-scale climate oscillations. de Beaulieu, J.-L., Andrieu, V., Grüger, E., Reille, M. &amp; Tzedakis, P.C. (2001) Correlation between the Velay pollen sequence and the Middle Pleistocene stratigraphy from Central Europe. Tzedakis, P.C., Andrieu, V., de Beaulieu, J.-L., Birks, H.J.B., Crowhurst, S., Follieri, M., Hooghiemstra, H., Magri, D., Reille, M., Sadori, L., Shackleton, N.J. &amp; Wijmstra, T.A. (2001) Establishing a terrestrial chronological framework as a basis for biostratigraphical comparisons. Bouzinos, A., Papazisimou, S., Christanis, K. &amp; Tzedakis, P.C. (2000) High peat accumulation rate in the tectonic depression of Katouna, western Greece. Galanidou, P., Tzedakis, P.C., Lawson, I.T. &amp; Frogley, M.R. (2000) A revised chronological and palaeoenvironmental framework for the Kastritsa rockshelter, northwest Greece. Tzedakis, P.C., Andrieu, V., de Beaulieu, J.-L., Crowhurst, S., Follieri, M., Hooghiemstra, H., Magri, D., Reille, M., Sadori, L., Shackleton, N.J. &amp; Wijmstra, T.A. (1997) Comparison of terrestrial and marine records of changing climate of the last 500,000 years. Luterbacher, J., R. García-Herrera, S. Akcer-On, R. Allan, M. C. Alvarez-Castro, G. Benito, J. Booth, U. Büntgen, N. Cagatay, D. Colombaroli, B. Davis, J. Esper, T. Felis, D. Fleitmann, D. Frank, D. Gallego, E. Garcia-Bustamante, R. Glaser, J. F. González-Rouco, H. Goosse, T. Kiefer, M. G. Macklin, S. Manning, P. Montagna, L. Newman, M. J. Power, V. Rath, P. Ribera, D. Riemann, N. Roberts, M. Sicre, S. Silenzi, W. Tinner, B. Valero-Garces, G. van der Schrier, C. Tzedakis, B. Vannière, S. Vogt, H. Wanner, J. P. Werner, G. Willett, M.H. Williams, E. Xoplaki, C. S. Zerefos, and E. Zorita (2012) A review of 2000 years of paleoclimatic evidence in the Mediterranean. In: Lionello, P. (Ed.), The Climate of the Mediterranean region: from the past to the future. Elsevier, Amsterdam, The Netherlands, 87-185. Roucoux, K. H., Tzedakis, P. C., de Abreu, L., and Shackleton, N. J. (2007). Fine tuning land–ocean correlations for the Middle Pleistocene of southern Europe. In: Sirocko, F., Claussen, M., Sanchez Goni, M. F. &amp; Litt, T. (Eds) Tzedakis, P.C. (2004) The Balkans as prime glacial refugial territory of European temperate trees In: Griffiths, H.I., Krystufek, B &amp; Reed, JM (eds). Bouzinos, A., Papazisimou, S., Christanis, K. &amp; Tzedakis, P.C. (2001) The floating mire of Voulkaria Lake (Prefecture of Aitoloakarnania). Proceedings of the 9 van Andel, T.H. &amp; Tzedakis, P.C. (1998) Priority and opportunity: reconstructing the European Middle Palaeolithic climate and Landscape. In: J. Bailey (ed.) Maslin, M., Sarnthein, M., Knaack, J.-J, Grootes, P. &amp; Tzedakis, P.C. (1998) Intra-interglacial cold events: an Eemian-Holocene comparison. In: A. Cramp, C. J. MacLeod, S. V. Lee &amp; E. J. W. Jones (eds) van Andel, T.H. &amp; Tzedakis, P.C. (1996) European Palaeolithic landscapes 140,000-30,000 years ago - a summary. In: O. Bar-Yosef, L.Cavalli-Sforza, R.J. March, M. Piperno (eds) Martrat, B., Tzedakis, P.C., Margari, V., Skinner, L.C., Hodell, D.A. and Grimalt, J.O. (2015) Multi-decadal temperature changes off Iberia over the last two deglaciations and interglacials and their connection with the polar climate. Tzedakis, P.C., McManus, J.F., Raynaud, D., Hodell, D.A., Skinner, L.C. &amp; Wolff, E.W. (2012) The 4th PAGES Past Interglacials Workshop. Department of Earth Sciences, University of Cambridge, Cambridge, Uk, 2-5 July 2012. Tzedakis, P.C., Andrieu, V., de Beaulieu, J.-L., Crowhurst, S., Follieri, M., Hooghiemstra, H., Magri, D., Reille, M., Sadori, L., Shackleton, N.J. &amp; Wijmstra, T.A. (1999) 0.5 million-year pollen records from southern Europe. My research centres on understanding the response of vegetation to variations in climatic forcing on orbital and millennial timescales. I have generated some of the longest reference pollen records from terrestrial and marine sequences. An underlying theme is the linking of terrestrial, marine and ice-core records to assess how land events relate to atmospheric and ocean changes. Recent research focuses on past interglacials, which are providing a basis for comparison with the present interglacial and its future evolution. This work has provided insights into the: (i) response characteristic of European vegetation to orbital and millennial climate changes; (ii) nature and distribution of glacial tree refugia; (iii) climatic signature of critical intervals in human evolution; (iv) occurrence and duration of interglacials and implications for the natural length of our current interglacial. NERC: “Terrestrial responses to millennial and sub-millennial climate variability in the Early Glacial and implications for the hydrological cycle” £64,747 (PI) NERC: “Response of vegetation to climate variability on orbital and millennial frequencies during the penultimate climate cycle in W. Greece” I am involved in setting the research agenda on the study of interglacials by leading international scientific initiatives (INQUA Stage 11 Project [2004-2007]; PAGES Working Groups on Past Interglacials [2008-2015] and Quaternary Interglacials [2015-2021]). ) is informing the debate on conservation strategies in Europe. My papers on the duration of interglacials (Tzedakis et al., 2004 A long-standing commitment is to bring the result of my research to large and diverse audiences. I have written in popular outlets, presented my work in major public lectures (e.g. CosmoCaixa Science Museum, Barcelona; Goulandris Museum, Athens), given numerous interviews and was scientific advisor for a 13-part series on</t>
-  </si>
-  <si>
-    <t>2017 - to date; Professor of Geography, Department of Geography, School of Environment, Education and Development (Geography), University of Manchester 1999 – 2001: Research Associate, Centre for Urban and Regional Ecology (CURE), School of Planning and Landscape, University of Manchester 1993 – 1998: Atmospheric Research and Information Centre (ARIC) Manchester Metropolitan University PhD ‘Development of a spatially resolved emissions inventory for local air quality management applications’ (University scholarship)</t>
-  </si>
-  <si>
-    <t>Ian Douglas has had over 45 years of research experience relating to changes to the hydrologic and geomorphic systems in tropical rain forests and to the biophysical changes in the urban environment, especially in relation to materials flows, urban hydrology and flooding, and urban geomorphology. He is Past-President of the Society for Human Ecology, President of the International Council for Ecopolis Development; Chairman of the UK UNESCO MAB (Man and the Biosphere) Urban Forum; and Chairman of the UNESCO SCOPE Expert Group on Urban Futures.</t>
-  </si>
-  <si>
     <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at David Voas uses survey data to study religious change and value change in modern societies, the intergenerational transmission of religion and values, and attitudes of and towards ethno-religious minorities. He is on the executive committee of the European Values Study and is co-director of British Religion in Numbers (www.brin.ac.uk), an online centre for British data on religion that has received recognition as a British Academy Research Project. He serves on the editorial boards of the . He is one of the co-directors of the ESRC Research Centre on Micro-Social Change (MiSoC), based at the University of Essex.</t>
   </si>
   <si>
-    <t>I specialise in the study living and fossil ostracod crustaceans, both marine and freshwater, and their applications in palaeoclimatology, palaeoceanography, biogeography, crustacean phylogeny and the evolution of sex and parthenogenesis. My recent research, as an associate member of the (Ancient Human Occupation of Britain), has focused on developing my Mutual Ostracod Temperature Range method and applying it to the quantitative palaeoclimatic reconstruction of Quaternary archaeological sites. I also work on pre-Quaternary ostracods, including Cretaceous marine and nonmarine faunas. I collaborate in multidisciplinary research with scientists in the UK as well as mainland Europe, Japan, Canada and the USA. , Curry, B.B. &amp; Mesquita-Joanes, F. 2012. Mutual climatic range methods for Quaternary ostracods. In: Horne, D.J., Holmes, J.A., Rodriguez-Lazaro, J. &amp; Viehberg, F. (eds) Brandão, S. N. &amp; Slipper, I. J. 2011. The Platycopid Signal deciphered: responses of ostracod taxa to environmental change during the Cenomanian-Turonian Boundary Event (Late Cretaceous) in SE England. Joordens, J., Roberts, M. B., Sinka, K. J. &amp; Whittaker, J. E. 2010. Middle Pleistocene climate and hydrological environment at the Boxgrove hominin site (West Sussex, UK) from ostracod records. Since joining QMUL in 2003 I have taught a wide range of undergraduate topics including environmental hazards, palaeoecology and Geographical Information Systems. I like to integrate lectures with workshops, seminars and practical work in the classroom or laboratory and in the field, and I am active in developing and using e-learning resources. Aspects of my research are incorporated into my teaching. For example, over the past five years, lectures and practical exercises based on my Mutual Ostracod Temperature Range method featured in the second year Global Environmental Change and Digital Worlds modules. Consequently, several students became sufficiently interested and enthused to undertake successful major projects aimed at developing, testing and applying aspects of the method, leading in turn to postgraduate work on the same topic in two cases and in a third case to co-authorship of a research publication. Thus both research and teaching have benefited from the integration of an innovative palaeoclimate application with undergraduate coursework. Research links have also enabled me to arrange for guest speakers on undergraduate modules, as well as specialist-hosted group visits to the Natural History Museum. module. In 2013 I received the QMUL Students' Union Assessment &amp; Feedback award. I gained a Higher Education Academy Teaching Fellowship in 2016. Ostracods are common microfossils in Quaternary (Pleistocene and Holocene) deposits. Their ecological diversity makes them useful as palaeoenvironmental proxies in oceanic, coastal and continental settings; they are also particularly valuable for reconstructing past climatic conditions (e.g. with the ) and can be helpful for correlating and establishing the relative ages of the deposits in which they are found. My research involves all of these applications, often as a member of a multidisciplinary team, as well as studies of Recent (living) ostracod taxonomy, ecology and distribution which are essential to understand better their significance as fossil proxies. The value of ostracods value as Quaternary palaeoclimate proxies, through indicator species, transfer function, mutual climatic range and geochemical approaches, is the focus of a major book project to which 39 international authors contributed, of which I was the lead editor and which was published at the end of 2012. I use ostracods as palaeoclimate proxies in various ways. My Mutual Ostracod Temperature Range (MOTR) method combines nonmarine ostracod distributional data (e.g. from the ) with modern climate data to establish species’ mean air temperature ranges (e.g. for January and July); thus calibrated, overlapping ranges of fossil ostracods in Quaternary assemblages are used to determine the mutual temperature range within which they could have lived. This has facilitated quantitative palaeoclimate reconstructions for British Pleistocene archaeological sites including Boxgrove and Purfleet and is currently being used in multiproxy studies of Quaternary sites in Italy, Germany, Estonia and Canada. The primary "training set" source for the MOTR method is the NODE database, initiated by members of an EU-funded project ( : 2004–2008). It currently contains approximately 10,000 records of living species and 2,000 fossil (Quaternary) records; as database steward I welcome approaches from anyone interested in contributing to or using it. NODE is linked to other regional databases via the OMEGA will be a global dataset, with applications in palaeoclimate, biodiversity and biogeography research, combining regional datasets and harmonising their taxonomy. OMEGA will be realised through international collaboration and sharing of regional ostracod databases such as The widely accepted “Platycopid Signal” Hypothesis claims that fossil ostracod assemblages dominated by the Order Platycopida signal dysaerobic conditions on the sea floor, based on the premise that filter-feeding platycopids, able to pass more water over their respiratory surface, were better-equipped than other ostracods to survive in poorly oxygenated waters. I and co-authors have challenged claims of modern biological and ecological support for the Platycopid Signal and have advanced an alternative interpretation, suggesting that platycopid dominance may signify oligotrophy rather than dysaerobia, because living platycopids appear adapted to filter-feed on nano- and picoplankton which are predominant in oligotrophic conditions. The mid-Mesozoic was a time of explosive global diversification of nonmarine ostracod faunas, establishing lineages that persist to this day. My research on ostracod assemblages of Jurassic–Cretaceous continental deposits (the "Purbeck-Wealden" in Britain) includes revisions of their taxonomy, biostratigraphical zonation schemes and palaeoenvironmental interpretations that have implications for Mesozoic nonmarine basins worldwide. The application of a palaeobiological approach to the interpretation of Purbeck-Wealden ostracod assemblages has been particularly rewarding; for example, a combination of pollen and ostracod fossils provided evidence for temporary freshwater pond conditions associated with a dinosaur skeleton in a Cretaceous Weald Clay pit in Surrey. Ostracod shells provide the best fossil record of any arthropods, extending back 500 million years, but the rarity of preservation of their appendages and other "soft parts" impedes efforts to understand their phylogenetic relationships. Ostracods are well-known for providing examples of geographical parthenogenesis and unusual longevity of asexual reproduction. As a micropalaeontologist I collaborate with zoologists, ecologists and molecular biologists in studying ostracods and crustacean phylogeny as well as the evolutionary ecology of sex and parthenogenesis, e.g. as a participant in the EU-funded project: (Jones, 1850) in its type area and stratigraphical context: potential for mapping the freshwater/estuarine boundaries of the Thames–Medway river system in the MIS9 and MIS11 interglacials. 2014. The Hoxnian interglacial, MIS 11 and the lacustrine sequence at Marks Tey, Essex. In: Bridgland, D.R., Allen, P. &amp; White, T.S. (Eds). , Bal, D., Benardout, G., Huckstepp, T., Lewis, S.G. &amp; March, A. 2014. Ostracods from Marks Tey: palaeoenvironmental and palaeoclimate implications. In: Bridgland, D.R., Allen, P. &amp; White, T.S. (Eds). (Crustacea, Ostracoda) from temporary rock pools in Utah, USA, with notes on the taxonomic harmonisation of North American and European ostracod faunas. , Whittaker, J. E. &amp; Abu-Zied, R. H. 2010. Ostracods and the Holocene palaeolimnology of Lake Qarun, with special reference to past human–environment interactions in the Faiyum (Egypt). , Smith, R. J., Whittaker, J. E. &amp; Murray, J. W. 2004. The first British record and a new species of the superfamily Terrestricytheroidea (Crustacea, Ostracoda): morphology, ontogeny, lifestyle and phylogeny. &amp; Slipper, I. J. 2003. The use of ostracods in palaeoenvironmental studies, or what can you do with an ostracod shell? , Franke, J., Daniel, T., Burghardt, A., Funai, B., Lippold, K., Daut, G. &amp; Wennrich, V. 2015. Ostracoda from inland waterbodies with saline influence in Central Germany: Implications for palaeoenvironmental reconstruction. 2014. Interglacial palaeotemperature reconstructions for MIS11 and MIS9 in SE England. In: Bridgland, D.R., Allen, P. &amp; White, T.S. (Eds). , Schreve, D.C., Whittaker, J.E. &amp; Whitehouse, N.J. 2014. Middle to Late Pleistocene palaeoecological reconstructions and palaeotemperature estimates for cold/cool stage deposits at Whittlesey, eastern England, , Keen, D.H., Mighall T., Penkman, K.E.H., Schreve, D.C. &amp; Whittaker, J.E. 2014. Palaeoecology of a late MIS 7 interglacial deposit from eastern England. , Keene, D.H., Penkman, K. E. H., Preece, R.C., Rhodes, E., Scaife, R., Schreve, D.C., Schwenninger, J.L., Slipper, I., Ward, G., White, M.J., White, T.S. &amp; Whittaker, J.E. 2013. An enhanced record of MIS 9 environments, geochronology and geoarchaeology: data from construction of the High Speed 1 (London–Channel Tunnel) rail-link and other recent investigations at Purfleet, Essex, UK. ., Curry, B.B. &amp; Mesquita-Joanes, F. 2012b. Mutual climatic range methods for Quaternary ostracods. In: Horne, D.J., Holmes, J.A., Rodriguez-Lazaro, J. &amp; Viehberg , F. (eds) , Joordens, J., Roberts, M. B., Sinka, K. J. &amp; Whittaker, J. E. 2010. Middle Pleistocene climate and hydrological environment at the Boxgrove hominin site (West Sussex, UK) from ostracod records. Williams, M., Siveter, D.J., Ashworth, A.C., Wilby, P.R., Horne, D.J., Lewis, A.R. &amp; Marchant, D.R. 2008. Exceptionally preserved lacustrine ostracods from the Middle Miocene of Antarctica: implications for high-latitude palaeoenvironment at 77 . &amp; Lord, A. R. 2000. Recent shallow marine ostracods from high latitudes: implications for late Pliocene and Quaternary palaeoclimatology Brandão, S. N. &amp; Slipper, I. J. 2011. The Platycopid Signal deciphered: responses of ostracod taxa to environmental change during the Cenomanian-Turonian Boundary Event (Late Cretaceous) in SE England. 2009. The Platycopid Signal of oxygen depletion in the ocean: a critical evaluation of the evidence from modern ostracod biology, ecology and depth distribution. 2006. Appendage homologies and the first record of eyes in platycopid ostracods, with the description of a new species of skeleton from the Upper Weald Clay (Barremian, Early Cretaceous) at Smokejacks Brickworks (Ockley, Surrey, UK), based on palynomorphs and ostracods. Schmit, O., Bode, S.N.S., Camacho, A., Horne, D.J., Lamatsch, D.K., Martens, K., Martins, M.J., Namiotko, T., Rossetti, G., Rueda-Sevilla, J., Schön, I., Vandekerkhove, J. &amp; Mesquita-Joanes, F. (accepted in press). Linking present environment and the segregation of reproductive modes (Geographic Parthenogenesis) in Schön, I., Smith, R.J &amp; Martens, K. 2005. What are Ostracoda? A cladistic analysis of the extant superfamilies of the subclasses Myodocopa and Podocopa (Ostracoda: Crustacea). My outreach activities include talks in schools and for local societies, contributions to school taster days at QMUL and a schools masterclass (on tsunami hazards) at the Royal Geographical Society. I am seeking to engage members of the public in a project in connection with my palaeoclimate research and the</t>
-  </si>
-  <si>
-    <t>at the University of Manchester. His professional activities are situated at the intersection of two broad thematic areas: energy and cities. Within these domains, he is best known for his path-breaking research on the driving forces and spatial patterns of domestic energy deprivation, focusing on European countries in particular. Some of this work is summarized in the monograph project which he currently leads. He has also been exploring the relationship between household everyday practices and residential change in inner-city areas - the subject of his monograph on (IB Tauris, 2016). Underpinning much of his work is a desire to develop of innovative methods for conceptualizing and representing space and territory - a topic explored in a co-edited volume on Stefan Bouzarovski was awarded the prestigious Dulverton and Scatcherd European scholarships at the University of Oxford between 1999 and 2003. He was the Larkinson Scholar at St Hugh's College between 2000 and 2002, and a Junior Research Fellow at Christ Church College between 2004 and 2007. Since 2004, he has held visiting university appointments in Prague, Bruges, Berlin, Stockholm, Brisbane, Turin and Erkner, in addition to an ongoing Visiting Professorship in Economic Geography at the University of Gdansk. Stefan Bouzarovski has co-ordinated a total of 38 research projects with funding from the European Union, three UK research councils, and a number of international charities and agencies. His publication record includes more than 70 peer-reviewed books, articles, and chapters. His work has informed the policies of the European Union, World Bank and International Energy Agency, as well as a number of advocacy groups and governmental bodies across the world.</t>
-  </si>
-  <si>
-    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at Professor of Interventional Oncology at UCL. He is an Honorary Consultant Urologist at University College Hospitals NHS Foundation Trust and Founding Pioneer of The Charity Prostate Cancer UK. He Professor Emberton’s clinical research is aimed at improving the diagnostic and risk stratification tools and treatment strategies for prostate cancer (PCa); he specialises in the implementation of new imaging techniques, nanotechnologies, bio-engineering materials and non-invasive treatment approaches, such as high intensity focused ultrasound and photo-dynamic therapy. also contributed to the development of guidelines for the management of PCa and lower‑urinary tract symptoms, published by the International Society of Geriatric Oncology and the European Association of Urology. Professor Emberton is also involved in teaching within UCL and the London and South East Urological Training scheme. In addition to being a member of various urological and medical organisations (American Association of GenitoUrinary Surgeons, British Association of Urological Surgeons, European Association of Urology).</t>
-  </si>
-  <si>
-    <t>My research is focused on the transport and transformation of contaminants and pollutants as they move through lowland river catchments and undergo exchanges at the interface of land, water and atmosphere. My research poses globally significant questions such as: ., 2012); establishing the extent to which macrophytes control the magnitude and timing of sediment storage in a chalk river (Heppell , Trimmer M, Binley A, Heathwaite AL, Byrne P, Zhang H (2015) The interplay between transport and reaction rates as controls on nitrate attenuation in permeable, streambed sediments. , Dossena M, Ullah S, Heathwaite AL, Binley A, Zhang H &amp; Trimmer M 2014. Fine-scale in situ measurement of river bed nitrate production and consumption in an armored permeable river bed. , Heathwaite AL, Binley A, Byrne P, Ullah S, Lansdown K, Keenan P, Trimmer M &amp; Zhang H 2013. Interpreting spatial patterns in redox and coupled water-nitrogen fluxes in the streambed of a gaining river reach. , Wharton, G, Cotton, JAC, Bass, JAB &amp; Roberts, SE 2009. Sediment storage in the shallow hyporheic of lowland vegetated reaches. , Trimmer M, and Wharton G 2011. Denitrification and dissimilatory nitrate reduction to ammonium (DNRA) in a temperate re-connected floodplain. , Sgouridis F, Ullah S , Heathwaite AL , Binley A and Zhang H 2012. Characterisation of the key pathways of dissimilatory nitrate reduction and their response to complex organic substrates in hyporheic sediments. , Cotton JA, Wharton G, Hildrew A, Flowers EJ &amp; Trimmer M 2007. Emission of methane from chalk streams has potential implications for agricultural practices. , Hildrew AG, Lansdown K, Stahl H, Yvon-Durocher G 2012. River bed carbon and nitrogen cycling: state of play and some new directions. Lectures are taught in an informal style with emphasis on encouraging student contribution and discussion. I also specialise in hands-on laboratory and fieldwork teaching that encourages active student learning through experience. An example of this would be at Level 7 where students explore a current research question ‘What controls the production of carbon dioxide in different sediment patches in a chalk river?’ through a field visit combined with intensive 4-day laboratory experiments. They write up the report as a ‘short communication’ research article. ‘Kate Heppell teaches the module really well. It is stimulating because we are actually learning something completely new which we haven’t done before’ This consortium project is aimed at quantifying both the flux and dynamics of the lateral exchange of organic carbon between landscape and rivers, and how this in turn modulates the transport of nitrogen and phosphorus towards the coast. Our research aims to understand the movement of these macronutrients through the different tributaries of the River Avon in Wiltshire, and how the movement of these different macronutrients varies across the different geological settings (clay, chalk and sandstone) through which the river flows. A summary document of preliminary findings can be This research is being funded by the UK Natural Environment Research Council as part of the Macronutrient Cycles thematic programme. Further information about the programme can be found at the following website: Lowland peat soils occupy a relatively small proportion of the overall peatland area in England and Wales, but store large amounts of carbon (C) and are subject to disproportionately high levels of land-use pressure. To date, most measurements of C and greenhouse gas (GHG) fluxes from UK peatlands have been made within upland blanket bogs, and it is doubtful whether the data obtained from these studies can be extrapolated to lowland systems. This study will provide a new comprehensive assessment of the GHG fluxes and C balance of the lowland peatland systems in England and Wales. The interaction of groundwater-surface water in the hyporheic zones of rivers during baseflow conditions, and its influence on nitrogen transport and transformations are poorly understood at a river reach scale. The predicted changes in precipitation and temperature linked to climate change may have further repercussions on the nature and extent of hydrologic exchanges in the hyporheic zones and biogeochemical processes. This project sought to elucidate both physical and chemical controls on nitrogen transport and transformations in the hyporheic zone of a groundwater fed river in Cumbria, UK. The project used a multidisciplinary approach to explore the physical hydrology, hydrogeophysics and biogeochemistry controls on N transport in the hyporheic zone of River Leith at a reach scale. The project had the following objectives: To establish if spatial heterogeneity in the hyporheic zone leads to redox-sensitive biogeochemical “hotspots” and “hot events” that determine the rate of N transport and transformations linked to variations in the riverbed connectivity. , Byrne P,Lansdown K, Trimmer M, Zhang H (in press). Revealing the spatial variability of water fluxes at the groundwater-surface water interface. , Trimmer M 2012. In situ measurement of redox sensitive solutes at high spatial resolution in a riverbed using Diffusive Equilibrium in Thin Films (DET). , Binley A, Olde L &amp; Trimmer M (in press) Riverine anaerobic ammonium oxidation across contrasting geologies. Accepted for publication in , Sayer CD &amp; Axmacher JC (in press) Coupled hydrological/hydraulic modelling of river restoration impacts and floodplain hydrodynamics. Accepted for publication in , Lansdown K, Purdie DA, Trimmer M. (2016) Modelling flow and inorganic nitrogen dynamics on the Hampshire Avon: Linking upstream processes to downstream water quality. , Sheahan D, Liu C-F, Grey J (2016) No such thing as a free meal: organotin transfer across the freshwater-terrestrial interface. , Lambert SJ, Appleby PG, Rose NL, Davy AJ (2016) Toxic metal enrichment and boating intensity: sediment records of antifoulant copper in shallow lakes of eastern England. Journal of , Trimmer M, Binley A, Heathwaite AL, Byrne P, Zhang H (2015) The interplay between transport and reaction rates as controls on nitrate attenuation in permeable, streambed sediments. , Lansdown K, Trimmer M (2015) Diffusive equilibrium in thin films provides evidence of suppression of hyporheic exchange and large-scale nitrate transformation in a groundwater-fed river. , Lansdown K, Mao X (2014) Impact of microforms on nitrate transport at the groundwater-surface water interface in gaining streams. , Spencer KL (2014) The role of vegetation in the retention of fine sediment and associated metal contaminants in London’s rivers. , Dossena M, Ullah S, Heathwaite AL, Binley A, Zhang H &amp; Trimmer M 2014. Fine-scale in situ measurement of river bed nitrate production and consumption in an armored permeable river bed. , Lansdown A, Binley A &amp; Trimmer M 2014. Influence of emergent vegetation on nitrogen cycling in sediments of a groundwater-fed river. , Heathwaite AL, Binley A, Byrne P, Ullah S, Lansdown K, Keenan P, Trimmer M &amp; Zhang H 2013. Interpreting spatial patterns in redox and coupled water-nitrogen fluxes in the streambed of a gaining river reach. , Sayer CD, Axmacher JC 2013. River-floodplain hydrology of an embanked lowland Chalk river and initial response to embankment removal. , Lansdown K, Zhang H, Trimmer M &amp; Keenan P 2013. Control of river stage on the reactive transport of the hyporheic zone. , Byrne P, Lansdown L, Trimmer M &amp; Zhang H 2013. Revealing the spatial variability of water fluxes at the groundwater-surface water interface. , Trimmer M 2012. In situ measurement of redox sensitive solutes at high spatial resolution in a riverbed using Diffusive Equilibrium in Thin Films (DET). , Hildrew AG, Lansdown K, Stahl H, Yvon-Durocher G 2012. River bed carbon and nitrogen cycling: state of play and some new directions. , Sgouridis F, Ullah S , Heathwaite AL , Binley A and Zhang H 2012. Characterisation of the key pathways of dissimilatory nitrate reduction and their response to complex organic substrates in hyporheic sediments. , Trimmer M, and Wharton G 2011. Denitrification and dissimilatory nitrate reduction to ammonium (DNRA) in a temperate re-connected floodplain. , D Kaeser, R Pickup, G Pinay, AL Robertson and PJ Wood 2011. Inter-disciplinary perspectives on processes in the hyporheic zone. , Wharton, G, Cotton, JAC, Bass, JAB &amp; Roberts, SE 2009. Sediment storage in the shallow hyporheic of lowland vegetated reaches. , Cotton JA, Wharton G, Hildrew A, Flowers EJ &amp; Trimmer M 2007. Emission of methane from chalk streams has potential implications for agricultural practices. , Ouddane B, De Wever S, Tuckett A. Source: Sediment transfer and accumulation in two contrasting salt marsh/mudflat systems: the Seine estuary (France) and the Medway estuary (UK) 2007. &amp; Wotton RS 2006. Plant-water-sediment interactions in lowland permeable streams: investigating the effect of seasonal changes in vegetation cover on flow patterns and sediment accumulation. , Trimmer M, Sanders IA and Warren L 2006. Engineering of flows and fine sediments by macrophytes and suspension-feeding invertebrates in the Frome and Piddle Catchments, Dorset (UK). , Carey PJ, Charman R, Shell D and Ullyott S 2005. Heavy metal distribution and accumulation in two Spartina sp.-dominated macrotidal salt marshes from the Seine estuary (France) and the Medway estuary (U.K.) , Chapman AS, Bidwell VJ, Forrester G &amp; Kilfeather AA 2004. A lysimeter experiment to investigate the effect of surface sealing on hydrology and pesticide loss from the reconstructed profile of a clay soil. Part 1. Hydrological Processes. , Chapman AS, Bidwell VJ &amp; Kilfeather AA 2004. A lysimeter experiment to investigate the effect of surface sealing on hydrology and pesticide loss from the reconstructed profile of a clay soil. Part 2. Pesticide Loss. , Burt TP, Walden J and Foster IDL 2002. Investigating contemporary and historical sediment inputs to Slapton Higher Ley: an analysis of the robustness of source ascription methods when applied to lake sediment data. , Burt TP, Williams RJ and Johnson AC 2000. A laboratory investigation of the release of a conservative tracer and herbicide from topsoil aggregates under varying rainfall intensities. , Burt TP, Williams RJ and Haria AH 1999. The influence of hydrological pathways on the transport of the herbicide, isoproturon, through an underdrained clay soil. ‘How will ecosystem shifts due to sea-level rise affect carbon storage and greenhouse gas fluxes in floodplain fens?’ NERC Open Case Studentship. Supervisors: Dr L Belyea (QMUL), Dr CM Heppell (QMUL). Case Partner: Dr A Kelly (Norfolk Broads Authority) ‘Which sources of carbon sustain benthic respiration across changing hydrological regimes?’ NERC Tied Studentship Award. Supervisors: Dr C Heppell (QMUL), Dr M Trimmer (QMUL). . ‘The impact of flooding regime and floodwater chemistry on greenhouse gas emissions from floodplain fens.’ NERC / College Studentship. Supervisors: Dr CM Heppell (QMUL), Prof AJ Baird (University of Leeds) &amp; Dr L Belyea (QMUL) Awarded 2015. . ‘Nutrient dynamics and hydrological connectivity in agricultural floodplains’ Supervisors: Prof A Bellin (Trento), Dr CM Heppell (QMUL). Associate Partner: Dr Tonina (Idaho) Awarded 2015. . 'Detection of soil moisture under vegetation cover with Synthetic Aperture Radar satellite imagery' Supervisors: Dr G Wharton (QMUL) &amp; Dr CM Heppell (QMUL). [Took over supervision in January 2002 when Dr Tim Davie left the Department of Geography]. Awarded: 2004 . 'Toxicity-induced loss of aquatic vegetation in the Norfolk Broads?' Supervisors: Dr C Sayer (UCL) &amp; Dr CM Heppell (QMUL). Funded by ENSIS (UCL) and CASE from Norfolk Broads Authority. Awarded: 2007. . 'The transport of sediment-associated contaminants through lowland permeable catchments' Supervisors: Dr CM Heppell (QMUL) &amp; Prof D Walling (Exeter University) NERC funded by LOCAR programme. Awarded: 2007. ’An investigation of trace metal partitioning in the Greater Thames Estuary.’ College studentship. Supervisors: Dr K Spencer (QMUL) &amp; Dr CM Heppell (QMUL). Awarded: 2008 . ‘Impacts of floodplain restoration on nitrogen fluxes’ Joint Supervisors: Dr G Wharton (Geog, QMUL), Dr M Trimmer (SBS, QMUL) &amp; Dr CM Heppell (QMUL). CATE College Studentship. Awarded: 2010. . ‘Pollutant release arising from the beneficial re-use of dredged sediment.’ College studentship. Co-supervised by Dr Kate Spencer (QMUL) and Dr CM Heppell (QMUL). Awarded: 2010 . ‘Conduits of contamination from an organotin legacy’ Supervisors: Dr J Gray (SBS, QMUL), Dr CM Heppell (Geography, QMUL). CASE Partner: Centre for Environment, Fisheries &amp; Aquaculture Science. NERC CASE Studentship. Awarded: 2011 . ‘Methane emissions variability from a Welsh patterned raised bog’ Supervisors: Prof AJ Baird (Geog, QMUL) &amp; Dr CM Heppell (QMUL). College Studentship. Awarded: 2011 . ‘Urban river restoration: some potential problems associated with sediment accumulation.’ College Studentship. Supervisors: Prof A Gurnell (Geography, QMUL), Dr CM Heppell (Geography, QMUL), Dr K Spencer (Geography, QMUL). Significant knowledge transfer activities are enabled through grant awards (RSPB, Wessex Water, Norfolk Broads Authority, ADAS, CEFAS), consultancy projects (Defra) and in-kind support (Stody Estate, River Chess Association). For example, I am working with the RSPB, Defra and Norfolk Broads Authority to help understand the balance of greenhouse gas (carbon dioxide, methane and nitrous oxide) exchanges within lowland floodplain environments under conservation management (Defra Consortium Award 2011; NERC CASE Award 2012). I am working with the Chiltern Chalk Streams Project and River Chess Assocation to help these stakeholders understand the impacts of human activities and river restoration projects on in-stream and floodplain biogeochemistry. A critical component of the NERC Macronutrients project (NE/J012106/1) will entail working with Defra, Environment Agency, Wessex Water and CEFAS, as well as local agricultural and land management sectors in the Hampshire Avon catchment, to help these organisations (i) understand how catchment land use changes influence nutrient transport to the coast, and greenhouse gas emissions to the atmosphere; and (ii) to develop and explore nutrient mitigation strategies.</t>
-  </si>
-  <si>
-    <t>Current research explores the interface between the disciplines of geography and ethics (or moral philosophy). The purpose is to develop a more rigorous understanding of normative issues in geography, and in particular those associated with inequality and social injustice. The first phase involved a thorough exploration of literature in moral philosophy, in general and as it bears on (human) geographical inquiry. This has provided the foundation for papers discussing moral issues in development, the spatial scope of beneficence, and moral aspects of community, as well as reviews of work at the interface of geography and ethics which attempts to identify common ground. The work also explores other issues, such as the notion of 'moral geographies', the moral significance of boundaries and movement, entitlement to land and natural resources, and aspects of social justice. As well as being concerned with moral theory, the research involves case studies. These provide contextual understanding, or the 'thickening' of such 'thin' general concepts as rights and social justice. The cases explore moral issues in South Africa after apartheid, the changing 'moral landscape' of the east European city, and conflict over land and settlement in Israel/Palestine. The research was supported by a Leverhulme Fellowship from July 1997 to December 1998, and culminated in a book Moral Geographies: Ethics in a World of Difference. Smith, D. M. (1995) Redistribution and social justice after apartheid. A Lemon (editor), The Geography of Change in South Africa (London, Belhaven), 45–64. Smith, D. M. (1996) The socialist city. G Andrusz, M Harloe and I Szelenyi (editors), Cities after Socialism: Urban and Regional Change and Conflict in Post-Socialist Societies (Oxford, Blackwell), 70–99. Smith, D. M. (1998) How far should we care? On the spatial scope of beneficence. Progress in Human Geography, 22, 15–38. Smith, D. M. (1999) Social justice and the ethics of development in post-apartheid South Africa, Ethics, Place and Environment, 2, 157–77 Smith, D. M. (2000) Moral progress in human geography: transcending the place of good fortune, Progress in Human Geography, 24, 1–18.</t>
-  </si>
-  <si>
-    <t>Maria Kaika holds a D.Phil. in Geography from the University of Oxford, and an MA in Architecture from the National Technical University of Athens as well as professional qualifications as an architect. Her previous posts include: Fellow, St. Edmund Hall, Oxford; Director of Studies in Human Geography at St Hugh's College, Oxford; University Lecturer, Oxford University School of Geography; Junior Research Fellow, Linacre College, Oxford; Lecturer in Human Geography at St Peter's College Oxford. . Other appointments include: Executive Board Member, Remaking Cities Institute, Carnegie Mellon University; Appointed member on International Evaluation Panel of the Academy of Finland (Research Programme on the Future of Living and Housing – 2010). Trustee for the Foundation for Urban and Regional Studies (2005-2010); Distinguished Visiting Fellow at Queen Mary Graduate School of Social Sciences (Sept-Dec 2007); Visiting Professor at the University of Leuven (2008). Visiting Professor at the European University (EUREX) in Urbino (2006). Treasurer of the Royal Geographical Society &amp; Institute of British Geographers’ Urban Research Group (2003-06); and Teaching Liaison Officer for the Royal Geographical Society (2001-2006). Public lectures and keynotes include addresses at London’s Royal Academy of Arts, London’s History Society, the Annual Meeting of the institute of Finnish Geographers. Maria Kaika is regular research funding assessor for the ESRC, and for the Social Sciences and Humanities Research Council of Canada (SSHRC), and appointed peer reviewer of the European Science Foundation Standing Committee for the Social Sciences (SCSS), the European Union, the Georgian Science Foundation, and the Latsis Foundation. She has given seminars and public lectures for international academic institutions, policy organizations (UN Habitat, Royal Academy of Arts, Amnesty International, European Science Foundation, Architecture Foundation, European Environmental Bureau, Greek Environment Ministry) and the private sector (Seville Water company, Thames Water), and has acted as external examiner for the London School of Economics, UCL, Goldsmiths, the Universities of Otago, New Zealand, the National Technical University of Athens (Architecture), and the Harokopeio University of Athens (Geography) 2010 - Coordinator (for Manchester University) International PhD Workshop and Summer School on Cities and Environmental Conflict. Funded through the ERASMUS European PhD student exchange programme. Participants: Autonoma University of Barcelona, University of Manchester, University of Lund, and European University Institute at Budapest. 2009 - Organiser and Coordinator: 1st Graduate Student International Forum for Human Geography: Institute of British Geographers Conference, Manchester, August 2009 - Organiser and Coordinator (with P Devine-Wright and G Baeten) 'Urban Imaginaries: Utopian and Dystopian Thought and Praxis on Nature and the City', RGS-IBG Conference, Manchester, August 2009 - Organiser and Coordinator (with K Furlong) 'Technology, Materiality and the City: Urban Techno-natures and STS', RGS-IBG Conference, Manchester, August RC 21: The Research Committee for the 21st Century, on Sociology of Urban and Regional Development of the International Sociological Association</t>
-  </si>
-  <si>
-    <t>which is housed within the Department of Geography. This facility uses low-background hyper-pure germanium gamma spectrometers capable of measuring low-level environmental radioactivity. Its main work involves producing chronologies for lake sediment cores. Neil Rose's research has focussed on the use of lake sediments as natural archives of atmospherically deposited pollutants, particularly in remote areas and the use of fly-ash particles (especially spheroidal carbonaceous particles: SCPs) as a direct measure of pollutant deposition, as a dating tool for lake sediments and as a surrogate for other deposited pollutants. More recently, Neil's research has also included the scale and causes of temporal changes in sediment accumulation rates and public participation in aquatic science through the Lottery funded OPAL project where he led the OPAL Water Centre. His research has been undertaken in many areas of the world including Greenland, Svalbard, China, Tibet, Alaska, Uganda and many areas of Europe. Impacts of atmospheric pollutants such as heavy metals, persistent organics and especially particulates from the combustion of fossil-fuels on the environment (freshwater, terrestrial and marine systems) on a UK, European and global scale. Spatial and temporal distributions of fly-ash particles using natural archives and the use of the fly-ash particle record as a chronological tool. Relationships of fly-ash particle records with those of other deposited pollutants (e.g. trace metals, persistent organic pollutants) and their use as surrogates. is a 4-year NERC funded project which aims to determine how stressors and connectivity interact to influence biodiversity and freshwater ecosystems across Britain. A series of multi-disciplinary studies at landscape-national scales will provide the first general understanding of how UK freshwaters are connected across the landscape and how stressors including eutrophication; acidification; trace metals; invasive organisms and disease interact with connectivity to influence ecosystem structure and function. Analysis and simulation of the long term / large-scale interactions of C, N and P in UK land, freshwater and atmosphere. 2012 – 2015. This NERC funded project aims to account for observable terrestrial and aquatic pools, concentrations and fluxes of C,N and P on the basis of past inputs, biotic and abiotic interactions and transport processes to assess responses to catchment nutrient enrichment over the last 200 years; determine the effects on transfer from land to atmosphere, freshwaters and estuaries and assess the effects of these on biodiversity. Pb-dated sediment cores to assess temporal trends and rates of change in trace element input tom a series of lakes in the Oil Sands region and compares these with equivalent sediment records of two reference lakes in the Caribou Mountains. 2007 - 2013. Funding from the National Lottery via the Big Lottery Fund. OPAL aims to (i) Change lifestyles to get people to spend more time outdoors; (ii) develop innovative educational programmes that can be accessed by all ages and abilities; (iii) enthuse a new generation of 'environmentalists'; (iv) develop a greater understanding of the state of the natural environment especially in more impoverished areas; (v) develop partnerships between the community, voluntary and statutory sectors. 31 projects comprise the OPAL 'portfolio' to attain these aims. Our role is to run the OPAL Water Centre. This involves not only coordinating the projects related to the national OPAL Water Survey (development and distribution of 40,000 survey packs and associated educational materials) but also undertaking original research including establishing a biomonitoring programme and assessing the impact of toxic pollutants on freshwaters. 2006 – 2009. Funding by The Leverhulme Trust. Project to assess the historical records of atmospherically deposited pollutants using the sediments of lakes taken along a transect across the Tibetan Plateau. The project collaborates closely with the Institute of Tibetan Plateau Research (ITP) and additionally provides background data for ITP monitoring activities and a base-line for monitoring the role of future impacts. 2004 – 2007. Funded by the Department for Environment, Food and Rural Affairs. Continuation of the trace metal monitoring programme transferred from the Freshwater Umbrella Contract (2001 – 2004) to the UK Acid Waters Monitoring Network, including the measurements of Hg, Cd, Pb, Ni, Cu and Zn in deposition, lake waters, sediment traps and a range of aquatic and terrestrial biota. . 2004 - 2005. Funded by the Department of the Environment, Food and Rural Affairs. To assess the post-Industrial trends in Hg, Cd, Pb, Cu, Ni and Zn in 10 lakes across southern and eastern England. 2003 - 2006. Project designed and implemented by the United States National Park Service (Air Resource Division) in cooperation with US Geological Survey and USDA Forest Service. Project involves sampling (lake sediments; vegetation; snow; fish; water) along latitudinal and coastal/interior gradients in seven National Parks for the impacts of atmospherically deposited pollutants. . 2002 - 2003. Funded by the Department for Environment, Food and Rural Affairs. Investigation into the role of pollutants in the toxicity of sediments to two freshwater invertebrates 2000. Funded by Department of Environment, Transport and the Regions. Investigation into the long-term history of metal deposition via the sediment record at five sites across the UK. 1998 - 2001. A joint project with the Institute of Geodesy and Geophysics, Wuhan, East China Normal University, Shanghai and University of Liverpool funded by the Royal Society of London and the Chinese Academy of Sciences. 1994 - 1996. Funded under the EU COPERNICUS programme for Cooperation in Science and Technology with Central and Eastern European countries. FLAME developed a characterisation for the particulate emissions from the major fossil-fuels used industrially throughout Europe and applied this to particulates extracted from 200 contemporary lake sediments across the four countries to determine the distribution and sources of these and associated pollutants. The project also determined heavy metal concentrations in the lakes and their catchment mosses. (2007 - 2013) is a consortium of projects funded by the Big Lottery Fund and aims to bring scientists and the public closer together in a community-led study of local environments by organising activities which anyone of any age, background or ability can get involved with. As PI of the OPAL Water Centre, Neil led the development and management of an innovative educational national water survey programme accessible to people of all ages and abilities, promoted especially within disadvantaged communities. The Survey encouraged greater understanding of the aquatic environment through public participation in water quality and aquatic biodiversity assessment and used high quality research to link the community, voluntary and statutory sectors. Over the 6 years of the project, the OPAL Water team based at the Dept of Geography, UCL worked with many local and national organisations, community groups and individuals across the country to assess the health of the nation's lakes and ponds.Find out more about the OPAL Water Survey The OPAL Water survey involved the distribution of 40,000 free water packs, 20,000 of which were sent as class packs to schools. The OPAL Water Centre has particularly encouraged young people to participate in water science and develop an interest in the natural world via school visits, demonstrations and events delivered by UCL staff over the course of the project. These activities have led, in some cases, to the development of sustainable long-term initiatives supporting children’s ongoing engagement with freshwater monitoring and conservation. Furthermore, the Cub Scouts adopted a version of the OPAL Water Survey as part of their newly revised ‘Naturalist’ badge in May 2012.Water Survey pack contents remain available for free download by any interested member of the public from the : One of the OPAL Water Centre’s primary objectives was to facilitate participation in water science among demographics which might not otherwise have the opportunity. These included deprived communities, people with special educational needs, victims of domestic abuse and black and minority ethnic groups. : OPAL Water centre research enabled local groups to develop conservation policies and also provided key data for the UK contribution to a 2010 consultation on the Stockholm Convention on Persistent Organic Pollutants. This arose from the OPAL Water team’s detailed monitoring and research at 9 lakes across England providing new data on pollutants listed as Priority Hazardous Substances under the European Union's Environmental Quality Standards Directive (2008/105/EC), such as mercury, PCBs (polychlorinated biphenyls) and brominated flame retardants. A report to Defra produced by AEA Technology used OPAL water and fish data to provide evidence for bioaccumulation of HBCD (hexabromocyclododecane) in UK freshwaters to demonstrate that “values are well above the bioaccumulation criterion...for listing under the Stockholm Convention”. It noted that no other UK data were available and made specific reference to OPAL research outputs, concluding these data provided “ample evidence of bio-accumulation…of HBCD in biota”. HBCD has since been included in the Stockholm Convention for proposed elimination. At a local level, the OPAL Water Centre provided data on Fleet Pond in Hampshire to Hart District Council to help their restoration strategy (first phase 2012–15). Hart District Council’s Fleet Pond Management Plan 2010-2015 drew on OPAL Water Centre bathymetric, sediment and aquatic biota monitoring survey data. Dredging of Fleet Pond began in March 2012 and OPAL data will additionally be used to help assess the success of current restoration activities. As part of a UCL Geography team, presented the joys of lake sediment analysis to the public during the Natural History Museum's Afterhours 'Science Uncovered' event (Sept 2013). Trace metal storage in lake systems and its relationship with atmospheric deposition with particular reference to Lochnagar, Scotland. Handong is now works in ECRC and runs the UCL Environmental Radiometric Facility. Particulate air pollution in central London: characterisation, temporal patterns and source apportionment. Xuezhu is currently working for ERM in Shanghai and Beijing. since 1994. ENSIS is a company dedicated to supporting the research of the Environmental Change Research Centre and is thus integral to its research activities. Neil's work via ENSIS includes trace metal and toxicology studies undertaken for DEFRA and involvement in the UK Acid Waters Monitoring Network (now the Upland Water Monitoring Network) since 1988. In addition, the use of spheroidal carbonaceous particles (SCPs) as a means to date sediment cores is widely used in projects undertaken by ENSIS. Lochnagar is a mountain loch located to the south-west of the Cairngorms in Scotland. It has been part of the UK Acid Waters Monitoring Network since 1988 and a key site for European mountain lake research projects. In August 2002, an automatic camera was deployed in the catchment. The camera took a photograph of the loch and the western part of the catchment everyday at midday. Amongst other things, this allowed us to follow the extent and duration of snow and ice cover and to observe how the ice moved during melting. In 2008, after 6 years of enduring some of the harshest weather in the UK, the camera failed and was removed. The following videos show these daily pictures as short time-lapse sequences. Each covers the photographs of Lochnagar over a calendar year. The sequences are largely unedited. Only a few images have been removed when the camera lens was obscured by snow or rain drops.</t>
-  </si>
-  <si>
-    <t>Philip Ogden is Professor of Human Geography. He served as Senior Vice Principal of Queen Mary from 2005 to 2011, with particular responsibility for estate development. He was previously Vice Principal for the Humanities and Social Sciences (1998-2006) and Head of Geography (1992-6). His research interests include demographic change and migration. He is currently working on contemporary household changes in European cities, both in suburbs and central cities; and on French rural society 1900-1950. He also has an interest in higher education policy, particularly with respect to university building development for teaching and research. He was recently part of a research team on 'Learning Landscapes in Higher Education' funded by HEFCE and is currently overseeing the development of a new £39 million Graduate Centre at Queen Mary. In 2015, he was elected Chair of the UK Higher Education Design Quality Forum, which brings together universities, architects and other professionals. He chaired the St Paul's Way School Foundation Trust from 2010-15 and is now a Patron of the school. He served as a Trustee of the St Bartholomew's Hospital Medical College Trust from 2003-13 and of the Central Foundation Schools of London 2010-13. He is currently an Adviser to the London Chamber Orchestra and was elected to the Academy of Social Sciences in 2009. He was made a Freeman of the City of London in 2009 and admitted to the Livery of the Drapers' Company in 2012. He joined the Governing Body of Bancroft's School in Woodford Green in 2011 and has been Chairman since 2013. S. Buzar, A. Haase, R. Hall, A. Steinfuhrer, S. Kabisch and P. E. Ogden (2010) Household structure, migration trends and residential preferences in inner-city Leon, Spain: unpacking the demographies of reurbanisation, A. Haase, S. Kabisch, A. Steinfuhrer, S. Bouzarovski, R. Hall, and P. E. Ogden (2010) Emergent spaces of reurbanisation: exploring the demographic dimension of inner-city residential change in a European setting, S. Buzar, P. E. Ogden, R. Hall, A. Haase, S. Kabisch and A. Steinfuhrer (2007) Splintering urban populations: emergent landscapes of reurbanisation in four European cities, Ogden, P. E. and R. Hall (2004) The second demographic traansition, new household forms and the urban population of France during the 1990s Ray Hall and Philip Ogden are currently working collaboratively on a project that researches population change in European Cities. They are particularly interested in investigating household change and the growth of living alone and non-traditional household forms. They have just received a small grant from the Volkswagen Foundation as part of a programme entitled 'socio-spatial consequences of demographic change for East Central European cities'. For this project they are working with colleagues from Leipzig, Poland and the Czech Republic. They will be adding a comparative dimension using examples from British and French cities. Changes in the numbers and types of household have been quite remarkable over the last two or three decades. This project (with Dr Ray Hall at QM and funded by the ESRC, EU and British Academy) is concerned with the UK, France and other European countries, particularly with the rise of one-person households. It is also interested in associated patterns of migration at both national and regional (especially urban) scales. Principal sources include censuses, as well as longitudinal data from the Longitudinal Study (England and Wales) and the Echantillon Démographique Permanent (France). The research also embraces qualitative methodology. A Nuffield Foundation grant to Philip Ogden concentrates upon recent household changes in leading British and French cities. A further phase of the project (with Ray Hall and Stefan Buzhar at QM and European partners in Germany, Slovenia, Italy, Spain and Slovakia) is looking particularly at household changes and reurbanisation. The department at Queen Mary has long had an interest in population and migration trends in France and other parts of Europe. Recent years have seen a number of publications, reports and PhD theses produced in this field, and there is much scope for further work in a broadly European context in the department. Work in France has been concerned with general immigration trends in the l980s and 1990s and their political consequences; also with the evolution of French government policy throughout the twentieth century. A research network was established in 1998, funded by the British Council and the Ministère des Affaires Etrangères (Paris), bringing together researchers from the Population Dynamics and Health Research Group at QM (Ogden, Hall, Curtis) and from the Universities of Paris, Lille, Lyons and Toulouse. The principal theme of collaborative research is household and population change in British and French cities, subsequently expanded to other European countries (see above). This project formed part of the department's broad and long-standing interests in migration trends in nineteenth- and twentieth-century Europe. The present project is set within the context of immigration to France since the Second World War, which has become an issue of major social, economic and political importance. By the 1980s the population of foreign nationality numbered some four millions and was strongly concentrated geographically and in particular sectors of the economy. Although much research, comment and controversy have focused on the population of North African origin, immigrants in fact come from a wide variety of sources both within and outside Europe. This project looked at a highly distinctive group - migrants from the French Caribbean islands of Martinique and Guadeloupe - who, because of their French nationality (the islands are départements d'outre-mer) and the organized nature of their migration, share only in part the socio-economic characteristics of the foreign immigrant population. Quantitatively, they are by no means negligible: the 1999 census indicated that over 400,000 people originated from the départements et territoires d'outre-mer (of whom two-thirds were from the Caribbean) and they have been one of the fastest-growing migrant groups, escaping the immigration controls on foreign nationals imposed during the 1970s and 1980s. This project focused on the process of migration and the role of governmental and private agencies in shaping and implementing migration policy; and on patterns of residence and employment amongst Afro-Caribbean migrants, with particular reference to Paris and to the health service. The latter phase of the project investigated return migration to the Caribbean in the context of changing French government policy in the 1980s and 1990s. During the 1980s and 1990s, the London Docklands experienced change of revolutionary proportions. The previous two decades had seen the gradual erosion of both port activities and the associated manufacturing and service industries. The population was in decline, unemployment high and social conditions - in an area that has rarely known prosperity - rapidly deteriorating. A number of schemes for urban regeneration had been mooted but it is particularly with the activity of the London Docklands Development Corporation (LDDC) from 1981 to 1998 that the dramatic change in the pace and nature of development is associated. Though the landscape of Docklands has evolved rapidly, with massive office and housing schemes being completed at breakneck speed, the process of change - and the evaluation of 'success' or 'failure' - is highly contentious. Certainly, there is an urgent need for academic research on the area, as it has assumed both national and international prominence. Research at QM during the 1990saimed to elucidate one aspect of the development process: the arrival and nature of new residents. Funding was obtained in cooperation with colleagues in Paris and Brussels, since there is much to be learnt about the London experience in the light of wider changes in other European cities. The project is thus placed within the context of changes in the financial and economic structure of the city, and their consequences for 'gentrification'. The aim was to investigate the residential and other demographic and socio-economic characteristics of the new population. Among questions of particular interest to us were the geographical origins of the population, their recent mobility history, their family status, number of children, occupation, income, place of work and pattern both of travel to work and of international travel as part of work. Three sorts of source materials were used: an extensive questionnaire survey in the westernmost part of the LDDC area - Wapping and Limehouse - among residents in properties converted or built since 1981; a variety of material about the character of new residential building in the area, obtained through developers, architects and estate agents; and, as a base against which to compare our results, the small-area data from the censuses of population. Results confirmed some and rejected other aspects of the stereotypical view of the new residential population. Qualitative research has been carried out in the area as part of the ESRC-funded project on household change noted above. Philip Ogden and Andrew Hussey 2011 'International university partnerships and the role of the French connection: the experience of a London College' in M Fraser and P Lane (eds) P E Ogden 2011 'Living in the European city: demographic change and residential patterns' in A Haase et al. (eds) S. Buzar, A. Haase, R. Hall, A. Steinfuhrer, S. Kabisch and P. E. Ogden (2010) Household structure, migration trends and residential preferences in inner-city Leon, Spain: unpacking the demographies of reurbanisation, A. Haase, S. Kabisch, A. Steinfuhrer, S. Bouzarovski, R. Hall, and P. E. Ogden (2010) Emergent spaces of reurbanisation: exploring the demographic dimension of inner-city residential change in a European setting, S. Buzar, P. E. Ogden, R. Hall, A. Haase, S. Kabisch and A. Steinfuhrer (2007) Splintering urban populations: emergent landscapes of reurbanisation in four European cities, P. E. Ogden and F. Schnoebelen (2005) 'The rise of the small household: demographic change and household structure in Paris', Ogden, P. E. and R. Hall (2004) The second demographic traansition, new household forms and the urban population of France during the 1990s Hall, R. and P. E. Ogden (2003) The rise of livingalone in Inner London: trends among the population of working age Ogden, P. E. and R. Hall (2000) Households, reurbanisation and the rise of living close in the principal French cities, 1975-1990 Hall, R., P. E. Ogden and C. Hill (1999) 'New ways of iving: one-person households in England &amp; Wales and France' in S. McRae (ed) Ogden, P. E. and R. Hall (1998) 'Personnes seules et migrations en France et en Grande Bretagne: analyse comparative des recensements et des études longitudinales' Condon, S. A. and P. E. Ogden (1997) 'Housing and the state in the French Caribbean' in D. Conway and R. Potter (eds), Hall, R., P. E. Ogden and C. Hill (1997) The pattern and structure of one-person households in England and Wales and France Condon, S. A. and P. E. Ogden (1996) Questions of emigration, circulation and return: mobility between the French Caribbean and France, Butcher, I. and P. E. Ogden (1984) West Indians in France: migration and demographic change. In P. E. Ogden (ed.) Migrants in modern France: four studies.</t>
-  </si>
-  <si>
-    <t>Martin is Professor of Geomorphology at the University of Manchester. He has 20 years experience working on upland peatlands resarching the impact of erosion and restoration on water carbon and pollutant flux. Peatland carbon balance has been a particular focus. Much of this work has been undertaken in partnership with practitioners and policy makers. He has published extensively in these fields including books on peatland geomorphology and the impact of peatland restoration on ecosystem services. Recent research projects include work on the impact of peatland restoration in the uplands on downstream flood risk, analysis of carbon cycling in upland reservoir systems, and work on the transformation of particulate and organic carbon in river systems. Martin has a wider interest in the role of geomorphological processes in the terrestrial carbon cycle. He has promoted this area of study through his work with British Society for Geomorphology and the European Geophysical Union. Currently he is a Leverhulme fellow working on a project on integrating geomorphological understanding into conceptualisations of the terrestrial carbon cycle. Martin also has significant interests in schools geography. he is an editor of Geography Review, the magazine for A-Level Geographers and chaired the ALCAB geography panel which advised government on the content of new Geography A levels. he has been very active speaking to groups of teachers and stakeholders to support the introduction of the new A Level content. Martin also works to promote geography as a discipline more widely through his role ad Chair of the Conference of Heads of Geography in Higher Education.</t>
-  </si>
-  <si>
-    <t>I am an historical geographer concerned with understanding the relationships between power, space and knowledge (or communication) in a range of mainly eighteenth-century contexts. My work has dealt with the new geographies of eighteenth-century London, and trying to understand them as (1998). It has also investigated the ways in which the English East India Company used a variety of forms of writing ( , 2007) to construct a global trading network and territorial empire in India from 1600 to 1800. This was the same broad timespan for my attempt to write an introduction to global history through biography in (2008). I am currently undertaking a Leverhulme Trust Major Research Fellowship (2015-2017) on the relationship between speech and slavery in the Caribbean. This work investigates how different forms of talk – such as evidence giving in court, discussions of the plants that grew on the islands, and communications with the world of gods and spirits – demonstrate the complexities of the power relations of slavery and empire. One element of this work was presented in the session on Historical and Cultural Geographies of Story and Storytelling at the RGS-IBG conference in Exeter in September 2015. It is a paper called ‘We cannot but speak the thing, which we have seen and heard: believing stories in Caribbean slave societies’. Hear it here: I teach modules in human geography at both undergraduate and postgraduate level. In all of my teaching I aim to introduce students to key concepts through using a wide range of examples (often from my own research), and getting students to analyse and understand original materials for themselves. I have also written the textbooks for my own courses, so that students have clear guidance on what I am looking for and a range of resources to bring to the classroom. I teach parts of human geography that are often new to students arriving at university, so it is important to make them accessible. In the second year I teach the cultural geography part of GEG5110 . Here students learn about the meanings of spaces, places and landscapes and, for their coursework, are asked to choose a picture of a landscape to interpret for themselves. In the third year I teach a module (GEG6105 –and also on visits to London museums. Here students are taught how to use historical sources, and how to write their own historical accounts of subjects such as slavery, piracy and oceanic voyaging. I am currently part of the team that has devised a new fieldcourse to Boston, USA for second and third years – GEG5125/GEG6125 – which will involve students learning on the ground how we can understand the city’s past and present through a combination of historical documents, surviving objects and examining the landscape of the city itself. , which examines how public spaces in a range of cities, past and present, have emerged, changed and come under threat. This on-going research project considers the relationships between talk, text and (un)freedom in the slave societies of the Caribbean. Focusing on law, natural history, religion and politics, as well as the movements for abolition and emancipation, this project attends not to what was said in the past but to the cultural practices of talk themselves. These are particular, more or less rule-bound, ways of speaking such as the sermon, the botanical conversation, the giving of evidence, gossip or debating. In each case I examine the social and spatial relationships that were involved in and produced through these practices from the small scale geographies of the spaces where talk went on (in courtrooms, plantations gardens and streets) to the trans-Atlantic networks that these modes of speech were part of. Studying speech provides an empirical and theoretical basis for moving away from the dominant textual model of representation of people and places towards one based on the idea of an on-going, situated, power-laden and agonistic ‘conversation’ with many participants using text and talk in different ways. This five-year collaboration between Queen Mary and the V&amp;A Museum of Childhood (2010-15) focuses on researching the lived experiences of London children between 1870 and the present day. The research is being undertaken by three PhD students working on distinct Collaborative Doctoral Awards (CDAs) on children, home and empire (Mary Guyatt); children, migration and diaspora (Eithne Nightingale); and children and global citizenship (Lamees al Mubarak). The supervisory team consists of Alison Blunt, Alastair Owens and myself in the School of Geography, Kiera Vaclavik in the School of Languages, Linguistics and Film, and by colleagues at the V&amp;A Museum of Childhood. The research will inform the redisplay of the museum and produce a range of learning resources. Sir Hans Sloane (1660–1753), doctor, traveller, natural philosopher and man of letters, was responsible for gathering together one of the greatest collections of the seventeenth and eighteenth centuries, which went on to form the basis of the British Museum. This project of three interlinked PhD studentships investigates his collection of thousands of manuscripts and printed books, multiple albums full of pictures and numerous objects (including a vast range of botanical and zoological specimens) to understand how it was part of the great transformation of knowledge about the world and about nature in the early Enlightenment. In collaboration with the Natural History Museum, my part in the project is to supervise Victoria Pickering’s research on Sloane’s “Vegetable Substances”, a collection of over 8000 catalogued specimens in individual hand-made boxes. You can hear something about this in this short talk I gave at the Natural History Museum. (Prentice Hall, Hemel Hempstead) xxii + pp. 467. Also published by University of Georgia Press, Athens, 2000; Chapter 4 ‘Topographies of Culture’ (by M. Ogborn) reprinted in a Custom Book by University of Southern Australia; Chinese language edition, 2004, Higher Education Press, Beijing, xxii + pp. 500); Polish language edition 2007, Zysk i S-ka Wydawnictwo, Poznan; Korean language edition, forthcoming, Hanul Publishing, Seoul. M. Ogborn (2013) “It’s not what you know…” : encounters, go-betweens and the geography of knowledge,’ [5300 word review essay] M. Ogborn (2010) ‘The amusements of posterity: print against empire in late eighteenth-century Bengal,’ in M. Ogborn and C.W.J. Withers (eds) M. Ogborn (2009) Contribution [2,500 words] to a book review symposium along with David Arnold on James S. Duncan (2007) D. Lambert, L. Martins and M. Ogborn (2006) ‘Currents, visions and voyages: historical geographies of the sea,’ for special issue on ‘Historical Geographies of the Sea’, M. Ogborn and C. W. J. Withers (2004) ‘Knowing other places: travel, trade and empire, 1660-1800,’ in C. Wall (ed.) M. Ogborn and C. W. J. Withers (2004) ‘Introduction: Georgian geographies?’ in M. Ogborn and C. W. J. Withers (eds) C. Nash and M. Ogborn (2003) ‘Historical geography: making the modern world,’ in A. Rogers and H. A. Viles (eds) M. Ogborn (2003) ‘Knowledge is power: using archival research to interpret state formation,’ in A. Blunt, P. Gruffudd, J. May, M. Ogborn and D. Pinder (eds) M. Ogborn (1999) ‘This most lawless space: the geography of the Fleet and the making of Lord Hardwicke's Marriage Act of 1753,’ M. Ogborn (1996) ‘History, memory and the politics of landscape and space: work in historical geography from autumn 1994 to autumn 1995,’ I welcome applicants for PhD research on any aspect of the historical geography of the long eighteenth century, particularly in relation to questions of knowledge and questions of global trade, maritime history and empire. I also welcome applicants interested in questions of space, power, knowledge and communication in other periods and places, or those who are interested in collaborative research projects with museums. My research (and some teaching) increasingly involves working with museums. As well as being a past and present member of advisory committees for the National Maritime Museum and the Museum of London. I am the supervisor of AHRC Collaborative Doctoral Awards with the National Maritime Museum (on masculinity and material culture in the eighteenth-century Royal Navy, and on representations of the Thames as the river of empire in the eighteenth century), the Natural History Museum (Reconnecting Sloane) and the Museum of Childhood (The Child in the World). Each of these projects will lead to changes in the way that these museums and their many visitors experience and engage with their collections. As a small example, I am proud to say that the interactive pleasure gardens exhibit in the Capital City galleries of the Museum of London was inspired by my work in</t>
-  </si>
-  <si>
-    <t>I am a social geographer with a particular interest in issues of inequality and social justice and neoliberal welfare reform. My work uses an ethnographic approach to explore questions of inequality and social justice on the ground, through the experiences of food banking, homelessness, and low wage work. I am particularly interested in exploring sites of potential challenge to neoliberal political and ethical values and practices. Beyond Queen Mary I am the external examiner for BA/MA Human Geography at the University of Edinburgh, and the MA Social Research at the University of Sheffield, on the editorial board of ; and a member of the ESRC's Peer Review College. I am a Trustee of Bow Foodbank, and of the Independent Food Aid Network (IFAN). Williams, A., Cloke, P., May, J., and Goodwin, M. (2016) ‘Contested space: the contradictory political dynamics of food banking in the UK’, Devertueil, G., May, J., and Von Mahs, J. (2009) ‘Complexity not collapse: recasting geographies of homelessness in a ‘punitive age’’, May, J., Wills, J., Datta, K., Evans, Y., Herbert, J. and McIlwaine, C. (2007) ‘Keeping London working: global cities, the British state, and London’s new migrant division of labour’, is taken in the 2nd year, introducing students to the key concerns of social geography. It centers upon an understanding of societies as products of uneven and always negotiated relationships of power. Drawing mainly but not exclusively on examples from the UK, it shows that social experience and identities are differentiated according to the social constructions of race and ethnicity, class, gender and sexuality and that, rather than simply varying across space, geography itself is central to the construction of social difference. The module aims to develop skills of critical social interpretation on the part of the students. Topics include: The geographies of race and ethnicity; Race, class and inequality in the global city; The purification of public space and the collapse of homeless space; The gendering of urban space; The geographies of sexuality; Rural homelessness and poverty. The module is assessed by 100% coursework, consisting of a 2000 word mock Wikipedia entry based upon a self-guided field walk in East London (50%), and 3000 word course work essay (50%). In feedback, students have praised the "engaging and encouraging lecturer", the interesting topics and the way in which "seminars really helped me to engage with the key points", and the "different form of assessment, that allowed me to develop wider skills" and to "really engage with the literature and see its relevance to the real world". to explore recent changes to north American and western European cities. The module can be taken in the second or third year. Using Los Angeles and Las Vegas as examples, and the notion of the 'post-metropolis' as an organising framework, students explore the key processes driving recent changes to our cities (globalisation and economic restructuring), the nature of those changes (rising inequality, and the emergence of new urban forms - from gentrification, to 'edge cities'), and responses to those changes (both the increased concern with urban security, and the increased 'theming' of urban environments). The module is organised around an innovative program of seminars (combining outline lectures, videos, and student presentations), and a 10 day residential field class in Los Angeles and Las Vegas that includes visits to a ‘master planned community’ in Orange County, California; community organisations in South-Central Los Angeles; group work in Korea Town, Venice Beach, Skid Row and Downtown Los Angeles; and ethnographic work on the Strip and in the themed casinos and hotels of Las Vegas. The module is assessed by 100% course work, with students completing a detailed Learning Log (reporting on their learning during the seminar course), a course work essay, and Field Diary (outlining their experiences in Los Angeles and Las Vegas). In feedback students found the module helped them to "think about cities in new ways", found the field trip "brilliant", "eye opening", and the course itself "the best I have taken at university". Framed by a concern with social justice, and alternatives to neoliberal welfare reform, over the past decade or so my research has focused on three key areas: 1) the politics of food banking, 2) the geographies of street homelessness, and 2) the role of migrants in London's low-wage economy (British Academy £8,516) with Paul Cloke (University of Exeter), Andrew Williams (University of Cardiff) and Liev Cherry (Queen Mary University of London). The recent and rapid rise in the number of food banks in Britain has generated significant public and political debate. Framing their work in neo-liberal political economy and welfare, academic accounts of food banking have tended to be highly critical. Working with food bank providers and users, and examining both more familiar and a range of alternative approaches to food banking, this project explores food banks as a response to food insecurity and as potential sites of challenge to neoliberal political and ethical values and practices. , and related work with Paul Cloke (University of Exeter) (ESRC, £124,000) has sought to extend overly narrow and dystopic accounts of neoliberalism and urban revanchism by examining instead the various and complex experiences of and responses to street homelessness in contemporary Britain. Focusing on the potential and limits of post-secularism as a form of resistance and alternative to the neoliberalisation of the city and of welfare, our work has traced the changing geographies of homeless service provision, and homeless people’s own understandings of voluntary service spaces and of the streets. The Global Cities at Work project, with QMUL colleagues Kavita Datta, Cathy McIlwaine and Jane Wills (ESRC £240,000) explored the role of labour market policy, subcontracting, and migration in shaping London's low-wage labour market and a distinctive Migrant Division of Labour in contemporary London, the diverse experiences of low-paid migrant workers themselves, and the politics attendant to such divisions. (£8,516) Emergency Food Provision in the UK (with Paul Cloke, University of Exeter, Andrew Williams, University of Cardiff, and Liev Cherry, Queen Mary University of London). On-going (£240, 670) Global Cities at Work: migrant labour and employment in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills [Principal Applicant] Department of Geography, Queen Mary). Final report graded: Outstanding (infrastructural support) (Total funding £19,700) London Citizen’s Summer Academy: Survey of Low Paid Workers in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills, Department of Geography, Queen Mary) June-August 2005 (£124, 994): Homeless Places: the uneven geographies of provision for single homeless people (Principal applicant: Professor Paul Cloke, University of Exeter). Final report graded: Outstanding (£3000): Education and Citizenship - mapping the land in the 1996 Land Use UK Project. (Co-applicant with Dr. A. Binns and Dr. S. Rycroft, University of Sussex). (£240, 670) Global Cities at Work: migrant labour and employment in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills [Principal Applicant] Department of Geography, Queen Mary). Final report graded: Outstanding (infrastructural support) (Total funding £19,700) London Citizen’s Summer Academy: Survey of Low Paid Workers in London (With Dr Kavita Datta, Dr Cathy McIlwaine, and Professor Jane Wills, Department of Geography, Queen Mary) June-August 2005 (£124, 994): Homeless Places: the uneven geographies of provision for single homeless people (Principal applicant: Professor Paul Cloke, University of Exeter). Final report graded: Outstanding (£3000): Education and Citizenship - mapping the land in the 1996 Land Use UK Project. (Co-applicant with Dr. A. Binns and Dr. S. Rycroft, University of Sussex). Williams, A., Cloke, P., May, J., and Goodwin, M. (2016) ‘Contested space: the contradictory political dynamics of food banking in the UK’, Cloke, P., Johnsen, S. and May, J. (2012) ‘Ethical Citizenship? Faith-based volunteers and the ethics of providing services for homeless people’, in Beaumont, J., Cloke, P. and Vranken, J. (eds) Deverteuil, G., May, J. and Von Mahs, J. (2009) ‘Complexity not collapse: Re-casting the geographies of homelessness in a ‘punitive age’’, May, J. (2008) ‘Of Nomads and Vagrants: Single Homelessness and Narratives of Home as Place’, in Oakes, T. S. and Price, P.L. (eds) Cloke, P., Johnsen, S. and May, J. (2007) ‘The periphery of care: emergency services for homeless people in rural areas’, May, J., Johnsen, S. and Cloke, P. (2007) ‘Alternative cartographies of homelessness: rendering visible British women’s experiences of ‘visible’ homelessness’, May, J., Cloke, P., and Johnsen, S. (2006) ‘Shelter at the margins: New Labour and the changing state of emergency accommodation for single homeless people in Britain’, Cloke, P., Johnsen., S. and May, J. (2005) ‘Exploring ethos? Discourses of charity in the provision of emergency services for homeless people’, Datta, D., McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2010) ‘A migrant ethic of care’ Negotiating care and caring among migrant workers in London’s low pay economy?, Datta, D., McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2009) ‘Men on the move? Embodied narratives of migration and work among low paid men in London’, Wills, K., Datta, K., Evans, Y., Herbert, J., May, J. and McIlwaine, C. (2009) ‘Religion at work: The role of faith-based organizations in the London living wage campaign’, May, J., Datta, K., Evans, Y., Herbert, J., McIlwaine, C. and Wills, J. (2008) ‘Travelling neoliberalism: Polish and Ghanaian migrant workers in London’, in Smith, A., Stenning, A. and Willis, K. (eds) Herbert, J., May, J., Datta, K., Evans, Y., McIlwaine, C. and Wills, J. (2008) ‘Multicultural living? Experiences of everyday racism amongst Ghanaian migrants in London’, May, J., Wills, J., Datta, K., Evans, Y., Herbert, J. and McIlwaine, C. (2007) ‘Keeping London working: global cities, the British state, and London’s new migrant division of labour’, Datta, K., McIlwaine, C., Evans, Y., Herbert, J., May, J. and Wills, J. (2007) ‘From coping strategies to tactics: London’s low-pay economy and migrant labour’ Datta, K., McIlwaine, C., Wills, J., Evans, Y., Herbert, J., and May, J. (2007) ‘The new development finance or exploiting migrant labour? Remittance sending among low-paid migrant workers in London’, Evans, Y. Wills, J., Datta, K., Herbert, J., McIlwaine, C. and May, J. (2007) ‘‘Subcontracting by stealth’ in London’s hotels: impacts and implementation for labour organising’, I would be happy to discuss your ideas with you prior to application, and would welcome students wishing to work on any of the following broad areas: What are the implications of recent changes to the welfare state on the citizen-status of low-income 16-24 year-olds in the UK?</t>
-  </si>
-  <si>
-    <t>I am a feminist cultural geographer with research interests in geographies of identity, relatedness and belonging. I am particularly interested in bringing together a cultural geographical perspective and a focus on kinship which includes attention to genealogical knowledges and imaginations and practices of making relations. I am currently extending this work by addressing interspecies kinship, entangled family histories of animals and people, and the symbolic, practiced, affective, embodied and spatial dimensions of human-non-human relatedness. My recent research, initially funded by an ESRC Research Fellowship (2004-7), has focused on ideas of ancestry and origins in popular genealogy and human population genetics. This work addresses what I describe as in contemporary accounts of shared and differentiated descent and includes an distinctive focus on the making of ideas of sexual difference through accounts of the geography of human genetic variation. This work has been published as two books: This work has also has been paralleled by recent collaborative research funded by the AHRC on the home as a site of historical knowledge, imagination, meaning and practice. My collaborative research on the cultural geography of the Irish border, also funded by the AHRC (published as (Ashgate, 2013) reflects my long term in research interests in Ireland and Northern Ireland as well as the rest of the UK. My aim in teaching is to create a stimulating and supportive context for learning. This means fostering active student engagement with concepts, approaches and issues in a wide range of teaching contexts and advising students in module teaching and as a tutor and supervisor of undergraduate, masters and PhD students. Engaging with ideas and issues in concrete ways through well-prepared and in-depth fieldwork is an especially important dimension of my teaching and is the basis for the lecture, seminar and field work module ‘Geography, Identity, Belonging’ focused on these themes in Ireland and Northern Ireland. I reflect on this module in my contribution to a set of papers on teaching political geography in the journal Alison J. Williams, Alex Jeffrey, Fiona McConnell, Nick Megoran, Kye Askins, Nick Gill, Catherine Nash and Raksha Pande (2013) ‘Interventions in teaching political geography: Reflections on practice’, This project extends recent work on the cultural geographies of everyday domestic spaces and forms of public history by addressing how the past is imaginatively reconstructed and experienced in the home. It takes up an archaeological focus on ‘pre-habitation’ – which concerns the investigation of once-inhabited places where traces of habitation remain – to explore the experiences, meanings, knowledges, attitudes, practices and material dimensions associated with senses of domestic pre-habitation and inheritance in Britain. The research will feature in an exhibition to open at the Geffrye Museum of the Home, London in September 2013. The research is featured in our project exhibition, entitled This project explored the nature and effects of the border between Ireland and Northern Ireland from the perspectives of those who have lived on or near this border since it was established at the beginning of the 1920s, focusing in particular on the period from 1950 to the present day. Though archival sources and interviews the project examined the changing nature of the border over time, its effects on everyday life, the distinctive regional impacts of these effects, the symbolic, material and practised dimensions of the border, and the senses of local, regional, national and cross-border collective identities and differences, interconnections and divisions, through the accounts of those most directly affected by the border. The research has been published as journal papers and in: The programme of research carried out during this Research Fellowship set out to examine the understandings of human relatedness being expressed through and shaped by contemporary popular and scientific explorations of personal and collective origins and ancestry. More specifically, it sought to address the ways in which ideas of human connection and difference and categories of ethnicity, gender, race, and national identity feature within and are reconfigured through the practices, technologies and cultures of popular genealogy, human population genetics and their intersection in genetic genealogy. My research explored the political implications of the geographies of human relatedness being shaped by ideas of shared and distinctive collective ancestry and ancestral origins. The research has been published as journal papers and is the basis of two books: Nash, C. (2013) ‘Genome geographies: mapping national ancestry and diversity in human population genetics’, Transactions of the Institute of British Geographers, 38(2): 193–206. Nash, C. (2012) ‘Irish DNA: Making Connections and Making Distinctions in Y-Chromosome Surname Studies’ in Katharina Schramm, David Skinner and Richard Rottenburg eds. Nash, C., L. Dennis, and B, Graham, 2010, ‘Putting the border in place: customs regulation in the making of the Irish border, 1921–1945’, Nash, C. (2007) ‘Mapping origins: race and relatedness in population genetics and genetic genealogy’ in Paul Atkinson and Peter Glasner eds. Nash, C. (2003) ‘‘They’re family!’: cultural geographies of relatedness in popular genealogy’ in Sara Armed, Anne-Marie Fortier and Mimi Sheller eds. ‘Securitising Britishness - the impacts of the promotion of fundamental British values and the Prevent strategy on schools, teachers and Muslim communities in London I welcome enquiries from those who would like to undertake PhD research in cultural geography on topics related but not restricted to my particular research interests. I have a longstanding interest in imaginative ways of engaging with the public and in exploring the intersections between academic and creative modes of producing knowledge and exploring ideas. This stemmed initially from a PhD in geography and art history at the University of Nottingham, which included a focus on visual art in Ireland in the early and late twentieth century, and whose research formed the basis of the exhibition That research led to a longstanding interest in the work of artist Kathy Prendergast and a collaborative relationship which later resulted in our successful application for her award of an AHRC Fellowship in the Creative and Performing Arts in the Department of Geography, Royal Holloway. The project we developed there to explore the relationship between geography and visual art entitled I have written about her work in geography and art history publications, and more recently, in an exhibition catalogue essay: More widely I have tried to foster creative ways of doing cultural geography by establishing the section ‘Cultural Geographies in Practice’ in the journal</t>
-  </si>
-  <si>
-    <t>2008: Taylor and Francis Award for excellence in teaching and learning in geography in higher education, Royal Geographical Society (with the Institute of British Geographers) After an undergraduate degree at St Catharines College Cambridge, I did postgraduate work at the University of Wisconsin, Madison and completed a PhD at Cambridge. My first post was as a Lecturer at the University of Manchester (1971) where eventually I became Professor of Geography. My research interests have been on the geographies of education, the geographies of children and urban policy evaluation. The underlying themes that tie the work together are inequalities, social exclusion and social polarisation. Similar themes featured in my teaching. I have also completed some pedagogic research and published papers on learning and teaching, and earlier in my career written texts for school geography.</t>
-  </si>
-  <si>
-    <t>The realms of meso-scale meteorology cover atmospheric circulations with characteristic horizontal dimensions of 10-100 km. Within this field the research concentrates on numerical modelling of flows at the small end of the meso-scale range. These flows are thermally generated due to the inhomogeneity of the surface and have significance in the contexts of both pure and applied science. The most obvious applications of increased understanding of the flows are in weather forecasting and air pollution studies. The research programme uses two numerical models developed in the Meteorological Office: one is a meso-scale model; the other is at a much smaller scale (virtually a Large Eddy Simulation model), appropriate for analysis of flows on the scale of 100 m. They are currently being used to analyse: both daytime and night-time flows over slopes and in valleys, concentrating upon the effects of orography, stability, entrainment, radiation and internal turbulence structure upon the creation, development and demise of the near-surface flows; the effects of polynyas on the Antarctic boundary layer; the propagation environment in coastal areas; and the urban boundary layer. Currently, two post-doctoral research assistants work on these topics. Collaboration with the Meteorological Office is particularly good. We also have links with the Joint Centre for Meso-scale Meteorology at the University of Reading and the European Research Community on Flow, Turbulence and Combustion (ERCOFTAC). The latter is a Europe-wide organization linking research groups with interests in fluid flows over a wide range of scales. The research has been funded by NERC, ODA, the British Council, the Foreign and Commonwealth Office, Ministry of Defence and the Meteorological Office. Dare, R. A. and Atkinson, B. W. 1999 Numerical modelling of atmospheric response to polynyas in the Southern Ocean sea ice zone. Dare, R. A. and Atkinson, B. W. 2000 Atmospheric response to spatial variations in concentration and size of polynyas in the Southern Ocean sea ice zone. Atkinson, B. W., Li, J.-G. and Plant, R. S. 2001 Numerical modelling of the propagation environment in the atmospheric boundary layer over the Persian Gulf. Zhu, M. and Atkinson, B. W. 2004 Observed and modelled climatology of the land-sea breeze circulation over the Persian Gulf.</t>
-  </si>
-  <si>
-    <t>James Evans is a Professor in Geography whose research explores how cities learn to become smarter and more sustainable. He has published widely on urban environmental governance, with over 30 peer-reviewed papers and two authored books in the field and has held fellowships at UCLA and the Volkwagen Institute. His current research explores the role living labs are playing in achieving smart and sustainable urban development, and he is leading the University's involvement in Triangulum, a five-year Horizon 2020 project to establish smart districts across Europe. He is committed to developing innovative and interdisciplinary action research styles, establishing and directing the University Living Lab and the Manchester Cycling Lab, and has worked with a range of external organisations, including the United Nations, Arup and a range of national and local governments. Since 2014 he has been a Formas Guest Researcher at Lund University leading research on urban labs.</t>
-  </si>
-  <si>
-    <t>My research focus is in Quaternary science, in particular geoarchaeology and the Palaeolithic record in Britain. I have been involved in a number of major UK Palaeolithic archaeological research projects including the Ancient Human Occupation of Britain (AHOB) Project (2001-12), the Pathways to Ancient Britain Project and the Happisburgh Palaeolithic Project. I am Principal Investigator on the Breckland Palaeolithic Project (2016-19), funded by the Leverhulme Trust and a Co-director of the Barnham Palaeolithic Excavation. I was a Co-Investigator on the Mapping Palaeolithic Britain Project (2013-16), also funded by the Leverhulme Trust. The recent discovery of ancient human footprints at Happisburgh received the 2015 “Rescue Dig of the Year” award. I was awarded the Henry Stopes Medal by the Geologists’ Association in 2015. Davis, R.J., Hatch, M., Ashton, N., Hosfield, R., Lewis, S.G. 2016. The Palaeolithic record of Warsash, Hampshire, UK: implications for late Lower and early Middle Palaeolithic occupation history of Southern Britain. Voinchet, P., Moreno, D., Bahain, J.-J. Tissoux, H., Tombret, O., Falgueres, C., Moncel, M-H., Schreve, D., Candy, I., Pierre Antoine, Ashton, N., Beamish, M., Cliquet, D., Despriée, J., Lewis, S.G., Limondin-Lozouet, N., Locht, J.-L., Parfitt, S., Pope, M. 2015. New chronological data (ESR and ESR/U-series) for the earliest Acheulian sites of north-western Europe. Ashton, N., Lewis, S.G., De Groote, I., Duffy, S., Bates, M.B. Bates, C.R., Hoare, P.G., Lewis, M., Parfitt, S.A., Peglar, S., Williams, C., Stringer, C.B. 2014. Hominin footprints from Early Pleistocene deposits at Happisburgh, UK. Bailiff, I.K., Lewis, S.G., Drinkall, H., White, M.J. 2013. Luminescence dating of sediments from a Palaeolithic site associated with a solution feature on the North Downs of Kent, UK. , Abel, R.L., Coope, G.R., Field, M.H., Gale, R., Hoare, P.G., Larkin, N.R., Lewis, M.D., Karloukovski, V., Maher, B.A., Peglar, S.M., Preece, R.C., Whittaker, J.E., Stringer, C.B. 2010. Early Pleistocene human occupation at the edge of the boreal zone in northwest Europe. I am involved in a wide variety of teaching activities, ranging from lecture-based courses, to practical and field based teaching. I have led field classes to a variety of UK locations, mainly in upland environments and I have run the 1 year field class to the Cairngorms, Scotland for a number of years. These field courses have two main aims: to develop students’ understanding of processes in the natural environment and to provide skills training through project work in preparation for independent projects. I currently teach on the following modules: My research focuses on geoarchaeology and the Palaeolithic record in Britain, with contributions to a number of research projects concerning the Palaeolithic archaeological record, particularly in Eastern England. is a 3 year, Leverhulme Trust funded project exploring the Palaeolithic record of the Breckland region of East Anglia. It will focus on the evidence for the earliest human presence in the area, the environment and lithic record of MIS 11 and the Lower/Middle Palaeolithic transition. The project involves collaboration with the British Museum, Natural History Museum and the Muséum National d’Histoire Naturelle in Paris. project is continuing some of the work of the AHOB project, including on-going research at Happisburgh, where recently-discovered hominin footprints are the oldest examples outside Africa. The project also involves new work at Barnham, Suffolk. This research is building on previous work at the site by the research team (1989-1994) to investigate a number of key questions about the relationship between different artefact assemblages and the environmental signal at the site. I am also a member of a consortium led by British Museum on an English Heritage funded project which is seeking to establish the extent on-shore and off-shore of the archaeologically important deposits at Happisburgh. My role concerns the onshore geological investigations, results of which will be integrated with onshore and offshore geophysical surveys. I am also a co-investigator on the project, which is exploring the route-ways, dispersals and landscape use of different colonising populations over the last 800,000 years (800 ky) using datasets comprising 80,000 artefact records from over 600 sites held at the British Museum and in other collections. Project funded by the Leverhulme Trust. This multi-institution project has examined the record of human presence in Britain from the oldest Lower Palaeolithic evidence at Happisburgh through to the end of the last ice age and the close of the Upper Palaeolithic. This project has made a significant contribution to understanding the nature and timing of human occupation of Britain and the environmental constraints on human presence. My involvement has mainly been on the older part of the record, including sites such as Happisburgh, High Lodge and Hoxne, but I was also involved in the excavations at the Neanderthal site at Lynford. , in conjunction with British Museum and Reading University focused on the stratigraphy and Palaeolithic archaeology of the Solent River in southern England. Two graduate students have completed PhD theses based on the work of this project. , Ashton, N., Parfitt, S.A., Hatch, M. and Hoare, P.G. 2017. The early Palaeolithic archaeology of the Breckland: current understanding and directions for future research. , Ashton, N., Briant, R. and Lukas, S. 2017. The stratigraphy and chronology of the Pleistocene fluvial sediments at Warsash, Hampshire, UK: implications for terrace stratigraphy and Palaeolithic archaeology of the River Test. , Parfitt, S.A., Davis, R.J. and Stringer, C.B. 2016. Handaxe and non-handaxe assemblages during MIS 11 in northern Europe: Recent investigations at Barnham, Suffolk, UK. J 2016. The Palaeolithic record of Warsash, Hampshire, UK: implications for late Lower and early Middle Palaeolithic occupation history of Southern Britain. Voinchet, P., Moreno, D., Bahain, J.-J. Tissoux, H., Tombret, O., Falgueres, C., Moncel, M-H., Schreve, D., Candy, I., Pierre Antoine, Ashton, N., Beamish, M., Cliquet, D., Despriée, J., , Limondin-Lozouet, N., Locht, J.-L., Parfitt, S., Pope, M. 2015. New chronological data (ESR and ESR/U-series) for the earliest Acheulian sites of north-western Europe. , De Groote, I., Duffy, S., Bates, M.B. Bates, C.R., Hoare, P.G., Lewis, M., Parfitt, S.A., Peglar, S., Williams, C., Stringer, C.B. 2014. Hominin footprints from Early Pleistocene deposits at Happisburgh, UK. , Drinkall, H., White, M.J. 2013. Luminescence dating of sediments from a Palaeolithic site associated with a solution feature on the North Downs of Kent, UK. , Ashton, N.M., Jacobi, R.M. 2011. Testing human presence during the Last Interglacial (MIS 5e): a review of the British evidence. In: Ashton, N., Lewis, S.G., Stringer, C.B. (Eds). , Abel, R.L., Coope, G.R., Field, M.H., Gale, R., Hoare, P.G., Larkin, N.R., Lewis, M.D., Karloukovski, V., Maher, B.A., Peglar, S.M., Preece, R.C., Whittaker, J.E., Stringer, C.B. 2010. Early Pleistocene human occupation at the edge of the boreal zone in northwest Europe. , Parfitt, S., Penkman, K.E.H., Coope, G.R. 2008. New evidence for complex climate change in MIS 11 from Hoxne, Suffolk, UK.</t>
-  </si>
-  <si>
-    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at I am Professor of Human Development and Social Policy at the Institute of Education, University College London, Research Professor at the Social Science Centre (Wissenschaftszentrum) Berlin, and Visiting Professor at the ), and am involved in an ESRC funded project on mental health trajectories of children (with Leslie Gutman, Heather Joshi and Michael Parsonage). I have served as advisor to government departments, and am member of several national and international review boards, such as the publications include over 100 scholarly articles, as well as a monograph on ‘Risk and Resilience’ and two edited volumes on ‘Transitions from school-to-work' (with Rainer K. Silbereisen) and 'Gender differences in aspirations and attainment' (with Jacquelynne Eccles), all published by Cambridge University Press. I am a developmental psychologist by training, with research interests in the study of capacity building and social inequalities in attainment. In particular my research focuses on the study of risk and resilience, especially during the transition from dependent childhood to independent adulthood, and regarding social and gender equalities in attainment, health and well-being. research is guided by an ecological-developmental approach, mapping human development over time and in context using longitudinal data, such as the nationally representative British cohort studies. I have examined and contributed to new insights regarding social inequalities in aspiration, health and attainment, and the conditions for change and resilience in the face of adversity.</t>
-  </si>
-  <si>
-    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at is Director of the UCL-Institute of Education (IOE). Before this, she was Professor of Education and Social Justice at King’s College London. She has followed a research career focusing on education and social justice, incorporating education policy work, for example in her previous roles as Director of Education at the RSA, and as Standing Advisor to the Parliamentary Education Select Committee. Becky is best known for her work on gender and achievement. Her policy research and analysis has focused particularly on school quality, and academies policy, in relation to social equality. Her academic expertise and extensive publications centre on social identities (gender, ‘race’ and social class) in educational contexts, social in/equality, and social identity and educational achievement, and gender theory. Becky was a member of the REF 2014 sub-panel for Education, and has acted as a judge for various practitioner awards panels, including the National Pupil Premium Awards and the TES Teacher of the Year awards. She is currently directing the Education Endowment Foundation-funded project ‘Best Practice in Grouping Students’, a mixed methods study involving 140 English secondary schools, investigating attainment and non-attainment grouping in relation to social inequality.</t>
-  </si>
-  <si>
-    <t>I did my undergraduate, Hons and MA studies in Geography at the University of KwaZulu-Natal, Durban, followed by a PhD in Geography at the University of Cambridge. I worked for some years in the first of half of the 1990s at University of KwaZulu-Natal, before some time at the LSE and then a good long stint at The Open University, with a super group of colleagues working collectively on what it might mean to think spatially. I have been at UCL since October 2009. Here I am active in the 2015. with Ananya Roy (co-edited and joint introduction) “Global Urbanisms and the Nature of Urban Theory”, International Journal of Urban and Regional Research Debates and Developments Symposium. 2014. ‘Competitive cities or competing agendas?’ in Le Blanc, A., Piermay, J-L. Gervais-Lambony, P, Giroud, M., Pierdet, C.and Rufat, S. (eds) 2014. New Geographies of Theorising the Urban: Putting Comparison to Work for Global Urban Studies, in S. Parnell and S. Oldfield (eds) 2014. Comparative Urbanism Virtual Issue, editorial on Comparative Urbanism, “In the archives of comparative urbanism”, International Journal of Urban and Regional Research, 2011. 'Cities in a World of Cities: The comparative gesture' International Journal of Urban and Regional Research, 35, 1: 1-23. 2011. (with Sue Parnell). Travelling Theory: Embracing post-neoliberalism through Southern Cities, in G. Bridge and S. Watson (eds) New Companion to Urban Studies. Oxford: Blackwells. 2011. The Spaces of Circulating Knowledge: City Strategies and Global Urban Governmentality in E. McCann and K. Ward (eds) Mobile Urbanism. Minnesota: University of Minnesota Press. 2010. 'Living in Dystopia: Past, present and future in Noir Urbanisms, (ed) Gyan Prakash. Princeton: Princeton University Press, pgs 218-240. 2008. Continuities and Discontinuities in South African Local Government. In M. van Donk, Swilling, M, Pieterse, E. and Parnell, S. (eds) Consolidating Developmental Local Government: Lessons from the South African Experience. Cape Town: Isandla and UCT Press. Pgs 27-50. 2008. Geographies of Globalisation: A Demanding World. (Edited with Gillian Rose and Clive Barnett) London: Sage and The Open University. 2007. Development and new forms of democracy in Durban. Urban Forum. 18, 265-287. [Reversioned and translated for publication in French in Revue Tiers-Monde, edited special issue by Claire Bénit, 2008]. (with Richard Ballard, Debby Bonnin and Thokozani Xaba) 2006. Inventions and Interventions: Transforming Cities (Special Issue edited with Edgar Pieterse) – An Introduction, Urban Studies, 43, 2: 251-258. Robinson, J. (2003) Cities as spaces of interaction: African Participation in Johannesburg's 1936 Empire Exhibition. Journal of Southern African Studies. vol. 29, no. 3, pp. 761-791. Robinson, J. (2002) Global and World Cities: A view from off the map, International Journal of Urban and Regional Research, vol. 26, no. 3, pp. 531-554. Robinson, J. (2000) Feminism and the spaces of transformation, Transactions of the Institute of British Geographers, vol. 25, no. 3, pp. 285-301. Robinson, J. (2000) 'Power as friendship: spatiality, femininity and "noisy surveillance"' in Philo, C., Routledge, P. and Sharp, J. (eds) Entanglements of Power, London, Routledge, pp. 67-93. Robinson, J. (1998) 'Spaces of democracy: re-mapping the apartheid city', Environment and Planning D: Society and Space, vol. 16, no. 5, pp. 533-48. Robinson, J. (1998) '(Im)mobilising space - dreaming (of) change' in Judin, H. and Vadislavic, I. (eds) Blank_____ : Architecture, Apartheid and After, Rotterdam, NAi publishers (D7). Robinson, J. (1997) 'The geopolitics of South African cities: states, citizens, territory', Political Geography, vol. 16, no. 5, pp. 365-86. (2006) looks at how the interplay between urban modernity and development frames a conceptual and practical divide between "Western" and "Third World" cities. The book develops the claim that urban theory needs to be more cosmopolitan in the resources it draws on; and argues that urban development policies need to move beyond developmentalism and draw on the wider cultural and economic resources of urbanism in poorer cities. More recent writing extends this argument to develop appropriate methods and tactics for international theorisation of 21 century cities, organised around the conceptualisation of comparative urbanism, and a book on this topic is under preparation. Grant applications and research in progress explore questions of the geopolitics of policy mobility; international theorisation of global city-regions; and activist research on London’s city strategies. These all take forward methodological experiments for an international urban theory. Previous research has centred on the relationship between power and space, specifically in cities and mostly in relation to South African politics. For example, I have written on the 1936 Empire Exhibition in Johannesburg to explore spaces of racial interaction in South African cities. I have also written on issues in feminist politics, including questions of difference and methodology, and more recently on the implications of Julia Kristeva's psychoanalytic writing for feminist theorizations of space. More broadly, I have explored ways of postcolonializing the theoretical and empirical practices of Geography. A seminal critique of the dominant global and world cities analysis with respect to its implications for wider urban studies and for the politics of development in poorer cities has been drawn on in background and published policy documents which have informed the conceptualisation of urban development in South African cities, e.g. the background review document for the 2006-2011 Growth and Development Strategy which scoped international experience in city strategies and established an approach to Johannesburg’s strategic policy. Robinson was invited to speak to city councillors and officials in Johannesburg on various occasions (2004; 2011) and on their study tour to London (2006) informing ongoing strategic policy development in this period. The research is planned to be taken forward in a collaboration with the Gauteng City-Region Observatory (GCRO) on conceptualising global city-regions. : Studies of the politics of Johannesburg’s City Strategy led to Robinson being invited to review and comment on the draft revised GDS2040 at the Johannesburg City Council’s international conference as part of the consultation process in October 2011, including speaking to a mass public gathering and on the main morning news television. These contributions encouraged the strategy’s commitment to a broadly balanced and locally resonant range of policy commitments. 1) Desktop review of international experiences with city strategies to which Robinson inputs were noted as helpful – document available from Robinson. 2) SACN State of South African Cities Report (2006) – setting guidance 2006-2011 for city strategy development across 9 metros – available at . Robinson (2006) is cited and also in the formulation of the Good Practice Guide to State of Cities Reporting (2010) 5) Robinson’s comparative and global urbanism is influencing practitioner training in a developmental partnership between South African, African and Brazilian planning netowrks: 6) Participation in African Centre for Cities (ACC), Central City Urban Laboratory (a joint initiative in knowledge co-production between the ACC, provincial and local governments, NGOs and community groups) which Robinson co-ordinated January to July 2009 ; 7) Participation in the generation of a programme of state of the city reports across African countries, funded by the World Bank and the Cities Alliance. Robinson wrote a preparatory background document for the conceptualisation of this project 8) Building links with community groups involved in the London Plan processes, as co-organiser of a joint Urban Salon and Just Space network conference, June 2011 ( ); ongoing collaborations through community-based teaching (URBNG007) and collaborative research activities, including comparative work on the London Plan and the Johannesburg GDS with links to supporting community participation through Planact explored in collaborative work with Barbara Lipietz at the DPU( I have been at UCL since October 2009, teaching on MSc courses (Thinking Space, Globalisation, Methods, City space and power, Comparative Urbanism, Community Participation in City Strategies) and 1 We meet regularly as a group to discuss recent developments in urban theory and comparative urbanism. I welcome applications from students eager to take forward international and comparative approaches in urban studies.</t>
-  </si>
-  <si>
-    <t>Office hours: Richard is on leave for the 2017-2018 academic year, conducting research under a Royal Society / Leverhulme Trust Senior Fellowship. Bonsor, H.C., MacDonald, A.M., Ahmed, K.H., Burgess, W.G., Basharat, M., Calow, R.C., Dixit, A., Foster, S.S.D., Gopal, K., Lapworth, D.J., Moench, M., Mukherjee, A., Rao, M.S., Shamsudduha, M., Smith, L., MacDonald, A.M, Bonsor, H.C., Ahmed, K.M., Burgess, W.G., Basharat, M., Calow, R.C., Dixit, A., Foster, S.S.D., Gopal, K., Lapworth, D.J., Lark, R.M., Moench, M., Mukherjee, A., Rao, M.S., Shamsudduha, M., Smith, L., , Scanlon, B.R., Doell, P., Rodell, M., van Beek, L., Wada, Y., Longuevergne, L., LeBlanc, M., Famiglietti, J.S., Edmunds, M., Konikow, L., Green, T., Chen, J., Taniguchi, M., Bierkens, M.F.P., MacDonald, A., Fan Y., Maxwell, R., Yechieli, Y., Gurdak, J., Allen, D., Shamsudduha, M., Hiscock, K., Yeh, P., Holman, I. and Treidel, H., 2013. and Bonsor, H.C., 2012. Groundwater in Africa – is there sufficient water to support the intensification of agriculture from Land Grabs? In: J.A. Allan, M. Keulertz, S. Sojamo and J. Warner (Eds.), and Tindimugaya, C., 2012. The impacts of climate change and rapid development on weathered crystalline rock aquifer systems in the humid tropics: evidence from southwestern Uganda. In: Quantifying the impact of climate change on water resources at the basin scale on five continents – a unified approach Quantifying uncertainty in the impacts of climate change on river discharge in sub-catchments of the River Yangtze and Yellow Basins, China , Longuevergne, L., Harding, R., Todd, M., Hewitson, B., Lall, U., Hiscock, K., Treidel, H., Dev Sharma, K., Kukuric, N., Struckmeier, W. and Shamsudduha, M., 2010. Groundwater and global hydrological change – current challenges and new insight. In: Projected impacts of climate change on groundwater and stormflow in a humid, tropical catchment in the Ugandan Upper Nile Basin Hydrological modeling of the River Xiangxi (China) using SWAT2005: a comparison of model parameterizations using station and gridded meteorological observations , M. Miret-Gaspa, J. Tumwine, L. Mileham, R. Flynn, G. Howard, and R. Kulabako, 2009. Increased risk of diarrhoeal diseases from climate change: evidence from communities supplied by groundwater in Uganda. In: , Thompson, J., Mukwaya, C. and Tindimugaya, C., 2009. Monitoring groundwater - surface water interactions in the Upper Nile Basin of Uganda. In: A 140-year record of recent changes in aquatic productivity in a remote, tropical alpine lake in the Rwenzori Mountain National Park, Uganda Reply to Comment by Mölg et al. on Recent deglaciation in the Rwenzori Mountains of East Africa due to rising air temperatures Hydrochemical evidence of the depth of penetration of anthropogenic recharge in sandstone aquifers underlying two mature cities in the UK. . World Health Organisation (Geneva), Edited by O. Schmoll, G. Howard, J. Chilton and I. Chorus. IWA (London), pp. 339-362 (Chapter 12). . World Health Organisation (Geneva), Edited by O. Schmoll, G. Howard, J. Chilton and I. Chorus. IWA (London), pp. 631-652 (Chapter 24). . World Health Organisation (Geneva), Edited by O. Schmoll, G. Howard, J. Chilton and I. Chorus. IWA (London), pp. 587-611 (Chapter 22). , Elliot, T., Downey, A., Kalin, R. M. 2002. Use of 13CTDIC as a tracer of groundwater evolution in Permo-Triassic aquifers. , Baines, O. P., Barrett, M. H., Trowsdale, S., Lerner, D. N. L., Thornton, S. F., 2000. Depth variations in aquifer hydrochemistry; use of a low-cost multilevel piezometer. In: , and Nalubega, M. 2000. A comparison of the extent and impacts of sewage contamination on urban groundwater in developed and developing countries. Groundwater recharge in the Victoria Nile basin of East Africa: support for the soil-moisture balance method using stable isotope and flow modelling studies 1) the impact of climate change and rapid development on freshwater resources with a specific focus on groundwater and other natural stores of freshwater; and climate variability and change on freshwater resources and water scarcity at basin scales. Improving the analysis of climate-related impacts on natural freshwater stores including principally groundwater but also soil moisture and ice, is a key component of on-going research. Although the use of models (analytical, statistical, numerical) plays a critical role in this research, a central aspect of this research is the use of observations, both g and GRACE satellite measurements, as observations enable the development and testing of our conceptual understanding of the relationship between climate variability and change and terrestrial freshwater stores. This research contributes directly to international scientific programmes including groundwater in enabling communities in low-income communities to adapt to the pressures of rapid development and climate variability. To date, research has focused primarily on the hydrogeology of weathered crystalline rock (saprolite-saprock) aquifer systems that underlie much of the tropics including 40% of sub-Saharan Africa and the entire Great Lakes Region of Africa (GLRA). More recently, research has been extended to include shallow alluvial aquifers in the Bengal Basin, the largest of the Asian Mega-Deltas. Research is both - seeking to resolve the capacity of both aquifer systems to sustain groundwater abstraction for irrigation and urban water supplies - and (evolutionary hydrogeology) - seeking to understand how the long-term geomorphological evolution of aquifers in both environments determines their characteristics and interactions between groundwater and surface water: My research addresses practical problems of securing and sustaining water supplies for domestic and agricultural needs in Sub-Saharan Africa and South Asia. Through direct engagement with stakeholders and decision makers together with long-term collaborations with research institutions, our research is designed to have an immediate and direct impact. Two areas where the impact of this research have been most pronounced are: Throughout Sub-Saharan Africa, groundwater now features centrally in national water development strategies, national irrigation plans, and regional initiatives to improve access to drinking water and food production through irrigation and thereby contribute to the ) funded by the UK government to resolve the scientific basis for groundwater-based adaptations to climate variability and change as well as increased freshwater demand. The rationale for these plans and initiatives is rooted, in part, in collaborative research ( , this research has set a widely adopted benchmark for the quantification of groundwater resources in Africa. Recent collaborative research with the Ministry of Water in Tanzania ( ) directly informs the management of the Makutapora Wellfield which supplies freshwater to the national capital city, Dodoma. A summary of research outcomes related specifically to this collaborative research is available in both The relationship between global warming and the retreat of alpine glaciers in the Rwenzori Mountains of East Africa, first established by collaborative research that I led with the Ministry of Water and Environment (Uganda) and Makerere University ( ), is now a commonly cited illustration of the impact of climate change in East Africa. This research together with studies of the impact of glacial recession on alpine river flow ( (NAPA) to combat climate change but also the management of both the Rwenzori Mountains National Park and local hydro-electric power generation stations. A summary of key research outcomes for stakeholders, policy makers, and decision makers is available in both * Dr. Aisha Bello-Dambatta will teach in my place during the 2017-2018 academic year as I undertake research under a Royal Society / Leverhulme Fellowship * Climate change impacts over the Okavango Delta region of southern Africa using Regional Climate Models - quantifying errors and uncertainties. Groundwater flow and storage in weathered crystalline rock aquifer systems of Uganda: evidence from environmental tracers and aquifer responses to hydraulic stress. : Prof. R.G. Taylor, Dr. John Thompson (IDS), Dr. J. Kashaigili (SUA), Prof. T. Ayenew (AAU), Dr. G. Favreau (IRD), Dr. K. Villholth (IWMI), Prof. A. MacDonald (BGS), Prof. M. Todd (Sussex) : Dr. M. Shamsudduha (UCL IRDR), Dr. E. Fottrell (UCL Global Health), Prof. K.M. Ahmed (Dhaka), and Prof. R.G. Taylor : Dr. R. Taylor, Dr. M. Todd, J. Thompson (UCL) (consortium led by Professor N. Arnell, Walker Institute, University of Reading) Assessing the impacts of climate change and variability on water resources in Uganda: developing an integrated approach at the sub-regional scale (International Geosphere-Biosphere Programme, World Climate Research Programme, International Human Dimensions Programme on global environmental change, project ref. 202 457 5859) : Dr. R. Taylor, Dr. M.H. Barrett (Surrey University), Dr. D. Macdonald (British Geological Survey), Dr. M. Nalubega (Makerere University</t>
-  </si>
-  <si>
-    <t>Roger Lee's research interests focus around the social/cultural construction of economic geographies. Of particular interest are the ways in which the norms and values of capitalism are insinuated into, and at the same time resisted in the social construction of, economic geographies at a variety of scales. Lee R 2014 (managing editor) (with Castree N Kitchen R Lawson V Paasi A Philo C Roberts S Withers C W J) Lee R 2013 The Possibilities of Economic Difference? Social Relations of Value, Space and Economic Geographies in Zademach H-M and Hillebrand S eds Lee R 2011 Acts of theory and violence: can the worlds of economic geographies be left intact? ch 3 in Pollard J McEwan C and Hughes A eds Lee R 2011 Spaces of hegemony? Circuits of value, finance capital and places of economic knowledge. ch 14 in Agnew J A and Livingstone D N eds Lee R 2011 Withn and outwith/material and political? Local economic development and the spatialities of economic geographies. ch 17 in Pike A Rodríguez-Pose and Tomaney eds Lee R 2011 Ordinary economic geographies : Can economic geographies be non-economic? ch 24 in Leyshon A Lee R McDowell L and Sunley P eds Lee R 2010 Spiders, bees or architects? Imagination and the radical immanence of alternatives/diversity for political economic geographies. Part V ch 17 in Fuller D Jonas AEG and Lee R eds Lee R 2010 Economic society/Social geography ch 8 in Smith S J Pain R Marston S A and Jones J P eds</t>
-  </si>
-  <si>
-    <t>I am an urban and cultural geographer fascinated by public life in cities. My particular interest is collective culture and the capacity of urban space to generate new forms of sociality and solidarity. Focused on contemporary London and cities across the U.S., my research to date has centred on three themes: . A longstanding concern in critical urban scholarship, my work has sought re-animate this field of study. This includes advocating for careful attention to how different spaces of public life are put together and to the affects that different kinds of materiality, infrastructure and modes of inhabitation have in making spaces what they are. I am also interested on-going, everyday forms of negotiation about what is fair and appropriate for living together in a pluralistic society. . Focusing on food-related trends, I have examined emergent forms of popular practice and the efforts of people actively seeking to foster more convivial forms of urban life. By closely studying social interactions in novel kinds of spaces and the more extra-ordinary activities of social entrepreneurs, my interest is to explore possibilities for living together in more mutually beneficial ways. . Parallel to my interest in urban public life is a concern with popular and academic discourse about cities and neighbourhoods themselves. This includes examining how we understand and portray processes of urban change, new developments and trends, and the lifestyles and culture of different kinds of urban dwellers. In particular, I am concerned with understanding the work that different kinds of representation do and the geographical imaginations they enable. My work has been supported by grants from the Economic and Social Research Council, University College London’s Graduate School, University College London’s Public Engagement Unit, and the American Association of Geography’s Urban Geography Research Group. Since 2011 I have been an organising committee member and communication director for the Royal Geographical Society’s Urban Geography Research Group. I was also a founding member of the Stadkolloquium Urban PhD Research Network. Currently, I am putting together a 40-entry volume entitled Key Thinkers on Cities (co-edited with Dr. Alan Latham of UCL Geography) to be published with SAGE in 2016. I am foremost an enthusiastic teacher and student. My first degree was in Education and the Social Sciences, followed by an MSc in Teaching and Learning. My first job was teaching middle school in Kansas City, Kansas and then secondary school in London, where I also managed a successful secondary Geography department for five years. After completing my PhD at UCL, I became a teaching fellow in the department of Geography where I helped to convene the MSc Urban Studies programme and was shortlisted for the Student Choice Excellence in Teaching Award in 2015. Over the past four years, I have taught field-intensive courses on London’s Urban Geographies and Encountering Global London for St. Lawrence University of New York. A longer-term goal is to publish a volume on teaching methods for helping students actively engage in learning by exploring the cities in which they live and visit. My ESRC-funded doctoral research at University College London was an ethnographic study of food-related trends across the U.S. My interest was to examine some of the novel ways in which the spaces of public life are being re imagined and to invigorate the study of public space in social science research. The project builds upon a critique of predominant approaches to urban public space, arguing that recent work on the topic has reached something of an empirical and theoretical impasse. In pressing for a more expansive imaginary, the project has worked to develop a broader conceptualisation of public-ness along with a series of analytic principles, theoretical resources and attentive registers for opening up new lines of inquiry. Organised around the theme of ‘eating in public’, empirical case studies include: the tremendous growth and popular enthusiasm for street food vending, and a comparative look at how municipal licensing laws have variously nurtured or restricted the practice underground restaurants and secret supper clubs in which public audiences are invited into private homes for meals, and the changing forms of public/private relations transformed by the so-called sharing economy pay-what-you-can-restaurants and community cafes in which customers determine the price of their meal, and the material-practical configurations that help to sustain relations of conviviality and accountability within these spaces As the starting point for future work in this vein, my goal is to help facilitate discussion, research and innovation in how more convivial, inclusive and democratic forms of collective life might be nurtured. This project examined a small-scale urban redevelopment that sought to transform a traffic junction best known for crime and anti-social behaviour into a public space that would be an asset for the local community. Research involved an ethnographic study in which I worked on-site as a fruit and vegetable vendor over a period of three months. The aim was to attend to the fine-grained details of how public life was being reconfigured by the changes, and to extend the conceptual registers through which transformations to urban public spaces might be apprehended. Koch, R. and Latham, A. (2014) ‘Inhabiting cities, domesticating public spaces: Observing changes in the public life of contemporary London’ in A. Madanipour and S. Knierbein (eds) Koch, R. and Latham, A. (2012) ‘Animating Public Space: A Case Study in ‘Soft Regeneration’ Royal Geographical Society, Geography in the News, A-Level teaching resources for the RGS. Pdf available through the RGS (or author). Koch, R. (2012) ‘Interview the Expert: Regan Koch on Public Space’ Royal Geographical Society, Geography in the News, available at: My research interests include (1) Matters of urban public space; (2) urban sociality and collective culture; and (3) the representation and imagination of cities and urban life. I welcome inquires from anyone considering doing a PhD and would be happy to discuss whether our interests make for a good match. ‘Sex(uality) &amp; the City: understanding the impact of locative media on urban queer geographies. Funding: ESRC +4 Interdisciplinary Award (with Dr. Yasmine Ibrahim in QMUL Business &amp; Management). I have engaged in an academic, volunteer and consultancy capacities with a number of groups related to my case study research, including the London Parks and Green Spaces Forum, Seattle’s Street Vendor Task Force, New York’s Street Vendor Project, A Better World Foundation, and the Harrow Road Neighbourhood Partnership. , a five-day series of talks, workshops, performances and events bringing together over 300 members from 30 academic departments at UCL and 20 outside organisations.</t>
+    <t>My research interests span geographies of home, empire, migration and diaspora, including research on imperial domesticity in British India, Anglo-Indian women and the spatial politics of home and homeland, settlement houses and new ways of dwelling in the city, and the city as home for people living in diaspora. My research has been funded by the AHRC, ESRC, The Leverhulme Trust and UrbanBuzz. Recent books include I was awarded the Gill Memorial Award from the Royal Geographical Society (with the Institute of British Geographers) in 2002, a Philip Leverhulme Prize in 2003, and was appointed as an Academician of the Academy of Social Sciences in 2012. I co-direct the , a partnership between Queen Mary and The Geffrye Museum of the Home , and serve on the Council of the RGS-IBG. I am past editor of My undergraduate and Masters level teaching is directly informed by my research, and I have written and co-edited the key texts for a number of modules. I jointly teach a first year module on ‘Critical human geographies,’ which introduces students to the ways in which attempts to change the world have shaped the discipline of geography. My lectures focus on humanistic geography, feminism, geographies of sexuality and postcolonialism, and all include time for class discussion. I am co-author (with Jane Wills) of the key text for this module, My third year module on ‘Geographies of Home’ explores home on scales from the domestic to the global. It focuses on questions such as: why is identity often shaped by a sense of home? How and why is the home an important site and subject for creative work in literature and the visual arts? Why are nations often described as ‘homelands’? How do experiences of home change with transnational migration? Drawing on historical and contemporary examples, and a range of personal and academic accounts, the module also includes a visit to The Geffrye Museum of the Home and opportunities for creative coursework. I am co-author (with Robyn Dowling) of the key text for this module, I also enjoy teaching on MA Cities and Cultures, and teach a new module with Catherine Nash on ‘Cultural Geography in Practice.’ This module explores creative, collaborative and curatorial practices in cultural geography. My part of the module focuses on home and diaspora through seminar discussions and visits to The Geffrye Museum of the Home and the Royal Geographical Society (with Institute of British Geographers). Together with other colleagues (including Jon May, Miles Ogborn and David Pinder in Geography at Queen Mary), I have co-edited a book used on this and other modules: 'Alison is a fantastic and enthusiastic lecturer – she really engages with you as an individual, whilst teaching the class as a whole' (Geographies of Home). Although ideas and lived experiences of diaspora are intrinsically transnational, a wide range of research invokes the nation through material and imaginative connections to a past, present or imagined ‘homeland.’ Other research focuses on the city as a site of diasporic resettlement, exploring the contested terrains of multiculturalism and cosmopolitanism. Focusing on four communities from Calcutta (Anglo-Indian, Brahmo, Chinese and Jewish), this research investigates the importance of the city rather than the nation in shaping, recasting and articulating diasporic identities, and studies diaspora cities as places of origin and resettlement. This research was funded by The Leverhulme Trust from 2007-10, with the research team consisting of myself as Principal Investigator, Noah Hysler-Rubin and Shompa Lahiri (postdoctoral research fellows) and Jayani Bonnerjee (PhD student). See This project seeks to understand people’s attitudes to and understandings of the history of their homes. It involves interviews with a range of British householders to discover how their knowledge of the past of their homes informs the choices they make in living in them. These choices might relate, for example, to the material furnishing and designing of different home spaces as well as more generally to perceptions of and feelings about the past. The focus includes what has been ‘inherited’ from previous inhabitants – materially, aesthetically and in terms of stories that might have been passed on or uncovered. The research is funded by the AHRC and is in collaboration with The Geffrye Museum of the Home. Catherine Nash is Principal Investigator, with Caron Lipman as postdoctoral research fellow and Alastair Owens and myself as Co-Invesigators. The project has included workshops at the Geffrye and will conclude with an exhibition there opening in September 2013. My research in this field has two main directions: first, historical research on settlement houses in London and New York, which developed from my involvement with the British Academy funded international network on ‘The Urban Atlantic.’ This research includes a study of new ways of urban dwelling promoted by Christodora House – the ‘skyscraper settlement’ - in New York City. Second, I am Co-Investigator on a pilot project funded by the Centre for Public Engagement at Queen Mary on ‘Mapping corporate philanthropy and community engagement in East London.’ Focusing on companies based at Canary Wharf, this project seeks to identify the ways that corporations engage with communities in the East End of London through various types of corporate social responsibility and philanthropic initiatives. The research team also includes Cathy McIlwaine as PI, Alastair Owens and Jane Wills as CIs and Johanna Wadsley as postdoctoral research fellow. Together with Cathy McIlwaine, Jayani Bonnerjee and Cliff Pereira (community engagement facilitator) and working in partnership with the Royal Geographical Society (with Institute of British Geographers) and The Geffrye Museum of the Home, this AHRC research review explored the idea of ‘connected communities’ in relation to diaspora and transnationality across the humanities and social sciences. It developed the idea of ‘connectivity’ within and across communities that are transnational and diasporic. Four one-day workshops brought together brought together more than 70 participants from across the academic, arts/cultural and community sectors Laura Humphreys 'Domestic labour, metropolitan households and the wider world, 1850-1914.' AHRC CDA with The Geffrye Museum of the Home. Subhadra Roy 'Expressing identities and experiencing difference: Spatial practices in the everyday lives of Indian students in London and Toronto.' QMUL studentship. Annabelle Wilkins 'Home, work and migration in the East End of London since 1945.' AHRC CDA with The Geffrye Museum of the Home. Jayani Bonnerjee 'Placing neighbourhoods and cities in diaspora space: Anglo-Indian and Chinese communities in Calcutta, London and Toronto.' The Leverhulme Trust. The home has become an important focus of research, spanning work on the domestic sphere, including everyday life, architecture, interior design and material cultures, to the significance of home beyond the domestic, including broader ideas about dwelling, belonging, privacy and security. Launched in 2011, the Centre for Studies of Home is a partnership between The Geffrye Museum of the Home and Queen Mary, University of London. It is directed by myself and Eleanor John (Head of Collections and Exhibitions, Geffrye). The centre is an internationally important hub of research, knowledge transfer and dissemination activities on past and present homes. Research projects affiliated to the centre include an AHRC project on ‘Living with the past at home’ (Catherine Nash, PI); a Leverhulme Trust Early Career Research Fellowship (Richard Baxter) on ‘Home and inhabitation: a biography of the Aylesbury Estate’; and an AHRC Collaborative Doctoral Award with four studentships on ‘Home-work: connections and transitions in London from the seventeenth century to the present.’ The centre’s activities include a monthly seminar at the Institute of Historical Research on ‘Studies of home’; regular workshops, conferences and research-in-progress days; and an annual lecture and postgraduate study day. I am PI on The Child in the World project, a five-year collaboration between Queen Mary and the V&amp;A Museum of Childhood (MoC) focused on researching the lived experiences of London children between 1870 and the present day. The research is being undertaken by three PhD students working on distinct Collaborative Doctoral Awards (CDAs). They are supervised by staff in the School of Geography and the School of Languages, Linguistics and Film at Queen Mary, and by staff at the V&amp;A Museum of Childhood. The students are also working across the two institutions to produce a series of joint publications and activities. I have chaired LWPF since 2003 and was responsible for its relocation from Women’s Design Service to QMUL and its successful applications to ESRC to fund a seminar series on ‘Capital designs: women and planning in contemporary London’ (2004-6), to LCACE to fund a seminar series on ‘Building cultures’ (2007-8) and, in partnership with Women’s Design Service, to Urban Buzz to fund a project on ‘Gender and the Built Environment’ (2007-8). LWPF convenes up to three seminars a year at QMUL for academics and practitioners working on women and the built environment. Everyone involved in the built environment world tries to meet the needs of their clients. Child-sized furniture is designed for nurseries, disabled parking bays are located next to entrances, sheltered housing sites are planned near post offices and shops. However people are often unaware of the needs of a majority of the population; women. With the introduction of the UK Gender Equality Duty there is now a legal obligation to consider those needs. Funded by UrbanBuzz, and in partnership with the Women’s Design Service, this project (with Wendy Davis as PI, myself as CI and Clare Melhuish as postdoctoral research fellow) aims to raise the profile of gender issues in the built environment. It has involved the development of an on-line database of English-language academic literature, reports, and legislation on gender and the built environment.</t>
+  </si>
+  <si>
+    <t>Please report any queries concerning the funding data grouped in the sections named "Externally Awarded" or "Internally Disbursed" (shown on the profile page) to your Research Finance Administrator. Your can find your Research Finance Administrator at</t>
+  </si>
+  <si>
+    <t>The University of Manchester</t>
   </si>
   <si>
     <t>UCL (University College London)</t>
   </si>
   <si>
-    <t>The University of Manchester</t>
-  </si>
-  <si>
     <t>Queen Mary University of London</t>
   </si>
   <si>
+    <t>University of Colorado - Boulder</t>
+  </si>
+  <si>
+    <t>[NERC, South West Niger, rainfed agriculture, development, approach, water, Development Studies, School, East Anglia, PhD University]</t>
+  </si>
+  <si>
+    <t>[chromatographic purification, primary recovery, aspects, Construction, Materials, Fluid Flow Fundamentals, Integrated Downstream Processing, major emphasis, programmes, department, portfolio, Nigel’s, series, Biological Products, Recovery, prestigious ACS, Board, Chair, Biochemical Engineering, contributions, Donal Medal, Chemical Engineers, Institution, Fellow, manufacturing, his pioneering work, recognition, Engineering, Royal Academy, Fellow, journals, key peer, board, international companies, broad range, consultancies, Nigel, collaborators, range, TSB Technology Programme, UK EPSRC, above research, Department, research, mechanism, projects, date, companies, EngD programme, its inception, Prof Gary Lye, Bioprocess Leadership activity, EngD, Engineering Doctorate, Nigel, methods, agent, IMRC tools, processes, performance, new ways, Dr. Jarka Glassey, Professor Elaine Martin, Professor Gary Montague, Newcastle University, colleagues, Nigel, modelling, theme, line, issues, bioprocessing, interface, decisional tools, studies, Nigel, Dr. Suzanne Farid, offs, better process, interfaces, creation, Dr. Yuhong Zhou, understanding, insights, use, models, creation, Nigel’s work, major focus, international companies, IMRC consortium, management, Nigel, Professor Mike Hoare, Moore, Dr. Eli Keshavarz, Dr. Yuhong Zhou, Dr. Nicolas Szita, Dr. Dan Bracewell, Dr. Lazaros Papageorgiou, Dr. Eva Sorenson, Chemical Engineering, Professor Tony Hunter, Computer Science, Engineering Science significant collaborations, Faculty, Professor John Ward, Molecular Biology, Structural, researchers, work, macromolecular drugs, next generations, manufacture, robust processes, development, new methods, departments, multidisciplinary group, Bioprocessing programme, IMRC, UCL Innovative Manufacturing Research Centre, past lead, Emergent Macromolecular Therapies, Innovative Manufacture, EPSRC Centre, Hooker, Nigel Titchener, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[BS Singhal Oration, Gowers Memorial Lecture, Pringle Lecture, Charcot Lecture, Don Paty Memorial Lecture, ECTRIMS Lecture, lectures, patient groups, therapists, nurses, physicians, researchers, multiple sclerosis, management, diagnosis, MRI, measurement, neurorehabilitation, workshops, courses, Teaches, role, MS Trust, MSIF, MS Society, MS, management, treatment, diagnosis, patients, educational materials, production, Translational Medicine, MSc, CBRC, EFNS, Joint Neurosciences Council, Brain, e, neuroscience, postgraduate diploma, distance, trainees, online MSc, Advanced Neuroimaging, new MSc course, Clinical Neuroscience, programme, year, Education Unit, Neurology fostered growth, Institute, Director, multiple sclerosis, special focus, disability, management, neurorehabilitation, MRI, therapists, nurses, students, post, medical students, researchers, multidisciplinary teaching, multiple sclerosis, new section, development, Nervous System, Diseases, ICD-10/ICD-11, revision, WHO International Advisory Group, member, MS, Diagnostic Criteria, WHO International Committee, member, MSIF, Global Economic Study, MSIF, WHO, MS World Atlas, Quality Standards, Alan Thompson, management, world, clinical trials, MS Walking Scale, MS Impact Scale, Professor Jeremy Hobart, MSIS-29, MS Impact Scale, scale, validation, Fampridine, MS, symptomatic treatment, recent approval, MS Walking Scale, achievements, perspective, patient, outcomes, scales, application, evaluation, development, Neurological Outcome Measures, Dementia Strategy Board, Neuroscience, Academic Medical Centre, Cancer Institute, programme, North Central London, dedicated Brain Tumour Centre, neurosurgical service, North Central London, service, unified brain, area, metric, establishment, London area, outcome, improvements, overview, Neurological Disorders, UCLP Programme Director, therapies, potential disease, studies, early proof, progression, precise measures, cohorts, biomarkers, combination, therapies, dedicated national resource, neurodegenerative disease, Research, clinical effectiveness, transparency, flow, groups, researchers, UCLP Academic Health Science Centre, Neuroscience Programme, Chair, mental health, dementia, research, comprehensive programmes, initiative, delivery, therapeutic agenda, December, UK Dementia Research Institute Hub, successful bid, UCL, Brain Sciences, Faculty, injury, clinical recovery, morphometric changes, imaging, team, Dr Patrick Freund, Collaborates, effective treatments, recovery, new strategies, optic neuritis, mechanisms, Dr Ahmed Toosy, MS patients, clinical improvement, mitochondrial dysfunction, reversibility, MS, mitochondrial dysfunction, role, New research, axons, effect, tracts, acute lesions, damage, mechanisms, Professor Olga Ciccarelli, cognitive impairment, physical disability, grey matter, likely relationship, effective treatments, measure, clinical trials, abnormalities, grey matter, Methods, disability, extent, progression, reliable markers, atrophy, measure, MS, multiple sclerosis, pathology, MRI, imaging, Multiple Sclerosis Journal, chief, editor, Brain, Guarantor, Research Programs Advisory Committee, USA, National MS Society, member, PMSA, International Progressive MS Alliance, Scientific Advisory Committee, Chairs, Scientific Board, International Medical, MSIF, Neurology, UCL Institute, Rehabilitation, Brain Repair, Department, UK, Neurorehabilitation, Clinical Neurology, first chair, Alan Thompson, disease, course, multiple sclerosis, phenotypes, group, part, MS, diagnostic criteria, who, group, member, primary progressive MS group, unique characteristics, axonal loss, cerebral atrophy, atrophy, techniques, pathological specificity, MR techniques, new treatments, effectiveness, MRI, use, protocols, process, MRI, value, MS, groups, natural history, first serial MRI studies, Queen Square, National Hospital, Neurology, UCL Institute, research, His post, clinical symptoms, absence, CSF, basic protein, products, detection, active demyelination, MS, multiple sclerosis, activity, biochemical markers, His MD thesis, Buckingham Palace, award, Nation, Pioneer, Belgium, Hasselt University, honorary doctorate, FANA, FAAN, FRCPI, FRCP, Medical Sciences, Academy, Fellow, Trinity College Dublin, MD, his undergraduate degrees, Behavior, Neuroscience, Essential Science Indicators section, Research ID C-2654, index, H, Alan Thompson, Queen Square, Neurosurgery, Neurology, National Hospital, neurologist, NIHR Senior Investigator Emeritus, UCLP Academic Health Science Centre, Neuroscience Programme, Chair, Brain Sciences, UCL Faculty, Dean, Alan Thompson, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
     <t>[industry, UK, study, firm, development, change, DJ North, Caribbean Sugar industry, location, Scale economies, Auty, retail structure, use, factorial study, Kowloon, KC Liang, J. Salt, consultancies, multinational companies, staff, international movement, Smith, H. Lawton, London, universities, spin, range, Camden, London Borough, London, enterprise, prospects, services, knowledge, role, other European cities, UK, innovative basis, studies, More recent work, other EU countries, teams, Europe, innovation, consultancies, impacts, P. O'Farrell, companies, business, development, entry, regional conditions, large clients, consultancies, use, regional impacts, J Bryson, D Keeble, NW England, SE, companies, small business, development, investigations, European Commission, ouncil, significant skills, places, accessibility, economic conditions, processes, consultancies, rapid growth, organisations, capabilities, relation, managerial expertise, services, role, March, others, A, Latham, J, Dobson, P, Mateos, J, Salt, European Migration Network, SRG/10/013, Home Office, Report, Migration’, Satisfying Labour Demand, Consultant, March, London Higher, Report, S, Romerio, T, Barnes, P, Reid, D, Chapman, H, Lawton Smith, London, Higher Education Institutions, creative arts, engineering, science, companies, University, Consultant, C, Boddy, A, Harris, D, Brown, D, Chapman, October, Camden?LDA, London Borough, Report, economy’, deprived areas, Enterprise development, English ‘Core Cities Group’ Lead Consultant, behalf, Greater London Authority, Manchester City Council, major English cities, prospects, Core Cities’. Project, London, full potential, Consultant, events, UCL Geography, convenor, UCL Geography Department, Head, many other committees, Historical Sciences Faculty Board, Social, Academic Board, UCL Council, Past member, many College, membership, UCL Schools Liaison Officer, Other past roles, UCL Geography Department, Head, UCL, others, economic geographers, collaboration, writing, attendance, research, modern regional restructuring, services, producer, growth, implications, 1980s, Britain, regional development, industrial location, My research]</t>
   </si>
   <si>
+    <t>[Central Norway, sediments, Little Ice Age, implications, set, lake, climate, diatoms, relationship, Science Museum, Science Lates series, UCL, sixth formers, events, change, Hertfordshire, local Civic Society, sixth formers, example, Environment Agency, courses, professionals, many overseas students, students, students, undergraduates, diatoms, member, Secretary, International Diatom Society, committed member, decades, Common Scoter, populations, palaeolimnological approach, Wetlands Trust, Wildfowl, Caithness, Flow Country, ongoing research, rare Slavonian Grebe, population, lake, past productivity, link, Scotland, Loch Ruthwen, RSPB, conservation, palaeolimnology, use, development, key aspect, research, Russian aspect, LAC, NERC, project, NERC Arctic, investigator, co, Arctic, programmes, Russia, better collaborative links, Moscow, Climate Change meeting, Energy, Department, Russia, researchers, Komi Republic region, Naryan Mar, Pechora, Usinsk, Town Meetings, stakeholders, projections, Arctic change, scenarios, SPICE project, North project, Carbo, century, anthropogenic warming, region, Arctic, changes, my recent work, proxy approach, multi, many cases, timescales, range, pollution, change, lakes, deep knowledge, key, pollution, change, future changes, ecosystems, better understanding, palaeolimnology, interests, environmental problems, understanding, palaeoecological techniques, multi, application, environmental scientist, years, thousands, tens, decades, timescales, range, past conditions, marine sediments, many lake, Diatoms, eutrophication, acidification, problems, relation, quality, monitoring, environmental scientists, Modern communities, conditions, changes, cycle, salinity, nutrients, acidity, species, marine environments, freshwater, seas, rivers, lakes, soils, habitats, wide range, microscopic unicellular algae]</t>
+  </si>
+  <si>
+    <t>[efforts, NGO, government, UK, MSM, HIV prevention, development, studies, HIV positive men, sexual risk, high levels, work, UK, MSM, community, HIV, undiagnosed fraction, mid-1990s, HIV therapy, introduction, behaviour, risk, Scotland, work, MSM, reduction, education, peer, first UK evaluation, tests, prevalent HIV, survey, first community, UK, strategies, HIV, men, sex, who, His research, world, HIV, parenteral transmission, minimisation, adoption, work, biomarker data, Wales, England, strategy, harm, out, roll, UK, exchange, first dedicated needle, IDU, equipment, drug, sharing, high levels, assessment, MSM, men, sex, who, HIV prevention, IDU, users, exchange, significant examples, sexual health, HIV, promotion, policy, His major contributions, countries, vulnerable groups, workers, young people, men, sex, who, STIs, HIV, risk, populations, wide range, technologies, opportunities, prevention, biomedical approaches, STIs, HIV, prevention, behaviour, interests, Medical Sciences, Academy, Fellow, NIHR Senior Investigator, DfID African Research Leader Scheme, MRC, Chair, Applied Health Research, Programme Grants, Panel Chair, NIHR Sub, Health Policy Research Commissiong Panel, Department, inaugural Chair, Graham, Glasgow, University, Public Health Sciences Unit, MRC Social, Associate Director, Middlesex Hospital Medical School, Medical Sociology, Lecturer, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[Modern Europe, Making, Literature, History, Theoretical Issues, MA courses, GDR, German Democratic Republic, teaching, more specialised source, present, medieval times, German history, introductory courses, Her teaching, European history, topics, students, number, Mary Fulbrook, her work, past, legacies, historical theory, wider interests, book, Europe, Germany, War, Reverberations, project, AHRC, History Sciences, Social, Faculty, Executive Dean, years, Humanities, Arts, Faculty, Interdisciplinarity, Dean, Vice, UCL Council, stint, September, January, German Department, Head, years, UCL, contributions, Mary Fulbrook, Editorial Boards, Stiftung, Brandt, Willy, Bundeskanzler, International Advisory Board, member, Dora, Mittelbau, Buchenwald, camps, Memorial Foundation, Academic Advisory Board, member, British Academy, Modern History Section, Chair, British Academy, Council, member, Mary Fulbrook, other professional commitments, Cambridge, New Hall, Lady Margaret Research Fellowship, LSE, European Studies Krupp Fellowship, Harvard Center, PhD, her MA, Harvard University, undergraduate, Cambridge, Newnham College, History Sciences, Social, Faculty, Dean, UCL European Institute, Director, German History, Professor, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[urban growth, industry, legacy, England, Upper Mersey catchments, Irwell, sediments, Metal contamination, Interglacial Transition, Slackwater Sediment Record, River Behaviour, Northwest Greece, Catchment Dynamics, Glacial Activity, J.C. et al, Woodward, May 14th, London, British Museum, Sudan Archaeological Research Society, Northern Sudan, Holocene Flooding, New records, Woodward et al, New Zealand, Massey University, Liverpool, University, Sheffield, University, Newcastle University, x2, Manchester, University, x5, Leeds, University, Aberystwyth University, x3, Exeter, University, East Anglia, University, Cambridge, University, following institutions, PhDs, Cambridge, University, Geographical Tripos, II Examination, Physical Geography external examiner, summer, October, Jamie, Manchester, teaching, Physical Geography research, key part, cluster, Geography, other colleagues, Manchester, University, Physical Geography, personal chair, season, work, report, Leverhulme Trust, Australian Research Council, work, years, environmental change, human activity, relationship, archaeologists, Northern Sudan, Nile Valley, projects, Jamie, archaeology, geoscience, geography, practical interface, archaeologists, close collaboration, place, his work, good deal, Nile basin, Mediterranean region, Quaternary environmental change, impacts, nature, particular interests, geomorphologist, Aberystwyth University Jamie, Durham, University, Manchester, University, British Museum, Collaborators, £, Leverhulme Trust, Bergen, University, Manchester, University, Aberystwyth University, Adelaide, University, Collaborators, Discovery Award, Australian Research Council]</t>
+  </si>
+  <si>
+    <t>[institutional dimensions, broadest sense, urban sustainability, studies, techniques, application, urban spatial networks, investigations, environments, temporal representations, spatio, development, human behaviour, simulations, agent, development, Current research, methods, space, tools, methodologies, questions, order, urban malaise, crime, what conditions, thriving creative communities, what conditions, identity, generation, neighbourhoods, cities, spatial design, matter, architecture, communities, organisations, economic behaviour, patterns, environment, design, way, His research, trustee, UK Regions Digital Research Facility, Digital Economy Hub, EPSRC, £, Principal Investigator, Research Excellence Framework, C, Main, member, panel, Planning sub, Built Environment, Architecture, Chair, group, EPSRC Platform, Space Group, member, individual buildings, plans, neighbourhood, masterplans, year, projects, portfolio, transfer, UCL, director, HEFCE Business Fellow, Built Environment, Bartlett faculty, Dean, Alan, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[Cambodia Development Resource Institute, UCL Impact Award studentship, years, Phnom Penh, NGOs, Cambodia Ben, Phnom Penh, LMAP, Administration Project, Land Management, study, urban transition, titling, Donor, International Development, Department, Research Division, Policy, Emmy, HelpAge International, ESRC CASE award, holder, her second supervisor, Ann, SSEES, Richard Mole, Lithuania, Education, Psychology, first degree, Goldsmiths, Social Anthropology, Rasa’s, her second supervisor, Ann, People Interaction Centre, Earthquake, Tiziana Rossetto, Maggie, HABITAT Haiti, UN, senior technical advisor, gay men, community, processes, Soho, role, His research, his second supervisor, Ann, James Agar, Gender Studies PhD student, Marco, Technology, Delft University, Masters, architect, Mexico City, Centro Mario Molina Sustainable Research Centre, researcher, Tania, CONACYT, research, UCL, International Labour Office, Enterprises Department, intern, Sussex, University, Anthropology, MA, Mexico, Tec de Monterrey, her first degree, Lourdes, CONACYT, Ann, SSEES, Richard Mole, student, Sexuality Studies, UCL Gender, India, INLAKS foundation, scholarship, Commonwealth Scholarship Ina, Dhaka, University, Gender Studies, Women, Department, lecturer, Fatema, next few years, network, LGBTQ+, UCL, Director, plans, themes, postgraduate researchers, Representation, Society, Gender, MA, sylllabus, part, Sexualities, MA, creation, view, Sexuality Studies, Gender, Ann, UCL Gender Studies, first social scientist, practice, insight, children, women, secure tenure, household, tenure, Secure Tenure, United Nations Global Campaign, funders, other UK, Norwegian Research Council, assessor, research, ESRC Peer Review College, member, NGO, international housing, translator, Spain, Doñana, el Desarrollo del Entorno, Comisión Internacional de Expertos, Doñana Region’, economic development, sustainable socio, Strategies, report, activities, skills, Ann, Day, International Women, UK, International Longenvity Centre, report, pale shadows, Feminism, essay, Ann, América Latina, Desastres, Prevención, Estudios Sociales, La Red, formation, Royal Geographical Society, Ann, conference, Latin America, interests, experts, meeting, Swedish International Development Cooperation Agency, Latin America, issues, programme, Promesha, translation, CDRI, Cambodian Development Resource Institute, co, postgraduate research, UCL Impact Award, award, formalisation, land, HelpAge International, studentship, ESRC, award, Mexico, arrangements, older people, Her work, region, US, Mexico, families, economic vulnerability, socio, Texas, University, Desarrollo Integral de la Familia, joint report, ’s Social Development Secretariat, UNIFEM, housing, self, role, women, assessment, accession, Mexico, Development, operation, Economic Co, Organisation, urban housing, reform, impact, report, histories, groups, interviews, surveys, tenure, housing, particular emphasis, urban Mexico, social research, years’ experience, Ann, ed, A. Varley, Natural Disaster Risk Reduction, International Decade, analysis, everyday, eds, D. Stansfield, G.A. Jones, N. Craske, R. Aitken, urban services, regularisation, Solidarity, goods, Victoria Chenaut, Helga Baitenmann, Lucrecia Orensanz, edition, UNIFEM, Women, United Nations Development Fund, Universidad Nacional Autónoma de México, Género, Programa Universitario de Estudios, UNIFEM, Women, United Nations Development Fund, Universidad Nacional Autónoma de México, Género, Programa Universitario de Estudios, Habitacional, el Mejoramiento Socio, Programa de Capacitación, Bolivia, Edésio Fernandes, co, Egypt, Lebanon, Lesotho, Oñati, Law, Sociology, International Institute, Spain, France, Denmark, York University, Canada, Yale University, Austin, Texas, University, Florida, University, California San Diego, University, Northwestern University, MIT, Land Policy, Lincoln Institute, USA, Brazil, Tijuana, Urban Land, 5th National Congress, Guadalajara, Universidad, Universidad Nacional Autónoma de México, Xochimilco, UAM, Azcapotzalco, UAM, Instituto Mora, El Colegio de Puebla, El Colegio de México, Occidente, CIESAS, Mexico, events, Invitations, Lebanon, Beirut, American University, Design, Architecture, Department, Austin, Texas, University, Public Affairs, Lyndon B Johnson School, Graduate School, lecturer, Trondheim, Technology, Science, Norwegian University, Geography, Department, Roskilde, University, International Development Studies, Department, Copenhagen, University, Geography, Department, lecturer, Ann, Denmark, photo, Michael Palin, President, Society, Medal, Mexico, work, Royal Geographical Society, senior awards, Busk Medal, Ann, Norway, Research Council, proposals, UK, Commonwealth Scholarship Commission, advisory panel, Peer Review College, ESRC, member, Americas, Study, Institute, several months, London Research Fellowship, new University, first recipients, Italy, Bellagio, Rockefeller Foundation Study Center, individual residency, Oxford, St Catherine’s College, Christensen Fellow, Ann, UNIFEM, Women, United Nations Development Fund, support, Universidad Nacional Autónoma de México, version, Rutgers University Press, Victoria Chenaut, Helga Baitenmann, books, home, housing, central theme, Latin America, urban Mexico, her work, law, titles, disasters, interests, research, broad range, Ann, Geography, Department, lecturer, Mexico, housing, rental, project, Overseas Development Administration, Mexican Society Postgraduate Prize, Mexico City, development, her doctoral thesis, student, UCL, Oxford, University, Geography, honours degree, Ann Varley]</t>
+  </si>
+  <si>
+    <t>[20th century, French academic geography, historiography, Vidalians, Demangeon, papers, suite, Albert Demangeon, Letters, Fontainebleau, holdings, main archival resource, other regions, Brittany, Alsace, Upper Normandy, Northern France, work, intensive archive, Lower Normandy, Paris, studies, monograph, main focus, 1950s, 1940s, France, country, town, Reconstruction, associated articles, 20th century, France, reconstruction, monograph, northern France, countryside, town, Reconstruction, pp, Urban History, Journal, England, Ireland, urban history, reflections, Streets, pp, Historical Geography, Journal, early twentieth century, French geography, social dynamics, Albert Demangeon, letters, Vidal de La Blache, shadow, Amiens, Encrage, pp, Picardie, Les Reconstructions, P. Nivet, A. Dumenil, eds, personnel, La grande reconstruction, Oxford, Oxford University Press, British Geography, A Century, M. Williams, R.J. Johnston, eds, chorographic inheritance, studies, regional geography, Place description, Human Geography, Progress, transcontinental excursion, French geographers, experience, Lessons, pp, Scottish Geographical Journal, geographers, network, Montpellier, Ecossais, College, Alan Grant Ogilvie, Jules Sion, ISBN, Paris, L’Harmattan, historique, la, Où, R. Trochet, J, Boulanger, eds, pp, H.C. Darby, écrits, Les enseignements, britannique, françaises, Les, London, Routledge, pp, Britain, resources, property, land, Contemporary Rural Geographies, H. Clout, ed, rural geographer, geographer, Richard Munton, ISBN, London, Routledge, Britain, resources, property, land, Contemporary Rural Geographies, editor, press, Historical Geography, Journal, Société Normande de Géographie, provincial France, scholarly geographies, Popular geographies, University Committees, Historical Sciences, Social, Faculty, Dean, years]</t>
+  </si>
+  <si>
+    <t>[CRSA Boston Univ, C. Schaaf, Boston Univ, CRSA, Strahler, PI, PIK Potsdam, W. Lucht, MODIS directional factors, MERIS reflectances, albedo, Land, years, MERIS data, ID, grant, AO, ENVISAT, et al, Swansea, Mike Barnsley, HRVIR, VEGETATION, SPOT, Land Surface Biophysical properties, validation, Determination, member, VEGETATION Science, grant, VEGETATION, Swansea, Mike Barnsley, METEOFRANCE, L Roujean, J, INRA, Fred Baret, CESBIO, Marc Leroy, products, MSG land, Evaluation, grant, EUMETSAT MSG, ESA, GRADE, K, £, Extension, UCL, Surveying, Photogrammetry, Dept, P Muller, J, Swansea, Wales, global scales, natural resources, GIS, remote sensing, use, SOAS, Tony Allan, Prof, course, remote sensing, renewable natural resources, applications, physics, students, course, term, unit, models, data, state, methods, models, course, Photogrammetry, Remote Sensing, MSc students, course, HTML, Shell programming, etc, X, UNIX, UNIX workstations, New Phytologist, IJRS, IEEE GRS, RSR, RSE, various journals, papers, college, NERC peer, member, applications, NASA, NERC, various NERC projects, doctoral Research Fellows, post, NERC, whom, students, UCL, dissertations, NERC QUEST funding, CTCD, activities, fire, estimates, efforts, Wooster, collaborative links, KCL, Wooster, burning, Carbon release, independent method, alternative, product, MODIS, development, expertise, data, area, improved estimates, several years, Carbon, estimates, intensity, load, factors, year, area, which Carbon release, way, global Carbon bugets, uncertain element, dynamics, major role, Fire, fluorescence, passive detection, Xanthrophyll cycling, efficiency, light, PRI, Photochemical Reflectance Index, ratios, methods, space, photosynthetic activity, new methods, addition, prediction, Carbon, uncertainties, uncertainties, clearer tracking, models, canopy, simple parameterisatiuons, what, variables, mechanistic model, model, scattering, EO operator, observations, predictions, MODIS LAI, products, satellite, latter approach, inadequacies, predictive capabilities, mechanistic models, observations, assimilation, Quaife et al, predictions, GPP, estimates, observation, main areas, more complex mechanistic models, observations, links, Production Efficiency Approach, GPP, Gross Primary Production, simple models, several ways, space, photosynthesis, monitoring, improved modelling, CTCD, research, stream, models, ecosystem, vegetation, such models, particular importance, latter point, absorption, scattering, biophysical parameters, mappings, models, parameter, scattering, aspects, conclusion, Disney et al, Lewis et al, Disney, Lewis, my group, work, 3D, direct physical meaning, parameters, practical applications, range, empirical models, semi, mapping, signal, sudden changes, robust consideration, empirical temporal model, models, methods, empirical signal, semi, Rebelo et al, fire, other areas, Carbon budgets, fire, impact, our understanding, great potential, Roy, areas, robust mapping, NASA GSFC, UMD, David Roy, collaboration, product, algorithm, area, NASA MODIS, core, models, tracking, set, models, application, spin, Schaaf et al, product, algorithm, NASA MODIS BRDF, basis, test, BRDF models, kernel, semi, development, lines, Early evidence, absorption, scattering, simple model, significant insights, scattering, spectral aspects, decoupling, spectral properties, spatial arrangement, details, complex function, signal, many ways, whilst, conclusion, fundamental modelling, research, streams, configurations, types, possibilites, tools, system, LUTs, tables, compressed look, models, inversion, rapid methods, terms, small number, radiation, scattering, our understqanding, models, parameter, NERC funding, BNSC, ESA, radiation, microwave, synergy, signal, temporal dynamics, understanding, near future, work, main directions, international framework, exercises, model, model, absorption, scattering, shortwave, main factors, understanding, system, testbed, aim, types, wide range, model, expression, which our current model, radiative transfer, models, focus, large component, modelling, basic approach, other areas, Excellence, NERC Centre, future developments, focus, BAE systems, collaboration, BNSC, ESA, previous joint work, synergy, domains, information, common links, area, rapid progress, EO modeller, Dr Paul Saich, last few years, NERC EOSI Lectureship, UMD /NASA, colleagues, detection, Africa, detection, burn, model, applications, greater accuracy, UCL, BU, colleagues, albedo product, NASA MODIS BRDF, development, years, my work, operational monitoring, practical solutions, approach, years, fruitful collaborations, wide range, MSc remote sensing, elements, research, my group, my own work, modelling, capability, models, use, loose empirical correlations, field, key emphasis, area, new methods, group, my own work, focus, Earth Observation methods, vegetation, my research, main focus, Comm, XXIX, Remote Sensing, Photogrammetry, International Arch, Plant Canopy Reflectance Simulation, ARARAT, Advanced RAdiometric RAy Tracer, P. Muller, J, P. Lewis, January, France, Val d'Isere, Teledetection, Signatures, Physiques, Proc, Earth Surface Albedo, Various Formulations, Sky Radiance Distribution, Influence, M. Barnsley, P. Lewis, Australia, Melbourne, March, 7th Australaisian Remote Sensing Conference, AVHRR Data, NDVI Measurements Derived, Topographic Effect, P. Lewis, D.W. Burgess, May, Sheffield CEOS, Radiation, Vegetation Canopies, Interaction, RSS Meeting, proc, Invited Paper, Canopy Shortwave Radiation Regime, Describing Plant Form, Deriving, Model, Botanical Plant Modelling System, P. Boissard, P. Lewis, C. Schaaf, X. Li, P. Lewis, M. Barnsley, P. Muller, J, A. Strahler, W. Wanner, Fr, Montpellier, Aug., Photosynthesis, Colloq, Int, Canopy Development, Models, Crop Structure, Model Database, M Meynard, J, P. Valery, P. Lewis, N. Akkal, P. Boissard, Sept, UK, Southampton, Action, RSS, Proc, BRDF Models, Biophysical Parameters, Retrieval, Angular Sampling Regimes, Effect, P. Lewis, M. Barnsley, Z. Hesley, Sept, UK, Southampton, Action, RSS, Proc, Sahel, HAPEX, BRDF Model, Inversion, Surface Biophysical Parameters, Derivation, P. Muller, J, P. Lewis, M. Barnsley, M. Sutherland, Sept, UK, Southampton, Action, RSS, Proc, Images, MVA, Multiple View Angle, Content, Statistical, P. Lewis, D. Allison, M. Barnsley, Sept, UK, Southampton, Action, RSS, Proc, Driven BRDF Models, Linear Kernel, Implementation, U.K. P. Lewis, Brunel, June, Spatial Aspects, Applied Biology, Applied Biologists, Association, Agronomy, 3D Plant Modelling, P. Lewis, N. Akkal, Boissard, UK, Durham, RSS, Proc, biophysical properties, land, retrieval, Implications, BRDF, intrinsic dimensionality, P. Muller, Z. Hesley, P. Lewis, M. Disney, M. Barnsley, UK, Durham, RSS, Proc, BRDF models, biophysical parameters, retrieval, MISR sensors, MODIS, errors, significance, P. Lewis, M. Barnsley, Z. Hesley, pp, Reading, Society Conference, Proc, model, directional refl, sub, estimation, thro, BRDF, M. Barnsley, P. Lewis, Z. Hesley, Reading, Society Conference, Proc, Sahel, albedo, BRDF models, kernel, Validation, M. Disney, P. Lewis, pp, Reading, Society Conference, Proc, system, botanical plant, operation, BRDF, M. Disney, P. Lewis, Mars, la Modelisation ArchitecturaleINRA Paris, Seminaire, Actes, B.P.M.S., Botanical Plant Modelling System, P. Lewis, Mars, la Modelisation ArchitecturaleINRA Paris, Seminaire, Actes, photogrammetrie, Estimation, tallage, cours, Paremetrisation d'un, P. Lewis, J. Helbert, N. Akkal, P. Valery, P. Boissard, ISBN, pp, Vol, April, France, Courchevel, Remote Sensing, Signatures, 7th International Symposium Physical Measurements, Sahel, dynamics, land, AVHRR data, Driven BRDF Models, Kernel, Application, P. Lewis, E. Vives de Lope, ISBN, Vol, April, France, Courchevel, Remote Sensing, Signatures, 7th International Symposium Physical Measurements, spaceborne data, albedo, BRDF, validation, Production, M. Barnsley, P. Lewis, P. Muller, J, M. Disney, ISBN, Vol, April, France, Courchevel, Remote Sensing, Signatures, 7th International Symposium Physical Measurements, remote sensing, measurement, modelling, use, P. Boissard, BIOS Scientific Publishers P. Lewis, Vol, Sept., U.K., Warwick University, Precision Agriculture, 1st European Conf, fraction, early estimate, wheat, management, Nitrogen, J.M. Meynard(1997, P. Lewis, M.H. Jeuffroy, C. Chabanet, P. Boissard, N. Akkal, N. Strugnell, M.J. Barnsley, A. Hyman, P. Lewis Y. Liu, B. Hu, P. Muller, J, A. Strahler, C. Schaaf, W. Lucht, paper, p., Kingston UK, Jan., IGB Annual Conference, RGS, Kingston, imagery, geostatistical Classifier, P. Atkinson, P. Lewis, Italy September, Ispra, IWMMM-2, Models, Multiangular Measurements, Second International Workshop, poster, Abstract, BRDF modelling, approach, kernel, spectral kernels, development, M. Disney, P. Lewis, UK, Cardiff, 10th September, 25th Annual Remote Sensing Society Conference, proceedings, plantation, oil, biophysical parameters, model, 3D radar, Sensitivity, J. McMorrow, Izzawati, P. Lewis, UK, Cardiff, 10th September, 25th Annual Remote Sensing Society Conference, proceedings, ADEOS Data, POLDER, Driven BRDF Models, Kernel, Inversion, M. Disney, P. Lewis, M.J. Barnsley, P.D. Hobson, UK, Cardiff, 10th September, 25th Annual Remote Sensing Society Conference, proceedings, paramters, BRDF, kernel, temporal dynamics, P. Lewis, G., Roberts, UK, Cardiff, 10th September, 25th Annual Remote Sensing Society Conference, proceedings, imagery, spatial information, analysis, BPMS, Botanical Plant Modelling System, Application, M. Disney, P. Lewis, UK, Cardiff, 10th September, 25th Annual Remote Sensing Society Conference, proceedings, BRDF model, spectral kernel, P. Lewis, M. Disney, USA, Missouri, Saint Louis, August, XVI International Botanical Congress, studies, model, Botanical Plant Modelling System, P. Lewis(1999, France, Meribel, ALPS, ADEOS data, POLDER, models, kernel, semi, Inversion, P. Muller, J, M. Disney, P. Lewis, M., Barnsley, P. Hobson, Page(s, Volume, IGARSS, Proceedings, Symposiun, Remote, IEEE International Geoscience, preliminary results, G., Roberts, M., Dunderdale, M., P.;Disney, Hobson, M., Barnsley, P., Lewis, P., J, Muller, Xiaowen Li, N., Strugnell, W., Lucht, T., Tsang, A.H., Strahler, Feng Gao, C.B., Schaaf, May 30-June, Washington DC, Meeting, AGU Spring, bidirectional reflectance, area, P. Lewis, D. Roy, May 30-June, Washington DC, Meeting, AGU Spring, Albedo Product, BRDF, MODIS, Moderate Resolution Imaging Spectroradiometer, Initial Results, G., Roberts, M., Dunderdale, M., Disney, P., Hobson, M., Barnsley, P., Lewis, P., J, Muller, Xiaowen Li, N., Strugnell, W., Lucht, T., Tsang, A.H., Strahler, Feng Gao, C.B., Schaaf, Dec, CA, San Francisco, American Geophysical Union Spring Meeting, Abstract, Albedo Product, BRDF, MODIS, MODerate Resolution Imaging Spectroradiometer, C. Doll, G. Roberts, M. Dunderdale, M. Disney, P. Hobson, M. Barnsley, P. Lewis, P. Muller, J, X. Li, W. Lucht, F. Gao, A. H. Strahler, C. B., Schaaf, Dec, San Francisco, Meeting, AGU Fall, albedo product, BRDF, MODIS, Moderate Resolution Imaging Spectroradiometer, G., Roberts, M., Dunderdale, M., Disney, P., Hobson, M., Barnsley, P., Lewis, P., J, Muller, Xiaowen Li, N., Strugnell, W., Lucht, T., Tsang, A.H., Strahler, Feng Gao, C.B., Schaaf, January, France, Aussois, Remote Sensing, Signatures, Physical Measurements, 8th International Symposium, Proceedings, Albedo Product, MODIS BRDF, Temporal Characteristics, S. Liang, C. Doll, Roberts, G, M. Dunderdale, M. Disney, P. Hobson, M. Barnsley, P. Lewis, P. Muller, J, X. Zhang, X. Li, N. Strugnell, T. Tsang, W. Lucht, A. Straler, F. Gao, C. B., Schaaf, 2 June, May, MA, Boston, American Geophysical Union Spring Meeting, Abstract, MODIS, MODerate Resolution Imaging Spectroradiometer, Albedo, Land Surface Spectral Bidirectional Reflectance, C. Doll, M. Dunderdale, G. Roberts, M. Disney, P. Hobson, M. Barnsley, P. Lewis, P. Muller, J, X. Li, W. Lucht, F. Gao, A. H. Strahler, C., Schaaf, July, Netherlands, Amsterdam, IGBP Global Change Open Science Conference, Abstract, MODIS, MODerate Resolution Imaging Spectroradiometer, Albedo Products, Operational Bidirectional Reflectance, J. L. Privette, S. Liang, C. Doll, G. Roberts, M. Barnsley, P. Lewis, P. Muller, J, E. Tsvetsinskaya, Y. Jin, X. Zhang, X. Li, W. Lucht, F. Gao, A. H. Strahler, C. B., vol.5 Schaaf, Page(s):2227, July, Volume, July, Australia, Sydney, IGARSS'01, Symp, Sens, Geosci, Int, Proc, J. L. Privette, S. Liang, C. Doll, G. Roberts, M. Barnsley, P. Lewis, P. Muller, J, E. Tsvetsinskaya, Y. Jin, X. Zhang, X. Li, W. Lucht, F. Gao, A. H. Strahler, C. B., Schaaf, July, Australia, Sydney, IGARSS'01, Symp, Sens, Geosci, Int, Proc, biophysical parameters, prospects, status, PROBA, CHRIS, M. Cutter, M. Barnsley, P. Lewis, September, Sheffield, Land Applications, SAR data, Physical Parameters, Geo, Bio, Retrieval, Third International Workshop, proc, canopies, scattering, optical reflectance, models, SAR data, E, Hymap, Comparison, G. Thackrah, M. Disney, P. Lewis, P. Saich, Page(s):1188, June, IEEE International Volume, IGARSS, Symposium, Remote, Geoscience, J., Privette, D., Roy, Shunlin Liang, C., Doll, G., Roberts, M., Barnsley, P., Lewis, P., J, Muller, E., Tsvetsinskaya, Xiaoyang Zhang, Xiaowen Li, Yufang Jin, W., Lucht, Feng Gao, A., Strahler, C., Schaaf, models, vegetation, assimilation, implications, observation, coarse resolution, medium, phenological measures, Intercomparison, cover, variety, mapping, purposes, PROBA data, board, CHRIS, initial analysis, structure, models, domains, canopies, forest, retrieval, MODIS Sensor, Land Surface Products, Application, Validation, Session, December, San Francisco, Fall AGU Meeting, validation, generation, area, southern Africa MODIS, Multi, Lewis P., L., Giglio, C.O., Justice, J., Yufang, D.P., Roy, Oct., Netherlands, ESTEC Noordwijk, ESA, SPECTRA Workshop, proc, PROBA, CHRIS, Biophysical parameters, P., Saich, M., Disney, G., Thackrah, T., Quaife, M., Barnsley, P. Lewis, Feb., germany, Halle, workshop, plant, Microwave Wavelengths, Optical, Plant Dynamics, Models, Data, Inverting Remote, Wheat Biophysical Parameters, C. Fournier, B. Andrieu, M. Disney, J. Hillier, P. Saich, P. Lewis, June, Montpellier, CIRAD, Structural Plant Models, Functional, 4th International Workshop, proc, inversion, modelling, wheat, model, L, Calibration, J. Bodley, T. Macklin, C. Fournier, B. Andrieu, M. Disney, P.Saich, P.Lewis, June, Montpellier, CIRAD, Structural Plant Models, Functional, 4th International Workshop, proc, estimation, simulation, structure, forest, modelling, P. Saich, P. Lewis, M. Disney, July, June, Plymouth, NERC EO conference, regime, canopy, simulation, studies, radiance, EO, assimilation, potential, P. Lewis, M. Williams, M. Disney, June, Plymouth, NERC EO meeting, Model, Sheffield Dynamic, Forward Modeling Earth Observation Signals, Woodward F.I., Lewis P., Disney M., Picard G., Lomas M., Quaife T., March, France, Avignon, EO, 3D, Workshop, simulation, 3D plant, Lewis et al, England, Portsmouth, NERC Earth Observation Conference, Ensemble Kalman Filter, Model, Earth Observation Data, M. De Kauwe, M. Disney, M. Williams, P. Lewis, T. Quaife, Portsmouth, proceedings, Earth Observation satellites, data, Dynamic Vegetation Models, predictions, carbon, M. Disney, F.I. Woodward, P. Lewis, M. Lomas, T. Quaife, Oct, China, Beijing, Remote Sensing, Signatures, Physical Measurements, Symp, 9th Intl, Proc, areas, fire, identification, application, temporal BRDF models, comparison, D. Roy, P. Lewis, L. Rebelo, Oct, China, Beijing, Remote Sensing, Signatures, Physical Measurements, Symp, 9th Intl, Proc, scattering, canopy, spectral invariant approach, C. Nichol, T. Quaife, P. Lewis, M. Disney, Oct, China, Beijing, Remote Sensing, Signatures, Physical Measurements, Symp, 9th Intl, Proc, Ensemble Kalman Filter, Model, Assimilating Earth Observation Data, Kauwe, M., M. Disney, M. Williams, P. Lewis, T. Quaife, Oct, China, Beijing, Remote Sensing, Signatures, Physical Measurements, Symp, 9th Intl, Proc, inversion, simulation, wheat, modelling, 3D, M. Disney, P. Saich, C. Fournier, B. Andrieu, J. Watt, J. Hillier, P. Lewis, NASA, Dec., NASA MISR Team, ecological models, its potential use, probability, M. Disney, P. Lewis, Y. Knyazikhin, P. Stenberg, R. Myneni, M. Schull, M. Rautianen, S. Smolander, D. Huang, CDROM, Cambridge, Sept., RSPSOC Conference, Proc, level, scattering, relationships, shoots, M. Disney, P. Lewis, Australia, Sydney, 24th March, IWMMM-4, proc, canopies, lidar, P., J, Muller, P., Lewis, M. I., Disney, S., Hancock, Tejada, P. Zarco, M. Verstraete, F. Veroustraete, W. Verhoef, R. Valcke, N. Tremblay, C. Tobehn, Z. Bob Su, M.P. Stoll, J. Sobrino, M. Sierra, J.J. Settle, J.B. Serrano, M.E. Schaepman, B. Saugier, Y. Saito, J.L. Roujean, A. Rosema, R. Reuter, U. Rascher, J. Polcher, A. Plaza, J. Penuelas, J. Peltoniemi, R. Pedros, A. Palucci, S. Pace, A. Olioso, C. Ottle, W. Knorr, L. Nedbal, I. Moya, F. Morales, E.J. Milton, G. Mohammed, J. Miller, E. De Miguel, E. Middleton, R. Merton, M. Menenti, P. Mazzinghi, Cobo, P. Martinez, A. Martinez, M.V. Marek, S.W. Maier, F. Magnani, D. Lobb, T. Laurila, M. Kneubhler, L. Jia, S. Jacquemoud, J. Hill, R.O. Green, J. Gower, E.U. Gloor, A. Gitelson, B. Gielen, P. Gege, J. Flexas, R. Fernandes, G. D'Urso, A. Dudelzak, M. Disney, M.A. Cutter, A. Court, L.A. Corp, R. Colombo, G. Cecchi, P. Campbell, J. Calpe, A. Calera, C. Buschmann, A. Bell, T. Belenguer, H. Bach, G.P. Asner, J.F., Moreno, March, Switzerland, Davos, 10th ISPMSRS meeting, proc, scanner, Echidna, parameters, measurement, Monte Carlo ray, M. I., Disney, J. P, Muller, P., Lewis, S., Hancock, March, Switzerland, Davos, 10th ISPMSRS meeting, proc, spectral invariants, Canopy reflectance, M. I., Disney, P., Lewis, March, Switzerland, Davos, 10th ISPMSRS meeting, proc, scenes, fraction, P., Lewis, M. I., Disney, M., Pfeifer, March, Switzerland, Davos, 10th ISPMSRS meeting, proc, canopy, complex 3D, Spectral invariant behaviour, P., Lewis, M. I., Disney, July, Spain, Barcelona, pro, fluxes, estimates, model, data, B., Law, M., Williams, M., DeKauwe, M. I., Disney, P., Lewis, T, IAC-08-B1.3.1 Quaife, Oct, Sep, Scotland, Glasgow, 59th International Astronautical Congress, Proceedings, EO Instrumentation, UK Centre, Instrument Developments, K Smith, D Weidmann, J Jack, H Woodhouse, M Foster, P Muller, J, Edinburgh, September, LIDAR applications, SilviLaser 8th International Conference, proc, tracing, Carlo, Monte, lidar, long pulse, estimation, forest, accuracy, J. -P., Muller, M., Foster, M. I., Disney, P., Lewis, S., Hancock, USA, Boston, July, IGARSS'08, proc, areas, vegetation, changes, data, P. Ineson, P., Lewis, M. I., Disney, N. Macbean, USA, Boston, July, IGARSS'08, proc, tracing, Carlo, Monte, lidar, forests, measurement, P. Muller, J, P. Lewis, M. I., Disney, S. Hancock, USA, Boston, July, IGARSS'08, proc, Ensemble Kalman Filter, derived products, EO, Earth Observation, assimilation, carbon, spatial exchange, M. Williams, M. I., Disney, P. Lewis, T. Quaife, M. De Kauwe, USA, Boston, July, IGARSS'08, proc, missions, spaceborne, reflectivity, M., Bouvet, P., Lewis, M. I., Disney, March, China, Beijing, Analysis, Modeling, Observations, Energy Budgets, Land Surface Radiation, International Conference, temporal smoothness, inversion, BRF, Y. Shuai, Z. Wang, M. Roman, C.B. Schaaf, T. Quaife, P. Lewis, 2nd July, Germany, Juelich, structures, 3D, ESA workshop, EO, Modelling, Vegetation Structure Measurement, P. Lewis, July, S. Africa, Cape Town, Symp, Sens, IEEE Geosci Rem, spectral reflectance, wildfire, impact, Mathias Disney, David Roy, Martin Wooster, Mathias Disney, Dans, Jose Gomez, Philip Lewis, July, S. Africa, Cape Town, Symp, Sens, IEEE Geosci Rem, studies, climate, products, reflectance, MODIS albedo, Xiaowen Li, Michael Barnsley, Peter Muller, Jan, Philip Lewis, Shunlin Liang, Wolfgang Lucht, Xiaoyang Zhang, Jicheng Liu, Feng Gao, Qingling Zhang, Yanmin Shuai, Ziti Jiao, Miguel RomÃ¡n, Zhuosen Wang, Alan Strahler, Crystal Schaaf, July, S. Africa, Cape Town, Symp, Sens, IEEE Geosci Rem, acrtic ecosystems, disturbances, Satellite monitoring, Da, JosÃ© GÃ³mez, Phillip Lewis, Mathias Disney, Blanco, Ana Prieto, July, S. Africa, Cape Town, Symp, Sens, IEEE Geosci Rem, data, model, ecosystem, Probabilistic calibration, Allan Spessa, Philip Lewis, Martin Wooster, Dans, Jose Gomez, surface, Varying perspectives, BRDF, Mike Barnsley, Prof, memory, Conversazione, RSPSoc Lecture, June, November, Version, MOD09, MODIS Product ID, Algorithm Theoretical Basis Document Version, Albedo Product, MODIS BRDF, M. Barnsley, P. Lewis, P. Muller, J, B. Hu, X. Li, C. Schaaf, W. Wanner, A. Strahler, ESA Report contract, Remote Sensing Applications, Architectural Vegetation Growth Models, Development, S. Ljutovac, C. Fournier, B. Andrieu, I. Woodhouse, P. van Oevelen, M. Disney, P. Lewis, P. Saich, Sahel, HAPEX, Hydrology Special Issues, Journal, reprints, ISBN, Elsevier, Sahel, HAPEX, Goutorbe et al, Multiple Angle ASAS Images, BRDF Models, Inversion, Site, Sahel Southern Super, HAPEX, Land Surface Albedo, M. Sutherland, P. Muller, J, P. Lewis, M. Barnsley, Dordrecht, Springer, Crop Production, Functional Structural Plant Modelling, J.B. eds, Evers, P.C., Struik, P.H.B., de Visser, L.F.M., Marcelis, J., Vos, New York, Verlag, Springer, Hardcover ISBN, color, illus, p., XIII, Eds, Annette, Freibauer, Riccardo, Valentini, A. Johannes, Dolman, Vol, Ecological Studies, Series, Carbon Exchange, Regional Scale Calculations, Satellite Observations, M. Disney, M. Wooster, G. Roberts, T. Quaife, P. Lewis, S. Quegan, P. Muller, JJ, L. Giglio, R. Wolfe, W. van Leeuwen, A. Huete, Z. Wan, R. Nemani, S. Running, Y. knyazi, R. Myneni, W. Lucht, A. Strahler, G. Riggs, J. Privette, V. Salomonson, D. Hall, D. Roy, R. Defries, J. Townshend, E. Vermote, C. Justice, P. Muller, J, E. Tsvetsinskaya, Y. Jin, X. Zhang, X. Li, W. Lucht, F. Gao, A. H. Strahler, C. B., Schaaf, H., Zang, G., Yan, J., Wang, H., Wang, W., Verhoef, R., Thompson, S., Tang, L., Su, W., Qin, P., North, T., Nilson, W., Meister, Ni, X., Li, P., Lewis, A., Kuusk, L., Jiang, P., J, Gastellu, F., Gascon, M., Disney, M. M., Verstraete, N., Gobron, M., Taberner, L., J, Widlowski, B., Pinty, measurements, scales, range, other EO data, values, albedo, MODIS, Comparison, composites, model, bi, day, MODIS, production, cloud, Global impact, D. Xie, M. M. Verstraete, W. Verhoef, R. Thompson, C. Soler, R. Ruiloba, N. Rochdi, M. Robustelli, W. Qin, P. R. J. North, M. Mottus, E. Martin, S. Leblanc, T. Lavergne, A. Kuusk, N. Gobron, Etchegorry, P. Gastellu, J, R. Fernandes, M. Disney, Pinel, V. Bruniquel, B. Pinty, M. Taberner, L. Widlowski, J, GB4016, Cycles, Global Biogeochem, fluxes, estimates, uncertainties, land, Impact, F. I. Woodward, M. Lomas, J. B. Blair, M. J. Chopping, R. B. Myneni, T. Yao, A. H. Strahler, Schull, M., Y. Knyazikhin, P. Lewis, C. B. Schaaf, Z., Wang, Environment, Sensing, LDAS, EO, Earth Observation Land Data Assimilation System, M., Berger, J., Styles, N., Gobron, T., Quaife, J., Settle, T., Kaminski, J., Dans, Gomez, P., Lewis, Environment, Sensing, measurements, GOSAT, fluorescence, global assessment, Retrieval, R.G., Grainger, H., Suto, A., Kuze, J., Dans, Gomez, P.E., Lewis, A., Dudhia, C., Frankenberg, L., Guanter, Environ, Sens, Rem, properties, LiDAR waveforms, M., Herold, J., Verbesselt, M. I., Disney, P., Lewis, K., Calders, Forest Meteorology, Agricultural, topography, study, lidar, forests, J. -P., Muller, M. I., Disney, M., Foster, P., Lewis, S., Hancock]</t>
+  </si>
+  <si>
+    <t>[Jake Simpson, Kim Calders, various others, supervisor, Co, Jennifer Adams, Alasdair Hitchens, Will Vincent, Niall Origo, Martin Vickers, Ruth Boogert, Louise Ireland, Vasilios Kalogirou, Sam Fleming, Jacques Malaprade, Lena Weissert, Ben Grundy, MSc Climate Change, MSc Conservation, MSc Environmental Mapping, MSc Remote Sensing, particular order, 2005-present, UCL, Dr. S. Lewis, Permian, conjunction, NERC CASE studentship, Climate Change, Future, Designing Tropical Forests, Topic, UCL, Dr. S. Lewis, P. Lewis, Prof, supervisors, Co, EADS Astrium, conjunction, NERC CASE studentship, models, new measurements, degradation, state, Topic, GEOG2021, analysis, programming, practical element, cycle, vegetation, sensing, RADAR, LIDAR, applications, examples, interaction, principles, laws, wavelengths, range, surface, Earth, radiation, fundamental concepts, forms, practicals, lectures, course, remote sensing, various applications, extraction, data, remote sensing, introduction, A, environments, children, live presentations, change, forests, carbon, topics, groups, range, schools, lectures, UK, site, MODIS, lead, Validation activities, Calibration, wider international CEOS Working Group, NERC Knowledge Transfer project, Earth Observation Data, Validation, Calibration, Network, Technology, Science, Parliamentary Committee, environmental science, NERC, examples, Shaun Quegan, Prof, NERC representative, carbon, fire, forests, material, Royal Society Summer Exhibitions, topics, interest, wider public, work, activities, number, others, Australian National Research Council, Ireland, Environmental Protection Agency, ESA, NASA, NERC, agencies, range, environmental science, funding, panels, lidar, instrumentation, methods, development, funding, collaborative PhD, industrial partners, range, UCL, projects, AR5, IPCC AR4, albedo, S. Africa, Gabon, African National Parks agencies, NGOs, stocks, forest, impacts, change, new methods, development, ECMWF, Met Office, other users, NGO, government, wide variety, ESA, NASA, albedo, datasets, testing, development, include, Examples, activities, government, surface, vegetation, global environmental processes, information, provision, work, part, research, other organisations, NGOs, EU, ESA, European Space Agency, NASA, councils, UK, disciplines, sources, range, collaboration, funding, recent years, My research, K, approx, UCL, M, £, Terrestrial Carbon Dynamics, Centre, Earth Observation, Excellence, NERC Centre, Associate co, K, Geog €, K, MSSL, K, €, UCL, M total, €, Essential Climate Variables, Quality Assurance, EU FP7 QA4ECV, PI, €, UCL, partners, consortium, M total, €, BACI, Biosphere Atmosphere Change Index, properties, essential ecosystem, changes, BACI, EU Horizon, I., ~£300K, NPL value, partner, UCL, National Physical Laboratory, M total, €, II, Climate, Earth Observation, Metrology, METEOC2, EU FP7, P. Lewis, Prof, PI, months, K, £, UCL, measurement, 3D RT modelling, Vegetation, Terrestrial Carbon, Phase, NCEO, Earth Observation, NERC National Centre, collaborator, K, L. Duncanson, T. Fatoyinbo, High Biomass Forest Carbon Accounting, Future Mission Fusion, CMS, first NASA ROSES Carbon Monitoring System, lidar, reconstructions, validation, trees, woodland, plantation, conditions, leaf, Surrey, Alice Holt, their experimental forest, Gabonese National Parks Agency, Wageningen teams, UCL, Wageningen, Tanago, Jose Gonzalez, Kim Calders, UCL, Andy Burt, courtesy, elephants, biomass, volume, height, diameter, relationships, allometric, measures, satellite, other field, tropics, biomass, requirement, work, page, Geography, ongoing work, recent examples, biomass, structure, instruments, lidar, ground, spaceborne, observations, methods, new models, function, structure, canopy, lidar, direct EO measurements, toolbox, UZH group, Felix, nice movie, software, Science Element, European Space Agency Support, work, my 3D, application, recent project, email, librat, further collaborations, years, librat, publications, projects, list, software, documentation, tools, tool, years, software, few years, ways, models, cheaper computers, Faster, signal, surface, radiation, detail, unprecedented level, last few years, forests, state, applications, sorts, signal, My aim, content, chlorophyll, colour, variations, texture, shadows, structure, variety, Australia, Northern Queensland, Fraser Island, temperate rainforest, area, our aims, sums, image, observations, models, carbon, our understanding, things, quantitative estimates, sort, observations, new ways, effort, vegetation, dynamics, extent, biophysical properties, indirect observations, scale, Satellites, degradation, deforestation, agriculture, change, land, fire, anthropogenic disturbances, range, climate, response, carbon, plants, cycle, terrestrial biosphere, interaction, vegetation, radiation, surface, optical wavelengths, radiation, interactions, My research, biophysical properties, land, retrieval, Implications, BRDF, intrinsic dimensionality, P., Muller, Z., Hesley, P., Lewis, M. I., spaceborne data, albedo, BRDF, validation, Production, M. J., Barnsley, P., Lewis, P., J, Muller, M. I., BPMS, structure, method, Validation, M. J., Barnsley, K., Jones, Evans, P., Hobson, R., Knott, P., Lewis, M. I., USA, Seattle, Jul., IGARSS'98, proc, real canopy, processes, linear BRDF models, investigation, P., Lewis, canopy, multiple scattering, study, BPMS, Botanical Plant Modelling System, M. I., imagery, spatial information, analysis, BPMS, Botanical Plant Modelling System, Application, M., Riedmann, M. I., imagery, spatial information, analysis, BPMS, Botanical Plant Modelling System, Application, M. I., Italy September, IWMMM-2 JRC Ispra, BRDF modelling, approach, kernel, spectral kernels, development, M. I., M. J., Barnsley, P., Lewis, P., J, Muller, D., McIver, Y., Liu, L., Chen, N., Strugnell, X., Li, F., Gao, T., Tsang, W., Lucht, A., Strahler, C., Schaaf, Page(s, Volume, IGARSS, Proceedings, Symposiun, Remote, IEEE International Geoscience, preliminary results, albedo product, BRDF, MODIS, Moderate Resolution Imaging Spectroradiometer, G., Roberts, M., Dunderdale, P., Hobson, M., Barnsley, P., Lewis, P., J, Muller, Xiaowen Li, N., Strugnell, W., Lucht, T., Tsang, A.H., Strahler, Feng Gao, C.B., Schaaf, May 30-June, Washington DC, Meeting, AGU Spring, Albedo Product, BRDF, MODIS, Moderate Resolution Imaging Spectroradiometer, Initial Results, G., M.;Roberts, Dunderdale, P., Hobson, M., Barnsley, P., Lewis, P., J, Muller, Xiaowen Li, N., Strugnell, W., Lucht, T., Tsang, A.H., Strahler, Feng Gao, C.B., Schaaf, Dec, San Francisco, Meeting, AGU Fall, albedo product, BRDF, MODIS, Moderate Resolution Imaging Spectroradiometer, G., M.;Roberts, Dunderdale, P., Hobson, M., Barnsley, P., Lewis, P., J, Muller, Xiaowen Li, N., Strugnell, W., Lucht, T., Tsang, A.H., Strahler, Feng Gao, C.B., Schaaf, Italy, Lago Maggiore, Vegetation, proc, Empirical BRDF Models, Semi, SPOT-4 VGT, Biophysical Properties, Surface Albedo, Land, Estimation, W. Lucht, Schaaf, C. Barker, A.H. Strahler, P. Muller, J, M. Disney, P. Lewis, J. Shaw, P.D. Hobson, T. Quaife, M.J. Barnsley, January, France, Aussois, Remote Sensing, Signatures, Physical Measurements, 8th International Symposium, Proceedings, Albedo Product, MODIS BRDF, Temporal Characteristics, S. Liang, C. Doll, Roberts, G, M. Dunderdale, P. Hobson, M. Barnsley, P. Lewis, P. Muller, J, X. Zhang, X. Li, N. Strugnell, T. Tsang, W. Lucht, A. Straler, F. Gao, C. B., Schaaf, 2 June, May, MA, Boston, American Geophysical Union Spring Meeting, Abstract, MODIS, MODerate Resolution Imaging Spectroradiometer, Albedo, Land Surface Spectral Bidirectional Reflectance, C. Doll, M. Dunderdale, G. Roberts, P. Hobson, M. Barnsley, P. Lewis, P. Muller, J, X. Li, W. Lucht, F. Gao, A. H. Strahler, C., Schaaf, July, Netherlands, Amsterdam, IGBP Global Change Open Science Conference, Abstract, MODIS, MODerate Resolution Imaging Spectroradiometer, Albedo Products, Operational Bidirectional Reflectance, J. L. Privette, S. Liang, C. Doll, G. Roberts, M. Barnsley, P. Lewis, P. Muller, J, E. Tsvetsinskaya, Y. Jin, X. Zhang, X. Li, W. Lucht, F. Gao, A. H. Strahler, C. B., Schaaf, September, Sheffield, Land Applications, SAR data, Physical Parameters, Geo, Bio-, Retrieval, Third International Workshop, proc, canopies, scattering, optical reflectance, models, SAR data, E, Hymap, Comparison, G. Thackrah, October, WI, Madison, AMS, Oceanography, Satellite Meteorology, 11th Conference, Proceedings, MODIS, MODerate Resolution Imaging Spectroradiometer, BRDF Product, Reflectance, Nadir BRDF, Land Surface Albedo, Jeff Privette, D. Roy, S. Liang, C. Doll, G. Roberts, M. Barnsley, P. Lewis, P. Muller, J, E. Tsvetsinskaya, Y. Jin, X. Zhang, X. Li, W. Lucht, A. H. Strahler, F. Gao, C. B., Schaaf, October, Geography Boston University, Dept, workshop, MODIS, Zambia, Skukuza, Mongu, sites, MODIS MOD43 Validation, P. Muller, J, T. Quaife, M. Barnsley, G. Thackrah, October, Geography Boston University, Dept, workshop, MODIS, UK, Norfolk, BB, Barton Bendish, sites, MODIS MOD43 Validation, P. Hobson, J. Shaw, T. Quaife, M. Barnsley, G. Roberts, L. Rebelo, G. Thackrah, P. Lewis, July, IGARSS'03 Toulouse, models, vegetation, assimilation, implications, observation, coarse resolution, medium, phenological measures, Intercomparison, M. Lomas, July, IGARSS'03 Toulouse, structure, models, domains, canopies, forest, retrieval, July, IGARSS'03 Toulouse, domains, wheat, 3D structural model, radiometric response, S. Ljutovac, C. Fournier, B. Andrieu, July, IGARSS'03 Toulouse, domains, Scots Pine, 3D structural model, radiometric response, P. Lewis, P. Saich, December, Cannes, Spaceborne Hyperspectral Imaging Workshop, data, multiangle, biophysical parameters, robust algorthms, development, M. Barnsley, P. Saich, July, June, Plymouth, NERC EO conference, UK, map, MODIS continuous tree, Evaluation, June, Montpellier, CIRAD, Structural Plant Models, Functional, 4th International Workshop, proc, inversion, modelling, wheat, model, L, Calibration, J. Bodley, T. Macklin, C. Fournier, B. Andrieu, June, Montpellier, CIRAD, Structural Plant Models, Functional, 4th International Workshop, proc, estimation, simulation, structure, forest, modelling, P. Saich, P. Lewis, July, June, Plymouth, NERC EO conference, regime, canopy, simulation, studies, radiance, EO, assimilation, potential, P. Lewis, M. Williams, UK, Northumberland, Harwood Forest, PROBAD data, CHRIS, retrieval, PROBA activities, CTCD CHRIS, L., Rebelo, C., Nichol, T., Quaife, ISSN, October, China, Beijing, ISPMSRS05, proc, Ensmble Kalman Filter, model, Assimilating Earth Observation data, M., DeKauwe, ISSN, October, China, Beijing, ISPMSRS05, proc, inversion, simulations, wheat, modelling, 3D, ISSN, October, China, Beijing, ISPMSRS05, proc, scattering, canopy, spectral invariant approach, C., Nichol, T., Quaife, P., Lewis, pp247, Vol, XXXX, XXX, VEGETATION User Conference, Int, proc, CTCD, Terresrial Carbon Dynamics, Centre, dynamic vegetation, VEGETATION data, SPOT, P., Lewis, S., Quegan, F. I., Woodward, Australia, Sydney, 24th March, IWMMM-4, proc, canopies, lidar, P., J, Muller, P., Lewis, March, Switzerland, Davos, 10th ISPMSRS meeting, proc, scanner, Echidna, parameters, measurement, Monte Carlo ray, March, Switzerland, Davos, 10th ISPMSRS meeting, proc, scenes, fraction, P., Lewis, March, Switzerland, Davos, 10th ISPMSRS meeting, proc, canopy, complex 3D, Spectral invariant behaviour, P., Lewis, July, Spain, Barcelona, pro, fluxes, estimates, model, data, B., Law, M., Williams, M., DeKauwe, USA, Boston, July, IGARSS'08, proc, areas, vegetation, changes, data, P. Ineson, P., Lewis, USA, Boston, July, IGARSS'08, proc, tracing, Carlo, Monte, lidar, forests, measurement, P. Muller, J, P. Lewis, USA, Boston, July, IGARSS'08, proc, Ensemble Kalman Filter, derived products, EO, Earth Observation, assimilation, carbon, spatial exchange, M. Williams(2008, USA, Boston, July, IGARSS'08, proc, missions, spaceborne, reflectivity, M., Bouvet, P., Lewis, Edinburgh, September, Silvilaser08, proc, tracing, Carlo, Monte, lidar, long pulse, estimation, forest, accuracy, P. Muller, J, M. Foster, Abstract U13B-0051, Suppl, Fall Meet, AGU, EOS Trans, Arctic Ecosystems, Disturbances, Satellite Monitoring, P., Lewis, July, SA, Cape Town, proc, spectral reflectance, wildfire, impact, B., Pinty, D., Roy, M., Wooster, July, SA, Cape Town, proc, Arctic Ecosystems, Disturbances, Satellite Monitoring, S., Ganguly, J, Dans, Gómez, P., Lewis, Sept, Jena, ICDC8 International Carbon Dioxide Conference, proc, models, observations, multi, Fennoscandia, cycle, P., Wookey, A., Wayolle, T., Wade, L., Street, J., Subke, A., Blanxo, Prieto, R., Poyatos, V., Pope, G., Phoenix, J., Moncrieff, P., Ineson, T., Hill, I., Hartley, R., Harding, J., Gornall, B., Fletcher, J., Evans, USA, California, San Francisco, December, AGU Fall meeting, Ecological Models, Aircraft Flux Observations, Tower, Scale Chamber, Multi, Arctic Carbon Cycle, Sub, M. D., Williams, P., Wookey, A., Wayolle, T. J., Wade, L., Street, J., Subke, A., Blanco, Prieto, R., Poyatos, V., Sloan, G., Phoenix, J., Moncrieff, P., Ineson, I. P., Hartley, R., Harding, J., Gornall, B., Fletcher, J., Evans, USA, California, San Francisco, December, AGU Fall meeting, Finland, arctic transect, uptake, efficiency, photosynthetic light, Airborne, C., Nichol, R., Clement, A., Blanco, Prieto, USA, PA, Pittsburgh, Aug, America, Soc, Ecol, ecological models, observations, multi, Arctic Fennoscandia, cycle, P., Wookey, A., Blanco, Prieto, J., Subke, T., Wade, L., Street, I., Hartley, R., Poyatos, B., Fletcher, R., Harding, J., Evans, V., Sloan, J., Moncrieff, T., Hill, G, Phoenix, R., Baxter, P. C., Stoy, M., Williams, 5th May, London, Burlington House, Conference, Soc, Photog, Sens, Rem, Proc, characterisation, LiDAR, SALCA, Salford Advanced Laser Canopy Analyser, Norway, Oslo, June, IPY Oslo Science Conference, modeling, carbon, vegetation, functional convergence, Multi, J., Moncrieff, L., Street, T., Wade, R., Poyatos, B., Fletcher, Norway, Oslo, June, IPY Oslo Science Conference, data, Fennoscandian regions, birch, biomass, J. Moncrieff, T. Wade, B. Huntley, R. Baxter, R. Poyatos, T. Hill, P. Stoy, M. Williams, P. Lewis, Blanco, A. Prieto, May, Austria, Vienna, EGU meeting, Metropolis Hastings Markov Chain Monte Carlo approach, CH4 flux, CO2, estimates, observations, P. Ineson, P. Lewis, 2nd July, June, Norway, Bergen, ESA Living Planet Symposium, peatlands, CH4, CO2, estimates, observations, P. Ineson, P. Lewis, Iceland, Reykjavik, June, WHISPERS, Remote Sensing, Evolution, Hyperspectral Image Processing, 2nd Workshop, tracing, spectral invariants, Norway, Bergen, 2 July, June, ESA Living Planet Symposium, proc, Space, Ground, Eastern Arc Mountains Biodiversity Hotspot, Carbon Mapping, al, September, Spain, Lugo, Forestsat’2010, optical remote sensing, characterisation, detection, approach, D., Roy, M., Wooster, September, Spain, Lugo, Forestsat’2010, PROSPECT model, data, probabilistic framework, J., Watt, UK, Sheffield, University, September, BES Annual Meeting, environmental control, sinks, sources, arctic Finland, fluxes, level, Landscape, R., BAXTER, P. A., WOOKEY, B., HUNTLY, Australia, Sydney, April, Operational Environmental Monitoring, GEOSS Era, Environment, Remote Sensing, 34th International Symposium, proc, Tasmania, Hobart, Oct, SilviLaser, Australian Savanna, Fractional Cover, Waveform Airborne Lidar Derived Estimates, Discrete Return, Comparison, N., Goodwin, S., Phinn, R., Lucas, P., Bunting, P., Scarth, P., Lewis, April, Leicester, Univ, Lidarnet workshop, nm laser, study, tLIDAR measurements, structure, forest, H. McKay, M. Danson, Germany, Munich, July, IEEE IGARSS, canopies, lidar, Effects, M. Herold, J. Verbesselt, US, Oregon, Corvallis, Oregon State University, September, ForestSAT, products, EO data, prototyping, assessment, tool, Vegetation Laboratory, 3D, B., Koetz, J., Brazile, P., J, Etchegorry, Gastellu, Canada, BC, Vancouver, September, Silvilaser, parameters, vegetation, estimation, properties, sensor, impact, N., Goodwin, P., Lewis, S., Phinn, R., Lucas, P., Scarth, Canada, BC, Vancouver, September, Silvilaser, models, data, terrestrial lidar, algorithm, structure, P., Raumonen, P., Lewis, Dec, USA, AGU San Francisco, products, data, Earth, prototyping, approach, Novel reference, B., Koetz, J., Brazile, P., J, Etchegorry, Gastellu, P., Lewis, April, EGU Vienna, optical DA, monitoring, model, spectral change, assimilation, Edge, M., Wooster, D., Roy, April, USA, California, La Jolla, Scripps Seaside Forum, NASA Terrestrial Ecology Science Team meeting, hyperspectral data, multiangle, biochemistry, structure, Monitoring, al, June, Finland, Saariselkä, FSPM2013, analyses, LAI, forest, limitations, methodologies, H., McKay, June, Finland, Saariselkä, FSPM2013, TLS Data, models, Fast automatic method, M., Kaasalainen, M., Åkerblom, Jul, Australia, Melbourne, proc, 3D modelling, TLS, structure, Rapid characterisation, P., Lewis, K., Calders, J., Armston, P., Raumonen, A., Burt, accurate ground-, characteristics, impact, A., Mellor, A., Haywood, M., Berelov, Soto, P., Wilkes, M., L.,Hill, Suarez, S., Jones, Sept., Edinburgh, ESA Living Planet Symposium, Moderate Resolution Optical Data, Fire Monitoring, Assimilation, Edge, Sept., Edinburgh, ESA Living Planet Symposium, observations, evapotranspiration, production, ET, WACMOS, EvapoTranspiration, Observation Strategy, WAter Cycle Multi, Earth, Sept., EUMETSAT Meteorological Satellite Conference, observations, evapotranspiration, production, ET, WACMOS, EvapoTranspiration, Observation Strategy, WAter Cycle Multi, Earth, Oct, China, Beijing, Silvilaser, Australian Eucalypt open forest, scanning, biomass, Feb, France, Avignon, meeting, GV2M, Measurement, Global Vegetation Modelling, terrestrial lidar, biomass, destructive Estimations, Non, Feb, France, Avignon, meeting, GV2M, Measurement, Global Vegetation Modelling, biomass, structure, 3D measurements, New applications, P., Lewis, S., Lines, S., Lewis, J., Armston, M., Herold, A., Cuni Sanchez, J., Gonzalez de Tanago, P., Raumonen, K., Calders, A., Burt, Sheffield, June, Sheffield, University, CEOI Joint Science Conference, NCEO, Sentinel era, studies, land, Assimilation, June, UK, Reading, Reading, Univ, User Training Workshop, SAF, 6th EUMETSAT LSA Satellite Applications Facility, Surface Albedo Products, Land Parameters, Generic Retrieval Package, P. Lewis, June, Italy, Venice, Science workshop, ESA Sentinel, Surface Albedo Products, Land Parameters, Generic Retrieval Package, P. Lewis, September, UK, Southampton, ST Joint Annual Conference, CEOI, NCEO, RSPSoc, retrieval, models, Emulation, Emulation, Emulation, September, UK, Southampton, ST Joint Annual Conference, CEOI, NCEO, RSPSoc, scanning, structure, biomass, New, P., Meir, E., Mitchard, L., Rowland, P., Lewis, P., Raumonen, K., Calders, A., Burt, France, La Grande Motte, Sept, Silvilaser, function, structure, lidar, K. J., Gaston, France, La Grande Motte, Sept, Silvilaser, scanning, estimates, ground, uncertainties, M., Kaasalainen, V., Avitabile, J., Armston, D., Culvenor, M., Herold, P., Raumonen, S., Murphy, France, La Grande Motte, Sept, Silvilaser, scanning, reconstruction, forest, variables, Traceability, N., Fox, P., Lewis, P., Raumonen, A., Barker, N., Origo, J., Nightingale, Dec, AGU San Francisco, Induced Fluorescence data, GOME-2 Solar, Global Scales, GPP, Data Fusion Approach, Model, Fluorescence, GPP, F. Chevallier, Austria, Vienna, April, EGU, ECV estimates, validation, data, assurance, May, Czech Republic, Prague, ESA Living Planet, agricultural landscapes, emissions, greenhouse, models, data, Earth Observation, G., Saldaña, López, T., Quaife, M., Williams, L., Smallman, J., Dans, Gomez, P., Lewis, M., van Leeuwen, May, Czech Republic, Prague, ESA Living Planet, indicators, terrestrial biodiversity, domains, EO data, M., Mahecha, C., Schmullius, M., Urban, M., Chernetskiy, J., Dans, Gomez, P., Lewis, May, Czech Republic, Prague, ESA Living Planet, observations, validation, calibration, morphology, biomass, structure, 3D measurements, E., Mitchard, P., Meir, L., Rowland, M., Boni Vicari, S., Lewis, P., Lewis, M., Herold, P., Raumonen, K., Calders, A., Burt, May, Czech Republic, Prague, ESA Living Planet, terrestrial LiDAR, forest, large area, J., Brennan, P., Lewis, P., Raumonen, J., Nightingale, May, Czech Republic, Prague, ESA Living Planet, fAPAR, Satellite, Virtual Forest Stand, Wireless Sensor Network, May, Czech Republic, Prague, ESA Living Planet, Surface Albedo Products, TIP, JRC, New Land Surface Products, P., Lewis, May, Czech Republic, Prague, ESA Living Planet, BACI, H2020, Biodiversity Properties, Essential Ecosystem, Changes, M., Urban, C., Schmullius, B., Sandel, E., Rodner, J., Reiche, R., Perez, D., Papale, G., Laurin, J., Kattge, M., Jung, M., Herold, Dorothea, Frank, David, Frank, K., Erb, May, Czech Republic, Prague, ESA Living Planet, Monitor Agricultural Areas, Assimilation Techniques, N., Kussul, M., Battude, V., F. Demarez, M. Waldner, Chernetskiy, July, China, Beijing, IGARSS2016, data, terrestrial laser, virtual forests, P., Lewis, P., Raumonen, J., Nightingale, Bath, June, NCEO Annual Conference, Camden, study, Urban Carbon Sink, A., Burt, M., Boni Vicari, K., Calders, Bath, June, NCEO Annual Conference, biomass, estimates, M., Boni Vicari, A., Burt, K., Calders, Sep., Imperial College London, RSPSoc Annual Conference, Earth Observation, products, fAPAR, active radiation, fraction, traceable validation, K., Calders, Virginia Oct, Blacksburg, Silvilaser, GEDI simulator, terrestrial lidar, spaceborne, gap, R., Dubayah, L., Fatoyinbo, J. R., Kellner, S., Marselis, Virginia Oct, Blacksburg, Silvilaser, biomass, estimates, New methods, M., Boni Vicari, K., Calders, A., Burt, Virginia Oct, Blacksburg, Silvilaser, terrestrial lidar, reconstruction, realistic forest, Virtual forests, P., Lewis, M., Åkerblom, P., Raumonen, J., Nightingale, Virginia Oct, Blacksburg, Silvilaser, Harvard Forest, destructive sampling, TLS, retrievals, data, A., Stovall, C., Schaaf, T., Jovanovic, C., Gough, R., Gaulton, A., Elsharif, Virginia Oct, Blacksburg, Silvilaser, Keynote address, churchyards, tropical forests, biomass, TLS, lasers, trees, DOI, ISBN, Berlin, Springer, Respiration, Photosynthesis, Advances, Springer Series, Applications, Basics, Canopy Photosynthesis, eds, N. P. R., Anten, U., Niinemets, K., K. Hikosaka, applications, developments, limitations, potentials, vegetation, Remote, BRDF models, kernel, ASAS data, Sahel, HAPEX, maps, P., J, Muller, M. J., Barnsley, M. I., space, properties, measurement, PROBA instrument, CHRIS, potential, D., Lobb, M., Cutter, P., Hobson, Environ, Sens, Rem, MODIS, products, albedo nadir, operational BBRDF, D., Roy, J. L., Privette, S., Liang, B., Hu, R. P., D'Entremont, C., Doll, M., Dunderdale, G., Roberts, P. H., Hobson, M. J., Barnsley, P., Lewis, P., J, Muller, Y., Jin, Z., Xiaoyang, N., Strugnell, T., Tsang, X., Li, W., Lucht, A. H., Strahler, F., Gao, C. B., Schaaf, Res, J. Geophys, second phase, Results, exercise, RAMI, Model Intercomparison, Radiation, H., Zang, G., Yan, J., Wang, H., Wang, W., Verhoef, R., Thompson, S., Tang, L., Su, W., Qin, P., North, T., Nilson, W., Meister, Ni, X., Li, P., Lewis, A., Kuusk, L., Jiang, P., J, Gastellu, F., Gascon, Sens, Rem, Journ, Int, agricultural site, measurements, scales, range, other EO data, values, albedo, MODIS, Comparison, M. J., Barnsley, T., Quaife, G., Thackrah, P., Lewis, domains, simulations, structure, forest, modelling, P., Saich, P., Lewis, Environ, Sens, Rem, applications, remote sensing, Canopy spectral invariants, R. B., Myneni, J., Martonchik, W., Verhoef, Y., Tian, A., Cescatti, P., Lewis, Atmospheres, Research, Geophys, Journal, models, canopy, progress, exercise, RAMI, Model Intercomparison, third RAdiation, P. R. J. North,7 W. Qin,8 M. Robustelli,1 N. Rochdi,4 R. Ruiloba,2 R. Thompson,9 W. Verhoef,10 M. M. Verstraete,1 D. Xie,11, Kuusk,6 T. Lavergne,1 S. Leblanc,4 P. E. Lewis,3 E. Martin,5 M. M, Etchegorry,5 N. Gobron,1, P. Gastellu, R. Fernandes,4 J, doi:10.1016/j.rse.2007.07.016, Environ, Sens, Rem, models, canopy, facility, web, ROMC, RAMI Online Model Checker, M. M. Verstraete, R. Thompson, B. Pinty, P. R. J. North, P. Lewis, T. Lavergne, Etchegorry, P. Gastellu, J, doi:10.1029/2007GB003097, GB4016, Global Biogeochemical Cycles, fluxes, estimates, uncertainties, land, impact, F. I., Woodward, L, Lomas, P., Lewis, doi:10.1016/j.rse.2007.05.020, Environ, Sens, Rem, Ensemble Kalman Filter, Model, Canopy Reflectance data, P., Bowyer, doi, Landscape Ecology, exchange, Arctic ecosystem, application, simple framework, transfer, Upscaling, P., Lewis, B., Baxter, B., Huntley, A., Blanco, Prieto, doi, Sens, Rem, Geosci, IEEE Trans, independent methods, lidar, reflectivity, S., Hancock, A., Blanco, Prieto, M, Bouvet, P., Lewis, forests, young conifer, characteristics, system, return, impact, M., Pfeifer, S., Hancock, A., Blanco, Prieto, P. E., Lewis, V., Kalogirou, mixed coniferous forest, region, Leaf Area Index product, MODIS collection, assessment, M., Williams, P., Lewis, T., Quaife, system, layer, impacts, modelling, 3D, D., Lajas, M., Wooster, D., Roy, J., Dans, Gomez, P., Lewis, lidar, tops, insensitive method, M., Foster, P., Lewis, J. -P., Muller, areas, Eastern Arc Mountains, tropical biomes, gradients, changes, Leaf area, R., Marchant, study, lidar, understory vegetation, topography, height, J. -P., Muller, doi:10.1073/pnas.1210196109, E185-E192, Science, National Academy, Proceedings, content, Hyperspectral, RB, Myneni, Lyapustin, S, Jacquemoud, F, Baret, AB, Davis, V, Vanderbilt, lidar, probability, canopy, Direct retrieval, N., Goodwin, P., Bunting, R., Lucas, S., Phinn, P., Scarth, P., Lewis, doi, Environ, Sens, Rem, properties, Modelling LiDAR waveforms, M., Herold, J., Verbesselt, www.pnas.org/cgi/doi/10.1073/pnas.1301247110, Science, National Academy, Proceedings, biochemistry, optics, structure, contributions, Townsend et al, Reply, RB, Myneni, Y, Yang, A, Lyapustin, S, Jacquemoud, F, Baret, AB, Davis, V, Vanderbilt, PL, Carmona, MA, Schull, A, Marshak, R, Kaufmann, M, Rautiainen, M, Mõttus, P, Stenberg, Science, National Academy, Proceedings, properties, nitrogen, Ollinger et al, Reply, RB, Myneni, Y, Yang, A, Lyapustin, S, Jacquemoud, F, Baret, AB, Davis, V, Vanderbilt, PL, Carmona, MA, Schull, A, Marshak, R, Kaufmann, P, Stenberg, M, Rautiainen, M, Mõttus, JGR Atmospheres, proficiency, ISO standards, IV, RAMI, Model Intercomparison, 4th Radiation, press, D Xie, W Qin, J Stuckens, M Schlerf, P Lewis, H Kobayashi, Kallel, H Huang, E Grau, N Gobron, M Gerboles, Etchegorry, JP Gastellu, characteristics, topography, lidar, retrieval, gap, Sensitivity, J., Armston, P., Lewis, doi:10.3390/f5051069, Biomass, Forests Structure, Monitoring, Mapping, Applications, Other Remote, LiDAR, Special Issue, OPEN ACCESS, Forests, structure, forest, scanner, waveform, wavelength, A. F., Ramirez, G., Pearson, P. E., Lewis, O., Gunawan, energy, methods, evaluation, vegetation, Waveform lidar, K. J., Gaston, K., Anderson, C., Schaaf, A., Strahler, F.M., Danson, DOI, Global Change Biology, approach, multi, subarctic Finland, fluxes, level, landscape, R. Baxter, Wookey, P., N. J. K. Howden, M. Williams, B. Huntley, testing, scenarios, exercise, RAMI, intercomparison, radiative transfer, fourth phase, R., Colombo, G., Ceccherini, M., Chelle, L., Busetto, J., Brennan, C., Atzberger, I., Andredakis, J., Adams, M., Disney, C., Mio, J. L., Widlowski, Management, Forest Ecology, ecosystems, Leaf Area Index estimation, probability, canopy, improved theoretical model, A., Mellor, A., Haywood, M., Berelov, Soto, P., Wilkes, M. J., Hill, L., Suarez, S. D., Jones, J., Armston, DOI, Current Forestry Reports, Plot Scale Forest Measurement, Terrestrial Laser Scanning, F. M., Danson, A. H., Strahler, C. B., Schaaf, J. L., Lovell, Conservation, Ecology, characterisation, vegetation, LiDAR approaches, comparison, waveform, K., Gaston, Forests, clouds, TLS, scanner, models, tool, SimpleTree, P., Raumonen, forestation, forests, forests, stocks, losses, gains, deforestation, removals, emissions, greenhouse, reporting, monitoring, procedures, methods, sourcebook, GOLD, GOFC, Chapter, monitoring, Terrestrial LIDAR, I., Paynter, C., Schaaf, Forest Meteorol, Agric, simulations, hemispherical photography, estimation, area, material, impact, M., Berelov, Soto, P., Wilkes, J., Hill, S. D., Jones, L., Suarez, voxelised terrestrial lidar, validation, Calibration, lidar, structure, resolution, Measurement, K., Gaston, Data Interoperability, Multiple Terrestrial Laser Scanning Instruments, Radiometric Calibration, Range Accuracy, Evaluation, J., Nightingale, J., Muir, N., Origo, B., Brede, A., Burt, J., Armston, Forest Plots, Terrestrial Laser Scanning, Data Acquisition Considerations, M., Herold, B., Brede, H., Bartholomeus, J., Tanago Menaca, Gonzalez, A., Burt, K., Calders, years, Conservation, Ecology, Remote, M., Wegmann, J., Swenson, R., Sollmann, S., Ryan, S., Roy, H., Roy, J., Paruelo, N., Merchant, X., Liu, H., de Klerk, N., Kelly, N., Horning, K., M., Haklay, N., Fernandez, T., Fatoyinbo, C., Duncan, A., Chauvenet, G., Buchanan, D., Boyd, C., Atzberger, C., De Angelo, J., Ahumada, R., Williams, M., Rowcliffe, D., Rocchini, H., Nagendra, N., Pettorelli, A., Burt, S., Manuri, R. C., Goodman, C., Martius, P., Raumonen, V., Avitabile, M., Herold, H., Bartholomeus, A., Lau, J., Gonzalez de Tanago, Meterol, Agric, simulated hemispherical photography, model, 3D, methods, indirect canopy, M., Berelov, Soto, P., Wilkes, M. J., Hill, S. D., Jones, L., Suarez, NASA colleagues, work, simpler approaches, products, satellite, time, simpler models, data, moderate resolution, content, models]</t>
+  </si>
+  <si>
+    <t>[stickiest hydrophobic surface, conductivity, antimicrobial properties, photocatalysis, functional properties, Our work, oxides, gold, nanoparticles, formation, gel, sol, deposition, materials, thin films, development, Our work, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[Dr. Alan Latham, Second supervisor, ORS, t, f, London.’, migrants, Russian, study, cosmopolitanism, racism, transnational networks, friendship, global city, Migrant sociality, Darya Malyutina, Dr. Alan Latham, Second supervisor, t, f, Football’, expressivity, Event, Movement, ‘Sport, Andrew Barnfield, Dr Russell Hitchings, second supervisor, ESRC, t, f, Divestment’, Lens, Consumption, UK Teens, Beck Collins, Public Health, Epidemiology, Dr Nicola Shelton, second supervisor, Research Council, Alcohol Education, Impact studentship, approach’, young people, sensible drinking, Linda Ng, second supervisor, ESRC CASE, t, f, Inner City London’, Youth territoriality, your ends, Adefemi Adekunle, Professor Richard Dennis, award, ESRC, t, f, Victorian London’, Turkish Baths, Social History, Charlotte Jones, 2015-present, Dr Jason Dittmer, second supervisor, award, ESRC, t, f, Opioid Consumption, Dynamics, Drugs, War, Assemblage, Geopolitics, Joe Thorogood, Times Literary Supplement Historical Archive, Times Digital Archive, Illustrated London News Historical Archive, Periodicals, C19th Newspapers, C18th, fourth option, Newsvault’, page, top, Database’, C19th Newspapers, C19th Newspaper, London, Commons Parliamentary Papers, House, British History Online, Old Bailey, Proceedings, following resources, Petrie Museum, public talk, Zoology, Grant Museum, quiz, UCL SELCS, others, Toby Litt, Café Culture discussion, insurance, temperance, Nov, UCL Lunchtime Lecture, other ways, my work, Various publics, print, BBC local radio, Radio, Long View’, Radio, Night Waves’, programmes, BBC Breakfast News, TV, stories, interest, terms, material, good deal, Committee, Parliamentary Health Select Committee, drinking, geographies, histories, verbal evidence, February, end, countries, views, resource, Hokkaido, Yokohama Kokuritsu, Tokyo, Universities, Hones, Tsuchida, Miyamoto Alvey, Yaguchi, Tanji, Professors Tanji, Utopia, project, Education, Japanese Ministry, grant, first trip, researcher, Tokyo, University, visits, work, other writers, M. John Harrison, Maureen Duffy, Algernon Blackwood, Arthur Machen, Kim Stanley Robinson, Iain M. Banks, H. P. Lovecraft, William Gibson, Rob Kitchin, utopias, stories, horror, fiction, genres, space, representations, literary geographies, second area, Victorian Studies conference, British Association, Medicine, Science Technology, History, International Congress, papers, meteorology, climatology, nineteenth, geographies, histories, insurance, relationships, Leicester, Zsuzsanna Vargha, Nottingham, CIs Shaun French, PI, OU, Liz McFall, £, Ethics programme, Society, Wellcome Trust Seed Award, project, healthcare, investigator, co, organizers, Nottingham, University, Dr Shaun French, insurance, my interests, drinking, binge, medical discussions, contemporary policy, parallels, spatial problem, drink, constructions, temperance, drunkenness, drink, contemporary geographies, first concerns, May, Crang, Crang, William Gibson’s cyberspace’, fiction, technology, virtual realities, J, Kneale, Elsevier, Human Geography, International Encyclopedia, N., Thrift, R., Kitchin, Bakhtin)’, Dialogism, Philosophy, J., Kneale, J., Holloway, ed, R., Wilk, A., Warde, F., Trentmann, P., Jackson, K., Ekstrom, D., Crane, D., Southerton, Wine Bars’, Pubs, J., England’. Kneale, Alcoholic Drinks, Usual Glass”, Defined, Self, Alcohol, Perceived Units, N., Shelton, J., Kneale, S., Boniface, K., Cox, M., Colebrook, Iain M. Banks’, geographer, Nasqueron, J., Kneale, eds, Withington, Weinberg, Regan, Herring, Britain, alcohol, insurance, medicine, geographies, Insurance, Inebriety, Relations, S., J., Kneale, study, evidence, demographic factors, socio, alcoholconsumption, reporting, pattern, N., Shelton, J., Kneale, S., Boniface, ed, Scott C., Martin, Alcohol’, Victorian England, Rechabite Friendly Society’, Pub Crawls’, Father Theobald’, Mathew, Carnival’, Francis’, Anstie, J., Kneale, US c.1860–1930’, Britain, assurance, Medicine, unit, Moderate drinking, S., J., Kneale, Deputy Undergraduate Tutor, Third Year Tutor, ordinator, Learning Co, Teaching, Geography Joint Degree Tutor, Anthropology, Undergraduate Exam Board, Chair, UCL, September, Lecturer, Tutor, Exeter, year, autumn, my PhD, Geography, Department, Temporary Lecturer, Bristol, Jacquie Burgess, my PhD, year, Department, Research Assistant, University College London, Geography, Department]</t>
+  </si>
+  <si>
+    <t>[Budget £, Colombia’, Bogotá, success’ story, evaluation, urban governance, Leverhulme Trust, project, Director, practice, policy, UK immigration, information, seekers, dissemination, Home Office, project, Director, Co, £, cities, markets, International Development, Department, project, Director, CAD$453,000, Latin America, rental housing, Canada, International Development Research Centre, project, Coordinator, budget, Latin American Cities, Land Use, Housing, Public Intervention, Overseas Development, Ministry, project, Director, World Bank, United Nations University, Population Activities, United Nations Fund, UNESCO, Human Settlements, United Nations Centre, American Development Bank, Inter, countries, regional development, urbanisation, housing, employment, projects, Alan, Vivienda y Urbanismo, Cuadernos, Habitat International, Latin American Research Review, Regionales, Revista de Estudios Urbano, Third World Planning Review, International Development Planning Review, series, California, University, Mexican Studies, US, Center, Planning Perspectives, Tropical Research, Singapore Journal, 1994-date, International Planning Studies, 2002-date, International Development Planning Review, Geographical Magazine, Latin American Research, Bulletin, Editorial boards, scholarships, Advanced course, exercise, Advanced course, International Affairs Committees, Planning, Environment, Member, Social Research Council, Economic, World Bank, Woodrow Wilson Center, United Nations Population Fund, United Nations University, HABITAT, UN, American Development Bank, Inter, years, several international institutions, adviser, UCL, Geography Department, Head, many universities, external examiner, several journals, boards, recent years, Social Sciences, Learned Societies, Academy, Literature, Doctorate, London, University, research, basis, topics, academic articles, others, books, co, Colombia, Bogotá, success’ story, evaluation, urban governance, Latin America, Asia, Africa, informal settlements, rental housing, Latin America, urban life, globalisation, impact, South Africa, Colombia, markets, UK, seekers, flows, policy, knowledge, diffusion, Washington, influence, South Africa, Colombia, Chile, subsidies, projects, years, South Africa, Latin America, countries, poverty, urbanisation, His research, UCL, Chair, Readership, Institute, UCL, lectureship, Latin American Studies, Institute, post, economic consultancy, advertising, brief interludes, his doctorate, Economics, London School, Politics, Geography, Economics, honours degree, Birmingham University, London, Alan]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[Poland, Philippines, Australia, UK, migration, agencies, role, Migration, Business, E McCann, March, Boston, annual conference, Association, session, Policy, world, cities, conceptualization, May, Boston, Alfred P Sloan Foundation Industry Studies Annual Conference, Poland, Czech Republic, evidence, temporary staffing, socialist varieties, Post, June, Rotterdam, Erasmus University, Management, Rotterdam School, Poland, Czech Republic, restructuring, labour, industry, action, Flexibility, September, Oxford, University, their regulation, employment, new forms, disciplinary conference, multi, work, countries, evidence, temporary staffing, Varieties, October, Vancouver, British Columbia, University, Advanced Studies, Peter Wall Institute, workplaces, Globalisation, markets, March, Las Vegas, annual conference, Association, knowledge, urban expertise, Topological geographies, new urban politics, March, Santiago, University, communities, private urban governance, network, 5th international conference, cities, privatization, public space, Redefinition, Plenary, liberal conditions, neo, cities, April, Liverpool, University, Social Work Studies, Sociology, Social Policy, School, conference, consumption, Construction, Milwaukee, case, downtown, April, Seattle, annual conference, Association, policy, situations, sites, policies, Assembling urbanism, N Coe, Manchester, University, network, coffee, governance, uneven landscapes, Vietnam, certified coffee, Ross Jones, N Coe, ESRC, UK, migration, accession, agencies, role, Katharine Jones, Lancaster University, colonial Africa’(with J Faulconbridge, post, urban planning, approaches, actors, Case Study, Assembling Lusaka, Mathew Lane, E Swyngedouw, management’, labour, Responsibility, livelihoods, Kathleen Stokes, Liverpool, University, K Burrell, J Darling, Rochdale’, Liverpool, austerity, migrant responses, austere city, difference, Alistair Sheldrick, S Warren, bar?’, Last orders, Night Time Economy, UK Evening, representations, perceptions, Graeme Moore, H F Wilson, C Perkins, Lived Experience’, Comparative Study, Friendly City, Age, Amy Barron, current economic condition, infrastructure, means, world, different areas, models, constitution, Minnesota University Press, Global Age, Policymaking, Cities, Mobile Urbanism, Eugene McCann, book, His co, which policies, webs, networks, circuits, study, objects, cities, sites, range, fieldwork, urban’ political realms, different places, elements, urban politics, what, policies, cities, journeys, what, urban policies, His current work, employment, work, hand, policy, urban politics, interests, geographical political economist, Manchester, University, Director, Faculty, External Relations, Director, Environment, School, Human Geography, Professor, Kevin]</t>
+  </si>
+  <si>
+    <t>[series, scientific advisor, numerous interviews, Athens, Goulandris Museum, Barcelona, CosmoCaixa Science Museum, major public lectures, my work, popular outlets, diverse audiences, my research, result, commitment, Tzedakis et al, interglacials, duration, My papers, Europe, strategies, debate, Quaternary Interglacials, Past Interglacials, PAGES Working Groups, Project, INQUA Stage, international scientific initiatives, interglacials, study, agenda, W. Greece, cycle, millennial frequencies, variability, vegetation, Response, NERC, PI, hydrological cycle, implications, variability, sub, Terrestrial responses, NERC, our current interglacial, natural length, implications, interglacials, duration, occurrence, human evolution, critical intervals, climatic signature, refugia, distribution, nature, changes, European vegetation, characteristic, insights, work, its future evolution, present interglacial, comparison, basis, past interglacials, Recent research, ocean changes, events, records, ice, linking, underlying theme, marine sequences, records, longest reference, millennial timescales, climatic forcing, variations, vegetation, response, centres, southern Europe, records, year, T.A., Wijmstra, N.J., Shackleton, L., Sadori, M., Reille, D., Magri, H., Hooghiemstra, M., Follieri, S., Crowhurst, L., J, de Beaulieu, V., Andrieu, P.C., Tzedakis, July, Uk, Cambridge, Cambridge, University, Earth Sciences, Department, 4th PAGES Past Interglacials Workshop, E.W., Wolff, L.C., Skinner, D.A., Hodell, D., Raynaud, J.F., McManus, P.C., Tzedakis, polar climate, their connection, interglacials, deglaciations, Iberia, decadal temperature, Multi, J.O., Grimalt, D.A., Hodell, L.C., Skinner, V., Margari, P.C., Tzedakis, B., Martrat, eds, M. Piperno, R.J. March, Sforza, L.Cavalli, Yosef, O. Bar, summary, years, European Palaeolithic landscapes, P.C., Tzedakis, T.H., Andel, eds, E. J. W. Jones, S. V. Lee, C. J. MacLeod, Cramp, Holocene comparison, Eemian, interglacial cold events, Intra, P.C., Tzedakis, P., Grootes, J, J, Knaack, M., Sarnthein, M., Maslin, ed, J. Bailey, Landscape, European Middle Palaeolithic climate, opportunity, Priority, P.C., Tzedakis, T.H., Andel, Proceedings, Aitoloakarnania, Prefecture, Voulkaria Lake, mire, P.C., Tzedakis, K., Christanis, S., Papazisimou, A., Bouzinos, eds, JM, Reed, B, Krystufek, H.I., Griffiths, European temperate trees, prime glacial refugial territory, Balkans, P.C., Tzedakis, Eds, T., Litt, M. F., Sanchez Goni, M., Claussen, F., Sirocko, southern Europe, Middle Pleistocene, correlations, land, N. J., Shackleton, L., de Abreu, P. C., Tzedakis, K. H., Roucoux, Netherlands, Amsterdam, Elsevier, future, past, Mediterranean region, Climate, Ed, P., Lionello, Mediterranean, paleoclimatic evidence, years, review, E. Zorita, C. S. Zerefos, E. Xoplaki, M.H. Williams, G. Willett, J. P. Werner, H. Wanner, S. Vogt, B. Vannière, C. Tzedakis, Schrier, G. van, Garces, B. Valero, W. Tinner, S. Silenzi, M. Sicre, N. Roberts, D. Riemann, P. Ribera, V. Rath, M. J. Power, L. Newman, P. Montagna, S. Manning, M. G. Macklin, T. Kiefer, H. Goosse, Rouco, J. F. González, R. Glaser, Bustamante, E. Garcia, D. Gallego, D. Frank, D. Fleitmann, T. Felis, J. Esper, B. Davis, D. Colombaroli, N. Cagatay, U. Büntgen, J. Booth, G. Benito, Castro, M. C. Alvarez, R. Allan, On, S. Akcer, Herrera, R. García, J., Luterbacher, years, climate, marine records, Comparison, T.A., Wijmstra, N.J., Shackleton, L., Sadori, M., Reille, D., Magri, H., Hooghiemstra, M., Follieri, S., Crowhurst, L., J, de Beaulieu, V., Andrieu, P.C., Tzedakis, Greece, Kastritsa rockshelter, palaeoenvironmental framework, M.R., Frogley, I.T., Lawson, P.C., Tzedakis, P., Galanidou, western Greece, Katouna, tectonic depression, rate, High peat, P.C., Tzedakis, K., Christanis, S., Papazisimou, A., Bouzinos, biostratigraphical comparisons, basis, terrestrial chronological framework, T.A., Wijmstra, N.J., Shackleton, L., Sadori, M., Reille, D., Magri, H., Hooghiemstra, M., Follieri, S., Crowhurst, H.J.B., Birks, L., J, de Beaulieu, V., Andrieu, P.C., Tzedakis, Central Europe, Middle Pleistocene stratigraphy, sequence, Velay, Correlation, P.C., Tzedakis, M., Reille, E., Grüger, V., Andrieu, L., J, Beaulieu, oscillations, scale, North Atlantic, response, analyses, proxy, P.C., Tzedakis, J., Schönfeld, L., de Abreu, N.J., Shackleton, K.H., Roucoux, Northern Greece, Elatia forest, upland Holocene transitional mires, S., Kalaitzidis, P.C., Tzedakis, K., Christanis, A., Bouzinos, S., Papazisimou, central Greece, Lake Kopais Basin, bodies, isotopic composition, Chemical, P.C., Tzedakis, M.J., Leng, J.A., Holmes, A., Perrot, Street, S.J., Griffiths, central Greece, Kopais, signal, Ostracoda, Tyrrhenocythere, P.C., Tzedakis, S., Altinsacli, H.I., Giffiths, S.J., Griffiths, Last Interglacial climates, I.J., Winograd, P.C., Tzedakis, C., Turner, N.J., Shackleton, G., Seret, S.C., Porter, R.Z., Poore, H., Müller, D.R., Muhs, J., Merkt, J.F., McManus, L., K, Knudsen, L.D., Keigwin, J., Jouzel, J., Imbrie, T.D., Herbert, J.E., Gavin, P., Cleveringa, W.S., Broecker, G., Bond, J.L., de Beaulieu, M.L., Bender, G.J., Kukla, Evolutionary Implications, Quaternary Refugium, Buffered Tree Population Changes, R.C., Preece, G.M., Hewitt, M.R., Frogley, I.T., Lawson, P.C., Tzedakis, evolutionary implications, Quaternary refugium, changes, Reply, R.C., Preece, G.M., Hewitt, M.R., Frogley, I.T., Lawson, P.C., Tzedakis, Marine Oxygen Isotope Stage, European vegetation, W.A., Watts, E., Grüger, L., J, de Beaulieu, P.C., D. Tzedakis, Pollard, J., Allen, M.J., Alfano, B., Huntley, years, suborbital frequencies, variability, records, Greece, vegetation, changes, Comparison, T.A., Wijmstra, D. W., Oppo, H., Hooghiemstra, P.C., McManus, P.C., Tzedakis, last glacial period, Greece, vegetation, response, variability, scale, patterns, Ecological thresholds, L., de Abreu, I., Cacho, R.C., Preece, I.T., Lawson, M.R., Frogley, P.C., Tzedakis, variability, southern Europe, stages, duration, N. J., Shackleton, L., de Abreu, K. H., Roucoux, P. C., Tzedakis, kyr, oscillations, North Atlantic, NW Iberian vegetation, response, P. C., Tzedakis, N. J, Shackleton, L., de Abreu, K. H., Roucoux, Holocene, partial analogue, stage, eastern North Atlantic, variability, M. A., Hall, D. W., Oppo, J.F., McManus, P. C., Tzedakis, N. J, Shackleton, F. F., Abrantes, L., Abreu, Portugal, core, years, vegetation, Climate, N.J., Shackleton, L., de Abreu, P.C., Tzedakis, K.H., Roucoux, trends, term, chronostratigraphy, Tenaghi Philippon, years, H., Pälike, H., Hooghiemstra, P.C., Tzedakis, Years, Latitude Terrestrial Climate Archive, Continuous Lower, Revisited, Greece, Tenaghi Philippon, U.C., Müller, H., Hooghiemstra, K., Christanis, G., Schmiedl, P., Tzedakis, J., Pross, Mediterranean, implications, Greece, Ioannina basin, interglacial transition, Diatom response, P.C., Tzedakis, R.C., Preece, M.R., Frogley, I.T., Lawson, J.M., Reed, G.P., Wilson, millennial timescales, links, southern European vegetation, Atmospheric methane, L., de Abreu, K.H., Roucoux, H., Pälike, P.C., Tzedakis, Greece, Lesvos Island, evidence, last glacial period, southern Europe, environmental changes, Character, P.C., Tzedakis, C.L., Bryant, P.L., Gibbard, V., Margari, glacial periods, variability, scale, nature, N.J., Shackleton, M., Vautravers, A., Ganopolski, P.C., Tzedakis, L.C., Skinner, V., Margari, early anthropogenic hypothesis, atmospheric methane, southern European vegetation, analogy, MIS, MIS, P.C., Tzedakis, Europe, records, variability, P.C., Tzedakis, K., Roucoux, E., Novenko, F., Naughton, U.C., Müller, V., Margari, D., Magri, L., Londeix, I., Lawson, B., Huntley, N., Nebout, Combourieu, R., Cheddadi, J.R.M., Allen, M.F., Sánchez Goñi, W.J., Fletcher, Italy, Ceprano calvarium, new chronology, I., Biddittu, A., Zarattini, P.C., Tzedakis, B., Saracino, M., Ruffo, M., Rubini, R.T., Melis, M., Barbieri, M., Barbieri, V., Celiberti, V., Margari, M.R., Palombo, S., Milli, D., Magri, G., Manzi, Europe, modern humans, spread, climate, role, K., Christanis, S., Wulf, G., Schmiedl, U., Kotthoff, C., Gamble, P.C., Tzedakis, J., Pross, U.C., Müller, Greece, Ioannina, Marine Isotope Stage, penultimate glacial period, history, V., Margari, I.T., Lawson, P.C., Tzedakis, K.H., Roucoux, current interglacial, natural length, L. C., Skinner, H. F., Kleiven, D. A., Hodell, J. E. T., Channell, P.C., Tzedakis, natural hazards, early modern humans, Neanderthals, resilience, layers, P.C., Tzedakis, N., Sirakov, L., Korobar, Shalamanov, M., Rosi, J., Pross, G., Orsi, U.C., Müller, M., Koumouzelis, P., Karkanas, L., J, Guadelli, C., Ferrier, L., Civetta, A., Carandente, D., Borić, G., Barker, I., Arienzo, P., Albert, D., White, E.L., Tomlinson, C.B., Stringer, V.C., Smith, C., Satow, E.J., Rohling, A.P., Roberts, C., Price, M., Pollard, W., Müller, M., Menzies, A., MacLeod, M., Lewis, S., Lee, C.S., Lane, R., Housley, M., Hardiman, K., Grant, C., Gamble, W., Davies, V.L., Cullen, C.B., Ramsey, S., Blockley, N., Barton, J., Lowe, Last Interglacial, early part, Mediterranean, precipitation, Enhanced seasonality, P.C., Tzedakis, K., Christanis, S., Kalaitzidis, J., Pross, U.C., Müller, K.H., Roucoux, R.E.L., Collier, A.M., Milner, interglacial, duration, D., Raynaud, J.F., McManus, D.A., Hodell, V., Brovkin, L.C., Skinner, E.W., Wolff, P.C., Tzedakis, Northern Scandinavia, Boreal Trees, Glacial Survival, Comment, H.J.B., Birks, J., Bakke, P.C., Tzedakis, G.M., Hewitt, T., Giesecke, HH, Birks, Greece, Ioannina basin, Holocene palaeolimnological changes, late Pleistocene, Diatom, P.C., Tzedakis, S.M., Bernasconi, M., Gierga, M.J., Leng, G.P., Wilson, J.M., Reed, I.T., Lawson, T.D., Jones, Greece, Tenaghi Philippon, record, resolution, Last Interglacial, Environmental variability, P.C., Tzedakis, K., Christanis, S., Kalaitzidis, J., Pross, R.E.L., Collier, K.H., Roucoux, U.C., Müller, A.M., Milner, Quaternary, tropical high Andes, levels, biomes, dynamic history, records, Astronomical tuning, P.C., Tzedakis, L., Lourens, H., Hooghiemstra, V., Torres, kyr, past, Iberian Margin sediments, Response, G., Rothwell, S., Maclaghlan, V., Margari, P.C., Tzedakis, L., Skinner, S., Crowhurst, D., Hodell, Southwest Iberian Margin, Quaternary sediments, relative paleointensity, detrital hematite, Biogenic magnetite, M.S., Kesler, P.C., Tzedakis, L.C., Skinner, V., Margari, D.A, Hodell, J.E.T., Channell, Iberian Margin, IODP Site U1385, Shackleton Site, Shackleton Site Project Members, C.A., Alvarez Zarikian, J., Molina, Hernández, D.A.V., Stow, L., Lourens, D.A., Hodell, Greece, Ioannina, Last Interglacial, Holocene, records, regimes, anthropogenic influence, N., Galanidou, K.H., Roucoux, P.C., Tzedakis, I.T., Lawson, penultimate glaciation, millennial timescales, ocean changes, Land, P.C., Tzedakis, J.P., Lunkka, P.L., Gibbard, J.O., Grimalt, S., Toucanne, B., Martrat, D.A., Hodell, L.C., Skinner, V., Margari, Turkey, eastern Anatolia, Lake Van, record, year, P.C., Tzedakis, M., Stockhecke, G., Heumann, N., Pickarski, T., Litt, present interglacial, best orbital analogue, dynamics, Duration, F., Bassinot, A., Sposato, G., Scardia, P., Messina, P.C., Tzedakis, R.N., Drysdale, C.J., Sprain, P.R., Renne, S., Nomade, G., Zanchetta, E., Regattieri, B., Giaccio, future research, perspectives, exploration, Evolution, northeastern Greece, Tenaghi Philippon, archive, S., Wulf, P.C., Tzedakis, G., Siavalas, G., Schmiedl, U.C., Müller, A.M., Milner, U., Kotthoff, M., Knipping, S., Kalaitzidis, M., Hardiman, W.J., Fletcher, T., Fischer, K., Christanis, A., Koutsodendris, J., Pross, Southern Europe, deglacial warming, response, diverse lacustrine, P.C., Tzedakis, P.D., Hughes, M.R., Frogley, J.M., Reed, G.P., Wilson, climatic archives, chronologies, limitations, strengths, Last Interglacial, demise, onset, events, Sequence, Zahn R., C., Waelbroeck, D., Veres, S., M, Seidenkrantz, V., Delmotte, Masson, B., Martrat, A., Landais, P., Amat, Jimenez, R., Gersonde, D., Genty, A, El Ouahabi, T., Blunier, L., Bazin, F., Bassinot, J., Stoner, G., Onge, St, C., Marcel, Hillaire, B., Ghaleb, S., Verheyden, P.C., Tzedakis, E., Capron, A., SW Iberian Margin Govin, Shackleton Site, Site U1385, scale, reference, Shackleton Site Project Members, P.C., Tzedakis, L., Skinner, F., Espejo, Jiménez, R., Tjallingii, T., Konijnendijk, S, Crowhurst, L., Lourens, D., Hodell, ocean, their impact, years, changes, P.C., Tzedakis, C., Whitlock, A., Velichko, M., Vandergoes, P.J., Valdes, J., Stevenson, L., Scott, L., Sadori, D., Penny, E., Novenko, T., Nakagawa, U., Muller, M., McKenzie, D., Magri, P., M, Ledru, P., Kershaw, G., Moreno, Jimenez, B., Huntley, T.R., Hill, S.P., Harrison, J., Hanselman, E., Gruger, E.C., Grimm, W., Granoszewski, W.D., Gosling, S.L., Garcia, B., Frechette, J.M., Finch, A., de Vernal, A., Metrio, Correa, M., Bush, O., Borisova, H., Behling, S.A., Bhagwat, R.S., Anderson, J., Allen, I.C., Prentice, R., Marchant, J.S., Singarayer, R.S., Smith, B.A.A., Hoogakker, MIS, glacials, Iberian margin, variability, L.C., Skinner, P.C., Tzedakis, D.A., Hodell, B., Birner, Natural, Late Holocene climate, J., Woodbridge, C., Lemmen, F., R., Fyfe, C.N., Roberts, S.J., Vavrus, E.C., Ellis, J.O., Kaplan, P.C., Tzedakis, J.E., Kutzbach, D.Q., Fuller, W.F., Ruddiman, NE Greece, Tenaghi Philippon, Marine Isotope Stage, Last Interglacial Complex, abrupt climatic changes, responses, P.C., Tzedakis, J., Pross, U.C., Müller, R.E.L., Collier, K.H., Roucoux, A.M., Milner, interglacials, cycles, simple rule, E.W. Wolff, T., Mitsui, M., Crucifix, P.C., Tzedakis, Evolutionary Implications, Quaternary Refugium, Buffered Tree Population Changes, R.C., Preece, G.M., Hewitt, M.R., Frogley, I.T., Lawson, P.C., Tzedakis, variability, southern Europe, stages, duration, N. J., Shackleton, L., de Abreu, K. H., Roucoux, P. C., Tzedakis, glacial periods, variability, scale, nature, N.J., Shackleton, M., Vautravers, A., Ganopolski, P.C., Tzedakis, L.C., Skinner, V., Margari, current interglacial, natural length, L. C., Skinner, H. F., Kleiven, D. A., Hodell, J. E. T., Channell, P.C., Tzedakis, interglacials, cycles, simple rule, E.W. Wolff, T., Mitsui, M., Crucifix, P.C., Tzedakis]</t>
+  </si>
+  <si>
+    <t>[England, rest, London, Ordnance Survey datasets, OpenStreetMap, comparative study, OpenStreetMap information, approaches’, space, Conzenian, Greater London, suburban centres, persistence, M., Haklay, L., Vaughan, C. E., Jones, S., Griffiths, Area, Many Volunteers, A, Ather, V., Antoniou, S., Basiouka, M., Haklay, trustworthy Web GIS applications, design, trustee, role, Web GIS, Trust, T., Cheng, M., Haklay, A., Skarlatidou, Linear Data, Automated Matching Procedure, VGI, Data Completeness, C., Ellul, M., Haklay, T., Koukoletsos, Online Risk Communication, Development, Design, Mental Model Approach, Nuclear Waste, Disposal, Lay People, What, M., Haklay, T., Cheng, A., Skarlatidou, global participatory platform, D., Helbing, R., Sumner, J., Pitt, J., Lewis, J., Kohlhammer, A., Karpištšenko, M., Jelasity, M., Haklay, F., Grey, B., Edmonds, I., Dunwell, S., de Freitas, J., Domingue, Y., Charalabidis, S., Anderson, P., Lukowicz, S., Bishop, A., Schmidt, K., Aberer, S., Buckingham Shum, future directions, Current challenges, Geographic Information, Usability, M., Jackson, M., Haklay, D, Forrest, M., Maguire, N., Bearman, C.J., Parker, J., Harding, S., Sharples, M., Brown, Participatory Noise, Awareness, Tria F., A., Sîrbu, V. DP, Servedio, F., Ricchiuti, J., Mueller, V., Loreto, A., Hotho, M., Haklay, P., Gravino, L., Francis, D., Fiorella, S., Caminiti, M., Becker, pp, April, UCL Urban Lab, Urban Pamphleteer, Meaningful Smart City, Quantification, M., Haklay, IEEE Pervasive Computing, Extremes, Participatory Citizen Science, M., Haklay, J., Lewis, G., Conquest, M., Altenbuchner, M., Vitos, M., Stevens, Higher Education, Geography, Journal, learning, trip, view, bird, logs, student, sky, Footprints, M., Haklay, P., Viterbo, R., Treves, Biodiversidade Brasileira, Uma Nova Abordagem, Ciência Cidadã Extrema, M., Haklay, J., Lewis, M., Stevens, J., Altenbuchner, G., Conquest, M., Vitos, C., Comandulli, H., Joffe, G., Fagg, P., D. Rickles, Rush, M., Haklay, L., Bisby, T., Rossetto, G., Fuentes Ruiz, Perez, E., Verrucci, J., Gallo, D., Mellor, S., Gray, H., Ballard, M., M. Haklay, Chandler, B., McGreavy, Clyde M., G., Newman, K., Vohland, C., Sbrocchi, P., Roetman, A., Rushing, Miller, M., Haklay, C., Goebel, M., Domroese, J., Cappadonna, J., Shirk, M., Storksdieck, L., Vaughan, S., Scholes, N., Groce, M., Haklay, P., Jones, J., Stockton, A., Dhanani, P.R., Anciaes, J.S., Mindell, A., Dhanani, J., Stockton, P., Anciaes, N., Groce, S., Scholes, L., Vaughan, M., Haklay, P., Jones, J.S., Mindell, Jiang Q., B.Y., Davis, T., Kiessling, F., Heigl, D., Dörler, F.M., Shilling, L., Ceccaroni, J., Roche, L., Ponciano, H., Haklay, M., Thiel, E.W., Harris, A.N., Metcalfe, A., Sforzi, C.B., Cooper, A., Bowser, C.C.M., Kyba, S.E, West, A., Virapongse, R.E., Duerr, C., Lang, Santos, J.L., Cappadonna, M.V., Eitzel, pp, Redland, Urban Policy Research Press, Center, ESRI Press, Eds, R. E., Klosterman, R. K., Brail, eds, Fendel E.M, S, Zlatanova, M, Rumor, A, Krek, Text Messaging, Community Events, Participation, Internet, Haklay M, Rahemtulla H, Ellul C, pp, Berlin, Paris Springer, ICC, Selection, Volume, GIScience, Cartography, Advances, Ed, A., Ruas, Applications Springer, Research, Experiences, GIScience, OpenStreetMap, M., Helbich, P., Mooney, A., Zipf, J.A., Jokar, Geographical Information, OpenStreetMap studies, Preface, M., Haklay, Applications Springer, Research, Experiences, GIScience, OpenStreetMap, M., Helbich, P., Mooney, A., Zipf, J.A., Jokar, Geographical Information, OpenStreetMap studies, Preface, M., 31Haklay, pp, UCL Press, Springer, Collective Awareness, Opinions, Participatory Sensing, F., Tria, J., Theunis, G., Stumme, V.D.P, Servedio, A., Hotho, M., Haklay, V., Loreto, pp, Springer, Collective Awareness, Opinions, Participatory Sensing, eds, F, Tria, J., Theunis, G., Stumme, V.D.P, Servedio, A., Hotho, M., Haklay, V., Loreto, AAG, Wiley, NJ, Hoboken, Technology, Environment, Earth, People, Geography, International Encyclopedia, eds, R. Marston, A. Kobayashi, W. Liu, M. Goodchild, N. Castree, D. Richardson, Sage, Spatial Media, M., Wilson, R., Kitchin, T.P., Lauriault, Citizen Science, Geographic Information, M., Routledge Haklay, Environmental Justice, Handbook, R.(eds, Holifield, G., Walker, J., Chakraborty, action, science, community, Participatory GIS, L., Francis, M., Earth Observations Haklay, C. Open Science, Aubrech, P.P., Mathieu, Earth, Citizen Science, J., Wardlaw, S., M. Mazumdar, Haklay, doi, ed, John P. Wilson, Edition, 3rd Quarter, Knowledge, Technology Body, Geographic Information Science, GIS&amp;T., Citizen Science, A., Skarlatidou, C., Ellul, M., Haklay, P., Rickles, first supervisor, UCL, Artemis Skarlatidou, Online Civic Engagement, Spatial Data Quality, Human Computer Interaction, Topic, EU H2020, first supervisor, UoM, Maria Attard, geographic information, Malta, walkability, Topic, self, Malta, University, supervisors, BGU, Michal Givoni, BGU, Haim Yacobi, cities, DIY science, participatory mapping, Topic, self, Israel, Ben Gurion University, first supervisor, CEGE, Tiziana Rossetto, GIS, Remote, Resilience, disciplinary Indicators, Multi, Topic, ImageCat Ltd, EPICENTRE, Montreal, McGill University, doctoral researcher, post, Thesis Committee, Volunteer Geographical Information project, contributors, Motivations, Topic, Champaign, Urbana, Illinois, University, UCL, researcher, first supervisor, CEGE, Tao Cheng, Nuclear Waste Siting, GIS, Web, Trust, Topic, Arup, EPSRC, TAU, Appointment, first supervisor, TAU Geography, Juval Portugali, Regional Planning, Urban, ICT, Effect, Topic, self, Tel Aviv University, Karin Talmor, Aon Benfield Analytics, analyst, Benfield Hazard Research Centre, Bill McGuire, Geography, Paul Longley, Volcanic Island Communities, Evaluation Vulnerability, Topic, arrangement, ESRC, Catherine Lowe, Risk Management Solutions, analyst, first supervisor, Geomatic Engineering, Rod Béra, Ontological Approach, Spatial Databases, Enrichment, Topic, New Academics arrangement, CASE, Ordnance Survey, EPSRC, MacDonald, Mott, consultant, first supervisor, Geography, Paul Longley, Kings Cross Underground Station, Modelling, Topic, arrangement, Camden Primary Care Trust, ESRC, Christian Castle, Portsmouth, University, Human Geography, Lecturer, UCL, doctoral researcher, post, first supervisor, Geography, Paul Longley, Geodemographics, Modelling Health Behaviour, Topic, KTP arrangement, Camden Primary Care Trust, ESRC, UCL, postdoctoral researcher, second supervisor, CEGE, Claire Ellul, literate users, scientific visualisations, Topic, EPSRC, second supervisor, Zoology, Institute, Nathalie Pettorelli, concepts, mobile application, citizen, Topic, London, Zoological Society, EPSRC, UCL, postdoctoral researcher, second supervisor, Goldsmiths, Jennifer Gabrys, environmental monitoring, Community participation, Topic, EU FP7, Greek Military Survey, officer, CEGE, Claire Ellul, supervisor, Volunteer Geographical Information, Spatial Data Quality, Topic, Greek Government, Thomas Koukoletsos, his studies, second supervisor, Lancaster, Pragya Agarwal, systems, geospatial ontology, Topic, self, Seong K. Choi, Nottingham, University, researcher, second supervisor, CS, Angela Sasse, Health Informatics, GIS, Maps, Usability, Topic, Dr Foster Intelligence, EPSRC, Greek Military Survey, officer, second supervisor, Nottingham CGS, Jeremy Morley, Web, era, Mapping, Topic, Greek Government, Montreal, McGill University, doctoral researcher, post, second supervisor, Geography, Paul Longley, Community Activities, Mobile Alerting Service, Topic, arrangement, ESRC, Portugal, Coimbra, Coimbra, University, GIS, Lecturer, second supervisor, Geography, Paul Densham, Wind Farm Siting, Spatial Decision Support, Topic, Portugal, government, RMS, Risk Modeller, second supervisor, Geomatic Engineering, Paul Cross, Property Valuation, Spatial Data Mining, Topic, Greece, government, UCL, GIS, Lecturer, second supervisor, Geomatic Engineering, professor, Peter Woodsford, Spatial Databases, Topological Queries, Topic, Laser Scan Ltd, EPSRC, Champaign, Urbana, Illinois, University, Tel Aviv University, Ben Gurion University, Malta, Univeristy, UCL, students, secondary superviser, students, Course material, UCL, other programmes, GIScience, London M.Sc, University, tutor, many other outlets, BBC Click, Le Monde, Science, Nature, coverage, ExCiteS, work, Change activities, Mapping, Details, science, GIS, Geographical Information Systems, online mapping, sustainable communities, social enterprise, logging, legal documents, HTML files, Saepelli app, Client Earth adaptation, policy, Citizen Science, report, Scholars, Woodrow Wilson International Centre, government, VGI use, report, study, GFDRR, World Bank, recent projects, URBED, London Sustainability Exchange, participatory mapping, Argent King’s Cross, Ordnance Survey, MoD, management, Camden Police, Wandsworth Council, public GIS, aspects, years, projects, policy, contribution, social enterprise, first UCL, UCL, activities, consultancy, economic activities, years, years, various projects, my experience, More details, collaboration, project, plans, local sustainability, system, participatory mapping, development, project, London, development, environmental change, project, programme, part, their activities, longitudinal evaluation, development, project, project, North West London strategic alliance, behalf, URBED, review, part, policy, project, centres, London’s, EPSRC, project, environment, engineering, areas, UCL, disciplinary research, EPSRC, project, London, centres, detailed study, ESRC, EPSRC, project, change, urban environment, participatory sensing, Belgium, Technological Research, Flemish Institute, Germany, Gottfried Wilhelm Leibniz Universität Hannover, Italy, Sapienza Università di Roma, Italy, Scientific Interchange, Institute, Fondazione ISI, Collaborative project, project, science, Citizen Cyberscience, context, creative learning, tools, collaborative environments, evaluation, Research, UK, Gold Mobile Innovation Ltd, Imperial College, Switzerland, Université de Genève, UNITAR, Research, Training, United Nations Institute, CERN, Nuclear Research, European Organization, France, Université Paris Descartes, Collaborative project, communities, impact, fire, participatory methods, engineering, EPSRC, Europe, science, participation, awareness, Université de Genève, Eutema, Tekiu, Meritum Poland, Kapelica Galery, Medialab Prado, European Citizen Science Association, Waag Society, Université Paris Descartes, Brussels, Natural History Museum, Collaborative project, projects, third sectors, public, councils, funding, systems, fit, societal aspects, landscape, analysis, my reserach, common aspect, policies, conventions, regulations, making, its role, environmental information, use, access, world, creation, new devices, people, broad networks, culture, practices, local needs, practice, bottom, science, form, ExCiteS, activities, bottom, Irwin, production, concept, citizen, Ravetz, Funtowicz, communities, science, participatory forms, environmental information, life, walks, participants, possibilities, Citizen science, participation, social practices, technology, integration, area, production, illiterate participants, Sapelli application, example, area, ExCiteS groups, technologies, Haiti earthquake, world, OpenStreetMap contributions, analysis, central London, UCL, who, mapping, scales, range, area, their own environmental information, public, important method, participatory mapping, new technologies, interventions, technologies, societal aspects, frameworks, technology, science, public engagement, studies, science, technology, philosophy, literature, geographical information, mobile phones, GPS, GIS, geographical technologies, wider implications, ongoing interest, environmental information, understanding, techniques, public, environmental information, systems, service, UE, HCI, tools, approaches, theories, My interest, HCI, area, GIS, spatial component, most environmental information, areas, environmental information, public, sense, process, public, environmental information, interface, many side effects, action, specific course, order, information, use, access, ability, participants, making, public participation, major obstacle, professional information, making, information, scientific research, environmental issues, our understanding, relationships, environment, aspect, Geomatic Engineering, Environmental, Civil, department, member, professor, lecturer, UCL, UCL, Geography, my PhD, UCL, science, elements, Jerusalem, Hebrew University, Geography, MA, assessment, spatial aspects, report, award, reports, society, environment, context, GIS, role, studies, Jerusalem, Hebrew University, Geography, Computer Science, BSc, area, proper academic foundations, GIS, Geographic Information Systems, processors, IBM PC, early personal computers, systems, computer, company, late 1980s, activities, their area, information, analyse, tools, scientific methods, their literacy, community, UCL Extreme Citizen Science group, director, co]</t>
+  </si>
+  <si>
+    <t>[Greece, Thessaloniki, Aristotle University, Architecture, Faculty, Regional Planning, Urban, Department, Spatial Development Research Unit, Marie Curie Fellow, Visiting Professor, Oct, Seattle July, Washington, University, Geography, Department, International Relations, Jackson School, European Studies, Marshall Visiting Professor, Monet, Apr, Toronto Jan, York University, Environmental Studies, Faculty, Political Science, Graduate Programme, Ecology Summer School, International Political Economy, Invited Visiting Professor]</t>
+  </si>
+  <si>
+    <t>[body, Holocene, reconstruction, their potential role, evaluation, Lake Baikal, sediments, diatoms, accumulation, deposition, -1999, David Jewson, Limnological Institute, Nick Granin, year, Amount, Sciences, Siberian Branch Russian Academy, Royal Society, bodies, column, Lake Baikal, physical monitoring, chemical, Biological, Adinah Shackleton, Lucinda Mileham, Ginnie Pannizo, Neil Rose, Richard Taylor, Expedition leader, PI, Fund, Dean, Grad school, Uganda £, Dr Immaculate Ssemmanda, Visiting Scientist, UK, Short Term Visit grant, Rwenzori Mountains, alpine vegetation, Holocene changes, Holocene, reconstruction, their potential role, evaluation, Lake Baikal, sediments, diatoms, accumulation, deposition, Dr Anson W. Mackay, Dr Luo Wang, Principal Investigators, UCL Simon Li Research Fund, Sciences, Chinese Academy, body, Dr DW Morley, doctoral scientist, Post, China, Beijing, University, Geology, Department, Dr P. Rioual, UCL, Dr Anson W Mackay, CNRS, Ponel, Dr V. Andrieu, Principal Investigators, U3, FST, CDNRS, UMR, body, persistent contaminants, FTIR, XRF, application, MIS5e/5d, Lake Baikal, record, diatom oxygen, Kent, Orlestone Forest, different species, stands, flora, spatial variation, Dungannon A study, Peatlands Park, Maghera, Ballynahone Bog, undammed areas, botanical study, Northern Ireland, Peatland restoration, isostacy, response, NW Norway, Lofoten, Indrepollen, ontogeny, Late Holocene, record, centennial, sub, conservation, diatom use, special reference, Okavango Delta, environmental factors, relation, assemblages, diversity, composition, distribution, Lake Baikal, Olkhon Island, sediments, Shara Nur, environmental change, Bulk, restoration, possible management, heath, invasive species, spread, possible environmental factors, study, Sarah Metcalfe, Glen George, Examiners, Prof R.W. Battarbee, supervision, co, ECRC Trust Fund, Grad School, ORS, body, Edward Maltby, Prof, Dr Douglas Taylor, Examiners, Dr J. Thompson, supervision, co, UCL Hollis Scholarship, body, anthropogenic activity, natural climatic variation, impact, AD, Aral Sea, history, trace, fluctuations, lake, Palaeoconductivity, body, East African Rift Valley, Tugen Hills region, diatomite beds, series, variability, Pliocene, KATY WILSON, Carl Sayer, Marian Yallop, Dr V. Jones, supervision, co, wetland, subtropical flood, Botswana, Okavango Delta, algae, biomass, Biodiversity, LUCA MARAZZI, Russia, Lake Baikal, environmental change, recent anthropogenic pollution, response, SARAH ROBERTS, Dr G.E.A. Swann, Prof N.L. Rose, supervision, co, international importance, Ramsar wetland, Siberian, Selenga River Delta, biodiversity, productivity, impacts, change, JENNIFER ADAMS, NERC London DTP Scholarship, Last Glacial Maximum, southern Siberia, environmental change, Ecosystem resilience, POPPY HARDING, change, variability, causes, nature, atmosphere, Earth System, understanding, knowledge, Students, professionals, climate, next generation, vocational training, UCL Climate Change MSc, strategies, climatic change, consequences, nature, international need, material, delivery, professionals, nature, active involvement, network, extent, its long history, account, programme, challenges, experience, classes, residential field, vocational orientation, dimensions, MSc Conservation, conservation, secure posts, its graduates, graduate, programme, professionals, nature, course, UCL, MSc Conservation, assessment, site, blog’, weblog, maintenance, creation, course, themes, students, secondary aim, approaches, perspective, context, our planet, being, topical environmental themes, primary aim, students, course, projects, scientific papers, deeper understanding, necessary knowledge, researchers, students, statistical analyses, geographical education, specific skills, discipline, range, biological indicators, identification, practical experience, course, studies, impact, past environmental change, biological indicators, archives, date, chronological techniques, cores, marine sediments, lake, environmental change, natural archives, range, topics, Holocene, last glacial period, past environmental change, nature, techniques, concepts, introduction, students, course, geographical research, different approaches, diversity, discipline, geography, their own ideas, students, historical developments, geography, discipline, changes, more recent developments, traditional approaches, human geography, example, discipline, main tensions, geography, modern discipline, developments, debates, key themes, students, world, rest, academics, consequences, ideas, places, particular times, ideas, discipline, philosophy, history, introduction, Geography, Ideas, near future, today, discipline, pressing questions, students, bodies, stakeholders, academics, workshop, agenda, services, systems, sensitivity, resilience, stability, Quaternary record, What, 9th March, Rossiya, national Russian news, fieldwork, Whilst, programme, Lake Baikal, threats, climate, pollution, April, BIUST, Technology, Science, Botswana International University, job, project, MPhil student, employment, Botswana, University, employment, technical staff, subsequent employment, project, successful outcome, Okavango Delta stakeholders, Botswana government, project, colleagues, analysis, environmental modelling, extensive training, our project, building, agencies, planning, Okavango Delta Information System database, hydrological data, chemical, fieldwork, undertaking, Botswana, capacity, complex project, Africa, pristine wetlands, ecosystems, ’s major flood, record, sedimentary, special reference, Eastern Siberia, Lake Baikal, Recent environmental change, R.W., Battarbee, N., Rose, D., Monteith, A., Kuzmina, J.A., Dearing, J., Boyle, P.G., Appleby, R.J., Flower, Siberia, Lake Baikal, recent environmental change, Sedimentary records, L.Z., Granina, A.E., Kuzmina, P.G., Appleby, J.D., Dearing, J., Boyle, N., Rose, climate, recent changes, Lake Baikal, environmental change, Stratigraphical evidence, R.W., Battarbee, R.J., Flower, GEOPASS studies, NERC, Siberia, Lake Baikal, accumulation, Diatom deposition, E.G., Vologina, M., Sturm, D.B., Ryves, atmospheric pollution, their relation, Lake Baikal, sediments, diatom succession, Recent trends, GR3/10529, No, NERC, Final Report, Holocene, reconstruction, their potential role, evaluation, Lake Baikal, sediments, diatoms, accumulation, deposition, M., Sturm, D.B., Ryves, J.A., Lees, D., Jewson, R.J., Flower, R.W., Battarbee, meteorological variables, pollutants, traffic, functional relationships, urban aerosol, primary particulate matter, temporal trends, Characterisation, central London, spatial distributions, atmospheric particulates, apportionment, Morphological, B., Hutton, X., Long, Holocene, reconstruction, their potential role, evaluation, Lake Baikal, sediments, diatoms, accumulation, deposition, st Century, monitoring, research, perspectives, society, science, environmental change, J., Burgess, Siberia, Lake Baikal, sediments, material, diatom assemblages, planktonic diatom communities, qualitative relationships, QRA, report, Uganda, Rwenzori Mountains National Park, Lake Bujuku, palaeolimnological evidence, Africa, recent environmental change, Palaeolimnological evidence, thickness, model, diatom, application, assemblages, Lake Baikal, evidence, central Asia, variability, years, M., Sturm, P., Rioual, D., Jewson, R.J., Flower, R.W., Battarbee, D.B., Ryves, Lake Baikal sediments, biological responses, study, MIS, Central Asia, Climatic change, F., Demoray, M., Leng, biogenic silica, isotopes, Lake Baikal region, change, H.J., Sloane, palaeoclimatic reconstruction, implications, factors, Lake Baikal diatoms, Differential dissolution, M., Sturm, D.B., Ryves, D., Jewson, Loch Coire Fionnaraich, Cladocera, assemblages, sub, evidence, northwest Scotland, Recent ecological change, H.J.B., Birks, NW Botswana, Lake Ngami basin, change, environments, palaeo, record, Use, C., Vanderpost, B., Vink, A.B., Kampunzu, J., J, Tiercelin, S., Coetzee, W.S., Downey, M., Modisi, Scotland, Loch Coire Fionnaraich, habitats, cladocerans, abundance, composition, patterns, Variation, R.W., Battarbee, Uganda, Rwenzori Mountains, aquatic ecosystems, change, J., Hau, A., Muwanga, B., Nakileza, C., Tindimugaya, I., Ssemmanda, L., Mileham, V., Panizzo, communities, biased reflection, sediment, Cladoceran fossils, H.J.B., Birks, years, last ca, Aral Sea, record, sea, palaeoconductivity, diatom, M., Leng, O., Palushkina, western Eurasia, sedimentary archives, Human occupation, remnants, past environments, Special Issue, Editors, H., Oberhänsli, UK, Cambridge, Cambridge University Press, Eds, C.E. Hanson, Linden, P.J. van, J.P. Palutikof, O.F. Canziani, M.L. Parry, Climate Change, Intergovernmental Panel, Fourth Assessment Report, Working Group II, Contribution, Vulnerability, Adaptation, Impacts, Change, Darwin Initiative 162/14/029, Methods, methods, field, Okavango Delta, aquatic biodiversity, threats, Monitoring, M., Todd, P., Mapila, Huntsman, T.A., Davidson, P., Wolski, R., Mazebedi, function, transfer, Cladocera, evaluation, loch, Recent ecological change, H.J.B., Birks, record, lake, content, geochemistry, central Sweden, Bergslagen, industry, fall, rise, N.L., Rose, M.J., Leng, L.C., Tavio, G., Pateman, D.M.J., Fallon, geochemistry, trace, role, composition, oxygen, signals, N., Marsh, J., Tyler, A., Lamb, silica, analysis, oxygen, application, MIS, Lake Baikal, hydrological variability, D, Williams, H.J., Sloane, G., Panizzo, D.W., Morley, M., Leng, G., E. Khursevich, Karabanov, 1860s, glacier recession, Uganda, Rwenzori Mountain National Park, tropical alpine lake, aquatic productivity, Recent changes, M.J., Leng, N., Rose, R., Taylor, I., Ssemmanda, Aral Sea region, late Holocene history, Advances, M., Fontugne, F., Guichard, D., Keyser, C., Reinhardt, P., Sorrel, P., Austin, neoglacial cooling, isostacy, response, NW Norway, Lofoten, Indrepollen, ontogeny, Holocene, records, Diatom, B., Finney, R.S., Bradley, Oxford, OUP, Samuel T. Turvey, Ed, Holocene Extinctions, Chapter, Holocene environments, introduction, Uganda, Rwenzori Mountains, years, environmental change, Palaeolimnological evidence, D.R., Engstrom, M.J., Leng, R.G., Taylor, N.L., Rose, doi:10.5194/hess-14, Sci, Earth Syst, Hydrol, India, Loktak Lake, regime, water, their implications, Irrawaddy River, catchments, runoff, global warming, impact, Quaternary Science, Journal, approach, Lake Baikal, records, Holocene diatom oxygen, reassessment, D., White, P., Rioual, N., Piotrowska, D.W., Morley, M.J., Leng, T., Brewer, G.E.A., Swann, Paleolimnology, Journal, centuries, southeast Tibetan Plateau, regional warming, responses, U., Herzschuh, S., Mischke, P.G., Appleby, DOI, multivariate approach, Botswana, Okavango Delta, chemistry, surface, seasonal variability, Spatial, M.C., Todd, P., Mapila, Huntsman, W.R.L., Masamba, R., Mazebedi, P., Wolski, T., Davidson, DOI, Global Change Biology, centuries, southeastern Tibetan Plateau, human impact, change, aquatic responses, U., Herzschuh, S., Mischke, G.J., Simpson, Quaternary Newsletter, QRA, report, persistent contaminants, FTIR, XRF, application, MIS5e/5d, Lake Baikal, record, diatom oxygen, G.E.A., Swann, doi:10.1016/j.quascirev.2011.11.003 pdf, Quaternary Science Reviews, monsoon, complex correlation, systems, latitudes, its links, years, monsoon, G., Chu, J., Han, B., Xu, B., Cai, W., Jiang, pdf, doi, Quaternary Science Reviews, boreal central Asia, development, change, Holocene, responses, D., White, L., Wang, P., Tarasov, E., Shilland, A., Shchetnikov, A., Self, N., Piotrowska, A., Nunes, M., Meaney, M.J., Leng, E.V., Bezrukova, pdf, doi, Freshwater Biology, subtropical wetlands, flood, aquatic biodiversity, spatial hydrological variability, P., Wolski, M., Todd, M., Hudson, Murray, R., Mazebedi, doi, Quaternary Research, lake, Erlongwan, assemblages, NE China, environmental change, record, J., Liu, J., Han, D., Yang, G., Chu, Z., Gu, H., Lu, M., Leng, V.N., Panizzo, P., Rioual, L., Wang, doi, Ecohydrology, wetland, pulse, nutrient variability, Diatom sensitivity, M.C., Todd, W.R.L., Masamba, R., S. Mazebedi, Woodward, P., Wolski, T.A., Davidson, δ, lacustrine, diatoms, ratio, Influence, C.P., Kendrick, J., Han, G., Chu, Z., Gu, H., Lu, V.N., Panizzo, P., Rioual, M.J., Leng, Quaternary International, China, maar Lake Erlongwan, wildfire, change, 1000-year record, J., Li, Y., Zhang, doi, Quaternary International, anthropogenic forcing, China, north, Lake Xiaolongwan, Recent palaeolimnological change, M., Leng, P., Rioual, N., Rose, doi, Quaternary International, central Asia, Lake Baikal, Ol'khon region, ecosystems, impacts, abrupt climate, Multiproxy evidence, D., White, P., Tarasov, E.M., Shilland, A., Shchetnikov, N., Piotrowska, V.N., Panizzo, J.A., Holmes, J.F., Boyle, E., Bezrukova, Quaternary Science Reviews, Lake Baikal, record, new diatom oxygen, central Asia, last interglacial, Hydrological instability, P., P. Tarasov, Rioual, D.W., Morley, M.J., Leng, S., Fietz, N., Fagel, G.E.A., Swann, Elsevier, Amsterdam, pp, vol, Quaternary Science, Encyclopedia, ed, Elias S.A., Large Lakes, A.W., Mackay, duricrust formation, calcrete, silcrete, implications, central Botswana, sediments, Boteti palaeo, Diagenetic transformations, C., Harris, A.W., Mackay, W., Matheson, S., Coetzee, S., Diskins, L., Cassidy, S., Ringrose, Ecology, Journal, palaeoecology, questions, priority, Identification, past, A.G. et al, Baker, A.W., Mackay, A.W.R., Seddon, G.M., Poppy, B., Nykvist, A.W., Mackay, E., Jeffers, M., Flörke, F., Eigenbrod, C.P., Doncaster, T.P., Dawson, S.E., Cornell, M.J., Cole, J., Carstensen, S., Brown, K., Zhang, R., Wang, K., Raworth, T.M., Lenton, P.G., Langdon, S.M., Hossain, H., Haberl, J.G., Dyke, J.A., Dearing, palaeolimnology, potential role, tropical Asia, aquaculture, impacts, D., Taylor, R., Donne Papa, S., Baldia, G., McGlynn, S., McGowan, ratios, oxygen, dissolution, effects, experiment, M., Hems, S.R.N., Chenery, H., Sloane, D.B., Ryves, record, isotopes, transfer, Insights, M.S.A., Horstwood, V., Pashley, M., Sturm, E., Vologina, M.A., Xenopoulos, E.J., Whiteford, S.B., Watson, R.J., Vogt, M.R., Twiss, M., Toro, M.A., Timofeyev, G.E.A., Swann, R.W., Sterner, D.E., Smith, E.A., Silow, S., Sadro, J., Rücker, S.L., Roberts, J.S., Read, M., Rautio, M.J., Pruett, D.M., Post, D.C., Pierson, M., Palmer, T., Nõges, P., Nõges, B, Nixdorf, R.M., McKay, H.L., Mariash, S., MacIntyre, M.J., Kehoe, E., Kaup, K.K., Kahilainen, J.C., Jolley, S.N., Higgins, B., Hayden, M., Haldna, J., Haberman, P., H, Grossart, C., Gries, I., Granados, M., Felip, L.M., Domine, W., Montero, Colom, J., Catalan, C.C., Carey, L.L. Jr., Bowman, I., Bertani, H.M., Baulch, L., Arvola, G.A., Weyhenmeyer, R., Adrian, J.D., Stockwell, R.L., North, E.H., Stanley, N.R., Lottig, S., Sharma, C.M., S.G., Labou, R.D., Batt, K.H., Woo, T., Ozersky, S.M., Powers, A.W.E., Galloway, S.E, Hampton, southern Africa’s highest wetland, record, multi, Holocene climatic variability, press, M.K., Bamford, S.W., Grab, palaeolimnology, potential role, tropical Asia, aquaculture, impacts, D., Taylor, R., Donne Papa, S., Baldia, G., McGlynn, S., McGowan, ratios, oxygen, dissolution, effects, experiment, M., Hems, S.R.N., Chenery, H., Sloane, D.B., Ryves, record, isotopes, transfer, Insights, M.S.A., Horstwood, V., Pashley, M., Sturm, E., Vologina, M.A., Xenopoulos, E.J., Whiteford, S.B., Watson, R.J., Vogt, M.R., Twiss, M., Toro, M.A., Timofeyev, G.E.A., Swann, R.W., Sterner, D.E., Smith, E.A., Silow, S., Sadro, J., Rücker, S.L., Roberts, J.S., Read, M., Rautio, M.J., Pruett, D.M., Post, D.C., Pierson, M., Palmer, T., Nõges, P., Nõges, B, Nixdorf, R.M., McKay, H.L., Mariash, S., MacIntyre, M.J., Kehoe, E., Kaup, K.K., Kahilainen, J.C., Jolley, S.N., Higgins, B., Hayden, M., Haldna, J., Haberman, P., H, Grossart, C., Gries, I., Granados, M., Felip, L.M., Domine, W., Montero, Colom, J., Catalan, C.C., Carey, L.L. Jr., Bowman, I., Bertani, H.M., Baulch, L., Arvola, G.A., Weyhenmeyer, R., Adrian, J.D., Stockwell, R.L., North, E.H., Stanley, N.R., Lottig, S., Sharma, C.M., S.G., Labou, R.D., Batt, K.H., Woo, T., Ozersky, S.M., Powers, A.W.E., Galloway, S.E, Hampton, southern Africa’s highest wetland, record, multi, Holocene climatic variability, press, M.K., Bamford, S.W., Grab, silica, δ13C composition, change, periods, southern Siberia, palaeoproductivity, PhD, Poppy Harding, part, silica, composition, projects, PI, articles, peer, co, students, MSc, undergraduates, curriculum, levels, universities, world, past environments, stable isotopes, biological organisms, work, southern Africa, Okavango Delta, central Asia, Aral Sea, Lake Baikal, ecosystems, world, climatic impacts, human, years, threats, substantial water, population, world, arid regions, semi, quantity, 19th century, quality, our planet, threatened environments, Freshwater ecosystems]</t>
+  </si>
+  <si>
+    <t>[week, Friday, hours, No Monday, October, Monday, hours, changes, Hurricane Katrina disaster, wake, New Orleans, US Gulf Coast Summit, Future, participant, section, climate, Coasts, IPCC 5th Assessment, external reviewer, Environment Agency, Harwich haven Authority, client, shorelines, material, beneficial use, Fluor plc, HR Wallingford, Crown Estate, clients, development, wind, implications, southern North Sea, systems, dynamics, KPAL, Veatch Ltd, Black, Environment Agency, clients, estuaries, level, sea, effects, adaptive strategy, realignments, setbacks, flood, appropriateness, evaluation, Estuarine Research Unit, Coastal, Helene Burningham, collaboration, work, ports, levels, extreme storm, forecasts, new methods, Infrastructure Innovation Project, NERC Environmental Risks, Geomatic Engineering, Environmental, UCL Civil, colleagues, changes, wave, level, sea, coast, our ability, change, step, SMPs, Shoreline Management Plans, future generations, work, early 1990s, management, UK, framework, offshore zone, open coasts, estuaries, interactions, tools, Estuarine System Mapping, Coastal, new conceptual model, UCL, centuries, decades, coasts, our estuaries, morphological evolution, new numerical models, addition, project, iCOASST, Integrated Coastal Sediment Systems, M NERC, £, UCL’s contribution, environmental change, response, behavior, scale, modelling, understanding, new approaches, programme, M, £, Science Plan, EA Estuaries Research Programme Phase, Defra, lead author, UK Estuaries Advisory Group, other national committees, involvement, Coastal Defence Technical Advisors Group, EA Flood, Defra, my membership, policy, UK flood, coast, change, challenges, community, national agencies, thinking, nature, last decade, My work, French JR, observational data, complex numerical models, evaluation, sophisticated criteria, development, Science Plan, Phase, EA UK Estuaries Research Programme, DEFRA, authorship, CCRU, collaboration, EA, defences, front, energy, coastal saltmarshes, effectiveness, investigation, Harwich Haven Authority, Orwell estuary, recharge, material, beneficial use, evaluation, EA, UK, Essex, Roach estuaries, Crouch, hydrodynamic assessments, Recent projects, French JR, bathymetry, coastal change, data, airborne LiDAR, early adopters, French JR, Benson T, estuarine waters, particulates, distribution, complex, measurement, new instrumentation, development, Estuarine Research Unit, Coastal, Essex, Suffolk, UK estuaries, campaigns, several large hydrodynamic, addition, project, geomorphogical system, EA, ESTSIM project, project, Estuary behavioural system, Defra, Coastal Simulator project, Tyndall Centre, spatial scales, behaviour, study, qualitative mathematical approaches, same time, French JR, Cea L, models, uncertainty, new approach, Cendón M, Váquez, French JR, Cea L, UK, Essex, Crouch estuary, hydrodynamics, its application, model, evaluation, Spain, La Coruna, Civil Engineering, School, recent collaboration, French JR, problems, sediment, defence, estuarine, models, high spatial resolution, French JR, morphodynamics, modelling, aspatial mass, ranges, methodologies, broad range, modelling, Work, French et al, change, potential sensitivity, dynamics, estuarine, meteorological forcing, recent work, rivers, gravel, John Wiley, Chichester, Eds, Hardisty J, French JR, Clifford NJ, Coastal Shelf Science, Estuarine, Clifford, unsteady tidal flows, characteristics, projects, dynamics, interest, explanation, prediction, models, role, coastal geomorphology, particular reference, environmental sciences, earth, philosophy, History, modelling, data, models, transport, hydrodynamics, numerical simulation, particular reference, modelling, marine gravels, transport, predictions, acoustic measurements, comparison, bed, layer, turbulence, Measurements, Discussion, French JR, McClatchey J, Clifford NJ, Kriebel DL, Gingerich KJ, Kraus NC, sedimentation, salt, neotectonic controls, Eustatic, French JR, eds, MG Macklin, CP Green, JE Gordon, Stevens, habitats, coastal depositional landforms, conservation, Geomorphologically, French JR, Spencer T, RGS Matthew, K Shiono, RA Falconer, unsteady tidal flows, parameters, Estimation, Clifford NJ, French JR, J Hardisty, JR French, NJ Clifford, channel, measurements, flow, Spencer T, Clifford NJ, French JR, J Hardisty, JR French, NJ Clifford, conceptual issues, geophysical boundaries, turbulence, analysis, Monitoring, French JR, Clifford NJ, J Hardisty, JR French, NJ Clifford, contemporary perspectives, turbulent flows, Monitoring, French JR, Clifford NJ, ed, J Best, mechanism, process, form, turbulence, material characteristics, Downstream variation, Hart S, French JR, Hardisty J, Clifford N, natural geomorphic change, influx, Costa Rica, Cahuita Point, stress, O’Neill A, French JR, MR, susceptibility, mitigation, perception, Coastal hazards, ed, Finkl, European perspective, rise, sea, Wetland response, French JR, UK, Norfolk, small tidal wetlands, deposition, Geostatistical analysis, Arnold NA, Murray AL, Spencer T, French JR, Vol, Chicago, Conference, Proceedings River, events, types, turbidity, evaluation, environments, sediment, Criteria, French JR, Clifford NJ, National Rivers Authority, Bristol, defence, saltmarshes, Management, ed, Partners, Sir William Halcrow, networks, saltmarsh, optimal design, Function, French JR, National Rivers Authority, Bristol, defence, saltmarshes, Management, ed, Partners, Sir William Halcrow, surfaces, salt, attenuation, Wind, French JR, Moeller, Spencer T, Northern Cook Islands, Atoll, Penrhyn, Tongareva, atolls, change, sea, French JR, Tudhope AW, Spencer T, ed, Sherwood, criteria, geomorphological bases, rivers, physical environment, Restoration, French JR, Clifford NJ, airborne remote sensing, coastal wetlands, change, French JR, Murray AL, Spencer T, Smith GM, coastal marshes, implications, tidal creeks, role, deposition, Marsh surface, Leonard L, French JR, Murray AL, Spencer T, Reed DJ, England, North Norfolk, study, field, marshes, Wave transformation, Dixon M, Leggett DJ, French JR, Spencer T, Möller, eds, WG McDougal, NC Kraus, foreshore, silt, Stability, French CE, Watson CJ, French JR, eds, WG McDougal, NC Kraus, design, implications, realignment, sea, analogues, Abandoned reclamations, Watson CJ, Clifford NJ, French JR, French CE, eds, JRL Allen, K Pye, alternative methodologies, evaluation, UK saltmarshes, elevational adjustment, Vertical accretion, Möller, Reed DJ, Spencer T, French JR, Cahoon DR, saltmarshes, value, sea, new perspective, Dixon M, Leggett D, French JR, Spencer T, Möller, recharge, cohesive dredgings, Beneficial use, Allen R, Dixon M, Spencer T, Moller, Watson CJ, French JR, methodological issues, environmental dynamics, basis, Hydrodynamic modelling, Clifford NJ, French JR, R Froideraux, D Allard, Monestiez, UK dockyard, sediment, Geostatistical analysis, Oliver MA, French JR, Chappell A, Reed J, JR French, Warren A, physical environment, conservation, Relations, French JR, Warren A, North Norfolk, evidence, light, review, saltmarshes, value, sea, Dixon M, Leggett DJ, French JR, Spencer T, Möller, 95pp, Anglian Region, Environment Agency, R&amp;D Technical Report W5B-022, saltmarshes, Wave attenuation, French JR, Spencer T, Möller, 64pp, DEFRA, London, Research Plan, Phase, EA Estuaries Research Programme, DEFRA, Owen M, Reeve DE, French JR, M Pellei, RE Hinchee, Porta, geostatistical techniques, sediments, PCB, assessment, Oliver MA, French JR, Chappell AJ, Reed J, Anglian Region, Environment Agency, Saltmarsh Management Handbook, management, flood, implications, saltmarshes, Wave attenuation, French JR, Spencer T, Möller, Civil Engineers, American Society, New York, Coastal Sediments, eds, WG McDougal, NC Kraus, perspective, southeast England, rise, sea, sedimentation, Tidal, Burningham H, French JR, 70pp, Tyndall Research Project T3.42.Tyndall Centre Technical Report, Final Report, coastal simulator, geomorphological change, Spencer T, French JR, Brown, Balson P, Hansen S, Nicholls RJ, Springer, New York, estuaries, sedimentary evolution, morphodynamics, eds, D Fitzgerald, J Knight, monitoring, conceptual modelling, UK, Suffolk, Blyth estuary, flux, Morphodynamics, Burningham H, Benson T, French JR, FD2117 Project Report, DEFRA, London, simulation, tools, Methods, Burningham H, French JR, experimental validation, solver, turbulence, complex estuaries, tidal flow, Numerical modeling, Cendón ME, Váquez, French JR, Cea L, allochthonous systems, supply, level, sea, exploratory modelling, environmental change, resilience, efficiency, sediment, Tidal, French JR, Project Report FD2117/TR, DEFRA, London, simulators, systems, demonstration, Development, Williams A, Townend I, Reeve DE, Morris K, Karunarathna H, Burningham H, French JR, 39pp, Tyndall Centre Working Paper, approach, outcome, regional integrated assessment, coastal morphological change, Sutherland W, Spencer T, French J, Brown, Balson P, Nicholls R, Hanson S, estuaries, measurements, particle, instrument, InSiPID, French JR, Benson T, EstSim, simulator, systems, demonstration, Development, Surendran S, Morris K, Wang Z, Whitehouse R, Reeve DR, French JR, Townend, Williams A, 53pp, Crown Estate, London, Crown Estate Research Project, Caird, greater Thames estuary, seabed, Historical changes, French JR, Burningham H, muddy mesotidal estuary, flux, meteorological forcing, Tidal, Benson T, Burningham H, French JR, Environment Agency, Bristol, SC060074/SR1, Inception Report, coastal geomorphological behaviours, change, large scale, prediction, Characterisation, Walkden M, Pye K, Nicholls R, Leggett D, Houghton A, Hanson S, Guthrie G, French JR, Cooper N, Burningham H, Blott S, Balson P, Whitehouse R, 271pp, Environment Agency, Bristol, SC060074/SR2, Final Science Report, coastal geomorphological behaviours, change, large scale, prediction, Characterisation, Walkden M, Pye K, Nicholls R, Leggett D, Houghton A, Hanson S, Guthrie G, French JR, Cooper N, Burningham H, Blott S, Balson P, Whitehouse R, 25pp, Environment Agency, Bristol, SC060074/PR2, Science Report, CmapTools tutorial, Coastal system, coastal geomorphological systems, connectivity, Burningham H, French JR, dynamics, hydrodynamics, complex numerical models, optimisation, evaluation, Critical perspectives, French JR, India, Loktak Lake, hydrological regime, restoration, change, Implication, French JR, Mackay AW, Thompson JR, Singh CR, approach, outcome, regional integrated assessment, coastal geomorphological change, Sutherland WJ, Spencer T, French JR, Brown, Balson P, Nicholls RJ, Hanson SE, Greater Thames estuary, change, years, large coastal embayment, Seabed morphodynamics, French JR, Burningham H, Freiston Shore, particular reference, UK, eastern England, habitats, change, Surface, French JR, Garbutt RA, Möller, Friess DA, Spencer T, India, Loktak Lake, impacts, climate, assessment, prioritisation, ecosystem, options, Modelling alternative water, Mackay AW, Kingston D, French JR, Thompson JR, Singh CR, 12pp, Santander, Coastal Engineering, Proceedings International Conference, Coastal Sediment Systems, iCOASST, Whitehouse R, Walkden M, Sutherland J, Stansby PK, Souza A, Reeve D, Hall JW, French JR, Dix J, Burningham H, Nicholls RJ, Europe, storminess, climate, reliable proxy, index, NAO, French JR, Burningham H, Britain, Brazil, coastal cities, analysis, dispersion, street, Entropy measures, Gudmundsson A, French JR, Mohajeri N, scales, decadal, morphological change, model, ESTEEM, Burningham H, French JR, G, Thornhill, iCOASST project, overview, decadal coastal geomorphic predictions, Heron E, Barnes J, Dix J, Plater A, Pan S, Karunarathna H, Caraballo JM, Horrillo, Whitehouse R, Ellis M, Rogers BD, Amoudry LO, Stansby PK, Souza A, Hall JW, Reeve DE, Simm J, Luxford F, Brown J, Thornhill G, Walkden M, Sutherland J, Payo A, Van Maanen B, Burnhinham H, French JR, Nicholls RJ, SA Day, RJ Dawson, RJ Nicholls, approach, logic, coastal zone, morphological change, Balson P, Sutherland WJ, Nicholls RJ, Brown, Spencer T, French JR, Hanson SE, systems, inner shelf, coast, estuary, Conceptualizing, Nicholls R.J, Whitehouse R, Thornhill G, Burningham H, French JR, scales, decadal, geomorphic behaviour, prediction, Appropriate complexity, Cowell P, Eliot M, Orford J, Murray AB, Payo A, French JR, coastal geomorphological systems, analysis, Reeve DE, Nichols RJ, Maanen B, Sutherland J, French JR, JW, Hall, Payo A, approaches, new framework, decadal coastal management, coastal evolution, Walkden MJA, Wegen M, van, Townend IH, Thornhill G, Sutherland J, Payo A, Murray AB, Burningham H, Bonaldo D, Barkwith A, French JR, Nicholls RJ, Van Maanen B, size, range, Diel surface, Weyhenmeyer GA, Waldron S, Thomas R, Ryves DB, JA, Rusak, Rose KC, Rimmer A, Krokowski J, Kernan M, Hamilton DP, Feuchtmayr H, de Eyto E, Evans CD, DeGasperi CL, Battarbee RW, Andersen MR, Thackeray SJ, Simpson GL, Monteith DT, Livingtone DM, French JR, Maberly SC, Jones ID, Woolway, C, Lin J, Meadows M, management, basis, common conceptual framework, systems, inner shelf, estuarine, Nicholls RJ, Thornhill G, Burningham H, French JR, lakes, hypothesis, sediment, model, sediment, hydrodynamic, Battarbee RW, Burningham H, French JR, Marin L, Morales, ports, inundation, prediction, computational hydrodynamics, machine, Achuthan K, Fujiyama T, Mawdsley R, French JR]</t>
+  </si>
+  <si>
+    <t>[Geography, Department, Professor Jennifer Robinson, Secondary supervisor, Primary supervisor, Overseas Research Scholarship, UCL Graduate Research Scholarship, London, Shenzhen, city, real utopias, FT, Geography, Department, Dr Caroline Bressey, Secondary supervisor, Primary supervisor, Canada, Humanities Research Council, Social Sciences, London Legacy Development Corporation Planning Area UCL Overseas Research Scholarship, Housing Governance, Exploring Real Estate, Urban Development Corporation, Return, urban histories, buildings, London, public interest, project, UCL Public Engagement Unit, CASA, Advanced Spatial Analysis, UCL’s Centre, Smith, Dr Andy Hudson, project, Tales’, formation, new channels, social theory, Eurocentric assumptions, cities, important particularities, urban comparative frameworks, my work, project, web, Beacon Bursary, London, tall buildings, work, relations, new political performances, constitutive role, infrastructural projects, practices, materials, visions, flyovers, construction, contemporary cities, dimensional geographies, second strand, visions, creative practices, city, my geographical focus, Buenos Aires, Mumbai, London, studies, several case, themes, work, contemporary city, cultural interventions, possibilities, perspective, gentrification, new waves, urbanism, practices, discourses, creative city, exclusions, spatial articulations, focus, contemporary urban restructuring, political dynamics, exploration, aesthetics, cultural landscapes, concern, research, postindustrial metropolis, power, visual arts, networks, practices, symbols, pp, USA, Portland, UK, Bristol, Intellect Books, Urban Futures, Art, Advances, M., Miles, T., Hall, contemporary Mumbai’., symbolic economy, Regional Research, Urban, knowledge.’ International Journal, practices, histories, S., Moore, A., Harris, Regional Research, Urban, International Journal, urban expertise, regimes, infrastructural imaginaries, materialities, A. Engineering cities, Harris, L, British Geographers Bjorkman, Institute, Royal Geographical Society, Events Coordinator, ESRC Peer Review College, member, austerity, new era, urban cultural economy, limits, AHRC, Mumbai flyover, geographies, Vertical urbanism, project, ESRC, primary investigator, UCL, interdisciplinary initiative, part, Urban Studies, innovative new MSc, UCL, Geography, Urban Studies, Lecturer, Andrew, September, Mumbai’., London, urbanism, creative city, project, ESRC Postdoctoral Fellow, Andrew, June, July, making, Mumbai, landscape, water, metaphorical dimensions, material, project, first century, social formation, landscape, water, Liquid City, Mumbai’., contemporary London, districts, creation, urban space, UCL Geography, PhD, ESRC, UCL, Place, Space, Modernity, MSc, Cambridge, University, Geography, West London, Hanwell, Andrew Harris]</t>
+  </si>
+  <si>
+    <t>[sessional courses, pre, several undergraduate programmes, lectures, UCL, Masters courses, number, strategic activity, Medical Imaging, Doctoral Training, EPSRC Centre, David Hawkes, Sebastian Ourselin, co, UCL, Wellcome Trust Clinical PhD Programme, David Lomas, programme, our Future, training, management, our large MRC Doctoral Training Centre award, scientific trainees, NIHR, MRC, large portfolio, UCL, ACO, H NIHR Biomedical Research Centre, UCL, Health, Vice Provost, Office, part, UCL SLMS Academic Careers Office, UCL, postgraduate clinical academic training, development, strategy, MEG My major educational interest, EEG, transcranial magnetic stimulation, behavioral studies, combination, high field, functional MRI, systems, auditory, laboratory, work, major modalities, visual awareness, laboratory, research, visual system, physiology, anatomy, considerable amount, human brain, unconscious representations, conscious content, particular types, neural correlates, disease, health, human consciousness, neural mechanisms, group, Work, Medical Sciences, Academy, election, Royal Society Francis Crick medal, award, My work, Imanova, Directors, Board, Francis Crick Institute Executive Team, member, UCL, roles, number, Medical Sciences, Life, School, students, investigators, management, UCL, portfolio, strategic leadership, ACO, Medical Sciences Academic Careers Office, Life, UCL School, clinical academic training, Neuroimaging, renowned Wellcome Trust Centre, ICN, human consciousness, neural basis, group, UCL, Brain Sciences, Faculty, Deputy Head, Cognitive Neuroscience, UCL Institute, Director, Life Sciences, UCL Faculty, Dean, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[RITH, K, HIV, TB, Directors KwaZulu Natal Research Institute, Board, Directors Francis Crick Institute 2015-, Board, MedCity Ltd., GMEC, Director, UCLH, executive, Imanova Board, Stakeholder, GSK Respiratory Therapy Area Board, Chair, GSK, Predictive Surrogate Endpoints, COPD Longitudinally, Evaluation, Steering committee, significant associations, boards, British Heart Foundation, Trustees, Board, Medical Trustee, US, Grants Advisory Committee Alpha-1 Foundation, Alpha-1 Awareness UK 2011-, Patron, COPD Biomarkers Qualification Consortium 2010-, Charities, MedTech Review, Innovative Medicines, Expert Advisory Group, Member, Scientific Advisory Committee Genomics England 2013-, Medical Research Council, Deputy CEO, Government, UCLH, Respiratory Unit, medical students, teaching, bed, Clinicians, UCL Wellcome Trust PhD programme, Director, Co, 2014-, UCL Medical School, Head, COPD, FAM13A, HHIP, protein, hedgehog, receptor, SNPs, GWAS, studies, genes, COPD, components, airway, independent familial aggregation, network, GSK, International COPD Genetics Network, Harvard, Ed Silverman, disease, pathobiology, new insights, novel genetic factors, identification, COPD, only genetic factor, Alpha-1-antitrypsin deficiency, vivo, vitro, toxicity, algorithms, model, Cambridge, Chemistry, group, Chris Dobson, neurodegeneration, oxidative stress, clear role, Our data, Aβ peptide, toxicity, modifiers, genetic screen, neurodegeneration, disease, Alzheimer, Our Drosophila model, disease, Drosophila model, vitro, peptide, toxicity, Aβ peptide, interaction, disease, Alzheimer, individuals, plaques, neuroserpin, disease, Alzheimer, common dementia, protein, role, FENIB, neuroserpin, mutations, recognition, encephalopathies, disease, Parkinson, Huntington, Alzheimer, other conformational diseases, insights, serpinopathies, our understanding, serpinopathies, disorder, new class, diseases, common mechanism, view, FENIB, bodies, familial encephalopathy, autosomal dominant dementia, neurones, inclusions, neuroserpin, process, our description, angiodema, thrombosis, emphysema, vivo, vitro, polymers, others, my team, II, C1-inhibitor, antithrombin, α1-antichymotrypsin, Mutants, superfamily, serpin, inhibitor, serine, other members, α1-antitrypsin, polymerisation, process, technology, structures, allosteric pockets, small molecules, screens, peptides, competition, chaperones, use, polymerisation, strategies, variety, vivo, vitro, which polymers, pathway, assays, cell, monoclonal antibodies, α1-antitrypsin, mutants, crystallised wildtype, team, deficiency, hepatic inclusions, α1-antitrypsin, variants, S, Mmalton, Siiyama, retention, same process, condition, PAS positive inclusions, polymers, hepatocytes, polymers, chains, conformational transition, protein, α1-antitrypsin, mutation, My work, Cambridge, University, Haematology, Department, Professor Robin Carrell FRS, my PhD, College, St. John, Fellow, Medical Research, Cambridge Institute, Deputy Director, Cambridge, University, Honorary Consultant Physician, Respiratory Biology, Professor, UCL, Medical Sciences, Faculty, Dean, Medicine, Professor, Previous appointments, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[International Sociological Association, Regional Development, Urban, Sociology, 21st Century, Research Committee, August RC, Manchester, IBG Conference, RGS, STS, natures, Urban Techno, City, Materiality, Technology, K Furlong, Coordinator, Organiser, August, Manchester, IBG Conference, RGS, City, Nature, Praxis, Dystopian Thought, Urban Imaginaries, G Baeten, Wright, P Devine, Coordinator, Organiser, August, Manchester, British Geographers Conference, Institute, Human Geography, Graduate Student International Forum, Coordinator, Organiser, Budapest, European University Institute, Lund, University, Manchester, University, Barcelona, Autonoma University, Participants, programme, ERASMUS European PhD student, Environmental Conflict, Cities, Summer School, International PhD Workshop, Manchester University, Coordinator, Geography, Athens, Harokopeio University, Architecture, Athens, National Technical University, New Zealand, Otago, Universities, Goldsmiths, UCL, Economics, London School, external examiner, Thames Water, Seville Water company, private sector, Greek Environment Ministry, European Environmental Bureau, Architecture Foundation, European Science Foundation, Amnesty International, Arts, Royal Academy, UN Habitat, organizations, international academic institutions, public lectures, seminars, Latsis Foundation, Georgian Science Foundation, European Union, SCSS, Social Sciences, European Science Foundation Standing Committee, reviewer, SSHRC, Canada, Humanities Research Council, Social Sciences, ESRC, assessor, regular research, Maria Kaika, Finnish Geographers, institute, Annual Meeting, London’s History Society, Arts, London’s Royal Academy, addresses, keynotes, Public lectures, Royal Geographical Society, Teaching Liaison Officer, British Geographers’ Urban Research Group, Institute, Royal Geographical Society, Treasurer, Urbino, EUREX, European University, Professor, Leuven, University, Professor, Dec, Sept, Social Sciences, Queen Mary Graduate School, Fellow, Regional Studies, Urban, Foundation, Trustee, Housing, Living, Future, Research Programme, Finland, Academy, International Evaluation Panel, member, Carnegie Mellon University, Remaking Cities Institute, Executive Board Member, Other appointments, College Oxford, St Peter, Human Geography, Lecturer, Oxford, Linacre College, Junior Research Fellow, Geography, Oxford University School, University Lecturer, Oxford, College, St Hugh, Human Geography, Studies, Director, Oxford, St. Edmund Hall, Her previous posts, architect, professional qualifications, Athens, National Technical University, Architecture, MA, Oxford, University, Geography, D.Phil, Maria Kaika]</t>
+  </si>
+  <si>
+    <t>[Makerere University, Dr. M. Nalubega, British Geological Survey, Dr. D. Macdonald, Surrey University, Dr. M.H. Barrett, Dr. R. Taylor, ref, global environmental change, International Human Dimensions Programme, World Climate Research Programme, Biosphere Programme, International Geosphere, regional scale, sub, integrated approach, Uganda, resources, variability, change, impacts, Reading, University, Walker Institute, Professor N. Arnell, consortium, UCL, J. Thompson, Dr. M. Todd, Dr. R. Taylor, R.G. Taylor, Prof, Dhaka, K.M. Ahmed, Prof, UCL Global Health, Dr. E. Fottrell, UCL IRDR, Dr. M. Shamsudduha, Sussex, M. Todd, Prof, BGS, A. MacDonald, Prof, IWMI, Dr. K. Villholth, IRD, Dr. G. Favreau, AAU, T. Ayenew, Prof, SUA, Dr. J. Kashaigili, IDS, Dr. John Thompson, R.G. Taylor, Prof, hydraulic stress, responses, environmental tracers, evidence, Uganda, systems, crystalline rock, storage, Groundwater flow, uncertainties, errors, Regional Climate Models, southern Africa, Okavango Delta region, impacts, Climate, Leverhulme Fellowship, Royal Society, research, academic year, my place, Dambatta, Dr. Aisha Bello, makers, makers, stakeholders, outcomes, summary, stations, electric power, local hydro, Rwenzori Mountains National Park, management, change, NAPA, flow, glacial recession, impact, studies, research, East Africa, change, impact, illustration, Makerere University, Uganda, Environment, Water, Ministry, collaborative research, East Africa, Rwenzori Mountains, alpine glaciers, retreat, global warming, relationship, collaborative research, outcomes, summary, Dodoma, city, freshwater, Makutapora Wellfield, management, Tanzania, Water, Ministry, Recent collaborative research, Africa, resources, quantification, benchmark, research, collaborative research, part, initiatives, plans, rationale, demand, change, variability, adaptations, groundwater, scientific basis, UK government, irrigation, production, water, access, regional initiatives, plans, strategies, national water, groundwater, Saharan Africa, Sub, research, impact, areas, direct impact, our research, institutions, collaborations, makers, stakeholders, direct engagement, South Asia, Saharan Africa, Sub, agricultural needs, supplies, practical problems, My research, water, groundwater, interactions, their characteristics, environments, aquifers, geomorphological evolution, evolutionary hydrogeology, supplies, irrigation, abstraction, systems, capacity, Research, Deltas, Asian Mega, Bengal Basin, shallow alluvial aquifers, research, GLRA, Africa, entire Great Lakes Region, Saharan Africa, sub, tropics, systems, saprock, saprolite, crystalline rock, hydrogeology, research, date, variability, rapid development, pressures, communities, communities, groundwater, international scientific programmes, research, stores, change, variability, relationship, our conceptual understanding, testing, development, observations, measurements, GRACE, g, observations, use, research, central aspect, research, critical role, models, use, research, key component, ice, moisture, groundwater, stores, impacts, climate, analysis, scales, scarcity, resources, change, variability, freshwater, other natural stores, groundwater, specific focus, resources, rapid development, change, impact, studies, flow, stable isotope, method, moisture, soil, support, East Africa, Victoria Nile basin, Groundwater recharge, countries, urban groundwater, contamination, impacts, extent, comparison, M., Nalubega, multilevel piezometer, use, hydrochemistry, variations, S. F., Thornton, D. N. L., Lerner, S., Trowsdale, M. H., Barrett, O. P., Baines, Triassic aquifers, Permo, evolution, tracer, Use, R. M., Kalin, A., Downey, T., Elliot, Chapter, pp, London, IWA, I. Chorus, J. Chilton, G. Howard, O. Schmoll, Geneva, World Health Organisation, Chapter, pp, London, IWA, I. Chorus, J. Chilton, G. Howard, O. Schmoll, Geneva, World Health Organisation, Chapter, pp, London, IWA, I. Chorus, J. Chilton, G. Howard, O. Schmoll, Geneva, World Health Organisation, UK, mature cities, aquifers, anthropogenic recharge, penetration, depth, Hydrochemical evidence, air, East Africa, Rwenzori Mountains, Recent deglaciation, Mölg et al, Uganda Reply, Rwenzori Mountain National Park, tropical alpine lake, aquatic productivity, recent changes, 140-year record, Uganda, Upper Nile Basin, interactions, surface, groundwater, C., Tindimugaya, C., Mukwaya, J., Thompson, Uganda, groundwater, communities, evidence, change, diarrhoeal diseases, risk, R. Kulabako, G. Howard, R. Flynn, L. Mileham, J. Tumwine, Gaspa, M. Miret, meteorological observations, station, parameterizations, comparison, SWAT2005, China, River Xiangxi, Ugandan Upper Nile Basin Hydrological modeling, tropical catchment, stormflow, groundwater, change, impacts, new insight, current challenges, global hydrological change, Groundwater, M., Shamsudduha, W., Struckmeier, N., Kukuric, K., Dev Sharma, H., Treidel, K., Hiscock, U., Lall, B., Hewitson, M., Todd, R., Harding, L., Longuevergne, China, Yellow Basins, River Yangtze, catchments, sub, discharge, change, impacts, uncertainty, unified approach, continents, scale, resources, change, impact, southwestern Uganda, evidence, humid tropics, systems, crystalline rock, rapid development, change, impacts, C., Tindimugaya, Eds, J. Warner, S. Sojamo, M. Keulertz, J.A. Allan, Land Grabs, agriculture, intensification, sufficient water, Africa, Groundwater, H.C., Bonsor, H., Treidel, I., Holman, P., Yeh, K., Hiscock, M., Shamsudduha, D., Allen, J., Gurdak, Y., Yechieli, R., Maxwell, Fan Y., A., MacDonald, M.F.P., Bierkens, M., Taniguchi, J., Chen, T., Green, L., Konikow, M., Edmunds, J.S., Famiglietti, M., LeBlanc, L., Longuevergne, Y., Wada, L., Beek, M., Rodell, P., Doell, B.R., Scanlon, L., Smith, M., Shamsudduha, M.S., Rao, A., Mukherjee, M., Moench, R.M., Lark, D.J., Lapworth, K., Gopal, S.S.D., Foster, A., Dixit, R.C., Calow, M., Basharat, W.G., Burgess, K.M., Ahmed, H.C., Bonsor, A.M, MacDonald, L., Smith, M., Shamsudduha, M.S., Rao, A., Mukherjee, M., Moench, D.J., Lapworth, K., Gopal, S.S.D., Foster, A., Dixit, R.C., Calow, M., Basharat, W.G., Burgess, K.H., Ahmed, A.M., MacDonald, H.C., Bonsor, Leverhulme Trust Senior Fellowship, Royal Society, research, academic year, leave, Richard, hours]</t>
+  </si>
+  <si>
+    <t>[research, connection, project, public, members, Royal Geographical Society, hazards, masterclass, QMUL, days, school, contributions, local societies, schools, talks, activities, Crustacea, Ostracoda, Podocopa, Myodocopa, extant superfamilies, cladistic analysis, What, K., Martens, R.J, Smith, I., Schön, Geographic Parthenogenesis, reproductive modes, segregation, present environment, press, F., Joanes, Mesquita, J., Vandekerkhove, I., Schön, J., Sevilla, Rueda, G., Rossetti, T., Namiotko, M.J., Martins, K., Martens, D.K., Lamatsch, D.J., Horne, A., Camacho, S.N.S., Bode, O., Schmit, ostracods, palynomorphs, UK, Surrey, Ockley, Smokejacks Brickworks, Cretaceous, Barremian, Upper Weald Clay, skeleton, new species, description, ostracods, eyes, first record, homologies, distribution, ecology, biology, evidence, critical evaluation, ocean, depletion, Platycopid Signal, SE England, Cretaceous, Turonian Boundary Event, Cenomanian, environmental change, taxa, responses, Platycopid Signal, I. J., Slipper, S. N., Brandão, Quaternary, late Pliocene, implications, high latitudes, ostracods, A. R., Lord, palaeoenvironment, implications, Antarctica, Middle Miocene, ostracods, D.R., Marchant, A.R., Lewis, D.J., Horne, P.R., Wilby, A.C., Ashworth, D.J., Siveter, M., Williams, records, UK, West Sussex, site, Boxgrove, hydrological environment, Middle Pleistocene climate, J. E., Whittaker, K. J., Sinka, M. B., Roberts, J., Joordens, eds, F., Viehberg, J., Lazaro, Rodriguez, J.A., Holmes, D.J., Horne, Quaternary ostracods, methods, F., Joanes, Mesquita, B.B., Curry, UK, Essex, Purfleet, other recent investigations, link, rail, London–Channel Tunnel, High Speed, construction, data, geoarchaeology, geochronology, environments, MIS, enhanced record, J.E., Whittaker, T.S., White, M.J., White, G., Ward, I., Slipper, J.L., Schwenninger, D.C., Schreve, R., Scaife, E., Rhodes, R.C., Preece, K. E. H., Penkman, D.H., Keene, eastern England, interglacial deposit, late MIS, Palaeoecology, J.E., Whittaker, D.C., Schreve, K.E.H., Penkman, Mighall T., D.H., Keen, eastern England, Whittlesey, deposits, estimates, Pleistocene palaeoecological reconstructions, N.J., Whitehouse, J.E., Whittaker, D.C., Schreve, Eds, T.S., White, P., Allen, D.R., Bridgland, SE England, MIS9, MIS11, reconstructions, palaeoenvironmental reconstruction, Implications, Central Germany, saline influence, inland waterbodies, Ostracoda, V., Wennrich, G., Daut, K., Lippold, B., Funai, A., Burghardt, T., Daniel, J., Franke, shell, what, palaeoenvironmental studies, ostracods, use, I. J., Slipper, phylogeny, lifestyle, ontogeny, morphology, Ostracoda, Crustacea, Terrestricytheroidea, new species, first British record, J. W., Murray, J. E., Whittaker, R. J., Smith, Egypt, Faiyum, interactions, special reference, Lake Qarun, Holocene palaeolimnology, Ostracods, R. H., Zied, Abu, J. E., Whittaker, faunas, North, taxonomic harmonisation, notes, USA, Utah, pools, Ostracoda, Crustacea, Eds, T.S., White, P., Allen, D.R., Bridgland, palaeoclimate implications, palaeoenvironmental, Marks Tey, Ostracods, A., March, S.G., Lewis, T., Huckstepp, G., Benardout, D., Bal, Eds, T.S., White, P., Allen, D.R., Bridgland, Essex, Marks Tey, sequence, MIS, Hoxnian interglacial, MIS11 interglacials, MIS9, system, Medway, Thames, estuarine boundaries, freshwater, potential, stratigraphical context, area, Jones, project, EU, participant, e.g., parthenogenesis, sex, evolutionary ecology, crustacean phylogeny, ostracods, molecular biologists, ecologists, zoologists, micropalaeontologist, asexual reproduction, unusual longevity, geographical parthenogenesis, examples, Ostracods, their phylogenetic relationships, efforts, soft parts, their appendages, preservation, rarity, years, arthropods, record, Ostracod shells, Surrey, Cretaceous Weald Clay pit, skeleton, conditions, temporary freshwater, evidence, ostracod fossils, pollen, combination, example, assemblages, Wealden, Purbeck, interpretation, palaeobiological approach, application, Mesozoic nonmarine basins, implications, palaeoenvironmental interpretations, schemes, their taxonomy, revisions, Britain, Wealden, Purbeck, Cretaceous continental deposits, Jurassic, assemblages, My research, day, lineages, faunas, nonmarine, explosive global diversification, time, Mesozoic, oligotrophic conditions, picoplankton, feed, platycopids, dysaerobia, oligotrophy, platycopid dominance, alternative interpretation, Platycopid Signal, ecological support, claims, authors, waters, other ostracods, their respiratory surface, more water, platycopids, filter, premise, floor, dysaerobic conditions, Order Platycopida, assemblages, fossil, Hypothesis, Platycopid Signal, regional ostracod databases, sharing, international collaboration, OMEGA, their taxonomy, regional datasets, research, biodiversity, palaeoclimate, applications, global dataset, OMEGA, other regional databases, NODE, anyone, approaches, steward, records, Quaternary, fossil, species, records, project, EU, members, NODE database, MOTR method, source, set, Canada, Estonia, Germany, Italy, Quaternary sites, studies, Purfleet, Boxgrove, British Pleistocene archaeological sites, reconstructions, range, Quaternary assemblages, ostracods, ranges, July, January, e.g., temperature, data, distributional data, nonmarine, method, MOTR, My Mutual Ostracod Temperature Range, various ways, proxies, ostracods, end, lead editor, international authors, project, focus, geochemical approaches, mutual climatic range, function, species, proxies, Quaternary, value, value, proxies, their significance, distribution, ecology, taxonomy, studies, multidisciplinary team, member, applications, My research, deposits, relative ages, past climatic conditions, continental settings, palaeoenvironmental proxies, Their ecological diversity, deposits, Holocene, Pleistocene, Quaternary, common microfossils, Ostracods, Higher Education Academy Teaching Fellowship, Feedback award, Union Assessment, QMUL Students, module, Natural History Museum, visits, specialist, undergraduate modules, speakers, links, undergraduate coursework, application, integration, teaching, research, publication, authorship, third case, cases, same topic, postgraduate work, turn, method, aspects, successful major projects, several students, Digital Worlds modules, Global Environmental Change, my Mutual Ostracod Temperature Range method, practical exercises, lectures, years, example, my teaching, my research, Aspects, resources, e, field, laboratory, classroom, practical work, seminars, workshops, lectures, Geographical Information Systems, palaeoecology, environmental hazards, undergraduate topics, wide range, QMUL, records, UK, West Sussex, site, Boxgrove, hydrological environment, Middle Pleistocene climate, J. E., Whittaker, K. J., Sinka, M. B., Roberts, J., Joordens, SE England, Cretaceous, Turonian Boundary Event, Cenomanian, environmental change, taxa, responses, Platycopid Signal, I. J., Slipper, S. N., Brandão, F., Viehberg, J., Lazaro, Rodriguez, J.A., Holmes, D.J., Horne, Quaternary ostracods, methods, F., Joanes, Mesquita, B.B., Curry, USA, Canada, Japan, Europe, UK, scientists, multidisciplinary research, faunas, Cretaceous marine, Quaternary ostracods, pre, Quaternary archaeological sites, quantitative palaeoclimatic reconstruction, my Mutual Ostracod Temperature Range method, Britain, Ancient Human Occupation, member, My recent research, parthenogenesis, sex, evolution, crustacean phylogeny, biogeography, palaeoceanography, palaeoclimatology, their applications, freshwater, marine, crustaceans, fossil, living]</t>
+  </si>
+  <si>
+    <t>[tectonics, geomorphology, ecology, hydrology, oceanography, climate, environment, Earth, fundamental processes, introductory course, Processes, Environment Systems, Global warming, pollution, Human impact- Acid rain, Glaciation, Evolution, Plate Tectonics, Big Bang, Earth History, introductory course, Environmental Change, clients, large diverse portfolio, Climate KIC, Royal Society, Technology Strategy Board, European Space Agency, ISIC, Rezatec Ltd, product, statistical techniques, models, analysis, advanced predictive analysis, basis, instruments, satellite, diverse data, large amounts, its ability, unique strength, uncertainty, error, services, products, bases, science, REDD+ agenda, management, agribusiness, energy, financial services, many different markets, organisations, decision, Analytics, Rezatec Earth Information Products, data, satellite, scientific analysis, environment, problems, Rezatec, Oxfordshire, Harwell, more storms, rapid climate, symptoms, Mark Maslin, nature, flukes, El Niño, Hurricane Georges, wave, effective action, subsidence, flooding, attempts, Bangladesh, lives, Millions, Sea, Weight, environmentalists, Mark Maslin, pollution, man, Lake Baikal, world, freshwater, largest body, waters, East Midlands, Heart, Quay, River FM, Manx Radio, Downtown Radio Belfast, BBC Orkney, Orchard FM, Channel Islands, BBC Radio Jersey, Kismat Radio, Q103 FM, Fosseway Radio, Rutland Radio, SGR Colchester, Green Britain week, findings, emissions, Government policies, detailed audit, Welsh Assembly election, main political parties, environmental policies, BBC Wales, atmosphere, dioxide, artificial trees, Wally Broecker, Prof, new idea, comments, Today Programme, BBC Radio, June, time, clean sources, all its electricity, US, Al Gore’s vision, comments, News Hour, BBC World Service, July, City Talk, Times, -Guardian, New Scientist, BBC News Online, Daily Telegraph, Scotsman, Mirror, -Daily Mail, Guardian, BBC World Service, BBC Radio, Press Association, News, Channel, Sky News, change, Health effects, Lancet Report, UCL, Launch, May, UK climate, future, report, site, latest UKCIP, launch, BBC Newsround –, BBC News, June -BBC News, hottest decade, WMO, Met Office, data, response, recent mega floods, change, attribution, new results, papers, Material World, BBC Radio, News, Channel, Timeout Tokyo Feb, Nature, New Scientist, articles, report, risk, JLT International Airport, UCL, Press conference, July, Paris, meeting, UNFCCC COP21, change, public, questions, BBC World Service Newshour, November, Reddit, Front Page, ZME Science, Taiwan, Apple Daily, Costa Rica, El Mundo, AllNews24.eu, EurActiv.com, EurActiv.fr, Philanthropy News Digest, Internazionale, Clima, Observátorio, O Eco, Ore, Il Sole, Xinhua Net, SciBlogs.co.nz, EconoTimes, News, Yahoo, Sci Tech Today, Climate Change News, EcoBusiness, GreenBiz, Business Green, feature, Swiss Public Radio, Estonian Public Broadcasting, La Vanguardia, Mexico, El Periodico, others, Mexico, El Periodico, El Comercio, EFE News Wire, EcoWatch, Phys.org, Quartz, Part, Climate Home, Reuters, Carbon Brief, Mother Jones, Grist, El País, Atlantic’s City Lab, Mashable, LA Times, Wall Street Journal, global megacities’, change, responses, Nature Climate Change paper, Press Coverage, March, El País, Reuters, Mail Online, FT, Times, site, BBC, record, hottest year, announcement, World Meteorological Organization, January, ISBN, Paperback, ISBN, Hardback, UK, Hove, Weyland, p49, olds, volume, Storms, ISBN, Paperback, X, ISBN, Hardback, UK, Hove, Weyland, p49, olds, volume, Earthquakes, areas, Maslin’s, East Africa, early Human Evolution, his work, Royal Society Wolfson Research Merit award, Maslin, Associate Editor, Maslin, blogs, popular articles, volumes, chapters, books, times, papers, Google, index=128, H=51, citation, journals, papers, Turkana Basin Institute, Smithsonian Institute, Rio de Janeiro, Stony Brook, Penn State, Berne, Potsdam, Yale, visits, Africa, fieldwork, Ocean Drilling Program, IMAGES, expeditions, his participation, research, Maslin, Nov, volume, Royal Society A, Philosophical Transactions, urban areas, Climate change, editors, H.J., Schellnhuber, T., Killeen, P., Backlund, p1210, Academic Press, Karl Turekian, Stephen Thorpe, John Steele, Ed, Ocean Sciences, Encyclopedia, Holocene Climate variability, oceanography, Paleo, V. Ettwein, C. Stickley, Oxford, Oxford University Press, global atmospheric change, Tropical forests, editors, editors, O. Phillips, Y. Mahli, Amazon Rainforest, resilience, longevity, Blackwell, Wiley, Geological Hazards, Forcing, instability, methane, sensitivity, Eocene Thermal Maximum perspective, Paleocene, P.J. Valdes, D.N., Schmidt, Blackwell, Wiley, Geological Hazards, Climate Forcing, reservoirs, global gas, future stability, past, A. Ridgwell, T. Dunkley Jones, S. Day, M. Owen, major Northern Hemisphere Glaciation, initiation, Northwest Pacific Site, R. Stax, H. Erlenkeuser, R. Tiedemann, M. Sarnthein, G. Haug, years, record, time, N, paleoceanography, Atlantic surface, Variations, H. Schulz, U. Pflaumann, L. Labeyrie, N. Koc, S. Jung, T. Johannessen, G. Johannessen, A. Flatoy, H. Erlenkeuser, C. Duplessy, J, M. Arnold, M. Weinelt, E. Jansen, M., Sarnthein, sheet, Laurentide, icebergs, maximum outflow, realistic calculations, Heinrich events, timing, Estimation, I.N. McCave, J. Andrews, last glacial maximum, terrestrial biosphere, atmosphere, oceans, transfer, Young, R. Haines, H. Faure, E. Thomas, J. Adams, Heinrich events, last glacial maximum, palaeocirculation, reconstruction, intensity, ice, reliable indicator, Magnetic susceptibility, I.N. McCave, climatic rebounds, formation, Heinrich events, years, Northeast Atlantic, changes, salinity, Temperature, U. Pflaumann, N.J. Shackleton, North Pacific, Northern Hemisphere Glaciation, progressive intensification, R. Tiedemann, M. Sarnthein, G. Haug, formation, productivity, pCO2, Glacial North East Atlantic surface, D. Seidov, M.A. Hall, N.J. Shackleton, E. Thomas, E.J.W., Jones, S., Lee, C.J., MacLeod, A., Cramp, late Quaternary Amazon Fan, history, Reconstruction, N. Mikkelsen, eds, E.J.W., Jones, S., Lee, C.J., MacLeod, A., Cramp, Amazon Fan, evidence, sea, Heinrich events, changes, Equatorial Wastern Atlantic Ocean, E.J.W., Jones, S., Lee, C.J., MacLeod, A., Cramp, Holocene comparison, Eemian, Interglacial cold events, Intra, C. Tzedakis, P. Grootes, J. Knaak, J, M. Sarnthein, Northern Hemisphere Glaciation, progressive intensification, contribution, A. Berger, F. Loutre, M, S. Li, X, Amazon Fan, analyses, pore, western Atlantic Ocean, bottom water, circulation, Composition, sheets, growth, North Atlantic, gradients, meridional temperature, forcing, Amazon Fan ODP Site, record, year, Amazon basin, changes, Late Quaternary Vegetation, years, discharge, Amazon, records, High resolution, N. Rimington, B. Lomax, M Schleicker, E. Platzman, J Nadeau, M, P Grootes, S Greig, E Durham, S J Burns, p1210, Academic Press, Karl Turekian, Stephen Thorpe, John Steele, Ed, Ocean Sciences, Encyclopedia, Holocene Climate variability, oceanography, Paleo, V. Ettwein, C. Stickley, Ma, Northern Hemisphere Glaciation, intensification, Site, intensity, productivity, Fluctuations, Chapter, M. Brownless, L. Vidal, Laurie, Pleistocene Revolution, Mid, Evidence, Search, Walvis Ridge, Congo Basin, Proxy Records, Comparison, m.y, Africa, Western Coast, Climatic History, Chapter, Shipboard Scientific Party, ODP Leg, S.J. Burns, D. Lowry, M. Leng, J.R. Marlow, Mele, A. Rosell, E. Platzman, Maslin, Haupt, Seidov, Future, Present, Past, change, Oceans, Southern Versus Northern Meltwater Impacts, Climate, Polar Seesaw, Ocean Bi, Maslin, Haupt, Seidov, Future, Present, Past, Rapid Climate Change, Oceans, Quaternary, transitions, causes, nature, Synthesis, J. Lowe, D. Seidov, Site, ODP Leg, Evidence, Northern Hemisphere Glaciation, intensification, hemispheres, connections, R.W. Murray, GLAMAP-2000, conditions, Sea, Glacial North Atlantic, M.Weinelt, E.Vogelsang, M. Vautravers, S. van Kreveld, J. Swallow, H. Schulz, isotope, South West African vegetation, changes, Precession, V. Ettwein, R. Pancost, C. Boot, Large Impacts III, editors, A., Deutsch, F., Horz, T., Kenkmann, event, T boundary, K, example, failure, liquifaction, excursions, carbon, hydrates, large impacts, benthic foraminiferal assemblages, stratigraphy, Amazon Fan, Quaternary catastrophic failures, Causation, P. Grootes, N. Mikkelsen, C. Vilela, Amazon Rainforest, future, resilience, longevity, old forest, New views, S. Cowling, O. Phillips, Y. Mahli, major Northern Hemisphere glaciation, onset, Pacific, system, development, Diatom d18O evidence, G.H., Haug, H.J., Sloane, M.J., Leng, Critical Quaternary Strtigraphy Special Issue, Amazon Fan, Avulsion Events, Scale Sea Level Control, Millennial, T. Ramsay, P.C. Knutz, early human evolution, East African climate, controls, High, M. Strecker, Bergner, A., A. Deino, Q06012):1, Geochemistry Geophysics Geosystems, record, effect, evidence, isotopes, J., Onodera, animals, plants, African migration, trans, phylogenies, implications, Africa, interglacial vegetation, Simulated, S., Spall, M., Peros, B.P., Atlantic Ocean, Oeschger events, Dansgaard, evolution, Centennial, M. Kucera, Benguela Upwelling System, ODP Site, Pliocene sediments, Luke Handley “Organic geochemical changes, Nicole Bale, Virginia Ettwein, Claire Bickers, Palaeoecology, Palaeoclimatology, Palaeogeography, Peter Ditchfield, Anna K. Behrensmeyer, Richard Potts, R. Bernhart Owen, southern Kenya Rift, Pleistocene Olorgesailie Formation, environmental change, Diatomaceous sediments, Genus Comments, Origins, First Humans, early human evolution, its influence, Pleistocene East African Pulsed Climate Variability, Plio, Chapter, M.H. Trauth, Special Publication, Sedimentary Geology, Society, SEPM, Editors, B. McCaffrey, O. J. Martinsen, B. Kneller, Water Depositional Systems, Deep, External Controls, latest Pleistocene, Avulsion Deposits, Amazon Fan Mass Transport, causes, timing, Hominins’’ AM J PHYS ANTHROPOL Review, Fallback Foods, Sources, Water Habitats, Shallow, Wrangham et al, Reply, Bearing Localities, Southern African Hominin, Palaeoenvironments, Geochronology, Editor, Letter, Tetraethers, Amazon Fan, Organic Carbon, Sources, Holocene Terrestrial Temperatures, Major, R. D., Pancost, C. S., Boot, E. C., Hopmans, S., Schoutan, J. S., Sinninghe Damste, MIS-12, intensity, South East Atlantic Ocean productivity, forcing, ice, Oceanic, Rohl U., Marine Isotope Stage, hydrography, South East Atlantic, Agulhas Leakage influences, circulation, Atlantic, R. D. Pancost, E. L. McClymont, Bendle, J., J. Green, p, Springer, Mosher et al, their consequences, Submarine Mass Movement, Northwest British continental margin, movement, late Pleistocene, debrite, Peach, Investigations, Levis Colloquium, Johnstone, session, Report, 21st Century, hazard, Gas, East Africa“, Amplifier Lakes, Variable Environment, Migration, Human Evolution, M.R. Strecker, L. Olaka, D.O. Olago, E. Odada, A. Junginger, A. Deino, A.G.N. Bergner, positive action, catastrophic fatalism, denial, change, Global health, P. Ekins, A. Johnson, H. Montgomery, record, deglacial Amazon River, evidence, hypothesis, monsoon, Dynamic boundary, M.J., Leng, S.J., Burns, T.P., Guilderson, K.E., Wilson, records, ODP site, Evidence, South West Africa, availability, history, M.H. Trauth, J. Lewis, K. Wilson, R. Pancost, Geological Time Scale, F. Gradstein et al, Ed, Prehistoric Human Time Scale, Chapter, system, Governments, deforestation, satellites, M. Sweeting, H. Balzter, variability, scale, Pliocene, evidence, A.W. Mackay, R.K. Edgar, A.L. Deino, Kingston, J.D., M.J. Leng, NE Atlantic Ocean, Barra Fan, geology, shallow sub, surface, SEGY conversion, seismic record, reliability, D. Long, S. J Day, M. A Maslin, M. J, Owen, brain, evolution, vast lakes, formation, arid conditions, Rift Valley, pulses’, their emergence, tectonics, celestial mechanics, change, roles, years, Homo sapiens’ arrival, Homo erectus, size, jump, Australophithecus, bipedalism, stages, East Africa, hominin, geological hegemony, humanity, deep time, Palaeoclimatologist Mark Maslin, timely reminder, history, Earth, force, tour, our luck, that special ontinent, narrative, knowledge, tremendous amount, Maslin, impressive ease, human evolution, dynamic earth, account, its environments, earth, context, human evolution, Maslin, currents, climate, meteorites, monsoons, mountains, tale, story, humanity, evolution, immense subject, broad disciplines, geography, thinking, years, millions, East Africa, planetary changes, mix, hybridised narrative, theories, his own mind, Maslin, smooth digestion, our way, being, flow, graphs, diagrams, Snazzy graphics, today, who, theme, complex global processes, basic information, Maslin, slim book, information, amazing amount, Wise, name, Maslin, our responsibility, powerful sense, our good fortune, dizzying feeling, our planet, civilisation, emergence, East African Rift Valley, climate, unique landscape, evolutionary biology, science, astronomy, geology, exhilarating intellectual journey, Mark Maslin, great scientific challenges, East Africa, unique landscapes, our species, emergence, book, Maslin, climatological twist, our ancestors, ecology, palaeoanthropology, recent research, twist, palaeoanthropological cocktail, book, planet, humanity, cradle, East Africa, part, landscape, climate, geology, Astronomy, our ultrasocial brains, pressures, factors, East African Rift Valley, landscape, evidence, fossils, latest insights, Mark Maslin, considerable advantage, our ancestors, bizarre adaptation, childbirth, difficulties, our large brains, calorific cost, ape, evolution, our intelligence, our success, planet, apex predator, Earth, evolutionary trajectory, consequence, Earth system, part, century, middle, number, Homo, natural weapons, many other animals, Humans, East Africa, early human evolution, study, Royal Society Wolfson Research Merit Award, first time, Who, Who, Climate Change, Development, Population, links, paper, Lancet, change’, effects, seminal Lancet report, author, co, Maslin, same series, Short Introduction, Climate, title, copies, its third edition, Oxford University Press, Short Introduction, Change, His popular book, Sky News, News, Channel, BBC News, Material World, Today Programme, popular articles, popular books, students, students, fellows, WTO, UNFCCC COP, Norwegian Government, Goldman Sachs, Natural History Museum, British Museum, Frontline Club, Fink Club, Medicine, Royal Society, Tate Modern, RGS, Cambridge, Oxford, UK Space conference, years, public talks, Professor Maslin, policies, national climate, ecological models, sinks, land, human evolution, rainforests, biodiversity, cycle, its effects, change, causes, scientific expertise, His areas, DECC, Royal Society, Technology Strategy Board, ESA, Carbon Trust, DIFD, EPSRC, NERC, grants, Co, PI, journals, papers, regional climatic change, particular expertise, scientist, Maslin, Cheltenham Science Festival Advisory Committee, member, Steria Group, Sopria, Global Cool Foundation, advisor, London NERC Doctoral Training Partnership, Director, Rezatec Ltd, Executive Director]</t>
+  </si>
+  <si>
+    <t>[urban labs, research, Lund University, Formas Guest Researcher, local governments, range, Arup, United Nations, external organisations, range, Manchester Cycling Lab, University Living Lab, styles, interdisciplinary action, Europe, smart districts, project, Horizon, Triangulum, involvement, University, sustainable urban development, labs, role, His current research, Volkwagen Institute, UCLA, fellowships, field, books, papers, peer, urban environmental governance, cities, Geography whose research, Professor, James Evans]</t>
+  </si>
+  <si>
+    <t>[coastal landfills, flooding, environmental impacts, aquatic environments, contaminants, flocs, structure, behaviour, storage, contaminants, marshes, biogeochemistry, structure, hydrology, projects, new doctoral candidates, their completion, students, standards, sediment, use, implications, cores, estuarine, heavy metals, C.L., MacLeod, K.L., Spencer, UK, Kent, Medway Estuary, sediments, salt, diagenesis, distribution, I.W., Croudace, A.B., Cundy, K.L., Spencer, U.K., Medway estuary, France, Seine estuary, marshes, Spartina sp, accumulation, distribution, S., Ullyott, D., Shell, R., Charman, P.J., Carey, C.M., Heppell, K.L, Spencer, B., Ouddane, J.A., Taylor, R., Lafite, L., Hopkinson, A.B., Cundy, UK, SE England, River Thames, Limehouse Basin, ecotoxicity, quality, injection, Potential impacts, P., Penna, R.E., Dewhurst, K.L., Spencer, UK, Medway estuary, France, Seine estuary, systems, saltmarsh, accumulation, transfer, S., De Wever, B., Ouddane, C.M., Heppell, P.J., Carey, K.L, Spencer, M.B, Gilpin, R., Charman, J., Deloffre, L., Hopkinson, J.A., Taylor, R., Lafite, A.B., Cundy, UK, Kent, Swale Estuaries, Medway, heavy metals, distribution, Source, S.M., Johnson, A., Tuckett, C.L., MacLeod, K.L., Spencer, London, British Geological Society, SP274, BGS, Special Publication, Shelf Sediment Transport, Coastal, Eds, M.B, Collins, P.S., Balson, coastal marine environment, transport, potential tracer, minerals, New York, Heidelberg, Verlag Berlin, Springer, Rivers—Interdisciplinary Approach, Pollutant Mobility, Sediment Dynamics, Eds, U., Förstner, B., Westrich, cohesive sediments, tracers, minerals, geochemically, potential use, M., Dearnaley, A., Manning, J.A., Taylor, T., Benson, K., Suzuki, K.L., Spencer, Managed Realignment, years, UK, Essex, Orplands Farm, sediments, Physicochemical changes, R., Hughes, S., Turner, CL, MacLeod, S., Davies, Hearn, AB, Cundy, K.L., Spencer, treatment, data, effect, sets, sediment, analysis, Use, K.L., Spencer, M., Reid, natural mud, tracers, Dynamic interactions, Benson, G.G., Leppard, I., Droppo, A., Manning, K.L., Spencer, China, Zhangjiang Estuary, adjacent mudflat, mangrove forest, sediments, metals, volatile sulfide, acid, distribution, Haoliang L., Ruifeng Z., Spencer KL, Y., Chongling, L., Jingchun, systems, urban water, dynamics, assessment, technique, novel, K, Exall, L, Grapentine, C, I.G, Droppo, K.L, Spencer, soils, sediments, metals, analysis, methods, BCR, Tessier, microwave, appraisal, Shotbolt L, Spencer KL, Reid MK, Southeast England, scheme, mudflat, saltmarsh, Sediment characteristics, P., Fletcher, CM, Heppell, KL, Spencer, M., Kadiri, aquatic environments, tracers, depleted clays, Rare Earth Element, potential, S., Hillier, K, Suzuki, K.L, Spencer, 0568-z, DOI, Sediments, Soils, Journal, realignment, sediment, agricultural soil, release, CM, Heppell, KL, Spencer, M., Kadiri, biogeochemical processes, saltmarshes, services, disturbance, Harvey GL, Spencer KL, KB, PDF, Environment Agency, Executive Summary, historic coastal landfills, pollution, risk, K.L., Spencer, J.H., Brand, methylation, MR sites, potential, Current work, Harvey, Spencer, Spencer et al, European Commission, schemes, services, potential consequences, sediments, salt, transport, hydrology, structure, changes, use, Our research, denitrification, storage, e.g., purification, sequestration, services, potential, MR, sustainable coastal defence, habitats, coastal salt, USA, Europe, technique, MR, realignment, protocols, sediments, behaviour, column, contaminants, release, technique, potential environmental impacts, our understanding, urgent need, Coastal Access Act, Marine, licensable activity, USA, Europe, technique, flows, gravity, influence, sediment, fine sediment, cohesive forces, bottom sediment, low pressure, water, large volumes, injection, WID, dredging, water, techniques, Hydrodynamic dredging, Environment Agency, plan, model, risk, release, level, potential consequences, southeast England, such contamination, extent, coastal environments, estuarine, river, material, risk, discharge, precipitation, storm, frequency, rise, sea, associated predictions, change, high water, zone, sites, our domestic waste, sediments, animals, contamination, sediments, metals, response, environmental conditions, experiments, sediments, river, analysis, work, river, animals, whole community, integrity, values, water, which life, toxic metals, levels, new approaches, discharges, mine, remediation, ecological recovery, potential, life, rich sediments, metal, impact, our knowledge, project, ecological condition, recovery, sources, mine, work, clean, rivers, life, beds, river, sediments, river, toxic metals, mine waters, Work, heaps, mines, rivers, water, metal, problem, what extent, sediments, past pollution, legacy, life, animal, rivers, what, pollution, efforts, significant environmental impact, mines, Recent work, EU Water Framework Directive, targets, their water, England Wales, estuaries, rivers, serious impediment, mines, coal, Pollution, Adas, Natural History Museum, Chemical Sciences, Biological, School, Queen Mary, collaboration, Defra, reports, technical consultancy, their findings, water, sediment, soils, contaminants, environmental data, students, masters, assessments, ecosystem, Environmental Management Applications students, example, my research, teaching, environmental careers, that students, strong emphasis, level, third year, my teaching, mangrove swamp, middle, boat, beach, appropriate location, session, question, their topic, expert’, sheet, students, relevant topic, review, students, trip, preparation, Florida, residential fieldtrip, Environmental Management Applications’, example, approaches, student, development, workshops, small seminars, classes, learning, field, work, methods, teaching, range, programmes, levels, Nantes, Port, l’Environment, Groupe d’Etude Observations Dragage, London Authority, Port, Dredging Liaison Group, Medway Ports Authority, Environment Canada, Environment Agency, management, contamination, advice, Germany, Hildesheim, October, September –, Ecological Restoration, Society, Open Landscapes, saltmarshes, biogeochemical cycling, physical disturbance, Impacts, Italy, Venice, April, 7th International SedNet conference, Biodiversity, Sediments, keynotes, talks, Managed Realignment, years, UK, Essex, Orplands Farm, sediments, Physicochemical changes, R., Hughes, S., Turner, CL, MacLeod, S., Davies, Hearn, AB, Cundy, natural mud, tracers, Dynamic interactions, T., Benson, G.G., Leppard, I., Droppo, A., Manning, systems, urban water, dynamics, assessment, technique, novel, K, Exall, L, Grapentine, C, I.G, Droppo, saltmarsh environments, biogeochemical processes, interactions, innovative geochemical tracers, development, transport, flocculation, behaviour, environmental parameters, influence, improved understanding, highlights, activities, anthropogenic management, natural disturbance, contaminants, sediment, behaviour, distribution, source, interest, rivers, estuaries, fine sediment, effective management, fundamental science, ecologists, hydrologists, geomorphologists, who]</t>
+  </si>
+  <si>
+    <t>[conservation, implications, record, Scottish mesotrophic lochs, Najas flexilis, naiad, status, 2011-, Isabel Bishop, ecosystems, specialises, UCL, Environmental Change Research Centre, doctoral Research Fellow, post, Tom, PhD, palaeoecological methods, shallow lakes, Ecological assessment, Tom Davidson, Cambridge, Anglia Ruskin University, Social Care, Health, Faculty, enhancement, communication, audit, responsibility, QA manager, assurance, Nicola, PhD, lakes, Benthic diatoms, Nicola Hughes, Broads Authority, broads, studies, restoration, future recommendations, current condition, history, management, Broads restoration, review, Environmental Research, Northern Ireland Forum, Scotland, ecotypes, Northern Ireland, Scotland, Wales, England, UK, conditions, palaeoecological approaches, evaluation, lakes, Identification, Recent projects, management, conservation, projects, manager, years, systems, lowland, work, ordinates, ENSIS Ltd, behalf, Environmental Change Research Centre, research, Geography Department, environmental consultancy, ENSIS Ltd, director, Helen, EA staff, workshops, hosts, assurance, panel, EA, Environment Agency, member, Loweswater Care Project, Llyn Tegid symposia, Llangorse Lake, stakeholders, range, meetings, outputs, Morvern Historical Society, groups, talks, environmental change, indicators, diatoms, Sept, BBC Radio 4s Material World programme, guest, nutrient enrichment, lakes, strategies, work, restoration, states, Paleolimnology, Journal, special issue, EU Water Framework Directive, UK Government response, base, UK Lakes Task Team, membership, DARLEQ, diatoms, tool, development, UK lakes, conditions, Scottish Natural Heritage, Natural Resources Wales, Wales, Countryside Council, Natural England, Scottish Environment Protection Agency, Environment Agency, example, China, Europe, lakes, conditions, agencies, government, Helen, her research, aquatic environment, management, desire, EU Water Framework Directive, conservation, management, palaeolimnology, limnology, application, Helen, details, section, studies, restoration, development, risk, database, assessment, quality, monitoring, classification, waters, nutrient reconstructions, topics, 1995-present, Irish Environment Protection Agency, Environmental Research, Northern Ireland Forum, Scotland, Wales, Countryside Council, Scottish Natural Heritage, English Nature, Environment Agency, bodies, projects, manager, landscapes, services, assembly, impacts, dispersal, Lake BESS, Sustainability, Ecosystem Services, Lake Biodiversity, project, NERC, Investigator, Co, REFRESH, ecosystems, change, impacts, EU Seventh Framework Programme Adaptive strategies, leader, member, steering, ordinator, co, UCL, WISER, Recovery, Ecological status, Integrative Systems, Europe, EU Seventh Framework Programme Water bodies, UCL, Principal investigator, Lancaster University, Sociology, Department, association, ESRC, Loweswater, nutrient changes, palaeolimnological records, changes, historical land, Key partner, palaeolimnological approach, limnological, enrichment, lakes, ecological response, NERC CASE Studentship project, Principal investigator, limpacs, Euro, ecosystems, global change, impacts, EU Sixth Framework Programme Integrated Project, Task leader, NERC, BBSRC, ESRC, Scoping Study, RELU, Land Use, Rural Economy, part, future policies, tools, integrated approaches, Sustainable Catchment Management, Key partner, EDDI, Climate Programme European Diatom Database, EU Fourth Framework Environment, chair, steering, ordinator, scientific co, Joint, abundance, fossil, sub, sedimentary, anoxic factor, function, NERC project, investigator, Joint, restoration, shallow lake, Palaeolimnology, atmospheric contamination, Environmental change, projects, follow, participant, Central China, Hubei Province, lakes, Eutrophication, Sciences collaborative project, Chinese Academy, Royal Society, Joint Project Leader, University College London, Geography, Department, ENSIS Ltd, Environmental Change Research Centre, joint post, Environmental Consultant, Postdoctoral Research Fellow, University College London, Geography, Department, ENSIS Ltd, Environmental Change Research Centre, joint post, Environmental Consultant, Postdoctoral Senior Research Fellow, conservation, management, policy, palaeoecological methods, eutrophication, topics, courses, students, Masters, bodies, numerous international scientific journals, reviewer, reports, academic articles, Her publications, Director, ECRC, consultancy, ENSIS Ltd, research, Helen’s, environmental policy, development, strategic research, UK Eutrophication Forum, UK Lakes Task Team, member, EU Water Framework Directive, conservation, management, science, application, aquatic ecosystems, nutrient interactions, climate, REFRESH, WISER, LIMPACS, Euro, EDDI, BIOMASS, projects, large multi, EU collaborative research, targets, conditions, environmental change, records, lake, scales, range, fresh waters, eutrophication, impacts, projects, years, diatoms, focus, palaeoecology, aquatic ecology, interests, Environmental Change, Principal Research Associate, Senior Research Fellow, ECRC, Environmental Change Research Centre, Research Fellow, post, UCL, Geography, Department, Austria, Mondsee, Limnology, Institute, year, doctoral Royal Society Research Fellowship, post, east England, south, eutrophic ponds, records, PhD, years, degree, first class, Geography, UCL, Helen Bennion]</t>
+  </si>
+  <si>
+    <t>[UK, olds, year, income, status, citizen, state, recent changes, implications, What, broad areas, students, application, your ideas, organising’, implementation, impacts, London’s hotels, stealth’, Subcontracting, J., May, C., McIlwaine, J., Herbert, K., Datta, J., Y. Wills, Evans, London’, migrant workers, Remittance, migrant labour, finance, J., May, J., Herbert, Y., Evans, J., Wills, C., McIlwaine, K., Datta, economy, London, tactics, strategies, J., Wills, J., May, J., Herbert, Y., Evans, C., McIlwaine, K., Datta, labour’, new migrant division, London, British state, global cities, London working, C., McIlwaine, J., Herbert, Y., Evans, K., Datta, J., Wills, J., May, London’, Ghanaian migrants, everyday racism, Experiences, Multicultural living, J., Wills, C., McIlwaine, Y., Evans, K., Datta, J., May, J., Herbert, eds, K., Willis, A., Stenning, A., Smith, London’, Ghanaian migrant workers, neoliberalism, J., Wills, C., McIlwaine, J., Herbert, Y., Evans, K., Datta, J., May, campaign’, London living, organizations, faith, role, work, Religion, C., McIlwaine, J., May, J., Herbert, Y., Evans, K., Datta, K., Wills, London’, men, work, migration, Embodied narratives, move, Men, J., Wills, J., May, J., Herbert, Y., Evans, C., McIlwaine, D., Datta, economy, London’s, migrant workers, care, care’, migrant ethic, J., Wills, J., May, J., Herbert, Y., Evans, C., McIlwaine, D., Datta, homeless people’, services, provision, charity, Discourses, ethos, J., May, S., Johnsen, P., Cloke, Britain’, single homeless people, accommodation, state, New Labour, margins, Shelter, S., Johnsen, P., Cloke, J., May, experiences, visible British women, homelessness, Alternative cartographies, P., Cloke, S., Johnsen, J., May, rural areas’, homeless people, services, care, periphery, J., May, S., Johnsen, P., Cloke, P.L., Price, T. S., Oakes, Place’, Home, Narratives, Single Homelessness, Vagrants, Nomads, J., May, punitive age’’, homelessness, geographies, Complexity, J., Von Mahs, J., May, G., Deverteuil, J., Vranken, P., Cloke, J., Beaumont, homeless people’, services, ethics, volunteers, Faith, Ethical Citizenship, J., May, S., Johnsen, P., Cloke, UK’, banking, contradictory political dynamics, space, M., Goodwin, J., May, P., Cloke, A., Williams, Sussex, University, Dr. S. Rycroft, Dr. A. Binns, applicant, Co, Use UK Project, land, Citizenship, Education, Final report, Exeter, University, Professor Paul Cloke, Principal applicant, single homeless people, provision, uneven geographies, Homeless Places, August, June, Queen Mary, Geography, Department, Professor Jane Wills, Dr Cathy McIlwaine, Dr Kavita Datta, London, Low Paid Workers, Survey, London Citizen’s Summer Academy, £, infrastructural support, Final report, Queen Mary, Geography, Department, Principal Applicant, Professor Jane Wills, Dr Cathy McIlwaine, Dr Kavita Datta, London, employment, migrant labour, Work, Global Cities, Sussex, University, Dr. S. Rycroft, Dr. A. Binns, applicant, Co, Use UK Project, land, Citizenship, Education, Final report, Exeter, University, Professor Paul Cloke, Principal applicant, single homeless people, provision, uneven geographies, Homeless Places, August, June, Queen Mary, Geography, Department, Professor Jane Wills, Dr Cathy McIlwaine, Dr Kavita Datta, London, Low Paid Workers, Survey, London Citizen’s Summer Academy, £, infrastructural support, Final report, Queen Mary, Geography, Department, Principal Applicant, Professor Jane Wills, Dr Cathy McIlwaine, Dr Kavita Datta, London, employment, migrant labour, Work, Global Cities, London, Queen Mary University, Liev Cherry, Cardiff, University, Andrew Williams, Exeter, University, Paul Cloke, UK, Provision, Emergency, such divisions, attendant, migrant workers, diverse experiences, contemporary London, Labour, distinctive Migrant Division, market, wage, London, migration, subcontracting, policy, role, ESRC £, Jane Wills, Cathy McIlwaine, Kavita Datta, QMUL, Work project, Global Cities, streets, spaces, own understandings, homeless people, provision, geographies, our work, welfare, city, neoliberalisation, alternative, resistance, form, secularism, post, limits, contemporary Britain, homelessness, responses, complex experiences, urban revanchism, neoliberalism, dystopic accounts, £, ESRC, Exeter, University, Paul Cloke, related work, practices, ethical values, challenge, potential sites, insecurity, response, banks, project, banking, alternative approaches, range, users, providers, food, banking, academic accounts, welfare, liberal political economy, neo, their work, political debate, Britain, banks, number, rapid rise, London, Queen Mary University, Liev Cherry, Cardiff, University, Andrew Williams, Exeter, University, Paul Cloke, British Academy £, economy, London, migrants, role, homelessness, geographies, banking, politics, key areas, my research, past decade, reform, alternatives, social justice, concern, university, course, opening, trip, new ways, cities, module, students, Las Vegas, Los Angeles, their experiences, Field Diary, essay, course, course, their learning, Learning Log, students, work, module, Las Vegas, hotels, themed casinos, Strip, ethnographic work, Downtown Los Angeles, Skid Row, Venice Beach, Korea Town, work, Central Los Angeles, South, organisations, California, Orange County, community’, master, visits, Las Vegas, Los Angeles, class, day, presentations, videos, lectures, seminars, innovative program, module, urban environments, urban security, increased concern, changes, responses, cities, gentrification, new urban forms, emergence, inequality, changes, nature, economic restructuring, globalisation, our cities, recent changes, key, students, framework, metropolis, post, notion, examples, Las Vegas, Los Angeles, third year, module, western European cities, recent changes, real world, its relevance, literature, wider skills, assessment, different form, key points, seminars, way, interesting topics, lecturer, students, feedback, essay, course, East London, walk, self, mock Wikipedia entry, coursework, module, poverty, Rural homelessness, sexuality, geographies, urban space, gendering, homeless space, collapse, public space, purification, global city, inequality, class, Race, ethnicity, race, geographies, Topics, students, part, critical social interpretation, skills, module, social difference, construction, geography, space, sexuality, gender, class, ethnicity, race, social constructions, identities, social experience, UK, examples, power, relationships, products, societies, understanding, social geography, key concerns, students, 2nd year, labour’, new migrant division, London, British state, global cities, London working, C., McIlwaine, J., Herbert, Y., Evans, K., Datta, J., Wills, J., May, punitive age’’, homelessness, geographies, Complexity, J., Von Mahs, J., May, G., Devertueil, UK’, banking, contradictory political dynamics, space, M., Goodwin, J., May, P., Cloke, A., Williams, IFAN, Independent Food Aid Network, Bow Foodbank, Trustee, Peer Review College, ESRC, member, board, Sheffield, University, MA Social Research, Edinburgh, University, MA Human Geography, BA, external examiner, Queen Mary, practices, ethical values, potential challenge, sites, work, homelessness, banking, experiences, ground, social justice, inequality, questions, ethnographic approach, My work, reform, social justice, inequality, issues, particular interest, social geographer]</t>
+  </si>
+  <si>
+    <t>[ICOMOS, Heritage England, UNESCO, entities, interest, projects, Overseas Territories, governments, DfID, MoD, FCO, ministries, interest, diplomacy, My current research, colonialism, militarism, sites, embodied encounters, examination, popular geopolitics, materiality, Emma Waterton, British Overseas Territories, diplomatic relations, Fiona McConnell, national militaries, interoperability, forward, Duke University Press, My initial project, different states, connections, programme, realms, theory, geopolitics, attempt, My current research, different idea, topics, PhD study]</t>
+  </si>
+  <si>
+    <t>[Visiting Professor, Auckland, University, visit, part, New Zealand Geographical Society, Environment, School, Seminar, Melbourne, University, Geography, Dept, conference, Constructing, knowledge’. Presentation, politics, critique, Geoscientists, Unfree radicals, Chicago, AAG conference, session, panellist, sessionand, social sciences, new directions, science, Geography, Oslo February, conference, knowledge’. Keynote lecture, politics, science, expertise, Liverpool University, Development, Globalisation, MA, London, University, Queen Mary College, Human Geography, BA, External examiner, physical sciences, humanities, social science, tools, insights, teaching, geographic research, idea, human geographer, Though, Manchester, Australia, Wollongong, University, years, Professor, rank, my first academic position, Liverpool University, Human Geography, Lecturer, years, Human Geography, Reader, Manchester University]</t>
+  </si>
+  <si>
+    <t>[Singapore, National University, Doctoral Researcher, Post, Singapore, Malaysia, Waste Recycling Production Network, Regional E, Informal Labour, Value’, Waste, Aidan Wong, Germany, Green Party, Regional Development, Energy, Transport, Economic Affairs, Secretary, Emerging Market, Emergent Economic Geographies, Turkey, Tim Heinemann, Nottingham, University, Lecturer, Socialist Prague, Post, Space, Production, Social Exclusion, Expatriates, Golden City, Gilt, Andy Cook, networks, uneven development, economic geography, economy, interest, my areas, research, regional trajectories, Economic performance, A., Smith, M., Dunford, regional economies’, labour, divisions, regions, commodities, value, Networks, D., Sadler, R., Hudson, J., Hardy, M., Dunford, A., Rainnie, A., Smith, industry’, Slovak, outward processing, European integration, pan, regional transformations, industrial clusters, relations, A., Smith, production’, Central, East, reconfiguration, regimes, European integration, R., Begg, J., Pickles, A., Smith, Bulgaria)’, Haskovo, Italy, Romagna, Emilia, firms, chains, Industrial districts, A., Smith, J., P. Pickles, Roukova, R., Begg, Enlarged European Union, Clothing Sector, Textiles, Future, European Commission’s Communication, reflections, industry, European textiles, regional relocation, EU enlargement, Outward processing, M., Buček, P., Roukova, R., Begg, J., Pickles, A., Smith, industry’, East, diverse practices, competitive pressures, Upgrading, P., Roukova, R., Begg, M., Buček, A., Smith, J., Pickles, sector’, London, upgrading, creative industries, Deindustrialisation, margins, Y., Evans, A., Smith, eds, J., Peck, E., Sheppard, A., Tickell, production’, politics, socialism, Post, A., Smith, J., Pickles, J., Peck, H., Leitner, E., Sheppard, socialism’, post, urban restructuring, diverse economies, liberalism, neo, A., Smith, socialist cities’, post, diverse economies, neoliberalisation, markets, emergence, D., Świątek, A., Rochovská, A., Stenning, A., Smith, industry’, Slovak, regional competition, networks, regions, post, P., Roukova, B., Begg, M., Buček, J., Pickles, A., Smith, eds, A., Rainnie, A., Herod, S., Champ, McGrath, Europe’, delocalization, nearshoring, outsourcing, labour, work, consequences, worker, workers, A., Smith, J., Pickles, internationalization’, contradictions, development, models, former Soviet Union, Eastern Europe, global economic crisis, A., Swain, A., Smith, socialist cities’, post, households, everyday financial practices, debt, Credit, D., Świątek, A., Rochovksá, A., Stenning, A., Smith, socialism’, collapse, years, society, economy, space, Uneven transformations, J., Timár, A., Smith, Production Networks’, Trade, Reconfiguration, European Clothing Industry, Persistence, localization, De, J., Pickles, A., Smith, industry’, East, regional industrial change, networks, political economy, R., Begg, R., Pástor, M., Buček, J., Pickles, A., Cambridge Smith, region’, Mediterranean macro, Euro, integration, dynamics, chains, in)security, Economic, A., Smith, agreements, EU, effects, border, labour provisions, A., Smith, B., Richardson, J., Harrison, L., industry, my other interests, project, practices, institutional structures, role, strategies, kinds, restructuring, scale, scope, sector, London, metropolitan manufacturing, restructuring, globalisation, examination, British Academy, collection, publication, liberalism, neo, conceptual interests, social reproduction, economic practices, research, special issue, economies, cultures, collaborative work, interest, related area, research, book, Newcastle University, Alison Stenning, collaborative work, Poland, Slovakia, cities, households, social cohesion, reciprocity, networks, production, forms, research, ESRC, Nuffield Foundation, Central European cities, social reproduction, economic practices, research, socialism, collapse, rapid integration, Europe, labour, divisions, economic sectors, reconfiguration, territorial uneven development, understanding, project, aim, London, Queen Mary University, David Sadler, Curtin Business School, Al Rainnie, Durham, University, Ray Hudson, Hertfordshire, University, Jane Hardy, Sussex, University, Mick Dunford, research, project, Europe, economic transformations, territorial uneven development, research, earlier ESRC, research, area, industrial economies, cultural embeddedness, liberalisation, new geographies, relation, dynamics, liberalisation, result, competitive pressure, its restructuring, Eastern Europe, industry, dramatic growth, Sciences, Bulgarian Academy, Poli Roukova, Bratislava, Economics, University, Rudolf Pástor, Milan Buček, Eastern Europe, Central, Chapel Hill, North Carolina, University, Meenu Tewari, Duke University, Gary Gereffi, Pennsylvania, Indiana University, Bob Begg, Chapel Hill, North Carolina, University, John Pickles, USA, colleagues, research, U.S. National Science Foundation, Recent research, regimes, global contracting, outward processing, growth, industry, interest, exports, networks, part, European Union, frameworks, relations, market, North Africa, former Soviet Union, economies, networks, integration, forms, research, its neighbours, European Union, Europe, economic interactions, development, uneven integration, research, country, industries, dominant export, sectors, electrical equipment, clothing, networks, integration, forms, Tunisia, uneven development, experience, economic insecurities, economies, integration, extent, research, influence, economic sphere, EU, European Union’s, North African economies, uneven integration, developmental implications, research, British Academy, international economies, integration, economic liberalisation, years, strategies, state, combination, regional inequality, high unemployment, unequal outcomes, part, authoritarianism, North Africa, popular revolts, International Studies, Politics, Ben Richardson, Law, James Harrison, Warwick, University, QMUL, Mirela Barbu, Geography, Liam Campling, Management, Business, Schools, colleagues, collaboration, global economy, conditions, meaningful improvement, approach, extent, third countries’, sustainable development, trade, approach, European Union, effects, research, ESRC, former Soviet Union, North Africa, Eastern Europe, Central, specific focus, world, peoples, places, its implications, sector, economic activity, internationalisation, frameworks, global production, Queen Mary, in)security, contemporary geographies, theory, economic transformation, debates, work, Central Europe, socialist transformation, post, social geographies, projects, variety, years, enthusiasm, handouts, module, best things, skills, His knowledge, North Africa, East Europe, West, geographical contexts, uneven development, globalisation, my teaching, result, empirical cases, context, conceptual issues, understanding, teaching, My approach, contemporary world, economic geography, economy, critical issues, modules, date, students, consequence, interests, modules, interests, My teaching, research, teaching, relationship, industry’, East, upgrading, regional industrial change, networks, political economy, B., Begg, R., Pastor, M., Bucek, J., Pickles, A., Smith, region’, Mediterranean macro, Euro, integration, dynamics, chains, in)security, Economic, A., Smith, Social Sciences, Humanities, Faculty, Research, Dean, January, submission, Research Excellence Framework preparations, ’s, London, Queen Mary University, geography, School, Head, term, Royal Geographical Society’s Gill Memorial Award, Social Sciences, Academy, member, political economy, uneven development, relations, my interests, studies, human geography, North Africa, Central Europe, socialist East, post, industries, restructuring, in)security, networks, labour, economic geography, My main interests]</t>
+  </si>
+  <si>
+    <t>[diaspora investment, remittances, philanthropy, financial practices, nexus, migration, specific emphasis, transnational migration, issues, postgraduate students, applications, Eds, G.A. Jones, K. Datta, policy, urban research, focus, finance, self, help, self, migrant labour, economy, London, tactics, strategies, J., Wills, J., May, J., Herbert, Y., Evans, C.J., McIlwaine, eds, B., Bless, A., Schlyter, M., Mapetla, globalizing world, generation, Gender, justice, search, organising, implications, impacts, London’s hotels, Stealth”, Subcontracting, J., May, C., McIlwaine, J., Herbert, eds, K., Willis, A., Stenning, A., Smith, London, Ghanaian migrant workers, Travelling neoliberalism, J., Wills, C., McIlwaine, J., Herbert, Y., Evans, migration, Regions, Regional Studies special issue, European Urban, Labour, London’s Migrant Division, McIlwaine C., J., Herbert, Y., Evans, Transforming Work, Special issue, London, immigrant workers, campaigns, living, organisations, faith, role, work, Religion, C., McIlwaine, J., J. May, Herbert, Y., Evans, eds, J. Tomaney, Pose, A Rodriguez, A. Pike, uneven development, Im)migration, J., Herbert, Y., Evans, C., McIlwaine, J., May, A. Jones, N. Coe, Labour, New Migrant Divisions, Y., Evans, J., Herbert, J., May, Eds, F. Witlox, Peter J. Taylor, M. Hoyler, B. Derudder, London,’, migrant labour, global cities, Global workers, J., Wills, J., May, Y., Evans, J., Herbert, C., McIlwaine, labour, London’s migrant division, British state, Global cities, London working, C.J., McIlwaine, J., Herbert, Y., Evans, London, migrant workers, Remittance, migrant labour, finance, May, J., Herbert, Y., Evans, J., Wills, C.J., McIlwaine, London, migrant men, work, migration, narratives, move, Men, J., Wills, J., May, Y., Evans, J., Herbert, C., McIlwaine, economy, London’s, migrant workers, care, care, migrant ethic, J., Wills, J., May, J., Herbert, Y., Evans, C., McIlwaine, £, QMUL, GLA, UNISON, Oxfam, ESRC, research, London, Pluto Press, important collaborative book, basis, audiences, research, role, city, functioning, migrant workers, essential contribution, their transnational connections, London, migrants, lives, work, migrant labour, dominance, labour’, migrant division, formation, processes, range, London, global city, transnational migration, market, nature, collaborative project, transnational migration, My interest, £, QMUL, Geography, School, London Citizens, CASE, ESRC, Friends Provident Foundation, research, Irregular Migrants, Westminster, Parliamentary launch, presentation, DFID Conference, Treasury, Taskforce, talks, HM Treasury’s Financial Inclusion Taskforce, events, series, UK, debates, Chicago, Chicago Press, University, Bristol, Policy Press, book, basis, research, women, migrant men, which financial exclusion, mechanisms, transnational financial practices, position, status, which inter, financial fabric, new migrant communities, key barriers, research, credit, relation, alternative financial practices, services, which migrants, financial services, migrant communities, financial exclusion, levels, extent, financial exclusion, context, London, new migrant communities, diverse everyday financial practices, project, £, Newcastle, University, CURDS, QMUL, Geography, School, Migration, Study, Centre, research, London’s East End, Somali community, study, London, Islamic charitable financial flows, migrant charitable giving, everyday practices, motivations, sources, UK context, re)configuration, practices, institutions, different economic spaces, back’, order, Islamic philanthropy, alternative’ models, research, western economies, formal spaces, perspective, economy’, presumption, recessionary context, post, London, philanthropic networks, collaborative research, content, teaching, life, city, elements, trip, QMUL, Geography, School, class, geography, latter, undergraduate modules, agenda, North, global South, links, global South, immense diversity, interventions, need, places, collection, global South, positioning, students, hybrid geography’ agenda, part, postgraduate programmes, geography, economy, London’s, migrant workers, care, care, migrant ethic, J., Wills, J., May, J., Herbert, Y., Evans, C., McIlwaine, London, migrant workers, work, migration, narratives, move, Men, J., Wills, Y., Evans, J., Herbert, J., May, C.J., McIlwaine, recent publications, work, bodies, findings, key debates, finance’, alternative ways, preference, London, financial fabric, exclusion, new migrant communities, everyday financial practices, work, new’ migrants, London, global cities, transnational migration, work, sensibility, politics, nature, collaborative projects, series, interest, North, global South, transnational migration, my recent research, geographer]</t>
+  </si>
+  <si>
+    <t>[their members, health, Indian Cultural Centre, AJODA, organisations, London, Greenwich, Borough, groups, mental health, health, migration, modules, university, DVD, Leverhulme Trust, recent research, public engagement, projects, number, C.Schmoll, M. Kohli, E. Kofman, Kraler, Vancouver, skilling, immigrant strategies, place, gender, human capital’, problem, A., McLaren, I., Dyck, G., Creese, eds, Mary Ellen Purkis, Kristin Bjornsdottir, Christine Ceci, practices, relations, care, K. Homes, England, I., Dyck, G. Moon, S. McLafferty, T. Brown, geography, gender, sex, order, penis, I., Dyck, M., Sothern, strategies, labour, family, discourse, flexible’ immigrant, A.T., McLaren, I., Dyck, G., Creese, Geographers, Canadian Association, Suzanne Mackenzie Memorial Lecture, making, place, hidden spaces, global relations, everyday’, Feminist geography, I., Dyck, spaces, bodies, management, Meanings, care, site, home, P, McKeever, J., Angus, P, Kontos, I., Dyck, DVD, use, findings, study, medical professionals, patients, workshop, cancer, their awareness, DVD, their opinions, practices, women, interviews, addition, DVD, DVD, practices, DVD, cancer, further investigation, symptoms, their doctors, people, numbers, Hackney, City, area, GP practices, patients, DVD, film, study, minute, Homerton Hospital, response, medical professionals, help, less breast, Black British women, Evidence, cancer, aggressive types, Black women, NHS Breast Screening Programme, entry, age, younger age, cancer, their white counterparts, cancer, black women, Homerton Hospital, Hackney Researchers, City, study, survey, Black women, early presentation, awareness, Hackney, City, study, survey, Black women, early presentation, awareness, section, educational tool, cultural product, film, study, primary output, Indian diaspora, self, Participants, needs, migrants’, professionals, health, makers, organisations, academics, dialogue, place, constitutive, practices, knowledge, articulation, negotiation, understanding, observation, elicitation, photo, film, Visual methodology, international migration, context, practices, knowledge, transformation, cultural production, interdisciplinary study, East London, University, PI Marta Rabikowska, Co, Migrants’ Health Making Practices, Investigation, Film, Culture, Place, Research Project Grant £, Leverhulme Trust, instructor, date, topics, current”, good lecturer, module, Recent comments, feedback, module, contemporary life, content, opportunity, students, classroom, Interaction, styles, learning, forum, videos, exercises, lectures, combination, my own research, module, everyday life, illness, health, interconnections, different ways, contemporary topics, variety, module, health, eds, C.Schmoll, M. Kohli, E. Kofman, Kraler, Vancouver, skilling, immigrant strategies, place, gender, human capital’, problem, A., McLaren, International Editorial Board Member, several scholarly journals, board, visual methodologies, use, methodologies, care, term, site, home, health, home, constitution, re, settlement, migration, gendered experiences, recent studies, my research, central themes, health, home, Migration, geographer, Canada, Simon Fraser University, PhD Social Geography, UK, Manchester, University, Social Anthroplogy, Econ, MA, UK, Manchester, University, Social Anthropology, Econ, BA, Professor Isabel Dyck]</t>
+  </si>
+  <si>
+    <t>[drops, snow, lens, few images, sequences, year, Lochnagar, photographs, sequences, short time, daily pictures, videos, camera, UK, harshest weather, years, melting, ice, cover, snow, duration, extent, other things, midday, everyday, western part, loch, photograph, camera, catchment, automatic camera, August, projects, lake, key site, UK Acid Waters Monitoring Network, part, Scotland, Cairngorms, west, south, loch, Lochnagar, ENSIS, projects, cores, date, means, SCPs, spheroidal carbonaceous particles, use, addition, Upland Water Monitoring Network, UK Acid Waters Monitoring Network, involvement, DEFRA, studies, metal, ENSIS, work, Neil, activities, Environmental Change Research Centre, research, company, ENSIS, Beijing, Shanghai, ERM, Xuezhu, apportionment, temporal patterns, characterisation, central London, pollution, UCL Environmental Radiometric Facility, ECRC, Handong, Scotland, Lochnagar, particular reference, atmospheric deposition, its relationship, systems, storage, Trace, Sept, event, Science Uncovered, Afterhours, Natural History Museum, public, analysis, lake, joys, UCL Geography team, part, activities, success, OPAL data, March, Fleet Pond, Dredging, data, aquatic biota, sediment, OPAL Water Centre bathymetric, Hart District Council’s Fleet Pond Management Plan, first phase, strategy, Hart District Council, Hampshire, Fleet Pond, data, OPAL Water Centre, local level, elimination, Stockholm Convention, HBCD, biota, HBCD, …, ample evidence, data, outputs, OPAL, specific reference, other UK data, Stockholm Convention, criterion, values, UK freshwaters, hexabromocyclododecane, HBCD, bioaccumulation, evidence, data, OPAL water, AEA Technology, Defra, report, retardants, polychlorinated biphenyls, PCBs, mercury, 2008/105/EC, Environmental Quality Standards Directive, European Union, Priority Hazardous Substances, pollutants, new data, England, lakes, research, ’s detailed monitoring, OPAL Water, Persistent Organic Pollutants, Stockholm Convention, consultation, UK contribution, key data, policies, local groups, research, OPAL Water, ethnic groups, domestic abuse, victims, special educational needs, people, deprived communities, opportunity, demographics, science, participation, OPAL Water Centre’s primary objectives, public, interested member, free download, contents, Survey, May, Naturalist’ badge, part, OPAL Water Survey, version, Cub Scouts, conservation, monitoring, ongoing engagement, children, initiatives, development, cases, activities, project, course, UCL staff, events, demonstrations, visits, natural world, interest, science, young people, OPAL Water Centre, schools, packs, packs, distribution, OPAL Water survey, OPAL Water Survey, ponds, lakes, nation, health, country, individuals, groups, national organisations, UCL, Geography, Dept, OPAL Water team, project, years, statutory sectors, community, research, assessment, quality, public participation, aquatic environment, greater understanding, Survey, disadvantaged communities, abilities, ages, people, survey, management, development, Neil, OPAL Water Centre, PI, ability, background, age, which anyone, local environments, study, community, public, scientists, Big Lottery Fund, projects, consortium, mosses, lakes, concentrations, project, pollutants, sources, distribution, countries, sediments, particulates, Europe, fuels, major fossil, particulate emissions, characterisation, FLAME, Eastern European countries, Central, Technology, Science, Cooperation, EU COPERNICUS programme, Sciences, Chinese Academy, London, Royal Society, Liverpool, University, Shanghai, East China Normal University, Wuhan, Geophysics, Geodesy, Institute, joint project, UK, sites, record, deposition, history, Investigation, Regions, Transport, Environment, Department, invertebrates, sediments, toxicity, pollutants, role, Investigation, Rural Affairs, Food, Environment, Department, pollutants, impacts, National Parks, gradients, water, fish, snow, vegetation, sediments, sampling, Project, USDA Forest Service, US Geological Survey, cooperation, Air Resource Division, United States National Park Service, Project, eastern England, lakes, Zn, Ni, Cu, Pb, Cd, Hg, Industrial trends, post, Rural Affairs, Food, Environment, Department, terrestrial biota, range, traps, waters, deposition, Zn, Cu, Ni, Pb, Cd, Hg, measurements, UK Acid Waters Monitoring Network, Freshwater Umbrella Contract, programme, metal, Continuation, Rural Affairs, Food, Environment, Department, future impacts, role, line, base, activities, ITP, data, ITP, Tibetan Plateau Research, Institute, project, Tibetan Plateau, transect, lakes, sediments, pollutants, historical records, Project, Leverhulme Trust, freshwaters, toxic pollutants, impact, programme, original research, associated educational materials, packs, distribution, development, national OPAL Water Survey, projects, OPAL Water Centre, Our role, aims, portfolio, OPAL, projects, statutory sectors, community, partnerships, impoverished areas, natural environment, state, greater understanding, environmentalists, new generation, abilities, ages, innovative educational programmes, outdoors, people, lifestyles, OPAL, Big Lottery Fund, National Lottery, Caribou Mountains, lakes, records, Oil Sands region, lakes, series, input, trace, change, rates, temporal trends, cores, Pb, biodiversity, effects, estuaries, freshwaters, atmosphere, land, transfer, effects, years, nutrient enrichment, responses, processes, abiotic interactions, past inputs, basis, P, N, C, fluxes, concentrations, aquatic pools, project, NERC, atmosphere, freshwater, UK land, P, N, C, interactions, long term, simulation, Analysis, function, structure, connectivity, disease, invasive organisms, metals, acidification, eutrophication, stressors, landscape, UK freshwaters, first general understanding, national scales, landscape, disciplinary studies, series, Britain, ecosystems, biodiversity, interact, stressors, project, NERC, surrogates, their use, persistent organic pollutants, metals, pollutants, records, ash, fly, Relationships, chronological tool, record, ash, fly, use, natural archives, particles, fly, temporal distributions, global scale, UK, marine systems, freshwater, environment, fuels, fossil, combustion, particulates, persistent organics, heavy metals, atmospheric pollutants, Impacts, Europe, many areas, Uganda, Alaska, Tibet, China, Svalbard, Greenland, world, many areas, His research, OPAL Water Centre, OPAL project, Lottery, aquatic science, public participation, rates, sediment, temporal changes, causes, scale, research, Neil, pollutants, surrogate, sediments, tool, deposition, direct measure, SCPs, spheroidal carbonaceous particles, particles, fly, use, remote areas, pollutants, natural archives, sediments, use, research, Neil Rose, cores, lake, chronologies, Its main work, environmental radioactivity, gamma spectrometers, hyper, facility, Geography, Department]</t>
+  </si>
+  <si>
+    <t>[strategies, atmosphere, emissions, greenhouse, coast, nutrient transport, changes, catchment land, organisations, Hampshire Avon catchment, sectors, land, CEFAS, Wessex Water, Environment Agency, Defra, J012106/1, NE, NERC Macronutrients project, critical component, biogeochemistry, stream, projects, river, human activities, impacts, stakeholders, River Chess Assocation, Chiltern Chalk Streams Project, NERC CASE Award, Defra Consortium Award, management, floodplain environments, exchanges, nitrous oxide, methane, dioxide, gas, balance, Norfolk Broads Authority, Defra, RSPB, example, River Chess Association, Stody Estate, support, Defra, projects, CEFAS, ADAS, Norfolk Broads Authority, Wessex Water, RSPB, awards, activities, Significant knowledge, QMUL, Geography, Dr K Spencer, QMUL, Geography, Dr CM Heppell, QMUL, Geography, Prof A Gurnell, Supervisors, accumulation.’ College Studentship, potential problems, restoration, Urban, College Studentship, QMUL, Dr CM Heppell, QMUL, Geog, Prof AJ Baird, bog’ Supervisors, Welsh, variability, Methane, NERC CASE Studentship, Aquaculture Science, Fisheries, Environment, Centre, CASE Partner, QMUL, Geography, Dr CM Heppell, QMUL, SBS, Dr J Gray, Supervisors, organotin, contamination, Conduits, QMUL, Dr CM Heppell, QMUL, Dr Kate Spencer, Co, sediment.’ College studentship, use, release, CATE College Studentship, QMUL, Dr CM Heppell, QMUL, SBS, Dr M Trimmer, QMUL, Geog, Dr G Wharton, fluxes’ Joint Supervisors, restoration, Impacts, QMUL, Dr CM Heppell, QMUL, Dr K Spencer, Supervisors, Greater Thames Estuary.’ College studentship, metal, ’An investigation, LOCAR programme, NERC, Exeter University, Prof D Walling, QMUL, Dr CM Heppell, Supervisors, permeable catchments, contaminants, sediment, transport, Norfolk Broads Authority, CASE, UCL, ENSIS, QMUL, Dr CM Heppell, UCL, Dr C Sayer, Supervisors, Norfolk Broads, aquatic vegetation, loss, Toxicity, Awarded, Geography, Department, Dr Tim Davie, January, supervision, QMUL, Dr CM Heppell, QMUL, Dr G Wharton, Supervisors, imagery, Synthetic Aperture Radar, cover, moisture, Detection, Idaho, Dr Tonina, Associate Partner, QMUL, Dr CM Heppell, Trento, Bellin, Prof, agricultural floodplains’ Supervisors, hydrological connectivity, Nutrient dynamics, Awarded, QMUL, Dr L Belyea, Leeds, University, Prof AJ Baird, QMUL, Dr CM Heppell, Supervisors, College Studentship, fens.’ NERC, emissions, greenhouse, chemistry, regime, impact, QMUL, Dr M Trimmer, QMUL, Dr C Heppell, Supervisors, hydrological regimes?’ NERC Tied Studentship Award, benthic respiration, carbon, Which sources, Norfolk Broads Authority, Dr A Kelly, Case Partner, QMUL, Dr CM Heppell, QMUL, Dr L Belyea, Supervisors, fens?’ NERC Open Case Studentship, fluxes, greenhouse, storage, rise, sea, shifts, soil, isoproturon, herbicide, transport, hydrological pathways, influence, Haria AH, Williams RJ, Burt TP, intensities, aggregates, herbicide, conservative tracer, release, investigation, Johnson AC, Williams RJ, Burt TP, data, methods, source, robustness, analysis, Slapton Higher Ley, inputs, Foster IDL, Walden J, Burt TP, Pesticide Loss, Part, soil, reconstructed profile, loss, hydrology, surface, effect, experiment, Kilfeather AA, Bidwell VJ, Chapman AS, Hydrological Processes, Part, soil, reconstructed profile, loss, hydrology, surface, effect, experiment, Kilfeather AA, Forrester G, Bidwell VJ, Chapman AS, U.K., Medway estuary, France, Seine estuary, marshes, Spartina sp, accumulation, distribution, Ullyott S, Shell D, Charman R, Carey PJ, UK, Dorset, Piddle Catchments, Frome, invertebrates, suspension, macrophytes, fine sediments, flows, Engineering, Warren L, Sanders IA, Trimmer M, accumulation, patterns, cover, seasonal changes, effect, permeable streams, interactions, water, Plant, Wotton RS, UK, Medway estuary, France, Seine estuary, systems, marsh, accumulation, transfer, Source, Tuckett, De Wever S, Ouddane B, agricultural practices, potential implications, streams, methane, Emission, Trimmer M, Flowers EJ, Hildrew A, Wharton G, Cotton JA, reaches, lowland, shallow hyporheic, storage, SE, Roberts, JAB, Bass, JAC, Cotton, G, Wharton, zone, processes, disciplinary perspectives, Inter, PJ Wood, AL Robertson, G Pinay, R Pickup, D Kaeser, floodplain, temperate re, DNRA, ammonium, reduction, dissimilatory, Denitrification, Wharton G, Trimmer M, sediments, complex organic substrates, their response, reduction, key pathways, Characterisation, Zhang H, Binley A, Heathwaite AL, Ullah S, Sgouridis F, new directions, play, state, cycling, carbon, River, Durocher G, Yvon, Stahl H, Lansdown K, Hildrew AG, DET, Thin Films, Diffusive Equilibrium, riverbed, high spatial resolution, sensitive solutes, situ measurement, Trimmer M, interface, surface, groundwater, fluxes, spatial variability, Zhang H, Trimmer M, Lansdown L, Byrne P, zone, reactive transport, stage, Control, Keenan P, Trimmer M, Zhang H, Lansdown K, removal, initial response, Chalk river, floodplain hydrology, River, Axmacher JC, Sayer CD, reach, streambed, fluxes, water, redox, spatial patterns, Zhang H, Trimmer M, Keenan P, Lansdown K, Ullah S, Byrne P, Binley A, Heathwaite AL, river, groundwater, sediments, cycling, emergent vegetation, Influence, Trimmer M, Binley A, Lansdown A, bed, consumption, nitrate production, river, measurement, scale, Trimmer M, Zhang H, Binley A, Heathwaite AL, Ullah S, Dossena M, rivers, London, contaminants, fine sediment, retention, vegetation, role, Spencer KL, streams, interface, surface, groundwater, transport, microforms, Impact, Mao X, Lansdown K, river, groundwater, transformation, scale, exchange, suppression, evidence, thin films, Diffusive equilibrium, Trimmer M, Lansdown K, sediments, attenuation, controls, rates, transport, interplay, Zhang H, Byrne P, Heathwaite AL, Binley A, Trimmer M, Journal, eastern England, shallow lakes, antifoulant copper, records, intensity, enrichment, Davy AJ, Rose NL, Appleby PG, Lambert SJ, terrestrial interface, freshwater, organotin transfer, free meal, such thing, Grey J, F, Liu C, Sheahan D, quality, processes, Hampshire Avon, dynamics, flow, Trimmer M., Purdie DA, Lansdown K, publication, floodplain hydrodynamics, impacts, river, hydraulic modelling, press, Axmacher JC, Sayer CD, publication, geologies, oxidation, press, Trimmer M, Olde L, Binley A, DET, Thin Films, Diffusive Equilibrium, riverbed, high spatial resolution, sensitive solutes, situ measurement, Trimmer M, interface, surface, groundwater, fluxes, spatial variability, press, Zhang H, Trimmer M, Lansdown K, Byrne P, connectivity, variations, transformations, transport, rate, hot events, hotspots, sensitive biogeochemical, zone, spatial heterogeneity, following objectives, project, scale, River Leith, hyporheic zone, N transport, controls, hydrogeophysics, physical hydrology, multidisciplinary approach, project, UK, Cumbria, river, groundwater, hyporheic zone, transformations, transport, chemical controls, project, biogeochemical processes, zones, hydrologic exchanges, extent, nature, further repercussions, change, temperature, precipitation, changes, scale, river, transformations, transport, its influence, baseflow conditions, rivers, zones, water, groundwater, interaction, Wales, England, systems, lowland, C balance, GHG fluxes, new comprehensive assessment, study, systems, studies, data, bogs, UK peatlands, fluxes, GHG, gas, C, most measurements, date, pressure, land, high levels, C, carbon, large amounts, Wales, England, area, small proportion, soils, Lowland, website, programme, Further information, Macronutrient Cycles thematic programme, part, UK Natural Environment Research Council, research, preliminary findings, summary document, river, sandstone, chalk, clay, different geological settings, different macronutrients, movement, Wiltshire, River Avon, different tributaries, macronutrients, movement, Our research, coast, phosphorus, nitrogen, transport, turn, rivers, landscape, organic carbon, lateral exchange, dynamics, flux, project, something, module, Kate Heppell, article, short communication’, report, experiments, intensive 4-day, visit, river?’, patches, dioxide, production, What, question, students, Level, example, experience, active student, teaching, laboratory, hands, discussion, contribution, emphasis, informal style, Lectures, new directions, play, state, cycling, carbon, River, Durocher G, Yvon, Stahl H, Lansdown K, Hildrew AG, agricultural practices, potential implications, streams, methane, Emission, Trimmer M, Flowers EJ, Hildrew A, Wharton G, Cotton JA, sediments, complex organic substrates, their response, reduction, key pathways, Characterisation, Zhang H, Binley A, Heathwaite AL, Ullah S, Sgouridis F, floodplain, temperate re, DNRA, ammonium, reduction, dissimilatory, Denitrification, Wharton G, Trimmer M, reaches, lowland, shallow hyporheic, storage, SE, Roberts, JAB, Bass, JAC, Cotton, G, Wharton, reach, streambed, fluxes, water, redox, spatial patterns, Zhang H, Trimmer M, Keenan P, Lansdown K, Ullah S, Byrne P, Binley A, Heathwaite AL, bed, consumption, nitrate production, river, measurement, scale, Trimmer M, Zhang H, Binley A, Heathwaite AL, Ullah S, Dossena M, sediments, attenuation, controls, rates, transport, interplay, Zhang H, Byrne P, Heathwaite AL, Binley A, Trimmer M, Heppell, river, storage, timing, magnitude, extent, significant questions, My research, atmosphere, water, land, interface, exchanges, catchments, lowland, pollutants, contaminants, transformation, transport, My research]</t>
+  </si>
+  <si>
+    <t>[world, governmental bodies, groups, number, International Energy Agency, World Bank, European Union, policies, His work, chapters, articles, books, peer, record, agencies, international charities, number, councils, UK, European Union, funding, projects, total, Stefan Bouzarovski, Gdansk, University, Economic Geography, Professorship, addition, Erkner, Turin, Brisbane, Stockholm, Berlin, Bruges, Prague, appointments, Christ Church College, Junior Research Fellow, College, St Hugh, Larkinson Scholar, Oxford, University, Scatcherd European scholarships, prestigious Dulverton, Stefan Bouzarovski, volume, co, topic, territory, space, conceptualizing, innovative methods, desire, his work, IB Tauris, his monograph, subject, areas, residential change, practices, household, relationship, project, work, European countries, deprivation, spatial patterns, forces, research, his path, domains, cities, energy, broad thematic areas, intersection, His professional activities, Manchester, University]</t>
+  </si>
+  <si>
+    <t>[Western Ontario, University, support, College studentship, studentship, sites, cycling, biogeochemical controls, your idea, brief summary, CV, area, MSc, PhD, Canada, northwestern Ontario, ombrogenous peatland, gases, isotopic composition, H., Dinel, S.P., Mathur, climatic gradient, peatlands, contrast, M.J., Wassen, P.C., De Ruiter, M.B., Nilsson, models, slab, bucket, pitfalls, rates, heterogeneity, methane, fluxes, peatland, Upscaling, P., Morris, Defra, Funding, services, emissions, greenhouse, peatlands, role, peats, management, decisions, managers, local land, which national policymakers, base, results, activities, range, type, factors, Results, Wales, England, peats, budgets, greenhouse, first full carbon, Leeds, University, project, systems, emissions, greenhouse, direct measurements, atmosphere, gases, large quantities, management, human disturbance, Lowland peatlands, Broads Authority, NERC Open CASE studentship, Funding, lands, value, gases, emission, carbon, amount, rise, sea, Broads, managers, conservation, tools, decision, new knowledge, project, overarching aim, habitats, sequestration, emissions, greenhouse, environmental changes, rise, sea, saline influence, flooding, Broads, areas, services, provision, conservation, way, change, organisations, biggest challenges, interactions, surface, spatial heterogeneity, role, focusses, exchanges, dynamics, hydrological processes, interactions, studies, Field, systems, behaviour, ecohydrological feedbacks, my aim, ongoing research, steady environmental forcing, state, abrupt transitions, little change, long periods, peatlands, gradual change, change, their response, system, strong feedback, Peatlands, postgraduate modules, past few years, climatic gradient, peatlands, contrast, M.J., Wassen, P.C., De Ruiter, M.B., Nilsson, temporal scales, dynamics, change, external drivers, internal processes, key questions, My research, peatlands, empirical work, cases, spatiotemporal dynamics, biogeochemical cycling, interests, UK, London, University, Ecology, PhD, Canada, Waterloo University, Earth Science, MSc, Canada, Carleton University, Geography, Biology, BSc, roving educational background, disciplinary interests, My cross, Earth surface, physical processes]</t>
+  </si>
+  <si>
+    <t>[problems, river, solutions, causes, dynamics, character, river, A.M. Indicators, Gurnell, B., Belletti, M., González Del Tánago, behaviour, understanding, hierarchical framework, L. Ziliani, C. Weissteiner, N. Surian, C. Percopo, M. Palma, M.T. O’Hare, T. Okruszko, L. Nardi, J.O. Mountford, Mosselman, E, V. Martínez Fernández, P. Marcinkowski, A. Latapie, B. Lastoria, M. Klösch, A. Henshaw, D. Hendriks, H. Habersack, I.D.M. Gunn, R.C. Grabowski, D. García De Jalón, L. Demarchi, F. Comiti, B. Camenen, M. Bussettini, T. Buijse, G. Braca, B. Blamauer, S. Bizzi, B. Belletti, M. González Del Tánago, M. Rinaldi, A.M., southern England Gurnell, Frome catchment, Northwest European catchments, lowland, transfer, delivery, A.M. Diagnosing problems, Gurnell, R.C., Grabowski, terrestrial interfaces, water, geomorphic constraints, plants, R. Engineer, Walcker, E., Tabacchi, J., Steiger, A.J., Stallins, L., Lambs, D., Kim, F., Julien, B., Hortobágyi, A.M., Gurnell, E., González, V., Gómez, Garófano, F., Fromard, T., Bouma, T., Balke, A., Baas, D., Corenblit, morphology, wood, vegetation, combined effect, Physical modelling, M., Tal, F., Comiti, L., Mao, A.M., Gurnell, M., Welber, W., Bertoldi, morphology, bed, lateral confinement, effect, A.M., Gurnell, A.J., Henshaw, W., Bertoldi, A.G., Garcia Lugo, corridors, interactions, vegetation, conceptual model, M. Szewczyk, M.T., O’Hare, R.C. Grabowski, M. González Del Tánago, García De Jalón, D., Corenblit, D., Corenblit, A.M., Gurnell, Water Framework Directive investigations, Urban River Survey, potential contribution, rivers, measures, hydromorphology, Assessment, A.M., Gurnell, H., Moggridge, L., Shuker, river, thread, propagules, organic matter, fine sediment, large wood, role, G.L., Harvey, A.M., Gurnell, N.A., Osei, rivers, London, contaminants, fine sediment, retention, vegetation, role, Spencer K.L., Heppell C.M., Gurnell AM, Gibbs HM, historical sources, Italy, Tagliamento River, surfaces, sites, development, Gurnell A.M., Rillig M.C., Mardhiah U, NE Italy, Tagliamento River, decades, aggregate soil, roots, fungi, time, matter, Rillig M.C., Gurnell A, Caruso T, Mardhiah U, Mediterranean environment, torrents, diversity, vegetation, influence, Check, S.M., Zimbone, D.A., Zema, V., Tamburino, Gurnell A.M., C., Fayos, Boix, G., Bombino, special focus, fluvial biogeomorphological succession, poplars, cycle, O., Voldoire, VautierF., E., Roussel, S., Larrue, L., Lambs, F., Julien, A.M., Gurnell, E., González, J., Dousseau, J., Darrozes, G., Charrier, J., Steiger, D., Corenblit, emergent macrophyte, impact, geomorphological context, T.M.R., Liffen, P., Scarlett, J.M., O’Hare, M.T., O’Hare, A.M., Gurnell, method, ingrowth, emergent macrophyte, biomass, M.T., O’Hare, A.M., Gurnell, T., Liffen, analysis, Landsat TM, Italy, Fiume Tagliamento, dynamics, N.A., Drake, W., Bertoldi, A.M., Gurnell, A.J., Henshaw, banks, Impatiens glandulifera, experiments, species, Management, J., Gurnell, A.M., Gurnell, C., Cockel, sources, ﬁeld, combination, river, trees, fate, retention, Wood recruitment, M., Welber, A.M., Gurnell, W., Bertoldi, sources, analysis, Mediterranean river, riparian corridor, changes, decades, F., Beltrán, Segura, J., Estornell, A., Gurnell, W., Bertoldi, Capel, F. Martínez, V., Gómez, Garófano, engineering, river, their association, urban rivers, biophysical structure, Gradients, A., Boitsidis, M., Lee, L., Shuker, A.M., Gurnell, Experimental observations, Part, related timescales, ﬂoods, Biomass selection, A., Gurnell, C., Camporeale, R., Francis, D., Wüthrich, S., McLelland, Z., Jiang, E., Perucca, B., Crouzy, P., Molnar, P., Perona, fluvial landforms, plants, hydrological processes, roles, channels, D., Corenblit, W., Bertoldi, A.M., Gurnell, engineer, Influence, C., McDonald, T., Liffen, P.M., Scarlett, A.M., Gurnell, M.T., O’Hare, J., O’Hare, rural areas, studies, previous propagule, comparison, UK, Greater London, River Brent, bank, urban riparian soil, composition, investigation, A.M., Gurnell, C.P., Cockel, restoration, discussions, urban rivers, biophysical condition, simple tools, M, Raco, A., Gurnell, L., Shuker, current understandings, concepts, review, landforms, processes, Earth, biota, geomorpholohgy, Feedbacks, J., Steiger, R.J., Naiman, F., Julien, A.M., Gurnell, R.A., Francis, S., Delmotte, J., Darrozes, G., Bornette, A., Baas, D., Corenbilt, rivers, margins, Sparganium erectum, flow, potential, M.T., O’Hare, A., Simon, T., Liffen, A.M., Gurnell, R.E., Thomas, N., Bankhead, Pollen, measurements, photographs, colour, airborne lidar, combined analysis, results, river, development, topographic signature, N.A., Drake, A.M., Gurnell, W., Bertoldi, data, cover, temporal dynamics, braided river, vegetation, flows, Interactions, A.M., Gurnell, N.A., Drake, W., Bertoldi, British Rivers, dynamics, flow, macrophytes, distribution, Physical constraints, C., Laize, P.M., Scarlett, M.J., Dunbar, A.M., Gurnell, M.T., O’Hare, J.M., O’Hare, diverse outcomes, cost, such approaches, restoration, self, interventions, active restoration, restore, which rivers, degree, insights, courses, assessments, pre-, interventions, rivers, response, channel, morphodynamics, vegetation, interactions, projects, restoration, themes, Research, website, surveys, scores, maps, technique, data, methodology, URS, survey, Gurnell et al, urban rivers, biophysical structure, interpretable gradients, surveys, data, research, context, their river, such assessments, urban river, biophysical properties, tools, set, assistants, students, last decade, network, regimes, sediment, quality, their flow, urban rivers, morphological characteristics, Engineering, Gurnell et al, species, sites, broad differences, banks, bed, intermediate stores, their viability, fluvial systems, sediment, similar way, propagules, Gurnell et al, its margins, channel, important interface, planform, different size, rivers, pioneer’ landforms, characteristic, development, plants, Gurnell, rivers, migration, morphology, main control, aquatic plants, Bertoldi et al, km, rivers, morphology, style, river, changes, riparian trees, rates, vigour, changes, research, scales, landform, plant, riparian plants, influence, new knowledge, wide range, mid-1970s, topic, research, vegetation, morphodynamics, primary drivers, sediment, water, flows, management, river, contributions, Queen Elizabeth II, Nation’, life, Pioneer, emergent macrophyte, impact, geomorphological context, T.M.R., Liffen, P., Scarlett, J.M., O’Hare, M.T., O’Hare, A.M., Gurnell, method, ingrowth, emergent macrophyte, biomass, M.T., O’Hare, A.M., Gurnell, T., Liffen, analysis, Landsat TM, Italy, Fiume Tagliamento, dynamics, N.A., Drake, W., Bertoldi, A.M., Gurnell, A.J., Henshaw, special focus, fluvial biogeomorphological succession, poplars, cycle, O., Voldoire, Vautier F., E., Roussel, S., Larrue, L., Lambs, F., Julien, A.M., Gurnell, E., González, J., Dousseau, J., Darrozes, G., Charrier, J., Steiger, D., Corenblit, historical sources, Italy, Tagliamento River, surfaces, sites, development, Gurnell A.M., Rillig M.C., Mardhiah U, rivers, London, contaminants, fine sediment, retention, vegetation, role, Spencer K.L., Heppell CM, Gurnell A.M., Gibbs H.M., morphology, wood, vegetation, combined effect, Physical modelling, M., Tal, F., Comiti, L., Mao, A.M., Gurnell, M., Welber, W., Bertoldi, morphology, bed, lateral confinement, effect, A.M., Gurnell, A.J., Henshaw, W., Bertoldi, A.G., Garcia Lugo, corridors, interactions, vegetation, conceptual model, M. Szewczyk, M.T., O’Hare, R.C. Grabowski, M. González Del Tánago, García De Jalón, D., Corenblit, D., Corenblit, A.M., Gurnell, terrestrial interfaces, water, geomorphic constraints, plants, R. Engineer, Walcker, E., Tabacchi, J., Steiger, A.J., Stallins, L., Lambs, D., Kim, F., Julien, B., Hortobágyi, A.M., Gurnell, E., González, V., Gómez, Garófano, F., Fromard, T., Bouma, T., Balke, A., Baas, D., Corenblit, river, science, urban rivers, hydroecological characteristics, fluvial processes, vegetation, interactions, themes, My current research, their margins, rivers, sustainable management, morphodynamics, particular emphasis, ecology, geomorphology, hydrology, interface, interests]</t>
+  </si>
+  <si>
+    <t>[glacial sediments, analysis, micromorphology, use, instruction, UK, France, Iceland, Sweden, Poland, Germany, BGS Edinburgh, who, early career, students, years, Southampton, BUFI S155)/ University, BGS British Universities Funding Initiative, Emplacement, Transport, Detachment, Methods, Glacitectonic Rafting, Hirsch, David Vaughan, London, University, BUFI S109)/Queen Mary, BGS British Universities Funding Initiative, UK, proglacial deposits, Polyphase deformation, Amanda Ferguson, London, University, BUFI S228)/Queen Mary, BGS British Universities Funding Initiative, southern North Sea, Dogger Bank area, sequence, structure, Architecture, Astrid Ruiter, Sweden, Lund, University, Icelandic Research Fund, RANNIS, glaciotectonics, analysis, multi, scale, western Iceland, lower Borgarfjörður, dynamics, Allerød, Bølling, Thorbjörg Sigfúsdóttir, p, Vol, Quaternary Science Reviews, deformation, style, water, influence, fabrics, folds, faults, deformed sediments, Microstructures, N.R., Golledge, C.A., Auton, J.W., Merritt, E.R., Phillips, Vol, Quaternary Science, Journal, diamictons, orientations, inheritance, implications, bedrock, glacially, Microtextual analysis, C.A., Auton, E.R., Phillips, p, Vol, Sedimentary Geology, dynamics, line, grounding, implications, western Scottish Highlands, De Geer moraines, architecture, Sedimentology, E.R., Phillips, N.R., Golledge, p, Vol, Quaternary Science Reviews, eastern England, sediments, Middle Pleistocene, model, hybrid mosaic, subglacial shear zone, deformation, E.R., Phillips, J.R., Lee, p, Vol, Quaternary Science Reviews, NE Scotland, shire, Inverness, Clava, shelly marine sediments, rafting, escape, multiphase water, Evidence, J., Merritt, E.R., Phillips, Quaternary Science Reviews, UK, Norfolk, evidence, sheet, Pleistocene, Mid, margins, syntectonic sedimentation, subglacial deformation, Progressive proglacial, H. F., Burke, J.R., Lee, E.R., Phillips, Boreas, western North Sea, coastal hydrographic change, response, offshore Eastern Scotland, Holocene shoreface, M.C., Akhurst, I.P., Wilkinson, E.R., Phillips, N.R., Golledge, M.S., Stoker, Boreas, England, County Durham, Whitburn Bay, Last Glacial Maximum, dynamics, Interlobate ice, D.A., Teasdale, E.R., Phillips, J.B., Riding, D.R., Bridgland, C., Ó Cofaigh, D.H., Roberts, B.J., Davis, Boreas, UK, Norfolk, Middle Pleistocene, example, glaciotectonic rafts, formation, model, Imbricate thrust, J.R., Lee, E.R., Phillips, H.F., Burke, Geology, Scottish Journal, Scottish Caledonides, Midland Valley terrane, Wenlock sandstones, Llandovery, provenance, constraints, Zircon, M., Horstwood, V., Pashley, P., Stone, R.A., Smith, E.R., Phillips, Sedimentary Geology, Late Devensian Irish Sea Ice Stream, Evidence, geomorphological processes, distribution, Bedrock controls, D., Doce, Diego Diaz, J., Everest, E.R., Phillips, Quaternary Science Reviews, glacial sediments, microfabrics, analysis, identification, microstructural mapping’ methodology, A., Ferguson, J.J.M., Meer, van, E.R., Phillips, Elsevier, Netherlands, Amsterdam, Quaternary Science, Developments, editors, P.D., Hughes, P.L., Gibbard, J., Ehlers, British Ice Sheet, development, Implications, Middle Pleistocene, British Isles, Glacial History, I., Candy, R.W., Barendregt, E., Phillips, J.B., Riding, B.S.P., Moorlock, R.J.O., Hamblin, J., Rose, J.R., Lee, Quaternary Science Reviews, UK, Norfolk, Middle Pleistocene permafrost, subglacial deformation, evidence, Sand intraclasts, C., Whiteman, J.R., Lee, J., Murton, E.R, Phillips, R., Waller, Boreas, hydrofracturing, fluid flow, deformation, subglacial multiphase sedimentation, Micromorphological evidence, H., Reeves, J., Everest, E., Phillips, Verlag Berlin Heidelberg, Springer, Earth Sciences, Frontiers, Analogues, Arabian Plate, Sedimentary Basins, Lithosphere Dynamics, Eds, S, Lokier, R.A., Ellison, F., Roure, K., Al Hosani, United Arab Emirates, Northern Oman, Neotethys Ocean, western margin, south, tectonic evolution, Cretaceous depositional, Jurassic, R.A., Ellison, C.N., Waters, E.R., Phillips, contribution, Geologists’ Association, Proceedings, North Norfolk, Anglian, Middle Pleistocene, glacitectonism, its effect, system, Development, J.R., Lee, E., Phillips, Geologists Association, Proceedings, Geologists’ Association, Proceedings, UK, North Wales, Anglesey, example, bedrock, subsequent glacitectonic deformation, Periglacial disruption, L., Hughes, R., Kendall, J.B., Riding, J.R., Lee, E., Phillips, Geologists Association, Proceedings, coupling, ice, rheology, dynamics, key, Glacitectonics, E., Phillips, J.R., Lee, Geologists Association, Proceedings, UK, northern Norfolk, Middle Pleistocene British Ice Sheet, development, terminal, marginal retreat, ice, model, polyphase, R.S., Lawley, M., Warren, S.M., Pawley, H.M., Jordan, J., Rose, S.J., Booth, E., Phillips, J.R., Lee, Earth Surface, Geophysical Research, Journal, SE Iceland, Falljökull, Virkisjökull, glacier, retreat, progressive collapse, moulin development, block, Fracturing, L., Jones, A., Finlayson, E.R., Phillips, Quaternary Science Reviews, glaciers, sliding, deposition, liquefaction, Micromorphological evidence, J.J.M., Meer, van, E., Lipka, E.R., Phillips, Geologists Association, Proceedings, Geologists’ Association, Proceedings, Clyde, Firth, rafting, flow, Late Devensian, Middle Devensian climatic changes, evidence, Scotland, Ayrshire, Late Pleistocene Afton Lodge Clay Formation, M.T., Dean, A., Finlayson, R.A., Smith, E.R., Phillips, J.B., Riding, I.P., Wilkinson, M.C., Akhurst, J.W., Merritt, Geologists’ Association, Proceedings, NW Wales, Anglesey, example, formation, system, development, response, L., Hughes, E., Phillips, doi:10.1002/2014JF003165, Earth Surface, Geophysical Research, Journal, SE Iceland, Falljökull, evidence, rapid retreat, length, dynamic reduction, Structural evolution, J., Jones, J., Everest, T., Bradwell, A., Finlayson, E., Phillips, Quaternary Science Reviews, UK, Wales, Anglesey, example, its hydrogeological implications, system, subglacial, structural evolution, Sedimentary, L., Hughes, E., Phillips, O.J.W., Wakefield, J.R., Lee, DOI, Quaternary Science, Journal, central North Sea, Central Graben region, Aberdeen Ground Formation, thrusting, Pleistocene, Mid, E., Phillips, D., Hirsch, Vaughan, masses, forward motion, development, marginal processes, ice, glaciers, internal 3D structural architecture, structural glaciology, field, my scientific research, development, glacitectonism, role, distribution, controls, sheets, glaciers, forward motion, its control, deformation, subglacial processes, subglacial deformation, ice, response, glacial sediments, complex signatures, sediments, ice, transportation, melt water, role, topics, glaciology, Quaternary geology, branch, few experts, deformation, glacier, structures, complex array, tool, micromorphology, who, few scientists, high dynamic system, meltwater, role, subglacial deformation, processes, our understanding, research, primary aim, glacier motion, dynamics, ice, subglacial processes, influence, sequences, structural analysis, My research, Vol, Sedimentary Geology, UK, central Scotland, Loch Lomond readvance, margin, oscillating, Polyphase deformation, C.A., Auton, D.J.A., Evans, E.R., Phillips, Vol, Quaternary Science Reviews, emplacement, rotational deformation, liquefaction, hydrofracturing, basal shearing, evidence, deposit, debris, Micromorphology, E.R., Phillips, p, Vol, Science Reviews, Earth, classification, sedimentary characteristics, formation, Subglacial, C.A., Auton, J.F., Hiemstra, E.R., Phillips, D.J., Evans, p, Vol, Quaternary Science Reviews, deformation, style, water, influence, fabrics, folds, faults, deformed sediments, Microstructures, N.R., Golledge, C.A., Auton, J.W., Merritt, E.R., Phillips, p, Vol, Quaternary Science Reviews, NE Scotland, shire, Inverness, Clava, shelly marine sediments, rafting, escape, multiphase water, Evidence, J., Merritt, E.R., Phillips, Quaternary Science Reviews, UK, Norfolk, evidence, sheet, Pleistocene, Mid, margins, syntectonic sedimentation, subglacial deformation, Progressive proglacial, H. F., Burke, J.R., Lee, E.R., Phillips, Boreas, UK, Norfolk, Middle Pleistocene, example, glaciotectonic rafts, formation, model, Imbricate thrust, J.R., Lee, E.R., Phillips, H.F., Burke, Quaternary Science Reviews, glacial sediments, microfabrics, analysis, identification, microstructural mapping’ methodology, A., Ferguson, J.J.M., Meer, van, E.R., Phillips, Quaternary Science Reviews, UK, Norfolk, Middle Pleistocene permafrost, subglacial deformation, evidence, Sand intraclasts, C., Whiteman, J.R., Lee, J., Murton, E.R, Phillips, R., Waller, Boreas, hydrofracturing, fluid flow, deformation, subglacial multiphase sedimentation, Micromorphological evidence, H., Reeves, J., Everest, E., Phillips, Earth Surface, Geophysical Research, Journal, SE Iceland, Falljökull, Virkisjökull, glacier, retreat, progressive collapse, moulin development, block, Fracturing, L., Jones, A., Finlayson, E.R., Phillips, Quaternary Science Reviews, glaciers, sliding, deposition, liquefaction, Micromorphological evidence, J.J.M., Meer, van, E., Lipka, E.R., Phillips, doi:10.1002/2014JF003165, Earth Surface, Geophysical Research, Journal, SE Iceland, Falljökull, evidence, rapid retreat, length, dynamic reduction, Structural evolution, J., Jones, J., Everest, T., Bradwell, A., Finlayson, E., Phillips, London, Queen Mary University, Geography, Department, Honorary Professor position, glacier motion, dynamics, ice, subglacial deformation, control, deformed glacial sediments, microstructural analysis, macro-, expertise, Edinburgh, BGS office, Research Scientist post, Band, Individual Merit Promotion, Saudi Arabia, Oman, e.g. United Arab Emirates, Middle East, Egypt, Botswana, Africa, e.g. Canada, North America, Germany, e.g. Poland, Europe, Iceland, UK landmass, projects, variety, terranes, analysis, microstructures, extensive experience, commercial programmes, BGS’ multidisciplinary research, scientific input, time, My primary role, Petrology Group, Mineralogy, member, August, BGS, British Geological Survey]</t>
+  </si>
+  <si>
+    <t>[studies, modern France, Migrants, ed, P. E. Ogden, demographic change, migration, France, West Indians, P. E. Ogden, I., Butcher, France, French Caribbean, mobility, circulation, emigration, Questions, P. E. Ogden, S. A., France Condon, Wales, England, households, structure, pattern, C. Hill, P. E. Ogden, R., Hall, eds, R. Potter, D. Conway, French Caribbean, state, Housing, P. E. Ogden, S. A., Condon, longitudinales, des, recensements, Grande Bretagne, France, migrations, seules, R. Hall, P. E., Ogden, ed, S. McRae, France, Wales, England, households, New ways, C. Hill, P. E. Ogden, R., Hall, principal French cities, rise, reurbanisation, Households, R. Hall, P. E., Ogden, population, trends, Inner London, livingalone, rise, P. E. Ogden, R., Hall, France, urban population, forms, second demographic traansition, R. Hall, P. E., Ogden, Paris, structure, demographic change, small household, rise, F. Schnoebelen, P. E. Ogden, European cities, reurbanisation, emergent landscapes, urban populations, A. Steinfuhrer, S. Kabisch, A. Haase, R. Hall, P. E. Ogden, S. Buzar, European setting, residential change, demographic dimension, reurbanisation, Emergent spaces, P. E. Ogden, R. Hall, S. Bouzarovski, A. Steinfuhrer, S. Kabisch, A. Haase, reurbanisation, demographies, Spain, Leon, residential preferences, trends, Household structure, P. E. Ogden, S. Kabisch, A. Steinfuhrer, R. Hall, A. Haase, S. Buzar, Haase et al, residential patterns, demographic change, European city, Living, Ogden, P, eds, P Lane, M Fraser, London College, experience, French connection, role, partnerships, Andrew Hussey, Philip Ogden, change, project, ESRC, part, area, Qualitative research, new residential population, stereotypical view, other aspects, Results, population, censuses, data, our results, base, agents, architects, developers, area, new residential building, character, material, variety, properties, residents, Limehouse, Wapping, LDDC area, westernmost part, survey, materials, sorts, work, part, international travel, travel, pattern, work, place, income, occupation, children, number, status, history, population, geographical origins, particular interest, questions, new population, economic characteristics, aim, gentrification, their consequences, city, economic structure, changes, context, project, other European cities, wider changes, light, London experience, Brussels, Paris, colleagues, cooperation, Funding, new residents, nature, arrival, process, aspect, QM, Research, international prominence, area, academic research, urgent need, failure, success, evaluation, change, process, breakneck speed, schemes, massive office, Docklands, landscape, development, nature, pace, dramatic change, LDDC, London Docklands Development Corporation, activity, urban regeneration, schemes, number, prosperity, area, social conditions, unemployment, decline, population, industries, associated manufacturing, activities, gradual erosion, decades, revolutionary proportions, change, London Docklands, 1990s, 1980s, 1990s, 1980s, policy, context, Caribbean, migration, project, latter phase, service, Paris, particular reference, Caribbean migrants, Afro, employment, residence, patterns, policy, private agencies, role, migration, process, project, 1980s, 1970s, foreign nationals, controls, migrant groups, Caribbean, thirds, whom, mer, territoires, départements, people, census, means, foreign immigrant population, economic characteristics, socio, part, their migration, organized nature, mer, départements, islands, their French nationality, who, Guadeloupe, Martinique, French Caribbean islands, migrants, distinctive group, project, Europe, sources, wide variety, fact, immigrants, North African origin, population, controversy, comment, much research, economy, particular sectors, millions, foreign nationality, population, 1980s, political importance, issue, Second World War, France, immigration, context, present project, Europe, trends, interests, department, part, project, other European countries, French cities, change, household, collaborative research, principal theme, Toulouse, Lyons, Lille, Paris, Universities, Curtis, Hall, Ogden, QM, Health Research Group, Population Dynamics, researchers, Paris, Affaires Etrangères, Ministère, British Council, network, twentieth century, policy, evolution, their political consequences, 1990s, l980s, trends, France, Work, department, European context, further work, much scope, field, theses, reports, publications, number, Recent years, Europe, other parts, France, trends, population, interest, Queen Mary, department, reurbanisation, changes, Slovakia, Spain, Italy, Slovenia, Germany, European partners, QM, Stefan Buzhar, Ray Hall, project, further phase, French cities, changes, Philip Ogden, Nuffield Foundation grant, qualitative methodology, research, France, Echantillon Démographique Permanent, Wales, England, Longitudinal Study, longitudinal data, censuses, Principal sources, scales, migration, associated patterns, households, rise, other European countries, France, UK, British Academy, EU, ESRC, QM, Dr Ray Hall, project, decades, household, types, numbers, Changes, French cities, examples, comparative dimension, Czech Republic, Poland, Leipzig, colleagues, project, East Central European cities, demographic change, spatial consequences, socio, programme, part, Volkswagen Foundation, small grant, forms, growth, change, European Cities, change, project, Philip Ogden, Ray Hall, France, urban population, forms, second demographic traansition, R. Hall, P. E., Ogden, European cities, reurbanisation, emergent landscapes, urban populations, A. Steinfuhrer, S. Kabisch, A. Haase, R. Hall, P. E. Ogden, S. Buzar, European setting, residential change, demographic dimension, reurbanisation, Emergent spaces, P. E. Ogden, R. Hall, S. Bouzarovski, A. Steinfuhrer, S. Kabisch, A. Haase, reurbanisation, demographies, Spain, Leon, residential preferences, trends, Household structure, P. E. Ogden, S. Kabisch, A. Steinfuhrer, R. Hall, A. Haase, S. Buzar, Chairman, Woodford Green, School, Bancroft, Governing Body, Company, Drapers, Livery, London, City, Freeman, Social Sciences, Academy, London Chamber Orchestra, Adviser, London, Central Foundation Schools, Hospital Medical College Trust, St Bartholomew, Trustee, school, Patron, Way School Foundation Trust, St Paul, other professionals, architects, universities, UK Higher Education Design Quality Forum, Chair, Queen Mary, Graduate Centre, development, HEFCE, Higher Education, Landscapes, team, part, research, teaching, development, university, respect, policy, interest, French rural society, central cities, suburbs, European cities, changes, migration, demographic change, interests, Geography, Head, Social Sciences, Humanities, Vice Principal, development, particular responsibility, Queen Mary, Senior Vice Principal, Human Geography, Professor, Philip Ogden]</t>
+  </si>
+  <si>
+    <t>[1990s, pollution, immense lake, quality, recent environmental change, diatoms, Lake Baikal my studies, acidification, methods, oil, tar, realization, region, tar, C. Curtis, my research, Canada, Tunisia, Morocco, Egypt, environmental scientists, operation, design, ecological monitoring, hydro, inland waters, their capacity, organizations, practitioners, environmental scientists, training, my overseas research, course, Ramsar Convention, important sites, Megene Chitane, Ghar El Melh, descriptions, Tunisian Government’s, MELMARINA projects, CASSARINA, part, North Africa my research, cause, generation, fuel, pollution, atmospheric deposition, recognition, research, main body, Research, 1980s, acidification, widespread problem, recognition, UK, international scientific literature, UK, management, My research, Royal Society, Commonwealth Office, Foreign, DEFRA, Wales, Countryside Council, Scottish Natural Heritage, various small grants, manager, British Academy Grant, Egypt, Saqqara, Faiyum, environmental change, records, Leverhulme Grant, Egypt, Lake Qarun, records, climate, People, EU 6th Framework INCO Programme, MELMARINA Project, Coordinator, EU 4th Framework INCO Programme, CASSARINA Project, Coordinator, FCO OTs project, Falkland Islands, ecology, Diatom taxonomy, Darwin Initiative, NERC, Leverhulme, Siberia, Lake Baikal, environmental change, records, Projects, taxonomy, their ecology, freshwater diatoms, organisms, group, palaeolimnology, limnology, aquatic ecosystems, environmental change, interests, Limnology, Journal, Alberta, Athabasca Oil Sands Region, environmental change, acidification, Palaeolimnological assessment, S., Pla, H., Yang, S., Turner, G., Simpson, J., Shilland, N., Rose, R., Flower, C.J., Curtis, Egypt, Faiyum, interactions, special reference, Lake Qarun, Holocene palaeolimnology, Ostracods, R., Zeid, Abu, J.E., Whittaker, D., Horne, R., Flower, J., Holmes, K., Keatings, years, salinity, changes, Egypt, Lake Qarun, cores, composition, Benthic foraminifera, M.J., Leng, R.J., Flower, K., Keatings, R.H., Zied, Abu, coastal lagoons, sedimentary organic matter, green revolution, North Africa, Evidence, S., Turner, M., Ramdani, M.H., Ahmed, F., Ayache, J.R., Thompson, R.J., Flower, A.J., Oczkowski, Egypt, Faiyum paleolakes, shells, Holocene freshwater, records, carbon, oxygen, R.J., Flower, M., Hamdan, F., Hassan, Egypt, Faiyum Depression, sediments, early Holocene, significance, structure, Y., Yasuda, K, Yamada, J.F., Boyle, F., Hassan, M., Hamdan, K., Keatings, R.J, Flower, Freshwater Biology, J. Ecology, J. Paleolimnology, Hydrological Processes, Hydrobiologia, Technology, Environmental Science, Egyptian Journal Remote Sensing, Landforms, Earth Surface Processes, Diatom Research, Biological Conservation, Aquatic Ecology, Professorial Research Fellow, UCL Geography, Ulster, University, D. Phil, Southampton, University, Oceanography, M.Sc, London, University, Joint Honours, Botany, Zoology, Qualifications]</t>
+  </si>
+  <si>
+    <t>[HSR Training Scheme, Edinburgh, Chief Scientist Office, NWO Bilateral Research Scheme, ESRC, New Zealand, Health Research Council, Hong Kong, Research Grants Council, Humanities Research Board, Arts, Medical Research, Alberta Heritage Foundation, Organisation R&amp;D Programme, NHS Service Delivery, ESRC, behalf, project, applications, Public Health, Environmental Research, International Journal, Editorial Board, Biostatistics, Biometrics, Journal, Editorial Board Member, spatial demography, health, GIS applications, interest, my areas, projects, who, potential PhD, enquiries, interest, expressions, Behavioral Risk Factor Surveillance System, US, prevalence, small area, Lloyd P, P, Congdon, ethnicity, group, estimates, risk, exposure, prevalence, obesity, prevalence, indicators, indicators, development, techniques, variety, National Minority Quality Forum, collaboration, Zip Code Tracts, Census, US micro areas, profiles, Health, populations, DWP, NHSCR, coverage, administrative datasets, Scotland datazones, SAPE estimates, estimates, Census, possible alternatives, GRO Scotland, latter study, instability, conventional estimates, small areas, estimates, life, Bayesian methods, strength, principle, former work, GRO Scotland, administrative datasets, estimates, small area, Bayesian techniques, Erasmus MC, Public Health, Department, collaboration, methods, life, development, projects, group, Geographical Systems, Journal, rates, life, years, premature mortality, inequality, Congdon P, print, Epub, May, Stat Methods Med Res, prevalence, neighbourhood, convolution, application, spatial frameworks, Interpolation, Congdon P, GP practices, Quality Outcomes Framework dataset, outer North East London LSOAs, rate, psychosis, indicators, estimates, methods, indicators, life, years, premature mortality, analysis, outputs, assessment, public health, prevalence, rates, hospital, rates, indicators, variety, use, work, departments, collaboration, NE London, GP practices, small areas, profiles, health, strategic analysis, work, London Wards, Trends, Small Area Disability Free Life Expectancy, Modelling Changes, Congdon P, Bayesian techniques, use, work, particular aspect, small areas, estimation, disease, spatial clustering, suicide, harm, self, geographic variations, work, outcomes, mortality, spatial variations, statistical methods, application, research, strand, HSR Training Scheme, Edinburgh, Chief Scientist Office, NWO Bilateral Research Scheme, ESRC, New Zealand, Health Research Council, Hong Kong, Research Grants Council, Humanities Research Board, Arts, Medical Research, Alberta Heritage Foundation, Organisation R&amp;D Programme, NHS Service Delivery, ESRC, behalf, project, applications, Soc Psychiatry, economic Status, Socio, Social Capital, relation, Risk, Model, P, Congdon, North East London, prevalence, area, geographic interpolation, administrative datasets, estimates, Scotland, Zip Code Tracts, US micro areas, obesity, diabetes, indicators, development, My major projects, Wiley, Bayesian Statistical Modelling’, CRC, Applied Bayesian Hierarchical Methods’, books, articles, range, QMUL Life Sciences Institute, Geography, School, Research Professor, spatial demography, data, health, health, spatial statistical methods, application, geographic epidemiology, particular interests, quantitative geographer]</t>
+  </si>
+  <si>
+    <t>[Social Sciences, Advanced Study, Swedish Collegium, Fellow, Sweden, Uppsala, University, Honorary PhD, global economy, geographies, study, distinguished contribution, Royal Scottish Geographical Society, Centenary Medal, economic geography, globalization, research, British Geographers, Institute, Royal Geographical Society, Victoria Medal, European Science Foundation, major scientific programme, UNCTAD, consultant, East Asia, Australia, Europe, North America, universities, professorships]</t>
+  </si>
+  <si>
+    <t>[Urology, European Association, Urological Surgeons, British Association, GenitoUrinary Surgeons, American Association, medical organisations, member, addition, South East Urological Training scheme, London, UCL, teaching, Professor Emberton, Urology, European Association, Geriatric Oncology, International Society, symptoms, PCa, management, guidelines, development, dynamic therapy, photo, ultrasound, high intensity, approaches, materials, nanotechnologies, techniques, implementation, PCa, cancer, strategies, tools, risk, Professor Emberton’s clinical research, Prostate Cancer UK, Founding Pioneer, University College Hospitals NHS Foundation Trust, Urologist, Honorary, UCL, Interventional Oncology, Professor, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[Mayesbrook Park, usage, Mayesbrook Lakes, Mayes Brook, quality, water, summary report, Mayesbrook Park River Restoration Baseline Monitoring, L. Shuker, photo, urban river, quality, water, appraisals, post, Pre, East London, Barking, Mayes Brook, Chair, Director, my work, advisory capacity, restoration, years, reports, Environment Agency, Thames catchment, projects, river, several appraisals, urban rivers, restoration, keen interest, G.Wharton, photo, quality, sediment, cover, morphology, changes, appraisals, Post, South East London, River Quaggy, Sutcliffe Park, programme, Details, their Tidal Systems, Rivers, Management, Science, SMART, EU Erasmus Mundus Joint Doctoral programme, process, information, APEM, National Trust, Royal Haskoning, Babtie, Natural England, Environment Agency, agencies, environmental consultancies, Southern Water, industry, Keele University, Open University, QMUL, research, employment, Former students, UK, Wiltshire, River Cole, system, river, re, Nitrate dynamics, SBCS, Geography, College studentship, Fotis Sgouridis, restoration, basis, natural British rivers, semi, relationships, geometry, study, College studentship, Helen Dangerfield, Germany, gIR Engineering, Lyon, University, Marie Curie International Training Network, part, students, supervisor, QMUL, Dr G Wharton, QMUL, Dr G Harvey, Supervisors, rivers, environmental flows, funding, self, time, part, Stuart Smith, QMUL, Professor J Brasington, QMUL, Dr G Wharton, UniTN, Dr M Righetti, UniTN, Professor A Armanini, Supervisors, rivers, gravel, dynamics, colmation, Effects, Erasmus Mundus PhD Studentship, Mahdi Khademishamami, QMUL, Dr G Wharton, Idaho, University, Dr D Tonina, QMUL, Dr C M Heppell, UniTN, Bellin, Professor, agricultural floodplains, hydrological connectivity, Nutrient dynamics, Erasmus Mundus PhD Studentship, Sepideh Ramezani, QMUL, Dr G Wharton, UniTN, Dr M Righetti, UniTN, M Toffolon, Dr, Supervisors, management, reservoir, impoundments, Environmental impacts, Erasmus Mundus PhD Studentship, Tesfaye Haimonot Tarekegn, Aberdeen, University, Professor V Nikora, QMUL, Dr G Wharton, UniTN, Dr M Righetti, Supervisors, flow, bed, colmation, effects, Experimental study, Erasmus Mundus PhD Studentship, Seyed Hossein Mohajeri, QMUL, Dr G Wharton, QMUL, Dr G Harvey, IBG, Dr Martin Pusch, Supervisors, rivers, diversity, trigger, debris, load, wood, changes, response, River, Erasmus Mundus PhD Studentship, Francesca Pilotto, IGB, Dr M Pusch, QMUL, Dr G Wharton, QMUL, Dr G Harvey, Supervisors, large wood, heterogeneity, ecological responses, Erasmus Mundus PhD Studentship, Matthew Cashman, QMUL, Dr G Wharton, Wallingford, CEH, Dr P Naden, Wallingford, CEH, Dr P Rameshwaran, Supervisors, hydraulics, river, regimes, weed, growth, Effects, NERC CEH Studentship, Adam Sutcliffe, restoration, hydromorphic approach, eco, function, form, G., Wharton, L., Burgess, Bruce, S. J., Clarke, defence, EU Water Framework Directive, needs, River restoration, D. J., Gilvear, G., Wharton, sediment, accumulation, flow, patterns, cover, stream, seasonal changes, effects, R. S., Wotton, C. M., Heppell, J. A. B., Bass, G., Wharton, J. A., Cotton, UK, Dorset, Piddle catchments, Frome, fine sediments, flows, invertebrates, suspension, Macrophytes, L. L., Warren, M., Trimmer, C. M., Heppell, J. A. B., Bass, R. S., Wotton, J. A., Cotton, G., Wharton, agricultural practices, potential implications, streams, methane, Emission, M., Trimmer, E. J., Flowers, A. G., Hildrew, G., Wharton, J. A., Cotton, C. M., Heppell, I. A., Sanders, river, lowland, shallow hyporheic, storage, S. E., Roberts, J. A. B., Bass, J. A. C., Cotton, G., Wharton, C. M., Heppell, streams, fine particulate organic matter, transport, J. A., Cotton, J. A. B., Bass, G., Wharton, R. S., Wotton, L. L., Warren, thresholds, meter, critical shear stress, Estimation, G., Wharton, I. G., Droppo, R. C., Grabowski, floodplain, temperate re, DNRA, ammonium, reduction, Denitrification, M., Trimmer, K., Lansdown, G., Wharton, C. M., Heppell, F., Sgouridis, sediments, threshold, temporal variations, I. G., Droppo, G. R., Davies, G., Wharton, R. C., Grabowski, Sediment Water Science Symposium, 12th International Association, perspectives, water, sediments, Interactions, W. H., Blake, N., Ogrinc, B., Kronvang, G., Wharton, R. C. Grabowski, photos, Cohesive Strength Meter, field, surficial fine cohesive sediments, erodibility, vegetated rivers, contaminants, sediment, fine sediments, times, work, Heppell et al, much fine sediment, cover, Warren, river, much fine sediment, Grieg Davies NERC PhD Studentship, Luke Warren NERC PhD Studentship, Parallel research, Grabowski, fine cohesive sediments, thresholds, further knowledge, values, field, CSM measurements, calibration, work, Grabowski, Cohesive Strength Meter, deposits, erodibility, temporal variations, Environment Canada, Ian Droppo, collaboration, Robert Grabowksi QMUL PhD Studentship, Dorset, Piddle Catchment, Frome, Recent research, contaminants, sediment, elevated levels, deposits, gravels, sands, clays, silts, ingress, rivers, fine sediments, inputs, recent decades, cover, optimum levels, decisions, strategies, different weed, hydraulics, CEH NERC Studentship, Adam Sutcliffe, River Lambourn, Current research, management, flood, cutting, vegetated rivers, important issue, actual observations, plants, ecological status, river, assessment, tool, LEAFPACS, tool, Wharton, Clarke, Wharton et al, different plants, habitats, knowledge, findings, Environment Agency, Sanders, methane, aquatic plants, rich sediments, fine sediments, pesticides, fertilisers, contaminants, modification, biotic processes, significance, permeable streams, nutrient dynamics, Fine sediment, S/2001/00932, T, NER, Wharton, fine sediments, properties, plants, larvae, Invertebrates, Cotton, transport, entrainment, deposition, processes, patterns, engineers, margins, channel, centre, aquatic plants, Many rivers, Environment Agency, South East London, Sutcliffe Park, River Quaggy, scheme, urban river, appraisal, post, Claire Hulbert, Wandle Trust, collaboration, River Wandle, quality, outfalls, impact, Michael Brierley, rivers, benefits, challenges, appreciation, design, knowledge, students, schemes, visits, debate, discussion, frequent opportunities, Classes, restoration, practice, current policy, students, restoration, my work, rivers, research, My teaching, river, lowland, shallow hyporheic, storage, S. E., Roberts, J. A. B., Bass, J. A. C., Cotton, G., Wharton, C. M., Heppell, thresholds, meter, critical shear stress, Estimation, G., Wharton, I. G., Droppo, R. C., Grabowski, sediments, threshold, temporal variations, I. G., Droppo, G. R., Davies, G., Wharton, R. C., Grabowski, Science, Advancement, British Association, Geography Section, Secretary, British Geographers, Institute, Royal Geographical Society, Honorary Secretary, UK River Restoration Centre, Directors, Board, Chair, Past appointments, Water Sediment Science, International Association, Director, London, University, Queen Mary, Geography, School, Doctoral Research Fellowship, Post, NERC, Natural Environment Research Council, Southampton University, PhD, Sheffield, University, Geography, Honours degree, rivers, My research, hydroecology, hydrogeomorphology, experience, years’, Geomorphology, Chartered Geographer, Physical Geography, Professor]</t>
+  </si>
+  <si>
+    <t>[adversity, face, resilience, change, conditions, attainment, health, aspiration, social inequalities, new insights, studies, longitudinal data, context, time, human development, developmental approach, research, health, attainment, equalities, independent adulthood, dependent childhood, transition, resilience, risk, study, particular my research, attainment, social inequalities, building, study, interests, training, developmental psychologist, Cambridge University Press, Jacquelynne Eccles, attainment, aspirations, Gender differences, Rainer K. Silbereisen, work, school, Transitions, volumes, Resilience’, Risk, monograph, scholarly articles, publications, boards, member, departments, advisor, Michael Parsonage, Heather Joshi, Leslie Gutman, children, trajectories, project, ESRC, Visiting Professor, Berlin, Wissenschaftszentrum, Social Science Centre, Research Professor, University College London, Education, Institute, Social Policy, Human Development, Professor, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[Higher Education, Geography, Heads, Conference, Chair, his role, discipline, geography, Martin, new A Level content, introduction, stakeholders, teachers, groups, levels, new Geography, content, government, panel, ALCAB, Geographers, magazine, Geography Review, editor, geography, significant interests, Martin, cycle, conceptualisations, geomorphological understanding, project, Leverhulme fellow, European Geophysical Union, Geomorphology, British Society, his work, study, area, cycle, geomorphological processes, role, wider interest, Martin, systems, organic carbon, transformation, systems, cycling, analysis, risk, uplands, restoration, impact, work, projects, services, restoration, impact, geomorphology, books, fields, makers, practitioners, partnership, work, particular focus, balance, flux, carbon, restoration, erosion, impact, peatlands, experience, Manchester, University, Geomorphology, Professor, Martin]</t>
+  </si>
+  <si>
+    <t>[outside organisations, UCL, academic departments, members, events, performances, workshops, talks, series, Harrow Road Neighbourhood Partnership, A Better World Foundation, New York’s Street Vendor Project, Seattle’s Street Vendor Task Force, Green Spaces Forum, London Parks, research, my case, groups, number, capacities, volunteer, Management, QMUL Business, Dr. Yasmine Ibrahim, Interdisciplinary Award, ESRC, Funding, geographies, locative media, impact, City, Sex(uality, good match, our interests, PhD, anyone, inquires, urban life, cities, imagination, representation, collective culture, urban sociality, urban public space, Matters, interests, News, Geography, Public Space’ Royal Geographical Society, Regan Koch, Expert, R., Koch, author, RGS, Pdf, RGS, resources, Level, A, News, Geography, Soft Regeneration’ Royal Geographical Society, Case Study, Public Space, A., Latham, R., Koch, eds, S. Knierbein, A. Madanipour, contemporary London’, public life, changes, public spaces, cities, A., Latham, R., Koch, urban public spaces, which transformations, conceptual registers, changes, public life, details, aim, months, period, vendor, fruit, site, ethnographic study, Research, local community, asset, public space, social behaviour, crime, junction, urban redevelopment, project, collective life, democratic forms, innovation, research, discussion, my goal, vein, future work, point, spaces, accountability, conviviality, relations, practical configurations, material, their meal, price, which customers, cafes, restaurants, what, economy, private relations, forms, meals, private homes, which public audiences, clubs, underground restaurants, laws, comparative look, vending, street, popular enthusiasm, tremendous growth, studies, public’, theme, inquiry, new lines, attentive registers, theoretical resources, analytic principles, series, ness, public, broader conceptualisation, project, theoretical impasse, something, topic, recent work, urban public space, predominant approaches, critique, project, research, public space, study, public life, spaces, ways, U.S. My interest, trends, food, ethnographic study, University College London, doctoral research, My ESRC, cities, students, methods, volume, goal, New York, St. Lawrence University, Encountering Global London, London’s Urban Geographies, intensive courses, field, years, Teaching Award, Student Choice Excellence, MSc Urban Studies programme, Geography, department, fellow, UCL, my PhD, years, successful secondary Geography department, London, secondary school, Kansas, Kansas City, middle school, My first job, Learning, Teaching, MSc, Social Sciences, Education, My first degree, student, enthusiastic teacher, SAGE, UCL Geography, Dr. Alan Latham, Cities, Key Thinkers, volume, Stadkolloquium Urban PhD Research Network, member, Royal Geographical Society’s Urban Geography Research Group, director, member, organising, Geography’s Urban Geography Research Group, American Association, University College London’s Public Engagement Unit, University College London’s Graduate School, Social Research Council, Economic, grants, My work, geographical imaginations, representation, that different kinds, urban dwellers, different kinds, culture, lifestyles, trends, new developments, urban change, processes, neighbourhoods, cities, academic discourse, concern, urban public life, my interest, Parallel, beneficial ways, possibilities, my interest, social entrepreneurs, ordinary activities, spaces, kinds, social interactions, urban life, convivial forms, people, efforts, popular practice, emergent forms, trends, food, pluralistic society, what, negotiation, everyday forms, what, inhabitation, modes, infrastructure, materiality, that different kinds, public life, different spaces, careful attention, study, field, my work, critical urban scholarship, longstanding concern, themes, date, my research, U.S., cities, contemporary London, solidarity, sociality, new forms, urban space, capacity, collective culture, My particular interest, cities, public life, cultural geographer]</t>
+  </si>
+  <si>
+    <t>[part, London’s East End, its connections, his work, Iain Sinclair, writer, David Pinder, external visitors, Welcome Week, use, tours, student, materials, different disciplines, curriculum, resources, development, May, January, Our project, College, Its history, religious diversity, migration, place, East London, long history, significant historical site, cemetery, RIBA prize, English Heritage, Grade II, April, project, major landscaping, focus, cemetery, College’s Mile End campus, heart, remarkable Novo Sephardic Jewish Cemetery, staff, Queen Mary students, resources, range, Queen Mary Annual Fund, grant, £, Queen Mary, Drama, English, School, Nadia Valman, Geography, Caron Lipman, Queen Mary’, Sephardic Jewish Cemetery, our Past, new project, Queen Mary’s, general public, tours, my teaching, part, walks, National Archives, interests, my research, topics, enquiries, Victorian London, themes, Who, Out, BBC1, Television programmes, History, BBC Radio, Radio, contributions, companies, Tech City, contacts, collaborations, digital humanities, scholars, work, project, innovative ways, data, organise, users, digital platforms, archive, Geffrye Museum, models, aim, research, which Ananda Rutherford, Geffrye Museum, Eleanor John, collections’, audiences, Creativeworks Voucher Project, museums, city, experiences, my insights, cluster, Audiences’, Engaging London, Creativeworks’, member, Humanities Research Council Knowledge Exchange Hub, Arts, Queen Mary, funds, that bid, part, Britain, Children’s Adventure Play, Practice, Politics, City, Adventures, activity, October, doctoral project, ESRC, year, Comparative Literature, Professor Kiera Vaclavik, Childhood, V&amp;A Museum, QMUL, joint venture, Childhood Cultures, Centre, group, T. Virani, M. Shiach, partnership’, successful university, building, collaboration, home, A., Blunt, E., John, centre, recent work, discussion, Centre, work, initiatives, several research, group, study, scoping, Queen Mary’s Prospect fund, grant, Geffrye, Queen Mary, centre, museums, Geography’s Collaborative work, School, film, Public Engagement, Queen Mary’s Centre, grant, Mile End films, Eithne Nightingale, Alison Blunt, Ragged School Museum, new permanent exhibition, colleagues, project, QMUL’s Collaboration Fund, wider public, conferences, events, displays, exhibitions, children, programmes, creation, activities, variety, Their work, colleagues, Humanities Research Council’s Collaborative Doctoral Award Scheme, Art, students, organisations, museums, several London, programmes, projects, range, my work, key feature, passions, similar interests, who, other organisations, wide range, academic world, London, Royal Holloway University, History, Department, Currently Research Associate, Geffrye Museum, Studentship, ESRC, PhD, Wales, England, Difference, Domestic Cultures, Household Goods, Inventory, National Maritime Museum, Material Culture, Decorative Arts, Researcher, Geffrye Museum, Present’, Seventeenth Century, London, Transitions, Connections, Work, Home, programme, part, AHRC Collaborative Doctoral Award, Wider World, Class households, Metropolitan Middle, Domestic Labour, Jane Austen House Museum, Curator, Childhood, V&amp;A Museum, Global Citizenship’, Diaspora, Empire, World, Child, programme, part, AHRC Collaborative Doctoral Award, PhD, British Children, Lives, European World, Non, studentship, CASE, ESRC, Britain, Children’s Adventure Play, Practice, Politics, City, Adventures, Present’, Seventeenth Century, London, Transitions, Connections, Work, Home, programme, part, AHRC Collaborative Doctoral Award, Contemporary London, Family, Home, Juggling Work, present’, seventeenth century, London, community, practice, space, religion, Home, programme, part, AHRC Collaborative Doctoral Award, Contemporary London, Dialogue, Practice, Domestic Space, Home, Interfaith Connections, AHRC Collaborative Doctoral Award, First World War, Financing, War Bond Holders, Sacrifice, Economy, collaboration, new opportunities, projects, other external organisations, museums, funds, record, Victorian London, Britain, environmental history, aspects, everyday life, culture, home, historical geographies, twentieth centuries, nineteenth, investment, wealth, historical geographies, themes, broad range, prospective students, enquiries, interests, topics, variety, students, ed, Smith, P. Shurmer, England’, formation, transfer, law, materiality, class, property, Thoughts, ed, P., McGee, Luton’, cancer, South Asian patients, care, their own”, Z., Khan, R., Fitches, study’, UK, services, competent palliative, development, Communication, Z., Khan, R., Fitches, UK’, South Asians, care, community, different”, my culture, G., Randhawa, A., Owens, B., Craig, R., Beachy, England’, investment, women, which their sex, contingencies, provision, England, indebtedness, personal wealth, valuations, measure, A., Kay, C., Bailey, D. R., Green, qualitative systematic review’, care, informal caregivers, needs, Knowledge, Y. H., Carter, J., Williams, R., Petchey, M., Lari, Asadi, eds, A. Horning, M. Palmer, modern London’, things, places, People, metropolitan histories, K., Wehner, R., Featherby, D., Hicks, Wales’., England, assets, gender, age, balance, J., Maltby, J., Rutterford, Victorian London’, everyday life, rhythms, culture, modern city, Fragments, R., Featherby, K., Wehner, N., Jeffries, eds, J., Rutterford, J., Maltby, A., Owens, Green D. R., Introduction’, J., Rutterford, J., Maltby, eds, J., Rutterford, J., Maltby, A., Owens, Green D. R., Wales’, England, modernity, investment, wealth, Assets, C., Van Lieshout, C., Swan, Wales, England, wealth, records, death, final reckoning, Green D. R., eds, I. M. Keighren, H. Geoghegan, R. Craggs, Home’, Geffrye Museum, London, University, Queen Mary, partnership, Home, Studies, Centre, eds, I. Hay, J. Beaverstock, c.1800–1930’, accumulation, institutions, opportunities, wealth, Historical geographies, D. R., Green, eds, T. Virani, M. Shiach, partnership’, successful university, building, collaboration, home, A., Blunt, E., John, Warwick, University, Senior Research Fellow, Jacky Williams, City University, Principal Investigator, Roland Petchey, Warwick, University, Principal Investigator, Yvonne Carter, grant, end, December, Res-000, Award, York, University, Jospehine Maltby, London, University, Queen Mary, investigator, Co, October 2010–October, Childhood, V&amp;A Museum, London, University, Queen Mary, French, Kiera Vaclavik, London, University, Queen Mary, London, University, Queen Mary, Miles Ogborn, London, University, Queen Mary, Lead, Alison Blunt, Extended Collaborative Doctoral Award Programme, investigator, Co, Jane Wills, investigator, Co, Alastair Owens, investigator, Co, Alison Blunt, London, University, Queen Mary, Principal Investigator, Cathy McIlwaine, East London, engagement, philanthrocapitalism, London, University, Queen Mary, Miles Ogborn, London, University, Queen Mary, Hispanic Studies, Parvati Nair, London, University, Queen Mary, Al James, London, University, History Queen Mary, Colin Jones, London, University, Queen Mary, Lead, Alison Blunt, Extended Collaborative Doctoral Award Programme, London, University, Queen Mary, Miles Ogborn, London, University, Queen Mary, Lead, Alison Blunt, £, October 2010–October, Extended Collaborative Doctoral Award Programme, Humanities Research Council, Arts, London, University, Queen Mary, Lead, Tim Brown, £, October 2012–October, Collaborative Doctoral Award, Humanities Research Council, Arts, London, University, Queen Mary, Miles Ogborn, London, University, Queen Mary, Hispanic Studies, Parvati Nair, London, University, Queen Mary, Al James, London, University, Queen Mary, History, Colin Jones, London, University, Queen Mary, Lead, Alison Blunt, £, October 2012–October, Extended Collaborative Doctoral Award Programme, Humanities Research Council, Arts, London, University, Queen Mary, Computer Science, Electronic Engineering, Pat Healey, London, University, Queen Mary, Business Management, Yasmin Ibrahim, London, University, Queen Mary, London, University, Queen Mary, Lead, David Pinder, studentships, October 2013–October, Multidisciplinary Studentship Pilot Scheme, Social Research Council, Economic, research, PhD, funding, research, programmes, political change, era, economic agency, women, important new evidence, research, gender, key concern, project, title, practices, nature, range, shareholdings, study, second, portfolios, composition, records, death, use, study, main strands, early twentieth centuries, late nineteenth, its empire, Britain, investment, new opportunities, financial markets, expansion, individuals, major project, Claire Swan, Carien van Mourik, Lieshout, Carry, Research Assistants Steven Ainscough, Open University, Janette Rutterford, York, University, Josephine Maltby, King’s College London, PI, David Green, £, December, Res-000, Social Research Council, Economic, different territories, wealth, accumulation, British empire, institutional mechanisms, political structures, financial opportunities, significance, research, King’s College London, David Green, Britain, Lakehead University, Livio di Matteo, Canada, Wellington, Victoria University, Jim McAloon, New Zealand, South Australia, University, Martin Shanahan, Australia, colleagues, c.1850, colonies, Britain, wealth, transmission, ownership, project, South Australia, University, Martin Shanahan, £, July, Commonwealth Universities, Association, British Academy, economic imperatives, benevolence, site, need, place, East London, understandings, strategies, project, place, activities, range, CSR activities, engagement, contemporary corporate philanthropy, nature, Canary Wharf, companies, study, contemporary East End, communities, that companies, project, pilot, aim, London’s East End, innovative civic engagement, strong communities, long history, London, University, Queen Mary, Postdoctoral Research Assistant Johanna Wadsley, Jane Wills, Alison Blunt, PI, Cathy McIlwaine, £, June, October, Public Engagement, Queen Mary’s Centre, collaboration, project, awareness, historical practice, historical knowledge, forms, home, aesthetic expression, ownership, domestic belonging, their home, previous inhabitants, awareness, people, significance, home, past, dimensions, practices, knowledges, meanings, project, London, University, Queen Mary, Postdoctoral Research Assistant Caron Lipman, Alison Blunt, PI, Catherine Nash, £, December 2011–December, I022090/1, AH, Humanities Research Council, Arts, their imperial lives, social upheaval, children, ideological visions, Barnardo’s, its own institutional goals, policies, ’s, project, Canada, colonies, Britain, children, late nineteenth, Stepney, Children’s Homes, Thomas Barnardo’s Ragged Schools, work, life, Britain, institutions, individuals, place, East End, usual perspective, project, Britain, who, settlement, place, London, East End, centuries, Stepney, London, University, Queen Mary, Postdoctoral Research Assistant Lesley Hoskins, Tim Brown, April 2013-October, £, Migration, Study, Queen Mary’s Centre, British Library, India Office records, London’s collections, Museum, basic basis, postgraduate supervisor, researchers, project, insights, that archaeological evidence, diffusion, their popularity, households, such goods, good deal, lasting ways, habits, tastes, South Asia, exotic products, variety, East India Company, early modern metropolis, Asian goods, influence, spread, archaeological collections, value, London Archaeology, Museum, colleagues, conjunction, project, Queen Mary, postgraduate student, London Archaeology, Museum, Rupert Featherby, April 2015–September, £, Queen Mary’s QResearchers scheme, part, Metropolitan Archaeological Record, East India Company, London, Domestic Material Culture, Consumption, Empire, Ananda’s, Home, Studies, our Centre, project, Tech City, creative firms, links, Queen Mary, technology, media, digital humanities, colleagues, project, present, past, domestic life, audiences, wider range, collections, Geffrye, innovative ways, data, organise, users, digital platforms, archive, Geffrye Museum, models, aim, Queen Mary, Research Assistant Ananda Rutherford, Geffrye Museum, Eleanor John, £, Humanities Research Council, Arts, Creativeworks Voucher, Creativeworks London, justice, social inequality, transmission, family, inheritance, importance, book, arguments, current project, everyday lives, people, provision, assistance, wider regimes, support, state, origins, emergent social policy, narrow concerns, welfare, historiography, provision, wealth, class, form, such transfers, conceptual level, wealth, women, role, resources, intergenerational transmission, themes, our research, detailed empirical studies, series, David Green, part, theme, earlier work, Britain, late nineteenth, families, inheritance, political significance, project, Cambridge, University, Lesley Hoskins, Postdoctoral Research Assistants Sam Shave, King’s College London, David Green, Cambridge, University, Martin Daunton, August 2012–December, £, Isaac Newton Trust, Philomathia Foundation, everything, that Alastair, field, organised lectures, style, Alastair’s wonderful attitude, course, valuable aspect, Historical Research, Institute, Historical Research, MA, intercollegiate external examiner, London International Programmes, University, Chief Examiner, Brighton, University, programmes, external examiner, other North American universities, range, geography, history, London, lectures, occasional walks, writer, brilliant London historian, California London Fall Programme, University, twentieth Century London, course, decade, module, new overseas field, alumni, relationships, their employability, skills, projects, small teaching, Excellence, College’s Drapers’ Award, several occasions, prizes, my teaching, social media, learning, resources, range, technologies, enthusiast, city, long visit, week, Boston, fascinating North American city, historical geography, colleagues, conjunction, undergraduate module, new initiative, social change, region, people, range, local landscapes, England, North East, undergraduate students, many years, my teaching, Fieldwork, various London museums, colleagues, my friends, foot, city, opportunity, London, modules, lecture, traditional format, classroom, my teaching, understanding, skills, opportunities, variety, supportive environment, people, My belief, others, scholarship, my own research, students, different ways, challenges, rewarding aspects, teaching, Victorian London’, everyday life, rhythms, culture, modern city, Fragments, R., Featherby, K., Wehner, N., Jeffries, eds, I. Hay, J. Beaverstock, c.1800–1930’, accumulation, institutions, opportunities, wealth, Historical geographies, D. R., Green, governor, corporation, independent member, level, new Geography A, content, fellow geographers, panel, museums, London, colleagues, several projects, Geographers, Archaeologists, Finance experts, Economists, Historians, projects, Isaac Newton Trust, Philomathia Foundation, British Academy, Humanities Research Council, Arts, Social Research Council, Economic, grants, range, my work, Much, economic strategies, practices, gender, resources, intergenerational transmission, inheritance, wealth, families, themes, expertise, interests, focus, Victorian London, particular interest, Britain, nineteenth, economic historian, historical geographer]</t>
+  </si>
+  <si>
+    <t>[African tropical forests, structure, biomass, L., G.M., Heijden, van, Gonzalez, Lopez, S.K., Begne, T., Sunderland, B., Sonke, pm, who, pm, forum, idea, Refreshments, Geography, Dr Simon Lewis, people, Most months, broad theme, presentations, speakers, biodiversity, future, past, biodiversity, impacts, new species, biodiversity, interest, who, PhD, masters, staff, docs, post, Forum, same building, other nearby rooms, Slavonic Studies building, UCL School, fourth floor, Taviston Road, No, room, pm, Month, third Tuesday, November, projects, cross, NERC DTP, greater collaboration, faculty, departments, chance, Seminar Series, Biodiversity Forum, others, GEE, Environment, Evolution, Genetics, Archaeology, Energy Institute, Anthropology, Earth Sciences, Environment Institute, CBER, Environment Research, Biodiversity, Centre, Geography, topics, biodiversity, UCL, researchers, large number, 2nd supervisor, models, new measurements, degradation, state, NERC CASE studentship, Andy Burt, Nature, paper, carbon, Lewis et al, Report, February, growth, emissions, world, Firth, Guardian, January, droughts, change, vulnerability, Amazon, IPCC, my views, opposite, Jan. Sunday Times, drought, change, Amazon rainforest, vulnerability, Climate Change mistake, Intergovernmental Panel, SL, Today, Radio, July, CO2, aerosols, relative roles, comment, global warming, future spike’, stations, China, Independent, August, Science paper, Pan et al, CO2, man, cent, forests, World, Telegraph, science, climate, basics, European Carbon Exchange, Climate Action protest, Camp, police, hundreds, front, science, climate, basics, Balcombe, camp, Power’, Gaia theory, British Film Institute, exploration, Science, Genesis’ exhibition, Sebastião Salgado, part, Natural History Museum, diverse locations, lectures, Dr Lewis, example, other newspapers, Times, Telegraph, Red Pepper, Brazil, Folha de São Paulo, New York Times, New Scientist, Guardian, Financial Times, Ecologist, CNN, Canadian Broadcasting Corporation, Live, BBC, Newsbeat, BBC Radio, BBC World Service, O’Clock News, BBC, Today program, BBC Radio, Australian, opinions, his research, scientific research, tropical forests, change, comment, Dr Lewis, who, biodiversity, activities, projects, specific policies, choices, timely reports, committee, tropical biodiversity, largest scientific society, world, Conservation, Tropical Biodiversity, Association, Conservation Committee, Dr Lewis, their work, makers, policy, Linda McAvan, MEP, European Parliament, week, Dr Lewis, Lewis, planetary boundaries, difficulties, UN Rio+20 conference, response, short piece, change, tropical forests, academies, global network, Panel, Dr Lewis, Schellnhuber et al, Lewis et al, Montreal, talks, UN, other countries, change, tropical forests, paper, UK government, example, Dr Lewis, their decisions, public, timely information, societal debates, scientists, politicians, judiciary, citizens, rules, politicians, positions, society, job, system, precursor, project, EU, GEOCARBON, network, AfriTRON, humans, cycle, comprehensive understanding, oceans, surface, world, atmosphere, carbon, fluxes, stores, human activity, carbon, emissions, models, atmospheric measurements, measurements, monitoring, repository, downloaded dataset, George Washington University, Amy Zanne, Lewis, database, global wood, foresplots.net database, radio, TV, print, articles, publications, data, Leeds, University, Gonzalez, Dr Gabriela Lopez, Dr Tim Baker, Prof Oliver Phillips, co, data, forest, global repository, Sentinal Landscapes’ program, tropical USD100, pan, phase, International Forestry, Centre, external consultant, Dr Lewis, program, national forest, Gabon, government, UCLA, NASA Jet Propulsion Lab, Sassan Saatchi, Duke University, John Poulsen, Lewis, Congo Basin, fluxes, storage, COMIFAC, Central African Forest Commission, Gabon, government, technical advisor, Lewis, Gabon, National Climate Plan, data, Cancun, Copenhagen, talks, UN climate, Gabon, government, technical advisor, which Dr Lewis, Gabon, management, network, Lewis et al, tropical Africa, countries, plots, term, network, Dr Lewis, impacts, degradation, deforestation, emissions, change, face, forests, tropics, efforts, work, responses, change, future trajectory, international debates, major impact, Lewis et al, change, their sensitivity, cycle, tropical forests, role, direct evaluation, observations, use, first time, tropics, methods, nations, participants, institutions, &gt;, scientists, international networks, tropical forests, observatory, pan, plots, tropical forest, networks, major contributions, My research, topic, research, student, First papers, Anthropocene, humans, time, new geological epoch, Earth System today, major driver, Earth System, human activity, idea, Anthropocene, program, Banin et al, Amazonian forests, production, aboveground, terms, Asian forests, soil, data, early paper, balance, dynamics, growth, chemical factors, soil, our understanding, plots, forest, soil, chemical characteristic, analysing, continents, tropical regions, stocks, forest, Benchmark map, A., Morel, M., Silman, L., S., Petrova, S., Hagen, Lewis S.L., W., Buermass, B.R., Zutta, W., Salas, E.T.A., Mitchard, M., Lefsky, S., Brown, N.L., Harris, S., Saatchi, satellites, plots, density, Amazon forest, divergent estimates, O., Phillips, S.L., Lewis, T.R., Baker, A., Monteagudo, G., Gonzalez, Lopez, R.J.W., Brienen, T.R., Feldpausch, E.T.A., Mitchard, EU GEOCARBON program, storage, biomass, accurate measurements, techniques, My view, carbon, biomass, indirect estimate, large spatial scales, inferences, density, measurements, inventory, ground, carbon, biomass, indirect estimate, data, carbon, tropical forest, data, controversy, Los Angeles, California, University, Duke University, collaboration, program, carbon, national forest, Gabon, government, Phillip Leverhulme Prize, Wildlife Conservation Society, NERC, papers, Greta Dargie, Leeds PhD, central Congo, campaigns, Consisted, stores, much carbon, functions, Congo Basin, centrale, forest, peat, extent, project, Permian Global, NERC, Charlotte Wheeler, PhD, Malaysia, Uganda, fieldwork, nature, investment, such interventions, biodiversity, storage, degraded lands, techniques, impacts, project, EU FP7 GEOCARBON program, Borneo, Congo Basin, Amazonia, major focus, SE Asia, Africa, Latin America, major tropical continents, differences, commonalities, phytodemographic data, project, intact African tropical forests, storage, H., Wöll, L.O., Ojo, T.R., Baker, K., Baffoe, Affum, B., Sonke, G., Gonzalez, Lopez, S.L., Lewis, system, tropical forests, FORCES, T, ERC Advanced Grant, Phillip Leverhulme Prize, EU GEOCARBON program, African Tropical Rainforest Observatory Network, part, African tropical forests, phytodemographic data, project, forests, world, persistent carbon, D., Hayes, S., Sitch, R., Shilong, S., Piao, D.A., McGuire, S.W., Pacala, R.B., P. Jackson, Cias, J.G., Canadel, S.L., Lewis, A., Shvidenko, O.L., Phillips, W.A., Kurz, P.E., Kauppi, R., Houghton, J., Fang, R.A., Birdsey, Y., Pan, system, tropical forests, FORCES, T, ERC Advanced Grant, Phillip Leverhulme Prize, EU GEOCARBON program, global environmental change, tropical forests, changes, phytodemographic data, project, Pages, plots, biomass, trends, Late, R.V., Martinez, N.M., Silva, N., Pitman, P.N., Vargas, D.A., Neill, A., Monteagudo, W.F., Laurance, S.G., Laurance, T.J., Killeen, N., Higuchi, T., Erwin, A., Di Fiore, L., Arroyo, S., Almeida, Y., Malhi, O.L., Phillips, T.R., Baker, Pages, turnover, Amazon, trends, patterns, Late, A., Torres Lezama, M., Saldias, Quesada C.A., N., Pitman, S., Patino, W., Palacios, J., Olivier, H.E.M., Nascimento, S.G., Laurance, Kuebler C., T., Erwin, A., Di Fiore, C., Czimczik, J., Comiskey, Chave J., S., Brown, S., Almeida, M., Alexiades, M., Vasquez, Terborgh J., N., Silva, P., Nunez Vargas, D., Neill, A., Monteagudo, Y., Malhi, J.J., Lloyd, South American forests, dynamics, structure, trends, B., Vinceti, M.R., Vasquez, P., Nunez, C., Kuebler, J., Chave, S., Brown, A., Lezama, Torres, J., Terborgh, N., Silva, D., Neill, W. F., Laurance, N., Higuchi, S., Almeida, Y., Malhi, J., Lloyd, T. R., Baker, O.L., Phillips, Pages, tropical forests, global environmental changes, impacts, O.L., Phillips, Y., Malhi, Pages, contemporary atmospheric change, South American tropical forests, response, Y., Malhi, T.R., Baker, Springer, Flenley J., Bush M, Editors, Climate Change, Tropical Rain Forest Responses, contemporary atmospheric change, South American tropical forests, response, Malhi Y., Baker T.R., Pages, South American Tropical Forests, Function, Dynamics, Structure, Global Change, Impacts, T.R., Baker, O.L., Phillips, Dias PS, Gash J, Keller M, Editors, Global Change, Amazonia, composition, dynamics, biomass, Amazon, Recent changes, Amazonian forests, large lianas, dominance, Vinceti B., Saldias M., Palacios W., Jardim A., Erwin T., Di Fiore A., Ceron C., Alexiades M., Vargas P.N., Neill D., Mendoza A.M., Malhi Y., potential biases, tropical forests, growth, Changes, Grace J., Brown S., Stern M., Ferreira L.V., Laurance S., Martinez R.V., Vargas P.N., Laurance W.F., Higuchi N., RAINFOR, Amazonian forests, dynamics, composition, structure, international network, Vinceti B., Vieira I.C.G., Martinez R.V., Valencia R., Sombroek W.G., Silveira M., Silva N., Saleska S., Salomao R., Ll A., Rudas, Quesada C.A., Pitman N., Patino S., Panfil S.N., Vargas P.N., Neill D., Monteagudo A., Meir P., Leano C., Laurance W.F., Killeen T., Higuchi N., Grace J., Frederiksen T., Arroyo L., Almeida S., Wright J., Baker T., Lloyd J., Phillips O.L., Malhi Y., plots, productivity, ground, Lloyd J., Vinceti B., Terborgh J., Martinez R.V., Lezama A.T., Silva J.N.M., Salomao R., Quesada C.A., Pitman N.C.A., Patino S., Vargas P.N., Neill D.A., Monteagudo A., Montoya L.M.M., Laurance W.F., Laurance S.G., Killeen T.J., Higuchi N., Di Fiore A., Czimczik C.I., Chave J., Arroyo L., Alvarez E., Almeida S., Phillips O.L., Baker T.R., Malhi Y., intervals, comparison, interpretation, calculation, rates, recruitment, mortality, Tropical forest, Martinez R.V., Terborgh J.W., Supardi N., Sonke B., Vargas P.N., Monteagudo A., Malhi Y., Lejoly J., Laurance W.F., Hilbert D.W., Higuchi N., Graham A.W., Brown S., Baker T.R., Vinceti B., Sheil D., Phillips O.L., biomass, spatial patterns, density, Variation, Martinez R.V., Silva J.N.M., Pitman N.C.A., Patino S., Neill D.A., Monteagudo A., Lloyd J., Laurance W.F., Laurance S.G., Killeen T.J., Erwin T., Di Fiore A., Arroyo L., Almeida S., Malhi Y., Phillips O.L., Baker T.R., forests, forests, diversity, alpha, climate, odd man, Woll H., Valkenburg J., Gemerden B.S., Tchouto M.G.P., Swaine M.D., Ter Steege H., Stropp J., Sunderland T.C.H., Sosef M.S.M., Sonke B., Sheil D., Phillips O.L., Peh K.S.H., Parren M.P.E., Nusbaumer L., Lejoly J., Leal M.E., Kouka L.A., Kouame F.N., Issembe Y.A., Hawthorne W.D., Gautier L., Doucet J.L., Kamdem M.N.D., Cortay R., Comiskey J.A., Chatelain C., Bongers F., Bakayoko A., Balinga M.P.B., Alonso A., Whittaker R.J., Senterre B., Malhi Y., Parmentier I., tropical forests, relationships, Vilanova E., Vasquez R., Taplin J.R.D., Stropp J., Thomas A.S., Sonke B., Slik J.W.F., Silveira M., Silva J., Schwarz M., Salamao R., Rudas A., Ramirez H., Ramirez F., Quesada C.A., Prieto A., Cruz A.P., Peh K.S.H., Patino S., Vargas P.N., Morel A., Mendoza C., Meir P., Lovett J.C., Killeen T.J., Keeling H., Jimenez E., Honorio E., Higuchi N., Gloor E., Galbraith D., Freitas M.A., Fyllas N.M., Fisher J.B., Feldpausch T.R., Costa L., Cardozo N.D., Chao K.J., de Oliveira A.C.A., Bonal D., Blanc L., Baker T.R., Aymard G., Arroyo L., Andrade A., Andelman S., Amaral I., Davila E.A., Almeida S., Monteagudo A., Malhi Y., Lloyd J., Aragao L., Gonzalez G., Lopez, Amazonian forests, biomass, aboveground, regional variation, Vinceti B., Martinez R.V., Terborgh J., Lezama A.T., Silva J.N.M., Salomao R., Quesada C.A., Pitman N.C.A., Vargas P.N., Neill D.A., Monteagudo A., Laurance W.F., Laurance S.G., Killeen T.J., Higuchi N., Arroyo L., Almeida S., Chave J., Meir P., Cochrane T., Phillips O.L., Wright J., Baker T.R., Wood D., Malhi Y., Drivers, Evidence, Tropical Forests, Ecology, Laurance W.F., Mitchard E.T.A., Sitch S., Lloyd J., data, wide Amazon forest, basin, increase, hypothesis, Heijden G., van, Vasquez R., Terborgh J., Torres A., Silva N., ter Steege H., Rudas A., Ramirez H., Ramirez F., Stropp J., Schwarz M., Silveira M., Salomao R., Quesada C., Pitman N., Prieto A., Cruz A.P., Penuela M.C., Vargas P.N., Nepstad D., Neill D., Andrade A., Monteagudo A., Mendoza C., Laurance W., Killeen T., Jimenez E., Honorio E., Higuchi N., Herrera R., Freitas A., Feldpausch T.R., Di Fiore A., Silva J., Erwin T., Davila N., Chave J., Chao K.J., Brando P., Bonal D., Blanc L., Banki O., Aymard G., Arroyo L., Amaral I., Alvarez E., Oliveira A.C.A., Almeida S., Peacock J., Gonzalez G., Lopez, Baker T.R., Malhi Y., Quesada C.A., Peacock J., Gonzalez G.L., Malhi Y., Silva J.N.M., Neill D.A., Monteagudo A., Nascimento H., Laurance S.G., Killeen T.J., Higuchi N., Erwin T., DiFiore A., Arroyo L., Almeida S., Pitman N.C.A., Laurance W.F., Phillips O.L., Baker T.R., East Africa, services, biogeography, regional biogeochemistry, content, future climate, Implications, Thornton P.K., challenges, progress, study, Tanzania, REDD, Zahabu E., Williams A., Willcock S., Swetnam R.D., Shirima D., Nashanda E., Munishi P.K.T., Milledge S.A.H., Miles L., Meshack C., Marshall A.R., Lyatuu G., Lovett J.C., Kilawe E., Kilahama F., Kabalimu K., Haule C., Harrison P., Hagelberg N., Funder M., Dalsgaard S., Danielsen F., Clairs T., Bahane B., Burgess N.D., northern Borneo, lessons, tropical forests, high value, Hamer K.C., Ong R.C., Maryati M., Khen C.V., Magintan D., Ahmad N., Tawatao N.B., Edwards D.P., Hill J.K., Marshall A.R., Burgess N.D., Balmford A., Mwakalila S., Ricketts T., Willcock S., Munishi P.K.T., Mbilinyi B.P., Fisher B., Swetnam R.D., Eastern Arc Mountains, Tanzania, woodlands, composition, structure, storage, Zahabu E.M., Swetnam R.D., Balmford A., Marshall A.R., Burgess N.D., Central African Tropical Forest, Monodominance, Soil, Lewis S.L., Quesada C.A., Lloyd J., Sonke B., Peh K.S.H., spatial model, data, satellite, climate, models, forests, alpha diversity, Hardy O.J., Van Valkenburg J., Thomas D., Tchouto M.G.P., Swaine M.D., Sunderland T.C.H., Sonke B., Senterre B., Reitsma J.M., Peh K.S.H., Parren M.P.E., Kouka L.A., Kouassi E.K., Kouame F.N., Kenfack D., Gillet J.F., Gautier L., Fauset S., Doucet J.L., Dauby G., Comiskey J.A., Chatelain C., Chuyong G.B., Bakayoko A., Baffoe K., Affum, Sosef M.S.M., Sheil D., Nusbaumer L., backscatter, band, temporal L, multi, central Africa, boundary region, forest, degradation, deforestation, encroachment, changes, Meir P., Rowland C., Sonke B., Woodhouse I.H., Feldpausch T.R., imagery, biomass, tropical Africa, first map, Comment, Meir P., Woodhouse I.H., Gerard F.F., Feldpausch T.R., data, tropical forest, tool, application, ForestPlots.net, Phillips O.L., Burkitt M., traits, global database, TRY, Wirth C., Zanne A.E., Zaehle S., Yguel B., Wright S.J., White S., White M., Weiher E., Waldram M., Thornton P., Thompson K., Swenson N., Swaine E., Soussana J.F., Sosinski E., Siefert A., Shipley B., Shiodera S., Sardans J., Negre B., Salgado, Sack L., Reu B., Reinsch S., Rammig A., Proulx R., Prinzing A., Poschlod P., Poorter L., Poorter H., Pillar V., Phillips O.L., Penuelas J., Pausas J.G., Paula S., Patino S., Ozinga W.A., Overbeck G., Ordonez J., Onoda Y., Onipchenko V.G., Oleksyn J., Ogaya R., Nuske A., Nollert S., Niinemets U., Naeem S., Nadrowski K., Muller S.C., Moles A.T., Messier J., Medlyn B.E., Massad T., Manning P., Mahecha M.D., Ma S., Louault F., Llusia J., Lloyd J., Lenz T., Lens F., Leishman M., Lee T.D., Laughlin D., Kurokawa H., Kuhn I., Kramer K., Knops J.M.H., Klotz S., Kleyer M., Kitajima K., Kirkup D., Kerkhoff A.J., Joly C.A., Jansen S., Jalili A., Hodgson J.G., Higgins S.I., Hickler T., Gutierrez A.G., Green W.A., Gallagher R.V., Fyllas N.M., Freschet G.T., Frank D., Ford H., Flores O., Finegan B., Fidelis A., Mendez F., Fernandez, Fang J., Fagan W.F., Estiarte M., Esser G., Elser J., Durka W., Duarte L., Dobrin B.H., Craine J.M., Cornwell W.K., Coomes D., Chave J., Chapin F.S., Chambers J.Q., Bares J., Cavender, Casanoves F., Bunker D.E., Bradstock R., Bond W.J., Blonder B., Blanco C.C., Bekker R., Baldocchi D., Baker T.R., Bahn M., Atkin O., Anand M., Ackerly D.D., Soudzilovskaia N.A., Enquist B.J., Reichstein M., Bodegom P.M., Harrison S.P., Violle C., Cornelissen J.H.C., Wright I.J., Reich P.B., Westoby M., Garnier E., Bonisch G., Leadley P., Prentice C., Lavorel S., Diaz S., Kattge J., vol, Tanzania, degradation, deforestation, costs, Implementation, Balmford A., Willcock S., Turner R.K., Swetnam R.D., Munishi P.K., Malimbwi R.E., Burgess N.D., Tanzania, degradation, deforestation, costs, Implementation, Balmford A., Willcock S., Turner R.K., Swetnam R.D., Munishi P.K., Malimbwi R.E., Burgess N.D., trees, diameter allometry, Height, Lloyd J., Woll H., White L., Tan S., Taedoumg H.E., Sonke B., Schrodt F., Saiz G., Reitsma J.M., Raventos M.T., Peh K.S.H., Patino S., Palace M., Nogueira E.M., Nilus R., Nelson B.W., Moran E.F., Mitchard E.T.A., Metcalfe D.J., Marshall A.R., Lenza E., Marimon B.H., Marimon B.S., Lovett J.C., King D.A., Kemp J., Keller M., Kassim A.R., Salim K.A., Iida Y., Hunter M.O., Higuchi N., Hladik A., Gonzalez G., Lopez, Fyllas N.M., Franca M.B., Fearnside P.M., Drescher M., Domingues T.F., Djagbletey G., Chave J., Camargo P., Brondizio E.S., Bird M., Berry N.J., Arets E., Baffoe K., Affum, Quesada C.A., persistent cloud, high biomass, problems, Gabon, Lope National Park, LiDAR, radar, biomass, Meir P., Woodhouse I.H., Leal M.E., Lefsky M.A., Collins M., Ghana, tropical forests, functional composition, shifts, Drought, M.D., Swaine, E.G., Foli, K., Baffoe, Affum, T.R., Feldpausch, H., Wöll, L., White, S., Tan, H., Taedoumg, B., Sonké, J. M., Reitsma, H., K. S, Peh, R., Nilus, D., Metcalfe, G., Gonzalez, Lopez, D. A., King, A. R., Kassim, K. A., Salim, Y., Iida, A., Hladik, D. W., Hilbert, N., Higuchi, M., Drescher, S., Davies, R. J. W., Brienen, M., Bradford, N. J., Berry, E. J. M. M., Arets, K., Baffoe, Affum, J., Lloyd, T. R., Baker, O. L., Phillips, T. R., Feldpausch, L., Banin, importance, biodiversity, sites, services, rapid assessment, toolkit, TESSA, J.C, Birch, S.H.M, Butchart, C., Brown, R.B., Bradbury, A., Balmford, K.S.-.H., Peh, change, tropical rainforests, resilience, P.M., Cox, R. A., Fisher, S., Sitch, L.M., Mercado, Galbraith, P., Zelazowski, C., Huntingford, measurements, data, earth, East Africa, fluxes, change, Land, R., Marchant, plots, forest, productivity, Methods, O.L., Phillips, T.R., Baker, A., Monteagudo, R.J.W., Brienen, G., Gonzalez, Lopez, Amazonian trees, rates, demographic traits, O.L., Phillips, M., Alexiades, Laurance W. F., E., Gloor, S., Magallon, R. T., Pennington, T.R., Ecography Baker, diversity, historical processes, light, communities, structure, Phylogenetic composition, et al, Carlucci, Ecology, Journal, Amazonian forests, diversity, composition, disturbances, small effects, Consistent, et al, Baker, Amazonian forests, large lianas, dominance, B., Vinceti, M., Saldias, W., Palacios, A., Jardim, T., Erwin, A., Di Fiore, C., Ceron, M., Alexiades, P. N., Vargas, D., Neill, A. M., Mendoza, Y., Malhi, turnover, Amazon, process, Pattern, Vinceti B., Lezama A.T., Salidas M., Quesada C.A., Pitman N.C.A., Patino S., Palacios W., Olivier J., Nascimento H.E.M., Laurance S.G., Kuebler C., Erwin T., Di Fiore A., Czimczik C.I., Comiskey J.A., Chave J., Brown S., Almeida S., Alexiades M., Martinez R.V., Terborgh J., Silva J.N.M., Vargas P.N., Neill D.A., Monteagudo A., Malhi Y., Lloyd J., plots, evidence, dynamics, structure, changes, Vinceti B., Vargas P.N., Kuebler C., Chave J., Brown S., Martinez R.V., Lezama A.T., Terborgh J., Silva J.N.M., Neill D.A., Laurance W.F., Higuchi N., Almeida S., Malhi Y., Lloyd J., Baker T.R., Phillips O.L., plots, biomass, Martinez R.V., Silva J.N.M., Pitman N.C.A., Vargas P.N., Neill D.A., Monteagudo A., Laurance W.F., Laurance S.G., Killeen T.J., Higuchi N., Erwin T., Di Fiore A., Arroyo L., Almeida S., Malhi Y., Phillips O.L., Baker T.R., Amazon Rainforest, Drought Sensitivity, Lezama A., Torres, Terborgh J., Silva N., Salamao R., Rudas A., Angulo H., Ramirez, Vargas P.N., Pitman N.C.A., Cruz A.P., Laurance W.F., Killeen T.J., Keeling H., Honorio E., Di Fiore A., Erwin T., Chao K.J., Andrade A., Andelman S., Davila E.A., Zelazowski P., Vasquez R., Stropp J., ter Steege H., Thomas A.S., Silveira M., Silva J., Schwarz M., Ramirez F., Prieto A., Penuela M.C., Patino S., Nepstad D., Neill D.A., Morel A., Mendoza C., Meir P., Lloyd G., Jimenez E., Higuchi N., Gloor E., Freitas M.A., Feldpausch T.R., Czimczik C.I., Cardozo N.D., Oliveira A.C.A., Chave J., Brando P., Bonal D., Blanc L., Banki O., Baker T.R., Aymard G., Arroyo L., Amaral I., Almeida S., Heijden G., van, Quesada C.A., Peacock J., Monteagudo A., Malhi Y., Gonzalez G., Lopez, Lloyd J., Fisher J.B., intact African tropical forests, storage, Woll H., Votere R., Thomas S.C., Taylor D., Taplin J., Swaine M.D., Sunderland T., Sheil D., Peh K.S.H., Peacock J., Ndangalasi H.J., Mbago F.M., Malhi Y., Makana J.R., Lovett J.C., Lloyd J., Hladik A., Hart T., Gloor M., Hamilton A.C., Feldpausch T.R., Ewango C.E.N., Djuikouo M.N., Comiskey J.A., White L., Reitsma J.M., Phillips O.L., Ojo L.O., Baker T.R., Baffoe K., Affum, Sonke B., Gonzalez G., Lopez, continents, tropical regions, stocks, forest, Benchmark map, Morel A., Silman M., White L., Petrova S., Hagen S., Forests, World, Sink, Hayes D., Sitch S., Rautiainen A., Piao S.L., McGuire A.D., Pacala S.W., Jackson R.B., Ciais P., Canadell J.G., Amazon Drought, D., Nepstad, G. M. F., Heijden, van, O. L., Phillips, P. M., Brando, African tropical forests, structure, biomass, L., Zemagho, G.M., Heijden, van, G., Gonzalez, Lopez, S.K., Begne, T., Sunderland, B., Sonké, Professor Lewis, co, repository, trees, locations, RAINFOR, South America, network, tropical Africa, countries, AfriTRON, remote locations, extensive fieldwork, African Tropical Rainforest Observation Network, AfriTRON, time, individual trees, plots, tropical forests, only African network, Professor Lewis, journals, papers, peer, major databases, chapters, Lucile Packard Foundation, David, Betty Moore Foundation, Gordon, Gabon, Government, Leverhulme Trust, Royal Society, National Environment Research Council, funders, positions, doc, post, his PhD, his PhD, applications, Leeds, students, students, Simon, pieces, policy, science, several times, BBC’s Today, Simon, G20 countries, science, national academies, group, IAP, change, Copenhagen UN conference, change, tropical forests, statement, IAP, Academies Panel, Inter, drafting, Simon, side, climategate’, emails, climate, release, Copenhagen international negotiations, collapse, science, change, poor reporting, height, Sunday Times, misleading article, successful campaign, headlines, Simon, example, makers, public talks, commentary, activities, public understanding, tropical lands, products, systems, rural poverty, indigenous peoples, prospects, conservation, change, degradation, their deforestation, tropical forests, relevant areas, Professor Lewis’ research, CNN, BBC, radio, TV, newspapers, change, tropical forests, Dr Lewis’ research, future, global environmental changes, systems, cycle, much carbon, their important functions, forests, species, tropical forests, biome, functional trajectory, synthetic understanding, his research, specific focus, severe outcomes, environmental disruption, environmental thresholds, lives, population, century, humanity, key issues, system, Earth, humans, His primary interest, change, global environmental change, tropics, central focus, ecologist, Simon, Plant Sciences, Department, Cambridge, University, PhD, Ecology field, Environment, scientists, world, his research, international impact, Philip Leverhulme Prize, Royal Society University Research Fellow, Simon, Leeds, University, equivalent position, position, University College London, Global Change Science, Professor, Simon Lewis]</t>
+  </si>
+  <si>
+    <t>[Human Geography, Progress, good fortune, place, human geography, Moral progress, D. M., Smith, Environment, Place, Ethics, South Africa, post, development, ethics, Social justice, D. M., Smith, Human Geography, Progress, beneficence, spatial scope, D. M., Smith, Blackwell, Oxford, Socialist Societies, Post, Conflict, Regional Change, Urban, Socialism, Cities, editors, Szelenyi, M Harloe, G Andrusz, socialist city, D. M., Smith, Belhaven, London, South Africa, Change, Geography, editor, Lemon, apartheid, social justice, Redistribution, D. M., Smith, Difference, World, Ethics, Moral Geographies, December, July, Leverhulme Fellowship, research, Palestine, Israel, settlement, land, conflict, east European city, moral landscape, apartheid, South Africa, moral issues, cases, social justice, rights, general concepts, understanding, studies, research, moral theory, social justice, aspects, natural resources, land, entitlement, movement, boundaries, moral significance, moral geographies, notion, other issues, work, common ground, ethics, geography, interface, work, reviews, community, moral aspects, beneficence, spatial scope, development, moral issues, papers, foundation, geographical inquiry, moral philosophy, literature, thorough exploration, first phase, social injustice, inequality, geography, normative issues, rigorous understanding, purpose, moral philosophy, ethics, geography, disciplines, interface, Current research]</t>
+  </si>
+  <si>
+    <t>[Jones J P, Smith S J Pain R Marston S A, Social geography, Economic society, Lee R, Lee R, Fuller D Jonas AEG, V, political economic geographies, diversity, alternatives, radical immanence, Imagination, architects, bees, Spiders, Lee R, Sunley P, Leyshon A Lee R McDowell L, economic geographies, Ordinary economic geographies, Tomaney eds Lee R, Pose, Pike A Rodríguez, economic geographies, spatialities, Local economic development, material, outwith, Withn, Livingstone D N eds Lee R, Agnew J A, economic knowledge, places, capital, value, Circuits, hegemony, Spaces, Hughes A eds Lee R, Pollard J McEwan C, ch, economic geographies, worlds, violence, theory, Acts, Hillebrand S eds Lee R, M, Zademach H, Economic Geographies, Space, Value, Social Relations, Economic Difference, Possibilities, Lee R, Castree N Kitchen R Lawson V Paasi A Philo C Roberts S Withers C W J, editor, Lee R, scales, variety, economic geographies, social construction, same time, capitalism, values, norms, ways, particular interest, economic geographies, cultural construction, interests, Roger Lee]</t>
+  </si>
+  <si>
+    <t>[Persian Gulf, circulation, sea, land, climatology, Observed, B. W., Atkinson, M., Zhu, Persian Gulf, layer, environment, Numerical modelling, R. S., Plant, G., J, Li, B. W., Atkinson, zone, Southern Ocean sea, polynyas, size, concentration, spatial variations, Atmospheric response, B. W., Atkinson, R. A., zone, Southern Ocean sea, atmospheric response, Numerical modelling, B. W., Atkinson, R. A., Dare, Meteorological Office, Defence, Ministry, Commonwealth Office, Foreign, British Council, ODA, NERC, research, scales, wide range, fluid, interests, groups, wide organization, Europe, ERCOFTAC, Combustion, Turbulence, Flow, European Research Community, Reading, University, Meteorology, Meso, Joint Centre, links, Meteorological Office, Collaboration, topics, assistants, post, layer, coastal areas, environment, layer, polynyas, effects, flows, demise, development, creation, structure, radiation, entrainment, stability, orography, effects, valleys, slopes, time, night, daytime, analyse, m., scale, flows, analysis, Large Eddy Simulation model, smaller scale, model, meso, Meteorological Office, numerical models, programme, studies, air, forecasting, flows, understanding, obvious applications, applied science, contexts, significance, surface, inhomogeneity, flows, range, meso, small end, flows, numerical modelling, research, field, km, characteristic horizontal dimensions, atmospheric circulations, scale, meso, realms]</t>
+  </si>
+  <si>
+    <t>[urban studies, comparative approaches, students, applications, comparative urbanism, urban theory, recent developments, group, City Strategies, Community Participation, Comparative Urbanism, power, City space, Methods, Globalisation, Space, MSc courses, October, UCL, DPU, Barbara Lipietz, collaborative work, Planact, participation, links, Johannesburg GDS, London Plan, comparative work, activities, URBNG007, teaching, community, ongoing collaborations, June, conference, Space, joint Urban Salon, organiser, co, London Plan processes, groups, links, 8), conceptualisation, document, Robinson, Cities Alliance, World Bank, African countries, reports, state, programme, generation, Participation, July, January, which Robinson, groups, NGOs, local governments, ACC, production, knowledge, joint initiative, Central City Urban Laboratory, ACC, Cities, African Centre, Participation, netowrks, developmental partnership, training, global urbanism, Robinson’s, Cities Reporting, State, Good Practice Guide, formulation, Robinson, metros, development, city, guidance, South African Cities Report, SACN State, Robinson, document, which Robinson inputs, strategies, international experiences, Desktop review, commitments, resonant range, commitment, strategy, contributions, television, main morning, gathering, October, process, part, Johannesburg City Council’s international conference, GDS2040, draft, Robinson, Johannesburg’s City Strategy, politics, Studies, regions, global city, GCRO, Region Observatory, Gauteng City, collaboration, research, period, development, London, tour, various occasions, Johannesburg, officials, councillors, Robinson, strategic policy, Johannesburg, approach, strategies, international experience, Development Strategy, Growth, document, background, South African cities, urban development, conceptualisation, documents, background, poorer cities, development, politics, wider urban studies, its implications, respect, analysis, world, seminal critique, Geography, empirical practices, ways, space, feminist theorizations, psychoanalytic writing, Julia Kristeva, implications, methodology, difference, questions, feminist politics, issues, South African cities, racial interaction, spaces, Johannesburg, Empire Exhibition, example, South African politics, relation, cities, space, power, relationship, Previous research, international urban theory, methodological experiments, strategies, London, research, regions, global city, international theorisation, mobility, geopolitics, questions, progress, research, Grant applications, preparation, topic, book, comparative urbanism, conceptualisation, cities, international theorisation, tactics, appropriate methods, argument, recent writing, poorer cities, urbanism, economic resources, developmentalism, policies, resources, urban theory, claim, book, cities, Third World, practical divide, frames, urban modernity, interplay, pp, vol, Political Geography, territory, citizens, states, South African cities, geopolitics, J., Robinson, D7, NAi publishers, Rotterdam, Apartheid, Architecture, Blank, I., Vadislavic, H., Judin, change, space, J., Robinson, pp, vol, Space, Society, Planning D, Environment, city, democracy, Spaces, J., Robinson, pp, Routledge, London, Power, Entanglements, eds, J., Sharp, P., Routledge, C., Philo, noisy surveillance, femininity, spatiality, friendship, Power, J., Robinson, vol, British Geographers, Institute, Transactions, transformation, spaces, Feminism, J., Robinson, vol, Regional Research, Urban, International Journal, map, view, World Cities, Global, J., Robinson, vol, Southern African Studies, Journal, Empire Exhibition, Johannesburg, African Participation, interaction, spaces, Cities, J., Robinson, Urban Studies, Introduction, Edgar Pieterse, Special Issue, Cities, Interventions, Inventions, Thokozani Xaba, Debby Bonnin, Richard Ballard, Claire Bénit, special issue, Monde, Revue Tiers, French, publication, Reversioned, Urban Forum, Durban, democracy, new forms, Development, Open University, Sage, London, Clive Barnett, Gillian Rose, Demanding World, Globalisation, Geographies, Pgs, UCT Press, Isandla, Cape Town, South African Experience, Lessons, Developmental Local Government, S., Parnell, E., Pieterse, M, Swilling, M. van Donk, South African Local Government, Discontinuities, Continuities, Princeton University Press, Princeton, Gyan Prakash, ed, Noir Urbanisms, Past, Dystopia, Minnesota Press, University, Minnesota, Mobile Urbanism, eds, K. Ward, E. McCann, Global Urban Governmentality, City Strategies, Circulating Knowledge, Spaces, Blackwells, Oxford, Urban Studies, New Companion, eds, S. Watson, G. Bridge, Southern Cities, neoliberalism, post, Travelling Theory, Sue Parnell, Regional Research, Urban, International Journal, comparative gesture, Cities, World, Cities, Regional Research, Urban, International Journal, comparative urbanism, archives, Comparative Urbanism, editorial, Comparative Urbanism Virtual Issue, eds, S. Oldfield, S. Parnell, Global Urban Studies, Comparison, Urban, Theorising, New Geographies, eds, S., C.and Rufat, Pierdet, M., Giroud, P, Lambony, L. Gervais, J, Piermay, A., Le Blanc, agendas?’, Competitive cities, Developments Symposium, Regional Research Debates, Urban, International Journal, Urban Theory, Nature, Global Urbanisms, joint introduction, Ananya Roy, October, UCL, what, colleagues, super group, The Open University, good long stint, LSE, time, Natal, KwaZulu, University, 1990s, half, years, Cambridge, University, Geography, PhD, Durban, Natal, KwaZulu, University, Geography, MA studies, Hons, my undergraduate]</t>
+  </si>
+  <si>
+    <t>[schools, British universities, use, material, television, film, large archive, project, Tate Modern, centre, Castle, Elephant, Speaker’s Corner, London, sites, number, events, series, part, project, issue’, specific acts, accounts, badges, use, everyday political acts, Public Policy Research, Institute, expertise, politics, paper, Georgina Born, ESRC, interdisciplinary research, papers, European Parliament, Technology Options Assessment, Science, office, policy, science, spokesperson, Dr Jeremy Bray MP, assistant, student, long period, policy, science, wider debates, practice, other ecologies, geographical research, relation, question, geographical canon, scope, geography, philosophy, history, my own teaching, Social Theory, Anthropology, Technology Studies, Science, scholars, chapters, our analysis, Born, Barry, essays, collection, publication, project, natural sciences, boundaries, interdisciplinary research, modes’, broader analysis, industry, ethnographic research, science’, art, environmental research, interdisciplines’, range, fieldwork, study, interdisciplinarity, ESRC funded study, Gisa Weszkalnys, Marilyn Strathern, Georgina Born, anthropologists, team, Andy Goffey, Michael Halewood, Nigel Thrift, Celia Lury, Mariam Fraser, Don Slater, Nikolas Rose, Thomas Osborne, others, collaboration, work, collections, number, publication, Isabelle Stengers, AN Whitehead, Gabriel Tarde, Michel Callon, Bruno Latour, Michel Foucault, philosophers, social theorists, work, engagements, series, politics, materiality, relation, My approach, political situation’, idea, development, political life, materials, critical importance, way, politics, government, relation, account, same time, materials’., what, invention, economic spaces, transformation, materials, technologies, role, relations, question, Geographers, Kärg Kama, futures, oil, theses, doctorates, former students, Thomas Turnbull, effect’, efficiency, idea, history, Irem Kok, hydraulic fracturing, politics, topics, energy, doctoral students, economy, geopolitics, Anthropocene, idea, politics, cosmopolitics, Isabelle Stengers’ analysis, human geography, which energy, manner, materiality, interest, industry, my recent work, energy, my interest, part, energy, politics, concept, second concern, Rachel Tily, Geosciences’, Practice, Space, project, DPhil, environmental sciences, geo, transformation, materials’, what, invention, pharmaceutical research, conduct, chemistry, complex impact, pharmaceutical laboratory, ethnographic study, landslides, materials, pipeline, steel, quality, example, research, political importance, earlier work, field, materials, lively behaviour, problem, general physical principles, derivation, environmental sciences, geo-, chemistry, engineering, natural sciences, political significance, importance, interest, information, sources, quality, which controversies, conditions, materials, activity, materials, information, production, way, My recent book, European Union, transnational political space, politics, constitution, technical devices, vital role, My book, economic life, technologies, materials, importance, concern, my research, heart, republication, G. Born, A. Barry, public experiment’, public engagement, Science, Art, A., Barry, G., G., Born, A., Barry, integration, accountability, Multiple Environments, A., Barry, G., Weszkalnys, Santa Cruz, California, University, Halle University, Istanbul Technical University, New York University, positions, Michel Foucault, work, papers, collections, publication, geographical theory, innovative initiatives, series, his first book, Andrew’s subsequent publications, ESRC, additional funding, experience, Technology Options Assessment, Science, Parliamentary office, formation, European Parliament, scholarship, Andrew, student, Masters’ programme, Academic Director, Oxford, St Catherine’s College, Fellow, Environment, Geography, School, Political Geography, Professor, Geography, Reader, Oxford University, Andrew, Goldsmiths’ College, Sociology, Department, Brunel University, Human Sciences, Department, Lectureships, Technology Studies, Science, his DPhil, Sussex, University, Science Policy Research Unit, ESRC studentship, joint SERC, Cambridge University, Science, Philosophy, History, Natural Sciences, Andrew Barry]</t>
+  </si>
+  <si>
+    <t>[QMUL studentship, Prof Dave Horne, London, Queen Mary University, Britain, MIS, Climate variability, EPSRC SECRET programme, August, thesis, Dr Ruth Morgan, Crime Science, UCL Department, Interpretation, Forensic Provenance, Geochemical Analysis Techniques, Evaluation, Broads Authority, CASE award, NERC London DTP studentship, Prof Dave Horne, London, Queen Mary University, academics, NGO representatives, ministers, small group, Commonwealth Office, UK Foreign, London, environmental change, Nigeria Bilateral Forum, UK, participant, P. R. China, Gansu Province, officials, managers, brochure, Mandarin, English, Western China’s, footage, Superstorm’, History Programme, BBC Science, consultant, record, Britain, hottest year, finding, connection, BBC Lunchtime news, piece, work, May, Sahara, drying, connection, programme, school, equipment, lab, money, grant, project, part, opportunity, children, Royal Society, grant, project, partner, Surrey, junior school, exciting project, event, Antenna Live’ gallery, London Science Museum’s, wider public, Thames Branch, Kingston, Geographical Association, forms, change, lectures, children, Year, fieldwork, OPen Air, OPAL, participant, organizer, environmental microscopy, Talented’ event, Gifted, Southwark Schools, organizer, lake, analyses, oxygen, years, Caribbean region, circum, Climate variability, K00610X/1, NE, NERC standard grant, major themes, comparisons, data, interactions, Holocene environments, late Pleistocene, understanding, reconstruction, palaeolimnological approach, Lake Baikal, arid Olkhon Pri’olkhon region, saline lake, change, Vegetation, H., Watson, D., White, P., Tarasov, E., Shilland, A., Shchetnikov, N., Piotrowska, V. N., Panizzo, paleolimnology, Prof Rick Battarbee’s contributions, celebration, Special Issue, editors, N. L., Rose, A. W., V. J. Mackay, Jones, Intertrappean ostracod, geochemistry, element, trace, late Cretaceous Deccan volcanic episode, Peninsular India, Palaeoenvironment, A., Khosla, N., Mandal, C., Bennett, Holocene, Ireland, change, scale, Centennial, I., Armit, K., Becker, J., Wheeler, D., Young, B., Stefanini, O., Stastney, O., Pritchard, P.O., Oksanen, F., McDermott, J., McCarroll, P., Langdon, J., Holmes, N., Branch, A., Blundell, J., Blackford, F.J.G., Mitchell, F.M., Chambers, M.J., Amesbury, H.M., Roe, H.A., Rea, T.E., Turner, B.R., Gearey, G., Schettler, G., Plunkett, T.P., Roland, D.J., Charman, T.J., Daley, M., Blaauw, I.P., Matthews, I.T., Lawson, G.T., Swindles, China, Inner Mongolia, Badain Jaran Desert, lakes, conductivity, function, relationships, Diatom, X., Yang, B., Zhu, geochemistry, palaeoecology, Evidence, Mediterranean coastal lagoon, Holocene evolution, change, sea, climate, influence, M. R., Miracle, F., Joanes, Mesquita, conditions, land, climate, changes, their implications, West African Sahel, records, K., Ficken, F., Perrott, Street, Holocene, Holocene, SW Iran, Lake Parishan, hydroenvironment, Human impact, S. E., Metcalfe, L., Thomas, D., Noorollahi, K., Alamdari, A., Lashkari, M. J., Leng, J. L., Weeks, J., Holmes, M., Djamali, M. D., Jones, Quaternary Science Reviews, simulations, western Ireland, event, records, Lake, E. H., Fisher, A., March, L., A, Jourdan, T., Atkinson, M., O'Connell, I., Feeser, A., J. D. Bingham, Marshall, W., Marshall, N., Roberts, J., Tindall, J. A., Holmes, Forensic Sciences, Australian Journal, locations, close proximity, samples, source, single-, geochemical discrimination, potential, J., Holmes, R.M., Morgan, K., Cheshire, Quaternary Science Reviews, arid NW China, sediments, Holocene, chronologies, inorganic carbon, Chen F, Holmes JA, Henderson ACG, Guo X, Li S, Huang X, Qiang M, Ma X, Zhang J, Quaternary Science, Journal, Central Mexican Crater lake, La Piscina de Yuriria, years, Climatic variability, J.D., Marshall, H.L., Jones, S., Metcalfe, J.A., Holmes, Holocene, Barbuda, Freshwater Pond, ‘Little Ice Age’, Caribbean effective precipitation, reconstruction, sediment, S., Perdikaris, J. D., Marshall, A., Bain, L. M., Kennedy, J. A., Holmes, M. J., Burn, Quaternary Science, Journal, Perrott, Professor Alayne Street, honour, papers, processes, Quaternary palaeoenvironmental proxies, Editorial, M. J., Leng, P. A., Barker, J.A., Holmes, Perrott, Professor Alayne Street, honour, papers, processes, Quaternary palaeoenvironmental proxies, Special Issue, editors, M. J., Leng, P. A., Barker, ECRC, director, Physical Geography, Professor, Environmental Change, Reader, ECRC, Environmental Change Research Centre, director, UCL, Kingston University, Geography, Reader, Senior Lecturer, Lecturer, Oxford, Hertford College, West Yorkshire, Honley High School, Jonathan]</t>
+  </si>
+  <si>
+    <t>[Urban Futures, UNESCO SCOPE Expert Group, Chairman, Urban Forum, Biosphere, Man, UK UNESCO MAB, Chairman, Ecopolis Development, International Council, President, Human Ecology, Society, President, urban geomorphology, flooding, urban hydrology, materials, relation, urban environment, biophysical changes, forests, geomorphic systems, hydrologic, changes, experience, years, Ian Douglas]</t>
+  </si>
+  <si>
+    <t>[UK, Suffolk, Hoxne, MIS, change, New evidence, G.R., Coope, K.E.H., Penkman, S., Parfitt, northwest Europe, boreal zone, edge, Pleistocene human occupation, C.B., Stringer, J.E., Whittaker, R.C., Preece, S.M., Peglar, B.A., Maher, V., Karloukovski, M.D., Lewis, N.R., Larkin, P.G., Hoare, R., Gale, M.H., Field, G.R., Coope, R.L., Abel, Eds, C.B., Stringer, S.G., Lewis, N., Ashton, British evidence, review, MIS 5e, Last Interglacial, human presence, R.M., Jacobi, N.M., Ashton, UK, Kent, North Downs, feature, Palaeolithic site, sediments, Luminescence, M.J., White, H., Drinkall, UK, Happisburgh, Pleistocene deposits, Hominin footprints, C.B., Stringer, C., Williams, S., Peglar, S.A., Parfitt, M., Lewis, P.G., Hoare, C.R., M.B. Bates, Bates, S., Duffy, I., De Groote, western Europe, earliest Acheulian sites, series, U, ESR, ESR, New chronological data, M., Pope, S., Parfitt, L., J, Locht, N., Lozouet, Limondin, J., Despriée, D., Cliquet, M., Beamish, N., Ashton, Pierre Antoine, I., Candy, D., Schreve, H., M, Moncel, C., Falgueres, O., Tombret, H., J. Tissoux, J, Bahain, D., Moreno, P., Voinchet, Southern Britain, history, early Middle Palaeolithic, late Lower, implications, UK, Hampshire, Warsash, Palaeolithic record, J, UK, Suffolk, Barnham, Recent investigations, northern Europe, MIS, assemblages, Handaxe, C.B., Stringer, R.J., Davis, S.A., Parfitt, River Test, Palaeolithic archaeology, stratigraphy, implications, UK, Hampshire, Warsash, Pleistocene fluvial sediments, chronology, stratigraphy, S., Lukas, R., Briant, N., Ashton, future research, directions, current understanding, Breckland, early Palaeolithic archaeology, P.G., Hoare, M., Hatch, S.A., Parfitt, N., Ashton, project, work, theses, students, southern England, Solent River, Palaeolithic archaeology, stratigraphy, Reading University, British Museum, conjunction, Lynford, Neanderthal site, excavations, Hoxne, High Lodge, Happisburgh, sites, record, older part, My involvement, human presence, environmental constraints, Britain, human occupation, timing, nature, significant contribution, project, Upper Palaeolithic, close, age, end, Happisburgh, oldest Lower Palaeolithic evidence, Britain, human presence, record, project, multi, Leverhulme Trust, Project, other collections, British Museum, sites, records, datasets, ky, years, populations, use, dispersals, ways, route, project, investigator, co, offshore geophysical surveys, onshore, results, onshore geological investigations, My role, Happisburgh, important deposits, shore, shore, extent, project, English Heritage, British Museum, consortium, member, site, environmental signal, assemblages, relationship, key questions, number, team, site, previous work, research, Suffolk, Barnham, new work, project, Africa, oldest examples, footprints, Happisburgh, research, AHOB project, work, project, Paris, Muséum National d’Histoire Naturelle, Natural History Museum, British Museum, collaboration, project, Middle Palaeolithic transition, Lower, MIS, lithic record, environment, area, earliest human presence, evidence, East Anglia, Breckland region, Palaeolithic record, project, Leverhulme Trust, year, Eastern England, Palaeolithic archaeological record, projects, number, contributions, Britain, Palaeolithic record, geoarchaeology, My research, modules, independent projects, preparation, work, skills, natural environment, processes, students’ understanding, main aims, courses, years, number, Scotland, Cairngorms, class, year, upland environments, UK locations, variety, classes, teaching, field, courses, lecture, activities, wide variety, northwest Europe, boreal zone, edge, Pleistocene human occupation, C.B., Stringer, J.E., Whittaker, R.C., Preece, S.M., Peglar, B.A., Maher, V., Karloukovski, M.D., Lewis, N.R., Larkin, P.G., Hoare, R., Gale, M.H., Field, G.R., Coope, R.L., Abel, UK, Kent, North Downs, feature, Palaeolithic site, sediments, Luminescence, M.J., White, H., Drinkall, S.G., Lewis, I.K., Bailiff, UK, Happisburgh, Pleistocene deposits, Hominin footprints, C.B., Stringer, C., Williams, S., Peglar, S.A., Parfitt, M., Lewis, P.G., Hoare, C.R., M.B. Bates, Bates, S., Duffy, I., De Groote, S.G., Lewis, N., Ashton, western Europe, earliest Acheulian sites, series, U, ESR, ESR, New chronological data, M., Pope, S., Parfitt, L., J, Locht, N., Lozouet, Limondin, S.G., Lewis, J., Despriée, D., Cliquet, M., Beamish, N., Ashton, Pierre Antoine, I., Candy, D., Schreve, H., M, Moncel, C., Falgueres, O., Tombret, H., J. Tissoux, J, Bahain, D., Moreno, P., Voinchet, Southern Britain, history, early Middle Palaeolithic, late Lower, implications, UK, Hampshire, Warsash, Palaeolithic record, S.G., Lewis, R., Hosfield, N., Ashton, M., Hatch, R.J., Davis, Geologists’ Association, Henry Stopes Medal, award, Year, “Rescue Dig, Happisburgh, ancient human footprints, recent discovery, Leverhulme Trust, Mapping Palaeolithic Britain Project, Investigator, Co, Barnham Palaeolithic Excavation, director, Co, Leverhulme Trust, Breckland Palaeolithic Project, Principal Investigator, Happisburgh Palaeolithic Project, Ancient Britain Project, Pathways, Project, AHOB, Britain, Ancient Human Occupation, projects, major UK Palaeolithic, number, Britain, Palaeolithic record, particular geoarchaeology, Quaternary science, focus]</t>
+  </si>
+  <si>
+    <t>[University scholarship, applications’, quality, inventory, Manchester Metropolitan University PhD ‘Development, ARIC, Information Centre, Atmospheric Research, Manchester, University, Landscape, Planning, School, CURE, Regional Ecology, Urban, Centre, Research Associate, Manchester, University, Geography, Development, Education, Environment, School, Geography, Department, Geography, Professor, date]</t>
+  </si>
+  <si>
+    <t>[Libraries, Heritage, Leisure, London Metropolitan Archives, Collage, Guildhall Art Gallery, site, London, Corporation, Jewish Past’, Comparison, London’s East End, Bengali Political Mobilisation, World, Home, PhD, Later Victorian Black Country’, Work, Neighbourhoods, toil, place, students, South Africa, Australia, North America, Britain, doctoral theses, external examiner, extensive experience, Modernity’ -century cities, Modern Cities, module, Urban Imaginations’, Space’, seminars, London’s Housing Problems’., London’, Historical Geography, module, sections, course, convener, podcast, Heritage Underground’, Archive, Memory, discussion, round, UCL, Slade Research Centre, Cities Methodologies’ Exhibitions, Camden Local Studies, Westminster Archives, City, October, London Transport Museum, Tate Britain, London Docklands, Museum, London, Museum, public lectures, audio podcast, January, Edwardian London’, underground travel, possibilities, perils, steam, paper, London, IHR, Metropolis, Travel, Underground, November, Century London, Early Twentieth, Nineteenth-, Mobility, Nature, Less Speed, More Haste, plenary paper, Urban Geography Research Group, Annual Conference, Mobile Urbanisms’, video, May, Hurry’, Architecture, Leicester, University, Urban History, Centre, Annual Lecture’, March, UCL, Americas, Institute, Present’, Canadian Cities, conference, August, Prague, Urban History meeting, European Association, Cities’, Transport, Politics, major session, February, American Geographers, Association, New York meeting, Urban Mass Transit’, Intra, Historical Geographies, Cultural, papers, sessions, sessions, academic conferences, Organizer, underground travel, experience, history, World War I, decades, London Underground, historical geography, Other ongoing research, Toronto, New York, London, spaces, leisure, research, critical interpretation, railways, streets, housing, forms, bridges, e.g., my own research, different strands, spaces, new forms, social survey, mapping, art, literature, American cities, Anglo, new ways, June, Cambridge University Press, film, Toronto, representation, Morley Callaghan, first urban novelist’, ‘Canada, writing, city, moral geography, London, ’s representations, Whitechapel, victims, Ripper, Jack, houses, common lodging, living, loft, penthouses, recent enthusiasm, flats, rise, London, London, social hierarchy, interests, Most, London life, George Gissing’s novels, flats, architectural discourse, dwellings, flats, blocks, context, my methodological approach, eds, Butlin, Black, My chapters, apartments, dwellings’, representation, construction, similar methods, London, Research, advertising, books, contemporary novels, life, representation, study, correspondence, minutes, articles, controversies, studies, property, market, apartments, who, who, probate returns, deeds, records, directories, permits, quantifiable records, analysis, period, Toronto, London, dwellings, class, buildings, class, new residential forms, experience, occupancy, management, ownership, development, my archival research, literary approaches, variety, methodological eclecticism, degree, city, new ways, cities, new spaces’, environment, modernization, early twentieth centuries, late nineteenth, cities, modernity, My research, Research Associate, Leverhulme Research Fellow, periods, Professor, Reader, Social Geography, Nineteenth Century, English Industrial Cities, book, way, Huddersfield, Victorian city, social interaction, Community, thesis]</t>
+  </si>
+  <si>
+    <t>[social inequality, relation, grouping, attainment, English secondary schools, study, Grouping Students’, Best Practice, project, Education Endowment Foundation, Year awards, TES Teacher, National Pupil Premium Awards, panels, various practitioner, judge, Education, panel, sub, REF, member, Becky, theory, educational achievement, social identity, equality, educational contexts, social class, gender, social identities, extensive publications, Her academic expertise, social equality, relation, policy, quality, analysis, research, achievement, gender, her work, Becky, Parliamentary Education Select Committee, Standing Advisor, RSA, Education, Director, her previous roles, example, work, education, social justice, education, career, King’s College London, Social Justice, Education, Professor, IOE, Education, Institute, UCL, Director, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[C.M. Lee, M. Meredith, R. Moritz, M. Steele, R.B. Lammers, K. Aagaard, R.A. Woodgate, A.G. Slater, A.P. Barrett, M.C., Serreze, fishing, piano, gardening, golf, Ice Data Center, National Snow, scientists, specialists, programmers, cryosphere, Earth, work, genetic aberration, solar cells, lasers, my uncle, research, My brother, chemists, my parents, radar, early development, Grandpa, family, outgoing tide, Kennebunk River, floes, skating, sledding, afternoon, plenty, most winters, Maine, cold water, ice, snow, my interest, previous years, comparisons, conditions, sea, scientific analysis, NSIDC scientists, season, summer, month, first week, extent, Arctic sea, updates, lag, time, yields, satellite, Rapid processing, conditions, Arctic sea, round analysis, year, NSIDC, Ice Data Center, National Snow, free Arctic Ocean, ice, rapid transition, concern, downward trend, points, September, minima, extreme seasonal ice, late summer, years, past, ice, global climate, Arctic cool, sunlight, ice, Arctic, rapid environmental changes, sense, years, Efforts, Alaskan tundra, icecaps, ice, Canadian Arctic, work, change, problems, synoptic climatology, interactions, sea, atmosphere, Interests, Arctic, love, cover, snow, cryosphere, our planet, aspects, his research, CIRES, Environmental Sciences, Research, Cooperative Institute, part, NSIDC, Ice Data Center, National Snow, Director, Mark C. Serreze, Boulder, Colorado, Ph.D. University, CIRES, Fellow, NSIDC, Director, Arctic, climate, global implications, Arctic climate, Geography, Research Professor]</t>
+  </si>
+  <si>
+    <t>[statistics, human smuggling, migrant trafficking, global movements, labour migration, UK, Europe, International migration, programme, EU 5th Framework, UCL, Berne, Milan, Amsterdam, Osnabruck, Coimbra, Universities, collaborative project, Integrating Europe, Migration, Political Economy, years, projects, Bristol, University, joint programme, Ethnicity, Migration, D.W., Meyers, D., Papademetriou, European Union, free movement, development, J., Salt, S., Schmidt, London, HMSO, SMPS No, National Statistics, Feasibility Study, Ethnic Group, Population Projections, Ed, J., Haskey, ethnic group, External migration, J., Salt, Eds, Y., Courbage, P., Compton, W., Haug, United Kingdom, case, migrant populations, Demography, J., Salt, P, Compton, D., Coleman, social care, health, foreign workers, migration, Recruitment, J., Salt, K., Hoesch, J., Dobson, W., Blauw, M., Adel, extractive industries, aerospace, sectors, transnational corporations, expertise, movement, mobility, Portfolios, J., Salt, J., Millar, P., Simon, J., Schoorl, M., Okolski, C., Bonifazi, ICT sector, reality, Concept, Europe, Managing new migrations, J., Salt, M., Lesinskiez, M., Duszczyka, expertise, international movement, markets, Europe, mobility, New forms, J., Salt, efds, J, Faulconbridge, J, Beaverstock, F., Witlox, B, Deruder, global companies’, mobility, portfolios, travel, J., Salt, June, OECD countries, immigrants, creation, entrepreneurship, conference, Main findings, J., Salt, M.V., Desiderio, J., Salt, T., Modood, markets, expertise, mobility, Acquisition, P.A., Wood, J, Salt, eds, M., McKee, R., Benedict, Petrova, B., Rijks, W., Deville, P., Mladovsky, B., Rechel, Europe’s international migration, Trends, J., Salt, UK, Polish emigration, M., Okolski, J., Salt, National Statistics, Office, National Audit Office, 1999-, UK Home Office, Australian government, Europe, Council, EU, OECD, Consultant, 2003-, Citizenship, Migration, Leverhulme Programme, Director, Co, UCL, Migration Research Unit, Director, Emeritus 2008-, London, University, UCL, Professor]</t>
+  </si>
+  <si>
+    <t>[journal, Practice’, Cultural Geographies, section, cultural geography, creative ways, essay, exhibition, publications, art, geography, her work, visual art, geography, relationship, project, Royal Holloway, Geography, Department, Performing Arts, Creative, AHRC Fellowship, her award, our successful application, collaborative relationship, Kathy Prendergast, work, longstanding interest, That research, basis, whose research, late twentieth century, Ireland, visual art, focus, Nottingham, University, history, geography, PhD, ideas, knowledge, creative modes, intersections, public, imaginative ways, longstanding interest, interests, topics, cultural geography, research, who, enquiries, London, Muslim communities, teachers, schools, Prevent strategy, fundamental British values, promotion, impacts, Britishness, Mimi Sheller eds, Marie Fortier, Anne, Sara Armed, popular genealogy’, relatedness, cultural geographies, C., Nash, Peter Glasner eds, Paul Atkinson, genetic genealogy’, genetics, relatedness, race, Mapping origins, C., Nash, Irish border, making, regulation, place, border, Graham, B, L. Dennis, C., Nash, Richard Rottenburg eds, David Skinner, Katharina Schramm, Chromosome Surname Studies’, Y, Distinctions, Connections, Irish DNA, C., Nash, British Geographers, Institute, Transactions, genetics’, diversity, national ancestry, Genome geographies, C., Nash, books, basis, papers, research, ancestral origins, distinctive collective ancestry, ideas, human relatedness, geographies, political implications, My research, genetic genealogy, their intersection, genetics, popular genealogy, cultures, technologies, practices, feature, race, gender, ethnicity, categories, difference, human connection, which ideas, ways, ancestry, collective origins, scientific explorations, human relatedness, understandings, Research Fellowship, research, programme, papers, research, border, accounts, divisions, interconnections, differences, collective identities, senses, border, practised dimensions, material, effects, distinctive regional impacts, everyday life, its effects, time, border, nature, project, interviews, archival sources, present day, period, beginning, border, who, perspectives, Northern Ireland, Ireland, border, effects, nature, project, exhibition, research, September, London, Home, Geffrye Museum, exhibition, research, Britain, inheritance, habitation, domestic pre, senses, dimensions, practices, attitudes, knowledges, meanings, experiences, habitation, traces, places, investigation, habitation’, pre, archaeological focus, home, past, public history, forms, everyday domestic spaces, cultural geographies, recent work, project, practice’, Reflections, political geography, Interventions, Raksha Pande, Catherine Nash, Nick Gill, Kye Askins, Nick Megoran, Fiona McConnell, Alex Jeffrey, Alison J. Williams, political geography, papers, set, my contribution, module, Northern Ireland, Ireland, themes, Belonging’, Identity, Geography, module, field, seminar, lecture, basis, my teaching, important dimension, fieldwork, concrete ways, issues, ideas, students, masters, undergraduate, supervisor, tutor, teaching, students, contexts, wide range, issues, approaches, concepts, engagement, learning, supportive context, teaching, My aim, UK, rest, Northern Ireland, Ireland, interests, my long term, Ashgate, AHRC, Irish border, cultural geography, My collaborative research, practice, imagination, historical knowledge, site, home, AHRC, recent collaborative research, work, books, work, human genetic variation, geography, accounts, sexual difference, ideas, making, distinctive focus, descent, contemporary accounts, what, work, genetics, popular genealogy, origins, ancestry, ideas, ESRC Research Fellowship, My recent research, human relatedness, spatial dimensions, people, animals, histories, kinship, work, relations, practices, imaginations, genealogical knowledges, attention, kinship, focus, cultural geographical perspective, relatedness, identity, geographies, interests, feminist cultural geographer]</t>
+  </si>
+  <si>
+    <t>[geography, texts, my career, teaching, papers, pedagogic research, my teaching, Similar themes, social polarisation, social exclusion, inequalities, work, underlying themes, evaluation, children, geographies, education, geographies, interests, Geography, Professor, Manchester, University, Lecturer, My first post, Cambridge, PhD, Madison, Wisconsin, University, postgraduate work, St Catharines College Cambridge, undergraduate degree, British Geographers, Institute, Royal Geographical Society, higher education, geography, learning, teaching, excellence, Francis Award, Taylor]</t>
+  </si>
+  <si>
+    <t>[my work, London, Museum, Capital City galleries, exhibit, interactive pleasure, small example, their collections, experience, museums, way, changes, projects, World, Child, Childhood, Museum, Reconnecting Sloane, Natural History Museum, eighteenth century, empire, river, Thames, representations, Royal Navy, culture, masculinity, National Maritime Museum, AHRC Collaborative Doctoral Awards, supervisor, London, Museum, National Maritime Museum, advisory committees, present member, past, museums, teaching, My research, museums, projects, who, places, other periods, communication, knowledge, power, space, questions, applicants, empire, maritime history, global trade, questions, knowledge, questions, relation, long eighteenth century, historical geography, aspect, research, applicants, autumn, autumn, historical geography, work, space, landscape, politics, memory, History, M. Ogborn, Marriage Act, Lord Hardwicke, making, Fleet, geography, most lawless space, M. Ogborn, eds, D. Pinder, M. Ogborn, J. May, P. Gruffudd, A. Blunt, formation,’, archival research, power, Knowledge, M. Ogborn, eds, Viles, H., A. Rogers, modern world,’, Historical geography, M. Ogborn, C. Nash, eds, C. W. J. Withers, M. Ogborn, Georgian geographies?’, Introduction, C. W. J. Withers, M. Ogborn, ed, C. Wall, empire, trade, travel, other places, C. W. J. Withers, M. Ogborn, Sea’, ‘Historical Geographies, special issue, sea,’, historical geographies, voyages, visions, Currents, M. Ogborn, L. Martins, D. Lambert, James S. Duncan, David Arnold, symposium, book, words, Contribution, M. Ogborn, eds, C.W.J. Withers, M. Ogborn, Bengal,’, empire, print, posterity, amusements, M. Ogborn, essay, word, knowledge,’, geography, betweens, encounters, what, M. Ogborn, Seoul, Hanul Publishing, edition, Poznan, ka Wydawnictwo, Zysk i S, edition, pp, xxii, Beijing, Higher Education Press, edition, Southern Australia, University, Custom Book, M. Ogborn, Culture’, Topographies, Chapter, Athens, Georgia Press, University, pp, xxii, Hemel Hempstead, Prentice Hall, Natural History Museum, short talk, something, boxes, individual hand, specimens, collection, Vegetable Substances, Sloane’s, Victoria Pickering’s research, project, my part, Natural History Museum, collaboration, early Enlightenment, nature, world, knowledge, great transformation, part, zoological specimens, vast range, numerous objects, pictures, multiple albums, books, manuscripts, thousands, his collection, studentships, project, British Museum, basis, eighteenth centuries, seventeenth, greatest collections, letters, man, natural philosopher, traveller, doctor, Sir Hans Sloane, resources, range, museum, redisplay, research, Childhood, V&amp;A Museum, colleagues, Film, Linguistics, Languages, School, Kiera Vaclavik, Geography, School, Alastair Owens, Alison Blunt, supervisory team, Lamees al Mubarak, global citizenship, children, Eithne Nightingale, diaspora, migration, children, Mary Guyatt, empire, home, children, CDAs, distinct Collaborative Doctoral Awards, students, research, present day, London children, lived experiences, Childhood, V&amp;A Museum, Queen Mary, collaboration, different ways, talk, text, many participants, conversation’, agonistic, laden, power, idea, places, people, representation, dominant textual model, theoretical basis, speech, part, speech, modes, Atlantic networks, trans, streets, gardens, courtrooms, talk, spaces, geographies, practices, spatial relationships, case, gossip, evidence, giving, botanical conversation, sermon, ways, cultural practices, past, what, project, emancipation, abolition, movements, politics, religion, natural history, law, Caribbean, societies, un)freedom, text, talk, relationships, project, threat, past, cities, range, public spaces, city, landscape, objects, historical documents, combination, past, city, ground, students, GEG5125/GEG6125, third years, USA, Boston, new fieldcourse, team, part, oceanic voyaging, piracy, slavery, subjects, their own historical accounts, historical sources, students, London museums, visits, GEG6105 –and, module, third year, landscape, picture, their coursework, landscapes, places, spaces, meanings, students, GEG5110, part, second year, university, students, human geography, parts, classroom, resources, range, what, clear guidance, students, my own courses, textbooks, original materials, students, my own research, examples, wide range, key concepts, students, my teaching, postgraduate level, human geography, modules, Caribbean slave, stories, thing, paper, September, Exeter, IBG conference, RGS, Storytelling, Story, Cultural Geographies, Historical, session, work, element, empire, slavery, relations, complexities, spirits, gods, world, communications, islands, plants, discussions, court, evidence, talk, different forms, work, Caribbean, slavery, speech, relationship, Leverhulme Trust Major Research Fellowship, biography, global history, introduction, my attempt, same broad timespan, India, territorial empire, network, writing, forms, variety, English East India Company, ways, London, new geographies, My work, contexts, range, communication, knowledge, space, power, relationships, historical geographer]</t>
+  </si>
+  <si>
+    <t>[degenerations, disease, Alzheimer, autosomal dominant dementias, earliest manifestations, cognitive measures, biomarkers, use, familial dementias, particular interest, therapies, potential, disease, efficacy, serial MRI, cerebral atrophy, automated measures, use, related disorders, disease, Alzheimer, progression, diagnosis, MRI, use, broad grouping, My particular interest, neurodegenerative dementias, cognitive disorders, progression, monitoring, differential diagnosis, early detection, interests, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[constructive dialogues, matches, hope, their persistence, reasons, attitudes, issues, risk, My current work, environment, debates, their descendants, participants, insults, slogans, same arguments, years, Earth, Friends, my involvement, environmental risks, attitudes, persistence, themes, transport, newspapers, programmes, radio, regular contributor, assessment, analysis, cost, modelling, forecasting, parliamentary committees, numerous public inquiries, evidence, environmental issues, public debates, early 1970s, Earth, Friends, Directors, original Board, member]</t>
+  </si>
+  <si>
+    <t>[Essex, University, MiSoC, Social Change, Micro, ESRC Research Centre, directors, co, boards, British Academy Research Project, recognition, religion, British data, online centre, Numbers, British Religion, director, European Values Study, executive committee, religious minorities, ethno, attitudes, values, religion, intergenerational transmission, modern societies, change, religious change, data, David Voas, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>[environment, gender, legislation, reports, academic literature, English, database, development, environment, issues, profile, fellow, Clare Melhuish, CI, PI, Wendy Davis, project, Women’s Design Service, partnership, UrbanBuzz, needs, legal obligation, UK Gender Equality Duty, introduction, women, population, majority, needs, people, shops, offices, sites, entrances, bays, nurseries, sized furniture, Child, their clients, needs, world, Everyone, environment, women, practitioners, academics, QMUL, year, seminars, LWPF, Built Environment’, Gender, project, Urban Buzz, Women’s Design Service, partnership, cultures’, series, LCACE, contemporary London’, women, Capital designs, series, its successful applications, QMUL, Women’s Design Service, its relocation, LWPF, activities, joint publications, series, institutions, students, Childhood, V&amp;A Museum, staff, Queen Mary, Film, Linguistics, Languages, School, Geography, School, staff, CDAs, distinct Collaborative Doctoral Awards, students, research, present day, London children, lived experiences, MoC, Childhood, V&amp;A Museum, Queen Mary, collaboration, World project, Child, PI, day, annual lecture, days, research, conferences, regular workshops, home’, ‘Studies, Historical Research, Institute, monthly seminar, activities, centre, present.’, seventeenth century, London, transitions, connections, work, Home, studentships, AHRC Collaborative Doctoral Award, Aylesbury Estate’, biography, inhabitation, Home, Richard Baxter, Leverhulme Trust Early Career Research Fellowship, PI, Catherine Nash, home’, past, AHRC project, centre, projects, present homes, activities, transfer, research, important hub, centre, Geffrye, Exhibitions, Collections, Head, Eleanor John, London, University, Queen Mary, Home, Geffrye Museum, partnership, Home, Studies, Centre, security, privacy, broader ideas, home, significance, cultures, interior design, architecture, everyday life, domestic sphere, work, research, important focus, home, Leverhulme Trust, Toronto, London, Calcutta, Chinese communities, space, cities, neighbourhoods, Jayani Bonnerjee, Home, Geffrye Museum, AHRC CDA, London, East End, migration, work, Home, Annabelle Wilkins, QMUL studentship, Toronto, London, Indian students, everyday lives, Spatial practices, difference, identities, Subhadra Roy, Home, Geffrye Museum, AHRC CDA, wider world, metropolitan households, Domestic labour, Laura Humphreys, community, arts, participants, workshops, diasporic, communities, connectivity’, idea, social sciences, humanities, transnationality, relation, communities’, idea, review, AHRC, Home, Geffrye Museum, British Geographers, Institute, Royal Geographical Society, partnership, facilitator, community, Cliff Pereira, Jayani Bonnerjee, Cathy McIlwaine, fellow, Johanna Wadsley, CIs, Jane Wills, Alastair Owens, PI, Cathy McIlwaine, team, philanthropic initiatives, corporate social responsibility, various types, London, East End, communities, that corporations, project, Canary Wharf, companies, East London.’, engagement, corporate philanthropy, Queen Mary, Public Engagement, Centre, project, Investigator, Co, New York City, skyscraper, Christodora House, urban dwelling, new ways, study, research, Urban Atlantic.’, international network, British Academy, my involvement, New York, London, houses, historical research, main directions, field, My research, September, exhibition, Geffrye, workshops, project, Invesigators, Co, Alastair Owens, fellow, Caron Lipman, Principal Investigator, Catherine Nash, Home, Geffrye Museum, collaboration, AHRC, research, stories, terms, previous inhabitants, what, focus, past, feelings, perceptions, spaces, material, example, choices, choices, their homes, past, their knowledge, British householders, range, interviews, their homes, history, understandings, ’s attitudes, project, PhD student, Jayani Bonnerjee, fellows, Shompa Lahiri, Rubin, Noah Hysler, Principal Investigator, team, Leverhulme Trust, research, resettlement, origin, places, diaspora cities, diasporic identities, nation, city, importance, research, Brahmo, Indian, Anglo, Calcutta, communities, cosmopolitanism, multiculturalism, terrains, diasporic resettlement, site, city, Other research, past, imaginative connections, material, nation, research, wide range, diaspora, experiences, ideas, Home, Geographies, whole, class, individual, enthusiastic lecturer, Alison, other modules, book, Queen Mary, Geography, David Pinder, Miles Ogborn, Jon May, other colleagues, British Geographers, Institute, Royal Geographical Society, Home, Geffrye Museum, visits, discussions, diaspora, home, module, My part, cultural geography, curatorial practices, module, Practice.’, Cultural Geography, Catherine Nash, new module, Cultures, MA Cities, module, key text, Robyn Dowling, author, creative coursework, opportunities, Home, Geffrye Museum, visit, module, academic accounts, range, contemporary examples, transnational migration, change, experiences, nations, visual arts, literature, creative work, subject, important site, home, home, sense, identity, questions, scales, home, Home’, Geographies, module, module, key text, Jane Wills, author, discussion, time, postcolonialism, sexuality, geographies, feminism, humanistic geography, My lectures, geography, discipline, world, which attempts, ways, students, Critical human geographies,’, module, modules, number, key texts, co, my research, teaching, Masters, My undergraduate, past editor, IBG, RGS, Council, Home, Geffrye Museum, Queen Mary, partnership, Social Sciences, Academy, Academician, Philip Leverhulme Prize, British Geographers, Institute, Royal Geographical Society, Gill Memorial Award, Recent books, UrbanBuzz, Leverhulme Trust, ESRC, AHRC, My research, diaspora, people, home, city, city, new ways, houses, homeland, home, spatial politics, Indian women, Anglo, British India, imperial domesticity, research, diaspora, migration, empire, home, geographies, interests]</t>
+  </si>
+  <si>
+    <t>[your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+  </si>
+  <si>
+    <t>Nigel Leader-Williams</t>
+  </si>
+  <si>
+    <t>Derek Gregory</t>
+  </si>
+  <si>
+    <t>Professor Helen Lawton Smith</t>
+  </si>
+  <si>
+    <t>Professor Myles Allen</t>
+  </si>
+  <si>
+    <t>Prof Julian Dowdeswell</t>
+  </si>
+  <si>
+    <t>Ash Amin</t>
+  </si>
+  <si>
+    <t>Christine Lane</t>
+  </si>
+  <si>
+    <t>Prof. Mike Edmunds</t>
+  </si>
+  <si>
+    <t>Prof Matthew Gandy</t>
+  </si>
+  <si>
+    <t>Professor Colin Clarke(1)</t>
+  </si>
+  <si>
+    <t>Dr Michael Bravo</t>
+  </si>
+  <si>
+    <t>Susan Smith</t>
+  </si>
+  <si>
+    <t>Dr Richard Grenyer</t>
+  </si>
+  <si>
+    <t>Professor John Boardman</t>
+  </si>
+  <si>
+    <t>Professor David Grey</t>
+  </si>
+  <si>
+    <t>Sarah Radcliffe</t>
+  </si>
+  <si>
+    <t>Professor Jim Hall</t>
+  </si>
+  <si>
+    <t>Dr Abi Stone</t>
+  </si>
+  <si>
+    <t>African Studies Centre</t>
+  </si>
+  <si>
+    <t>Professor David Bradley</t>
+  </si>
+  <si>
+    <t>Bhaskar Vira</t>
+  </si>
+  <si>
+    <t>Dr Mia Gray</t>
+  </si>
+  <si>
+    <t>Professor Sir Chris Llewellyn Smith</t>
+  </si>
+  <si>
+    <t>Professor Nick Eyre</t>
+  </si>
+  <si>
+    <t>Professor Andrew Goudie</t>
+  </si>
+  <si>
+    <t>Bill Adams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Sigrid Staurset   </t>
+  </si>
+  <si>
+    <t>Ron Martin</t>
+  </si>
+  <si>
+    <t>Professor David E. Smith</t>
+  </si>
+  <si>
+    <t>Dr Beth Greenhough</t>
+  </si>
+  <si>
+    <t>Professor Benito Müller</t>
+  </si>
+  <si>
+    <t>Darwin College</t>
+  </si>
+  <si>
+    <t>Mike Hulme</t>
+  </si>
+  <si>
+    <t>Ulf B ntgen</t>
+  </si>
+  <si>
+    <t>Professor Judith Pallot(1)</t>
+  </si>
+  <si>
+    <t>Professor Danny Dorling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Dariusz W jcik   </t>
+  </si>
+  <si>
+    <t>Alex Jeffrey Ma PhD</t>
+  </si>
+  <si>
+    <t>Professor Paul Whitehead(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Richard Washington   </t>
+  </si>
+  <si>
+    <t>Professor Heather Viles(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor David S.G. Thomas   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Katrina Charles   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Yadvinder Malhi   </t>
+  </si>
+  <si>
+    <t>Clive Oppenheimer</t>
+  </si>
+  <si>
+    <t>Professor Patricia Daley</t>
+  </si>
+  <si>
+    <t>Professor Gordon L. Clark</t>
+  </si>
+  <si>
+    <t>Honorary Research Associates</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>the British Geological Survey</t>
+  </si>
+  <si>
+    <t>Telecommunications Engineering</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>The Economist magazine</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/leader-williams/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ubc.ca/persons/derek-gregory/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/hlawtonsmith.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/mallen.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/dowdeswell/</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/amin/</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/lane/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/medmunds.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/gandy/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/cclarke.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/bravo/</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/s.smith/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/rgrenyer.html</t>
+  </si>
+  <si>
+    <t>http://www.eci.ox.ac.uk/people/jboardman.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/dgrey.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/radcliffe/</t>
+  </si>
+  <si>
+    <t>http://www.eci.ox.ac.uk/people/jhall.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/astone.html</t>
+  </si>
+  <si>
+    <t>https://www.african.cam.ac.uk/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/dbradley.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/vira/</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/gray/</t>
+  </si>
+  <si>
+    <t>http://www.eci.ox.ac.uk/people/cllewellynsmith.html</t>
+  </si>
+  <si>
+    <t>http://www.eci.ox.ac.uk/people/neyre.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/agoudie.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/adams/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/sstaurset.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/martin/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/dsmith.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/bgreenhough.html</t>
+  </si>
+  <si>
+    <t>http://www.eci.ox.ac.uk/people/bmueller.html</t>
+  </si>
+  <si>
+    <t>http://www.dar.cam.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/hulme/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/cpeach.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/buentgen/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/jpallot.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/ddorling.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/dwojcik.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/jeffrey/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/pwhitehead.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/rwashington.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/hviles.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/dthomas.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/kcharles.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/ymalhi.html</t>
+  </si>
+  <si>
+    <t>https://www.geog.cam.ac.uk/people/oppenheimer/</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/pdaley.html</t>
+  </si>
+  <si>
+    <t>http://www.geog.ox.ac.uk/staff/glclark.html</t>
+  </si>
+  <si>
+    <t>http://www.tsu.ox.ac.uk/people/</t>
+  </si>
+  <si>
+    <t>http://www.eci.ox.ac.uk/people/index.html</t>
+  </si>
+  <si>
+    <t>aspirant</t>
+  </si>
+  <si>
+    <t>Nigel Leader-Williams works to build capacity in conservation through interdisciplinary research and teaching that sits within both natural and social sciences, with a focus on large mammals that conflict with human interests focused on the ecology and management of reindeer introduced early in the 20th century to the sub-Antarctic island of South Georgia, where they faced a novel environment that lacked predators and intra-specific competitors. This research served as a model for later studies of introduced mammals on other southern islands, and showed how differences in the nature and amounts of winter food had served to influence the population trajectories of introduced species. , Department of Zoology, University of Cambridge focused on the ecology and conservation of black rhinoceros in Luangwa Valley, Zambia. Threatened by illegal exploitation, little was known of the management or ecology of one of Africa's largest remaining populations of black rhinos and elephants. Although rhinos became locally extinct in Luangwa Valley, definitive strategies were formulated to manage rhinos and elephants under intense pressure from illegal exploitation, and the study provided the first scientific assessment of the effectiveness of conservation funding. As Chief Technical Advisor in Tanzania's Department of Wildlife, I established a planning unit to develop an information management system for the wildlife sector, and to create policies to enhance the conservation and economic potential of wildlife. Responsible to the Director of Wildlife, I initiated status assessments, organised appropriate consultative workshops, and completed national policies and management plans, including a review of the complex institutional structure of Tanzania's wildlife sector. Tanzania now moves slowly forward with implementing community-based conservation through locally managed wildlife management areas. At the Durrell Institute of Conservation and Ecology, my research group both investigated conflicts between conservation, people and other large mammals, and built research capacity in biodiversity-rich developing countries. Issues studied included: human-animal conflict, community-based conservation, common property resources, sustainable resource use, wildlife tourism, protected area management and planning, law enforcement and the implementation of international conventions. To address such issues, we studied a wide range of species including: African elephants and black rhinos, giraffes, mountain gorillas, bonobos, orangutans, West African manatees, saola, Przewalski's horses, tigers, lions, Ethiopian wolves, Andean bears, striped hyenas, Komodo dragons and Mexican reptiles, and undertook research in a wide range of countries including: Bolivia, Cote d'Ivoire, Democratic Republic of Congo, Ethiopia, Ghana, India, Indonesia, Kenya, Lebanon, Mexico, Mozambique, Namibia, South Africa, Tanzania, Uganda, Vietnam and Zimbabwe. for CITES Scientific Authorities on making non-detriment findings, the key step for successful implementation of the Convention (see Rosser and Heywood 2002). in Canterbury in July 2002, the first ever meeting of SCB to be held in Europe. This internationally diverse meeting attracted 1050 delegates from 74 countries, around the meeting theme of People and Conservation. , held on 1-2 November 2007. The symposium explored some of the difficult choices that conservationists face when striving to conserve species and their habitats, and the resulting volume was published in September 2010. , Slotow, R, Goodman, PS, Conway, AJ &amp; Moilanen, A (2015) Identification of policies for a sustainable legal trade in rhinoceros horn based on population projection and socio-economic models. Wibisono, HT, Linkie, M, Guillera-Arroita, G, Smith, JA, Sunarto, Pusparini, W, Asriadi, Baroto, P, Brickle, N, Dinata, Y, Gemita, E, Gunaryadi, D, Haidir, IA, Herwansyah, Karina, I, Kiswayadi, D , Kristiantono, D, Kurniawan, H, Lahoz-Montfort, JJ, , Maddox, T, Martyr, DJ, Maryati, Nugroho, A, Parakkasi, K, Priatna, D, Ramadiyanta, E, Ramono, WS, Reddy, GV, Rood, EJJ, Saputra, DY, Sarimudi, A, Salampessy, A, Septayuda, E, Suhartono, T, Sumantri, A, Susilo, Tanjung, I, Tarmizi, Yulianto, K, Yunus, M, &amp; Zulfahmi. (2011) Population status of a cryptic top predator: an island-wide assessment of tigers in Sumatran rainforests. Kenward, RE, Whittingham, MJ, Arampatzis, S, Manos, BD, Hahn, T, Terry, A, Simoncini, R, Alcorn, J, Bastian O, Donlan, M, Elowe, K, Franzén, F, Karacsyonyi, Z, Larsson, M, Manou, D, Navodaru, I, Papadopoulou, O, Papathanasiou, J, von Raggamby, A, Sharp, RJA, Söderqvist, T, Soutukorva, Å, Vavrova, L, Aebischer, NJ, Walston, J, Robinson, JG, Bennett, EL, Breitenmoser, U, da Fonseca, GAB, Goodrich, J, Gumal, M, Hunter, L, Johnson, A, Karanth, KU, , MacKinnon, K, Miquelle, D, Pattanavibool, A, Poole, C, Rabinowitz, A, Smith, JLD, Stokes, EJ, Stuart, SN, Vongkhamheng, C, and Wibisono, H (2010) Bringing the tiger back from the brink – the six percent solution. , Mace, GM, Manica, A, Walter, O, West, C, and Zimmerman, A (2007) Message received? Quantifying the impact of informal conservation education on adults visiting UK zoos. In , Balmford, A, Linkie, M, Mace, GM, Smith, RJ, Stephenson, M, Walter, O, West, C, and Zimmerman, A (2007) Beyond the ark: conservation biologists' views of the achievements of zoos in conservation. In , Milledge, S, Adcock, K, Brooks, M, Conway, A, Knight, M, Mainka, S, Martin, EB and Teferi, T (2005) Trophy hunting of black rhino and Milner-Gulland, EJ (1993) Policies for the enforcement of wildlife laws: the balance between detection and penalties in Luangwa Valley, Zambia. (1992) A model of incentives for the illegal exploitation of black rhinos and elephants: poaching pays in Luangwa Valley, Zambia. , Albon, SD and Berry, PSM (1990) Illegal exploitation of black rhinoceros and elephant populations: patterns of decline, law enforcement and patrol effort in Luangwa Valley, Zambia.</t>
+  </si>
+  <si>
+    <t>My research has two interconnected themes. Most generally, I am interested in the spatial modalities of late modern war, where military violence, occupation and peace bleed into one another. My focus for these investigations is the Middle East, specifically Iraq and Israel/Palestine, but I also consider Afghanistan/Pakistan, East Africa and the geography of the global war prison. My particular concerns are in the production of spaces that make war possible and permissible via practices of locating, inverting and excepting and in the production of imaginative counter-geographies through artwork, drama and literature. I am also interested in cultural and political geographies of bombing, from Europe bombing its colonial populations in the early twentieth century through Spain, the Second World War, the wars in Korea, Cambodia, Laos and Vietnam, to the Gulf War, Afghanistan / Pakistan and Iraq. In both cases I draw (critically) on ideas from cultural and political theory/philosophy (including Agamben, Butler and Foucault) and from the visual arts and literary studies (including Said and Sebald). : Fellow of the British Academy; Fellow of the Royal Society of Canada; Dr. h.c (Heidelberg); Dr. h.c. (Roskilde); Peter Wall Distinguished Professor ELDEN, S., GREGORY, D.J. and BUITRAGO, A.S. 2011 ‘Espacios del pasado, hisorias del present: en torno a los rastros de la historia espacial’ [‘Spaces of the past, histories of the present: debating the traces of spatial history’] A consideration of major intellectual issues and debates in the development of contemporary human geography, in relation to developments in other fields and changes in politics, culture and society.</t>
+  </si>
+  <si>
+    <t>, Birkbeck, London University. She was previously a Reader in Local Economic Development at the Centre for Local Economic Development, Coventry University, and Research Director at the Regulatory Policy Research Centre, Hertford College, Oxford University. She is an Academician of the Academy of Learned Society for the Social Sciences, a Member of Council and member of the Events and Nominations committees. , a Research Associate at the Centre for Business Research, University of Cambridge, and a Senior Visiting Research Associate of the School of Geography and the Environment. Her research interests are in the geography and management of innovation. She is the author of two books on technology transfer, the editor of seven books and has published over sixty journal articles and book chapters. Lawton Smith, H., Glasson, J., and Chadwick, A. (2005) The geography of talent: entrepreneurship and local economic development in Oxfordshire. Tracey, P., Clark, G.L. and Lawton Smith, H. (2004) Cognition, learning and European regional growth: a agent-centred perspective on the "new" economy". Lawton Smith, H., Tracey, P. and Clark, G.L. (2003) European Policy and the Regions: A Review and Analysis of Tensions. Lawton Smith, H. (2012) The health technologies sector in the Thames Valley: evolution or optimism in regional development? Chapter 6 in, Cooke, P. (ed.) Waters, R. and Lawton Smith, H. (2012) High Technology Local Economies: geographical mobility of the highly skilled. Chapter 5 in, Hilpert, U. and Lawton Smith, H. (eds.)</t>
+  </si>
+  <si>
+    <t>Myles Allen is Professor of Geosystem Science in the School of Geography and the Environment, University of Oxford, and Head of the Climate Dynamics Group in the University's Department of Physics. His research focuses on how human and natural influences on climate contribute to observed climate change and risks of extreme weather and in quantifying their implications for long-range climate forecasts. He proposed the use of Probabilistic Event Attribution to quantify the contribution of human and other external influences on climate to specific individual weather events and leads the Group Leader, Climate Dynamics Group, Department of Physics, University of Oxford. Responsible for climate modelling and attribution, comprising on average 4 post-docs and 5 doctoral students over the past three years. - distributed computing for global climate research, collaborative project (2000 present, overall budget c. £4m), performing large-scale Monte Carlo simulation of climate change 1900 - 2100 using idle CPU on personal computers volunteered by the general public. Guillod, B.P., Jones, R.G., Bowery, A., Haustein, K., Massey, N.R., Mitchell, D.M., Otto, F.E.L., Sparrow, S.N., Uhe, P., Wallom, D.C.H., Wilson, S. and Allen, M.R. (2017) Millar, R.J., Fuglestvedt, J.S., Friedlingstein, P., Rogeli, J., Grubb, M.J., Matthews, H.D., Skeie, R.B., Forster, P.M., Frame, D.J. and Allen, M.R. (2017) Hallegatte, S., Rogelj, J., Allen, M., Clarke, L., Edenhofer, O., Field, C.B., Friedlingstein, P., van Kesteren, L., Knutti, R., Mach, K.J., Mastrandrea, M., Michel, A., Minx, J., Oppenheimer, M., Plattner, G., Riahi, K., Schaeffer, M., Stocker, T.F. and van Vuuren, D.P. (2016) Haustein, K., Otto, F.E.L., Uhe, P., Schaller, N., Allen, M.R., Hermanson, L., Christidis, N., McLean, P. and Cullen, H. (2016) Massey, N., Allen, M. and Hall, J. (2016) Large Ensembles of Regional Climate Projections. EGU General Assembly 2016, held 17-22 April, 2016 in Vienna Austria. Mitchell, D., Davini, P., Harvey, B., Massey, N., Haustein, K., Woolings, T., Jones, R., Otto, F., Guillod, B., Sparrow, S., Wallom, D. and Allen, M. (2016) Mitchell, D.M., Heaviside, C., Vardoulakis, S., Huntingford, C., Masato, G., Guillod, B.P., Frumhoff, P.C., Bowery, A. and Allen, M.R. (2016) Mote, P., Rupp, D., Li, S. Sharp, D. Otto, F., Uhe, P., Xiao, M., Lettermaier, D., Cullen, H. and Allen, M. (2016) Schaller, N., Kay, A.L., Lamb, R., Massey, N.R., van Oldenborgh, G.J., Otto, F.E.L., Sparrow, S.N., Vautard, R., Yiou, P., Ashpole, I., Bowery, A., Crooks, S.M., Haustein, K., Huntingford, C., Ingram, W.J., Jones, R.G., Legg, T., Miller, J., Skeggs, J., Wallom, D., Weisheimer, A., Wilson, S., Stott, P.A. and Allen, M.R. (2016) Sippel, S., Otto, F., Forkel, M., Allen, M., Guillod, B., Heimann, M., Reichstein, M., Seneviratne, S., Thonicke, K. and Mahecha, M. (2016) Explaining Extreme Events of 2014: From a Climate Perspective. Special Supplement to the Bulletin of the American Meteorological Society Vol 96, No 12, December 2015 Guillod, B., James, R., Massey, N., Otto, F., Hall, J., Allen, M. (2015) Modelling extreme weather in a changing climate: Potential applications for the insurance industry. Huntingford, C., Lowe, J.A., Howarth, N., Bowerman, N.H.A., Gohar, L.K., Otto, A., Lee, D.S., Smith, S.M., den Elzen, M.G.J., van Vuuren, D.P., Millar, R.J. and Allen, M.R. (2015) Massey, N., Jones, R., Otto, F.E.L., Aina, T., Wilson, S., Murphy, J.M., Hassell, D., Yamazaki, Y.H. and Allen, M.R. (2015) Climate change, climate justice and the application of probabilistic event attribution to summer heat extremes in the California Central Valley Añel, J.A., López-Moreno, J.I., Otto, F.E.L., Vicente-Serrano, S., Schaller, N., Massey, N., Buisán, S.T. and Allen, M.R. (2014) The extreme snow accumulation in the western Spanish Pyrenees during winter and spring 2013. Huntingford, C., Marsh, T., Scaife, A.A., Kendon, E., Hannaford, J., Kay, A., Lockwood, M., Prudhomme, C., Reynard, N., Parry, S., Lowe, J., Screen, J., Ward, H., Roberts, M., Stott, P., Bell, V., Bailey, M., Jenkins, A., Legg, T., Otto, F.E.L., Massey, N., Schaller, N., Slingo, J. and Allen, M.R. (2014) The science of attributing extreme weather events and its potential contribution to assessing loss and damage associated with climate change impacts Otto, A., Otto, F.E.L., Boucher, O., Church, J., Hegerl, G., Forster, P.M., Gillett, N.P., Gregory, J., Johnson, G.C., Knutti, R., Lewis, N., Lohmann, U., Marotzke, J., Myhre, G., Shindell, D., Stevens, B. and Allen, M.R. (2013) Rupp, D.E., Mote, P.W., Massey, N., Otto, F.E.L. and Allen, M.R. (2013) Human Influence on the probability of low precipitation in the central United States in 2012. In, Yamazaki, K., Rowlands, D.J., Aina, T., Blaker, A.T., Bowery, A., Massey, N., Miller, J., Rye, C., Tett, S.F.B., Williamson, D., Yamazaki, Y.H. and Allen, M.R. (2013) Clark, G.L., Urwin, R., Allen, M.R., Wójcik, D., Molinari, C., and McGill, S.M. (2012) Project Telos: Addressing the Challenges of Transformation Through Sustainable Investing. Towers Watson, London Allen, M.R. (2011) The scientific basis for climate change liability. In, Lord, R., Goldberg, S., Rajamani, L. and Brunnée, J. (eds.) Allen, M., Frame, D., Frieler, K., Hare, W., Huntingford, C., Jones, C., Knutti, R., Lowe, J., Meinshausen, M., Meinshausen, N. and Raper, S. (2009) Stone, D.A., Allen, M.R., Stott, P.A., Pall, P., Min, S.K., Nozawa, T. and Yukimoto, S. (2009) The Detection and Attribution of Human Influence on Climate*. Frame, D. and Allen, M.R. (2008) Climate change and global risk. Chapter 13 in, Bostrom, N. and Milan, M. (eds.) Allen, M.R., Pall, P., Stone, D.A., Scott, P., Frame, D.J., Min, S-K., Nozawa, T. and Yukimoto, S. (2007) Scientific challenges in the attribution of harm to human influence on climate. Pall, P., Allen, M.R. and Stone, D.A. (2007) Testing the Clausius--Clapeyron constraint on changes in extreme precipitation under CO 2 warming. Allen, M., Andronova, N., Booth, B., Dessai, S., Frame, D., Forest, C., Gregory, J., Hegerl, G., Knutti, R. and Piani, C. (2006) Observational constraints on climate sensitivity. Knutti, R., Meehl, G.A., Allen, M.R. and Stainforth, D.A. (2006) Constraining climate sensitivity from the seasonal cycle in surface temperature. Lopez, A., Tebaldi, C., New, M., Stainforth, D., Allen, M. and Kettleborough, J. (2006) Two approaches to quantifying uncertainty in global temperature changes. Massey, N., Aina, T., Allen, M., Christensen, C., Frame, D., Goodman, D., Kettleborough, J., Martin, A., Pascoe, S. and Stainforth, D. (2006) Data access and analysis with distributed federated data servers in climate Stainforth, D.A., Allen, M.R., Frame, D.J. and Piani, C. (2006) Risks associated with stabilisation scenarios and uncertainty in regional and global climate change impacts. Piani, C., Frame, D.J., Stainforth, D.A. and Allen, M.R. (2005) Constraints on climate change from a multi-thousand member ensemble of simulations. Stainforth, D.A., Aina, T., Christensen, C., Collins, M., Faull, N., Frame, D.J., Kettleborough, J.A., Knight, S., Martin, A., Murphy, J.M., Piani, C., Sexton, D., Smith, L.A., Spicer, R.A., Thorpe, A.J. and Allen, M.R. (2005) Lambert, F.H., Stott, P.A., Allen, M.R. and Palmer, M.A. (2004) Detection and attribution of changes in 20th century land precipitation. Allen, M.R., Kettleborough, J.A. and Stainforth, D.A. (2002) Model error in weather and climate forecasting. ECMWF Predictability of Weather and Climate Seminar. Tett, S.F.B., Stott, P.A., Allen, M.R., Ingram, W.J. and Mitchell, J.F.B. (1999) Causes of twentieth-century temperature change near the Earth's surface.</t>
+  </si>
+  <si>
+    <t>Glaciologist, working on the form and flow of glaciers and ice caps and their response to climate change, and the links between former ice sheets and the marine geological record, using a variety of satellite, airborne and shipborne geophysical tools. Julian Dowdeswell graduated from the University of Cambridge in 1980, and studied for a Masters Degree at INSTAAR in the University of Colorado and for a Ph.D. in the Scott Polar Research Institute, University of Cambridge. His research interests include: (a) the dynamics of large ice masses and their response to climate change; (b) the application of airborne and satellite geophysical techniques in glaciology, and (c) processes and patterns of sedimentation in glacier-influenced marine environments. He has worked, on the ice and from airborne platforms, in a number of areas of the Arctic, including Svalbard, Russian Franz Josef Land and Severnaya Zemlya, Iceland, East Greenland and Baffin, Devon and Ellesmere Islands in Arctic Canada. He has also undertaken many periods of work on icebreaking research vessels in the Norwegian-Greenland Sea, in the fjords and on the continental shelves of Svalbard and Greenland, and in Antarctica. Julian has been awarded the Polar Medal by Her Majesty the Queen for 'outstanding contributions to glacier geophysics' and has also received the Founder's Medal (2008) and the Gill Memorial Award (1998) from the Royal Geographical Society. In 2011 he was for 'outstanding contributions to the study of polar ice masses and to the understanding of the processes and patterns of sedimentation in glacier-influenced marine environments.' In 2014 he was awarded the Professor of Glaciology and Director and Head of Department, Institute of Geography and Earth Sciences, University of Wales, Aberystwyth (1997 to 1998) Glaciological investigations of the form and flow of glaciers and ice sheets. Continuing integrated programme of field and numerical modelling work on high Arctic ice masses and their responses to climate change. Processes and patterns of glacial sedimentation in marine environments, emphasising links between geophysical measurements and numerical modelling of sediment delivery to continental margins. Satellite remote sensing studies of large ice masses. In particular, the quantitative analysis of satellite datasets to solve glaciological problems and to provide boundary conditions for numerical models. , Hogan, K.A., Arnold, N.S., Mugford, R.I., Wells, M., Hirst, J.P.P. and Decalf, C., 2015. Sediment-rich meltwater plumes and ice-proximal fans at the margins of modern and ancient tidewater glaciers: observations and modelling. and Pietras, J.T., 2014. Evidence for multiple Quaternary ice advances and fan development from the Amundsen Gulf cross-shelf trough and slope, Canadian Beaufort Sea margin. , Larter, R.D., Hillenbrand, C.-D., Trathan, P., Arndt. J. and Kuhn. G., 2014. A new bathymetric compilation for the South Orkney Islands, Antarctic Peninsula (49 , Hogan, K.A., Ó Cofaigh, C., Fugelli, E.M.G., Evans, J. and Noormets, R., 2014. Late Quaternary ice flow in a West Greenland fjord and cross-shelf trough system: submarine landforms from Rink Isbrae to Uummannaq shelf and slope. Quaternary Science Reviews, v. 92, p. 292-309. doi:10.1016/j.quascirev.2013.09.007 , England, J., Funder, S., Hogan, K., Ingolfsson, O., Jennings, A., Larsenm N.K., Kirchner, N., Landvik, J.Y., Mayer, L., Mikkelsen, N., Moller, P., Niessen, F., Nilsson, J., O'Regan. M., Polyak, L., Norgaard-Pedersen, N. and Stein, R., 2014. Arctic Ocean glacial history. Quaternary Science Reviews, v. 92, p. 40-67. doi:10.1016/j.quascirev.2013.07.033 Larter, R.D., Anderson, J.B., Graham, A.G., Gohl, K., Hillenbrand, C.-D., Jakobsson, M., Johnson, J.S., Kuhn, G., Nitsche, F.O., Smith, J.A., Witus, A.E., Bentley, M.J., , Ehrmann, W., Klages, J.P., Lindow, J., Ó Cofaigh, C. and Spiegel, C., 2014. Reconstruction of changes in the Amundsen Sea and Bellingshausen Sea sector of the West Antarctic Ice Sheet since the Last Glacial Maximum. McMillan, M., Shepherd, A., Gourmelen, N., Dehecq, A., Leeson, A., Ridout, A., Flament, T., Hogg, A., Gilbert, L., Benham, T., van den Broak, M., Ó Cofaigh, C., Davies, B., Livingstone, S., Smith, J., Johnson, J., Hocking, E., Hodgson, D., Anderson, J., Bentley, M., Canals, M., Domack, E., , Evans, J., Glasser, N., Hillenbrand, C.-D., Larter, R., Roberts, S. and Simms, A., 2014. Reconstruction of ice-sheet changes in the Antarctic Peninsula since the Last Glacial Maximum. and Bugge, T., 2014. Morphology, sedimentary infill and depositional environments of the Early Quaternary North Sea basin (56°-62°N). Marine and Petroleum Geology, v. 56, p. 123-146. doi:10.1016/j.marpetgeo.2014.04.007 , Gardner, A.S., Mair, D., Wang, L., Williamson, S.N., Wolken, G.J. and Wyatt, F., 2014. Remote sensing of recent glacier changes in the Canadian Arctic. and Ottesen, D., 2013. Buried iceberg ploughmarks in the Early Quaternary sediments of the central North Sea: a two million year record of glacial influence from 3D seismic data. Marine Geology, v. 344, p. 1-9. doi:10.1016/j.margeo.2013.06.019 [ and Vasquez, M., 2013. Submarine landforms in the fjords of southern Chile: implications for glacimarine processes and sedimentation in a mild glacier-influenced environment. and Pietras, J.T., 2013. Seismic stratigraphy, sedimentary architecture and palaeo-glaciology of the Mackenzie Trough: evidence for two Quaternary ice advances and limited fan development on the western Canadian Beaufort Sea margin. , Gogineni, S.P., Howat, I., Mouginot, J., Paden, J., Palmer, S., Rignot, E. and Steinhage, D., 2013. A new bed elevation dataset for Greenland. The Cryosphere. v. 7, p. 499-510. and Mienert, J., 2013. New insights into slide processes and seafloor geology revealed by side-scan imagery of the massive Hinlopen Slide, Arctic Ocean margin. , Jennings, A.E., Hogan, K.A., Kilfeather, A.A., Hiemstra, J.F., Noormets, R., Evans, J., McCarthy, D.J., Andrews, J.T., Lloyd, J.M. and Moros, M., 2013. An extensive and dynamic ice sheet on the West Greenland shelf during the last glacial cycle. , Hogan, K.A., Kilfeather, A.A. and Sheldon, C., 2013. Glacimarine lithofacies, provenance and depositional processes on a West Greenland trough-mouth fan. , Christoffersen, P., Young, D.A., Blankenship, D.D., Greenbaum, J.S., Benham, T., Bamber, J. and Siegert, M.J., 2013. Greenland subglacial lakes detected by radar. and Fugelli, E.M.G., 2012. The seismic architecture and geometry of grounding-zone wedges formed at the marine margins of past ice sheets. , Ercilla, G. and Jakobsson, M., 2012. Recent glacially influenced sedimentary processes on the East Greenland continental slope and deep Greenland Basin. and Ó Cofaigh, C., 2012. Glacimarine sedimentary processes and depositional environments in an embayment fed by West Greenland ice streams. , Forbes, S, Fridman, B., Hodnesdal, H., Noormets, R., Pedersen, R., Rebesco, M., Schenke, H.-W., Zarayskaya, Y., Accettella, D., Armstrong, A., Anderson, R.S., Bienhoff, P., Camerlenghi, A., Church, I., Edwards, M., Gardner, J.V., Hall, J.K., Hell, B., Hestvik, O., Kristiffersen, Y., Marcussen, C., Mohammad, R., Mosher, D., Nghiem, S.V., Travaglini, P.G. and Weatherall., P., 2012. The International Bathymetric Chart of the Arctic Ocean (IBCAO) Version 3.0. , Rise, L. and Bugge, T., 2012. Large-scale development of the mid-Norwegian shelf over the last three million years and potential for hydrocarbon reservoirs in glacial sediments. In Huuse, M., Le Heron, D.P., Moscariello, A. and Craig, J., (Eds.), Glacigenic Reservoirs and Hydrocarbon Systems, Geological Society, London, Special Publication, 368, p. 53-73. , Young, N., LeBrocq, A.M., Warner, R.C., Payne, A.J., Blankenship, D.D., van Ommen, T. and Siegert, M.J., 2012. Evidence of a hydrological connection between the ice divide and ice sheet margin in the Aurora Subglacial Basin, East Antarctica. and Hogan, K.A., 2011. Late Quaternary ice flow and sediment delivery through Hinlopen Trough, northern Svalbard margin: submarine landforms and depositional fan. , Syvitski, J.P.M., Luckman, A. and Benham, T.J., 2011. Warming of waters in an East Greenland fjord prior to glacier retreat: mechanisms and connection to large-scale atmospheric forcing. , 2011. Sediment lithofacies, processes and sedimentary models in the Central Bransfield Basin, Antarctic Peninsula, since the Last Glacial Maximum. , Gyllencreutz, R., Kirchner, N., Mohammad, R., O'Regan, M, Alley, R.B., Anandakrishnan, S., Eriksson, B., Kirshner, A., Fernandez, R., Stolldorf, T., Minzoni, R. and Majewski, W., 2011. Geological record of ice shelf break-up and grounding line retreat, Pine Island Bay, West Antarctica. , Xu, S. and Moreton, S.G., 2011. Ice stream retreat and ice shelf history in Marguerite Trough, Antarctic Peninsula: sedimentological and foraminiferal signatures. , Linés, C. and Acosta, J., 2011. Relict sea-floor ploughmarks record deep-keeled Antarctic icebergs to 45°S on the Argentine margin. , Pohjola, V., Hubbard, A. and Strozzi, T., 2011. Ice thickness and basal conditions of Vestfonna ice cap, eastern Svalbard. , 2011. Submarine landforms and the behavior of a surging ice cap since the Last Glacial Maximum: the open-marine setting of eastern Austfonna, Svalbard. , Ottesen, D. and Rise, L., 2010. Rates of sediment delivery from the Fennoscandian Ice Sheet through an Ice Age. , Hogan, K.A., Evans, J., Noormets, R., Ó Cofaigh, C. and Ottesen, D., 2010. Past ice-sheet flow east of Svalbard inferred from streamlined subglacial landforms. , Evans, J. and Ó Cofaigh, C., 2010. Submarine landforms and shallow acoustic stratigraphy of a 400 km-long fjord-shelf-slope-transect, Kangerlussuaq margin, East Greenland. , Jakobsson, M., Hogan, K.A., O´Regan, M., Backman, J., Evans, J., Hell, B., Löwemark, L., Marcussen, C., Noormets, R., Ó Cofaigh, C., Sellén, E. and Sölvsten, M., 2010. High-resolution geophysical observations of the Yermak Plateau and northern Svalbard margin: implications for ice-sheet grounding and deep-keeled icebergs. , Hillenbrand, C.-D., Smith, J.A., Evans, J., Kuhn, G. and Deen, T., 2010. Flow and retreat of the Late Quaternary Pine Island-Thwaites palaeo-ice stream, West Antarctica. , Ehrmann, W., Ó Cofaigh, C., Benetti, S., Graham, A.G. and Grobe, H., 2010. The sedimentary legacy of a palaeo-ice stream on the shelf of the southern Bellingshausen Sea: clues to West Antarctic glacial history during the Late Quaternary. , Noormets, R., Evans, J. and Ó Cofaigh, C., 2010. Evidence for full-glacial flow and retreat of the Late Weichselian ice sheet from the waters around Kong Karls Land, eastern Svalbard. , Noormets, R., Evans, J., Ó Cofaigh, C. and Jakobsson, M., 2010. Submarine landforms and ice-sheet flow in the Kvitøya Trough, northwestern Barents Sea. , Colleoni, F., Marcussen, C., Anderson, L, Bjork, G., Darby, D., Eriksson, B., Hanslik, D., Hell, B., Mayer, L., Polyak, L., Sellen, E. and Wallin, A., 2010. An Arctic Ocean ice shelf during MIS 6 constrained by new geophysical and geological data. , van der Meer, J.J. and Evans, D.J., 2010. Micromorphological characteristics of glacimarine sediments: implications for distinguishing genetic processes of massive diamicts. Geo-Marine Letters, v. 30, p. 77-97. doi:10.1007/s00367-009-0160-8. , King, E., Anderson, J.B., Clark, C.D., Evans, D.J.A., Evans, J., Hindmarsh, R.C.A., Larter, R.D. and Stokes, C.R., 2010. Comment on Shaw J., Pugin, A. and Young, R. (2008): "A meltwater origin for Antarctic shelf bedforms with special attention to megalineations", Geomorphology 102, 364-375. and Wadhams, P., 2009. Marine geophysical evidence for former expansion and flow of the Greenland Ice Sheet across the north-east Greenland continental shelf. , Ó Cofaigh, C., Graham, A.G.C. and Grobe, H., 2009. Clay mineral provenance in the southern Bellingshausen Sea reveals drainage changes of the West Antarctic Ice Sheet during the Late Quaternary. , 2009. Calculating ice volumes and ice flux to constrain the dimensions of a 440 million year old North African ice sheet. , Benham, T., Marshall, S. and Cawkwell, F., 2009. Mass balance of the Prince of Wales Icefield, Ellesmere Island, Nunvaut, Canada. , Larter, R.D., Ó Cofaigh, C. and Evans, J., 2009. Morphology of the upper continental slope in the Bellingshausen and Amundsen seas – implications for sedimentary processes at the shelf edge of West Antarctica. , Ottesen, D., Evans, J., Ó Cofaigh, C. and Anderson, J.B., 2008. Submarine glacial landforms and rates of ice-stream collapse. , Ó Cofaigh, C., Noormets, R., Larter, R.D., Hillenbrand, C.-D., Benetti, S., Evans, J. and Pudsey, C.J., 2008. A major trough-mouth fan on the continental margin of the Bellingshausen Sea, West Antarctica: Belgica Fan. , Benham, T.J., Strozzi, T. and Hagen, J.O., 2008. Iceberg calving flux and mass balance of the Austfonna ice cap on Nordaustlandet, Svalbard. , Evans, J., Mugford, R., Griffiths, G., McPhail, S., Millard, N., Stevenson, P., Brandon, M.A., Banks, C., Heywood, K.J., Price, M.R., Dodd, P.A., Jenkins, A., Nicholls, K.W., Hayes, D., Abrahamsen, E.P., Tyler, P., Bett, B., Jones, D., Wadhams, P., Wilkinson, J.P., Stansfield, K. and Ackley, S., 2008. Autonomous underwater vehicles (AUVs) and investigations of the ice-ocean interface in Antarctic and Arctic waters. , Noormets, R., Evans, J., Griffiths, G., Larter, R. and Ó Cofaigh, C., 2008. A comparison of swath-bathymetric imagery from high-latitude glacier-influenced fjords derived from AUV, ROV and shipboard systems. and Woodworth-Lynas, C.M.T., 2008. Sea-floor scouring at the mouth of Hudson Strait by deep-keeled icebergs from the Laurentide Ice Sheet. , Benn, D.I., Kristensen, L., Christiansen, H.H., Christensen, O., Hansen, L., Lebesbye, E., Forwick, M., Vorren, T.O., 2008. Submarine landforms characteristic of glacier surges in two Spitsbergen fjords. , Atkinson, K.L., Bahé, Y., Dawber, C.F., Khadun, E., Shaw, R.M.L., Shorttle, O. and Thanabalasundaram, L., 2008. Evidence for glaciation in the Northern Hemisphere back to 44 Ma from ice-rafted debris in the Greenland Sea. , Ottesen, D., Rise, L. and Craig, J., 2007. Identification and preservation of landforms diagnostic of past ice-sheet activity on continental shelves from three-dimensional seismic evidence. , Landvik, J.Y. and Mienert, J., 2007. Dynamics of the Late Weichselian ice sheet on Svalbard inferred from high-resolution sea-floor morphology. , Evans, J., Ó Cofaigh, C. and Anderson, J.B., 2006. Morphology and sedimentary processes on the continental slope off Pine Island Bay, Amundsen Sea, West Antarctica. , Oerlemans, J., Glazovsky, A.F. and Macheret, Y.Y., 2006. Quantifying the mass balance of ice caps on Severnaya Zemlya, Russian High Arctic. I: Climate and mass balance of the Vavilov Ice Cap. , 2006. Quantifying the mass balance of ice caps on Severnaya Zemlya, Russian High Arctic. II: Modeling the flow of the Vavilov Ice Cap under the present climate. , 2006. Quantifying the mass balance of ice caps on Severnaya Zemlya, Russian High Arctic. III: Sensitivity of ice caps in Severnaya Zemlya to future climate change. , Ó Cofaigh, C., Benham, T.J. and Anderson, J.B., 2006. Extent and dynamics of the West Antarctic Ice Sheet on the outer continental shelf of Pine Island Bay, Amundsen Sea, during the last deglaciation. and Kenyon, N.H., 2006. Geophysical investigations of a high-latitude submarine channel system and associated channel-mouth lobe in the Lofoten Basin, Polar North Atlantic. , Glazovsky, A.F., Hagen, J.O., Melvold, K., de Wildt, M.R. and van de Wal, R.S.W., 2006. Estimating the contribution of Arctic glaciers to sea-level change in the next hundred years. , Allen, C.S., Hiemstra, J., Pudsey, C.J., Evans, J. and Evans, D.J.A., 2005. Flow dynamics and till genesis associated with a marine-based Antarctic palaeo-ice stream. and Rise, L., 2005. Submarine landforms and the reconstruction of fast-flowing ice streams within a large Quaternary ice sheet: the 2,500 km-long Norwegian-Svalbard margin (57º to 80ºN). , Hillenbrand, C.D., Pudsey, C.J. and Evans, J., In Press. Flow of the West Antarctic Ice Sheet on the continental margin of the Bellingshausen Sea at the Last Glacial Maximum. , Benham, T.J., Gorman, M.R., Burgess, D. and Sharp, M.J., 2004. Form and flow of the Devon Island Ice Cap, Canadian Arctic. , Ó Cofaigh, C. and Pudsey, C.J., 2004a. Thickness and extent of the subglacial till layer beneath an Antarctic paleo-ice stream. , Ó Cofaigh, C. and Pudsey, C.J., 2004b. Continental slope morphology and sedimentary processes at the mouth of an Antarctic palaeo-ice stream. and Ó Cofaigh, C., 2004. Late Quaternary submarine bedforms and ice-sheet flow in Gerlache Strait and on the adjacent continental shelf, Antarctic Peninsula. , Henriksen, M., Hjort, C., Houmark-Nielsen, M., Jakobsson, M., Larsen, E., Lunkka, J.P., Lyså, A., Mangerud, J., Möller, P., Saarnisto, M., Schirrmeister, L., Sher, A.V., Siegert, C., Siegert, M.J. and Svendsen, J.I., 2004. The periglacial climate and environment in Northern Eurasia during the last glaciation. , Kenyon, N.H., Evans, J., Taylor, J., Mienert, J. and Wilken, M., 2004. Timing and significance of glacially-influenced mass wasting in the submarine channels of the Greenland Basin. , Funder, S., Gataullin, V., Henriksen, M., Hjort, C., Houmark-Nielsen, M., Hubberten, H.W., Ingólfsson, O., Jakobsson, M., Kjær, K.H., Larsen, E., Lokrantz, H., Lunkka, J.P., Lyså, A., Mangerud, J., Matioushkov, A., Murray, A., Möller, P., Niessen, F., Nikolskaya, O., Polyak, L., Saarnisto, M., Siegert, C., Siegert, M.J., Spielhagen, R.F. and Stein, R., 2004. Late Quaternary ice-sheet history of Northern Eurasia. , 2003. A simple visualisation method for distinguishing between subglacial-bed and side-wall returns in radio-echo records from outlet and valley glaciers. , Kenyon, N.H., Nielsen, T., Kuijpers, A., van Weering, T.C.E. and Ivanov, M., 2003. A major channel system on the North Faeroes margin from side-scan sonar records. , Bassford, R.P., Gorman, M.R., Williams, M., Glazovsky, A.F., Macheret, Y.Y., Shepherd, A.P., Vasilenko, Y.V., Savatyuguin, L.M., Hubberten, H.-W. and Miller, H., 2002. , Hagen, J.O., Björnsson, H., Glazovsky, A.F., Harrison, W.D., Holmlund, P., Jania, J., Koerner, R.M., Lefauconnier, B., Ommanney, C.S.L. and Thomas, R.H., 1997.</t>
+  </si>
+  <si>
+    <t>Professor Amin is known for his work on the geographies of modern living: cities and regions as relationally constituted; globalisation as everyday process; the economy as cultural entity; race and multiculture as a hybrid of biopolitics and vernacular practices. He has held Fellowships and Visiting Professorships at a number of European Universities. He has been founding co-editor of the He is a Fellow of the British Academy and of Academy of Social Sciences, and Foreign Member of the Italian Academia Nazionale Dei Lincei. He holds an honorary doctorate from Uppsala University and is Foreign Secretary of the British Academy. He was awarded a CBE in 2014 for his contributions to social science. 1982-2005 Newcastle University: Research Fellow and Research Associate, Centre for Urban and Regional Development Studies; Lecturer and Professor, Department of Geography Professor Amin's current research is on European Union and Disunion (supported by the British Academy), slum ecologies, urban infrastructures, and the mental health of migrants in Shanghai (ESRC-Newton funded). He continues to work on cultures of risk. Professor Amin has (co) authored or (co) edited 21 books and (co) written over 110 journal articles and book chapters. I would welcome applications relating to race, racism and multiculturalism; European identity and belonging; affective and egalitarian politics; urban futures; and cultures of risk and risk mitigation. I am particularly interested in students keen on engaging with social theory in addressing these topics.</t>
+  </si>
+  <si>
+    <t>Christine is a Geochronologist and Quaternary Geographer researching the mechanisms, timing and environmental impacts of past climatic change and explosive volcanism. Head of Through my research I contribute to a better understanding of the driving mechanisms, spatial complexity and environmental impacts of climate variability, on historic and prehistoric timescales. My primary expertise lies in tephrochronology. I have worked widely across Europe and Africa using far-traveled volcanic ash (tephra) layers as isochrons to align archives and test the pacing of regional climatic and environmental transitions. In particular, I am interested in the role of changing climates and environments on hominin evolution and dispersal during the Late Pleistocene, and on historical societies in more recent times. By using tephra layers to directly connect archaeological archives to the palaeoenvironmental record, precise correlations between climatic changes and human histories can be made. Much of my current research focuses on building Late Quaternary tephrostratigraphies for volcanic regions of the East African Rift. Through the characterisation and correlation of visible and non-visible (crypto-) tephra layers in lake sediment archives, detailed stratified tephra records are contributing both to dating and correlation of important tropical palaeoclimate archives and to a better understanding of past volcanism and hazard in an understudied region. ; one of the leading bodies in palaeoclimate research. INTIMATE aims to reconstruct past abrupt and extreme climate changes over the last glacial cycle, through the precise INTegration of Ice-core, MArine, and TErrestrial records, on their own independent timescales. The combined data is used in climate models to better understand the mechanisms and impact of change, thereby reducing the uncertainty of future prediction. Research into the timing, cause and impacts of tropical megadrought events recorded in the sediments of East African Lake Challa, a 90 m deep crater lake on the flank of Kilimanjaro. Lake Challa contains an exceptional sedimentary record, with the proven potential to reconstruct past hydroclimate at high chronological precision and with dating accuracy not previously achieved in the tropics. The wider ICDP project on Lake Challa will study tropical hydroclimate and ecosystem development throughout the full ~250,000 year sediment record. Visible and non-visible tephra layers will be characterised and dated throughout the core, contributing to a high precision chronology and a first continuous tephrostratigraphic archive for the region. , Chew Bahir lies between the Ethiopian and Omo-Turkana Rifts and will provide a detailed record palaeoclimate for the Middle - Late Pleistocene. Far-travelled ashes preserved within the ~300 metre record will help us to date and correlate the palaeolake sediments. A collaborative research project between early career and experienced researchers from across Europe, that came out of the first EU COST funded INTIMATE Example training school in 2013. PI: S. Engels (Nottingham), C. Lane, D. Sachse (GFZ Potsdam). The sediments at Haemelsee record in detail the local to regional environmental responses to that palaeoclimate and palaeohydrological changes that occurred during the last Glacial to Interglacial Transition. Using a multi-proxy technique we aim to make precise regional comparisons of the timing and sequence of change at the onset and termination of the Younger Dryas Stadial. The Quaternary climate of the eastern Mediterranean: Insights into changes in climate and environment and their impact on human populations. Quaternary tephrochronologies in East Africa; Archaeological applications of tephrochronology; Resolving records of abrupt climate change; Tephra records of volcanic impacts and/or hazard. Currently I have the following three PhD projects advertised through the Cambridge Earth System Science Doctoral Training Programme (NERC-funded, open competition): Quantifying the impact of atmospheric dust on vegetation and hydro-climate in the Amazon rainforest during the last 20,000 years. (with Francesco Muschitiello) If you are interested in applying for PhD study, I would be happy to hear from you. Please also check details on our Graduate Admissions pages for funding opportunities and the application procedure. A Lateglacial archaeological site in the far north-west of Europe at Rubha Port an t-Seilich, Isle of Islay, western Scotland: Ahrensburgian-style artefacts, absolute dating and geoarchaeology. The RESET project: constructing a European tephra lattice for refined synchronisation of environmental and archaeological events during the last c. 100 ka. , White, D., Albert, P., Collcutt, S.N., Ditchfield, P., Bouzouggar, A., Farr, L., Oh, A., Ottolini, L., Smith, V., Van Peer, P., Kindermann, K. 2015. Developing a robust tephrochronological framework for Late Quaternary marine records in the Adriatic Sea: new data from core station SA03-11 and their palaeoenvironmental significance. The Campanian Ignimbrite/Y5 tephra layer - a regional stratigraphic marker for Isotope Stage 3 deposits in the Lower Danube region. , Hardiman, M., Rasmussen, S., Seierstad, I., Steffensen, J.P., Svensson, A., Lotter, A.F, Turney, C.S., Ramsey C.B. and INTIMATE members. 2012. Early Modern Human settling of the 'Danube corridor': The Middle to Upper Palaeolithic site of Tabula Traiana Cave in the Danube Gorges (Serbia). A regional tephrostratigraphic framework for central and southern European climate archives during the Last Glacial to Interglacial Transition: comparisons north and south of the Alps. Lowe, J., Barton, N. Blockley, S., Bronk Ramsey, C., Cullen, V.L., Davies, W., Gamble, C., Grant, K., Hardiman, M., Housley, R., , Lee, S., Lewis, M., MacLeod, A., Menzies, M, Müller, W., Pollard, M., Price, C., Roberts, A.P., Rohling, E.J., Satow, C., Smith, V.C., Stringer, C.B., Tomlinson, E.L., White, D., Albert, P., Arienzo, I., Barker, G., Boric´, D., Carandente, A., Civetta, L., Ferrier, C., Guadelli, J-L., Karkanas, P., Koumouzelis, M., Müller, U.C., Orsi, G.O., Pross, J., Rosi, M., Shalamanov-Korobar, L., Sirakov, N., and Tzedakis, P.C. 2012. Geochemistry of the Phlegraean Fields (Italy) proximal sources for major Mediterranean tephras: Implications for the dispersal of Plinian and co-ignimbritic components of explosive eruptions. Tephrochronology and absolute centennial scale synchronisation of European and Greenland records for the last glacial to interglacial transition: a case study of Soppensee and NGRIP. Smith, V.C., Pearce, N.J.G., Matthews, N.E., Westgate, J.A., Petraglia, M.D., Haslam, M., Lane, C.S., Korisettar, R. &amp; Pal, N.J. 2011. Lead Guest Editor on the International Focus Group on Tephrochronology (INTAV) Special Issue in Quaternary Geochronology. Expected publication January 2017.</t>
+  </si>
+  <si>
+    <t>Mike Edmunds sadly passed away on 28th April 2015 after a short illness. A tribute from his friends and colleagues in the department is available Prof. Mike Edmunds' was a Visiting Professor at the School of Geography and the Environment. His expertise lay in water quality, especially relating to groundwater, hydrogeochemistry and palaeohydrology. He retired from the British Geological Survey in nearby Wallingford where, since 1986, he had held an IMP (Individual Merit Promotion) research position in hydrogeochemistry. He was involved in the supervision of 12 theses in UK and overseas and evaluated theses in several European countries as well as UK. In 1999 he received the Whitaker Medal of the Geological Society for his achievements in hydrogeology. In 2009 he received the OE Meinzer Award of the Geological Society of America and in 2010, the Vernadsky Medal of the International Association of Geochemistry. Prof. Mike Edmunds' research was in the fields of groundwater quality (UK and overseas), hydrogeochemical processes, trace element studies, isotope hydrology, palaeohydrology, arid and semi-arid zone studies including groundwater recharge assessment, groundwater acidification, salinity issues and mineral and thermal waters. He published over , including 140 externally reviewed in these fields. Most recently his interests centred on a) groundwater quality in the major aquifers of UK and Europe and b) water problems in arid and semi-arid regions of the Middle East (Cyprus, Jordan, Libya, Algeria, Tunisia), the Sahel countries (Nigeria, Niger, Mali, Senegal, Sudan, also Ghana). He was involved in research into water scarcity in north west China, focusing on groundwater in the desert basins and on palaeoclimate and palaeoenvironments recorded in sand dune moisture. He was also involved in science to policy and capacity development issues involving water in semi-arid regions. ) on projects related to groundwater and health as well as aquifer recharge. He also served as Expert Rapporteur for the European Commission's Geothermal Energy programme as well as assessor for its Framework programmes. He had organised courses on water quality in UK, Greece, Honduras, Mexico, Ethiopia and elsewhere. research awards and coordinated several R&amp;D projects funded by the European Commission in Europe, the Russian Far East and North Africa. Co-principal investigator (with ECU Oxford - now Environmental Change Institute) on NERC (TIGGER) Special Topic SAHEL programme: Intercomparison of groundwater/lake sediment records of Holocene environmental/climate change. Two INTAS (EC) projects with Russia (and Ireland) - i) the Mineral Waters of Primorye, Russian Far East and ii) Kamchatka - protection of unique natural hydrothermal phenomena. students, including courses on: 'Catchment Science: Hydrogeology - carbonate and non-non-carbonate hydrogeochemistry'; 'Water Quality and Sanitation: Groundwater pollution' and 'Water History and Civilisation'. Valuing a human asset through a novel framework for protected area resilience: A case study of the Mersey Valley Countryside Warden Service Estimating aquifer recharge in fractured hard rock: analysis of the methodological challenges and application to obtain a water balance (Jaisamand Lake Basin, India) Agricultural structure adjustment and ecosystem restoration planning at the village level to combat desertification: a pilot study in the Minqin Basin, Northwest China Sand, salt and water in the Stampriet Basin, Namibia: Calculating unsaturated zone (Kalahari dune-field) recharge using the chloride mass balance approach Taylor, R.G., Scanlon, B., Döll, P., Rodell, M., van Beek, R., Wada, Y., Longuevergne, L., Leblanc, M., Famiglietti, J.S., Edmunds, W.M., Konikow, L., Green, T.R., Chen, J., Taniguchi, M., Bierkens, M.F.P., MacDonald, A., Fan, Y., Maxwell, R.M., Yechieli, Y., Gurdak, J.J., Allen, D.M., Shamsudduham, M., Hiscock, K., Yeh, P.J.F., Holman, I. and Treidel, H. (2012) Edmunds, W.M. (2010) Conceptual models for recharge sequences in arid and semi-arid regions using isotopic and geochemical methods. In, Wheater, H.S., Mathias, S.A. and Li, X. (eds). Edmunds, W.M. and Gaye, C.B. (2010) The unsaturated zone as an observatory for the African Sahel. In, Birkle, P. and Torres, I.S. (eds.) Limits to recharge of groundwater from Tibetan plateau to the Gobi desert, implications for water management in the mountain front Edmunds, W.M. (2008) Evolution of palaeowaters in sedimentary basins and coastal aquifers: valuable natural resources archives of climatic and environmental change. In, Carrillo, J.R. and Ortega, M.A.G. (eds.) Edmunds, W.M. (2008) Groundwater in Africa: palaeowater, climate change and modern recharge. In, Adelana, S., MacDonald, A., Alemayehu, T. and Tindimugaya, C. (eds.) Shand, P, Love, A.J., Darbyshire, D.P.F. and Edmunds, W.M. (2007) Sr isotopes in natural waters: applications to source characterisation and water-rock interaction in contrasting landscapes. In, Bullen, T.D. and Wang, Y. (eds.) Edmunds, W.M., Gates, J. and Ma, J. (2007) Geochemical indicators of water scarcity - Inner Mongolia, China: The Minqin and Badain Jaran Desert. In, Bullen, T.D. and Wang, Y. (eds.) Scanlon, B.R., Keese, K.E., Flint, A.L., Flint, L.E., Gaye, C.B., Edmunds, W.M. and Simmers, I. (2006) Global synthesis of groundwater recharge in semi-arid and arid regions. Edmunds, W.M., Ma, J., Aeschbach-Hertig, W., Kipfer, R., and D.P.F. Darbyshire (2006) Groundwater recharge history and hydrogeochemical evolution in the Minqin basin, North West China. Edmunds, W.M. (2006) Libya's Saharan groundwater: occurrence, origins and outlook. In, Mattingley, D., McLaren, S., Savage, E., al-Fasatwi, Y. and Gadgood, K. (eds.) Edmunds, W.M. and Smedley, P.L. (2005) Fluorine in natural waters - occurrence, controls and health aspects. In, O. Selnius (ed.) Edmunds, W.M. (2005) Contribution of isotopic and nuclear tracers to study of groundwaters. In, P.K. Aggarwal, J. Gat, and K. Froehlich (eds.) Edmunds, W.M. (2005) Groundwater as an archive of climatic and environmental change. In, P.K. Aggarwal, J. Gat, and K. Froehlich (eds.) Deans, J.D., Edmunds, W.M., Lindley, D.K., Gaye, C.B., Dreyfus, B., Nizinski, J.J., Neyra, M. and Munro, R.C. (2005) Nitrogen in interstitial waters in the Sahel: Natural baseline, pollutant or resource? Ma, J.Z., Wang, X.S. and Edmunds, W.M. (2005) The characteristics of groundwater resources and their changes under the impacts of human activity in the arid north-west China - A case study of the Shiyang river basin. Schuerch, M., Edmunds, W.M., Buckley, D.K. (2004) Three-dimensional flow and trace metal mobility in shallow chalk groundwater, Dorset, United Kingdom. Edmunds, W.M., Dodo, A., Djoret, D., Gasse, F., Gaye, C.B., Goni, I.B., Travi, Y., Zouari, K. and Zuppi, G.M. (2004) Groundwater as an archive of climatic and environmental change. The Pep-III Traverse. In, Battarbee, R.W., Gasse, F. and Stickley, C.E. (eds.) Edmunds, W.M., Guendouz, A.H., Mamou, A., Moulla, A.S., Shand, P. and Zouari, K. (2003) Groundwater evolution in the continental intercalaire aquifer of southern Algeria and Tunisia: Trace element and isotopic indicators. Pearce, M.A., Jarvis, I., Swan, A.R.H., Murphy, A.M., Tocher, B.A. and Edmunds, W.M. (2003) Utility of elemental and stable isotope geochemistry in high resolution palynological studies: Upper cretaceous chalk of the Banterwick Barn borehole, Berkshire, UK. Guendouz. A., Moulla, A.S., Edmunds, W.M., Zouari, K., Shand, P. and Mamou. A. (2003) Hyrdrogeochemical and isotopic evolution of water in the complexe terminal aquifer in the Algerian Sahara. Edmunds, W.M., Shand, P., Hart, P. and Ward, R.S. (2003) The Natural (baseline) quality of groundwater in England and Wales: A UK pilot study. Edmunds, W.M. (2003) Hydrogeochemical processes in arid and semi-arid regions - focus on North Africa. Chapter 7 in, I. Simmers (ed.) Carrillo-Rivera, J.J., Cardona, A. and Edmunds, W.M. (2002) management of high fluoride groundwater flow: valley of San Luis Potosi, Mexico. Smedley, P.L. and Edmunds, W.M. (2002) Redox patterns and trace element behaviour in the East Midlands Triassic sandstone aquifer, UK. Edmunds, W.M. and Tyler, S.W. (2002) Unsaturated zones as archives of past climates: towards a new proxy for continental regions. Edmunds, W.M. (2001) Investigations of the unsaturated zone in semi-arid regions using isotopic and chemical methods and applications to water resources problems. In, Goni, I.B. and Edmunds, W.M. (2001) The use of unsaturated zone solute and isotope profiles in the study of groundwater recharge in the semi-arid zone of Nigeria. In, Pearce, M.A., Jarvis, I., Swan, A.R.H., Murphy, A.M., Tocher, B.A. and Edmunds, W.M. (2001) Utility of elemental and stable isotope geochemistry in high resolution palynological studies: Upper Cretaceous chalk of the Banterwick Barn borehole, Berkshire, UK. Edmunds, W.M. (2001) Palaeowaters in European coastal aquifers: The goals and main conclusions of the Palaeaux Project. In, Edmunds, W.M. and Milne, C.J. (eds.) Edmunds, W.M., Buckley, D.K., Darling, W.G., Milne, C.J., Smedley, P.L. and Williams, A. (2001) Palaeowaters in the aquifers of the coastal regions of southern and eastern England. In, Edmunds, W.M. and Milne, C.J. (eds.) Vaikmäe R., Edmunds, W.M., and Manzano, M. (2001) Weichselian palaeoclimate and palaeoenvironment in Europe: Background for palaeogroundwater formation. In, Edmunds, W.M. and Milne, C.J. (eds.) Loosli, H.H., Aeschbach-Hertig, W., Barbecot, F., Blaser, P., Darling W.G., Dever, L., Edmunds, W.M., Kipfer, R., Purtschert, R. and Walraevens, K. (2001) Isotopic methods and their hydrogeochemical context in the investigation of palaeowaters. In, Edmunds, W.M. and Milne, C.J. (eds.) Hinsby, K., Edmunds, W.M., Loosli, H.H., Manzano, M., Condesso De Melo, T. and Barbecot, F. (2001) The modern water interface: recognition, protection and development. Advance of modern waters in European aquifer systems. In, Edmunds, W.M. and Milne, C.J. (eds.) Edmunds, W.M. Hinsby, K., Marlin, C., Melo, T., Manzano, M, Vaikmae, R. and Travi, Y. (2001) Evolution of groundwater systems at the European coastline. In, Edmunds, W.M. and Milne, C.J. (eds.) Edmunds, W.M. (2000) Groundwater emplacement in European coastal aquifers since the late Pleistocene: Implications for Development. In, I. Entner and H. Zojer (eds.) Edmunds, W.M. and Verhagen, B.T. (2000) Isotope-based assessment of groundwater renewal: An international study of the unsaturated zone. In, Sililo,</t>
+  </si>
+  <si>
+    <t>. The historical scope of his work extends from the middle decades of the nineteenth century to the recent past. His research ranges from aspects of environmental history, including epidemiology, to contemporary intersections between nature and culture including the visual arts. His book (MIT Press, 2002) was winner of the 2003 Spiro Kostof award for the book within the previous two years "that has made the greatest contribution to our understanding of urbanism and its relationship with architecture". His book (The MIT Press, 2014) was awarded the 2014 AAG Meridian Award for Outstanding Scholarly Work in Geography and the 2016 award for the most innovative book in planning history from the International Planning History Society. He is currently writing a research monograph on bio-diversity and urban nature and is Principal Investigator for the ERC Advanced Grant Matthew has been a visiting scholar at Columbia University, New York; the University of California, Los Angeles; Newcastle University; the Technical University, Berlin; the Humboldt University, Berlin; and the University of the Arts, Berlin. He was Founder and Director of the UCL Urban Laboratory (2005-11) and is a co-founder of the Urban Salon. Matthew is also actively involved in local issues in Hackney, east London, and is a member of Hackney Biodiversity Partnership and Sustainable Hackney. Since 2013 he has been co-editor of He was elected a fellow of the Academy of Social Sciences in 2015 and a fellow of the British Academy in 2016. Urban nature encompasses a disparate body of work and ideas ranging from scientific analysis of ecological assemblages to the cultural valorization of "cosmopolitan natures". I am interested in exploring changing meanings of urban nature through interdisciplinary and historical analysis of emerging cultures of nature under modernity. By linking urban ecology with post-humanist insights there are clear points of interconnection with network-oriented ontologies of human subjectivity and extended conceptions of agency. I am building on my previous work on cyborg urbanization to examine corporeal dimensions to urban space including geographies of sound, light, and sexuality. There is significant scope for a critically reworked political ecology, in combination with new insights into the independent agency of nature, to explore evolving relationships between human health and the urban environment. Although existing studies within environmental history and other fields have emphasized the role of infrastructure networks and other measures against the threat of water-borne disease these insights can be extended to other socio-ecological dimensions of urban space. I have long been fascinated by "wastelands" since my early forays into London's so-called "bomb sites". A focus on spontaneous forms of urban nature transcends the merely speculative or utilitarian potentialities of ostensibly empty spaces. Within urban ecology significant attention has been devoted to wastelands as "ecological refugia" or "islands" of bio-diversity. These spontaneous ecologies serve as "accidental laboratories" for cultural and scientific curiosity. Ecological rhetoric is often widely deployed as a pretext for the elimination of pre-existing spaces of nature that already have high levels of cultural and scientific interest. But what kind of landscape aesthetics is invoked by the protection of spontaneous spaces of urban nature? How can cultural or scientific complexity become part of a vibrant public culture? My recent research on Gilles Clément, for example, suggests that a different kind of synthesis between ecological science and urban design might be possible. The ambiguity of urban nature and the limits to scientific knowledge have been a focus for a variety of cultural interventions since the early 1970s. In these instances close observation, or the "botanical eye", becomes a specific form of cultural-scientific practice that can reveal new insights into the production of space and the often arbitrary assignment of cultural and economic value. The multiplicity of cultural responses to urban nature, ranging from literature to cinema, is partly related to the diversity of such sites and their varied origins: whilst some spaces have developed spontaneously within ostensibly "empty" sites, others have emerged from neglect or abandonment. Gandy, M. 2013 El resurgir de Zoöpolis: biodiversidad, paisaje y ecologías cosmopolitas / Zoöpolis redux: biodiversity, landscape, and cosmopolitan ecologies. Gandy, M. 2006 Das Wasser, die Moderne und der Niedergang der bakteriologischen Stadt, in S. Frank and M. Gandy (eds.) Gandy, M. 2003 Life without germs: contested episodes in the history of tuberculosis, in M. Gandy and A. Zumla (eds.) Gandy, M. (and Zumla, A.) 2003 Epilogue: politics, science, and the "new" tuberculosis, in M. Gandy and A. Zumla (eds.) Gandy, M. 2010. Of time and the city. Essay to accompany the British Film Institute's release of Terence Davies's 2008 film</t>
+  </si>
+  <si>
+    <t>Professor Colin Clarke is an Emeritus Professor at Oxford University and an Emeritus Fellow of Jesus College, Oxford. He has taught at the Universities of Toronto and Liverpool, where he was, until 1981, Reader in Geography and Latin American Studies. He has carried out numerous field investigations in Mexico and the Caribbean and published 12 books and more than 100 research papers and chapters. Professor Clarke has been Chairman of the Society for Caribbean Studies (and a Life Member since 2004); President of the European Association for Research on Central America and the Caribbean (Life President since 1988); and Chairman of the Society for Latin American Studies. Between 1998 and 2002 he led a research project entitled 'Decolonizating the Colonial City: Kingston, Jamaica, 1940-1991' (funded by the Leverhulme Trust). He received the Gold Medal of the Royal Scottish Geographical Society in 1999, and in 2003 was lifted up by Sri Chinmoi to mark his contribution to human development issues in Latin America and the Caribbean. In 2004 he was awarded the degree of At Oxford he has been Tutor for Admissions at Jesus College, Chairman of the Faculty Board of Anthropology and Geography, Chairman of the Inter-Faculty Committee for Latin American Studies, and Head of the School of Geography and the Environment. Professor Clarke's research interests include urbanization in developing countries; race, ethnicity and class; peasantries; and the problems of small, recently de-colonized states. His regions of specialization are the Caribbean, Latin America and, more recently, Central Europe. Although he is a geographer, his research interests overlap with social anthropology, sociology and history. Since he completed his book on Mexico in 2000, Professor Clarke has concentrated on the Caribbean, and in 2006 published two books on Kingston, the capital of Jamaica, in which he examined the process of urbanization and the structure of colour-class stratification and cultural pluralism over more than three centuries. More recently he has turned his attention to Trinidad, and is currently preparing for publication an ethnographic journal he kept jointly with Gillian, his wife, focusing on race, religion and politics in San Fernando and the neighbouring Naparimas. Based on research carried out in the second year of Trinidad's independence (1964), the journal takes the reader into the very heart of a plural society, newly freed from colonialism. Professor Clarke is currently engaged in a new project, entitled 'Racist Regimes', the aim of which is to compare Caribbean slavery with the Jewish Holocaust in Europe. This research is not about slavery in the USA, where slaves were a minority of the labour force, and labour-intensive sugar was not the major export crop; nor is it about the full range of victims of the Holocaust, the inclusion of whom would render the research less manageable. Its focus is the Caribbean, especially the British colony of Jamaica, where the harsh, tropical, sugar-plantation regime involved the labouring to death of slaves of African origin; and the Holocaust, which involved both labouring to death and outright mass murder perpetrated on Jews by Nazi Germans in the occupied territories of Central Europe. The objectives are to produce a systematic comparison between slavery in the Caribbean and the Holocaust in Central Europe; to show how the theory of differential incorporation informs race laws and exclusion from citizen's rights; to draw out the commonalities between slavery and the Holocaust; to identify the differences between the two regimes/systems; and, through the comparison, to achieve a profounder understanding of each racist regime. Holocaust survivor/writer Primo Levi (2004) commented in the Afterword to : 'in every part of the world, wherever you begin by denying the fundamental liberties of mankind, and equality among people, you move toward the concentration camp system, and it is a road on which it is difficult to halt' (390-1). Clarke, C. (2010) From slum to ghetto: multiple deprivation in Kingston, Jamaica. Chapter 12 in, McGregor, D., Dodman, D. and Barker, D. (eds.) Lowenthal, D. and Clarke, C. (2007) Triumph of the Commons: Barbuda Belongs to all Barbudans Together. In, J. Besson and J. Momsen (eds.)</t>
+  </si>
+  <si>
+    <t>Convenor of Circumpolar History and Public Policy Research, Scott Polar Research Institute. Member of the Department of Geography's Natures, Cultures, and Knowledges Thematic Research Group. Research Associate in the Michael Bravo has an interdisciplinary background with a humanities Ph.D. (Cantab 1992) in the history and philosophy of science, building on a technical background with a B.Eng. (Carleton 1985) in satellite communications engineering. Bravo has written extensively on the role of scientific research in the exploration and development of the Arctic, exploring issues in historical epistemology including the philosophy of experiment, measurement in fieldwork, the nature of precision and calibration, science and technology in translation, and the historical emergence of new ontologies. The Pan-Inuit Trails Atlas is my most recent project. With a major grant from the Social Sciences Research Council of Canada, and in collaboration with Claudio Aporta and Fraser Taylor (Carleton University), I visited Pond Inlet situated near the entrance to Lancaster Sound at the eastern entrance to the Northwest Passage to begin to document the community's use of these waters. This field work complemented the team's development of the . The principal sources for the Inuit knowledge that defines this Atlas, are maps that were drawn by Inuit for visiting scientists, missionaries, and traders over the course of centuries. Brought together and mapped with their geo-spatial data, the Atlas for the first time presents an indigenous cartographic vision of Arctic North America, showing the network of trails that Inuit peoples travelled and used to communicate over great distances from Alaska to Greenland. The Atlas can be viewed online at http://paninuittrails.org. (2002), I explore the implications of the Arctic's extraordinary historical diversity through the lens of the Scandinavian Arctic. The point of this book is to reveal how the Arctic as one of the world's major geographical regions comprises fundamentally different historical processes of colonisation and integration. The field sciences have for centuries played important roles in defining how the Arctic is understood and governed in ways that continue to shape the region as we know it today. was the result of a collaboration with Nicola Triscott of Arts Catalyst (London) and the Slovenian artist Marko Peljhan. As the dominant discourses of Arctic geopolitics are blind to the realities of life in the Arctic, its peoples and ecosystems are repeatedly trivialized in both geopolitics and the arts. This book explores how technologies have transformed relationships between environment and politics for Inuit and other northern peoples. The key question seen from five distinct vantage points is to what extent we should look to experiments in technology to bring autonomy to the citizens of the Arctic. Is a strategy to develop new green technologies for Arctic societies coherent and likely to succeed as a means to reduce dependence on hydrocarbons? The authors argue that the liberating potential of technologies to build lasting autonomy depends on the kinds of mobility and transformations of political economy that they make possible. Together the essays reveal a new approach to the study of technology and mobility that may allow us to rethink Arctic geopolitics from the ground up. Michael Bravo is Head of the Circumpolar History and Public Policy Research Group at the Scott Polar Research Institute, as well being a member of the Geography Department's Bravo is Co-Director with Claudio Aporta (Dalhousie) of the Inuit Northwest Passage Project. Thanks to a major research grant from the Social Sciences and Humanities Research Council of Canada, the project team has launched the Pan-Inuit Trails Atlas. Akin to the "songlines" of Aboriginal Australians, the continent of North America has long been known to the indigenous Inuit through a remarkable and extensive network of trails that has remained largely hidden to the rest of the world. Inuit traditional travel changed seasonally with the climate, so that the network of trails spanning the continent was most navigable across the winter sea ice, as well as the snow-covered coastal and inland routes. Inuit have long been famous for their journeys, but the precise extent of them has rarely been fully appreciated. This project represents a first attempt to map these trails along with their geo-spatial data to show how they connected the thousands of different camps and other sites known to Inuit. The atlas can only give a partial indication, a sense of just some of the most important routes travelled, amongst the many. Taken together, they reveal an extraordinary command of territory that long preceded the arrival of explorers looking for a Northwest Passage. Yet this network of trails proved to be highly resilient in the face of encounters with European and American scientific and commercial interests, adapting to them. The Atlas can be viewed online at http://paninuittrails.org. Whereas the importance of the world oceans for global security - particularly their circulation, oil and gas reserves, fishing stocks and indigenous culture - is now widely recognised, they are all threatened or endangered. However our knowledge of their environmental history, how they came to be the way they are, is surprisingly limited and at best fragmented. Dr. Bravo's research aims to develop the historical foundations for a new interdisciplinary understanding of the science of the oceans that can explain the nature and direction of change, and take account of the much greater and more diverse communities of historical actors or stakeholders than has been widely acknowledged. 'Science' is often made to function as a vehicle of public policy. In G8 nations science and technology have a long history of involvement in economic planning. This is certainly true in the Arctic, my region of special interest, where science has played a variety of roles in colonisation, nation-building, and environmental monitoring The use of field sciences as policy instruments remains poorly understood, for all that climate change has brought them into the public eye. I am currently working on developing new models that explain the linkages between the field sciences and public policy. To explore the practical application of models, I have also been asked to act as an advisor for the International Conference on Arctic Research Planning (ICARP) The project has a strong historical foundation in order to ascertain why field stations only came into existence relatively recently (mid- to late-C19), what they are intended to accomplish, and how they have served to mediate between scientists, the state, and the inhabitants of the field. To that end, I am principal investigator and coordinator on ' Michael Bravo is Convenor of Circumpolar History and Public Policy Research, and a Member of the Natures, Cultures, Knowledges Group in Geography. Dr. Shane McCorristine: The Supernatural in Victorian Arctic Exploration (IRCHSS, 2010-2013, SPRI Associate and College Lecturer in Geography, Downing College 2013-2014) Elana Wilson: Knowledge and Community-Building: The Promotion and Reception of Canadian Co-Management and Economic Development Models in the Russian North (2006) Alison Weisburger: Indigenous Knowledge Discourse in Regime Theory as applied to the Arctic Council's Offshore Oil and Gas Guidelines (2011) 2012 Bravo, M. T., 'Collecting the Proxies and Mementos of Climate Histories' in Forum on Communicating climate knowledge proxies, processes, politics. 2012 Bravo, M. T. and C. Aporta, 2012, 'Cartographic Gestures' in T. Tyszcuk, J. Smith, N. Clark and M. Butcher (eds.), 2012 Donovan, A., Oppenheimer, C., &amp; Bravo, M. T.. Science at the policy interface: volcano-monitoring technologies and volcanic hazard management. 2012 Donovan, A., Oppenheimer, C., &amp; Bravo, M. T. . Social studies of volcanology: Knowledge generation and expert advice on active volcanoes. Sutherland, W. J., Bellingan, L., Bellingham, J. R., Blackstock, J. J., Bloomfield, R. M., Bravo, M. T., . . . Zimmern, R. L. 2012. A collaboratively-derived science-policy research agenda. 2011 Donovan, A., Oppenheimer, C., Bravo, M. T., 'Rationalising a Volcanic Crisis through Literature: Montsrratian verse and the descriptive reconstruction of an island', 2011 Bravo, M. T. and N. Triscott, 'Building Autonomy through Experiments in Technology and Skill' in Bravo, M. T. and N. Triscott (eds.), 2010 Bravo, M. T., 'The Humanism of Sea Ice' in I. Krupnik, C. Aporta, S. Gearheard, and G. Laidler (eds.), 2009 Bravo, M. T., 'Arctic Science, Nation-building, and Citizenship', in Frances Abele, Thomas Courchene, Leslie Seidle and France St-Hilaire (eds.), Northern Exposure: Peoples, Powers and Prospects for Canada's North. Montreal: Institute for Research on Public Policy, 321-348. 2009 Bravo, M. T., 'Voices from the Sea Ice and the Reception of Climate Impact Narratives', Journal of Historical Geography, (2): 256-278. Feature issue on Climate Change Narratives. [Based on IBG 2006 Plenary Session on 'Narratives of Climate Change' with William Cronon, Richard Hamlyn, Diana Liverman, and Sverker Sörlin]. 2009 Bravo, M. T., 2009, 'Preface: Legacies of Polar Science' in J. Shadian and M. Tennberg (eds.), Legacies of Polar Science, Farnham: Ashgate Press, 13-16. 2008 Bravo, M. T., 2008 'Sea Ice Mapping: Ontology, Mechanics, and Human Rights at the Ice Floe Edge', D. Cosgrove and V. della Dora (eds.) High Places: Cultural Geographies of Mountains and Ice. London: IB Tauris, 161-176. , et al., 2008 'Northern Science and Research: Postsecondary Perspectives in the Northwest Territories', The Journal of Northern Studies, 1: 23-52. University of Pennsylvania Press, 49-65. (2nd edition in paperback, hardback published in 2004). In a volume of new essays dedicated to the history of colonial natural history, this paper is the first attempt to examine the importance of gardens at eighteenth century Moravian mission stations in locations as physically inhospitable as Greenland, and as politically and socially fraught as the West Indian slave plantations. (2): 78-102. This paper examines how public policymakers in the 1970s envisaged that community-based field stations in Arctic communities could enable Inuit to participate in science. This paper will be the opening publication in an international collaborative project for International Polar Year (2007-2008) about the history of field stations. This paper argues that the scientific accomplishments of William Scoresby Jr., Britain's most famous Arctic whaler, can be best understood in a wider historical context of social, economic, and technological 'improvement'. Seen in this light, we can understand how Scoresby's industrial-scale access to the Arctic Seas enabled his rapid rise through the patronage of Robert Jameson into the world of scientific savants like Alexander von Humboldt and Leopold von Buch. 1998 Bravo, M. T., 'The Anti-Anthropology of Highlanders and Islanders', Studies in the History and Philosophy of Science 29A(3): 369-389. 1998 Bravo, M. T. 'Precision and Curiosity in Scientific Travel: James Rennell and the Orientalist Geography of the New Imperial Age (1760-1830)', in 36pp. (2009). Carnegie Endowment for East-West Relations (John Sloan Dickey Center for International Understanding, Dartmouth College, USA) (Dec 2007). Role: 'Panel member/speaker on Science Policy' in colloquium at Dartmouth College. Report presented to the US Department of State and other agencies, 24 June 2009. Published online at Bravo, M. T. 2007 'How central is imagination to our understanding of climate change?, Nature Reports on Climate Change, 2:27-28. Published online: 27 June 2007. [Review of Burning Ice: Art and Climate Change, D. Buckland, A. MacGilp, and S. Parkinson (eds.), Cape Farewell 2006.</t>
+  </si>
+  <si>
+    <t>Professor Smith has a distinguished career both as a human geographer and in the interdisciplinary world of housing studies. In addition to a programme of research spanning more than 30 years, Professor Smith is experienced in research management, research strategy, and research assessment of all kinds. She has contributed to the work of the ESRC (Research Grants Board, Professorial Fellowships Commissioning Panel, Public Services Programme Commissioning Panel), HEFCE (as a panel member in the 2001 and 2008 Research Assessment Exercises), the Leverhulme Trust (Philip Leverhulme Prize panel), and to research development and monitoring in HEIs within and beyond the UK. She has a wide-ranging teaching and examining portfolio, at all levels, in a variety of topics; and she is active in the communication dissemination of ideas beyond the academy. Awarded by the Royal Geographical Society with the Institute of British Geographers for conspicuous merit in research in human geography Appointment as a Tanner lecturer is 'a recognition for uncommon achievement and outstanding abilities in the field of human values' Professor Smith's research is centrally concerned with the challenge of inequality, addressing themes as diverse as residential segregation, housing for health and fear of crime. Her current research focusses squarely on inequalities in the housing economy, and particularly on those arising from the uneven integration of housing, mortgage and financial markets. Her work has been funded by research councils, government bodies and charitable trusts. Methodologically this work includes a mix of qualitative and quantitative approaches, as well as in interest in a variety of participatory techniques. Most recently, in collaboration with Dr, Mia Gray and Menagerie Theatre Company, and funded by an impact acceleration grant at Cambridge University, she has developed a project on ' '. This is an experiment in dramatizing the findings of original academic research in a style – Interactive Forum Theatre, as developed by the Brazilian playwright Augusto Boal – that is designed to inform and empower stakeholder audiences. ' funded by the Australian Housing and Urban Research Institute (with Gavin Wood and Rachel Ong), which builds on an earlier project funded by Australian Research Council on funded by the Joseph Rowntree Foundation (with Christine Whitehead &amp; Peter Williams) and an evaluation for the DWP of the UKs ' (with Donna Easterlow and Moira Munro). In the early 1990s Professor Smith also completed suite of projects around ' Wood, G. A., Smith, S. J., Cigdem, M. and Ong, R. (2015) Life on the edge: a perspective on precarious home ownership in Australia and the UK. Wood, G., Parkinson, S., Searle, B. A. and Smith, S. J (2013) Motivations for Equity Borrowing: A Welfare Switching Effect. Ong, R., Parkinson, S., Searle, B. A., Smith, S. J. and Wood, G. (2013) Channels from Housing Wealth to Consumption. Lowe, S., Searle, B. A, and Smith, S. J. (2011) From housing wealth to mortgage debt: the emergence of Britain's asset-shaped welfare state. Richards, K. and 14 others (the geography RAE panel) (2009) The Nature of Publishing and Assessment in Geography and Environmental Studies: Evidence from the Research Assessment Exercise in 2008. Parkinson, S., Searle, B. A., Smith, S. J., Stoakes, A. and Wood, G. (2009) Mortgage Equity Withdrawal in Australia and Britain: Towards a Wealth-fare State? Smith, S. J. and Searle, B. A. (2008) Dematerializing Money: Observations on the Flow of Wealth from Housing to Other Things. Smith, S. J., Easterlow, D., Munro, M. and Turner, K. (2003) Housing as Health Capital. How Health Trajectories and Housing Careers are Linked. Kelly, E., Mitchell, J. C. and Smith, S. J. (1990) Factors in the Length of Stay of Homeless Families in Temporary Accommodation. Smith, S. J. (2012) 'Care-full markets: miracle or mirage' in Tanner Lecture Library (Clare Hall Tanner Lectures 2010) forthcoming at: Roberts, H., Smith, S. J., Campbell, B. and Rice, C. (2011) 'Safety as a Social Value: Revisiting a Participatory Case Study in Scotland' in Rice, C., Roberts, H., Smith, S. J. and Bryce, C. (1994) ' "It's Like Teaching your Child to Swim in a Pool full of Alligators". Lay Voices and Professional Research on Child Accidents' in Munro, M., Smith, SJ and Ford, J. (2010) An evaluation of the January 2009 arrangements for support for mortgage interest. Belsky, E., Case, K. and Smith, S. J. (2008) Identifying, managing and mitigating risks to borrowers in changing mortgage and consumer credit markets. Smith S J (2007) 'Inhabiting Dangerous Territory' and 'A Possible Future for the Market'. Two pieces on housing, mortgage and financial markets) Smith, S. J., Cook, N. and Searle, B. A. (2007) From Canny Consumer to Care-full Citizen: Towards a Nation of Home Stewardship? Smith, S. J. (2003) Reply to comments on my own book 'Crime, space and society' in 'Classics in Human Geography Revisited' Bryce, C., Roberts, H. and Smith, S. J. (1992) 'If Childrens' Accidents Were Contagious They'd Do Something About Them': Child Accident Prevention and Local Knowledge. PhD supervision in areas of social and economic geography concerned with housing, mortgage and financial markets, including house prices, housing wealth, mortgage debt, and financial innovation</t>
+  </si>
+  <si>
+    <t>Richard Grenyer is a biologist and conservationist who is interested in the fundamental position that space and geographical processes occupy in biodiversity science and modern conservation strategy. He was appointed to an Associate Professorship in Biodiversity and Biogeography at the School of Geography and the Environment at the University of Oxford in August 2010. He is also Fellow and Tutor in Physical Geography at Jesus College. The flora of some regions in the Eastern Cape of South Africa, like the Baviaanskloof above, possess an disparate mix of evolutionary histories and score highly on evolutionary biodiversity measures. , for a thesis using phylogenetic comparative methods to understand the evolution and maintenance of extinction-promoting traits in mammals and insects. In 2004 he joined the demonstrated for the first time that conservation decisions at a global scale must be data-driven if they are to be efficient, and cannot rely on knowledge of a few well-known species for guidance. the first demonstration that conservation efforts to protect the most species do not always protect the widest variety of genotypes or phenotypes. In 2007 Richard returned to Imperial College London to the Since 1999, Richard has been a contributor to a decade-long collaborative study to produce the first complete evolutionary tree of mammal species (above). This was published in 2007, and has been cited 280 times in 3 years. With the mammalian distribution dataset from UVA (and its later &amp; better incarnations at the Richard has given plenary talks to the South African Society for Systematic Biology conference, and to the University of East Anglia, as well as research seminars in numerous UK and international universities. He has taught two courses in South Africa through the Darwin Initiative (University of Cape Town in 2007 and University of Johannesburg/ Pretoria in 2008), and has been invited for research visits at the University Of Cape Town (2008) and to an As a biologist, Richard is interested in the role of spatial processes in the generation and maintenance of biodiversity. Is there solid theory to describe how lineages of organisms evolve in space and time? Does existing theory predict the same spatial pattern of species richness and endemism we see around us? If we seek to manage biodiversity, we need to measure it - but how to do this is a long-standing problem in ecology. Does it matter that the units of biodiversity - species - are all the current product of both unique and shared evolutionary pressures and processes? Do we even need to overcome the "Wallacean shortfall": the difficult-to-know geography of which species is found where? Or can we simply abstract away all the differences in biology and ecology amongst species into different kinds and different amounts of ecosystem services? What do we mean by "different ways of measuring diversity"? As an example, by interfacing the distribution and phylogeny of mammals, we can determine two different Gondwanan legacies in Africa and South America: there are different kinds of mammal diversity on sister continents. Below, vertical extrusion is proportional to the number of mammal species today, and heat colour is proportional to their phylogenetic relatedness. African mammals took a long time to reach their current high richness, and are evolutionarily diverse. The mammals of South America, conversely, are characterised by explosive radiations leading to large families of close relatives (data from Davies In many ways, phylogenetic trees and geographical maps are very similar: both provide a means of conditioning our expectations of similarity amongst observations. Expected similarity in both cases is derived from some model of expected change as a function of the distance between observations. In phylogenetic terms this means specifying some model of evolutionary change over branch length, and in geographic terms specifying a model of expected decay in similarity over space. The fun starts when you have a set of observations that have both a phylogenetic and a spatial component - say, for example, most ecological datasets: how do we (and when should we) dissect the observed pattern into spatial, phylogenetic, and interaction components? The same is true with macroecological models that seek to explain the number of species across different regions: the phylogeny of species can both help explain and must be explained by the mechanism a model suggests. If we want to dissect these conflicting biological patterns, even at a basic level, we must solve the problem of overlapping influences of shared ancestry, shared location and biological interaction. As a conservationist Richard is interested in numerical and analytical strategies for the conservation of biodiversity. He uses techniques from evolutionary biology and ecology coupled with high-performance computing to dissect, analyze and advise the conservation process. Numerical analyses like this - usually called Strategic Conservation Planning - can help make maximally efficient on-the-ground conservation decisions (see his .). Numerical analyses can also help us understand what the conservation business today has become, what it does well (and not-so-well), and how it might have to change in an uncertain, pressured future. When we make choices about where and how to do conservation we make it more likely that some species and populations survive than others. Hopefully all these likelihoods are kept high, but we still induce differential risk. As a result we have a duty to make sure that the portfolio of biodiversity we favour has desirable properties. This could be as simple as having as many species in it as possible, or as complex as maximising functional or genetic diversity: again, it all comes down to how you measure diversity and how much difference it makes to resource allocation by conservation practitioners. To me, this means that conservation plans that aren't assessed against solutions to at least some form of spatial combinatoric problem with a defined optimality criterion simply aren't credible science, however politic they may be. As an example, the graph above shows the relative performance of some different types of global priority network from Grenyer, Orme . (2006). Performance measured with respect to capturing a, total species richness, b, rare species, and c, threatened species of birds, mammals and amphibians. Networks identified using an optimal complementarity approach based on birds alone (B), mammals alone (M), amphibians alone (A), or birds, mammals and amphibians combined (Cn, where n indicates the number of times each species is represented). Performance also shown for Biodiversity Hotspots (H), Endemic Bird Areas (E) and Global 200 Ecoregions (G), and for randomly selected sets of cells (100 replicates: median, black line; 95% confidence range, grey area). Richard teaches on both the 'Ecology of the Biosphere' course and the 'Quantitative Methods' course for the Preliminary Examination. He co-teaches the 'Biogeography, Biodiversity and Conservation' Option for the Final Honours School. He coordinates the 'Strategic Conservation Planning' module for the MSc in Biodiversity, Conservation and Management and contributes a GIS course to the 'Research Methods' module to all the MSc courses in SoGE. He also teaches on several field courses, including the Tenerife field courses for both the MSc course and Final Honours School in 2012. Richard is very interested in hearing from prospective graduate students with a biological, conservation or computational background (or all three!). Funded doctoral opportunities will be advertised as they occur. If you are interested in applying for a Clarendon or other scholarship-funded doctoral position, please only contact me if you already have a well-defined research project you would like to discuss. Tucker, C.M., Cadotte, M.W., Carvalho, S.B., Davies, T.J., Ferrier, S., Fritz, S.A., Grenyer, R., Helmus, M.R., Jin, L.S., Mooers, A.O., Pavoine, S., Purschke, O., Redding, D.W., Rosauer, D.F., Winter, M. and Mazel, F. (2017) What is the extent and distribution of evidence on effectiveness of systematic conservation planning around the globe? A systematic map protocol Rodrigues, A.S.L., Grenyer, R., Baillie, J.E.M., Bininda-Emonds, O.R.P., Gittlemann, J.L., Hoffmann, M., Safi, K., Schipper, J., Stuart, S.N. and Brooks, T. (2011) Jones, K.E.J., Bielby, J., Cardillo, M., Fritz, S.A., O'Dell, J., Orme, C.D.L., Safi, K., Sechrest, W., Boakes, E.H., Carbone, C., Connolly, C., Cutts, M.J., Foster, J.K., Grenyer, R., Habib, M., Plaster, C.A., Price, S.A., Rigby, E.A., Rist, J., Teacher, A., Bininda-Emonds, O.R.P., Gittleman, J.L., Mace, G.M. and Purvis, A. (2009) Nicholson, E., Mace, G.M., Armsworth, P.R., Atkinson, G., Buckle, S., Clements, T., Ewers, R.M., Fa, J.A., Gardner, T.A., Gibbons, J., Grenyer, R., Metcalfe, R., Mourato, S., Muuls, M., Osborn, D., Peck, L. Reuman, D.C., Watson, C. and Milner-Gulland, E.J. (2009) Davies, T.J., Fritz, S.A., Grenyer, R., Orme, C.D.L., Bielby, J., Bininda-Emonds, O.R.P., Cardillo, M., Jones, K.E.J., Gittleman, J.L., Mace, G.M. and Purvis, A. (2008) Bininda-Emonds, O.R.P., Cardillo, M., Jones, K.E., MacPhee, R.D.E., Beck, R.M.D., Grenyer, R., Price, S.A., Vos, R.A., Gittleman, J.L. and Purvis, A. (2007) Forest, F., Grenyer, R., Rouget, M., Davies, T.J., Cowling, R.M., Faith, D.P., Balmford, A., Manning, J.C., Proches, S., van der Bank, M., Reeves, G., Hedderson, T.A.J. and Savolainen, V. (2007) Grenyer, R., Orme, C.D.L., Jackson, S.F., Thomas, G.H., Davies, R.G., Davies, T.J., Jones, K.E., Olson, V.A., Rasmussen, P.C., Ding, T-Z., Bennett, P.M., Blackburn, T.M., Gaston, K.J., Gittleman, J.L. and Owens, I.P.F. (2007) Grenyer, R., Orme, C.D.L., Jackson, S.F., Thomas, G.H., Davies, R.G., Davies, T.J., Jones, K.E., Olson, V.A., Ridgely, R.S., Rasmussen, P.C., Ding, T-Z., Bennett, P.M., Blackburn, T.M., Gaston, K.J., Gittleman, J.L. and Owens, I.P.F. (2006) Bininda-Emonds, O.R.P., Cardillo, M., Jones, K.E., MacPhee, R.D.E., Beck, R.M.D., Grenyer, R., Price, S.A., Gittleman, J.L. and Purvis, A. (2006) The tree of life. In, MacDonald, D.W. (ed.)</t>
+  </si>
+  <si>
+    <t>John Boardman is a geomorphologist educated at the Universities of Keele (BA and DSc) and London (BSc and PhD). John retired from ECI in September 2008 and from his positions as Deputy Director of the ECI, Director of the MSc in Environmental Change and Management. He is now an Emeritus Fellow at the ECI and continues working on land degradation issues, particularly in the Karoo, South Africa. He is Honorary Professor in the Department of Environmental and Geographical Science, University of Cape Town. He has published over 150 papers mainly on land degradation and has edited several books: Soils and Quaternary Landscape Evolution (Wiley 1985), Periglacial Processes and Landforms in Britain and Ireland (CUP 1987), Soil Erosion on Agricultural Land (Wiley 1990), Modelling Soil Erosion by Water (Springer 1998) and Soil Erosion in Europe (Wiley 2006). John was Chairman of the EU-funded COST Action 623 'Soil Erosion and Global Change' (1998-2003) with 21 participating countries and Chaired a Working Group in COST 634 'On and Off-Site Impacts of Runoff and Erosion'. He is UK representative on the COST (European Cooperation in Science and Technology) Transdisciplinary Proposal Standing Assessment Board and also on the Earth System Science and Environmental Management committee. John continues to work on soil erosion in southern England and also on land degradation in South Africa. John has begun a new project in Autumn 2013 on the history and impact of rainfed wheat farming in the Sneeuberg, South Africa. , John continues to teach on the course and to lead field trips. He has recently acted as External Examiner on MSc degrees at the Universities of Exeter and Edinburgh. John is also supervising a PhD student on Sediment Pressures and Mitigation options for the River Rother at the University of Northampton. Understanding the influence of farmer motivations on changes to soil erosion risk on sites of former serious erosion in the South Downs National Park, UK The connectivity of erosion: how runoff and sediment travels from field to river – the case of the Rother valley, West Sussex Evans, J., Boardman, J., Foster, I.D.L. and Copeland-Phillips, R. (2017) The impact of on-line dis-continuity on fluvial sediment dynamics and valley long profile adjustment. British Society for Geomorphology Annual Meeting, Hull, 4-6 September 2017. A comparison of conventional and 137Cs-based estimates of soil erosion rates on arable and grassland across lowland England and Wales Making water policy work in the United Kingdom: A case study of practical approaches to strengthening complex, multi-tiered systems of water governance The new assessment of soil loss by water erosion in Europe. Panagos P. et al., 2015 Environmental Science and Policy 54, 438–447—A response Effect of the spatial organisation of land use on muddy flooding from cultivated catchments and recommendations for the adoption of control measures Krena, J., Greenwood, P., Kuhn, B., Heckrath, G., Foster, I., Boardman, J., Measows, M. and Kuhn, N. (2016) Soil organic carbon erosion and its subsequent fate in the Karoo rangeland. EGU General Assembly 2016, held 17-22 April, 2016 in Vienna Austria. The hydrological role of 'sunken lanes' with respect to sediment mobilization and delivery to watercourses with particular reference to West Sussex, southern England The significance of drilling date and crop cover with reference to soil erosion by water, with implications for mitigating erosion on agricultural land in South East England Boardman, J., Hoffman, M.T., Holmes, P.J. and Wiggs, G.F.S. (2012) Soil erosion and land degradation. Chapter 11 in, Holmes, P. and Meadows, M. (eds.) Evrard, O., Heitz, C., Liegeois, M., Boardman, J., Vandaele, K., Auzet, A.V. and van Wesemael, B. (2010) A comparison of management approaches to control muddy floods in central Belgium, northern France and southern England. A simple validated GIS expert system to map relative soil vulnerability and patterns of erosion during the muddy floods of 2000-2001 on the South Downs, Sussex, UK Boardman, J. (2008) Soils and sustainability: the future of the South Downs. In, Fish. R., Seymour, S., Watkins, C. and Steven, M. (eds.) Post-European settlement impacts on erosion and land degradation: a case study using farm reservoir sedimentation in the Eastern Cape, South Africa . International Association of Hydrological Sciences Press International Commission on Continental Erosion/International Association of Hydrological Sciences (ICCE/IAHS) Symposium ‘Sediment Dynamics in Changing Environments’, Christchurch, New Zealand, 1-5 December 2008. ISBN: 9781901502848. Boardman, J. (2007) Soil erosion: the challenge of assessing variation through space and time. In, Goudie, A.S. and Kalvoda, J. (eds.) Boardman, J. and Poesen, J. (2006) Soil erosion across Europe : major processes, causes and consequences. In, Burley, J. and Evans, J. and Youngquist, JA (eds.) Foster, I.D.L., Boardman, J., Keay-Bright, J. and Meadows, M.E. (2005) Land degradation and sediment dynamics in the South African Karoo. Boardman, J., Parsons, A.J., Holl, , R., Holmes, P.J. and Washington, R. (2003) Development of badlands and gullies in the Sneeuberg, Great Karoo, South Africa. Boardman, J. (2002) Thornsgill and Mosedale; Helvellyn; Throstle Shaw; Sandbeds Fan; Grasmoor; Skiddaw. In, Huddart, D. and Glasser, N.F. and Innes, J. (eds.) Lascelles, B., Favis-Mortlock, D., Parsons, T. and Boardman, J. (2002) Automated Digital Photogrammetry: A Valuable Tool for Small-scale Geomorphological Research for the Non-photogrammetrist? Favis-Mortlock, D.T., Boardman, J. and MacMillan, V.J. (2001) The limits of erosion modeling: why we should proceed with care. In, Harmon, R.S. and Doe, W.W. (eds.) Wild, C., Wells, C., Anderson, D., Boardman, J. and Parker, A. (2001) Evidence for medieval clearance in the Seathwaite Valley, Cumbria. Favis-Mortlock, D.T., Boardman, J., Parsons, A.J. and Lascelles, B. (2000) Emergence and erosion: a model for rill initiation and development.</t>
+  </si>
+  <si>
+    <t>David Grey has over 40 years experience in water management and development, living and working in Africa, the Americas, Asia and Europe. He is a water policy analyst, practitioner and researcher, and he has been a manager of interdisciplinary, multi-national teams and large budgets. He has experience at multiple levels: community/village/farm level in water management, water supply and sanitation, and irrigation; city level in water and wastewater services; all levels of local and national governments in water policies and investments; international basin level in negotiation and dispute resolution, institutional and legal frameworks and cooperative development; continental/regional level in political advocacy and institution building; and global level in promoting paradigm shifts and engaging world political and professional bodies. He joined Oxford University as Visiting Professor of Water Policy in late 2009 after almost 27 years as staff of the World Bank. He trained as a hydrogeologist and was staff of the British Geological Survey for 8 years, including 3 years as Group Manager of Hydrogeology at BGS Wallingford, responsible for groundwater research and management activities in the UK and internationally. He was the World Bank's Senior Water Advisor and Chair of its Water Resources Management Group from 2003, with responsibility for corporate water policies and advisory oversight of the water community and the water resources, irrigation, water supply and sanitation and hydropower portfolio. He has had many affiliations. For example, he has been Board member of the World Water Council, founding member of the Water and Sanitation Collaborative Council, and a founding partner of the Global Water Partnership. Recent roles include: member of the World Economic Forum's Global Action Council on Water Security; Associate Fellow of the International Institute for Strategic Studies (Chatham House); and member of an International Panel of Experts for the Mekong River Commission. His current special interests are in: the roles that water security plays in growth and stability and water insecurity plays in poverty, environmental degradation, conflict and migration; the role that benefit sharing can play in resolving inter-jurisdictional disputes over water at all levels; and the risks that climate and other change mean for water security, livelihoods and environmental sustainability. He has a long-term interest in the institutional and incentive structures for improving the performance of water resources management and water service delivery. Prof. Grey lectures on a range of subjects, including water security, water supply and sanitation and international waters for the MSc in Water Science, Policy and Management. Sadoff, C. and Grey, D. (2008) Why share? The benefits (and costs) of transboundary water management. Chapter 2 in, Sadoff, C., Greiber, T., Smith, M. and G. Bergkamp (eds.)</t>
+  </si>
+  <si>
+    <t>Development, Social Heterogeneity and Postcolonial Governance, including recent research on "Exclusion and intersectionality in Ecuadorian development" (Funded by British Academy, and ESRC). given by Sarah Radcliffe on the topic of decolonizing development and contemporary politics in Ecuador. The seminar was given at the Institute for the Americas in December 2015. Geographies of contested postcolonial national identities: includes current research on "Intercultural Bilingual Education in Chilean classrooms: Exploring youth identities, multiculturalism and nationalism" (ESRC funded 2011-14) Postcolonialism, Culture and Social Development: Contentious politics around development futures; includes recent work querying the extent to which Ecuador's current development policy is "postneoliberal" – see on topics related to her own research (postneoliberal development and governance; social heterogeneity (intersectionality) and development policies, the postcolonial politics of territory and cartography). Recent and current PhD topics include: I am currently interested in supervising work on the contentious politics around social difference, citizenship and state policy; on the politics and policy of 'leave no one behind' agendas coming from the Sustainable Development Goals; and various issues related to Indigenous geographies, including gender difference. My own research has focused on the Andean countries, although I have also supervised students' work in Mexico, Costa Rica, Guatemala, the United States and on themes around migrants and rights in Europe. If you have another topic in mind, you're welcome to contact me directly if you think there may be interests in common. 'The ethno-environmental fix and its limits: Indigenous land titling and the production of not-quite-neoliberal natures in Bolivia,' with P. Anthias. Special issue 'Not quite neoliberal natures' K. Bakker (ed.) 'Dismantling Gaps and Myths: How indigenous political actors broke the mould of socioeconomic development', in Special issue on 'The rise of indigenous populations as political actors in the 21st century.' , part of a special issue on 'Geographies of neoliberalism in Latin America', 2005, T Perreault and P Martin (Editors) 37: 323-329 2014 'Plural knowledges and Modernity: Social difference and geographical explanations,' in K. Okamoto and Y. Ishikawa (eds) Traditional wisdom and modern knowledge for the earth's future. Springer. International Perspectives in Geography 1, pp.79-102.</t>
+  </si>
+  <si>
+    <t>. His research focuses upon management of climate-related risks in infrastructure systems, in particular relating to various dimensions of water security, including flooding and water scarcity. "for his contribution to the development of methods for flood risk analysis, which underpin approaches for flood risk management in the UK and internationally." He is now a member of the Engineering Policy Committee of the Royal Academy of Engineering and the Public Voice Committee of the , which has developed the world’s first national infrastructure simulation models for appraisal of national infrastructure investment and risks. His book research fellow, Jim developed the theoretical basis for the flood risk assessment methods that are now widely used in the UK and internationally. He was a coordinating lead author in the OST’s , which analysed risks and responses to flooding and coastal erosion in the UK over the period 2030-2100. He also developed the framework for uncertainty analysis in appraisal of options for protecting London from flooding over the 21st Century, as part of the Environment Agency’s . He has been awarded the George Stephenson Medal, the Robert Alfred Carr Prize and the Frederick Palmer Prize of the Institution of Civil Engineers for his work on flooding and coastal erosion, and the 2013 Lloyds Jim has worked extensively on application of generalized theories of probability to civil engineering and environmental systems, including random set theory, the theory of imprecise probabilities and info-gap theory. The work has been particularly fruitful in the analysis of uncertainties relating to global climate modelling, yielding project that developed methodology and tools for quantified analysis of climate risks in London. He was until 2010 Deputy Director of the , leading the Tyndall Centre’s research programme on climate change and cities, which yielded a highly innovative integrated assessment of climate change adaptation and mitigation in London. Engineering adaptation to global change. Decision analysis. Robust decision making under uncertainty. Info-gap theory. Decision support for futures and scenarios analysis. National assessment of infrastructure systems. Infrastructure systems reliability and interdependence. Integrated assessment of long term change in cities. Methodologies for uncertainty analysis in integrated assessments. Broad scale flood risk analysis. Reliability analysis of flood defence systems. Advanced sampling based methods. Impacts of climate change and socio-economic change on flood risk. Robust flood risk management decisions under uncertainty. Simplified process-based modelling of coastal system evolution over extended time and space scales. Stochastic simulation of coastal cliff recession. Use of probabilistic information in coastal management. Impacts of sea level rise. Dadson, S., Hall, J.W., Murgatroyd, A., Acreman, M., Bates, P., Beven, K., Heathwaite, A.L., Holden, J., Holman, I.P., Lane, S.N., O'Connell, E., Penning-Rowsell, E., Reynard, N., Sear, D., Thorne, C. and Wilby, R. (2017) Payo, A., Favis-Mortlock, D., Dickson, M., Hall, J.W., Hurst, M., Walkden, M.J.A., Townend, I., Ives, M.C., Nicholls, R.J. and Ellis, M.A. (2017) Coastal Modelling Environment version 1.0: a framework for integrating landform-specific component models in order to simulate decadal to centennial morphological changes on complex coasts Grafton, R.Q., McLindin, M., Hussey, K., Wyrwoll, P., Wichelns, D., Ringler, C., Garrick, D., Pittock, J., Wheeler, S., Orr, S., Matthews, N., Ansink, E., Aureli, A., Connell, D., De Stefano, L., Dowsley, K., Farolfi, S., Hall, J.W., Katic, P., Lankford, B., Leckie, H., McCartney, M., Pohlner, H., Ratna, N., Rubarenzya, M.H., Raman, S., Wheeler, K. and Williams, J. (2016) Simpson, M., Ives, M. and Hall, J. (2016) Evaluation of strategies for nature-based solutions to drought: a decision support model at the national scale. EGU General Assembly 2016, held 17-22 April, 2016 in Vienna Austria. Simpson, M., Ives, M.C., Hall, J. and Kisby, C. (2016) Water supply systems assessment. In, Tran, M., Hall, J., Hickford, A. and Nicholls, R. (eds.) Simpson, M., James, R., Hall, J.W., Borgomeo, E., Ives, M.C., Almeida, S., Kingsborough, A., Economou, T., Stephenson, D. and Wagener, T. (2016) Wheeler, K.G., Basheer, M., Mekonnen, Z.T., Eltoum, S.O., Mersha, A., Abdo, G.M., Zagona, E.A., Hall, J.W. and Dadson, S.J. (2016) Beven, K.J., Aspinall, W.P., Bates, P.D., Borgomeo, E., Goda, K., Hall, J.W., Page, T., Phillips, J.C., Rougier, J.T., Simpson, M., Stephenson, D.B., Smith, P.J., Wagener, T. and Watson, M. (2015) Brown, C.M., Lund, J.R., Cai, X., Reed, P.M., Zagona, E.A., Ostfeld, A., Hall, J., Characklis, G.A., Yu, W. and Brekke, L. (2015) Byers, E.A., Qadrdan, M., Leathard, A., Alderson, D., Hall, J.W., Amesaga, J.M., Tran, M., Kilsby, C.G. and Chaudry, M. (2015) Guillod, B., James, R., Massey, N., Otto, F., Hall, J., Allen, M. (2015) Modelling extreme weather in a changing climate: Potential applications for the insurance industry. Ives, M.C., Coello, J., Turner, D., Watson, G.V.R., Stringfellow, A.M., Powrie, W. and Hall, J. Dolan, T.and Collins, B. (ed.) (2015) Designing a Solid Waste Infrastructure Management Model for Integration into a National Infrastructure System-of Systems.Dolan, T.and Collins, B. (ed.) International Symposium for Next Generation Infrastructure Conference Proceedings: 30 September - 1 October 2014 International Institute of Applied Systems Analysis (IIASA),Schloss Laxenburg, Vienna, Austria Sadoff, C.W., Hall, J.W., Grey, D., Aerts, J.C.J.H., Ait-Kadi, M., Brown, C., Cox, A., Dadson, S., Garrick, D., Kelman, J., McCornick, P., Ringler, C., Rosegrant, M., Whittington, D. and Wiberg, D. (2015) Hall, J., Henriques, J., Hickford, A., Nicholls, R., Baruah, P., Birkin, M., Chaudry, M., Curtis, T., Eyre, N., Jones, C., Kilsby, C., Leathard, A., Lorenz, A., Malleson, N., McLeod, F., Powrie, W., Preston, J., Rai, N., Street, R., Stringfellow, A., Thoung, C., Tyler, P., Velykiene, R., Watson, G. and Watson, J. (2014) Jenkins, K., Hall, J., Glenis, V., Kilsby, C., McCarthy, M., Goodess, C., Smith, D., Malleson, N. and Birkin, M. (2014) Crawford-Brown, D., Sydall, M., Guan, D., Li, J., Jenkins, K., Hall, J.W., Beaven, R., Thoung, C. and Anger-Kraavi, A. (2013) Freer, J., Beven, K.J., Neal, J., Schumann, G. Hall, J.W. and Bates, P.D. (2013) Flood risk and uncertainty. In, Rougier, J., Sparks, S. and Hall, L. (eds.) Hall, J.W., Watts, G., Keil, M., de Vial, L., Street, R., Conlan, K., O'Connell, P.E., Beven, K.J. and Kilsby, C.G. (2012) Hannaford, J. and Hall, J.W. (2012) Flood risk in the UK: evidence of change and management responses. Chapter 2 in, Kundzewicz, Z.W. (ed.) Sayers, P.B., Galloway, G.E. and Hall, J.W. (2012) Robust decision making under uncertainty - Towards adaptive and resilient flood risk management infrastructure. In, Sayers, P.B. (ed.) Villarroel Walker, R., Beck, M.B. and Hall, J.W. (2012) Water – and nutrient and energy – systems in urbanising watersheds. Yu, C., Cheng, X., Hall, J.W., Evans, E.P., Wang, Y., Hu, C., Wu, H., Wicks, J., Scott, M., Sun, H., Wang, J., Ren, M. and Xu, Z. (2012) Mokrech, M., Hanson, S., Nicholls, R., Wolf, J., Walkden, M., Fontaine, C., Nicholson-Cole, S., Jude, S., Leake, J., Stansby, P., Watkinson, A., Rounsevell, M., Lowe, J. and Hall, J.W. (2011) Walsh, C.L., Dawson, R.J., Hall, J.W., Barr, S.L., Batty, M., Bristow, A., Carney, S., Dagoumas, A., Ford, A.C., Harpham, C., Tight, M. Watters, H. and Zanni, A. (2011) Hall, J.W. and Penning-Rowsell, E.C. (2010) Setting the scene for flood risk management. Chapter 1 in, Pender, G. and H. Faulkner (eds.) Hall, J.W. and Street, R. (2010) Strategic research on climate impacts and adaptation for infrastructure, the built environment and utilities: eight years of progress and future prospects. Dawson, R.J., Dickson, M.E., Nicholls, R.J., Hall, J.W., Walkden, M.J.A., Stansby, P., Mokrech, M., Richards, J., Zhou, J., Milligan, J., Jordan, A., Pearson, S., Rees, J., Bates, P., Koukoulas, S. and Watkinson, A. (2009) Dawson, R.J., Hall, J.W., Barr, S.L., Batty, M., Bristow, A.L., Carney, S., Dagoumas, A., Evans, S., Ford, A.C., Köhler, J., Tight, M.R., Walsh, C.L., Watters, H. and Zanni, A.M. (2009) A blueprint for the integrated assessment of climate change in cities. In, Tang, K. (ed.) Hall, J.W. (2009) Integrated assessment to support regional and local scale decision making. In, Davoudi, S., Crawford, J. and Mehmood, A. (eds.) Manning, L.J., Hall, J.W., Fowler, H.J., Kilsby, C.G., Tebaldi, C. and others (2009) Using probabilistic climate change information from a multimodel ensemble for water resources assessment. Dawson, R.J., Hall, J.W., Bates, P.D. and Nicholls, R.J. (2008) Quantified analysis of the probability of flooding in the Thames Estuary under imaginable worst case sea-level rise scenarios. In, Gopalakrishnan, C. and Okada, N. (eds.) Dawson, R.J., Speight, L., Hall, J.W., Djordjevic, S., Savic, D., Le and ro, J. (2008) Attribution of flood risk in urban areas. Liang, Q., Du, G., Hall, J.W. and Borthwick, A.G.L. (2008) Flood inundation modeling with an adaptive quadtree grid shallow water equation solver. Lonsdale, K.G., Downing, T.E., Nicholls, R.J., Parker, D., Vafeidis, A.T., Dawson, R. and Hall, J. (2008) Plausible responses to the threat of rapid sea-level rise in the Thames Estuary. Manning, L.J., Hall, J.W., Kilsby, C.G., Glendinning, S. and Anderson, M.G. (2008) Spatial analysis of the reliability of transport networks subject to rainfall-induced landslides. 1) Evans, E.P., Hall, J.W., Penning-Rowsell, E.C. and Thorne, C.R. (2007) Chapter 1: Overview. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 3) Simm, J.D., Thorne, C.R. and Hall, J.W. (2007) Chapter 12: Driver impact scoring, ranking and uncertainty. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 4) Hall, J.W., Sayers, P.B., Panzeri, M. and Deakin, R. (2007) Chapter 13: Quantified assessment of driver impacts on future flood risk in England and Wales. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 5) Sayers, P.B., Hall, J.W., Panzeri, M. and Deakin, R. (2007) Chapter 25: Quantified analysis of future flood risk management portfolios in England and Wales. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 6) Watkinson, A.R., Evans, E.P., Hall, J.W., Penning-Rowsell, E.C. and Thorne, C.R. (2007) Chapter 28: Strategic Choices. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) Dickson, M.E., Walkden, M.J.A. and Hall, J.W. (2007) Systemic impacts of climate change on an eroding coastal region over the twenty-first century. Goodess, C.M., Hall, J.W., Best, M., Betts, R., Cabantous, L., Jones, P.D., Kilsby, C.G., Pearman, A. and Wallace, C.J. (2007) Climate scenarios and decision making under uncertainty. Hall, J.W., Fu, G. and Lawry, J. (2007) Imprecise probabilities of climate change: aggregation of fuzzy scenarios and model uncertainties. Nicholls, R.J., Tol, R.S.J. and Hall, J.W. (2007) Assessing impacts and responses to global-mean sea level rise. In, Schlesinger, M., Kheshgi, H., Smith, J.B., de la Chesnaye, F., Reilly, J.M., Wilson, T. and Kolstad, C.D. (eds.) Evans, E., Hall, J.W., Penning-Rowsell, E., Sayers, P., Thorne, C. and Watkinson, A. (2006) Future flood risk management in the UK. Hall, J.W. (2006) Soft methods in Earth Systems Engineering. In, Lawry, J., Miranda, E., Bugarin, A., Shoumei, L., Gil, M-A., Grzegorzewski, P., Hryniewicz, O. (ed.) Hall, J.W., Dawson, R., Manning, L., Walkden, M.J., Dickson, M. and Sayers, P. (2006) Managing changing risks to infrastructure systems. Bates, P.D., Dawson, R.J., Hall, J.W. and Horritt, M.S., Nicholls, R.J., Wicks, J.K. and Hassan, M. (2005) Simplified two-dimensional modelling of coastal flooding for risk assessment and planning. Dawson, R., Hall, J.W., Sayers, P., Bates, P. and Rosu, C. (2005) Sampling-based flood risk analysis for fluvial dike systems. Dawson, R.J., Hall, J.W., Bates, P.D. and Nicholls, R.J. (2005) Quantified analysis of the probability of flooding in the Thames Estuary under imaginable worst-case sea level rise scenarios. Walkden, M.J.A and Hall, J.W. (2005) A predictive mesoscale model of the erosion and profile development of soft rock shores. Hall, J.W. and Lawry, J. (2004) Generation, combination and extension of random set approximations to coherent lower and upper probabilities. Hall, J.W., Le Masurier, J.W., Baker-Langman, E.A., Davis, J.P. and Taylor, C.A. (2004) A decision-support methodology for performance-based asset management. Lawry, J., Hall, J.W. and Bovey, R. (2004) Fusion of expert and learnt knowledge in a framework of fuzzy labels. Rubio, E., Hall, J.W. and Anderson, M.G. (2004) Uncertainty analysis in a slope hydrology and stability model using probabilistic and imprecise information. Dawson, R., Sayers, P.B., Hall J.W. and Bates, P. (2003) Flood risk assessment for Shoreline Management Planning. Proceeding of the ICE International Conference on Coastal Management, Brighton, UK 2003. Hall, J.H., Dawson, R.J., Sayers, P.B., Rosu, C., Chatterton, J.B. and Deakin, R. (2003) A methodology for national-scale flood risk assessment. Hall, J.W., Evans, E.P., Penning-Rowsell, E.C., Sayers, P.B., Thorne, C.R. and Saul, A.J. (2003) Quantified scenarios analysis of drivers and impacts of changing flood risk in England Wales: 2030-2100. Ohl, C., Frew, P., Sayers, P., Watson, G., Lawton, J., Farrow, J., Walkden, M. and Hall, J.W. (2003) North Norfolk - a regional approach to coastal erosion management and sustainability in practice. International Conference on Coastal Management, January 2003.. 226-240. Hall, J.W. and Anderson, M.G. (2002) Handling uncertainty in extreme or unrepeatable hydrological processes - the need for an alternative paradigm. . A report for the Environment Agency by HR Wallingford. Also summarised in Meadowcroft IC, Sayers PB, Hall JW. (2002) paper of the same title presented at the Annual Conference of River and Coastal Engineers, University of Keele, June 2002.</t>
+  </si>
+  <si>
+    <t>Abi's research interests lie within understanding the dynamics of dryland systems, including environmental change, landscape dynamics and groundwater resources. She is interested in these processes and dynamics over a range of timescale and applies techniques to address questions about whether groundwater aquifers are part of the active hydrological cycle and questions about the timing and forcing mechanisms of expanding and contracting Quaternary drylands. Abi is currently working with Prof. Mike Edmunds and Prof. David Thomas, using pore-moisture in sand dune sediments in the Stampriet Basin, in the Kalahari in order to: reconstruct rates of recharge to unconfined groundwater; to understand the production and origin of nitrate in groundwater and produce a palaeomoisture history from the vertical profiles. She is currently developing this research theme following her pilot study undertaken during her Thesiger-Oman International Fellowship from the Royal Geographical Society. Abi continues to conduct research into the Quaternary palaeoenvironments of dryland areas, with a focus on the Namibian portion of the southern African subcontinent. Currently, this involves luminescence dating of dune material in the Namib Sand Sea and reviewing the palaeoenvironmental and geomorphological history of that region. She aims to test the applicability of pore-moisture techniques to the large Namib Sand Sea dunes, in order to provide a palaeomoisture proxy. She undertook her thesis on the reconstruction of Quaternary environmental conditions in Namibia using terrestrial proxies at the School of Geography and the Environment, holds an in Geography from Oxford. She was previously employed within Prof. Heather Viles' Rock Breakdown Laboratory where she coordinated write-up of an English Heritage funded soft capping research project. Abi is a teaching fellow in physical geography at St John's College, having held previous teaching posts at Keble and Christchurch Colleges and undertaken sabbatical cover teaching at Worcester and St Hilda's Colleges and tutorials for St Catherines College and St Edmund Hall. She also delivers physical geography practical classes as part of the FHS Geographical Research paper and is a tutor for the Quaternary Science and Desert Landscapes and Dynamics optional FHS subjects. The two broad themes of Abi's research involve using chemical tracers in the pore moisture of surface sediments and the reconstruction of Quaternary landscape dynamics. This research develops the use of chemical tracers in the pore moisture of near-surface sediments with the aim of improving understanding of dyland hydrological dynamics over both decadal-to-century and century-to-millennial timescales. Abi is fortunate to be working with to provide vital scientific data on recharge behaviour and rates to enable those within policy to design effective planning for sustainable use of groundwater supplies. as novel palaeoclimate proxy for late Holocene moisture fluctuations in drylands, where traditional proxies relating to moisture are not preserved. This pilot research, funded by the Thesiger-Oman fellowship, BSG small grant and the Fell Fund, tests the application of chloride mass balance (CMB) methods to assess rates of recharge to groundwater through the linear dunes of the southern Kalahari. This research centres on the Stampriet Artesia Basin, a key transboundary groundwater resource in Namibia, Botwsana and South Africa. Results from two test sites in Namibia indicate high suitability, suggest recharge rates are between 7 and 56 mm/y and that sampled dune profiles span multi-decadal timescales. Rainfall over the 2011-2012 rainy season is being analysed to better constrain the chloride input into the sediments. There is now a need to constrain spatial variability across the basin and produce a regional estimate of recharge via this direct mechanism through dune sands, which cover 80% of the basin surface. This is particularly important for the uppermost aquifer layer, from which the majority of groundwater abstraction occurs. Future sampling is planned. Sampling dunes in the southern Kalahari for dual moisture and OSL analysis, in a region where pumped groundwater is key to agricultural development. The provision of a moisture proxy using CMB methods in sand-covered regions, such as the vast Namib Sand Sea will be invaluable to answering questions about long term hydrological and environmental dynamics in the southern African subcontinent, which lies at the interface of tropical, subtropical and temperate atmospheric and oceanic circulation systems. It has been suggested there is some coherence in records of progressive aridification over the past few thousand years, but, not all proxy records are in accordance, and the spatial complexity of the environmental response can only be addressed by widening the coverage of sites into regions such as the Namib Sand Sea, about which very little is known over this timescale. Recent notable success in applying the CMB approach to provide information over centennial-to-millennial timescales has been had in the Badain Jaran Desert in China by other researchers. Further development of this novel proxy is of great significance in refining our understanding of environmental change in dryland regions, which are hampered by a paucity of preserved proxy records that relate directly to moisture availability. Sampling is planned later this year. Abi plans to develop these methods in other dyland regions with a potential collaboration with Prof. Ashok Singhvi in India. This represents part of the effort within the Landscape Dynamics research cluster to better understand long-term landscape dynamics using field and laboratory methods. This builds on research undertaken during Abi's DPhil that utilised sand dune, interdune water-lain sediments and fluvial tufa and applied OSL and U-series dating. The application of optically stimulated luminescence (OSL) in the Namib Desert continues to revolutionise our knowledge of the past dynamics of this dryland environment. OSL has been applied to: (i) complex linear dunes, alongside ground penetrating radar stratigraphy, to establish dune migration rates; (ii) fluvial lithofacies associations, to constrain periods of higher discharge and (iii) aeolian sand, interbedded with carbonate deposits, to provide chronologies for water-lain and interdune sediments. Abi has been reviewing the contribution of these data to enhancing the understanding of palaeoenvironmental and palaeohydrological change on the west coast of Namibia and also dune migration rates for complex linear dune features at the far northern extent of the northern Namib Sand Sea. This research investigates the age and characteristics of different dune features within the northern Namib. The Namib Desert is one of the earth's oldest deserts. Above the semi-consolidated, tertiary-aged Tsondab Sandstone, lies the Namib Sand Sea (the unconsolidated dunes). The sand sea contains a range of dune types, and some of the largest dune forms found on earth. There is a paucity of chronological control for the dunefield, although cosmogenic nuclide data have recently been used to suggest the region has remained covered in sand for at a million years and luminescence dating in the northern reaches indicates dynamic dune activity over the last five thousand years, with complete overturning of large dune features. This study aims to provide new chronological data in a region of 'dendritic' dune morphology. This morphology is particularly interesting as it contains features of different sizes and orientations that would appear to represent different generations of dunes. The preliminary results from four of the samples suggest that very recent aeolian activity is responsible for the formation of small features (a few metres high), whilst the large linear dunes (up to 100 m high) appear to substantially older than existing luminescence chronologies for the region. Abi teaches physical geography at St John's College, having held previous teaching posts at Keble and Christchurch Colleges and undertaken sabbatical cover teaching at Worcester and St Hilda's Colleges and tutorials for St Catherines College and St Edmund Hall. She teaches the 'Earth System Processes' core course and parts of the 'Geographical Techniques' and 'Geographical Controversies' papers for the Preliminary Examination. She teaches the core 'Earth System Dynamics' paper and components of 'Environmental Geography' and 'Geographical Research' core papers. She coordinates the laboratory-based classes for the 'Geographical Research' paper within the department and assists with the Physical Geography Field Classes. She is a tutor for the Final Honour School Special Subjects 'Dryland Landscapes and Dynamics' and 'The Quaternary Period' and in 2010 taught the latter course for Dr Richard Bailey's sabbatical cover. Sand, salt and water in the Stampriet Basin, Namibia: Calculating unsaturated zone (Kalahari dune-field) recharge using thechloride mass balance approach Casting new light on late Quaternary environmental and palaeohydrological change in the Namib Desert: a review of the application of optically stimulated luminescence in the region Stone, A.E.C. (2012) Shedding light on the past: records of past conditions in the Namib Desert and the use of luminescence dating. Chapter 2, in Mol, L. and Sternberg, T. (eds.) Late Quaternary palaeohydrological changes in the northern Namib Sand Sea: New chronologies using OSL dating of interdigitated aeolian and water-lain interdune deposits</t>
+  </si>
+  <si>
+    <t>Professor James Ferguson, Give a Man a Fish: From Patriarchal Productionism to the Politics of Distribution in Southern Africa (and Beyond), 2015 Applications for entry in 2018-19 are now open and will be accepted until 28 June 2018. Please take careful note of the funding deadlines and be aware that places are allocated on a rolling basis throughout the application period. Click below to find out more the course. We may use cookies to record some preference settings and to analyse how you use our web site. We may also use external analysis systems which may set additional cookies to perform their analysis.These cookies (and any others in use) are detailed in our site privacy and cookie policies and are integral to our web site. You can delete or disable these cookies in your web browser if you wish but then our site may not work correctly.</t>
+  </si>
+  <si>
+    <t>(LSHTM), is a physician, communicable disease epidemiologist and zoologist. After studies at Cambridge and London he lived and worked in East Africa - Tanzania and Uganda - for ten years and has continued to carry out research there, also in India, Bangladesh, Philippines, Sierra Leone, Kenya, and the UK as well as making shorter working visits to many other countries. After initial work on community pathogenesis, epidemiology and the public health importance of schistosomiasis he worked on domestic water supply and health in East Africa, on , and the theoretical basis of tropical public health. He devised the now generally adopted functional classification of water-related diseases. He returned to the UK to analyse the genetic control of resistance to leishmaniasis at Oxford where he discovered the . From 1974 he was Professor of Tropical Hygiene at the LSHTM for 30 years and Director of The Ross Institute, which became a highly interdisciplinary department, extending from molecular biology to social anthropology, applied to problems of tropical health. It particularly developed thinking on water and sanitation, and on malaria control He became increasingly involved in malaria epidemiology as co-director of the UK Malaria Reference Laboratory and head of a research group on applied aspects of tropical diseases, especially malaria. Its work focused on comprehensive analyses of complex malaria problems requiring multidisciplinary studies, and following through from efficacy trials to sustainable implementation. Urban malaria in Asia, insecticide-treated mosquito net programmes in East Africa, and the prediction and management of malaria epidemics due to global and local environmental changes have been studied. on public health and research policy. He was President of the Royal Society of Tropical Medicine and Hygiene, has an Honorary from the University of Leicester and was recently made an Honorary Fellow of the LSHTM. He has received the Chalmers and Macdonald medals of the Royal Society of Tropical Medicine and Hygiene and the Harben Gold Medal of the Royal Institute of Public Health. Since his 'retirement' he has worked with Ugandan colleagues on the disease problems of settling nomadic pastoralists and the resulting environmental, water and health changes and he has returned to his fascination with the role of water bodies in disease and with landscape epidemiology, as well as working on the historical epidemiology of India, on revising the classification of water-related diseases, on the conceptualization of transdisciplinary public health issues and on imported malaria. He also teaches on the MSc in Public Health in Developing Countries at LSHTM, where he teaches on 'Malaria Epidemiology' and 'Ecohealth'. He also delivers undergraduate lectures on 'Disease control in malaria'. He has recently supervised doctoral research on 'Malaria spatial epidemiology in Colombia', 'Determinants of malaria in SW Uganda' and 'Environmental change and nomadic settlement'. Shanks, G.D., Hay, S.I. and D.J. Bradley. (2008) Malaria's indirect contribution to all-cause mortality in the Andaman Islands during the colonial era. Smith, A.D., Bradley, D.J., Smith, V., Blaze, M., Behrens, R.H., Chiodini, P.L. and Whitty, C.J.M. (2008) Imported malaria and high risk groups: an observational study using UK surveillance data, 1987-2006. Osorio, L., Todd, J., Pearce, R. and Bradley, D.J. (2007) The role of imported cases in the epidemiology of urban Bradley, D.J. (2006) Landscape epidemiology and migration: insights and problems at several scales for transmissible diseases. In, Sleigh, A., Chee, H.L., Yeoh, B.S.A., Phua, K.H. and R. Safman (eds.) Patz, J.A., Daszak, P., Tabor, G.M., Aguirre, A.A., Pearl, M., Epstein, J., Wolfe, N.D., Kilpatrick, A.M., Foufopoulos, J., Molyneux, D. and Bradley, D.J. (2004) Working Group on Land Use Change and Disease Emergence. Unhealthy landscapes: policy recommendations on land use change and infectious disease emergence. Hanson, K., Goodman, C., Lines, J.D., Meek, S., Bradley, D. and Mills, A. (2004) The economics of malaria control interventions. Geneva. Global Forum for Health Research, World Health Organization. Bradley, D.J. and Bannister, B. (2003) Health Protection Agency Advisory Committee on Malaria Prevention for UK Travellers. Guidelines for malaria prevention in travellers from the United Kingdom for 2003. Coluzzi, M. and Bradley, D. (eds.) (1999) The Malaria Challenge after one hundred years of malariology. Papers from the Malariology Centenary Conference, Accademia Nazionale dei Lincei, Roma, 16-19 November 1998.</t>
+  </si>
+  <si>
+    <t>Environmental and development economics; political economy, particularly the study of institutions and institutional change; public policy in the developing world, especially India; state-society interactions in development. 1994-1997: WMI Research Fellow in Environment and Development, Oxford Centre for the Environment, Ethics and Society, Mansfield College, University of Oxford My research interests centre on the changing political economy of environment and development, especially in South Asia; with a particular interest in the political ecology of forests, water, food, wildlife and landuse change and the social and political context for biodiversity conservation. I am concerned, in particular, with the often-hidden costs of environmental and developmental processes, and the need for scholarship to draw attention to the distributional consequences of public policy choices. My work focuses on the ways in which large-scale economic, societal and environmental transformations are governed, the values that frame how human societies engage with each other and with nature, and the networks of formal and informal institutions that are intertwined in everyday decision making across a variety of spatial and temporal scales. I apply a critical political economy perspective to contemporary debates in relation to ecosystem services and natural capital, and the values of nature for human wellbeing. I have led large scale intellectual and policy-oriented projects that involve interdisciplinary conversations across the natural and social sciences. Trained as an economist, but with a portfolio of research that now engages across the critical social sciences and their interface with the biological and environmental natural sciences, I inhabit the interdisciplinary intellectual 'borderlands' of a number of disciplines (Human Geography, Development Studies, Institutional Economics, Environmental Studies and Conservation), while being firmly rooted in the political economy tradition.</t>
+  </si>
+  <si>
+    <t>One of my main interests is in labour markets and the social and organisational dynamics of work. I am interested in how labour markets are shaped, structured and regulated -- and what the implications of this are for contemporary work. My research lies at the intersection of political economy and economic and labour geographies. Much of my research examines the urban politics and labour market dynamics of union organising in place. Other labour research explores processes of labour market change, geographies of organised labour, immigrant workers, aging and youth at work, underemployment, precarious work, and social networks in the workplace. I am interested in how categories of social difference like gender, race, age, and class relate to how labour is rewarded, valued and regulated in and across place. . This research examines the intertwining of the economic, social and political effects on the local decisions around austerity and the shaping of the local state. This project highlights the uneven nature of the budget cuts, the political coalitions surrounding funding change, and the institutional mechanisms which promote change in policy priorities in the UK, the US, and Canada. , which explores the themes of austerity, precarious work, the ethics of care, and debt. The intentionally provocative play encourages audiences to explore solutions to the problems highlighted in the play. Audiences can debate the action, advise the characters, or even get up on stage and change the scene. Read more about The work on austerity is related to my long-standing interest in regional economies. In past research, I explore the regional and workplace implications of changing working patterns, identity and cultural norms; implications of austerity; and links between globalisation and regional economies. Finally, I have been exploring the geographic implications of alternative finance, such as crowd-funding and venture philanthropy, and its effects on regional economies, labour markets, and the distribution of opportunity. which publishes multi-disciplinary international research on the spatial dimensions of contemporary socio-economic-political change. The Journal adopts a focused thematic format. Each issue is devoted to a particular theme selected by the international editorial team. The aim of the Journal is to understand the formative changes and developments associated with the new spatial foundations of today's globalizing world and examines how changes in the global economy are playing out across different spatial scales. My current research explores the contours of the current rounds of austerity. This projects looks at the coalitions formed around austerity cuts and the many "hidden" aspects of austerity. I have been examining alternative forms of financing of business, the public sector and community projects, through work on crowd-funding and venture philanthropy. I have also been examining the geographies of union growth in the low-paid service sector for over a decade. This project looks at the UNITEHERE, the union representing the hotel and restaurant workers, in different local labour markets in the US. 2014. Gray. M. "Altering the landscape: Reassessing labour's role in Las Vegas' Hospitality Industry" in (A. Underthun and D. Jordhaus-Lier, eds) Mia: Reflections on Producing Narratives of Work" in (eds: Castree, N., Kitchin, R., Lawson, V., Lee, R., Paasi, A., Radcliffe, S., Withers, C.) 2014. Donald, B., Glasmeir, A., Gray, M. and Labao, L. "Austerity in the City: Economic crisis and urban service decline?" Gray, M., Kurihara, T., Hommen, L. and Feldman, J., 2007. Networks of exclusion: job segmentation and social networks in the knowledge economy. 2007. Gray, M., Kurihara, T., Hommen, L. and Feldman, J. "Networks of Exclusion: Job Segmentation and Gendered Social Networks in the Knowledge Economy" 2006. "Rethinking the High Tech Firm: An Activity Specific Approach to the Firm" in Michael Taylor and Paivi Oinas (eds.) 2006. Gray, M., Martin, R. and Tyler, P., "The East of England: A Nebulous Region in Transition," in Hardhill, I. ; Baker, M.; Benneworth, P.; and L.Budd (eds.) 2006. Hardill, I., Gray, M. and Benneworth, P. 2006. "Harnessing All a Region's Capacities: Inclusion Issues," in Hardhill, I.; Baker, M.; Benneworth, P.; and L.Budd (eds.) 2005. Martin, R.; Gray, M.; Tyler, P.; McCombie, J.; Fingleton, B. ; Kitson, M. ; Asheim, B.; Glasmeier, A. "Editorial: of journals, oil tankers and citation impacts: Signing-off the editorship of Regional Studies" 1999 Colorado Springs: a military anchored city in transition. Gray, M. and Markusen, A. in: A. Markusen, Y-S Lee and S. Di Giovanna (eds.) 1999. Reconsidering Silicon Valley. Gray, M., Golob, E and Markusen, A. in: A. Markusen, Y-S Lee and S. Di Giovanna (eds.) 1998. Industrial change and regional development: the case of the US biotechnology and pharmaceutical industries. Gray, M. and Parker, E. 1996 Big Firms, Long Arms, Wide Shoulders: The "Hub-and-Spoke" Industrial District in the Seattle Region". M Gray, E Golob and A Markusen. Misbah Aamir, 2015 - "Mediations between the global and local: Exploring institutional forces that influence the construction of gendered labour markets in Punjab, Pakistan" Cambridge Trust. Wilson Chung, 2012. "An occupational approach to outsourcing within the context of two Chinese sports goods industrial clusters in Jiangsu province" ESRC funded. 2004 - 2008 "U.K. and U.S. Skilled Immigration Networks: a Comparison of Biotechnology Clusters". Won the EGRG MPhil thesis prize 2005. Andrew Currah 2002 - 2006 "Digital Effects in the Spatial Economy of Film: Software Format, the Internet and Hollywood" ESRC Funded. Won EGRG dissertation prize 2007. Alan James 1999 - 2003 "Regional Culture, Corporate Strategy, and High Tech Innovation: Salt Lake City" ESRC Funded. Won EGRG dissertation prize 2004. I tend to only take on one new student each year, so that I can give enough attention to each student. I am currently interested in the politics and economics of austerity, labour and globalisation, issues around regional and industrial culture, union change, alternative finance social networks and labour market mobility, and labour market intermediaries which function to structure local labour markets. However, I do supervise PhD students on other topics, and you're welcome to contact me directly if you think we may be a good match.</t>
+  </si>
+  <si>
+    <t>Chris Llewellyn Smith is currently Director of Energy Research, Oxford University, President of the Council of SESAME (Synchrotron light for Experimental Science and Applications in the Middle East), and a Visiting Professor in the Oxford Physics Department. He was Director of UKAEA Culham (2003-2008), with responsibility for the UK's fusion programme and for operation of the Joint European Torus (JET), Provost and President of University College London (1999-2002), Director General of CERN (1994-1998), and Chairman of Oxford Physics (1987-1992). After completing his Doctorate in Oxford in 1967, he worked briefly in the Lebedev Physical Institute of the Academy of Sciences in Moscow, before spending periods at CERN and the Stanford Linear Accelerator Center, after which he returned to Oxford in 1974. As Director of UKAEA Culham he developed and vigorously promoted the 'Fast Track' approach to the development of fusion power, which was officially adopted by the European Commission. During his mandate as Director General of CERN the Large Hadron Collider (LHC) was approved and started, and major contributions from Canada, India, Japan, the Russian Federation and the USA were negotiated, and CERN's flagship Large Electron Positron collider (LEP) was successfully upgraded. As a theoretical particle physicist he worked mainly on the quark model and the theories of the strong and electro-weak forces, and how they can be tested experimentally. His contributions include developing ways to demonstrate the "reality" of quarks and gluons (the particles that transmit the string force that holds quarks together) in highly inelastic electron and neutrino scattering experiments, and showing that mathematical consistency requires any theory of the weak interactions to be based on a spontaneously broken gauge theory. He was Chairman of the Council of the world fusion project ITER (2007-09), the Consultative Committee for Euratom on Fusion (2003-09), the Advisory Committee on Mathematics Education (2002-04), and the CERN Scientific Policy Committee (1990-92), and has served as a Vice President of the Royal Society (2008-10) and on numerous other national and international advisory committees, including the UK Prime Minister's Advisory Committee on Science and Technology (1989-92). Chris Llewellyn Smith has written and spoken widely on science funding, international scientific collaboration and energy issues. His scientific contributions and leadership have been recognised by awards and honours in seven countries on three continents.</t>
+  </si>
+  <si>
+    <t>Nick Eyre is Professor of Energy and Climate Policy, and a Jackson Senior Research Fellow in Energy at the ECI and Oriel College. for the UK Research Councils' Energy Programme. In this role he is consulting with the UK energy research community to develop a consensus around a research agenda, to build an inter-disciplinary research consortium and plan a programme of research with a view to a new End Use Energy Demand Centre starting in April 2018. , which is undertaking research on the combined, technical, economic, social and policy issues in moving to electricity systems with very high levels of variable renewables. Nick has been Programme Leader for Energy in the ECI since 2007, but is currently seconded out of that post to the End Use Energy Demand Champion role. From 2007 to 2017, he was a Co-Director of the multi-university collaboration, the UK Energy Research Centre, leading its research work on energy demand (2007-2014) and decision-making (2014-2017). He was a Co-Investigator within the Infrastructure Transitions Research Consortium from 2011-2017. Nick has worked as a researcher, consultant and manager on energy and environmental issues since 1984. His interests focus on energy policy, especially with respect to energy demand, energy efficiency and the transition to low carbon energy systems. He has published extensively on energy, climate, environment and transport issues. He is co-author of a book on carbon markets. Nick worked at the Energy Saving Trust from 1999 to 2007, initially as Head of Policy and, from 2002, as Director of Strategy. He was responsible for the Trust's work on public policy issues, business development and long term business strategy. In 2001, he was seconded to the Cabinet Office, Performance and Innovation Unit, where he was a co-author of the Government's Review of Energy Policy. He led work streams on energy efficiency and long term energy scenarios. Previously, Nick worked as a researcher and analyst on energy and environment issues, initially in the Energy Technology Support Unit (ETSU) and then as an independent consultant. He was one of the UK's first researchers on mitigation of carbon emissions, and was co-author of a presentation to the Cabinet on this issue in 1989. In 1997, he wrote the first published study on how the Government's 20% carbon emission reduction target might be delivered. He has advised successive Government ministers and a wide range of Parliamentary inquiries. He managed a large European Commission programme on the external costs of energy and was lead author of the report used as the basis for the UK Government's first estimate of the social cost of carbon. Nick holds an MA in Physics and D.Phil in Nuclear Physics from the University of Oxford. He is a Fellow of the Energy Institute and an Honorary Fellow of the Society for the Environment. He was a County Councillor in Oxfordshire from 1987 to 1993, taking an active role in the development of Oxfordshire's first environmental strategy, traffic calming, CFC capture and opposition to new road building. Nick's long term research interest is the role of public policy in reducing energy demand and carbon emissions, in the context that progress will require a combination of technical, social and policy change. His current research interests cover: 2013 - (ongoing): Advisory Group for the EPSRC Centre on The Dynamics of Energy, Mobility and Demand (DEMAND). Chair, 2015 Proceedings of ECEEE Summer Study, 1-6 June 2015 (Presqu'�le de Giens, France). Vol. 1 - Foundations of Future Energy Policy Gupta, R., Eyre, N., Darby, S., Lucas, K., Barnfield, L., Hamilton, J., Mayne, R., Gregg, M., Fratter, C. and Irving, B. (2015) Bradshaw, M., Butler, C., Demski, C., Ekins, P., Eyre, N., Gross, R., Holland, R., McGlade, C., Mitchell, C., Parkhill, K., Pidgeon, N., Skea, J., Spence, A. and Watson, J. (2014) Hall, J., Henriques, J., Hickford, A., Nicholls, R., Baruah, P., Birkin, M., Chaudry, M., Curtis, T., Eyre, N., Jones, C., Kilsby, C., Leathard, A., Lorenz, A., Malleson, N., McLeod, F., Powrie, W., Preston, J., Rai, N., Street, R., Stringfellow, A., Thoung, C., Tyler, P., Velykiene, R., Watson, G. and Watson, J. (2014) Johan, R., Guy, B., Brian, H., Wolfgang, L., Schellnhuber, J., Kabat, J., Nakicenovic, N., Gong, P., Schlosser, P., Manez, M., Humble, A., Eyre, N., Gleick, P., James, R., Lucena, A., Masera, O., Moench, M., Schaeffer, R., Seitzinger, S., van der leeuw, S., Ward, B., Stern, N., Hurrell, J., Srivastava, L., Morgan, J., Nobre, C., Sokona, Y., Cremades, R., Roth, E., Liverman, D. and Arnott, J. (2014) Lucon, O., Urge-Vorsatz, D., Ahmed, A.Z., Akbari, H., Bertoldi, P., Cabeza, L.F., Eyre, N., Gadgil, A., Harvey, L.D.D., Jiang, Y., Liphoto, E., Mirasgedis, S., Murakami, S., Parikh, J., Pyke, C. and Vilariño, M.V. (2014) Buildings.Chapter 9 in, Tran, M., Hall, J., Hickford, A., Nicholls, R., Alderson, D., Barr, S., Baruah, P., Beavan, R., Birkin, M., Blainey, S., Byers, E., Chaudry, M., Curtis, T., Ebrahimy, R., Eyre, N., Hiteva, R., Jenkins, N., Jones, C., Kilsby, C., Leathard, A., Manning, L., Otto, A., Oughton, E., Powrie, W., Preston, J., Qadrdan, M., Thoung, C., Tyler, P., Watson, J., Watson, G. and Zuo, C. (2014) Hoggett, R., Eyre, N. and Keay, M. (2013) Demand and Energy Security. In, Mitchell, C., Watson, J. and Whiting, J. (eds.) Eyre, N. and Rosenow, J. (2012) Green deal and the energy company obligation - will it work? Proceedings of British Institute of Energy Economics 9th Academic Conference. European Energy in a Challenging World: The impact of emerging markets. St Johns College, Oxford, 19-20 September 2012. Urge-Vorsatz, D., Eyre, N., Graham, P., Harvey, L.D.D., Hertwich, E., Jochem, E., Kornevall, C., Majumdar, M., McMahon, H., Mirasgedis, S., Murakami, S., Novikova, A., Jiang, Y., Masera, O., McNeil, M., de T’Serclaes, P., Tirado-Herrero, S., Petrichenko, K. and Janda, K. (2012) Towards Sustainable Energy End Use: Buildings, in Global Energy Assessment. Chapter 10 in, The European Council for an Energy Efficient Economy (eceee) eceee 2009 Summer Study proceedings - Act! Innovate! Deliver! Reducing energy demand sustainably.. 225-236. ISBN: 9789163344541. Eyre, N., Anable, J., Brand, C., Layberry, R. and Strachan, N. (2010) The way we live from now on: lifestyle and energy consumption. Chapter 9 in, Skea, J., Ekins, P. and M. Winskel (eds.) Eyre, N., Flanagan, B. and Double, K. (2010) Engaging people in saving energy on a large scale: lessons from the programmes of the Energy Saving Trust in the UK. In, Whitmarsh, L., O'Neill, S. and Lorenzoni, I. (eds.) Eyre, N. (2008) Regulation of energy suppliers to save energy - lessons from the UK debate. British Institute of Energy Economics (BIEE) Proceedings of the British Institute of Energy Economics Conference. Eyre, N. and Staniaszek, D. (2005) Energy Efficiency in the UK Energy White paper - How did it get a Central Role? Proceedings of the European Council for an Energy Efficient Economy (eceee) 2005 Summer Study - What works and who delivers?, 30 May - 4 June 2005.. 35-44. ISBN: 9163140020. Vine, E., Hamrin, J., Eyre, N., Crossley, D., Maloney, M. and Watt, G. (2003) Public policy analysis of energy efficiency and load management in changing electricity businesses. Rabl, A. and Eyre, N. (1998) An estimate of regional and global O3 damage from precursor NOx and VOC emissions.</t>
+  </si>
+  <si>
+    <t>Professor Andrew Goudie was Professor of Geography and a Fellow of Hertford College from 1984 to 2003. A distinguished physical geographer, he was awarded the by the University in 2002, a Royal Medal from the Royal Geographical Society in 1991, the Prize of the Royal Belgian Academy for 2002. He was President of the British Institute in Eastern Africa, 2011-2016, and from September 2005-2009 he was President of the International Association of Geomorphologists. He has recently been Director of the China Centre, Oxford (2011-2013), President of the . He is a former Delegate of the Oxford University Press and a former Pro-Vice Chancellor. Professor Goudie was Master of , Oxford, from 2003 to 2011. He was awarded the Geological Society of America's Farouk El-Baz Prize for desert research in 2007, the David Linton Award of the British Society for Geomorphology in 2009, Honorary Fellowship of the International Association of Geomorphologists in 2013, and Fellow of the British Society for Geomorphology in 2014. Prof. Goudie's main research interests include desert geomorphology, dust storms, weathering, climatic change in the tropics, and the impacts of humans on the environment. He is also undertaking work on the landforms of Dorset and the Cotswolds. . Blackwell. (1981 first edition; 1986 second edition; 1990 third edition; 1993 fourth edition; 1999 fifth edition; 2006 sixth edition; 2013 seventh edition. Also German, Italian and Korean editions.) Preston, G., Thomas, D.S.G., Goudie, A.S., Atkinson, O., Leng, M.J., Hodson, M., Walkington, H., Charpentier, V., Mery, S., Borgi, F. and Parker, A.G. (2015) A multi-proxy analysis of the Holocene humid phase from the United Arab Emirates and its implications for southeast Arabia's Neolithic populations Late Quaternary humidity and aridity dynamics in the northeast Rub'al-Khali, United Arab Emirates: Implications for early human dispersal and occupation of eastern Arabia World Heritage Desert Landscapes: Potential Priorities for the Recognition of Desert Landscapes and Geomorphological Sites on the World Heritage List Ravi, S., D'Odorico, P., Breshears, D.D., Field, J.P., Goudie, A.S., Huxman, T.E., Li, J., Okin, G.S., Swap, R.J., Thomas, A.D., Van Pelt, S., Whicker, J.J. and Zobeck, T.M. (2011) Singh, R.N., Petrie, C.A., French, C.A.I., Goudie, A.S., Gupta, S., Tewari, R., Singh, A.K., Sinha, R., Srivastava, R., Yadav, S. and Singh, V.K. (2008) Settlements in Context: Reconnaissance in Western Uttar Pradesh and Haryana. Goudie, A.S. (2006) The history and evolution of desert hydrology and landforms: the role of climate change. In, P. D'Odorico and A. Porporato (eds.) Shaw, A.I. and Goudie, A.S. (2004) Chemical sediments of the palaeo and active Okavango alluvial fan, Botswana: evidence for variations in the processes of formation. Goudie, A.S., Wright, E. and Viles, H.A. (2002) The roles of salt (sodium nitrate) and fog in weathering: a laboratory simulation of conditions in the northern Atacama Desert, Chile. Goudie, A.S., Parker, A.G., Bull, P.A., White, K. and Al-Farraj, A. (2001) Desert loess in Ras Al Khaimah, United Arab Emirates. Goudie, A.S. and Viles, H.A. (2000) Weathering, Geomorphology and climatic variability in the Central Namib Desert. In, McClaren, S.J. and Kniveton, D.R. (eds.) Goudie, A.S. and Eckardt, F. (1999) The evolution of the morphological framework of the Central Namib Desert, Namibia, since the early cretaceous. . (1998) Towards and understanding of the spectral reflectance of desert dune sands; viewing geometry and particle size dependence of dune colour. Goudie, A.S. and Parker, A.G. (1998) Experimental simulation of rapid rock block disintegration by sodium chloride in a foggy coastal desert. Goudie, A.S., Viles, H.A. and Parker, A.G. (1997) Monitoring of rapid salt weathering in the central Namib using limestone blocks. Goudie, A.S. (1994) Salt attack on buildings and other structures in arid lands. In, Fookes, P.G. and Parry, R.H.G. (Eds.) Goudie, A.S. (1992) Expedition Research Projects in savanna landscapes - earth science aspects. In, Winser, S. and McWilliam, N. (Ed.) Goudie, A.S. (2013) The Schmidt Hammer and related devices in geomorphological research. In, Shroder, J., Switzer A.D. and Kennedy D.M. (eds.) Brierley, G., Huang, H.Q., Chen, A., Aiken, S., Crozier, M., Eder, W., Goudie, A.S., Ma, Y., May, J-H., Migon, P., Nanson, G., Qi, D., Viles, H.A., Wood, C., Wray, R., Yang, G., Yang, X. and Yu, G-A. (2011) Gregory, K.J. and Goudie, A.S. (2011) Introduction to the discipline of geomorphology. In, Gregory, K.J. and Goudie, A.S. (eds.) (2011) The use of the Schmidt Hammer and Equotip for rock hardness assessment in geomorphology and heritage science: a comparative analysis Goudie, A.S. and Kalvoda. J. (2007) Landform evolution in the Nagar region, Hispar Mustagh Karakoram. In, A.S. Goudie and J. Kalvoda (eds.), Goudie, A.S. and Heslop, E. (2007) Sodium nitrate deposits and surface efflorescences. Chapter 12 in, Nash, D.J. and McLaren, S.J. (eds.) Goudie, A.S., Parker, A.G. and Al'Farraj, A. (2000) Coastal change in Ras al Khaimah (United Arab Emirates): a cartographic analysis. Goudie, A.S., Brundsen, D., Coombe, K., and Parker, A.G. (1996) The structural geomorphology of the Isle of Portland, southern England. Goudie, A.S. (1994) The effects of fire on rock weathering: an experimental study. In, Robinson, D.A., and Williams, R.B.G. (Eds.) Goudie, A.S., Allison, R.J. and Cox, N. (1993) Geotechnical properties of rock masses: their control on slope form and mechanisms of change. Goudie, A.S., McLaren, S.J. and Allison, R.J. (1992) The relations between modulus of elasticity and temperature in the context of the experimental simulation of rock weathering by fire. Goudie, A.S. and Allison, R. (1990) Rock control and slope profiles in a tropical limestone environment: The Napier Range of Western Australia. Goudie, A.S., Viles, H.A., Allison, R., Day, M. Livingstone, I. and Bull, P. (1990) The geomorphology of the Napier Range, Western Australia. The History of the Study of Landforms or the Development of Geomorphology, Vol. 4: Quaternary and Recent Processes and Forms (1890–1965) and the Mid-Century Revolutions . The Geological Society, London. Includes, Goudie, A.S and Viles, H.A., Ch.5, pp. 129-164, Weathering processes and forms; Goudie, A.S., Ch.s 10 &amp; 16. Late Holocene geoarchaeological investigation of the Middle Thames floodplain at Dorney, Buckinghamshire, UK: An evaluation of the Bronze Age, Iron Age, Roman and Saxon landscapes Parker A.G., Goudie, A.S., Stokes, S., White, K., Hodson, M.J., Manning, M., and D. Kennet (2006) A record of Holocene climate change from lake geochemical analyses in southeastern Arabia. Development of the Bronze Age landscape in the southeastern Arabian Gulf: New evidence from a buried shell midden in the eastern extremity of the Rub' al-Khali desert, Emirate of Ras al-Khaimah, U.A.E. Parker, A.G., Eckersley, L., Smith, M.M., Goudie, A.S., Stokes, S., Ward, S., White, K. and Hodson, M.J. (2004) Holocene vegetation dynamics in the north eastern Rub' al-Khali desert, Arabian Peninsula: a phytolith, pollen and carbon isotope study. (2000) Late Pleistocene and Holocene dune construction at the north eastern edge of the Rub Al Khali, United Arab Emirates. Goudie, A.S. (1999) The distribution and modes of origin of peat and calcareous tufa deposits in the Upper Thames valley.</t>
+  </si>
+  <si>
+    <t>Adams, W.M., Small, R.D.S. and Vickery, J.A., 2014. The impact of land use change on migrant birds in the Sahel. dams, W.M., 2014. Neoliberal Capitalism and Conservation in the Post-crisis Era: The Dialectics of "Green" and "Un-green" Grabbing in Greece and the UK. Hodge, I.D. and Adams, W.M. (2013) 'The future of public forests: An institutional blending approach to forest governance in England', , Hodge, I.D. and Sandbrook, L., 2013. New spaces for nature: The re-territorialisation of biodiversity conservation under neoliberalism in the UK. Redpath, S.M., Young, J., Evely, A., Adams, W.M., Sutherland, W.J., Whitehouse, A., Amar, A., Lambert, R.A., Linnell, J.D.C., Watt, A., and Gutiérrez, R.J. (2012) 'Understanding and managing conservation conflicts', Upton, C., Ladle, R., Hulme, D., Jiang, T., Brockington, D. and Adams, W.M. (2008) 'Are poverty and protected area establishment linked at a national scale?' Oryx 42(1): 19-25. Carter, E., Adams, W.M. and Hutton, J. (2008) 'Private Protected Areas: Management regimes, tenure arrangements and protected area categorization in East Africa', Oryx 42: 177-186 Adams, W.M., Perrow, M.R. and Carpenter, A. (2004) 'Conservatives and Champions: River Managers and the River Restoration Discourse in the UK', Adams, W.M. and Infield, M. (2003) 'Who is on the gorilla's payroll? Claims on tourist revenue from a Ugandan National Park',</t>
+  </si>
+  <si>
+    <t>Sigrid is an archaeologist with a research focus on early human technology. She has a PhD in Palaeolithic archaeology from the University of Oslo on the Middle Stone Age of Tsodilo Hills, Botswana. She is particularly interested in the interplay between lithic (stone) technology and human social life, and investigates this using a project, funded by the Leverhulme Trust. The goal of this project is to investigate how major hydrological shifts affected the mobility and landscape use of humans in the late Quaternary. Led by , it involves researchers from various disciplines at the universities of Oxford, Brighton, Oslo and Botswana. Through archaeological surveys and excavations, geochemical sourcing of lithic artefacts and collection of palaeoenvironmental data, the project aims to map human adaptation and mobility in the under-researched Makgadikgadi Pans, Botswana. Nash, D.J., Coulson, S., Staurset, S., Stewart Ullyott, J., Babutsi M. and Smith, M.P. (forthcoming) Going the distance: mapping mobility in the Kalahari Desert during the Middle Stone Age through multi-site geochemical provenancing of silcrete artefacts. Sub-surface movement of stone artefacts at White Paintings Shelter, Tsodilo Hills, Botswana: Implications for the Middle Stone Age chronology of central southern Africa</t>
+  </si>
+  <si>
+    <t>Distinguished Speaker Lecture, International Conference on 'The Changing Geography of Money, Banking and Finance in a Post-Crisis World', University of Ancona, October 2010 Ron is Principal Investigator of a major ESRC project on Structural Transformation and City Economic Evolutions, part of the ESRC's Urban Transformations Initiative. (2015-2018) This strand of his research goes back originally to his PhD on wage and employment dynamics in urban labour markets in the United States, and has since broadened to encompass the theory of local labour markets, local unemployment problems, trade union decline, work in the 'new economy', issues of wage and income inequality, and the local impact of workfare schemes. Books published include: Over recent years, Ron has played a key role in the development of a new economic geography of money. His research under this theme covers global financial centres, the spatial structure of financial systems, venture capital markets, and the role of finance in regional economic development. Books include: Ron's research under this head covers a numbers of related issues. One is concerned with exploring the meaning, nature and significance of regional and urban competitive advantage. In what sense do regions and cities compete? What are the determinants of regional differences in competitive advantage? What are the implications for long-run regional development? A second theme has to do with the geographies of the so-called 'New Economy', and why this latest phase in capitalist development is emanating from some places rather than others, and how in turn it is reshaping the economic landscape. A third theme is concerned with the scope and limits of the concept of 'clusters' for understanding uneven regional development. Books include: Economic geography has always drawn, directly or indirectly, on economics as a source of theoretical inspiration. Ron's particular interest is in the application of heterodox forms of economics to economic geography, as well as responding to the recent emergence of the so-called 'new economic geography' within mainstream economics. More especially, his current focus is on the importation of concepts and ideas from evolutionary economics, and on exploring the scope for and nature of an evolutionary economic geography. Key articles include: Paul Krugman's Geographical Economics and Its Implications for Regional Development Theory: A Critical Assessment, (With P. Sunley), A common thread running through Ron's research is a strong commitment to the social and policy relevance of economic-geographic research, and firm belief that, wherever possible, academic geography should have public policy relevance. His own work on labour markets (especially on the New Deal), on regional competitiveness, and on regional venture capital markets, embodies this ethos. A current interest is in the spatialities of income inequality and poverty. He also researches how national state policies impact at the local and regional level, and the subnational implications of the ongoing neoliberalisation of state policies. Ron regularly provides research advice and consultancy to Government Departments (e.g. BEIS). He is an advisor to the European commission on its programme on Regional Economic Resilience. He has ben involved with numerous research project fr the European commission including the Impact of Globalisation on the European regions, the Determinants of Regional Economic Growth, The Competitiveness of European Regions, and the Rethinking Policy for Europe's Lagging Region. He has been involved in the preparation of evidence for the Core Cites Group and the Key Cities Group for submission to the Uk Government's Industrial Strategy Green Paper (2017). He also provides economic-geographic advice and consultancy to a number of private sector consultancies, including Local Futures (London), Cambridge Econometrics (Cambridge), Trends Business Research (Newcastle); Segal Quince Wicksteed, London. (With M. Parkinson, J. Simmie, P. Wood and D. Dorling), London: Office of the Deputy Prime Minister (2 Vols), 450pp. Britain's Unbalanced Economy: Spatial Divisions of Growth, Work and Welfare (with P J Sunley), London: Palgrave Macmillan (In Preparation, c350pp). , Special Issue of Regional Studies (With P. Tyler, A Glasmeier, B Asheim, M Gray, B Fingleton, J McCombie and M Kitson), 211pp. A Test for Spatial Autocorrelation in Choropleth Maps Based on a Modified c2 Statistic (With A.D. Cliff and J.K. Ord), Kalman Filter Modelling of Time Varying Processes in Urban and Regional Analysis, Chapter 8 in: R.L. Martin, N.J. Thrift and R.J. Bennett (Eds) Sub-Regional Phillips Curves, Inflationary Expectations and the Inter-Market Relative Wage Structure: Substance and Methodology, Chapter 3 in: N. Wrigley (Ed) Thatcherism and Britain's Industrial Landscape, Chapter 8 in R.L. Martin and R.E. Rowthorn (Eds) The Geography of De-Industrialisation, London: Macmillan, pp. 238-290. Industrial Capitalism in Transition: The Contemporary Reorganisation of the British Space Economy, Chapter 10 in: D. Massey and J. Allen (Eds) The New Economics and Politics of Regional Restructuring: The British Experience, Chapter 3 in L. Albrechts, F. Moulaert, F., P. Roberts, and E. Swyngedouw (Eds) Has The British Economy Been Transformed? Critical Reflections on the Policies of the Thatcher Era, Chapter 7 in P.Cloke (Ed) Unions and The Politics of De-industrialization: Some Comments on How Geography Complicates Class Analysis, (With P. Sunley and J. Wills), Undermining the Financial Basis of Regions: The Spatial Structure and Implications of the UK Pension Fund System, (With R. Minns). Convergencia Lenta? La Nueva Teoría del Crecimiento Endógeno y el Desarrollo Regional (With P. Sunley), Chapter 3 in Benko, G, Ciccolella and Lipietz, A. (Eds) L'économie Géographique de Paul Krugman et ses Conséquences pour la Theorie du Développment Régional: Une Évaluation et Critique, Chapter 2 in Benko, G. and Lipietz, A. (Eds) Selling Off the State: Privatisation, the Equity Market and the Geographies of Private Shareholding, Chapter 13 in Martin, R.L. (Ed) The Local Impact of the New Deal: Does Geography Make a Difference? (with P. Sunley and C Nativel), Ch. 8 in Spatial Proximity Effects and Regional Equity Gaps in the Venture Capital Market: Evidence from Germany and the UK, (With C. Berndt, B. Klagge and P. Sunley) Venture Capital Programmes in the UK and Germany: In What Sense Regional Policies? (With P. Sunley, C. Berndt and B. Klagge), The Place of Path Dependence in an Evolutionary Perspective on the Economic Landscape, Ch 3 in Boschma, R. and Martin, R. (Eds) Uneven Regional Growth: The Geographies of Boom and Bust under New Labour, Ch 3 in Coe, N. and Jones, A. (Eds) Regional Economies as Path Dependent Systems: Some Issues and Implications, Chapter 15 in Cooke, P., Boschma, R., Martin, R.L., Schwarz, D., Asheim, B. and Toedtling, F. (Eds) Regional Competitiveness: From Endowments to Externalities to Evolution, Chapter 18 in Cooke, P., Boschma, R., Martin, R.L., Schwarz, D., Asheim, B. and Toedtling, F. (Eds) Regional Economies as Path Dependent Systems: Some Issues and Implications, Chapter 15 in Cooke, P., Boschma, R., Martin, R.L., Schwarz, D., Asheim, B. and Toedtling, F. (Eds) Regional Competitiveness: From Endowments to Externalities to Evolution, Chapter 18 in Cooke, P., Boschma, R., Martin, R.L., Schwarz, D., Asheim, B. and Toedtling, F. (Eds) Path Dependence and the Spatial Economy: A Key Concept in Retrospect and Prospect, Chapter 34 in Fischer, M. and Nijkamp, P. (Eds) The Place of Path Dependence in an Evolutionary Perspective on the Economic Landscape, Chapter 24 in Dopfer, K. and Potts, J. (Eds) Spatially Rebalancing the UK Economy: The Need for a New Policy Model, (with A. Pike, P. Tyler and B. Gardiner) Re The Spatial Structure of the Financial System and the Funding of Regional Business: A Comparison of Britain and Germany, (Wit Klagge B. and Sunley,P.J.) In Martin, R.L. and Pollard, J. (Eds) Divergent Urban Economic Development: A Tale of Two Cities. A Review Essay on Storper, M, Kemeny, T. et al (2015) The Spatial Structure of the Financial System and the Funding of Regional Business: A Comparison of Britain and Germany, (With Klagge B. and Sunley,P.J.) in Martin, R.L. and Pollard, J. (Eds) Shocking Aspects of Regional Development: Towards an Economic Geography of Resilience, in Clark, G.L., Feldman, M.A, Gertler, M. and Wojcik, D. (eds) Structural Change and the Divergent Growth Trajectories of British Cities, (With P. Tyler, E . Evenhuis and P. Sunley), Cambridge Journal of Regions, Economy and Society, (In Press).</t>
+  </si>
+  <si>
+    <t>Shorelines Subcommission on northwestern Europe shorelines. He has been coordinator and lead scientist for four major research contracts funded by the European Union, involving up to 21 universities and institutes in Europe, as well and having been closely involved in three other research contracts; has been a committee member for the design of the EU third, fourth, fifth and sixth frameworks and for the evaluation of funding proposals to the EU in the field of the environment. He also serves on awards committees for the EU. He was Leverhulme Emeritus Fellow at Oxford from 2002 - 2005. He is currently an informal expert reviewer for the Fourth Assessment Report of the Intergovernmental Panel on Climate Change. He has been a staff member of the universities of Queen's, Kingston, Ontario, Canada; Columbia, New York, USA, and Coventry, UK. He is a graduate of Manchester and Edinburgh universities. Professor Smith's research interests include the reconstruction of former relative sea levels, especially in areas of glacio-isostatic uplift, and associated patterns and processes of deglaciation; tsunami, especially past records of tsunami activity; and climate change. Most of his research has concentrated upon Scotland and northern Europe. At present, he is working on evidence for the Holocene Storegga tsunami in northern Britain and on Late Devensian and Holocene relative sea level changes in Scotland, deriving information on the patterns of land uplift which those features and associated deposits indicate. In recognition of his research achievements, Prof. Smith received the Murchison Award of the Royal Geographical Society in 2003 and was made an Honorary Member of the Quaternary Research Association in 2008. Tipping, R., Smith, D.E. and Jordan, J.T. (2015) Relative sea-level change and experiencing the Droughduil Mound. In, Thomas, J. (ed.) De la Vega Leinert, A.C., Smith, D.E. and Jones, R.L. (2012) Holocene coastal barrier development at Bay of Carness, Mainland Island, Orkney, Scotland. Smith, D.E., Hunt, N., Firth, C.R., Jordan, J.T., Fretwell, P.T., Harman, M., Murdy, J., Orford, J.D. and Burnside, N.G. (2012) Patterns of Holocene relative sea level change in the North of Britain and Ireland. Smith, D.E., Davies, M.H., Brooks, C.L., Mighall, T.M., Dawson, S., Rea, B.R., Jordan, J.T. and Holloway, L.K. (2010) Holocene relative sea levels and related prehistoric activity in the Forth lowland, Scotland, UK. Jordan, J.T., Smith, D.E., Dawson, S. and Dawson, A.G. (2010) Holocene relative sea level changes in Harris, Outer Hebrides, Scotland, UK. Smith, D.E., Stewart, I.S., Harrison, S. and Firth, C.R. (2009) Late Quaternary neotectonics and mass movement in South East Raasay, Inner Hebrides, Scotland. Jaffe, B.E., Morton, R.A., Kortekaas, S., Dawson, A.G., Smith, D.E., Gelfenbaum, G., Foster, I.D.L., Long, D. and Shi, S. (2008) Reply to Bridge (2008) Discussion of articles in "Sedimentary features of tsunami deposits". Fretwell, P.T., Smith, D.E. and Harrison, S. (2008) The Last Glacial Maximum British-Irish Ice Sheet: a reconstruction using Digital Terrain Mapping. De la Vega-Leinert, A., Smith, D.E. and Jones, R.L. (2007) Holocene coastal environmental changes on the periphery of an area of glacio-isostatic uplift: an example from Scapa Bay, Orkney, UK. McCabe, A.M., Clark, P.U., Smith, D.E. and Dunlop, P. (2007b) Discussion on "A revised model for the deglaciation of eastern Scotland": Reply. Selby, K.A. and Smith, D.E. (2007) Late Devensian and Holocene relative sea level changes on the Isle of Skye, Scotland, UK. Soulsby, R.L., Smith, D.E. and Ruffman, A. (2007) Reconstructing tsunami run-up from sedimentary characteristics - a simple mathematical model. In Kraus, N.C. and Rosati, J.D. (eds.) Smith, D.E., Cullingford, R.A., Mighall, T.M., Jordan J.T. and Fretwell, P.T. (2007) Holocene relative sea level changes in a glacio-isostatic area: new data from south-west Scotland, United Kingdom. Smith, D.E., Foster, I.D.L., Long, D. and Shi, S. (2007) Reconstructing the pattern and depth of flow onshore in a palaeotsunami from associated deposits. Smith, D.E., Fretwell, P.T., Cullingford, R.A. and Firth, C.R. (2006) Towards improved empirical isobase models of Holocene land uplift for mainland Scotland, UK. Tooley, M.J. and Smith, D.E. (2005) Relative sea-level change and evidence for the Holocene Storegga Slide tsunami at a site in Fife, Scotland, United Kingdom. Dawson, S., Smith, D.E., Jordan, J. and Dawson, A.G. (2004) Late Holocene coastal sand movements in the Outer Hebrides, N.W.Scotland. Smith, D.E., Shi, S., Brooks, C.L., Cullingford, R.A., Dawson, A.G., Dawson, S., Firth, C.R., Foster, I.D.L., Fretwell, P.T., Haggart, B.A., Holloway, L.K. and Long, D. (2004) The Holocene Storegga Slide tsunami in the United Kingdom. Smith, D.E., Haggart, B.A., Cullingford, R.A., Tipping, R.M., Wells, J.M., Mighall, T.M. and Dawson, S. (2003) Holocene relative sea-level change in the lower Nith valley and estuary. Smith, D.E., Wells, J.M., Mighall, T.M., Cullingford, R.A., Holloway, L.K., Dawson, S. and Brooks, C.L. (2003) Holocene relative sea levels and coastal changes in the lower Cree valley and estuary, SW Scotland, U.K. Holloway, L.K., Peacock, J.D., Smith, D.E. and Wood, A.M. (2002) A Windermere Interstadial sequence: Environmental and relative sea level interpretations for the Western Forth valley, Scotland. Smith, D.E., Firth, C.R. and Cullingford, R.A. (2002) Relative sea level trends during the early-middle Holocene along the eastern coast of mainland Scotland, UK. Dawson, A.G., Hickey, K., Holt, T., Elliott, L., Dawson, S., Foster, I.D.L., Wadhams, P., Jonsdottir, I., Wilkinson, J., McKenna, J., Davis, N.R. and Smith, D.E. (2002) Complex North Atlantic Oscillation (NAO) Index signal of historic North Atlantic storm-track changes. Selby, K.A., Smith, D.E., Dawson, A.G. and Mighall, T. (2000) Late Devensian and Holocene relative sea level and environmental changes from an isolation basin in southern Skye. De la Vega-Leinert, A.C., Keen, D.H., Jones, R.L., Wells, J.M. and Smith, D.E. (2000) Mid-Holocene environmental changes in the Bay of Skaill, Mainland Orkney, Scotland: an integrated geomorphological, sedimentological and stratigraphical study. Smith, D.E., Cullingford, R.A. and Firth, C.R. (2000) Patterns of isostatic land uplift during the Holocene: evidence from mainland Scotland. Wells, J.M., Mighall, T.M., Smith, D.E. and Dawson, A.G. (1999) Brighouse Bay, Southwest Scotland: Holocene vegetational history and human impact on a small coastal valley mire. In: Andrew,P. and Burnham,P. (eds.) Smith, D.E., Firth, C.R., Brooks, C., Robinson, M. and Collins, P.E.F. (1999) Relative sea level rise during the Main Postglacial Transgression in NE Scotland, UK Transactions of the Royal Society of Edinburgh: Dawson, A.G., Smith, D.E., Dawson, S., Foster, I.D.L., Brooks, C. and Tooley, M.J. (1999) Lateglacial coastal processes and climate change in western Jura, Scotland, Dawson, S. and Smith, D.E. (1997) Holocene relative sea level changes on the margin of a glacio-isostatically uplifted area: an example from northern Caithness, Scotland.</t>
+  </si>
+  <si>
+    <t>Beth Greenhough joined the School of Geography and the Environment in September 2014. She has a PhD (Human Geography) from the Open University, an MA in Society and Space from the University of Bristol and a BSc in Human Geography from the University of Reading. Prior to joining Oxford Beth lectured in Geography at Keele University and Queen Mary, University of London and held a post-doctoral fellowship at the Open University. Beth's work draws on a combination of political-economic geography, cultural geography and science studies to explore the social implications of scientific innovations in the areas of health, biomedicine and the environment. Employing a range of qualitative, ethnographic and archival methods, Beth seeks to understand the social, cultural and ethical processes through which humans and animals are made available as experimental subjects for biomedical research. She also contributes to the development of new theoretical and methodological approaches within Geography better able to capture the material and affective dimensions of human-environment relations and how these are being reconfigured through biotechnological innovation. Her work has been funded by the AHRC, ESRC, Barts and the London Charity Trust, British Academy, the Brocher Foundation and the Wellcome Trust, and she published widely in many of the leading Geography and interdisciplinary journals. Beth has also served as an expert participant in debates around solidarity in bioethics (Nuffield Foundation) and Personalised Medicine (European Science Foundation). (University of Southampton). Using animals in scientific research has been critical to the development of modern medicine and is contingent upon a complex, entangled network of relations and obligations across science and society. These entanglements can best be understood as the with stakeholders, scientists and publics across the Animal Research Nexus. The overall programme seeks to identify what is required to remake the social contract around animal use in 21st century science and medicine. We will be working with 5/6 post-doctoral research assistants and 2/3 PhD students, with Bentley Crudgington as creative facilitator, and engaging perspectives across the animal research nexus to answer some of the questions we raised in this This project led by Dr Jamie Lorimer and in collaboration with Dr Richard Greyner and Dr Timothy Hoggetts (School of Geography and the Environment, University of Oxford) aims to bring new scientific techniques for surveying microbial biodiversity out of the laboratory to explore how they can shape everyday understandings of domestic life and kitchen hygiene. The project, , will develop novel methods that will allow people to experiment on the microbial life in their kitchens and to visualise the results, and then explore the implications of this participatory approach with key stakeholders in industry and the regulatory agencies. This project (2013-2015) is a collaboration with Dr Emma Roe (University of Southampton) and funded by the Wellcome Trust. It uses a compilation of in-depth interviews and participant observation to try and understand how laboratory animal technologists 'do the right thing' or put animal welfare and ethics into practice through developing their professional skills and sensitivities. Beth is also a founding member of the This project (2013-2016) is a collaboration with Professor Catherine Nash (Queen Mary University of London) and the Hunterian Museum at the Royal College of Surgeons, and is funded by an AHRC funded Collaborative Doctoral Award. Sarah Morton (PhD candidate) will use archival and ethnographic methods to explore how repatriation is put into practice and what happens subsequently to repatriated remains. The project will show how human remains are socially and materially constructed and the different meanings and associations repatriated remains hold for different stakeholders in the repatriation process. This is a collaborative project led by Mr Markus Ornstein (Homerton University Hospital), and working with Prof. Stephen Duffy (Wolfson Institute of Preventative medicine) and Professor Isabel Dyck, Dr Tim Brown and Melanie Dembinsky (School of Geography, QMUL). The project aims to trial and evaluate a , produced by Homerton Hospital in order to raise breast awareness amongst Black women. Beth is leading the qualitative arm of the project, conducting interviews and focus groups with practice staff and patients to explore the impact of the DVD on their health knowledge and to gage their responses to the DVD. The pilot study (2012-2013) and main project (2013-2015) have been funded by Barts and the London Charity Trust. This project draws on the archives of the MRC's Common Cold Unit to explore the spaces created though medical research. It examines how volunteers were recruited for common cold research and the unit's experimental spaces, protocols and practices. A key insight from the research so far has been the ways in which participation in medical research shapes science-society relations, blurring the distinction between scientific research and health care. Beth's PhD and post-doctoral research at the Open University explored the controversies surrounding Iceland's (1998) Act on a Health Sector Database, and its proposal to license a private sector firm to access anonymised public medical records for use in gene-discovery research. Her work argued that how and where humans and their derivatives become resources for medical research is central to understanding social and cultural responses to this use of bioinformation, human tissue and human subjects and their ethical implications. For the Final Honour School, Beth contributes to the 'Environmental Geography' foundation course and to an option, 'Geographies of Nature' led by Dr Jamie Lorimer. Beth also shares responsibility with her colleagues at Keble for providing tutorials for the Preliminary Examination and Final Honour School of Geography. Beth convenes and lectures on the 'Science and Politics' core course for MSc Nature, Society and Environmental Policy. Beth also offers an elective course to SoGE Masters students in 'Animal Controversies'. Beth welcomes enquiries from individuals wishing to undertake doctoral or post-doctoral research in any of the following areas: geographies of biomedical science; the production, circulation and use of human subjects and bodily commodities in medical research; human-environment relations; and social and cultural geographies of disease. Greenhough, B., Dembinsky, M., Dyck, I., Brown, T., Robson, J., Homer, K., Sajani, C., Carter, L., Duffy, S.W. and Ornstein, M. (2016) Greenhough, B. (2014) More-than-human-geographies. In, Paasi, A., Castree, N., Lee, R., Radcliffe, S., Kitchin, R., Lawson, V. and Withers, C.W.J. (eds.)</t>
+  </si>
+  <si>
+    <t>Professor Müller is Managing Director of Oxford Climate Policy (a not-for-profit company aimed at capacity building for developing country climate change negotiators), and Director of the European Capacity Building Initiative (ecbi), an international initiative for sustained capacity building in support of international climate change negotiations. He has been serving as Adviser to the LDC Group Chair (2011-12) and the Africa Group Chair (2012-13). He participated in the deliberations of the Transitional Committee (TC) for the Green Climate Fund (GCF) as Adviser to the LDC TC members, who he has also been also advising on the GCF Board and the UNFCCC Standing Committee on Finance. Professor Müller received his doctorate (D.Phil.) in Philosophy from the University of Oxford and was formerly a Research Fellow at Wolfson College and a Lecturer in Logic at the Queen's College, Oxford. He has a Diploma in Mathematics from the Eidgenössische Technische Hochschule (ETH) in Zürich, Switzerland.</t>
+  </si>
+  <si>
+    <t>Going through life, our senses perceive a continuous flow of information. Yet when we reminisce about the past, we remember experiences as discrete events. How does this occur? A leading theory ( Money is clearly one of the most powerful social linkages between individuals, groups, and nation states that exist. Its power of abstraction generates equivalences where none existed, forms the Lauren E. Marbella,1 Kent J. Griffith,1 Matthias F. Groh,1 Joseph Nelson,2 Matthew Evans,2 Andrew J. Morris,2 and Clare P. Grey1,* 1University of Cambridge, Department of Chemistry, Lensfield Road, At some point in evolutionary history, our ancestors came to understand, as no animal does, that death brings to an end a person’s bodily and mental presence in the world. But a potentially In this talk, I will discuss some of my PhD and my PostDoc work on multimodal driver displays, autonomous car handovers, and inclusiveness. During my PhD, I investigated the utility of multimodal How did western scientific knowledge travel and translate across languages and imperial geographies in the late-nineteenth and early-twentieth centuries? Are some languages inherently more able One of the several research projects Tom is currently pursuing is assessing the influence of the UK on the development of state security sectors in the Global South - in particular but not In the last decades, there has been a rapid demographic shift, where populations in both developing and developed countries live far longer. Although an indication of medical advances and overall David Olusoga is an Anglo-Nigerian historian, broadcaster and author. Amongst other work, David presented and produced BAFTA award winning Britain’s Forgotten Slave Owners for the BBC, in Fossil plants preserved in Antarctic rocks show it was once covered in lush green forests, despite being situated over the South Pole. The fossils provide us with a window into life at high latitudes in our future warm world. Congratulations to Darwin Fellow Dr Richard Henderson, who has today been announced as a winner of the Nobel Prize for Chemistry, together with Jacques Dubochet and Joachim Frank for their work on cryo-electron microscopy! Darwin College will again be taking part in the Postgraduate Open Day on Friday 3 November 2017. The College will be open from 9am until 2pm for those wishing to look around and members of the current student body will be available to answer any questions (tea &amp; coffee available). © 2017 Darwin College Cambridge — Silver St Cambridge CB3 9EU — T: 01223 335660 — Registered Charity number 1141105</t>
+  </si>
+  <si>
+    <t>Mike studies the cultural and epistemic construction of the idea of climate change, and its discursive and material effects, drawing upon scientific, social scientific and humanities insight. Mike Hulme joined the Department at Cambridge in September 2017, following a period of four years as professor of climate and culture in the Department of Geography at King's College London where he was Head of Department. From 2000 to 2007 he was the Founding Director of the Tyndall Centre for Climate Change Research, a multi-institutional and inter-disciplinary research centre based at the University of East Anglia (UEA). For 12 years prior to establishing the Tyndall Centre, Hulme worked in the Climatic Research Unit (CRU) at UEA and had the dubious honour of having five years' worth of his professional email correspondence released to public scrutiny as a result of the Climategate controversy. While in CRU, Hulme specialised in the compilation and analysis of global climate datasets and the construction and application of climate change scenarios for impact, adaptation and integrated assessment. He led the preparation of a series of climate scenarios and reports for the UK Government and in 2007 he received a personalised certificate from the Nobel Peace Prize committee in recognition of his 'significant contribution' to the work of the United Nations' IPCC. Hulme continues as the founding Editor-in-Chief of the review journal Wiley Interdisciplinary Reviews (WIREs) Climate Change, with a journal impact factor of 4.6. Hulme studies the numerous ways in which the idea of climate-change is constructed and deployed in public, political and scientific discourse, exploring both its historical, cultural and scientific origins and its contemporary meanings. His work has appeared in academic journals in the sciences, social sciences and humanities and has profoundly shaped the way in which the idea of climate-change is being studied, communicated and mobilised, in both the academy and public life. He draws inspiration from the geography of science, STS, environmental history and political ecology, but his research can be understood as defining a new field of critical climate anthropology. Hulme's most recent book is Weathered: A Cultural Geography of Climate (SAGE, 2017), which explores how different cultures around the world make sense of their weather and climate. Among his other books are Can Science Fix Climate Change? A Case Against Climate Engineering (Polity Press, 2014) and Why We Disagree About Climate Change (CUP, 2009). This latter has was chosen by The Economist magazine as one of its science and technology books of the year and has become one of the standard university texts worldwide for social science and humanities students studying climate change. It was selected by CUP in November 2015 as one of their top 20 most influential books of all time, 'influencing policy-making, contributing to social change and altering intellectual landscapes'. He is particularly interested in the following topics and welcomes approaches from prospective PhD students on these and related themes: (2013) Exploring climate change through science and in society: an anthology of Mike Hulme's essays, interviews and speeches Routledge, Abingdon, UK, 330pp. and Neufeldt,H. (eds.) (2010) Making climate change work for us: European perspectives on adaptation and mitigation strategies Cambridge University Press, Cambridge, 413pp. (2009) Why we disagree about climate change: understanding controversy, inaction and opportunity Cambridge University Press, Cambridge, 393pp. (translated into German (2014) and Turkish (2015)) (2016) What does policy-relevant global environmental knowledge do? The cases of climate and biodiversity Current Opinions in Environmental Sustainability 18, 65-72 , Lidskog,R. and Vasileiadou,E. (2015) The ontological politics of the Anthropocene: a critical research agenda for the social sciences Global Environmental Change 32, 211-218 … and 14 co-authors (2014) Towards a reflexive turn in the governance of global environmental expertise. The cases of the IPCC and the IPBES GAiA 23/2, 80–87 (2012) The colour of risk: an exploration of the IPCC's 'burning embers' diagram Spontaneous Generation: A Journal for the History and Philosophy of Science 6(1), 75-89 , Hunter,P.R., Nichols,G. and Waldron,K. (2012) Climate change and food security: health impacts in developed countries Environmental Health Perspectives 120(11), 1520-1526 (2012) Model migrations: mobility and boundary crossings in regional climate prediction Transactions of the Institute of British Geographers 37(2), 197-211 Editorial Board member for: Transactions of the Institute of British Geographers (since 2013), Global Environmental Change (since 2010), GAIA (since 2014), Environmental Science and Policy (since 2011). Personalised certificate for 'contributing significantly' to the award of the 2007 Nobel Peace Prize jointly to the Intergovernmental Panel on Climate Change (IPCC)</t>
+  </si>
+  <si>
+    <t>Professor Ceri Peach, Professor of Social Geography at the School of Geography and the Environment, Oxford from 1992 to 2007 is now Emeritus Professor of Social Geography at the School and Emeritus Fellow of . On retirement from Oxford he was appointed Professor at the Institute for Social Change at Manchester University. He has held Visiting Fellowships at the Australian National University, Berkeley, Yale, University of British Columbia, Harvard and Princeton. He was nominated Ethnic Geography Distinguished Scholar of 2008 by the Association of American Geographers at the April meeting in Boston of the . His award paper, presented at the meeting was entitled 'Contrasts in US and British Segregation Patterns'. The Rapporteurs were David Ley Professor of geography at UBC and Robert Putnam, Professor of Sociology at Harvard University. Professor Peach works on migration and ethnic and religious segregation in cities. Current work includes critical appraisal of claims of ghettoisation in British cities and comparative work on US and UK segregation patterns as part of the Manchester / Harvard University joint research programme. Ceri is part of the team headed by Miles Hewstone, Professor of Social Pyschology at Oxford, Anthony Heath, Professor of Sociology at Oxford, Sarah Spencer, Director of the research programme at Oxford and Steven Vertovec, Director of the Max Planck Institute at Göttingen, all working on the issue of ethnic diversity and social cohesion. The group was awarded a competitive research grant of £1 million by the Leverhulme Trust in July 2008 to pursue this work. Professor Peach recently completed the ESRC funded project on ethno-religio-linguistic sub-communities in Britain. It links his database on Muslim, Hindu and Sikh places of worship in England and Wales, completed as a millennium project, funded by the Leverhulme Trust with the 2001 Census data on ethnicity and religion. The Leverhulme survey photographed and collected data on religion, tradition, movements, vernacular language date of foundation and many other variable on nearly 1,000 buildings. Co-researchers on the project were Dr Richard Gale (now at the Cardiff University) Dr Simon Naylor (now at Bristol University) and Dr James Ryan (now at Exeter University). Professor Peach is a member of the Advisory Board of the Peach, C. (2010) London and New York: Contrasts in British and American models of segregation. Ch.11, in Paddison, R. &amp; Ostendorf, W. (eds.) Peach, C. (2005) Social Integration and Social Mobility: Spatial segregation and intermarriage of the Caribbean population in Britain. Chapter 6 in, Loury, G.C., Modood, T. and S.M. Teles (eds.) Peach, C. (2003) Contrasts in Economic Growth and Immigration Policy in Japan, EU and USA. Chapter 2 in, Goodman, R., Peach, C., Takenaka, A. and P. White (eds.) Peach, C. with A. Rogers, J. Chance and P. Daley. (2000) Immigration and Ethnicity. Chapter 4, in Halsey, A.H. and Webb, J. (eds.) Peach, C. and Rossiter, D. (1996) Level and nature of spatial concentration and segregation of minority ethnic population in Great Britain, 1991. In, Ratcliffe, P. (ed.)</t>
+  </si>
+  <si>
+    <t>Improving Late Glacial European tree-ring chronologies for accurate climate archive dating – Consolidation and extension of the Swiss-German pine chronology back to 14,000 BP Tracing the origin of the Black Death (TRADE): Using tree rings to reconstruct historical re-introductions of plague from Asia to Europe Ulf Büntgen conducts fieldwork all over the globe to provide answers to his main research questions: What are the causes and consequences of changes in different, though intertwined environmental systems across space and time, and how can diverse tree-ring parameters and archives be compiled and analysed to provide answers to such and related inter-/cross-disciplinary research questions? 01.2014-12.2016: Head of PAGES (Past Global Changes) working group: Euro-Med2k "Climate of Europe and the Mediterranean of the last 2 millennia" 11.2006: PhD thesis (Dr phil. nat.), Department of Geography, University of Bern, Switzerland: Long-term European climate reconstructions from high-elevation tree-rings. Grade: summa cum laude, supervisors: Wanner H, Esper J, Nicolussi K 08.2003: Master thesis, Department of Geography, University Bonn, Germany: Dendroklimatologische Analysen einer 1000-jährigen Lärchenchronologie aus rezenten und verbauten Hölzern für das Lötschental, Schweiz. Grade: 1.0, supervisors: Winiger M, Esper J, Neuwirth B Alps: TRW and MXD network, living and relict wood material, composite chronologies, millennial-long summer temperature reconstructions, spatiotemporal reconstructions of LBM outbreaks, settlement and building history, intra-annual growth dynamics, treeline studies, Lötschental, Southern French Alps, Valais, Engadine, Tyrol, treeline soil-temperature logger, Larix decidua, Picea abies, Pinus cembra, Pinus sylvestris, Abies alba Tatra: TRW network, MXD site chronologies, living trees, summer temperature and drought reconstructions of the past ~300 years, treeline soil-temp. logger, Larix decidua, Picea abies, Pinus cembra, Pinus sylvestris, Abies alba</t>
+  </si>
+  <si>
+    <t>Prof. Judith Pallot came to Oxford from a lectureship in Leeds University in 1979 and has been responsible for developing teaching and research in Soviet and Russian geography since then. She is active in the University promoting interdisciplinary links in Russian and East European Studies. Prof. Pallot offers a final year option in the geography honours course on the geography of Russian and East Central Europe and she lectures in the first year course on the political geography of the Cold War. Prof. Pallot supervises graduates working on Russia on topics ranging from environmental issues and rural society to contemporary urban change. Many have gone on to university posts in the UK and elsewhere. She is an active member of the British Association for Slavonic and East European Studies and was its Treasurer and committee member in the 1990s. Prof. Pallot first visited the USSR as a post-graduate exchange student in 1979 and has been a frequent visitor ever since. In the late 1980s she spearheaded exchange agreements with geographers in Russia bringing many geographers who had never before left the USSR to Oxford under a British Council funded scheme. She has especially strong links with researchers in the Institute of Geography of the Russian Academy of Sciences and has had a ten year collaboration with Tatyana Nefedova, Russia's leading authority on Russian agriculture. She also collaborates with scholars in the Geography Departments of Moscow and Perm' State University, and the Peasant Studies Centre of the Moscow School of Social and Economic Sciences. In the past two years she has developed links with the Federal Penal Service in the Russian Federation Ministry of Justice negotiating a memorandum of understanding between Oxford University and the Academy of Law and Penal Management in Ryazan' which has led on to a collaborative research project. Prof. Pallot's current research interest lies in Russia's penal geography. She is the principal investigator for an ESRC funded project 'Space and Gender in Russia's Geography of Punishment'. The project, which due to the sensitivities of working with the Russian penal bureaucracy was in gestation for two years, formally began in November 2006. Her co-researchers are Dr Laura Piacentini a criminologist from the University of Strathclyde, and the geographer and former postgraduate of the School of Geography and the Environment, Dr Dominique Moran, from the University of Birmingham. The project involves collaboration with a newly constituted research group within the Academy of Law and Penal Management in Ryazan'. Seed money for this project was obtained from the University of Oxford Research Development Fund (£20,000) which paid for a pilot study in L'govo juvenile girls colony in March 2006. This was followed in April 2007 by field work in three women's penal colonies in the republic of Mordovia. In December further fieldwork is scheduled in penal colonies in Perm' krai. Prof. Pallot has already presented early findings from these studies at the University of Toronto (Conference 'What it Soviet Now?' in 2006) and the RGS/IBG September 2007. In conjunction with the research on women's experiences of the Russian penal system, Prof. Pallot has applied for funding (Nuffield and Guggenheim) to employ Dr Elena Katz to work with her on extending the research of women's experiences of penal Russia to include prison visitors. Prof. Pallot has an established reputation in the field of Russian 'peasant studies'. Her early work focused on the responses of the Russian peasantry to the reform initiatives of the late Imperial government (particularly, the Stolypin Land Reform) and the struggle for common property rights in the Soviet period. In the 1990s she extended this interest to post-Soviet period, to examine rural adaptations and household food production during the transformation to a market economy. The Leverhulme funded project with Tatyana Nefedova involved field work in seven regions and more than thirty rural districts located in contrasting regions (including Moscow, Perm', Archangel, Ryazan', Samara and Saratov oblasts and Stavropol' krai). The results of this research have been published in a variety of English and Russian language journals and in two books. Research is on going with research trips planned for Kostroma and Mordovia in 2007 and 2008. In August 2007 Prof. Pallot was involved in a film project for the Russian TV station Kul'tura on the history of Russian farming in a global context. The results will be broadcast as a 14 part series in November and December 2007. Penality and the Social Construction of Gender in Post-Soviet Russia: the impact on prisioners' relatives of their encounters with penal Russia Women in the Russian Penal System: The role of distance in the theory and practice of imprisonment in late Soviet and post-Soviet Russia In collaboration with Dr Laura Piacentini (University of Strathclyde) and Dr Dominique Moran (University of Birmingham); Financial support from ESRC; (2006-2009) The topography of incarceration: the spatial continuity of penality and the legacy of the gulag in twentieth- and twenty-first century Russia Moran, D., Pallot, J. and Piacentini, L. (2012) Rikoksen ja rangaistuksen maantiede Venäjän (Geography of Crime and Punishment in Russia). Katz, E. and Pallot, J. (2010) From femme normale to femme criminelle in Russia: against the past or towards the future? 'Gde muzh, tam zhena' (where the husband is, so is the wife): Space and gender in post-Soviet patterns of penality Pallot, J. and Nefedova, T. (2002) Individual'nie khozyaistva naseleniya kak obekt geograficheskogo izucheniya' (The Geography of People's Farming), Izvestiya AN. Moran, D., Piacentini, L. and Pallot, J. (2013) Liminal transcarceral space: prisoner transportation for women in the Russian Federation. Chapter 8 in, Moran, D., Gill, N. and Conlon, D. (eds.) Nefedova, T. and Pallot, J. (2013) The multiplicity of second home development in the Russian Federation: a case of 'seasonal suburbanization'? Chapter 5 in, Roca, Z. (ed.) Pallot, J. (2008) Continuities in penal Russia: Space and gender in post-Soviet geography of punishment. In, Luhausen, T. and P. Solomon (eds.) Pallot, J., Unwin, T. and Johnson, S. (2004) Rural Change and Agriculture. In, Johnson. (2004) Rural Change and Agriculture. In, M. Bradshaw and A. Stenning (eds.) Pallot, J. (2002) 'Zhizn' v Sovetskoi Derevne' (Life in the Soviet Countryside). In, In, Yul'yam K. Brumfild; Bler Rublya. (ed.) . J. Pallot took part in a discussion on the conditions in Penal Colony 14 where convicted Pussy Riot protestor, Nadezhda Tolokonnikova, is on hunger strike.</t>
+  </si>
+  <si>
+    <t>Danny Dorling joined the School of Geography and the Environment in September 2013 to take up the Halford Mackinder Professorship in Geography. He was previously a professor of Geography at the University of Sheffield. He has also worked in Newcastle, Bristol, Leeds and New Zealand, went to university in Newcastle upon Tyne, and to school in Oxford. which shows who has most and least in the world. His work concerns issues of housing, health, employment, education, wealth and poverty. His recent books include, co-authored texts Before a career in academia Danny was employed as a play-worker in children's play-schemes and in pre-school education where the underlying rationale was that playing is learning for living. He tries not to forget this. He is an Academician of the Academy of the Learned Societies in the Social Sciences, a former Honorary President of the Society of Cartographers and a current patron of Roadpeace, the national charity for road crash victims.</t>
+  </si>
+  <si>
+    <t>Dariusz Wójcik is an economic geographer, specializing in financial geography. He has published three books and over forty articles and book chapters in leading journals and edited volumes. In the last five years he has won several research grants with a value of over £2m as principal or co-principal investigator in the UK and abroad, including a major grant from the Research Grants Council Hong Kong, which allows him to co-lead one of the largest ever research projects on financial centre development in co-operation with lawyers and economists. His contribution to research has been recognized by nominations to the editorial board of , the leading journals in the field, and visiting appointments at the universities in Beijing, Hong Kong, Singapore, and Sydney. He has been involved in shaping the future of economic geography by organizing international and interdisciplinary seminars, and acting as a member of the International Advisory Board for the , which gathered over 670 delegates from more than 60 countries, making it the largest ever event dedicated to economic geography. At the Conference he co-organised the launch of the . Beyond academia he has applied his research to influence financial management and corporate governance at public and private institutions. His research has been reported in the (OUP 2011) offers a comprehensive picture of the global stock market by focusing on the relationships between issuers, investors, and intermediaries and how these relationships impact the performance of stock markets and the economy of cities, countries, and the world. The book uses rich data and global case studies to examine the rise of emerging markets, the impact of the global financial crisis, the revolution in the stock exchange business model, and the continued dominance of London and New York as financial centres. tackles crucial issues regarding the emerging global market for corporate governance. It describes and explains the transformation of European corporate governance in the light of the imperatives driving global financial markets, using and innovative analytical and empirical framework. At present he is co-editing the Dariusz has a Master's Degree in Geography from Jagiellonian University (1997), Cracow, a Master's Degree in Economics from the Cracow University of Economics (1996), and an MSc in Finance and Banking from Stockholm University (1996). He came to Oxford in 1998 as a scholar of the Open Society Institute and the Foreign and Commonwealth Office, and was awarded the University Studentship in association with Jesus College for a DPhil, completed in 2003 with a thesis entitled "Corporate Governance and Capital Market Integration in Europe: an Economic Geography Perspective". From 2003 to 2005 he was a Junior Research Fellow at Jesus College, Oxford and an outside Lecturer at the London School of Economics and Political Science. Between January 2006 and June 2007 he was a Lecturer at the Department of Geography, the University College London. He was appointed a Lecturer at the School of Geography and the Environment and a , a multidisciplinary initiative to foster teaching and research on contemporary Poland, and academic relationships between Poland and Oxford University. Dariusz Wójcik's current work focuses on the global financial landscape emerging in the wake of the global financial crisis 2007-9. It is based on the premise that the crisis constitutes a major juncture in the history of capitalism, and major changes are necessary in the governance structure of the global economy, as well as in the social scientific approaches to explaining economy. His research combines insights derived from geography, economics, political economy, sociology and anthropology and is based on both quantitative and qualitative research methods, including elite interviews. The topics related closely to the global financial crisis include a review of competing interpretations of the crisis 2007-9; the role of the New York - London axis in the crisis; the role of advanced business services and the offshore world in the transformation of the world economy since the collapse of the Bretton Woods system; and the impact of the financial crisis on financial centres around the world; and the evolution of offshore financial centres and networks. The more theoretical strand involves the future agenda of economic geography, including the intersection of economic geography with post-Keynesian economics, political economy, and accounting, as well as the concept of Global Financial Networks. Other topics include the geography of economic thought, the role of location in the underpricing of Initial Public Offerings on the stock market, the role of financial centres in the international monetary system, and the future of sustainable finance. In 2016 Dariusz has been awarded a prestigious European Research Council Consolidator Grant of €2m over five years for the project Cities in Global Financial Networks: Finance and Development in the 21st Century. This study will focus on how financial and business services, including law, accounting, and business consulting, have been affected by the global financial crisis and the Eurozone crisis, and how they are changing in response to new financial regulation, the rise of the Global South, and the digital revolution. The project will develop the theory of Global Financial Networks, create the first Atlas of Finance, and investigate the impacts of finance on urban, regional, and global development. At the undergraduate level Dariusz convenes the 'Human Geography' course for Prelims, the 'Space, Place and Society' course for 2nd year students, as well as the 'Geographies of Finance' option. He is a tutor at At the graduate level Dariusz co-convenes the course on 'Economy and Development' for the MSc in Nature, Society and Environmental Governance. He has supervised over twenty MSc students, and fifteen DPhil students, in addition to mentoring visiting research students and postdoctoral researchers. A carbon market for the Gulf - the development of an optimal carbon trading platform to regulate carbon emissions in the Gulf cooperation council 'Do the data in fact deceive?': An analysis of the roles of evaluation and the production of aid effectiveness at the World Bank Geographically dispersed ownership and inter-market stock price arbitrage - Ahold's crisis of corporate governance and its implications for global standards Clark, G.L., Hachigian, H., McGill, S., Molinari, C. and Wójcik, D. (2015) Addressing the challenges of transformation through sustainable investment. Chapter 46 in, Hebb, T., Hawley, J.P., Hoepner, A.G.F., Neher, A.L. and Wood, D. (eds.) Wójcik, D. (2009) The role of proximity in secondary markets. Chapter 6 in, Clark, G.L., Dixon, A.D. and Monk, A.H.B. (eds.) Clark, G.L., Hebb, T. and Wójcik, D. (2007) Institutional investors and the language of finance: the global metrics of market performance. Chapter 2 in, Godfrey, J.M. and K. Chalmers (eds.) Clark, G.L., Urwin, R., Allen, M.R., Wójcik, D., Molinari, C., and McGill, S.M. (2012) Project Telos: Addressing the Challenges of Transformation Through Sustainable Investing. Towers Watson, London</t>
+  </si>
+  <si>
+    <t>Political Geographer interested in state-building after conflict, particularly within the former Yugoslavia. His research has sought to contribute to debates concerning critical geopolitics, civil society and transitional justice. research cluster within the Department of Geography. Over the past decade Alex has sought to examine the nature and consequences of international intervention after conflict, particularly focusing on the former Yugoslavia. This work has been roughly divided into three areas of inquiry: Geographies of state formation. This research has explored the role of non-governmental organisations (NGOs) in fostering democratic participation after violent conflict. Over several periods of residential fieldwork in Bosnia and Herzegovina Alex has sought to investigate how donors, new state institutions and intervening agencies shape the agendas of NGOs. This work has been funded by an ESRC Studentship (R42200134266), an ESRC Postdoctoral Fellowship (PTA-026-27-0576) and internal funding from Newcastle University. Key outputs include papers in Legal Geopolitics. Focusing specifically on the experience of Bosnia and Herzegovina, this strand of research has explored the process of establishing a domestic War Crimes Chamber with jurisdiction to investigate and prosecute crimes undertaken during the 1992-5 war. Key publications exploring this area of work include papers in Citizenship in Divided Societies. This strand of research seeks to explore how ideas of citizenship are negotiated, contested and learnt following periods of political instability. Between 2012-2017 Alex was an Academic Fellow on a European Research Council Advanced Grant entitled Alex Jeffrey is interested in hearing from scholars who wish to conduct masters, doctoral or post-doctoral work on state formation, geographies of law and justice, the role of non-governmental organisations after conflict and state/society relations both within and beyond the states of the former Yugoslavia. and L. Staeheli (In Press) "Learning Citizenship: Civility, Civil Society and the Possibilities of Citizenship" In: Kallio, K. and Mills, S. (Eds.)</t>
+  </si>
+  <si>
+    <t>Paul Whitehead is Professor of Water Science at the School of Geography and the Environment and Director of the NERC in Control and Systems Theory (Manchester). Prior to joining the School of Geography and the Environment in 2008, Paul worked at the University of Reading as Professor and Director of the Aquatic Environments Research Centre. His research interests have focused on dynamic behaviour of river, lakes, wetlands and catchments and the interactions between hydrology, water quality and ecology. He has developed the suite of dynamic models which have been applied widely across the world in many countries and in all continents. His research has been funded by the UK Government ( , the EU in 5 framework research programmes from 1982 to the present, Water companies and other industrial partners. He also contributes to the Professor Whitehead has served on several senior NERC committees such as the Thematic Programme Planning committees for the River Ecology Programme (NERC £8 million), Pollution Pathways Programme (NERC £8million), Land Use Research Programme (NERC £12 million), Joint NERC/ Programme (£36 million) and Environmental Diagnostics (NERC £6million). He has also been an environmental research advisor to the EU, European Governments and . He has also worked in Nepal, Thailand, India, China, Taiwan, Brazil, Australia and the USA. He has published widely with over 90 papers in the refereed literature as well as being guest speaker at a wide range of conferences and meetings. Paul's research is focused on the interplay between environmental management of major problems such as climate change and pollution control and the development and application of new mathematical techniques for modelling environmental systems in the past, the present and into the future. Predicting the behaviour of water quality and ecosystems in rivers, lakes and wetlands is a crucial element of modern environmental management. Water resources and ecosystem health are key issues for EU and Government Policy especially to address Directives such as the Water Framework Directive and to assess the potential impacts of climate change. Paul is currently on the executive committee of the which is Europe's largest research project addressing the impacts of climate change on river, lake and wetland systems across Europe. As part of the project Paul has been developing a new range of models for modelling river catchments to simulate the behaviour of water flow and quality, as well as the behaviour of ecological parameters such as biomass of macrophytes, epiphytes and phytoplankton in streams. These models have been applied widely across Europe and provide a powerful set of tools for evaluating processes controlling water quality and ecosystems behaviour. Providing a potable source of water for peoples across the world is a crucial goal for sustainable development. Without a sound supply of high quality water peoples lives are blighted and most means of expanding economic and personal well being are severely limited. Paul's research aims to utilise his knowledge and expertise to work towards sustainable management in many countries around the world. Past projects have included studies in Jordon, Nepal, China and Brazil to assess man-made and natural pollution and to determine the best means to minimise problems and maximise the availability of water to communities. There are significant lessons to learn from the past and the application of modern hydrological and modeling techniques to evaluate past civilisations is a fascinating area of research. Paul has been involved in a key Leverhulme Project on and this has recently involved studies in Jordan to assess the hydrology and populations levels of the ancient city of Jawa and a study of the Dead Sea to evaluate past, present and potential future water levels. Jackson-Blake, L.A., Wade, A.J., Futter, M.N., Butterfield, D., Couture, R.M., Cox, B.A., Crossman, J., Ekholm, P., Halliday, S.J., Jin, L., Lawrence, D.S.L., Lepistö, A., Lin, Y., Rankinen, K. and Whitehead, P.G. (2016) Fate and transport of polychlorinated biphenyls (PCBs) in the River Thames catchment – insights from a coupled multimedia fate and hydrobiogeochemical transport model Sharma, B.M., Bharat, G.K., Tayal, S., Larssen, T., Becanová, J., Karásková, P., Whitehead, P.G., Futter, M.N., Butterfield, D. and Nizzetto, L. (2016) An INCA model for pathogens in rivers and catchments: Model structure, sensitivity analysis and application to the River Thames catchment, UK Whitehead, P.G., Barbour, E., Futter, M.N., Sarkar, S., Rodda, H., Caesar, J., Butterfield, D., Jin, L., Sinha, R., Salehin, M., Leckie, H., and Nicholls, R.J. (2015) Impacts of climate change and socio-economic scenarios on flow and water quality of the Ganga, Brahmaputra and Meghna river system: low flow and flood statistics Whitehead, P.G., Sarkar, S., Jin, L., Futter, M.N., Caesar, J., Barbour, E., Butterfield, D., Sinha, R., Nicholls, R., Hutton, C. and Leckie, H.D. (2015) Dynamic modeling of the Ganga river system: impacts of future climate and socio-economic change on flows and nitrogen fluxes in India and Bangladesh Williams, R., Neal, C., Jarvie, H., Johnson, A., Whitehead, P., Bowes, M. and Jenkins, A. (2015) Water Quality. 8. in, Rodda, J.C. and Robinson, M. (eds.) An interdisciplinary modelling approach assessing the cost-effectiveness of agri-environmental measures on reducing nutrient concentration to WFD thresholds under climate change: the case of the Louros catchment Whitehead, P.G., Jin, L., Crossman, S., Comber, S., Johnes, P.J., Daldorph, P., Flynn, N., Collins, A.L., Butterfield, D., Mistry, R., Bardon, R., Pope, L. and Willows, R. (2014) Distributed and dynamic modelling of hydrology, phosphorus and ecology in the Hampshire Avon and Blashford Lakes: Evaluating alternative strategies to meet WFD standards Baulch, H.M., Futter, M.N., Jin, L., Whitehead, P.G., Woods, D.T., Dillon, P.J., Butterfield, D.A., Oni, S.K., Aspden, L.P., O’Connor, E.M. and Crossman, J. (2013) The significance of shifts in precipitation patterns: modelling the impacts of climate change and glacier retreat on extreme flood events in Denali National Park, Alaska The interactive responses of water quality and hydrology to changes in multiple stressors and implications for the long-term effective management of phosphorus Jin, L., Whitehead, P.G., Baulch, H.M., Dillon, P.J., Butterfield, D.A., Oni, S.K., Futter, M.N., Crossman, J. and O’Connor, E.M. (2013) Whitehead, P.G., Crossman, J., Balana, B.B., Futter, M.N., Comber, S., Jin, L., Skuras, D., Wade, A.J., Bowes, M.J. and Read, D.S. (2013) Research article: A cost-effectiveness analysis of water security and water quality: impacts of climate and land-use change on the River Thames system Modelling nitrogen in the Yeşilirmak River catchment in Northern Turkey: impacts of future climate and environmental change and implications for nutrient management Whitehead, P.G., Butterfield, D., Black, E. and Plinston, D. (2011) Modelling Dead Sea levels and rainfall: past, present and future. In, Mithen, S. and Black, E. (eds.) Whitehead, P.G., Jin, L., Baulch, H.M., Butterfield, D., Oni, S.K., Dillon, P.J., Futter, M., Wade, A.J., North, R., O'Connor, E.M. and Jarvie, H.P. (2011) Whitehead, P.G., Smith, S. and Wade, A. (2011) Modelling water resources and climate change at the Bronze Age site of Jawa in northern Jordan: a new approach utilising stochastic simulation techniques. Chapter 18 in, Mithen, S. and E. Black (eds.) Wood, E.F., Roundy, J.K., Troy, T.J., van Beek, R., Bierkens, M., Blyth, E., de Roo, A., Döll, P., Ek, M., Famiglietti, J., Gochis, D., van de Giesen, N., Houser, P., Jaffé, P.R., Kollet, S., Lehner, B., Lettenmaier, D.P., Peters-Lidard, C., Sivapalan, M., Sheffield, J., Wade, A. and Whitehead, P.G. (2011) Jin, L. and Whitehead, P.G. (2010) Modeling flow and nitrogen dynamics in the River Thames: implication of future climate induced water vulnerability in southeast England. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Lázár, A.N., Butterfield, D., Futter, M.N., Rankinen, K., Thouvenot-Korppoo, M., Jarritt, N., Lawrence, D.S.L., Wade, A.J. and Whitehead, P.G. (2010) Lázár, A.N., Wade, A.J., Whitehead, P.G. and Heppell, C.M. (2010) Modelling fixed plant and algal dynamics in rivers - an application to the River Frome. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Whitehead, P.G., Lázár, A.N., Futter, M., Pope, L., Wade, A.J., Willows, R. and Burgess, C. (2010) Modelling sediment supply and transport in the River Lugg: strategies for controlling sediment loads. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Whitehead. P.G. and Edmunds, W.M. (2010) Palaeo-hydrology and hydrogeology of the Upper Kennet at Silbury Hill in 4200 BP. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle.. 20-28. Wilby, R.L., Orr, H., Watts, G., Battarbee, R.W., Berry, P.M., Chadd, R., Dugdale, S.J., Dunbar, M.J., Elliott, J.A., Extence, C., Hannah, D.M., Holmes, N., Johnson, A.C., Knights, B., Milner, N.J., Ormerod, S.J., Solomon, D., Timlett, R., Whitehead P.G. and Wood, P.J. (2010) Modelling impacts of pollution in river systems: a new dispersion model and a case study of mine discharges in the Abrud, Aries and Mures River System in Transylvania, Romania Modelling stream and soil water nitrate dynamics during experimentally increased nitrogen deposition in a coniferous forest catchment at Gardsjon, Sweden Simulating metals and mine discharges in river basins using a new integrated catchment model for metals: pollution impacts and restoration strategies in the Aries-Mures river system in Transylvania, Romania Modelling of hydrology and potential population levels at Bronze Age Jawa, Northern Jordan: a Monte Carlo approach to cope with uncertainty Whitehead, P.G., Jin, L., Crossman, J., Comber, S., Johnes, P.J., Daldorph, P., Flynn, N., Collins, A.L., Butterfield, D., Mistry, R., Bardon, R., Pope, L., and Willows, R. (2014) Distributed and dynamic modelling of hydrology, phosphorus and ecology in the Hampshire Avon and Blashford Lakes: Evaluating alternative strategies to meet WFD standards Baulch, H.M., Futter, M.N., Jin, L., Whitehead, P.G., Woods, D.T., Dillon, P.J., Butterfield, D., Oni, S.K., Aspden, L.P., O'Connor, E.M. and Crossman, J. (2013) The significance of shifts in precipitation patterns: modelling the impacts of climate change and glacier retreat on extreme flood events in Denali National Park, Alaska The interactive responses of water quality and hydrology to changes in multiple stressors, and implications for the long-term effective management of phosphorus Jin, L., Whitehead, P.G., Baulch, H.M., Dillon, P.J., Butterfield, D., Oni, S.K., Futter, M.N., Crossman, J. and O'Connor, E.M. (2013) Whitehead, P.G., Crossman, J., Balana, B.B., Futter, M.N., Comber, S., Jin, L., Skuras, D., Wade, A.J., Bowes, M.J. and Read, D.S. (2013) A cost-effectiveness analysis of water security and water quality: impacts of climate and land-use change on the River Thames system , 434: 13-17. In, Special Issue: Climate change and macronutrient cycling along the atmospheric, terrestrial, freshwater and estuarine continuum, edited by Jarvie, Jickells, Skeffington and Withers. Modelling nitrogen in the Yeşilirmak River catchment in Northern Turkey: Impacts of future climate and environmental change and implications for nutrient management Whitehead, P.G., Butterfield, D., Black, E. and Plinston D. (2011) Modelling Dead Sea levels and rainfall: past, present and future. In, Mithen, S. and Black, E. (eds.) Whitehead, P.G., Jin, L., Baulch, H.M., Butterfield, D., Oni, S.K., Dillon, P.J., Futter, M., Wade, A.J., North, R., O'Connor, E.M. and Jarvie, H.P. (2011) Whitehead, P.G., Smith, S. and Wade, A. (2011) Modelling water resources and climate change at the Bronze Age site of Jawa in northern Jordan: a new approach utilising stochastic simulation techniques. Chapter 18 in, Mithen, S. and E. Black (eds.) Wood, E.F., Roundy, J.K., Troy, T.J., van Beek, R., Bierkens, M., Blyth, E., de Roo, A., Döll, P., Ek, M., Famiglietti, J., Gochis, D., van de Giesen, N., Houser, P., Jaffé, P.R., Kollet, S., Lehner, B., Lettenmaier, D.P., Peters-Lidard, C., Sivapalan, M., Sheffield, J., Wade, A. and Whitehead, P.G. (2011) Jin, L. and Whitehead, P.G. (2010) Modeling flow and nitrogen dynamics in the River Thames: implication of future climate induced water vulnerability in southeast England. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Lázár, A.N., Butterfield, D., Futter, M.N., Rankinen, K., Thouvenot-Korppoo, M., Jarritt, N., Lawrence, D.S.L., Wade, A.J. and Whitehead P.G. (2010) Lázár, A.N., Wade, A.J., Whitehead, P.G. and Heppell, C.M. (2010) Modelling fixed plant and algal dynamics in rivers - an application to the River Frome. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Whitehead P.G., and Edmunds M. (2010) Palaeo-hydrology and hydrogeology of the Upper Kennet at Silbury Hill in 4200 BP. British Hydrological Society Third International Symposium: Role of Hydrology in Managing Consequences of a Changing Global Environment, 19-23 July 2010, Newcastle University, Newcastle upon Tyne, United Kingdom, pp. 20-28. Whitehead, P.G., Lázár, A.N., Futter, M., Pope, L., Wade, A.J., Willows, R. and Burgess, C. (2010) Modelling sediment supply and transport in the River Lugg: strategies for controlling sediment loads. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Wilby, R.L., Orr, H.G, Watts, G., Battarbee, R.W., Berry, P.M., Chadd, R., Dugdale, S.J, Dunbar, M.J., Elliott, J.A., Extence, C., Hannah, D.M., Holmes, N., Johnson, A.C., Knights, B., Milner, N.J., Ormerod, S.J., Solomon, D., Timlett, R., Whitehead, P.G. and Wood, P.J. (2010) Simulating metals and mine discharges in river basins using a new integrated catchment model for metals: Pollution impacts and restoration strategies in the Aries-Mures river system in Transylvania, Romania Modelling impacts of pollution in river systems: a new dispersion model and a case study of mine discharges in the Abrud, Aries and Mures River System in Transylvania, Romania Modelling stream and soil water nitrate dynamics during experimentally increased nitrogen deposition in a coniferous forest catchment at Gardsjon, Sweden Modelling of hydrology and potential population levels at Bronze Age Jawa, Northern Jordan: a Monte Carlo approach to cope with uncertainty Modelling of hydrology and potential population levels at Bronze Age Jawa, Northern Jordan: a Monte Carlo approach to cope with uncertainty Evaluating the Risk of Non-point Source Pollution from Sewage Sludge: Integrated Modelling of Nutrient Losses at Field and Catchment Scales Modelling Nitrogen Fluxes from the land surface to the coastal zone in European systems: the perspective of the INCA project Impacts of forestry on Nitrogen in upland and lowland catchments: a comparison of the River Severn at Plynlimon in Mid Wales and the Bedford Ouse in South-East England using the INCA model Water quality functioning of lowland permeable catchments: inferences from an intensive study of the River Kennet and upper River Thames Excess nitrogen leaching and C/N decline in the Tillingbourne catchment, southern England: INCA process modelling for current and historic time series A semi-distributed Integrated Nitrogen Model for Multiple source assessment in Catchments (INCA): Part I - Model Structure and Process Equations A Semi-distributed Integrated Nitrogen Model for Multiple source assessment in Catchments (INCA): Part II Application to large River Basins in South Wales and Eastern England</t>
+  </si>
+  <si>
+    <t>He has degrees from the University of Natal and University of Oxford and has taught previously at the University of Natal, University of Stellenbosch and the University of Cape Town where he spent five years as a lecturer. His doctorate was on Africa-wide rainfall variability and change, which was undertaken jointly between the University of Oxford under Professor Alayne Street-Perrott and Professor Chris Folland's group at the Hadley Centre of the UK Meteorological Office. During this time he was a lecturer at Christ Church, Oxford. He took up a Departmental Lectureship at Oxford in 1995, a University Lectureship position and Fellowship at Keble College in 1999, a Readership in 2006 and was made Professor of Climate Science in 2010. Richard's research is concerned with the African climate systems, including climate change, the mechanisms leading to floods and drought and the way these characteristics of climate are represented in climate models. He has also worked extensively on aerosols, particularly so on dust storms in the central Sahara and in southern Africa. He has run major observational campaigns involving both ground observations and instrumented aircraft in North and southern Africa. He is primarily funded by the Natural Environment Research Council (NERC). Richard was Co-Chair World Climate Research Program African Climate Variability Panel (CLIVAR-VACS) 2006-2010 and served as a panel member of from 2003-2006. Richard leads the development of the CLIVAR Africa Climate Atlas. He has served as the World Climate Research Program representative to the International Council for Science southern Africa as well as membership of several external steering committees including AFRICANNESS (African Earth System Science) and the Stockholm Environment Institute-Oxford. He was one of 12 members of the NERC Climate Science Strategy Panel for the 2007-2012 NERC Science Strategy. He has taught on several World Climate Program "Climate Information and Prediction Services (CLIPS)" Workshops, including Nairobi, Niamey, Dar Es Salaam, Qatar and Tunis. He has served on the panel of judges for the Best Research Paper (SA Society for Atmospheric Scientists) from 2003-2009 and on the management board of several large climate programmes, including AMMAII, and the Climate Science Research Partnership between the Met Office and DFID. He has been an IPCC author in numerous assessment reports including Working Group 1 (Observations of climate change) and Working Group II (Africa). and is Director of the Radcliffe Meteorology Station, the longest known continuous daily meteorological record with daily observations in Oxford since 1815. , and the Co-Investigator of BoDEx (Bodele Dust Experiment). He is currently the Oxford Principal Investigator on the Future Climate for Africa UMFULA (Uncertainty Reduction in Models for Understanding Development Applications) and IMPALA (Improving Model Processes for African Climate) projects. FCFA is a c£20m programme. Richard is also a Co-Investigator of the CLARIFY (Clouds and Aerosol Radiative Impacts and Forcing Year 2016) project and the water security project 'Reach'. There are two primary themes to this research, all of which has an African focus, namely African climate change and dust storms. Dust impacts the climate system through its interaction with radiation, clouds, weather systems and nutrient cycling. Quantifying these interactions is an ongoing concern of dust research generally. The main projects around which Richard's work has been based are BoDEx, Fennec, DO4Models and CLARIFY-2016. A key concern of Richard's research is diagnosing the controls on mineral aerosol (dust) emission and transport from the key global sources. A feature of these programmes is major field observational campaigns to remote areas where the dust sources are located. This work has included field experiments in the world's largest source of mineral aerosols, the Bodélé Depression Chad . He was one of the co-authors to be awarded the Environmental Research Letters Outstanding Article Award in 2007 for a paper on Bodélé dust and the Amazon basin. An important outcome of BoDEx included the identification of the Bodélé Low Level Jet, a strong wind which is crucial to the emission of dust from the basin (see Washington and Todd, 2005, Geophysical Research Letters and Washington et al 2006; Journal of Geophysical Research). More recently the work on dust has been built around the Fennec and DO4Models programmes which Richard leads. Fennec is the first major programme to recover meteorological observations from the data void of the central Sahara. Over the years 2011 and 2012 Fennec led to the deployment of about 30 tons of ground-based instruments and equipment in the central Sahara, including a large collection of observations on the border of Mali and Algeria at Bordj Badi Mokhtar and at Zouerat in Mauritania. The project also involved &gt;200 hours of flying, many at low level, over the central Sahara in the NERC/Met Office instrumented Bae-146 aircraft. Together the ground-based instruments and aircraft flights provided the first insights into the dynamics of dust, low level jets, cold-pool outflows from deep thunderstorms and the Saharan heat low. The weather and climate of the Sahara, in turn, forms a vital part of the West African Monsoon. The Fennec programme is summarised in this short film on The DO4Models project which has been based on Sua Pan in Botswana, the dry river valleys and Etosha Pan in Namibia covering the period 2011-2015. The main aim of DO4Models was to gain observations of dust in the field in dust source areas with which to confront climate models which generally have poor specification of point source dust emission. The CLARIFY project will take the work in Namibia forward over the next few years. Through the recently funded projects IMPALA, UMFULA and Reach, Richard also has a research focus on African climate change, in particular evaluating how mechanisms of rainfall are represented in global and regional climate models and how these mechanisms work in the real world. This interest has extended to the preparation of climate variability and change assessments and future scenarios of African and tropical climate for a variety of government agencies and NGOs. He is the external examiner for the Climate Change MSc at the University of East Anglia and the undergraduate physical geography course and UCD, Ireland. He lectures on 'Observed Climate Change, Climate Models and Climate Change Detection, Attribution and Prediction' as part of the 'Earth Systems Dynamics' second year course. He convenes the Climate Change and Variability optional course which covers the General Circulation, Modes of Climate Variability, Seasonal Prediction, aerosols, African climate and Climate Models. Professor Washington teaches on two MSc programmes - MSc in Water Science, Policy and Management and MSc in Environmental Change and Management. He teaches the tropical climate system as part of the NERC Doctoral Training Programme in Oxford.</t>
+  </si>
+  <si>
+    <t>Heather Viles is a geographer with major interests in geomorphology and heritage science. Much of her research focuses on the application of science to heritage conservation. She is currently Professor of Biogeomorphology and Heritage Conservation, Head of the School of Geography and the Environment, Co-Director of the EPSRC Centre for Doctoral Training in Science and Engineering in Art, Heritage and Archaeology, and Honorary Professor at University College London. She obtained an MA in Geography from the University of Cambridge, and a DPhil from the University of Oxford. Her D.Phil. thesis focused on the role of microorganisms in weathering limestone and was based on fieldwork on Aldabra Atoll in the Seychelles. After completing her D.Phil. she undertook post-doctoral research on the contribution of acid rain to the deterioration of English cathedrals. Heather was awarded the 2015 Ralph Alger Bagnold Medal from the European Geosciences Union for her role in establishing the field of biogeomorphology. from 2012 to 2014, and is currently a member of the Executive Committee of the International Association of Geomorphologists. From 2008 to 2011, she was Vice-President (Expeditions and Fieldwork) of the Royal Geographical Society with IBG. She was on the advisory panel of the £6.5 million AHRC/EPSRC steering group co-ordinated by English Heritage and charged with developing a UK-wide Heritage Science Strategy which will shape UK-wide policy over the next 25 years. Heather also represents the University of Oxford as a trustee of the Over the years, Heather has carried out field-based research in NW Australia, South Africa, Namibia, Washington State, the Atacama Desert in Chile, South Germany, the Sahara Desert in Libya, NW China as well as many places within the UK. Examples of areas where geomorphology can contribute to the understanding and conservation of cultural and natural heritage. a) Rock art on sandstone in Libya, and b) Sandstone peak forest, Zhangjiajie, China. Setting up a 2D resistivity transect to measure moisture levels in sandstone, Golden Gate Highlands National Park, South Africa (left), and monitoring water permeate into sandstone in Belfast using a Karsten tube (above). Prof. Viles' research is highly interdisciplinary and involves studies at the interface of geomorphology with ecology, engineering geology, environmental chemistry and materials conservation. In recent years she has focussed on three specific themes in her research, namely: She maintains a strong interest in developing and applying novel techniques and ideas to the study of these themes, including 2D resistivity surveys using Geotom equipment, and the Equotip hardness tester. Heather also has a strong interest in the practical applications of 'green' methods of conserving cultural heritage (using plants, animals and microorganism communities) and linking this to biodiversity conservation. In recent years her research has been funded by EPSRC, AHRC, the Leverhulme Trust, University of Oxford Fell Fund, Historic England, the Royal Society and NASA. In collaboration with Chris Wood (Historic England), Alan Cathersides (Historic England) and Colin Burns (Consultant). Funded by Historic England (2004-2016). Integrated surface hardness and ultrasonic pulse velocity testing for the non-destructive diagnosis of deterioration problems on sandstone and limestone cultural heritage In collaboration with Dr Dan Hicks (University of Bristol) and Dr David Harvey (University of Exeter). Funded by EPSRC (2006-2007) In collaboration with Prof. Bernie Smith (Queen's University Belfast) and Prof. Ken Grattan (City University London). Funded by EPSRC (2006-2009) Prof. Viles was Director of Undergraduate Studies from 2008-2011, during which time the department completely revised its undergraduate course. She contributes to the 'Geomorphology' lecture course of the 'Earth System Processes' core course for Prelims, as well as to the Geographical Research course in the Final Honour School. She also convenes the 'Heritage Science and Conservation' Option and teaches on the 'Desert Landscapes and Dynamics' option. The role of soil as a method for conserving cultural stone ruins: effects of physical and chemical characteristics on stone weathering Sandstone weathering, electrical resistivity tomography, and the deterioration of San rock art in the Golden Gate Highlands National Park, South Africa Developing quantitative techniques for evaluating rock breakdown morphology: a case study of basalt boulders in the channelled scablands, Washington, USA Dynamics of the transport, distribution and crystallisation of soluble salts in sandstone: implications for conservation of historic buildings. (Registered in RLAHA, Oxford) Low impact surface hardness testing (equotip) on porous surfaces – advances in methodology with implications for rock weathering and stone deterioration research The influence of salt on handheld electrical moisture meters: Can they be used to detect salt problems in porous stone? Surface hardness as a proxy for weathering behaviour of limestone heritage: a case study on dated headstones on the Isle of Portland, UK The influence of the type of lime on the hygric behavior and bio-receptivity of hemp lime composites used for rendering applications in sustainable new construction and repair works A chemical, morphological and mineralogical study on the interaction between hemp hurds and aerial and natural hydraulic lime particles: Implications for mortar manufacturing Can plants keep ruins dry? A quantitative assessment of the effect of soft capping on rainwater flows over ruined walls Smith, B.J., Srinivasan, S., McCabe, S., McAllister, D., Cutler, N.A., Basheer, P.A.M. and Viles, H.A. (2011) Climate change and the investigation of complex moisture regimes in heritage stone: preliminary observations on possible strategies. Geoelectric investigations into sandstone moisture regimes: Implications for rock weathering and the deterioration of San Rock Art in the Golden Gate Reserve, South Africa A commentary on climate change, stone decay dynamics and the 'greening' of natural stone buildings: new perspectives on 'deep wetting' Evaluating the role of ivy (Hedera helix) in moderating wall surface microclimates and contributing to the bioprotection of historic buildings Late Quaternary palaeohydrological changes in the northern Namib Sand Sea: New chronologies using OSL dating of interdigitated aeolian and water-lain interdune deposits The use of the Schmidt Hammer and Equotip for rock hardness assessment in geomorphology and heritage science: a comparative analysis Quantitive morphologic analysis of boulder shape and surface texture to infer environmental history: A case study of rock breakdown at the Ephrata Fan, Channeled Scabland, Washington Changing patterns of soiling and microbial growth on building stone in Oxford, England after implementation of a major traffic scheme What processes have shaped basalt boulders on Earth and Mars? Studies of feature persistence using facet mapping and fractal analysis on stone decay and the relationship found between NO2 concentration and stone soiling rate in a case study in Oxford. Experimental investigations into the interactions between moisture, rock surface temperatures and an epilithic lichen cover in the bioprotection of limestone Channel flow cell studies on the evaluation of surface pretreatments using phosphoric acid or polymaleic acid for calcite stone protection Surface change and decay of sandstone samples exposed to a polluted urban atmosphere over a six-year period: Belfast, Northern Ireland A new technique to evaluate and quantify modified solution kinetics of calcareous materials after sulfuric acid pre-treatment and urban exposure Trudgill, S.T., Viles, H.A., Inkpen, R.J., Moses, C.A., Gosling, W., Yates, T., Collier, P., Smith, D.I. and Cooke, R.Y. (2001) The effect of surface pre-treatment with polymaleic acid, phosphoric acid or oxalic acid on the dissolution kinetics of calcium carbonate in aqueous acid Channel flow cell studies of the inhibiting action of gypsum on the dissolution kinetics of calcite: A laboratory approach with implications for field monitoring Mol, L. and Viles, H. (2012) Conserving History in Changing Arid Environments: a Geomorphological Approach. 11. in, Mol, L. and Sternberg, T. (eds.) Viles, H.A. (2011) Physical geography in a changing world: helping to integrate conservation of cultural heritage, geodiversity and biodiversity. In, Fassmann, H. and Glade, T. (eds.) Sass, O. and Viles, H.A. (2010) Two-dimensional resistivity surveys of the moisture contents of historic limestone walls in Oxford, UK: implications for understanding catastrophic stone deterioration. In, Smith, B.J., Gomez-Heras, M. and Viles, H.A. (2010) Underlying issues on the selection, use and conservation of building limestone. In, Goudie, A.S and Viles, H.A. (2008) Weathering processes and forms. Chapter 5 in, Burt, T.P., Chorley, R.J., Brunsden, D., Cox, N.J. and Goudie, A.S. (eds.) The History of the Study of Landforms or the Development of Geomorphology, Vol. 4: Quaternary and Recent Processes and Forms (1890-1965) and the Mid-Century Revolutions Thornbush. M.J. and Viles, H.A. (2007) Photo-based decay mapping of replaced stone blocks on the boundary wall of Worcester College, Oxford. In, Prikryl, R. and Smith, B.J. (eds.) Viles, H.A. and Wood, C. (2007) Green walls? Integrated laboratory and field testing fo the effectiveness of soft wall capping in conserving ruins. In, Prikryl, R. and Smith, B.J. (eds.) Smith, B.J. and Viles, H.A. (2006) Rapid, catastrophic decay of building limestones: Thoughts on causes, effects and consequences. In, Fort, R. et al (ed.) Thornbush, M.J. and Viles, H.A. (2005) Use of portable X-ray fluorescence for monitoring elemental concentrations in surface units on roadside stone at Worcester College, Oxford. In, Fort, R. et al (ed.) Mottershead, D.N. and Viles, H.A. (2004) Experimental studies of rock weathering by plant roots: Updating the work of Julius Sachs (1832-1897). In, Mitchell, D.J. and Searle, D.E. (eds.) Thornbush, M.J. and Viles, H.A. (2004) Surface soiling patterns detected by integrated digital photography and image processing on exposed limestone in Oxford, England. In, Saiz-Jimenez, C. (ed.) Viles, H.A. (2003) 'The writing's on the walls': On style, substance and selling physical geography. Chapter 12 in, Trudgill, S.T. and Roy, A. (eds.) Viles, H.A. (2002) Implications of future climate change for stone deterioration. In, Siegesmund, S., Vollbrecht, S.A. and Weiss, T. (eds.) Cabello-Briones, C. and Viles, H.A. Hughes, J. and Howind, T. (eds.) (2016) Is the Shelter at Hagar Qim in Malta Effective at Protecting the Limestone Remains?Hughes, J. and Howind, T. (eds.) Carmona-Quiroga, P.M., Kang, S. and Viles, H.A. Hughes, J. and Howind, T. (eds.) (2016) Assessment of the Cleaning Efficiency of a Self-cleaning Coating on Two Stones Under Natural Ageing.Hughes, J. and Howind, T. (eds.) Orr, S., Viles, H.A., Leslie, A.B. and Stelfox, D. Hughes, J. and Howind, T. (eds.) (2016) Comparability of non-destructive moisture measurement techniques on masonry during simulated wetting.Hughes, J. and Howind, T. (eds.) Zaman, N. and Viles, H.A. Hughes, J. and Howind, T. (eds.) (2016) The Effect of Reburial on Stone Deterioration: Experimental Case Study, Oxford, England.Hughes, J. and Howind, T. (eds.) Heslop, E.E.M., Viles, H.A. and Bourke, M.C. (2004) Understanding rock breakdown on Earth and Mars: Geomorphological concepts and facet mapping methods.</t>
+  </si>
+  <si>
+    <t>David Thomas is a geomorphologist and physical geographer specialising in contemporary drylands and the Quaternary Period. Much of his research has been carried out in Africa, but he also conducts research in Arabia, Asia, India, North America and other dryland contexts. His research has often been multi- and interdisciplinary. On the one hand he has led interdisciplinary projects on desertification, land degradation, sustainable land use and climate change impacts; on the other he works on projects focussed on geomorphological processes, Late Quaternary environmental change, climate change science and environmental-climate interactions, with archaeologists, biologists, climate scientists and other physical geographers. He has authored or edited 10 books, including (1991) and over 200 peer-reviewed journal papers and contributions to edited volumes including IPCC assessment reports. In 2011 David was awarded the Geological Society of America Farouk El-Baz Award, for a body of work that has significantly enhanced desert science. In 2004 David Thomas was elected Professor of Geography at Oxford, holding the original statutory chair previously occupied by Andrew Goudie, Jean Gottmann, E.W.Gilbert and Kenneth Mason. He is also Professorial Fellow at Hertford College, and was Head of the School of Geography and Environment from 2007- 2011. Prior to returning to Oxford, where he was a student from 1977-84 for undergraduate, Cert. Ed. and D.Phil degrees, David was at Sheffield University, rising from lecturer to Professor in the Department of Geography between 1984 and 1994, founding the Sheffield Centre for International Drylands research in 1994 (Director until 2004) and serving as Head of Department form 1997-2000. In 2006 he was appointed Honorary Professor at the University of Cape Town and in 2013 at the University of the Witwatersrand, both in South Africa. In recent years he has been Vice-President of the Royal Geographical Society (for Research and Higher Education, 2013-16, and Fieldwork and Expeditions, 2002-5). In 2002-2005 he was chair of the British Geomorphological Research Group; when the group was re-established as the British Society for Geomorphology he was elected as one of the founding Fellows, in 2014. From 2014-16 he chaired the RGS International Benchmark Review of UK Physical Geography, and in 2013-14 chaired the Quality Assurance Agency (QAA) which increased the expectation for quantitative analysis and fieldwork in geography degree courses. He was a member of the REF2008 and RAE2014 Geography subpanels and has been a member of similar discipline and university sector reviews overseas. From 2011-14 he was a member of the UK Government Office for Science, Foresight Programme Lead Expert Group, 'Environmental drivers of migration' ( Despite undertaking many internal university and external administrative and executive roles, as well as leading major research projects, David Thomas maintains a significant teaching and doctoral supervision profile and is a member of the management committee of Oxford's NERC-DTP. To date he has supervised over 35 doctoral students to completion, including many now in their own, often senior, academic posts. These include Professors Andy Dougill (Dean of the Faculty of Environment, Leeds University), David Nash (Brighton), Joanna Bullard (Loughborough) and Lindsay Stringer (Leeds), and Drs Jeremy Perkins (Botswana), Chasca Twyman (Sheffield), Andy Carr (Leicester), Brain Chase (CNRS Montpellier), Matt Telfer (Plymouth), Tom Stevens (Uppsala), Alex Arnell (Reading), Susannah Sallu (Leeds), Sallie Burrough (Oxford) and Abi Stone (Manchester). David Thomas has been PI or Co-I on research grants funded by RCUK (NERC and ESRC), The Leverhulme Trust, Fell and Boise Funds totalling almost £9million in value. Most projects employ rigorous fieldwork to generate empirical datasets from environmental contexts that are data-poor. , These data are then analysed with appropriate laboratory (including geochronology) methods; results are often then used in modelling contexts. Many field seasons have been spent working on Quaternary environmental change and aeolian process questions in and around the margins of deserts in Africa and other continents, with over 35 years spent working in the interior of southern Africa, especially in and around the extensive Kalahari region. It is difficult to establish how the world's extensive deserts and drylands have responded to past global climate changes, data that will inform us about potential responses to future climate changes. Many of the traditional Quaternary terrestrial proxy data sources available in other environments, especially those with biological origins, are not available in these dry systems, so we have extensively used geoproxy data (Thomas, 2013; Thomas and Burrough , 2012), from aeolian (dune) and lacustrine (lake shoreline) sediment sources, producing luminescence age records of sedimentary accumulation histories over timescales of up to 250ka. Long standing work in the Kalahari region (parts of Botswana, Namibia, South Africa, Zambia, Zimbabwe) (e.g. Stone and Thomas, 2008, Burrough and Thomas ,2008) has been followed by similar approaches in the Arabia deserts (Leighton In the United Arab Emirates mega dune ridges represent a record of aeolian accumulation that is a result of significant environmental changes in the Late Quaternary. Quarrying of sand for construction presents a unique opportunity to analyse dune interior structures, and to sample for OSL dating in order to develop a record of landscape development in response to climate change. ., 2005) and we are now exploring new modelling approaches to better interpret the timing and drivers of past desert dune accumulation (Bailey and Thomas, 2013). New approaches are also being tested for extracting geochemical records of long term climate and environmental change from the extensive dry lake systems of the Kalahari, since this desert has not only had geographically extensive active dune systems in the past, but has also supported megalakes up to 60,000ka2 in size. (Burrough, Thomas &amp; Bailey, 2009). Sedimentological and geochronometric work in southern Africa is also being extended to Quaternary fluvial valley deposits in Namibia, which offer the potential to understand the nature and timing of fluvial dynamics within the world's driest desert region. We are also exploring ways to use luminescence dating to analyse dryland land surface responses to drought, working in Nebraska, as well as projects looking at improving knowledge on the origins and deposition timing of European loess. Deserts are full of evidence of the presence of early humans and even early civilisations. Environmental and climatic ('hydroclimate') dynamics in the past have made areas that appear inhabitable and inhospitable today more attractive for opportunistic and persistent human presence in the past. This theme is currently being investigated through collaborative research with archaeologists and palaeoscientists in two differing contexts: the landscape archaeology of the Kalahari of Botswana and the ancient Indus civilisation of the Thar Desert, while other research has occurred in the context of 'green Arabia' in the United Arab Emirates (Preston, Thomas David Thomas is currently Principal Investigator on the Leverhulme Trust-funded project 'Landscape archaeology of the Kalahari: How did major hydrological shifts affect Stone Age mobility and landscape use in the late Quaternary?'. The core aim is to provide the first systematic analysis of the neglected Stone Age archaeology of the Middle Kalahari, central southern Africa, and its raw material source areas, in relation to the region's hydrological history. We are innovatively combining geochemical, field archaeological and palaeoenvironmental methods to provide the first analysis of Stone Age responses to the major hydrological changes that the Kalahari has experienced over the last ~100ka. Lithics in the desert: there is substantial evidence of early human presence even in today's hyper-arid regions. This artefact is in the Namib Sand Sea. 2007. Lithics in the desert: a find in the Kalahari in 2011 during fieldwork that led to the current project funded by the Leverhulme Trust. In the Thar Desert we are working with archaeologists to provide data on the nature and timing of the landscape dynamics associated with mid-Holocene Indus population changes, as part of wider assessments of both the regions complex history of monsoon dynamics and the postulated collapse of urban civilisations around 4000ka ago (Durcan and Thomas David Thomas was a Co-I on the NERC-funded DO4Models project that investigated drivers of terrestrial desert dust sources into the atmosphere, as part of a wider initiative to improve the incorporation of mineral dust components in global climate models. Engaged with the extensive field monitoring and data collection component of the project in the Makgadikgadi basin, Botswana and the dry valleys of western Namibia, the project has led to additional developments that are investigating the critical role of mineral desert dust in ocean fertilisation (Dansie , Thomas David has along track record of research into modern land degradation in drylands and its interactions with human activities (e.g. Stringer, Twyman and Thomas, 2007) and climate dynamics (Thomas, 2008), including recent work in Africa (King and Thomas, 2014) and Mongolia (e.g. Sternberg, Thomas and Middleton 2010), and that which might related environmental changes to human movements (Arnall, Thomas From 2002-5 he was the principal investigator on a major research project funded by the Tyndall Centre for Climate Change Research. The project investigated how natural resource-dependant societies in the developing world, particularly southern Africa, respond and and shocks such as drought and floods, and how these responses may better inform an understanding of likely 21st century responses to global warming-induced climate change (Thomas ., 2009). This was a truly interdisciplinary project that brought together social and environmental scientists including climate and vegetation modellers. Key outcomes included work on learning processes in adaptation, changing use of ecosystem resources, and equity and justice issues (Thomas and Twyman, 2005). A Individual research projects also feed into wider initiatives, where data are shared and analysed and where ideas and collaborations grow. David Thomas is involved with as number of international research collaborations, this also previously included leading series of successful IGCP projects. Current activities include being a key member of: project that has developed an open source global digital database of chronological records of sand dune accumulation and stabilisation. Over 6000 luminescence ages have been produced from desert dune systems worldwide, creating data with the potential to explore desert responses to climate change across the globe (Lancaster, Wolfe, Thomas, The Leverhulme Trust's SPAN the Atlantic programme, which initiates collaborations and shares research approaches between archaeologists and environmental scientists working in South American and southern Africa. Funded by NERC and in collaboration with Prof. Richard Washington, Dr Giles Wiggs, the University of Sheffield and Imperial College London (2010-2014). Funded by The Leverhulme Trust and in collaboration with Dr Sallie Burrough and Prof. Kathy Willis (Dept. of Zoology, Oxford) (2010-2013). African palaeoclimate: the dating of palaeo-shoreline deposits and other geomorphic features, in Southern Africa, associated with past changes in surface hydrology Funded by the RGS and NERC, with Professor Andrew Goudie, Professor Adrian Parker (Oxford Brookes), Dr Richard Bailey, and postgraduates. In collaboration with Professor Richard Washington, Professor Kate Brown (University of East Anglia), and Dr Henny Osbahr (University of Reading); Financial support from Tyndall Centre (2006-2009). In collaboration with Dr Geoff Duller (Aberystwyth), Libyan Palaeolake Project, Dr Simon Armitage (formerly PDRA, now lecturer at Royal Holloway); Financial support from NERC EFCHED programme; D.Phil. Students: Sallie Burrough (2002-2006). David teaches on Undergraduate, Masters and doctorate programmes in the School. At the undergraduate level, he lectures on the 'The Geographical Environment: Physical' core course, and contribute half of the teaching in the 'Quaternary Period' and 'Dryland Environments' Options for the Final Honour School. Quaternary of the Thar Desert in India: understanding the history of dune accumulation with the aid of Optically Stimulated Luminescence (OSL) dating Water, Power and IWRM (Integrated Water Resources Management) - a comparative study of village water governance in arid and semi-arid northwest China Desert dune system response to Late Quaternary environmental change in the northeastern Rub’Al Khali: advances in the application of opitically stimulated luminescence datasets Private sector adaptive capacity to climate change impacts in the food system: food security implications for South Africa and Brazil Blockley, S.P.E., Lane, C.S., Oh, A., Ditchfield, P., Bogaard, A., Langdon, P.G., Schreve, D.C., Thomas, D.S.G. and Bailey, R.M. (eds.) (2009) Brown, A.G., Tooth, S., Bullard, J.E., Thomas, D.S.G., Chiverrell, R.C., Plater, A.J., Murton, J., Thorndycraft, V.R., Tarolli, P., Rose, J., Wainwright, J., Downs, P. and Aalto, R. (2017) Climate-surface-pore-water interactions on a salt crusted playa: implications for crust, 10 pattern and surface roughness development measured using terrestrial laser scanning Is there evidence for global-scale forcing of southern hemisphere Quaternary desert dune accumulation? A quantitative method for testing hypotheses of dune system development Lancaster, N., Wolfe, S., Thomas, D., Bristow, C., Bubenzer, O., Burrough, S., Duller, G., Halfen, A., Hesse, P., Roskin, J., Singhvi, A., Tsoar, H., Tripaldi, A., Yang, X. and Zárate, M. (2016) Climate-surface-pore-water interactions on a salt crusted playa: implications for crust pattern and surface roughness development measured using terrestrial laser scanning Preston, G., Thomas, D.S.G., Goudie, A.S., Atkinson, O., Leng, M.J., Hodson, M., Walkington, H., Charpentier, V., Mery, S., Borgi, F. and Parker, A.G. (2015) A multi-proxy analysis of the Holocene humid phase from the United Arab Emirates and its implications for southeast Arabia's Neolithic populations Livingstone, I., Baas, A., Bateman, M.D., Bristow, C., Bryant, R.G., Bullard, J.E., Nield, J.M., Thomas, D.S.G., White, K.H. and Wiggs, G.F.S. (2014) Late Quaternary humidity and aridity dynamics in the northeast Rub’ al-Khali, United Arab Emirates: Implications for early human dispersal and occupation of eastern Arabia Central southern Africa at the time of the African Humid Period: A new analysis of Holocene palaeoenvironmental and palaeoclimate data Casting new light on late Quaternary environmental and palaeohydrological change in the Namib Desert: A review of the application of optically stimulated luminescence in the region Livingstone, I., Bristow, C., Bryant, R.G., Bullard, J., White, K., Wiggs, G.F.S., Baas, A.C.W., Bateman, M.D. and Thomas, D.S.G. (2010) Late Quaternary palaeohydrological changes in the northern Namib Sand Sea: New chronologies using OSL dating of interdigitated aeolian and water-lain interdune deposits Flores-Flores, J.L., Santha, S.D., Thomas, D.S.G., Safriel, U.N., Eswaran, H., Solh, M., Davies, J., Kowsar, S.A. and Bissonnette, J-F. (2008) Late Quaternary dune development along the western margin of South Africa and its relationship to paleoclimatic changes inferred from the marine record Multiphase late Quaternary aeolian sediment accumulation in western South Africa: Timing and relationship to palaeoclimatic changes inferred from the marine record Rates of dust deposition between 50 ka and 20 ka revealed by OSL dating at Yuanbao on the Chinese loess plateau Late Quaternary linear dune accumulation and chronostratigraphy of the southwestern Kalahari: implications for aeolian palaeoclimatic reconstructions and predictions of future dynamics Late Quaternary dune accumulation along the western margin of South Africa: distinguishing forcing mechanisms through the analysis of migratory dune forms Spatial and temporal complexity of lunette dune development, Witpan, South Africa: implications for palaeoclimate and models of pan development in arid regions Thomas, D.S.G., Brook, G., Shaw, P.A., Bateman, M., Haberyan, K., Appleton, C., Nash, D., McLaren, S. and Davies, F. (2003) Late Pleistocene wetting and drying in the NW Kalahari: an integrated study from the Tsodilo Hills, Botswana. Thomas, D.S.G. and Shaw, P.A. (2012) Terminal Basins: Lacustrine and Pan Systems. Chapter 7 in, Holmes, P. and Meadows, M. (eds.) Burrough, S. and Thomas, D.S.G. (2009) Hydrological change and early human occupation of the Kalahari, Botswana. In, Blockley, S.P.E., Lane, C.S., Oh, A., Ditchfield, P., Bogaard, A., Langdon, P.G., Schreve, D.C., Thomas, D.S.G. and Bailey, R.M. (eds.) Stone, A.E.C. and Thomas, D.S.G. (2009) Former water courses in the northern Namib Desert: new chronologies using OSL. In, Blockley, S.P.E., Lane, C.S., Oh, A., Ditchfield, P., Bogaard, A., Langdon, P.G., Schreve, D.C., Thomas, D.S.G. and Bailey, R.M. (eds.) Telfer, M.W., Bailey, R.M., Thomas, D.S.G., Burrough, S. and Stone, A.E.C. (2009) Dated aeolian dune sands: an archive of palaeoenvironments or a victim of stochastics? In, Blockley, S.P.E., Lane, C.S., Oh, A., Ditchfield, P., Bogaard, A., Langdon, P.G., Schreve, D.C., Thomas, D.S.G. and Bailey, R.M. (eds.) Thomas, D.S.G. and Bailey, R.M. (2009) Reconstructing Quaternary environmental changes and human interactions in drylands: what are some of the big uncertainties? In, Blockley, S.P.E., Lane, C.S., Oh, A., Ditchfield, P., Bogaard, A., Langdon, P.G., Schreve, D.C., Thomas, D.S.G. and Bailey, R.M. (eds.) . (2009) Late Quaternary Indian Ocean monsoon intensity variations reconstructed from fluctuations in the level of Lake Chilwa, Southern Malawi. In, Blockley, S.P.E., Lane, C.S., Oh, A., Ditchfield, P., Bogaard, A., Langdon, P.G., Schreve, D.C., Thomas, D.S.G. and Bailey, R.M. (eds.) Thomas, D.S.G. and Twyman, C. (2006) Adaptation and equity in resource dependent societies. In, Adger, W.N., Paavola, J., Huq, S. and M.J. Mace (eds.) Newsham, A.J. and Thomas, D.S.G. (2009) Agricultural adaptation, local knowledge and livelihoods diversification in north-central Namibia. Tyndall Centre Working Paper, 140.</t>
+  </si>
+  <si>
+    <t>Dr Charles is an environmental engineer who focuses on improving access to safe drinking water and sanitation. Throughout her career she has worked on issues related to water and sanitation that include: public health, environmental fate and transport of pathogens, impacts of climate change on access, and barriers to adequate sanitation in informal settlements. Her work has been funded by the World Health Organization, DFID, UK Research Councils (NERC/ESRC), and the Bill &amp; Melinda Gates Foundation, and includes work in Kenya, Rwanda, and Uganda. Dr Charles undertook her PhD on a risk-based approach to management of decentralised wastewater treatment systems in Sydney's drinking water catchments in Australia. She joined the University of Oxford in 2013 having previously been a lecturer at the University of Surrey. Dr Charles' research encompasses a range of cross-disciplinary approaches to understanding and improving water security for the poor. She is active in research in Asia and Sub-Saharan Africa. Dr Charles is the co-director of the programme, which addresses water security challenges in Kenya, Ethiopia and Bangladesh. Her work addresses the role of human behaviour in achieving water security; management of water-related health risks; and the impact of climate variability and climate change on water security. in the Centre for Tropical Medicine and Global Health. She contributes to the MSc in International Health and Tropical Medicine. Commentary on community-led total sanitation and human rights: should the right to community-wide health be won at the cost of individual rights? Charles, K.J., Souter, F.C., Baker, D.L., Davies, C.M., Schijven, J.F., Roser, D.J., Deere, D.A., Priscott, P.K. and Ashbolt, N.J. (2008)</t>
+  </si>
+  <si>
+    <t>As Professor of Ecosystem Science at the School of Geography and the Environment and Programme Leader in Ecosystems at the Environmental Change Institute, Prof. Malhi's research interests focus on interactions between forest ecosystems and the global atmosphere, with a particular focus on their role in global carbon, energy and water cycles, and in understanding how the ecology of natural ecosystems may be shifting in response to global atmospheric change. More recently his interests have expanded to include the impacts and limitation of tropical deforestation. in Meteorology from the University of Reading. His early post-doctoral work at the University of Edinburgh focused on measuring ecosystem carbon fluxes from pristine Amazonian rainforests, and this led to a deeper interest in the ecology and dynamics of tropical rainforests. In 2000 he co-founded the Amazon rainforest forest inventory network (RAINFOR) which has been revealing fundamental new insights into the biogeography of Amazonian forests, and how they are responding to global atmospheric change. He was a Royal Society University Research Fellow at Edinburgh University between 1999 and 2004. In 2005 he was appointed a University Lecturer at the School of Geography and the Environment, in 2006 he became Reader in Terrestrial Ecology, and in 2007 Professor of Ecosystem Science. He leads an active Prof. Malhi is an Honorary Fellow of Edinburgh University and UCLA and a Visiting Fellow of Leeds University. He is also a member of various committees including: the Royal Society Advisory Committee on Climate Change and Ocean Acidification; the Royal Society Committee on Science in Society; and the Scientific Steering Committee of the Large Scale Biosphere Atmosphere Experiment in Amazonia. He has delivered invited seminars/plenaries in numerous universities, including Harvard, UCLA, Berkeley, Duke, Cambridge, and Brasilia. He was the editor of a thematic issue of , and has been a contributing author to the Intergovernmental Panel on Climate Change, Working Group 1 and the organiser of major multidisciplinary international conference: The major focus of his work is understanding the interactions between forest ecosystems and the atmosphere. This includes the cycling of carbon, water and nutrients, the climatic controls on ecosystem metabolism and biomass, and more recently, assessing the impacts of land use change and the potential of forest protection to mitigate global climate change. His research techniques combine the diverse disciplines of ecological and forest field surveys, ecophysiological measurements, micrometeorological field techniques, satellite remote sensing, vegetation-atmosphere modelling, and social science. He has a particular interest in tropical forests ranging from Malaysia to the Congo and Zambia, but especially in Amazonia and the Andes. Since 2006 he has been engaging in a major study looking at an elevation transect in the Amazon-Andes, ranging from 200m to 3600m in elevation, and has ongoing research interests across the lowland forests of Amazonia through the RAINFOR project. More recently he has embarked on an expanding programme of research looking at the functioning and climatic response of temperate woodlands of the Upper Thames. Prof. Malhi teaches on biodiversity and ecosystem assessment techniques for the MSc in Biodiversity Conservation and Management. He also teaches on tropical forests, environmental modelling and GIS/remote sensing for the MSc in Environmental Change and Management, for which he is also an internal examiner. The political ecology of oil palm, people and forest conservation: searching for a balanced approach to development in the Peruvian Amazon Clouds on the horizon: identifying global priorities for conservation marketing and planning the conservation of the Sunda clouded leopard on Borneo Environmental monitoring of oil palm expansion in Malaysian Borneo and analysis of two international governance initiatives relating to palm oil production Marthews, T.R., Metcalfe, D., Malhi, Y., Phillips, O., Huaraca Huasco, W., Riutta, T., Ruiz Jen, M., Girardin, C., Urrutia, R., Butt, N., Cain, R. and Oliveras, I. (2012) Metcalfe, D.B., Meir, P., Aragao, L.E.O.C., Malhi, Y., da Costa, A.C.L., Braga, A., Goncalves, P.H.L., de Athaydes, J., de Almeida, S.S. and Williams, M. (2007) Factors controlling spatio-temporal variation in carbon dioxide efflux from surface litter, roots and soil organic matter at four rain forest sites in the eastern Amazon Asner, G.P., Martin, R.E., Anderson, C.B., Kryston, K., Vaughn, N., Knapp, D.E., Bentley, L.P., Shenkin, A., Salinas, N., Sinca, F., Tupayachi, R., Quispe Huaypar, K., Montoya Pillco, M., Ccori Álvarez, F.D., Díaz, S., Enquist, B. and Malhi, Y. (2017) Blonder, B., Salinas, N., Patrick-Bentley, L., Shenkin, A., Chambi Porroa, P.O., Valdez Tejeira, Y., Violle, C., Fyllas, N.M., Goldsmith, G.R., Martin, R., Asner, G.P., Diaz, S., Enquist, B.E. and Malhi, Y. (2017) Chavana-Bryant, C., Malhi, Y., Wu, J., Asner, G.P., Anastasiou, A., Enquist, B.J., Cosio Caravasi, E.G., Doughty, C.E., Saleska, S.R., Martin, R.E. and Gerard, F.F. (2017) Clark, K.E., Hilton, R.G., West, A.J., Robles Caceres, A., Grocke, D.R., Marthews, T.R., Ferguson, R.I., Asner, G.P., New, M. and Malhi, Y. (2017) Cushman, S.A., Macdonald, E.A., Landguth, E.L., Malhi, Y. and Macdonald, D.W. (2017) Multiple-scale prediction of forest loss risk across Borneo. Doughty, C.E., Goldsmith, G.R., Raab, N., Girardin, C.A.J., Farfan-Amezquita, F., Huaraca-Huasco, W., Silva-Espejo, J.E., Araujo-Murakami, A., da Costa, A.C.L., Rocha, W., Galbraith, D., Meir, P., Metcalf, D.B. and Malhi, Y.M. (2017) Enquist, B.J., Bentley, L.P., Shenkin, A., Maitner, B., Savage, V., Michaletz, S., Blonder, B., Buzzard, V., Espinoza, T.E.B., Farfan-Rios, W., Doughty, C.E., Goldsmith, G.R., Martin, R.E., Salinas, N., Silman, M., Diaz, S., Asner, G.P. and Malhi, Y. (2017) Esquivel Muelbert, A., Baker, T.R., Dexter, K., Lewis, S.L., ter Steege, H., Lopez-Gonzalez, G., Monteagudo Mendoza, A., Brienen, R., Feldpausch, T.R., Pitman, N., Alonso, A., van der Heijden, G., Peña-Claros, M., Ahuite, M., Alexiaides, M., Álvarez Dávila, E., Araujo Murakami, A., Arroyo, L., Aulestia, M., Balslev, H., Barroso, J., Boot, R., Cano, A., Chama Moscoso, V., Comiskey, J., Dallmeier, F., Daly, D., Dávila, N., Duivenvoorden, J., Javier Duque Montoya, A., Erwin, T., Di Fiore, A., Fredericksen, T., Fuentes, A., García-Villacorta, R., Gonzales, T., Guevara, J.E.A., Honorio Coronado, E.N., Huamantupa-Chuquimaco, I., Killeen, T., Malhi, Y., Mendoza, C., Mogollón, H., Møller Jørgensen, P., Montero, J.C., Mostacedo, B., Nauray, W., Neill, D., Núñez Vargas, P., Palacios, S., Palacios Cuenca, W., Pallqui Camacho, N.C., Peacock, J., Phillips, J.F., Pickavance, G., Quesada, C.A., Ramírez-Angulo, H., Restrepo, Z., Reynel Rodriguez, C., Ríos Paredes, M., Sierra, R., Silveira, M., Stevenson, P., Stropp, J., Terborgh, J., Tirado, M., Toledo, M., Torres-Lezama, A., Natalia Umaña, M., Urrego, L.E., Vasquez Martinez, R., Valenzuela Gamarra, L., Vela, C., Vilanova Torre, E., Vos, V., von Hildebrand, P., Vriesendorp, C., Wang, O., Young, K.R., Zartman, C.E., Phillips, O.L. and Cornejo, F. (2017) Fyllas, N.M., Patrick Bentley, L., Shenkin, A., Asner, G.P., Atkin, O.K., Diaz, S., Enquist, B.J., Farfan-Rios, W., Gloor, E., Guerrieri, R., Huaraca Huasco, W., Ishida, Y., Martin, R.E., Meir, P., Phillips, O., Salinas, N., Silman, M., Weerasinghe, L.K., Zaragoza-Castells, J., Malhi, Y. (2017) Goldsmith, G.R., Bentley, L.P., Shenkin, A., Salinas, N., Blonder, B., Martin, R.E., Castro-Ccossco, R., Chambi-Porroa, P., Diaz, S., Enquist, B.J., Asner, G.P. and Malhi, Y. (2017) Lee, J., Coomes, D., Schonlieb, C.B., Cai, A., Lellmann, J., Dalponte, M., Malhi, Y., Butt, N. and Morecroft, M. (2017) A graph cut approach to 3D tree delineation, using integrated airborne LiDAR and hyperspectral imagery. Moore, S., Adu-Bredu, S., Duah-Gyamfi, A., Addo-Danso, S.D., Ibrahim, F., Mbou, A.T., dr Grandcourt, A., Valentini, R., Nicolini, G., Djagbetey, G., Owusu-Afriyie, K., Gvozdevaite, A., Oliveras, I., Ruiz-Jaen, M. and Malhi, Y. (2017) Nakamura, A., Kitching, R., Cao, M., Creedy, T., Fayle, T., Freiberg, M., Hewitt, C., Itioka, T., Koh, L., Ma, K., Malhi, Y., Mitchell, A., Novotny, V., Ozanne, C., Song, L., Wang, H. and Ashton, L. (2017) Peixoto, K.S., Marimon-Junior, B.H., Marimon, B.S., Elias, F., de Farias, J., Freitag, R., Mews, H.A., das Neves, E.C., Prestes, N.C.C.S. and Malhi, Y. (2017) Unravelling ecosystem functions at the Amazonia-Cerrado transition: II. Carbon stocks and CO2 soil efflux in cerradão forest undergoing ecological succession Restrepo-Coupe, N., Levine, N.M., Christoffersen, B.O., Albert, L.P., Wu, J., Costa, M.H., Galbraith, D., Imbuzeiro, H., Martins, G., da Araujo, A.C., Malhi, Y.S., Zeng, X., Moorcroft, P. and Saleska, S.R. (2017) Wu, J., Chavana-Bryant, C., Prohaska, N., Serbin, S.P., Guan, K., Albert, L.P., Yang, X., van Leeuwen, W.J.D., Garnello, A.J., Martins, G., Malhi, Y., Gerard, F., Oliviera, R.C. and Saleska, S.R. (2017) Wu, M.S., Feakins, S.J., Martin, R.E., Martin, R.E., Shenkin, A., Patrick Bentley, L., Blonder, B., Salinas, N., Asner, G. (2017) Avitabile, V., Herold, M. Heuvelink, G., Lewis, S., Phillips, O., Asner, G., Armston, J., Ashton, P., Banin, L., Bayol, N., Berry, N., Boeckx, P., de Jong, B., DeVries, B., Girardin, C., Kearsley, E., Lindsell, J., Lopez-Gonzalez, G., Lucas, R., Malhi, Y., Morel, A. Mitchard, E., Nagy, L., Qie, L., Quinones, M., Ryan, C., Ferry, S., Sundreland, T., Laurin, G., Gatti, R., Valentini, R., Verbeeck, H., Wijaya, A. and Wilcock, S. (2016) Campioli, M., Malhi, Y., Vicca, S., Luyssaert, S., Papale, D., Penuelas, J., Reichstein, M., Migliavacca, M., Arain, M.A. and Janssens, I.A. (2016) Cardoso, A.W., Medina-Vega, J.A., Malhi, Y., Adu-Bredu, S., Ametsitsi, G.K.D., Djagbletey, G., van Langevelde, F., Veenendaal, E. and Oliveras, I. (2016) Doughty, C.E., Roman, J., Faurby, S., Wolf, A., Haque, A., Bakker, E.S., Malhi, Y., Dunning, J.B. and Svenning, J.C. (2016) Feakins, S.J., Bentley, L.P., Salinas, N., Shenkin, A., Blonder, B., Goldsmith, G.R., Ponton, C., Arvin, L.J., Wu, M.S., Peters, T., West, A.J., Martin, R.E., Enquist, B.J., Asner, G.P. and Malhi, Y. (2016) Feakins, S.J., Peters, T., Wu, M.S., Shenkin, A., Salinas, N., Girardin, C.A.J., Bentley, L.P., Blonder, B., Enquist, B.J., Martin, R.E., Asner, G.P. and Malhi, Y. (2016) Feldpausch, T.R., Phillips, O.L., Brienen, R.J.W., Gloor, E., Lloyd, J., Lopez-Gonzalez, G., Monteagudo-Mendoza, A., Malhi, Y., Alarcón, A., Álvarez Dávila, E., Alvarez-Loayza, P., Andrade, A., Aragao, L.E.O.C., Arroyo, L., Aymard C, G.A., Baker, T.R., Baraloto, C., Barroso, J., Bonal, D., Castro, W., Chama, V., Chave, J., Domingues, T.F., Fauset, S., Groot, N., Honorio C, E., Laurance, S., Laurance, W.F., Lewis, S.L., Licona, J.C., Marimon, B.S., Marimon-Junior, B.H., Mendoza Bautista, C., Neill, D.A., Oliveira, E.A., Oliveira dos Santos, C., Pallqui Camacho, N.C., Pardo-Molina, G., Prieto, A., Quesada, C.A., Ramírez, F., Ramírez-Angulo, H., Réjou-Méchain, M., Rudas, A., Saiz, G., Salomão, R.P., Silva-Espejo, J.E., Silveira, M., ter Steege, H., Stropp, J., Terborgh, J., Thomas-Caesar, R., van der Heijden, G.M.F., Vásquez Martinez, R., Vilanova, E. and Vos, V.A. (2016) Girardin, C.A.J., Malhi, Y., Doughty, C.E., Metcalfe, D.B., Meir, P., del Aguila-Pasquel, J., Araujo-Murakami, A., da Costa, A.C.L., Silva-Espejo, J.E., Farfán Amézquita, F. and Rowland, L. (2016) Jiménez-Muñoz, J.C., Mattar, C., Barichivich, J., Santamaría-Artigas, A., Takahashi, K., Malhi, Y., Sobrino, J.A. and van der Schrier, G. (2016) Johnson, M.O., Galbraith, D., Gloor, E., Deurwaerder, H.d., Guimberteau, M., Rammig, A., Thonicke, K., Verbeeck, H., Randow, C.v., Monteagudo, A., Phillips, O.L., Brienen, R.J.W., Feldpausch, T., Lopez-Gonzalez, G., Fauset, S., Quesada, C.A., Christoffersen, B., Ciais, P., Gilvan, S., Kruijt, B., Meir, P., Moorcroft, P., Zhang, K., Alvarez, E.A., Alves-de-Oliveira, A., Amaral, I., Andrade, C., Aragao, L.E.O., Araujo-Murakami, A., Arets, E.J.M., Arroyo, L., Aymard, G.A., Baraloto, C., Barroso, J., Bonal, D., Boot, R., Camargo, J., Chave, J., Cogollo, A., Cornejo, F.V., Costa, L.d., Fiore, A.d., Ferreira, L., Higuchi, N., Honorio, E., Killeen, T.J., Laurance, S.G., Laurance, W.F., Licona, J., Lovejoy, T., Malhi, Y., Neyret, M., Bentley, L.P., Oliveras, I., Marimon, B.S., Marimon-Junior, B.H., Almeida de Oliveira, E., Barbosa Passos, F., Castro Ccoscco, R., dos Santos, J., Matias Reis, S., Morandi, P.S., Rayme Paucar, G., Robles Cáceres, A., Valdez Tejeira, Y., Yllanes Choque, Y., Salinas, N., Shenkin, A., Asner, G.P., Díaz, S., Enquist, B.J. and Malhi, Y. (2016) Examining variation in the leaf mass per area of dominant species across two contrasting tropical gradients in light of community assembly Ningthoujam, R.K., Balzter, H., Tansey, K., Morrison, K., Johnson, S.C.M., Gerard, F., George, C., Malhi, Y., Burbidge, G., Doody, S., Veck, N., Llewellyn, G.M., Blythe, T., Rodriguez-Veiga, P., van Beijma, S., Spies, B., Barnes, C., Padilla-Parellada, M., Wheeler, J.E.M., Louis, V., Potter, T., Edwards-Smith, A. and Polo Bermejo, J. (2016) Atkin, O.K., Bloomfield, K.J., Reich, P.B., Tjoelker, M.G., Asner, G.P., Bonal, D., Bönisch, G., Bradford, M., Cernusak, L.A., Cosio, E.G., Creek, D., Crous, K.Y., Domingues, T., Dukes, J.S., Egerton, J.J.G., Evans, J.R., Farquhar, G.D., Fyllas, N.M., Gauthier, P.P.G., Gloor, E., Gimeno, T.E., Griffin, K.L., Guerrieri, R., Heskel, M.A., Huntingford, C., Ishida, F.Y., Kattge, J., Lambers, H., Liddell, M.J., Lloyd, J., Lusk, C.H., Martin, R.E., Maksimov, A.P., Maximov, T.C., Malhi, Y., Medlyn, B.E., Meir, P., Mercado, L.M., Mirotchnick, N., Ng, D., Niinemets, Ü., O'Sullivan, O.S., Philips, O.L., Poorter, L., Poot, P., Prentice, I.C., Salinas, N., Rowland, L.M., Ryan, M.G., Sitch, S., Slot, M., Smith, N.G., Turnbull, M.H., VanderWel, M.C., Valladares, F., Veneklaas, E.J., Weerasinghe, L.K., Wirth, C., Wright, I.J., Wythers, K., Xiang, J., Xiang, S. and Zaragoza-Castells, J. (2015) Campioli, M., Vicca, S., Luyssaert, S., Bilcke, J., Ceschia, E., Chapin III, F.S., Fernandex-Martinez, M., Malhi, Y., Obersteiner, M., Olefeldt, D., Papale, D., Piao, S.L., Penuelas, J., Sullivan, F., Wang, X., Zenone, T. and Janssens, I.A. (2015) Clark, K.E., West, A.J., Hilton, R.G., Asner, G.P., Quesada, C.A., Silman, M.R., Saatchi, S.S., Farfan-Rios, W., Martin, R.E., Horwath, A.B., Halladay, K., New, M. and Malhi, Y. (2015) Cleveland, C.C., Taylor, P., Chadwick, K.D., Dahlin, K.L., Doughty, C.E., Malhi, Y., Smith, W.K., Sullivan, B.W., Wieder, W.R. and Townsend, A.R. (2015) Doughty, C.E., Metcalfe, D.B., Girardin, C.A.J., Amezquita, F.F., Durand, L., Huaraca Huasco, W., Silva-Espejo, J.E., Araujo-Murakami, A., da Costa, M.C., da Costa, A.C.L., Rocha, W., Meir, P., Galbraith, D. and Malhi, Y. (2015) Doughty, C.E., Metcalfe, D.B., Girardin, C.A.J., Farfan Amezquita, F., Galiano Cabrera, D., Huaraca Huasco, W., Silva-Espejo, J.E., Araujo-Murakami, A., da Costa, M.C., Rocha, W., Feldpausch, T.R., Mendoza, A.L.M., da Costa, A.C.L., Meir, P., Phillips, O.L. and Malhi, Y. (2015) Fauset, S., Johnson, M.O., Gloor, M., Baker, T.R., Monteagudo, A., Brienen, R.J.W., Feldpausch, T.R., Lopez-Gonzalez, G., Malhi, Y., Steege, H., Pitman, N.C.A., Baraloto, C., Engel, J., Petronelli, P., Andrade, A., Camargo, L.C., Laurance, S.G.W., Laurance, W.F., Chave, J., Allie, E. and Vargas, P.N. (2015) Fernandez-Martinez, M., Vicca, S., Janssens, A., Sardans, J., Luyssaert, S., Campioli, M., Chapin III, F.S., Ciais, P., Malhi, Y., Obersteiner, M., Papale, D., Piao, S.L., Reichstein, M., Roda, F. and Penuelas, J. (2015) Reply to 'Uncertain effects of nutrient availability on global forest carbon balance' and 'Data quality and the role of nutrients in forest carbon-use efficiency' Guan, K., Pan, M., Li, H., Wolf, A., Wu, J., Medvigy, D., Caylor, K.K., Sheffield, J., Wood, E.F., Malhi, Y., Liang, M., Kimball, J.S., Saleska, S., Berry, J., Joiner, J. and Lyapustin, A.I. (2015) Malhi, Y., Doughty, C.E., Goldsmith, G.R., Girardin, C.A.J., Marthews, T.R., Aguila-Pasquel, J., Aragao, L.E.O.C., Araujo-Murakami, A., Brando, P., da Costa, A.C.L., Silva-Espejo, J.E., Amezquita, F.F., Galbraith, D.R., Quesada, C.A., Rocha, W., Salinas-Revilla, N., Silverio, D., Meir, P. and Phillips, O.L. (2015) Rowland, L., da Costa, A.C.L., Galbraith, D.R., Oliveira, R.S., Binks, O.J., Oliveira, A.A.R., Pullen, A.M., Doughty, C.E., Metcalfe, D.B., Vasconcelos, S.S., Ferreira, L.V., Malhi, Y., Grace, J., Mencuccini, M. and Meir, P. (2015) Rowland, L., Harper, A., Christoffersen, B.O., Galbraith, D.R., Imbuzeiro, H.M.A., Powell, T.L., Doughty, C., Levine, N.M., Malhi, Y., Saleska, S.R., Moorcroft, P.R., Meir, P. and Williams, M. (2015) The Oldest, Slowest Rainforests in the World? Massive Biomass and Slow Carbon Dynamics of Fitzroya cupressoides Temperate Forests in Southern Chile Zhang, K., de Almeida Castanho, A.D., Galbraith, D.R., Moghim, S., Levine, N.M., Bras, R.L., Coe, M.T., Costa, M.H., Malhi, Y., Longo, M., Knox, R.G., McKnight, S., Wang, J. and Moorcroft, P.R. (2015) Anderson-Teixeira, K.J., Davies, S.J., Bebbett, A.C., Gonzalez-Akre, E.B., Muller-Landau, H.C., Joseph, W.S., Abu Salim, K., Almeyda-Zambrano, A.M., Alonso, A., Baltzer, J.L., Basset, Y. Bourg, N.A., Broadbent, E.N., Brockelman, W.Y., Bunyavejchewin, S., Burslem, D.F.R.P., Butt, N., Cao, M., Cardenas, D., Chuyong, G.B., Clay, K., Cordell, S., Dattaraja, H.S., Deng, X., Detto, M., Du, X., Duque, D., Erikson, D.L., Ewango, C.E.N., Fischer, G.A., Fletcher, C., Foster, R.B., Giardina, C.P., Gilbert, G.S., Gunatilleke, N., Guntatilleke, S., Hao, Z., Hargrove, W.W., Hart, T.B., Hau, C.H., He, F., Hoffman, F.M., Howe, R.W., Hubbell, S.P., Inman-Narahari, F.M., Jansen, P.A., Jiang, M., Johnson, D.J., Kanzaki, M., Kassim, A.R., Kenfack, D., Kibet, S., Kinnaird, M.F., Korte, L., Kra, K., Kumar, J., Larson, A.J., Li, Y., Li, X., Liu, S., Lum, S.K.Y., Lutz, J.A., Ma, K., Maddalena, D.M., Makana, J.R., Malhi, Y., Marthews, T., Serudin, R.F., McMahon, S.M., McShea, W.J., Memiaghe, H.R., Mi, X., Mizuno, T., Morecroft, M., Myers, J.A., Novotny, V., de Oliveria, A.A., Ong, P.A., Orwig, D.A., Ostertag, R., den Ouden, J., Parker, G.G., Philips, R.P., Sack, L., Sainge, N., Sang, W., Sri-ngernyuang, K., Sukumar, R., Sun, I.F., Sungpalee, W., Suresh, H.S., Tan, S., Thomas, S.C., Thomas, D.W., Thompson, J., Turner, B.L., Uriarte, M., Valencia, R., Vallejo, M.I., Vicentini, A., Vrska, T., Wang, X., Wang, X., Weiblen, G., Wolf, A., Xu, H., Yap, S. and Zimmerman, J. (2014) Araujo-Murakami, A., Doughty, C.E., Metcalfe, D.B., Silva-Espejo, J.E., Arroyo, L., Heredia, J.P., Flores, M., Sibler, R., Mendizabal, L.M., Pardo-Toledo, E., Vega, M., Moreno, L., Rojas-Landivar, V.D., Halladay, K., Girardin, C.A.J., Killeene, T.J. and Malhi, Y. (2014) Baker, T.R., Pennington, R.T., Magallon, S., Gloor, E., Laurance, W.F., Alexiades, M., Alvarez, E., Aruajo, A., Arets, E.J.M.M., Aymard, G., Alves de Oliveira, A., Amaral, I., Arroyo, L., Bonal, D., Brienen, R.J.W., Chave, J., Dexter, K.G., Feldpausch, T.R., Ferreira, L., Lopez-Gonzalez, G., van der Heijden, G., Higuchi, N., Honorio, E., Humamantupa, I., Killeen, T.J., Laurance, S., Leano, C., Lewis, S.L., Malhi, Y., Marimon, B.S., Marimon-Junior, B.H., Mendoza, A.M., Neill, D., Penuela-Mora, M.C., Pitmann, N., Prieto, A., Quesada, C.A., Ramirez, F., Ramirez Angulo, H., Rudas, A., Ruschel, A.R., Salomao, R.P., Sagalom de Amdrade, A., Silva, J.N.M.,Silveira, M., Simon, M.F., Spironello, W., Steege, H., Terborgh, J., Toledo, M., Torres-Lezama, A., Vasquez, R., Vieira, I.C.G., Vilanova, E., Vos, V.A. and Phillips, O.L. (2014) Butt, N., Malhi, Y., New, M., Macía, M.J., Lewis, S.L., Lopez-Gonzalez, G., Laurance, W.F., Laurance, S., Luizão, R., Andrade, A., Baker, T.R., Almeida, S. and Phillips, O.L. (2014) Clark, K.E., Torres, M.A., West, A.J., Hilton, R.G., New, M., Horwath, A.B., Fisher, J.B., Rapp, J.M., Robles Caceres, A. and Malhi, Y. (2014) da Costa, A.C.L., Metcalfe, D.B., Doughty, C.E., de Oliveira, A.A.R., Neto, G.F.C., da Costa, M.C., de Athaydes Silva Junior, J., Aragão, L.E.O.C., Almeida, S., Galbraith, D.R., Rowland, L.M., Meir, P. and Malhi, Y. (2014) del Aguila-Pasquel, J., Doughty, C.E., Metcalfe, D.B., Silva-Espejo, J.E., Girardin, C.A.J., Chung Gutierrez, J.A., Navarro-Aguilar, G.E., Quesada, C.A., Hidalgo, C.G., Reyna Huaymacari, J.M., Halladay, K., del Castillo Torres, D., Phillips, O. and Malhi, Y. (2014) Doughty, C.E., Malhi, Y., Araujo-Murakami, A., Metcalfe, D.B., Silva-Espejo, J.E., Arroyo, L., Heredia, J.P., Pardo-Toledo, E., Mendizabal, L.M., Rojas-Landivar, V.D., Martinez, M., Valencia, M., Rivero, R. and Vare, L. (2014) Doughty, C.E., Metcalfe, D.B., da Costa, M.C., de Oliveira, A.A.R., Netoc, G.F.C., Silva, J.A., Aragão, L.E.O.C., Almeida, S.S., Quesada, C.A., Girardin, C.A.J., Halladay, K., da Costa, A.C.L. and Malhi, Y. (2014) The production, allocation and cycling of carbon in a forest on fertile terra preta soil in eastern Amazonia compared with a forest on adjacent infertile soil Emilio, T., Quesada, C.A., Costa, F.R.C., Magnusson, W.E., Schietti, J., Feldpausch, T.R., Brienen, R.J.W., Baker, T.R., Chave, J., Álvarez, E., Araújo, A., Bánki, O., Castilho, C.V., Honorio C., E.N., Killeen, T.J., Malhi, Y., Oblitas Mendoza, E.M., Monteagudo, A., Neill, D., Alexander Parada, G., Peña-Cruz, A., Ramirez-Angulo, H., Schwarz, M., Silveira, M., ter Steege, H., Terborgh, J.W., Thomas, R., Torres-Lezama, A., Vilanova, E. and Phillips, O.L. (2014) Espirito-Santo, F.D.B., Gloor, M., Keller, M., Malhi, Y., Saatchi, S., Nelson, B., Oliveira Junior, R.C., Pereira, C., Lloyd, J., Frolking, S., Palace, M., Shimabukuro, Y.E., Duarte, V., Mendoza, A.M., Lopez-Gonzalez, G., Baker, T.R., Feldpausch, T.R., Brienen, R.J.W., Asner, G., Boyd, D.S. and Phillips, O.L. (2014) Fernandez-Martinez, M., Vicca, S., Janssens, I.A., Sardans, J., Luyssaert, S., Camploll, M., Chapin III, F.S., Ciais, P., Malhi, Y., Obersteiner, M., Papale, D., Piao, S.L., Reichstein, M. and Penuelas, J. (2014) Fyllas, N.M., Gloor, E., Mercado, L.M., Sitch, S., Quesada, C.A., Domingues, T.F., Galbraith, D.R., Torre-Lezama, A., Vilanova, E., Ramirez-Angulo, H., Higuchi, N., Neill, D.A., Silveira, M., Ferreira, L., Aymard, G.A., Malhi, Y., Phillips, O.L. and Lloyd, J. (2014) Gatti, L.V., Gloor, M., Miller, J.B. Doughty, C.E., Malhi, Y., Domingues, L.G., Basso, L.S., Martinewski, A., Correia, C.S.C., Borges, V.F., Freitas, S., Braz, R., Anderson, L.O., Rocha, H., Grace, J., Phillips, O.L. and Lloyd, J. (2014) Girardin, C.A.J., Farfan-Rios, W., Garcia, K., Feeley, K.J., Jørgensen, P.M., Araujo Murakami, A., Cayola Pérez, L., Seidel, R., Paniagua, N., Fuentes Claros, A.F., Maldonado, C., Silman, M., Salinas, N., Reynel, C., Neill, D.A., Serrano, M., Caballero, C.J., de los Angeles La Torre Cuadros, M., Macía, M.J., Killeen, T.J. and Malhi, Y. (2014) Girardin, C.A.J., Malhi, Y., Feeley, K.J., Rapp, J.M., Silman, M.R., Meir, P., Huaraca Huasco, W., Salinas, N., Mamani, M., Silva-Espejo, J.E., Garcia Cabera, K., Farfan Rios, W., Metcalfe, D.B., Doughty, C.E. and Arago, L.E.O.C. (2014) Girardin, C.A.J., Silva Espejob, J.E., Doughty, C.E., Huaraca Huasco, W., Metcalfe, D.B., Durand-Baca, L., Marthews, T.R., Aragao, L.E.O.C., Farfán-Rios, W., García-Cabrera, K., Halladay, K., Fisher, J.B., Galiano-Cabrera, D.F., Huaraca-Quispe, L.P., Alzamora-Taype, I., Eguiluz-Mora, L., Salinas-Revilla, N., Silman, M.R., Meir, P. and Malhi, Y. (2014) Gurdak, D.J., Aragão, L.E.O.C., Rozas-Dávila, A., Huasco, W.H., Cabrera, K.G., Doughty, C.E., Farfan-Rios, W., Silva-Espejo, J.E., Metcalfe, D.B., Silman, M.R. and Malhi, Y. (2014) Assessing above-ground woody debris dynamics along a gradient of elevation in Amazonian cloud forests in Peru: balancing above-ground inputs and respiration outputs Huaraca Huasco, W., Girardin, C.A.J., Doughty, C.E., Metcalfe, D.B., Baca, L.D., Silva-Espejo, J.E., Cabrera, D.G., Aragão, L.E.O.C., Davila, A.R., Marthews, T.R., Huaraca-Quispe, L.P., Alzamora-Taype, I., Mora, L.E., Farfán-Rios, W., Cabrera, K.G., Halladay, K., Salinas-Revilla, N., Silman, M.R., Meir, P. and Malhi, Y. (2014) Malhi, Y., Farfán Amézquita, F., Doughty, C.E., Silva-Espejo, J.E., Girardin, C.A.J., Metcalfe, D.B., Aragão, L.E.O.C., Huaraca-Quispe, L.P., Alzamora-Taype, I., Eguiluz-Mora, L., Marthews, T.R., Halladay, K., Quesada, C.A., Robertson, A.L., Fisher, J.B., Zaragoza-Castells, J., Rojas-Villagra, C.M., Pelaez-Tapia, Y., Salinas, N., Meir, P. and Phillips, O.L. (2014) Metcalfe, D.B., Asner, G.P., Martin, R.E., Silva Espejo, J.E., Huasco, W.H., Farfán Amézquita, F.F., Carranza-Jimenez, L., Galiano Cabrera, D.F., Baca, L.D., Sinca, F., Huaraca Quispe, L.P., Taype, I.A., Mora, L.E., Dávila, A.R., Solórzano, M.M., Puma Vilca, B.L., Laupa Román, J.M., Guerra Bustios, P.C., Revilla, N.S., Tupayachi, R., Girardin, C.A.J., Doughty, C.E. and Malhi, Y. (2014) Mitchard, E.T.A., Feldpausch, T.R., Brienen, R.J.W., Lopez-Gonzalez, G.L., Monteagudo, A., Baker, T.R., Lewis, S.L., Lloyd, J., Quesada, C.A., Gloor, M., Steege, H., Meir, P., Alvarez, E., Araujo-Murakami, A., Aragao, L.E.O.C., Arroyo, L., Aymard, G., Banki, O., Bonal, D., Brown, S., Brown, F.I., Caron, C.E., Moscoso, V.C., Chave, J., Comiskey, J.A., Cornejo, F., Medina, M.C., Costa, L., Costa, F.R.C., Fiore, A.D., Domingues, T.F., Erwin, T.L., Frederickson, R., Higuchi, N., Coronado, E.N.H., Killeen, T.J., Laurance, W.F., Levis, C., Magnusson, W.E., Marimon, B.S., Marimon Junior, B.H., Polo, I.M., Mishra, P., Nascimento, M.T., Neill, D., Nunez Vargas, M.P., Palacios, W.A., Parada, A., Molina, G.P., Pena-Claros, M., Pittman, N., Peres, C.A., Poorter, L., Prieto, A., Ramirez-Angulo, H., Correa, Z.R., Roopsind, A., Roucoux, K.H., Rudas, A., Salomao, R.P., Schietti, J., Silveira, M., de Souza, P.F., Steininger, M.K., Stropp, J., Terborgh, J., Thomas, R., Toledo, M., Torres-Lezama, A., Andel, T.R., van der Heijden, G.M.E., Vieira, I.C.G., Vieira, S., Vilanova-Torre, E., Vos, V.A., Wang, O., Zartman, C.E., Malhi, Y. and Phillips, O.L. (2014) Oliveras, I., Malhi, Y., Salinas, N., Huaman, V., Urquiaga-Flores, E., Kala-Mamani, J., Quintano-Loaiza, J.A., Cuba-Torres, I., Lizarraga-Morales, N. and Román-Cuesta, R. (2014) Réjou-Méchain, M., Muller-Landau, H.C., Detto, M., Thomas, S.C., Le Toan, T., Saatchi, S.S., Barreto-Silva, J.S., Bourg, N.A., Bunyavejchewin, S., Butt, N., Brockelman, W.Y., Cao, M., Cárdenas, D., Chiang, J.M., Chuyong, G.B., Clay, K., Condit, R., Dattaraja, H.S., Davies, S.J., Duque, A., Esufali, S., Ewango, C., Fernando, R.H.S., Fletcher, C.D., Gunatilleke, I.A.U.N., Hao, Z., Harms, K.E., Hart, T.B., Hérault, B., Howe, R.W., Hubbell, S.P., Johnson, D.J., Kenfack, D., Larson, A.J., Lin, L., Lin, Y., Lutz, J.A., Makana, J.R., Malhi, Y., Marthews, T.R., McEwan, R.W., McMahon, S.M., McShea, W.J., Muscarella, R., Nathalang, A., Noor, N.S.M., Nytch, C.J., Oliveira, A.A., Phillips, R.P., Pongpattananurak, N., Punchi-Manage, R., Salim, R., Schurman, J., Sukumar, R., Suresh, H.S., Suwanvecho, U., Thomas, D.W., Thompson, J., Uríarte, M., Valencia, R., Vicentini, A., Wolf, A.T., Yap, S., Yuan, Z., Zartman, C.E., Zimmerman, J.K. and Chave, J. (2014) Rocha, W., Metcalfe, D.B., Doughty, C.E., Brando, P., Silvério, D., Halladay, K., Nepstad, D.C., Balch, J.K. and Malhi, Y. (2014) Ecosystem productivity and carbon cycling in intact and annually burnt forest at the dry southern limit of the Amazon rainforest (Mato Grosso, Brazil) Román-Cuesta, R.M., Carmona-Moreno, C., Lizcano, G.,New, M., Silman, M., Knoke, T., Malhi, Y., Oliveras, I., Asbjornsen, H., Vuille, M. (2014) Talbot, J., Lewis, S.L., Lopez-Gonzalez, G., Brienen, R.J.W., Monteagudo, A., Baker, T.R., Feldpausch, T.R., Malhi, Y., Vanderwel, M., Murakami, A.A., Arroyo, L.P., Chao, K., Erwin, T., van der Heijden, G., Keeling, H., Killeen, T., Neill, D., Vargas, P.N., Guitierrez, G.A.P., Pitman, N., Quesada, C.A., Silveira, M., Stropp, J. and Phillips, O.L. (2014) Valentini, R., Arneth, A., Bombelli, A., Castaldi, S., Gatti, R.C., Chevallier, F., Ciais, P., Grieco, E., Hartmall, J., Henry, M., Houghton, R.A., Jung, M., Kutsch, W.L., Malhi, Y., Mayorga, E., Merbold, L., Murray-Tortarolo, G., Papale, D., Peylin, P., Poulter, B., Raymond, P.A., Santini, M., Sitch, S., Vaflio, L., van der Werf, G.R., Williams, C.A. and Scholes, R.J. (2014) Clark, K.E., Malhi, Y., New, M., Hilton, R.G., West, A.J., Grocke, D.R., Bryant, C.L., Ascough, P.L. and Robles Caceres, A. (2013) New views on 'old' carbon in the Amazon River: Insight from the source of organic carbon eroded from the Peruvian Andes Coe, M.T., Marthews, T.R., Costa, M.H., Galbraith, D.R., Greenglass, L.R., Imbuzeiro, H.W.A., Levine, N.M., Malhi, Y., Moorcroft, P.R., Muza, M.N., Powell, T.L., Saleska, S.R., Solorzano, L.A. and Wang, J. (2013) Fisher, J.B., Sikka, M., Sitch, S., Ciais, P., Poulter, B., Galbraith, D., Lee, J.E., Huntingford, C., Viovy, N., Zeng, N., Ahlström, A., Lomas, M.R., Levy, P.E., Frankenberg, C., Saatchi, S. and Malhi, Y. (2013) Girardin, C.A.J., Aragão, L.E.O.C., Malhi, Y., Huaraca Huasco, W., Metcalfe, D.B., Durand, L., Mamani, M., Silva-Espejo, J.E. and Whittaker, R.J. (2013) Huntingford, C., Zelazowski, P., Galbraith, D., Mercado, L.M., Sitch, S., Fisher, R., Lomas, M., Walker, A.P., Jones, C.D., Booth, B.B.B., Malhi, Y., Heming, D., Kay, G., Good, P., Lewis, S.L., Phillips, O.L., Atkin, O.K., Lloyd, J., Gloor, E., Zaragoza-Castells, J., Meir, P., Betts, R., Harris, P.P., Nobre, C., Marengo, J. and Cox, P.M. (2013) Lewis, S.L., Sonké, B., Sunderland, T., Begne, S.K., Lopez-Gonzalez, G., van der Heijden, G.M.F., Phillips, O.L., Affum-Baffoe, K., Baker, T.R., Banin, L., Bastin, J.F., Beeckman, H., Boeckx, P., Bogaert, J., De Cannière, C., Chezeaux, E., Clark, C.J., Collins, M., Djagbletey, G., Djuikouo, M.N.K., Droissart, V., Doucet, J.L., Ewango, C.E.N., Fauset, S., Feldpausch, T.R., Foli, E.G., Gillet, J.F., Hamilton, A.C., Harris, D.J., Hart, T.B., de Haulleville, T., Hladik, A., Hufkens, K., Huygens, D., Jeanmart, P., Jeffery, K.J., Kearsley, E., Leal, M.E., Lloyd, J., Lovett, J.C., Makana, J.R., Malhi, Y., Marshall, A.R., Ojo, L., Peh, K.S.H., Pickavance, G., Poulsen, J.R., Reitsma, J.M., Sheil, D., Simo, M., Steppe, K., Taedoumg, H.E., Talbot, J., Taplin, J.R.D., Taylor, D., Thomas, S.C., Toirambe, B., Verbeeck, H., Vleminckx, J., White, L.J.T., Willcock, S., Woell, H. and Zemagho, L. (2013) The relative importance of deforestation, precipitation change and temperature sensitivity in determining the future distributions and diversity of Amazonian plant species Malhado, C.M., Malhi, Y., Whittaker, R.J., Ladle, R.J., ter Steege, H., Fabré, N.N., Phillips, O., Laurance, W.F., Aragao, L.E.O.C., Pitman, N.C.A., Ramírez-Angulo, H. and Malhado, C.H.M. (2012) Calculating downward longwave radiation under clear and cloudy conditions over a tropical lowland forest site: an evaluation of model schemes for hourly data Marthews, T.R., Malhi, Y., Girardin, C.A.J., Silva Espejo, J.E., Aragão, L.E.O.C., Metcalfe, D.B., Rapp, J.M., Mercado, L.M., Fisher, R.A., Galbraith, D.R., Fisher, J.B., Salinas-Revilla, N., Friend, A.D., Restrepo-Coupe, N., Williams, R.J. (2012) Evaluating the potential to monitor, aboveground biomass in forest and oil, palm in Sabah, Malaysia, for 2000–2008, with Landsat ETM+ and ALOS-PALSAR Quesada, C.A., Phillips, O.L., Schwarz, M., Czimczik, C.I., Baker, T.R., Patino, S., Fyllas, N.M., Hodnett, M.G., Herrera, R., Almeida, S., Alvarez Davila, E., Arneth, A., Arroyo, L., Chao, K.J., Dezzeo, N., Erwin, T., di Fiore, A., Higuchi, N., Honorio Coronado, E., Jimenez, E.M., Killeen, T., Lezama, A.T., Lloyd, G.L., Lopez-Gonzalez, G., Luisao, F.J., Malhi, Y., Monteagudo, A., Neill, D.A., Nunez Vargas, P., Paia, R., Peacock, J., Penuela, M.C., Pena Cruz, A., Pitman, N., Priante Filho, N., Prieto, A., Ramirez, h., Rudas, A., Salomao, R., Santos, A.J.B., Schmerler, J., Silva, N., Silveira, M., Vasquez, R., Bieira, I., Terborgh, J. and Lloyd, J. (2012) Sutherland, W.J., Freckleton, R.P., Godfray, H.C.J., Beissinger, S.R., Benton, T., Cameron, D.D., Carme, Y., Coomes, D.A., Coulson, T., Emmerson, M.C., Hails, R.S., Hays, G.C., Hodgson, D.J., Hutchings, M.J., Johnson, D., Jones, J.P.G., Keeling, M.J., Kokko, H., Kunin, W.E., Lambin, X., Lewis, O.T., Malhi, Y., Mieszkowska, N., Milner-Gulland, E.J., Norris, K., Phillimore, A.B., Purves, D.W., Reid, J.M., Reuman, D.C., Thompson, K., Travis, J.M.J., Turnbull, L.A., Wardle, D.A. and Wiegand, T. (2012) Vicca, S., Luyssaert, S., Penuelas,</t>
+  </si>
+  <si>
+    <t>Clive Oppenheimer has wide-ranging interests in magmatic and volcanic processes, the long-range impacts of eruptions, and volcanic hazards. His research integrates field, laboratory, analytical and computational approaches. He has spent 13 field seasons investigating Mount Erebus, Antarctica, and is currently involved in studies of volcanoes in Chad, DPR (North) Korea, Ethiopia, Eritrea, Indonesia, Nicaragua and the USA. In addition to his work on active volcanoes, Clive researches large eruptions of the past and their impacts on climate and society using multi-proxy evidence. Some of his work is relevant to volcanic hazard assessment – he collaborates closely with several volcanological institutes worldwide. He made the film INTO THE INFERNO (2016) with Werner Herzog, and maintains his interests in documentary filmmaking and collaborations at the nexus between volcanology and the arts and humanities. Re-discovered 'lost' campsites of 'Terra Nova' Antarctic expedition on Mt. Erebus used by a party of Scott's men led by geologist Raymond Priestly and including Frank Debenham (founder of SPRI). Now recognized under the Antarctic Treaty System's catalogue of Historic Sites and Monuments (#89 and #90). Armin Linke &amp; Clive Oppenheimer, 2008,</t>
+  </si>
+  <si>
+    <t>Dr Patricia Daley is Professor of the Human Geography of Africa. She is also an Helen Morag Fellow and Geography Tutor at Jesus College, Oxford. She served as the University Assessor for 2015 - 2016. Her previous academic appointments were at Dartmouth College in New Hampshire, Loughborough University and Pembroke College, Oxford. She has taught a range of human geography topics, as well as specialist courses on African societies and environments. At Jesus College she held the administrative offices of Tutor for Admissions (1999-2002) and Tutor for Women (1998-2004). She has been on various College committees, including the Academic Committee, Disciplinary Panel, and on the Accommodation, Catering and Conference Committee. As a consequence of her research on violence and displacement in Central Africa, she was invited to give a 30th Anniversary address at the Center for Refugees Studies, York University, Toronto, in November 2013. She was also invited as an academic expert to the High Commissioner's Dialogue on Protection Challenges, UNHCR, Geneva, in December 2008. Other invitations included presenting a paper at the High Level Roundtable/Colloquium on With respect to her interests in African political ecology, she was awarded an ESRC/NERC interdisciplinary seminar grant on African Environments (2005-2007). She chaired the African Environments Programme for the academic year 2006-7. Her media work includes acting as a consultant for an internationally-screened documentary film on the genocide in Rwanda ( Her current voluntary work includes membership of the Council of the British Institute in Eastern Africa and of the Independent Advisory Group on Country Information of the Independent Chief Inspector of Border and Immigration. She is also a committee member and the equalities officer for the Oxford Branch of the University College Union. She chairs Fahamu Trust Ltd, a pan-African social justice movement building organization which publishes Dr Daley's principal research interests are threefold: firstly, on contemporary forced migration and its relationship with identity politics, especially ethnicity, gender and citizenship; secondly, how feminist geopolitics, critical race theory, and African feminist thought can together illuminate the ways in which race, gender, militarism, and violence intersect across transnational space and identify the potentialities for peaceful co-existence arising from alternative non-western centric ontologies; and thirdly, the relationship between conservation, resource extraction, and rural livelihoods within a political ecology framework. The geographical loci of research are East and Central Africa, and the UK. The study examines how new networked relationships between global capitalism, international humanitarian assistance, and local political elites affect those who have been forcedly displaced and the subsequent effects on place-based practices of citizenship. The project addresses the embodied experiences of gender and race in contemporary Africa and the African diaspora that have arisen out of pre-existing inequalities that have been aggravated by neo-liberal capitalism. Dr Daley teaches the core 'international Migration' module for the Preliminary Examinations; the Final Honour School core lectures on violence and security for the Space, Place and Society paper and on global environmental narratives and African rural communities for the Environmental Geography paper. She also teaches the option course 'African Societies', and delivers human geography tutorials for the core courses for Jesus College students. Gendered coal struggles at the margins - the work of men, women and children in an informal/artisanal mine in post-Soviet Tajikistan Lifescapes of a pipedream: a decolonial mixed-tape of structural violence and resistance in two towns along the Chad-Cameroon oil pipeline Transnationalism and the Ghanaian diaspora in the UK: Regional inequalities and the developmental effects of remittances at the sub-national level Powell, R.C., Klinke, I., Jazeel, T., Daley, P., Kamata, N., Heffernan, M., Swain, A., McConnell, F., Barry. A. and Phillips, R. (2017) Daley, P. (2015) 44.Researching sexual violence in the eastern Democratic Republic of Congo: methodologies, ethics and the production of knowledge in an African warscape. Chapter 44 in, Coles, A., Gray, L. and Momsen, J. (eds.) Daley, P. (2014) Unearthing the local: hegemony and peace discourses in Central Africa. In, McConnell, F., Megoran, N. and Williams, P. (eds.) Daley, P. (2013) The Burundi peace negotiations: An African experience of peace-making in the era of neo-liberalism. In, Abrahamsen, R. (ed.) Daley, P. (2009) Rwanda and Burundi since 1994: an end to the discriminatory state. In, Mustapha, A.R. and Whitfield, L. (eds.) Daley, P. (2001) Population displacement and the humanitarian aid regime: the experience of refugees in East Africa. In, de Bruijn, M., Van Dijk, R. and D. Foeken (eds.) 'Problematizing the International discourse on sexual violence and displacement in Central Africa'. Keynote address, Center for Refugees Studies, York University, Toronto. November 2013. 'Researching Sexual Violence in the Eastern Democratic Republic of Congo: Methodologies, Ethics, and the Production of Knowledge in Central Africa'. Paper presented at Queens University, Kingston, Ontario.November 2013. 'Researching Sexual Violence in the Eastern Democratic Republic of Congo: Methodologies, Ethics, and the Production of Knowledge in Central Africa'. Paper given at the Annual meeting of the Royal Geographical Society and Institute of British Geographers. August 2013. 'Problematizing the International discourse on sexual violence in Africa', paper presented at the Annual Meeting of the Association of American Geographers, Los Angeles. April 2013. 'Pan-Africanism and the Diaspora', High Level Roundtable/Colloquium on the theme: Democracy, Governance and the Pan-African Idea: Whither Africa?' Invited speaker, UNECA, Addis Ababa. May 2012. 'Rescuing Africans: Celebrity and humanitarianism', paper given at the Annual Meeting of the Association of American Geographers, New York, February 2012. 'The Challenges to Peace-Building in Post-Conflict Africa: Perspectives from Burundi', paper presented to Oxford Central Africa Forum, University of Oxford. Oxford 2010. 'The challenges to peace in Burundi'. Invited seminar presentation: at SIDA in Stockholm, organized by the Nordiska Afrikainstitutet, Uppsala, Sweden. May 2010. 'Whither the Refugee?: The State, Humanitarianism, and Refugees in Central Africa', Refugee Studies Centre, University of Oxford. Seminar Presentation. March 2010. 'Hierarchies of Power, Race and Gender: Towards an understanding of genocidal violence in Africa'. Invited seminar presentation, Development Studies Department, School of Oriental and African Studies, University of London. January 2010. 'African Reconstruction in a New Age'. Afronomics Summit: New Models of Economics and Development in Africa, London. Invited Keynote Speaker, African Development Forum, Mary Sumner House, London. September 2009. 'Race, Space and Scale: Rethinking Security and Violence in Burundi', paper presented at Conference on Violence and the Body, University of Oxford, May 2007. 'The Hierarchical Geographies of Peace and Security: Neo-liberal Post-War Reconstruction in Burundi', Association of American Geographers Annual Conference, 21 April 2007, San Francisco. 'Beyond the liberal Peace: Conflict Resolution in Burundi', Seminar paper presented at School of International Relations, St. Andrews University, October 2006. 'Great Lakes: Peacekeeping and Peace-Building Challenges', seminar paper presented at workshop on African Security &amp; Peacekeeping in Complex Political Emergencies, Department of Peace Studies, University of Bradford, 24-28 October 2005. 'Militarism, Masculinity and Violence in Central Africa: Towards an Understanding of Conflict in Burundi', paper presented at St Antony's College, 29 June 2005. 'What are the prospects for peace and an end to genocidal violence in Burundi', paper presented at North-East Africa seminar, Institute of Social and Cultural Anthropology, Oxford, June 2005. 'Great Lakes: Challenges to Peacekeeping and Peace-Building', seminar paper presented at Department of Peace Studies, University of Bradford, 26 October 2004. 'Ethnic Challenge to the African State, the Case of Burundi', Invited keynote speaker to the CODESRIA Governance Institute, Dakar, Senegal, August 2002. 'Spatialities of Forced Migration: geography's contribution', paper presented at the departmental seminar series, Syracuse University, New York State, March 2001. 'Population, Displacement and the Humanitarian Aid regime: The Experience of Refugees in East Africa', at conference on Moving People: Trends in Population Mobility in Africa, African Studies Centre, University of Leiden, June 2000. Displacement and Marginality: African Refugees in the 21st Century, Sam Nolutshungu Memorial Lecture, Human Sciences Resources Council, Democracy and Governance, Pretoria, South Africa, April 2000.</t>
+  </si>
+  <si>
+    <t>with cross-appointments in the Saïd Business School and the School of Geography and the Environment at Oxford University. He also holds a Professorial Fellowship at St Edmund Hall, Oxford. He is, as well, Sir Louis Matheson Distinguished Visiting Professor at Monash University's Faculty of Business and Economics (Melbourne) and a Visiting Professor at Stanford University. Previous academic appointments have been at Harvard's Kennedy School of Government, Harvard Law School (Senior Research Associate), the University of Chicago, Carnegie Mellon's Heinz School and Monash University. Other honours include being Andrew Mellon Fellow at the US National Academy of Sciences and Visiting Scholar Deutscher Akademischer Austausch Dienst at the University of Marburg. He has held a number of senior administrative posts including Associate Dean (Finance, Graduate Studies) and Dean of the Faculty of Arts at Monash University (Melbourne), Chair of the Faculty Board of Anthropology and Geography (Oxford), and most recently Director and Head of the Oxford University Centre for the Environment. Professor Clark has served on the Social Science Committee of the British Academy, has been an elected member of the Oxford University's Socially Responsible Investment Committee, is an employer-nominated trustee of the Oxford Staff Pension Scheme, is a consultant to MetallRente GmbH, is a Founding Governor of the UK Pension Policy Institute, is the External Advisor to Diageo's Executive Environmental Working Group, and serves on the advisory board of Arabesque. He was a consultant to the Swedish Government's An economic geographer, he is interested in the responsibilities and behaviour of investors as regards long-term sustainable investment. This has involved research on institutions' proxy-voting behaviour, the strategies of corporate engagement given concerns about environmental liabilities and the sensitivity of firms to brand image and reputation, the regulation of corporate disclosure on issues related to environment and social responsibility, and the governance of investment institutions that have an explicit long-term mandate. His current research focuses upon the governance of investment decision-making in the context of market volatility and long-term obligations. In part, this project has developed in collaboration with Oxford colleagues and graduate students as well as the , Towers Watson, and the project led by Professor Tessa Hebb at Carleton University (Ottawa) funded by the Social Science and Humanities Research Council of Canada. Recent related books include the co-edited Related research is focused on the design and management of investment institutions including reference to insourcing, out-sourcing, and off-shoring activities and the demand and supply of financial services relevant to pension funds, endowments, and sovereign wealth funds. Papers on this topic have been published in the (2014). With Adam Dixon and Ashby Monk, his monograph on the governance and legitimacy of sovereign wealth funds was published by Princeton University Press in 2013. His new book on the organization and management of financial institutions with Ashby Monk will be published by OUP in 2017. His research on household financial decision-making has focused on long-term saving utilising theories and methods from the behavioural and social sciences in the context of risk and uncertainty. Papers on this topic have been published in the Transactions IBG (2007), Ageing and Society (2008), Environment and Planning A (2009), Pensions: An International Journal (2009), the Journal of Economic Geography (2010) and Urban Studies (2011) supported, in part, by the ESRC, Mercer and Towers Wyatt. With Kendra Strauss and Janelle Knox-Hayes, he is co-author of (OUP, 2012). His latest research utilising a large data base of more than 550,000 pension plan participants over 10 years in conjunction with the Monash-CSIRO project. Recent papers available on ssrn.com deal with gambling behaviour, advice-seeking, and decision-making. Environmental investment strategies across the investment value chain: addressing the investment gap in clean technologies - from asset owners to entrepreneurs What are the major obstacles facing corporations in the uproar of ESG and what can be done to fix that? Reporting fatigue and ambiguous expectations The governance and management of public-private partnerships bringing together stakeholders in the realization of complex engineering projects - One Belt One Road Initiative Politics of transparency: contested spaces of corporate responsibility, science and regulation in shale gas projects of the UK and US State and local pension fund governance and the process of contracting for investment services: the scope of diversity and the problem of embeddedness The home, pension savings and risk aversion: intentions of the defined contribution pension plan participants of a London-based investment bank at the peak of the bubble Clark, G.L. and Viehs, M. (2016) Corporate Social Responsibility: The Case for Active Ownership by Institutional Investors. Chapter 17 in, Barton, D., Horváth, D. and Kipping, M. (eds.) Clark, G.L., Hachigian, H., McGill, S., Molinari, C. and Wójcik, D. (2015) Addressing the challenges of transformation through sustainable investment. Chapter 46 in, Hebb, T., Hawley, J.P., Hoepner, A.G.F., Neher, A.L. and Wood, D. (eds.) Burger, C. and Clark, G.L. (2013) Finanzkompetenz, institutionelle Rahmenbedingungen und Vorsorge. Chapter 6 in, Hurrelmann, K. and Karch, H. (eds.) Clark, G.L. and Woods, C. (2012) The impossible planetary trust: intergenerational equity, long-term investment and water governance and regulation. Chapter 10 in, Godfrey, J.M. and Chalmers, K. (eds.) Strauss, K. and Clark, G.L. (2010) The geographical pension gap: understanding patterns of inequality in UK occupational pensions. In, Coe, N. and A. Jones (eds.) Babcock-Lumish, T.L. and Clark, G.L. (2008) Pricing the economic landscape: global financial markets and the communities and institutions of risk management. In, Wescoat Jr., J.L. and Johnston, D.M. (eds.) Clark, G.L. (2008) Pension fund governance: expertise and organizational form. Chapter 2 in, Evans, J., Orszag, M. and Piggott, J. (eds.) Clark, G.L. and Salo, J. (2008) Corporate governance and environmental risk management: a quantitative analysis of 'New Paradigm' firms. Chapter 5 in, Quarter, J., Carmichael, I. and Ryan, S. (eds.) Clark, G.L., Urwin, R., Allen, M.R., Wójcik, D., Molinari, C., and McGill, S.M. (2012) Project Telos: Addressing the Challenges of Transformation Through Sustainable Investing. Towers Watson, London</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>[Zambia, Luangwa Valley, effort, enforcement, decline, patterns, populations, black rhinoceros, Illegal exploitation, PSM, Berry, SD, Albon, Zambia, Luangwa Valley, elephants, black rhinos, illegal exploitation, incentives, model, Zambia, Luangwa Valley, penalties, detection, balance, laws, enforcement, Policies, EJ, Gulland, Milner, black rhino, Trophy hunting, T, Teferi, EB, Martin, S, Mainka, M, Knight, A, Conway, M, Brooks, K, Adcock, S, Milledge, conservation, zoos, achievements, views, biologists, ark, Zimmerman, C, West, Walter, M, Stephenson, RJ, Smith, GM, Mace, M, Linkie, A, Balmford, UK zoos, adults, education, impact, Message, Zimmerman, C, West, Walter, A, Manica, GM, Mace, solution, brink, tiger, H, Wibisono, C, Vongkhamheng, SN, Stuart, EJ, Stokes, JLD, Smith, A, Rabinowitz, C, Poole, A, Pattanavibool, D, Miquelle, K, MacKinnon, KU, Karanth, A, Johnson, L, Hunter, M, Gumal, J, Goodrich, GAB, da Fonseca, U, Breitenmoser, EL, Bennett, JG, Robinson, J, Walston, NJ, Aebischer, L, Vavrova, Å, Soutukorva, T, Söderqvist, RJA, Sharp, A, von Raggamby, J, Papathanasiou, Papadopoulou, Navodaru, D, Manou, M, Larsson, Z, Karacsyonyi, F, Franzén, K, Elowe, M, Donlan, Bastian O, J, Alcorn, R, Simoncini, A, Terry, T, Hahn, BD, Manos, S, Arampatzis, MJ, Whittingham, RE, Kenward, Sumatran rainforests, tigers, wide assessment, island, cryptic top predator, status, Zulfahmi, M, Yunus, K, Yulianto, Tarmizi, Tanjung, Susilo, A, Sumantri, T, Suhartono, E, Septayuda, A, Salampessy, A, Sarimudi, DY, Saputra, EJJ, Rood, GV, Reddy, WS, Ramono, E, Ramadiyanta, D, Priatna, K, Parakkasi, A, Nugroho, Maryati, DJ, Martyr, T, Maddox, JJ, Montfort, Lahoz, H, Kurniawan, D, Kristiantono, D, Kiswayadi, Karina, Herwansyah, IA, Haidir, D, Gunaryadi, E, Gemita, Y, Dinata, N, Brickle, P, Baroto, Asriadi, W, Pusparini, Sunarto, JA, Smith, G, Arroita, Guillera, M, Linkie, HT, Wibisono, economic models, projection, horn, sustainable legal trade, policies, Identification, Moilanen, AJ, Conway, PS, Goodman, R, Slotow, September, volume, their habitats, species, that conservationists, symposium, November, Conservation, People, theme, countries, delegates, diverse meeting, Europe, SCB, meeting, July, Canterbury, Heywood, Rosser, Convention, successful implementation, key step, findings, CITES Scientific Authorities, Zimbabwe, Vietnam, Uganda, Tanzania, South Africa, Namibia, Mozambique, Mexico, Lebanon, Kenya, Indonesia, India, Ghana, Ethiopia, Congo, Democratic Republic, Cote d'Ivoire, Bolivia, countries, wide range, research, Mexican reptiles, Komodo dragons, striped hyenas, Andean bears, Ethiopian wolves, lions, tigers, horses, Przewalski, saola, West African manatees, orangutans, bonobos, gorillas, giraffes, black rhinos, African elephants, species, wide range, such issues, international conventions, implementation, enforcement, planning, management, tourism, use, resources, conservation, community, conflict, Issues, countries, biodiversity, capacity, other large mammals, people, conservation, conflicts, group, Ecology, Conservation, Durrell Institute, areas, wildlife, conservation, community, Tanzania, sector, Tanzania, complex institutional structure, review, plans, national policies, appropriate consultative workshops, assessments, Wildlife, Director, wildlife, economic potential, conservation, policies, sector, system, information, unit, Wildlife, Department, Tanzania, Chief Technical Advisor, funding, effectiveness, first scientific assessment, study, illegal exploitation, intense pressure, elephants, rhinos, definitive strategies, Luangwa Valley, rhinos, elephants, black rhinos, populations, Africa, ecology, management, illegal exploitation, Zambia, Luangwa Valley, black rhinoceros, conservation, ecology, Cambridge, University, Zoology, Department, species, trajectories, food, amounts, nature, differences, other southern islands, mammals, later studies, model, research, specific competitors, predators, environment, South Georgia, Antarctic island, sub, 20th century, reindeer, management, ecology, human interests, large mammals, focus, social sciences, teaching, interdisciplinary research, conservation, capacity, Williams, Nigel Leader]</t>
+  </si>
+  <si>
+    <t>[society, culture, politics, changes, other fields, developments, relation, contemporary human geography, development, debates, major intellectual issues, consideration, spatial history’, traces, present, histories, past, Spaces, espacial’, los rastros de la, pasado, Espacios, A.S., BUITRAGO, D.J., GREGORY, S., Peter Wall Distinguished Professor ELDEN, Roskilde, Dr., Heidelberg, Dr. h.c, Canada, Royal Society, Fellow, British Academy, Fellow, Sebald, Said, literary studies, visual arts, Foucault, Butler, Agamben, philosophy, political theory, ideas, cases, Iraq, Pakistan, Afghanistan, Gulf War, Vietnam, Laos, Cambodia, Korea, wars, Second World War, Spain, early twentieth century, its colonial populations, Europe, bombing, political geographies, literature, drama, artwork, geographies, imaginative counter, production, practices, war, spaces, production, My particular concerns, prison, geography, East Africa, Pakistan, Afghanistan, Palestine, Israel, Iraq, Middle East, investigations, My focus, peace, occupation, military violence, late modern war, spatial modalities, interconnected themes, My research]</t>
+  </si>
+  <si>
+    <t>[H., Lawton Smith, U., Hilpert, Chapter, geographical mobility, High Technology Local Economies, H., Lawton Smith, R., Waters, ed, P., Cooke, Chapter, regional development, optimism, evolution, Thames Valley, sector, health, H., Lawton Smith, Tensions, Analysis, Review, Regions, European Policy, G.L., Clark, P., Tracey, H., Lawton Smith, economy, perspective, agent, European regional growth, Cognition, H., Lawton Smith, G.L., Clark, P., Tracey, Oxfordshire, local economic development, entrepreneurship, talent, geography, A., Chadwick, J., Glasson, H., Lawton Smith, chapters, sixty journal articles, books, editor, transfer, books, author, innovation, management, geography, interests, Environment, Geography, School, Senior Visiting Research Associate, Cambridge, University, Business Research, Centre, Research Associate, committees, Events, member, Council, Member, Social Sciences, Learned Society, Academy, Academician, Oxford University, Hertford College, Regulatory Policy Research Centre, Research Director, Coventry University, Local Economic Development, Centre, Local Economic Development, Reader, London University, Birkbeck]</t>
+  </si>
+  <si>
+    <t>[surface, Earth, change, century, Causes, J.F.B., Mitchell, W.J., Ingram, M.R., Allen, P.A., Stott, S.F.B., Tett, Climate Seminar, Weather, ECMWF Predictability, forecasting, weather, error, D.A., Stainforth, J.A., Kettleborough, M.R., Allen, precipitation, 20th century, changes, attribution, Detection, M.A., Palmer, M.R., Allen, P.A., Stott, F.H., Lambert, M.R., Allen, A.J., Thorpe, R.A., Spicer, L.A., Smith, D., Sexton, C., Piani, J.M., Murphy, A., Martin, S., Knight, J.A., Kettleborough, D.J., Frame, N., Faull, M., Collins, C., Christensen, T., Aina, D.A., Stainforth, simulations, ensemble, multi, change, Constraints, M.R., Allen, D.A., Stainforth, D.J., Frame, C., Piani, impacts, global climate, uncertainty, scenarios, Risks, C., Piani, D.J., Frame, M.R., Allen, D.A., Stainforth, servers, analysis, Data access, D., Stainforth, S., Pascoe, A., Martin, J., Kettleborough, D., Goodman, D., Frame, C., Christensen, M., Allen, T., Aina, N., Massey, changes, uncertainty, approaches, J., Kettleborough, M., Allen, D., Stainforth, M., New, C., Tebaldi, A., Lopez, temperature, seasonal cycle, sensitivity, D.A., Stainforth, M.R., Allen, G.A., Meehl, R., Knutti, sensitivity, Observational constraints, C., Piani, R., Knutti, G., Hegerl, J., Gregory, C., Forest, D., Frame, S., Dessai, B., Booth, N., Andronova, M., Allen, warming, CO, extreme precipitation, changes, Clapeyron constraint, Clausius, D.A., Stone, M.R., Allen, P., Pall, climate, human influence, harm, attribution, Scientific challenges, S., Yukimoto, T., Nozawa, K., S, Min, D.J., Frame, P., Scott, D.A., Stone, P., Pall, M.R., Allen, M., Milan, N., Bostrom, Chapter, global risk, change, M.R., Allen, D., Climate*. Frame, Human Influence, Attribution, Detection, S., Yukimoto, T., Nozawa, S.K., Min, P., Pall, P.A., Stott, M.R., Allen, D.A., Stone, S., Raper, N., Meinshausen, M., Meinshausen, J., Lowe, R., Knutti, C., Jones, C., Huntingford, W., Hare, K., Frieler, D., Frame, M., Allen, J., Brunnée, L., Rajamani, S., Goldberg, R., Lord, liability, climate, scientific basis, M.R., London Allen, Towers Watson, Sustainable Investing, Transformation, Challenges, Project Telos, S.M., McGill, C., Molinari, D., Wójcik, M.R., Allen, R., Urwin, G.L., Clark, M.R., Allen, Y.H., Yamazaki, D., Williamson, S.F.B., Tett, C., Rye, J., Miller, N., Massey, A., Bowery, A.T., Blaker, T., Aina, D.J., Rowlands, K., Yamazaki, central United States, low precipitation, probability, Human Influence, M.R., Allen, F.E.L., Otto, N., Massey, P.W., Mote, D.E., Rupp, M.R., Allen, B., Stevens, D., Shindell, G., Myhre, J., Marotzke, U., Lohmann, N., Lewis, R., Knutti, G.C., Johnson, J., Gregory, N.P., Gillett, P.M., Forster, G., Hegerl, J., Church, O., Boucher, F.E.L., Otto, A., Otto, change, damage, loss, its potential contribution, events, science, M.R., Allen, J., Slingo, N., Schaller, N., Massey, F.E.L., Otto, T., Legg, A., Jenkins, M., Bailey, V., Bell, P., Stott, M., Roberts, H., Ward, J., Screen, J., Lowe, S., Parry, N., Reynard, C., Prudhomme, M., Lockwood, A., Kay, J., Hannaford, E., Kendon, A.A., Scaife, T., Marsh, C., Huntingford, spring, winter, western Spanish Pyrenees, accumulation, M.R., Allen, S.T., Buisán, N., Massey, N., Schaller, S., Serrano, Vicente, F.E.L., Otto, J.I., Moreno, López, J.A., California Central Valley Añel, extremes, summer, attribution, application, justice, Climate change, M.R., Allen, Y.H., Yamazaki, D., Hassell, J.M., Murphy, S., Wilson, T., Aina, F.E.L., Otto, R., Jones, N., Massey, M.R., Allen, R.J., Millar, D.P., van Vuuren, M.G.J., Elzen, S.M., Smith, D.S., Lee, A., Otto, L.K., Gohar, N.H.A., Bowerman, N., Howarth, J.A., Lowe, C., Huntingford, industry, Potential applications, climate, Modelling extreme weather, M., Allen, J., Hall, F., Otto, N., Massey, R., James, B., Guillod, December, American Meteorological Society Vol, Bulletin, Special Supplement, Climate Perspective, Extreme Events, M., Mahecha, K., Thonicke, S., Seneviratne, M., Reichstein, M., Heimann, B., Guillod, M., Allen, M., Forkel, F., Otto, S., Sippel, M.R., Allen, P.A., Stott, S., Wilson, A., Weisheimer, D., Wallom, J., Skeggs, J., Miller, T., Legg, R.G., Jones, W.J., Ingram, C., Huntingford, K., Haustein, S.M., Crooks, A., Bowery, I., Ashpole, P., Yiou, R., Vautard, S.N., Sparrow, F.E.L., Otto, G.J., van Oldenborgh, N.R., Massey, R., Lamb, A.L., Kay, N., Schaller, M., Allen, H., Cullen, D., Lettermaier, M., Xiao, P., Uhe, F., D. Otto, S. Sharp, Li, D., Rupp, P., Mote, M.R., Allen, A., Bowery, P.C., Frumhoff, B.P., Guillod, G., Masato, C., Huntingford, S., Vardoulakis, C., Heaviside, D.M., Mitchell, M., Allen, D., Wallom, S., Sparrow, B., Guillod, F., Otto, R., Jones, T., Woolings, K., Haustein, N., Massey, B., Harvey, P., Davini, D., Mitchell, Vienna Austria, April, EGU General Assembly, Regional Climate Projections, Large Ensembles, J., Hall, M., Allen, N., Massey, H., Cullen, P., McLean, N., Christidis, L., Hermanson, M.R., Allen, N., Schaller, P., Uhe, F.E.L., Otto, K., Haustein, D.P., van Vuuren, T.F., Stocker, M., Schaeffer, K., Riahi, G., Plattner, M., Oppenheimer, J., Minx, A., Michel, M., Mastrandrea, K.J., Mach, R., Knutti, L., van Kesteren, P., Friedlingstein, C.B., Field, O., Edenhofer, L., Clarke, M., Allen, J., Rogelj, S., Hallegatte, M.R., Allen, D.J., Frame, P.M., Forster, R.B., Skeie, H.D., Matthews, M.J., Grubb, J., Rogeli, P., Friedlingstein, J.S., Fuglestvedt, R.J., Millar, M.R., Allen, S., Wilson, D.C.H., Wallom, P., Uhe, S.N., Sparrow, F.E.L., Otto, D.M., Mitchell, N.R., Massey, K., Haustein, A., Bowery, R.G., Jones, B.P., Guillod, general public, personal computers, idle CPU, change, Monte Carlo simulation, m, £, overall budget, present, collaborative project, research, computing, years, doctoral students, docs, post, attribution, modelling, Oxford, University, Physics, Department, Climate Dynamics Group, Group Leader, events, climate, other external influences, contribution, Probabilistic Event Attribution, use, forecasts, range, their implications, extreme weather, risks, change, climate, natural influences, His research, Physics, Department, University, Climate Dynamics Group, Head, Oxford, University, Environment, Geography, School, Geosystem Science, Professor, Myles Allen]</t>
+  </si>
+  <si>
+    <t>[R.H., Thomas, C.S.L., Ommanney, B., Lefauconnier, R.M., Koerner, J., Jania, P., Holmlund, W.D., Harrison, A.F., Glazovsky, H., Björnsson, J.O., Hagen, H., Miller, W., H, Hubberten, L.M., Savatyuguin, Y.V., Vasilenko, A.P., Shepherd, Y.Y., Macheret, A.F., Glazovsky, M., Williams, M.R., Gorman, R.P., Bassford, records, side, North Faeroes margin, system, M., Ivanov, T.C.E., Weering, A., Kuijpers, T., Nielsen, N.H., Kenyon, glaciers, outlet, records, radio, returns, side, bed, subglacial, method, Northern Eurasia, history, Quaternary ice, R., Stein, R.F., Spielhagen, M.J., Siegert, C., Siegert, M., Saarnisto, L., Polyak, O., Nikolskaya, F., Niessen, P., Möller, A., Murray, A., Matioushkov, J., Mangerud, A., Lyså, J.P., Lunkka, H., Lokrantz, E., Larsen, K.H., Kjær, M., Jakobsson, O., Ingólfsson, H.W., Hubberten, M., Nielsen, Houmark, C., Hjort, M., Henriksen, V., Gataullin, S., Funder, Greenland Basin, channels, mass, significance, Timing, M., Wilken, J., Mienert, J., Taylor, J., Evans, N.H., Kenyon, last glaciation, Northern Eurasia, environment, periglacial climate, J.I., Svendsen, M.J., Siegert, C., Siegert, A.V., Sher, L., Schirrmeister, M., Saarnisto, P., Möller, J., Mangerud, A., Lyså, J.P., Lunkka, E., Larsen, M., Jakobsson, M., Nielsen, Houmark, C., Hjort, M., Henriksen, Antarctic Peninsula, adjacent continental shelf, Gerlache Strait, flow, ice, bedforms, Quaternary, C., Ó Cofaigh, stream, Antarctic palaeo, mouth, processes, morphology, C.J., Pudsey, C., Ó Cofaigh, stream, Antarctic paleo, layer, subglacial, extent, Thickness, C.J., Pudsey, C., Ó Cofaigh, Canadian Arctic, Devon Island Ice Cap, flow, Form, M.J., Sharp, D., Burgess, M.R., Gorman, T.J., Benham, Last Glacial Maximum, Bellingshausen Sea, continental margin, West Antarctic Ice Sheet, Flow, Press, J., Evans, C.J., Pudsey, C.D., Hillenbrand, Svalbard margin, km, sheet, streams, reconstruction, Submarine landforms, L., Rise, stream, Antarctic palaeo, marine, genesis, Flow dynamics, D.J.A., Evans, J., Evans, C.J., Pudsey, J., Hiemstra, C.S., Allen, years, change, sea, Arctic glaciers, contribution, R.S.W., van de Wal, M.R., de Wildt, K., Melvold, J.O., Hagen, A.F., Glazovsky, Polar North Atlantic, Lofoten Basin, lobe, associated channel, system, submarine, Geophysical investigations, N.H., Kenyon, last deglaciation, Amundsen Sea, Pine Island Bay, outer continental shelf, West Antarctic Ice Sheet, dynamics, Extent, J.B., Anderson, T.J., Benham, C., Ó Cofaigh, change, Severnaya Zemlya, caps, Sensitivity, III, Russian High Arctic, Severnaya Zemlya, caps, mass balance, present climate, Vavilov Ice Cap, flow, II, Russian High Arctic, Severnaya Zemlya, caps, mass balance, Vavilov Ice Cap, mass balance, Climate, Russian High Arctic, Severnaya Zemlya, caps, mass balance, Y.Y., Macheret, A.F., Glazovsky, J., Oerlemans, West Antarctica, Amundsen Sea, Pine Island Bay, continental slope, processes, Morphology, J.B., Anderson, C., Ó Cofaigh, J., Evans, morphology, sea, Svalbard, sheet, Dynamics, J., Mienert, J.Y., Landvik, dimensional seismic evidence, continental shelves, activity, past ice, landforms, preservation, Identification, J., Craig, L., Rise, D., Ottesen, Greenland Sea, debris, ice, Ma, Northern Hemisphere, glaciation, Evidence, L., Thanabalasundaram, O., Shorttle, R.M.L., Shaw, E., Khadun, C.F., Dawber, Y., Bahé, K.L., Atkinson, Spitsbergen fjords, surges, characteristic, Submarine, T.O., Vorren, M., Forwick, E., Lebesbye, L., Hansen, O., Christensen, H.H., Christiansen, L., Kristensen, D.I., Benn, Laurentide Ice Sheet, icebergs, Hudson Strait, mouth, floor, Sea, C.M.T., Lynas, Woodworth, shipboard systems, ROV, AUV, fjords, glacier, bathymetric imagery, swath, comparison, C., Ó Cofaigh, R., Larter, G., Griffiths, J., Evans, R., Noormets, Arctic waters, Antarctic, interface, ice, investigations, AUVs, Autonomous underwater vehicles, S., Ackley, K., Stansfield, J.P., Wilkinson, P., Wadhams, D., Jones, B., Bett, P., Tyler, E.P., Abrahamsen, D., Hayes, K.W., Nicholls, A., Jenkins, P.A., Dodd, M.R., Price, K.J., Heywood, C., Banks, M.A., Brandon, P., Stevenson, N., Millard, S., McPhail, G., Griffiths, R., Mugford, J., Evans, Svalbard, Nordaustlandet, cap, Austfonna, balance, flux, J.O., Hagen, T., Strozzi, T.J., Benham, Belgica Fan, West Antarctica, Bellingshausen Sea, continental margin, fan, major trough, C.J., Pudsey, J., Evans, S., Benetti, D., C, Hillenbrand, R.D., Larter, R., Noormets, C., Ó Cofaigh, collapse, ice, rates, Submarine glacial landforms, J.B., Anderson, C., Ó Cofaigh, J., Evans, D., Ottesen, West Antarctica, edge, processes, implications, Amundsen seas, Bellingshausen, upper continental slope, Morphology, J., Evans, C., Ó Cofaigh, R.D., Larter, Canada, Nunvaut, Ellesmere Island, Wales Icefield, Prince, Mass balance, F., Cawkwell, S., Marshall, T., Benham, sheet, year, dimensions, flux, volumes, Late Quaternary, West Antarctic Ice Sheet, changes, southern Bellingshausen Sea, provenance, Clay, H., Grobe, A.G.C., Graham, C., Ó Cofaigh, Greenland continental shelf, north, Greenland Ice Sheet, flow, former expansion, Marine geophysical evidence, P., Wadhams, Geomorphology, megalineations, special attention, bedforms, Antarctic, origin, R., Young, A., Pugin, Shaw J., Comment, C.R., Stokes, R.D., Larter, R.C.A., Hindmarsh, J., Evans, D.J.A., Evans, C.D., Clark, J.B., Anderson, E., King, doi:10.1007/s00367, p., Marine Letters, Geo, massive diamicts, genetic processes, implications, sediments, Micromorphological characteristics, D.J., Evans, J.J., Meer, van, geological data, MIS, shelf, Arctic Ocean, A., Wallin, E., Sellen, L., Polyak, L., Mayer, B., Hell, D., Hanslik, B., Eriksson, D., Darby, G., Bjork, L, Anderson, C., Marcussen, F., Colleoni, northwestern Barents Sea, Kvitøya Trough, flow, ice, Submarine landforms, M., Jakobsson, C., Ó Cofaigh, J., Evans, R., Noormets, eastern Svalbard, Kong Karls Land, waters, sheet, retreat, glacial flow, Evidence, C., Ó Cofaigh, J., Evans, R., Noormets, Late Quaternary, West Antarctic glacial history, clues, southern Bellingshausen Sea, shelf, stream, palaeo, sedimentary legacy, H., Grobe, A.G., Graham, S., Benetti, C., Ó Cofaigh, W., Ehrmann, West Antarctica, stream, Thwaites, Late Quaternary Pine Island, retreat, Flow, T., Deen, G., Kuhn, J., Evans, J.A., Smith, D., C, Hillenbrand, icebergs, grounding, ice, implications, northern Svalbard margin, Yermak Plateau, geophysical observations, M., Sölvsten, E., Sellén, C., Ó Cofaigh, R., Noormets, C., Marcussen, L., Löwemark, B., Hell, J., Evans, J., Backman, M., O´Regan, K.A., Hogan, M., Jakobsson, East Greenland, Kangerlussuaq margin, transect, slope, shelf, long fjord, km, shallow acoustic stratigraphy, Submarine landforms, C., Ó Cofaigh, J., Evans, subglacial landforms, Svalbard, east, sheet, Past ice, D., Ottesen, C., Ó Cofaigh, R., Noormets, J., Evans, K.A., Hogan, Ice Age, Fennoscandian Ice Sheet, delivery, Rates, L., Rise, D., Ottesen, Svalbard, eastern Austfonna, marine setting, Last Glacial Maximum, cap, behavior, Submarine landforms, eastern Svalbard, cap, Vestfonna, basal conditions, Ice thickness, T., Strozzi, A., Hubbard, V., Pohjola, Argentine margin, Antarctic icebergs, ploughmarks, Relict sea, J., Acosta, C., Linés, foraminiferal signatures, Antarctic Peninsula, Marguerite Trough, history, ice, retreat, Ice, S.G., Moreton, S., Xu, West Antarctica, Pine Island Bay, retreat, shelf, Geological record, W., Majewski, R., Minzoni, T., Stolldorf, R., Fernandez, A., Kirshner, B., Eriksson, S., Anandakrishnan, R.B., Alley, M, O'Regan, R., Mohammad, N., Kirchner, R., Gyllencreutz, Last Glacial Maximum, Antarctic Peninsula, Central Bransfield Basin, models, processes, lithofacies, atmospheric forcing, connection, mechanisms, retreat, East Greenland, waters, Warming, T.J., Benham, A., Luckman, J.P.M., Syvitski, depositional fan, landforms, northern Svalbard margin, Hinlopen Trough, delivery, flow, K.A., Hogan, East Antarctica, Aurora Subglacial Basin, margin, ice, divide, hydrological connection, Evidence, M.J., Siegert, T., Ommen, D.D., Blankenship, A.J., Payne, R.C., Warner, A.M., LeBrocq, N., Young, p., Special Publication, London, Geological Society, Hydrocarbon Systems, Glacigenic Reservoirs, Eds, J., Craig, A., Moscariello, D.P., Le Heron, M., Huuse, glacial sediments, reservoirs, potential, years, Norwegian shelf, development, T., Bugge, L., Rise, Version, IBCAO, Arctic Ocean, International Bathymetric Chart, P., Weatherall, P.G., Travaglini, S.V., Nghiem, D., Mosher, R., Mohammad, C., Marcussen, Y., Kristiffersen, O., Hestvik, B., Hell, J.K., Hall, J.V., Gardner, M., Edwards, I., Church, A., Camerlenghi, P., Bienhoff, R.S., Anderson, A., Armstrong, D., Accettella, Y., Zarayskaya, W., H, Schenke, M., Rebesco, R., Pedersen, R., Noormets, H., Hodnesdal, B., Fridman, S, Forbes, streams, West Greenland, embayment, depositional environments, processes, C., Ó Cofaigh, deep Greenland Basin, East Greenland continental slope, processes, M., Jakobsson, G., Ercilla, sheets, marine margins, zone, grounding, geometry, seismic architecture, E.M.G., Fugelli, radar, Greenland subglacial lakes, M.J., Siegert, J., Bamber, T., Benham, J.S., Greenbaum, D.D., Blankenship, D.A., Young, P., Christoffersen, fan, West Greenland trough, depositional processes, provenance, Glacimarine lithofacies, C., Sheldon, A.A., Kilfeather, K.A., Hogan, last glacial cycle, West Greenland shelf, sheet, M., Moros, J.M., Lloyd, J.T., Andrews, D.J., McCarthy, J., Evans, R., Noormets, J.F., Hiemstra, A.A., Kilfeather, K.A., Hogan, A.E., Jennings, Arctic Ocean margin, massive Hinlopen Slide, scan imagery, side, geology, processes, New insights, J., Mienert, p., v., Cryosphere, Greenland, dataset, new bed, D., Steinhage, E., Rignot, S., Palmer, J., Paden, J., Mouginot, I., Howat, S.P., Gogineni, western Canadian Beaufort Sea margin, development, advances, Quaternary, evidence, Mackenzie Trough, glaciology, palaeo, sedimentary architecture, Seismic stratigraphy, J.T., Pietras, environment, mild glacier, sedimentation, processes, implications, southern Chile, fjords, Submarine landforms, M., Vasquez, doi:10.1016/j.margeo.2013.06.019, p., Marine Geology, 3D seismic data, glacial influence, record, central North Sea, Early Quaternary sediments, ploughmarks, D., Ottesen, Canadian Arctic, changes, sensing, F., Wyatt, G.J., Wolken, S.N., Williamson, L., Wang, D., Mair, A.S., Gardner, doi:10.1016/j.marpetgeo.2014.04.007, p., Petroleum Geology, Marine, 56°-62°N, Early Quaternary North Sea basin, depositional environments, infill, Morphology, T., Bugge, Last Glacial Maximum, Antarctic Peninsula, changes, ice, Reconstruction, A., Simms, S., Roberts, R., Larter, D., C, Hillenbrand, N., Glasser, J., Evans, E., Domack, M., Canals, M., Bentley, J., Anderson, D., Hodgson, E., Hocking, J., Johnson, J., Smith, S., Livingstone, B., Davies, C., Ó Cofaigh, M., Broak, van, T., Benham, L., Gilbert, A., Hogg, T., Flament, A., Ridout, A., Leeson, A., Dehecq, N., Gourmelen, A., Shepherd, M., McMillan, Last Glacial Maximum, West Antarctic Ice Sheet, Bellingshausen Sea sector, Amundsen Sea, changes, Reconstruction, C., Spiegel, C., Ó Cofaigh, J., Lindow, J.P., Klages, W., Ehrmann, M.J., Bentley, A.E., Witus, J.A., Smith, F.O., Nitsche, G., Kuhn, J.S., Johnson, M., Jakobsson, D., C, Hillenbrand, K., Gohl, A.G., Graham, J.B., Anderson, R.D., doi:10.1016/j.quascirev.2013.07.033 Larter, p., Quaternary Science Reviews, Arctic Ocean glacial history, R., Stein, N., Pedersen, Norgaard, L., Polyak, M., O'Regan, J., Nilsson, F., Niessen, P., Moller, N., Mikkelsen, L., Mayer, J.Y., Landvik, N., Kirchner, Larsenm N.K., A., Jennings, O., Ingolfsson, K., Hogan, S., Funder, J., England, doi:10.1016/j.quascirev.2013.09.007, p., Quaternary Science Reviews, slope, Uummannaq shelf, Rink Isbrae, landforms, system, shelf, West Greenland fjord, flow, R., Noormets, J., Evans, E.M.G., Fugelli, C., Ó Cofaigh, K.A., Hogan, Antarctic Peninsula, South Orkney Islands, new bathymetric compilation, G., Kuhn, J., Arndt, P., Trathan, D., C, Hillenbrand, R.D., Larter, Canadian Beaufort Sea margin, slope, trough, Amundsen Gulf, development, advances, multiple Quaternary, Evidence, J.T., Pietras, modelling, observations, glaciers, margins, proximal fans, ice, plumes, Sediment, C., Decalf, J.P.P., Hirst, M., Wells, R.I., Mugford, N.S., Arnold, K.A., Hogan, numerical models, boundary conditions, glaciological problems, datasets, quantitative analysis, masses, studies, Satellite, continental margins, delivery, numerical modelling, geophysical measurements, links, marine environments, glacial sedimentation, patterns, Processes, change, their responses, masses, high Arctic, work, field, programme, sheets, glaciers, flow, form, Glaciological investigations, Aberystwyth, Wales, University, Earth Sciences, Geography, Institute, Department, Head, Director, Glaciology, Professor, marine environments, glacier, sedimentation, patterns, processes, understanding, masses, study, outstanding contributions, Royal Geographical Society, Gill Memorial Award, Medal, Founder, geophysics, outstanding contributions, Queen, Her Majesty, Polar Medal, Julian, Antarctica, Greenland, Svalbard, continental shelves, fjords, Greenland Sea, vessels, work, many periods, Arctic Canada, Ellesmere Islands, Devon, Baffin, East Greenland, Iceland, Severnaya Zemlya, Russian Franz Josef Land, Svalbard, Arctic, areas, number, airborne platforms, ice, marine environments, glacier, sedimentation, patterns, processes, glaciology, satellite geophysical techniques, application, change, their response, masses, dynamics, interests, Cambridge, University, Scott Polar Research Institute, Ph.D., Colorado, University, INSTAAR, Masters Degree, Cambridge, University, Julian Dowdeswell, shipborne geophysical tools, satellite, variety, marine geological record, sheets, links, change, their response, caps, glaciers, flow, form, Glaciologist]</t>
+  </si>
+  <si>
+    <t>[topics, social theory, students, mitigation, risk, cultures, urban futures, egalitarian politics, belonging, European identity, multiculturalism, racism, race, applications, chapters, articles, books, co, Professor Amin, risk, cultures, Newton, ESRC, Shanghai, migrants, mental health, urban infrastructures, ecologies, British Academy, Disunion, European Union, current research, Geography Professor Amin, Department, Professor, Lecturer, Regional Development Studies, Urban, Centre, Research Associate, Research Fellow, Newcastle University, social science, his contributions, CBE, British Academy, Foreign Secretary, Uppsala University, honorary doctorate, Italian Academia Nazionale Dei Lincei, Foreign Member, Social Sciences, Academy, British Academy, Fellow, editor, co, European Universities, number, Professorships, Fellowships, practices, biopolitics, hybrid, multiculture, race, cultural entity, economy, everyday process, globalisation, regions, cities, modern living, geographies, his work, Professor Amin]</t>
+  </si>
+  <si>
+    <t>[January, Quaternary Geochronology, Special Issue, INTAV, Tephrochronology, International Focus Group, Lead Guest Editor, N.J., Pal, R., Korisettar, C.S., Lane, M., Haslam, M.D., Petraglia, J.A., Westgate, N.E., Matthews, N.J.G., Pearce, V.C., Smith, NGRIP, Soppensee, study, interglacial transition, Greenland records, European, synchronisation, Tephrochronology, explosive eruptions, ignimbritic components, co, Plinian, dispersal, Implications, major Mediterranean tephras, proximal sources, Italy, Phlegraean Fields, Geochemistry, P.C., Tzedakis, N., Sirakov, L., Korobar, Shalamanov, M., Rosi, J., Pross, G.O., Orsi, U.C., Müller, M., Koumouzelis, P., Karkanas, L., J, Guadelli, C., Ferrier, L., Civetta, A., Carandente, D., Boric´, G., Barker, I., Arienzo, P., Albert, D., White, E.L., Tomlinson, C.B., Stringer, V.C., Smith, C., Satow, E.J., Rohling, A.P., Roberts, C., Price, M., Pollard, W., Müller, M, Menzies, A., MacLeod, M., Lewis, S., Lee, R., Housley, M., Hardiman, K., Grant, C., Gamble, W., Davies, V.L., Cullen, C., Bronk Ramsey, S., N. Blockley, Barton, J., Lowe, Alps, south, north, Interglacial Transition, archives, regional tephrostratigraphic framework, Serbia, Danube Gorges, Tabula Traiana Cave, Upper Palaeolithic site, Middle, Danube corridor, Modern Human, INTIMATE members, Ramsey C.B., C.S., Turney, A.F, Lotter, A., Svensson, J.P., Steffensen, I., Seierstad, S., Rasmussen, M., Hardiman, Lower Danube region, deposits, Isotope Stage, regional stratigraphic marker, layer, Y5, Campanian Ignimbrite, their palaeoenvironmental significance, SA03, core, new data, Adriatic Sea, records, Late Quaternary, robust tephrochronological framework, K., Kindermann, P., Van Peer, V., Smith, L., Ottolini, A., L., Farr, A., Bouzouggar, P., Ditchfield, S.N., Collcutt, P., Albert, D., White, last c., archaeological events, refined synchronisation, lattice, RESET project, geoarchaeology, absolute dating, artefacts, western Scotland, Islay, Isle, Seilich, t, Rubha Port, Europe, west, far north, Lateglacial archaeological site, procedure, opportunities, our Graduate Admissions pages, details, PhD study, Francesco Muschitiello, years, Amazon rainforest, climate, hydro, vegetation, atmospheric dust, impact, open competition, NERC, Cambridge Earth System Science Doctoral Training Programme, projects, hazard, volcanic impacts, Tephra records, change, records, tephrochronology, Archaeological applications, East Africa, Quaternary tephrochronologies, human populations, their impact, environment, climate, changes, Insights, eastern Mediterranean, Quaternary climate, Younger Dryas Stadial, termination, onset, change, sequence, timing, precise regional comparisons, technique, multi, Interglacial Transition, palaeohydrological changes, palaeoclimate, regional environmental responses, detail, Haemelsee record, sediments, GFZ Potsdam, D. Sachse, C. Lane, Nottingham, S. Engels, PI, school, INTIMATE Example, first EU COST, Europe, researchers, early career, project, sediments, date, record, ashes, Late Pleistocene, Middle, palaeoclimate, Turkana Rifts, Omo, Chew Bahir, region, first continuous tephrostratigraphic archive, chronology, core, layers, record, year, development, tropical hydroclimate, Lake Challa, wider ICDP project, tropics, accuracy, high chronological precision, hydroclimate, proven potential, record, Lake Challa, Kilimanjaro, flank, lake, m, East African Lake Challa, sediments, events, impacts, timing, Research, future prediction, uncertainty, change, impact, mechanisms, models, combined data, their own independent timescales, TErrestrial records, MArine, core, Ice, precise INTegration, last glacial cycle, changes, INTIMATE, research, bodies, understudied region, hazard, past volcanism, better understanding, archives, correlation, records, archives, lake, layers, correlation, characterisation, East African Rift, volcanic regions, Quaternary tephrostratigraphies, my current research, human histories, climatic changes, precise correlations, record, archaeological archives, layers, recent times, historical societies, Late Pleistocene, dispersal, evolution, environments, climates, role, environmental transitions, pacing, archives, isochrons, layers, tephra, volcanic ash, Africa, Europe, tephrochronology, My primary expertise, prehistoric timescales, variability, environmental impacts, spatial complexity, mechanisms, better understanding, my research, Head, explosive volcanism, past climatic change, environmental impacts, timing, mechanisms, Quaternary Geographer, Geochronologist, Christine]</t>
+  </si>
+  <si>
+    <t>[Sililo, unsaturated zone, international study, renewal, assessment, Isotope, B.T., Verhagen, W.M., Edmunds, H. Zojer, I. Entner, Development, Implications, late Pleistocene, European coastal aquifers, Groundwater emplacement, W.M., Edmunds, C.J., Milne, W.M., Edmunds, European coastline, systems, Evolution, Y., Travi, R., Vaikmae, M, Manzano, T., Melo, C., Marlin, K., W.M. Hinsby, Edmunds, C.J., Milne, W.M., Edmunds, systems, modern waters, Advance, development, protection, recognition, interface, F., Barbecot, T., Condesso De Melo, M., Manzano, H.H., Loosli, W.M., Edmunds, K., Hinsby, C.J., Milne, W.M., Edmunds, palaeowaters, investigation, their hydrogeochemical context, Isotopic methods, K., Walraevens, R., Purtschert, R., Kipfer, W.M., Edmunds, L., Dever, Darling W.G., P., Blaser, F., Barbecot, W., Hertig, Aeschbach, H.H., Loosli, C.J., Milne, W.M., Edmunds, formation, Background, Europe, palaeoenvironment, Weichselian palaeoclimate, M., Manzano, W.M., Edmunds, Vaikmäe R., C.J., Milne, W.M., Edmunds, eastern England, coastal regions, aquifers, Palaeowaters, A., Williams, P.L., Smedley, C.J., Milne, W.G., Darling, D.K., Buckley, W.M., Edmunds, C.J., Milne, W.M., Edmunds, Palaeaux Project, main conclusions, goals, European coastal aquifers, Palaeowaters, W.M., Edmunds, UK, Berkshire, Banterwick Barn borehole, Upper Cretaceous chalk, palynological studies, geochemistry, Utility, W.M., Edmunds, B.A., Tocher, A.M., Murphy, A.R.H., Swan, I., Jarvis, M.A., Pearce, Nigeria, arid zone, semi, recharge, study, profiles, solute, use, W.M., Edmunds, I.B., Goni, problems, applications, methods, isotopic, arid regions, semi, unsaturated zone, Investigations, W.M., Edmunds, continental regions, new proxy, past climates, archives, Unsaturated zones, S.W., Tyler, W.M., Edmunds, UK, aquifer, East Midlands Triassic, behaviour, trace, Redox patterns, W.M., Edmunds, P.L., Smedley, Mexico, San Luis Potosi, valley, flow, high fluoride, management, W.M., Edmunds, A., Cardona, J.J., Rivera, Carrillo, ed, I. Simmers, Chapter, North Africa, arid regions, Hydrogeochemical processes, W.M., Edmunds, study, UK, Wales, England, groundwater, quality, baseline, Natural, R.S., Ward, P., Hart, P., Shand, W.M., Edmunds, Algerian Sahara, aquifer, complexe, water, isotopic evolution, Hyrdrogeochemical, A., Mamou, P., Shand, K., Zouari, W.M., Edmunds, A.S., Moulla, A., Guendouz, UK, Berkshire, Banterwick Barn borehole, Upper cretaceous chalk, palynological studies, geochemistry, Utility, W.M., Edmunds, B.A., Tocher, A.M., Murphy, A.R.H., Swan, I., Jarvis, M.A., Pearce, isotopic indicators, element, Tunisia, southern Algeria, aquifer, Groundwater evolution, K., Zouari, P., Shand, A.S., Moulla, A., Mamou, A.H., Guendouz, W.M., Edmunds, C.E., Stickley, F., Gasse, R.W., Battarbee, III Traverse, Pep, environmental change, archive, Groundwater, G.M., Zuppi, K., Zouari, Y., Travi, I.B., Goni, C.B., Gaye, F., Gasse, D., Djoret, A., Dodo, W.M., Edmunds, United Kingdom, Dorset, groundwater, mobility, trace, dimensional flow, D.K., Buckley, W.M., Edmunds, M., Schuerch, basin, Shiyang, study, A, China, arid north, human activity, impacts, their changes, resources, characteristics, W.M., Edmunds, X.S., Wang, J.Z., Ma, resource, pollutant, Natural baseline, Sahel, interstitial waters, Nitrogen, R.C., Munro, M., Neyra, J.J., Nizinski, B., Dreyfus, C.B., Gaye, D.K., Lindley, W.M., Edmunds, J.D., Deans, eds, K. Froehlich, J. Gat, P.K. Aggarwal, environmental change, archive, Groundwater, W.M., Edmunds, eds, K. Froehlich, J. Gat, P.K. Aggarwal, groundwaters, nuclear tracers, isotopic, Contribution, W.M., Edmunds, ed, O. Selnius, aspects, controls, occurrence, natural waters, Fluorine, P.L., Smedley, W.M., Edmunds, K., Gadgood, Y., Fasatwi, al, E., Savage, S., McLaren, D., Mattingley, outlook, origins, occurrence, Saharan groundwater, Libya, W.M., Edmunds, North West China, Minqin basin, hydrogeochemical evolution, history, Groundwater, D.P.F. Darbyshire, R., Kipfer, W., Hertig, Aeschbach, J., Ma, W.M., Edmunds, arid regions, semi, recharge, Global synthesis, I., Simmers, W.M., Edmunds, C.B., Gaye, L.E., Flint, A.L., Flint, K.E., Keese, B.R., Scanlon, Y., Wang, T.D., Bullen, Badain Jaran Desert, Minqin, China, Inner Mongolia, scarcity, Geochemical indicators, J., Ma, J., Gates, W.M., Edmunds, Y., Wang, T.D., Bullen, landscapes, interaction, water, characterisation, applications, natural waters, Sr isotopes, W.M., Edmunds, D.P.F., Darbyshire, A.J., Love, P, Shand, C., Tindimugaya, T., Alemayehu, A., MacDonald, S., Adelana, modern recharge, change, palaeowater, Africa, Groundwater, W.M., Edmunds, M.A.G., Ortega, J.R., Carrillo, environmental change, archives, coastal aquifers, basins, palaeowaters, Evolution, W.M., Edmunds, mountain, management, implications, Gobi desert, Tibetan plateau, groundwater, recharge, Limits, I.S., Torres, P., Birkle, African Sahel, observatory, unsaturated zone, C.B., Gaye, W.M., Edmunds, X., Li, S.A., Mathias, H.S., Wheater, geochemical methods, isotopic, arid regions, sequences, Conceptual models, W.M., Edmunds, H., Treidel, I., Holman, P.J.F., Yeh, K., Hiscock, M., Shamsudduham, D.M., Allen, J.J., Gurdak, Y., Yechieli, R.M., Maxwell, Y., Fan, A., MacDonald, M.F.P., Bierkens, M., Taniguchi, J., Chen, T.R., Green, L., Konikow, W.M., Edmunds, J.S., Famiglietti, M., Leblanc, L., Longuevergne, Y., Wada, R., Beek, M., Rodell, P., Döll, B., Scanlon, R.G., Taylor, balance, chloride, recharge, field, Kalahari dune, unsaturated zone, Namibia, Stampriet Basin, water, salt, Northwest China Sand, Minqin Basin, study, desertification, level, planning, ecosystem, adjustment, India, Jaisamand Lake Basin, balance, application, methodological challenges, analysis, hard rock, recharge, Mersey Valley Countryside Warden Service Estimating, study, resilience, framework, human asset, Civilisation, Water History, Groundwater pollution, Sanitation, Water Quality, hydrogeochemistry, non, carbonate, Hydrogeology, Catchment Science, courses, students, unique natural hydrothermal phenomena, protection, Kamchatka, Russian Far East, Primorye, Mineral Waters, Ireland, Russia, projects, EC, INTAS, change, Holocene, records, lake, groundwater, Intercomparison, Special Topic SAHEL programme, TIGGER, NERC, Environmental Change Institute, ECU Oxford, principal investigator, Co, North Africa, Russian Far East, Europe, European Commission, projects, awards, Ethiopia, Mexico, Honduras, Greece, UK, quality, courses, its Framework programmes, assessor, Geothermal Energy programme, European Commission, Expert Rapporteur, recharge, health, groundwater, projects, arid regions, semi, water, issues, capacity, policy, science, moisture, sand, palaeoenvironments, palaeoclimate, basins, groundwater, China, north, scarcity, research, Ghana, Sudan, Senegal, Mali, Niger, Nigeria, Sahel countries, Tunisia, Algeria, Libya, Jordan, Cyprus, Middle East, arid regions, problems, Europe, UK, major aquifers, quality, his interests, fields, thermal waters, mineral, issues, acidification, assessment, groundwater, studies, palaeohydrology, hydrology, studies, hydrogeochemical processes, UK, quality, fields, research, Mike Edmunds, Prof, Geochemistry, International Association, Vernadsky Medal, America, Geological Society, OE Meinzer Award, hydrogeology, his achievements, Geological Society, Whitaker Medal, UK, several European countries, theses, UK, theses, supervision, hydrogeochemistry, position, Individual Merit Promotion, IMP, nearby Wallingford, British Geological Survey, palaeohydrology, hydrogeochemistry, groundwater, quality, His expertise, Environment, Geography, School, Visiting Professor, Mike Edmunds, available Prof, department, colleagues, his friends, tribute, short illness, 28th April, Mike Edmunds]</t>
+  </si>
+  <si>
+    <t>[film, Terence Davies, release, British Film Institute, Essay, city, time, M., Gandy, A. Zumla, M. Gandy, tuberculosis, science, politics, Epilogue, A., Zumla, M., Gandy, A. Zumla, M. Gandy, tuberculosis, history, episodes, germs, Life, M., Gandy, eds, M. Gandy, S. Frank, Stadt, Niedergang der, Moderne, Das Wasser, M., Gandy, cosmopolitan ecologies, landscape, biodiversity, Zoöpolis redux, cosmopolitas, paisaje, biodiversidad, Zoöpolis, El resurgir, M., Gandy, abandonment, neglect, others, sites, spaces, their varied origins, such sites, diversity, cinema, literature, urban nature, cultural responses, multiplicity, economic value, arbitrary assignment, space, production, new insights, scientific practice, specific form, botanical eye, close observation, early 1970s, cultural interventions, variety, focus, scientific knowledge, limits, urban nature, ambiguity, urban design, ecological science, synthesis, different kind, example, Gilles Clément, My recent research, vibrant public culture, part, scientific complexity, urban nature, spontaneous spaces, protection, aesthetics, kind, scientific interest, high levels, nature, spaces, pre, elimination, pretext, Ecological rhetoric, scientific curiosity, accidental laboratories, spontaneous ecologies, diversity, islands, ecological refugia, wastelands, significant attention, empty spaces, utilitarian potentialities, urban nature, spontaneous forms, focus, sites, London, my early forays, wastelands, urban space, ecological dimensions, other socio, insights, disease, water, threat, other measures, networks, role, other fields, environmental history, studies, urban environment, human health, relationships, nature, independent agency, new insights, combination, political ecology, significant scope, sexuality, light, sound, geographies, urban space, corporeal dimensions, urbanization, my previous work, agency, extended conceptions, human subjectivity, ontologies, network, interconnection, clear points, humanist insights, post, urban ecology, modernity, nature, cultures, historical analysis, urban nature, meanings, cosmopolitan natures, cultural valorization, ecological assemblages, scientific analysis, ideas, work, disparate body, Urban nature, British Academy, fellow, Social Sciences, Academy, fellow, editor, co, Sustainable Hackney, Hackney Biodiversity Partnership, member, east London, Hackney, local issues, Matthew, Urban Salon, founder, co, UCL Urban Laboratory, Director, Founder, Berlin, Arts, University, Berlin, Humboldt University, Berlin, Technical University, Newcastle University, Los Angeles, California, University, New York, Columbia University, scholar, ERC Advanced Grant Matthew, Principal Investigator, urban nature, diversity, monograph, International Planning History Society, history, innovative book, award, Geography, Outstanding Scholarly Work, AAG Meridian Award, MIT Press, His book, architecture, its relationship, urbanism, our understanding, greatest contribution, years, book, Spiro Kostof award, winner, MIT Press, His book, visual arts, culture, nature, contemporary intersections, epidemiology, environmental history, aspects, His research, recent past, nineteenth century, middle decades, his work, historical scope]</t>
+  </si>
+  <si>
+    <t>[J. Momsen, J. Besson, Barbudans, Barbuda Belongs, Commons, Triumph, C., Clarke, D., Lowenthal, D., Barker, D., Dodman, D., McGregor, Chapter, Jamaica, Kingston, multiple deprivation, ghetto, slum, C., Clarke, road, system, concentration, people, equality, mankind, fundamental liberties, world, part, Afterword, Primo Levi, Holocaust survivor, racist regime, understanding, comparison, systems, regimes, differences, Holocaust, slavery, commonalities, rights, citizen, exclusion, laws, differential incorporation, theory, Central Europe, Holocaust, Caribbean, slavery, systematic comparison, objectives, Central Europe, occupied territories, Nazi Germans, Jews, murder, death, Holocaust, African origin, slaves, death, labouring, regime, sugar, Jamaica, British colony, Caribbean, Its focus, research, whom, inclusion, Holocaust, victims, full range, crop, intensive sugar, force, minority, slaves, USA, slavery, research, Europe, Jewish Holocaust, Caribbean slavery, aim, Racist Regimes, new project, Professor Clarke, colonialism, plural society, very heart, reader, journal, independence, Trinidad, second year, research, Naparimas, San Fernando, politics, religion, race, his wife, Gillian, ethnographic journal, publication, Trinidad, his attention, centuries, cultural pluralism, stratification, colour, structure, urbanization, process, Jamaica, capital, Kingston, books, Caribbean, Professor Clarke, Mexico, his book, history, sociology, social anthropology, interests, geographer, Central Europe, Latin America, Caribbean, specialization, His regions, states, problems, peasantries, class, ethnicity, race, countries, urbanization, interests, Professor Clarke, Environment, Geography, School, Head, Latin American Studies, Faculty Committee, Inter, Chairman, Geography, Anthropology, Faculty Board, Chairman, Jesus College, Admissions, Tutor, Oxford, degree, Caribbean, Latin America, issues, his contribution, Sri Chinmoi, Royal Scottish Geographical Society, Gold Medal, Leverhulme Trust, Jamaica, Kingston, Colonial City, project, Latin American Studies, Society, Chairman, Life President, Caribbean, Central America, Research, European Association, President, Member, Caribbean Studies, Society, Chairman, Professor Clarke, chapters, papers, books, Caribbean, Mexico, investigations, Latin American Studies, Geography, Reader, Liverpool, Toronto, Universities, Oxford, Jesus College, Emeritus Fellow, Oxford University, Emeritus Professor, Professor Colin Clarke]</t>
+  </si>
+  <si>
+    <t>[Cape Farewell, eds, S. Parkinson, A. MacGilp, D. Buckland, Climate Change, Art, Burning Ice, Review, June, Climate Change, Nature, change, our understanding, imagination, M. T., Bravo, June, other agencies, State, US Department, Report, Dartmouth College, colloquium, Science Policy, speaker, Panel member, Role, Dec, USA, Dartmouth College, International Understanding, John Sloan Dickey Center, West Relations, East, Carnegie Endowment, 36pp, New Imperial Age, Orientalist Geography, James Rennell, Scientific Travel, Curiosity, Precision, M. T., Bravo, Science 29A(3, Philosophy, History, Studies, Islanders, Highlanders, Anthropology, Anti, M. T., Bravo, Leopold von Buch, Alexander von Humboldt, scientific savants, world, Robert Jameson, patronage, his rapid rise, Arctic Seas, access, Scoresby, light, improvement, wider historical context, famous Arctic whaler, Britain, William Scoresby Jr., scientific accomplishments, paper, stations, history, International Polar Year, international collaborative project, publication, paper, science, Inuit, Arctic communities, stations, community, 1970s, public policymakers, paper, plantations, West, Greenland, locations, stations, eighteenth century, gardens, importance, first attempt, paper, colonial natural history, history, new essays, volume, paperback, 2nd edition, Pennsylvania Press, University, Northern Studies, Journal, Northwest Territories, Postsecondary Perspectives, Research, Northern Science, et al, IB Tauris, London, Ice, Mountains, Cultural Geographies, High Places, eds, Dora, V., D. Cosgrove, Ice Floe Edge, Human Rights, Mechanics, Ontology, Sea Ice Mapping, M. T., Bravo, Ashgate Press, Farnham, Polar Science, Legacies, M. Tennberg, J. Shadian, Polar Science, Legacies, Preface, M. T., Bravo, Sverker Sörlin, Diana Liverman, Richard Hamlyn, William Cronon, Climate Change, Narratives, Plenary Session, IBG, Climate Change Narratives, Feature issue, Historical Geography, Journal, Climate Impact Narratives, Reception, Sea Ice, Voices, M. T., Bravo, Public Policy, Research, Institute, Montreal, North, Canada, Prospects, Powers, Peoples, Northern Exposure, Hilaire, France St, Leslie Seidle, Thomas Courchene, Frances Abele, Citizenship, building, Nation, Arctic Science, M. T., Bravo, G. Laidler, S. Gearheard, C. Aporta, I. Krupnik, Sea Ice, Humanism, M. T., Bravo, N. Triscott, M. T., Bravo, Skill, Technology, Experiments, Autonomy, N. Triscott, M. T., Bravo, island, descriptive reconstruction, Montsrratian verse, Literature, Volcanic Crisis, M. T., Bravo, C., Oppenheimer, A., Donovan, agenda, policy, science, R. L., Zimmern, M. T., Bravo, R. M., Bloomfield, J. J., Blackstock, J. R., Bellingham, L., Bellingan, W. J., Sutherland, active volcanoes, advice, Knowledge generation, volcanology, Social studies, M. T., Bravo, C., Oppenheimer, A., Donovan, management, technologies, volcano, interface, Science, M. T, Bravo, C., Oppenheimer, A., Donovan, eds, M. Butcher, N. Clark, J. Smith, T. Tyszcuk, Cartographic Gestures, C. Aporta, M. T., Bravo, politics, processes, proxies, climate, Forum, Climate Histories, Mementos, Proxies, M. T., Bravo, Gas Guidelines, Offshore Oil, Arctic Council, Regime Theory, Indigenous Knowledge Discourse, Alison Weisburger, Russian North, Economic Development Models, Management, Canadian Co, Reception, Promotion, Building, Community, Knowledge, Elana Wilson, Downing College, Geography, College Lecturer, SPRI Associate, IRCHSS, Victorian Arctic Exploration, Dr. Shane McCorristine, Geography, Knowledges Group, Cultures, Natures, Member, Public Policy Research, Circumpolar History, Convenor, Michael Bravo, coordinator, principal investigator, end, field, inhabitants, state, scientists, what, C19, existence, stations, order, strong historical foundation, project, ICARP, Arctic Research Planning, International Conference, advisor, models, practical application, public policy, sciences, linkages, new models, public eye, change, instruments, sciences, use, environmental monitoring, building, nation, colonisation, roles, variety, science, special interest, my region, Arctic, economic planning, involvement, long history, technology, science, G8, public policy, vehicle, Science, stakeholders, historical actors, diverse communities, account, change, direction, nature, oceans, science, new interdisciplinary understanding, historical foundations, research, Dr. Bravo, way, their environmental history, our knowledge, indigenous culture, stocks, reserves, oil, their circulation, global security, oceans, importance, Atlas, commercial interests, encounters, face, trails, network, Northwest Passage, explorers, arrival, territory, extraordinary command, important routes, sense, partial indication, atlas, Inuit, other sites, different camps, thousands, spatial data, their geo, trails, first attempt, project, precise extent, their journeys, inland routes, snow, ice, winter, continent, trails, network, climate, Inuit traditional travel, world, rest, trails, extensive network, indigenous Inuit, North America, continent, Aboriginal Australians, songlines, Akin, Inuit Trails Atlas, Pan, team, Canada, Humanities Research Council, Social Sciences, grant, Thanks, Inuit Northwest Passage Project, Dalhousie, Claudio Aporta, Director, Co, Bravo, Geography Department, member, Scott Polar Research Institute, Public Policy Research Group, Circumpolar History, Head, Michael Bravo, ground, Arctic geopolitics, mobility, technology, study, new approach, essays, political economy, transformations, mobility, kinds, autonomy, technologies, liberating potential, authors, hydrocarbons, dependence, means, Arctic societies, new green technologies, strategy, Arctic, citizens, autonomy, technology, experiments, extent, points, key question, other northern peoples, Inuit, politics, environment, relationships, technologies, book, arts, geopolitics, ecosystems, its peoples, Arctic, life, realities, Arctic geopolitics, dominant discourses, Marko Peljhan, London, Arts Catalyst, Nicola Triscott, collaboration, result, today, region, ways, Arctic, important roles, centuries, sciences, integration, colonisation, different historical processes, major geographical regions, world, Arctic, book, point, Scandinavian Arctic, lens, extraordinary historical diversity, Arctic, implications, Atlas, Greenland, Alaska, great distances, that Inuit peoples, network, Arctic North America, indigenous cartographic vision, first time, Atlas, spatial data, their geo, centuries, course, traders, missionaries, scientists, Inuit, maps, Atlas, Inuit knowledge, sources, development, team, work, waters, use, community, Northwest Passage, eastern entrance, Lancaster Sound, entrance, Pond Inlet, Carleton University, Fraser Taylor, Claudio Aporta, collaboration, Canada, Social Sciences Research Council, major grant, recent project, Inuit Trails Atlas, Pan, new ontologies, historical emergence, translation, technology, science, calibration, precision, nature, fieldwork, measurement, experiment, philosophy, historical epistemology, issues, Arctic, development, exploration, scientific research, role, Bravo, engineering, satellite, Carleton, B.Eng, technical background, science, philosophy, history, Cantab, Ph.D., interdisciplinary background, Michael Bravo, Associate, Knowledges Thematic Research Group, Cultures, Natures, Geography, Department, Member, Scott Polar Research Institute, Public Policy Research, Circumpolar History, Convenor]</t>
+  </si>
+  <si>
+    <t>[financial innovation, debt, wealth, prices, financial markets, mortgage, housing, economic geography, areas, supervision, Local Knowledge, Child Accident Prevention, Something, Accidents, Childrens, S. J., Smith, H., Roberts, C., Bryce, Human Geography Revisited, Classics, society, space, Crime, my own book, comments, Reply, S. J., Smith, Home Stewardship, Nation, full Citizen, Canny Consumer, B. A., Searle, N., Cook, S. J., Smith, financial markets, mortgage, housing, pieces, Market, Possible Future, Dangerous Territory, Smith S J, markets, consumer, mortgage, borrowers, risks, managing, Identifying, S. J., Smith, K., Case, E., Belsky, interest, support, arrangements, January, evaluation, J., Ford, SJ, Smith, M., Munro, Child Accidents, Professional Research, Lay Voices, Alligators, Pool, your Child, C., Bryce, S. J., Smith, H., Roberts, C., Rice, Scotland, Participatory Case Study, Social Value, Safety, C., Rice, B., Campbell, S. J., Smith, H., Roberts, Clare Hall Tanner, Tanner Lecture Library, mirage, miracle, full markets, S. J., Smith, Temporary Accommodation, Homeless Families, Stay, Length, Factors, S. J., Smith, J. C., Mitchell, E., Kelly, Housing Careers, Health Trajectories, Health Capital, Housing, K., Turner, M., Munro, D., Easterlow, S. J., Smith, Other Things, Housing, Wealth, Flow, Observations, Dematerializing Money, B. A., Searle, S. J., Smith, State, Wealth, Britain, Australia, Mortgage Equity Withdrawal, G., Wood, A., Stoakes, S. J., Smith, B. A., Searle, S., Parkinson, Research Assessment Exercise, Evidence, Environmental Studies, Geography, Assessment, Publishing, Nature, RAE panel, others, K., Richards, state, asset, Britain, emergence, debt, wealth, S. J., Smith, B. A, Searle, S., Lowe, Consumption, Housing Wealth, Channels, G., Wood, S. J., Smith, B. A., Searle, S., Parkinson, R., Ong, Welfare Switching Effect, Equity Borrowing, Motivations, S. J, Smith, B. A., Searle, S., Parkinson, G., Wood, UK, Australia, ownership, perspective, edge, Life, R., Ong, M., Cigdem, S. J., Smith, G. A., Wood, projects, suite, Professor Smith, Moira Munro, Donna Easterlow, UKs, DWP, evaluation, Peter Williams, Christine Whitehead, Joseph Rowntree Foundation, Australian Research Council, earlier project, Rachel Ong, Gavin Wood, Urban Research Institute, Australian Housing, audiences, Augusto Boal, Interactive Forum Theatre, style, original academic research, findings, experiment, project, Cambridge University, grant, impact, Menagerie Theatre Company, Mia Gray, Dr, collaboration, participatory techniques, variety, interest, quantitative approaches, mix, work, charitable trusts, bodies, councils, Her work, financial markets, mortgage, housing, uneven integration, economy, inequalities, Her current research, crime, fear, health, housing, residential segregation, themes, inequality, challenge, research, Professor Smith, human values, field, outstanding abilities, uncommon achievement, recognition, Tanner lecturer, Appointment, research, conspicuous merit, British Geographers, Institute, Royal Geographical Society, academy, ideas, dissemination, topics, variety, levels, portfolio, teaching, UK, HEIs, monitoring, development, Philip Leverhulme Prize panel, Leverhulme Trust, Research Assessment Exercises, member, HEFCE, Public Services Programme Commissioning Panel, Panel, Professorial Fellowships, Research Grants Board, ESRC, work, kinds, assessment, strategy, management, Professor Smith, years, research, programme, addition, studies, interdisciplinary world, human geographer, distinguished career, Professor Smith]</t>
+  </si>
+  <si>
+    <t>[ed, D.W., MacDonald, life, tree, A., Purvis, J.L., Gittleman, S.A., Price, R., Grenyer, R.M.D., Beck, R.D.E., MacPhee, K.E., Jones, M., Cardillo, O.R.P., Emonds, Bininda, I.P.F., Owens, J.L., Gittleman, K.J., Gaston, T.M., Blackburn, P.M., Bennett, Z., T, Ding, P.C., Rasmussen, R.S., V.A., Olson, K.E., Jones, T.J., Davies, R.G., Davies, G.H., Thomas, S.F., Jackson, C.D.L., Orme, R., Grenyer, I.P.F., Owens, J.L., Gittleman, K.J., Gaston, T.M., Blackburn, P.M., Bennett, Z., T, Ding, P.C., Rasmussen, V.A., Olson, K.E., Jones, T.J., Davies, R.G., Davies, G.H., Thomas, S.F., Jackson, C.D.L., Orme, R., Grenyer, V., Savolainen, T.A.J., Hedderson, G., Reeves, M., Bank, van, S., Proches, J.C., Manning, A., Balmford, D.P., Faith, R.M., Cowling, T.J., Davies, M., Rouget, R., Grenyer, F., Forest, A., Purvis, J.L., Gittleman, R.A., Vos, S.A., Price, R., Grenyer, R.M.D., Beck, R.D.E., MacPhee, K.E., Jones, M., Cardillo, O.R.P., Emonds, Bininda, A., Purvis, G.M., Mace, J.L., Gittleman, K.E.J., Jones, M., Cardillo, O.R.P., Emonds, Bininda, J., Bielby, C.D.L., Orme, R., Grenyer, S.A., Fritz, T.J., Davies, E.J., Gulland, Milner, C., Watson, D.C., L. Reuman, Peck, D., Osborn, M., Muuls, S., Mourato, R., Metcalfe, R., Grenyer, J., Gibbons, T.A., Gardner, J.A., Fa, R.M., Ewers, T., Clements, S., Buckle, G., Atkinson, P.R., Armsworth, G.M., Mace, E., Nicholson, A., Purvis, G.M., Mace, J.L., Gittleman, O.R.P., Emonds, Bininda, A., Teacher, J., Rist, E.A., Rigby, S.A., Price, C.A., Plaster, M., Habib, R., Grenyer, J.K., Foster, M.J., Cutts, C., Connolly, C., Carbone, E.H., Boakes, W., Sechrest, K., Safi, C.D.L., Orme, J., O'Dell, S.A., Fritz, M., Cardillo, J., Bielby, K.E.J., Jones, T., Brooks, S.N., Stuart, J., Schipper, K., Safi, M., Hoffmann, J.L., Gittlemann, O.R.P., Emonds, Bininda, J.E.M., Baillie, R., Grenyer, A.S.L., Rodrigues, systematic map, globe, systematic conservation, effectiveness, evidence, distribution, extent, What, F., Mazel, M., Winter, D.F., Rosauer, D.W., Redding, O., Purschke, S., Pavoine, A.O., Mooers, L.S., Jin, M.R., Helmus, R., Grenyer, S.A., Fritz, S., Ferrier, T.J., Davies, S.B., Carvalho, M.W., Cadotte, C.M., Tucker, project, doctoral position, other scholarship, Clarendon, doctoral opportunities, computational background, conservation, students, Richard, Final Honours School, MSc course, courses, Tenerife, courses, SoGE, courses, module, Research Methods, GIS course, Management, Conservation, Biodiversity, MSc, module, Strategic Conservation Planning, Final Honours School, Option, Conservation, Biodiversity, Biogeography, Preliminary Examination, course, Quantitative Methods, course, Biosphere, Ecology, Richard, grey area, range, black line, cells, sets, G, Ecoregions, Global, E, Endemic Bird Areas, H, Biodiversity Hotspots, Performance, species, times, number, n, Cn, amphibians, mammals, birds, A, M, mammals, B, birds, approach, Networks, amphibians, mammals, birds, species, c, rare species, richness, respect, Performance, Orme, Grenyer, network, different types, relative performance, graph, example, credible science, criterion, spatial combinatoric problem, form, solutions, plans, practitioners, allocation, much difference, diversity, genetic diversity, many species, desirable properties, biodiversity, portfolio, duty, result, differential risk, likelihoods, others, populations, species, conservation, choices, future, what, today, conservation, what, Numerical analyses, decisions, ground, Strategic Conservation Planning, Numerical analyses, process, computing, ecology, evolutionary biology, techniques, biodiversity, conservation, analytical strategies, Richard, biological interaction, location, ancestry, influences, problem, basic level, biological patterns, model, mechanism, species, phylogeny, different regions, species, number, macroecological models, components, pattern, most ecological datasets, example, spatial component, observations, set, fun, space, similarity, decay, model, geographic terms, length, evolutionary change, model, phylogenetic terms, observations, distance, function, change, model, cases, similarity, observations, similarity, our expectations, means, geographical maps, phylogenetic trees, many ways, Davies, data, close relatives, large families, explosive radiations, South America, mammals, their current high richness, long time, African mammals, their phylogenetic relatedness, colour, today, mammal, number, vertical extrusion, continents, diversity, different kinds, South America, Africa, different Gondwanan legacies, mammals, phylogeny, distribution, example, diversity, different ways, What, services, different amounts, different kinds, species, ecology, biology, differences, which species, geography, Wallacean shortfall, processes, evolutionary pressures, current product, species, biodiversity, units, ecology, problem, biodiversity, endemism, richness, same spatial pattern, theory, time, space, organisms, lineages, solid theory, biodiversity, maintenance, generation, spatial processes, role, Richard, biologist, Cape Town, University, visits, Johannesburg/ Pretoria, University, Cape Town, University, Darwin Initiative, South Africa, courses, international universities, numerous UK, seminars, East Anglia, University, Systematic Biology conference, South African Society, plenary talks, Richard, better incarnations, UVA, dataset, years, times, species, first complete evolutionary tree, long collaborative study, decade, contributor, Richard, Since, Imperial College London, Richard, phenotypes, genotypes, widest variety, most species, efforts, first demonstration, guidance, species, knowledge, data, global scale, decisions, first time, insects, mammals, traits, extinction, maintenance, evolution, phylogenetic comparative methods, thesis, measures, score, evolutionary histories, disparate mix, Baviaanskloof, South Africa, Eastern Cape, regions, flora, Jesus College, Physical Geography, Tutor, August, Oxford, University, Environment, Geography, School, Biogeography, Biodiversity, Associate Professorship, strategy, science, geographical processes, space, fundamental position, who, biologist, Richard Grenyer]</t>
+  </si>
+  <si>
+    <t>[development, initiation, model, erosion, Emergence, B., Lascelles, A.J., Parsons, J., Boardman, D.T., Mortlock, Favis, Cumbria, Seathwaite Valley, medieval clearance, Evidence, A., Parker, J., Boardman, D., Anderson, C., Wells, C., Wild, W.W., Doe, R.S., Harmon, care, modeling, limits, V.J., MacMillan, J., Boardman, D.T., Mortlock, Favis, photogrammetrist, Non, Geomorphological Research, Valuable Tool, Automated Digital Photogrammetry, J., Boardman, T., Parsons, D., Mortlock, Favis, B., Lascelles, J., Innes, N.F., Glasser, D., Huddart, Skiddaw, Grasmoor, Sandbeds Fan, Throstle Shaw, Helvellyn, Mosedale, Thornsgill, J., Boardman, South Africa, Great Karoo, Sneeuberg, gullies, badlands, Development, R., Washington, P.J., Holmes, R., Holl, A.J., Parsons, J., Boardman, South African Karoo, dynamics, degradation, M.E., Meadows, J., Bright, Keay, J., Boardman, I.D.L., Foster, JA, Youngquist, J., Evans, J., Burley, consequences, major processes, Europe, Soil erosion, J., Poesen, J., Boardman, J., Kalvoda, A.S., Goudie, time, space, variation, challenge, Soil erosion, J., Boardman, ISBN, December, New Zealand, Christchurch, Environments’, Sediment Dynamics, Symposium, IAHS, ICCE, Hydrological Sciences, International Association, Continental Erosion, Hydrological Sciences Press International Commission, International Association, South Africa, Eastern Cape, sedimentation, farm, study, degradation, erosion, impacts, European, Post, M., Steven, C., Watkins, S., Seymour, R., Fish, South Downs, future, sustainability, Soils, J., UK Boardman, Sussex, South Downs, muddy floods, erosion, patterns, vulnerability, system, GIS, southern England, northern France, central Belgium, muddy floods, approaches, comparison, B., Wesemael, A.V., Auzet, K., Vandaele, J., Boardman, M., Liegeois, C., Heitz, O., Evrard, M., Meadows, P., Holmes, Chapter, degradation, Soil erosion, G.F.S., Wiggs, P.J., Holmes, M.T., Hoffman, J., South East England Boardman, agricultural land, erosion, implications, water, erosion, reference, cover, date, significance, southern England, West Sussex, particular reference, watercourses, delivery, mobilization, respect, sunken lanes, hydrological role, Vienna Austria, April, EGU General Assembly, Karoo rangeland, its subsequent fate, erosion, Soil, N., Kuhn, M., Measows, J., Boardman, I., Foster, G., Heckrath, B., Kuhn, P., Greenwood, J., Krena, control, adoption, recommendations, catchments, muddy flooding, use, spatial organisation, Effect, Policy, Environmental Science, Panagos P. et al, Europe, erosion, loss, new assessment, governance, systems, practical approaches, study, United Kingdom, work, water, Wales, England, grassland, arable, rates, soil, estimates, comparison, September, Hull, Geomorphology Annual Meeting, British Society, adjustment, valley, dynamics, continuity, dis, impact, R., Phillips, Copeland, I.D.L., Foster, J., Boardman, J., West Sussex Evans, Rother valley, case, river, field, travels, runoff, erosion, connectivity, UK, South Downs National Park, former serious erosion, sites, risk, soil, changes, motivations, influence, Northampton, University, River Rother, options, Sediment Pressures, student, John, Edinburgh, Exeter, Universities, MSc degrees, External Examiner, trips, course, John, South Africa, Sneeuberg, farming, impact, history, Autumn, new project, John, South Africa, degradation, southern England, erosion, John, Environmental Management committee, Earth System Science, Transdisciplinary Proposal Standing Assessment Board, Technology, Science, European Cooperation, COST, UK representative, Erosion, Runoff, Site Impacts, Off, COST, Working Group, countries, Global Change, Soil Erosion, COST Action, EU, Chairman, John, Wiley, Europe, Soil Erosion, Springer, Water, Soil Erosion, Wiley, Agricultural Land, Soil Erosion, CUP, Ireland, Britain, Landforms, Periglacial Processes, Wiley, Quaternary Landscape Evolution, Soils, several books, degradation, papers, Cape Town, University, Geographical Science, Environmental, Department, Honorary Professor, South Africa, Karoo, issues, land, ECI, Emeritus Fellow, Management, Environmental Change, MSc, Director, ECI, Deputy Director, his positions, September, ECI, John, PhD, BSc, London, DSc, BA, Keele, Universities, geomorphologist, John Boardman]</t>
+  </si>
+  <si>
+    <t>[G. Bergkamp, M., Smith, T., Greiber, C., Sadoff, Chapter, management, costs, benefits, share, D., Grey, C., Sadoff, Management, Policy, Water Science, MSc, international waters, sanitation, supply, security, subjects, range, Grey, Prof, delivery, water, management, water, performance, structures, interest, environmental sustainability, livelihoods, security, other change, risks, levels, water, jurisdictional disputes, inter, sharing, role, migration, conflict, environmental degradation, poverty, insecurity, stability, growth, plays, water, roles, His current special interests, Mekong River Commission, Experts, International Panel, member, Chatham House, Strategic Studies, International Institute, Associate Fellow, Water Security, Global Action Council, World Economic Forum, member, Recent roles, Global Water Partnership, founding partner, Sanitation Collaborative Council, Water, member, World Water Council, Board member, example, many affiliations, portfolio, sanitation, supply, irrigation, resources, community, advisory oversight, policies, responsibility, its Water Resources Management Group, Chair, Senior Water Advisor, World Bank, UK, activities, research, BGS Wallingford, Hydrogeology, Group Manager, years, years, British Geological Survey, staff, hydrogeologist, World Bank, staff, years, Water Policy, Visiting Professor, Oxford University, professional bodies, world, shifts, global level, building, political advocacy, regional level, cooperative development, legal frameworks, resolution, negotiation, level, investments, policies, national governments, levels, services, water, level, irrigation, sanitation, supply, management, level, village, community, multiple levels, experience, large budgets, national teams, manager, researcher, practitioner, analyst, water, Europe, Asia, Americas, Africa, development, management, experience, David Grey]</t>
+  </si>
+  <si>
+    <t>[pp.79, Geography, International Perspectives, Springer, future, earth, modern knowledge, Traditional wisdom, eds, Y. Ishikawa, K. Okamoto, geographical explanations, Social difference, Modernity, Plural knowledges, Editors, P Martin, T Perreault, Latin America, neoliberalism, Geographies, special issue, part, 21st century, political actors, indigenous populations, rise, Special issue, socioeconomic development, mould, indigenous political actors, Myths, Gaps, ed, K. Bakker, neoliberal natures, Special issue, P. Anthias, Bolivia, neoliberal natures, production, titling, its limits, environmental fix, ethno, interests, mind, topic, Europe, rights, migrants, themes, United States, Guatemala, Costa Rica, Mexico, work, students, Andean countries, My own research, difference, Indigenous geographies, various issues, Sustainable Development Goals, agendas, one, policy, politics, policy, citizenship, social difference, contentious politics, work, topics, cartography, territory, postcolonial politics, policies, intersectionality, social heterogeneity, governance, postneoliberal development, her own research, topics, policy, which Ecuador, extent, recent work, futures, Contentious politics, Social Development, Culture, Postcolonialism, ESRC, nationalism, multiculturalism, identities, Chilean classrooms, Intercultural Bilingual Education, current research, postcolonial national identities, Geographies, December, Americas, Institute, seminar, Ecuador, contemporary politics, development, topic, Sarah Radcliffe, ESRC, British Academy, Ecuadorian development, intersectionality, Exclusion, recent research, Postcolonial Governance, Social Heterogeneity, Development]</t>
+  </si>
+  <si>
     <t>[June, Keele, University, Coastal Engineers, River, Annual Conference, same title, paper, Hall JW, Sayers PB, Meadowcroft IC, HR Wallingford, Environment Agency, report, alternative paradigm, need, unrepeatable hydrological processes, uncertainty, M.G., Anderson, J.W., Hall, January, Coastal Management, International Conference, practice, sustainability, management, regional approach, North Norfolk, J.W., Hall, M., Walkden, J., Farrow, J., Lawton, G., Watson, P., Sayers, P., Frew, C., Ohl, England Wales, risk, impacts, drivers, analysis, A.J., Saul, C.R., Thorne, P.B., Sayers, E.C., Rowsell, Penning, E.P., Evans, J.W., Hall, assessment, flood, methodology, R., Deakin, J.B., Chatterton, C., Rosu, P.B., Sayers, R.J., Dawson, J.H., Hall, UK, Brighton, Coastal Management, ICE International Conference, Proceeding, Shoreline Management Planning, assessment, Flood, P., Bates, Hall J.W., P.B., Sayers, R., Dawson, imprecise information, model, hydrology, analysis, M.G., Anderson, J.W., Hall, E., Rubio, fuzzy labels, framework, learnt knowledge, expert, Fusion, R., Bovey, J.W., Hall, J., Lawry, management, performance, methodology, decision, C.A., Taylor, J.P., Davis, E.A., Langman, Baker, J.W., Le Masurier, J.W., Hall, upper probabilities, approximations, extension, combination, Generation, J., Lawry, J.W., Hall, shores, development, erosion, model, J.W., Hall, M.J.A, Walkden, scenarios, level, case, Thames Estuary, probability, analysis, R.J., Nicholls, P.D., Bates, J.W., Hall, R.J., Dawson, systems, analysis, flood, C., Rosu, P., Bates, P., Sayers, J.W., Hall, R., Dawson, planning, assessment, coastal flooding, dimensional modelling, M., Hassan, J.K., Wicks, R.J., Nicholls, M.S., Horritt, J.W., Hall, R.J., Dawson, P.D., Bates, systems, risks, P., Sayers, M., Dickson, M.J., Walkden, L., Manning, R., Dawson, J.W., Hall, ed, O., Hryniewicz, P., Grzegorzewski, A., M, Gil, L., Shoumei, A., Bugarin, E., Miranda, J., Lawry, Earth Systems Engineering, Soft methods, J.W., Hall, UK, management, Future flood, A., Watkinson, C., Thorne, P., Sayers, E., Rowsell, Penning, J.W., Hall, E., Evans, C.D., Kolstad, T., Wilson, J.M., Reilly, F., de la Chesnaye, J.B., Smith, H., Kheshgi, M., Schlesinger, rise, mean sea, responses, impacts, J.W., Hall, R.S.J., Tol, R.J., Nicholls, uncertainties, fuzzy scenarios, aggregation, change, Imprecise probabilities, J., Lawry, G., Fu, J.W., Hall, uncertainty, decision, scenarios, C.J., Wallace, A., Pearman, C.G., Kilsby, P.D., Jones, L., Cabantous, R., Betts, M., Best, J.W., Hall, C.M., Goodess, first century, coastal region, change, Systemic impacts, J.W., Hall, M.J.A., Walkden, M.E., Dickson, E.C., Rowsell, Penning, E.P., Evans, C.R., Thorne, Strategic Choices, Chapter, C.R., Thorne, E.C., Rowsell, Penning, J.W., Hall, E.P., Evans, A.R., Watkinson, E.C., Rowsell, Penning, E.P., Evans, C.R., Thorne, Wales, England, portfolios, risk, analysis, Chapter, R., Deakin, M., Panzeri, J.W., Hall, P.B., Sayers, E.C., Rowsell, Penning, E.P., Evans, C.R., Thorne, Wales, England, risk, impacts, assessment, Chapter, R., Deakin, M., Panzeri, P.B., Sayers, J.W., Hall, E.C., Rowsell, Penning, E.P., Evans, C.R., Thorne, uncertainty, scoring, Driver, Chapter, J.W., Hall, C.R., Thorne, J.D., Simm, E.C., Rowsell, Penning, E.P., Evans, C.R., Thorne, Overview, Chapter, C.R., Thorne, E.C., Rowsell, Penning, J.W., Hall, E.P., Evans, landslides, rainfall, networks, reliability, Spatial analysis, M.G., Anderson, S., Glendinning, C.G., Kilsby, J.W., Hall, L.J., Manning, Thames Estuary, rise, rapid sea, threat, Plausible responses, J., Hall, R., Dawson, A.T., Vafeidis, D., Parker, R.J., Nicholls, T.E., Downing, K.G., Lonsdale, solver, shallow water, adaptive quadtree, Flood inundation, A.G.L., Borthwick, J.W., Hall, G., Du, Q., Liang, urban areas, risk, Attribution, J., ro, Le, D., Savic, S., Djordjevic, J.W., Hall, L., Speight, R.J., Dawson, N., Okada, C., Gopalakrishnan, scenarios, level, sea, Thames Estuary, probability, analysis, R.J., Nicholls, P.D., Bates, J.W., Hall, R.J., Dawson, assessment, water, ensemble, information, probabilistic climate, others, C., Tebaldi, C.G., Kilsby, H.J., Fowler, J.W., Hall, L.J., Manning, A., Mehmood, J., Crawford, S., Davoudi, decision, Integrated assessment, J.W., Hall, ed, K., Tang, cities, change, integrated assessment, blueprint, A.M., Zanni, H., Watters, C.L., Walsh, M.R., Tight, J., Köhler, A.C., Ford, S., Evans, A., Dagoumas, S., Carney, A.L., Bristow, M., Batty, S.L., Barr, J.W., Hall, R.J., Dawson, A., Watkinson, S., Koukoulas, P., Bates, J., Rees, S., Pearson, A., Jordan, J., Milligan, J., Zhou, J., Richards, M., Mokrech, P., Stansby, M.J.A., Walkden, J.W., Hall, R.J., Nicholls, M.E., Dickson, R.J., Dawson, future prospects, progress, years, utilities, environment, infrastructure, adaptation, impacts, Strategic research, R., Street, J.W., Hall, eds, H. Faulkner, G., Pender, Chapter, management, flood, scene, E.C., Rowsell, Penning, J.W., Hall, A., Zanni, H., M. Watters, Tight, C., Harpham, A.C., Ford, A., Dagoumas, S., Carney, A., Bristow, M., Batty, S.L., Barr, J.W., Hall, R.J., Dawson, C.L., Walsh, J.W., Hall, J., Lowe, M., Rounsevell, A., Watkinson, P., Stansby, J., Leake, S., Jude, S., Cole, Nicholson, C., Fontaine, M., Walkden, J., Wolf, R., Nicholls, S., Hanson, M., Mokrech, Z., Xu, M., Ren, J., Wang, H., Sun, M., Scott, J., Wicks, H., Wu, C., Hu, Y., Wang, E.P., Evans, J.W., Hall, X., Cheng, C., Yu, watersheds, systems, energy, Water, J.W., Hall, M.B., Beck, R., Villarroel Walker, ed, P.B., Sayers, infrastructure, risk, Towards, uncertainty, Robust decision, J.W., Hall, G.E., Galloway, P.B., Sayers, ed, Z.W., Kundzewicz, Chapter, responses, change, evidence, UK, Flood risk, J.W., Hall, J., Hannaford, C.G., Kilsby, K.J., Beven, P.E., O'Connell, K., Conlan, R., Street, L., Vial, M., Keil, G., Watts, J.W., Hall, L., Hall, S., Sparks, J., Rougier, uncertainty, Flood risk, P.D., Bates, J.W., G. Hall, Schumann, J., Neal, K.J., Beven, J., Freer, A., Kraavi, Anger, C., Thoung, R., Beaven, J.W., Hall, K., Jenkins, J., Li, D., Guan, M., Sydall, D., Brown, Crawford, M., Birkin, N., Malleson, D., Smith, C., Goodess, M., McCarthy, C., Kilsby, V., Glenis, J., Hall, K., Jenkins, J., Watson, G., Watson, R., Velykiene, P., Tyler, C., Thoung, A., Stringfellow, R., Street, N., Rai, J., Preston, W., Powrie, F., McLeod, N., Malleson, A., Lorenz, A., Leathard, C., Kilsby, C., Jones, N., Eyre, T., Curtis, M., Chaudry, M., Birkin, P., Baruah, R., Nicholls, A., Hickford, J., Henriques, J., Hall, D., Wiberg, D., Whittington, M., Rosegrant, C., Ringler, P., McCornick, J., Kelman, D., Garrick, S., Dadson, A., Cox, C., Brown, M., Kadi, Ait, J.C.J.H., Aerts, D., Grey, J.W., Hall, C.W., Austria Sadoff, Vienna, IIASA),Schloss Laxenburg, Applied Systems Analysis, International Institute, October, September, Next Generation Infrastructure Conference Proceedings, International Symposium, ed, B., T.and Collins, Dolan, Systems, National Infrastructure System, Integration, Solid Waste Infrastructure Management Model, ed, B., T.and Collins, J. Dolan, Hall, W., Powrie, A.M., Stringfellow, G.V.R., Watson, D., Turner, J., Coello, M.C., Ives, industry, Potential applications, climate, Modelling extreme weather, M., Allen, J., Hall, F., Otto, N., Massey, R., James, B., Guillod, M., Chaudry, C.G., Kilsby, M., Tran, J.M., Amesaga, J.W., Hall, D., Alderson, A., Leathard, M., Qadrdan, E.A., Byers, L., Brekke, W., Yu, G.A., Characklis, J., Hall, A., Ostfeld, E.A., Zagona, P.M., Reed, X., Cai, J.R., Lund, C.M., Brown, M., Watson, T., Wagener, P.J., Smith, D.B., Stephenson, M., Simpson, J.T., Rougier, J.C., Phillips, T., Page, J.W., Hall, K., Goda, E., Borgomeo, P.D., Bates, W.P., Aspinall, K.J., Beven, S.J., Dadson, J.W., Hall, E.A., Zagona, G.M., Abdo, A., Mersha, S.O., Eltoum, Z.T., Mekonnen, M., Basheer, K.G., Wheeler, T., Wagener, D., Stephenson, T., Economou, A., Kingsborough, S., Almeida, M.C., Ives, E., Borgomeo, J.W., Hall, R., James, M., Simpson, R., Nicholls, A., Hickford, J., Hall, M., Tran, assessment, Water supply, C., Kisby, J., Hall, M.C., Ives, M., Simpson, Vienna Austria, April, EGU General Assembly, national scale, model, decision, drought, solutions, nature, strategies, Evaluation, J., Hall, M., Ives, M., Simpson, J., Williams, K., Wheeler, S., Raman, M.H., Rubarenzya, N., Ratna, H., Pohlner, M., McCartney, H., Leckie, B., Lankford, P., Katic, J.W., Hall, S., Farolfi, K., Dowsley, L., De Stefano, D., Connell, A., Aureli, E., Ansink, N., Matthews, S., Orr, S., Wheeler, J., Pittock, D., Garrick, C., Ringler, D., Wichelns, P., Wyrwoll, K., Hussey, M., McLindin, R.Q., Grafton, morphological changes, decadal, order, models, landform, framework, Coastal Modelling Environment version, M.A., Ellis, R.J., Nicholls, M.C., Ives, I., Townend, M.J.A., Walkden, M., Hurst, J.W., Hall, M., Dickson, D., Mortlock, Favis, A., Payo, R., Wilby, C., Thorne, D., Sear, N., Reynard, E., Rowsell, Penning, E., O'Connell, S.N., Lane, I.P., Holman, J., Holden, A.L., Heathwaite, K., Beven, P., Bates, M., Acreman, A., Murgatroyd, J.W., Hall, S., Dadson, rise, sea, Impacts, coastal management, probabilistic information, Use, recession, Stochastic simulation, scales, extended time, evolution, modelling, Simplified process, uncertainty, decisions, risk, risk, economic change, socio, change, Impacts, methods, Advanced sampling, systems, flood, analysis, analysis, flood, integrated assessments, analysis, Methodologies, cities, change, assessment, interdependence, reliability, Infrastructure, systems, National assessment, analysis, futures, Decision support, theory, Info, uncertainty, Robust decision, analysis, global change, adaptation, London, mitigation, adaptation, climate, innovative integrated assessment, cities, change, programme, Tyndall Centre’s, Deputy Director, London, risks, quantified analysis, tools, methodology, project, modelling, uncertainties, analysis, work, theory, info, imprecise probabilities, theory, theory, environmental systems, civil engineering, probability, generalized theories, application, Lloyds Jim, coastal erosion, flooding, his work, Civil Engineers, Institution, Frederick Palmer Prize, Robert Alfred Carr Prize, George Stephenson Medal, Environment Agency’s, part, 21st Century, London, options, appraisal, analysis, framework, period, UK, coastal erosion, responses, risks, OST’s, author, UK, methods, risk, theoretical basis, Jim, fellow, His book, risks, investment, appraisal, models, first national infrastructure, world, Public Voice Committee, Engineering, Royal Academy, Engineering Policy Committee, member, UK, management, flood, approaches, analysis, flood, methods, development, his contribution, scarcity, flooding, security, various dimensions, systems, risks, climate, management, His research]</t>
   </si>
   <si>
-    <t>[C.M. Lee, M. Meredith, R. Moritz, M. Steele, R.B. Lammers, K. Aagaard, R.A. Woodgate, A.G. Slater, A.P. Barrett, M.C., Serreze, fishing, piano, gardening, golf, Ice Data Center, National Snow, scientists, specialists, programmers, cryosphere, Earth, work, genetic aberration, solar cells, lasers, my uncle, research, My brother, chemists, my parents, radar, early development, Grandpa, family, outgoing tide, Kennebunk River, floes, skating, sledding, afternoon, plenty, most winters, Maine, cold water, ice, snow, my interest, previous years, comparisons, conditions, sea, scientific analysis, NSIDC scientists, season, summer, month, first week, extent, Arctic sea, updates, lag, time, yields, satellite, Rapid processing, conditions, Arctic sea, round analysis, year, NSIDC, Ice Data Center, National Snow, free Arctic Ocean, ice, rapid transition, concern, downward trend, points, September, minima, extreme seasonal ice, late summer, years, past, ice, global climate, Arctic cool, sunlight, ice, Arctic, rapid environmental changes, sense, years, Efforts, Alaskan tundra, icecaps, ice, Canadian Arctic, work, change, problems, synoptic climatology, interactions, sea, atmosphere, Interests, Arctic, love, cover, snow, cryosphere, our planet, aspects, his research, CIRES, Environmental Sciences, Research, Cooperative Institute, part, NSIDC, Ice Data Center, National Snow, Director, Mark C. Serreze, Boulder, Colorado, Ph.D. University, CIRES, Fellow, NSIDC, Director, Arctic, climate, global implications, Arctic climate, Geography, Research Professor]</t>
-  </si>
-  <si>
-    <t>[Urology, European Association, Urological Surgeons, British Association, GenitoUrinary Surgeons, American Association, medical organisations, member, addition, South East Urological Training scheme, London, UCL, teaching, Professor Emberton, Urology, European Association, Geriatric Oncology, International Society, symptoms, PCa, management, guidelines, development, dynamic therapy, photo, ultrasound, high intensity, approaches, materials, nanotechnologies, techniques, implementation, PCa, cancer, strategies, tools, risk, Professor Emberton’s clinical research, Prostate Cancer UK, Founding Pioneer, University College Hospitals NHS Foundation Trust, Urologist, Honorary, UCL, Interventional Oncology, Professor, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+    <t>[deposits, water, OSL, New chronologies, northern Namib Sand Sea, Quaternary palaeohydrological changes, T., Sternberg, L., Mol, Chapter, luminescence, use, Namib Desert, past conditions, records, past, light, A.E.C., Stone, luminescence, application, review, Namib Desert, palaeohydrological change, late Quaternary, Casting new light, mass balance, recharge, field, Kalahari dune, unsaturated zone, Namibia, Stampriet Basin, water, salt, Sand, sabbatical cover, Dr Richard Bailey, latter course, Quaternary Period, Dynamics, Dryland Landscapes, Final Honour School Special Subjects, tutor, Physical Geography Field Classes, department, paper, Geographical Research, classes, laboratory, papers, Geographical Research, Environmental Geography, components, paper, Earth System Dynamics, core, Preliminary Examination, papers, Geographical Controversies, Geographical Techniques, parts, course, Earth System Processes, St Edmund Hall, St Catherines College, tutorials, Colleges, St Hilda, Worcester, teaching, Christchurch Colleges, Keble, posts, College, St John, physical geography, Abi, region, chronologies, m, dunes, few metres, small features, formation, recent aeolian activity, samples, preliminary results, dunes, different generations, orientations, different sizes, features, morphology, morphology, region, new chronological data, study, features, complete overturning, years, activity, luminescence, years, sand, region, data, dunefield, chronological control, paucity, earth, forms, types, range, sea, unconsolidated dunes, Namib Sand Sea, aged Tsondab Sandstone, tertiary, semi, oldest deserts, earth, Namib Desert, northern Namib, features, characteristics, age, research, northern Namib Sand Sea, far northern extent, features, rates, dune, Namibia, west coast, palaeohydrological change, palaeoenvironmental, understanding, data, contribution, Abi, sediments, lain, water, chronologies, deposits, aeolian sand, higher discharge, periods, associations, rates, dune, stratigraphy, ground, dunes, OSL, environment, past dynamics, our knowledge, Namib Desert, OSL, luminescence, application, series, U, OSL, fluvial tufa, sediments, interdune water, dune, DPhil, Abi, research, methods, field, dynamics, term, cluster, Landscape Dynamics, effort, part, India, Ashok Singhvi, Prof, potential collaboration, regions, methods, Abi, year, Sampling, availability, records, paucity, regions, environmental change, our understanding, great significance, proxy, development, other researchers, China, Badain Jaran Desert, millennial timescales, centennial, information, CMB approach, Recent notable success, timescale, Namib Sand Sea, regions, sites, coverage, environmental response, spatial complexity, accordance, proxy records, years, progressive aridification, records, coherence, systems, interface, southern African subcontinent, environmental dynamics, long term, questions, vast Namib Sand Sea, regions, sand, CMB methods, proxy, provision, agricultural development, groundwater, region, OSL analysis, dual moisture, southern Kalahari, dunes, Future sampling, abstraction, majority, layer, surface, sands, direct mechanism, recharge, regional estimate, basin, spatial variability, need, sediments, input, rainy season, timescales, multi, profiles, y, mm, rates, high suitability, Namibia, sites, Results, South Africa, Botwsana, Namibia, resource, key transboundary, Stampriet Artesia Basin, research, southern Kalahari, linear dunes, recharge, rates, methods, CMB, balance, chloride, application, Fell Fund, BSG small grant, Oman fellowship, Thesiger, research, moisture, traditional proxies, drylands, fluctuations, late Holocene, proxy, novel, supplies, sustainable use, effective planning, policy, rates, behaviour, vital scientific data, Abi, millennial timescales, century, century, decadal, hydrological dynamics, understanding, aim, sediments, moisture, chemical tracers, use, research, dynamics, Quaternary, reconstruction, sediments, moisture, chemical tracers, research, Abi, broad themes, Dynamics optional FHS subjects, Desert Landscapes, Quaternary Science, tutor, FHS Geographical Research paper, part, practical classes, St Edmund Hall, St Catherines College, tutorials, Colleges, St Hilda, Worcester, teaching, Christchurch Colleges, Keble, posts, College, St John, physical geography, fellow, Abi, project, English Heritage, up, Rock Breakdown Laboratory, Heather Viles, Prof, Oxford, Geography, Environment, Geography, School, terrestrial proxies, Namibia, Quaternary environmental conditions, reconstruction, her thesis, proxy, order, large Namib Sand Sea, techniques, pore, applicability, region, geomorphological history, palaeoenvironmental, Namib Sand Sea, material, dating, southern African subcontinent, Namibian portion, focus, areas, Quaternary palaeoenvironments, research, Abi, Royal Geographical Society, Oman International Fellowship, her Thesiger, study, theme, vertical profiles, history, groundwater, nitrate, origin, production, unconfined groundwater, recharge, rates, order, Kalahari, Stampriet Basin, sediments, sand, moisture, pore, David Thomas, Prof, Mike Edmunds, Prof, Abi, Quaternary drylands, mechanisms, timing, questions, active hydrological cycle, part, aquifers, questions, techniques, timescale, range, dynamics, processes, resources, dynamics, environmental change, systems, dynamics, interests, Abi]</t>
+  </si>
+  <si>
+    <t>[our site, browser, cookies, site, policies, privacy, use, others, cookies, their analysis, additional cookies, systems, site, settings, cookies, course, period, rolling basis, places, deadlines, careful note, June, entry, Applications, Beyond, Southern Africa, Distribution, Politics, Patriarchal Productionism, Fish, Man, Professor James Ferguson]</t>
+  </si>
+  <si>
+    <t>[November, Roma, Lincei, Accademia Nazionale, Malariology Centenary Conference, Papers, malariology, years, Malaria Challenge, D., Bradley, M., Coluzzi, United Kingdom, travellers, prevention, Guidelines, UK Travellers, Malaria Prevention, Health Protection Agency Advisory Committee, B., Bannister, D.J., Bradley, World Health Organization, Health Research, Global Forum, Geneva, interventions, malaria, economics, A., Mills, D., Bradley, S., Meek, J.D., Lines, C., Goodman, K., Hanson, emergence, change, land, recommendations, Unhealthy landscapes, Disease Emergence, Land Use Change, Working Group, D.J., Bradley, D., Molyneux, J., Foufopoulos, A.M., Kilpatrick, N.D., Wolfe, J., Epstein, M., Pearl, A.A., Aguirre, G.M., Tabor, P., Daszak, J.A., Patz, R. Safman, K.H., Phua, B.S.A., Yeoh, H.L., Chee, A., Sleigh, transmissible diseases, several scales, problems, insights, migration, epidemiology, D.J., urban Bradley, epidemiology, cases, role, D.J., Bradley, R., Pearce, J., Todd, L., Osorio, data, UK, observational study, groups, malaria, C.J.M., Whitty, P.L., Chiodini, R.H., Behrens, M., Blaze, V., Smith, D.J., Bradley, A.D., Smith, colonial era, Andaman Islands, mortality, indirect contribution, Malaria, D.J. Bradley, S.I., Hay, G.D., Shanks, nomadic settlement, Environmental change, SW Uganda, malaria, Determinants, Colombia, Malaria spatial epidemiology, doctoral research, malaria, Disease control, undergraduate lectures, Ecohealth, Malaria Epidemiology, LSHTM, Countries, Public Health, MSc, malaria, issues, conceptualization, diseases, water, classification, India, historical epidemiology, epidemiology, disease, bodies, role, his fascination, changes, water, nomadic pastoralists, problems, Ugandan colleagues, retirement, Public Health, Royal Institute, Harben Gold Medal, Hygiene, Tropical Medicine, Royal Society, Macdonald medals, Chalmers, LSHTM, Honorary Fellow, Leicester, University, Honorary, Hygiene, Tropical Medicine, Royal Society, President, policy, public health, local environmental changes, epidemics, management, prediction, East Africa, programmes, mosquito, insecticide, Asia, Urban malaria, sustainable implementation, trials, multidisciplinary studies, problems, comprehensive analyses, Its work, malaria, tropical diseases, aspects, group, head, UK Malaria Reference Laboratory, director, co, epidemiology, control, sanitation, water, tropical health, problems, social anthropology, molecular biology, interdisciplinary department, The Ross Institute, Director, years, LSHTM, Tropical Hygiene, Professor, Oxford, leishmaniasis, resistance, genetic control, UK, diseases, water, functional classification, tropical public health, theoretical basis, East Africa, health, supply, schistosomiasis, importance, epidemiology, pathogenesis, initial work, many other countries, visits, UK, Kenya, Sierra Leone, Philippines, Bangladesh, India, research, years, Uganda, Tanzania, East Africa, London, Cambridge, studies, zoologist, epidemiologist, physician, LSHTM]</t>
+  </si>
+  <si>
+    <t>[tradition, Conservation, Environmental Studies, Institutional Economics, Development Studies, Human Geography, disciplines, number, borderlands, environmental natural sciences, their interface, critical social sciences, research, portfolio, economist, social sciences, interdisciplinary conversations, projects, policy, large scale, human wellbeing, nature, values, natural capital, services, relation, contemporary debates, perspective, temporal scales, variety, everyday decision, informal institutions, networks, nature, human societies, values, environmental transformations, scale, ways, My work, choices, distributional consequences, attention, scholarship, need, developmental processes, hidden costs, conservation, political context, change, wildlife, food, water, forests, political ecology, particular interest, South Asia, development, environment, political economy, interests, Oxford, University, Mansfield College, Society, Ethics, Environment, Oxford Centre, Development, Environment, WMI Research Fellow, development, interactions, state, India, world, public policy, institutional change, institutions, study, political economy, economics]</t>
   </si>
   <si>
     <t>[good match, other topics, students, markets, intermediaries, mobility, labour, social networks, change, industrial culture, issues, globalisation, labour, austerity, economics, politics, student, enough attention, year, new student, prize, Won EGRG, ESRC Funded, Salt Lake City, High Tech Innovation, Corporate Strategy, Regional Culture, Alan James, prize, Won EGRG, ESRC Funded, Hollywood, Internet, Software Format, Film, Spatial Economy, Digital Effects, Andrew Currah, prize, EGRG MPhil, Clusters, Comparison, U.S. Skilled Immigration Networks, U.K., ESRC, Jiangsu province, industrial clusters, Chinese sports, context, occupational approach, Wilson Chung, Cambridge Trust, Pakistan, Punjab, markets, construction, institutional forces, Mediations, Misbah Aamir, Markusen, E Golob, M Gray, Seattle Region, Industrial District, Spoke, Hub, Wide Shoulders, Long Arms, Big Firms, E., Parker, M., Gray, industries, US biotechnology, case, regional development, Industrial change, S. Di Giovanna, S Lee, Y, Markusen, A., Markusen, E, Golob, M., Gray, Silicon Valley, S. Di Giovanna, S Lee, Y, Markusen, A., Markusen, M., Gray, transition, city, Colorado Springs, Regional Studies, editorship, impacts, tankers, journals, Editorial, A., Glasmeier, B., Asheim, M., Kitson, B., Fingleton, J., McCombie, P., Tyler, M., Gray, R., Martin, L.Budd, P., Benneworth, M., Baker, I., Hardhill, Issues, Capacities, Region, P., Benneworth, M., Gray, I., Hardill, L.Budd, P., Benneworth, M., Baker, I., Hardhill, Transition, Nebulous Region, England, East, P., Tyler, R., Martin, M., Gray, Paivi Oinas, Michael Taylor, Firm, Activity Specific Approach, High Tech Firm, Knowledge Economy, Gendered Social Networks, Job Segmentation, Exclusion, Networks, J., Feldman, L., Hommen, T., Kurihara, M., Gray, economy, social networks, segmentation, exclusion, Networks, J., Feldman, L., Hommen, T., Kurihara, M., Gray, decline, Economic crisis, City, Austerity, L., Labao, M., Gray, A., Glasmeir, B., Donald, C., Withers, S., Radcliffe, A., Paasi, R., Lee, V., Lawson, R., Kitchin, N., Castree, eds, Work, Narratives, Reflections, Mia, eds, Lier, D. Jordhaus, A. Underthun, Hospitality Industry, Las Vegas, role, labour, landscape, M., Gray, US, markets, workers, hotel, union, UNITEHERE, project, decade, sector, growth, geographies, philanthropy, funding, crowd, work, projects, public sector, business, financing, alternative forms, austerity, aspects, cuts, coalitions, austerity, current rounds, contours, My current research, different spatial scales, global economy, changes, globalizing world, today, new spatial foundations, developments, formative changes, Journal, aim, international editorial team, particular theme, issue, focused thematic format, Journal, political change, contemporary socio, spatial dimensions, disciplinary international research, multi, opportunity, distribution, markets, regional economies, its effects, philanthropy, funding, crowd, finance, geographic implications, regional economies, globalisation, links, austerity, implications, cultural norms, identity, patterns, workplace implications, past research, regional economies, interest, austerity, work, scene, stage, characters, action, Audiences, play, problems, solutions, audiences, provocative play, debt, care, ethics, precarious work, austerity, themes, Canada, US, UK, priorities, change, institutional mechanisms, change, political coalitions, cuts, uneven nature, project, local state, shaping, austerity, local decisions, political effects, intertwining, research, place, labour, class, age, race, gender, social difference, categories, workplace, social networks, precarious work, underemployment, work, youth, immigrant workers, labour, geographies, change, labour, processes, research, place, union, dynamics, labour, urban politics, my research, labour geographies, political economy, intersection, My research, contemporary work, implications, what, labour markets, work, organisational dynamics, markets, my main interests]</t>
   </si>
   <si>
+    <t>[continents, countries, honours, awards, leadership, His scientific contributions, issues, international scientific collaboration, funding, Chris Llewellyn Smith, Technology, Science, Advisory Committee, UK Prime Minister, international advisory committees, Royal Society, Vice President, CERN Scientific Policy Committee, Mathematics Education, Advisory Committee, Fusion, Euratom, Consultative Committee, ITER, fusion, Council, Chairman, theory, weak interactions, theory, mathematical consistency, experiments, inelastic electron, quarks, force, particles, gluons, quarks, reality, ways, His contributions, weak forces, theories, model, physicist, LEP, Large Electron Positron collider, CERN, USA, Russian Federation, Japan, India, Canada, major contributions, LHC, Large Hadron Collider, CERN, Director General, his mandate, European Commission, power, development, approach, Track, UKAEA Culham, Director, Oxford, Stanford Linear Accelerator Center, CERN, periods, Moscow, Sciences, Academy, Lebedev Physical Institute, Oxford, his Doctorate, Oxford Physics, Chairman, CERN, Director General, University College London, President, Provost, JET, Joint European Torus, operation, programme, UK, responsibility, UKAEA Culham, Director, Oxford Physics Department, Visiting Professor, Middle East, Applications, Experimental Science, Synchrotron light, SESAME, Council, President, Oxford University, Energy Research, Director, Chris Llewellyn Smith]</t>
+  </si>
+  <si>
+    <t>[VOC emissions, NOx, global O3 damage, estimate, N., Eyre, A., Rabl, businesses, management, efficiency, analysis, G., Watt, M., Maloney, D., Crossley, N., Eyre, J., Hamrin, E., Vine, ISBN, June, May, who, What, Summer Study, eceee, Energy Efficient Economy, European Council, Proceedings, Central Role, How, UK Energy White paper, Energy Efficiency, D., Staniaszek, N., Eyre, Energy Economics Conference, British Institute, Proceedings, BIEE, Energy Economics, British Institute, UK debate, lessons, energy, suppliers, Regulation, N., Eyre, I., Lorenzoni, S., O'Neill, L., Whitmarsh, UK, Energy Saving Trust, programmes, lessons, large scale, energy, people, K., B., Flanagan, N., Eyre, M. Winskel, P., Ekins, J., Skea, Chapter, consumption, lifestyle, way, N., Strachan, R., Layberry, C., Brand, J., Anable, N., Eyre, ISBN, demand, Deliver, Innovate, Act, Summer Study proceedings, eceee, eceee, Energy Efficient Economy, European Council, Chapter, Global Energy Assessment, Buildings, Use, Sustainable Energy, K., Janda, K., Petrichenko, S., Herrero, Tirado, P., M., McNeil, O., Masera, Y., Jiang, A., Novikova, S., Murakami, S., Mirasgedis, H., McMahon, M., Majumdar, C., Kornevall, E., Jochem, E., Hertwich, L.D.D., Harvey, P., Graham, N., Eyre, D., Vorsatz, Urge, September, Oxford, St Johns College, markets, impact, Challenging World, European Energy, Academic Conference, Energy Economics, British Institute, Proceedings, obligation, energy, Green deal, J., Rosenow, N., Eyre, J., Whiting, J., Watson, C., Mitchell, Energy Security, Demand, M., Keay, N., Eyre, R., Hoggett, C., Zuo, G., Watson, J., Watson, P., Tyler, C., Thoung, M., Qadrdan, J., Preston, W., Powrie, E., Oughton, A., Otto, L., Manning, A., Leathard, C., Kilsby, C., Jones, N., Jenkins, R., Hiteva, N., Eyre, R., Ebrahimy, T., Curtis, M., Chaudry, E., Byers, S., Blainey, M., Birkin, R., Beavan, P., Baruah, S., Barr, D., Alderson, R., Nicholls, A., Hickford, J., Hall, M., Tran, Chapter, Buildings, M.V., Vilariño, C., Pyke, J., Parikh, S., Murakami, S., Mirasgedis, E., Liphoto, Y., Jiang, L.D.D., Harvey, A., Gadgil, N., Eyre, L.F., Cabeza, P., Bertoldi, H., Akbari, A.Z., Ahmed, D., Vorsatz, Urge, O., Lucon, J., Arnott, D., Liverman, E., Roth, R., Cremades, Y., Sokona, C., Nobre, J., Morgan, L., Srivastava, J., Hurrell, N., Stern, B., Ward, S., leeuw, van, S., Seitzinger, R., Schaeffer, M., Moench, O., Masera, A., Lucena, R., James, P., Gleick, N., Eyre, A., Humble, M., Manez, P., Schlosser, P., Gong, N., Nakicenovic, J., Kabat, J., Schellnhuber, L., Wolfgang, H., Brian, B., Guy, R., Johan, J., Watson, G., Watson, R., Velykiene, P., Tyler, C., Thoung, A., Stringfellow, R., Street, N., Rai, J., Preston, W., Powrie, F., McLeod, N., Malleson, A., Lorenz, A., Leathard, C., Kilsby, C., Jones, N., Eyre, T., Curtis, M., Chaudry, M., Birkin, P., Baruah, R., Nicholls, A., Hickford, J., Henriques, J., Hall, J., Watson, A., Spence, J., Skea, N., Pidgeon, K., Parkhill, C., Mitchell, C., McGlade, R., Holland, R., Gross, N., Eyre, P., Ekins, C., Demski, C., Butler, M., Bradshaw, B., Irving, C., Fratter, M., Gregg, R., Mayne, J., Hamilton, L., Barnfield, K., Lucas, S., Darby, N., Eyre, R., Future Energy Policy Gupta, Foundations, Vol, France, Giens, Presqu'�le, June, ECEEE Summer Study, Proceedings, Chair, DEMAND, Demand, Mobility, Energy, Dynamics, EPSRC Centre, Advisory Group, interests, change, combination, progress, context, emissions, demand, public policy, role, interest, long term, Nick, building, opposition, CFC capture, calming, first environmental strategy, Oxfordshire, development, active role, Oxfordshire, County Councillor, Environment, Society, Honorary Fellow, Energy Institute, Fellow, Oxford, University, Nuclear Physics, D.Phil, Physics, MA, Nick, carbon, social cost, first estimate, UK Government, basis, report, lead author, energy, external costs, large European Commission programme, Parliamentary inquiries, wide range, ministers, target, emission, Government, study, issue, Cabinet, presentation, author, emissions, mitigation, first researchers, UK, independent consultant, ETSU, Energy Technology Support Unit, issues, energy, analyst, researcher, Nick, scenarios, long term, efficiency, streams, Energy Policy, Review, Government, author, co, Innovation Unit, Performance, Cabinet Office, strategy, long term, development, issues, work, Trust, Strategy, Director, Policy, Head, Energy Saving Trust, Nick, markets, book, author, issues, environment, climate, energy, systems, low carbon, transition, efficiency, demand, respect, policy, His interests, environmental issues, energy, manager, consultant, researcher, Nick, Transitions Research Consortium, Investigator, Co, decision, demand, work, UK Energy Research Centre, collaboration, multi, Director, Co, Use Energy Demand Champion role, post, ECI, Energy, Programme Leader, Nick, variable renewables, high levels, systems, issues, research, April, Use Energy Demand Centre, view, research, programme, consortium, inter, agenda, consensus, community, UK energy, role, Energy Programme, UK Research Councils, Oriel College, ECI, Energy, Jackson Senior Research Fellow, Climate Policy, Energy, Professor, Nick Eyre]</t>
+  </si>
+  <si>
+    <t>[Upper Thames valley, deposits, peat, origin, modes, distribution, A.S., Goudie, United Arab Emirates, Rub Al Khali, eastern edge, construction, Holocene, Pleistocene, study, carbon, pollen, phytolith, Arabian Peninsula, Khali desert, al, eastern Rub, dynamics, M.J., Hodson, K., White, S., Ward, S., Stokes, A.S., Goudie, M.M., Smith, L., Eckersley, A.G., U.A.E. Parker, Khaimah, Ras al, Emirate, Khali desert, al, Rub, eastern extremity, midden, New evidence, southeastern Arabian Gulf, Bronze Age landscape, Development, Arabia, geochemical analyses, change, Holocene, record, D. Kennet, M., Manning, M.J., Hodson, K., White, S., Stokes, A.S., Goudie, Parker A.G., Saxon, Roman, Iron Age, Bronze Age, evaluation, UK, Buckinghamshire, Dorney, Middle Thames floodplain, Holocene geoarchaeological investigation, Ch.s, A.S., Goudie, forms, processes, pp, Ch.5, H.A., Viles, A.S, Goudie, Includes, London, Geological Society, Century Revolutions, Mid, Forms, Recent Processes, Quaternary, Vol, Geomorphology, Development, Landforms, Study, History, Western Australia, Napier Range, geomorphology, P., Bull, I., M. Livingstone, Day, R., Allison, H.A., Viles, A.S., Goudie, Western Australia, Napier Range, environment, profiles, Rock control, R., Allison, A.S., Goudie, fire, rock, experimental simulation, context, temperature, elasticity, modulus, relations, R.J., Allison, S.J., McLaren, A.S., Goudie, change, mechanisms, form, their control, masses, Geotechnical properties, N., Cox, R.J., Allison, A.S., Goudie, Eds, R.B.G., Williams, D.A., Robinson, experimental study, weathering, fire, effects, A.S., Goudie, southern England, Portland, Isle, structural geomorphology, A.G., Parker, K., Coombe, D., Brundsen, A.S., Goudie, cartographic analysis, United Arab Emirates, Ras al Khaimah, Coastal change, A., Al'Farraj, A.G., Parker, A.S., Goudie, S.J., McLaren, D.J., Nash, Chapter, efflorescences, deposits, Sodium, E., Heslop, A.S., Goudie, J. Kalvoda, A.S. Goudie, Hispar Mustagh Karakoram, Nagar region, evolution, J., Kalvoda, A.S., Goudie, science, geomorphology, assessment, rock, Equotip, Schmidt Hammer, use, A.S., Goudie, K.J., Gregory, geomorphology, discipline, Introduction, A.S., Goudie, K.J., Gregory, A., G, Yu, X., Yang, G., Yang, R., Wray, C., Wood, H.A., Viles, D., Qi, G., Nanson, P., Migon, H., J, May, Y., Ma, A.S., Goudie, W., Eder, M., Crozier, S., Aiken, A., Chen, H.Q., Huang, G., Brierley, Kennedy D.M., Switzer A.D., J., Shroder, geomorphological research, related devices, Schmidt Hammer, A.S., Goudie, Ed, N., McWilliam, S., Winser, aspects, earth, landscapes, Expedition Research Projects, A.S., Goudie, Eds, R.H.G., Parry, P.G., Fookes, arid lands, other structures, buildings, Salt attack, A.S., Goudie, blocks, central Namib, rapid salt, Monitoring, A.G., Parker, H.A., Viles, A.S., Goudie, foggy coastal desert, chloride, disintegration, rapid rock, Experimental simulation, A.G., Parker, A.S., Goudie, colour, dependence, particle, geometry, sands, desert, spectral reflectance, understanding, Towards, Namibia, Central Namib Desert, morphological framework, evolution, F., Eckardt, A.S., Goudie, D.R., Kniveton, S.J., McClaren, Central Namib Desert, climatic variability, Geomorphology, Weathering, H.A., Viles, A.S., Goudie, United Arab Emirates, Ras Al Khaimah, Desert loess, A., Farraj, Al, K., White, P.A., Bull, A.G., Parker, A.S., Goudie, Chile, northern Atacama Desert, conditions, simulation, fog, nitrate, salt, roles, H.A., Viles, E., Wright, A.S., Goudie, formation, processes, variations, evidence, Botswana, active Okavango alluvial fan, palaeo, Chemical sediments, A.S., Goudie, A.I., Shaw, A. Porporato, P. D'Odorico, change, role, landforms, hydrology, evolution, history, A.S., Goudie, Haryana, Western Uttar Pradesh, Reconnaissance, Context, Settlements, V.K., Singh, S., Yadav, R., Srivastava, R., Sinha, A.K., Singh, R., Tewari, S., Gupta, A.S., Goudie, C.A.I., French, C.A., Petrie, R.N., Singh, T.M., Zobeck, J.J., Whicker, S., Van Pelt, A.D., Thomas, R.J., Swap, G.S., Okin, J., Li, T.E., Huxman, A.S., Goudie, J.P., Field, D.D., Breshears, P., D'Odorico, S., World Heritage List Ravi, Geomorphological Sites, Desert Landscapes, Recognition, Potential Priorities, eastern Arabia World Heritage Desert Landscapes, occupation, early human dispersal, Implications, United Arab Emirates, Khali, Rub'al, dynamics, Quaternary humidity, Neolithic populations, southeast Arabia, its implications, United Arab Emirates, Holocene humid phase, analysis, multi, A.G., Parker, F., Borgi, S., Mery, V., Charpentier, H., Walkington, M., Hodson, M.J., Leng, O., Atkinson, A.S., Goudie, D.S.G., Thomas, G., Preston, Korean editions, seventh edition, sixth edition, fifth edition, fourth edition, third edition, second edition, first edition, Blackwell, Cotswolds, Dorset, landforms, work, environment, humans, impacts, tropics, climatic change, storms, geomorphology, interests, Goudie, Prof, Geomorphology, British Society, Fellow, Geomorphologists, International Association, Honorary Fellowship, Geomorphology, British Society, David Linton Award, research, Baz Prize, Farouk El, America, Geological Society, Oxford, Master, Professor Goudie, Vice Chancellor, former Pro, Oxford University Press, former Delegate, President, Oxford, China Centre, Director, Geomorphologists, International Association, President, September, Eastern Africa, British Institute, President, Royal Belgian Academy, Prize, Royal Geographical Society, Royal Medal, University, distinguished physical geographer, Hertford College, Fellow, Geography, Professor, Professor Andrew Goudie]</t>
+  </si>
+  <si>
+    <t>[Ugandan National Park, revenue, Claims, payroll, gorilla, Who, M., Infield, W.M., Adams, UK, River Restoration Discourse, River Managers, Champions, Conservatives, A., Carpenter, M.R., Perrow, W.M., Adams, Oryx, East Africa, categorization, arrangements, regimes, Private Protected Areas, J., Hutton, W.M., Adams, E., Carter, Oryx, national scale, establishment, poverty, W.M., Adams, D., Brockington, T., Jiang, D., Hulme, R., Ladle, C., Upton, conflicts, R.J., Gutiérrez, A., Watt, J.D.C., Linnell, R.A., Lambert, A., Amar, A., Whitehouse, W.J., Sutherland, W.M., Adams, A., J., Young, S.M., Redpath, UK, neoliberalism, conservation, territorialisation, re, nature, New spaces, L., Sandbrook, I.D., Hodge, England, governance, approach, public forests, future, W.M., Adams, I.D., Hodge, UK, Greece, Un, Green, Dialectics, Era, Post, Conservation, Neoliberal Capitalism, W.M., dams, Sahel, migrant birds, change, land, impact, J.A., Vickery, R.D.S., Small, W.M., Adams]</t>
+  </si>
+  <si>
+    <t>[central southern Africa, Middle Stone Age chronology, Implications, Botswana, Tsodilo Hills, White Paintings Shelter, artefacts, movement, Sub, silcrete artefacts, geochemical provenancing, multi, Middle Stone Age, Kalahari Desert, mobility, distance, M.P., Smith, Babutsi M., J., Stewart Ullyott, S., Staurset, S., Coulson, D.J., Nash, Botswana, Makgadikgadi Pans, mobility, human adaptation, project, palaeoenvironmental data, collection, lithic artefacts, geochemical sourcing, excavations, archaeological surveys, Botswana, Oslo, Brighton, Oxford, universities, various disciplines, researchers, late Quaternary, humans, use, mobility, major hydrological shifts, project, goal, Leverhulme Trust, project, human social life, technology, stone, lithic, interplay, Botswana, Tsodilo Hills, Middle Stone Age, Oslo, University, Palaeolithic archaeology, PhD, early human technology, focus, archaeologist, Sigrid]</t>
+  </si>
+  <si>
+    <t>[Press, Society, Economy, Regions, Cambridge Journal, P. Sunley, Evenhuis, E, P. Tyler, British Cities, Divergent Growth Trajectories, Structural Change, eds, D., Wojcik, M., Gertler, M.A, Feldman, G.L., Clark, Resilience, Economic Geography, Regional Development, Aspects, Eds, J., Pollard, R.L., Martin, P.J., Sunley, Klagge B., Germany, Britain, Comparison, Regional Business, Funding, Financial System, Spatial Structure, al, T., Kemeny, M, Storper, Review Essay, Cities, Tale, Divergent Urban Economic Development, Eds, J., Pollard, R.L., Martin, P.J., Sunley, Wit Klagge B., Germany, Britain, Comparison, Regional Business, Funding, Financial System, Spatial Structure, B. Gardiner, P. Tyler, A. Pike, New Policy Model, Need, UK Economy, Spatially, Eds, J., Potts, K., Dopfer, Chapter, Economic Landscape, Evolutionary Perspective, Path Dependence, Place, Eds, P., Nijkamp, M., Fischer, Chapter, Prospect, Retrospect, Key Concept, Spatial Economy, Path Dependence, Eds, F., Toedtling, B., Asheim, D., Schwarz, R.L., Martin, R., Boschma, P., Cooke, Chapter, Evolution, Externalities, Endowments, Regional Competitiveness, Eds, F., Toedtling, B., Asheim, D., Schwarz, R.L., Martin, R., Boschma, P., Cooke, Chapter, Implications, Issues, Path Dependent Systems, Regional Economies, Eds, F., Toedtling, B., Asheim, D., Schwarz, R.L., Martin, R., Boschma, P., Cooke, Chapter, Evolution, Externalities, Endowments, Regional Competitiveness, Eds, F., Toedtling, B., Asheim, D., Schwarz, R.L., Martin, R., Boschma, P., Cooke, Chapter, Implications, Issues, Path Dependent Systems, Regional Economies, Eds, A., Jones, N., Coe, Ch, New Labour, Bust, Boom, Geographies, Uneven Regional Growth, Eds, R., Martin, R., Boschma, Ch, Economic Landscape, Evolutionary Perspective, Path Dependence, Place, B. Klagge, C. Berndt, P. Sunley, Sense Regional Policies, Germany, UK, Venture Capital Programmes, P. Sunley, B. Klagge, C. Berndt, UK, Germany, Evidence, Venture Capital Market, Regional Equity Gaps, Spatial Proximity Effects, Ch, C Nativel, P. Sunley, Difference, Geography, New Deal, Local Impact, Ed, R.L., Martin, Chapter, Private Shareholding, Geographies, Equity Market, Privatisation, State, Eds, A., Lipietz, G., Benko, Chapter, Critique, Une Évaluation, Développment Régional, Theorie, Conséquences, L'économie Géographique de Paul Krugman, Eds, A., Lipietz, Ciccolella, G, Benko, Chapter, P. Sunley, Crecimiento Endógeno y el Desarrollo Regional, La Nueva Teoría, Convergencia Lenta, R. Minns, UK Pension Fund System, Implications, Spatial Structure, Regions, Financial Basis, J. Wills, P. Sunley, Class Analysis, Geography, Comments, industrialization, De, Politics, Unions, Ed, P.Cloke, Chapter, Thatcher Era, Policies, Critical Reflections, Transformed, British Economy, Eds, E. Swyngedouw, P. Roberts, F., F. Moulaert, L. Albrechts, Chapter, British Experience, Regional Restructuring, Politics, New Economics, Eds, J. Allen, D. Massey, Chapter, British Space Economy, Contemporary Reorganisation, Transition, Industrial Capitalism, pp, Macmillan, London, Industrialisation, De, Geography, Eds, R.E. Rowthorn, R.L. Martin, Chapter, Industrial Landscape, Britain, Thatcherism, Ed, N. Wrigley, Chapter, Methodology, Substance, Market Relative Wage Structure, Inter, Inflationary Expectations, Regional Phillips Curves, Sub, Eds, R.J. Bennett, N.J. Thrift, R.L. Martin, Chapter, Regional Analysis, Urban, Time Varying Processes, Kalman Filter Modelling, J.K. Ord, A.D. Cliff, Statistic, Modified, Choropleth Maps, Spatial Autocorrelation, Test, M Kitson, J McCombie, B Fingleton, M Gray, B Asheim, Glasmeier, P. Tyler, Regional Studies, Special Issue, c350pp, Preparation, Palgrave Macmillan, London, J Sunley, Welfare, Work, Growth, Spatial Divisions, Unbalanced Economy, Britain, 450pp, Vols, Deputy Prime Minister, Office, London, D. Dorling, P. Wood, J. Simmie, M. Parkinson, London, Segal Quince Wicksteed, Newcastle, Trends Business Research, Cambridge, Cambridge Econometrics, London, Local Futures, consultancies, number, consultancy, geographic advice, Industrial Strategy Green Paper, Uk Government, submission, Key Cities Group, Core Cites Group, evidence, preparation, Lagging Region, Europe, Rethinking Policy, European Regions, Competitiveness, Regional Economic Growth, Determinants, European regions, Globalisation, Impact, European commission, project, Regional Economic Resilience, its programme, European commission, advisor, BEIS, Government Departments, consultancy, advice, Ron, policies, ongoing neoliberalisation, subnational implications, regional level, impact, national state, poverty, inequality, spatialities, current interest, ethos, markets, regional venture, regional competitiveness, New Deal, markets, His own work, relevance, academic geography, firm belief, geographic research, relevance, strong commitment, research, Ron, common thread, P. Sunley, Critical Assessment, Regional Development Theory, Its Implications, Geographical Economics, Paul Krugman, Key articles, evolutionary economic geography, nature, scope, evolutionary economics, ideas, concepts, importation, his current focus, economics, new economic geography, recent emergence, economic geography, economics, heterodox forms, application, particular interest, Ron, theoretical inspiration, source, economics, Economic geography, Books, uneven regional development, clusters, concept, limits, scope, third theme, economic landscape, turn, others, places, capitalist development, latest phase, New Economy, geographies, second theme, regional development, implications, What, competitive advantage, regional differences, determinants, What, cities, regions, sense, urban competitive advantage, significance, nature, meaning, issues, numbers, head, research, Ron, Books, regional economic development, finance, role, markets, venture, financial systems, spatial structure, global financial centres, theme, His research, money, new economic geography, development, key role, Ron, recent years, Books, schemes, local impact, inequality, wage, issues, new economy, work, decline, trade, problems, markets, theory, United States, markets, dynamics, wage, his PhD, his research, strand, Urban Transformations Initiative, ESRC, part, City Economic Evolutions, Structural Transformation, major ESRC project, Principal Investigator, Ron, October, Ancona, University, Crisis World, Post, Finance, Banking, Money, Geography, International Conference, Distinguished Speaker Lecture]</t>
+  </si>
+  <si>
+    <t>[Scotland, northern Caithness, example, uplifted area, glacio, margin, changes, Holocene relative sea, D.E., Smith, S., Dawson, Scotland, western Jura, change, Lateglacial coastal processes, M.J., Tooley, C., Brooks, I.D.L., Foster, S., Dawson, D.E., Smith, A.G., Dawson, Edinburgh, Royal Society, UK Transactions, NE Scotland, Main Postglacial Transgression, rise, Relative sea, P.E.F., Collins, M., Robinson, C., Brooks, C.R., Firth, D.E., Smith, P., Burnham, P., Andrew, mire, human impact, vegetational history, Southwest Scotland, Brighouse Bay, A.G., Dawson, D.E., Smith, T.M., Mighall, J.M., Wells, Scotland, evidence, Holocene, uplift, Patterns, C.R., Firth, R.A., Cullingford, D.E., Smith, stratigraphical study, geomorphological, Scotland, Mainland Orkney, Skaill, Bay, Holocene environmental changes, Mid, D.E., Smith, J.M., Wells, R.L., Jones, D.H., Keen, A.C., Leinert, De la Vega, southern Skye, basin, environmental changes, level, Holocene, Late Devensian, T., Mighall, A.G., Dawson, D.E., Smith, K.A., Selby, changes, historic North Atlantic storm, Index signal, NAO, Complex North Atlantic Oscillation, D.E., Smith, N.R., Davis, J., McKenna, J., Wilkinson, I., Jonsdottir, P., Wadhams, I.D.L., Foster, S., Dawson, L., Elliott, T., Holt, K., Hickey, A.G., Dawson, UK, Scotland, eastern coast, middle Holocene, trends, Relative sea, R.A., Cullingford, C.R., Firth, D.E., Smith, Scotland, Western Forth valley, interpretations, relative sea, Windermere Interstadial sequence, A.M., Wood, D.E., Smith, J.D., Peacock, L.K., U.K. Holloway, SW Scotland, estuary, lower Cree valley, coastal changes, levels, Holocene, C.L., Brooks, S., Dawson, L.K., Holloway, R.A., Cullingford, T.M., Mighall, J.M., Wells, D.E., Smith, estuary, lower Nith valley, change, Holocene relative sea, S., Dawson, T.M., Mighall, J.M., Wells, R.M., Tipping, R.A., Cullingford, B.A., Haggart, D.E., Smith, United Kingdom, Holocene Storegga Slide tsunami, D., Long, L.K., Holloway, B.A., Haggart, P.T., Fretwell, I.D.L., Foster, C.R., Firth, S., Dawson, A.G., Dawson, R.A., Cullingford, C.L., Brooks, S., Shi, D.E., Smith, N.W.Scotland, Outer Hebrides, movements, Late Holocene, A.G., Dawson, J., Jordan, D.E., Smith, S., Dawson, United Kingdom, Scotland, Fife, site, Holocene Storegga Slide tsunami, evidence, change, Relative sea, D.E., Smith, M.J., Tooley, UK, Scotland, uplift, Holocene, models, C.R., Firth, R.A., Cullingford, P.T., Fretwell, D.E., Smith, deposits, palaeotsunami, flow, depth, pattern, S., Shi, D., Long, I.D.L., Foster, D.E., Smith, United Kingdom, west Scotland, new data, isostatic area, glacio, changes, relative sea, P.T., Fretwell, Jordan J.T., T.M., Mighall, R.A., Cullingford, D.E., Smith, J.D., Rosati, N.C., Kraus, simple mathematical model, sedimentary characteristics, tsunami, A., Ruffman, D.E., Smith, R.L., Soulsby, UK, Scotland, Skye, Isle, changes, Holocene relative sea, Late Devensian, D.E., Smith, K.A., Selby, Reply, eastern Scotland, deglaciation, model, Discussion, P., Dunlop, D.E., Smith, P.U., Clark, A.M., McCabe, UK, Orkney, Scapa Bay, example, isostatic uplift, glacio, area, periphery, Holocene coastal environmental changes, R.L., Jones, D.E., Smith, A., Leinert, De la Vega, Digital Terrain Mapping, reconstruction, Irish Ice Sheet, S., Harrison, D.E., Smith, P.T., Fretwell, deposits, Sedimentary features, articles, Discussion, Bridge, Reply, S., Shi, D., Long, I.D.L., Foster, G., Gelfenbaum, D.E., Smith, A.G., Dawson, S., Kortekaas, R.A., Morton, B.E., Jaffe, Scotland, Inner Hebrides, South East Raasay, movement, Quaternary neotectonics, C.R., Firth, S., Harrison, I.S., Stewart, D.E., Smith, UK, Scotland, Outer Hebrides, Harris, changes, Holocene relative sea, A.G., Dawson, S., Dawson, D.E., Smith, J.T., Jordan, UK, Scotland, Forth lowland, related prehistoric activity, levels, Holocene, L.K., Holloway, J.T., Jordan, B.R., Rea, S., Dawson, T.M., Mighall, C.L., Brooks, M.H., Davies, D.E., Smith, Ireland, Britain, North, change, Holocene relative sea, Patterns, N.G., Burnside, J.D., Orford, J., Murdy, M., Harman, P.T., Fretwell, J.T., Jordan, C.R., Firth, N., Hunt, D.E., Smith, Scotland, Orkney, Mainland Island, Carness, Bay, development, Holocene, R.L., Jones, D.E., Smith, A.C., De la Vega Leinert, ed, J., Thomas, Droughduil Mound, change, Relative sea, J.T., Jordan, D.E., Smith, R., Tipping, Quaternary Research Association, Honorary Member, Royal Geographical Society, Murchison Award, Smith, Prof, achievements, recognition, deposits, features, uplift, patterns, information, Scotland, changes, Holocene relative sea, Late Devensian, northern Britain, Holocene Storegga tsunami, evidence, present, northern Europe, Scotland, his research, change, activity, past records, tsunami, deglaciation, processes, associated patterns, isostatic uplift, glacio, areas, levels, reconstruction, interests, Professor Smith, Edinburgh universities, Manchester, graduate, UK, Coventry, USA, New York, Columbia, Canada, Ontario, Kingston, Queen, universities, member, Climate Change, Intergovernmental Panel, Fourth Assessment Report, reviewer, Oxford, Leverhulme Emeritus Fellow, EU, committees, environment, field, EU, proposals, evaluation, sixth frameworks, EU, design, member, contracts, Europe, institutes, universities, European Union, contracts, scientist, coordinator, northwestern Europe shorelines, Shorelines Subcommission]</t>
+  </si>
+  <si>
+    <t>[C.W.J., Withers, V., Lawson, R., Kitchin, S., Radcliffe, R., Lee, N., Castree, A., Paasi, geographies, human, B., Greenhough, M., Ornstein, S.W., Duffy, L., Carter, C., Sajani, K., Homer, J., Robson, T., Brown, I., Dyck, M., Dembinsky, B., Greenhough, disease, cultural geographies, relations, medical research, bodily commodities, human subjects, use, circulation, production, biomedical science, geographies, following areas, doctoral research, post, individuals, enquiries, Beth, Animal Controversies, SoGE Masters students, elective course, Beth, Environmental Policy, Society, MSc Nature, course, Politics, Science, Beth, Geography, Final Honour School, Preliminary Examination, tutorials, Keble, her colleagues, responsibility, Beth, Dr Jamie Lorimer, Nature, Geographies, option, course, Environmental Geography, Beth, Final Honour School, their ethical implications, human subjects, human tissue, bioinformation, use, cultural responses, medical research, resources, their derivatives, humans, Her work, research, gene, use, anonymised public medical records, firm, its proposal, Health Sector Database, Act, Iceland, controversies, Open University, doctoral research, post, PhD, Beth, care, scientific research, distinction, relations, science, medical research, which participation, ways, research, key insight, practices, protocols, experimental spaces, unit, common cold research, volunteers, medical research, spaces, Common Cold Unit, MRC, archives, project, London Charity Trust, Barts, main project, study, DVD, their responses, knowledge, DVD, impact, patients, staff, groups, interviews, project, qualitative arm, Beth, Black women, awareness, order, Homerton Hospital, trial, project, QMUL, Geography, School, Melanie Dembinsky, Dr Tim Brown, Professor Isabel Dyck, Preventative medicine, Wolfson Institute, Stephen Duffy, Prof, Homerton University Hospital, Mr Markus Ornstein, collaborative project, process, different stakeholders, remains, associations, different meanings, human remains, project, remains, what, practice, repatriation, ethnographic methods, PhD candidate, Sarah Morton, Collaborative Doctoral Award, AHRC, Surgeons, Royal College, Hunterian Museum, London, Queen Mary University, Professor Catherine Nash, collaboration, project, member, Beth, sensitivities, their professional skills, practice, ethics, welfare, right thing, technologists, observation, interviews, compilation, Wellcome Trust, Southampton, University, Dr Emma Roe, collaboration, project, regulatory agencies, industry, key stakeholders, participatory approach, implications, results, their kitchens, microbial life, people, novel methods, project, hygiene, domestic life, everyday understandings, laboratory, microbial biodiversity, new scientific techniques, Oxford, University, Environment, Geography, School, Dr Timothy Hoggetts, Dr Richard Greyner, collaboration, Dr Jamie Lorimer, project, questions, nexus, animal, perspectives, creative facilitator, Bentley Crudgington, students, assistants, post, medicine, science, use, social contract, what, overall programme, Animal Research Nexus, publics, scientists, stakeholders, entanglements, society, science, obligations, relations, entangled network, complex, modern medicine, development, scientific research, animals, Southampton, University, European Science Foundation, Personalised Medicine, Nuffield Foundation, bioethics, solidarity, debates, participant, Beth, interdisciplinary journals, Geography, Wellcome Trust, Brocher Foundation, British Academy, London Charity Trust, Barts, ESRC, AHRC, Her work, biotechnological innovation, relations, affective dimensions, material, Geography, methodological approaches, development, biomedical research, experimental subjects, animals, which humans, ethical processes, Beth, archival methods, range, environment, biomedicine, health, areas, scientific innovations, social implications, studies, cultural geography, economic geography, combination, work, Beth, Open University, doctoral fellowship, post, London, University, Queen Mary, Keele University, Geography, Oxford Beth, Reading, University, Human Geography, BSc, Bristol, University, Space, Society, MA, Open University, Human Geography, PhD, September, Environment, Geography, School, Beth Greenhough]</t>
+  </si>
+  <si>
+    <t>[Switzerland, Zürich, ETH, Eidgenössische Technische Hochschule, Mathematics, Diploma, Oxford, College, Queen, Logic, Lecturer, Wolfson College, Research Fellow, Oxford, University, Philosophy, D.Phil, his doctorate, Professor Müller, Finance, UNFCCC Standing Committee, GCF Board, who, LDC TC members, Adviser, GCF, Green Climate Fund, TC, Transitional Committee, deliberations, Africa Group Chair, LDC Group Chair, Adviser, negotiations, international climate, support, building, international initiative, ecbi, European Capacity Building Initiative, Director, negotiators, climate, building, company, Oxford Climate Policy, Director, Professor Müller]</t>
+  </si>
+  <si>
+    <t>[number, T, Silver St Cambridge CB3, Darwin College Cambridge, coffee, tea, questions, body, members, pm, am, College, November, Friday, Postgraduate Open Day, part, Darwin College, microscopy, cryo, their work, Joachim Frank, Jacques Dubochet, Chemistry, Nobel Prize, winner, today, who, Darwin Fellow Dr Richard Henderson, Congratulations, our future warm world, high latitudes, life, window, fossils, South Pole, lush green forests, Antarctic rocks, Fossil plants, BBC, Britain’s Forgotten Slave Owners, BAFTA award, David, other work, author, broadcaster, Nigerian historian, overall David Olusoga, medical advances, indication, countries, populations, rapid demographic shift, last decades, Global South, sectors, state, development, UK, influence, Tom, several research, languages, twentieth centuries, nineteenth, imperial geographies, languages, travel, multimodal, utility, my PhD, inclusiveness, handovers, displays, multimodal, my PostDoc work, my PhD, talk, world, mental presence, ’s bodily, end, death, animal, our ancestors, evolutionary history, point, Lensfield Road, Chemistry, Department, Cambridge, 1University, Clare P. Grey1, Lauren E. Marbella,1 Kent J. Griffith,1 Matthias F. Groh,1 Joseph Nelson,2 Matthew Evans,2 Andrew J. Morris,2, none, equivalences, abstraction, Its power, states, groups, individuals, powerful social linkages, Money, leading theory, discrete events, experiences, past, information, continuous flow, our senses, life]</t>
+  </si>
+  <si>
+    <t>[IPCC, Climate Change, Intergovernmental Panel, Nobel Peace Prize, award, certificate, Policy, Environmental Science, GAIA, Global Environmental Change, British Geographers, Institute, Transactions, Editorial Board member, British Geographers, Institute, Transactions, regional climate, crossings, mobility, Model migrations, Environmental Health Perspectives 120(11, impacts, security, change, K., Waldron, G., Nichols, P.R., Hunter, Science 6(1, Philosophy, History, Journal, Spontaneous Generation, embers, IPCC, exploration, risk, colour, IPBES GAiA, IPCC, cases, global environmental expertise, governance, reflexive turn, authors, co, Global Environmental Change, agenda, Anthropocene, ontological politics, E., Vasileiadou, R., Lidskog, Environmental Sustainability, Current Opinions, climate, cases, relevant global environmental knowledge, policy, What, Cambridge, Cambridge University Press, inaction, controversy, change, Cambridge, Cambridge University Press, mitigation, adaptation, European perspectives, work, climate, H., Neufeldt, UK, Abingdon, Routledge, interviews, essays, Mike Hulme, anthology, society, science, change, Exploring, related themes, students, approaches, topics, intellectual landscapes, social change, making, policy, time, influential books, November, CUP, change, students, social science, texts, year, books, its science, Economist magazine, latter, CUP, About Climate Change, Polity Press, Climate Engineering, Case, Climate Change, Science, his other books, climate, their weather, sense, world, different cultures, SAGE, Climate, Cultural Geography, recent book, Hulme, anthropology, new field, his research, political ecology, environmental history, STS, science, geography, inspiration, public life, academy, change, climate, idea, way, humanities, social sciences, sciences, academic journals, His work, its contemporary meanings, scientific origins, scientific discourse, change, climate, idea, numerous ways, Hulme, factor, journal, Climate Change, WIREs, Wiley Interdisciplinary Reviews, review, Chief, Editor, Hulme, IPCC, United Nations, work, significant contribution, recognition, Nobel Peace Prize committee, personalised certificate, UK Government, reports, scenarios, series, preparation, integrated assessment, adaptation, impact, scenarios, climate, application, construction, datasets, analysis, compilation, Hulme, CRU, Climategate controversy, result, public scrutiny, correspondence, worth, years, dubious honour, UEA, CRU, Climatic Research Unit, Hulme, Tyndall Centre, years, UEA, East Anglia, University, centre, multi, Climate Change Research, Tyndall Centre, Founding Director, Department, Head, College London, King, Geography, Department, culture, climate, professor, years, period, September, Cambridge, Department, Mike Hulme, insight, material effects, change, idea, epistemic construction, Mike]</t>
+  </si>
+  <si>
+    <t>[ed, P., Ratcliffe, Great Britain, ethnic population, segregation, spatial concentration, nature, Level, D., Rossiter, C., Peach, J., Webb, A.H., Halsey, Chapter, Ethnicity, Immigration, P. Daley, J. Chance, A. Rogers, C., Peach, eds, P. White, A., Takenaka, C., Peach, R., Goodman, Chapter, USA, EU, Japan, Immigration Policy, Economic Growth, Contrasts, C., Peach, S.M. Teles, T., Modood, G.C., Loury, Chapter, Britain, Caribbean population, intermarriage, Spatial segregation, Social Mobility, Social Integration, C., Peach, W., Ostendorf, R., Paddison, Ch.11, segregation, American models, Contrasts, New York, London, C., Peach, Advisory Board, member, Professor Peach, Exeter University, Dr James Ryan, Bristol University, Dr Simon Naylor, Cardiff University, Dr Richard Gale, project, researchers, buildings, many other variable, foundation, date, movements, tradition, religion, data, Leverhulme survey, religion, ethnicity, Census data, Leverhulme Trust, project, Wales, England, worship, Sikh places, Hindu, Muslim, his database, Britain, communities, linguistic sub, religio, ethno, project, ESRC, Professor Peach, work, July, Leverhulme Trust, grant, group, social cohesion, ethnic diversity, issue, Göttingen, Max Planck Institute, Director, Steven Vertovec, Oxford, programme, Director, Sarah Spencer, Oxford, Sociology, Professor, Anthony Heath, Oxford, Social Pyschology, Professor, Miles Hewstone, team, part, Ceri, programme, Harvard University, Manchester, part, patterns, UK, US, comparative work, British cities, ghettoisation, claims, critical appraisal, Current work, cities, religious segregation, migration, Professor Peach, Harvard University, Sociology, Professor, Robert Putnam, UBC, geography, David Ley Professor, Rapporteurs, British Segregation Patterns, US, Contrasts, meeting, paper, Boston, April meeting, American Geographers, Association, Ethnic Geography Distinguished Scholar, Princeton, Harvard, British Columbia, University, Yale, Berkeley, Australian National University, Fellowships, Manchester University, Social Change, Institute, Professor, Oxford, retirement, Emeritus Fellow, School, Social Geography, Emeritus Professor, Oxford, Environment, Geography, School, Social Geography, Professor, Professor Ceri Peach]</t>
+  </si>
+  <si>
+    <t>[Abies, Pinus sylvestris, Pinus cembra, Picea abies, Larix decidua, logger, temp, soil, years, reconstructions, temperature, trees, chronologies, MXD, TRW network, Tatra, Abies, Pinus sylvestris, Pinus cembra, Picea abies, Larix decidua, logger, treeline soil, Tyrol, Engadine, Valais, Southern French Alps, Lötschental, studies, dynamics, history, settlement, LBM outbreaks, spatiotemporal reconstructions, reconstructions, long summer, composite chronologies, material, relict, living, MXD network, TRW, Neuwirth B Alps, Esper J, Winiger M, supervisors, Grade, Schweiz, Lötschental, Hölzern für, und, Lärchenchronologie aus, Dendroklimatologische Analysen einer, Germany, University Bonn, Geography, Department, Master thesis, Nicolussi K 08.2003, Esper J, Wanner H, supervisors, laude, summa, Grade, rings, tree, reconstructions, term, Switzerland, Bern, University, Geography, Department, nat, Dr phil, thesis, millennia, Mediterranean, Europe, Climate, Med2k, Euro, group, Past Global Changes, PAGES, Head, questions, answers, archives, parameters, diverse tree, time, space, intertwined environmental systems, changes, consequences, causes, What, questions, answers, globe, fieldwork, Europe Ulf Büntgen, Asia, plague, introductions, rings, TRADE, Black Death, origin, BP, chronology, extension, Consolidation, archive, chronologies, Glacial European tree]</t>
+  </si>
+  <si>
+    <t>[strike, Nadezhda Tolokonnikova, Pussy Riot protestor, Penal Colony, conditions, discussion, part, J. Pallot, ed, Bler Rublya, Yul'yam K. Brumfild, Soviet Countryside, Life, Sovetskoi Derevne, Zhizn, J., Pallot, A. Stenning, M. Bradshaw, Agriculture, Rural Change, Johnson, Agriculture, Rural Change, S., Johnson, T., Unwin, J., Pallot, eds, P. Solomon, T., Luhausen, punishment, Soviet geography, post, gender, Space, penal Russia, Continuities, J., Pallot, ed, Z., Roca, Chapter, seasonal suburbanization, case, Russian Federation, development, multiplicity, J., Pallot, T., Nefedova, D., Conlon, N., Gill, D., Moran, Chapter, Russian Federation, women, transportation, Liminal transcarceral space, J., Pallot, L., Piacentini, D., Moran, Izvestiya AN, Farming, People, Geography, izucheniya, obekt, naseleniya, Individual'nie, T., Nefedova, J., Pallot, Soviet patterns, post, gender, Space, wife, husband, zhena, Gde muzh, future, past, Russia, criminelle, normale, J., Pallot, E., Katz, Russia, Punishment, Crime, Geography, Venäjän, Rikoksen ja rangaistuksen, L., Piacentini, J., Pallot, D., Russia Moran, gulag, legacy, penality, spatial continuity, incarceration, topography, ESRC, Financial support, Birmingham, University, Dr Dominique Moran, Strathclyde, University, Dr Laura Piacentini, collaboration, Soviet Russia, late Soviet, imprisonment, practice, theory, distance, role, Russian Penal System, penal Russia Women, their encounters, relatives, prisioners, impact, Soviet Russia, Post, Gender, Social Construction, Penality, December, November, series, results, global context, Russian farming, history, Kul'tura, Russian TV, project, Pallot, Prof, August, Mordovia, Kostroma, trips, Research, books, journals, English, variety, research, results, krai, Stavropol, Saratov oblasts, Samara, Ryazan, Archangel, Perm, Moscow, regions, rural districts, regions, work, Tatyana Nefedova, project, Leverhulme, economy, transformation, production, household, rural adaptations, Soviet period, interest, 1990s, Soviet period, rights, struggle, Stolypin Land Reform, late Imperial government, initiatives, Russian peasantry, responses, Her early work, peasant studies, field, reputation, Pallot, Prof, visitors, penal Russia, experiences, women, research, Dr Elena Katz, Guggenheim, Nuffield, funding, Pallot, Prof, Russian penal system, experiences, women, research, conjunction, IBG September, RGS, What, Conference, Toronto, University, studies, early findings, Pallot, Prof, krai, Perm, penal colonies, December further fieldwork, Mordovia, republic, penal colonies, women, work, April, March, colony, L'govo, study, Oxford Research Development Fund, University, project, money, Ryazan, Penal Management, Law, Academy, group, collaboration, project, Birmingham, University, Dr Dominique Moran, Environment, Geography, School, former postgraduate, geographer, Strathclyde, University, criminologist, Dr Laura Piacentini, researchers, Her co, November, years, gestation, Russian penal bureaucracy, sensitivities, project, Punishment, Geography, Russia, Gender, Space, project, ESRC, principal investigator, penal geography, Russia, interest, Pallot, Prof, project, Ryazan, Penal Management, Law, Academy, Oxford University, understanding, memorandum, Justice, Russian Federation Ministry, Federal Penal Service, links, years, Economic Sciences, Social, Moscow School, Peasant Studies Centre, State University, Perm, Moscow, Geography Departments, scholars, Russian agriculture, authority, Russia, Tatyana Nefedova, collaboration, Sciences, Russian Academy, Geography, Institute, researchers, strong links, scheme, British Council, Oxford, USSR, who, Russia, geographers, agreements, late 1980s, frequent visitor, student, graduate, post, USSR, Pallot, Prof, 1990s, member, its Treasurer, East European Studies, Slavonic, British Association, active member, UK, posts, contemporary urban change, rural society, environmental issues, topics, Russia, graduates, Pallot, Prof, Cold War, political geography, course, East Central Europe, geography, course, geography, option, Pallot, Prof, East European Studies, interdisciplinary links, University, Russian geography, research, teaching, Leeds University, lectureship, Oxford, Judith Pallot, Prof]</t>
+  </si>
+  <si>
+    <t>[victims, road, national charity, Roadpeace, current patron, Cartographers, Society, former Honorary President, Social Sciences, Learned Societies, Academy, Academician, living, playing, underlying rationale, education, pre, schemes, play, children, worker, play, Danny, career, texts, His recent books, poverty, wealth, education, employment, health, housing, issues, His work, world, who, Oxford, school, Tyne, Newcastle, university, New Zealand, Leeds, Bristol, Newcastle, Sheffield, University, Geography, professor, Geography, Halford Mackinder Professorship, September, Environment, Geography, School, Danny Dorling]</t>
+  </si>
+  <si>
+    <t>[London, Towers Watson, Sustainable Investing, Transformation, Challenges, Project Telos, S.M., McGill, C., Molinari, D., Wójcik, M.R., Allen, R., Urwin, G.L., Clark, eds, K. Chalmers, J.M., Godfrey, Chapter, performance, global metrics, finance, language, Institutional investors, D., Wójcik, T., Hebb, G.L., Clark, A.H.B., Monk, A.D., Dixon, G.L., Clark, Chapter, secondary markets, proximity, role, D., Wójcik, D., Wood, A.L., Neher, A.G.F., Hoepner, J.P., Hawley, T., Hebb, Chapter, sustainable investment, transformation, challenges, D., Wójcik, C., Molinari, S., McGill, H., Hachigian, G.L., Clark, its implications, corporate governance, crisis, Ahold, arbitrage, stock, inter, ownership, World Bank, effectiveness, production, evaluation, roles, analysis, fact, data, council, Gulf, emissions, platform, optimal carbon, development, Gulf, market, postdoctoral researchers, students, addition, DPhil students, MSc students, Environmental Governance, Society, Nature, MSc, Development, Economy, course, Dariusz co, graduate, tutor, option, Finance, Geographies, students, course, Society, Place, Space, Prelims, course, Human Geography, Dariusz, global development, finance, impacts, Finance, first Atlas, Global Financial Networks, theory, project, digital revolution, Global South, rise, new financial regulation, response, Eurozone crisis, global financial crisis, consulting, accounting, law, services, study, 21st Century, Development, Finance, Global Financial Networks, Cities, years, €, prestigious European Research Council Consolidator Grant, Dariusz, sustainable finance, future, international monetary system, financial centres, role, market, Initial Public Offerings, underpricing, location, role, economic thought, geography, Other topics, Global Financial Networks, concept, accounting, political economy, Keynesian economics, post, economic geography, intersection, economic geography, future agenda, theoretical strand, networks, offshore financial centres, evolution, world, financial centres, financial crisis, impact, Bretton Woods system, collapse, economy, transformation, offshore world, services, role, crisis, London axis, New York, role, crisis, interpretations, review, global financial crisis, topics, elite interviews, methods, anthropology, sociology, political economy, economics, geography, insights, His research, economy, social scientific approaches, global economy, structure, major changes, capitalism, history, major juncture, crisis, premise, global financial crisis, wake, global financial landscape, current work, Dariusz Wójcik, Oxford University, Poland, academic relationships, contemporary Poland, research, teaching, multidisciplinary initiative, Environment, Geography, School, Lecturer, University College London, Geography, Department, Lecturer, June, January, Political Science, Economics, London School, outside Lecturer, Oxford, Jesus College, Junior Research Fellow, Economic Geography Perspective, Europe, Capital Market Integration, Corporate Governance, thesis, DPhil, Jesus College, association, University Studentship, Commonwealth Office, Foreign, Open Society Institute, scholar, Oxford, Stockholm University, Banking, Finance, MSc, Economics, Cracow University, Economics, Degree, Master, Cracow, Jagiellonian University, Geography, Degree, Master, Dariusz, present, empirical framework, global financial markets, imperatives, light, European corporate governance, transformation, corporate governance, global market, crucial issues, financial centres, New York, London, continued dominance, model, exchange, revolution, global financial crisis, impact, markets, rise, studies, rich data, book, world, countries, cities, economy, markets, performance, relationships, intermediaries, investors, issuers, relationships, market, comprehensive picture, OUP, His research, private institutions, corporate governance, financial management, his research, academia, launch, Conference, economic geography, event, countries, delegates, International Advisory Board, member, interdisciplinary seminars, economic geography, future, Sydney, Singapore, Hong Kong, Beijing, universities, appointments, field, journals, board, nominations, research, His contribution, economists, lawyers, operation, co, development, projects, Research Grants Council Hong Kong, major grant, UK, principal investigator, co, principal, m, value, grants, years, volumes, journals, chapters, articles, books, financial geography, economic geographer, Dariusz Wójcik]</t>
+  </si>
+  <si>
+    <t>[Eds, S., Mills, K., Kallio, Citizenship, Possibilities, Civil Society, Civility, Learning Citizenship, Press, L. Staeheli, former Yugoslavia, states, relations, state, conflict, governmental organisations, role, justice, law, geographies, formation, doctoral work, post, masters, who, Alex Jeffrey, European Research Council Advanced Grant, Academic Fellow, Alex, political instability, periods, citizenship, ideas, research, strand, Divided Societies, Citizenship, papers, work, area, Key publications, war, crimes, jurisdiction, domestic War Crimes Chamber, process, research, strand, Herzegovina, Bosnia, experience, Legal Geopolitics, papers, Key outputs, Newcastle University, internal funding, PTA-026, ESRC Postdoctoral Fellowship, R42200134266, ESRC Studentship, work, NGOs, agendas, agencies, institutions, donors, Herzegovina Alex, Bosnia, residential fieldwork, several periods, violent conflict, democratic participation, NGOs, governmental organisations, role, research, formation, Geographies, inquiry, areas, work, former Yugoslavia, conflict, international intervention, consequences, nature, Alex, Geography, Department, cluster, transitional justice, civil society, critical geopolitics, debates, His research, former Yugoslavia, conflict, building, state, Political Geographer]</t>
+  </si>
+  <si>
+    <t>[Eastern England, South Wales, large River Basins, II Application, INCA, Catchments, assessment, Multiple, Integrated Nitrogen Model, Process Equations A Semi, Model Structure, I, INCA, Catchments, assessment, Multiple, Integrated Nitrogen Model, A semi, historic time, INCA process, southern England, Tillingbourne catchment, N decline, C, leaching, upper River Thames Excess, River Kennet, intensive study, inferences, permeable catchments, functioning, Water, INCA, East England, South, Bedford Ouse, Mid Wales, Plynlimon, River Severn, comparison, catchments, upland, Nitrogen, forestry, Impacts, perspective, European systems, coastal zone, surface, Catchment Scales Modelling Nitrogen Fluxes, Field, Nutrient Losses, Integrated Modelling, Sewage Sludge, Pollution, point, Non, Risk, uncertainty, Monte Carlo approach, Northern Jordan, Bronze Age Jawa, levels, hydrology, Modelling, Monte Carlo approach, Northern Jordan, Bronze Age Jawa, levels, hydrology, Sweden Modelling, Gardsjon, catchment, deposition, dynamics, water, Romania Modelling stream, Transylvania, Mures River System, Aries, Abrud, discharges, study, model, systems, pollution, Romania Modelling impacts, Transylvania, system, Mures, Aries, strategies, impacts, metals, model, basins, mine discharges, metals, P.J., Wood, P.G., Whitehead, R., Timlett, D., Solomon, S.J., Ormerod, N.J., Milner, B., Knights, A.C., Johnson, N., Holmes, D.M., Hannah, C., Extence, J.A., Elliott, M.J., Dunbar, S.J, Dugdale, R., Chadd, P.M., Berry, R.W., Battarbee, G., Watts, H.G, Orr, R.L., Wilby, Newcastle, University, Conference Proceedings, BHS, British Hydrological Society, loads, strategies, River Lugg, transport, supply, C., Burgess, R., Willows, A.J., Wade, L., Pope, M., Futter, A.N., Lázár, P.G., Whitehead, pp, United Kingdom, Tyne, Newcastle, Newcastle University, July, Global Environment, Managing Consequences, Hydrology, Role, British Hydrological Society Third International Symposium, BP, Silbury Hill, Upper Kennet, hydrogeology, hydrology, Palaeo, Edmunds M., Whitehead P.G., Newcastle, University, Conference Proceedings, BHS, British Hydrological Society, River Frome, application, rivers, algal dynamics, plant, C.M., Heppell, P.G., Whitehead, A.J., Wade, A.N., Lázár, Whitehead P.G., A.J., Wade, D.S.L., Lawrence, N., Jarritt, M., Korppoo, Thouvenot, K., Rankinen, M.N., Futter, D., Butterfield, A.N., Lázár, Newcastle, University, Conference Proceedings, BHS, British Hydrological Society, southeast England, vulnerability, future climate, implication, River Thames, dynamics, flow, P.G., Whitehead, L., Jin, P.G., Whitehead, A., Wade, J., Sheffield, M., Sivapalan, C., Lidard, Peters, D.P., Lettenmaier, B., Lehner, S., Kollet, P.R., Jaffé, P., Houser, N., van de Giesen, D., Gochis, J., Famiglietti, M., Ek, P., Döll, A., de Roo, E., Blyth, M., Bierkens, R., van Beek, T.J., Troy, J.K., Roundy, E.F., Wood, eds, E. Black, S., Mithen, Chapter, techniques, new approach, northern Jordan, Jawa, Bronze Age site, change, resources, Modelling, A., Wade, S., Smith, P.G., Whitehead, H.P., Jarvie, E.M., O'Connor, R., North, A.J., Wade, M., Futter, P.J., Dillon, S.K., Oni, D., Butterfield, H.M., Baulch, L., Jin, P.G., Whitehead, E., Black, S., Mithen, past, rainfall, Modelling Dead Sea levels, Plinston D., E., Black, D., Butterfield, P.G., Whitehead, implications, environmental change, future climate, Impacts, Northern Turkey, Yeşilirmak River catchment, nitrogen, Withers, Skeffington, Jickells, Jarvie, continuum, freshwater, cycling, change, Special Issue, River Thames system, change, land, climate, impacts, quality, security, analysis, cost, D.S., Read, M.J., Bowes, A.J., Wade, D., Skuras, L., Jin, S., Comber, M.N., Futter, B.B., Balana, J., Crossman, P.G., Whitehead, E.M., O'Connor, J., Crossman, M.N., Futter, S.K., Oni, D., Butterfield, P.J., Dillon, H.M., Baulch, P.G., Whitehead, L., Jin, effective management, implications, multiple stressors, changes, hydrology, quality, interactive responses, Alaska, Denali National Park, events, retreat, change, impacts, patterns, shifts, significance, J., Crossman, E.M., O'Connor, L.P., Aspden, S.K., Oni, D., Butterfield, P.J., Dillon, D.T., Woods, P.G., Whitehead, L., Jin, M.N., Futter, H.M., Baulch, WFD, alternative strategies, Blashford Lakes, Hampshire Avon, ecology, phosphorus, hydrology, dynamic modelling, Distributed, R., Willows, L., Pope, R., Bardon, R., Mistry, D., Butterfield, A.L., Collins, N., Flynn, P., Daldorph, P.J., Johnes, S., Comber, J., Crossman, L., Jin, P.G., Whitehead, Monte Carlo approach, Northern Jordan, Bronze Age Jawa, levels, hydrology, Romania Modelling, Transylvania, system, Mures, Aries, strategies, impacts, metals, model, basins, mine discharges, metals, Sweden, Gardsjon, catchment, deposition, dynamics, water, Romania Modelling stream, Transylvania, Mures River System, Aries, Abrud, discharges, study, model, systems, pollution, Modelling impacts, P.J., Wood, Whitehead P.G., R., Timlett, D., Solomon, S.J., Ormerod, N.J., Milner, B., Knights, A.C., Johnson, N., Holmes, D.M., Hannah, C., Extence, J.A., Elliott, M.J., Dunbar, S.J., Dugdale, R., Chadd, P.M., Berry, R.W., Battarbee, G., Watts, H., Orr, R.L., Wilby, Newcastle, University, Conference Proceedings, BHS, British Hydrological Society, BP, Silbury Hill, Upper Kennet, hydrogeology, hydrology, Palaeo, W.M., Edmunds, P.G., Whitehead, Newcastle, University, Conference Proceedings, BHS, British Hydrological Society, loads, strategies, River Lugg, transport, supply, C., Burgess, R., Willows, A.J., Wade, L., Pope, M., Futter, A.N., Lázár, P.G., Whitehead, Newcastle, University, Conference Proceedings, BHS, British Hydrological Society, River Frome, application, rivers, algal dynamics, plant, C.M., Heppell, P.G., Whitehead, A.J., Wade, A.N., Lázár, P.G., Whitehead, A.J., Wade, D.S.L., Lawrence, N., Jarritt, M., Korppoo, Thouvenot, K., Rankinen, M.N., Futter, D., Butterfield, A.N., Lázár, Newcastle, University, Conference Proceedings, BHS, British Hydrological Society, southeast England, vulnerability, future climate, implication, River Thames, dynamics, flow, P.G., Whitehead, L., Jin, P.G., Whitehead, A., Wade, J., Sheffield, M., Sivapalan, C., Lidard, Peters, D.P., Lettenmaier, B., Lehner, S., Kollet, P.R., Jaffé, P., Houser, N., van de Giesen, D., Gochis, J., Famiglietti, M., Ek, P., Döll, A., de Roo, E., Blyth, M., Bierkens, R., van Beek, T.J., Troy, J.K., Roundy, E.F., Wood, eds, E. Black, S., Mithen, Chapter, techniques, new approach, northern Jordan, Jawa, Bronze Age site, change, resources, Modelling, A., Wade, S., Smith, P.G., Whitehead, H.P., Jarvie, E.M., O'Connor, R., North, A.J., Wade, M., Futter, P.J., Dillon, S.K., Oni, D., Butterfield, H.M., Baulch, L., Jin, P.G., Whitehead, E., Black, S., Mithen, past, rainfall, Modelling Dead Sea levels, D., Plinston, E., Black, D., Butterfield, P.G., Whitehead, implications, environmental change, future climate, impacts, Northern Turkey, Yeşilirmak River catchment, Modelling nitrogen, River Thames, change, land, climate, impacts, quality, security, analysis, cost, Research article, D.S., Read, M.J., Bowes, A.J., Wade, D., Skuras, L., Jin, S., Comber, M.N., Futter, B.B., Balana, J., Crossman, P.G., Whitehead, E.M., O’Connor, J., Crossman, M.N., Futter, S.K., Oni, D.A., Butterfield, P.J., Dillon, H.M., Baulch, P.G., Whitehead, L., Jin, effective management, implications, multiple stressors, changes, hydrology, quality, interactive responses, Alaska, Denali National Park, events, retreat, change, impacts, patterns, shifts, significance, J., Crossman, E.M., O’Connor, L.P., Aspden, S.K., Oni, D.A., Butterfield, P.J., Dillon, D.T., Woods, P.G., Whitehead, L., Jin, M.N., Futter, H.M., Baulch, WFD, alternative strategies, Blashford Lakes, Hampshire Avon, ecology, phosphorus, hydrology, dynamic modelling, Distributed, R., Willows, L., Pope, R., Bardon, R., Mistry, D., Butterfield, A.L., Collins, N., Flynn, P., Daldorph, P.J., Johnes, S., Comber, S., Crossman, L., Jin, P.G., Whitehead, Louros, case, change, WFD thresholds, nutrient concentration, environmental measures, agri, effectiveness, cost, approach, M., Robinson, J.C., Rodda, Water Quality, A., Jenkins, M., Bowes, P., Whitehead, A., Johnson, H., Jarvie, C., Neal, R., Bangladesh Williams, India, fluxes, flows, economic change, future climate, impacts, system, Ganga, Dynamic modeling, H.D., Leckie, C., Hutton, R., Nicholls, R., Sinha, D., Butterfield, E., Barbour, J., Caesar, M.N., Futter, L., Jin, S., Sarkar, P.G., Whitehead, flood, low flow, system, Meghna, Brahmaputra, Ganga, quality, flow, economic scenarios, socio, change, Impacts, R.J., Nicholls, H., Leckie, M., Salehin, R., Sinha, L., Jin, D., Butterfield, J., Caesar, H., Rodda, S., Sarkar, M.N., Futter, E., Barbour, P.G., UK Whitehead, River Thames catchment, application, analysis, Model structure, catchments, rivers, pathogens, INCA model, L., Nizzetto, D., Butterfield, M.N., Futter, P.G., Whitehead, P., Karásková, J., Becanová, T., Larssen, S., Tayal, G.K., Bharat, B.M., Sharma, hydrobiogeochemical transport, fate, insights, River Thames catchment, PCBs, polychlorinated biphenyls, transport, Fate, P.G., Whitehead, K., Rankinen, Y., Lin, A., Lepistö, D.S.L., Lawrence, L., Jin, S.J., Halliday, P., Ekholm, J., Crossman, B.A., Cox, R.M., Couture, D., Butterfield, M.N., Futter, A.J., Wade, L.A., Blake, Jackson, levels, potential future, past, Dead Sea, study, Jawa, ancient city, levels, hydrology, Jordan, studies, key Leverhulme Project, Paul, research, fascinating area, past civilisations, techniques, modern hydrological, application, past, significant lessons, communities, water, availability, problems, best means, natural pollution, man, Brazil, China, Nepal, Jordon, studies, Past projects, world, many countries, sustainable management, expertise, his knowledge, research, Paul, personal well, most means, lives, water, sound supply, sustainable development, crucial goal, world, peoples, water, potable source, behaviour, quality, processes, tools, powerful set, Europe, models, streams, phytoplankton, epiphytes, macrophytes, biomass, ecological parameters, behaviour, quality, flow, behaviour, catchments, models, new range, Paul, part, Europe, systems, lake, river, change, impacts, project, Europe, executive committee, Paul, change, potential impacts, Water Framework Directive, Directives, Government Policy, EU, key issues, health, resources, modern environmental management, crucial element, wetlands, lakes, rivers, ecosystems, quality, behaviour, future, past, environmental systems, new mathematical techniques, application, development, control, change, major problems, environmental management, interplay, research, Paul, meetings, conferences, wide range, speaker, literature, papers, USA, Australia, Brazil, Taiwan, China, India, Thailand, Nepal, European Governments, EU, advisor, NERC £, Environmental Diagnostics, Joint NERC/ Programme, NERC £, Land Use Research Programme, NERC £, Programme, Pollution, NERC £, River Ecology Programme, Thematic Programme Planning committees, several senior NERC committees, Professor Whitehead, other industrial partners, Water companies, programmes, framework, EU, UK Government, His research, continents, many countries, world, dynamic models, suite, ecology, quality, hydrology, interactions, catchments, wetlands, lakes, river, dynamic behaviour, interests, Aquatic Environments Research Centre, Director, Professor, Reading, University, Paul, Environment, Geography, School, Manchester, Systems Theory, Control, NERC, Director, Environment, Geography, School, Water Science, Professor, Paul Whitehead]</t>
+  </si>
+  <si>
     <t>[Oxford, NERC Doctoral Training Programme, part, system, Management, Environmental Change, MSc, Management, Policy, Water Science, MSc, programmes, Professor Washington, Climate Models, African climate, aerosols, Seasonal Prediction, Climate Variability, Modes, General Circulation, Variability optional course, Climate Change, course, Earth Systems Dynamics, part, Prediction, Attribution, Climate Change Detection, Climate Models, Climate Change, Ireland, UCD, course, East Anglia, University, Climate Change MSc, external examiner, NGOs, agencies, variety, tropical climate, future scenarios, assessments, variability, preparation, interest, real world, mechanisms, models, rainfall, mechanisms, change, focus, Richard, Reach, UMFULA, IMPALA, next few years, Namibia, work, CLARIFY project, emission, source, poor specification, models, areas, dust, field, dust, observations, DO4Models, main aim, period, Namibia, Etosha Pan, valleys, Botswana, Sua Pan, project, short film, Fennec programme, West African Monsoon, vital part, turn, Sahara, climate, weather, Saharan heat, deep thunderstorms, outflows, jets, dust, dynamics, first insights, flights, instruments, ground, Bae-146 aircraft, Met Office, NERC, central Sahara, low level, flying, hours, project, Mauritania, Zouerat, Bordj Badi Mokhtar, Algeria, Mali, border, observations, large collection, central Sahara, equipment, instruments, ground, tons, deployment, Fennec, years, central Sahara, void, meteorological observations, first major programme, Fennec, which Richard, DO4Models, Fennec, dust, work, Geophysical Research, Journal, Washington et al, Geophysical Research Letters, Todd, Washington, basin, dust, emission, strong wind, Bodélé Low Level Jet, identification, BoDEx, important outcome, Amazon basin, Bodélé dust, paper, Environmental Research Letters Outstanding Article Award, authors, co, Bodélé Depression Chad, mineral aerosols, largest source, world, experiments, work, sources, remote areas, observational campaigns, programmes, feature, key global sources, transport, emission, dust, mineral aerosol, controls, research, Richard, key concern, CLARIFY-2016, DO4Models, Fennec, BoDEx, work, which Richard, main projects, research, ongoing concern, interactions, nutrient cycling, systems, clouds, radiation, its interaction, system, storms, change, African focus, research, primary themes, Reach, project, water, project, Forcing Year, Aerosol Radiative Impacts, Clouds, CLARIFY, Investigator, Co, Richard, programme, c£20, FCFA, projects, African Climate, Model Processes, IMPALA, Understanding Development Applications, Models, Uncertainty Reduction, Africa UMFULA, Future Climate, Oxford Principal Investigator, Bodele Dust Experiment, BoDEx, Investigator, Co, Oxford, daily observations, continuous daily meteorological record, Radcliffe Meteorology Station, Director, Africa, Working Group II, change, Observations, Working Group, reports, IPCC author, DFID, Met Office, Climate Science Research Partnership, AMMAII, programmes, board, Atmospheric Scientists, SA Society, Best Research Paper, judges, panel, Tunis, Qatar, Dar Es Salaam, Niamey, Nairobi, Workshops, CLIPS, Prediction Services, Climate Information, several World Climate Program, NERC Science Strategy, NERC Climate Science Strategy Panel, members, Oxford, Stockholm Environment Institute, African Earth System Science, AFRICANNESS, committees, membership, Science southern Africa, International Council, World Climate Research Program representative, CLIVAR Africa Climate Atlas, development, Richard, member, VACS, CLIVAR, Chair World Climate Research Program African Climate Variability Panel, Co, Richard, NERC, Natural Environment Research Council, southern Africa, North, instrumented aircraft, observations, major observational campaigns, southern Africa, central Sahara, storms, aerosols, models, climate, characteristics, way, drought, floods, mechanisms, change, systems, research, Richard, Climate Science, Professor, Readership, Keble College, Fellowship, University Lectureship position, Oxford, Departmental Lectureship, Oxford, Christ Church, lecturer, time, UK Meteorological Office, Hadley Centre, group, Professor Chris Folland, Perrott, Professor Alayne Street, Oxford, University, change, variability, Africa, His doctorate, lecturer, years, Cape Town, University, Stellenbosch, University, Natal, University, Oxford, University, Natal, University, degrees]</t>
   </si>
   <si>
-    <t>[outside organisations, UCL, academic departments, members, events, performances, workshops, talks, series, Harrow Road Neighbourhood Partnership, A Better World Foundation, New York’s Street Vendor Project, Seattle’s Street Vendor Task Force, Green Spaces Forum, London Parks, research, my case, groups, number, capacities, volunteer, Management, QMUL Business, Dr. Yasmine Ibrahim, Interdisciplinary Award, ESRC, Funding, geographies, locative media, impact, City, Sex(uality, good match, our interests, PhD, anyone, inquires, urban life, cities, imagination, representation, collective culture, urban sociality, urban public space, Matters, interests, News, Geography, Public Space’ Royal Geographical Society, Regan Koch, Expert, R., Koch, author, RGS, Pdf, RGS, resources, Level, A, News, Geography, Soft Regeneration’ Royal Geographical Society, Case Study, Public Space, A., Latham, R., Koch, eds, S. Knierbein, A. Madanipour, contemporary London’, public life, changes, public spaces, cities, A., Latham, R., Koch, urban public spaces, which transformations, conceptual registers, changes, public life, details, aim, months, period, vendor, fruit, site, ethnographic study, Research, local community, asset, public space, social behaviour, crime, junction, urban redevelopment, project, collective life, democratic forms, innovation, research, discussion, my goal, vein, future work, point, spaces, accountability, conviviality, relations, practical configurations, material, their meal, price, which customers, cafes, restaurants, what, economy, private relations, forms, meals, private homes, which public audiences, clubs, underground restaurants, laws, comparative look, vending, street, popular enthusiasm, tremendous growth, studies, public’, theme, inquiry, new lines, attentive registers, theoretical resources, analytic principles, series, ness, public, broader conceptualisation, project, theoretical impasse, something, topic, recent work, urban public space, predominant approaches, critique, project, research, public space, study, public life, spaces, ways, U.S. My interest, trends, food, ethnographic study, University College London, doctoral research, My ESRC, cities, students, methods, volume, goal, New York, St. Lawrence University, Encountering Global London, London’s Urban Geographies, intensive courses, field, years, Teaching Award, Student Choice Excellence, MSc Urban Studies programme, Geography, department, fellow, UCL, my PhD, years, successful secondary Geography department, London, secondary school, Kansas, Kansas City, middle school, My first job, Learning, Teaching, MSc, Social Sciences, Education, My first degree, student, enthusiastic teacher, SAGE, UCL Geography, Dr. Alan Latham, Cities, Key Thinkers, volume, Stadkolloquium Urban PhD Research Network, member, Royal Geographical Society’s Urban Geography Research Group, director, member, organising, Geography’s Urban Geography Research Group, American Association, University College London’s Public Engagement Unit, University College London’s Graduate School, Social Research Council, Economic, grants, My work, geographical imaginations, representation, that different kinds, urban dwellers, different kinds, culture, lifestyles, trends, new developments, urban change, processes, neighbourhoods, cities, academic discourse, concern, urban public life, my interest, Parallel, beneficial ways, possibilities, my interest, social entrepreneurs, ordinary activities, spaces, kinds, social interactions, urban life, convivial forms, people, efforts, popular practice, emergent forms, trends, food, pluralistic society, what, negotiation, everyday forms, what, inhabitation, modes, infrastructure, materiality, that different kinds, public life, different spaces, careful attention, study, field, my work, critical urban scholarship, longstanding concern, themes, date, my research, U.S., cities, contemporary London, solidarity, sociality, new forms, urban space, capacity, collective culture, My particular interest, cities, public life, cultural geographer]</t>
-  </si>
-  <si>
-    <t>[BS Singhal Oration, Gowers Memorial Lecture, Pringle Lecture, Charcot Lecture, Don Paty Memorial Lecture, ECTRIMS Lecture, lectures, patient groups, therapists, nurses, physicians, researchers, multiple sclerosis, management, diagnosis, MRI, measurement, neurorehabilitation, workshops, courses, Teaches, role, MS Trust, MSIF, MS Society, MS, management, treatment, diagnosis, patients, educational materials, production, Translational Medicine, MSc, CBRC, EFNS, Joint Neurosciences Council, Brain, e, neuroscience, postgraduate diploma, distance, trainees, online MSc, Advanced Neuroimaging, new MSc course, Clinical Neuroscience, programme, year, Education Unit, Neurology fostered growth, Institute, Director, multiple sclerosis, special focus, disability, management, neurorehabilitation, MRI, therapists, nurses, students, post, medical students, researchers, multidisciplinary teaching, multiple sclerosis, new section, development, Nervous System, Diseases, ICD-10/ICD-11, revision, WHO International Advisory Group, member, MS, Diagnostic Criteria, WHO International Committee, member, MSIF, Global Economic Study, MSIF, WHO, MS World Atlas, Quality Standards, Alan Thompson, management, world, clinical trials, MS Walking Scale, MS Impact Scale, Professor Jeremy Hobart, MSIS-29, MS Impact Scale, scale, validation, Fampridine, MS, symptomatic treatment, recent approval, MS Walking Scale, achievements, perspective, patient, outcomes, scales, application, evaluation, development, Neurological Outcome Measures, Dementia Strategy Board, Neuroscience, Academic Medical Centre, Cancer Institute, programme, North Central London, dedicated Brain Tumour Centre, neurosurgical service, North Central London, service, unified brain, area, metric, establishment, London area, outcome, improvements, overview, Neurological Disorders, UCLP Programme Director, therapies, potential disease, studies, early proof, progression, precise measures, cohorts, biomarkers, combination, therapies, dedicated national resource, neurodegenerative disease, Research, clinical effectiveness, transparency, flow, groups, researchers, UCLP Academic Health Science Centre, Neuroscience Programme, Chair, mental health, dementia, research, comprehensive programmes, initiative, delivery, therapeutic agenda, December, UK Dementia Research Institute Hub, successful bid, UCL, Brain Sciences, Faculty, injury, clinical recovery, morphometric changes, imaging, team, Dr Patrick Freund, Collaborates, effective treatments, recovery, new strategies, optic neuritis, mechanisms, Dr Ahmed Toosy, MS patients, clinical improvement, mitochondrial dysfunction, reversibility, MS, mitochondrial dysfunction, role, New research, axons, effect, tracts, acute lesions, damage, mechanisms, Professor Olga Ciccarelli, cognitive impairment, physical disability, grey matter, likely relationship, effective treatments, measure, clinical trials, abnormalities, grey matter, Methods, disability, extent, progression, reliable markers, atrophy, measure, MS, multiple sclerosis, pathology, MRI, imaging, Multiple Sclerosis Journal, chief, editor, Brain, Guarantor, Research Programs Advisory Committee, USA, National MS Society, member, PMSA, International Progressive MS Alliance, Scientific Advisory Committee, Chairs, Scientific Board, International Medical, MSIF, Neurology, UCL Institute, Rehabilitation, Brain Repair, Department, UK, Neurorehabilitation, Clinical Neurology, first chair, Alan Thompson, disease, course, multiple sclerosis, phenotypes, group, part, MS, diagnostic criteria, who, group, member, primary progressive MS group, unique characteristics, axonal loss, cerebral atrophy, atrophy, techniques, pathological specificity, MR techniques, new treatments, effectiveness, MRI, use, protocols, process, MRI, value, MS, groups, natural history, first serial MRI studies, Queen Square, National Hospital, Neurology, UCL Institute, research, His post, clinical symptoms, absence, CSF, basic protein, products, detection, active demyelination, MS, multiple sclerosis, activity, biochemical markers, His MD thesis, Buckingham Palace, award, Nation, Pioneer, Belgium, Hasselt University, honorary doctorate, FANA, FAAN, FRCPI, FRCP, Medical Sciences, Academy, Fellow, Trinity College Dublin, MD, his undergraduate degrees, Behavior, Neuroscience, Essential Science Indicators section, Research ID C-2654, index, H, Alan Thompson, Queen Square, Neurosurgery, Neurology, National Hospital, neurologist, NIHR Senior Investigator Emeritus, UCLP Academic Health Science Centre, Neuroscience Programme, Chair, Brain Sciences, UCL Faculty, Dean, Alan Thompson, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+    <t>[methods, Geomorphological concepts, Mars, Earth, breakdown, M.C., Bourke, H.A., Viles, E.E.M., Heslop, T., Howind, J., Hughes, England, Oxford, Experimental Case Study, Stone Deterioration, Reburial, Effect, T., Howind, J., H.A. Hughes, Viles, N., Zaman, T., Howind, J., Hughes, wetting, masonry, techniques, destructive moisture, Comparability, T., Howind, J., D. Hughes, Stelfox, A.B., Leslie, H.A., Viles, S., Orr, T., Howind, J., Hughes, Natural Ageing, Stones, Coating, Self, Cleaning Efficiency, Assessment, T., Howind, J., H.A. Hughes, Viles, S., Kang, P.M., Quiroga, Carmona, T., Howind, J., Limestone Remains?Hughes, Malta, Hagar Qim, Shelter, T., Howind, J., H.A. Hughes, Viles, C., Briones, Cabello, T., Weiss, S.A., Vollbrecht, S., Siegesmund, deterioration, change, Implications, H.A., Viles, A., Roy, S.T., Trudgill, Chapter, physical geography, substance, style, walls, writing, H.A., Viles, ed, C., Jimenez, Saiz, England, Oxford, limestone, processing, digital photography, patterns, Surface, H.A., Viles, M.J., Thornbush, D.E., Searle, D.J., Mitchell, Julius Sachs, work, roots, weathering, Experimental studies, H.A., Viles, D.N., Mottershead, ed, R. et al, Fort, Oxford, Worcester College, stone, units, elemental concentrations, fluorescence, portable X, Use, H.A., Viles, M.J., Thornbush, ed, R. et al, Fort, consequences, effects, causes, Thoughts, limestones, catastrophic decay, Rapid, H.A., Viles, B.J., Smith, B.J., Smith, R., Prikryl, ruins, soft wall, effectiveness, field, laboratory, Green walls, C., Wood, H.A., Viles, B.J., Smith, R., Prikryl, Oxford, Worcester College, boundary wall, blocks, mapping, Photo, H.A., Viles, M.J., Century Revolutions Thornbush, Mid, Forms, Recent Processes, Quaternary, Vol, Geomorphology, Development, Landforms, Study, History, A.S., Goudie, N.J., Cox, D., Brunsden, R.J., Chorley, T.P., Burt, Chapter, forms, processes, H.A., Viles, A.S, Goudie, limestone, conservation, use, selection, issues, H.A., Viles, M., Heras, Gomez, B.J., Smith, deterioration, understanding, implications, UK, Oxford, walls, contents, surveys, H.A., Viles, O., Sass, T., Glade, H., Fassmann, biodiversity, geodiversity, cultural heritage, conservation, changing world, Physical geography, H.A., Viles, T., Sternberg, L., Mol, Geomorphological Approach, Arid Environments, History, H., Viles, L., Mol, field, implications, approach, calcite, kinetics, gypsum, action, studies, Channel flow, carbonate, kinetics, oxalic acid, phosphoric acid, acid, treatment, pre, effect, R.Y., Cooke, D.I., Smith, P., Collier, T., Yates, W., Gosling, C.A., Moses, R.J., Inkpen, H.A., Viles, S.T., Trudgill, treatment, pre, calcareous materials, kinetics, Northern Ireland A new technique, Belfast, period, polluted urban atmosphere, samples, decay, Surface change, stone, acid, acid, pretreatments, evaluation, studies, Channel, bioprotection, cover, temperatures, rock, moisture, interactions, Experimental investigations, Oxford, study, rate, stone, NO2 concentration, relationship, decay, analysis, mapping, persistence, Studies, Mars, Earth, basalt boulders, processes, scheme, implementation, England, Oxford, stone, microbial growth, soiling, patterns, Washington, Channeled Scabland, Ephrata Fan, breakdown, study, environmental history, texture, shape, Quantitive morphologic analysis, science, geomorphology, assessment, rock, Equotip, Schmidt Hammer, use, deposits, water, OSL, New chronologies, northern Namib Sand Sea, Quaternary palaeohydrological changes, historic buildings, bioprotection, microclimates, wall, Hedera helix, ivy, role, deep wetting, new perspectives, buildings, greening, dynamics, stone, change, commentary, South Africa, Golden Gate Reserve, San Rock Art, deterioration, weathering, Implications, regimes, sandstone, Geoelectric investigations, possible strategies, preliminary observations, stone, regimes, investigation, change, H.A., Viles, P.A.M., Basheer, N.A., Cutler, D., McAllister, S., McCabe, S., Srinivasan, B.J., Smith, rainwater flows, effect, quantitative assessment, ruins, plants, manufacturing, Implications, particles, aerial, hurds, interaction, mineralogical study, A chemical, repair, sustainable new construction, applications, composites, hemp, receptivity, hygric behavior, lime, type, influence, UK, Portland, Isle, dated headstones, study, heritage, behaviour, proxy, Surface hardness, porous stone, problems, meters, salt, influence, research, stone, weathering, implications, methodology, advances, porous surfaces, equotip, testing, surface, Oxford, RLAHA, historic buildings, conservation, implications, sandstone, soluble salts, crystallisation, distribution, transport, USA Dynamics, Washington, scablands, boulders, study, morphology, rock, quantitative techniques, South Africa, Golden Gate Highlands National Park, art, San, deterioration, tomography, Sandstone, stone, chemical characteristics, effects, ruins, method, soil, role, option, Dynamics, Desert Landscapes, Option, Conservation, Heritage Science, Final Honour School, Geographical Research course, Prelims, course, Earth System Processes, course, Geomorphology, its undergraduate course, department, which time, Undergraduate Studies, Director, Viles, Prof, EPSRC, City University London, Ken Grattan, Prof, University Belfast, Queen, Bernie Smith, Prof, collaboration, EPSRC, Exeter, University, Dr David Harvey, Bristol, University, Dr Dan Hicks, collaboration, cultural heritage, sandstone, problems, destructive diagnosis, testing, ultrasonic pulse, hardness, Historic England, Consultant, Colin Burns, Historic England, Alan Cathersides, Historic England, Chris Wood, collaboration, NASA, Royal Society, Historic England, Oxford Fell Fund, University, Leverhulme Trust, AHRC, EPSRC, her research, conservation, communities, animals, plants, cultural heritage, methods, practical applications, strong interest, Heather, tester, Equotip, Geotom equipment, surveys, themes, study, ideas, techniques, strong interest, her research, specific themes, recent years, conservation, environmental chemistry, geology, ecology, geomorphology, interface, studies, research, Viles, Prof, Karsten tube, Belfast, sandstone, water, South Africa, Golden Gate Highlands National Park, sandstone, levels, transect, China, Zhangjiajie, forest, Sandstone, Libya, sandstone, Rock art, natural heritage, conservation, understanding, geomorphology, areas, Examples, UK, many places, NW China, Libya, Sahara Desert, South Germany, Chile, Atacama Desert, Washington State, Namibia, South Africa, NW Australia, research, field, Heather, years, Over, trustee, Oxford, University, Heather, years, wide policy, UK, wide Heritage Science Strategy, UK, English Heritage, co, EPSRC steering, AHRC, advisory panel, IBG, Royal Geographical Society, Fieldwork, Expeditions, President, Vice, Geomorphologists, International Association, Executive Committee, member, biogeomorphology, field, her role, European Geosciences Union, Ralph Alger Bagnold Medal, Heather, English cathedrals, deterioration, rain, contribution, doctoral research, post, D.Phil, Seychelles, Aldabra Atoll, fieldwork, limestone, microorganisms, role, thesis, Her D.Phil, Oxford, University, DPhil, Cambridge, University, Geography, MA, University College London, Honorary Professor, Archaeology, Heritage, Art, Engineering, Science, Doctoral Training, EPSRC Centre, Director, Co, Environment, Geography, School, Head, Heritage Conservation, Biogeomorphology, Professor, conservation, science, application, her research, science, geomorphology, major interests, geographer, Heather Viles]</t>
   </si>
   <si>
     <t>[Tyndall Centre Working Paper, central Namibia, diversification, local knowledge, Agricultural adaptation, D.S.G., Thomas, A.J., Newsham, M.J. Mace, S., Huq, J., Paavola, W.N., Adger, dependent societies, equity, Adaptation, C., Twyman, D.S.G., Thomas, R.M., Bailey, D.S.G., Thomas, D.C., Schreve, P.G., Langdon, A., Bogaard, P., Ditchfield, A., C.S., Lane, S.P.E., Blockley, Southern Malawi, Lake Chilwa, level, fluctuations, variations, Late Quaternary Indian Ocean monsoon, R.M., Bailey, D.S.G., Thomas, D.C., Schreve, P.G., Langdon, A., Bogaard, P., Ditchfield, A., C.S., Lane, S.P.E., Blockley, big uncertainties, what, drylands, human interactions, Quaternary environmental changes, R.M., Bailey, D.S.G., Thomas, R.M., Bailey, D.S.G., Thomas, D.C., Schreve, P.G., Langdon, A., Bogaard, P., Ditchfield, A., C.S., Lane, S.P.E., Blockley, stochastics, victim, palaeoenvironments, archive, sands, A.E.C., Stone, S., Burrough, D.S.G., Thomas, R.M., Bailey, M.W., Telfer, R.M., Bailey, D.S.G., Thomas, D.C., Schreve, P.G., Langdon, A., Bogaard, P., Ditchfield, A., C.S., Lane, S.P.E., Blockley, OSL, new chronologies, northern Namib Desert, courses, D.S.G., Thomas, A.E.C., Stone, R.M., Bailey, D.S.G., Thomas, D.C., Schreve, P.G., Langdon, A., Bogaard, P., Ditchfield, A., C.S., Lane, S.P.E., Blockley, Botswana, Kalahari, early human occupation, Hydrological change, D.S.G., Thomas, S., Burrough, M., Meadows, P., Holmes, Chapter, Pan Systems, Lacustrine, Terminal Basins, P.A., Shaw, D.S.G., Thomas, Botswana, Tsodilo Hills, integrated study, NW Kalahari, Late Pleistocene wetting, F., Davies, S., McLaren, D., Nash, C., Appleton, K., Haberyan, M., Bateman, P.A., Shaw, G., Brook, D.S.G., Thomas, development, models, palaeoclimate, implications, South Africa, Witpan, development, lunette, temporal complexity, forms, analysis, mechanisms, South Africa, western margin, accumulation, future dynamics, predictions, aeolian palaeoclimatic reconstructions, implications, southwestern Kalahari, chronostratigraphy, accumulation, Quaternary, plateau, Yuanbao, OSL, ka, ka, deposition, Rates, marine, palaeoclimatic changes, relationship, Timing, western South Africa, accumulation, Multiphase late Quaternary, paleoclimatic changes, its relationship, South Africa, western margin, development, F., J, Bissonnette, S.A., Kowsar, J., Davies, M., Solh, H., Eswaran, U.N., Safriel, D.S.G., Thomas, S.D., Santha, J.L., Flores, Flores, interdune, water, OSL, New chronologies, northern Namib Sand Sea, Quaternary palaeohydrological changes, D.S.G., Thomas, M.D., Bateman, A.C.W., Baas, G.F.S., Wiggs, K., White, J., Bullard, R.G., Bryant, C., Bristow, I., Livingstone, luminescence, application, review, Namib Desert, palaeohydrological change, late Quaternary, Casting new light, Holocene palaeoenvironmental, new analysis, African Humid Period, time, eastern Arabia Central southern Africa, occupation, early human dispersal, Implications, United Arab Emirates, Khali, Rub’ al, dynamics, Quaternary humidity, G.F.S., Wiggs, K.H., White, D.S.G., Thomas, J.M., Nield, J.E., Bullard, R.G., Bryant, C., Bristow, M.D., Bateman, A., Baas, I., Livingstone, Neolithic, southeast Arabia, its implications, United Arab Emirates, Holocene humid phase, analysis, multi, A.G., Parker, F., Borgi, S., Mery, V., Charpentier, H., Walkington, M., Hodson, M.J., Leng, O., Atkinson, A.S., Goudie, D.S.G., Thomas, G., Preston, terrestrial laser, development, surface, pattern, implications, playa, salt, interactions, pore, surface, Climate, M., Zárate, X., Yang, A., Tripaldi, H., Tsoar, A., Singhvi, J., Roskin, P., Hesse, A., Halfen, G., Duller, S., Burrough, O., Bubenzer, C., Bristow, D., Thomas, S., Wolfe, N., Lancaster, system, hypotheses, quantitative method, accumulation, Quaternary desert, forcing, evidence, scanning, development, surface, pattern, crust, implications, playa, salt, interactions, pore, surface, Climate, R., Aalto, P., Downs, J., Wainwright, J., Rose, P., Tarolli, V.R., Thorndycraft, J., Murton, A.J., Plater, R.C., Chiverrell, D.S.G., Thomas, J.E., Bullard, S., Tooth, A.G., Brown, R.M., Bailey, D.S.G., Thomas, D.C., Schreve, P.G., Langdon, A., Bogaard, P., Ditchfield, A., C.S., Lane, S.P.E., Brazil Blockley, South Africa, implications, food, system, impacts, adaptive capacity, datasets, application, advances, northeastern Rub’Al Khali, Quaternary environmental change, response, China Desert dune, governance, village, comparative study, Integrated Water Resources Management, IWRM, Power, Water, OSL, Luminescence, aid, accumulation, history, India, Thar Desert, Quaternary, Final Honour School, Options, Dryland Environments, Quaternary Period, teaching, half, course, Physical, Geographical Environment, undergraduate level, School, programmes, Masters, Undergraduate, David, Sallie Burrough, Students, D.Phil, NERC EFCHED programme, Financial support, Royal Holloway, lecturer, PDRA, Dr Simon Armitage, Libyan Palaeolake Project, Aberystwyth, Dr Geoff Duller, collaboration, Tyndall Centre, Financial support, Reading, University, Dr Henny Osbahr, East Anglia, University, Professor Kate Brown, Professor Richard Washington, collaboration, postgraduates, Dr Richard Bailey, Oxford Brookes, Professor Adrian Parker, Professor Andrew Goudie, NERC, RGS, hydrology, past changes, Southern Africa, features, deposits, palaeo, dating, African palaeoclimate, Oxford, Zoology, Dept, Kathy Willis, Prof, Dr Sallie Burrough, collaboration, Leverhulme Trust, Imperial College London, Sheffield, University, Dr Giles Wiggs, Richard Washington, Prof, collaboration, NERC, southern Africa, South, environmental scientists, archaeologists, approaches, shares, collaborations, Atlantic programme, SPAN, Leverhulme Trust, Thomas, Wolfe, Lancaster, globe, change, responses, potential, data, systems, desert, ages, stabilisation, accumulation, sand, chronological records, global digital database, project, key member, Current activities, successful IGCP projects, leading series, collaborations, number, David Thomas, collaborations, ideas, data, wider initiatives, projects, Twyman, Thomas, issues, equity, resources, use, adaptation, processes, work, Key outcomes, modellers, climate, environmental scientists, interdisciplinary project, Thomas, change, global warming, responses, understanding, responses, floods, drought, shocks, southern Africa, world, dependant societies, natural resource, project, Climate Change Research, Tyndall Centre, project, principal investigator, Thomas, Arnall, human movements, environmental changes, Middleton, Thomas, e.g. Sternberg, Mongolia, Thomas, King, Africa, recent work, Thomas, dynamics, Thomas, Twyman, Stringer, human activities, its interactions, drylands, degradation, research, record, Thomas David, Dansie, fertilisation, dust, mineral, critical role, additional developments, project, western Namibia, dry valleys, Botswana, Makgadikgadi basin, project, component, data, monitoring, models, components, mineral, incorporation, wider initiative, part, atmosphere, sources, terrestrial desert, drivers, project, NERC, Co, Thomas David Thomas, Durcan, urban civilisations, postulated collapse, dynamics, complex history, wider assessments, part, changes, Holocene Indus, dynamics, timing, nature, data, archaeologists, Thar Desert, Leverhulme Trust, current project, fieldwork, Kalahari, find, desert, Lithics, Namib Sand Sea, artefact, arid regions, today, early human presence, substantial evidence, desert, Lithics, last ~100ka, Kalahari, major hydrological changes, Stone Age responses, first analysis, palaeoenvironmental methods, field, hydrological history, region, relation, areas, its raw material, central southern Africa, Middle Kalahari, Stone Age archaeology, first systematic analysis, aim, late Quaternary, use, Stone Age mobility, major hydrological shifts, Kalahari, archaeology, project, Leverhulme Trust, Principal Investigator, Thomas David Thomas, Preston, United Arab Emirates, green Arabia, context, other research, Thar Desert, ancient Indus civilisation, Botswana, Kalahari, archaeology, contexts, palaeoscientists, archaeologists, collaborative research, theme, past, persistent human presence, inhospitable today, areas, past, dynamics, hydroclimate, early civilisations, early humans, presence, evidence, Deserts, European loess, timing, origins, knowledge, projects, Nebraska, drought, responses, dryland land, luminescence, ways, region, world, fluvial dynamics, timing, nature, Namibia, deposits, Quaternary, southern Africa, geochronometric work, Sedimentological, Bailey, Thomas, Burrough, size, megalakes, past, systems, desert, Kalahari, systems, environmental change, climate, geochemical records, New approaches, Thomas, Bailey, accumulation, past desert, drivers, timing, approaches, change, response, development, record, order, OSL, structures, dune, unique opportunity, construction, sand, Quarrying, Late Quaternary, significant environmental changes, result, aeolian accumulation, record, ridges, United Arab Emirates, Leighton, Arabia deserts, similar approaches, Thomas, Burrough, Thomas, Stone, Zimbabwe, Zambia, South Africa, Namibia, Botswana, parts, Kalahari region, work, timescales, histories, records, luminescence, sources, shoreline, lacustrine, dune, Burrough, Thomas, Thomas, data, dry systems, biological origins, other environments, sources, traditional Quaternary terrestrial proxy, changes, potential responses, data, changes, drylands, extensive deserts, world, extensive Kalahari region, southern Africa, interior, years, other continents, Africa, deserts, margins, questions, Quaternary environmental change, seasons, contexts, results, methods, geochronology, appropriate laboratory, data, data, environmental contexts, empirical datasets, rigorous fieldwork, Most projects, value, Boise Funds, Fell, Leverhulme Trust, ESRC, NERC, RCUK, grants, Co, PI, David Thomas, Manchester, Abi Stone, Oxford, Sallie Burrough, Leeds, Susannah Sallu, Reading, Alex Arnell, Uppsala, Tom Stevens, Plymouth, Matt Telfer, CNRS Montpellier, Brain Chase, Leicester, Andy Carr, Sheffield, Chasca Twyman, Botswana, Drs Jeremy Perkins, Leeds, Lindsay Stringer, Loughborough, Joanna Bullard, Brighton, David Nash, Leeds University, Environment, Faculty, Dean, Professors Andy Dougill, academic posts, completion, doctoral students, date, DTP, NERC, Oxford, committee, member, profile, significant teaching, David Thomas, projects, executive roles, many internal university, migration, Environmental drivers, Foresight Programme Lead Expert Group, Science, UK Government Office, member, sector, similar discipline, member, RAE2014 Geography subpanels, REF2008, member, courses, geography, fieldwork, quantitative analysis, expectation, QAA, Quality Assurance Agency, UK Physical Geography, RGS International Benchmark Review, Fellows, Geomorphology, British Society, group, British Geomorphological Research Group, chair, Expeditions, Fieldwork, Higher Education, Research, Royal Geographical Society, President, Vice, recent years, South Africa, Witwatersrand, University, Cape Town, University, Honorary Professor, Department form, Head, Director, International Drylands research, Sheffield Centre, Geography, Department, Professor, lecturer, Sheffield University, David, D.Phil degrees, Ed, Cert, undergraduate, student, Oxford, Environment, Geography, School, Head, Hertford College, Professorial Fellow, Kenneth Mason, E.W.Gilbert, Jean Gottmann, Andrew Goudie, original statutory chair, Oxford, Geography, Professor, David Thomas, science, work, body, Baz Award, America Farouk El, Geological Society, David, IPCC assessment, volumes, contributions, papers, peer, books, other physical geographers, scientists, biologists, archaeologists, interactions, science, climate, Late Quaternary environmental change, geomorphological processes, projects, impacts, climate, use, degradation, desertification, interdisciplinary projects, hand, His research, contexts, North America, India, Asia, Arabia, research, Africa, his research, Quaternary Period, contemporary drylands, physical geographer, geomorphologist, David Thomas]</t>
   </si>
   <si>
-    <t>[Scotland, northern Caithness, example, uplifted area, glacio, margin, changes, Holocene relative sea, D.E., Smith, S., Dawson, Scotland, western Jura, change, Lateglacial coastal processes, M.J., Tooley, C., Brooks, I.D.L., Foster, S., Dawson, D.E., Smith, A.G., Dawson, Edinburgh, Royal Society, UK Transactions, NE Scotland, Main Postglacial Transgression, rise, Relative sea, P.E.F., Collins, M., Robinson, C., Brooks, C.R., Firth, D.E., Smith, P., Burnham, P., Andrew, mire, human impact, vegetational history, Southwest Scotland, Brighouse Bay, A.G., Dawson, D.E., Smith, T.M., Mighall, J.M., Wells, Scotland, evidence, Holocene, uplift, Patterns, C.R., Firth, R.A., Cullingford, D.E., Smith, stratigraphical study, geomorphological, Scotland, Mainland Orkney, Skaill, Bay, Holocene environmental changes, Mid, D.E., Smith, J.M., Wells, R.L., Jones, D.H., Keen, A.C., Leinert, De la Vega, southern Skye, basin, environmental changes, level, Holocene, Late Devensian, T., Mighall, A.G., Dawson, D.E., Smith, K.A., Selby, changes, historic North Atlantic storm, Index signal, NAO, Complex North Atlantic Oscillation, D.E., Smith, N.R., Davis, J., McKenna, J., Wilkinson, I., Jonsdottir, P., Wadhams, I.D.L., Foster, S., Dawson, L., Elliott, T., Holt, K., Hickey, A.G., Dawson, UK, Scotland, eastern coast, middle Holocene, trends, Relative sea, R.A., Cullingford, C.R., Firth, D.E., Smith, Scotland, Western Forth valley, interpretations, relative sea, Windermere Interstadial sequence, A.M., Wood, D.E., Smith, J.D., Peacock, L.K., U.K. Holloway, SW Scotland, estuary, lower Cree valley, coastal changes, levels, Holocene, C.L., Brooks, S., Dawson, L.K., Holloway, R.A., Cullingford, T.M., Mighall, J.M., Wells, D.E., Smith, estuary, lower Nith valley, change, Holocene relative sea, S., Dawson, T.M., Mighall, J.M., Wells, R.M., Tipping, R.A., Cullingford, B.A., Haggart, D.E., Smith, United Kingdom, Holocene Storegga Slide tsunami, D., Long, L.K., Holloway, B.A., Haggart, P.T., Fretwell, I.D.L., Foster, C.R., Firth, S., Dawson, A.G., Dawson, R.A., Cullingford, C.L., Brooks, S., Shi, D.E., Smith, N.W.Scotland, Outer Hebrides, movements, Late Holocene, A.G., Dawson, J., Jordan, D.E., Smith, S., Dawson, United Kingdom, Scotland, Fife, site, Holocene Storegga Slide tsunami, evidence, change, Relative sea, D.E., Smith, M.J., Tooley, UK, Scotland, uplift, Holocene, models, C.R., Firth, R.A., Cullingford, P.T., Fretwell, D.E., Smith, deposits, palaeotsunami, flow, depth, pattern, S., Shi, D., Long, I.D.L., Foster, D.E., Smith, United Kingdom, west Scotland, new data, isostatic area, glacio, changes, relative sea, P.T., Fretwell, Jordan J.T., T.M., Mighall, R.A., Cullingford, D.E., Smith, J.D., Rosati, N.C., Kraus, simple mathematical model, sedimentary characteristics, tsunami, A., Ruffman, D.E., Smith, R.L., Soulsby, UK, Scotland, Skye, Isle, changes, Holocene relative sea, Late Devensian, D.E., Smith, K.A., Selby, Reply, eastern Scotland, deglaciation, model, Discussion, P., Dunlop, D.E., Smith, P.U., Clark, A.M., McCabe, UK, Orkney, Scapa Bay, example, isostatic uplift, glacio, area, periphery, Holocene coastal environmental changes, R.L., Jones, D.E., Smith, A., Leinert, De la Vega, Digital Terrain Mapping, reconstruction, Irish Ice Sheet, S., Harrison, D.E., Smith, P.T., Fretwell, deposits, Sedimentary features, articles, Discussion, Bridge, Reply, S., Shi, D., Long, I.D.L., Foster, G., Gelfenbaum, D.E., Smith, A.G., Dawson, S., Kortekaas, R.A., Morton, B.E., Jaffe, Scotland, Inner Hebrides, South East Raasay, movement, Quaternary neotectonics, C.R., Firth, S., Harrison, I.S., Stewart, D.E., Smith, UK, Scotland, Outer Hebrides, Harris, changes, Holocene relative sea, A.G., Dawson, S., Dawson, D.E., Smith, J.T., Jordan, UK, Scotland, Forth lowland, related prehistoric activity, levels, Holocene, L.K., Holloway, J.T., Jordan, B.R., Rea, S., Dawson, T.M., Mighall, C.L., Brooks, M.H., Davies, D.E., Smith, Ireland, Britain, North, change, Holocene relative sea, Patterns, N.G., Burnside, J.D., Orford, J., Murdy, M., Harman, P.T., Fretwell, J.T., Jordan, C.R., Firth, N., Hunt, D.E., Smith, Scotland, Orkney, Mainland Island, Carness, Bay, development, Holocene, R.L., Jones, D.E., Smith, A.C., De la Vega Leinert, ed, J., Thomas, Droughduil Mound, change, Relative sea, J.T., Jordan, D.E., Smith, R., Tipping, Quaternary Research Association, Honorary Member, Royal Geographical Society, Murchison Award, Smith, Prof, achievements, recognition, deposits, features, uplift, patterns, information, Scotland, changes, Holocene relative sea, Late Devensian, northern Britain, Holocene Storegga tsunami, evidence, present, northern Europe, Scotland, his research, change, activity, past records, tsunami, deglaciation, processes, associated patterns, isostatic uplift, glacio, areas, levels, reconstruction, interests, Professor Smith, Edinburgh universities, Manchester, graduate, UK, Coventry, USA, New York, Columbia, Canada, Ontario, Kingston, Queen, universities, member, Climate Change, Intergovernmental Panel, Fourth Assessment Report, reviewer, Oxford, Leverhulme Emeritus Fellow, EU, committees, environment, field, EU, proposals, evaluation, sixth frameworks, EU, design, member, contracts, Europe, institutes, universities, European Union, contracts, scientist, coordinator, northwestern Europe shorelines, Shorelines Subcommission]</t>
-  </si>
-  <si>
-    <t>[Eds, S., Mills, K., Kallio, Citizenship, Possibilities, Civil Society, Civility, Learning Citizenship, Press, L. Staeheli, former Yugoslavia, states, relations, state, conflict, governmental organisations, role, justice, law, geographies, formation, doctoral work, post, masters, who, Alex Jeffrey, European Research Council Advanced Grant, Academic Fellow, Alex, political instability, periods, citizenship, ideas, research, strand, Divided Societies, Citizenship, papers, work, area, Key publications, war, crimes, jurisdiction, domestic War Crimes Chamber, process, research, strand, Herzegovina, Bosnia, experience, Legal Geopolitics, papers, Key outputs, Newcastle University, internal funding, PTA-026, ESRC Postdoctoral Fellowship, R42200134266, ESRC Studentship, work, NGOs, agendas, agencies, institutions, donors, Herzegovina Alex, Bosnia, residential fieldwork, several periods, violent conflict, democratic participation, NGOs, governmental organisations, role, research, formation, Geographies, inquiry, areas, work, former Yugoslavia, conflict, international intervention, consequences, nature, Alex, Geography, Department, cluster, transitional justice, civil society, critical geopolitics, debates, His research, former Yugoslavia, conflict, building, state, Political Geographer]</t>
-  </si>
-  <si>
-    <t>[strike, Nadezhda Tolokonnikova, Pussy Riot protestor, Penal Colony, conditions, discussion, part, J. Pallot, ed, Bler Rublya, Yul'yam K. Brumfild, Soviet Countryside, Life, Sovetskoi Derevne, Zhizn, J., Pallot, A. Stenning, M. Bradshaw, Agriculture, Rural Change, Johnson, Agriculture, Rural Change, S., Johnson, T., Unwin, J., Pallot, eds, P. Solomon, T., Luhausen, punishment, Soviet geography, post, gender, Space, penal Russia, Continuities, J., Pallot, ed, Z., Roca, Chapter, seasonal suburbanization, case, Russian Federation, development, multiplicity, J., Pallot, T., Nefedova, D., Conlon, N., Gill, D., Moran, Chapter, Russian Federation, women, transportation, Liminal transcarceral space, J., Pallot, L., Piacentini, D., Moran, Izvestiya AN, Farming, People, Geography, izucheniya, obekt, naseleniya, Individual'nie, T., Nefedova, J., Pallot, Soviet patterns, post, gender, Space, wife, husband, zhena, Gde muzh, future, past, Russia, criminelle, normale, J., Pallot, E., Katz, Russia, Punishment, Crime, Geography, Venäjän, Rikoksen ja rangaistuksen, L., Piacentini, J., Pallot, D., Russia Moran, gulag, legacy, penality, spatial continuity, incarceration, topography, ESRC, Financial support, Birmingham, University, Dr Dominique Moran, Strathclyde, University, Dr Laura Piacentini, collaboration, Soviet Russia, late Soviet, imprisonment, practice, theory, distance, role, Russian Penal System, penal Russia Women, their encounters, relatives, prisioners, impact, Soviet Russia, Post, Gender, Social Construction, Penality, December, November, series, results, global context, Russian farming, history, Kul'tura, Russian TV, project, Pallot, Prof, August, Mordovia, Kostroma, trips, Research, books, journals, English, variety, research, results, krai, Stavropol, Saratov oblasts, Samara, Ryazan, Archangel, Perm, Moscow, regions, rural districts, regions, work, Tatyana Nefedova, project, Leverhulme, economy, transformation, production, household, rural adaptations, Soviet period, interest, 1990s, Soviet period, rights, struggle, Stolypin Land Reform, late Imperial government, initiatives, Russian peasantry, responses, Her early work, peasant studies, field, reputation, Pallot, Prof, visitors, penal Russia, experiences, women, research, Dr Elena Katz, Guggenheim, Nuffield, funding, Pallot, Prof, Russian penal system, experiences, women, research, conjunction, IBG September, RGS, What, Conference, Toronto, University, studies, early findings, Pallot, Prof, krai, Perm, penal colonies, December further fieldwork, Mordovia, republic, penal colonies, women, work, April, March, colony, L'govo, study, Oxford Research Development Fund, University, project, money, Ryazan, Penal Management, Law, Academy, group, collaboration, project, Birmingham, University, Dr Dominique Moran, Environment, Geography, School, former postgraduate, geographer, Strathclyde, University, criminologist, Dr Laura Piacentini, researchers, Her co, November, years, gestation, Russian penal bureaucracy, sensitivities, project, Punishment, Geography, Russia, Gender, Space, project, ESRC, principal investigator, penal geography, Russia, interest, Pallot, Prof, project, Ryazan, Penal Management, Law, Academy, Oxford University, understanding, memorandum, Justice, Russian Federation Ministry, Federal Penal Service, links, years, Economic Sciences, Social, Moscow School, Peasant Studies Centre, State University, Perm, Moscow, Geography Departments, scholars, Russian agriculture, authority, Russia, Tatyana Nefedova, collaboration, Sciences, Russian Academy, Geography, Institute, researchers, strong links, scheme, British Council, Oxford, USSR, who, Russia, geographers, agreements, late 1980s, frequent visitor, student, graduate, post, USSR, Pallot, Prof, 1990s, member, its Treasurer, East European Studies, Slavonic, British Association, active member, UK, posts, contemporary urban change, rural society, environmental issues, topics, Russia, graduates, Pallot, Prof, Cold War, political geography, course, East Central Europe, geography, course, geography, option, Pallot, Prof, East European Studies, interdisciplinary links, University, Russian geography, research, teaching, Leeds University, lectureship, Oxford, Judith Pallot, Prof]</t>
-  </si>
-  <si>
-    <t>[Persian Gulf, circulation, sea, land, climatology, Observed, B. W., Atkinson, M., Zhu, Persian Gulf, layer, environment, Numerical modelling, R. S., Plant, G., J, Li, B. W., Atkinson, zone, Southern Ocean sea, polynyas, size, concentration, spatial variations, Atmospheric response, B. W., Atkinson, R. A., zone, Southern Ocean sea, atmospheric response, Numerical modelling, B. W., Atkinson, R. A., Dare, Meteorological Office, Defence, Ministry, Commonwealth Office, Foreign, British Council, ODA, NERC, research, scales, wide range, fluid, interests, groups, wide organization, Europe, ERCOFTAC, Combustion, Turbulence, Flow, European Research Community, Reading, University, Meteorology, Meso, Joint Centre, links, Meteorological Office, Collaboration, topics, assistants, post, layer, coastal areas, environment, layer, polynyas, effects, flows, demise, development, creation, structure, radiation, entrainment, stability, orography, effects, valleys, slopes, time, night, daytime, analyse, m., scale, flows, analysis, Large Eddy Simulation model, smaller scale, model, meso, Meteorological Office, numerical models, programme, studies, air, forecasting, flows, understanding, obvious applications, applied science, contexts, significance, surface, inhomogeneity, flows, range, meso, small end, flows, numerical modelling, research, field, km, characteristic horizontal dimensions, atmospheric circulations, scale, meso, realms]</t>
-  </si>
-  <si>
-    <t>[R.H., Thomas, C.S.L., Ommanney, B., Lefauconnier, R.M., Koerner, J., Jania, P., Holmlund, W.D., Harrison, A.F., Glazovsky, H., Björnsson, J.O., Hagen, H., Miller, W., H, Hubberten, L.M., Savatyuguin, Y.V., Vasilenko, A.P., Shepherd, Y.Y., Macheret, A.F., Glazovsky, M., Williams, M.R., Gorman, R.P., Bassford, records, side, North Faeroes margin, system, M., Ivanov, T.C.E., Weering, A., Kuijpers, T., Nielsen, N.H., Kenyon, glaciers, outlet, records, radio, returns, side, bed, subglacial, method, Northern Eurasia, history, Quaternary ice, R., Stein, R.F., Spielhagen, M.J., Siegert, C., Siegert, M., Saarnisto, L., Polyak, O., Nikolskaya, F., Niessen, P., Möller, A., Murray, A., Matioushkov, J., Mangerud, A., Lyså, J.P., Lunkka, H., Lokrantz, E., Larsen, K.H., Kjær, M., Jakobsson, O., Ingólfsson, H.W., Hubberten, M., Nielsen, Houmark, C., Hjort, M., Henriksen, V., Gataullin, S., Funder, Greenland Basin, channels, mass, significance, Timing, M., Wilken, J., Mienert, J., Taylor, J., Evans, N.H., Kenyon, last glaciation, Northern Eurasia, environment, periglacial climate, J.I., Svendsen, M.J., Siegert, C., Siegert, A.V., Sher, L., Schirrmeister, M., Saarnisto, P., Möller, J., Mangerud, A., Lyså, J.P., Lunkka, E., Larsen, M., Jakobsson, M., Nielsen, Houmark, C., Hjort, M., Henriksen, Antarctic Peninsula, adjacent continental shelf, Gerlache Strait, flow, ice, bedforms, Quaternary, C., Ó Cofaigh, stream, Antarctic palaeo, mouth, processes, morphology, C.J., Pudsey, C., Ó Cofaigh, stream, Antarctic paleo, layer, subglacial, extent, Thickness, C.J., Pudsey, C., Ó Cofaigh, Canadian Arctic, Devon Island Ice Cap, flow, Form, M.J., Sharp, D., Burgess, M.R., Gorman, T.J., Benham, Last Glacial Maximum, Bellingshausen Sea, continental margin, West Antarctic Ice Sheet, Flow, Press, J., Evans, C.J., Pudsey, C.D., Hillenbrand, Svalbard margin, km, sheet, streams, reconstruction, Submarine landforms, L., Rise, stream, Antarctic palaeo, marine, genesis, Flow dynamics, D.J.A., Evans, J., Evans, C.J., Pudsey, J., Hiemstra, C.S., Allen, years, change, sea, Arctic glaciers, contribution, R.S.W., van de Wal, M.R., de Wildt, K., Melvold, J.O., Hagen, A.F., Glazovsky, Polar North Atlantic, Lofoten Basin, lobe, associated channel, system, submarine, Geophysical investigations, N.H., Kenyon, last deglaciation, Amundsen Sea, Pine Island Bay, outer continental shelf, West Antarctic Ice Sheet, dynamics, Extent, J.B., Anderson, T.J., Benham, C., Ó Cofaigh, change, Severnaya Zemlya, caps, Sensitivity, III, Russian High Arctic, Severnaya Zemlya, caps, mass balance, present climate, Vavilov Ice Cap, flow, II, Russian High Arctic, Severnaya Zemlya, caps, mass balance, Vavilov Ice Cap, mass balance, Climate, Russian High Arctic, Severnaya Zemlya, caps, mass balance, Y.Y., Macheret, A.F., Glazovsky, J., Oerlemans, West Antarctica, Amundsen Sea, Pine Island Bay, continental slope, processes, Morphology, J.B., Anderson, C., Ó Cofaigh, J., Evans, morphology, sea, Svalbard, sheet, Dynamics, J., Mienert, J.Y., Landvik, dimensional seismic evidence, continental shelves, activity, past ice, landforms, preservation, Identification, J., Craig, L., Rise, D., Ottesen, Greenland Sea, debris, ice, Ma, Northern Hemisphere, glaciation, Evidence, L., Thanabalasundaram, O., Shorttle, R.M.L., Shaw, E., Khadun, C.F., Dawber, Y., Bahé, K.L., Atkinson, Spitsbergen fjords, surges, characteristic, Submarine, T.O., Vorren, M., Forwick, E., Lebesbye, L., Hansen, O., Christensen, H.H., Christiansen, L., Kristensen, D.I., Benn, Laurentide Ice Sheet, icebergs, Hudson Strait, mouth, floor, Sea, C.M.T., Lynas, Woodworth, shipboard systems, ROV, AUV, fjords, glacier, bathymetric imagery, swath, comparison, C., Ó Cofaigh, R., Larter, G., Griffiths, J., Evans, R., Noormets, Arctic waters, Antarctic, interface, ice, investigations, AUVs, Autonomous underwater vehicles, S., Ackley, K., Stansfield, J.P., Wilkinson, P., Wadhams, D., Jones, B., Bett, P., Tyler, E.P., Abrahamsen, D., Hayes, K.W., Nicholls, A., Jenkins, P.A., Dodd, M.R., Price, K.J., Heywood, C., Banks, M.A., Brandon, P., Stevenson, N., Millard, S., McPhail, G., Griffiths, R., Mugford, J., Evans, Svalbard, Nordaustlandet, cap, Austfonna, balance, flux, J.O., Hagen, T., Strozzi, T.J., Benham, Belgica Fan, West Antarctica, Bellingshausen Sea, continental margin, fan, major trough, C.J., Pudsey, J., Evans, S., Benetti, D., C, Hillenbrand, R.D., Larter, R., Noormets, C., Ó Cofaigh, collapse, ice, rates, Submarine glacial landforms, J.B., Anderson, C., Ó Cofaigh, J., Evans, D., Ottesen, West Antarctica, edge, processes, implications, Amundsen seas, Bellingshausen, upper continental slope, Morphology, J., Evans, C., Ó Cofaigh, R.D., Larter, Canada, Nunvaut, Ellesmere Island, Wales Icefield, Prince, Mass balance, F., Cawkwell, S., Marshall, T., Benham, sheet, year, dimensions, flux, volumes, Late Quaternary, West Antarctic Ice Sheet, changes, southern Bellingshausen Sea, provenance, Clay, H., Grobe, A.G.C., Graham, C., Ó Cofaigh, Greenland continental shelf, north, Greenland Ice Sheet, flow, former expansion, Marine geophysical evidence, P., Wadhams, Geomorphology, megalineations, special attention, bedforms, Antarctic, origin, R., Young, A., Pugin, Shaw J., Comment, C.R., Stokes, R.D., Larter, R.C.A., Hindmarsh, J., Evans, D.J.A., Evans, C.D., Clark, J.B., Anderson, E., King, doi:10.1007/s00367, p., Marine Letters, Geo, massive diamicts, genetic processes, implications, sediments, Micromorphological characteristics, D.J., Evans, J.J., Meer, van, geological data, MIS, shelf, Arctic Ocean, A., Wallin, E., Sellen, L., Polyak, L., Mayer, B., Hell, D., Hanslik, B., Eriksson, D., Darby, G., Bjork, L, Anderson, C., Marcussen, F., Colleoni, northwestern Barents Sea, Kvitøya Trough, flow, ice, Submarine landforms, M., Jakobsson, C., Ó Cofaigh, J., Evans, R., Noormets, eastern Svalbard, Kong Karls Land, waters, sheet, retreat, glacial flow, Evidence, C., Ó Cofaigh, J., Evans, R., Noormets, Late Quaternary, West Antarctic glacial history, clues, southern Bellingshausen Sea, shelf, stream, palaeo, sedimentary legacy, H., Grobe, A.G., Graham, S., Benetti, C., Ó Cofaigh, W., Ehrmann, West Antarctica, stream, Thwaites, Late Quaternary Pine Island, retreat, Flow, T., Deen, G., Kuhn, J., Evans, J.A., Smith, D., C, Hillenbrand, icebergs, grounding, ice, implications, northern Svalbard margin, Yermak Plateau, geophysical observations, M., Sölvsten, E., Sellén, C., Ó Cofaigh, R., Noormets, C., Marcussen, L., Löwemark, B., Hell, J., Evans, J., Backman, M., O´Regan, K.A., Hogan, M., Jakobsson, East Greenland, Kangerlussuaq margin, transect, slope, shelf, long fjord, km, shallow acoustic stratigraphy, Submarine landforms, C., Ó Cofaigh, J., Evans, subglacial landforms, Svalbard, east, sheet, Past ice, D., Ottesen, C., Ó Cofaigh, R., Noormets, J., Evans, K.A., Hogan, Ice Age, Fennoscandian Ice Sheet, delivery, Rates, L., Rise, D., Ottesen, Svalbard, eastern Austfonna, marine setting, Last Glacial Maximum, cap, behavior, Submarine landforms, eastern Svalbard, cap, Vestfonna, basal conditions, Ice thickness, T., Strozzi, A., Hubbard, V., Pohjola, Argentine margin, Antarctic icebergs, ploughmarks, Relict sea, J., Acosta, C., Linés, foraminiferal signatures, Antarctic Peninsula, Marguerite Trough, history, ice, retreat, Ice, S.G., Moreton, S., Xu, West Antarctica, Pine Island Bay, retreat, shelf, Geological record, W., Majewski, R., Minzoni, T., Stolldorf, R., Fernandez, A., Kirshner, B., Eriksson, S., Anandakrishnan, R.B., Alley, M, O'Regan, R., Mohammad, N., Kirchner, R., Gyllencreutz, Last Glacial Maximum, Antarctic Peninsula, Central Bransfield Basin, models, processes, lithofacies, atmospheric forcing, connection, mechanisms, retreat, East Greenland, waters, Warming, T.J., Benham, A., Luckman, J.P.M., Syvitski, depositional fan, landforms, northern Svalbard margin, Hinlopen Trough, delivery, flow, K.A., Hogan, East Antarctica, Aurora Subglacial Basin, margin, ice, divide, hydrological connection, Evidence, M.J., Siegert, T., Ommen, D.D., Blankenship, A.J., Payne, R.C., Warner, A.M., LeBrocq, N., Young, p., Special Publication, London, Geological Society, Hydrocarbon Systems, Glacigenic Reservoirs, Eds, J., Craig, A., Moscariello, D.P., Le Heron, M., Huuse, glacial sediments, reservoirs, potential, years, Norwegian shelf, development, T., Bugge, L., Rise, Version, IBCAO, Arctic Ocean, International Bathymetric Chart, P., Weatherall, P.G., Travaglini, S.V., Nghiem, D., Mosher, R., Mohammad, C., Marcussen, Y., Kristiffersen, O., Hestvik, B., Hell, J.K., Hall, J.V., Gardner, M., Edwards, I., Church, A., Camerlenghi, P., Bienhoff, R.S., Anderson, A., Armstrong, D., Accettella, Y., Zarayskaya, W., H, Schenke, M., Rebesco, R., Pedersen, R., Noormets, H., Hodnesdal, B., Fridman, S, Forbes, streams, West Greenland, embayment, depositional environments, processes, C., Ó Cofaigh, deep Greenland Basin, East Greenland continental slope, processes, M., Jakobsson, G., Ercilla, sheets, marine margins, zone, grounding, geometry, seismic architecture, E.M.G., Fugelli, radar, Greenland subglacial lakes, M.J., Siegert, J., Bamber, T., Benham, J.S., Greenbaum, D.D., Blankenship, D.A., Young, P., Christoffersen, fan, West Greenland trough, depositional processes, provenance, Glacimarine lithofacies, C., Sheldon, A.A., Kilfeather, K.A., Hogan, last glacial cycle, West Greenland shelf, sheet, M., Moros, J.M., Lloyd, J.T., Andrews, D.J., McCarthy, J., Evans, R., Noormets, J.F., Hiemstra, A.A., Kilfeather, K.A., Hogan, A.E., Jennings, Arctic Ocean margin, massive Hinlopen Slide, scan imagery, side, geology, processes, New insights, J., Mienert, p., v., Cryosphere, Greenland, dataset, new bed, D., Steinhage, E., Rignot, S., Palmer, J., Paden, J., Mouginot, I., Howat, S.P., Gogineni, western Canadian Beaufort Sea margin, development, advances, Quaternary, evidence, Mackenzie Trough, glaciology, palaeo, sedimentary architecture, Seismic stratigraphy, J.T., Pietras, environment, mild glacier, sedimentation, processes, implications, southern Chile, fjords, Submarine landforms, M., Vasquez, doi:10.1016/j.margeo.2013.06.019, p., Marine Geology, 3D seismic data, glacial influence, record, central North Sea, Early Quaternary sediments, ploughmarks, D., Ottesen, Canadian Arctic, changes, sensing, F., Wyatt, G.J., Wolken, S.N., Williamson, L., Wang, D., Mair, A.S., Gardner, doi:10.1016/j.marpetgeo.2014.04.007, p., Petroleum Geology, Marine, 56°-62°N, Early Quaternary North Sea basin, depositional environments, infill, Morphology, T., Bugge, Last Glacial Maximum, Antarctic Peninsula, changes, ice, Reconstruction, A., Simms, S., Roberts, R., Larter, D., C, Hillenbrand, N., Glasser, J., Evans, E., Domack, M., Canals, M., Bentley, J., Anderson, D., Hodgson, E., Hocking, J., Johnson, J., Smith, S., Livingstone, B., Davies, C., Ó Cofaigh, M., Broak, van, T., Benham, L., Gilbert, A., Hogg, T., Flament, A., Ridout, A., Leeson, A., Dehecq, N., Gourmelen, A., Shepherd, M., McMillan, Last Glacial Maximum, West Antarctic Ice Sheet, Bellingshausen Sea sector, Amundsen Sea, changes, Reconstruction, C., Spiegel, C., Ó Cofaigh, J., Lindow, J.P., Klages, W., Ehrmann, M.J., Bentley, A.E., Witus, J.A., Smith, F.O., Nitsche, G., Kuhn, J.S., Johnson, M., Jakobsson, D., C, Hillenbrand, K., Gohl, A.G., Graham, J.B., Anderson, R.D., doi:10.1016/j.quascirev.2013.07.033 Larter, p., Quaternary Science Reviews, Arctic Ocean glacial history, R., Stein, N., Pedersen, Norgaard, L., Polyak, M., O'Regan, J., Nilsson, F., Niessen, P., Moller, N., Mikkelsen, L., Mayer, J.Y., Landvik, N., Kirchner, Larsenm N.K., A., Jennings, O., Ingolfsson, K., Hogan, S., Funder, J., England, doi:10.1016/j.quascirev.2013.09.007, p., Quaternary Science Reviews, slope, Uummannaq shelf, Rink Isbrae, landforms, system, shelf, West Greenland fjord, flow, R., Noormets, J., Evans, E.M.G., Fugelli, C., Ó Cofaigh, K.A., Hogan, Antarctic Peninsula, South Orkney Islands, new bathymetric compilation, G., Kuhn, J., Arndt, P., Trathan, D., C, Hillenbrand, R.D., Larter, Canadian Beaufort Sea margin, slope, trough, Amundsen Gulf, development, advances, multiple Quaternary, Evidence, J.T., Pietras, modelling, observations, glaciers, margins, proximal fans, ice, plumes, Sediment, C., Decalf, J.P.P., Hirst, M., Wells, R.I., Mugford, N.S., Arnold, K.A., Hogan, numerical models, boundary conditions, glaciological problems, datasets, quantitative analysis, masses, studies, Satellite, continental margins, delivery, numerical modelling, geophysical measurements, links, marine environments, glacial sedimentation, patterns, Processes, change, their responses, masses, high Arctic, work, field, programme, sheets, glaciers, flow, form, Glaciological investigations, Aberystwyth, Wales, University, Earth Sciences, Geography, Institute, Department, Head, Director, Glaciology, Professor, marine environments, glacier, sedimentation, patterns, processes, understanding, masses, study, outstanding contributions, Royal Geographical Society, Gill Memorial Award, Medal, Founder, geophysics, outstanding contributions, Queen, Her Majesty, Polar Medal, Julian, Antarctica, Greenland, Svalbard, continental shelves, fjords, Greenland Sea, vessels, work, many periods, Arctic Canada, Ellesmere Islands, Devon, Baffin, East Greenland, Iceland, Severnaya Zemlya, Russian Franz Josef Land, Svalbard, Arctic, areas, number, airborne platforms, ice, marine environments, glacier, sedimentation, patterns, processes, glaciology, satellite geophysical techniques, application, change, their response, masses, dynamics, interests, Cambridge, University, Scott Polar Research Institute, Ph.D., Colorado, University, INSTAAR, Masters Degree, Cambridge, University, Julian Dowdeswell, shipborne geophysical tools, satellite, variety, marine geological record, sheets, links, change, their response, caps, glaciers, flow, form, Glaciologist]</t>
-  </si>
-  <si>
-    <t>[development, initiation, model, erosion, Emergence, B., Lascelles, A.J., Parsons, J., Boardman, D.T., Mortlock, Favis, Cumbria, Seathwaite Valley, medieval clearance, Evidence, A., Parker, J., Boardman, D., Anderson, C., Wells, C., Wild, W.W., Doe, R.S., Harmon, care, modeling, limits, V.J., MacMillan, J., Boardman, D.T., Mortlock, Favis, photogrammetrist, Non, Geomorphological Research, Valuable Tool, Automated Digital Photogrammetry, J., Boardman, T., Parsons, D., Mortlock, Favis, B., Lascelles, J., Innes, N.F., Glasser, D., Huddart, Skiddaw, Grasmoor, Sandbeds Fan, Throstle Shaw, Helvellyn, Mosedale, Thornsgill, J., Boardman, South Africa, Great Karoo, Sneeuberg, gullies, badlands, Development, R., Washington, P.J., Holmes, R., Holl, A.J., Parsons, J., Boardman, South African Karoo, dynamics, degradation, M.E., Meadows, J., Bright, Keay, J., Boardman, I.D.L., Foster, JA, Youngquist, J., Evans, J., Burley, consequences, major processes, Europe, Soil erosion, J., Poesen, J., Boardman, J., Kalvoda, A.S., Goudie, time, space, variation, challenge, Soil erosion, J., Boardman, ISBN, December, New Zealand, Christchurch, Environments’, Sediment Dynamics, Symposium, IAHS, ICCE, Hydrological Sciences, International Association, Continental Erosion, Hydrological Sciences Press International Commission, International Association, South Africa, Eastern Cape, sedimentation, farm, study, degradation, erosion, impacts, European, Post, M., Steven, C., Watkins, S., Seymour, R., Fish, South Downs, future, sustainability, Soils, J., UK Boardman, Sussex, South Downs, muddy floods, erosion, patterns, vulnerability, system, GIS, southern England, northern France, central Belgium, muddy floods, approaches, comparison, B., Wesemael, A.V., Auzet, K., Vandaele, J., Boardman, M., Liegeois, C., Heitz, O., Evrard, M., Meadows, P., Holmes, Chapter, degradation, Soil erosion, G.F.S., Wiggs, P.J., Holmes, M.T., Hoffman, J., South East England Boardman, agricultural land, erosion, implications, water, erosion, reference, cover, date, significance, southern England, West Sussex, particular reference, watercourses, delivery, mobilization, respect, sunken lanes, hydrological role, Vienna Austria, April, EGU General Assembly, Karoo rangeland, its subsequent fate, erosion, Soil, N., Kuhn, M., Measows, J., Boardman, I., Foster, G., Heckrath, B., Kuhn, P., Greenwood, J., Krena, control, adoption, recommendations, catchments, muddy flooding, use, spatial organisation, Effect, Policy, Environmental Science, Panagos P. et al, Europe, erosion, loss, new assessment, governance, systems, practical approaches, study, United Kingdom, work, water, Wales, England, grassland, arable, rates, soil, estimates, comparison, September, Hull, Geomorphology Annual Meeting, British Society, adjustment, valley, dynamics, continuity, dis, impact, R., Phillips, Copeland, I.D.L., Foster, J., Boardman, J., West Sussex Evans, Rother valley, case, river, field, travels, runoff, erosion, connectivity, UK, South Downs National Park, former serious erosion, sites, risk, soil, changes, motivations, influence, Northampton, University, River Rother, options, Sediment Pressures, student, John, Edinburgh, Exeter, Universities, MSc degrees, External Examiner, trips, course, John, South Africa, Sneeuberg, farming, impact, history, Autumn, new project, John, South Africa, degradation, southern England, erosion, John, Environmental Management committee, Earth System Science, Transdisciplinary Proposal Standing Assessment Board, Technology, Science, European Cooperation, COST, UK representative, Erosion, Runoff, Site Impacts, Off, COST, Working Group, countries, Global Change, Soil Erosion, COST Action, EU, Chairman, John, Wiley, Europe, Soil Erosion, Springer, Water, Soil Erosion, Wiley, Agricultural Land, Soil Erosion, CUP, Ireland, Britain, Landforms, Periglacial Processes, Wiley, Quaternary Landscape Evolution, Soils, several books, degradation, papers, Cape Town, University, Geographical Science, Environmental, Department, Honorary Professor, South Africa, Karoo, issues, land, ECI, Emeritus Fellow, Management, Environmental Change, MSc, Director, ECI, Deputy Director, his positions, September, ECI, John, PhD, BSc, London, DSc, BA, Keele, Universities, geomorphologist, John Boardman]</t>
-  </si>
-  <si>
-    <t>[ed, D.W., MacDonald, life, tree, A., Purvis, J.L., Gittleman, S.A., Price, R., Grenyer, R.M.D., Beck, R.D.E., MacPhee, K.E., Jones, M., Cardillo, O.R.P., Emonds, Bininda, I.P.F., Owens, J.L., Gittleman, K.J., Gaston, T.M., Blackburn, P.M., Bennett, Z., T, Ding, P.C., Rasmussen, R.S., V.A., Olson, K.E., Jones, T.J., Davies, R.G., Davies, G.H., Thomas, S.F., Jackson, C.D.L., Orme, R., Grenyer, I.P.F., Owens, J.L., Gittleman, K.J., Gaston, T.M., Blackburn, P.M., Bennett, Z., T, Ding, P.C., Rasmussen, V.A., Olson, K.E., Jones, T.J., Davies, R.G., Davies, G.H., Thomas, S.F., Jackson, C.D.L., Orme, R., Grenyer, V., Savolainen, T.A.J., Hedderson, G., Reeves, M., Bank, van, S., Proches, J.C., Manning, A., Balmford, D.P., Faith, R.M., Cowling, T.J., Davies, M., Rouget, R., Grenyer, F., Forest, A., Purvis, J.L., Gittleman, R.A., Vos, S.A., Price, R., Grenyer, R.M.D., Beck, R.D.E., MacPhee, K.E., Jones, M., Cardillo, O.R.P., Emonds, Bininda, A., Purvis, G.M., Mace, J.L., Gittleman, K.E.J., Jones, M., Cardillo, O.R.P., Emonds, Bininda, J., Bielby, C.D.L., Orme, R., Grenyer, S.A., Fritz, T.J., Davies, E.J., Gulland, Milner, C., Watson, D.C., L. Reuman, Peck, D., Osborn, M., Muuls, S., Mourato, R., Metcalfe, R., Grenyer, J., Gibbons, T.A., Gardner, J.A., Fa, R.M., Ewers, T., Clements, S., Buckle, G., Atkinson, P.R., Armsworth, G.M., Mace, E., Nicholson, A., Purvis, G.M., Mace, J.L., Gittleman, O.R.P., Emonds, Bininda, A., Teacher, J., Rist, E.A., Rigby, S.A., Price, C.A., Plaster, M., Habib, R., Grenyer, J.K., Foster, M.J., Cutts, C., Connolly, C., Carbone, E.H., Boakes, W., Sechrest, K., Safi, C.D.L., Orme, J., O'Dell, S.A., Fritz, M., Cardillo, J., Bielby, K.E.J., Jones, T., Brooks, S.N., Stuart, J., Schipper, K., Safi, M., Hoffmann, J.L., Gittlemann, O.R.P., Emonds, Bininda, J.E.M., Baillie, R., Grenyer, A.S.L., Rodrigues, systematic map, globe, systematic conservation, effectiveness, evidence, distribution, extent, What, F., Mazel, M., Winter, D.F., Rosauer, D.W., Redding, O., Purschke, S., Pavoine, A.O., Mooers, L.S., Jin, M.R., Helmus, R., Grenyer, S.A., Fritz, S., Ferrier, T.J., Davies, S.B., Carvalho, M.W., Cadotte, C.M., Tucker, project, doctoral position, other scholarship, Clarendon, doctoral opportunities, computational background, conservation, students, Richard, Final Honours School, MSc course, courses, Tenerife, courses, SoGE, courses, module, Research Methods, GIS course, Management, Conservation, Biodiversity, MSc, module, Strategic Conservation Planning, Final Honours School, Option, Conservation, Biodiversity, Biogeography, Preliminary Examination, course, Quantitative Methods, course, Biosphere, Ecology, Richard, grey area, range, black line, cells, sets, G, Ecoregions, Global, E, Endemic Bird Areas, H, Biodiversity Hotspots, Performance, species, times, number, n, Cn, amphibians, mammals, birds, A, M, mammals, B, birds, approach, Networks, amphibians, mammals, birds, species, c, rare species, richness, respect, Performance, Orme, Grenyer, network, different types, relative performance, graph, example, credible science, criterion, spatial combinatoric problem, form, solutions, plans, practitioners, allocation, much difference, diversity, genetic diversity, many species, desirable properties, biodiversity, portfolio, duty, result, differential risk, likelihoods, others, populations, species, conservation, choices, future, what, today, conservation, what, Numerical analyses, decisions, ground, Strategic Conservation Planning, Numerical analyses, process, computing, ecology, evolutionary biology, techniques, biodiversity, conservation, analytical strategies, Richard, biological interaction, location, ancestry, influences, problem, basic level, biological patterns, model, mechanism, species, phylogeny, different regions, species, number, macroecological models, components, pattern, most ecological datasets, example, spatial component, observations, set, fun, space, similarity, decay, model, geographic terms, length, evolutionary change, model, phylogenetic terms, observations, distance, function, change, model, cases, similarity, observations, similarity, our expectations, means, geographical maps, phylogenetic trees, many ways, Davies, data, close relatives, large families, explosive radiations, South America, mammals, their current high richness, long time, African mammals, their phylogenetic relatedness, colour, today, mammal, number, vertical extrusion, continents, diversity, different kinds, South America, Africa, different Gondwanan legacies, mammals, phylogeny, distribution, example, diversity, different ways, What, services, different amounts, different kinds, species, ecology, biology, differences, which species, geography, Wallacean shortfall, processes, evolutionary pressures, current product, species, biodiversity, units, ecology, problem, biodiversity, endemism, richness, same spatial pattern, theory, time, space, organisms, lineages, solid theory, biodiversity, maintenance, generation, spatial processes, role, Richard, biologist, Cape Town, University, visits, Johannesburg/ Pretoria, University, Cape Town, University, Darwin Initiative, South Africa, courses, international universities, numerous UK, seminars, East Anglia, University, Systematic Biology conference, South African Society, plenary talks, Richard, better incarnations, UVA, dataset, years, times, species, first complete evolutionary tree, long collaborative study, decade, contributor, Richard, Since, Imperial College London, Richard, phenotypes, genotypes, widest variety, most species, efforts, first demonstration, guidance, species, knowledge, data, global scale, decisions, first time, insects, mammals, traits, extinction, maintenance, evolution, phylogenetic comparative methods, thesis, measures, score, evolutionary histories, disparate mix, Baviaanskloof, South Africa, Eastern Cape, regions, flora, Jesus College, Physical Geography, Tutor, August, Oxford, University, Environment, Geography, School, Biogeography, Biodiversity, Associate Professorship, strategy, science, geographical processes, space, fundamental position, who, biologist, Richard Grenyer]</t>
-  </si>
-  <si>
-    <t>[diaspora investment, remittances, philanthropy, financial practices, nexus, migration, specific emphasis, transnational migration, issues, postgraduate students, applications, Eds, G.A. Jones, K. Datta, policy, urban research, focus, finance, self, help, self, migrant labour, economy, London, tactics, strategies, J., Wills, J., May, J., Herbert, Y., Evans, C.J., McIlwaine, eds, B., Bless, A., Schlyter, M., Mapetla, globalizing world, generation, Gender, justice, search, organising, implications, impacts, London’s hotels, Stealth”, Subcontracting, J., May, C., McIlwaine, J., Herbert, eds, K., Willis, A., Stenning, A., Smith, London, Ghanaian migrant workers, Travelling neoliberalism, J., Wills, C., McIlwaine, J., Herbert, Y., Evans, migration, Regions, Regional Studies special issue, European Urban, Labour, London’s Migrant Division, McIlwaine C., J., Herbert, Y., Evans, Transforming Work, Special issue, London, immigrant workers, campaigns, living, organisations, faith, role, work, Religion, C., McIlwaine, J., J. May, Herbert, Y., Evans, eds, J. Tomaney, Pose, A Rodriguez, A. Pike, uneven development, Im)migration, J., Herbert, Y., Evans, C., McIlwaine, J., May, A. Jones, N. Coe, Labour, New Migrant Divisions, Y., Evans, J., Herbert, J., May, Eds, F. Witlox, Peter J. Taylor, M. Hoyler, B. Derudder, London,’, migrant labour, global cities, Global workers, J., Wills, J., May, Y., Evans, J., Herbert, C., McIlwaine, labour, London’s migrant division, British state, Global cities, London working, C.J., McIlwaine, J., Herbert, Y., Evans, London, migrant workers, Remittance, migrant labour, finance, May, J., Herbert, Y., Evans, J., Wills, C.J., McIlwaine, London, migrant men, work, migration, narratives, move, Men, J., Wills, J., May, Y., Evans, J., Herbert, C., McIlwaine, economy, London’s, migrant workers, care, care, migrant ethic, J., Wills, J., May, J., Herbert, Y., Evans, C., McIlwaine, £, QMUL, GLA, UNISON, Oxfam, ESRC, research, London, Pluto Press, important collaborative book, basis, audiences, research, role, city, functioning, migrant workers, essential contribution, their transnational connections, London, migrants, lives, work, migrant labour, dominance, labour’, migrant division, formation, processes, range, London, global city, transnational migration, market, nature, collaborative project, transnational migration, My interest, £, QMUL, Geography, School, London Citizens, CASE, ESRC, Friends Provident Foundation, research, Irregular Migrants, Westminster, Parliamentary launch, presentation, DFID Conference, Treasury, Taskforce, talks, HM Treasury’s Financial Inclusion Taskforce, events, series, UK, debates, Chicago, Chicago Press, University, Bristol, Policy Press, book, basis, research, women, migrant men, which financial exclusion, mechanisms, transnational financial practices, position, status, which inter, financial fabric, new migrant communities, key barriers, research, credit, relation, alternative financial practices, services, which migrants, financial services, migrant communities, financial exclusion, levels, extent, financial exclusion, context, London, new migrant communities, diverse everyday financial practices, project, £, Newcastle, University, CURDS, QMUL, Geography, School, Migration, Study, Centre, research, London’s East End, Somali community, study, London, Islamic charitable financial flows, migrant charitable giving, everyday practices, motivations, sources, UK context, re)configuration, practices, institutions, different economic spaces, back’, order, Islamic philanthropy, alternative’ models, research, western economies, formal spaces, perspective, economy’, presumption, recessionary context, post, London, philanthropic networks, collaborative research, content, teaching, life, city, elements, trip, QMUL, Geography, School, class, geography, latter, undergraduate modules, agenda, North, global South, links, global South, immense diversity, interventions, need, places, collection, global South, positioning, students, hybrid geography’ agenda, part, postgraduate programmes, geography, economy, London’s, migrant workers, care, care, migrant ethic, J., Wills, J., May, J., Herbert, Y., Evans, C., McIlwaine, London, migrant workers, work, migration, narratives, move, Men, J., Wills, Y., Evans, J., Herbert, J., May, C.J., McIlwaine, recent publications, work, bodies, findings, key debates, finance’, alternative ways, preference, London, financial fabric, exclusion, new migrant communities, everyday financial practices, work, new’ migrants, London, global cities, transnational migration, work, sensibility, politics, nature, collaborative projects, series, interest, North, global South, transnational migration, my recent research, geographer]</t>
-  </si>
-  <si>
-    <t>[H., Lawton Smith, U., Hilpert, Chapter, geographical mobility, High Technology Local Economies, H., Lawton Smith, R., Waters, ed, P., Cooke, Chapter, regional development, optimism, evolution, Thames Valley, sector, health, H., Lawton Smith, Tensions, Analysis, Review, Regions, European Policy, G.L., Clark, P., Tracey, H., Lawton Smith, economy, perspective, agent, European regional growth, Cognition, H., Lawton Smith, G.L., Clark, P., Tracey, Oxfordshire, local economic development, entrepreneurship, talent, geography, A., Chadwick, J., Glasson, H., Lawton Smith, chapters, sixty journal articles, books, editor, transfer, books, author, innovation, management, geography, interests, Environment, Geography, School, Senior Visiting Research Associate, Cambridge, University, Business Research, Centre, Research Associate, committees, Events, member, Council, Member, Social Sciences, Learned Society, Academy, Academician, Oxford University, Hertford College, Regulatory Policy Research Centre, Research Director, Coventry University, Local Economic Development, Centre, Local Economic Development, Reader, London University, Birkbeck]</t>
-  </si>
-  <si>
-    <t>[London, Towers Watson, Sustainable Investing, Transformation, Challenges, Project Telos, S.M., McGill, C., Molinari, D., Wójcik, M.R., Allen, R., Urwin, G.L., Clark, eds, K. Chalmers, J.M., Godfrey, Chapter, performance, global metrics, finance, language, Institutional investors, D., Wójcik, T., Hebb, G.L., Clark, A.H.B., Monk, A.D., Dixon, G.L., Clark, Chapter, secondary markets, proximity, role, D., Wójcik, D., Wood, A.L., Neher, A.G.F., Hoepner, J.P., Hawley, T., Hebb, Chapter, sustainable investment, transformation, challenges, D., Wójcik, C., Molinari, S., McGill, H., Hachigian, G.L., Clark, its implications, corporate governance, crisis, Ahold, arbitrage, stock, inter, ownership, World Bank, effectiveness, production, evaluation, roles, analysis, fact, data, council, Gulf, emissions, platform, optimal carbon, development, Gulf, market, postdoctoral researchers, students, addition, DPhil students, MSc students, Environmental Governance, Society, Nature, MSc, Development, Economy, course, Dariusz co, graduate, tutor, option, Finance, Geographies, students, course, Society, Place, Space, Prelims, course, Human Geography, Dariusz, global development, finance, impacts, Finance, first Atlas, Global Financial Networks, theory, project, digital revolution, Global South, rise, new financial regulation, response, Eurozone crisis, global financial crisis, consulting, accounting, law, services, study, 21st Century, Development, Finance, Global Financial Networks, Cities, years, €, prestigious European Research Council Consolidator Grant, Dariusz, sustainable finance, future, international monetary system, financial centres, role, market, Initial Public Offerings, underpricing, location, role, economic thought, geography, Other topics, Global Financial Networks, concept, accounting, political economy, Keynesian economics, post, economic geography, intersection, economic geography, future agenda, theoretical strand, networks, offshore financial centres, evolution, world, financial centres, financial crisis, impact, Bretton Woods system, collapse, economy, transformation, offshore world, services, role, crisis, London axis, New York, role, crisis, interpretations, review, global financial crisis, topics, elite interviews, methods, anthropology, sociology, political economy, economics, geography, insights, His research, economy, social scientific approaches, global economy, structure, major changes, capitalism, history, major juncture, crisis, premise, global financial crisis, wake, global financial landscape, current work, Dariusz Wójcik, Oxford University, Poland, academic relationships, contemporary Poland, research, teaching, multidisciplinary initiative, Environment, Geography, School, Lecturer, University College London, Geography, Department, Lecturer, June, January, Political Science, Economics, London School, outside Lecturer, Oxford, Jesus College, Junior Research Fellow, Economic Geography Perspective, Europe, Capital Market Integration, Corporate Governance, thesis, DPhil, Jesus College, association, University Studentship, Commonwealth Office, Foreign, Open Society Institute, scholar, Oxford, Stockholm University, Banking, Finance, MSc, Economics, Cracow University, Economics, Degree, Master, Cracow, Jagiellonian University, Geography, Degree, Master, Dariusz, present, empirical framework, global financial markets, imperatives, light, European corporate governance, transformation, corporate governance, global market, crucial issues, financial centres, New York, London, continued dominance, model, exchange, revolution, global financial crisis, impact, markets, rise, studies, rich data, book, world, countries, cities, economy, markets, performance, relationships, intermediaries, investors, issuers, relationships, market, comprehensive picture, OUP, His research, private institutions, corporate governance, financial management, his research, academia, launch, Conference, economic geography, event, countries, delegates, International Advisory Board, member, interdisciplinary seminars, economic geography, future, Sydney, Singapore, Hong Kong, Beijing, universities, appointments, field, journals, board, nominations, research, His contribution, economists, lawyers, operation, co, development, projects, Research Grants Council Hong Kong, major grant, UK, principal investigator, co, principal, m, value, grants, years, volumes, journals, chapters, articles, books, financial geography, economic geographer, Dariusz Wójcik]</t>
-  </si>
-  <si>
-    <t>[1990s, pollution, immense lake, quality, recent environmental change, diatoms, Lake Baikal my studies, acidification, methods, oil, tar, realization, region, tar, C. Curtis, my research, Canada, Tunisia, Morocco, Egypt, environmental scientists, operation, design, ecological monitoring, hydro, inland waters, their capacity, organizations, practitioners, environmental scientists, training, my overseas research, course, Ramsar Convention, important sites, Megene Chitane, Ghar El Melh, descriptions, Tunisian Government’s, MELMARINA projects, CASSARINA, part, North Africa my research, cause, generation, fuel, pollution, atmospheric deposition, recognition, research, main body, Research, 1980s, acidification, widespread problem, recognition, UK, international scientific literature, UK, management, My research, Royal Society, Commonwealth Office, Foreign, DEFRA, Wales, Countryside Council, Scottish Natural Heritage, various small grants, manager, British Academy Grant, Egypt, Saqqara, Faiyum, environmental change, records, Leverhulme Grant, Egypt, Lake Qarun, records, climate, People, EU 6th Framework INCO Programme, MELMARINA Project, Coordinator, EU 4th Framework INCO Programme, CASSARINA Project, Coordinator, FCO OTs project, Falkland Islands, ecology, Diatom taxonomy, Darwin Initiative, NERC, Leverhulme, Siberia, Lake Baikal, environmental change, records, Projects, taxonomy, their ecology, freshwater diatoms, organisms, group, palaeolimnology, limnology, aquatic ecosystems, environmental change, interests, Limnology, Journal, Alberta, Athabasca Oil Sands Region, environmental change, acidification, Palaeolimnological assessment, S., Pla, H., Yang, S., Turner, G., Simpson, J., Shilland, N., Rose, R., Flower, C.J., Curtis, Egypt, Faiyum, interactions, special reference, Lake Qarun, Holocene palaeolimnology, Ostracods, R., Zeid, Abu, J.E., Whittaker, D., Horne, R., Flower, J., Holmes, K., Keatings, years, salinity, changes, Egypt, Lake Qarun, cores, composition, Benthic foraminifera, M.J., Leng, R.J., Flower, K., Keatings, R.H., Zied, Abu, coastal lagoons, sedimentary organic matter, green revolution, North Africa, Evidence, S., Turner, M., Ramdani, M.H., Ahmed, F., Ayache, J.R., Thompson, R.J., Flower, A.J., Oczkowski, Egypt, Faiyum paleolakes, shells, Holocene freshwater, records, carbon, oxygen, R.J., Flower, M., Hamdan, F., Hassan, Egypt, Faiyum Depression, sediments, early Holocene, significance, structure, Y., Yasuda, K, Yamada, J.F., Boyle, F., Hassan, M., Hamdan, K., Keatings, R.J, Flower, Freshwater Biology, J. Ecology, J. Paleolimnology, Hydrological Processes, Hydrobiologia, Technology, Environmental Science, Egyptian Journal Remote Sensing, Landforms, Earth Surface Processes, Diatom Research, Biological Conservation, Aquatic Ecology, Professorial Research Fellow, UCL Geography, Ulster, University, D. Phil, Southampton, University, Oceanography, M.Sc, London, University, Joint Honours, Botany, Zoology, Qualifications]</t>
-  </si>
-  <si>
     <t>[N.J., Ashbolt, P.K., Priscott, D.A., Deere, D.J., Roser, J.F., Schijven, C.M., Davies, D.L., Baker, F.C., Souter, K.J., Charles, individual rights, cost, wide health, community, right, human rights, total sanitation, community, Commentary, Tropical Medicine, International Health, MSc, Global Health, Tropical Medicine, Centre, security, change, variability, impact, risks, water, management, security, human behaviour, role, Her work, Bangladesh, Ethiopia, Kenya, challenges, water, programme, director, co, Dr Charles, Saharan Africa, Sub, Asia, research, security, understanding, disciplinary approaches, cross, range, research, Dr Charles, Surrey, University, lecturer, Oxford, University, Australia, catchments, drinking, Sydney, systems, decentralised wastewater, management, approach, risk, her PhD, Dr Charles, Uganda, Rwanda, Kenya, work, Melinda Gates Foundation, Bill, ESRC, NERC, UK Research Councils, DFID, World Health Organization, Her work, informal settlements, adequate sanitation, barriers, access, change, impacts, pathogens, transport, environmental fate, public health, sanitation, water, issues, her career, sanitation, water, access, who, Dr Charles]</t>
   </si>
   <si>
-    <t>[Abies, Pinus sylvestris, Pinus cembra, Picea abies, Larix decidua, logger, temp, soil, years, reconstructions, temperature, trees, chronologies, MXD, TRW network, Tatra, Abies, Pinus sylvestris, Pinus cembra, Picea abies, Larix decidua, logger, treeline soil, Tyrol, Engadine, Valais, Southern French Alps, Lötschental, studies, dynamics, history, settlement, LBM outbreaks, spatiotemporal reconstructions, reconstructions, long summer, composite chronologies, material, relict, living, MXD network, TRW, Neuwirth B Alps, Esper J, Winiger M, supervisors, Grade, Schweiz, Lötschental, Hölzern für, und, Lärchenchronologie aus, Dendroklimatologische Analysen einer, Germany, University Bonn, Geography, Department, Master thesis, Nicolussi K 08.2003, Esper J, Wanner H, supervisors, laude, summa, Grade, rings, tree, reconstructions, term, Switzerland, Bern, University, Geography, Department, nat, Dr phil, thesis, millennia, Mediterranean, Europe, Climate, Med2k, Euro, group, Past Global Changes, PAGES, Head, questions, answers, archives, parameters, diverse tree, time, space, intertwined environmental systems, changes, consequences, causes, What, questions, answers, globe, fieldwork, Europe Ulf Büntgen, Asia, plague, introductions, rings, TRADE, Black Death, origin, BP, chronology, extension, Consolidation, archive, chronologies, Glacial European tree]</t>
-  </si>
-  <si>
-    <t>[their members, health, Indian Cultural Centre, AJODA, organisations, London, Greenwich, Borough, groups, mental health, health, migration, modules, university, DVD, Leverhulme Trust, recent research, public engagement, projects, number, C.Schmoll, M. Kohli, E. Kofman, Kraler, Vancouver, skilling, immigrant strategies, place, gender, human capital’, problem, A., McLaren, I., Dyck, G., Creese, eds, Mary Ellen Purkis, Kristin Bjornsdottir, Christine Ceci, practices, relations, care, K. Homes, England, I., Dyck, G. Moon, S. McLafferty, T. Brown, geography, gender, sex, order, penis, I., Dyck, M., Sothern, strategies, labour, family, discourse, flexible’ immigrant, A.T., McLaren, I., Dyck, G., Creese, Geographers, Canadian Association, Suzanne Mackenzie Memorial Lecture, making, place, hidden spaces, global relations, everyday’, Feminist geography, I., Dyck, spaces, bodies, management, Meanings, care, site, home, P, McKeever, J., Angus, P, Kontos, I., Dyck, DVD, use, findings, study, medical professionals, patients, workshop, cancer, their awareness, DVD, their opinions, practices, women, interviews, addition, DVD, DVD, practices, DVD, cancer, further investigation, symptoms, their doctors, people, numbers, Hackney, City, area, GP practices, patients, DVD, film, study, minute, Homerton Hospital, response, medical professionals, help, less breast, Black British women, Evidence, cancer, aggressive types, Black women, NHS Breast Screening Programme, entry, age, younger age, cancer, their white counterparts, cancer, black women, Homerton Hospital, Hackney Researchers, City, study, survey, Black women, early presentation, awareness, Hackney, City, study, survey, Black women, early presentation, awareness, section, educational tool, cultural product, film, study, primary output, Indian diaspora, self, Participants, needs, migrants’, professionals, health, makers, organisations, academics, dialogue, place, constitutive, practices, knowledge, articulation, negotiation, understanding, observation, elicitation, photo, film, Visual methodology, international migration, context, practices, knowledge, transformation, cultural production, interdisciplinary study, East London, University, PI Marta Rabikowska, Co, Migrants’ Health Making Practices, Investigation, Film, Culture, Place, Research Project Grant £, Leverhulme Trust, instructor, date, topics, current”, good lecturer, module, Recent comments, feedback, module, contemporary life, content, opportunity, students, classroom, Interaction, styles, learning, forum, videos, exercises, lectures, combination, my own research, module, everyday life, illness, health, interconnections, different ways, contemporary topics, variety, module, health, eds, C.Schmoll, M. Kohli, E. Kofman, Kraler, Vancouver, skilling, immigrant strategies, place, gender, human capital’, problem, A., McLaren, International Editorial Board Member, several scholarly journals, board, visual methodologies, use, methodologies, care, term, site, home, health, home, constitution, re, settlement, migration, gendered experiences, recent studies, my research, central themes, health, home, Migration, geographer, Canada, Simon Fraser University, PhD Social Geography, UK, Manchester, University, Social Anthroplogy, Econ, MA, UK, Manchester, University, Social Anthropology, Econ, BA, Professor Isabel Dyck]</t>
-  </si>
-  <si>
-    <t>[Makerere University, Dr. M. Nalubega, British Geological Survey, Dr. D. Macdonald, Surrey University, Dr. M.H. Barrett, Dr. R. Taylor, ref, global environmental change, International Human Dimensions Programme, World Climate Research Programme, Biosphere Programme, International Geosphere, regional scale, sub, integrated approach, Uganda, resources, variability, change, impacts, Reading, University, Walker Institute, Professor N. Arnell, consortium, UCL, J. Thompson, Dr. M. Todd, Dr. R. Taylor, R.G. Taylor, Prof, Dhaka, K.M. Ahmed, Prof, UCL Global Health, Dr. E. Fottrell, UCL IRDR, Dr. M. Shamsudduha, Sussex, M. Todd, Prof, BGS, A. MacDonald, Prof, IWMI, Dr. K. Villholth, IRD, Dr. G. Favreau, AAU, T. Ayenew, Prof, SUA, Dr. J. Kashaigili, IDS, Dr. John Thompson, R.G. Taylor, Prof, hydraulic stress, responses, environmental tracers, evidence, Uganda, systems, crystalline rock, storage, Groundwater flow, uncertainties, errors, Regional Climate Models, southern Africa, Okavango Delta region, impacts, Climate, Leverhulme Fellowship, Royal Society, research, academic year, my place, Dambatta, Dr. Aisha Bello, makers, makers, stakeholders, outcomes, summary, stations, electric power, local hydro, Rwenzori Mountains National Park, management, change, NAPA, flow, glacial recession, impact, studies, research, East Africa, change, impact, illustration, Makerere University, Uganda, Environment, Water, Ministry, collaborative research, East Africa, Rwenzori Mountains, alpine glaciers, retreat, global warming, relationship, collaborative research, outcomes, summary, Dodoma, city, freshwater, Makutapora Wellfield, management, Tanzania, Water, Ministry, Recent collaborative research, Africa, resources, quantification, benchmark, research, collaborative research, part, initiatives, plans, rationale, demand, change, variability, adaptations, groundwater, scientific basis, UK government, irrigation, production, water, access, regional initiatives, plans, strategies, national water, groundwater, Saharan Africa, Sub, research, impact, areas, direct impact, our research, institutions, collaborations, makers, stakeholders, direct engagement, South Asia, Saharan Africa, Sub, agricultural needs, supplies, practical problems, My research, water, groundwater, interactions, their characteristics, environments, aquifers, geomorphological evolution, evolutionary hydrogeology, supplies, irrigation, abstraction, systems, capacity, Research, Deltas, Asian Mega, Bengal Basin, shallow alluvial aquifers, research, GLRA, Africa, entire Great Lakes Region, Saharan Africa, sub, tropics, systems, saprock, saprolite, crystalline rock, hydrogeology, research, date, variability, rapid development, pressures, communities, communities, groundwater, international scientific programmes, research, stores, change, variability, relationship, our conceptual understanding, testing, development, observations, measurements, GRACE, g, observations, use, research, central aspect, research, critical role, models, use, research, key component, ice, moisture, groundwater, stores, impacts, climate, analysis, scales, scarcity, resources, change, variability, freshwater, other natural stores, groundwater, specific focus, resources, rapid development, change, impact, studies, flow, stable isotope, method, moisture, soil, support, East Africa, Victoria Nile basin, Groundwater recharge, countries, urban groundwater, contamination, impacts, extent, comparison, M., Nalubega, multilevel piezometer, use, hydrochemistry, variations, S. F., Thornton, D. N. L., Lerner, S., Trowsdale, M. H., Barrett, O. P., Baines, Triassic aquifers, Permo, evolution, tracer, Use, R. M., Kalin, A., Downey, T., Elliot, Chapter, pp, London, IWA, I. Chorus, J. Chilton, G. Howard, O. Schmoll, Geneva, World Health Organisation, Chapter, pp, London, IWA, I. Chorus, J. Chilton, G. Howard, O. Schmoll, Geneva, World Health Organisation, Chapter, pp, London, IWA, I. Chorus, J. Chilton, G. Howard, O. Schmoll, Geneva, World Health Organisation, UK, mature cities, aquifers, anthropogenic recharge, penetration, depth, Hydrochemical evidence, air, East Africa, Rwenzori Mountains, Recent deglaciation, Mölg et al, Uganda Reply, Rwenzori Mountain National Park, tropical alpine lake, aquatic productivity, recent changes, 140-year record, Uganda, Upper Nile Basin, interactions, surface, groundwater, C., Tindimugaya, C., Mukwaya, J., Thompson, Uganda, groundwater, communities, evidence, change, diarrhoeal diseases, risk, R. Kulabako, G. Howard, R. Flynn, L. Mileham, J. Tumwine, Gaspa, M. Miret, meteorological observations, station, parameterizations, comparison, SWAT2005, China, River Xiangxi, Ugandan Upper Nile Basin Hydrological modeling, tropical catchment, stormflow, groundwater, change, impacts, new insight, current challenges, global hydrological change, Groundwater, M., Shamsudduha, W., Struckmeier, N., Kukuric, K., Dev Sharma, H., Treidel, K., Hiscock, U., Lall, B., Hewitson, M., Todd, R., Harding, L., Longuevergne, China, Yellow Basins, River Yangtze, catchments, sub, discharge, change, impacts, uncertainty, unified approach, continents, scale, resources, change, impact, southwestern Uganda, evidence, humid tropics, systems, crystalline rock, rapid development, change, impacts, C., Tindimugaya, Eds, J. Warner, S. Sojamo, M. Keulertz, J.A. Allan, Land Grabs, agriculture, intensification, sufficient water, Africa, Groundwater, H.C., Bonsor, H., Treidel, I., Holman, P., Yeh, K., Hiscock, M., Shamsudduha, D., Allen, J., Gurdak, Y., Yechieli, R., Maxwell, Fan Y., A., MacDonald, M.F.P., Bierkens, M., Taniguchi, J., Chen, T., Green, L., Konikow, M., Edmunds, J.S., Famiglietti, M., LeBlanc, L., Longuevergne, Y., Wada, L., Beek, M., Rodell, P., Doell, B.R., Scanlon, L., Smith, M., Shamsudduha, M.S., Rao, A., Mukherjee, M., Moench, R.M., Lark, D.J., Lapworth, K., Gopal, S.S.D., Foster, A., Dixit, R.C., Calow, M., Basharat, W.G., Burgess, K.M., Ahmed, H.C., Bonsor, A.M, MacDonald, L., Smith, M., Shamsudduha, M.S., Rao, A., Mukherjee, M., Moench, D.J., Lapworth, K., Gopal, S.S.D., Foster, A., Dixit, R.C., Calow, M., Basharat, W.G., Burgess, K.H., Ahmed, A.M., MacDonald, H.C., Bonsor, Leverhulme Trust Senior Fellowship, Royal Society, research, academic year, leave, Richard, hours]</t>
-  </si>
-  <si>
-    <t>[topics, social theory, students, mitigation, risk, cultures, urban futures, egalitarian politics, belonging, European identity, multiculturalism, racism, race, applications, chapters, articles, books, co, Professor Amin, risk, cultures, Newton, ESRC, Shanghai, migrants, mental health, urban infrastructures, ecologies, British Academy, Disunion, European Union, current research, Geography Professor Amin, Department, Professor, Lecturer, Regional Development Studies, Urban, Centre, Research Associate, Research Fellow, Newcastle University, social science, his contributions, CBE, British Academy, Foreign Secretary, Uppsala University, honorary doctorate, Italian Academia Nazionale Dei Lincei, Foreign Member, Social Sciences, Academy, British Academy, Fellow, editor, co, European Universities, number, Professorships, Fellowships, practices, biopolitics, hybrid, multiculture, race, cultural entity, economy, everyday process, globalisation, regions, cities, modern living, geographies, his work, Professor Amin]</t>
-  </si>
-  <si>
-    <t>[Greece, Thessaloniki, Aristotle University, Architecture, Faculty, Regional Planning, Urban, Department, Spatial Development Research Unit, Marie Curie Fellow, Visiting Professor, Oct, Seattle July, Washington, University, Geography, Department, International Relations, Jackson School, European Studies, Marshall Visiting Professor, Monet, Apr, Toronto Jan, York University, Environmental Studies, Faculty, Political Science, Graduate Programme, Ecology Summer School, International Political Economy, Invited Visiting Professor]</t>
-  </si>
-  <si>
-    <t>[deposits, water, OSL, New chronologies, northern Namib Sand Sea, Quaternary palaeohydrological changes, T., Sternberg, L., Mol, Chapter, luminescence, use, Namib Desert, past conditions, records, past, light, A.E.C., Stone, luminescence, application, review, Namib Desert, palaeohydrological change, late Quaternary, Casting new light, mass balance, recharge, field, Kalahari dune, unsaturated zone, Namibia, Stampriet Basin, water, salt, Sand, sabbatical cover, Dr Richard Bailey, latter course, Quaternary Period, Dynamics, Dryland Landscapes, Final Honour School Special Subjects, tutor, Physical Geography Field Classes, department, paper, Geographical Research, classes, laboratory, papers, Geographical Research, Environmental Geography, components, paper, Earth System Dynamics, core, Preliminary Examination, papers, Geographical Controversies, Geographical Techniques, parts, course, Earth System Processes, St Edmund Hall, St Catherines College, tutorials, Colleges, St Hilda, Worcester, teaching, Christchurch Colleges, Keble, posts, College, St John, physical geography, Abi, region, chronologies, m, dunes, few metres, small features, formation, recent aeolian activity, samples, preliminary results, dunes, different generations, orientations, different sizes, features, morphology, morphology, region, new chronological data, study, features, complete overturning, years, activity, luminescence, years, sand, region, data, dunefield, chronological control, paucity, earth, forms, types, range, sea, unconsolidated dunes, Namib Sand Sea, aged Tsondab Sandstone, tertiary, semi, oldest deserts, earth, Namib Desert, northern Namib, features, characteristics, age, research, northern Namib Sand Sea, far northern extent, features, rates, dune, Namibia, west coast, palaeohydrological change, palaeoenvironmental, understanding, data, contribution, Abi, sediments, lain, water, chronologies, deposits, aeolian sand, higher discharge, periods, associations, rates, dune, stratigraphy, ground, dunes, OSL, environment, past dynamics, our knowledge, Namib Desert, OSL, luminescence, application, series, U, OSL, fluvial tufa, sediments, interdune water, dune, DPhil, Abi, research, methods, field, dynamics, term, cluster, Landscape Dynamics, effort, part, India, Ashok Singhvi, Prof, potential collaboration, regions, methods, Abi, year, Sampling, availability, records, paucity, regions, environmental change, our understanding, great significance, proxy, development, other researchers, China, Badain Jaran Desert, millennial timescales, centennial, information, CMB approach, Recent notable success, timescale, Namib Sand Sea, regions, sites, coverage, environmental response, spatial complexity, accordance, proxy records, years, progressive aridification, records, coherence, systems, interface, southern African subcontinent, environmental dynamics, long term, questions, vast Namib Sand Sea, regions, sand, CMB methods, proxy, provision, agricultural development, groundwater, region, OSL analysis, dual moisture, southern Kalahari, dunes, Future sampling, abstraction, majority, layer, surface, sands, direct mechanism, recharge, regional estimate, basin, spatial variability, need, sediments, input, rainy season, timescales, multi, profiles, y, mm, rates, high suitability, Namibia, sites, Results, South Africa, Botwsana, Namibia, resource, key transboundary, Stampriet Artesia Basin, research, southern Kalahari, linear dunes, recharge, rates, methods, CMB, balance, chloride, application, Fell Fund, BSG small grant, Oman fellowship, Thesiger, research, moisture, traditional proxies, drylands, fluctuations, late Holocene, proxy, novel, supplies, sustainable use, effective planning, policy, rates, behaviour, vital scientific data, Abi, millennial timescales, century, century, decadal, hydrological dynamics, understanding, aim, sediments, moisture, chemical tracers, use, research, dynamics, Quaternary, reconstruction, sediments, moisture, chemical tracers, research, Abi, broad themes, Dynamics optional FHS subjects, Desert Landscapes, Quaternary Science, tutor, FHS Geographical Research paper, part, practical classes, St Edmund Hall, St Catherines College, tutorials, Colleges, St Hilda, Worcester, teaching, Christchurch Colleges, Keble, posts, College, St John, physical geography, fellow, Abi, project, English Heritage, up, Rock Breakdown Laboratory, Heather Viles, Prof, Oxford, Geography, Environment, Geography, School, terrestrial proxies, Namibia, Quaternary environmental conditions, reconstruction, her thesis, proxy, order, large Namib Sand Sea, techniques, pore, applicability, region, geomorphological history, palaeoenvironmental, Namib Sand Sea, material, dating, southern African subcontinent, Namibian portion, focus, areas, Quaternary palaeoenvironments, research, Abi, Royal Geographical Society, Oman International Fellowship, her Thesiger, study, theme, vertical profiles, history, groundwater, nitrate, origin, production, unconfined groundwater, recharge, rates, order, Kalahari, Stampriet Basin, sediments, sand, moisture, pore, David Thomas, Prof, Mike Edmunds, Prof, Abi, Quaternary drylands, mechanisms, timing, questions, active hydrological cycle, part, aquifers, questions, techniques, timescale, range, dynamics, processes, resources, dynamics, environmental change, systems, dynamics, interests, Abi]</t>
-  </si>
-  <si>
-    <t>[surface, Earth, change, century, Causes, J.F.B., Mitchell, W.J., Ingram, M.R., Allen, P.A., Stott, S.F.B., Tett, Climate Seminar, Weather, ECMWF Predictability, forecasting, weather, error, D.A., Stainforth, J.A., Kettleborough, M.R., Allen, precipitation, 20th century, changes, attribution, Detection, M.A., Palmer, M.R., Allen, P.A., Stott, F.H., Lambert, M.R., Allen, A.J., Thorpe, R.A., Spicer, L.A., Smith, D., Sexton, C., Piani, J.M., Murphy, A., Martin, S., Knight, J.A., Kettleborough, D.J., Frame, N., Faull, M., Collins, C., Christensen, T., Aina, D.A., Stainforth, simulations, ensemble, multi, change, Constraints, M.R., Allen, D.A., Stainforth, D.J., Frame, C., Piani, impacts, global climate, uncertainty, scenarios, Risks, C., Piani, D.J., Frame, M.R., Allen, D.A., Stainforth, servers, analysis, Data access, D., Stainforth, S., Pascoe, A., Martin, J., Kettleborough, D., Goodman, D., Frame, C., Christensen, M., Allen, T., Aina, N., Massey, changes, uncertainty, approaches, J., Kettleborough, M., Allen, D., Stainforth, M., New, C., Tebaldi, A., Lopez, temperature, seasonal cycle, sensitivity, D.A., Stainforth, M.R., Allen, G.A., Meehl, R., Knutti, sensitivity, Observational constraints, C., Piani, R., Knutti, G., Hegerl, J., Gregory, C., Forest, D., Frame, S., Dessai, B., Booth, N., Andronova, M., Allen, warming, CO, extreme precipitation, changes, Clapeyron constraint, Clausius, D.A., Stone, M.R., Allen, P., Pall, climate, human influence, harm, attribution, Scientific challenges, S., Yukimoto, T., Nozawa, K., S, Min, D.J., Frame, P., Scott, D.A., Stone, P., Pall, M.R., Allen, M., Milan, N., Bostrom, Chapter, global risk, change, M.R., Allen, D., Climate*. Frame, Human Influence, Attribution, Detection, S., Yukimoto, T., Nozawa, S.K., Min, P., Pall, P.A., Stott, M.R., Allen, D.A., Stone, S., Raper, N., Meinshausen, M., Meinshausen, J., Lowe, R., Knutti, C., Jones, C., Huntingford, W., Hare, K., Frieler, D., Frame, M., Allen, J., Brunnée, L., Rajamani, S., Goldberg, R., Lord, liability, climate, scientific basis, M.R., London Allen, Towers Watson, Sustainable Investing, Transformation, Challenges, Project Telos, S.M., McGill, C., Molinari, D., Wójcik, M.R., Allen, R., Urwin, G.L., Clark, M.R., Allen, Y.H., Yamazaki, D., Williamson, S.F.B., Tett, C., Rye, J., Miller, N., Massey, A., Bowery, A.T., Blaker, T., Aina, D.J., Rowlands, K., Yamazaki, central United States, low precipitation, probability, Human Influence, M.R., Allen, F.E.L., Otto, N., Massey, P.W., Mote, D.E., Rupp, M.R., Allen, B., Stevens, D., Shindell, G., Myhre, J., Marotzke, U., Lohmann, N., Lewis, R., Knutti, G.C., Johnson, J., Gregory, N.P., Gillett, P.M., Forster, G., Hegerl, J., Church, O., Boucher, F.E.L., Otto, A., Otto, change, damage, loss, its potential contribution, events, science, M.R., Allen, J., Slingo, N., Schaller, N., Massey, F.E.L., Otto, T., Legg, A., Jenkins, M., Bailey, V., Bell, P., Stott, M., Roberts, H., Ward, J., Screen, J., Lowe, S., Parry, N., Reynard, C., Prudhomme, M., Lockwood, A., Kay, J., Hannaford, E., Kendon, A.A., Scaife, T., Marsh, C., Huntingford, spring, winter, western Spanish Pyrenees, accumulation, M.R., Allen, S.T., Buisán, N., Massey, N., Schaller, S., Serrano, Vicente, F.E.L., Otto, J.I., Moreno, López, J.A., California Central Valley Añel, extremes, summer, attribution, application, justice, Climate change, M.R., Allen, Y.H., Yamazaki, D., Hassell, J.M., Murphy, S., Wilson, T., Aina, F.E.L., Otto, R., Jones, N., Massey, M.R., Allen, R.J., Millar, D.P., van Vuuren, M.G.J., Elzen, S.M., Smith, D.S., Lee, A., Otto, L.K., Gohar, N.H.A., Bowerman, N., Howarth, J.A., Lowe, C., Huntingford, industry, Potential applications, climate, Modelling extreme weather, M., Allen, J., Hall, F., Otto, N., Massey, R., James, B., Guillod, December, American Meteorological Society Vol, Bulletin, Special Supplement, Climate Perspective, Extreme Events, M., Mahecha, K., Thonicke, S., Seneviratne, M., Reichstein, M., Heimann, B., Guillod, M., Allen, M., Forkel, F., Otto, S., Sippel, M.R., Allen, P.A., Stott, S., Wilson, A., Weisheimer, D., Wallom, J., Skeggs, J., Miller, T., Legg, R.G., Jones, W.J., Ingram, C., Huntingford, K., Haustein, S.M., Crooks, A., Bowery, I., Ashpole, P., Yiou, R., Vautard, S.N., Sparrow, F.E.L., Otto, G.J., van Oldenborgh, N.R., Massey, R., Lamb, A.L., Kay, N., Schaller, M., Allen, H., Cullen, D., Lettermaier, M., Xiao, P., Uhe, F., D. Otto, S. Sharp, Li, D., Rupp, P., Mote, M.R., Allen, A., Bowery, P.C., Frumhoff, B.P., Guillod, G., Masato, C., Huntingford, S., Vardoulakis, C., Heaviside, D.M., Mitchell, M., Allen, D., Wallom, S., Sparrow, B., Guillod, F., Otto, R., Jones, T., Woolings, K., Haustein, N., Massey, B., Harvey, P., Davini, D., Mitchell, Vienna Austria, April, EGU General Assembly, Regional Climate Projections, Large Ensembles, J., Hall, M., Allen, N., Massey, H., Cullen, P., McLean, N., Christidis, L., Hermanson, M.R., Allen, N., Schaller, P., Uhe, F.E.L., Otto, K., Haustein, D.P., van Vuuren, T.F., Stocker, M., Schaeffer, K., Riahi, G., Plattner, M., Oppenheimer, J., Minx, A., Michel, M., Mastrandrea, K.J., Mach, R., Knutti, L., van Kesteren, P., Friedlingstein, C.B., Field, O., Edenhofer, L., Clarke, M., Allen, J., Rogelj, S., Hallegatte, M.R., Allen, D.J., Frame, P.M., Forster, R.B., Skeie, H.D., Matthews, M.J., Grubb, J., Rogeli, P., Friedlingstein, J.S., Fuglestvedt, R.J., Millar, M.R., Allen, S., Wilson, D.C.H., Wallom, P., Uhe, S.N., Sparrow, F.E.L., Otto, D.M., Mitchell, N.R., Massey, K., Haustein, A., Bowery, R.G., Jones, B.P., Guillod, general public, personal computers, idle CPU, change, Monte Carlo simulation, m, £, overall budget, present, collaborative project, research, computing, years, doctoral students, docs, post, attribution, modelling, Oxford, University, Physics, Department, Climate Dynamics Group, Group Leader, events, climate, other external influences, contribution, Probabilistic Event Attribution, use, forecasts, range, their implications, extreme weather, risks, change, climate, natural influences, His research, Physics, Department, University, Climate Dynamics Group, Head, Oxford, University, Environment, Geography, School, Geosystem Science, Professor, Myles Allen]</t>
-  </si>
-  <si>
-    <t>[urban labs, research, Lund University, Formas Guest Researcher, local governments, range, Arup, United Nations, external organisations, range, Manchester Cycling Lab, University Living Lab, styles, interdisciplinary action, Europe, smart districts, project, Horizon, Triangulum, involvement, University, sustainable urban development, labs, role, His current research, Volkwagen Institute, UCLA, fellowships, field, books, papers, peer, urban environmental governance, cities, Geography whose research, Professor, James Evans]</t>
-  </si>
-  <si>
-    <t>[tectonics, geomorphology, ecology, hydrology, oceanography, climate, environment, Earth, fundamental processes, introductory course, Processes, Environment Systems, Global warming, pollution, Human impact- Acid rain, Glaciation, Evolution, Plate Tectonics, Big Bang, Earth History, introductory course, Environmental Change, clients, large diverse portfolio, Climate KIC, Royal Society, Technology Strategy Board, European Space Agency, ISIC, Rezatec Ltd, product, statistical techniques, models, analysis, advanced predictive analysis, basis, instruments, satellite, diverse data, large amounts, its ability, unique strength, uncertainty, error, services, products, bases, science, REDD+ agenda, management, agribusiness, energy, financial services, many different markets, organisations, decision, Analytics, Rezatec Earth Information Products, data, satellite, scientific analysis, environment, problems, Rezatec, Oxfordshire, Harwell, more storms, rapid climate, symptoms, Mark Maslin, nature, flukes, El Niño, Hurricane Georges, wave, effective action, subsidence, flooding, attempts, Bangladesh, lives, Millions, Sea, Weight, environmentalists, Mark Maslin, pollution, man, Lake Baikal, world, freshwater, largest body, waters, East Midlands, Heart, Quay, River FM, Manx Radio, Downtown Radio Belfast, BBC Orkney, Orchard FM, Channel Islands, BBC Radio Jersey, Kismat Radio, Q103 FM, Fosseway Radio, Rutland Radio, SGR Colchester, Green Britain week, findings, emissions, Government policies, detailed audit, Welsh Assembly election, main political parties, environmental policies, BBC Wales, atmosphere, dioxide, artificial trees, Wally Broecker, Prof, new idea, comments, Today Programme, BBC Radio, June, time, clean sources, all its electricity, US, Al Gore’s vision, comments, News Hour, BBC World Service, July, City Talk, Times, -Guardian, New Scientist, BBC News Online, Daily Telegraph, Scotsman, Mirror, -Daily Mail, Guardian, BBC World Service, BBC Radio, Press Association, News, Channel, Sky News, change, Health effects, Lancet Report, UCL, Launch, May, UK climate, future, report, site, latest UKCIP, launch, BBC Newsround –, BBC News, June -BBC News, hottest decade, WMO, Met Office, data, response, recent mega floods, change, attribution, new results, papers, Material World, BBC Radio, News, Channel, Timeout Tokyo Feb, Nature, New Scientist, articles, report, risk, JLT International Airport, UCL, Press conference, July, Paris, meeting, UNFCCC COP21, change, public, questions, BBC World Service Newshour, November, Reddit, Front Page, ZME Science, Taiwan, Apple Daily, Costa Rica, El Mundo, AllNews24.eu, EurActiv.com, EurActiv.fr, Philanthropy News Digest, Internazionale, Clima, Observátorio, O Eco, Ore, Il Sole, Xinhua Net, SciBlogs.co.nz, EconoTimes, News, Yahoo, Sci Tech Today, Climate Change News, EcoBusiness, GreenBiz, Business Green, feature, Swiss Public Radio, Estonian Public Broadcasting, La Vanguardia, Mexico, El Periodico, others, Mexico, El Periodico, El Comercio, EFE News Wire, EcoWatch, Phys.org, Quartz, Part, Climate Home, Reuters, Carbon Brief, Mother Jones, Grist, El País, Atlantic’s City Lab, Mashable, LA Times, Wall Street Journal, global megacities’, change, responses, Nature Climate Change paper, Press Coverage, March, El País, Reuters, Mail Online, FT, Times, site, BBC, record, hottest year, announcement, World Meteorological Organization, January, ISBN, Paperback, ISBN, Hardback, UK, Hove, Weyland, p49, olds, volume, Storms, ISBN, Paperback, X, ISBN, Hardback, UK, Hove, Weyland, p49, olds, volume, Earthquakes, areas, Maslin’s, East Africa, early Human Evolution, his work, Royal Society Wolfson Research Merit award, Maslin, Associate Editor, Maslin, blogs, popular articles, volumes, chapters, books, times, papers, Google, index=128, H=51, citation, journals, papers, Turkana Basin Institute, Smithsonian Institute, Rio de Janeiro, Stony Brook, Penn State, Berne, Potsdam, Yale, visits, Africa, fieldwork, Ocean Drilling Program, IMAGES, expeditions, his participation, research, Maslin, Nov, volume, Royal Society A, Philosophical Transactions, urban areas, Climate change, editors, H.J., Schellnhuber, T., Killeen, P., Backlund, p1210, Academic Press, Karl Turekian, Stephen Thorpe, John Steele, Ed, Ocean Sciences, Encyclopedia, Holocene Climate variability, oceanography, Paleo, V. Ettwein, C. Stickley, Oxford, Oxford University Press, global atmospheric change, Tropical forests, editors, editors, O. Phillips, Y. Mahli, Amazon Rainforest, resilience, longevity, Blackwell, Wiley, Geological Hazards, Forcing, instability, methane, sensitivity, Eocene Thermal Maximum perspective, Paleocene, P.J. Valdes, D.N., Schmidt, Blackwell, Wiley, Geological Hazards, Climate Forcing, reservoirs, global gas, future stability, past, A. Ridgwell, T. Dunkley Jones, S. Day, M. Owen, major Northern Hemisphere Glaciation, initiation, Northwest Pacific Site, R. Stax, H. Erlenkeuser, R. Tiedemann, M. Sarnthein, G. Haug, years, record, time, N, paleoceanography, Atlantic surface, Variations, H. Schulz, U. Pflaumann, L. Labeyrie, N. Koc, S. Jung, T. Johannessen, G. Johannessen, A. Flatoy, H. Erlenkeuser, C. Duplessy, J, M. Arnold, M. Weinelt, E. Jansen, M., Sarnthein, sheet, Laurentide, icebergs, maximum outflow, realistic calculations, Heinrich events, timing, Estimation, I.N. McCave, J. Andrews, last glacial maximum, terrestrial biosphere, atmosphere, oceans, transfer, Young, R. Haines, H. Faure, E. Thomas, J. Adams, Heinrich events, last glacial maximum, palaeocirculation, reconstruction, intensity, ice, reliable indicator, Magnetic susceptibility, I.N. McCave, climatic rebounds, formation, Heinrich events, years, Northeast Atlantic, changes, salinity, Temperature, U. Pflaumann, N.J. Shackleton, North Pacific, Northern Hemisphere Glaciation, progressive intensification, R. Tiedemann, M. Sarnthein, G. Haug, formation, productivity, pCO2, Glacial North East Atlantic surface, D. Seidov, M.A. Hall, N.J. Shackleton, E. Thomas, E.J.W., Jones, S., Lee, C.J., MacLeod, A., Cramp, late Quaternary Amazon Fan, history, Reconstruction, N. Mikkelsen, eds, E.J.W., Jones, S., Lee, C.J., MacLeod, A., Cramp, Amazon Fan, evidence, sea, Heinrich events, changes, Equatorial Wastern Atlantic Ocean, E.J.W., Jones, S., Lee, C.J., MacLeod, A., Cramp, Holocene comparison, Eemian, Interglacial cold events, Intra, C. Tzedakis, P. Grootes, J. Knaak, J, M. Sarnthein, Northern Hemisphere Glaciation, progressive intensification, contribution, A. Berger, F. Loutre, M, S. Li, X, Amazon Fan, analyses, pore, western Atlantic Ocean, bottom water, circulation, Composition, sheets, growth, North Atlantic, gradients, meridional temperature, forcing, Amazon Fan ODP Site, record, year, Amazon basin, changes, Late Quaternary Vegetation, years, discharge, Amazon, records, High resolution, N. Rimington, B. Lomax, M Schleicker, E. Platzman, J Nadeau, M, P Grootes, S Greig, E Durham, S J Burns, p1210, Academic Press, Karl Turekian, Stephen Thorpe, John Steele, Ed, Ocean Sciences, Encyclopedia, Holocene Climate variability, oceanography, Paleo, V. Ettwein, C. Stickley, Ma, Northern Hemisphere Glaciation, intensification, Site, intensity, productivity, Fluctuations, Chapter, M. Brownless, L. Vidal, Laurie, Pleistocene Revolution, Mid, Evidence, Search, Walvis Ridge, Congo Basin, Proxy Records, Comparison, m.y, Africa, Western Coast, Climatic History, Chapter, Shipboard Scientific Party, ODP Leg, S.J. Burns, D. Lowry, M. Leng, J.R. Marlow, Mele, A. Rosell, E. Platzman, Maslin, Haupt, Seidov, Future, Present, Past, change, Oceans, Southern Versus Northern Meltwater Impacts, Climate, Polar Seesaw, Ocean Bi, Maslin, Haupt, Seidov, Future, Present, Past, Rapid Climate Change, Oceans, Quaternary, transitions, causes, nature, Synthesis, J. Lowe, D. Seidov, Site, ODP Leg, Evidence, Northern Hemisphere Glaciation, intensification, hemispheres, connections, R.W. Murray, GLAMAP-2000, conditions, Sea, Glacial North Atlantic, M.Weinelt, E.Vogelsang, M. Vautravers, S. van Kreveld, J. Swallow, H. Schulz, isotope, South West African vegetation, changes, Precession, V. Ettwein, R. Pancost, C. Boot, Large Impacts III, editors, A., Deutsch, F., Horz, T., Kenkmann, event, T boundary, K, example, failure, liquifaction, excursions, carbon, hydrates, large impacts, benthic foraminiferal assemblages, stratigraphy, Amazon Fan, Quaternary catastrophic failures, Causation, P. Grootes, N. Mikkelsen, C. Vilela, Amazon Rainforest, future, resilience, longevity, old forest, New views, S. Cowling, O. Phillips, Y. Mahli, major Northern Hemisphere glaciation, onset, Pacific, system, development, Diatom d18O evidence, G.H., Haug, H.J., Sloane, M.J., Leng, Critical Quaternary Strtigraphy Special Issue, Amazon Fan, Avulsion Events, Scale Sea Level Control, Millennial, T. Ramsay, P.C. Knutz, early human evolution, East African climate, controls, High, M. Strecker, Bergner, A., A. Deino, Q06012):1, Geochemistry Geophysics Geosystems, record, effect, evidence, isotopes, J., Onodera, animals, plants, African migration, trans, phylogenies, implications, Africa, interglacial vegetation, Simulated, S., Spall, M., Peros, B.P., Atlantic Ocean, Oeschger events, Dansgaard, evolution, Centennial, M. Kucera, Benguela Upwelling System, ODP Site, Pliocene sediments, Luke Handley “Organic geochemical changes, Nicole Bale, Virginia Ettwein, Claire Bickers, Palaeoecology, Palaeoclimatology, Palaeogeography, Peter Ditchfield, Anna K. Behrensmeyer, Richard Potts, R. Bernhart Owen, southern Kenya Rift, Pleistocene Olorgesailie Formation, environmental change, Diatomaceous sediments, Genus Comments, Origins, First Humans, early human evolution, its influence, Pleistocene East African Pulsed Climate Variability, Plio, Chapter, M.H. Trauth, Special Publication, Sedimentary Geology, Society, SEPM, Editors, B. McCaffrey, O. J. Martinsen, B. Kneller, Water Depositional Systems, Deep, External Controls, latest Pleistocene, Avulsion Deposits, Amazon Fan Mass Transport, causes, timing, Hominins’’ AM J PHYS ANTHROPOL Review, Fallback Foods, Sources, Water Habitats, Shallow, Wrangham et al, Reply, Bearing Localities, Southern African Hominin, Palaeoenvironments, Geochronology, Editor, Letter, Tetraethers, Amazon Fan, Organic Carbon, Sources, Holocene Terrestrial Temperatures, Major, R. D., Pancost, C. S., Boot, E. C., Hopmans, S., Schoutan, J. S., Sinninghe Damste, MIS-12, intensity, South East Atlantic Ocean productivity, forcing, ice, Oceanic, Rohl U., Marine Isotope Stage, hydrography, South East Atlantic, Agulhas Leakage influences, circulation, Atlantic, R. D. Pancost, E. L. McClymont, Bendle, J., J. Green, p, Springer, Mosher et al, their consequences, Submarine Mass Movement, Northwest British continental margin, movement, late Pleistocene, debrite, Peach, Investigations, Levis Colloquium, Johnstone, session, Report, 21st Century, hazard, Gas, East Africa“, Amplifier Lakes, Variable Environment, Migration, Human Evolution, M.R. Strecker, L. Olaka, D.O. Olago, E. Odada, A. Junginger, A. Deino, A.G.N. Bergner, positive action, catastrophic fatalism, denial, change, Global health, P. Ekins, A. Johnson, H. Montgomery, record, deglacial Amazon River, evidence, hypothesis, monsoon, Dynamic boundary, M.J., Leng, S.J., Burns, T.P., Guilderson, K.E., Wilson, records, ODP site, Evidence, South West Africa, availability, history, M.H. Trauth, J. Lewis, K. Wilson, R. Pancost, Geological Time Scale, F. Gradstein et al, Ed, Prehistoric Human Time Scale, Chapter, system, Governments, deforestation, satellites, M. Sweeting, H. Balzter, variability, scale, Pliocene, evidence, A.W. Mackay, R.K. Edgar, A.L. Deino, Kingston, J.D., M.J. Leng, NE Atlantic Ocean, Barra Fan, geology, shallow sub, surface, SEGY conversion, seismic record, reliability, D. Long, S. J Day, M. A Maslin, M. J, Owen, brain, evolution, vast lakes, formation, arid conditions, Rift Valley, pulses’, their emergence, tectonics, celestial mechanics, change, roles, years, Homo sapiens’ arrival, Homo erectus, size, jump, Australophithecus, bipedalism, stages, East Africa, hominin, geological hegemony, humanity, deep time, Palaeoclimatologist Mark Maslin, timely reminder, history, Earth, force, tour, our luck, that special ontinent, narrative, knowledge, tremendous amount, Maslin, impressive ease, human evolution, dynamic earth, account, its environments, earth, context, human evolution, Maslin, currents, climate, meteorites, monsoons, mountains, tale, story, humanity, evolution, immense subject, broad disciplines, geography, thinking, years, millions, East Africa, planetary changes, mix, hybridised narrative, theories, his own mind, Maslin, smooth digestion, our way, being, flow, graphs, diagrams, Snazzy graphics, today, who, theme, complex global processes, basic information, Maslin, slim book, information, amazing amount, Wise, name, Maslin, our responsibility, powerful sense, our good fortune, dizzying feeling, our planet, civilisation, emergence, East African Rift Valley, climate, unique landscape, evolutionary biology, science, astronomy, geology, exhilarating intellectual journey, Mark Maslin, great scientific challenges, East Africa, unique landscapes, our species, emergence, book, Maslin, climatological twist, our ancestors, ecology, palaeoanthropology, recent research, twist, palaeoanthropological cocktail, book, planet, humanity, cradle, East Africa, part, landscape, climate, geology, Astronomy, our ultrasocial brains, pressures, factors, East African Rift Valley, landscape, evidence, fossils, latest insights, Mark Maslin, considerable advantage, our ancestors, bizarre adaptation, childbirth, difficulties, our large brains, calorific cost, ape, evolution, our intelligence, our success, planet, apex predator, Earth, evolutionary trajectory, consequence, Earth system, part, century, middle, number, Homo, natural weapons, many other animals, Humans, East Africa, early human evolution, study, Royal Society Wolfson Research Merit Award, first time, Who, Who, Climate Change, Development, Population, links, paper, Lancet, change’, effects, seminal Lancet report, author, co, Maslin, same series, Short Introduction, Climate, title, copies, its third edition, Oxford University Press, Short Introduction, Change, His popular book, Sky News, News, Channel, BBC News, Material World, Today Programme, popular articles, popular books, students, students, fellows, WTO, UNFCCC COP, Norwegian Government, Goldman Sachs, Natural History Museum, British Museum, Frontline Club, Fink Club, Medicine, Royal Society, Tate Modern, RGS, Cambridge, Oxford, UK Space conference, years, public talks, Professor Maslin, policies, national climate, ecological models, sinks, land, human evolution, rainforests, biodiversity, cycle, its effects, change, causes, scientific expertise, His areas, DECC, Royal Society, Technology Strategy Board, ESA, Carbon Trust, DIFD, EPSRC, NERC, grants, Co, PI, journals, papers, regional climatic change, particular expertise, scientist, Maslin, Cheltenham Science Festival Advisory Committee, member, Steria Group, Sopria, Global Cool Foundation, advisor, London NERC Doctoral Training Partnership, Director, Rezatec Ltd, Executive Director]</t>
-  </si>
-  <si>
-    <t>[Ugandan National Park, revenue, Claims, payroll, gorilla, Who, M., Infield, W.M., Adams, UK, River Restoration Discourse, River Managers, Champions, Conservatives, A., Carpenter, M.R., Perrow, W.M., Adams, Oryx, East Africa, categorization, arrangements, regimes, Private Protected Areas, J., Hutton, W.M., Adams, E., Carter, Oryx, national scale, establishment, poverty, W.M., Adams, D., Brockington, T., Jiang, D., Hulme, R., Ladle, C., Upton, conflicts, R.J., Gutiérrez, A., Watt, J.D.C., Linnell, R.A., Lambert, A., Amar, A., Whitehouse, W.J., Sutherland, W.M., Adams, A., J., Young, S.M., Redpath, UK, neoliberalism, conservation, territorialisation, re, nature, New spaces, L., Sandbrook, I.D., Hodge, England, governance, approach, public forests, future, W.M., Adams, I.D., Hodge, UK, Greece, Un, Green, Dialectics, Era, Post, Conservation, Neoliberal Capitalism, W.M., dams, Sahel, migrant birds, change, land, impact, J.A., Vickery, R.D.S., Small, W.M., Adams]</t>
-  </si>
-  <si>
-    <t>[social inequality, relation, grouping, attainment, English secondary schools, study, Grouping Students’, Best Practice, project, Education Endowment Foundation, Year awards, TES Teacher, National Pupil Premium Awards, panels, various practitioner, judge, Education, panel, sub, REF, member, Becky, theory, educational achievement, social identity, equality, educational contexts, social class, gender, social identities, extensive publications, Her academic expertise, social equality, relation, policy, quality, analysis, research, achievement, gender, her work, Becky, Parliamentary Education Select Committee, Standing Advisor, RSA, Education, Director, her previous roles, example, work, education, social justice, education, career, King’s College London, Social Justice, Education, Professor, IOE, Education, Institute, UCL, Director, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
-  </si>
-  <si>
-    <t>[geography, texts, my career, teaching, papers, pedagogic research, my teaching, Similar themes, social polarisation, social exclusion, inequalities, work, underlying themes, evaluation, children, geographies, education, geographies, interests, Geography, Professor, Manchester, University, Lecturer, My first post, Cambridge, PhD, Madison, Wisconsin, University, postgraduate work, St Catharines College Cambridge, undergraduate degree, British Geographers, Institute, Royal Geographical Society, higher education, geography, learning, teaching, excellence, Francis Award, Taylor]</t>
-  </si>
-  <si>
-    <t>[society, culture, politics, changes, other fields, developments, relation, contemporary human geography, development, debates, major intellectual issues, consideration, spatial history’, traces, present, histories, past, Spaces, espacial’, los rastros de la, pasado, Espacios, A.S., BUITRAGO, D.J., GREGORY, S., Peter Wall Distinguished Professor ELDEN, Roskilde, Dr., Heidelberg, Dr. h.c, Canada, Royal Society, Fellow, British Academy, Fellow, Sebald, Said, literary studies, visual arts, Foucault, Butler, Agamben, philosophy, political theory, ideas, cases, Iraq, Pakistan, Afghanistan, Gulf War, Vietnam, Laos, Cambodia, Korea, wars, Second World War, Spain, early twentieth century, its colonial populations, Europe, bombing, political geographies, literature, drama, artwork, geographies, imaginative counter, production, practices, war, spaces, production, My particular concerns, prison, geography, East Africa, Pakistan, Afghanistan, Palestine, Israel, Iraq, Middle East, investigations, My focus, peace, occupation, military violence, late modern war, spatial modalities, interconnected themes, My research]</t>
-  </si>
-  <si>
-    <t>[RITH, K, HIV, TB, Directors KwaZulu Natal Research Institute, Board, Directors Francis Crick Institute 2015-, Board, MedCity Ltd., GMEC, Director, UCLH, executive, Imanova Board, Stakeholder, GSK Respiratory Therapy Area Board, Chair, GSK, Predictive Surrogate Endpoints, COPD Longitudinally, Evaluation, Steering committee, significant associations, boards, British Heart Foundation, Trustees, Board, Medical Trustee, US, Grants Advisory Committee Alpha-1 Foundation, Alpha-1 Awareness UK 2011-, Patron, COPD Biomarkers Qualification Consortium 2010-, Charities, MedTech Review, Innovative Medicines, Expert Advisory Group, Member, Scientific Advisory Committee Genomics England 2013-, Medical Research Council, Deputy CEO, Government, UCLH, Respiratory Unit, medical students, teaching, bed, Clinicians, UCL Wellcome Trust PhD programme, Director, Co, 2014-, UCL Medical School, Head, COPD, FAM13A, HHIP, protein, hedgehog, receptor, SNPs, GWAS, studies, genes, COPD, components, airway, independent familial aggregation, network, GSK, International COPD Genetics Network, Harvard, Ed Silverman, disease, pathobiology, new insights, novel genetic factors, identification, COPD, only genetic factor, Alpha-1-antitrypsin deficiency, vivo, vitro, toxicity, algorithms, model, Cambridge, Chemistry, group, Chris Dobson, neurodegeneration, oxidative stress, clear role, Our data, Aβ peptide, toxicity, modifiers, genetic screen, neurodegeneration, disease, Alzheimer, Our Drosophila model, disease, Drosophila model, vitro, peptide, toxicity, Aβ peptide, interaction, disease, Alzheimer, individuals, plaques, neuroserpin, disease, Alzheimer, common dementia, protein, role, FENIB, neuroserpin, mutations, recognition, encephalopathies, disease, Parkinson, Huntington, Alzheimer, other conformational diseases, insights, serpinopathies, our understanding, serpinopathies, disorder, new class, diseases, common mechanism, view, FENIB, bodies, familial encephalopathy, autosomal dominant dementia, neurones, inclusions, neuroserpin, process, our description, angiodema, thrombosis, emphysema, vivo, vitro, polymers, others, my team, II, C1-inhibitor, antithrombin, α1-antichymotrypsin, Mutants, superfamily, serpin, inhibitor, serine, other members, α1-antitrypsin, polymerisation, process, technology, structures, allosteric pockets, small molecules, screens, peptides, competition, chaperones, use, polymerisation, strategies, variety, vivo, vitro, which polymers, pathway, assays, cell, monoclonal antibodies, α1-antitrypsin, mutants, crystallised wildtype, team, deficiency, hepatic inclusions, α1-antitrypsin, variants, S, Mmalton, Siiyama, retention, same process, condition, PAS positive inclusions, polymers, hepatocytes, polymers, chains, conformational transition, protein, α1-antitrypsin, mutation, My work, Cambridge, University, Haematology, Department, Professor Robin Carrell FRS, my PhD, College, St. John, Fellow, Medical Research, Cambridge Institute, Deputy Director, Cambridge, University, Honorary Consultant Physician, Respiratory Biology, Professor, UCL, Medical Sciences, Faculty, Dean, Medicine, Professor, Previous appointments, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
+    <t xml:space="preserve">[Atmosphere Biosphere, Proceedings, Amazonian Forests, Flow, Carbon Storage, L.E.O.C., Aragao, C.A.J., Girardin, S., Saatchi, Y., Oxford Malhi, University, UK, Oxford, Wytham Woods, Broadleaf Monitoring Plot, Establishment, Initial Results, M., Thomas, K., Fenn, M., Morecroft, Y., Malhi, G., Campbell, N., Butt, Global Ecosystems Monitoring, Manual, v3.0, Intensive Census Plots, GEM Field Manual, RAINFOR, Cycling, Tropical Forest Carbon Allocation, R., Cain, N., Butt, C., Girardin, M., Ruiz Jaén, W., Huaraca Huasco, O., Phillips, Y., Malhi, D., Metcalfe, S., Moore, R., Urrutia, I., Oliveras Menor, T., Riutta, T.R., Marthews, P. Silva Dias, J., Gash, M., Bustamante, M., Keller, Amazonian forests, carbon, flow, storage, production, L., Aragao, C.A.J., Girardin, S., Saatchi, Y., Malhi, C., McDermott, C., MacKenzie, R., Lyster, biodiversity, climate, carbon, Tropical forests, T.R., Marthews, Y., Malhi, K.J., Willis, D.W., Macdonald, Chapter, resilience, ecological integrity, tropical forests, Conservation, Y., Malhi, M.D., Lowman, R.M., Ewers, O.T., Lewis, fluxes, ecosystem, deficit, vapour, leaf, drought, concentration, atmospheric CO, effects, R., Murthy, Y., Malhi, R., Monson, G., Gafford, Barron, A., Rey, E., Pegoraro, airspace, tropical rainforest, storage, carbon, measurements, Gap, C., von Randow, Y., Malhi, H., Iwata, forests, forests, alpha$-diversity, lower tree, climate, odd man, J.A., Comiskey, C., Chatelain, F., Bongers, A., Bakayoko, M.P.B., Balinga, A., Alonso, R.J., Whittaker, B., Senterre, Y., Malhi, I., Parmentier, accuracy, processing, soil, roots, method, Y., Malhi, S., Junior, J., De Athaydes, P.H.L., Goncalves, A.P., Braga, S.S., De Almeida, A.C.L., Da Costa, L., Aragao, M., Williams, D.B., Metcalfe, global database, tropical forests, boreal, CO2 balance, Y., Malhi, G., Matteucci, L., Wingate, E.D., Shulze, S.L., Piao, D., Papale, M., Reichstein, A.D., Richardson, M., Jung, I., Inglima, S., Luyssaert, experiment, throughfall, analyses, results, stress, forest, response, P., Meir, S., Almeida, R.F., Da Costa, Y., Malhi, A., da Costa, M., Williams, R.A., Fisher, recent Amazonian droughts, response, Spatial patterns, Y.E., Shimabukuro, L.O., Anderson, S., Saatchi, R.M., Roman Cuesta, Y., Malhi, L., Aragao, rainforest, tropical terra, characteristics, sizes, M., Williams, Y., Malhi, J., Athaydes, P., Goncalves, A., Braga, S., Almeida, A., Da Costa, L.E.O.C., Aragao, P., Meir, D., Metcalfe, Amazon dieback, predictions, uncertainty, Y., Malhi, R.A., Betts, C.D., Jones, P.M., Cox, P.P., Harris, S., Sitch, B.B.B., Booth, L., Mercado, R.A., Fisher, C., Huntingford, social sciences, ecosystem, climate, new perspectives, Amazon, future, J.T., Roberts, Y., Malhi, R.A., Betts, A., Lezama, Torres, J., Terborgh, N., Silva, R., Salamão, A., Rudas, H., Angulo, Ramírez, P., Núñez Vargas, N.C.A., Pitman, A.P., Cruz, W.F., Laurance, T.J., Killeen, H., Keeling, C.E., Honorio, A., Di Fiore, T., Erwin, J., K, Chao, A., Andrade, S., Andelman, E.A., Dávila, P., Zelazowski, R., Vásquez, J., Stropp, H., ter Steege, A.S., Thomas, M., Silveira, J., Silva, M., Schwarz, F., Ramírez, A., Prieto, M.C., Peñuela, S., Patiño, D., Nepstad, D.A., Neill, A., Morel, C., Mendoza, P., Meir, G., Lloyd, E., Jiménez, N., Higuchi, E., Gloor, M.A., Freitas, T.R., Feldpausch, C.I., Czimczik, N., Dávila Cardozo, A.C., Oliveira, Alves, J., Chave, P., Brando, D., Bonal, L., Blanc, O., Bánki, T.R., Baker, G., Aymard, L., Arroyo, I., Amaral, S., Almeida, G., Heijden, van, C.A., Quesada, J., Peacock, A., Monteagudo, Y., Malhi, G., González, López, J., Lloyd, J.B., Fisher, S.L., Lewis, L., Aragao, O.L., Phillips, O.L., Phillips, Y., Malhi, I., Vieira, R., Martinez, Vasquez, A., Lezama, Torres, S.S., de Almeida, M., Silveira, N., Silva, R., Salomao, A., Rudas, S.N., Panfil, A., Prieto, N., Priante, N., Pitman, M.C., Penuela, P., Vargas, Nunez, D., Neil, A., Monteagudo, P., Meir, F., Luizao, E., Leal, T., Killeen, N., Higuchi, R., Herrera, A.C.L., Costa, J., Chave, D., Bonal, C., Baraloto, L., Arroyo, E., Alvarez, P., Vitzthum, B., Villanueva, J.D., Turriago, A., Sota, C., Sarmiento, A., Cruz, Pena, J., Peacock, W., Palomino, E.M., Jimenez, E.J., Hoyos, V., Horna, J., Gallo, C.I., Czimczik, A., Aguilar, A.J.B., Santos, M., Schwarz, J., Schmerler, L.M., Mercado, C.A., Quesada, T.R., Baker, R., Paiva, J., Lloyd, S., Patiño, M., Williams, Y., Malhi, L.A., Dawson, S.S., de Almeida, J.D., Silva, P.H.L., Goncalves, A.P., Braga, A.C.L., da Costa, L.E.O.C., Aragao, P., Meir, D.B., Metcalfe, L.M., Teixeira, A.L., Robertson, E.H., Pyle, S., Patino, P., Oliveira, L.R., Hutyra, A.C.L., da Costa, J.Q., Chambers, P., Brando, L., Anderson, S., Almeida, C.A., Quesada, R., Paiva, D.B., Metcalfe, L., Aragao, Y., Malhi, P., Meir, C., McSweeney, S., Sitch, P., Zelazowski, R., Fisher, C., Huntingford, D., Galbraith, L., Aragao, Y., Malhi, A.H., Ramírez, W.F., Laurance, R., Martínez, Vásquez, R.P., Salamão, A., Prieto, N.C.A., Pitman, D.A., Neill, A., Monteagudo, T.J., Killeen, N., Higuchi, S., Almeida, L., Arroyo, L.O., Anderson, T.R., Baker, G., González, López, J., Peacock, O.L., Phillips, A., Araújo, Murakami, C.A., Quesada, L., Aragao, N., Butt, H., ter Steege, R.J., Ladle, Y., Malhi, R.J., Whittaker, A.C.M., Malhado, W.F., Laurance, R., Martínez, Vásquez, R.P., Salomão, A., Prieto, N., Pitman, D., Neill, A., Monteagudo, T.J., Killeen, N., Higuchi, S., Almeida, L.O., Anderson, R., Baker, G.T., González, López, J., Peacock, L., Arroyo, A., Murakami, Araújo, C.A., Quesada, L., Aragao, N., Butt, O.L., Phillips, H., ter Steege, R.J., Ladle, R.J., Whittaker, Y., Malhi, A.C.M., Malhado, H., Woll, R., Votere, S.C., Thomas, D., Taylor, J., Taplin, M.D., Swaine, T., Sunderland, D., Sheil, K.S.H., Peh, J., Peacock, H.J., Ndangalasi, F.M., Mbago, Y., Malhi, J.R., Makana, J.C., Lovett, J., Lloyd, A., Hladik, T., Hart, M., Gloor, A.C., Hamilton, T.R., Feldpausch, C.E.N., Ewango, M.N., Djuikouo, J.A., Comiskey, L., White, J.M., Reitsma, O.L., Phillips, L.O., Ojo, T.R., Baker, K., Baffoe, Affum, B., Sonke, G., Gonzalez, Lopez, S.L., Lewis, G., Heijden, Van, R., Vásquez, J., Terborgh, A., Torres, N., Silva, H., Ter Steege, A., Rudas, H., Ramírez, F., Ramírez, J., Stropp, M., Schwarz, M., Silveira, R., Salomão, C., Quesada, N., Pitman, A., Prieto, A., Peña Cruz, M.C., Peñuela, P., Núñez Vargas, D., Nepstad, D., Neil, A., Andrade, A., Monteagudo, C., Mendoza, W., Laurance, T., Killeen, E., Jiménez, E., Honorio, N., Higuchi, R., Herrera, A., Freitas, T.R., Feldpausch, A., Fiore, J., Silva, T., Erwin, N., Dávila, J., Chave, J., K, Chao, P., Brando, D., Bonal, L., Blanc, O., Bank, G., Aymard, L., Arroyo, I., Amaral, E., Alvarez, A.C., Oliveira, Alves, S., Almeida, J., Peacock, G., Gonzalez, López, T.R., Baker, Y., Malhi, S.L., Lewis, J.J., Lloyd, O.L., Phillips, M., Gloor, J., Lloyd, O.L., Phillips, Y., Malhi, G., Gonzalez, Lopez, I.C.G., Vieira, M., Silviera, A., Rudas, A., Prieto, N., Silva, D.A., Neill, F.J., Luizao, E.M., Jimenez, L., Arroyo, A., Santos, L.M., Mercado, V., Horna, M., Schwarz, R., Paiva, C.A., Quesada, L.A., Martinelli, G.B., Nardoto, T.R., Baker, S., Patino, N.M., Fyllas, C., Von Randow, K.P., Tu, N., Tanaka, K., Tanaka, S., Saleska, O., Roupsard, S., Panuthai, S.F., Oberbauer, Y., Nouvellon, A.D., Nobre, S., Miller, H.W., Loescher, T., Kumagai, H., Kondo, A.R., Huete, T., Hirano, M.L., Goulden, M., Gamo, A.C., De Araujo, H.R., Da Rocha, D., Bonal, Y., Malhi, J.B., Fisher, J., Lloyd, S.L., Lewis, C.A., Quesada, J., Peacock, G.L., Gonzalez, Y., Malhi, J.N.M., Silva, D.A., Neill, A., Monteagudo, H., Nascimento, S.G., Laurance, T.J., Killeen, N., Higuchi, T., Erwin, A., DiFiore, L., Arroyo, S., Almeida, N.C.A., Pitman, W.F., Laurance, O.L., Phillips, T.R., Baker, soils, Amazonian forests, productivity, ground, O.L., Phillips, N., Salinas, A.C.L., Costa, S., Almeida, D., Navarrete, E., Jimenez, J.E., Espejo, Silva, D.B., Metcalfe, Y., Malhi, L., Aragao, S., Almeida, C.A., Quesada, J., Peacock, P., Vargas, Nunez, A., Monteagudo, G., Gonzalez, Lopez, W.F., Laurance, N., Higuchi, J.S., Espejo, A.C.L., Costa, T., Baker, O.L., Phillips, Y., Shimabukuro, L., Aragao, R.J., Ladle, Y., Malhi, L.O., Anderson, K.C., Garcia, K.J., Feeley, M.B., Bush, D.H., Urrego, Y., Malhi, A., Gibbon, A., Fedders, M.R., Silman, P., Meir, M., Zimmermann, E., Vilanova, R., Vasquez, J.R.D., Taplin, J., Stropp, A., Sota Thomas, B., Sonke, J.W., Ferry Slik, M., Silveira, J., Silva, M., Schwarz, R., Salamao, A., Rudas, H., Ramirez, F., Ramirez, C.A., Quesada, A., Prieto, A., Pena Cruz, H., K.S, Peh, S., Patino, P., Nunez Vargas, A., Morel, C., Mendoza, P., Meir, J.C., Lovett, T.J., Killeen, H., Keeling, E., Jimenez, E., Honorio, N., Higuchi, E., Gloor, D., Galbraith, M.A., Freitas, N.M., Fyllas, J.B., Fisher, T.R., Feldpausch, L., da Costa, N., Davila Cardozo, J., K, Chao, A.C., Oliveira, Alves, D., Bonal, L., Blanc, T.R., Baker, G., Aymard, L., Arroyo, A., Andrade, S., Andelman, I., Amaral, E.A., Davila, S., Almeida, A., Monteagudo, Y., Malhi, J., Lloyd, L.E.O.C., Aragao, G., Gonzalez, Lopez, S.L., Lewis, G., Heijden, van, O.L., Phillips, M., Williams, Y., Malhi, A.A.R., de Oliveira, T.T.B., Portela, M., da Costa, J., de Athaydes, P.H.L., Gonçalves, A.P., Braga, S.S., de Almeida, A.C.L., da Costa, J.P., Maroco, M.M., Chaves, R.A., Fisher, D., Galbraith, R., Vale, Lobo, L., Aragao, P., Meir, D.B., Metcalfe, P., Meir, M., Williams, V., Hurry, C., Campbell, S.S., Almeida, M., Da Costa, J., De Athaydes, P.L., Goncalves, A.P., Braga, A.L., Da Costa, Y., Malhi, L., Aragao, J.P., Maroco, M.M., Chaves, R., Vale, Lobo, D.B., Metcalfe, H., Angulo, Ramírez, W.F., Laurance, R., Martínez, Vásquez, R.P., Salomão, A., Prieto, N.C.A., Pitman, A., Monteagudo, T.J., Killeen, N., Higuchi, S., Almeida, L., Arroyo, T.R., Baker, L., Aragao, O., Phillips, H., ter Steege, R.J., Ladle, Y., Malhi, R.J., Whittaker, A.C.M., Malhado, R.J., Whittaker, N., Salinas, M., Silman, J.E., Espejo, Silva, J., Rapp, K.J., Feeley, L., Durand, H., Huaraca Huasco, M., Mamani, L., Aragao, Y., Malhi, C.A.J., Girardin, K.C., Garcia, W.R., Farfan, G.C., Dargie, M., Zimmermann, P., Meir, J.B., Fisher, Y., Malhi, M.R., Silman, A., Model Gibbon, results, Amazonian forests, biomass, spatial distribution, key driver, Mortality, Y., Malhi, P., Stevenson, O.L., Phillips, M.C., Penuela, S., Patino, E., Jimenez, P., von Hildebrand, J.Y., Goret, J.E., Espejo, Silva, P., Chatelet, D., Bonal, L.E.O.C., Aragao, E., Alvarez, S., Almeida, D., Navarrete, J., Chave, gradient, experiment, leaf, results, temperature, decomposition, tropical leaf, sensitivity, M., Mamani, A., Gibaja, V., Huaman, D., Salinas, J., Huaman, R.M., Roman Cuesta, M., Silman, P., Meir, Y., Malhi, N., Salinas Revilla, Y., Malhi, T., Knoke, S., Günter, B., Stimm, M., Weber, R., Mosandl, M., Silman, D.Y., Jordán, R., Astete, M., Rojas, D., Yabar, J., Kalad, L., Puelles, Y., Gutiérrez, V., Huaman, I., Oliveras, H., Asbjornsen, N., Salinas Revilla, R.M., Roman Cuesta, data, satellite, climate, models, forests, alpha diversity, S.L., Lewis, M.E., Leal, W.D., Hawthorne, F., Bongers, Y., Malhi, S., Saatchi, E.T., Mitchard, W., Buermann, R.J., Harrigan, I., Parmentier, Y., Malhi, L.E.O.C., Aragao, O.L., Phillips, C.A., Quesada, S., Sitch, G.P., Weedon, N.M., Fyllas, T.F., Domingues, S., Patino, L.M., UNFCCC Mercado, REDD+, changes, carbon, stock, forest, data, commercial forest, potential, L., White, M., Schwartzenberg, L., Tellier, M., Henry, S., Saatchi, N., Barbier, D., Mollicone, L.S., Andre, Y., Malhi, D., Maniatis, S., Saatchi, M.N., Quisiyupanqui, N.S., Revilla, P., Meir, Y., Malhi, K.G., Cabrera, W., Farfan, M.B., Bush, M.R., Silman, K.J., Feeley, Y., Malhi, A., Hall, E., Gloor, T.R., Feldpausch, E., Boyd, T.R., Baker, L.E., Aragao, L., Anderson, R.M., Ewers, J., Barlow, habitat, management, water, implications, woodlands, functional traits, hydraulic properties, Functional coordination, I.A., Janssens, E.D., Schulze, M., Reichstein, S.L., Piao, D., Papale, Y., Malhi, B.E., LAw, W.L., Kutsch, P., Hogberg, A., Heinemeyer, P., Ciais, F.S., Chapin, M., Campioli, J., Penuelas, S., Luyssaert, S., Vicca, T., Wiegand, D.A., Wardle, L.A., Turnbull, J.M.J., Travis, K., Thompson, D.C., Reuman, J.M., Reid, D.W., Purves, A.B., Phillimore, K., Norris, E.J., Gulland, Milner, N., Mieszkowska, Y., Malhi, O.T., Lewis, X., Lambin, W.E., Kunin, H., Kokko, M.J., Keeling, J.P.G., Jones, D., Johnson, M.J., Hutchings, D.J., Hodgson, G.C., Hays, R.S., Hails, M.C., Emmerson, T., Coulson, D.A., Coomes, Y., Carme, D.D., Cameron, T., Benton, S.R., Beissinger, H.C.J., Godfray, R.P., Freckleton, W.J., Sutherland, J., Lloyd, J., Terborgh, I., Bieira, R., Vasquez, M., Silveira, N., Silva, J., Schmerler, A.J.B., Santos, R., Salomao, A., Rudas, h., Ramirez, A., Prieto, N., Priante Filho, N., Pitman, A., Pena Cruz, M.C., Penuela, J., Peacock, R., Paia, P., Nunez Vargas, D.A., Neill, A., Monteagudo, Y., Malhi, F.J., Luisao, G., Gonzalez, Lopez, G.L., Lloyd, A.T., Lezama, T., Killeen, E.M., Jimenez, E., Honorio Coronado, N., Higuchi, A., Fiore, T., Erwin, N., Dezzeo, K.J., Chao, L., Arroyo, A., Arneth, E., Alvarez Davila, S., Almeida, R., Herrera, M.G., Hodnett, N.M., Fyllas, S., Patino, T.R., Baker, C.I., Czimczik, M., Schwarz, O.L., Phillips, C.A., PALSAR Quesada, ALOS, Landsat ETM+, Malaysia, Sabah, palm, oil, forest, biomass, R.J., Williams, N., Coupe, Restrepo, A.D., Friend, N., Revilla, Salinas, J.B., Fisher, D.R., Galbraith, R.A., Fisher, L.M., Mercado, J.M., Rapp, D.B., Metcalfe, L.E.O.C., Aragão, J.E., Silva Espejo, C.A.J., Girardin, Y., Malhi, T.R., Marthews, schemes, evaluation, site, tropical lowland, cloudy conditions, radiation, C.H.M., Malhado, H., Angulo, Ramírez, N.C.A., Pitman, L.E.O.C., Aragao, W.F., Laurance, O., Phillips, N.N., Fabré, H., ter Steege, R.J., Ladle, R.J., Whittaker, Y., Malhi, C.M., Malhado, Amazonian plant, diversity, distributions, sensitivity, change, deforestation, relative importance, L., Zemagho, H., Woell, S., Willcock, L.J.T., White, J., Vleminckx, H., Verbeeck, B., Toirambe, S.C., Thomas, D., Taylor, J.R.D., Taplin, J., Talbot, H.E., Taedoumg, K., Steppe, M., Simo, D., Sheil, J.M., Reitsma, J.R., Poulsen, G., Pickavance, K.S.H., Peh, L., Ojo, A.R., Marshall, Y., Malhi, J.R., Makana, J.C., Lovett, J., Lloyd, M.E., Leal, E., Kearsley, K.J., Jeffery, P., Jeanmart, D., Huygens, K., Hufkens, A., Hladik, T., de Haulleville, T.B., Hart, D.J., Harris, A.C., Hamilton, J.F., Gillet, E.G., Foli, T.R., Feldpausch, S., Fauset, C.E.N., Ewango, J.L., Doucet, V., Droissart, M.N.K., Djuikouo, G., Djagbletey, M., Collins, C.J., Clark, E., Chezeaux, C., De Cannière, J., Bogaert, P., Boeckx, H., Beeckman, J.F., Bastin, L., Banin, T.R., Baker, K., Baffoe, Affum, O.L., Phillips, G.M.F., Heijden, van, G., Gonzalez, Lopez, S.K., Begne, T., Sunderland, B., Sonké, S.L., Lewis, P.M., Cox, J., Marengo, C., Nobre, P.P., Harris, R., Betts, P., Meir, J., Castells, Zaragoza, E., Gloor, J., Lloyd, O.K., Atkin, O.L., Phillips, S.L., Lewis, P., Good, G., Kay, D., Heming, Y., Malhi, B.B.B., Booth, C.D., Jones, A.P., Walker, M., Lomas, R., Fisher, S., Sitch, L.M., Mercado, D., Galbraith, P., Zelazowski, C., Huntingford, R.J., Whittaker, J.E., Espejo, Silva, M., Mamani, L., Durand, D.B., Metcalfe, W., Huaraca Huasco, Y., Malhi, L.E.O.C., Aragão, C.A.J., Girardin, Y., Malhi, S., Saatchi, C., Frankenberg, P.E., Levy, M.R., Lomas, A., Ahlström, N., Zeng, N., Viovy, C., Huntingford, J.E., Lee, D., Galbraith, B., Poulter, P., Ciais, S., Sitch, M., Sikka, J.B., Fisher, J., Wang, L.A., Solorzano, S.R., Saleska, T.L., Powell, M.N., Muza, P.R., Moorcroft, Y., Malhi, N.M., Levine, H.W.A., Imbuzeiro, L.R., Greenglass, D.R., Galbraith, M.H., Costa, T.R., Marthews, M.T., Peruvian Andes Coe, organic carbon, source, Insight, Amazon River, carbon, New views, A., Robles Caceres, P.L., Ascough, C.L., Bryant, D.R., Grocke, A.J., West, R.G., Hilton, M., New, Y., Malhi, K.E., Clark, R.J., Scholes, C.A., Williams, G.R., Werf, van, L., Vaflio, S., Sitch, M., Santini, P.A., Raymond, B., Poulter, P., Peylin, D., Papale, G., Tortarolo, Murray, L., Merbold, E., Mayorga, Y., Malhi, W.L., Kutsch, M., Jung, R.A., Houghton, M., Henry, J., Hartmall, E., Grieco, P., Ciais, F., Chevallier, R.C., Gatti, S., Castaldi, A., Bombelli, A., Arneth, R., Valentini, O.L., Phillips, J., Stropp, M., Silveira, C.A., Quesada, N., Pitman, G.A.P., Guitierrez, P.N., Vargas, D., Neill, T., Killeen, H., Keeling, G., Heijden, van, T., Erwin, K., Chao, L.P., Arroyo, A.A., Murakami, M., Vanderwel, Y., Malhi, T.R., Feldpausch, T.R., Baker, A., Monteagudo, R.J.W., Brienen, G., Gonzalez, Lopez, S.L., Lewis, J., Talbot, M., Vuille, H., Asbjornsen, I., Oliveras, Y., Malhi, T., Knoke, M., Silman, M., G.,New, Lizcano, C., Moreno, Carmona, R.M., Cuesta, Román, Brazil, Mato Grosso, Amazon rainforest, dry southern limit, forest, cycling, productivity, Y., Malhi, J.K., Balch, D.C., Nepstad, K., Halladay, D., Silvério, P., Brando, C.E., Doughty, D.B., Metcalfe, W., Rocha, J., Chave, J.K., Zimmerman, C.E., Zartman, Z., Yuan, S., Yap, A.T., Wolf, A., Vicentini, R., Valencia, M., Uríarte, J., Thompson, D.W., Thomas, U., Suwanvecho, H.S., Suresh, R., Sukumar, J., Schurman, R., Salim, R., Manage, Punchi, N., Pongpattananurak, R.P., Phillips, A.A., Oliveira, C.J., Nytch, N.S.M., Noor, A., Nathalang, R., Muscarella, W.J., McShea, S.M., McMahon, R.W., McEwan, T.R., Marthews, Y., Malhi, J.R., Makana, J.A., Lutz, Y., Lin, L., Lin, A.J., Larson, D., Kenfack, D.J., Johnson, S.P., Hubbell, R.W., Howe, B., Hérault, T.B., Hart, K.E., Harms, Z., Hao, I.A.U.N., Gunatilleke, C.D., Fletcher, R.H.S., Fernando, C., Ewango, S., Esufali, A., Duque, S.J., Davies, H.S., Dattaraja, R., Condit, K., Clay, G.B., Chuyong, J.M., Chiang, D., Cárdenas, M., Cao, W.Y., Brockelman, N., Butt, S., Bunyavejchewin, N.A., Bourg, J.S., Silva, Barreto, S.S., Saatchi, T., Le Toan, S.C., Thomas, M., Detto, H.C., Landau, Muller, M., Méchain, Réjou, R., Cuesta, Román, N., Morales, Lizarraga, I., Torres, Cuba, J.A., Loaiza, Quintano, J., Mamani, Kala, E., Flores, Urquiaga, V., Huaman, N., Salinas, Y., Malhi, I., Oliveras, O.L., Phillips, Y., Malhi, C.E., Zartman, O., Wang, V.A., Vos, E., Torre, Vilanova, S., Vieira, I.C.G., Vieira, G.M.E., Heijden, van, T.R., Andel, A., Lezama, Torres, M., Toledo, R., Thomas, J., Terborgh, J., Stropp, M.K., Steininger, P.F., de Souza, M., Silveira, J., Schietti, R.P., Salomao, A., Rudas, K.H., Roucoux, A., Roopsind, Z.R., Correa, H., Angulo, Ramirez, A., Prieto, L., Poorter, C.A., Peres, N., Pittman, M., Claros, Pena, G.P., Molina, A., Parada, W.A., Palacios, M.P., Nunez Vargas, D., Neill, M.T., Nascimento, P., Mishra, I.M., Polo, B.H., Marimon Junior, B.S., Marimon, W.E., Magnusson, C., Levis, W.F., Laurance, T.J., Killeen, E.N.H., Coronado, N., Higuchi, R., Frederickson, T.L., Erwin, T.F., Domingues, A.D., Fiore, F.R.C., Costa, L., Costa, M.C., Medina, F., Cornejo, J.A., Comiskey, J., Chave, V.C., Moscoso, C.E., Caron, F.I., Brown, S., Brown, D., Bonal, O., Banki, G., Aymard, L., Arroyo, L.E.O.C., Aragao, A., Murakami, Araujo, E., Alvarez, P., Meir, H., Steege, M., Gloor, C.A., Quesada, J., Lloyd, S.L., Lewis, T.R., Baker, A., Monteagudo, G.L., Gonzalez, Lopez, R.J.W., Brienen, T.R., Feldpausch, E.T.A., Mitchard, Y., Malhi, C.E., Doughty, C.A.J., Girardin, R., Tupayachi, N.S., Revilla, P.C., Guerra Bustios, J.M., Laupa Román, B.L., Puma Vilca, M.M., Solórzano, A.R., Dávila, L.E., Mora, I.A., Taype, L.P., Huaraca Quispe, F., Sinca, L.D., Baca, D.F., Galiano Cabrera, L., Jimenez, Carranza, F.F., Farfán Amézquita, W.H., Huasco, J.E., Silva Espejo, R.E., Martin, G.P., Asner, D.B., Metcalfe, O.L., Phillips, P., Meir, N., Salinas, Y., Tapia, Pelaez, C.M., Villagra, Rojas, J., Castells, Zaragoza, J.B., Fisher, A.L., Robertson, C.A., Quesada, K., Halladay, T.R., Marthews, L., Mora, Eguiluz, I., Taype, Alzamora, L.P., Quispe, Huaraca, L.E.O.C., Aragão, D.B., Metcalfe, C.A.J., Girardin, J.E., Espejo, Silva, C.E., Doughty, F., Farfán Amézquita, Y., Malhi, Y., Malhi, P., Meir, M.R., Silman, N., Revilla, Salinas, K., Halladay, K.G., Cabrera, W., Rios, Farfán, L.E., Mora, I., Taype, Alzamora, L.P., Quispe, Huaraca, T.R., Marthews, A.R., Davila, L.E.O.C., Aragão, D.G., Cabrera, J.E., Espejo, Silva, L.D., Baca, D.B., Metcalfe, C.E., Doughty, C.A.J., Girardin, W., Huaraca Huasco, respiration, inputs, Peru, forests, elevation, gradient, dynamics, woody, Y., Malhi, M.R., Silman, D.B., Metcalfe, J.E., Espejo, Silva, W., Rios, Farfan, C.E., Doughty, K.G., Cabrera, W.H., Huasco, A., Dávila, Rozas, L.E.O.C., Aragão, D.J., Gurdak, Y., Malhi, P., Meir, M.R., Silman, N., Revilla, Salinas, L., Mora, Eguiluz, I., Taype, Alzamora, L.P., Quispe, Huaraca, D.F., Cabrera, Galiano, J.B., Fisher, K., Halladay, K., Cabrera, García, W., Rios, Farfán, L.E.O.C., Aragao, T.R., Marthews, L., Baca, Durand, D.B., Metcalfe, W., Huaraca Huasco, C.E., Doughty, J.E., Silva Espejob, C.A.J., Girardin, L.E.O.C., Arago, C.E., Doughty, D.B., Metcalfe, W., Farfan Rios, K., Garcia Cabera, J.E., Espejo, Silva, M., Mamani, N., Salinas, W., Huaraca Huasco, P., Meir, M.R., Silman, J.M., Rapp, K.J., Feeley, Y., Malhi, C.A.J., Girardin, Y., Malhi, T.J., Killeen, M.J., Macía, M., los Angeles La Torre Cuadros, C.J., Caballero, M., Serrano, D.A., Neill, C., Reynel, N., Salinas, M., Silman, C., Maldonado, A.F., Fuentes Claros, N., Paniagua, R., Seidel, L., Cayola Pérez, A., Araujo Murakami, P.M., Jørgensen, K.J., Feeley, K., Garcia, W., Rios, Farfan, C.A.J., Girardin, J., Lloyd, O.L., Phillips, J., Grace, H., Rocha, L.O., Anderson, R., Braz, S., Freitas, V.F., Borges, C.S.C., Correia, A., Martinewski, L.S., Basso, L.G., Domingues, Y., Malhi, C.E., J.B. Doughty, Miller, M., Gloor, L.V., Gatti, J., Lloyd, O.L., Phillips, Y., Malhi, G.A., Aymard, L., Ferreira, M., Silveira, D.A., Neill, N., Higuchi, H., Angulo, Ramirez, E., Vilanova, A., Lezama, Torre, D.R., Galbraith, T.F., Domingues, C.A., Quesada, S., Sitch, L.M., Mercado, E., Gloor, N.M., Fyllas, J., Penuelas, M., Reichstein, S.L., Piao, D., Papale, M., Obersteiner, Y., Malhi, P., Ciais, F.S., Chapin III, M., Camploll, S., Luyssaert, J., Sardans, I.A., Janssens, S., Vicca, M., Martinez, Fernandez, O.L., Phillips, D.S., Boyd, G., Asner, R.J.W., Brienen, T.R., Feldpausch, T.R., Baker, G., Gonzalez, Lopez, A.M., Mendoza, V., Duarte, Y.E., Shimabukuro, M., Palace, S., Frolking, J., Lloyd, C., Pereira, R.C., Oliveira Junior, B., Nelson, S., Saatchi, Y., Malhi, M., Keller, M., Gloor, F.D.B., Santo, Espirito, O.L., Phillips, E., Vilanova, A., Lezama, Torres, R., Thomas, J.W., Terborgh, H., ter Steege, M., Silveira, M., Schwarz, H., Angulo, Ramirez, A., Cruz, Peña, G., Alexander Parada, D., Neill, A., Monteagudo, E.M., Oblitas Mendoza, Y., Malhi, T.J., Killeen, E.N., Honorio C., C.V., Castilho, O., Bánki, A., Araújo, E., Álvarez, J., Chave, T.R., Baker, R.J.W., Brienen, T.R., Feldpausch, J., Schietti, W.E., Magnusson, F.R.C., Costa, C.A., Quesada, T., Emilio, forest, eastern Amazonia, soil, fertile terra, forest, carbon, cycling, allocation, production, Y., Malhi, A.C.L., da Costa, K., Halladay, C.A.J., Girardin, C.A., Quesada, S.S., Almeida, L.E.O.C., Aragão, J.A., Silva, G.F.C., Netoc, A.A.R., Oliveira, M.C., da Costa, D.B., Metcalfe, C.E., Doughty, L., Vare, R., Rivero, M., Valencia, M., Martinez, V.D., Landivar, Rojas, L.M., Mendizabal, E., Toledo, Pardo, J.P., Heredia, L., Arroyo, J.E., Espejo, Silva, D.B., Metcalfe, A., Murakami, Araujo, Y., Malhi, C.E., Doughty, Y., Malhi, O., Phillips, D., Castillo Torres, K., Halladay, J.M., Reyna Huaymacari, C.G., Hidalgo, C.A., Quesada, G.E., Aguilar, Navarro, J.A., Chung Gutierrez, C.A.J., Girardin, J.E., Espejo, Silva, D.B., Metcalfe, C.E., Doughty, J., Pasquel, Aguila, Y., Malhi, P., Meir, L.M., Rowland, D.R., Galbraith, S., Almeida, L.E.O.C., Aragão, J., Athaydes Silva Junior, M.C., da Costa, G.F.C., Neto, A.A.R., de Oliveira, C.E., Doughty, D.B., Metcalfe, A.C.L., Costa, Y., Malhi, A., Robles Caceres, J.M., Rapp, J.B., Fisher, A.B., Horwath, M., New, R.G., Hilton, A.J., West, M.A., Torres, K.E., Clark, O.L., Phillips, S., Almeida, T.R., Baker, A., Andrade, R., Luizão, S., Laurance, W.F., Laurance, G., Gonzalez, Lopez, S.L., Lewis, M.J., Macía, M., New, Y., Malhi, N., Butt, O.L., Phillips, V.A., Vos, E., Vilanova, I.C.G., Vieira, R., Vasquez, A., Lezama, Torres, M., Toledo, J., Terborgh, H., Steege, W., Spironello, M.F., Simon, M., J.N.M.,Silveira, Silva, A., Sagalom de Amdrade, R.P., Salomao, A.R., Ruschel, A., Rudas, H., Ramirez Angulo, F., Ramirez, C.A., Quesada, A., Prieto, N., Pitmann, M.C., Mora, Penuela, D., Neill, A.M., Mendoza, B.H., Junior, Marimon, B.S., Marimon, Y., Malhi, S.L., Lewis, C., Leano, S., Laurance, T.J., Killeen, I., Humamantupa, E., Honorio, N., Higuchi, G., Heijden, van, G., Gonzalez, Lopez, L., Ferreira, T.R., Feldpausch, K.G., Dexter, J., Chave, R.J.W., Brienen, D., Bonal, L., Arroyo, I., Amaral, A., Oliveira, Alves, G., Aymard, E.J.M.M., Arets, A., Aruajo, E., Alvarez, M., Alexiades, W.F., Laurance, E., Gloor, S., Magallon, R.T., Pennington, T.R., Baker, Y., Malhi, T.J., Killeene, C.A.J., Girardin, K., Halladay, V.D., Landivar, Rojas, L., Moreno, M., Vega, E., Toledo, Pardo, L.M., Mendizabal, R., Sibler, M., Flores, J.P., Heredia, L., Arroyo, J.E., Espejo, Silva, D.B., Metcalfe, C.E., Doughty, A., Murakami, Araujo, J., Zimmerman, S., Yap, H., Xu, A., Wolf, G., Weiblen, X., Wang, X., Wang, T., Vrska, A., Vicentini, M.I., Vallejo, R., Valencia, M., Uriarte, B.L., Turner, J., Thompson, D.W., Thomas, S.C., Thomas, S., Tan, H.S., Suresh, W., Sungpalee, I.F., Sun, R., Sukumar, K., ngernyuang, Sri, W., Sang, N., Sainge, L., Sack, R.P., Philips, G.G., Parker, J., Ouden, R., Ostertag, D.A., Orwig, P.A., Ong, A.A., Oliveria, V., Novotny, J.A., Myers, M., Morecroft, T., Mizuno, X., Mi, H.R., Memiaghe, W.J., McShea, S.M., McMahon, R.F., Serudin, T., Marthews, Y., Malhi, J.R., Makana, D.M., Maddalena, K., Ma, J.A., Lutz, S.K.Y., Lum, S., Liu, X., Li, Y., Li, A.J., Larson, J., Kumar, K., Kra, L., Korte, M.F., Kinnaird, S., Kibet, D., Kenfack, A.R., Kassim, M., Kanzaki, D.J., Johnson, M., Jiang, P.A., Jansen, F.M., Narahari, Inman, S.P., Hubbell, R.W., Howe, F.M., Hoffman, F., C.H., Hau, T.B., Hart, W.W., Hargrove, Z., Hao, S., Guntatilleke, N., Gunatilleke, G.S., Gilbert, C.P., Giardina, R.B., Foster, C., Fletcher, G.A., Fischer, C.E.N., Ewango, D.L., Erikson, D., Duque, X., Du, M., Detto, X., Deng, H.S., Dattaraja, S., Cordell, K., Clay, G.B., Chuyong, D., Cardenas, M., Cao, N., Butt, D.F.R.P., Burslem, S., Bunyavejchewin, W.Y., Brockelman, E.N., Broadbent, N.A., Y. Bourg, Basset, J.L., Baltzer, A., Alonso, A.M., Zambrano, Almeyda, K., Abu Salim, W.S., Joseph, H.C., Landau, Muller, E.B., Akre, Gonzalez, A.C., Bebbett, S.J., Davies, K.J., Teixeira, Anderson, P.R., Moorcroft, J., Wang, S., McKnight, R.G., Knox, M., Longo, Y., Malhi, M.H., Costa, M.T., Coe, R.L., Bras, N.M., Levine, S., Moghim, D.R., Galbraith, A.D., de Almeida Castanho, K., Southern Chile Zhang, Temperate Forests, Fitzroya, Slow Carbon Dynamics, Massive Biomass, World, Slowest Rainforests, Oldest, M., Williams, P., Meir, P.R., Moorcroft, S.R., Saleska, Y., Malhi, N.M., Levine, C., Doughty, T.L., Powell, H.M.A., Imbuzeiro, D.R., Galbraith, B.O., Christoffersen, A., Harper, L., Rowland, P., Meir, M., Mencuccini, J., Grace, Y., Malhi, L.V., Ferreira, S.S., Vasconcelos, D.B., Metcalfe, C.E., Doughty, A.M., Pullen, A.A.R., Oliveira, O.J., Binks, R.S., Oliveira, D.R., Galbraith, A.C.L., da Costa, L., Rowland, O.L., Phillips, P., Meir, D., Silverio, N., Revilla, Salinas, W., Rocha, C.A., Quesada, D.R., Galbraith, F.F., Amezquita, J.E., Espejo, Silva, A.C.L., da Costa, P., Brando, A., Murakami, Araujo, L.E.O.C., Aragao, J., Pasquel, Aguila, T.R., Marthews, C.A.J., Girardin, G.R., Goldsmith, C.E., Doughty, Y., Malhi, A.I., Lyapustin, J., Joiner, J., Berry, S., Saleska, J.S., Kimball, M., Liang, Y., Malhi, E.F., Wood, J., Sheffield, K.K., Caylor, D., Medvigy, J., Wu, A., Wolf, H., Li, M., Pan, K., Guan, efficiency, carbon, nutrients, role, Data quality, balance, global forest, nutrient availability, Uncertain effects, Reply, J., Penuelas, F., Roda, M., Reichstein, S.L., Piao, D., Papale, M., Obersteiner, Y., Malhi, P., Ciais, F.S., Chapin III, M., Campioli, S., Luyssaert, J., Sardans, A., Janssens, S., Vicca, M., Martinez, Fernandez, P.N., Vargas, E., Allie, J., Chave, W.F., Laurance, S.G.W., Laurance, L.C., Camargo, A., Andrade, P., Petronelli, J., Engel, C., Baraloto, N.C.A., Pitman, H., Steege, Y., Malhi, G., Gonzalez, Lopez, T.R., Feldpausch, R.J.W., Brienen, A., Monteagudo, T.R., Baker, M., Gloor, M.O., Johnson, S., Fauset, Y., Malhi, O.L., Phillips, P., Meir, A.C.L., da Costa, A.L.M., Mendoza, T.R., Feldpausch, W., Rocha, M.C., da Costa, A., Murakami, Araujo, J.E., Espejo, Silva, W., Huaraca Huasco, D., Galiano Cabrera, F., Farfan Amezquita, C.A.J., Girardin, D.B., Metcalfe, C.E., Doughty, Y., Malhi, D., Galbraith, P., Meir, W., Rocha, A.C.L., da Costa, M.C., da Costa, A., Murakami, Araujo, J.E., Espejo, Silva, W., Huaraca Huasco, L., Durand, F.F., Amezquita, C.A.J., Girardin, D.B., Metcalfe, C.E., Doughty, A.R., Townsend, W.R., Wieder, B.W., Sullivan, W.K., Smith, Y., Malhi, C.E., Doughty, K.L., Dahlin, K.D., Chadwick, P., Taylor, C.C., Cleveland, Y., Malhi, M., New, K., Halladay, A.B., Horwath, R.E., Martin, W., Rios, Farfan, S.S., Saatchi, M.R., Silman, C.A., Quesada, G.P., Asner, R.G., Hilton, A.J., West, K.E., Clark, I.A., Janssens, T., Zenone, X., Wang, F., Sullivan, J., Penuelas, S.L., Piao, D., Papale, D., Olefeldt, M., Obersteiner, Y., Malhi, M., Martinez, Fernandex, F.S., Chapin III, E., Ceschia, J., Bilcke, S., Luyssaert, S., Vicca, M., Campioli, J., Castells, Zaragoza, S., Xiang, J., Xiang, K., Wythers, I.J., Wright, C., Wirth, L.K., Weerasinghe, E.J., Veneklaas, F., Valladares, M.C., VanderWel, M.H., Turnbull, N.G., Smith, M., Slot, S., Sitch, M.G., Ryan, L.M., Rowland, N., Salinas, I.C., Prentice, P., Poot, L., Poorter, O.L., Philips, O.S., O'Sullivan, Ü., Niinemets, D., Ng, N., Mirotchnick, L.M., Mercado, P., Meir, B.E., Medlyn, Y., Malhi, T.C., Maximov, A.P., Maksimov, R.E., Martin, C.H., Lusk, J., Lloyd, M.J., Liddell, H., Lambers, J., Kattge, F.Y., Ishida, C., Huntingford, M.A., Heskel, R., Guerrieri, K.L., Griffin, T.E., Gimeno, E., Gloor, P.P.G., Gauthier, N.M., Fyllas, G.D., Farquhar, J.R., Evans, J.J.G., Egerton, J.S., Dukes, T., Domingues, K.Y., Crous, D., Creek, E.G., Cosio, L.A., Cernusak, M., Bradford, G., Bönisch, D., Bonal, G.P., Asner, M.G., Tjoelker, P.B., Reich, K.J., Bloomfield, O.K., Atkin, J., Polo Bermejo, A., Smith, Edwards, T., Potter, V., Louis, J.E.M., Wheeler, M., Parellada, Padilla, C., Barnes, B., Spies, S., Beijma, P., Veiga, Rodriguez, T., Blythe, G.M., Llewellyn, N., Veck, S., Doody, G., Burbidge, Y., Malhi, C., George, F., Gerard, S.C.M., Johnson, K., Morrison, K., Tansey, H., Balzter, R.K., Ningthoujam, community, light, tropical gradients, dominant species, area, mass, variation, Y., Malhi, B.J., Enquist, S., Díaz, G.P., Asner, A., Shenkin, N., Salinas, Y., Yllanes Choque, Y., Valdez Tejeira, A., Robles Cáceres, G., Rayme Paucar, P.S., Morandi, S., Matias Reis, J., Santos, R., Castro Ccoscco, F., Barbosa Passos, E., Almeida de Oliveira, B.H., Junior, Marimon, B.S., Marimon, I., Oliveras, L.P., Bentley, M., Neyret, Y., Malhi, T., Lovejoy, J., Licona, W.F., Laurance, S.G., Laurance, T.J., Killeen, E., Honorio, N., Higuchi, L., Ferreira, A.d, Fiore, L.d, Costa, F.V., Cornejo, A., Cogollo, J., Chave, J., Camargo, R., Boot, D., Bonal, J., Barroso, C., Baraloto, G.A., Aymard, L., Arroyo, E.J.M., Arets, A., Murakami, Araujo, L.E.O., Aragao, C., Andrade, I., Amaral, A., Oliveira, de, Alves, E.A., Alvarez, K., Zhang, P., Moorcroft, P., Meir, B., Kruijt, S., Gilvan, P., Ciais, B., Christoffersen, C.A., Quesada, S., Fauset, G., Gonzalez, Lopez, T., Feldpausch, R.J.W., Brienen, O.L., Phillips, A., Monteagudo, C.v, Randow, H., Verbeeck, K., Thonicke, A., Rammig, M., Guimberteau, H.d, Deurwaerder, E., Gloor, D., Galbraith, M.O., Johnson, G., Schrier, van, J.A., Sobrino, Y., Malhi, K., Takahashi, A., Artigas, Santamaría, J., Barichivich, C., Mattar, J.C., Muñoz, Jiménez, L., Rowland, F., Farfán Amézquita, J.E., Espejo, Silva, A.C.L., da Costa, A., Murakami, Araujo, J., Pasquel, Aguila, P., Meir, D.B., Metcalfe, C.E., Doughty, Y., Malhi, C.A.J., Girardin, V.A., Vos, E., Vilanova, R., Vásquez Martinez, G.M.F., Heijden, van, R., Caesar, Thomas, J., Terborgh, J., Stropp, H., ter Steege, M., Silveira, J.E., Espejo, Silva, R.P., Salomão, G., Saiz, A., Rudas, M., Méchain, Réjou, H., Angulo, </t>
   </si>
   <si>
     <t>[Clive Oppenheimer, Armin Linke, Monuments, Historic Sites, catalogue, Antarctic Treaty System, SPRI, founder, Frank Debenham, Raymond Priestly, men, Scott, party, Mt. Erebus, Antarctic expedition, Terra Nova, campsites, humanities, arts, volcanology, nexus, collaborations, filmmaking, his interests, Werner Herzog, INFERNO, INTO, several volcanological institutes, assessment, his work, proxy evidence, multi, society, climate, their impacts, past, large eruptions, Clive, active volcanoes, his work, addition, USA, Nicaragua, Indonesia, Eritrea, Ethiopia, Korea, North, DPR, Chad, volcanoes, studies, Antarctica, Mount Erebus, seasons, computational approaches, laboratory, field, His research, volcanic hazards, eruptions, impacts, volcanic processes, interests, Clive Oppenheimer]</t>
   </si>
   <si>
-    <t>[degenerations, disease, Alzheimer, autosomal dominant dementias, earliest manifestations, cognitive measures, biomarkers, use, familial dementias, particular interest, therapies, potential, disease, efficacy, serial MRI, cerebral atrophy, automated measures, use, related disorders, disease, Alzheimer, progression, diagnosis, MRI, use, broad grouping, My particular interest, neurodegenerative dementias, cognitive disorders, progression, monitoring, differential diagnosis, early detection, interests, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Professor Nick Eyre</t>
-  </si>
-  <si>
-    <t>Professor Colin Clarke(1)</t>
-  </si>
-  <si>
-    <t>Dr Richard Grenyer</t>
-  </si>
-  <si>
-    <t>Professor David Grey</t>
-  </si>
-  <si>
-    <t>Professor Sir Chris Llewellyn Smith</t>
-  </si>
-  <si>
-    <t>Professor Myles Allen</t>
-  </si>
-  <si>
-    <t>Honorary Research Associates</t>
-  </si>
-  <si>
-    <t>Professor David Bradley</t>
-  </si>
-  <si>
-    <t>Professor Andrew Goudie</t>
-  </si>
-  <si>
-    <t>Professor Paul Whitehead(1)</t>
-  </si>
-  <si>
-    <t>Technical</t>
-  </si>
-  <si>
-    <t>Professor Judith Pallot(1)</t>
-  </si>
-  <si>
-    <t>Professor Jim Hall</t>
-  </si>
-  <si>
-    <t>Prof. Mike Edmunds</t>
-  </si>
-  <si>
-    <t>Dr Abi Stone</t>
-  </si>
-  <si>
-    <t>Professor Danny Dorling</t>
-  </si>
-  <si>
-    <t>Professor Benito Müller</t>
-  </si>
-  <si>
-    <t>Professor John Boardman</t>
-  </si>
-  <si>
-    <t>Professor Gordon L. Clark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor Yadvinder Malhi   </t>
-  </si>
-  <si>
-    <t>Professor Heather Viles(1)</t>
-  </si>
-  <si>
-    <t>Dr Beth Greenhough</t>
-  </si>
-  <si>
-    <t>Professor Patricia Daley</t>
-  </si>
-  <si>
-    <t>Imperial College London</t>
-  </si>
-  <si>
-    <t>the British Geological Survey</t>
-  </si>
-  <si>
-    <t>http://www.eci.ox.ac.uk/people/neyre.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/cclarke.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/rgrenyer.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/dgrey.html</t>
-  </si>
-  <si>
-    <t>http://www.eci.ox.ac.uk/people/cllewellynsmith.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/mallen.html</t>
-  </si>
-  <si>
-    <t>http://www.tsu.ox.ac.uk/people/</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/dbradley.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/agoudie.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/pwhitehead.html</t>
-  </si>
-  <si>
-    <t>http://www.eci.ox.ac.uk/people/index.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/jpallot.html</t>
-  </si>
-  <si>
-    <t>http://www.eci.ox.ac.uk/people/jhall.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/medmunds.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/astone.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/ddorling.html</t>
-  </si>
-  <si>
-    <t>http://www.eci.ox.ac.uk/people/bmueller.html</t>
-  </si>
-  <si>
-    <t>http://www.eci.ox.ac.uk/people/jboardman.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/glclark.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/ymalhi.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/hviles.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/bgreenhough.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/pdaley.html</t>
-  </si>
-  <si>
-    <t>http://www.geog.ox.ac.uk/staff/cpeach.html</t>
-  </si>
-  <si>
-    <t>aspirant</t>
-  </si>
-  <si>
-    <t>Nick Eyre is Professor of Energy and Climate Policy, and a Jackson Senior Research Fellow in Energy at the ECI and Oriel College. for the UK Research Councils' Energy Programme. In this role he is consulting with the UK energy research community to develop a consensus around a research agenda, to build an inter-disciplinary research consortium and plan a programme of research with a view to a new End Use Energy Demand Centre starting in April 2018. , which is undertaking research on the combined, technical, economic, social and policy issues in moving to electricity systems with very high levels of variable renewables. Nick has been Programme Leader for Energy in the ECI since 2007, but is currently seconded out of that post to the End Use Energy Demand Champion role. From 2007 to 2017, he was a Co-Director of the multi-university collaboration, the UK Energy Research Centre, leading its research work on energy demand (2007-2014) and decision-making (2014-2017). He was a Co-Investigator within the Infrastructure Transitions Research Consortium from 2011-2017. Nick has worked as a researcher, consultant and manager on energy and environmental issues since 1984. His interests focus on energy policy, especially with respect to energy demand, energy efficiency and the transition to low carbon energy systems. He has published extensively on energy, climate, environment and transport issues. He is co-author of a book on carbon markets. Nick worked at the Energy Saving Trust from 1999 to 2007, initially as Head of Policy and, from 2002, as Director of Strategy. He was responsible for the Trust's work on public policy issues, business development and long term business strategy. In 2001, he was seconded to the Cabinet Office, Performance and Innovation Unit, where he was a co-author of the Government's Review of Energy Policy. He led work streams on energy efficiency and long term energy scenarios. Previously, Nick worked as a researcher and analyst on energy and environment issues, initially in the Energy Technology Support Unit (ETSU) and then as an independent consultant. He was one of the UK's first researchers on mitigation of carbon emissions, and was co-author of a presentation to the Cabinet on this issue in 1989. In 1997, he wrote the first published study on how the Government's 20% carbon emission reduction target might be delivered. He has advised successive Government ministers and a wide range of Parliamentary inquiries. He managed a large European Commission programme on the external costs of energy and was lead author of the report used as the basis for the UK Government's first estimate of the social cost of carbon. Nick holds an MA in Physics and D.Phil in Nuclear Physics from the University of Oxford. He is a Fellow of the Energy Institute and an Honorary Fellow of the Society for the Environment. He was a County Councillor in Oxfordshire from 1987 to 1993, taking an active role in the development of Oxfordshire's first environmental strategy, traffic calming, CFC capture and opposition to new road building. Nick's long term research interest is the role of public policy in reducing energy demand and carbon emissions, in the context that progress will require a combination of technical, social and policy change. His current research interests cover: 2013 - (ongoing): Advisory Group for the EPSRC Centre on The Dynamics of Energy, Mobility and Demand (DEMAND). Chair, 2015 Proceedings of ECEEE Summer Study, 1-6 June 2015 (Presqu'�le de Giens, France). Vol. 1 - Foundations of Future Energy Policy Gupta, R., Eyre, N., Darby, S., Lucas, K., Barnfield, L., Hamilton, J., Mayne, R., Gregg, M., Fratter, C. and Irving, B. (2015) Bradshaw, M., Butler, C., Demski, C., Ekins, P., Eyre, N., Gross, R., Holland, R., McGlade, C., Mitchell, C., Parkhill, K., Pidgeon, N., Skea, J., Spence, A. and Watson, J. (2014) Hall, J., Henriques, J., Hickford, A., Nicholls, R., Baruah, P., Birkin, M., Chaudry, M., Curtis, T., Eyre, N., Jones, C., Kilsby, C., Leathard, A., Lorenz, A., Malleson, N., McLeod, F., Powrie, W., Preston, J., Rai, N., Street, R., Stringfellow, A., Thoung, C., Tyler, P., Velykiene, R., Watson, G. and Watson, J. (2014) Johan, R., Guy, B., Brian, H., Wolfgang, L., Schellnhuber, J., Kabat, J., Nakicenovic, N., Gong, P., Schlosser, P., Manez, M., Humble, A., Eyre, N., Gleick, P., James, R., Lucena, A., Masera, O., Moench, M., Schaeffer, R., Seitzinger, S., van der leeuw, S., Ward, B., Stern, N., Hurrell, J., Srivastava, L., Morgan, J., Nobre, C., Sokona, Y., Cremades, R., Roth, E., Liverman, D. and Arnott, J. (2014) Lucon, O., Urge-Vorsatz, D., Ahmed, A.Z., Akbari, H., Bertoldi, P., Cabeza, L.F., Eyre, N., Gadgil, A., Harvey, L.D.D., Jiang, Y., Liphoto, E., Mirasgedis, S., Murakami, S., Parikh, J., Pyke, C. and Vilariño, M.V. (2014) Buildings.Chapter 9 in, Tran, M., Hall, J., Hickford, A., Nicholls, R., Alderson, D., Barr, S., Baruah, P., Beavan, R., Birkin, M., Blainey, S., Byers, E., Chaudry, M., Curtis, T., Ebrahimy, R., Eyre, N., Hiteva, R., Jenkins, N., Jones, C., Kilsby, C., Leathard, A., Manning, L., Otto, A., Oughton, E., Powrie, W., Preston, J., Qadrdan, M., Thoung, C., Tyler, P., Watson, J., Watson, G. and Zuo, C. (2014) Hoggett, R., Eyre, N. and Keay, M. (2013) Demand and Energy Security. In, Mitchell, C., Watson, J. and Whiting, J. (eds.) Eyre, N. and Rosenow, J. (2012) Green deal and the energy company obligation - will it work? Proceedings of British Institute of Energy Economics 9th Academic Conference. European Energy in a Challenging World: The impact of emerging markets. St Johns College, Oxford, 19-20 September 2012. Urge-Vorsatz, D., Eyre, N., Graham, P., Harvey, L.D.D., Hertwich, E., Jochem, E., Kornevall, C., Majumdar, M., McMahon, H., Mirasgedis, S., Murakami, S., Novikova, A., Jiang, Y., Masera, O., McNeil, M., de T’Serclaes, P., Tirado-Herrero, S., Petrichenko, K. and Janda, K. (2012) Towards Sustainable Energy End Use: Buildings, in Global Energy Assessment. Chapter 10 in, The European Council for an Energy Efficient Economy (eceee) eceee 2009 Summer Study proceedings - Act! Innovate! Deliver! Reducing energy demand sustainably.. 225-236. ISBN: 9789163344541. Eyre, N., Anable, J., Brand, C., Layberry, R. and Strachan, N. (2010) The way we live from now on: lifestyle and energy consumption. Chapter 9 in, Skea, J., Ekins, P. and M. Winskel (eds.) Eyre, N., Flanagan, B. and Double, K. (2010) Engaging people in saving energy on a large scale: lessons from the programmes of the Energy Saving Trust in the UK. In, Whitmarsh, L., O'Neill, S. and Lorenzoni, I. (eds.) Eyre, N. (2008) Regulation of energy suppliers to save energy - lessons from the UK debate. British Institute of Energy Economics (BIEE) Proceedings of the British Institute of Energy Economics Conference. Eyre, N. and Staniaszek, D. (2005) Energy Efficiency in the UK Energy White paper - How did it get a Central Role? Proceedings of the European Council for an Energy Efficient Economy (eceee) 2005 Summer Study - What works and who delivers?, 30 May - 4 June 2005.. 35-44. ISBN: 9163140020. Vine, E., Hamrin, J., Eyre, N., Crossley, D., Maloney, M. and Watt, G. (2003) Public policy analysis of energy efficiency and load management in changing electricity businesses. Rabl, A. and Eyre, N. (1998) An estimate of regional and global O3 damage from precursor NOx and VOC emissions.</t>
-  </si>
-  <si>
-    <t>Professor Colin Clarke is an Emeritus Professor at Oxford University and an Emeritus Fellow of Jesus College, Oxford. He has taught at the Universities of Toronto and Liverpool, where he was, until 1981, Reader in Geography and Latin American Studies. He has carried out numerous field investigations in Mexico and the Caribbean and published 12 books and more than 100 research papers and chapters. Professor Clarke has been Chairman of the Society for Caribbean Studies (and a Life Member since 2004); President of the European Association for Research on Central America and the Caribbean (Life President since 1988); and Chairman of the Society for Latin American Studies. Between 1998 and 2002 he led a research project entitled 'Decolonizating the Colonial City: Kingston, Jamaica, 1940-1991' (funded by the Leverhulme Trust). He received the Gold Medal of the Royal Scottish Geographical Society in 1999, and in 2003 was lifted up by Sri Chinmoi to mark his contribution to human development issues in Latin America and the Caribbean. In 2004 he was awarded the degree of At Oxford he has been Tutor for Admissions at Jesus College, Chairman of the Faculty Board of Anthropology and Geography, Chairman of the Inter-Faculty Committee for Latin American Studies, and Head of the School of Geography and the Environment. Professor Clarke's research interests include urbanization in developing countries; race, ethnicity and class; peasantries; and the problems of small, recently de-colonized states. His regions of specialization are the Caribbean, Latin America and, more recently, Central Europe. Although he is a geographer, his research interests overlap with social anthropology, sociology and history. Since he completed his book on Mexico in 2000, Professor Clarke has concentrated on the Caribbean, and in 2006 published two books on Kingston, the capital of Jamaica, in which he examined the process of urbanization and the structure of colour-class stratification and cultural pluralism over more than three centuries. More recently he has turned his attention to Trinidad, and is currently preparing for publication an ethnographic journal he kept jointly with Gillian, his wife, focusing on race, religion and politics in San Fernando and the neighbouring Naparimas. Based on research carried out in the second year of Trinidad's independence (1964), the journal takes the reader into the very heart of a plural society, newly freed from colonialism. Professor Clarke is currently engaged in a new project, entitled 'Racist Regimes', the aim of which is to compare Caribbean slavery with the Jewish Holocaust in Europe. This research is not about slavery in the USA, where slaves were a minority of the labour force, and labour-intensive sugar was not the major export crop; nor is it about the full range of victims of the Holocaust, the inclusion of whom would render the research less manageable. Its focus is the Caribbean, especially the British colony of Jamaica, where the harsh, tropical, sugar-plantation regime involved the labouring to death of slaves of African origin; and the Holocaust, which involved both labouring to death and outright mass murder perpetrated on Jews by Nazi Germans in the occupied territories of Central Europe. The objectives are to produce a systematic comparison between slavery in the Caribbean and the Holocaust in Central Europe; to show how the theory of differential incorporation informs race laws and exclusion from citizen's rights; to draw out the commonalities between slavery and the Holocaust; to identify the differences between the two regimes/systems; and, through the comparison, to achieve a profounder understanding of each racist regime. Holocaust survivor/writer Primo Levi (2004) commented in the Afterword to : 'in every part of the world, wherever you begin by denying the fundamental liberties of mankind, and equality among people, you move toward the concentration camp system, and it is a road on which it is difficult to halt' (390-1). Clarke, C. (2010) From slum to ghetto: multiple deprivation in Kingston, Jamaica. Chapter 12 in, McGregor, D., Dodman, D. and Barker, D. (eds.) Lowenthal, D. and Clarke, C. (2007) Triumph of the Commons: Barbuda Belongs to all Barbudans Together. In, J. Besson and J. Momsen (eds.)</t>
-  </si>
-  <si>
-    <t>Richard Grenyer is a biologist and conservationist who is interested in the fundamental position that space and geographical processes occupy in biodiversity science and modern conservation strategy. He was appointed to an Associate Professorship in Biodiversity and Biogeography at the School of Geography and the Environment at the University of Oxford in August 2010. He is also Fellow and Tutor in Physical Geography at Jesus College. The flora of some regions in the Eastern Cape of South Africa, like the Baviaanskloof above, possess an disparate mix of evolutionary histories and score highly on evolutionary biodiversity measures. , for a thesis using phylogenetic comparative methods to understand the evolution and maintenance of extinction-promoting traits in mammals and insects. In 2004 he joined the demonstrated for the first time that conservation decisions at a global scale must be data-driven if they are to be efficient, and cannot rely on knowledge of a few well-known species for guidance. the first demonstration that conservation efforts to protect the most species do not always protect the widest variety of genotypes or phenotypes. In 2007 Richard returned to Imperial College London to the Since 1999, Richard has been a contributor to a decade-long collaborative study to produce the first complete evolutionary tree of mammal species (above). This was published in 2007, and has been cited 280 times in 3 years. With the mammalian distribution dataset from UVA (and its later &amp; better incarnations at the Richard has given plenary talks to the South African Society for Systematic Biology conference, and to the University of East Anglia, as well as research seminars in numerous UK and international universities. He has taught two courses in South Africa through the Darwin Initiative (University of Cape Town in 2007 and University of Johannesburg/ Pretoria in 2008), and has been invited for research visits at the University Of Cape Town (2008) and to an As a biologist, Richard is interested in the role of spatial processes in the generation and maintenance of biodiversity. Is there solid theory to describe how lineages of organisms evolve in space and time? Does existing theory predict the same spatial pattern of species richness and endemism we see around us? If we seek to manage biodiversity, we need to measure it - but how to do this is a long-standing problem in ecology. Does it matter that the units of biodiversity - species - are all the current product of both unique and shared evolutionary pressures and processes? Do we even need to overcome the "Wallacean shortfall": the difficult-to-know geography of which species is found where? Or can we simply abstract away all the differences in biology and ecology amongst species into different kinds and different amounts of ecosystem services? What do we mean by "different ways of measuring diversity"? As an example, by interfacing the distribution and phylogeny of mammals, we can determine two different Gondwanan legacies in Africa and South America: there are different kinds of mammal diversity on sister continents. Below, vertical extrusion is proportional to the number of mammal species today, and heat colour is proportional to their phylogenetic relatedness. African mammals took a long time to reach their current high richness, and are evolutionarily diverse. The mammals of South America, conversely, are characterised by explosive radiations leading to large families of close relatives (data from Davies In many ways, phylogenetic trees and geographical maps are very similar: both provide a means of conditioning our expectations of similarity amongst observations. Expected similarity in both cases is derived from some model of expected change as a function of the distance between observations. In phylogenetic terms this means specifying some model of evolutionary change over branch length, and in geographic terms specifying a model of expected decay in similarity over space. The fun starts when you have a set of observations that have both a phylogenetic and a spatial component - say, for example, most ecological datasets: how do we (and when should we) dissect the observed pattern into spatial, phylogenetic, and interaction components? The same is true with macroecological models that seek to explain the number of species across different regions: the phylogeny of species can both help explain and must be explained by the mechanism a model suggests. If we want to dissect these conflicting biological patterns, even at a basic level, we must solve the problem of overlapping influences of shared ancestry, shared location and biological interaction. As a conservationist Richard is interested in numerical and analytical strategies for the conservation of biodiversity. He uses techniques from evolutionary biology and ecology coupled with high-performance computing to dissect, analyze and advise the conservation process. Numerical analyses like this - usually called Strategic Conservation Planning - can help make maximally efficient on-the-ground conservation decisions (see his .). Numerical analyses can also help us understand what the conservation business today has become, what it does well (and not-so-well), and how it might have to change in an uncertain, pressured future. When we make choices about where and how to do conservation we make it more likely that some species and populations survive than others. Hopefully all these likelihoods are kept high, but we still induce differential risk. As a result we have a duty to make sure that the portfolio of biodiversity we favour has desirable properties. This could be as simple as having as many species in it as possible, or as complex as maximising functional or genetic diversity: again, it all comes down to how you measure diversity and how much difference it makes to resource allocation by conservation practitioners. To me, this means that conservation plans that aren't assessed against solutions to at least some form of spatial combinatoric problem with a defined optimality criterion simply aren't credible science, however politic they may be. As an example, the graph above shows the relative performance of some different types of global priority network from Grenyer, Orme . (2006). Performance measured with respect to capturing a, total species richness, b, rare species, and c, threatened species of birds, mammals and amphibians. Networks identified using an optimal complementarity approach based on birds alone (B), mammals alone (M), amphibians alone (A), or birds, mammals and amphibians combined (Cn, where n indicates the number of times each species is represented). Performance also shown for Biodiversity Hotspots (H), Endemic Bird Areas (E) and Global 200 Ecoregions (G), and for randomly selected sets of cells (100 replicates: median, black line; 95% confidence range, grey area). Richard teaches on both the 'Ecology of the Biosphere' course and the 'Quantitative Methods' course for the Preliminary Examination. He co-teaches the 'Biogeography, Biodiversity and Conservation' Option for the Final Honours School. He coordinates the 'Strategic Conservation Planning' module for the MSc in Biodiversity, Conservation and Management and contributes a GIS course to the 'Research Methods' module to all the MSc courses in SoGE. He also teaches on several field courses, including the Tenerife field courses for both the MSc course and Final Honours School in 2012. Richard is very interested in hearing from prospective graduate students with a biological, conservation or computational background (or all three!). Funded doctoral opportunities will be advertised as they occur. If you are interested in applying for a Clarendon or other scholarship-funded doctoral position, please only contact me if you already have a well-defined research project you would like to discuss. Tucker, C.M., Cadotte, M.W., Carvalho, S.B., Davies, T.J., Ferrier, S., Fritz, S.A., Grenyer, R., Helmus, M.R., Jin, L.S., Mooers, A.O., Pavoine, S., Purschke, O., Redding, D.W., Rosauer, D.F., Winter, M. and Mazel, F. (2017) What is the extent and distribution of evidence on effectiveness of systematic conservation planning around the globe? A systematic map protocol Rodrigues, A.S.L., Grenyer, R., Baillie, J.E.M., Bininda-Emonds, O.R.P., Gittlemann, J.L., Hoffmann, M., Safi, K., Schipper, J., Stuart, S.N. and Brooks, T. (2011) Jones, K.E.J., Bielby, J., Cardillo, M., Fritz, S.A., O'Dell, J., Orme, C.D.L., Safi, K., Sechrest, W., Boakes, E.H., Carbone, C., Connolly, C., Cutts, M.J., Foster, J.K., Grenyer, R., Habib, M., Plaster, C.A., Price, S.A., Rigby, E.A., Rist, J., Teacher, A., Bininda-Emonds, O.R.P., Gittleman, J.L., Mace, G.M. and Purvis, A. (2009) Nicholson, E., Mace, G.M., Armsworth, P.R., Atkinson, G., Buckle, S., Clements, T., Ewers, R.M., Fa, J.A., Gardner, T.A., Gibbons, J., Grenyer, R., Metcalfe, R., Mourato, S., Muuls, M., Osborn, D., Peck, L. Reuman, D.C., Watson, C. and Milner-Gulland, E.J. (2009) Davies, T.J., Fritz, S.A., Grenyer, R., Orme, C.D.L., Bielby, J., Bininda-Emonds, O.R.P., Cardillo, M., Jones, K.E.J., Gittleman, J.L., Mace, G.M. and Purvis, A. (2008) Bininda-Emonds, O.R.P., Cardillo, M., Jones, K.E., MacPhee, R.D.E., Beck, R.M.D., Grenyer, R., Price, S.A., Vos, R.A., Gittleman, J.L. and Purvis, A. (2007) Forest, F., Grenyer, R., Rouget, M., Davies, T.J., Cowling, R.M., Faith, D.P., Balmford, A., Manning, J.C., Proches, S., van der Bank, M., Reeves, G., Hedderson, T.A.J. and Savolainen, V. (2007) Grenyer, R., Orme, C.D.L., Jackson, S.F., Thomas, G.H., Davies, R.G., Davies, T.J., Jones, K.E., Olson, V.A., Rasmussen, P.C., Ding, T-Z., Bennett, P.M., Blackburn, T.M., Gaston, K.J., Gittleman, J.L. and Owens, I.P.F. (2007) Grenyer, R., Orme, C.D.L., Jackson, S.F., Thomas, G.H., Davies, R.G., Davies, T.J., Jones, K.E., Olson, V.A., Ridgely, R.S., Rasmussen, P.C., Ding, T-Z., Bennett, P.M., Blackburn, T.M., Gaston, K.J., Gittleman, J.L. and Owens, I.P.F. (2006) Bininda-Emonds, O.R.P., Cardillo, M., Jones, K.E., MacPhee, R.D.E., Beck, R.M.D., Grenyer, R., Price, S.A., Gittleman, J.L. and Purvis, A. (2006) The tree of life. In, MacDonald, D.W. (ed.)</t>
-  </si>
-  <si>
-    <t>David Grey has over 40 years experience in water management and development, living and working in Africa, the Americas, Asia and Europe. He is a water policy analyst, practitioner and researcher, and he has been a manager of interdisciplinary, multi-national teams and large budgets. He has experience at multiple levels: community/village/farm level in water management, water supply and sanitation, and irrigation; city level in water and wastewater services; all levels of local and national governments in water policies and investments; international basin level in negotiation and dispute resolution, institutional and legal frameworks and cooperative development; continental/regional level in political advocacy and institution building; and global level in promoting paradigm shifts and engaging world political and professional bodies. He joined Oxford University as Visiting Professor of Water Policy in late 2009 after almost 27 years as staff of the World Bank. He trained as a hydrogeologist and was staff of the British Geological Survey for 8 years, including 3 years as Group Manager of Hydrogeology at BGS Wallingford, responsible for groundwater research and management activities in the UK and internationally. He was the World Bank's Senior Water Advisor and Chair of its Water Resources Management Group from 2003, with responsibility for corporate water policies and advisory oversight of the water community and the water resources, irrigation, water supply and sanitation and hydropower portfolio. He has had many affiliations. For example, he has been Board member of the World Water Council, founding member of the Water and Sanitation Collaborative Council, and a founding partner of the Global Water Partnership. Recent roles include: member of the World Economic Forum's Global Action Council on Water Security; Associate Fellow of the International Institute for Strategic Studies (Chatham House); and member of an International Panel of Experts for the Mekong River Commission. His current special interests are in: the roles that water security plays in growth and stability and water insecurity plays in poverty, environmental degradation, conflict and migration; the role that benefit sharing can play in resolving inter-jurisdictional disputes over water at all levels; and the risks that climate and other change mean for water security, livelihoods and environmental sustainability. He has a long-term interest in the institutional and incentive structures for improving the performance of water resources management and water service delivery. Prof. Grey lectures on a range of subjects, including water security, water supply and sanitation and international waters for the MSc in Water Science, Policy and Management. Sadoff, C. and Grey, D. (2008) Why share? The benefits (and costs) of transboundary water management. Chapter 2 in, Sadoff, C., Greiber, T., Smith, M. and G. Bergkamp (eds.)</t>
-  </si>
-  <si>
-    <t>Chris Llewellyn Smith is currently Director of Energy Research, Oxford University, President of the Council of SESAME (Synchrotron light for Experimental Science and Applications in the Middle East), and a Visiting Professor in the Oxford Physics Department. He was Director of UKAEA Culham (2003-2008), with responsibility for the UK's fusion programme and for operation of the Joint European Torus (JET), Provost and President of University College London (1999-2002), Director General of CERN (1994-1998), and Chairman of Oxford Physics (1987-1992). After completing his Doctorate in Oxford in 1967, he worked briefly in the Lebedev Physical Institute of the Academy of Sciences in Moscow, before spending periods at CERN and the Stanford Linear Accelerator Center, after which he returned to Oxford in 1974. As Director of UKAEA Culham he developed and vigorously promoted the 'Fast Track' approach to the development of fusion power, which was officially adopted by the European Commission. During his mandate as Director General of CERN the Large Hadron Collider (LHC) was approved and started, and major contributions from Canada, India, Japan, the Russian Federation and the USA were negotiated, and CERN's flagship Large Electron Positron collider (LEP) was successfully upgraded. As a theoretical particle physicist he worked mainly on the quark model and the theories of the strong and electro-weak forces, and how they can be tested experimentally. His contributions include developing ways to demonstrate the "reality" of quarks and gluons (the particles that transmit the string force that holds quarks together) in highly inelastic electron and neutrino scattering experiments, and showing that mathematical consistency requires any theory of the weak interactions to be based on a spontaneously broken gauge theory. He was Chairman of the Council of the world fusion project ITER (2007-09), the Consultative Committee for Euratom on Fusion (2003-09), the Advisory Committee on Mathematics Education (2002-04), and the CERN Scientific Policy Committee (1990-92), and has served as a Vice President of the Royal Society (2008-10) and on numerous other national and international advisory committees, including the UK Prime Minister's Advisory Committee on Science and Technology (1989-92). Chris Llewellyn Smith has written and spoken widely on science funding, international scientific collaboration and energy issues. His scientific contributions and leadership have been recognised by awards and honours in seven countries on three continents.</t>
-  </si>
-  <si>
-    <t>Myles Allen is Professor of Geosystem Science in the School of Geography and the Environment, University of Oxford, and Head of the Climate Dynamics Group in the University's Department of Physics. His research focuses on how human and natural influences on climate contribute to observed climate change and risks of extreme weather and in quantifying their implications for long-range climate forecasts. He proposed the use of Probabilistic Event Attribution to quantify the contribution of human and other external influences on climate to specific individual weather events and leads the Group Leader, Climate Dynamics Group, Department of Physics, University of Oxford. Responsible for climate modelling and attribution, comprising on average 4 post-docs and 5 doctoral students over the past three years. - distributed computing for global climate research, collaborative project (2000 present, overall budget c. £4m), performing large-scale Monte Carlo simulation of climate change 1900 - 2100 using idle CPU on personal computers volunteered by the general public. Guillod, B.P., Jones, R.G., Bowery, A., Haustein, K., Massey, N.R., Mitchell, D.M., Otto, F.E.L., Sparrow, S.N., Uhe, P., Wallom, D.C.H., Wilson, S. and Allen, M.R. (2017) Millar, R.J., Fuglestvedt, J.S., Friedlingstein, P., Rogeli, J., Grubb, M.J., Matthews, H.D., Skeie, R.B., Forster, P.M., Frame, D.J. and Allen, M.R. (2017) Hallegatte, S., Rogelj, J., Allen, M., Clarke, L., Edenhofer, O., Field, C.B., Friedlingstein, P., van Kesteren, L., Knutti, R., Mach, K.J., Mastrandrea, M., Michel, A., Minx, J., Oppenheimer, M., Plattner, G., Riahi, K., Schaeffer, M., Stocker, T.F. and van Vuuren, D.P. (2016) Haustein, K., Otto, F.E.L., Uhe, P., Schaller, N., Allen, M.R., Hermanson, L., Christidis, N., McLean, P. and Cullen, H. (2016) Massey, N., Allen, M. and Hall, J. (2016) Large Ensembles of Regional Climate Projections. EGU General Assembly 2016, held 17-22 April, 2016 in Vienna Austria. Mitchell, D., Davini, P., Harvey, B., Massey, N., Haustein, K., Woolings, T., Jones, R., Otto, F., Guillod, B., Sparrow, S., Wallom, D. and Allen, M. (2016) Mitchell, D.M., Heaviside, C., Vardoulakis, S., Huntingford, C., Masato, G., Guillod, B.P., Frumhoff, P.C., Bowery, A. and Allen, M.R. (2016) Mote, P., Rupp, D., Li, S. Sharp, D. Otto, F., Uhe, P., Xiao, M., Lettermaier, D., Cullen, H. and Allen, M. (2016) Schaller, N., Kay, A.L., Lamb, R., Massey, N.R., van Oldenborgh, G.J., Otto, F.E.L., Sparrow, S.N., Vautard, R., Yiou, P., Ashpole, I., Bowery, A., Crooks, S.M., Haustein, K., Huntingford, C., Ingram, W.J., Jones, R.G., Legg, T., Miller, J., Skeggs, J., Wallom, D., Weisheimer, A., Wilson, S., Stott, P.A. and Allen, M.R. (2016) Sippel, S., Otto, F., Forkel, M., Allen, M., Guillod, B., Heimann, M., Reichstein, M., Seneviratne, S., Thonicke, K. and Mahecha, M. (2016) Explaining Extreme Events of 2014: From a Climate Perspective. Special Supplement to the Bulletin of the American Meteorological Society Vol 96, No 12, December 2015 Guillod, B., James, R., Massey, N., Otto, F., Hall, J., Allen, M. (2015) Modelling extreme weather in a changing climate: Potential applications for the insurance industry. Huntingford, C., Lowe, J.A., Howarth, N., Bowerman, N.H.A., Gohar, L.K., Otto, A., Lee, D.S., Smith, S.M., den Elzen, M.G.J., van Vuuren, D.P., Millar, R.J. and Allen, M.R. (2015) Massey, N., Jones, R., Otto, F.E.L., Aina, T., Wilson, S., Murphy, J.M., Hassell, D., Yamazaki, Y.H. and Allen, M.R. (2015) Climate change, climate justice and the application of probabilistic event attribution to summer heat extremes in the California Central Valley Añel, J.A., López-Moreno, J.I., Otto, F.E.L., Vicente-Serrano, S., Schaller, N., Massey, N., Buisán, S.T. and Allen, M.R. (2014) The extreme snow accumulation in the western Spanish Pyrenees during winter and spring 2013. Huntingford, C., Marsh, T., Scaife, A.A., Kendon, E., Hannaford, J., Kay, A., Lockwood, M., Prudhomme, C., Reynard, N., Parry, S., Lowe, J., Screen, J., Ward, H., Roberts, M., Stott, P., Bell, V., Bailey, M., Jenkins, A., Legg, T., Otto, F.E.L., Massey, N., Schaller, N., Slingo, J. and Allen, M.R. (2014) The science of attributing extreme weather events and its potential contribution to assessing loss and damage associated with climate change impacts Otto, A., Otto, F.E.L., Boucher, O., Church, J., Hegerl, G., Forster, P.M., Gillett, N.P., Gregory, J., Johnson, G.C., Knutti, R., Lewis, N., Lohmann, U., Marotzke, J., Myhre, G., Shindell, D., Stevens, B. and Allen, M.R. (2013) Rupp, D.E., Mote, P.W., Massey, N., Otto, F.E.L. and Allen, M.R. (2013) Human Influence on the probability of low precipitation in the central United States in 2012. In, Yamazaki, K., Rowlands, D.J., Aina, T., Blaker, A.T., Bowery, A., Massey, N., Miller, J., Rye, C., Tett, S.F.B., Williamson, D., Yamazaki, Y.H. and Allen, M.R. (2013) Clark, G.L., Urwin, R., Allen, M.R., Wójcik, D., Molinari, C., and McGill, S.M. (2012) Project Telos: Addressing the Challenges of Transformation Through Sustainable Investing. Towers Watson, London Allen, M.R. (2011) The scientific basis for climate change liability. In, Lord, R., Goldberg, S., Rajamani, L. and Brunnée, J. (eds.) Allen, M., Frame, D., Frieler, K., Hare, W., Huntingford, C., Jones, C., Knutti, R., Lowe, J., Meinshausen, M., Meinshausen, N. and Raper, S. (2009) Stone, D.A., Allen, M.R., Stott, P.A., Pall, P., Min, S.K., Nozawa, T. and Yukimoto, S. (2009) The Detection and Attribution of Human Influence on Climate*. Frame, D. and Allen, M.R. (2008) Climate change and global risk. Chapter 13 in, Bostrom, N. and Milan, M. (eds.) Allen, M.R., Pall, P., Stone, D.A., Scott, P., Frame, D.J., Min, S-K., Nozawa, T. and Yukimoto, S. (2007) Scientific challenges in the attribution of harm to human influence on climate. Pall, P., Allen, M.R. and Stone, D.A. (2007) Testing the Clausius--Clapeyron constraint on changes in extreme precipitation under CO 2 warming. Allen, M., Andronova, N., Booth, B., Dessai, S., Frame, D., Forest, C., Gregory, J., Hegerl, G., Knutti, R. and Piani, C. (2006) Observational constraints on climate sensitivity. Knutti, R., Meehl, G.A., Allen, M.R. and Stainforth, D.A. (2006) Constraining climate sensitivity from the seasonal cycle in surface temperature. Lopez, A., Tebaldi, C., New, M., Stainforth, D., Allen, M. and Kettleborough, J. (2006) Two approaches to quantifying uncertainty in global temperature changes. Massey, N., Aina, T., Allen, M., Christensen, C., Frame, D., Goodman, D., Kettleborough, J., Martin, A., Pascoe, S. and Stainforth, D. (2006) Data access and analysis with distributed federated data servers in climate Stainforth, D.A., Allen, M.R., Frame, D.J. and Piani, C. (2006) Risks associated with stabilisation scenarios and uncertainty in regional and global climate change impacts. Piani, C., Frame, D.J., Stainforth, D.A. and Allen, M.R. (2005) Constraints on climate change from a multi-thousand member ensemble of simulations. Stainforth, D.A., Aina, T., Christensen, C., Collins, M., Faull, N., Frame, D.J., Kettleborough, J.A., Knight, S., Martin, A., Murphy, J.M., Piani, C., Sexton, D., Smith, L.A., Spicer, R.A., Thorpe, A.J. and Allen, M.R. (2005) Lambert, F.H., Stott, P.A., Allen, M.R. and Palmer, M.A. (2004) Detection and attribution of changes in 20th century land precipitation. Allen, M.R., Kettleborough, J.A. and Stainforth, D.A. (2002) Model error in weather and climate forecasting. ECMWF Predictability of Weather and Climate Seminar. Tett, S.F.B., Stott, P.A., Allen, M.R., Ingram, W.J. and Mitchell, J.F.B. (1999) Causes of twentieth-century temperature change near the Earth's surface.</t>
-  </si>
-  <si>
-    <t>(LSHTM), is a physician, communicable disease epidemiologist and zoologist. After studies at Cambridge and London he lived and worked in East Africa - Tanzania and Uganda - for ten years and has continued to carry out research there, also in India, Bangladesh, Philippines, Sierra Leone, Kenya, and the UK as well as making shorter working visits to many other countries. After initial work on community pathogenesis, epidemiology and the public health importance of schistosomiasis he worked on domestic water supply and health in East Africa, on , and the theoretical basis of tropical public health. He devised the now generally adopted functional classification of water-related diseases. He returned to the UK to analyse the genetic control of resistance to leishmaniasis at Oxford where he discovered the . From 1974 he was Professor of Tropical Hygiene at the LSHTM for 30 years and Director of The Ross Institute, which became a highly interdisciplinary department, extending from molecular biology to social anthropology, applied to problems of tropical health. It particularly developed thinking on water and sanitation, and on malaria control He became increasingly involved in malaria epidemiology as co-director of the UK Malaria Reference Laboratory and head of a research group on applied aspects of tropical diseases, especially malaria. Its work focused on comprehensive analyses of complex malaria problems requiring multidisciplinary studies, and following through from efficacy trials to sustainable implementation. Urban malaria in Asia, insecticide-treated mosquito net programmes in East Africa, and the prediction and management of malaria epidemics due to global and local environmental changes have been studied. on public health and research policy. He was President of the Royal Society of Tropical Medicine and Hygiene, has an Honorary from the University of Leicester and was recently made an Honorary Fellow of the LSHTM. He has received the Chalmers and Macdonald medals of the Royal Society of Tropical Medicine and Hygiene and the Harben Gold Medal of the Royal Institute of Public Health. Since his 'retirement' he has worked with Ugandan colleagues on the disease problems of settling nomadic pastoralists and the resulting environmental, water and health changes and he has returned to his fascination with the role of water bodies in disease and with landscape epidemiology, as well as working on the historical epidemiology of India, on revising the classification of water-related diseases, on the conceptualization of transdisciplinary public health issues and on imported malaria. He also teaches on the MSc in Public Health in Developing Countries at LSHTM, where he teaches on 'Malaria Epidemiology' and 'Ecohealth'. He also delivers undergraduate lectures on 'Disease control in malaria'. He has recently supervised doctoral research on 'Malaria spatial epidemiology in Colombia', 'Determinants of malaria in SW Uganda' and 'Environmental change and nomadic settlement'. Shanks, G.D., Hay, S.I. and D.J. Bradley. (2008) Malaria's indirect contribution to all-cause mortality in the Andaman Islands during the colonial era. Smith, A.D., Bradley, D.J., Smith, V., Blaze, M., Behrens, R.H., Chiodini, P.L. and Whitty, C.J.M. (2008) Imported malaria and high risk groups: an observational study using UK surveillance data, 1987-2006. Osorio, L., Todd, J., Pearce, R. and Bradley, D.J. (2007) The role of imported cases in the epidemiology of urban Bradley, D.J. (2006) Landscape epidemiology and migration: insights and problems at several scales for transmissible diseases. In, Sleigh, A., Chee, H.L., Yeoh, B.S.A., Phua, K.H. and R. Safman (eds.) Patz, J.A., Daszak, P., Tabor, G.M., Aguirre, A.A., Pearl, M., Epstein, J., Wolfe, N.D., Kilpatrick, A.M., Foufopoulos, J., Molyneux, D. and Bradley, D.J. (2004) Working Group on Land Use Change and Disease Emergence. Unhealthy landscapes: policy recommendations on land use change and infectious disease emergence. Hanson, K., Goodman, C., Lines, J.D., Meek, S., Bradley, D. and Mills, A. (2004) The economics of malaria control interventions. Geneva. Global Forum for Health Research, World Health Organization. Bradley, D.J. and Bannister, B. (2003) Health Protection Agency Advisory Committee on Malaria Prevention for UK Travellers. Guidelines for malaria prevention in travellers from the United Kingdom for 2003. Coluzzi, M. and Bradley, D. (eds.) (1999) The Malaria Challenge after one hundred years of malariology. Papers from the Malariology Centenary Conference, Accademia Nazionale dei Lincei, Roma, 16-19 November 1998.</t>
-  </si>
-  <si>
-    <t>Professor Andrew Goudie was Professor of Geography and a Fellow of Hertford College from 1984 to 2003. A distinguished physical geographer, he was awarded the by the University in 2002, a Royal Medal from the Royal Geographical Society in 1991, the Prize of the Royal Belgian Academy for 2002. He was President of the British Institute in Eastern Africa, 2011-2016, and from September 2005-2009 he was President of the International Association of Geomorphologists. He has recently been Director of the China Centre, Oxford (2011-2013), President of the . He is a former Delegate of the Oxford University Press and a former Pro-Vice Chancellor. Professor Goudie was Master of , Oxford, from 2003 to 2011. He was awarded the Geological Society of America's Farouk El-Baz Prize for desert research in 2007, the David Linton Award of the British Society for Geomorphology in 2009, Honorary Fellowship of the International Association of Geomorphologists in 2013, and Fellow of the British Society for Geomorphology in 2014. Prof. Goudie's main research interests include desert geomorphology, dust storms, weathering, climatic change in the tropics, and the impacts of humans on the environment. He is also undertaking work on the landforms of Dorset and the Cotswolds. . Blackwell. (1981 first edition; 1986 second edition; 1990 third edition; 1993 fourth edition; 1999 fifth edition; 2006 sixth edition; 2013 seventh edition. Also German, Italian and Korean editions.) Preston, G., Thomas, D.S.G., Goudie, A.S., Atkinson, O., Leng, M.J., Hodson, M., Walkington, H., Charpentier, V., Mery, S., Borgi, F. and Parker, A.G. (2015) A multi-proxy analysis of the Holocene humid phase from the United Arab Emirates and its implications for southeast Arabia's Neolithic populations Late Quaternary humidity and aridity dynamics in the northeast Rub'al-Khali, United Arab Emirates: Implications for early human dispersal and occupation of eastern Arabia World Heritage Desert Landscapes: Potential Priorities for the Recognition of Desert Landscapes and Geomorphological Sites on the World Heritage List Ravi, S., D'Odorico, P., Breshears, D.D., Field, J.P., Goudie, A.S., Huxman, T.E., Li, J., Okin, G.S., Swap, R.J., Thomas, A.D., Van Pelt, S., Whicker, J.J. and Zobeck, T.M. (2011) Singh, R.N., Petrie, C.A., French, C.A.I., Goudie, A.S., Gupta, S., Tewari, R., Singh, A.K., Sinha, R., Srivastava, R., Yadav, S. and Singh, V.K. (2008) Settlements in Context: Reconnaissance in Western Uttar Pradesh and Haryana. Goudie, A.S. (2006) The history and evolution of desert hydrology and landforms: the role of climate change. In, P. D'Odorico and A. Porporato (eds.) Shaw, A.I. and Goudie, A.S. (2004) Chemical sediments of the palaeo and active Okavango alluvial fan, Botswana: evidence for variations in the processes of formation. Goudie, A.S., Wright, E. and Viles, H.A. (2002) The roles of salt (sodium nitrate) and fog in weathering: a laboratory simulation of conditions in the northern Atacama Desert, Chile. Goudie, A.S., Parker, A.G., Bull, P.A., White, K. and Al-Farraj, A. (2001) Desert loess in Ras Al Khaimah, United Arab Emirates. Goudie, A.S. and Viles, H.A. (2000) Weathering, Geomorphology and climatic variability in the Central Namib Desert. In, McClaren, S.J. and Kniveton, D.R. (eds.) Goudie, A.S. and Eckardt, F. (1999) The evolution of the morphological framework of the Central Namib Desert, Namibia, since the early cretaceous. . (1998) Towards and understanding of the spectral reflectance of desert dune sands; viewing geometry and particle size dependence of dune colour. Goudie, A.S. and Parker, A.G. (1998) Experimental simulation of rapid rock block disintegration by sodium chloride in a foggy coastal desert. Goudie, A.S., Viles, H.A. and Parker, A.G. (1997) Monitoring of rapid salt weathering in the central Namib using limestone blocks. Goudie, A.S. (1994) Salt attack on buildings and other structures in arid lands. In, Fookes, P.G. and Parry, R.H.G. (Eds.) Goudie, A.S. (1992) Expedition Research Projects in savanna landscapes - earth science aspects. In, Winser, S. and McWilliam, N. (Ed.) Goudie, A.S. (2013) The Schmidt Hammer and related devices in geomorphological research. In, Shroder, J., Switzer A.D. and Kennedy D.M. (eds.) Brierley, G., Huang, H.Q., Chen, A., Aiken, S., Crozier, M., Eder, W., Goudie, A.S., Ma, Y., May, J-H., Migon, P., Nanson, G., Qi, D., Viles, H.A., Wood, C., Wray, R., Yang, G., Yang, X. and Yu, G-A. (2011) Gregory, K.J. and Goudie, A.S. (2011) Introduction to the discipline of geomorphology. In, Gregory, K.J. and Goudie, A.S. (eds.) (2011) The use of the Schmidt Hammer and Equotip for rock hardness assessment in geomorphology and heritage science: a comparative analysis Goudie, A.S. and Kalvoda. J. (2007) Landform evolution in the Nagar region, Hispar Mustagh Karakoram. In, A.S. Goudie and J. Kalvoda (eds.), Goudie, A.S. and Heslop, E. (2007) Sodium nitrate deposits and surface efflorescences. Chapter 12 in, Nash, D.J. and McLaren, S.J. (eds.) Goudie, A.S., Parker, A.G. and Al'Farraj, A. (2000) Coastal change in Ras al Khaimah (United Arab Emirates): a cartographic analysis. Goudie, A.S., Brundsen, D., Coombe, K., and Parker, A.G. (1996) The structural geomorphology of the Isle of Portland, southern England. Goudie, A.S. (1994) The effects of fire on rock weathering: an experimental study. In, Robinson, D.A., and Williams, R.B.G. (Eds.) Goudie, A.S., Allison, R.J. and Cox, N. (1993) Geotechnical properties of rock masses: their control on slope form and mechanisms of change. Goudie, A.S., McLaren, S.J. and Allison, R.J. (1992) The relations between modulus of elasticity and temperature in the context of the experimental simulation of rock weathering by fire. Goudie, A.S. and Allison, R. (1990) Rock control and slope profiles in a tropical limestone environment: The Napier Range of Western Australia. Goudie, A.S., Viles, H.A., Allison, R., Day, M. Livingstone, I. and Bull, P. (1990) The geomorphology of the Napier Range, Western Australia. The History of the Study of Landforms or the Development of Geomorphology, Vol. 4: Quaternary and Recent Processes and Forms (1890–1965) and the Mid-Century Revolutions . The Geological Society, London. Includes, Goudie, A.S and Viles, H.A., Ch.5, pp. 129-164, Weathering processes and forms; Goudie, A.S., Ch.s 10 &amp; 16. Late Holocene geoarchaeological investigation of the Middle Thames floodplain at Dorney, Buckinghamshire, UK: An evaluation of the Bronze Age, Iron Age, Roman and Saxon landscapes Parker A.G., Goudie, A.S., Stokes, S., White, K., Hodson, M.J., Manning, M., and D. Kennet (2006) A record of Holocene climate change from lake geochemical analyses in southeastern Arabia. Development of the Bronze Age landscape in the southeastern Arabian Gulf: New evidence from a buried shell midden in the eastern extremity of the Rub' al-Khali desert, Emirate of Ras al-Khaimah, U.A.E. Parker, A.G., Eckersley, L., Smith, M.M., Goudie, A.S., Stokes, S., Ward, S., White, K. and Hodson, M.J. (2004) Holocene vegetation dynamics in the north eastern Rub' al-Khali desert, Arabian Peninsula: a phytolith, pollen and carbon isotope study. (2000) Late Pleistocene and Holocene dune construction at the north eastern edge of the Rub Al Khali, United Arab Emirates. Goudie, A.S. (1999) The distribution and modes of origin of peat and calcareous tufa deposits in the Upper Thames valley.</t>
-  </si>
-  <si>
-    <t>Paul Whitehead is Professor of Water Science at the School of Geography and the Environment and Director of the NERC in Control and Systems Theory (Manchester). Prior to joining the School of Geography and the Environment in 2008, Paul worked at the University of Reading as Professor and Director of the Aquatic Environments Research Centre. His research interests have focused on dynamic behaviour of river, lakes, wetlands and catchments and the interactions between hydrology, water quality and ecology. He has developed the suite of dynamic models which have been applied widely across the world in many countries and in all continents. His research has been funded by the UK Government ( , the EU in 5 framework research programmes from 1982 to the present, Water companies and other industrial partners. He also contributes to the Professor Whitehead has served on several senior NERC committees such as the Thematic Programme Planning committees for the River Ecology Programme (NERC £8 million), Pollution Pathways Programme (NERC £8million), Land Use Research Programme (NERC £12 million), Joint NERC/ Programme (£36 million) and Environmental Diagnostics (NERC £6million). He has also been an environmental research advisor to the EU, European Governments and . He has also worked in Nepal, Thailand, India, China, Taiwan, Brazil, Australia and the USA. He has published widely with over 90 papers in the refereed literature as well as being guest speaker at a wide range of conferences and meetings. Paul's research is focused on the interplay between environmental management of major problems such as climate change and pollution control and the development and application of new mathematical techniques for modelling environmental systems in the past, the present and into the future. Predicting the behaviour of water quality and ecosystems in rivers, lakes and wetlands is a crucial element of modern environmental management. Water resources and ecosystem health are key issues for EU and Government Policy especially to address Directives such as the Water Framework Directive and to assess the potential impacts of climate change. Paul is currently on the executive committee of the which is Europe's largest research project addressing the impacts of climate change on river, lake and wetland systems across Europe. As part of the project Paul has been developing a new range of models for modelling river catchments to simulate the behaviour of water flow and quality, as well as the behaviour of ecological parameters such as biomass of macrophytes, epiphytes and phytoplankton in streams. These models have been applied widely across Europe and provide a powerful set of tools for evaluating processes controlling water quality and ecosystems behaviour. Providing a potable source of water for peoples across the world is a crucial goal for sustainable development. Without a sound supply of high quality water peoples lives are blighted and most means of expanding economic and personal well being are severely limited. Paul's research aims to utilise his knowledge and expertise to work towards sustainable management in many countries around the world. Past projects have included studies in Jordon, Nepal, China and Brazil to assess man-made and natural pollution and to determine the best means to minimise problems and maximise the availability of water to communities. There are significant lessons to learn from the past and the application of modern hydrological and modeling techniques to evaluate past civilisations is a fascinating area of research. Paul has been involved in a key Leverhulme Project on and this has recently involved studies in Jordan to assess the hydrology and populations levels of the ancient city of Jawa and a study of the Dead Sea to evaluate past, present and potential future water levels. Jackson-Blake, L.A., Wade, A.J., Futter, M.N., Butterfield, D., Couture, R.M., Cox, B.A., Crossman, J., Ekholm, P., Halliday, S.J., Jin, L., Lawrence, D.S.L., Lepistö, A., Lin, Y., Rankinen, K. and Whitehead, P.G. (2016) Fate and transport of polychlorinated biphenyls (PCBs) in the River Thames catchment – insights from a coupled multimedia fate and hydrobiogeochemical transport model Sharma, B.M., Bharat, G.K., Tayal, S., Larssen, T., Becanová, J., Karásková, P., Whitehead, P.G., Futter, M.N., Butterfield, D. and Nizzetto, L. (2016) An INCA model for pathogens in rivers and catchments: Model structure, sensitivity analysis and application to the River Thames catchment, UK Whitehead, P.G., Barbour, E., Futter, M.N., Sarkar, S., Rodda, H., Caesar, J., Butterfield, D., Jin, L., Sinha, R., Salehin, M., Leckie, H., and Nicholls, R.J. (2015) Impacts of climate change and socio-economic scenarios on flow and water quality of the Ganga, Brahmaputra and Meghna river system: low flow and flood statistics Whitehead, P.G., Sarkar, S., Jin, L., Futter, M.N., Caesar, J., Barbour, E., Butterfield, D., Sinha, R., Nicholls, R., Hutton, C. and Leckie, H.D. (2015) Dynamic modeling of the Ganga river system: impacts of future climate and socio-economic change on flows and nitrogen fluxes in India and Bangladesh Williams, R., Neal, C., Jarvie, H., Johnson, A., Whitehead, P., Bowes, M. and Jenkins, A. (2015) Water Quality. 8. in, Rodda, J.C. and Robinson, M. (eds.) An interdisciplinary modelling approach assessing the cost-effectiveness of agri-environmental measures on reducing nutrient concentration to WFD thresholds under climate change: the case of the Louros catchment Whitehead, P.G., Jin, L., Crossman, S., Comber, S., Johnes, P.J., Daldorph, P., Flynn, N., Collins, A.L., Butterfield, D., Mistry, R., Bardon, R., Pope, L. and Willows, R. (2014) Distributed and dynamic modelling of hydrology, phosphorus and ecology in the Hampshire Avon and Blashford Lakes: Evaluating alternative strategies to meet WFD standards Baulch, H.M., Futter, M.N., Jin, L., Whitehead, P.G., Woods, D.T., Dillon, P.J., Butterfield, D.A., Oni, S.K., Aspden, L.P., O’Connor, E.M. and Crossman, J. (2013) The significance of shifts in precipitation patterns: modelling the impacts of climate change and glacier retreat on extreme flood events in Denali National Park, Alaska The interactive responses of water quality and hydrology to changes in multiple stressors and implications for the long-term effective management of phosphorus Jin, L., Whitehead, P.G., Baulch, H.M., Dillon, P.J., Butterfield, D.A., Oni, S.K., Futter, M.N., Crossman, J. and O’Connor, E.M. (2013) Whitehead, P.G., Crossman, J., Balana, B.B., Futter, M.N., Comber, S., Jin, L., Skuras, D., Wade, A.J., Bowes, M.J. and Read, D.S. (2013) Research article: A cost-effectiveness analysis of water security and water quality: impacts of climate and land-use change on the River Thames system Modelling nitrogen in the Yeşilirmak River catchment in Northern Turkey: impacts of future climate and environmental change and implications for nutrient management Whitehead, P.G., Butterfield, D., Black, E. and Plinston, D. (2011) Modelling Dead Sea levels and rainfall: past, present and future. In, Mithen, S. and Black, E. (eds.) Whitehead, P.G., Jin, L., Baulch, H.M., Butterfield, D., Oni, S.K., Dillon, P.J., Futter, M., Wade, A.J., North, R., O'Connor, E.M. and Jarvie, H.P. (2011) Whitehead, P.G., Smith, S. and Wade, A. (2011) Modelling water resources and climate change at the Bronze Age site of Jawa in northern Jordan: a new approach utilising stochastic simulation techniques. Chapter 18 in, Mithen, S. and E. Black (eds.) Wood, E.F., Roundy, J.K., Troy, T.J., van Beek, R., Bierkens, M., Blyth, E., de Roo, A., Döll, P., Ek, M., Famiglietti, J., Gochis, D., van de Giesen, N., Houser, P., Jaffé, P.R., Kollet, S., Lehner, B., Lettenmaier, D.P., Peters-Lidard, C., Sivapalan, M., Sheffield, J., Wade, A. and Whitehead, P.G. (2011) Jin, L. and Whitehead, P.G. (2010) Modeling flow and nitrogen dynamics in the River Thames: implication of future climate induced water vulnerability in southeast England. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Lázár, A.N., Butterfield, D., Futter, M.N., Rankinen, K., Thouvenot-Korppoo, M., Jarritt, N., Lawrence, D.S.L., Wade, A.J. and Whitehead, P.G. (2010) Lázár, A.N., Wade, A.J., Whitehead, P.G. and Heppell, C.M. (2010) Modelling fixed plant and algal dynamics in rivers - an application to the River Frome. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Whitehead, P.G., Lázár, A.N., Futter, M., Pope, L., Wade, A.J., Willows, R. and Burgess, C. (2010) Modelling sediment supply and transport in the River Lugg: strategies for controlling sediment loads. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Whitehead. P.G. and Edmunds, W.M. (2010) Palaeo-hydrology and hydrogeology of the Upper Kennet at Silbury Hill in 4200 BP. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle.. 20-28. Wilby, R.L., Orr, H., Watts, G., Battarbee, R.W., Berry, P.M., Chadd, R., Dugdale, S.J., Dunbar, M.J., Elliott, J.A., Extence, C., Hannah, D.M., Holmes, N., Johnson, A.C., Knights, B., Milner, N.J., Ormerod, S.J., Solomon, D., Timlett, R., Whitehead P.G. and Wood, P.J. (2010) Modelling impacts of pollution in river systems: a new dispersion model and a case study of mine discharges in the Abrud, Aries and Mures River System in Transylvania, Romania Modelling stream and soil water nitrate dynamics during experimentally increased nitrogen deposition in a coniferous forest catchment at Gardsjon, Sweden Simulating metals and mine discharges in river basins using a new integrated catchment model for metals: pollution impacts and restoration strategies in the Aries-Mures river system in Transylvania, Romania Modelling of hydrology and potential population levels at Bronze Age Jawa, Northern Jordan: a Monte Carlo approach to cope with uncertainty Whitehead, P.G., Jin, L., Crossman, J., Comber, S., Johnes, P.J., Daldorph, P., Flynn, N., Collins, A.L., Butterfield, D., Mistry, R., Bardon, R., Pope, L., and Willows, R. (2014) Distributed and dynamic modelling of hydrology, phosphorus and ecology in the Hampshire Avon and Blashford Lakes: Evaluating alternative strategies to meet WFD standards Baulch, H.M., Futter, M.N., Jin, L., Whitehead, P.G., Woods, D.T., Dillon, P.J., Butterfield, D., Oni, S.K., Aspden, L.P., O'Connor, E.M. and Crossman, J. (2013) The significance of shifts in precipitation patterns: modelling the impacts of climate change and glacier retreat on extreme flood events in Denali National Park, Alaska The interactive responses of water quality and hydrology to changes in multiple stressors, and implications for the long-term effective management of phosphorus Jin, L., Whitehead, P.G., Baulch, H.M., Dillon, P.J., Butterfield, D., Oni, S.K., Futter, M.N., Crossman, J. and O'Connor, E.M. (2013) Whitehead, P.G., Crossman, J., Balana, B.B., Futter, M.N., Comber, S., Jin, L., Skuras, D., Wade, A.J., Bowes, M.J. and Read, D.S. (2013) A cost-effectiveness analysis of water security and water quality: impacts of climate and land-use change on the River Thames system , 434: 13-17. In, Special Issue: Climate change and macronutrient cycling along the atmospheric, terrestrial, freshwater and estuarine continuum, edited by Jarvie, Jickells, Skeffington and Withers. Modelling nitrogen in the Yeşilirmak River catchment in Northern Turkey: Impacts of future climate and environmental change and implications for nutrient management Whitehead, P.G., Butterfield, D., Black, E. and Plinston D. (2011) Modelling Dead Sea levels and rainfall: past, present and future. In, Mithen, S. and Black, E. (eds.) Whitehead, P.G., Jin, L., Baulch, H.M., Butterfield, D., Oni, S.K., Dillon, P.J., Futter, M., Wade, A.J., North, R., O'Connor, E.M. and Jarvie, H.P. (2011) Whitehead, P.G., Smith, S. and Wade, A. (2011) Modelling water resources and climate change at the Bronze Age site of Jawa in northern Jordan: a new approach utilising stochastic simulation techniques. Chapter 18 in, Mithen, S. and E. Black (eds.) Wood, E.F., Roundy, J.K., Troy, T.J., van Beek, R., Bierkens, M., Blyth, E., de Roo, A., Döll, P., Ek, M., Famiglietti, J., Gochis, D., van de Giesen, N., Houser, P., Jaffé, P.R., Kollet, S., Lehner, B., Lettenmaier, D.P., Peters-Lidard, C., Sivapalan, M., Sheffield, J., Wade, A. and Whitehead, P.G. (2011) Jin, L. and Whitehead, P.G. (2010) Modeling flow and nitrogen dynamics in the River Thames: implication of future climate induced water vulnerability in southeast England. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Lázár, A.N., Butterfield, D., Futter, M.N., Rankinen, K., Thouvenot-Korppoo, M., Jarritt, N., Lawrence, D.S.L., Wade, A.J. and Whitehead P.G. (2010) Lázár, A.N., Wade, A.J., Whitehead, P.G. and Heppell, C.M. (2010) Modelling fixed plant and algal dynamics in rivers - an application to the River Frome. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Whitehead P.G., and Edmunds M. (2010) Palaeo-hydrology and hydrogeology of the Upper Kennet at Silbury Hill in 4200 BP. British Hydrological Society Third International Symposium: Role of Hydrology in Managing Consequences of a Changing Global Environment, 19-23 July 2010, Newcastle University, Newcastle upon Tyne, United Kingdom, pp. 20-28. Whitehead, P.G., Lázár, A.N., Futter, M., Pope, L., Wade, A.J., Willows, R. and Burgess, C. (2010) Modelling sediment supply and transport in the River Lugg: strategies for controlling sediment loads. British Hydrological Society (BHS) Conference Proceedings, University of Newcastle. Wilby, R.L., Orr, H.G, Watts, G., Battarbee, R.W., Berry, P.M., Chadd, R., Dugdale, S.J, Dunbar, M.J., Elliott, J.A., Extence, C., Hannah, D.M., Holmes, N., Johnson, A.C., Knights, B., Milner, N.J., Ormerod, S.J., Solomon, D., Timlett, R., Whitehead, P.G. and Wood, P.J. (2010) Simulating metals and mine discharges in river basins using a new integrated catchment model for metals: Pollution impacts and restoration strategies in the Aries-Mures river system in Transylvania, Romania Modelling impacts of pollution in river systems: a new dispersion model and a case study of mine discharges in the Abrud, Aries and Mures River System in Transylvania, Romania Modelling stream and soil water nitrate dynamics during experimentally increased nitrogen deposition in a coniferous forest catchment at Gardsjon, Sweden Modelling of hydrology and potential population levels at Bronze Age Jawa, Northern Jordan: a Monte Carlo approach to cope with uncertainty Modelling of hydrology and potential population levels at Bronze Age Jawa, Northern Jordan: a Monte Carlo approach to cope with uncertainty Evaluating the Risk of Non-point Source Pollution from Sewage Sludge: Integrated Modelling of Nutrient Losses at Field and Catchment Scales Modelling Nitrogen Fluxes from the land surface to the coastal zone in European systems: the perspective of the INCA project Impacts of forestry on Nitrogen in upland and lowland catchments: a comparison of the River Severn at Plynlimon in Mid Wales and the Bedford Ouse in South-East England using the INCA model Water quality functioning of lowland permeable catchments: inferences from an intensive study of the River Kennet and upper River Thames Excess nitrogen leaching and C/N decline in the Tillingbourne catchment, southern England: INCA process modelling for current and historic time series A semi-distributed Integrated Nitrogen Model for Multiple source assessment in Catchments (INCA): Part I - Model Structure and Process Equations A Semi-distributed Integrated Nitrogen Model for Multiple source assessment in Catchments (INCA): Part II Application to large River Basins in South Wales and Eastern England</t>
-  </si>
-  <si>
-    <t>Prof. Judith Pallot came to Oxford from a lectureship in Leeds University in 1979 and has been responsible for developing teaching and research in Soviet and Russian geography since then. She is active in the University promoting interdisciplinary links in Russian and East European Studies. Prof. Pallot offers a final year option in the geography honours course on the geography of Russian and East Central Europe and she lectures in the first year course on the political geography of the Cold War. Prof. Pallot supervises graduates working on Russia on topics ranging from environmental issues and rural society to contemporary urban change. Many have gone on to university posts in the UK and elsewhere. She is an active member of the British Association for Slavonic and East European Studies and was its Treasurer and committee member in the 1990s. Prof. Pallot first visited the USSR as a post-graduate exchange student in 1979 and has been a frequent visitor ever since. In the late 1980s she spearheaded exchange agreements with geographers in Russia bringing many geographers who had never before left the USSR to Oxford under a British Council funded scheme. She has especially strong links with researchers in the Institute of Geography of the Russian Academy of Sciences and has had a ten year collaboration with Tatyana Nefedova, Russia's leading authority on Russian agriculture. She also collaborates with scholars in the Geography Departments of Moscow and Perm' State University, and the Peasant Studies Centre of the Moscow School of Social and Economic Sciences. In the past two years she has developed links with the Federal Penal Service in the Russian Federation Ministry of Justice negotiating a memorandum of understanding between Oxford University and the Academy of Law and Penal Management in Ryazan' which has led on to a collaborative research project. Prof. Pallot's current research interest lies in Russia's penal geography. She is the principal investigator for an ESRC funded project 'Space and Gender in Russia's Geography of Punishment'. The project, which due to the sensitivities of working with the Russian penal bureaucracy was in gestation for two years, formally began in November 2006. Her co-researchers are Dr Laura Piacentini a criminologist from the University of Strathclyde, and the geographer and former postgraduate of the School of Geography and the Environment, Dr Dominique Moran, from the University of Birmingham. The project involves collaboration with a newly constituted research group within the Academy of Law and Penal Management in Ryazan'. Seed money for this project was obtained from the University of Oxford Research Development Fund (£20,000) which paid for a pilot study in L'govo juvenile girls colony in March 2006. This was followed in April 2007 by field work in three women's penal colonies in the republic of Mordovia. In December further fieldwork is scheduled in penal colonies in Perm' krai. Prof. Pallot has already presented early findings from these studies at the University of Toronto (Conference 'What it Soviet Now?' in 2006) and the RGS/IBG September 2007. In conjunction with the research on women's experiences of the Russian penal system, Prof. Pallot has applied for funding (Nuffield and Guggenheim) to employ Dr Elena Katz to work with her on extending the research of women's experiences of penal Russia to include prison visitors. Prof. Pallot has an established reputation in the field of Russian 'peasant studies'. Her early work focused on the responses of the Russian peasantry to the reform initiatives of the late Imperial government (particularly, the Stolypin Land Reform) and the struggle for common property rights in the Soviet period. In the 1990s she extended this interest to post-Soviet period, to examine rural adaptations and household food production during the transformation to a market economy. The Leverhulme funded project with Tatyana Nefedova involved field work in seven regions and more than thirty rural districts located in contrasting regions (including Moscow, Perm', Archangel, Ryazan', Samara and Saratov oblasts and Stavropol' krai). The results of this research have been published in a variety of English and Russian language journals and in two books. Research is on going with research trips planned for Kostroma and Mordovia in 2007 and 2008. In August 2007 Prof. Pallot was involved in a film project for the Russian TV station Kul'tura on the history of Russian farming in a global context. The results will be broadcast as a 14 part series in November and December 2007. Penality and the Social Construction of Gender in Post-Soviet Russia: the impact on prisioners' relatives of their encounters with penal Russia Women in the Russian Penal System: The role of distance in the theory and practice of imprisonment in late Soviet and post-Soviet Russia In collaboration with Dr Laura Piacentini (University of Strathclyde) and Dr Dominique Moran (University of Birmingham); Financial support from ESRC; (2006-2009) The topography of incarceration: the spatial continuity of penality and the legacy of the gulag in twentieth- and twenty-first century Russia Moran, D., Pallot, J. and Piacentini, L. (2012) Rikoksen ja rangaistuksen maantiede Venäjän (Geography of Crime and Punishment in Russia). Katz, E. and Pallot, J. (2010) From femme normale to femme criminelle in Russia: against the past or towards the future? 'Gde muzh, tam zhena' (where the husband is, so is the wife): Space and gender in post-Soviet patterns of penality Pallot, J. and Nefedova, T. (2002) Individual'nie khozyaistva naseleniya kak obekt geograficheskogo izucheniya' (The Geography of People's Farming), Izvestiya AN. Moran, D., Piacentini, L. and Pallot, J. (2013) Liminal transcarceral space: prisoner transportation for women in the Russian Federation. Chapter 8 in, Moran, D., Gill, N. and Conlon, D. (eds.) Nefedova, T. and Pallot, J. (2013) The multiplicity of second home development in the Russian Federation: a case of 'seasonal suburbanization'? Chapter 5 in, Roca, Z. (ed.) Pallot, J. (2008) Continuities in penal Russia: Space and gender in post-Soviet geography of punishment. In, Luhausen, T. and P. Solomon (eds.) Pallot, J., Unwin, T. and Johnson, S. (2004) Rural Change and Agriculture. In, Johnson. (2004) Rural Change and Agriculture. In, M. Bradshaw and A. Stenning (eds.) Pallot, J. (2002) 'Zhizn' v Sovetskoi Derevne' (Life in the Soviet Countryside). In, In, Yul'yam K. Brumfild; Bler Rublya. (ed.) . J. Pallot took part in a discussion on the conditions in Penal Colony 14 where convicted Pussy Riot protestor, Nadezhda Tolokonnikova, is on hunger strike.</t>
-  </si>
-  <si>
-    <t>. His research focuses upon management of climate-related risks in infrastructure systems, in particular relating to various dimensions of water security, including flooding and water scarcity. "for his contribution to the development of methods for flood risk analysis, which underpin approaches for flood risk management in the UK and internationally." He is now a member of the Engineering Policy Committee of the Royal Academy of Engineering and the Public Voice Committee of the , which has developed the world’s first national infrastructure simulation models for appraisal of national infrastructure investment and risks. His book research fellow, Jim developed the theoretical basis for the flood risk assessment methods that are now widely used in the UK and internationally. He was a coordinating lead author in the OST’s , which analysed risks and responses to flooding and coastal erosion in the UK over the period 2030-2100. He also developed the framework for uncertainty analysis in appraisal of options for protecting London from flooding over the 21st Century, as part of the Environment Agency’s . He has been awarded the George Stephenson Medal, the Robert Alfred Carr Prize and the Frederick Palmer Prize of the Institution of Civil Engineers for his work on flooding and coastal erosion, and the 2013 Lloyds Jim has worked extensively on application of generalized theories of probability to civil engineering and environmental systems, including random set theory, the theory of imprecise probabilities and info-gap theory. The work has been particularly fruitful in the analysis of uncertainties relating to global climate modelling, yielding project that developed methodology and tools for quantified analysis of climate risks in London. He was until 2010 Deputy Director of the , leading the Tyndall Centre’s research programme on climate change and cities, which yielded a highly innovative integrated assessment of climate change adaptation and mitigation in London. Engineering adaptation to global change. Decision analysis. Robust decision making under uncertainty. Info-gap theory. Decision support for futures and scenarios analysis. National assessment of infrastructure systems. Infrastructure systems reliability and interdependence. Integrated assessment of long term change in cities. Methodologies for uncertainty analysis in integrated assessments. Broad scale flood risk analysis. Reliability analysis of flood defence systems. Advanced sampling based methods. Impacts of climate change and socio-economic change on flood risk. Robust flood risk management decisions under uncertainty. Simplified process-based modelling of coastal system evolution over extended time and space scales. Stochastic simulation of coastal cliff recession. Use of probabilistic information in coastal management. Impacts of sea level rise. Dadson, S., Hall, J.W., Murgatroyd, A., Acreman, M., Bates, P., Beven, K., Heathwaite, A.L., Holden, J., Holman, I.P., Lane, S.N., O'Connell, E., Penning-Rowsell, E., Reynard, N., Sear, D., Thorne, C. and Wilby, R. (2017) Payo, A., Favis-Mortlock, D., Dickson, M., Hall, J.W., Hurst, M., Walkden, M.J.A., Townend, I., Ives, M.C., Nicholls, R.J. and Ellis, M.A. (2017) Coastal Modelling Environment version 1.0: a framework for integrating landform-specific component models in order to simulate decadal to centennial morphological changes on complex coasts Grafton, R.Q., McLindin, M., Hussey, K., Wyrwoll, P., Wichelns, D., Ringler, C., Garrick, D., Pittock, J., Wheeler, S., Orr, S., Matthews, N., Ansink, E., Aureli, A., Connell, D., De Stefano, L., Dowsley, K., Farolfi, S., Hall, J.W., Katic, P., Lankford, B., Leckie, H., McCartney, M., Pohlner, H., Ratna, N., Rubarenzya, M.H., Raman, S., Wheeler, K. and Williams, J. (2016) Simpson, M., Ives, M. and Hall, J. (2016) Evaluation of strategies for nature-based solutions to drought: a decision support model at the national scale. EGU General Assembly 2016, held 17-22 April, 2016 in Vienna Austria. Simpson, M., Ives, M.C., Hall, J. and Kisby, C. (2016) Water supply systems assessment. In, Tran, M., Hall, J., Hickford, A. and Nicholls, R. (eds.) Simpson, M., James, R., Hall, J.W., Borgomeo, E., Ives, M.C., Almeida, S., Kingsborough, A., Economou, T., Stephenson, D. and Wagener, T. (2016) Wheeler, K.G., Basheer, M., Mekonnen, Z.T., Eltoum, S.O., Mersha, A., Abdo, G.M., Zagona, E.A., Hall, J.W. and Dadson, S.J. (2016) Beven, K.J., Aspinall, W.P., Bates, P.D., Borgomeo, E., Goda, K., Hall, J.W., Page, T., Phillips, J.C., Rougier, J.T., Simpson, M., Stephenson, D.B., Smith, P.J., Wagener, T. and Watson, M. (2015) Brown, C.M., Lund, J.R., Cai, X., Reed, P.M., Zagona, E.A., Ostfeld, A., Hall, J., Characklis, G.A., Yu, W. and Brekke, L. (2015) Byers, E.A., Qadrdan, M., Leathard, A., Alderson, D., Hall, J.W., Amesaga, J.M., Tran, M., Kilsby, C.G. and Chaudry, M. (2015) Guillod, B., James, R., Massey, N., Otto, F., Hall, J., Allen, M. (2015) Modelling extreme weather in a changing climate: Potential applications for the insurance industry. Ives, M.C., Coello, J., Turner, D., Watson, G.V.R., Stringfellow, A.M., Powrie, W. and Hall, J. Dolan, T.and Collins, B. (ed.) (2015) Designing a Solid Waste Infrastructure Management Model for Integration into a National Infrastructure System-of Systems.Dolan, T.and Collins, B. (ed.) International Symposium for Next Generation Infrastructure Conference Proceedings: 30 September - 1 October 2014 International Institute of Applied Systems Analysis (IIASA),Schloss Laxenburg, Vienna, Austria Sadoff, C.W., Hall, J.W., Grey, D., Aerts, J.C.J.H., Ait-Kadi, M., Brown, C., Cox, A., Dadson, S., Garrick, D., Kelman, J., McCornick, P., Ringler, C., Rosegrant, M., Whittington, D. and Wiberg, D. (2015) Hall, J., Henriques, J., Hickford, A., Nicholls, R., Baruah, P., Birkin, M., Chaudry, M., Curtis, T., Eyre, N., Jones, C., Kilsby, C., Leathard, A., Lorenz, A., Malleson, N., McLeod, F., Powrie, W., Preston, J., Rai, N., Street, R., Stringfellow, A., Thoung, C., Tyler, P., Velykiene, R., Watson, G. and Watson, J. (2014) Jenkins, K., Hall, J., Glenis, V., Kilsby, C., McCarthy, M., Goodess, C., Smith, D., Malleson, N. and Birkin, M. (2014) Crawford-Brown, D., Sydall, M., Guan, D., Li, J., Jenkins, K., Hall, J.W., Beaven, R., Thoung, C. and Anger-Kraavi, A. (2013) Freer, J., Beven, K.J., Neal, J., Schumann, G. Hall, J.W. and Bates, P.D. (2013) Flood risk and uncertainty. In, Rougier, J., Sparks, S. and Hall, L. (eds.) Hall, J.W., Watts, G., Keil, M., de Vial, L., Street, R., Conlan, K., O'Connell, P.E., Beven, K.J. and Kilsby, C.G. (2012) Hannaford, J. and Hall, J.W. (2012) Flood risk in the UK: evidence of change and management responses. Chapter 2 in, Kundzewicz, Z.W. (ed.) Sayers, P.B., Galloway, G.E. and Hall, J.W. (2012) Robust decision making under uncertainty - Towards adaptive and resilient flood risk management infrastructure. In, Sayers, P.B. (ed.) Villarroel Walker, R., Beck, M.B. and Hall, J.W. (2012) Water – and nutrient and energy – systems in urbanising watersheds. Yu, C., Cheng, X., Hall, J.W., Evans, E.P., Wang, Y., Hu, C., Wu, H., Wicks, J., Scott, M., Sun, H., Wang, J., Ren, M. and Xu, Z. (2012) Mokrech, M., Hanson, S., Nicholls, R., Wolf, J., Walkden, M., Fontaine, C., Nicholson-Cole, S., Jude, S., Leake, J., Stansby, P., Watkinson, A., Rounsevell, M., Lowe, J. and Hall, J.W. (2011) Walsh, C.L., Dawson, R.J., Hall, J.W., Barr, S.L., Batty, M., Bristow, A., Carney, S., Dagoumas, A., Ford, A.C., Harpham, C., Tight, M. Watters, H. and Zanni, A. (2011) Hall, J.W. and Penning-Rowsell, E.C. (2010) Setting the scene for flood risk management. Chapter 1 in, Pender, G. and H. Faulkner (eds.) Hall, J.W. and Street, R. (2010) Strategic research on climate impacts and adaptation for infrastructure, the built environment and utilities: eight years of progress and future prospects. Dawson, R.J., Dickson, M.E., Nicholls, R.J., Hall, J.W., Walkden, M.J.A., Stansby, P., Mokrech, M., Richards, J., Zhou, J., Milligan, J., Jordan, A., Pearson, S., Rees, J., Bates, P., Koukoulas, S. and Watkinson, A. (2009) Dawson, R.J., Hall, J.W., Barr, S.L., Batty, M., Bristow, A.L., Carney, S., Dagoumas, A., Evans, S., Ford, A.C., Köhler, J., Tight, M.R., Walsh, C.L., Watters, H. and Zanni, A.M. (2009) A blueprint for the integrated assessment of climate change in cities. In, Tang, K. (ed.) Hall, J.W. (2009) Integrated assessment to support regional and local scale decision making. In, Davoudi, S., Crawford, J. and Mehmood, A. (eds.) Manning, L.J., Hall, J.W., Fowler, H.J., Kilsby, C.G., Tebaldi, C. and others (2009) Using probabilistic climate change information from a multimodel ensemble for water resources assessment. Dawson, R.J., Hall, J.W., Bates, P.D. and Nicholls, R.J. (2008) Quantified analysis of the probability of flooding in the Thames Estuary under imaginable worst case sea-level rise scenarios. In, Gopalakrishnan, C. and Okada, N. (eds.) Dawson, R.J., Speight, L., Hall, J.W., Djordjevic, S., Savic, D., Le and ro, J. (2008) Attribution of flood risk in urban areas. Liang, Q., Du, G., Hall, J.W. and Borthwick, A.G.L. (2008) Flood inundation modeling with an adaptive quadtree grid shallow water equation solver. Lonsdale, K.G., Downing, T.E., Nicholls, R.J., Parker, D., Vafeidis, A.T., Dawson, R. and Hall, J. (2008) Plausible responses to the threat of rapid sea-level rise in the Thames Estuary. Manning, L.J., Hall, J.W., Kilsby, C.G., Glendinning, S. and Anderson, M.G. (2008) Spatial analysis of the reliability of transport networks subject to rainfall-induced landslides. 1) Evans, E.P., Hall, J.W., Penning-Rowsell, E.C. and Thorne, C.R. (2007) Chapter 1: Overview. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 3) Simm, J.D., Thorne, C.R. and Hall, J.W. (2007) Chapter 12: Driver impact scoring, ranking and uncertainty. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 4) Hall, J.W., Sayers, P.B., Panzeri, M. and Deakin, R. (2007) Chapter 13: Quantified assessment of driver impacts on future flood risk in England and Wales. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 5) Sayers, P.B., Hall, J.W., Panzeri, M. and Deakin, R. (2007) Chapter 25: Quantified analysis of future flood risk management portfolios in England and Wales. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) 6) Watkinson, A.R., Evans, E.P., Hall, J.W., Penning-Rowsell, E.C. and Thorne, C.R. (2007) Chapter 28: Strategic Choices. In, Thorne, C.R., Evans, E.P. and Penning-Rowsell, E.C. (eds.) Dickson, M.E., Walkden, M.J.A. and Hall, J.W. (2007) Systemic impacts of climate change on an eroding coastal region over the twenty-first century. Goodess, C.M., Hall, J.W., Best, M., Betts, R., Cabantous, L., Jones, P.D., Kilsby, C.G., Pearman, A. and Wallace, C.J. (2007) Climate scenarios and decision making under uncertainty. Hall, J.W., Fu, G. and Lawry, J. (2007) Imprecise probabilities of climate change: aggregation of fuzzy scenarios and model uncertainties. Nicholls, R.J., Tol, R.S.J. and Hall, J.W. (2007) Assessing impacts and responses to global-mean sea level rise. In, Schlesinger, M., Kheshgi, H., Smith, J.B., de la Chesnaye, F., Reilly, J.M., Wilson, T. and Kolstad, C.D. (eds.) Evans, E., Hall, J.W., Penning-Rowsell, E., Sayers, P., Thorne, C. and Watkinson, A. (2006) Future flood risk management in the UK. Hall, J.W. (2006) Soft methods in Earth Systems Engineering. In, Lawry, J., Miranda, E., Bugarin, A., Shoumei, L., Gil, M-A., Grzegorzewski, P., Hryniewicz, O. (ed.) Hall, J.W., Dawson, R., Manning, L., Walkden, M.J., Dickson, M. and Sayers, P. (2006) Managing changing risks to infrastructure systems. Bates, P.D., Dawson, R.J., Hall, J.W. and Horritt, M.S., Nicholls, R.J., Wicks, J.K. and Hassan, M. (2005) Simplified two-dimensional modelling of coastal flooding for risk assessment and planning. Dawson, R., Hall, J.W., Sayers, P., Bates, P. and Rosu, C. (2005) Sampling-based flood risk analysis for fluvial dike systems. Dawson, R.J., Hall, J.W., Bates, P.D. and Nicholls, R.J. (2005) Quantified analysis of the probability of flooding in the Thames Estuary under imaginable worst-case sea level rise scenarios. Walkden, M.J.A and Hall, J.W. (2005) A predictive mesoscale model of the erosion and profile development of soft rock shores. Hall, J.W. and Lawry, J. (2004) Generation, combination and extension of random set approximations to coherent lower and upper probabilities. Hall, J.W., Le Masurier, J.W., Baker-Langman, E.A., Davis, J.P. and Taylor, C.A. (2004) A decision-support methodology for performance-based asset management. Lawry, J., Hall, J.W. and Bovey, R. (2004) Fusion of expert and learnt knowledge in a framework of fuzzy labels. Rubio, E., Hall, J.W. and Anderson, M.G. (2004) Uncertainty analysis in a slope hydrology and stability model using probabilistic and imprecise information. Dawson, R., Sayers, P.B., Hall J.W. and Bates, P. (2003) Flood risk assessment for Shoreline Management Planning. Proceeding of the ICE International Conference on Coastal Management, Brighton, UK 2003. Hall, J.H., Dawson, R.J., Sayers, P.B., Rosu, C., Chatterton, J.B. and Deakin, R. (2003) A methodology for national-scale flood risk assessment. Hall, J.W., Evans, E.P., Penning-Rowsell, E.C., Sayers, P.B., Thorne, C.R. and Saul, A.J. (2003) Quantified scenarios analysis of drivers and impacts of changing flood risk in England Wales: 2030-2100. Ohl, C., Frew, P., Sayers, P., Watson, G., Lawton, J., Farrow, J., Walkden, M. and Hall, J.W. (2003) North Norfolk - a regional approach to coastal erosion management and sustainability in practice. International Conference on Coastal Management, January 2003.. 226-240. Hall, J.W. and Anderson, M.G. (2002) Handling uncertainty in extreme or unrepeatable hydrological processes - the need for an alternative paradigm. . A report for the Environment Agency by HR Wallingford. Also summarised in Meadowcroft IC, Sayers PB, Hall JW. (2002) paper of the same title presented at the Annual Conference of River and Coastal Engineers, University of Keele, June 2002.</t>
-  </si>
-  <si>
-    <t>Mike Edmunds sadly passed away on 28th April 2015 after a short illness. A tribute from his friends and colleagues in the department is available Prof. Mike Edmunds' was a Visiting Professor at the School of Geography and the Environment. His expertise lay in water quality, especially relating to groundwater, hydrogeochemistry and palaeohydrology. He retired from the British Geological Survey in nearby Wallingford where, since 1986, he had held an IMP (Individual Merit Promotion) research position in hydrogeochemistry. He was involved in the supervision of 12 theses in UK and overseas and evaluated theses in several European countries as well as UK. In 1999 he received the Whitaker Medal of the Geological Society for his achievements in hydrogeology. In 2009 he received the OE Meinzer Award of the Geological Society of America and in 2010, the Vernadsky Medal of the International Association of Geochemistry. Prof. Mike Edmunds' research was in the fields of groundwater quality (UK and overseas), hydrogeochemical processes, trace element studies, isotope hydrology, palaeohydrology, arid and semi-arid zone studies including groundwater recharge assessment, groundwater acidification, salinity issues and mineral and thermal waters. He published over , including 140 externally reviewed in these fields. Most recently his interests centred on a) groundwater quality in the major aquifers of UK and Europe and b) water problems in arid and semi-arid regions of the Middle East (Cyprus, Jordan, Libya, Algeria, Tunisia), the Sahel countries (Nigeria, Niger, Mali, Senegal, Sudan, also Ghana). He was involved in research into water scarcity in north west China, focusing on groundwater in the desert basins and on palaeoclimate and palaeoenvironments recorded in sand dune moisture. He was also involved in science to policy and capacity development issues involving water in semi-arid regions. ) on projects related to groundwater and health as well as aquifer recharge. He also served as Expert Rapporteur for the European Commission's Geothermal Energy programme as well as assessor for its Framework programmes. He had organised courses on water quality in UK, Greece, Honduras, Mexico, Ethiopia and elsewhere. research awards and coordinated several R&amp;D projects funded by the European Commission in Europe, the Russian Far East and North Africa. Co-principal investigator (with ECU Oxford - now Environmental Change Institute) on NERC (TIGGER) Special Topic SAHEL programme: Intercomparison of groundwater/lake sediment records of Holocene environmental/climate change. Two INTAS (EC) projects with Russia (and Ireland) - i) the Mineral Waters of Primorye, Russian Far East and ii) Kamchatka - protection of unique natural hydrothermal phenomena. students, including courses on: 'Catchment Science: Hydrogeology - carbonate and non-non-carbonate hydrogeochemistry'; 'Water Quality and Sanitation: Groundwater pollution' and 'Water History and Civilisation'. Valuing a human asset through a novel framework for protected area resilience: A case study of the Mersey Valley Countryside Warden Service Estimating aquifer recharge in fractured hard rock: analysis of the methodological challenges and application to obtain a water balance (Jaisamand Lake Basin, India) Agricultural structure adjustment and ecosystem restoration planning at the village level to combat desertification: a pilot study in the Minqin Basin, Northwest China Sand, salt and water in the Stampriet Basin, Namibia: Calculating unsaturated zone (Kalahari dune-field) recharge using the chloride mass balance approach Taylor, R.G., Scanlon, B., Döll, P., Rodell, M., van Beek, R., Wada, Y., Longuevergne, L., Leblanc, M., Famiglietti, J.S., Edmunds, W.M., Konikow, L., Green, T.R., Chen, J., Taniguchi, M., Bierkens, M.F.P., MacDonald, A., Fan, Y., Maxwell, R.M., Yechieli, Y., Gurdak, J.J., Allen, D.M., Shamsudduham, M., Hiscock, K., Yeh, P.J.F., Holman, I. and Treidel, H. (2012) Edmunds, W.M. (2010) Conceptual models for recharge sequences in arid and semi-arid regions using isotopic and geochemical methods. In, Wheater, H.S., Mathias, S.A. and Li, X. (eds). Edmunds, W.M. and Gaye, C.B. (2010) The unsaturated zone as an observatory for the African Sahel. In, Birkle, P. and Torres, I.S. (eds.) Limits to recharge of groundwater from Tibetan plateau to the Gobi desert, implications for water management in the mountain front Edmunds, W.M. (2008) Evolution of palaeowaters in sedimentary basins and coastal aquifers: valuable natural resources archives of climatic and environmental change. In, Carrillo, J.R. and Ortega, M.A.G. (eds.) Edmunds, W.M. (2008) Groundwater in Africa: palaeowater, climate change and modern recharge. In, Adelana, S., MacDonald, A., Alemayehu, T. and Tindimugaya, C. (eds.) Shand, P, Love, A.J., Darbyshire, D.P.F. and Edmunds, W.M. (2007) Sr isotopes in natural waters: applications to source characterisation and water-rock interaction in contrasting landscapes. In, Bullen, T.D. and Wang, Y. (eds.) Edmunds, W.M., Gates, J. and Ma, J. (2007) Geochemical indicators of water scarcity - Inner Mongolia, China: The Minqin and Badain Jaran Desert. In, Bullen, T.D. and Wang, Y. (eds.) Scanlon, B.R., Keese, K.E., Flint, A.L., Flint, L.E., Gaye, C.B., Edmunds, W.M. and Simmers, I. (2006) Global synthesis of groundwater recharge in semi-arid and arid regions. Edmunds, W.M., Ma, J., Aeschbach-Hertig, W., Kipfer, R., and D.P.F. Darbyshire (2006) Groundwater recharge history and hydrogeochemical evolution in the Minqin basin, North West China. Edmunds, W.M. (2006) Libya's Saharan groundwater: occurrence, origins and outlook. In, Mattingley, D., McLaren, S., Savage, E., al-Fasatwi, Y. and Gadgood, K. (eds.) Edmunds, W.M. and Smedley, P.L. (2005) Fluorine in natural waters - occurrence, controls and health aspects. In, O. Selnius (ed.) Edmunds, W.M. (2005) Contribution of isotopic and nuclear tracers to study of groundwaters. In, P.K. Aggarwal, J. Gat, and K. Froehlich (eds.) Edmunds, W.M. (2005) Groundwater as an archive of climatic and environmental change. In, P.K. Aggarwal, J. Gat, and K. Froehlich (eds.) Deans, J.D., Edmunds, W.M., Lindley, D.K., Gaye, C.B., Dreyfus, B., Nizinski, J.J., Neyra, M. and Munro, R.C. (2005) Nitrogen in interstitial waters in the Sahel: Natural baseline, pollutant or resource? Ma, J.Z., Wang, X.S. and Edmunds, W.M. (2005) The characteristics of groundwater resources and their changes under the impacts of human activity in the arid north-west China - A case study of the Shiyang river basin. Schuerch, M., Edmunds, W.M., Buckley, D.K. (2004) Three-dimensional flow and trace metal mobility in shallow chalk groundwater, Dorset, United Kingdom. Edmunds, W.M., Dodo, A., Djoret, D., Gasse, F., Gaye, C.B., Goni, I.B., Travi, Y., Zouari, K. and Zuppi, G.M. (2004) Groundwater as an archive of climatic and environmental change. The Pep-III Traverse. In, Battarbee, R.W., Gasse, F. and Stickley, C.E. (eds.) Edmunds, W.M., Guendouz, A.H., Mamou, A., Moulla, A.S., Shand, P. and Zouari, K. (2003) Groundwater evolution in the continental intercalaire aquifer of southern Algeria and Tunisia: Trace element and isotopic indicators. Pearce, M.A., Jarvis, I., Swan, A.R.H., Murphy, A.M., Tocher, B.A. and Edmunds, W.M. (2003) Utility of elemental and stable isotope geochemistry in high resolution palynological studies: Upper cretaceous chalk of the Banterwick Barn borehole, Berkshire, UK. Guendouz. A., Moulla, A.S., Edmunds, W.M., Zouari, K., Shand, P. and Mamou. A. (2003) Hyrdrogeochemical and isotopic evolution of water in the complexe terminal aquifer in the Algerian Sahara. Edmunds, W.M., Shand, P., Hart, P. and Ward, R.S. (2003) The Natural (baseline) quality of groundwater in England and Wales: A UK pilot study. Edmunds, W.M. (2003) Hydrogeochemical processes in arid and semi-arid regions - focus on North Africa. Chapter 7 in, I. Simmers (ed.) Carrillo-Rivera, J.J., Cardona, A. and Edmunds, W.M. (2002) management of high fluoride groundwater flow: valley of San Luis Potosi, Mexico. Smedley, P.L. and Edmunds, W.M. (2002) Redox patterns and trace element behaviour in the East Midlands Triassic sandstone aquifer, UK. Edmunds, W.M. and Tyler, S.W. (2002) Unsaturated zones as archives of past climates: towards a new proxy for continental regions. Edmunds, W.M. (2001) Investigations of the unsaturated zone in semi-arid regions using isotopic and chemical methods and applications to water resources problems. In, Goni, I.B. and Edmunds, W.M. (2001) The use of unsaturated zone solute and isotope profiles in the study of groundwater recharge in the semi-arid zone of Nigeria. In, Pearce, M.A., Jarvis, I., Swan, A.R.H., Murphy, A.M., Tocher, B.A. and Edmunds, W.M. (2001) Utility of elemental and stable isotope geochemistry in high resolution palynological studies: Upper Cretaceous chalk of the Banterwick Barn borehole, Berkshire, UK. Edmunds, W.M. (2001) Palaeowaters in European coastal aquifers: The goals and main conclusions of the Palaeaux Project. In, Edmunds, W.M. and Milne, C.J. (eds.) Edmunds, W.M., Buckley, D.K., Darling, W.G., Milne, C.J., Smedley, P.L. and Williams, A. (2001) Palaeowaters in the aquifers of the coastal regions of southern and eastern England. In, Edmunds, W.M. and Milne, C.J. (eds.) Vaikmäe R., Edmunds, W.M., and Manzano, M. (2001) Weichselian palaeoclimate and palaeoenvironment in Europe: Background for palaeogroundwater formation. In, Edmunds, W.M. and Milne, C.J. (eds.) Loosli, H.H., Aeschbach-Hertig, W., Barbecot, F., Blaser, P., Darling W.G., Dever, L., Edmunds, W.M., Kipfer, R., Purtschert, R. and Walraevens, K. (2001) Isotopic methods and their hydrogeochemical context in the investigation of palaeowaters. In, Edmunds, W.M. and Milne, C.J. (eds.) Hinsby, K., Edmunds, W.M., Loosli, H.H., Manzano, M., Condesso De Melo, T. and Barbecot, F. (2001) The modern water interface: recognition, protection and development. Advance of modern waters in European aquifer systems. In, Edmunds, W.M. and Milne, C.J. (eds.) Edmunds, W.M. Hinsby, K., Marlin, C., Melo, T., Manzano, M, Vaikmae, R. and Travi, Y. (2001) Evolution of groundwater systems at the European coastline. In, Edmunds, W.M. and Milne, C.J. (eds.) Edmunds, W.M. (2000) Groundwater emplacement in European coastal aquifers since the late Pleistocene: Implications for Development. In, I. Entner and H. Zojer (eds.) Edmunds, W.M. and Verhagen, B.T. (2000) Isotope-based assessment of groundwater renewal: An international study of the unsaturated zone. In, Sililo,</t>
-  </si>
-  <si>
-    <t>Abi's research interests lie within understanding the dynamics of dryland systems, including environmental change, landscape dynamics and groundwater resources. She is interested in these processes and dynamics over a range of timescale and applies techniques to address questions about whether groundwater aquifers are part of the active hydrological cycle and questions about the timing and forcing mechanisms of expanding and contracting Quaternary drylands. Abi is currently working with Prof. Mike Edmunds and Prof. David Thomas, using pore-moisture in sand dune sediments in the Stampriet Basin, in the Kalahari in order to: reconstruct rates of recharge to unconfined groundwater; to understand the production and origin of nitrate in groundwater and produce a palaeomoisture history from the vertical profiles. She is currently developing this research theme following her pilot study undertaken during her Thesiger-Oman International Fellowship from the Royal Geographical Society. Abi continues to conduct research into the Quaternary palaeoenvironments of dryland areas, with a focus on the Namibian portion of the southern African subcontinent. Currently, this involves luminescence dating of dune material in the Namib Sand Sea and reviewing the palaeoenvironmental and geomorphological history of that region. She aims to test the applicability of pore-moisture techniques to the large Namib Sand Sea dunes, in order to provide a palaeomoisture proxy. She undertook her thesis on the reconstruction of Quaternary environmental conditions in Namibia using terrestrial proxies at the School of Geography and the Environment, holds an in Geography from Oxford. She was previously employed within Prof. Heather Viles' Rock Breakdown Laboratory where she coordinated write-up of an English Heritage funded soft capping research project. Abi is a teaching fellow in physical geography at St John's College, having held previous teaching posts at Keble and Christchurch Colleges and undertaken sabbatical cover teaching at Worcester and St Hilda's Colleges and tutorials for St Catherines College and St Edmund Hall. She also delivers physical geography practical classes as part of the FHS Geographical Research paper and is a tutor for the Quaternary Science and Desert Landscapes and Dynamics optional FHS subjects. The two broad themes of Abi's research involve using chemical tracers in the pore moisture of surface sediments and the reconstruction of Quaternary landscape dynamics. This research develops the use of chemical tracers in the pore moisture of near-surface sediments with the aim of improving understanding of dyland hydrological dynamics over both decadal-to-century and century-to-millennial timescales. Abi is fortunate to be working with to provide vital scientific data on recharge behaviour and rates to enable those within policy to design effective planning for sustainable use of groundwater supplies. as novel palaeoclimate proxy for late Holocene moisture fluctuations in drylands, where traditional proxies relating to moisture are not preserved. This pilot research, funded by the Thesiger-Oman fellowship, BSG small grant and the Fell Fund, tests the application of chloride mass balance (CMB) methods to assess rates of recharge to groundwater through the linear dunes of the southern Kalahari. This research centres on the Stampriet Artesia Basin, a key transboundary groundwater resource in Namibia, Botwsana and South Africa. Results from two test sites in Namibia indicate high suitability, suggest recharge rates are between 7 and 56 mm/y and that sampled dune profiles span multi-decadal timescales. Rainfall over the 2011-2012 rainy season is being analysed to better constrain the chloride input into the sediments. There is now a need to constrain spatial variability across the basin and produce a regional estimate of recharge via this direct mechanism through dune sands, which cover 80% of the basin surface. This is particularly important for the uppermost aquifer layer, from which the majority of groundwater abstraction occurs. Future sampling is planned. Sampling dunes in the southern Kalahari for dual moisture and OSL analysis, in a region where pumped groundwater is key to agricultural development. The provision of a moisture proxy using CMB methods in sand-covered regions, such as the vast Namib Sand Sea will be invaluable to answering questions about long term hydrological and environmental dynamics in the southern African subcontinent, which lies at the interface of tropical, subtropical and temperate atmospheric and oceanic circulation systems. It has been suggested there is some coherence in records of progressive aridification over the past few thousand years, but, not all proxy records are in accordance, and the spatial complexity of the environmental response can only be addressed by widening the coverage of sites into regions such as the Namib Sand Sea, about which very little is known over this timescale. Recent notable success in applying the CMB approach to provide information over centennial-to-millennial timescales has been had in the Badain Jaran Desert in China by other researchers. Further development of this novel proxy is of great significance in refining our understanding of environmental change in dryland regions, which are hampered by a paucity of preserved proxy records that relate directly to moisture availability. Sampling is planned later this year. Abi plans to develop these methods in other dyland regions with a potential collaboration with Prof. Ashok Singhvi in India. This represents part of the effort within the Landscape Dynamics research cluster to better understand long-term landscape dynamics using field and laboratory methods. This builds on research undertaken during Abi's DPhil that utilised sand dune, interdune water-lain sediments and fluvial tufa and applied OSL and U-series dating. The application of optically stimulated luminescence (OSL) in the Namib Desert continues to revolutionise our knowledge of the past dynamics of this dryland environment. OSL has been applied to: (i) complex linear dunes, alongside ground penetrating radar stratigraphy, to establish dune migration rates; (ii) fluvial lithofacies associations, to constrain periods of higher discharge and (iii) aeolian sand, interbedded with carbonate deposits, to provide chronologies for water-lain and interdune sediments. Abi has been reviewing the contribution of these data to enhancing the understanding of palaeoenvironmental and palaeohydrological change on the west coast of Namibia and also dune migration rates for complex linear dune features at the far northern extent of the northern Namib Sand Sea. This research investigates the age and characteristics of different dune features within the northern Namib. The Namib Desert is one of the earth's oldest deserts. Above the semi-consolidated, tertiary-aged Tsondab Sandstone, lies the Namib Sand Sea (the unconsolidated dunes). The sand sea contains a range of dune types, and some of the largest dune forms found on earth. There is a paucity of chronological control for the dunefield, although cosmogenic nuclide data have recently been used to suggest the region has remained covered in sand for at a million years and luminescence dating in the northern reaches indicates dynamic dune activity over the last five thousand years, with complete overturning of large dune features. This study aims to provide new chronological data in a region of 'dendritic' dune morphology. This morphology is particularly interesting as it contains features of different sizes and orientations that would appear to represent different generations of dunes. The preliminary results from four of the samples suggest that very recent aeolian activity is responsible for the formation of small features (a few metres high), whilst the large linear dunes (up to 100 m high) appear to substantially older than existing luminescence chronologies for the region. Abi teaches physical geography at St John's College, having held previous teaching posts at Keble and Christchurch Colleges and undertaken sabbatical cover teaching at Worcester and St Hilda's Colleges and tutorials for St Catherines College and St Edmund Hall. She teaches the 'Earth System Processes' core course and parts of the 'Geographical Techniques' and 'Geographical Controversies' papers for the Preliminary Examination. She teaches the core 'Earth System Dynamics' paper and components of 'Environmental Geography' and 'Geographical Research' core papers. She coordinates the laboratory-based classes for the 'Geographical Research' paper within the department and assists with the Physical Geography Field Classes. She is a tutor for the Final Honour School Special Subjects 'Dryland Landscapes and Dynamics' and 'The Quaternary Period' and in 2010 taught the latter course for Dr Richard Bailey's sabbatical cover. Sand, salt and water in the Stampriet Basin, Namibia: Calculating unsaturated zone (Kalahari dune-field) recharge using thechloride mass balance approach Casting new light on late Quaternary environmental and palaeohydrological change in the Namib Desert: a review of the application of optically stimulated luminescence in the region Stone, A.E.C. (2012) Shedding light on the past: records of past conditions in the Namib Desert and the use of luminescence dating. Chapter 2, in Mol, L. and Sternberg, T. (eds.) Late Quaternary palaeohydrological changes in the northern Namib Sand Sea: New chronologies using OSL dating of interdigitated aeolian and water-lain interdune deposits</t>
-  </si>
-  <si>
-    <t>Danny Dorling joined the School of Geography and the Environment in September 2013 to take up the Halford Mackinder Professorship in Geography. He was previously a professor of Geography at the University of Sheffield. He has also worked in Newcastle, Bristol, Leeds and New Zealand, went to university in Newcastle upon Tyne, and to school in Oxford. which shows who has most and least in the world. His work concerns issues of housing, health, employment, education, wealth and poverty. His recent books include, co-authored texts Before a career in academia Danny was employed as a play-worker in children's play-schemes and in pre-school education where the underlying rationale was that playing is learning for living. He tries not to forget this. He is an Academician of the Academy of the Learned Societies in the Social Sciences, a former Honorary President of the Society of Cartographers and a current patron of Roadpeace, the national charity for road crash victims.</t>
-  </si>
-  <si>
-    <t>Professor Müller is Managing Director of Oxford Climate Policy (a not-for-profit company aimed at capacity building for developing country climate change negotiators), and Director of the European Capacity Building Initiative (ecbi), an international initiative for sustained capacity building in support of international climate change negotiations. He has been serving as Adviser to the LDC Group Chair (2011-12) and the Africa Group Chair (2012-13). He participated in the deliberations of the Transitional Committee (TC) for the Green Climate Fund (GCF) as Adviser to the LDC TC members, who he has also been also advising on the GCF Board and the UNFCCC Standing Committee on Finance. Professor Müller received his doctorate (D.Phil.) in Philosophy from the University of Oxford and was formerly a Research Fellow at Wolfson College and a Lecturer in Logic at the Queen's College, Oxford. He has a Diploma in Mathematics from the Eidgenössische Technische Hochschule (ETH) in Zürich, Switzerland.</t>
-  </si>
-  <si>
-    <t>John Boardman is a geomorphologist educated at the Universities of Keele (BA and DSc) and London (BSc and PhD). John retired from ECI in September 2008 and from his positions as Deputy Director of the ECI, Director of the MSc in Environmental Change and Management. He is now an Emeritus Fellow at the ECI and continues working on land degradation issues, particularly in the Karoo, South Africa. He is Honorary Professor in the Department of Environmental and Geographical Science, University of Cape Town. He has published over 150 papers mainly on land degradation and has edited several books: Soils and Quaternary Landscape Evolution (Wiley 1985), Periglacial Processes and Landforms in Britain and Ireland (CUP 1987), Soil Erosion on Agricultural Land (Wiley 1990), Modelling Soil Erosion by Water (Springer 1998) and Soil Erosion in Europe (Wiley 2006). John was Chairman of the EU-funded COST Action 623 'Soil Erosion and Global Change' (1998-2003) with 21 participating countries and Chaired a Working Group in COST 634 'On and Off-Site Impacts of Runoff and Erosion'. He is UK representative on the COST (European Cooperation in Science and Technology) Transdisciplinary Proposal Standing Assessment Board and also on the Earth System Science and Environmental Management committee. John continues to work on soil erosion in southern England and also on land degradation in South Africa. John has begun a new project in Autumn 2013 on the history and impact of rainfed wheat farming in the Sneeuberg, South Africa. , John continues to teach on the course and to lead field trips. He has recently acted as External Examiner on MSc degrees at the Universities of Exeter and Edinburgh. John is also supervising a PhD student on Sediment Pressures and Mitigation options for the River Rother at the University of Northampton. Understanding the influence of farmer motivations on changes to soil erosion risk on sites of former serious erosion in the South Downs National Park, UK The connectivity of erosion: how runoff and sediment travels from field to river – the case of the Rother valley, West Sussex Evans, J., Boardman, J., Foster, I.D.L. and Copeland-Phillips, R. (2017) The impact of on-line dis-continuity on fluvial sediment dynamics and valley long profile adjustment. British Society for Geomorphology Annual Meeting, Hull, 4-6 September 2017. A comparison of conventional and 137Cs-based estimates of soil erosion rates on arable and grassland across lowland England and Wales Making water policy work in the United Kingdom: A case study of practical approaches to strengthening complex, multi-tiered systems of water governance The new assessment of soil loss by water erosion in Europe. Panagos P. et al., 2015 Environmental Science and Policy 54, 438–447—A response Effect of the spatial organisation of land use on muddy flooding from cultivated catchments and recommendations for the adoption of control measures Krena, J., Greenwood, P., Kuhn, B., Heckrath, G., Foster, I., Boardman, J., Measows, M. and Kuhn, N. (2016) Soil organic carbon erosion and its subsequent fate in the Karoo rangeland. EGU General Assembly 2016, held 17-22 April, 2016 in Vienna Austria. The hydrological role of 'sunken lanes' with respect to sediment mobilization and delivery to watercourses with particular reference to West Sussex, southern England The significance of drilling date and crop cover with reference to soil erosion by water, with implications for mitigating erosion on agricultural land in South East England Boardman, J., Hoffman, M.T., Holmes, P.J. and Wiggs, G.F.S. (2012) Soil erosion and land degradation. Chapter 11 in, Holmes, P. and Meadows, M. (eds.) Evrard, O., Heitz, C., Liegeois, M., Boardman, J., Vandaele, K., Auzet, A.V. and van Wesemael, B. (2010) A comparison of management approaches to control muddy floods in central Belgium, northern France and southern England. A simple validated GIS expert system to map relative soil vulnerability and patterns of erosion during the muddy floods of 2000-2001 on the South Downs, Sussex, UK Boardman, J. (2008) Soils and sustainability: the future of the South Downs. In, Fish. R., Seymour, S., Watkins, C. and Steven, M. (eds.) Post-European settlement impacts on erosion and land degradation: a case study using farm reservoir sedimentation in the Eastern Cape, South Africa . International Association of Hydrological Sciences Press International Commission on Continental Erosion/International Association of Hydrological Sciences (ICCE/IAHS) Symposium ‘Sediment Dynamics in Changing Environments’, Christchurch, New Zealand, 1-5 December 2008. ISBN: 9781901502848. Boardman, J. (2007) Soil erosion: the challenge of assessing variation through space and time. In, Goudie, A.S. and Kalvoda, J. (eds.) Boardman, J. and Poesen, J. (2006) Soil erosion across Europe : major processes, causes and consequences. In, Burley, J. and Evans, J. and Youngquist, JA (eds.) Foster, I.D.L., Boardman, J., Keay-Bright, J. and Meadows, M.E. (2005) Land degradation and sediment dynamics in the South African Karoo. Boardman, J., Parsons, A.J., Holl, , R., Holmes, P.J. and Washington, R. (2003) Development of badlands and gullies in the Sneeuberg, Great Karoo, South Africa. Boardman, J. (2002) Thornsgill and Mosedale; Helvellyn; Throstle Shaw; Sandbeds Fan; Grasmoor; Skiddaw. In, Huddart, D. and Glasser, N.F. and Innes, J. (eds.) Lascelles, B., Favis-Mortlock, D., Parsons, T. and Boardman, J. (2002) Automated Digital Photogrammetry: A Valuable Tool for Small-scale Geomorphological Research for the Non-photogrammetrist? Favis-Mortlock, D.T., Boardman, J. and MacMillan, V.J. (2001) The limits of erosion modeling: why we should proceed with care. In, Harmon, R.S. and Doe, W.W. (eds.) Wild, C., Wells, C., Anderson, D., Boardman, J. and Parker, A. (2001) Evidence for medieval clearance in the Seathwaite Valley, Cumbria. Favis-Mortlock, D.T., Boardman, J., Parsons, A.J. and Lascelles, B. (2000) Emergence and erosion: a model for rill initiation and development.</t>
-  </si>
-  <si>
-    <t>with cross-appointments in the Saïd Business School and the School of Geography and the Environment at Oxford University. He also holds a Professorial Fellowship at St Edmund Hall, Oxford. He is, as well, Sir Louis Matheson Distinguished Visiting Professor at Monash University's Faculty of Business and Economics (Melbourne) and a Visiting Professor at Stanford University. Previous academic appointments have been at Harvard's Kennedy School of Government, Harvard Law School (Senior Research Associate), the University of Chicago, Carnegie Mellon's Heinz School and Monash University. Other honours include being Andrew Mellon Fellow at the US National Academy of Sciences and Visiting Scholar Deutscher Akademischer Austausch Dienst at the University of Marburg. He has held a number of senior administrative posts including Associate Dean (Finance, Graduate Studies) and Dean of the Faculty of Arts at Monash University (Melbourne), Chair of the Faculty Board of Anthropology and Geography (Oxford), and most recently Director and Head of the Oxford University Centre for the Environment. Professor Clark has served on the Social Science Committee of the British Academy, has been an elected member of the Oxford University's Socially Responsible Investment Committee, is an employer-nominated trustee of the Oxford Staff Pension Scheme, is a consultant to MetallRente GmbH, is a Founding Governor of the UK Pension Policy Institute, is the External Advisor to Diageo's Executive Environmental Working Group, and serves on the advisory board of Arabesque. He was a consultant to the Swedish Government's An economic geographer, he is interested in the responsibilities and behaviour of investors as regards long-term sustainable investment. This has involved research on institutions' proxy-voting behaviour, the strategies of corporate engagement given concerns about environmental liabilities and the sensitivity of firms to brand image and reputation, the regulation of corporate disclosure on issues related to environment and social responsibility, and the governance of investment institutions that have an explicit long-term mandate. His current research focuses upon the governance of investment decision-making in the context of market volatility and long-term obligations. In part, this project has developed in collaboration with Oxford colleagues and graduate students as well as the , Towers Watson, and the project led by Professor Tessa Hebb at Carleton University (Ottawa) funded by the Social Science and Humanities Research Council of Canada. Recent related books include the co-edited Related research is focused on the design and management of investment institutions including reference to insourcing, out-sourcing, and off-shoring activities and the demand and supply of financial services relevant to pension funds, endowments, and sovereign wealth funds. Papers on this topic have been published in the (2014). With Adam Dixon and Ashby Monk, his monograph on the governance and legitimacy of sovereign wealth funds was published by Princeton University Press in 2013. His new book on the organization and management of financial institutions with Ashby Monk will be published by OUP in 2017. His research on household financial decision-making has focused on long-term saving utilising theories and methods from the behavioural and social sciences in the context of risk and uncertainty. Papers on this topic have been published in the Transactions IBG (2007), Ageing and Society (2008), Environment and Planning A (2009), Pensions: An International Journal (2009), the Journal of Economic Geography (2010) and Urban Studies (2011) supported, in part, by the ESRC, Mercer and Towers Wyatt. With Kendra Strauss and Janelle Knox-Hayes, he is co-author of (OUP, 2012). His latest research utilising a large data base of more than 550,000 pension plan participants over 10 years in conjunction with the Monash-CSIRO project. Recent papers available on ssrn.com deal with gambling behaviour, advice-seeking, and decision-making. Environmental investment strategies across the investment value chain: addressing the investment gap in clean technologies - from asset owners to entrepreneurs What are the major obstacles facing corporations in the uproar of ESG and what can be done to fix that? Reporting fatigue and ambiguous expectations The governance and management of public-private partnerships bringing together stakeholders in the realization of complex engineering projects - One Belt One Road Initiative Politics of transparency: contested spaces of corporate responsibility, science and regulation in shale gas projects of the UK and US State and local pension fund governance and the process of contracting for investment services: the scope of diversity and the problem of embeddedness The home, pension savings and risk aversion: intentions of the defined contribution pension plan participants of a London-based investment bank at the peak of the bubble Clark, G.L. and Viehs, M. (2016) Corporate Social Responsibility: The Case for Active Ownership by Institutional Investors. Chapter 17 in, Barton, D., Horváth, D. and Kipping, M. (eds.) Clark, G.L., Hachigian, H., McGill, S., Molinari, C. and Wójcik, D. (2015) Addressing the challenges of transformation through sustainable investment. Chapter 46 in, Hebb, T., Hawley, J.P., Hoepner, A.G.F., Neher, A.L. and Wood, D. (eds.) Burger, C. and Clark, G.L. (2013) Finanzkompetenz, institutionelle Rahmenbedingungen und Vorsorge. Chapter 6 in, Hurrelmann, K. and Karch, H. (eds.) Clark, G.L. and Woods, C. (2012) The impossible planetary trust: intergenerational equity, long-term investment and water governance and regulation. Chapter 10 in, Godfrey, J.M. and Chalmers, K. (eds.) Strauss, K. and Clark, G.L. (2010) The geographical pension gap: understanding patterns of inequality in UK occupational pensions. In, Coe, N. and A. Jones (eds.) Babcock-Lumish, T.L. and Clark, G.L. (2008) Pricing the economic landscape: global financial markets and the communities and institutions of risk management. In, Wescoat Jr., J.L. and Johnston, D.M. (eds.) Clark, G.L. (2008) Pension fund governance: expertise and organizational form. Chapter 2 in, Evans, J., Orszag, M. and Piggott, J. (eds.) Clark, G.L. and Salo, J. (2008) Corporate governance and environmental risk management: a quantitative analysis of 'New Paradigm' firms. Chapter 5 in, Quarter, J., Carmichael, I. and Ryan, S. (eds.) Clark, G.L., Urwin, R., Allen, M.R., Wójcik, D., Molinari, C., and McGill, S.M. (2012) Project Telos: Addressing the Challenges of Transformation Through Sustainable Investing. Towers Watson, London</t>
-  </si>
-  <si>
-    <t>As Professor of Ecosystem Science at the School of Geography and the Environment and Programme Leader in Ecosystems at the Environmental Change Institute, Prof. Malhi's research interests focus on interactions between forest ecosystems and the global atmosphere, with a particular focus on their role in global carbon, energy and water cycles, and in understanding how the ecology of natural ecosystems may be shifting in response to global atmospheric change. More recently his interests have expanded to include the impacts and limitation of tropical deforestation. in Meteorology from the University of Reading. His early post-doctoral work at the University of Edinburgh focused on measuring ecosystem carbon fluxes from pristine Amazonian rainforests, and this led to a deeper interest in the ecology and dynamics of tropical rainforests. In 2000 he co-founded the Amazon rainforest forest inventory network (RAINFOR) which has been revealing fundamental new insights into the biogeography of Amazonian forests, and how they are responding to global atmospheric change. He was a Royal Society University Research Fellow at Edinburgh University between 1999 and 2004. In 2005 he was appointed a University Lecturer at the School of Geography and the Environment, in 2006 he became Reader in Terrestrial Ecology, and in 2007 Professor of Ecosystem Science. He leads an active Prof. Malhi is an Honorary Fellow of Edinburgh University and UCLA and a Visiting Fellow of Leeds University. He is also a member of various committees including: the Royal Society Advisory Committee on Climate Change and Ocean Acidification; the Royal Society Committee on Science in Society; and the Scientific Steering Committee of the Large Scale Biosphere Atmosphere Experiment in Amazonia. He has delivered invited seminars/plenaries in numerous universities, including Harvard, UCLA, Berkeley, Duke, Cambridge, and Brasilia. He was the editor of a thematic issue of , and has been a contributing author to the Intergovernmental Panel on Climate Change, Working Group 1 and the organiser of major multidisciplinary international conference: The major focus of his work is understanding the interactions between forest ecosystems and the atmosphere. This includes the cycling of carbon, water and nutrients, the climatic controls on ecosystem metabolism and biomass, and more recently, assessing the impacts of land use change and the potential of forest protection to mitigate global climate change. His research techniques combine the diverse disciplines of ecological and forest field surveys, ecophysiological measurements, micrometeorological field techniques, satellite remote sensing, vegetation-atmosphere modelling, and social science. He has a particular interest in tropical forests ranging from Malaysia to the Congo and Zambia, but especially in Amazonia and the Andes. Since 2006 he has been engaging in a major study looking at an elevation transect in the Amazon-Andes, ranging from 200m to 3600m in elevation, and has ongoing research interests across the lowland forests of Amazonia through the RAINFOR project. More recently he has embarked on an expanding programme of research looking at the functioning and climatic response of temperate woodlands of the Upper Thames. Prof. Malhi teaches on biodiversity and ecosystem assessment techniques for the MSc in Biodiversity Conservation and Management. He also teaches on tropical forests, environmental modelling and GIS/remote sensing for the MSc in Environmental Change and Management, for which he is also an internal examiner. The political ecology of oil palm, people and forest conservation: searching for a balanced approach to development in the Peruvian Amazon Clouds on the horizon: identifying global priorities for conservation marketing and planning the conservation of the Sunda clouded leopard on Borneo Environmental monitoring of oil palm expansion in Malaysian Borneo and analysis of two international governance initiatives relating to palm oil production Marthews, T.R., Metcalfe, D., Malhi, Y., Phillips, O., Huaraca Huasco, W., Riutta, T., Ruiz Jen, M., Girardin, C., Urrutia, R., Butt, N., Cain, R. and Oliveras, I. (2012) Metcalfe, D.B., Meir, P., Aragao, L.E.O.C., Malhi, Y., da Costa, A.C.L., Braga, A., Goncalves, P.H.L., de Athaydes, J., de Almeida, S.S. and Williams, M. (2007) Factors controlling spatio-temporal variation in carbon dioxide efflux from surface litter, roots and soil organic matter at four rain forest sites in the eastern Amazon Asner, G.P., Martin, R.E., Anderson, C.B., Kryston, K., Vaughn, N., Knapp, D.E., Bentley, L.P., Shenkin, A., Salinas, N., Sinca, F., Tupayachi, R., Quispe Huaypar, K., Montoya Pillco, M., Ccori Álvarez, F.D., Díaz, S., Enquist, B. and Malhi, Y. (2017) Blonder, B., Salinas, N., Patrick-Bentley, L., Shenkin, A., Chambi Porroa, P.O., Valdez Tejeira, Y., Violle, C., Fyllas, N.M., Goldsmith, G.R., Martin, R., Asner, G.P., Diaz, S., Enquist, B.E. and Malhi, Y. (2017) Chavana-Bryant, C., Malhi, Y., Wu, J., Asner, G.P., Anastasiou, A., Enquist, B.J., Cosio Caravasi, E.G., Doughty, C.E., Saleska, S.R., Martin, R.E. and Gerard, F.F. (2017) Clark, K.E., Hilton, R.G., West, A.J., Robles Caceres, A., Grocke, D.R., Marthews, T.R., Ferguson, R.I., Asner, G.P., New, M. and Malhi, Y. (2017) Cushman, S.A., Macdonald, E.A., Landguth, E.L., Malhi, Y. and Macdonald, D.W. (2017) Multiple-scale prediction of forest loss risk across Borneo. Doughty, C.E., Goldsmith, G.R., Raab, N., Girardin, C.A.J., Farfan-Amezquita, F., Huaraca-Huasco, W., Silva-Espejo, J.E., Araujo-Murakami, A., da Costa, A.C.L., Rocha, W., Galbraith, D., Meir, P., Metcalf, D.B. and Malhi, Y.M. (2017) Enquist, B.J., Bentley, L.P., Shenkin, A., Maitner, B., Savage, V., Michaletz, S., Blonder, B., Buzzard, V., Espinoza, T.E.B., Farfan-Rios, W., Doughty, C.E., Goldsmith, G.R., Martin, R.E., Salinas, N., Silman, M., Diaz, S., Asner, G.P. and Malhi, Y. (2017) Esquivel Muelbert, A., Baker, T.R., Dexter, K., Lewis, S.L., ter Steege, H., Lopez-Gonzalez, G., Monteagudo Mendoza, A., Brienen, R., Feldpausch, T.R., Pitman, N., Alonso, A., van der Heijden, G., Peña-Claros, M., Ahuite, M., Alexiaides, M., Álvarez Dávila, E., Araujo Murakami, A., Arroyo, L., Aulestia, M., Balslev, H., Barroso, J., Boot, R., Cano, A., Chama Moscoso, V., Comiskey, J., Dallmeier, F., Daly, D., Dávila, N., Duivenvoorden, J., Javier Duque Montoya, A., Erwin, T., Di Fiore, A., Fredericksen, T., Fuentes, A., García-Villacorta, R., Gonzales, T., Guevara, J.E.A., Honorio Coronado, E.N., Huamantupa-Chuquimaco, I., Killeen, T., Malhi, Y., Mendoza, C., Mogollón, H., Møller Jørgensen, P., Montero, J.C., Mostacedo, B., Nauray, W., Neill, D., Núñez Vargas, P., Palacios, S., Palacios Cuenca, W., Pallqui Camacho, N.C., Peacock, J., Phillips, J.F., Pickavance, G., Quesada, C.A., Ramírez-Angulo, H., Restrepo, Z., Reynel Rodriguez, C., Ríos Paredes, M., Sierra, R., Silveira, M., Stevenson, P., Stropp, J., Terborgh, J., Tirado, M., Toledo, M., Torres-Lezama, A., Natalia Umaña, M., Urrego, L.E., Vasquez Martinez, R., Valenzuela Gamarra, L., Vela, C., Vilanova Torre, E., Vos, V., von Hildebrand, P., Vriesendorp, C., Wang, O., Young, K.R., Zartman, C.E., Phillips, O.L. and Cornejo, F. (2017) Fyllas, N.M., Patrick Bentley, L., Shenkin, A., Asner, G.P., Atkin, O.K., Diaz, S., Enquist, B.J., Farfan-Rios, W., Gloor, E., Guerrieri, R., Huaraca Huasco, W., Ishida, Y., Martin, R.E., Meir, P., Phillips, O., Salinas, N., Silman, M., Weerasinghe, L.K., Zaragoza-Castells, J., Malhi, Y. (2017) Goldsmith, G.R., Bentley, L.P., Shenkin, A., Salinas, N., Blonder, B., Martin, R.E., Castro-Ccossco, R., Chambi-Porroa, P., Diaz, S., Enquist, B.J., Asner, G.P. and Malhi, Y. (2017) Lee, J., Coomes, D., Schonlieb, C.B., Cai, A., Lellmann, J., Dalponte, M., Malhi, Y., Butt, N. and Morecroft, M. (2017) A graph cut approach to 3D tree delineation, using integrated airborne LiDAR and hyperspectral imagery. Moore, S., Adu-Bredu, S., Duah-Gyamfi, A., Addo-Danso, S.D., Ibrahim, F., Mbou, A.T., dr Grandcourt, A., Valentini, R., Nicolini, G., Djagbetey, G., Owusu-Afriyie, K., Gvozdevaite, A., Oliveras, I., Ruiz-Jaen, M. and Malhi, Y. (2017) Nakamura, A., Kitching, R., Cao, M., Creedy, T., Fayle, T., Freiberg, M., Hewitt, C., Itioka, T., Koh, L., Ma, K., Malhi, Y., Mitchell, A., Novotny, V., Ozanne, C., Song, L., Wang, H. and Ashton, L. (2017) Peixoto, K.S., Marimon-Junior, B.H., Marimon, B.S., Elias, F., de Farias, J., Freitag, R., Mews, H.A., das Neves, E.C., Prestes, N.C.C.S. and Malhi, Y. (2017) Unravelling ecosystem functions at the Amazonia-Cerrado transition: II. Carbon stocks and CO2 soil efflux in cerradão forest undergoing ecological succession Restrepo-Coupe, N., Levine, N.M., Christoffersen, B.O., Albert, L.P., Wu, J., Costa, M.H., Galbraith, D., Imbuzeiro, H., Martins, G., da Araujo, A.C., Malhi, Y.S., Zeng, X., Moorcroft, P. and Saleska, S.R. (2017) Wu, J., Chavana-Bryant, C., Prohaska, N., Serbin, S.P., Guan, K., Albert, L.P., Yang, X., van Leeuwen, W.J.D., Garnello, A.J., Martins, G., Malhi, Y., Gerard, F., Oliviera, R.C. and Saleska, S.R. (2017) Wu, M.S., Feakins, S.J., Martin, R.E., Martin, R.E., Shenkin, A., Patrick Bentley, L., Blonder, B., Salinas, N., Asner, G. (2017) Avitabile, V., Herold, M. Heuvelink, G., Lewis, S., Phillips, O., Asner, G., Armston, J., Ashton, P., Banin, L., Bayol, N., Berry, N., Boeckx, P., de Jong, B., DeVries, B., Girardin, C., Kearsley, E., Lindsell, J., Lopez-Gonzalez, G., Lucas, R., Malhi, Y., Morel, A. Mitchard, E., Nagy, L., Qie, L., Quinones, M., Ryan, C., Ferry, S., Sundreland, T., Laurin, G., Gatti, R., Valentini, R., Verbeeck, H., Wijaya, A. and Wilcock, S. (2016) Campioli, M., Malhi, Y., Vicca, S., Luyssaert, S., Papale, D., Penuelas, J., Reichstein, M., Migliavacca, M., Arain, M.A. and Janssens, I.A. (2016) Cardoso, A.W., Medina-Vega, J.A., Malhi, Y., Adu-Bredu, S., Ametsitsi, G.K.D., Djagbletey, G., van Langevelde, F., Veenendaal, E. and Oliveras, I. (2016) Doughty, C.E., Roman, J., Faurby, S., Wolf, A., Haque, A., Bakker, E.S., Malhi, Y., Dunning, J.B. and Svenning, J.C. (2016) Feakins, S.J., Bentley, L.P., Salinas, N., Shenkin, A., Blonder, B., Goldsmith, G.R., Ponton, C., Arvin, L.J., Wu, M.S., Peters, T., West, A.J., Martin, R.E., Enquist, B.J., Asner, G.P. and Malhi, Y. (2016) Feakins, S.J., Peters, T., Wu, M.S., Shenkin, A., Salinas, N., Girardin, C.A.J., Bentley, L.P., Blonder, B., Enquist, B.J., Martin, R.E., Asner, G.P. and Malhi, Y. (2016) Feldpausch, T.R., Phillips, O.L., Brienen, R.J.W., Gloor, E., Lloyd, J., Lopez-Gonzalez, G., Monteagudo-Mendoza, A., Malhi, Y., Alarcón, A., Álvarez Dávila, E., Alvarez-Loayza, P., Andrade, A., Aragao, L.E.O.C., Arroyo, L., Aymard C, G.A., Baker, T.R., Baraloto, C., Barroso, J., Bonal, D., Castro, W., Chama, V., Chave, J., Domingues, T.F., Fauset, S., Groot, N., Honorio C, E., Laurance, S., Laurance, W.F., Lewis, S.L., Licona, J.C., Marimon, B.S., Marimon-Junior, B.H., Mendoza Bautista, C., Neill, D.A., Oliveira, E.A., Oliveira dos Santos, C., Pallqui Camacho, N.C., Pardo-Molina, G., Prieto, A., Quesada, C.A., Ramírez, F., Ramírez-Angulo, H., Réjou-Méchain, M., Rudas, A., Saiz, G., Salomão, R.P., Silva-Espejo, J.E., Silveira, M., ter Steege, H., Stropp, J., Terborgh, J., Thomas-Caesar, R., van der Heijden, G.M.F., Vásquez Martinez, R., Vilanova, E. and Vos, V.A. (2016) Girardin, C.A.J., Malhi, Y., Doughty, C.E., Metcalfe, D.B., Meir, P., del Aguila-Pasquel, J., Araujo-Murakami, A., da Costa, A.C.L., Silva-Espejo, J.E., Farfán Amézquita, F. and Rowland, L. (2016) Jiménez-Muñoz, J.C., Mattar, C., Barichivich, J., Santamaría-Artigas, A., Takahashi, K., Malhi, Y., Sobrino, J.A. and van der Schrier, G. (2016) Johnson, M.O., Galbraith, D., Gloor, E., Deurwaerder, H.d., Guimberteau, M., Rammig, A., Thonicke, K., Verbeeck, H., Randow, C.v., Monteagudo, A., Phillips, O.L., Brienen, R.J.W., Feldpausch, T., Lopez-Gonzalez, G., Fauset, S., Quesada, C.A., Christoffersen, B., Ciais, P., Gilvan, S., Kruijt, B., Meir, P., Moorcroft, P., Zhang, K., Alvarez, E.A., Alves-de-Oliveira, A., Amaral, I., Andrade, C., Aragao, L.E.O., Araujo-Murakami, A., Arets, E.J.M., Arroyo, L., Aymard, G.A., Baraloto, C., Barroso, J., Bonal, D., Boot, R., Camargo, J., Chave, J., Cogollo, A., Cornejo, F.V., Costa, L.d., Fiore, A.d., Ferreira, L., Higuchi, N., Honorio, E., Killeen, T.J., Laurance, S.G., Laurance, W.F., Licona, J., Lovejoy, T., Malhi, Y., Neyret, M., Bentley, L.P., Oliveras, I., Marimon, B.S., Marimon-Junior, B.H., Almeida de Oliveira, E., Barbosa Passos, F., Castro Ccoscco, R., dos Santos, J., Matias Reis, S., Morandi, P.S., Rayme Paucar, G., Robles Cáceres, A., Valdez Tejeira, Y., Yllanes Choque, Y., Salinas, N., Shenkin, A., Asner, G.P., Díaz, S., Enquist, B.J. and Malhi, Y. (2016) Examining variation in the leaf mass per area of dominant species across two contrasting tropical gradients in light of community assembly Ningthoujam, R.K., Balzter, H., Tansey, K., Morrison, K., Johnson, S.C.M., Gerard, F., George, C., Malhi, Y., Burbidge, G., Doody, S., Veck, N., Llewellyn, G.M., Blythe, T., Rodriguez-Veiga, P., van Beijma, S., Spies, B., Barnes, C., Padilla-Parellada, M., Wheeler, J.E.M., Louis, V., Potter, T., Edwards-Smith, A. and Polo Bermejo, J. (2016) Atkin, O.K., Bloomfield, K.J., Reich, P.B., Tjoelker, M.G., Asner, G.P., Bonal, D., Bönisch, G., Bradford, M., Cernusak, L.A., Cosio, E.G., Creek, D., Crous, K.Y., Domingues, T., Dukes, J.S., Egerton, J.J.G., Evans, J.R., Farquhar, G.D., Fyllas, N.M., Gauthier, P.P.G., Gloor, E., Gimeno, T.E., Griffin, K.L., Guerrieri, R., Heskel, M.A., Huntingford, C., Ishida, F.Y., Kattge, J., Lambers, H., Liddell, M.J., Lloyd, J., Lusk, C.H., Martin, R.E., Maksimov, A.P., Maximov, T.C., Malhi, Y., Medlyn, B.E., Meir, P., Mercado, L.M., Mirotchnick, N., Ng, D., Niinemets, Ü., O'Sullivan, O.S., Philips, O.L., Poorter, L., Poot, P., Prentice, I.C., Salinas, N., Rowland, L.M., Ryan, M.G., Sitch, S., Slot, M., Smith, N.G., Turnbull, M.H., VanderWel, M.C., Valladares, F., Veneklaas, E.J., Weerasinghe, L.K., Wirth, C., Wright, I.J., Wythers, K., Xiang, J., Xiang, S. and Zaragoza-Castells, J. (2015) Campioli, M., Vicca, S., Luyssaert, S., Bilcke, J., Ceschia, E., Chapin III, F.S., Fernandex-Martinez, M., Malhi, Y., Obersteiner, M., Olefeldt, D., Papale, D., Piao, S.L., Penuelas, J., Sullivan, F., Wang, X., Zenone, T. and Janssens, I.A. (2015) Clark, K.E., West, A.J., Hilton, R.G., Asner, G.P., Quesada, C.A., Silman, M.R., Saatchi, S.S., Farfan-Rios, W., Martin, R.E., Horwath, A.B., Halladay, K., New, M. and Malhi, Y. (2015) Cleveland, C.C., Taylor, P., Chadwick, K.D., Dahlin, K.L., Doughty, C.E., Malhi, Y., Smith, W.K., Sullivan, B.W., Wieder, W.R. and Townsend, A.R. (2015) Doughty, C.E., Metcalfe, D.B., Girardin, C.A.J., Amezquita, F.F., Durand, L., Huaraca Huasco, W., Silva-Espejo, J.E., Araujo-Murakami, A., da Costa, M.C., da Costa, A.C.L., Rocha, W., Meir, P., Galbraith, D. and Malhi, Y. (2015) Doughty, C.E., Metcalfe, D.B., Girardin, C.A.J., Farfan Amezquita, F., Galiano Cabrera, D., Huaraca Huasco, W., Silva-Espejo, J.E., Araujo-Murakami, A., da Costa, M.C., Rocha, W., Feldpausch, T.R., Mendoza, A.L.M., da Costa, A.C.L., Meir, P., Phillips, O.L. and Malhi, Y. (2015) Fauset, S., Johnson, M.O., Gloor, M., Baker, T.R., Monteagudo, A., Brienen, R.J.W., Feldpausch, T.R., Lopez-Gonzalez, G., Malhi, Y., Steege, H., Pitman, N.C.A., Baraloto, C., Engel, J., Petronelli, P., Andrade, A., Camargo, L.C., Laurance, S.G.W., Laurance, W.F., Chave, J., Allie, E. and Vargas, P.N. (2015) Fernandez-Martinez, M., Vicca, S., Janssens, A., Sardans, J., Luyssaert, S., Campioli, M., Chapin III, F.S., Ciais, P., Malhi, Y., Obersteiner, M., Papale, D., Piao, S.L., Reichstein, M., Roda, F. and Penuelas, J. (2015) Reply to 'Uncertain effects of nutrient availability on global forest carbon balance' and 'Data quality and the role of nutrients in forest carbon-use efficiency' Guan, K., Pan, M., Li, H., Wolf, A., Wu, J., Medvigy, D., Caylor, K.K., Sheffield, J., Wood, E.F., Malhi, Y., Liang, M., Kimball, J.S., Saleska, S., Berry, J., Joiner, J. and Lyapustin, A.I. (2015) Malhi, Y., Doughty, C.E., Goldsmith, G.R., Girardin, C.A.J., Marthews, T.R., Aguila-Pasquel, J., Aragao, L.E.O.C., Araujo-Murakami, A., Brando, P., da Costa, A.C.L., Silva-Espejo, J.E., Amezquita, F.F., Galbraith, D.R., Quesada, C.A., Rocha, W., Salinas-Revilla, N., Silverio, D., Meir, P. and Phillips, O.L. (2015) Rowland, L., da Costa, A.C.L., Galbraith, D.R., Oliveira, R.S., Binks, O.J., Oliveira, A.A.R., Pullen, A.M., Doughty, C.E., Metcalfe, D.B., Vasconcelos, S.S., Ferreira, L.V., Malhi, Y., Grace, J., Mencuccini, M. and Meir, P. (2015) Rowland, L., Harper, A., Christoffersen, B.O., Galbraith, D.R., Imbuzeiro, H.M.A., Powell, T.L., Doughty, C., Levine, N.M., Malhi, Y., Saleska, S.R., Moorcroft, P.R., Meir, P. and Williams, M. (2015) The Oldest, Slowest Rainforests in the World? Massive Biomass and Slow Carbon Dynamics of Fitzroya cupressoides Temperate Forests in Southern Chile Zhang, K., de Almeida Castanho, A.D., Galbraith, D.R., Moghim, S., Levine, N.M., Bras, R.L., Coe, M.T., Costa, M.H., Malhi, Y., Longo, M., Knox, R.G., McKnight, S., Wang, J. and Moorcroft, P.R. (2015) Anderson-Teixeira, K.J., Davies, S.J., Bebbett, A.C., Gonzalez-Akre, E.B., Muller-Landau, H.C., Joseph, W.S., Abu Salim, K., Almeyda-Zambrano, A.M., Alonso, A., Baltzer, J.L., Basset, Y. Bourg, N.A., Broadbent, E.N., Brockelman, W.Y., Bunyavejchewin, S., Burslem, D.F.R.P., Butt, N., Cao, M., Cardenas, D., Chuyong, G.B., Clay, K., Cordell, S., Dattaraja, H.S., Deng, X., Detto, M., Du, X., Duque, D., Erikson, D.L., Ewango, C.E.N., Fischer, G.A., Fletcher, C., Foster, R.B., Giardina, C.P., Gilbert, G.S., Gunatilleke, N., Guntatilleke, S., Hao, Z., Hargrove, W.W., Hart, T.B., Hau, C.H., He, F., Hoffman, F.M., Howe, R.W., Hubbell, S.P., Inman-Narahari, F.M., Jansen, P.A., Jiang, M., Johnson, D.J., Kanzaki, M., Kassim, A.R., Kenfack, D., Kibet, S., Kinnaird, M.F., Korte, L., Kra, K., Kumar, J., Larson, A.J., Li, Y., Li, X., Liu, S., Lum, S.K.Y., Lutz, J.A., Ma, K., Maddalena, D.M., Makana, J.R., Malhi, Y., Marthews, T., Serudin, R.F., McMahon, S.M., McShea, W.J., Memiaghe, H.R., Mi, X., Mizuno, T., Morecroft, M., Myers, J.A., Novotny, V., de Oliveria, A.A., Ong, P.A., Orwig, D.A., Ostertag, R., den Ouden, J., Parker, G.G., Philips, R.P., Sack, L., Sainge, N., Sang, W., Sri-ngernyuang, K., Sukumar, R., Sun, I.F., Sungpalee, W., Suresh, H.S., Tan, S., Thomas, S.C., Thomas, D.W., Thompson, J., Turner, B.L., Uriarte, M., Valencia, R., Vallejo, M.I., Vicentini, A., Vrska, T., Wang, X., Wang, X., Weiblen, G., Wolf, A., Xu, H., Yap, S. and Zimmerman, J. (2014) Araujo-Murakami, A., Doughty, C.E., Metcalfe, D.B., Silva-Espejo, J.E., Arroyo, L., Heredia, J.P., Flores, M., Sibler, R., Mendizabal, L.M., Pardo-Toledo, E., Vega, M., Moreno, L., Rojas-Landivar, V.D., Halladay, K., Girardin, C.A.J., Killeene, T.J. and Malhi, Y. (2014) Baker, T.R., Pennington, R.T., Magallon, S., Gloor, E., Laurance, W.F., Alexiades, M., Alvarez, E., Aruajo, A., Arets, E.J.M.M., Aymard, G., Alves de Oliveira, A., Amaral, I., Arroyo, L., Bonal, D., Brienen, R.J.W., Chave, J., Dexter, K.G., Feldpausch, T.R., Ferreira, L., Lopez-Gonzalez, G., van der Heijden, G., Higuchi, N., Honorio, E., Humamantupa, I., Killeen, T.J., Laurance, S., Leano, C., Lewis, S.L., Malhi, Y., Marimon, B.S., Marimon-Junior, B.H., Mendoza, A.M., Neill, D., Penuela-Mora, M.C., Pitmann, N., Prieto, A., Quesada, C.A., Ramirez, F., Ramirez Angulo, H., Rudas, A., Ruschel, A.R., Salomao, R.P., Sagalom de Amdrade, A., Silva, J.N.M.,Silveira, M., Simon, M.F., Spironello, W., Steege, H., Terborgh, J., Toledo, M., Torres-Lezama, A., Vasquez, R., Vieira, I.C.G., Vilanova, E., Vos, V.A. and Phillips, O.L. (2014) Butt, N., Malhi, Y., New, M., Macía, M.J., Lewis, S.L., Lopez-Gonzalez, G., Laurance, W.F., Laurance, S., Luizão, R., Andrade, A., Baker, T.R., Almeida, S. and Phillips, O.L. (2014) Clark, K.E., Torres, M.A., West, A.J., Hilton, R.G., New, M., Horwath, A.B., Fisher, J.B., Rapp, J.M., Robles Caceres, A. and Malhi, Y. (2014) da Costa, A.C.L., Metcalfe, D.B., Doughty, C.E., de Oliveira, A.A.R., Neto, G.F.C., da Costa, M.C., de Athaydes Silva Junior, J., Aragão, L.E.O.C., Almeida, S., Galbraith, D.R., Rowland, L.M., Meir, P. and Malhi, Y. (2014) del Aguila-Pasquel, J., Doughty, C.E., Metcalfe, D.B., Silva-Espejo, J.E., Girardin, C.A.J., Chung Gutierrez, J.A., Navarro-Aguilar, G.E., Quesada, C.A., Hidalgo, C.G., Reyna Huaymacari, J.M., Halladay, K., del Castillo Torres, D., Phillips, O. and Malhi, Y. (2014) Doughty, C.E., Malhi, Y., Araujo-Murakami, A., Metcalfe, D.B., Silva-Espejo, J.E., Arroyo, L., Heredia, J.P., Pardo-Toledo, E., Mendizabal, L.M., Rojas-Landivar, V.D., Martinez, M., Valencia, M., Rivero, R. and Vare, L. (2014) Doughty, C.E., Metcalfe, D.B., da Costa, M.C., de Oliveira, A.A.R., Netoc, G.F.C., Silva, J.A., Aragão, L.E.O.C., Almeida, S.S., Quesada, C.A., Girardin, C.A.J., Halladay, K., da Costa, A.C.L. and Malhi, Y. (2014) The production, allocation and cycling of carbon in a forest on fertile terra preta soil in eastern Amazonia compared with a forest on adjacent infertile soil Emilio, T., Quesada, C.A., Costa, F.R.C., Magnusson, W.E., Schietti, J., Feldpausch, T.R., Brienen, R.J.W., Baker, T.R., Chave, J., Álvarez, E., Araújo, A., Bánki, O., Castilho, C.V., Honorio C., E.N., Killeen, T.J., Malhi, Y., Oblitas Mendoza, E.M., Monteagudo, A., Neill, D., Alexander Parada, G., Peña-Cruz, A., Ramirez-Angulo, H., Schwarz, M., Silveira, M., ter Steege, H., Terborgh, J.W., Thomas, R., Torres-Lezama, A., Vilanova, E. and Phillips, O.L. (2014) Espirito-Santo, F.D.B., Gloor, M., Keller, M., Malhi, Y., Saatchi, S., Nelson, B., Oliveira Junior, R.C., Pereira, C., Lloyd, J., Frolking, S., Palace, M., Shimabukuro, Y.E., Duarte, V., Mendoza, A.M., Lopez-Gonzalez, G., Baker, T.R., Feldpausch, T.R., Brienen, R.J.W., Asner, G., Boyd, D.S. and Phillips, O.L. (2014) Fernandez-Martinez, M., Vicca, S., Janssens, I.A., Sardans, J., Luyssaert, S., Camploll, M., Chapin III, F.S., Ciais, P., Malhi, Y., Obersteiner, M., Papale, D., Piao, S.L., Reichstein, M. and Penuelas, J. (2014) Fyllas, N.M., Gloor, E., Mercado, L.M., Sitch, S., Quesada, C.A., Domingues, T.F., Galbraith, D.R., Torre-Lezama, A., Vilanova, E., Ramirez-Angulo, H., Higuchi, N., Neill, D.A., Silveira, M., Ferreira, L., Aymard, G.A., Malhi, Y., Phillips, O.L. and Lloyd, J. (2014) Gatti, L.V., Gloor, M., Miller, J.B. Doughty, C.E., Malhi, Y., Domingues, L.G., Basso, L.S., Martinewski, A., Correia, C.S.C., Borges, V.F., Freitas, S., Braz, R., Anderson, L.O., Rocha, H., Grace, J., Phillips, O.L. and Lloyd, J. (2014) Girardin, C.A.J., Farfan-Rios, W., Garcia, K., Feeley, K.J., Jørgensen, P.M., Araujo Murakami, A., Cayola Pérez, L., Seidel, R., Paniagua, N., Fuentes Claros, A.F., Maldonado, C., Silman, M., Salinas, N., Reynel, C., Neill, D.A., Serrano, M., Caballero, C.J., de los Angeles La Torre Cuadros, M., Macía, M.J., Killeen, T.J. and Malhi, Y. (2014) Girardin, C.A.J., Malhi, Y., Feeley, K.J., Rapp, J.M., Silman, M.R., Meir, P., Huaraca Huasco, W., Salinas, N., Mamani, M., Silva-Espejo, J.E., Garcia Cabera, K., Farfan Rios, W., Metcalfe, D.B., Doughty, C.E. and Arago, L.E.O.C. (2014) Girardin, C.A.J., Silva Espejob, J.E., Doughty, C.E., Huaraca Huasco, W., Metcalfe, D.B., Durand-Baca, L., Marthews, T.R., Aragao, L.E.O.C., Farfán-Rios, W., García-Cabrera, K., Halladay, K., Fisher, J.B., Galiano-Cabrera, D.F., Huaraca-Quispe, L.P., Alzamora-Taype, I., Eguiluz-Mora, L., Salinas-Revilla, N., Silman, M.R., Meir, P. and Malhi, Y. (2014) Gurdak, D.J., Aragão, L.E.O.C., Rozas-Dávila, A., Huasco, W.H., Cabrera, K.G., Doughty, C.E., Farfan-Rios, W., Silva-Espejo, J.E., Metcalfe, D.B., Silman, M.R. and Malhi, Y. (2014) Assessing above-ground woody debris dynamics along a gradient of elevation in Amazonian cloud forests in Peru: balancing above-ground inputs and respiration outputs Huaraca Huasco, W., Girardin, C.A.J., Doughty, C.E., Metcalfe, D.B., Baca, L.D., Silva-Espejo, J.E., Cabrera, D.G., Aragão, L.E.O.C., Davila, A.R., Marthews, T.R., Huaraca-Quispe, L.P., Alzamora-Taype, I., Mora, L.E., Farfán-Rios, W., Cabrera, K.G., Halladay, K., Salinas-Revilla, N., Silman, M.R., Meir, P. and Malhi, Y. (2014) Malhi, Y., Farfán Amézquita, F., Doughty, C.E., Silva-Espejo, J.E., Girardin, C.A.J., Metcalfe, D.B., Aragão, L.E.O.C., Huaraca-Quispe, L.P., Alzamora-Taype, I., Eguiluz-Mora, L., Marthews, T.R., Halladay, K., Quesada, C.A., Robertson, A.L., Fisher, J.B., Zaragoza-Castells, J., Rojas-Villagra, C.M., Pelaez-Tapia, Y., Salinas, N., Meir, P. and Phillips, O.L. (2014) Metcalfe, D.B., Asner, G.P., Martin, R.E., Silva Espejo, J.E., Huasco, W.H., Farfán Amézquita, F.F., Carranza-Jimenez, L., Galiano Cabrera, D.F., Baca, L.D., Sinca, F., Huaraca Quispe, L.P., Taype, I.A., Mora, L.E., Dávila, A.R., Solórzano, M.M., Puma Vilca, B.L., Laupa Román, J.M., Guerra Bustios, P.C., Revilla, N.S., Tupayachi, R., Girardin, C.A.J., Doughty, C.E. and Malhi, Y. (2014) Mitchard, E.T.A., Feldpausch, T.R., Brienen, R.J.W., Lopez-Gonzalez, G.L., Monteagudo, A., Baker, T.R., Lewis, S.L., Lloyd, J., Quesada, C.A., Gloor, M., Steege, H., Meir, P., Alvarez, E., Araujo-Murakami, A., Aragao, L.E.O.C., Arroyo, L., Aymard, G., Banki, O., Bonal, D., Brown, S., Brown, F.I., Caron, C.E., Moscoso, V.C., Chave, J., Comiskey, J.A., Cornejo, F., Medina, M.C., Costa, L., Costa, F.R.C., Fiore, A.D., Domingues, T.F., Erwin, T.L., Frederickson, R., Higuchi, N., Coronado, E.N.H., Killeen, T.J., Laurance, W.F., Levis, C., Magnusson, W.E., Marimon, B.S., Marimon Junior, B.H., Polo, I.M., Mishra, P., Nascimento, M.T., Neill, D., Nunez Vargas, M.P., Palacios, W.A., Parada, A., Molina, G.P., Pena-Claros, M., Pittman, N., Peres, C.A., Poorter, L., Prieto, A., Ramirez-Angulo, H., Correa, Z.R., Roopsind, A., Roucoux, K.H., Rudas, A., Salomao, R.P., Schietti, J., Silveira, M., de Souza, P.F., Steininger, M.K., Stropp, J., Terborgh, J., Thomas, R., Toledo, M., Torres-Lezama, A., Andel, T.R., van der Heijden, G.M.E., Vieira, I.C.G., Vieira, S., Vilanova-Torre, E., Vos, V.A., Wang, O., Zartman, C.E., Malhi, Y. and Phillips, O.L. (2014) Oliveras, I., Malhi, Y., Salinas, N., Huaman, V., Urquiaga-Flores, E., Kala-Mamani, J., Quintano-Loaiza, J.A., Cuba-Torres, I., Lizarraga-Morales, N. and Román-Cuesta, R. (2014) Réjou-Méchain, M., Muller-Landau, H.C., Detto, M., Thomas, S.C., Le Toan, T., Saatchi, S.S., Barreto-Silva, J.S., Bourg, N.A., Bunyavejchewin, S., Butt, N., Brockelman, W.Y., Cao, M., Cárdenas, D., Chiang, J.M., Chuyong, G.B., Clay, K., Condit, R., Dattaraja, H.S., Davies, S.J., Duque, A., Esufali, S., Ewango, C., Fernando, R.H.S., Fletcher, C.D., Gunatilleke, I.A.U.N., Hao, Z., Harms, K.E., Hart, T.B., Hérault, B., Howe, R.W., Hubbell, S.P., Johnson, D.J., Kenfack, D., Larson, A.J., Lin, L., Lin, Y., Lutz, J.A., Makana, J.R., Malhi, Y., Marthews, T.R., McEwan, R.W., McMahon, S.M., McShea, W.J., Muscarella, R., Nathalang, A., Noor, N.S.M., Nytch, C.J., Oliveira, A.A., Phillips, R.P., Pongpattananurak, N., Punchi-Manage, R., Salim, R., Schurman, J., Sukumar, R., Suresh, H.S., Suwanvecho, U., Thomas, D.W., Thompson, J., Uríarte, M., Valencia, R., Vicentini, A., Wolf, A.T., Yap, S., Yuan, Z., Zartman, C.E., Zimmerman, J.K. and Chave, J. (2014) Rocha, W., Metcalfe, D.B., Doughty, C.E., Brando, P., Silvério, D., Halladay, K., Nepstad, D.C., Balch, J.K. and Malhi, Y. (2014) Ecosystem productivity and carbon cycling in intact and annually burnt forest at the dry southern limit of the Amazon rainforest (Mato Grosso, Brazil) Román-Cuesta, R.M., Carmona-Moreno, C., Lizcano, G.,New, M., Silman, M., Knoke, T., Malhi, Y., Oliveras, I., Asbjornsen, H., Vuille, M. (2014) Talbot, J., Lewis, S.L., Lopez-Gonzalez, G., Brienen, R.J.W., Monteagudo, A., Baker, T.R., Feldpausch, T.R., Malhi, Y., Vanderwel, M., Murakami, A.A., Arroyo, L.P., Chao, K., Erwin, T., van der Heijden, G., Keeling, H., Killeen, T., Neill, D., Vargas, P.N., Guitierrez, G.A.P., Pitman, N., Quesada, C.A., Silveira, M., Stropp, J. and Phillips, O.L. (2014) Valentini, R., Arneth, A., Bombelli, A., Castaldi, S., Gatti, R.C., Chevallier, F., Ciais, P., Grieco, E., Hartmall, J., Henry, M., Houghton, R.A., Jung, M., Kutsch, W.L., Malhi, Y., Mayorga, E., Merbold, L., Murray-Tortarolo, G., Papale, D., Peylin, P., Poulter, B., Raymond, P.A., Santini, M., Sitch, S., Vaflio, L., van der Werf, G.R., Williams, C.A. and Scholes, R.J. (2014) Clark, K.E., Malhi, Y., New, M., Hilton, R.G., West, A.J., Grocke, D.R., Bryant, C.L., Ascough, P.L. and Robles Caceres, A. (2013) New views on 'old' carbon in the Amazon River: Insight from the source of organic carbon eroded from the Peruvian Andes Coe, M.T., Marthews, T.R., Costa, M.H., Galbraith, D.R., Greenglass, L.R., Imbuzeiro, H.W.A., Levine, N.M., Malhi, Y., Moorcroft, P.R., Muza, M.N., Powell, T.L., Saleska, S.R., Solorzano, L.A. and Wang, J. (2013) Fisher, J.B., Sikka, M., Sitch, S., Ciais, P., Poulter, B., Galbraith, D., Lee, J.E., Huntingford, C., Viovy, N., Zeng, N., Ahlström, A., Lomas, M.R., Levy, P.E., Frankenberg, C., Saatchi, S. and Malhi, Y. (2013) Girardin, C.A.J., Aragão, L.E.O.C., Malhi, Y., Huaraca Huasco, W., Metcalfe, D.B., Durand, L., Mamani, M., Silva-Espejo, J.E. and Whittaker, R.J. (2013) Huntingford, C., Zelazowski, P., Galbraith, D., Mercado, L.M., Sitch, S., Fisher, R., Lomas, M., Walker, A.P., Jones, C.D., Booth, B.B.B., Malhi, Y., Heming, D., Kay, G., Good, P., Lewis, S.L., Phillips, O.L., Atkin, O.K., Lloyd, J., Gloor, E., Zaragoza-Castells, J., Meir, P., Betts, R., Harris, P.P., Nobre, C., Marengo, J. and Cox, P.M. (2013) Lewis, S.L., Sonké, B., Sunderland, T., Begne, S.K., Lopez-Gonzalez, G., van der Heijden, G.M.F., Phillips, O.L., Affum-Baffoe, K., Baker, T.R., Banin, L., Bastin, J.F., Beeckman, H., Boeckx, P., Bogaert, J., De Cannière, C., Chezeaux, E., Clark, C.J., Collins, M., Djagbletey, G., Djuikouo, M.N.K., Droissart, V., Doucet, J.L., Ewango, C.E.N., Fauset, S., Feldpausch, T.R., Foli, E.G., Gillet, J.F., Hamilton, A.C., Harris, D.J., Hart, T.B., de Haulleville, T., Hladik, A., Hufkens, K., Huygens, D., Jeanmart, P., Jeffery, K.J., Kearsley, E., Leal, M.E., Lloyd, J., Lovett, J.C., Makana, J.R., Malhi, Y., Marshall, A.R., Ojo, L., Peh, K.S.H., Pickavance, G., Poulsen, J.R., Reitsma, J.M., Sheil, D., Simo, M., Steppe, K., Taedoumg, H.E., Talbot, J., Taplin, J.R.D., Taylor, D., Thomas, S.C., Toirambe, B., Verbeeck, H., Vleminckx, J., White, L.J.T., Willcock, S., Woell, H. and Zemagho, L. (2013) The relative importance of deforestation, precipitation change and temperature sensitivity in determining the future distributions and diversity of Amazonian plant species Malhado, C.M., Malhi, Y., Whittaker, R.J., Ladle, R.J., ter Steege, H., Fabré, N.N., Phillips, O., Laurance, W.F., Aragao, L.E.O.C., Pitman, N.C.A., Ramírez-Angulo, H. and Malhado, C.H.M. (2012) Calculating downward longwave radiation under clear and cloudy conditions over a tropical lowland forest site: an evaluation of model schemes for hourly data Marthews, T.R., Malhi, Y., Girardin, C.A.J., Silva Espejo, J.E., Aragão, L.E.O.C., Metcalfe, D.B., Rapp, J.M., Mercado, L.M., Fisher, R.A., Galbraith, D.R., Fisher, J.B., Salinas-Revilla, N., Friend, A.D., Restrepo-Coupe, N., Williams, R.J. (2012) Evaluating the potential to monitor, aboveground biomass in forest and oil, palm in Sabah, Malaysia, for 2000–2008, with Landsat ETM+ and ALOS-PALSAR Quesada, C.A., Phillips, O.L., Schwarz, M., Czimczik, C.I., Baker, T.R., Patino, S., Fyllas, N.M., Hodnett, M.G., Herrera, R., Almeida, S., Alvarez Davila, E., Arneth, A., Arroyo, L., Chao, K.J., Dezzeo, N., Erwin, T., di Fiore, A., Higuchi, N., Honorio Coronado, E., Jimenez, E.M., Killeen, T., Lezama, A.T., Lloyd, G.L., Lopez-Gonzalez, G., Luisao, F.J., Malhi, Y., Monteagudo, A., Neill, D.A., Nunez Vargas, P., Paia, R., Peacock, J., Penuela, M.C., Pena Cruz, A., Pitman, N., Priante Filho, N., Prieto, A., Ramirez, h., Rudas, A., Salomao, R., Santos, A.J.B., Schmerler, J., Silva, N., Silveira, M., Vasquez, R., Bieira, I., Terborgh, J. and Lloyd, J. (2012) Sutherland, W.J., Freckleton, R.P., Godfray, H.C.J., Beissinger, S.R., Benton, T., Cameron, D.D., Carme, Y., Coomes, D.A., Coulson, T., Emmerson, M.C., Hails, R.S., Hays, G.C., Hodgson, D.J., Hutchings, M.J., Johnson, D., Jones, J.P.G., Keeling, M.J., Kokko, H., Kunin, W.E., Lambin, X., Lewis, O.T., Malhi, Y., Mieszkowska, N., Milner-Gulland, E.J., Norris, K., Phillimore, A.B., Purves, D.W., Reid, J.M., Reuman, D.C., Thompson, K., Travis, J.M.J., Turnbull, L.A., Wardle, D.A. and Wiegand, T. (2012) Vicca, S., Luyssaert, S., Penuelas,</t>
-  </si>
-  <si>
-    <t>Heather Viles is a geographer with major interests in geomorphology and heritage science. Much of her research focuses on the application of science to heritage conservation. She is currently Professor of Biogeomorphology and Heritage Conservation, Head of the School of Geography and the Environment, Co-Director of the EPSRC Centre for Doctoral Training in Science and Engineering in Art, Heritage and Archaeology, and Honorary Professor at University College London. She obtained an MA in Geography from the University of Cambridge, and a DPhil from the University of Oxford. Her D.Phil. thesis focused on the role of microorganisms in weathering limestone and was based on fieldwork on Aldabra Atoll in the Seychelles. After completing her D.Phil. she undertook post-doctoral research on the contribution of acid rain to the deterioration of English cathedrals. Heather was awarded the 2015 Ralph Alger Bagnold Medal from the European Geosciences Union for her role in establishing the field of biogeomorphology. from 2012 to 2014, and is currently a member of the Executive Committee of the International Association of Geomorphologists. From 2008 to 2011, she was Vice-President (Expeditions and Fieldwork) of the Royal Geographical Society with IBG. She was on the advisory panel of the £6.5 million AHRC/EPSRC steering group co-ordinated by English Heritage and charged with developing a UK-wide Heritage Science Strategy which will shape UK-wide policy over the next 25 years. Heather also represents the University of Oxford as a trustee of the Over the years, Heather has carried out field-based research in NW Australia, South Africa, Namibia, Washington State, the Atacama Desert in Chile, South Germany, the Sahara Desert in Libya, NW China as well as many places within the UK. Examples of areas where geomorphology can contribute to the understanding and conservation of cultural and natural heritage. a) Rock art on sandstone in Libya, and b) Sandstone peak forest, Zhangjiajie, China. Setting up a 2D resistivity transect to measure moisture levels in sandstone, Golden Gate Highlands National Park, South Africa (left), and monitoring water permeate into sandstone in Belfast using a Karsten tube (above). Prof. Viles' research is highly interdisciplinary and involves studies at the interface of geomorphology with ecology, engineering geology, environmental chemistry and materials conservation. In recent years she has focussed on three specific themes in her research, namely: She maintains a strong interest in developing and applying novel techniques and ideas to the study of these themes, including 2D resistivity surveys using Geotom equipment, and the Equotip hardness tester. Heather also has a strong interest in the practical applications of 'green' methods of conserving cultural heritage (using plants, animals and microorganism communities) and linking this to biodiversity conservation. In recent years her research has been funded by EPSRC, AHRC, the Leverhulme Trust, University of Oxford Fell Fund, Historic England, the Royal Society and NASA. In collaboration with Chris Wood (Historic England), Alan Cathersides (Historic England) and Colin Burns (Consultant). Funded by Historic England (2004-2016). Integrated surface hardness and ultrasonic pulse velocity testing for the non-destructive diagnosis of deterioration problems on sandstone and limestone cultural heritage In collaboration with Dr Dan Hicks (University of Bristol) and Dr David Harvey (University of Exeter). Funded by EPSRC (2006-2007) In collaboration with Prof. Bernie Smith (Queen's University Belfast) and Prof. Ken Grattan (City University London). Funded by EPSRC (2006-2009) Prof. Viles was Director of Undergraduate Studies from 2008-2011, during which time the department completely revised its undergraduate course. She contributes to the 'Geomorphology' lecture course of the 'Earth System Processes' core course for Prelims, as well as to the Geographical Research course in the Final Honour School. She also convenes the 'Heritage Science and Conservation' Option and teaches on the 'Desert Landscapes and Dynamics' option. The role of soil as a method for conserving cultural stone ruins: effects of physical and chemical characteristics on stone weathering Sandstone weathering, electrical resistivity tomography, and the deterioration of San rock art in the Golden Gate Highlands National Park, South Africa Developing quantitative techniques for evaluating rock breakdown morphology: a case study of basalt boulders in the channelled scablands, Washington, USA Dynamics of the transport, distribution and crystallisation of soluble salts in sandstone: implications for conservation of historic buildings. (Registered in RLAHA, Oxford) Low impact surface hardness testing (equotip) on porous surfaces – advances in methodology with implications for rock weathering and stone deterioration research The influence of salt on handheld electrical moisture meters: Can they be used to detect salt problems in porous stone? Surface hardness as a proxy for weathering behaviour of limestone heritage: a case study on dated headstones on the Isle of Portland, UK The influence of the type of lime on the hygric behavior and bio-receptivity of hemp lime composites used for rendering applications in sustainable new construction and repair works A chemical, morphological and mineralogical study on the interaction between hemp hurds and aerial and natural hydraulic lime particles: Implications for mortar manufacturing Can plants keep ruins dry? A quantitative assessment of the effect of soft capping on rainwater flows over ruined walls Smith, B.J., Srinivasan, S., McCabe, S., McAllister, D., Cutler, N.A., Basheer, P.A.M. and Viles, H.A. (2011) Climate change and the investigation of complex moisture regimes in heritage stone: preliminary observations on possible strategies. Geoelectric investigations into sandstone moisture regimes: Implications for rock weathering and the deterioration of San Rock Art in the Golden Gate Reserve, South Africa A commentary on climate change, stone decay dynamics and the 'greening' of natural stone buildings: new perspectives on 'deep wetting' Evaluating the role of ivy (Hedera helix) in moderating wall surface microclimates and contributing to the bioprotection of historic buildings Late Quaternary palaeohydrological changes in the northern Namib Sand Sea: New chronologies using OSL dating of interdigitated aeolian and water-lain interdune deposits The use of the Schmidt Hammer and Equotip for rock hardness assessment in geomorphology and heritage science: a comparative analysis Quantitive morphologic analysis of boulder shape and surface texture to infer environmental history: A case study of rock breakdown at the Ephrata Fan, Channeled Scabland, Washington Changing patterns of soiling and microbial growth on building stone in Oxford, England after implementation of a major traffic scheme What processes have shaped basalt boulders on Earth and Mars? Studies of feature persistence using facet mapping and fractal analysis on stone decay and the relationship found between NO2 concentration and stone soiling rate in a case study in Oxford. Experimental investigations into the interactions between moisture, rock surface temperatures and an epilithic lichen cover in the bioprotection of limestone Channel flow cell studies on the evaluation of surface pretreatments using phosphoric acid or polymaleic acid for calcite stone protection Surface change and decay of sandstone samples exposed to a polluted urban atmosphere over a six-year period: Belfast, Northern Ireland A new technique to evaluate and quantify modified solution kinetics of calcareous materials after sulfuric acid pre-treatment and urban exposure Trudgill, S.T., Viles, H.A., Inkpen, R.J., Moses, C.A., Gosling, W., Yates, T., Collier, P., Smith, D.I. and Cooke, R.Y. (2001) The effect of surface pre-treatment with polymaleic acid, phosphoric acid or oxalic acid on the dissolution kinetics of calcium carbonate in aqueous acid Channel flow cell studies of the inhibiting action of gypsum on the dissolution kinetics of calcite: A laboratory approach with implications for field monitoring Mol, L. and Viles, H. (2012) Conserving History in Changing Arid Environments: a Geomorphological Approach. 11. in, Mol, L. and Sternberg, T. (eds.) Viles, H.A. (2011) Physical geography in a changing world: helping to integrate conservation of cultural heritage, geodiversity and biodiversity. In, Fassmann, H. and Glade, T. (eds.) Sass, O. and Viles, H.A. (2010) Two-dimensional resistivity surveys of the moisture contents of historic limestone walls in Oxford, UK: implications for understanding catastrophic stone deterioration. In, Smith, B.J., Gomez-Heras, M. and Viles, H.A. (2010) Underlying issues on the selection, use and conservation of building limestone. In, Goudie, A.S and Viles, H.A. (2008) Weathering processes and forms. Chapter 5 in, Burt, T.P., Chorley, R.J., Brunsden, D., Cox, N.J. and Goudie, A.S. (eds.) The History of the Study of Landforms or the Development of Geomorphology, Vol. 4: Quaternary and Recent Processes and Forms (1890-1965) and the Mid-Century Revolutions Thornbush. M.J. and Viles, H.A. (2007) Photo-based decay mapping of replaced stone blocks on the boundary wall of Worcester College, Oxford. In, Prikryl, R. and Smith, B.J. (eds.) Viles, H.A. and Wood, C. (2007) Green walls? Integrated laboratory and field testing fo the effectiveness of soft wall capping in conserving ruins. In, Prikryl, R. and Smith, B.J. (eds.) Smith, B.J. and Viles, H.A. (2006) Rapid, catastrophic decay of building limestones: Thoughts on causes, effects and consequences. In, Fort, R. et al (ed.) Thornbush, M.J. and Viles, H.A. (2005) Use of portable X-ray fluorescence for monitoring elemental concentrations in surface units on roadside stone at Worcester College, Oxford. In, Fort, R. et al (ed.) Mottershead, D.N. and Viles, H.A. (2004) Experimental studies of rock weathering by plant roots: Updating the work of Julius Sachs (1832-1897). In, Mitchell, D.J. and Searle, D.E. (eds.) Thornbush, M.J. and Viles, H.A. (2004) Surface soiling patterns detected by integrated digital photography and image processing on exposed limestone in Oxford, England. In, Saiz-Jimenez, C. (ed.) Viles, H.A. (2003) 'The writing's on the walls': On style, substance and selling physical geography. Chapter 12 in, Trudgill, S.T. and Roy, A. (eds.) Viles, H.A. (2002) Implications of future climate change for stone deterioration. In, Siegesmund, S., Vollbrecht, S.A. and Weiss, T. (eds.) Cabello-Briones, C. and Viles, H.A. Hughes, J. and Howind, T. (eds.) (2016) Is the Shelter at Hagar Qim in Malta Effective at Protecting the Limestone Remains?Hughes, J. and Howind, T. (eds.) Carmona-Quiroga, P.M., Kang, S. and Viles, H.A. Hughes, J. and Howind, T. (eds.) (2016) Assessment of the Cleaning Efficiency of a Self-cleaning Coating on Two Stones Under Natural Ageing.Hughes, J. and Howind, T. (eds.) Orr, S., Viles, H.A., Leslie, A.B. and Stelfox, D. Hughes, J. and Howind, T. (eds.) (2016) Comparability of non-destructive moisture measurement techniques on masonry during simulated wetting.Hughes, J. and Howind, T. (eds.) Zaman, N. and Viles, H.A. Hughes, J. and Howind, T. (eds.) (2016) The Effect of Reburial on Stone Deterioration: Experimental Case Study, Oxford, England.Hughes, J. and Howind, T. (eds.) Heslop, E.E.M., Viles, H.A. and Bourke, M.C. (2004) Understanding rock breakdown on Earth and Mars: Geomorphological concepts and facet mapping methods.</t>
-  </si>
-  <si>
-    <t>Beth Greenhough joined the School of Geography and the Environment in September 2014. She has a PhD (Human Geography) from the Open University, an MA in Society and Space from the University of Bristol and a BSc in Human Geography from the University of Reading. Prior to joining Oxford Beth lectured in Geography at Keele University and Queen Mary, University of London and held a post-doctoral fellowship at the Open University. Beth's work draws on a combination of political-economic geography, cultural geography and science studies to explore the social implications of scientific innovations in the areas of health, biomedicine and the environment. Employing a range of qualitative, ethnographic and archival methods, Beth seeks to understand the social, cultural and ethical processes through which humans and animals are made available as experimental subjects for biomedical research. She also contributes to the development of new theoretical and methodological approaches within Geography better able to capture the material and affective dimensions of human-environment relations and how these are being reconfigured through biotechnological innovation. Her work has been funded by the AHRC, ESRC, Barts and the London Charity Trust, British Academy, the Brocher Foundation and the Wellcome Trust, and she published widely in many of the leading Geography and interdisciplinary journals. Beth has also served as an expert participant in debates around solidarity in bioethics (Nuffield Foundation) and Personalised Medicine (European Science Foundation). (University of Southampton). Using animals in scientific research has been critical to the development of modern medicine and is contingent upon a complex, entangled network of relations and obligations across science and society. These entanglements can best be understood as the with stakeholders, scientists and publics across the Animal Research Nexus. The overall programme seeks to identify what is required to remake the social contract around animal use in 21st century science and medicine. We will be working with 5/6 post-doctoral research assistants and 2/3 PhD students, with Bentley Crudgington as creative facilitator, and engaging perspectives across the animal research nexus to answer some of the questions we raised in this This project led by Dr Jamie Lorimer and in collaboration with Dr Richard Greyner and Dr Timothy Hoggetts (School of Geography and the Environment, University of Oxford) aims to bring new scientific techniques for surveying microbial biodiversity out of the laboratory to explore how they can shape everyday understandings of domestic life and kitchen hygiene. The project, , will develop novel methods that will allow people to experiment on the microbial life in their kitchens and to visualise the results, and then explore the implications of this participatory approach with key stakeholders in industry and the regulatory agencies. This project (2013-2015) is a collaboration with Dr Emma Roe (University of Southampton) and funded by the Wellcome Trust. It uses a compilation of in-depth interviews and participant observation to try and understand how laboratory animal technologists 'do the right thing' or put animal welfare and ethics into practice through developing their professional skills and sensitivities. Beth is also a founding member of the This project (2013-2016) is a collaboration with Professor Catherine Nash (Queen Mary University of London) and the Hunterian Museum at the Royal College of Surgeons, and is funded by an AHRC funded Collaborative Doctoral Award. Sarah Morton (PhD candidate) will use archival and ethnographic methods to explore how repatriation is put into practice and what happens subsequently to repatriated remains. The project will show how human remains are socially and materially constructed and the different meanings and associations repatriated remains hold for different stakeholders in the repatriation process. This is a collaborative project led by Mr Markus Ornstein (Homerton University Hospital), and working with Prof. Stephen Duffy (Wolfson Institute of Preventative medicine) and Professor Isabel Dyck, Dr Tim Brown and Melanie Dembinsky (School of Geography, QMUL). The project aims to trial and evaluate a , produced by Homerton Hospital in order to raise breast awareness amongst Black women. Beth is leading the qualitative arm of the project, conducting interviews and focus groups with practice staff and patients to explore the impact of the DVD on their health knowledge and to gage their responses to the DVD. The pilot study (2012-2013) and main project (2013-2015) have been funded by Barts and the London Charity Trust. This project draws on the archives of the MRC's Common Cold Unit to explore the spaces created though medical research. It examines how volunteers were recruited for common cold research and the unit's experimental spaces, protocols and practices. A key insight from the research so far has been the ways in which participation in medical research shapes science-society relations, blurring the distinction between scientific research and health care. Beth's PhD and post-doctoral research at the Open University explored the controversies surrounding Iceland's (1998) Act on a Health Sector Database, and its proposal to license a private sector firm to access anonymised public medical records for use in gene-discovery research. Her work argued that how and where humans and their derivatives become resources for medical research is central to understanding social and cultural responses to this use of bioinformation, human tissue and human subjects and their ethical implications. For the Final Honour School, Beth contributes to the 'Environmental Geography' foundation course and to an option, 'Geographies of Nature' led by Dr Jamie Lorimer. Beth also shares responsibility with her colleagues at Keble for providing tutorials for the Preliminary Examination and Final Honour School of Geography. Beth convenes and lectures on the 'Science and Politics' core course for MSc Nature, Society and Environmental Policy. Beth also offers an elective course to SoGE Masters students in 'Animal Controversies'. Beth welcomes enquiries from individuals wishing to undertake doctoral or post-doctoral research in any of the following areas: geographies of biomedical science; the production, circulation and use of human subjects and bodily commodities in medical research; human-environment relations; and social and cultural geographies of disease. Greenhough, B., Dembinsky, M., Dyck, I., Brown, T., Robson, J., Homer, K., Sajani, C., Carter, L., Duffy, S.W. and Ornstein, M. (2016) Greenhough, B. (2014) More-than-human-geographies. In, Paasi, A., Castree, N., Lee, R., Radcliffe, S., Kitchin, R., Lawson, V. and Withers, C.W.J. (eds.)</t>
-  </si>
-  <si>
-    <t>Dr Patricia Daley is Professor of the Human Geography of Africa. She is also an Helen Morag Fellow and Geography Tutor at Jesus College, Oxford. She served as the University Assessor for 2015 - 2016. Her previous academic appointments were at Dartmouth College in New Hampshire, Loughborough University and Pembroke College, Oxford. She has taught a range of human geography topics, as well as specialist courses on African societies and environments. At Jesus College she held the administrative offices of Tutor for Admissions (1999-2002) and Tutor for Women (1998-2004). She has been on various College committees, including the Academic Committee, Disciplinary Panel, and on the Accommodation, Catering and Conference Committee. As a consequence of her research on violence and displacement in Central Africa, she was invited to give a 30th Anniversary address at the Center for Refugees Studies, York University, Toronto, in November 2013. She was also invited as an academic expert to the High Commissioner's Dialogue on Protection Challenges, UNHCR, Geneva, in December 2008. Other invitations included presenting a paper at the High Level Roundtable/Colloquium on With respect to her interests in African political ecology, she was awarded an ESRC/NERC interdisciplinary seminar grant on African Environments (2005-2007). She chaired the African Environments Programme for the academic year 2006-7. Her media work includes acting as a consultant for an internationally-screened documentary film on the genocide in Rwanda ( Her current voluntary work includes membership of the Council of the British Institute in Eastern Africa and of the Independent Advisory Group on Country Information of the Independent Chief Inspector of Border and Immigration. She is also a committee member and the equalities officer for the Oxford Branch of the University College Union. She chairs Fahamu Trust Ltd, a pan-African social justice movement building organization which publishes Dr Daley's principal research interests are threefold: firstly, on contemporary forced migration and its relationship with identity politics, especially ethnicity, gender and citizenship; secondly, how feminist geopolitics, critical race theory, and African feminist thought can together illuminate the ways in which race, gender, militarism, and violence intersect across transnational space and identify the potentialities for peaceful co-existence arising from alternative non-western centric ontologies; and thirdly, the relationship between conservation, resource extraction, and rural livelihoods within a political ecology framework. The geographical loci of research are East and Central Africa, and the UK. The study examines how new networked relationships between global capitalism, international humanitarian assistance, and local political elites affect those who have been forcedly displaced and the subsequent effects on place-based practices of citizenship. The project addresses the embodied experiences of gender and race in contemporary Africa and the African diaspora that have arisen out of pre-existing inequalities that have been aggravated by neo-liberal capitalism. Dr Daley teaches the core 'international Migration' module for the Preliminary Examinations; the Final Honour School core lectures on violence and security for the Space, Place and Society paper and on global environmental narratives and African rural communities for the Environmental Geography paper. She also teaches the option course 'African Societies', and delivers human geography tutorials for the core courses for Jesus College students. Gendered coal struggles at the margins - the work of men, women and children in an informal/artisanal mine in post-Soviet Tajikistan Lifescapes of a pipedream: a decolonial mixed-tape of structural violence and resistance in two towns along the Chad-Cameroon oil pipeline Transnationalism and the Ghanaian diaspora in the UK: Regional inequalities and the developmental effects of remittances at the sub-national level Powell, R.C., Klinke, I., Jazeel, T., Daley, P., Kamata, N., Heffernan, M., Swain, A., McConnell, F., Barry. A. and Phillips, R. (2017) Daley, P. (2015) 44.Researching sexual violence in the eastern Democratic Republic of Congo: methodologies, ethics and the production of knowledge in an African warscape. Chapter 44 in, Coles, A., Gray, L. and Momsen, J. (eds.) Daley, P. (2014) Unearthing the local: hegemony and peace discourses in Central Africa. In, McConnell, F., Megoran, N. and Williams, P. (eds.) Daley, P. (2013) The Burundi peace negotiations: An African experience of peace-making in the era of neo-liberalism. In, Abrahamsen, R. (ed.) Daley, P. (2009) Rwanda and Burundi since 1994: an end to the discriminatory state. In, Mustapha, A.R. and Whitfield, L. (eds.) Daley, P. (2001) Population displacement and the humanitarian aid regime: the experience of refugees in East Africa. In, de Bruijn, M., Van Dijk, R. and D. Foeken (eds.) 'Problematizing the International discourse on sexual violence and displacement in Central Africa'. Keynote address, Center for Refugees Studies, York University, Toronto. November 2013. 'Researching Sexual Violence in the Eastern Democratic Republic of Congo: Methodologies, Ethics, and the Production of Knowledge in Central Africa'. Paper presented at Queens University, Kingston, Ontario.November 2013. 'Researching Sexual Violence in the Eastern Democratic Republic of Congo: Methodologies, Ethics, and the Production of Knowledge in Central Africa'. Paper given at the Annual meeting of the Royal Geographical Society and Institute of British Geographers. August 2013. 'Problematizing the International discourse on sexual violence in Africa', paper presented at the Annual Meeting of the Association of American Geographers, Los Angeles. April 2013. 'Pan-Africanism and the Diaspora', High Level Roundtable/Colloquium on the theme: Democracy, Governance and the Pan-African Idea: Whither Africa?' Invited speaker, UNECA, Addis Ababa. May 2012. 'Rescuing Africans: Celebrity and humanitarianism', paper given at the Annual Meeting of the Association of American Geographers, New York, February 2012. 'The Challenges to Peace-Building in Post-Conflict Africa: Perspectives from Burundi', paper presented to Oxford Central Africa Forum, University of Oxford. Oxford 2010. 'The challenges to peace in Burundi'. Invited seminar presentation: at SIDA in Stockholm, organized by the Nordiska Afrikainstitutet, Uppsala, Sweden. May 2010. 'Whither the Refugee?: The State, Humanitarianism, and Refugees in Central Africa', Refugee Studies Centre, University of Oxford. Seminar Presentation. March 2010. 'Hierarchies of Power, Race and Gender: Towards an understanding of genocidal violence in Africa'. Invited seminar presentation, Development Studies Department, School of Oriental and African Studies, University of London. January 2010. 'African Reconstruction in a New Age'. Afronomics Summit: New Models of Economics and Development in Africa, London. Invited Keynote Speaker, African Development Forum, Mary Sumner House, London. September 2009. 'Race, Space and Scale: Rethinking Security and Violence in Burundi', paper presented at Conference on Violence and the Body, University of Oxford, May 2007. 'The Hierarchical Geographies of Peace and Security: Neo-liberal Post-War Reconstruction in Burundi', Association of American Geographers Annual Conference, 21 April 2007, San Francisco. 'Beyond the liberal Peace: Conflict Resolution in Burundi', Seminar paper presented at School of International Relations, St. Andrews University, October 2006. 'Great Lakes: Peacekeeping and Peace-Building Challenges', seminar paper presented at workshop on African Security &amp; Peacekeeping in Complex Political Emergencies, Department of Peace Studies, University of Bradford, 24-28 October 2005. 'Militarism, Masculinity and Violence in Central Africa: Towards an Understanding of Conflict in Burundi', paper presented at St Antony's College, 29 June 2005. 'What are the prospects for peace and an end to genocidal violence in Burundi', paper presented at North-East Africa seminar, Institute of Social and Cultural Anthropology, Oxford, June 2005. 'Great Lakes: Challenges to Peacekeeping and Peace-Building', seminar paper presented at Department of Peace Studies, University of Bradford, 26 October 2004. 'Ethnic Challenge to the African State, the Case of Burundi', Invited keynote speaker to the CODESRIA Governance Institute, Dakar, Senegal, August 2002. 'Spatialities of Forced Migration: geography's contribution', paper presented at the departmental seminar series, Syracuse University, New York State, March 2001. 'Population, Displacement and the Humanitarian Aid regime: The Experience of Refugees in East Africa', at conference on Moving People: Trends in Population Mobility in Africa, African Studies Centre, University of Leiden, June 2000. Displacement and Marginality: African Refugees in the 21st Century, Sam Nolutshungu Memorial Lecture, Human Sciences Resources Council, Democracy and Governance, Pretoria, South Africa, April 2000.</t>
-  </si>
-  <si>
-    <t>Professor Ceri Peach, Professor of Social Geography at the School of Geography and the Environment, Oxford from 1992 to 2007 is now Emeritus Professor of Social Geography at the School and Emeritus Fellow of . On retirement from Oxford he was appointed Professor at the Institute for Social Change at Manchester University. He has held Visiting Fellowships at the Australian National University, Berkeley, Yale, University of British Columbia, Harvard and Princeton. He was nominated Ethnic Geography Distinguished Scholar of 2008 by the Association of American Geographers at the April meeting in Boston of the . His award paper, presented at the meeting was entitled 'Contrasts in US and British Segregation Patterns'. The Rapporteurs were David Ley Professor of geography at UBC and Robert Putnam, Professor of Sociology at Harvard University. Professor Peach works on migration and ethnic and religious segregation in cities. Current work includes critical appraisal of claims of ghettoisation in British cities and comparative work on US and UK segregation patterns as part of the Manchester / Harvard University joint research programme. Ceri is part of the team headed by Miles Hewstone, Professor of Social Pyschology at Oxford, Anthony Heath, Professor of Sociology at Oxford, Sarah Spencer, Director of the research programme at Oxford and Steven Vertovec, Director of the Max Planck Institute at Göttingen, all working on the issue of ethnic diversity and social cohesion. The group was awarded a competitive research grant of £1 million by the Leverhulme Trust in July 2008 to pursue this work. Professor Peach recently completed the ESRC funded project on ethno-religio-linguistic sub-communities in Britain. It links his database on Muslim, Hindu and Sikh places of worship in England and Wales, completed as a millennium project, funded by the Leverhulme Trust with the 2001 Census data on ethnicity and religion. The Leverhulme survey photographed and collected data on religion, tradition, movements, vernacular language date of foundation and many other variable on nearly 1,000 buildings. Co-researchers on the project were Dr Richard Gale (now at the Cardiff University) Dr Simon Naylor (now at Bristol University) and Dr James Ryan (now at Exeter University). Professor Peach is a member of the Advisory Board of the Peach, C. (2010) London and New York: Contrasts in British and American models of segregation. Ch.11, in Paddison, R. &amp; Ostendorf, W. (eds.) Peach, C. (2005) Social Integration and Social Mobility: Spatial segregation and intermarriage of the Caribbean population in Britain. Chapter 6 in, Loury, G.C., Modood, T. and S.M. Teles (eds.) Peach, C. (2003) Contrasts in Economic Growth and Immigration Policy in Japan, EU and USA. Chapter 2 in, Goodman, R., Peach, C., Takenaka, A. and P. White (eds.) Peach, C. with A. Rogers, J. Chance and P. Daley. (2000) Immigration and Ethnicity. Chapter 4, in Halsey, A.H. and Webb, J. (eds.) Peach, C. and Rossiter, D. (1996) Level and nature of spatial concentration and segregation of minority ethnic population in Great Britain, 1991. In, Ratcliffe, P. (ed.)</t>
-  </si>
-  <si>
-    <t>University of Oxford</t>
-  </si>
-  <si>
-    <t>[studies, modern France, Migrants, ed, P. E. Ogden, demographic change, migration, France, West Indians, P. E. Ogden, I., Butcher, France, French Caribbean, mobility, circulation, emigration, Questions, P. E. Ogden, S. A., France Condon, Wales, England, households, structure, pattern, C. Hill, P. E. Ogden, R., Hall, eds, R. Potter, D. Conway, French Caribbean, state, Housing, P. E. Ogden, S. A., Condon, longitudinales, des, recensements, Grande Bretagne, France, migrations, seules, R. Hall, P. E., Ogden, ed, S. McRae, France, Wales, England, households, New ways, C. Hill, P. E. Ogden, R., Hall, principal French cities, rise, reurbanisation, Households, R. Hall, P. E., Ogden, population, trends, Inner London, livingalone, rise, P. E. Ogden, R., Hall, France, urban population, forms, second demographic traansition, R. Hall, P. E., Ogden, Paris, structure, demographic change, small household, rise, F. Schnoebelen, P. E. Ogden, European cities, reurbanisation, emergent landscapes, urban populations, A. Steinfuhrer, S. Kabisch, A. Haase, R. Hall, P. E. Ogden, S. Buzar, European setting, residential change, demographic dimension, reurbanisation, Emergent spaces, P. E. Ogden, R. Hall, S. Bouzarovski, A. Steinfuhrer, S. Kabisch, A. Haase, reurbanisation, demographies, Spain, Leon, residential preferences, trends, Household structure, P. E. Ogden, S. Kabisch, A. Steinfuhrer, R. Hall, A. Haase, S. Buzar, Haase et al, residential patterns, demographic change, European city, Living, Ogden, P, eds, P Lane, M Fraser, London College, experience, French connection, role, partnerships, Andrew Hussey, Philip Ogden, change, project, ESRC, part, area, Qualitative research, new residential population, stereotypical view, other aspects, Results, population, censuses, data, our results, base, agents, architects, developers, area, new residential building, character, material, variety, properties, residents, Limehouse, Wapping, LDDC area, westernmost part, survey, materials, sorts, work, part, international travel, travel, pattern, work, place, income, occupation, children, number, status, history, population, geographical origins, particular interest, questions, new population, economic characteristics, aim, gentrification, their consequences, city, economic structure, changes, context, project, other European cities, wider changes, light, London experience, Brussels, Paris, colleagues, cooperation, Funding, new residents, nature, arrival, process, aspect, QM, Research, international prominence, area, academic research, urgent need, failure, success, evaluation, change, process, breakneck speed, schemes, massive office, Docklands, landscape, development, nature, pace, dramatic change, LDDC, London Docklands Development Corporation, activity, urban regeneration, schemes, number, prosperity, area, social conditions, unemployment, decline, population, industries, associated manufacturing, activities, gradual erosion, decades, revolutionary proportions, change, London Docklands, 1990s, 1980s, 1990s, 1980s, policy, context, Caribbean, migration, project, latter phase, service, Paris, particular reference, Caribbean migrants, Afro, employment, residence, patterns, policy, private agencies, role, migration, process, project, 1980s, 1970s, foreign nationals, controls, migrant groups, Caribbean, thirds, whom, mer, territoires, départements, people, census, means, foreign immigrant population, economic characteristics, socio, part, their migration, organized nature, mer, départements, islands, their French nationality, who, Guadeloupe, Martinique, French Caribbean islands, migrants, distinctive group, project, Europe, sources, wide variety, fact, immigrants, North African origin, population, controversy, comment, much research, economy, particular sectors, millions, foreign nationality, population, 1980s, political importance, issue, Second World War, France, immigration, context, present project, Europe, trends, interests, department, part, project, other European countries, French cities, change, household, collaborative research, principal theme, Toulouse, Lyons, Lille, Paris, Universities, Curtis, Hall, Ogden, QM, Health Research Group, Population Dynamics, researchers, Paris, Affaires Etrangères, Ministère, British Council, network, twentieth century, policy, evolution, their political consequences, 1990s, l980s, trends, France, Work, department, European context, further work, much scope, field, theses, reports, publications, number, Recent years, Europe, other parts, France, trends, population, interest, Queen Mary, department, reurbanisation, changes, Slovakia, Spain, Italy, Slovenia, Germany, European partners, QM, Stefan Buzhar, Ray Hall, project, further phase, French cities, changes, Philip Ogden, Nuffield Foundation grant, qualitative methodology, research, France, Echantillon Démographique Permanent, Wales, England, Longitudinal Study, longitudinal data, censuses, Principal sources, scales, migration, associated patterns, households, rise, other European countries, France, UK, British Academy, EU, ESRC, QM, Dr Ray Hall, project, decades, household, types, numbers, Changes, French cities, examples, comparative dimension, Czech Republic, Poland, Leipzig, colleagues, project, East Central European cities, demographic change, spatial consequences, socio, programme, part, Volkswagen Foundation, small grant, forms, growth, change, European Cities, change, project, Philip Ogden, Ray Hall, France, urban population, forms, second demographic traansition, R. Hall, P. E., Ogden, European cities, reurbanisation, emergent landscapes, urban populations, A. Steinfuhrer, S. Kabisch, A. Haase, R. Hall, P. E. Ogden, S. Buzar, European setting, residential change, demographic dimension, reurbanisation, Emergent spaces, P. E. Ogden, R. Hall, S. Bouzarovski, A. Steinfuhrer, S. Kabisch, A. Haase, reurbanisation, demographies, Spain, Leon, residential preferences, trends, Household structure, P. E. Ogden, S. Kabisch, A. Steinfuhrer, R. Hall, A. Haase, S. Buzar, Chairman, Woodford Green, School, Bancroft, Governing Body, Company, Drapers, Livery, London, City, Freeman, Social Sciences, Academy, London Chamber Orchestra, Adviser, London, Central Foundation Schools, Hospital Medical College Trust, St Bartholomew, Trustee, school, Patron, Way School Foundation Trust, St Paul, other professionals, architects, universities, UK Higher Education Design Quality Forum, Chair, Queen Mary, Graduate Centre, development, HEFCE, Higher Education, Landscapes, team, part, research, teaching, development, university, respect, policy, interest, French rural society, central cities, suburbs, European cities, changes, migration, demographic change, interests, Geography, Head, Social Sciences, Humanities, Vice Principal, development, particular responsibility, Queen Mary, Senior Vice Principal, Human Geography, Professor, Philip Ogden]</t>
-  </si>
-  <si>
-    <t>[central southern Africa, Middle Stone Age chronology, Implications, Botswana, Tsodilo Hills, White Paintings Shelter, artefacts, movement, Sub, silcrete artefacts, geochemical provenancing, multi, Middle Stone Age, Kalahari Desert, mobility, distance, M.P., Smith, Babutsi M., J., Stewart Ullyott, S., Staurset, S., Coulson, D.J., Nash, Botswana, Makgadikgadi Pans, mobility, human adaptation, project, palaeoenvironmental data, collection, lithic artefacts, geochemical sourcing, excavations, archaeological surveys, Botswana, Oslo, Brighton, Oxford, universities, various disciplines, researchers, late Quaternary, humans, use, mobility, major hydrological shifts, project, goal, Leverhulme Trust, project, human social life, technology, stone, lithic, interplay, Botswana, Tsodilo Hills, Middle Stone Age, Oslo, University, Palaeolithic archaeology, PhD, early human technology, focus, archaeologist, Sigrid]</t>
-  </si>
-  <si>
-    <t>[Poland, Philippines, Australia, UK, migration, agencies, role, Migration, Business, E McCann, March, Boston, annual conference, Association, session, Policy, world, cities, conceptualization, May, Boston, Alfred P Sloan Foundation Industry Studies Annual Conference, Poland, Czech Republic, evidence, temporary staffing, socialist varieties, Post, June, Rotterdam, Erasmus University, Management, Rotterdam School, Poland, Czech Republic, restructuring, labour, industry, action, Flexibility, September, Oxford, University, their regulation, employment, new forms, disciplinary conference, multi, work, countries, evidence, temporary staffing, Varieties, October, Vancouver, British Columbia, University, Advanced Studies, Peter Wall Institute, workplaces, Globalisation, markets, March, Las Vegas, annual conference, Association, knowledge, urban expertise, Topological geographies, new urban politics, March, Santiago, University, communities, private urban governance, network, 5th international conference, cities, privatization, public space, Redefinition, Plenary, liberal conditions, neo, cities, April, Liverpool, University, Social Work Studies, Sociology, Social Policy, School, conference, consumption, Construction, Milwaukee, case, downtown, April, Seattle, annual conference, Association, policy, situations, sites, policies, Assembling urbanism, N Coe, Manchester, University, network, coffee, governance, uneven landscapes, Vietnam, certified coffee, Ross Jones, N Coe, ESRC, UK, migration, accession, agencies, role, Katharine Jones, Lancaster University, colonial Africa’(with J Faulconbridge, post, urban planning, approaches, actors, Case Study, Assembling Lusaka, Mathew Lane, E Swyngedouw, management’, labour, Responsibility, livelihoods, Kathleen Stokes, Liverpool, University, K Burrell, J Darling, Rochdale’, Liverpool, austerity, migrant responses, austere city, difference, Alistair Sheldrick, S Warren, bar?’, Last orders, Night Time Economy, UK Evening, representations, perceptions, Graeme Moore, H F Wilson, C Perkins, Lived Experience’, Comparative Study, Friendly City, Age, Amy Barron, current economic condition, infrastructure, means, world, different areas, models, constitution, Minnesota University Press, Global Age, Policymaking, Cities, Mobile Urbanism, Eugene McCann, book, His co, which policies, webs, networks, circuits, study, objects, cities, sites, range, fieldwork, urban’ political realms, different places, elements, urban politics, what, policies, cities, journeys, what, urban policies, His current work, employment, work, hand, policy, urban politics, interests, geographical political economist, Manchester, University, Director, Faculty, External Relations, Director, Environment, School, Human Geography, Professor, Kevin]</t>
-  </si>
-  <si>
-    <t>[film, Terence Davies, release, British Film Institute, Essay, city, time, M., Gandy, A. Zumla, M. Gandy, tuberculosis, science, politics, Epilogue, A., Zumla, M., Gandy, A. Zumla, M. Gandy, tuberculosis, history, episodes, germs, Life, M., Gandy, eds, M. Gandy, S. Frank, Stadt, Niedergang der, Moderne, Das Wasser, M., Gandy, cosmopolitan ecologies, landscape, biodiversity, Zoöpolis redux, cosmopolitas, paisaje, biodiversidad, Zoöpolis, El resurgir, M., Gandy, abandonment, neglect, others, sites, spaces, their varied origins, such sites, diversity, cinema, literature, urban nature, cultural responses, multiplicity, economic value, arbitrary assignment, space, production, new insights, scientific practice, specific form, botanical eye, close observation, early 1970s, cultural interventions, variety, focus, scientific knowledge, limits, urban nature, ambiguity, urban design, ecological science, synthesis, different kind, example, Gilles Clément, My recent research, vibrant public culture, part, scientific complexity, urban nature, spontaneous spaces, protection, aesthetics, kind, scientific interest, high levels, nature, spaces, pre, elimination, pretext, Ecological rhetoric, scientific curiosity, accidental laboratories, spontaneous ecologies, diversity, islands, ecological refugia, wastelands, significant attention, empty spaces, utilitarian potentialities, urban nature, spontaneous forms, focus, sites, London, my early forays, wastelands, urban space, ecological dimensions, other socio, insights, disease, water, threat, other measures, networks, role, other fields, environmental history, studies, urban environment, human health, relationships, nature, independent agency, new insights, combination, political ecology, significant scope, sexuality, light, sound, geographies, urban space, corporeal dimensions, urbanization, my previous work, agency, extended conceptions, human subjectivity, ontologies, network, interconnection, clear points, humanist insights, post, urban ecology, modernity, nature, cultures, historical analysis, urban nature, meanings, cosmopolitan natures, cultural valorization, ecological assemblages, scientific analysis, ideas, work, disparate body, Urban nature, British Academy, fellow, Social Sciences, Academy, fellow, editor, co, Sustainable Hackney, Hackney Biodiversity Partnership, member, east London, Hackney, local issues, Matthew, Urban Salon, founder, co, UCL Urban Laboratory, Director, Founder, Berlin, Arts, University, Berlin, Humboldt University, Berlin, Technical University, Newcastle University, Los Angeles, California, University, New York, Columbia University, scholar, ERC Advanced Grant Matthew, Principal Investigator, urban nature, diversity, monograph, International Planning History Society, history, innovative book, award, Geography, Outstanding Scholarly Work, AAG Meridian Award, MIT Press, His book, architecture, its relationship, urbanism, our understanding, greatest contribution, years, book, Spiro Kostof award, winner, MIT Press, His book, visual arts, culture, nature, contemporary intersections, epidemiology, environmental history, aspects, His research, recent past, nineteenth century, middle decades, his work, historical scope]</t>
-  </si>
-  <si>
-    <t>[schools, British universities, use, material, television, film, large archive, project, Tate Modern, centre, Castle, Elephant, Speaker’s Corner, London, sites, number, events, series, part, project, issue’, specific acts, accounts, badges, use, everyday political acts, Public Policy Research, Institute, expertise, politics, paper, Georgina Born, ESRC, interdisciplinary research, papers, European Parliament, Technology Options Assessment, Science, office, policy, science, spokesperson, Dr Jeremy Bray MP, assistant, student, long period, policy, science, wider debates, practice, other ecologies, geographical research, relation, question, geographical canon, scope, geography, philosophy, history, my own teaching, Social Theory, Anthropology, Technology Studies, Science, scholars, chapters, our analysis, Born, Barry, essays, collection, publication, project, natural sciences, boundaries, interdisciplinary research, modes’, broader analysis, industry, ethnographic research, science’, art, environmental research, interdisciplines’, range, fieldwork, study, interdisciplinarity, ESRC funded study, Gisa Weszkalnys, Marilyn Strathern, Georgina Born, anthropologists, team, Andy Goffey, Michael Halewood, Nigel Thrift, Celia Lury, Mariam Fraser, Don Slater, Nikolas Rose, Thomas Osborne, others, collaboration, work, collections, number, publication, Isabelle Stengers, AN Whitehead, Gabriel Tarde, Michel Callon, Bruno Latour, Michel Foucault, philosophers, social theorists, work, engagements, series, politics, materiality, relation, My approach, political situation’, idea, development, political life, materials, critical importance, way, politics, government, relation, account, same time, materials’., what, invention, economic spaces, transformation, materials, technologies, role, relations, question, Geographers, Kärg Kama, futures, oil, theses, doctorates, former students, Thomas Turnbull, effect’, efficiency, idea, history, Irem Kok, hydraulic fracturing, politics, topics, energy, doctoral students, economy, geopolitics, Anthropocene, idea, politics, cosmopolitics, Isabelle Stengers’ analysis, human geography, which energy, manner, materiality, interest, industry, my recent work, energy, my interest, part, energy, politics, concept, second concern, Rachel Tily, Geosciences’, Practice, Space, project, DPhil, environmental sciences, geo, transformation, materials’, what, invention, pharmaceutical research, conduct, chemistry, complex impact, pharmaceutical laboratory, ethnographic study, landslides, materials, pipeline, steel, quality, example, research, political importance, earlier work, field, materials, lively behaviour, problem, general physical principles, derivation, environmental sciences, geo-, chemistry, engineering, natural sciences, political significance, importance, interest, information, sources, quality, which controversies, conditions, materials, activity, materials, information, production, way, My recent book, European Union, transnational political space, politics, constitution, technical devices, vital role, My book, economic life, technologies, materials, importance, concern, my research, heart, republication, G. Born, A. Barry, public experiment’, public engagement, Science, Art, A., Barry, G., G., Born, A., Barry, integration, accountability, Multiple Environments, A., Barry, G., Weszkalnys, Santa Cruz, California, University, Halle University, Istanbul Technical University, New York University, positions, Michel Foucault, work, papers, collections, publication, geographical theory, innovative initiatives, series, his first book, Andrew’s subsequent publications, ESRC, additional funding, experience, Technology Options Assessment, Science, Parliamentary office, formation, European Parliament, scholarship, Andrew, student, Masters’ programme, Academic Director, Oxford, St Catherine’s College, Fellow, Environment, Geography, School, Political Geography, Professor, Geography, Reader, Oxford University, Andrew, Goldsmiths’ College, Sociology, Department, Brunel University, Human Sciences, Department, Lectureships, Technology Studies, Science, his DPhil, Sussex, University, Science Policy Research Unit, ESRC studentship, joint SERC, Cambridge University, Science, Philosophy, History, Natural Sciences, Andrew Barry]</t>
-  </si>
-  <si>
-    <t>[Western Ontario, University, support, College studentship, studentship, sites, cycling, biogeochemical controls, your idea, brief summary, CV, area, MSc, PhD, Canada, northwestern Ontario, ombrogenous peatland, gases, isotopic composition, H., Dinel, S.P., Mathur, climatic gradient, peatlands, contrast, M.J., Wassen, P.C., De Ruiter, M.B., Nilsson, models, slab, bucket, pitfalls, rates, heterogeneity, methane, fluxes, peatland, Upscaling, P., Morris, Defra, Funding, services, emissions, greenhouse, peatlands, role, peats, management, decisions, managers, local land, which national policymakers, base, results, activities, range, type, factors, Results, Wales, England, peats, budgets, greenhouse, first full carbon, Leeds, University, project, systems, emissions, greenhouse, direct measurements, atmosphere, gases, large quantities, management, human disturbance, Lowland peatlands, Broads Authority, NERC Open CASE studentship, Funding, lands, value, gases, emission, carbon, amount, rise, sea, Broads, managers, conservation, tools, decision, new knowledge, project, overarching aim, habitats, sequestration, emissions, greenhouse, environmental changes, rise, sea, saline influence, flooding, Broads, areas, services, provision, conservation, way, change, organisations, biggest challenges, interactions, surface, spatial heterogeneity, role, focusses, exchanges, dynamics, hydrological processes, interactions, studies, Field, systems, behaviour, ecohydrological feedbacks, my aim, ongoing research, steady environmental forcing, state, abrupt transitions, little change, long periods, peatlands, gradual change, change, their response, system, strong feedback, Peatlands, postgraduate modules, past few years, climatic gradient, peatlands, contrast, M.J., Wassen, P.C., De Ruiter, M.B., Nilsson, temporal scales, dynamics, change, external drivers, internal processes, key questions, My research, peatlands, empirical work, cases, spatiotemporal dynamics, biogeochemical cycling, interests, UK, London, University, Ecology, PhD, Canada, Waterloo University, Earth Science, MSc, Canada, Carleton University, Geography, Biology, BSc, roving educational background, disciplinary interests, My cross, Earth surface, physical processes]</t>
-  </si>
-  <si>
-    <t>[adversity, face, resilience, change, conditions, attainment, health, aspiration, social inequalities, new insights, studies, longitudinal data, context, time, human development, developmental approach, research, health, attainment, equalities, independent adulthood, dependent childhood, transition, resilience, risk, study, particular my research, attainment, social inequalities, building, study, interests, training, developmental psychologist, Cambridge University Press, Jacquelynne Eccles, attainment, aspirations, Gender differences, Rainer K. Silbereisen, work, school, Transitions, volumes, Resilience’, Risk, monograph, scholarly articles, publications, boards, member, departments, advisor, Michael Parsonage, Heather Joshi, Leslie Gutman, children, trajectories, project, ESRC, Visiting Professor, Berlin, Wissenschaftszentrum, Social Science Centre, Research Professor, University College London, Education, Institute, Social Policy, Human Development, Professor, your Research Finance Administrator, your Research Finance Administrator, page, Awarded, sections, data, queries]</t>
-  </si>
-  <si>
-    <t>[IPCC, Climate Change, Intergovernmental Panel, Nobel Peace Prize, award, certificate, Policy, Environmental Science, GAIA, Global Environmental Change, British Geographers, Institute, Transactions, Editorial Board member, British Geographers, Institute, Transactions, regional climate, crossings, mobility, Model migrations, Environmental Health Perspectives 120(11, impacts, security, change, K., Waldron, G., Nichols, P.R., Hunter, Science 6(1, Philosophy, History, Journal, Spontaneous Generation, embers, IPCC, exploration, risk, colour, IPBES GAiA, IPCC, cases, global environmental expertise, governance, reflexive turn, authors, co, Global Environmental Change, agenda, Anthropocene, ontological politics, E., Vasileiadou, R., Lidskog, Environmental Sustainability, Current Opinions, climate, cases, relevant global environmental knowledge, policy, What, Cambridge, Cambridge University Press, inaction, controversy, change, Cambridge, Cambridge University Press, mitigation, adaptation, European perspectives, work, climate, H., Neufeldt, UK, Abingdon, Routledge, interviews, essays, Mike Hulme, anthology, society, science, change, Exploring, related themes, students, approaches, topics, intellectual landscapes, social change, making, policy, time, influential books, November, CUP, change, students, social science, texts, year, books, its science, Economist magazine, latter, CUP, About Climate Change, Polity Press, Climate Engineering, Case, Climate Change, Science, his other books, climate, their weather, sense, world, different cultures, SAGE, Climate, Cultural Geography, recent book, Hulme, anthropology, new field, his research, political ecology, environmental history, STS, science, geography, inspiration, public life, academy, change, climate, idea, way, humanities, social sciences, sciences, academic journals, His work, its contemporary meanings, scientific origins, scientific discourse, change, climate, idea, numerous ways, Hulme, factor, journal, Climate Change, WIREs, Wiley Interdisciplinary Reviews, review, Chief, Editor, Hulme, IPCC, United Nations, work, significant contribution, recognition, Nobel Peace Prize committee, personalised certificate, UK Government, reports, scenarios, series, preparation, integrated assessment, adaptation, impact, scenarios, climate, application, construction, datasets, analysis, compilation, Hulme, CRU, Climategate controversy, result, public scrutiny, correspondence, worth, years, dubious honour, UEA, CRU, Climatic Research Unit, Hulme, Tyndall Centre, years, UEA, East Anglia, University, centre, multi, Climate Change Research, Tyndall Centre, Founding Director, Department, Head, College London, King, Geography, Department, culture, climate, professor, years, period, September, Cambridge, Department, Mike Hulme, insight, material effects, change, idea, epistemic construction, Mike]</t>
-  </si>
-  <si>
-    <t>[pp.79, Geography, International Perspectives, Springer, future, earth, modern knowledge, Traditional wisd